--- a/projects/current/hattrick/z_Biblioteca.xlsx
+++ b/projects/current/hattrick/z_Biblioteca.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{181DEDD8-F217-47E6-AFD3-328F758EEDD2}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22655A55-E54D-409E-9CB2-3BDD2DFF7040}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12062,6 +12062,18 @@
     <xf numFmtId="0" fontId="14" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -12074,22 +12086,22 @@
     <xf numFmtId="0" fontId="2" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -12098,10 +12110,25 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -12113,40 +12140,13 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="166" fontId="26" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="26" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -12624,107 +12624,23 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>[1]Denomin_Forma!$E$12:$E$26</c:f>
+              <c:f>#REF!</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Denomin_Forma!$F$12:$F$26</c:f>
+              <c:f>#REF!</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2672612419124244</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.3779644730092272</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.46291004988627571</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.53452248382484879</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.59761430466719678</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.65465367070797709</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.70710678118654757</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.7559289460184544</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.80178372573727319</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.84515425472851657</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.88640526042791834</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.92582009977255142</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.96362411165943151</c:v>
-                </c:pt>
-                <c:pt idx="14">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -14491,67 +14407,17 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="EconomiaT36"/>
-      <sheetName val="A-P_T36"/>
-      <sheetName val="EconomiaT37"/>
-      <sheetName val="A-P_T37"/>
-      <sheetName val="EconomiaT38"/>
-      <sheetName val="A-P_T38"/>
-      <sheetName val="EconomiaT39"/>
-      <sheetName val="A-P_T39"/>
-      <sheetName val="EconomiaT40"/>
-      <sheetName val="A-P_T40"/>
-      <sheetName val="EconomiaT41"/>
-      <sheetName val="A-P_T41"/>
-      <sheetName val="EconomiaT42"/>
-      <sheetName val="A-P_T42"/>
-      <sheetName val="EconomiaT43"/>
-      <sheetName val="A-P_T43"/>
-      <sheetName val="EconomiaT44"/>
-      <sheetName val="A-P_T44"/>
-      <sheetName val="EconomiaT45"/>
-      <sheetName val="A-P_T45"/>
-      <sheetName val="EconomiaT46"/>
-      <sheetName val="A-P_T46"/>
-      <sheetName val="EconomiaT47"/>
-      <sheetName val="A-P_T47"/>
-      <sheetName val="EconomiaT48"/>
-      <sheetName val="A-P_T48"/>
-      <sheetName val="EconomiaT49"/>
-      <sheetName val="A-P_T49"/>
-      <sheetName val="EconomiaT50"/>
-      <sheetName val="A-P_T50"/>
-      <sheetName val="EconomiaT51"/>
-      <sheetName val="A-P_T51"/>
-      <sheetName val="Des_Estadio"/>
-      <sheetName val="Inv_estadio"/>
-      <sheetName val="inca11"/>
-      <sheetName val="CANTERA"/>
-      <sheetName val="Lesion"/>
-      <sheetName val="BP"/>
-      <sheetName val="EvaluacionJugadores"/>
-      <sheetName val="Entreno_Barbecho"/>
-      <sheetName val="Portero"/>
-      <sheetName val="Resistencia"/>
-      <sheetName val="Denomin_Forma"/>
-      <sheetName val="EEspeciales"/>
-      <sheetName val="EEspecials_Manual"/>
-      <sheetName val="Fidelidad"/>
-      <sheetName val="Confianza_espiritu"/>
-      <sheetName val="Probalidad de marcar un gol"/>
-      <sheetName val="Sustituciones"/>
-      <sheetName val="Pullback_Logros_confusionForm"/>
-      <sheetName val="CosteNuevoEntrenador"/>
+      <sheetName val="Hall_of_Fame"/>
+      <sheetName val="Plantilla"/>
+      <sheetName val="Juveniles"/>
+      <sheetName val="Planning"/>
+      <sheetName val="Economia"/>
+      <sheetName val="Capitán"/>
+      <sheetName val="CA_Calcutator"/>
+      <sheetName val="EstudioConversion"/>
       <sheetName val="Entrenador"/>
-      <sheetName val="TARJETAS"/>
-      <sheetName val="XP"/>
-      <sheetName val="Salarios_escuelaErcanto"/>
-      <sheetName val="Federacion"/>
-      <sheetName val="TACTICAS"/>
-      <sheetName val="NivelMedioJuvenil"/>
-      <sheetName val="Bajar%Entrenamiento"/>
-      <sheetName val="Aficionados"/>
-      <sheetName val="EstadisticaEntreno"/>
+      <sheetName val="Evaluacion Jugadores"/>
+      <sheetName val="LAT"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
@@ -14565,177 +14431,6 @@
       <sheetData sheetId="8" refreshError="1"/>
       <sheetData sheetId="9" refreshError="1"/>
       <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
-      <sheetData sheetId="27" refreshError="1"/>
-      <sheetData sheetId="28" refreshError="1"/>
-      <sheetData sheetId="29" refreshError="1"/>
-      <sheetData sheetId="30" refreshError="1"/>
-      <sheetData sheetId="31" refreshError="1"/>
-      <sheetData sheetId="32" refreshError="1"/>
-      <sheetData sheetId="33" refreshError="1"/>
-      <sheetData sheetId="34" refreshError="1"/>
-      <sheetData sheetId="35" refreshError="1"/>
-      <sheetData sheetId="36" refreshError="1"/>
-      <sheetData sheetId="37" refreshError="1"/>
-      <sheetData sheetId="38" refreshError="1"/>
-      <sheetData sheetId="39" refreshError="1"/>
-      <sheetData sheetId="40" refreshError="1"/>
-      <sheetData sheetId="41" refreshError="1"/>
-      <sheetData sheetId="42">
-        <row r="12">
-          <cell r="E12">
-            <v>0</v>
-          </cell>
-          <cell r="F12">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="E13">
-            <v>0.5</v>
-          </cell>
-          <cell r="F13">
-            <v>0.2672612419124244</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="E14">
-            <v>1</v>
-          </cell>
-          <cell r="F14">
-            <v>0.3779644730092272</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="E15">
-            <v>1.5</v>
-          </cell>
-          <cell r="F15">
-            <v>0.46291004988627571</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="E16">
-            <v>2</v>
-          </cell>
-          <cell r="F16">
-            <v>0.53452248382484879</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="E17">
-            <v>2.5</v>
-          </cell>
-          <cell r="F17">
-            <v>0.59761430466719678</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="E18">
-            <v>3</v>
-          </cell>
-          <cell r="F18">
-            <v>0.65465367070797709</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="E19">
-            <v>3.5</v>
-          </cell>
-          <cell r="F19">
-            <v>0.70710678118654757</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="E20">
-            <v>4</v>
-          </cell>
-          <cell r="F20">
-            <v>0.7559289460184544</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="E21">
-            <v>4.5</v>
-          </cell>
-          <cell r="F21">
-            <v>0.80178372573727319</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="E22">
-            <v>5</v>
-          </cell>
-          <cell r="F22">
-            <v>0.84515425472851657</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="E23">
-            <v>5.5</v>
-          </cell>
-          <cell r="F23">
-            <v>0.88640526042791834</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="E24">
-            <v>6</v>
-          </cell>
-          <cell r="F24">
-            <v>0.92582009977255142</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="E25">
-            <v>6.5</v>
-          </cell>
-          <cell r="F25">
-            <v>0.96362411165943151</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="E26">
-            <v>7</v>
-          </cell>
-          <cell r="F26">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="43" refreshError="1"/>
-      <sheetData sheetId="44" refreshError="1"/>
-      <sheetData sheetId="45" refreshError="1"/>
-      <sheetData sheetId="46" refreshError="1"/>
-      <sheetData sheetId="47" refreshError="1"/>
-      <sheetData sheetId="48" refreshError="1"/>
-      <sheetData sheetId="49" refreshError="1"/>
-      <sheetData sheetId="50" refreshError="1"/>
-      <sheetData sheetId="51" refreshError="1"/>
-      <sheetData sheetId="52" refreshError="1"/>
-      <sheetData sheetId="53" refreshError="1"/>
-      <sheetData sheetId="54" refreshError="1"/>
-      <sheetData sheetId="55" refreshError="1"/>
-      <sheetData sheetId="56" refreshError="1"/>
-      <sheetData sheetId="57" refreshError="1"/>
-      <sheetData sheetId="58" refreshError="1"/>
-      <sheetData sheetId="59" refreshError="1"/>
-      <sheetData sheetId="60" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -15010,7 +14705,7 @@
   <dimension ref="A1:AS127"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -22719,97 +22414,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="257">
+      <c r="A1" s="256">
         <v>0.34</v>
       </c>
-      <c r="B1" s="258"/>
-      <c r="C1" s="257">
+      <c r="B1" s="257"/>
+      <c r="C1" s="256">
         <v>0.245</v>
       </c>
-      <c r="D1" s="258"/>
-      <c r="E1" s="257">
+      <c r="D1" s="257"/>
+      <c r="E1" s="256">
         <v>0.125</v>
       </c>
-      <c r="F1" s="258"/>
-      <c r="G1" s="257">
+      <c r="F1" s="257"/>
+      <c r="G1" s="256">
         <v>0.29099999999999998</v>
       </c>
-      <c r="H1" s="258"/>
-      <c r="I1" s="257">
+      <c r="H1" s="257"/>
+      <c r="I1" s="256">
         <v>0.19</v>
       </c>
-      <c r="J1" s="258"/>
-      <c r="L1" s="257">
+      <c r="J1" s="257"/>
+      <c r="L1" s="256">
         <v>0.34</v>
       </c>
-      <c r="M1" s="258"/>
-      <c r="N1" s="257">
+      <c r="M1" s="257"/>
+      <c r="N1" s="256">
         <v>0.245</v>
       </c>
-      <c r="O1" s="258"/>
-      <c r="P1" s="257">
+      <c r="O1" s="257"/>
+      <c r="P1" s="256">
         <v>0.125</v>
       </c>
-      <c r="Q1" s="258"/>
-      <c r="R1" s="257">
+      <c r="Q1" s="257"/>
+      <c r="R1" s="256">
         <f>0.291*86/100</f>
         <v>0.25025999999999998</v>
       </c>
-      <c r="S1" s="258"/>
-      <c r="T1" s="257">
+      <c r="S1" s="257"/>
+      <c r="T1" s="256">
         <v>0.19</v>
       </c>
-      <c r="U1" s="258"/>
-      <c r="W1" s="256" t="s">
+      <c r="U1" s="257"/>
+      <c r="W1" s="258" t="s">
         <v>232</v>
       </c>
-      <c r="X1" s="256"/>
-      <c r="AC1" s="256" t="s">
+      <c r="X1" s="258"/>
+      <c r="AC1" s="258" t="s">
         <v>233</v>
       </c>
-      <c r="AD1" s="256"/>
+      <c r="AD1" s="258"/>
     </row>
     <row r="2" spans="1:44" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="253" t="s">
+      <c r="A2" s="238" t="s">
         <v>234</v>
       </c>
-      <c r="B2" s="253"/>
-      <c r="C2" s="253" t="s">
+      <c r="B2" s="238"/>
+      <c r="C2" s="238" t="s">
         <v>235</v>
       </c>
-      <c r="D2" s="253"/>
-      <c r="E2" s="253" t="s">
+      <c r="D2" s="238"/>
+      <c r="E2" s="238" t="s">
         <v>236</v>
       </c>
-      <c r="F2" s="253"/>
-      <c r="G2" s="253" t="s">
+      <c r="F2" s="238"/>
+      <c r="G2" s="238" t="s">
         <v>237</v>
       </c>
-      <c r="H2" s="253"/>
-      <c r="I2" s="253" t="s">
+      <c r="H2" s="238"/>
+      <c r="I2" s="238" t="s">
         <v>238</v>
       </c>
-      <c r="J2" s="253"/>
-      <c r="L2" s="253" t="s">
+      <c r="J2" s="238"/>
+      <c r="L2" s="238" t="s">
         <v>234</v>
       </c>
-      <c r="M2" s="253"/>
-      <c r="N2" s="253" t="s">
+      <c r="M2" s="238"/>
+      <c r="N2" s="238" t="s">
         <v>235</v>
       </c>
-      <c r="O2" s="253"/>
-      <c r="P2" s="253" t="s">
+      <c r="O2" s="238"/>
+      <c r="P2" s="238" t="s">
         <v>236</v>
       </c>
-      <c r="Q2" s="253"/>
-      <c r="R2" s="253" t="s">
+      <c r="Q2" s="238"/>
+      <c r="R2" s="238" t="s">
         <v>237</v>
       </c>
-      <c r="S2" s="253"/>
-      <c r="T2" s="253" t="s">
+      <c r="S2" s="238"/>
+      <c r="T2" s="238" t="s">
         <v>238</v>
       </c>
-      <c r="U2" s="253"/>
+      <c r="U2" s="238"/>
     </row>
     <row r="3" spans="1:44" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="79" t="s">
@@ -22818,36 +22513,36 @@
       <c r="B3" s="79" t="s">
         <v>240</v>
       </c>
-      <c r="C3" s="254"/>
-      <c r="D3" s="255"/>
-      <c r="E3" s="254"/>
-      <c r="F3" s="255"/>
+      <c r="C3" s="239"/>
+      <c r="D3" s="240"/>
+      <c r="E3" s="239"/>
+      <c r="F3" s="240"/>
       <c r="G3" s="79" t="s">
         <v>239</v>
       </c>
       <c r="H3" s="79" t="s">
         <v>240</v>
       </c>
-      <c r="I3" s="254"/>
-      <c r="J3" s="255"/>
+      <c r="I3" s="239"/>
+      <c r="J3" s="240"/>
       <c r="L3" s="79" t="s">
         <v>239</v>
       </c>
       <c r="M3" s="79" t="s">
         <v>240</v>
       </c>
-      <c r="N3" s="254"/>
-      <c r="O3" s="255"/>
-      <c r="P3" s="254"/>
-      <c r="Q3" s="255"/>
+      <c r="N3" s="239"/>
+      <c r="O3" s="240"/>
+      <c r="P3" s="239"/>
+      <c r="Q3" s="240"/>
       <c r="R3" s="79" t="s">
         <v>239</v>
       </c>
       <c r="S3" s="79" t="s">
         <v>240</v>
       </c>
-      <c r="T3" s="254"/>
-      <c r="U3" s="255"/>
+      <c r="T3" s="239"/>
+      <c r="U3" s="240"/>
       <c r="W3" t="s">
         <v>241</v>
       </c>
@@ -22856,14 +22551,14 @@
       </c>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A4" s="250">
+      <c r="A4" s="242">
         <v>0.64709000000000005</v>
       </c>
-      <c r="B4" s="250"/>
-      <c r="C4" s="250">
+      <c r="B4" s="242"/>
+      <c r="C4" s="242">
         <v>0.97192999999999996</v>
       </c>
-      <c r="D4" s="250"/>
+      <c r="D4" s="242"/>
       <c r="E4" s="81"/>
       <c r="F4" s="81"/>
       <c r="G4" s="81"/>
@@ -22873,14 +22568,14 @@
       <c r="K4" s="80" t="s">
         <v>243</v>
       </c>
-      <c r="L4" s="250">
+      <c r="L4" s="242">
         <v>0.64709000000000005</v>
       </c>
-      <c r="M4" s="250"/>
-      <c r="N4" s="250">
+      <c r="M4" s="242"/>
+      <c r="N4" s="242">
         <v>0.97192999999999996</v>
       </c>
-      <c r="O4" s="250"/>
+      <c r="O4" s="242"/>
       <c r="P4" s="81"/>
       <c r="Q4" s="81"/>
       <c r="R4" s="81"/>
@@ -22898,14 +22593,14 @@
       </c>
     </row>
     <row r="5" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="252">
+      <c r="A5" s="241">
         <v>0.26545000000000002</v>
       </c>
-      <c r="B5" s="252"/>
-      <c r="C5" s="252">
+      <c r="B5" s="241"/>
+      <c r="C5" s="241">
         <v>0.39895999999999998</v>
       </c>
-      <c r="D5" s="252"/>
+      <c r="D5" s="241"/>
       <c r="E5" s="85"/>
       <c r="F5" s="85"/>
       <c r="G5" s="85"/>
@@ -22915,14 +22610,14 @@
       <c r="K5" s="84" t="s">
         <v>246</v>
       </c>
-      <c r="L5" s="252">
+      <c r="L5" s="241">
         <v>0.26545000000000002</v>
       </c>
-      <c r="M5" s="252"/>
-      <c r="N5" s="252">
+      <c r="M5" s="241"/>
+      <c r="N5" s="241">
         <v>0.39895999999999998</v>
       </c>
-      <c r="O5" s="252"/>
+      <c r="O5" s="241"/>
       <c r="P5" s="85"/>
       <c r="Q5" s="85"/>
       <c r="R5" s="85"/>
@@ -22946,10 +22641,10 @@
       <c r="B6" s="81">
         <v>0.25008999999999998</v>
       </c>
-      <c r="C6" s="250">
+      <c r="C6" s="242">
         <v>1</v>
       </c>
-      <c r="D6" s="250"/>
+      <c r="D6" s="242"/>
       <c r="E6" s="81"/>
       <c r="F6" s="81"/>
       <c r="G6" s="81"/>
@@ -22965,10 +22660,10 @@
       <c r="M6" s="81">
         <v>0.25008999999999998</v>
       </c>
-      <c r="N6" s="250">
+      <c r="N6" s="242">
         <v>1</v>
       </c>
-      <c r="O6" s="250"/>
+      <c r="O6" s="242"/>
       <c r="P6" s="81"/>
       <c r="Q6" s="81"/>
       <c r="R6" s="81"/>
@@ -22981,10 +22676,10 @@
       <c r="B7" s="85"/>
       <c r="C7" s="85"/>
       <c r="D7" s="85"/>
-      <c r="E7" s="252">
+      <c r="E7" s="241">
         <v>0.27488000000000001</v>
       </c>
-      <c r="F7" s="252"/>
+      <c r="F7" s="241"/>
       <c r="G7" s="85"/>
       <c r="H7" s="85"/>
       <c r="I7" s="85"/>
@@ -22996,10 +22691,10 @@
       <c r="M7" s="85"/>
       <c r="N7" s="85"/>
       <c r="O7" s="85"/>
-      <c r="P7" s="252">
+      <c r="P7" s="241">
         <v>0.27488000000000001</v>
       </c>
-      <c r="Q7" s="252"/>
+      <c r="Q7" s="241"/>
       <c r="R7" s="85"/>
       <c r="S7" s="85"/>
       <c r="T7" s="85"/>
@@ -23018,10 +22713,10 @@
       <c r="B8" s="81">
         <v>0.17752000000000001</v>
       </c>
-      <c r="C8" s="250">
+      <c r="C8" s="242">
         <v>0.72296000000000005</v>
       </c>
-      <c r="D8" s="250"/>
+      <c r="D8" s="242"/>
       <c r="E8" s="81"/>
       <c r="F8" s="81"/>
       <c r="G8" s="81"/>
@@ -23037,10 +22732,10 @@
       <c r="M8" s="81">
         <v>0.17752000000000001</v>
       </c>
-      <c r="N8" s="250">
+      <c r="N8" s="242">
         <v>0.72296000000000005</v>
       </c>
-      <c r="O8" s="250"/>
+      <c r="O8" s="242"/>
       <c r="P8" s="81"/>
       <c r="Q8" s="81"/>
       <c r="R8" s="81"/>
@@ -23056,10 +22751,10 @@
       <c r="B9" s="85"/>
       <c r="C9" s="85"/>
       <c r="D9" s="85"/>
-      <c r="E9" s="252">
+      <c r="E9" s="241">
         <v>0.36337000000000003</v>
       </c>
-      <c r="F9" s="252"/>
+      <c r="F9" s="241"/>
       <c r="G9" s="85"/>
       <c r="H9" s="85"/>
       <c r="I9" s="85"/>
@@ -23071,11 +22766,11 @@
       <c r="M9" s="85"/>
       <c r="N9" s="85"/>
       <c r="O9" s="85"/>
-      <c r="P9" s="252">
+      <c r="P9" s="241">
         <f>36.337%*1.21</f>
         <v>0.4396777</v>
       </c>
-      <c r="Q9" s="252"/>
+      <c r="Q9" s="241"/>
       <c r="R9" s="85"/>
       <c r="S9" s="85"/>
       <c r="T9" s="85"/>
@@ -23089,10 +22784,10 @@
         <v>0.65615999999999997</v>
       </c>
       <c r="B10" s="81"/>
-      <c r="C10" s="250">
+      <c r="C10" s="242">
         <v>0.78437000000000001</v>
       </c>
-      <c r="D10" s="250"/>
+      <c r="D10" s="242"/>
       <c r="E10" s="81"/>
       <c r="F10" s="81"/>
       <c r="G10" s="81"/>
@@ -23107,11 +22802,11 @@
         <v>0.69552959999999997</v>
       </c>
       <c r="M10" s="81"/>
-      <c r="N10" s="250">
+      <c r="N10" s="242">
         <f>78.437%*(1-0.09)</f>
         <v>0.71377670000000004</v>
       </c>
-      <c r="O10" s="250"/>
+      <c r="O10" s="242"/>
       <c r="P10" s="81"/>
       <c r="Q10" s="81"/>
       <c r="R10" s="81"/>
@@ -23127,10 +22822,10 @@
       <c r="B11" s="88"/>
       <c r="C11" s="88"/>
       <c r="D11" s="88"/>
-      <c r="E11" s="251">
+      <c r="E11" s="243">
         <v>0.1464</v>
       </c>
-      <c r="F11" s="251"/>
+      <c r="F11" s="243"/>
       <c r="G11" s="88"/>
       <c r="H11" s="88"/>
       <c r="I11" s="88"/>
@@ -23142,10 +22837,10 @@
       <c r="M11" s="88"/>
       <c r="N11" s="88"/>
       <c r="O11" s="88"/>
-      <c r="P11" s="251">
+      <c r="P11" s="243">
         <v>0.1464</v>
       </c>
-      <c r="Q11" s="251"/>
+      <c r="Q11" s="243"/>
       <c r="R11" s="88"/>
       <c r="S11" s="88"/>
       <c r="T11" s="88"/>
@@ -23190,14 +22885,14 @@
       </c>
     </row>
     <row r="13" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A13" s="250">
+      <c r="A13" s="242">
         <v>0.42514999999999997</v>
       </c>
-      <c r="B13" s="250"/>
-      <c r="C13" s="250">
+      <c r="B13" s="242"/>
+      <c r="C13" s="242">
         <v>0.85</v>
       </c>
-      <c r="D13" s="250"/>
+      <c r="D13" s="242"/>
       <c r="E13" s="81"/>
       <c r="F13" s="81"/>
       <c r="G13" s="81"/>
@@ -23207,14 +22902,14 @@
       <c r="K13" s="80" t="s">
         <v>260</v>
       </c>
-      <c r="L13" s="250">
+      <c r="L13" s="242">
         <v>0.42514999999999997</v>
       </c>
-      <c r="M13" s="250"/>
-      <c r="N13" s="250">
+      <c r="M13" s="242"/>
+      <c r="N13" s="242">
         <v>0.85</v>
       </c>
-      <c r="O13" s="250"/>
+      <c r="O13" s="242"/>
       <c r="P13" s="81"/>
       <c r="Q13" s="81"/>
       <c r="R13" s="81"/>
@@ -23247,10 +22942,10 @@
       <c r="B14" s="85"/>
       <c r="C14" s="85"/>
       <c r="D14" s="85"/>
-      <c r="E14" s="252">
+      <c r="E14" s="241">
         <v>0.23365</v>
       </c>
-      <c r="F14" s="252"/>
+      <c r="F14" s="241"/>
       <c r="G14" s="85"/>
       <c r="H14" s="85"/>
       <c r="I14" s="85"/>
@@ -23262,10 +22957,10 @@
       <c r="M14" s="85"/>
       <c r="N14" s="85"/>
       <c r="O14" s="85"/>
-      <c r="P14" s="252">
+      <c r="P14" s="241">
         <v>0.23365</v>
       </c>
-      <c r="Q14" s="252"/>
+      <c r="Q14" s="241"/>
       <c r="R14" s="85"/>
       <c r="S14" s="85"/>
       <c r="T14" s="85"/>
@@ -23303,10 +22998,10 @@
         <v>1</v>
       </c>
       <c r="B15" s="92"/>
-      <c r="C15" s="250">
+      <c r="C15" s="242">
         <v>0.51382000000000005</v>
       </c>
-      <c r="D15" s="250"/>
+      <c r="D15" s="242"/>
       <c r="E15" s="81"/>
       <c r="F15" s="81"/>
       <c r="G15" s="81"/>
@@ -23320,10 +23015,10 @@
         <v>1</v>
       </c>
       <c r="M15" s="92"/>
-      <c r="N15" s="250">
+      <c r="N15" s="242">
         <v>0.51382000000000005</v>
       </c>
-      <c r="O15" s="250"/>
+      <c r="O15" s="242"/>
       <c r="P15" s="81"/>
       <c r="Q15" s="81"/>
       <c r="R15" s="81"/>
@@ -23371,10 +23066,10 @@
       <c r="B16" s="88"/>
       <c r="C16" s="88"/>
       <c r="D16" s="88"/>
-      <c r="E16" s="251">
+      <c r="E16" s="243">
         <v>4.3869999999999999E-2</v>
       </c>
-      <c r="F16" s="251"/>
+      <c r="F16" s="243"/>
       <c r="G16" s="88"/>
       <c r="H16" s="88"/>
       <c r="I16" s="88"/>
@@ -23386,10 +23081,10 @@
       <c r="M16" s="88"/>
       <c r="N16" s="88"/>
       <c r="O16" s="88"/>
-      <c r="P16" s="251">
+      <c r="P16" s="243">
         <v>4.3869999999999999E-2</v>
       </c>
-      <c r="Q16" s="251"/>
+      <c r="Q16" s="243"/>
       <c r="R16" s="88"/>
       <c r="S16" s="88"/>
       <c r="T16" s="88"/>
@@ -23470,10 +23165,10 @@
         <v>0.91232999999999997</v>
       </c>
       <c r="B18" s="92"/>
-      <c r="C18" s="250">
+      <c r="C18" s="242">
         <v>0.46146999999999999</v>
       </c>
-      <c r="D18" s="250"/>
+      <c r="D18" s="242"/>
       <c r="E18" s="81"/>
       <c r="F18" s="81"/>
       <c r="G18" s="81"/>
@@ -23487,11 +23182,11 @@
         <v>0.91232999999999997</v>
       </c>
       <c r="M18" s="92"/>
-      <c r="N18" s="250">
+      <c r="N18" s="242">
         <f>46.147%*(1-0.08)</f>
         <v>0.4245524</v>
       </c>
-      <c r="O18" s="250"/>
+      <c r="O18" s="242"/>
       <c r="P18" s="81"/>
       <c r="Q18" s="81"/>
       <c r="R18" s="81"/>
@@ -23510,10 +23205,10 @@
       <c r="B19" s="88"/>
       <c r="C19" s="88"/>
       <c r="D19" s="88"/>
-      <c r="E19" s="251">
+      <c r="E19" s="243">
         <v>0.15035999999999999</v>
       </c>
-      <c r="F19" s="251"/>
+      <c r="F19" s="243"/>
       <c r="G19" s="88"/>
       <c r="H19" s="88"/>
       <c r="I19" s="88"/>
@@ -23525,10 +23220,10 @@
       <c r="M19" s="88"/>
       <c r="N19" s="88"/>
       <c r="O19" s="88"/>
-      <c r="P19" s="251">
+      <c r="P19" s="243">
         <v>0.15035999999999999</v>
       </c>
-      <c r="Q19" s="251"/>
+      <c r="Q19" s="243"/>
       <c r="R19" s="88"/>
       <c r="S19" s="88"/>
       <c r="T19" s="88"/>
@@ -23598,10 +23293,10 @@
         <v>0.69059999999999999</v>
       </c>
       <c r="B21" s="92"/>
-      <c r="C21" s="250">
+      <c r="C21" s="242">
         <v>0.38878000000000001</v>
       </c>
-      <c r="D21" s="250"/>
+      <c r="D21" s="242"/>
       <c r="E21" s="81"/>
       <c r="F21" s="81"/>
       <c r="G21" s="81"/>
@@ -23615,10 +23310,10 @@
         <v>0.69059999999999999</v>
       </c>
       <c r="M21" s="92"/>
-      <c r="N21" s="250">
+      <c r="N21" s="242">
         <v>0.38878000000000001</v>
       </c>
-      <c r="O21" s="250"/>
+      <c r="O21" s="242"/>
       <c r="P21" s="81"/>
       <c r="Q21" s="81"/>
       <c r="R21" s="81"/>
@@ -23640,10 +23335,10 @@
       <c r="B22" s="88"/>
       <c r="C22" s="88"/>
       <c r="D22" s="88"/>
-      <c r="E22" s="251">
+      <c r="E22" s="243">
         <v>0.2099</v>
       </c>
-      <c r="F22" s="251"/>
+      <c r="F22" s="243"/>
       <c r="G22" s="88"/>
       <c r="H22" s="88"/>
       <c r="I22" s="88"/>
@@ -23655,10 +23350,10 @@
       <c r="M22" s="88"/>
       <c r="N22" s="88"/>
       <c r="O22" s="88"/>
-      <c r="P22" s="251">
+      <c r="P22" s="243">
         <v>0.2099</v>
       </c>
-      <c r="Q22" s="251"/>
+      <c r="Q22" s="243"/>
       <c r="R22" s="88"/>
       <c r="S22" s="88"/>
       <c r="T22" s="88"/>
@@ -23722,10 +23417,10 @@
         <v>0.68315000000000003</v>
       </c>
       <c r="B24" s="92"/>
-      <c r="C24" s="250">
+      <c r="C24" s="242">
         <v>0.70006000000000002</v>
       </c>
-      <c r="D24" s="250"/>
+      <c r="D24" s="242"/>
       <c r="E24" s="81"/>
       <c r="F24" s="81"/>
       <c r="G24" s="81"/>
@@ -23739,10 +23434,10 @@
         <v>0.68315000000000003</v>
       </c>
       <c r="M24" s="92"/>
-      <c r="N24" s="250">
+      <c r="N24" s="242">
         <v>0.70006000000000002</v>
       </c>
-      <c r="O24" s="250"/>
+      <c r="O24" s="242"/>
       <c r="P24" s="81"/>
       <c r="Q24" s="81"/>
       <c r="R24" s="81"/>
@@ -23767,10 +23462,10 @@
       <c r="B25" s="88"/>
       <c r="C25" s="88"/>
       <c r="D25" s="88"/>
-      <c r="E25" s="251">
+      <c r="E25" s="243">
         <v>0.152</v>
       </c>
-      <c r="F25" s="251"/>
+      <c r="F25" s="243"/>
       <c r="G25" s="88"/>
       <c r="H25" s="88"/>
       <c r="I25" s="88"/>
@@ -23782,10 +23477,10 @@
       <c r="M25" s="88"/>
       <c r="N25" s="88"/>
       <c r="O25" s="88"/>
-      <c r="P25" s="251">
+      <c r="P25" s="243">
         <v>0.152</v>
       </c>
-      <c r="Q25" s="251"/>
+      <c r="Q25" s="243"/>
       <c r="R25" s="88"/>
       <c r="S25" s="88"/>
       <c r="T25" s="88"/>
@@ -23848,16 +23543,16 @@
       <c r="B27" s="81">
         <v>9.2719999999999997E-2</v>
       </c>
-      <c r="C27" s="250">
+      <c r="C27" s="242">
         <v>0.42459999999999998</v>
       </c>
-      <c r="D27" s="250"/>
+      <c r="D27" s="242"/>
       <c r="E27" s="81"/>
       <c r="F27" s="81"/>
       <c r="G27" s="81"/>
       <c r="H27" s="81"/>
-      <c r="I27" s="238"/>
-      <c r="J27" s="239"/>
+      <c r="I27" s="246"/>
+      <c r="J27" s="247"/>
       <c r="K27" s="80" t="s">
         <v>292</v>
       </c>
@@ -23867,16 +23562,16 @@
       <c r="M27" s="81">
         <v>9.2719999999999997E-2</v>
       </c>
-      <c r="N27" s="250">
+      <c r="N27" s="242">
         <v>0.42459999999999998</v>
       </c>
-      <c r="O27" s="250"/>
+      <c r="O27" s="242"/>
       <c r="P27" s="81"/>
       <c r="Q27" s="81"/>
       <c r="R27" s="81"/>
       <c r="S27" s="81"/>
-      <c r="T27" s="238"/>
-      <c r="U27" s="239"/>
+      <c r="T27" s="246"/>
+      <c r="U27" s="247"/>
       <c r="W27" t="s">
         <v>415</v>
       </c>
@@ -23892,14 +23587,14 @@
       <c r="B28" s="88"/>
       <c r="C28" s="88"/>
       <c r="D28" s="88"/>
-      <c r="E28" s="251">
+      <c r="E28" s="243">
         <v>1</v>
       </c>
-      <c r="F28" s="251"/>
+      <c r="F28" s="243"/>
       <c r="G28" s="88"/>
       <c r="H28" s="88"/>
-      <c r="I28" s="240"/>
-      <c r="J28" s="241"/>
+      <c r="I28" s="244"/>
+      <c r="J28" s="245"/>
       <c r="K28" s="87" t="s">
         <v>295</v>
       </c>
@@ -23907,14 +23602,14 @@
       <c r="M28" s="88"/>
       <c r="N28" s="88"/>
       <c r="O28" s="88"/>
-      <c r="P28" s="251">
+      <c r="P28" s="243">
         <v>1</v>
       </c>
-      <c r="Q28" s="251"/>
+      <c r="Q28" s="243"/>
       <c r="R28" s="88"/>
       <c r="S28" s="88"/>
-      <c r="T28" s="240"/>
-      <c r="U28" s="241"/>
+      <c r="T28" s="244"/>
+      <c r="U28" s="245"/>
       <c r="W28" t="s">
         <v>418</v>
       </c>
@@ -23944,10 +23639,10 @@
       <c r="Q29" s="90"/>
       <c r="R29" s="85"/>
       <c r="S29" s="85"/>
-      <c r="T29" s="242">
+      <c r="T29" s="248">
         <v>0.21</v>
       </c>
-      <c r="U29" s="243"/>
+      <c r="U29" s="249"/>
       <c r="W29" t="s">
         <v>420</v>
       </c>
@@ -23968,10 +23663,10 @@
       <c r="H30" s="85">
         <v>0.1226</v>
       </c>
-      <c r="I30" s="242">
+      <c r="I30" s="248">
         <v>0.34044000000000002</v>
       </c>
-      <c r="J30" s="243"/>
+      <c r="J30" s="249"/>
       <c r="K30" s="84" t="s">
         <v>298</v>
       </c>
@@ -23987,11 +23682,11 @@
       <c r="S30" s="85">
         <v>0.14255813953488372</v>
       </c>
-      <c r="T30" s="242">
+      <c r="T30" s="248">
         <f>34.044%*1.05</f>
         <v>0.357462</v>
       </c>
-      <c r="U30" s="243"/>
+      <c r="U30" s="249"/>
       <c r="W30" t="s">
         <v>422</v>
       </c>
@@ -24012,16 +23707,16 @@
       <c r="B31" s="81">
         <v>0.13719000000000001</v>
       </c>
-      <c r="C31" s="250">
+      <c r="C31" s="242">
         <v>0.62792999999999999</v>
       </c>
-      <c r="D31" s="250"/>
+      <c r="D31" s="242"/>
       <c r="E31" s="81"/>
       <c r="F31" s="81"/>
       <c r="G31" s="81"/>
       <c r="H31" s="81"/>
-      <c r="I31" s="238"/>
-      <c r="J31" s="239"/>
+      <c r="I31" s="246"/>
+      <c r="J31" s="247"/>
       <c r="K31" s="80" t="s">
         <v>300</v>
       </c>
@@ -24031,16 +23726,16 @@
       <c r="M31" s="81">
         <v>0.13719000000000001</v>
       </c>
-      <c r="N31" s="250">
+      <c r="N31" s="242">
         <v>0.62792999999999999</v>
       </c>
-      <c r="O31" s="250"/>
+      <c r="O31" s="242"/>
       <c r="P31" s="81"/>
       <c r="Q31" s="81"/>
       <c r="R31" s="81"/>
       <c r="S31" s="81"/>
-      <c r="T31" s="238"/>
-      <c r="U31" s="239"/>
+      <c r="T31" s="246"/>
+      <c r="U31" s="247"/>
       <c r="W31" t="s">
         <v>426</v>
       </c>
@@ -24076,10 +23771,10 @@
       <c r="Q32" s="103"/>
       <c r="R32" s="103"/>
       <c r="S32" s="103"/>
-      <c r="T32" s="242">
+      <c r="T32" s="248">
         <v>0.12</v>
       </c>
-      <c r="U32" s="243"/>
+      <c r="U32" s="249"/>
       <c r="W32" t="s">
         <v>430</v>
       </c>
@@ -24106,10 +23801,10 @@
       <c r="H33" s="85">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="I33" s="242">
+      <c r="I33" s="248">
         <v>0.23748</v>
       </c>
-      <c r="J33" s="243"/>
+      <c r="J33" s="249"/>
       <c r="K33" s="84" t="s">
         <v>303</v>
       </c>
@@ -24125,11 +23820,11 @@
       <c r="S33" s="85">
         <v>6.8837209302325592E-2</v>
       </c>
-      <c r="T33" s="242">
+      <c r="T33" s="248">
         <f>23.748%*0.8</f>
         <v>0.18998400000000004</v>
       </c>
-      <c r="U33" s="243"/>
+      <c r="U33" s="249"/>
       <c r="W33" t="s">
         <v>434</v>
       </c>
@@ -24150,16 +23845,16 @@
       <c r="B34" s="81">
         <v>5.6059999999999999E-2</v>
       </c>
-      <c r="C34" s="250">
+      <c r="C34" s="242">
         <v>0.23462</v>
       </c>
-      <c r="D34" s="250"/>
+      <c r="D34" s="242"/>
       <c r="E34" s="81"/>
       <c r="F34" s="81"/>
       <c r="G34" s="81"/>
       <c r="H34" s="81"/>
-      <c r="I34" s="238"/>
-      <c r="J34" s="239"/>
+      <c r="I34" s="246"/>
+      <c r="J34" s="247"/>
       <c r="K34" s="80" t="s">
         <v>305</v>
       </c>
@@ -24171,17 +23866,17 @@
         <f>5.606%*0.75</f>
         <v>4.2044999999999999E-2</v>
       </c>
-      <c r="N34" s="250">
+      <c r="N34" s="242">
         <f>23.462%*0.75</f>
         <v>0.17596499999999998</v>
       </c>
-      <c r="O34" s="250"/>
+      <c r="O34" s="242"/>
       <c r="P34" s="81"/>
       <c r="Q34" s="81"/>
       <c r="R34" s="81"/>
       <c r="S34" s="81"/>
-      <c r="T34" s="238"/>
-      <c r="U34" s="239"/>
+      <c r="T34" s="246"/>
+      <c r="U34" s="247"/>
       <c r="W34" t="s">
         <v>438</v>
       </c>
@@ -24217,10 +23912,10 @@
       <c r="Q35" s="103"/>
       <c r="R35" s="103"/>
       <c r="S35" s="103"/>
-      <c r="T35" s="242">
+      <c r="T35" s="248">
         <v>0.31</v>
       </c>
-      <c r="U35" s="243"/>
+      <c r="U35" s="249"/>
       <c r="W35" t="s">
         <v>442</v>
       </c>
@@ -24241,10 +23936,10 @@
       <c r="H36" s="85">
         <v>0.11894</v>
       </c>
-      <c r="I36" s="242">
+      <c r="I36" s="248">
         <v>0.50244</v>
       </c>
-      <c r="J36" s="243"/>
+      <c r="J36" s="249"/>
       <c r="K36" s="84" t="s">
         <v>307</v>
       </c>
@@ -24260,11 +23955,11 @@
       <c r="S36" s="85">
         <v>0.13830232558139535</v>
       </c>
-      <c r="T36" s="242">
+      <c r="T36" s="248">
         <f>50.244%*1.05</f>
         <v>0.52756199999999998</v>
       </c>
-      <c r="U36" s="243"/>
+      <c r="U36" s="249"/>
       <c r="AC36" t="s">
         <v>444</v>
       </c>
@@ -24274,14 +23969,14 @@
       <c r="B37" s="94"/>
       <c r="C37" s="94"/>
       <c r="D37" s="94"/>
-      <c r="E37" s="247">
+      <c r="E37" s="250">
         <v>0.94696999999999998</v>
       </c>
-      <c r="F37" s="247"/>
+      <c r="F37" s="250"/>
       <c r="G37" s="94"/>
       <c r="H37" s="94"/>
-      <c r="I37" s="248"/>
-      <c r="J37" s="249"/>
+      <c r="I37" s="251"/>
+      <c r="J37" s="252"/>
       <c r="K37" s="93" t="s">
         <v>309</v>
       </c>
@@ -24289,54 +23984,54 @@
       <c r="M37" s="94"/>
       <c r="N37" s="94"/>
       <c r="O37" s="94"/>
-      <c r="P37" s="247">
+      <c r="P37" s="250">
         <v>0.94696999999999998</v>
       </c>
-      <c r="Q37" s="247"/>
+      <c r="Q37" s="250"/>
       <c r="R37" s="94"/>
       <c r="S37" s="94"/>
-      <c r="T37" s="248"/>
-      <c r="U37" s="249"/>
-      <c r="W37" s="256" t="s">
+      <c r="T37" s="251"/>
+      <c r="U37" s="252"/>
+      <c r="W37" s="258" t="s">
         <v>261</v>
       </c>
-      <c r="X37" s="256"/>
+      <c r="X37" s="258"/>
       <c r="AC37" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="38" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A38" s="250">
+      <c r="A38" s="242">
         <v>0.15762999999999999</v>
       </c>
-      <c r="B38" s="250"/>
-      <c r="C38" s="250">
+      <c r="B38" s="242"/>
+      <c r="C38" s="242">
         <v>0.36070000000000002</v>
       </c>
-      <c r="D38" s="250"/>
+      <c r="D38" s="242"/>
       <c r="E38" s="81"/>
       <c r="F38" s="81"/>
       <c r="G38" s="81"/>
       <c r="H38" s="81"/>
-      <c r="I38" s="238"/>
-      <c r="J38" s="239"/>
+      <c r="I38" s="246"/>
+      <c r="J38" s="247"/>
       <c r="K38" s="80" t="s">
         <v>310</v>
       </c>
-      <c r="L38" s="250">
+      <c r="L38" s="242">
         <v>0.15762999999999999</v>
       </c>
-      <c r="M38" s="250"/>
-      <c r="N38" s="250">
+      <c r="M38" s="242"/>
+      <c r="N38" s="242">
         <v>0.36070000000000002</v>
       </c>
-      <c r="O38" s="250"/>
+      <c r="O38" s="242"/>
       <c r="P38" s="81"/>
       <c r="Q38" s="81"/>
       <c r="R38" s="81"/>
       <c r="S38" s="81"/>
-      <c r="T38" s="238"/>
-      <c r="U38" s="239"/>
+      <c r="T38" s="246"/>
+      <c r="U38" s="247"/>
       <c r="AC38" t="s">
         <v>446</v>
       </c>
@@ -24346,14 +24041,14 @@
       <c r="B39" s="88"/>
       <c r="C39" s="88"/>
       <c r="D39" s="88"/>
-      <c r="E39" s="251">
+      <c r="E39" s="243">
         <v>0.85</v>
       </c>
-      <c r="F39" s="251"/>
+      <c r="F39" s="243"/>
       <c r="G39" s="88"/>
       <c r="H39" s="88"/>
-      <c r="I39" s="240"/>
-      <c r="J39" s="241"/>
+      <c r="I39" s="244"/>
+      <c r="J39" s="245"/>
       <c r="K39" s="87" t="s">
         <v>311</v>
       </c>
@@ -24361,14 +24056,14 @@
       <c r="M39" s="88"/>
       <c r="N39" s="88"/>
       <c r="O39" s="88"/>
-      <c r="P39" s="251">
+      <c r="P39" s="243">
         <v>0.85</v>
       </c>
-      <c r="Q39" s="251"/>
+      <c r="Q39" s="243"/>
       <c r="R39" s="88"/>
       <c r="S39" s="88"/>
-      <c r="T39" s="240"/>
-      <c r="U39" s="241"/>
+      <c r="T39" s="244"/>
+      <c r="U39" s="245"/>
       <c r="W39" t="s">
         <v>241</v>
       </c>
@@ -24387,10 +24082,10 @@
         <v>0.20784</v>
       </c>
       <c r="H40" s="85"/>
-      <c r="I40" s="242">
+      <c r="I40" s="248">
         <v>0.28937000000000002</v>
       </c>
-      <c r="J40" s="243"/>
+      <c r="J40" s="249"/>
       <c r="K40" s="84" t="s">
         <v>313</v>
       </c>
@@ -24404,10 +24099,10 @@
         <v>0.24167441860465114</v>
       </c>
       <c r="S40" s="85"/>
-      <c r="T40" s="242">
+      <c r="T40" s="248">
         <v>0.28937000000000002</v>
       </c>
-      <c r="U40" s="243"/>
+      <c r="U40" s="249"/>
       <c r="W40" t="s">
         <v>244</v>
       </c>
@@ -24416,37 +24111,37 @@
       </c>
     </row>
     <row r="41" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A41" s="250">
+      <c r="A41" s="242">
         <v>0.20368</v>
       </c>
-      <c r="B41" s="250"/>
-      <c r="C41" s="250">
+      <c r="B41" s="242"/>
+      <c r="C41" s="242">
         <v>0.33767000000000003</v>
       </c>
-      <c r="D41" s="250"/>
+      <c r="D41" s="242"/>
       <c r="E41" s="81"/>
       <c r="F41" s="81"/>
       <c r="G41" s="81"/>
       <c r="H41" s="81"/>
-      <c r="I41" s="238"/>
-      <c r="J41" s="239"/>
+      <c r="I41" s="246"/>
+      <c r="J41" s="247"/>
       <c r="K41" s="80" t="s">
         <v>315</v>
       </c>
-      <c r="L41" s="250">
+      <c r="L41" s="242">
         <v>0.20368</v>
       </c>
-      <c r="M41" s="250"/>
-      <c r="N41" s="250">
+      <c r="M41" s="242"/>
+      <c r="N41" s="242">
         <v>0.33767000000000003</v>
       </c>
-      <c r="O41" s="250"/>
+      <c r="O41" s="242"/>
       <c r="P41" s="81"/>
       <c r="Q41" s="81"/>
       <c r="R41" s="81"/>
       <c r="S41" s="81"/>
-      <c r="T41" s="238"/>
-      <c r="U41" s="239"/>
+      <c r="T41" s="246"/>
+      <c r="U41" s="247"/>
       <c r="W41" t="s">
         <v>247</v>
       </c>
@@ -24459,14 +24154,14 @@
       <c r="B42" s="88"/>
       <c r="C42" s="88"/>
       <c r="D42" s="88"/>
-      <c r="E42" s="251">
+      <c r="E42" s="243">
         <v>0.89815999999999996</v>
       </c>
-      <c r="F42" s="251"/>
+      <c r="F42" s="243"/>
       <c r="G42" s="88"/>
       <c r="H42" s="88"/>
-      <c r="I42" s="240"/>
-      <c r="J42" s="241"/>
+      <c r="I42" s="244"/>
+      <c r="J42" s="245"/>
       <c r="K42" s="87" t="s">
         <v>317</v>
       </c>
@@ -24474,14 +24169,14 @@
       <c r="M42" s="88"/>
       <c r="N42" s="88"/>
       <c r="O42" s="88"/>
-      <c r="P42" s="251">
+      <c r="P42" s="243">
         <v>0.89815999999999996</v>
       </c>
-      <c r="Q42" s="251"/>
+      <c r="Q42" s="243"/>
       <c r="R42" s="88"/>
       <c r="S42" s="88"/>
-      <c r="T42" s="240"/>
-      <c r="U42" s="241"/>
+      <c r="T42" s="244"/>
+      <c r="U42" s="245"/>
       <c r="AC42" t="s">
         <v>450</v>
       </c>
@@ -24497,8 +24192,8 @@
         <v>0.57364000000000004</v>
       </c>
       <c r="H43" s="88"/>
-      <c r="I43" s="240"/>
-      <c r="J43" s="241"/>
+      <c r="I43" s="244"/>
+      <c r="J43" s="245"/>
       <c r="K43" s="87" t="s">
         <v>319</v>
       </c>
@@ -24512,8 +24207,8 @@
         <v>0.6670232558139535</v>
       </c>
       <c r="S43" s="88"/>
-      <c r="T43" s="240"/>
-      <c r="U43" s="241"/>
+      <c r="T43" s="244"/>
+      <c r="U43" s="245"/>
       <c r="W43" t="s">
         <v>256</v>
       </c>
@@ -24532,10 +24227,10 @@
         <v>0.26422000000000001</v>
       </c>
       <c r="H44" s="85"/>
-      <c r="I44" s="242">
+      <c r="I44" s="248">
         <v>0.2399</v>
       </c>
-      <c r="J44" s="243"/>
+      <c r="J44" s="249"/>
       <c r="K44" s="84" t="s">
         <v>321</v>
       </c>
@@ -24549,11 +24244,11 @@
         <v>0.30723255813953487</v>
       </c>
       <c r="S44" s="85"/>
-      <c r="T44" s="242">
+      <c r="T44" s="248">
         <f>23.99%*1.06</f>
         <v>0.25429399999999996</v>
       </c>
-      <c r="U44" s="243"/>
+      <c r="U44" s="249"/>
       <c r="W44" t="s">
         <v>258</v>
       </c>
@@ -24566,16 +24261,16 @@
         <v>0.34708</v>
       </c>
       <c r="B45" s="92"/>
-      <c r="C45" s="250">
+      <c r="C45" s="242">
         <v>0.20830000000000001</v>
       </c>
-      <c r="D45" s="250"/>
+      <c r="D45" s="242"/>
       <c r="E45" s="81"/>
       <c r="F45" s="81"/>
       <c r="G45" s="81"/>
       <c r="H45" s="81"/>
-      <c r="I45" s="238"/>
-      <c r="J45" s="239"/>
+      <c r="I45" s="246"/>
+      <c r="J45" s="247"/>
       <c r="K45" s="80" t="s">
         <v>322</v>
       </c>
@@ -24583,16 +24278,16 @@
         <v>0.34708</v>
       </c>
       <c r="M45" s="92"/>
-      <c r="N45" s="250">
+      <c r="N45" s="242">
         <v>0.20830000000000001</v>
       </c>
-      <c r="O45" s="250"/>
+      <c r="O45" s="242"/>
       <c r="P45" s="81"/>
       <c r="Q45" s="81"/>
       <c r="R45" s="81"/>
       <c r="S45" s="81"/>
-      <c r="T45" s="238"/>
-      <c r="U45" s="239"/>
+      <c r="T45" s="246"/>
+      <c r="U45" s="247"/>
       <c r="AC45" t="s">
         <v>453</v>
       </c>
@@ -24602,14 +24297,14 @@
       <c r="B46" s="88"/>
       <c r="C46" s="88"/>
       <c r="D46" s="88"/>
-      <c r="E46" s="251">
+      <c r="E46" s="243">
         <v>0.52559999999999996</v>
       </c>
-      <c r="F46" s="251"/>
+      <c r="F46" s="243"/>
       <c r="G46" s="88"/>
       <c r="H46" s="88"/>
-      <c r="I46" s="240"/>
-      <c r="J46" s="241"/>
+      <c r="I46" s="244"/>
+      <c r="J46" s="245"/>
       <c r="K46" s="87" t="s">
         <v>323</v>
       </c>
@@ -24617,14 +24312,14 @@
       <c r="M46" s="88"/>
       <c r="N46" s="88"/>
       <c r="O46" s="88"/>
-      <c r="P46" s="251">
+      <c r="P46" s="243">
         <v>0.52559999999999996</v>
       </c>
-      <c r="Q46" s="251"/>
+      <c r="Q46" s="243"/>
       <c r="R46" s="88"/>
       <c r="S46" s="88"/>
-      <c r="T46" s="240"/>
-      <c r="U46" s="241"/>
+      <c r="T46" s="244"/>
+      <c r="U46" s="245"/>
       <c r="W46" t="s">
         <v>373</v>
       </c>
@@ -24643,8 +24338,8 @@
         <v>0.84328000000000003</v>
       </c>
       <c r="H47" s="88"/>
-      <c r="I47" s="240"/>
-      <c r="J47" s="241"/>
+      <c r="I47" s="244"/>
+      <c r="J47" s="245"/>
       <c r="K47" s="87" t="s">
         <v>324</v>
       </c>
@@ -24658,8 +24353,8 @@
         <v>0.85308558139534874</v>
       </c>
       <c r="S47" s="88"/>
-      <c r="T47" s="240"/>
-      <c r="U47" s="241"/>
+      <c r="T47" s="244"/>
+      <c r="U47" s="245"/>
     </row>
     <row r="48" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="85"/>
@@ -24672,10 +24367,10 @@
         <v>0.23543</v>
       </c>
       <c r="H48" s="85"/>
-      <c r="I48" s="242">
+      <c r="I48" s="248">
         <v>0.13220000000000001</v>
       </c>
-      <c r="J48" s="243"/>
+      <c r="J48" s="249"/>
       <c r="K48" s="84" t="s">
         <v>326</v>
       </c>
@@ -24689,11 +24384,11 @@
         <v>0.27375581395348836</v>
       </c>
       <c r="S48" s="85"/>
-      <c r="T48" s="242">
+      <c r="T48" s="248">
         <f>13.22%*1.16</f>
         <v>0.15335200000000002</v>
       </c>
-      <c r="U48" s="243"/>
+      <c r="U48" s="249"/>
       <c r="W48" t="s">
         <v>455</v>
       </c>
@@ -24706,14 +24401,14 @@
       <c r="B49" s="94"/>
       <c r="C49" s="94"/>
       <c r="D49" s="94"/>
-      <c r="E49" s="247">
+      <c r="E49" s="250">
         <v>0.43773000000000001</v>
       </c>
-      <c r="F49" s="247"/>
+      <c r="F49" s="250"/>
       <c r="G49" s="94"/>
       <c r="H49" s="94"/>
-      <c r="I49" s="248"/>
-      <c r="J49" s="249"/>
+      <c r="I49" s="251"/>
+      <c r="J49" s="252"/>
       <c r="K49" s="93" t="s">
         <v>367</v>
       </c>
@@ -24721,14 +24416,14 @@
       <c r="M49" s="94"/>
       <c r="N49" s="94"/>
       <c r="O49" s="94"/>
-      <c r="P49" s="247">
+      <c r="P49" s="250">
         <v>0.43773000000000001</v>
       </c>
-      <c r="Q49" s="247"/>
+      <c r="Q49" s="250"/>
       <c r="R49" s="94"/>
       <c r="S49" s="94"/>
-      <c r="T49" s="248"/>
-      <c r="U49" s="249"/>
+      <c r="T49" s="251"/>
+      <c r="U49" s="252"/>
       <c r="V49" s="40"/>
       <c r="W49" t="s">
         <v>457</v>
@@ -24739,16 +24434,16 @@
         <v>0.47361999999999999</v>
       </c>
       <c r="B50" s="92"/>
-      <c r="C50" s="250">
+      <c r="C50" s="242">
         <v>0.28101999999999999</v>
       </c>
-      <c r="D50" s="250"/>
+      <c r="D50" s="242"/>
       <c r="E50" s="81"/>
       <c r="F50" s="81"/>
       <c r="G50" s="81"/>
       <c r="H50" s="81"/>
-      <c r="I50" s="238"/>
-      <c r="J50" s="239"/>
+      <c r="I50" s="246"/>
+      <c r="J50" s="247"/>
       <c r="K50" s="80" t="s">
         <v>328</v>
       </c>
@@ -24756,23 +24451,23 @@
         <v>0.47361999999999999</v>
       </c>
       <c r="M50" s="92"/>
-      <c r="N50" s="250">
+      <c r="N50" s="242">
         <v>0.28101999999999999</v>
       </c>
-      <c r="O50" s="250"/>
+      <c r="O50" s="242"/>
       <c r="P50" s="81"/>
       <c r="Q50" s="81"/>
       <c r="R50" s="81"/>
       <c r="S50" s="81"/>
-      <c r="T50" s="238"/>
-      <c r="U50" s="239"/>
+      <c r="T50" s="246"/>
+      <c r="U50" s="247"/>
       <c r="W50" t="s">
         <v>458</v>
       </c>
-      <c r="AC50" s="256" t="s">
+      <c r="AC50" s="258" t="s">
         <v>251</v>
       </c>
-      <c r="AD50" s="256"/>
+      <c r="AD50" s="258"/>
     </row>
     <row r="51" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A51" s="88"/>
@@ -24785,8 +24480,8 @@
         <v>0.71950000000000003</v>
       </c>
       <c r="H51" s="88"/>
-      <c r="I51" s="240"/>
-      <c r="J51" s="241"/>
+      <c r="I51" s="244"/>
+      <c r="J51" s="245"/>
       <c r="K51" s="87" t="s">
         <v>329</v>
       </c>
@@ -24800,8 +24495,8 @@
         <v>0.66930232558139535</v>
       </c>
       <c r="S51" s="88"/>
-      <c r="T51" s="240"/>
-      <c r="U51" s="241"/>
+      <c r="T51" s="244"/>
+      <c r="U51" s="245"/>
       <c r="W51" t="s">
         <v>459</v>
       </c>
@@ -24817,10 +24512,10 @@
         <v>0.20451</v>
       </c>
       <c r="H52" s="85"/>
-      <c r="I52" s="242">
+      <c r="I52" s="248">
         <v>9.1600000000000001E-2</v>
       </c>
-      <c r="J52" s="243"/>
+      <c r="J52" s="249"/>
       <c r="K52" s="84" t="s">
         <v>331</v>
       </c>
@@ -24834,10 +24529,10 @@
         <v>0.23780232558139536</v>
       </c>
       <c r="S52" s="85"/>
-      <c r="T52" s="242">
+      <c r="T52" s="248">
         <v>9.1600000000000001E-2</v>
       </c>
-      <c r="U52" s="243"/>
+      <c r="U52" s="249"/>
       <c r="W52" t="s">
         <v>460</v>
       </c>
@@ -24850,16 +24545,16 @@
         <v>0.17321</v>
       </c>
       <c r="B53" s="92"/>
-      <c r="C53" s="250">
+      <c r="C53" s="242">
         <v>9.2929999999999999E-2</v>
       </c>
-      <c r="D53" s="250"/>
+      <c r="D53" s="242"/>
       <c r="E53" s="81"/>
       <c r="F53" s="81"/>
       <c r="G53" s="81"/>
       <c r="H53" s="81"/>
-      <c r="I53" s="238"/>
-      <c r="J53" s="239"/>
+      <c r="I53" s="246"/>
+      <c r="J53" s="247"/>
       <c r="K53" s="80" t="s">
         <v>333</v>
       </c>
@@ -24867,17 +24562,17 @@
         <v>0.17321</v>
       </c>
       <c r="M53" s="92"/>
-      <c r="N53" s="250">
+      <c r="N53" s="242">
         <f>9.293%*0.8</f>
         <v>7.4344000000000007E-2</v>
       </c>
-      <c r="O53" s="250"/>
+      <c r="O53" s="242"/>
       <c r="P53" s="81"/>
       <c r="Q53" s="81"/>
       <c r="R53" s="81"/>
       <c r="S53" s="81"/>
-      <c r="T53" s="238"/>
-      <c r="U53" s="239"/>
+      <c r="T53" s="246"/>
+      <c r="U53" s="247"/>
       <c r="W53" t="s">
         <v>461</v>
       </c>
@@ -24896,8 +24591,8 @@
         <v>1</v>
       </c>
       <c r="H54" s="88"/>
-      <c r="I54" s="240"/>
-      <c r="J54" s="241"/>
+      <c r="I54" s="244"/>
+      <c r="J54" s="245"/>
       <c r="K54" s="87" t="s">
         <v>335</v>
       </c>
@@ -24911,8 +24606,8 @@
         <v>1</v>
       </c>
       <c r="S54" s="88"/>
-      <c r="T54" s="240"/>
-      <c r="U54" s="241"/>
+      <c r="T54" s="244"/>
+      <c r="U54" s="245"/>
       <c r="W54" t="s">
         <v>462</v>
       </c>
@@ -24931,10 +24626,10 @@
         <v>0.26967000000000002</v>
       </c>
       <c r="H55" s="85"/>
-      <c r="I55" s="242">
+      <c r="I55" s="248">
         <v>0.1535</v>
       </c>
-      <c r="J55" s="243"/>
+      <c r="J55" s="249"/>
       <c r="K55" s="84" t="s">
         <v>337</v>
       </c>
@@ -24948,10 +24643,10 @@
         <v>0.31356976744186049</v>
       </c>
       <c r="S55" s="85"/>
-      <c r="T55" s="242">
+      <c r="T55" s="248">
         <v>0.1535</v>
       </c>
-      <c r="U55" s="243"/>
+      <c r="U55" s="249"/>
       <c r="V55" s="40"/>
       <c r="W55" t="s">
         <v>463</v>
@@ -24962,14 +24657,14 @@
       <c r="B56" s="94"/>
       <c r="C56" s="94"/>
       <c r="D56" s="94"/>
-      <c r="E56" s="247">
+      <c r="E56" s="250">
         <v>0.43773000000000001</v>
       </c>
-      <c r="F56" s="247"/>
+      <c r="F56" s="250"/>
       <c r="G56" s="94"/>
       <c r="H56" s="94"/>
-      <c r="I56" s="248"/>
-      <c r="J56" s="249"/>
+      <c r="I56" s="251"/>
+      <c r="J56" s="252"/>
       <c r="K56" s="93" t="s">
         <v>368</v>
       </c>
@@ -24977,15 +24672,15 @@
       <c r="M56" s="94"/>
       <c r="N56" s="94"/>
       <c r="O56" s="94"/>
-      <c r="P56" s="247">
+      <c r="P56" s="250">
         <f>43.773%*0.8</f>
         <v>0.35018400000000005</v>
       </c>
-      <c r="Q56" s="247"/>
+      <c r="Q56" s="250"/>
       <c r="R56" s="94"/>
       <c r="S56" s="94"/>
-      <c r="T56" s="248"/>
-      <c r="U56" s="249"/>
+      <c r="T56" s="251"/>
+      <c r="U56" s="252"/>
       <c r="V56" s="40"/>
       <c r="W56" t="s">
         <v>464</v>
@@ -24999,16 +24694,16 @@
         <v>0.28996</v>
       </c>
       <c r="B57" s="92"/>
-      <c r="C57" s="250">
+      <c r="C57" s="242">
         <v>0.25344</v>
       </c>
-      <c r="D57" s="250"/>
+      <c r="D57" s="242"/>
       <c r="E57" s="81"/>
       <c r="F57" s="81"/>
       <c r="G57" s="81"/>
       <c r="H57" s="81"/>
-      <c r="I57" s="238"/>
-      <c r="J57" s="239"/>
+      <c r="I57" s="246"/>
+      <c r="J57" s="247"/>
       <c r="K57" s="80" t="s">
         <v>340</v>
       </c>
@@ -25016,16 +24711,16 @@
         <v>0.28996</v>
       </c>
       <c r="M57" s="92"/>
-      <c r="N57" s="250">
+      <c r="N57" s="242">
         <v>0.25344</v>
       </c>
-      <c r="O57" s="250"/>
+      <c r="O57" s="242"/>
       <c r="P57" s="81"/>
       <c r="Q57" s="81"/>
       <c r="R57" s="81"/>
       <c r="S57" s="81"/>
-      <c r="T57" s="238"/>
-      <c r="U57" s="239"/>
+      <c r="T57" s="246"/>
+      <c r="U57" s="247"/>
       <c r="V57" s="40"/>
       <c r="W57" t="s">
         <v>466</v>
@@ -25036,14 +24731,14 @@
       <c r="B58" s="88"/>
       <c r="C58" s="88"/>
       <c r="D58" s="88"/>
-      <c r="E58" s="251">
+      <c r="E58" s="243">
         <v>0.65949000000000002</v>
       </c>
-      <c r="F58" s="251"/>
+      <c r="F58" s="243"/>
       <c r="G58" s="88"/>
       <c r="H58" s="88"/>
-      <c r="I58" s="240"/>
-      <c r="J58" s="241"/>
+      <c r="I58" s="244"/>
+      <c r="J58" s="245"/>
       <c r="K58" s="87" t="s">
         <v>342</v>
       </c>
@@ -25051,15 +24746,15 @@
       <c r="M58" s="88"/>
       <c r="N58" s="88"/>
       <c r="O58" s="88"/>
-      <c r="P58" s="251">
+      <c r="P58" s="243">
         <f>65.949%*1.1</f>
         <v>0.72543900000000006</v>
       </c>
-      <c r="Q58" s="251"/>
+      <c r="Q58" s="243"/>
       <c r="R58" s="88"/>
       <c r="S58" s="88"/>
-      <c r="T58" s="240"/>
-      <c r="U58" s="241"/>
+      <c r="T58" s="244"/>
+      <c r="U58" s="245"/>
       <c r="V58" s="40"/>
       <c r="W58" t="s">
         <v>467</v>
@@ -25079,8 +24774,8 @@
         <v>0.56411</v>
       </c>
       <c r="H59" s="88"/>
-      <c r="I59" s="240"/>
-      <c r="J59" s="241"/>
+      <c r="I59" s="244"/>
+      <c r="J59" s="245"/>
       <c r="K59" s="87" t="s">
         <v>344</v>
       </c>
@@ -25094,8 +24789,8 @@
         <v>0.70185779069767451</v>
       </c>
       <c r="S59" s="88"/>
-      <c r="T59" s="240"/>
-      <c r="U59" s="241"/>
+      <c r="T59" s="244"/>
+      <c r="U59" s="245"/>
       <c r="V59" s="40"/>
       <c r="W59" t="s">
         <v>468</v>
@@ -25112,10 +24807,10 @@
         <v>0.14326</v>
       </c>
       <c r="H60" s="85"/>
-      <c r="I60" s="242">
+      <c r="I60" s="248">
         <v>0.17191999999999999</v>
       </c>
-      <c r="J60" s="243"/>
+      <c r="J60" s="249"/>
       <c r="K60" s="84" t="s">
         <v>346</v>
       </c>
@@ -25129,11 +24824,11 @@
         <v>0.2082267441860465</v>
       </c>
       <c r="S60" s="85"/>
-      <c r="T60" s="242">
+      <c r="T60" s="248">
         <f>17.192%</f>
         <v>0.17191999999999999</v>
       </c>
-      <c r="U60" s="243"/>
+      <c r="U60" s="249"/>
       <c r="V60" s="40"/>
       <c r="W60" t="s">
         <v>469</v>
@@ -25153,8 +24848,8 @@
         <v>0.19162000000000001</v>
       </c>
       <c r="H61" s="81"/>
-      <c r="I61" s="238"/>
-      <c r="J61" s="239"/>
+      <c r="I61" s="246"/>
+      <c r="J61" s="247"/>
       <c r="K61" s="80" t="s">
         <v>348</v>
       </c>
@@ -25168,8 +24863,8 @@
         <v>0.22281395348837213</v>
       </c>
       <c r="S61" s="81"/>
-      <c r="T61" s="238"/>
-      <c r="U61" s="239"/>
+      <c r="T61" s="246"/>
+      <c r="U61" s="247"/>
       <c r="V61" s="40"/>
       <c r="W61" t="s">
         <v>471</v>
@@ -25189,8 +24884,8 @@
         <v>0.49523</v>
       </c>
       <c r="H62" s="88"/>
-      <c r="I62" s="240"/>
-      <c r="J62" s="241"/>
+      <c r="I62" s="244"/>
+      <c r="J62" s="245"/>
       <c r="K62" s="87" t="s">
         <v>349</v>
       </c>
@@ -25204,8 +24899,8 @@
         <v>0.57584883720930236</v>
       </c>
       <c r="S62" s="88"/>
-      <c r="T62" s="240"/>
-      <c r="U62" s="241"/>
+      <c r="T62" s="244"/>
+      <c r="U62" s="245"/>
       <c r="V62" s="40"/>
       <c r="W62" t="s">
         <v>473</v>
@@ -25232,10 +24927,10 @@
       <c r="M63" s="88"/>
       <c r="N63" s="88"/>
       <c r="O63" s="88"/>
-      <c r="P63" s="238">
+      <c r="P63" s="246">
         <v>0.15</v>
       </c>
-      <c r="Q63" s="246"/>
+      <c r="Q63" s="255"/>
       <c r="R63" s="88"/>
       <c r="S63" s="88"/>
       <c r="T63" s="108"/>
@@ -25259,10 +24954,10 @@
         <v>0.47439999999999999</v>
       </c>
       <c r="H64" s="88"/>
-      <c r="I64" s="240">
+      <c r="I64" s="244">
         <v>0.60697000000000001</v>
       </c>
-      <c r="J64" s="241"/>
+      <c r="J64" s="245"/>
       <c r="K64" s="87" t="s">
         <v>350</v>
       </c>
@@ -25276,10 +24971,10 @@
         <v>0.55162790697674413</v>
       </c>
       <c r="S64" s="88"/>
-      <c r="T64" s="240">
+      <c r="T64" s="244">
         <v>0.60697000000000001</v>
       </c>
-      <c r="U64" s="241"/>
+      <c r="U64" s="245"/>
       <c r="V64" s="40"/>
       <c r="W64" t="s">
         <v>477</v>
@@ -25299,10 +24994,10 @@
         <v>0.16774</v>
       </c>
       <c r="H65" s="85"/>
-      <c r="I65" s="242">
+      <c r="I65" s="248">
         <v>0.24779999999999999</v>
       </c>
-      <c r="J65" s="243"/>
+      <c r="J65" s="249"/>
       <c r="K65" s="84" t="s">
         <v>351</v>
       </c>
@@ -25316,10 +25011,10 @@
         <v>0.19504651162790698</v>
       </c>
       <c r="S65" s="85"/>
-      <c r="T65" s="242">
+      <c r="T65" s="248">
         <v>0.24779999999999999</v>
       </c>
-      <c r="U65" s="243"/>
+      <c r="U65" s="249"/>
       <c r="V65" s="40"/>
       <c r="W65" t="s">
         <v>479</v>
@@ -25333,14 +25028,14 @@
       <c r="B66" s="81"/>
       <c r="C66" s="81"/>
       <c r="D66" s="81"/>
-      <c r="E66" s="238">
+      <c r="E66" s="246">
         <v>0.45617999999999997</v>
       </c>
-      <c r="F66" s="246"/>
+      <c r="F66" s="255"/>
       <c r="G66" s="81"/>
       <c r="H66" s="81"/>
-      <c r="I66" s="238"/>
-      <c r="J66" s="239"/>
+      <c r="I66" s="246"/>
+      <c r="J66" s="247"/>
       <c r="K66" s="80" t="s">
         <v>352</v>
       </c>
@@ -25348,14 +25043,14 @@
       <c r="M66" s="81"/>
       <c r="N66" s="81"/>
       <c r="O66" s="81"/>
-      <c r="P66" s="238">
+      <c r="P66" s="246">
         <v>0.45617999999999997</v>
       </c>
-      <c r="Q66" s="246"/>
+      <c r="Q66" s="255"/>
       <c r="R66" s="81"/>
       <c r="S66" s="81"/>
-      <c r="T66" s="238"/>
-      <c r="U66" s="239"/>
+      <c r="T66" s="246"/>
+      <c r="U66" s="247"/>
       <c r="V66" s="40"/>
       <c r="W66" t="s">
         <v>481</v>
@@ -25375,10 +25070,10 @@
         <v>0.28649999999999998</v>
       </c>
       <c r="H67" s="88"/>
-      <c r="I67" s="240">
+      <c r="I67" s="244">
         <v>0.80176999999999998</v>
       </c>
-      <c r="J67" s="241"/>
+      <c r="J67" s="245"/>
       <c r="K67" s="87" t="s">
         <v>353</v>
       </c>
@@ -25392,10 +25087,10 @@
         <v>0.33313953488372089</v>
       </c>
       <c r="S67" s="88"/>
-      <c r="T67" s="240">
+      <c r="T67" s="244">
         <v>0.50800000000000001</v>
       </c>
-      <c r="U67" s="241"/>
+      <c r="U67" s="245"/>
       <c r="V67" s="40"/>
       <c r="AC67" t="s">
         <v>483</v>
@@ -25412,10 +25107,10 @@
         <v>0.20932000000000001</v>
       </c>
       <c r="H68" s="88"/>
-      <c r="I68" s="240">
+      <c r="I68" s="244">
         <v>0.50775999999999999</v>
       </c>
-      <c r="J68" s="241"/>
+      <c r="J68" s="245"/>
       <c r="K68" s="87" t="s">
         <v>355</v>
       </c>
@@ -25429,10 +25124,10 @@
         <v>0.24339534883720934</v>
       </c>
       <c r="S68" s="88"/>
-      <c r="T68" s="240">
+      <c r="T68" s="244">
         <v>0.50775999999999999</v>
       </c>
-      <c r="U68" s="241"/>
+      <c r="U68" s="245"/>
       <c r="V68" s="40"/>
       <c r="AC68" t="s">
         <v>484</v>
@@ -25449,8 +25144,8 @@
         <v>0.14599000000000001</v>
       </c>
       <c r="H69" s="88"/>
-      <c r="I69" s="240"/>
-      <c r="J69" s="241"/>
+      <c r="I69" s="244"/>
+      <c r="J69" s="245"/>
       <c r="K69" s="87" t="s">
         <v>356</v>
       </c>
@@ -25464,13 +25159,13 @@
         <v>0.16975581395348838</v>
       </c>
       <c r="S69" s="88"/>
-      <c r="T69" s="240"/>
-      <c r="U69" s="241"/>
+      <c r="T69" s="244"/>
+      <c r="U69" s="245"/>
       <c r="V69" s="40"/>
-      <c r="W69" s="256" t="s">
+      <c r="W69" s="258" t="s">
         <v>236</v>
       </c>
-      <c r="X69" s="256"/>
+      <c r="X69" s="258"/>
       <c r="AC69" t="s">
         <v>485</v>
       </c>
@@ -25486,10 +25181,10 @@
         <v>0.12414</v>
       </c>
       <c r="H70" s="85"/>
-      <c r="I70" s="242">
+      <c r="I70" s="248">
         <v>0.61785000000000001</v>
       </c>
-      <c r="J70" s="243"/>
+      <c r="J70" s="249"/>
       <c r="K70" s="84" t="s">
         <v>357</v>
       </c>
@@ -25503,10 +25198,10 @@
         <v>0.14434883720930233</v>
       </c>
       <c r="S70" s="85"/>
-      <c r="T70" s="242">
+      <c r="T70" s="248">
         <v>0.61785000000000001</v>
       </c>
-      <c r="U70" s="243"/>
+      <c r="U70" s="249"/>
       <c r="V70" s="40"/>
       <c r="AC70" t="s">
         <v>486</v>
@@ -25523,10 +25218,10 @@
         <v>0.23763000000000001</v>
       </c>
       <c r="H71" s="81"/>
-      <c r="I71" s="238">
+      <c r="I71" s="246">
         <v>1</v>
       </c>
-      <c r="J71" s="239"/>
+      <c r="J71" s="247"/>
       <c r="K71" s="80" t="s">
         <v>358</v>
       </c>
@@ -25540,10 +25235,10 @@
         <v>0.27631395348837212</v>
       </c>
       <c r="S71" s="81"/>
-      <c r="T71" s="238">
+      <c r="T71" s="246">
         <v>1</v>
       </c>
-      <c r="U71" s="239"/>
+      <c r="U71" s="247"/>
       <c r="V71" s="40"/>
       <c r="W71" t="s">
         <v>282</v>
@@ -25570,10 +25265,10 @@
       <c r="M72" s="110"/>
       <c r="N72" s="110"/>
       <c r="O72" s="110"/>
-      <c r="P72" s="238">
+      <c r="P72" s="246">
         <v>0.25</v>
       </c>
-      <c r="Q72" s="246"/>
+      <c r="Q72" s="255"/>
       <c r="R72" s="110"/>
       <c r="S72" s="110"/>
       <c r="T72" s="111"/>
@@ -25597,8 +25292,8 @@
         <v>0.17316000000000001</v>
       </c>
       <c r="H73" s="88"/>
-      <c r="I73" s="240"/>
-      <c r="J73" s="241"/>
+      <c r="I73" s="244"/>
+      <c r="J73" s="245"/>
       <c r="K73" s="87" t="s">
         <v>359</v>
       </c>
@@ -25612,8 +25307,8 @@
         <v>0.20134883720930236</v>
       </c>
       <c r="S73" s="88"/>
-      <c r="T73" s="240"/>
-      <c r="U73" s="241"/>
+      <c r="T73" s="244"/>
+      <c r="U73" s="245"/>
       <c r="V73" s="40"/>
       <c r="W73" t="s">
         <v>288</v>
@@ -25633,10 +25328,10 @@
         <v>0.12317</v>
       </c>
       <c r="H74" s="85"/>
-      <c r="I74" s="242">
+      <c r="I74" s="248">
         <v>0.33643600000000001</v>
       </c>
-      <c r="J74" s="243"/>
+      <c r="J74" s="249"/>
       <c r="K74" s="84" t="s">
         <v>360</v>
       </c>
@@ -25650,10 +25345,10 @@
         <v>0.14322093023255814</v>
       </c>
       <c r="S74" s="85"/>
-      <c r="T74" s="242">
+      <c r="T74" s="248">
         <v>0.33643600000000001</v>
       </c>
-      <c r="U74" s="243"/>
+      <c r="U74" s="249"/>
       <c r="V74" s="40"/>
       <c r="AC74" t="s">
         <v>490</v>
@@ -25670,10 +25365,10 @@
         <v>0.20199</v>
       </c>
       <c r="H75" s="81"/>
-      <c r="I75" s="238">
+      <c r="I75" s="246">
         <v>0.85</v>
       </c>
-      <c r="J75" s="239"/>
+      <c r="J75" s="247"/>
       <c r="K75" s="80" t="s">
         <v>361</v>
       </c>
@@ -25687,10 +25382,10 @@
         <v>0.23487209302325585</v>
       </c>
       <c r="S75" s="81"/>
-      <c r="T75" s="238">
+      <c r="T75" s="246">
         <v>0.85</v>
       </c>
-      <c r="U75" s="239"/>
+      <c r="U75" s="247"/>
       <c r="V75" s="40"/>
       <c r="W75" t="s">
         <v>293</v>
@@ -25710,8 +25405,8 @@
         <v>0.17718999999999999</v>
       </c>
       <c r="H76" s="88"/>
-      <c r="I76" s="240"/>
-      <c r="J76" s="241"/>
+      <c r="I76" s="244"/>
+      <c r="J76" s="245"/>
       <c r="K76" s="87" t="s">
         <v>362</v>
       </c>
@@ -25725,8 +25420,8 @@
         <v>0.20603488372093021</v>
       </c>
       <c r="S76" s="88"/>
-      <c r="T76" s="240"/>
-      <c r="U76" s="241"/>
+      <c r="T76" s="244"/>
+      <c r="U76" s="245"/>
       <c r="V76" s="40"/>
       <c r="W76" t="s">
         <v>296</v>
@@ -25746,10 +25441,10 @@
         <v>0.1047</v>
       </c>
       <c r="H77" s="100"/>
-      <c r="I77" s="244">
+      <c r="I77" s="253">
         <v>0.28591</v>
       </c>
-      <c r="J77" s="245"/>
+      <c r="J77" s="254"/>
       <c r="K77" s="99" t="s">
         <v>363</v>
       </c>
@@ -25763,10 +25458,10 @@
         <v>0.12174418604651163</v>
       </c>
       <c r="S77" s="100"/>
-      <c r="T77" s="244">
+      <c r="T77" s="253">
         <v>0.28591</v>
       </c>
-      <c r="U77" s="245"/>
+      <c r="U77" s="254"/>
       <c r="V77" s="40"/>
       <c r="AC77" t="s">
         <v>493</v>
@@ -25867,192 +25562,6 @@
     </row>
   </sheetData>
   <mergeCells count="210">
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="T36:U36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="T41:U41"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="T39:U39"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="T40:U40"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="T45:U45"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="T42:U42"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="T43:U43"/>
-    <mergeCell ref="T48:U48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="T46:U46"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="T47:U47"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="T53:U53"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="T50:U50"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="T51:U51"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="T57:U57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="T58:U58"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="T54:U54"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="T55:U55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="T56:U56"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="T66:U66"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="T67:U67"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="T62:U62"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="T64:U64"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="T65:U65"/>
-    <mergeCell ref="I77:J77"/>
-    <mergeCell ref="T77:U77"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="T71:U71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="I73:J73"/>
-    <mergeCell ref="T73:U73"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="T74:U74"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="W37:X37"/>
@@ -26077,6 +25586,192 @@
     <mergeCell ref="I52:J52"/>
     <mergeCell ref="T52:U52"/>
     <mergeCell ref="I48:J48"/>
+    <mergeCell ref="I77:J77"/>
+    <mergeCell ref="T77:U77"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="T71:U71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="I73:J73"/>
+    <mergeCell ref="T73:U73"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="T74:U74"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="T66:U66"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="T67:U67"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="T62:U62"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="T64:U64"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="T65:U65"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="T57:U57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="T58:U58"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="T54:U54"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="T55:U55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="T56:U56"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="T53:U53"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="T51:U51"/>
+    <mergeCell ref="T48:U48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="T46:U46"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="T47:U47"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="T45:U45"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:J48 A50:J77">
     <cfRule type="cellIs" dxfId="21" priority="13" operator="between">
@@ -61362,7 +61057,7 @@
   <dimension ref="A1:W38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -61600,7 +61295,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E17" si="0">E3+D4</f>
+        <f t="shared" ref="E4:E18" si="0">E3+D4</f>
         <v>5.5</v>
       </c>
       <c r="G4" t="s">
@@ -61632,7 +61327,7 @@
         <v>3</v>
       </c>
       <c r="Q4">
-        <f t="shared" ref="Q4:Q17" si="2">Q3+P4</f>
+        <f t="shared" ref="Q4:Q18" si="2">Q3+P4</f>
         <v>9</v>
       </c>
       <c r="S4" t="s">
@@ -61648,7 +61343,7 @@
         <v>2</v>
       </c>
       <c r="W4">
-        <f t="shared" ref="W4:W17" si="3">W3+V4</f>
+        <f t="shared" ref="W4:W18" si="3">W3+V4</f>
         <v>5.5</v>
       </c>
     </row>
@@ -62523,6 +62218,10 @@
       <c r="D18">
         <v>19</v>
       </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>105.5</v>
+      </c>
       <c r="G18" t="s">
         <v>68</v>
       </c>
@@ -62544,6 +62243,10 @@
       <c r="P18">
         <v>58</v>
       </c>
+      <c r="Q18">
+        <f t="shared" si="2"/>
+        <v>199</v>
+      </c>
       <c r="S18" t="s">
         <v>68</v>
       </c>
@@ -62555,6 +62258,10 @@
       </c>
       <c r="V18">
         <v>21</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="3"/>
+        <v>113.5</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
@@ -62736,7 +62443,7 @@
         <v>3</v>
       </c>
       <c r="E24">
-        <f t="shared" ref="E24:E37" si="4">E23+D24</f>
+        <f t="shared" ref="E24:E38" si="4">E23+D24</f>
         <v>7</v>
       </c>
       <c r="G24" t="s">
@@ -62768,7 +62475,7 @@
         <v>1</v>
       </c>
       <c r="Q24">
-        <f t="shared" ref="Q24:Q37" si="6">Q23+P24</f>
+        <f t="shared" ref="Q24:Q38" si="6">Q23+P24</f>
         <v>3</v>
       </c>
       <c r="S24" t="s">
@@ -63441,6 +63148,10 @@
       <c r="D38">
         <v>41</v>
       </c>
+      <c r="E38">
+        <f t="shared" si="4"/>
+        <v>169</v>
+      </c>
       <c r="G38" t="s">
         <v>68</v>
       </c>
@@ -63461,6 +63172,10 @@
       </c>
       <c r="P38">
         <v>4</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="6"/>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -65441,460 +65156,460 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="234" t="s">
+      <c r="A4" s="230" t="s">
         <v>1130</v>
       </c>
-      <c r="B4" s="234" t="s">
+      <c r="B4" s="230" t="s">
         <v>1131</v>
       </c>
-      <c r="C4" s="234" t="s">
+      <c r="C4" s="230" t="s">
         <v>1132</v>
       </c>
-      <c r="D4" s="234" t="s">
+      <c r="D4" s="230" t="s">
         <v>1133</v>
       </c>
-      <c r="E4" s="236" t="s">
+      <c r="E4" s="232" t="s">
         <v>1134</v>
       </c>
-      <c r="F4" s="234" t="s">
+      <c r="F4" s="230" t="s">
         <v>1135</v>
       </c>
-      <c r="G4" s="234" t="s">
+      <c r="G4" s="230" t="s">
         <v>1136</v>
       </c>
-      <c r="H4" s="234" t="s">
+      <c r="H4" s="230" t="s">
         <v>1137</v>
       </c>
-      <c r="I4" s="234" t="s">
+      <c r="I4" s="230" t="s">
         <v>1138</v>
       </c>
-      <c r="J4" s="236" t="s">
+      <c r="J4" s="232" t="s">
         <v>1139</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="235"/>
-      <c r="B5" s="235"/>
-      <c r="C5" s="235"/>
-      <c r="D5" s="235"/>
-      <c r="E5" s="237"/>
-      <c r="F5" s="235"/>
-      <c r="G5" s="235"/>
-      <c r="H5" s="235"/>
-      <c r="I5" s="235"/>
-      <c r="J5" s="237"/>
+      <c r="A5" s="231"/>
+      <c r="B5" s="231"/>
+      <c r="C5" s="231"/>
+      <c r="D5" s="231"/>
+      <c r="E5" s="233"/>
+      <c r="F5" s="231"/>
+      <c r="G5" s="231"/>
+      <c r="H5" s="231"/>
+      <c r="I5" s="231"/>
+      <c r="J5" s="233"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="234" t="s">
+      <c r="A6" s="230" t="s">
         <v>1140</v>
       </c>
-      <c r="B6" s="230">
+      <c r="B6" s="234">
         <v>3563</v>
       </c>
-      <c r="C6" s="230">
+      <c r="C6" s="234">
         <v>3583</v>
       </c>
-      <c r="D6" s="230">
+      <c r="D6" s="234">
         <v>3689</v>
       </c>
-      <c r="E6" s="232">
+      <c r="E6" s="236">
         <v>3712</v>
       </c>
-      <c r="F6" s="230">
+      <c r="F6" s="234">
         <v>3656</v>
       </c>
-      <c r="G6" s="230">
+      <c r="G6" s="234">
         <v>3751</v>
       </c>
-      <c r="H6" s="230">
+      <c r="H6" s="234">
         <v>3693</v>
       </c>
-      <c r="I6" s="230">
+      <c r="I6" s="234">
         <v>3676</v>
       </c>
-      <c r="J6" s="232">
+      <c r="J6" s="236">
         <v>3638</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="235"/>
-      <c r="B7" s="231"/>
-      <c r="C7" s="231"/>
-      <c r="D7" s="231"/>
-      <c r="E7" s="233"/>
-      <c r="F7" s="231"/>
-      <c r="G7" s="231"/>
-      <c r="H7" s="231"/>
-      <c r="I7" s="231"/>
-      <c r="J7" s="233"/>
+      <c r="A7" s="231"/>
+      <c r="B7" s="235"/>
+      <c r="C7" s="235"/>
+      <c r="D7" s="235"/>
+      <c r="E7" s="237"/>
+      <c r="F7" s="235"/>
+      <c r="G7" s="235"/>
+      <c r="H7" s="235"/>
+      <c r="I7" s="235"/>
+      <c r="J7" s="237"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="234" t="s">
+      <c r="A8" s="230" t="s">
         <v>1141</v>
       </c>
-      <c r="B8" s="230">
+      <c r="B8" s="234">
         <v>2957</v>
       </c>
-      <c r="C8" s="230">
+      <c r="C8" s="234">
         <v>3253</v>
       </c>
-      <c r="D8" s="230">
+      <c r="D8" s="234">
         <v>3342</v>
       </c>
-      <c r="E8" s="232">
+      <c r="E8" s="236">
         <v>3325</v>
       </c>
-      <c r="F8" s="230">
+      <c r="F8" s="234">
         <v>3461</v>
       </c>
-      <c r="G8" s="230">
+      <c r="G8" s="234">
         <v>3392</v>
       </c>
-      <c r="H8" s="230">
+      <c r="H8" s="234">
         <v>3455</v>
       </c>
-      <c r="I8" s="230">
+      <c r="I8" s="234">
         <v>3369</v>
       </c>
-      <c r="J8" s="232">
+      <c r="J8" s="236">
         <v>3372</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="235"/>
-      <c r="B9" s="231"/>
-      <c r="C9" s="231"/>
-      <c r="D9" s="231"/>
-      <c r="E9" s="233"/>
-      <c r="F9" s="231"/>
-      <c r="G9" s="231"/>
-      <c r="H9" s="231"/>
-      <c r="I9" s="231"/>
-      <c r="J9" s="233"/>
+      <c r="A9" s="231"/>
+      <c r="B9" s="235"/>
+      <c r="C9" s="235"/>
+      <c r="D9" s="235"/>
+      <c r="E9" s="237"/>
+      <c r="F9" s="235"/>
+      <c r="G9" s="235"/>
+      <c r="H9" s="235"/>
+      <c r="I9" s="235"/>
+      <c r="J9" s="237"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="234" t="s">
+      <c r="A10" s="230" t="s">
         <v>1142</v>
       </c>
-      <c r="B10" s="230">
+      <c r="B10" s="234">
         <v>2354</v>
       </c>
-      <c r="C10" s="230">
+      <c r="C10" s="234">
         <v>2997</v>
       </c>
-      <c r="D10" s="230">
+      <c r="D10" s="234">
         <v>3041</v>
       </c>
-      <c r="E10" s="232">
+      <c r="E10" s="236">
         <v>3085</v>
       </c>
-      <c r="F10" s="230">
+      <c r="F10" s="234">
         <v>3118</v>
       </c>
-      <c r="G10" s="230">
+      <c r="G10" s="234">
         <v>3100</v>
       </c>
-      <c r="H10" s="230">
+      <c r="H10" s="234">
         <v>3130</v>
       </c>
-      <c r="I10" s="230">
+      <c r="I10" s="234">
         <v>3102</v>
       </c>
-      <c r="J10" s="232">
+      <c r="J10" s="236">
         <v>3098</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="235"/>
-      <c r="B11" s="231"/>
-      <c r="C11" s="231"/>
-      <c r="D11" s="231"/>
-      <c r="E11" s="233"/>
-      <c r="F11" s="231"/>
-      <c r="G11" s="231"/>
-      <c r="H11" s="231"/>
-      <c r="I11" s="231"/>
-      <c r="J11" s="233"/>
+      <c r="A11" s="231"/>
+      <c r="B11" s="235"/>
+      <c r="C11" s="235"/>
+      <c r="D11" s="235"/>
+      <c r="E11" s="237"/>
+      <c r="F11" s="235"/>
+      <c r="G11" s="235"/>
+      <c r="H11" s="235"/>
+      <c r="I11" s="235"/>
+      <c r="J11" s="237"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="234" t="s">
+      <c r="A12" s="230" t="s">
         <v>1143</v>
       </c>
-      <c r="B12" s="230"/>
-      <c r="C12" s="230">
+      <c r="B12" s="234"/>
+      <c r="C12" s="234">
         <v>2361</v>
       </c>
-      <c r="D12" s="230">
+      <c r="D12" s="234">
         <v>2778</v>
       </c>
-      <c r="E12" s="232">
+      <c r="E12" s="236">
         <v>2793</v>
       </c>
-      <c r="F12" s="230">
+      <c r="F12" s="234">
         <v>2808</v>
       </c>
-      <c r="G12" s="230">
+      <c r="G12" s="234">
         <v>2810</v>
       </c>
-      <c r="H12" s="230">
+      <c r="H12" s="234">
         <v>2814</v>
       </c>
-      <c r="I12" s="230">
+      <c r="I12" s="234">
         <v>2795</v>
       </c>
-      <c r="J12" s="232">
+      <c r="J12" s="236">
         <v>2793</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="235"/>
-      <c r="B13" s="231"/>
-      <c r="C13" s="231"/>
-      <c r="D13" s="231"/>
-      <c r="E13" s="233"/>
-      <c r="F13" s="231"/>
-      <c r="G13" s="231"/>
-      <c r="H13" s="231"/>
-      <c r="I13" s="231"/>
-      <c r="J13" s="233"/>
+      <c r="A13" s="231"/>
+      <c r="B13" s="235"/>
+      <c r="C13" s="235"/>
+      <c r="D13" s="235"/>
+      <c r="E13" s="237"/>
+      <c r="F13" s="235"/>
+      <c r="G13" s="235"/>
+      <c r="H13" s="235"/>
+      <c r="I13" s="235"/>
+      <c r="J13" s="237"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="234" t="s">
+      <c r="A14" s="230" t="s">
         <v>1144</v>
       </c>
-      <c r="B14" s="230"/>
-      <c r="C14" s="230"/>
-      <c r="D14" s="230">
+      <c r="B14" s="234"/>
+      <c r="C14" s="234"/>
+      <c r="D14" s="234">
         <v>2241</v>
       </c>
-      <c r="E14" s="232">
+      <c r="E14" s="236">
         <v>2467</v>
       </c>
-      <c r="F14" s="230">
+      <c r="F14" s="234">
         <v>2521</v>
       </c>
-      <c r="G14" s="230">
+      <c r="G14" s="234">
         <v>2507</v>
       </c>
-      <c r="H14" s="230">
+      <c r="H14" s="234">
         <v>2536</v>
       </c>
-      <c r="I14" s="230">
+      <c r="I14" s="234">
         <v>2517</v>
       </c>
-      <c r="J14" s="232">
+      <c r="J14" s="236">
         <v>2525</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="235"/>
-      <c r="B15" s="231"/>
-      <c r="C15" s="231"/>
-      <c r="D15" s="231"/>
-      <c r="E15" s="233"/>
-      <c r="F15" s="231"/>
-      <c r="G15" s="231"/>
-      <c r="H15" s="231"/>
-      <c r="I15" s="231"/>
-      <c r="J15" s="233"/>
+      <c r="A15" s="231"/>
+      <c r="B15" s="235"/>
+      <c r="C15" s="235"/>
+      <c r="D15" s="235"/>
+      <c r="E15" s="237"/>
+      <c r="F15" s="235"/>
+      <c r="G15" s="235"/>
+      <c r="H15" s="235"/>
+      <c r="I15" s="235"/>
+      <c r="J15" s="237"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="234" t="s">
+      <c r="A16" s="230" t="s">
         <v>1145</v>
       </c>
-      <c r="B16" s="230"/>
-      <c r="C16" s="230"/>
-      <c r="D16" s="230"/>
-      <c r="E16" s="232">
+      <c r="B16" s="234"/>
+      <c r="C16" s="234"/>
+      <c r="D16" s="234"/>
+      <c r="E16" s="236">
         <v>2113</v>
       </c>
-      <c r="F16" s="230">
+      <c r="F16" s="234">
         <v>2226</v>
       </c>
-      <c r="G16" s="230">
+      <c r="G16" s="234">
         <v>2202</v>
       </c>
-      <c r="H16" s="230">
+      <c r="H16" s="234">
         <v>2232</v>
       </c>
-      <c r="I16" s="230">
+      <c r="I16" s="234">
         <v>2235</v>
       </c>
-      <c r="J16" s="232">
+      <c r="J16" s="236">
         <v>2227</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="235"/>
-      <c r="B17" s="231"/>
-      <c r="C17" s="231"/>
-      <c r="D17" s="231"/>
-      <c r="E17" s="233"/>
-      <c r="F17" s="231"/>
-      <c r="G17" s="231"/>
-      <c r="H17" s="231"/>
-      <c r="I17" s="231"/>
-      <c r="J17" s="233"/>
+      <c r="A17" s="231"/>
+      <c r="B17" s="235"/>
+      <c r="C17" s="235"/>
+      <c r="D17" s="235"/>
+      <c r="E17" s="237"/>
+      <c r="F17" s="235"/>
+      <c r="G17" s="235"/>
+      <c r="H17" s="235"/>
+      <c r="I17" s="235"/>
+      <c r="J17" s="237"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="234" t="s">
+      <c r="A18" s="230" t="s">
         <v>1146</v>
       </c>
-      <c r="B18" s="230"/>
-      <c r="C18" s="230"/>
-      <c r="D18" s="230"/>
-      <c r="E18" s="232"/>
-      <c r="F18" s="230">
+      <c r="B18" s="234"/>
+      <c r="C18" s="234"/>
+      <c r="D18" s="234"/>
+      <c r="E18" s="236"/>
+      <c r="F18" s="234">
         <v>1537</v>
       </c>
-      <c r="G18" s="230">
+      <c r="G18" s="234">
         <v>1762</v>
       </c>
-      <c r="H18" s="230">
+      <c r="H18" s="234">
         <v>1905</v>
       </c>
-      <c r="I18" s="230">
+      <c r="I18" s="234">
         <v>1879</v>
       </c>
-      <c r="J18" s="232">
+      <c r="J18" s="236">
         <v>1893</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="235"/>
-      <c r="B19" s="231"/>
-      <c r="C19" s="231"/>
-      <c r="D19" s="231"/>
-      <c r="E19" s="233"/>
-      <c r="F19" s="231"/>
-      <c r="G19" s="231"/>
-      <c r="H19" s="231"/>
-      <c r="I19" s="231"/>
-      <c r="J19" s="233"/>
+      <c r="A19" s="231"/>
+      <c r="B19" s="235"/>
+      <c r="C19" s="235"/>
+      <c r="D19" s="235"/>
+      <c r="E19" s="237"/>
+      <c r="F19" s="235"/>
+      <c r="G19" s="235"/>
+      <c r="H19" s="235"/>
+      <c r="I19" s="235"/>
+      <c r="J19" s="237"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="234" t="s">
+      <c r="A20" s="230" t="s">
         <v>1147</v>
       </c>
-      <c r="B20" s="230"/>
-      <c r="C20" s="230"/>
-      <c r="D20" s="230"/>
-      <c r="E20" s="232"/>
-      <c r="F20" s="230"/>
-      <c r="G20" s="230">
+      <c r="B20" s="234"/>
+      <c r="C20" s="234"/>
+      <c r="D20" s="234"/>
+      <c r="E20" s="236"/>
+      <c r="F20" s="234"/>
+      <c r="G20" s="234">
         <v>1412</v>
       </c>
-      <c r="H20" s="230">
+      <c r="H20" s="234">
         <v>1689</v>
       </c>
-      <c r="I20" s="230">
+      <c r="I20" s="234">
         <v>1630</v>
       </c>
-      <c r="J20" s="232">
+      <c r="J20" s="236">
         <v>1640</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="235"/>
-      <c r="B21" s="231"/>
-      <c r="C21" s="231"/>
-      <c r="D21" s="231"/>
-      <c r="E21" s="233"/>
-      <c r="F21" s="231"/>
-      <c r="G21" s="231"/>
-      <c r="H21" s="231"/>
-      <c r="I21" s="231"/>
-      <c r="J21" s="233"/>
+      <c r="A21" s="231"/>
+      <c r="B21" s="235"/>
+      <c r="C21" s="235"/>
+      <c r="D21" s="235"/>
+      <c r="E21" s="237"/>
+      <c r="F21" s="235"/>
+      <c r="G21" s="235"/>
+      <c r="H21" s="235"/>
+      <c r="I21" s="235"/>
+      <c r="J21" s="237"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="234" t="s">
+      <c r="A22" s="230" t="s">
         <v>1148</v>
       </c>
-      <c r="B22" s="230"/>
-      <c r="C22" s="230"/>
-      <c r="D22" s="230"/>
-      <c r="E22" s="232"/>
-      <c r="F22" s="230"/>
-      <c r="G22" s="230"/>
-      <c r="H22" s="230">
+      <c r="B22" s="234"/>
+      <c r="C22" s="234"/>
+      <c r="D22" s="234"/>
+      <c r="E22" s="236"/>
+      <c r="F22" s="234"/>
+      <c r="G22" s="234"/>
+      <c r="H22" s="234">
         <v>1082</v>
       </c>
-      <c r="I22" s="230">
+      <c r="I22" s="234">
         <v>1341</v>
       </c>
-      <c r="J22" s="232">
+      <c r="J22" s="236">
         <v>1325</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="235"/>
-      <c r="B23" s="231"/>
-      <c r="C23" s="231"/>
-      <c r="D23" s="231"/>
-      <c r="E23" s="233"/>
-      <c r="F23" s="231"/>
-      <c r="G23" s="231"/>
-      <c r="H23" s="231"/>
-      <c r="I23" s="231"/>
-      <c r="J23" s="233"/>
+      <c r="A23" s="231"/>
+      <c r="B23" s="235"/>
+      <c r="C23" s="235"/>
+      <c r="D23" s="235"/>
+      <c r="E23" s="237"/>
+      <c r="F23" s="235"/>
+      <c r="G23" s="235"/>
+      <c r="H23" s="235"/>
+      <c r="I23" s="235"/>
+      <c r="J23" s="237"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="234" t="s">
+      <c r="A24" s="230" t="s">
         <v>1149</v>
       </c>
-      <c r="B24" s="230"/>
-      <c r="C24" s="230"/>
-      <c r="D24" s="230"/>
-      <c r="E24" s="232"/>
-      <c r="F24" s="230"/>
-      <c r="G24" s="230"/>
-      <c r="H24" s="230"/>
-      <c r="I24" s="230">
+      <c r="B24" s="234"/>
+      <c r="C24" s="234"/>
+      <c r="D24" s="234"/>
+      <c r="E24" s="236"/>
+      <c r="F24" s="234"/>
+      <c r="G24" s="234"/>
+      <c r="H24" s="234"/>
+      <c r="I24" s="234">
         <v>1003</v>
       </c>
-      <c r="J24" s="232">
+      <c r="J24" s="236">
         <v>1016</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="235"/>
-      <c r="B25" s="231"/>
-      <c r="C25" s="231"/>
-      <c r="D25" s="231"/>
-      <c r="E25" s="233"/>
-      <c r="F25" s="231"/>
-      <c r="G25" s="231"/>
-      <c r="H25" s="231"/>
-      <c r="I25" s="231"/>
-      <c r="J25" s="233"/>
+      <c r="A25" s="231"/>
+      <c r="B25" s="235"/>
+      <c r="C25" s="235"/>
+      <c r="D25" s="235"/>
+      <c r="E25" s="237"/>
+      <c r="F25" s="235"/>
+      <c r="G25" s="235"/>
+      <c r="H25" s="235"/>
+      <c r="I25" s="235"/>
+      <c r="J25" s="237"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="234" t="s">
+      <c r="A26" s="230" t="s">
         <v>1150</v>
       </c>
-      <c r="B26" s="230"/>
-      <c r="C26" s="230"/>
-      <c r="D26" s="230"/>
-      <c r="E26" s="232"/>
-      <c r="F26" s="230"/>
-      <c r="G26" s="230"/>
-      <c r="H26" s="230"/>
-      <c r="I26" s="230"/>
-      <c r="J26" s="232">
+      <c r="B26" s="234"/>
+      <c r="C26" s="234"/>
+      <c r="D26" s="234"/>
+      <c r="E26" s="236"/>
+      <c r="F26" s="234"/>
+      <c r="G26" s="234"/>
+      <c r="H26" s="234"/>
+      <c r="I26" s="234"/>
+      <c r="J26" s="236">
         <v>632</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="235"/>
-      <c r="B27" s="231"/>
-      <c r="C27" s="231"/>
-      <c r="D27" s="231"/>
-      <c r="E27" s="233"/>
-      <c r="F27" s="231"/>
-      <c r="G27" s="231"/>
-      <c r="H27" s="231"/>
-      <c r="I27" s="231"/>
-      <c r="J27" s="233"/>
+      <c r="A27" s="231"/>
+      <c r="B27" s="235"/>
+      <c r="C27" s="235"/>
+      <c r="D27" s="235"/>
+      <c r="E27" s="237"/>
+      <c r="F27" s="235"/>
+      <c r="G27" s="235"/>
+      <c r="H27" s="235"/>
+      <c r="I27" s="235"/>
+      <c r="J27" s="237"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -65903,6 +65618,106 @@
     </row>
   </sheetData>
   <mergeCells count="120">
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
@@ -65923,106 +65738,6 @@
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -66033,10 +65748,10 @@
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -66227,9 +65942,15 @@
         <v>230</v>
       </c>
     </row>
-    <row r="17" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N17" s="70" t="s">
         <v>231</v>
+      </c>
+    </row>
+    <row r="23" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="O23">
+        <f>18636/1.047</f>
+        <v>17799.426934097421</v>
       </c>
     </row>
   </sheetData>
@@ -66268,26 +65989,26 @@
       <c r="C1" s="78" t="s">
         <v>233</v>
       </c>
-      <c r="F1" s="253" t="s">
+      <c r="F1" s="238" t="s">
         <v>234</v>
       </c>
-      <c r="G1" s="253"/>
-      <c r="H1" s="253" t="s">
+      <c r="G1" s="238"/>
+      <c r="H1" s="238" t="s">
         <v>235</v>
       </c>
-      <c r="I1" s="253"/>
-      <c r="J1" s="253" t="s">
+      <c r="I1" s="238"/>
+      <c r="J1" s="238" t="s">
         <v>236</v>
       </c>
-      <c r="K1" s="253"/>
-      <c r="L1" s="253" t="s">
+      <c r="K1" s="238"/>
+      <c r="L1" s="238" t="s">
         <v>237</v>
       </c>
-      <c r="M1" s="253"/>
-      <c r="N1" s="253" t="s">
+      <c r="M1" s="238"/>
+      <c r="N1" s="238" t="s">
         <v>238</v>
       </c>
-      <c r="O1" s="253"/>
+      <c r="O1" s="238"/>
     </row>
     <row r="2" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F2" s="79" t="s">
@@ -66296,18 +66017,18 @@
       <c r="G2" s="79" t="s">
         <v>240</v>
       </c>
-      <c r="H2" s="254"/>
-      <c r="I2" s="255"/>
-      <c r="J2" s="254"/>
-      <c r="K2" s="255"/>
+      <c r="H2" s="239"/>
+      <c r="I2" s="240"/>
+      <c r="J2" s="239"/>
+      <c r="K2" s="240"/>
       <c r="L2" s="79" t="s">
         <v>239</v>
       </c>
       <c r="M2" s="79" t="s">
         <v>240</v>
       </c>
-      <c r="N2" s="254"/>
-      <c r="O2" s="255"/>
+      <c r="N2" s="239"/>
+      <c r="O2" s="240"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -66319,14 +66040,14 @@
       <c r="E3" s="80" t="s">
         <v>243</v>
       </c>
-      <c r="F3" s="250">
+      <c r="F3" s="242">
         <v>0.64709000000000005</v>
       </c>
-      <c r="G3" s="250"/>
-      <c r="H3" s="250">
+      <c r="G3" s="242"/>
+      <c r="H3" s="242">
         <v>0.97192999999999996</v>
       </c>
-      <c r="I3" s="250"/>
+      <c r="I3" s="242"/>
       <c r="J3" s="81"/>
       <c r="K3" s="81"/>
       <c r="L3" s="81"/>
@@ -66349,14 +66070,14 @@
       <c r="E4" s="84" t="s">
         <v>246</v>
       </c>
-      <c r="F4" s="252">
+      <c r="F4" s="241">
         <v>0.26545000000000002</v>
       </c>
-      <c r="G4" s="252"/>
-      <c r="H4" s="252">
+      <c r="G4" s="241"/>
+      <c r="H4" s="241">
         <v>0.39895999999999998</v>
       </c>
-      <c r="I4" s="252"/>
+      <c r="I4" s="241"/>
       <c r="J4" s="85"/>
       <c r="K4" s="85"/>
       <c r="L4" s="85"/>
@@ -66382,10 +66103,10 @@
       <c r="G5" s="81">
         <v>0.25008999999999998</v>
       </c>
-      <c r="H5" s="250">
+      <c r="H5" s="242">
         <v>1</v>
       </c>
-      <c r="I5" s="250"/>
+      <c r="I5" s="242"/>
       <c r="J5" s="81"/>
       <c r="K5" s="81"/>
       <c r="L5" s="81"/>
@@ -66406,10 +66127,10 @@
       <c r="G6" s="85"/>
       <c r="H6" s="85"/>
       <c r="I6" s="85"/>
-      <c r="J6" s="252">
+      <c r="J6" s="241">
         <v>0.27488000000000001</v>
       </c>
-      <c r="K6" s="252"/>
+      <c r="K6" s="241"/>
       <c r="L6" s="85"/>
       <c r="M6" s="85"/>
       <c r="N6" s="85"/>
@@ -66433,10 +66154,10 @@
       <c r="G7" s="81">
         <v>0.17752000000000001</v>
       </c>
-      <c r="H7" s="250">
+      <c r="H7" s="242">
         <v>0.72296000000000005</v>
       </c>
-      <c r="I7" s="250"/>
+      <c r="I7" s="242"/>
       <c r="J7" s="81"/>
       <c r="K7" s="81"/>
       <c r="L7" s="81"/>
@@ -66459,10 +66180,10 @@
       <c r="G8" s="85"/>
       <c r="H8" s="85"/>
       <c r="I8" s="85"/>
-      <c r="J8" s="252">
+      <c r="J8" s="241">
         <v>0.36337000000000003</v>
       </c>
-      <c r="K8" s="252"/>
+      <c r="K8" s="241"/>
       <c r="L8" s="85"/>
       <c r="M8" s="85"/>
       <c r="N8" s="85"/>
@@ -66480,10 +66201,10 @@
         <v>0.65615999999999997</v>
       </c>
       <c r="G9" s="81"/>
-      <c r="H9" s="250">
+      <c r="H9" s="242">
         <v>0.78437000000000001</v>
       </c>
-      <c r="I9" s="250"/>
+      <c r="I9" s="242"/>
       <c r="J9" s="81"/>
       <c r="K9" s="81"/>
       <c r="L9" s="81"/>
@@ -66509,10 +66230,10 @@
       <c r="G10" s="88"/>
       <c r="H10" s="88"/>
       <c r="I10" s="88"/>
-      <c r="J10" s="251">
+      <c r="J10" s="243">
         <v>0.1464</v>
       </c>
-      <c r="K10" s="251"/>
+      <c r="K10" s="243"/>
       <c r="L10" s="88"/>
       <c r="M10" s="88"/>
       <c r="N10" s="88"/>
@@ -66547,14 +66268,14 @@
       <c r="E12" s="80" t="s">
         <v>260</v>
       </c>
-      <c r="F12" s="250">
+      <c r="F12" s="242">
         <v>0.42514999999999997</v>
       </c>
-      <c r="G12" s="250"/>
-      <c r="H12" s="250">
+      <c r="G12" s="242"/>
+      <c r="H12" s="242">
         <v>0.85</v>
       </c>
-      <c r="I12" s="250"/>
+      <c r="I12" s="242"/>
       <c r="J12" s="81"/>
       <c r="K12" s="81"/>
       <c r="L12" s="81"/>
@@ -66580,10 +66301,10 @@
       <c r="G13" s="85"/>
       <c r="H13" s="85"/>
       <c r="I13" s="85"/>
-      <c r="J13" s="252">
+      <c r="J13" s="241">
         <v>0.23365</v>
       </c>
-      <c r="K13" s="252"/>
+      <c r="K13" s="241"/>
       <c r="L13" s="85"/>
       <c r="M13" s="85"/>
       <c r="N13" s="85"/>
@@ -66601,10 +66322,10 @@
         <v>1</v>
       </c>
       <c r="G14" s="92"/>
-      <c r="H14" s="250">
+      <c r="H14" s="242">
         <v>0.51382000000000005</v>
       </c>
-      <c r="I14" s="250"/>
+      <c r="I14" s="242"/>
       <c r="J14" s="81"/>
       <c r="K14" s="81"/>
       <c r="L14" s="81"/>
@@ -66631,10 +66352,10 @@
       <c r="G15" s="88"/>
       <c r="H15" s="88"/>
       <c r="I15" s="88"/>
-      <c r="J15" s="251">
+      <c r="J15" s="243">
         <v>4.3869999999999999E-2</v>
       </c>
-      <c r="K15" s="251"/>
+      <c r="K15" s="243"/>
       <c r="L15" s="88"/>
       <c r="M15" s="88"/>
       <c r="N15" s="88"/>
@@ -66681,10 +66402,10 @@
         <v>0.91232999999999997</v>
       </c>
       <c r="G17" s="92"/>
-      <c r="H17" s="250">
+      <c r="H17" s="242">
         <v>0.46146999999999999</v>
       </c>
-      <c r="I17" s="250"/>
+      <c r="I17" s="242"/>
       <c r="J17" s="81"/>
       <c r="K17" s="81"/>
       <c r="L17" s="81"/>
@@ -66710,10 +66431,10 @@
       <c r="G18" s="88"/>
       <c r="H18" s="88"/>
       <c r="I18" s="88"/>
-      <c r="J18" s="251">
+      <c r="J18" s="243">
         <v>0.15035999999999999</v>
       </c>
-      <c r="K18" s="251"/>
+      <c r="K18" s="243"/>
       <c r="L18" s="88"/>
       <c r="M18" s="88"/>
       <c r="N18" s="88"/>
@@ -66755,10 +66476,10 @@
         <v>0.69059999999999999</v>
       </c>
       <c r="G20" s="92"/>
-      <c r="H20" s="250">
+      <c r="H20" s="242">
         <v>0.38878000000000001</v>
       </c>
-      <c r="I20" s="250"/>
+      <c r="I20" s="242"/>
       <c r="J20" s="81"/>
       <c r="K20" s="81"/>
       <c r="L20" s="81"/>
@@ -66784,10 +66505,10 @@
       <c r="G21" s="88"/>
       <c r="H21" s="88"/>
       <c r="I21" s="88"/>
-      <c r="J21" s="251">
+      <c r="J21" s="243">
         <v>0.2099</v>
       </c>
-      <c r="K21" s="251"/>
+      <c r="K21" s="243"/>
       <c r="L21" s="88"/>
       <c r="M21" s="88"/>
       <c r="N21" s="88"/>
@@ -66829,10 +66550,10 @@
         <v>0.68315000000000003</v>
       </c>
       <c r="G23" s="92"/>
-      <c r="H23" s="250">
+      <c r="H23" s="242">
         <v>0.70006000000000002</v>
       </c>
-      <c r="I23" s="250"/>
+      <c r="I23" s="242"/>
       <c r="J23" s="81"/>
       <c r="K23" s="81"/>
       <c r="L23" s="81"/>
@@ -66858,10 +66579,10 @@
       <c r="G24" s="88"/>
       <c r="H24" s="88"/>
       <c r="I24" s="88"/>
-      <c r="J24" s="251">
+      <c r="J24" s="243">
         <v>0.152</v>
       </c>
-      <c r="K24" s="251"/>
+      <c r="K24" s="243"/>
       <c r="L24" s="88"/>
       <c r="M24" s="88"/>
       <c r="N24" s="88"/>
@@ -66905,16 +66626,16 @@
       <c r="G26" s="81">
         <v>9.2719999999999997E-2</v>
       </c>
-      <c r="H26" s="250">
+      <c r="H26" s="242">
         <v>0.42459999999999998</v>
       </c>
-      <c r="I26" s="250"/>
+      <c r="I26" s="242"/>
       <c r="J26" s="81"/>
       <c r="K26" s="81"/>
       <c r="L26" s="81"/>
       <c r="M26" s="81"/>
-      <c r="N26" s="238"/>
-      <c r="O26" s="239"/>
+      <c r="N26" s="246"/>
+      <c r="O26" s="247"/>
       <c r="P26" s="83">
         <f>F26+G26+H26+J27+L28+M28+N28</f>
         <v>2.4103300000000001</v>
@@ -66934,14 +66655,14 @@
       <c r="G27" s="88"/>
       <c r="H27" s="88"/>
       <c r="I27" s="88"/>
-      <c r="J27" s="251">
+      <c r="J27" s="243">
         <v>1</v>
       </c>
-      <c r="K27" s="251"/>
+      <c r="K27" s="243"/>
       <c r="L27" s="88"/>
       <c r="M27" s="88"/>
-      <c r="N27" s="240"/>
-      <c r="O27" s="241"/>
+      <c r="N27" s="244"/>
+      <c r="O27" s="245"/>
       <c r="P27" s="83"/>
     </row>
     <row r="28" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -66966,10 +66687,10 @@
       <c r="M28" s="85">
         <v>0.1226</v>
       </c>
-      <c r="N28" s="242">
+      <c r="N28" s="248">
         <v>0.34044000000000002</v>
       </c>
-      <c r="O28" s="243"/>
+      <c r="O28" s="249"/>
       <c r="P28" s="83"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
@@ -66985,16 +66706,16 @@
       <c r="G29" s="81">
         <v>0.13719000000000001</v>
       </c>
-      <c r="H29" s="250">
+      <c r="H29" s="242">
         <v>0.62792999999999999</v>
       </c>
-      <c r="I29" s="250"/>
+      <c r="I29" s="242"/>
       <c r="J29" s="81"/>
       <c r="K29" s="81"/>
       <c r="L29" s="81"/>
       <c r="M29" s="81"/>
-      <c r="N29" s="238"/>
-      <c r="O29" s="239"/>
+      <c r="N29" s="246"/>
+      <c r="O29" s="247"/>
       <c r="P29" s="83">
         <f>F29+G29+H29+L30+M30+N30+J33</f>
         <v>2.4474499999999999</v>
@@ -67022,10 +66743,10 @@
       <c r="M30" s="85">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="N30" s="242">
+      <c r="N30" s="248">
         <v>0.23748</v>
       </c>
-      <c r="O30" s="243"/>
+      <c r="O30" s="249"/>
       <c r="P30" s="83"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
@@ -67041,16 +66762,16 @@
       <c r="G31" s="81">
         <v>5.6059999999999999E-2</v>
       </c>
-      <c r="H31" s="250">
+      <c r="H31" s="242">
         <v>0.23462</v>
       </c>
-      <c r="I31" s="250"/>
+      <c r="I31" s="242"/>
       <c r="J31" s="81"/>
       <c r="K31" s="81"/>
       <c r="L31" s="81"/>
       <c r="M31" s="81"/>
-      <c r="N31" s="238"/>
-      <c r="O31" s="239"/>
+      <c r="N31" s="246"/>
+      <c r="O31" s="247"/>
       <c r="P31" s="83">
         <f>F31+G31+H31+L32+M32+N32+J33</f>
         <v>2.2090299999999998</v>
@@ -67075,10 +66796,10 @@
       <c r="M32" s="85">
         <v>0.11894</v>
       </c>
-      <c r="N32" s="242">
+      <c r="N32" s="248">
         <v>0.50244</v>
       </c>
-      <c r="O32" s="243"/>
+      <c r="O32" s="249"/>
       <c r="P32" s="83"/>
     </row>
     <row r="33" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -67092,34 +66813,34 @@
       <c r="G33" s="94"/>
       <c r="H33" s="94"/>
       <c r="I33" s="94"/>
-      <c r="J33" s="247">
+      <c r="J33" s="250">
         <v>0.94696999999999998</v>
       </c>
-      <c r="K33" s="247"/>
+      <c r="K33" s="250"/>
       <c r="L33" s="94"/>
       <c r="M33" s="94"/>
-      <c r="N33" s="248"/>
-      <c r="O33" s="249"/>
+      <c r="N33" s="251"/>
+      <c r="O33" s="252"/>
       <c r="P33" s="83"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E34" s="80" t="s">
         <v>310</v>
       </c>
-      <c r="F34" s="250">
+      <c r="F34" s="242">
         <v>0.15762999999999999</v>
       </c>
-      <c r="G34" s="250"/>
-      <c r="H34" s="250">
+      <c r="G34" s="242"/>
+      <c r="H34" s="242">
         <v>0.36070000000000002</v>
       </c>
-      <c r="I34" s="250"/>
+      <c r="I34" s="242"/>
       <c r="J34" s="81"/>
       <c r="K34" s="81"/>
       <c r="L34" s="81"/>
       <c r="M34" s="81"/>
-      <c r="N34" s="238"/>
-      <c r="O34" s="239"/>
+      <c r="N34" s="246"/>
+      <c r="O34" s="247"/>
       <c r="P34" s="83">
         <f>F34+H34+J35+L36+N36</f>
         <v>1.8655399999999998</v>
@@ -67133,14 +66854,14 @@
       <c r="G35" s="88"/>
       <c r="H35" s="88"/>
       <c r="I35" s="88"/>
-      <c r="J35" s="251">
+      <c r="J35" s="243">
         <v>0.85</v>
       </c>
-      <c r="K35" s="251"/>
+      <c r="K35" s="243"/>
       <c r="L35" s="88"/>
       <c r="M35" s="88"/>
-      <c r="N35" s="240"/>
-      <c r="O35" s="241"/>
+      <c r="N35" s="244"/>
+      <c r="O35" s="245"/>
       <c r="P35" s="83"/>
     </row>
     <row r="36" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -67160,10 +66881,10 @@
         <v>0.20784</v>
       </c>
       <c r="M36" s="85"/>
-      <c r="N36" s="242">
+      <c r="N36" s="248">
         <v>0.28937000000000002</v>
       </c>
-      <c r="O36" s="243"/>
+      <c r="O36" s="249"/>
       <c r="P36" s="83"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
@@ -67173,20 +66894,20 @@
       <c r="E37" s="80" t="s">
         <v>315</v>
       </c>
-      <c r="F37" s="250">
+      <c r="F37" s="242">
         <v>0.20368</v>
       </c>
-      <c r="G37" s="250"/>
-      <c r="H37" s="250">
+      <c r="G37" s="242"/>
+      <c r="H37" s="242">
         <v>0.33767000000000003</v>
       </c>
-      <c r="I37" s="250"/>
+      <c r="I37" s="242"/>
       <c r="J37" s="81"/>
       <c r="K37" s="81"/>
       <c r="L37" s="81"/>
       <c r="M37" s="81"/>
-      <c r="N37" s="238"/>
-      <c r="O37" s="239"/>
+      <c r="N37" s="246"/>
+      <c r="O37" s="247"/>
       <c r="P37" s="83">
         <f>F37+H37+J38+L39+L40+N40</f>
         <v>2.5172699999999999</v>
@@ -67203,14 +66924,14 @@
       <c r="G38" s="88"/>
       <c r="H38" s="88"/>
       <c r="I38" s="88"/>
-      <c r="J38" s="251">
+      <c r="J38" s="243">
         <v>0.89815999999999996</v>
       </c>
-      <c r="K38" s="251"/>
+      <c r="K38" s="243"/>
       <c r="L38" s="88"/>
       <c r="M38" s="88"/>
-      <c r="N38" s="240"/>
-      <c r="O38" s="241"/>
+      <c r="N38" s="244"/>
+      <c r="O38" s="245"/>
       <c r="P38" s="83"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
@@ -67230,8 +66951,8 @@
         <v>0.57364000000000004</v>
       </c>
       <c r="M39" s="88"/>
-      <c r="N39" s="240"/>
-      <c r="O39" s="241"/>
+      <c r="N39" s="244"/>
+      <c r="O39" s="245"/>
       <c r="P39" s="83"/>
     </row>
     <row r="40" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -67251,10 +66972,10 @@
         <v>0.26422000000000001</v>
       </c>
       <c r="M40" s="85"/>
-      <c r="N40" s="242">
+      <c r="N40" s="248">
         <v>0.2399</v>
       </c>
-      <c r="O40" s="243"/>
+      <c r="O40" s="249"/>
       <c r="P40" s="83"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
@@ -67265,16 +66986,16 @@
         <v>0.34708</v>
       </c>
       <c r="G41" s="92"/>
-      <c r="H41" s="250">
+      <c r="H41" s="242">
         <v>0.20830000000000001</v>
       </c>
-      <c r="I41" s="250"/>
+      <c r="I41" s="242"/>
       <c r="J41" s="81"/>
       <c r="K41" s="81"/>
       <c r="L41" s="81"/>
       <c r="M41" s="81"/>
-      <c r="N41" s="238"/>
-      <c r="O41" s="239"/>
+      <c r="N41" s="246"/>
+      <c r="O41" s="247"/>
       <c r="P41" s="83">
         <f>F41+H41+J42+L43+L44+N44</f>
         <v>2.29189</v>
@@ -67288,14 +67009,14 @@
       <c r="G42" s="88"/>
       <c r="H42" s="88"/>
       <c r="I42" s="88"/>
-      <c r="J42" s="251">
+      <c r="J42" s="243">
         <v>0.52559999999999996</v>
       </c>
-      <c r="K42" s="251"/>
+      <c r="K42" s="243"/>
       <c r="L42" s="88"/>
       <c r="M42" s="88"/>
-      <c r="N42" s="240"/>
-      <c r="O42" s="241"/>
+      <c r="N42" s="244"/>
+      <c r="O42" s="245"/>
       <c r="P42" s="83"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
@@ -67313,8 +67034,8 @@
         <v>0.84328000000000003</v>
       </c>
       <c r="M43" s="88"/>
-      <c r="N43" s="240"/>
-      <c r="O43" s="241"/>
+      <c r="N43" s="244"/>
+      <c r="O43" s="245"/>
       <c r="P43" s="83"/>
     </row>
     <row r="44" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -67334,10 +67055,10 @@
         <v>0.23543</v>
       </c>
       <c r="M44" s="85"/>
-      <c r="N44" s="242">
+      <c r="N44" s="248">
         <v>0.13220000000000001</v>
       </c>
-      <c r="O44" s="243"/>
+      <c r="O44" s="249"/>
       <c r="P44" s="83"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
@@ -67351,16 +67072,16 @@
         <v>0.47361999999999999</v>
       </c>
       <c r="G45" s="92"/>
-      <c r="H45" s="250">
+      <c r="H45" s="242">
         <v>0.28101999999999999</v>
       </c>
-      <c r="I45" s="250"/>
+      <c r="I45" s="242"/>
       <c r="J45" s="81"/>
       <c r="K45" s="81"/>
       <c r="L45" s="81"/>
       <c r="M45" s="81"/>
-      <c r="N45" s="238"/>
-      <c r="O45" s="239"/>
+      <c r="N45" s="246"/>
+      <c r="O45" s="247"/>
       <c r="P45" s="83">
         <f>F45+H45+L46+L47+N47+J51</f>
         <v>2.2079800000000001</v>
@@ -67380,8 +67101,8 @@
         <v>0.71950000000000003</v>
       </c>
       <c r="M46" s="88"/>
-      <c r="N46" s="240"/>
-      <c r="O46" s="241"/>
+      <c r="N46" s="244"/>
+      <c r="O46" s="245"/>
       <c r="P46" s="83"/>
     </row>
     <row r="47" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -67401,10 +67122,10 @@
         <v>0.20451</v>
       </c>
       <c r="M47" s="85"/>
-      <c r="N47" s="242">
+      <c r="N47" s="248">
         <v>9.1600000000000001E-2</v>
       </c>
-      <c r="O47" s="243"/>
+      <c r="O47" s="249"/>
       <c r="P47" s="83"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
@@ -67418,16 +67139,16 @@
         <v>0.17321</v>
       </c>
       <c r="G48" s="92"/>
-      <c r="H48" s="250">
+      <c r="H48" s="242">
         <v>9.2929999999999999E-2</v>
       </c>
-      <c r="I48" s="250"/>
+      <c r="I48" s="242"/>
       <c r="J48" s="81"/>
       <c r="K48" s="81"/>
       <c r="L48" s="81"/>
       <c r="M48" s="81"/>
-      <c r="N48" s="238"/>
-      <c r="O48" s="239"/>
+      <c r="N48" s="246"/>
+      <c r="O48" s="247"/>
       <c r="P48" s="83">
         <f>F48+H48+L49+L50+N50+J51</f>
         <v>2.12704</v>
@@ -67450,8 +67171,8 @@
         <v>1</v>
       </c>
       <c r="M49" s="88"/>
-      <c r="N49" s="240"/>
-      <c r="O49" s="241"/>
+      <c r="N49" s="244"/>
+      <c r="O49" s="245"/>
       <c r="P49" s="83"/>
     </row>
     <row r="50" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -67474,10 +67195,10 @@
         <v>0.26967000000000002</v>
       </c>
       <c r="M50" s="85"/>
-      <c r="N50" s="242">
+      <c r="N50" s="248">
         <v>0.1535</v>
       </c>
-      <c r="O50" s="243"/>
+      <c r="O50" s="249"/>
       <c r="P50" s="83"/>
     </row>
     <row r="51" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -67491,14 +67212,14 @@
       <c r="G51" s="94"/>
       <c r="H51" s="94"/>
       <c r="I51" s="94"/>
-      <c r="J51" s="247">
+      <c r="J51" s="250">
         <v>0.43773000000000001</v>
       </c>
-      <c r="K51" s="247"/>
+      <c r="K51" s="250"/>
       <c r="L51" s="94"/>
       <c r="M51" s="94"/>
-      <c r="N51" s="248"/>
-      <c r="O51" s="249"/>
+      <c r="N51" s="251"/>
+      <c r="O51" s="252"/>
       <c r="P51" s="83"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
@@ -67515,16 +67236,16 @@
         <v>0.28996</v>
       </c>
       <c r="G52" s="92"/>
-      <c r="H52" s="250">
+      <c r="H52" s="242">
         <v>0.25344</v>
       </c>
-      <c r="I52" s="250"/>
+      <c r="I52" s="242"/>
       <c r="J52" s="81"/>
       <c r="K52" s="81"/>
       <c r="L52" s="81"/>
       <c r="M52" s="81"/>
-      <c r="N52" s="238"/>
-      <c r="O52" s="239"/>
+      <c r="N52" s="246"/>
+      <c r="O52" s="247"/>
       <c r="P52" s="83">
         <f>F52+H52+J53+L54+L55+N55</f>
         <v>2.0821799999999997</v>
@@ -67544,14 +67265,14 @@
       <c r="G53" s="88"/>
       <c r="H53" s="88"/>
       <c r="I53" s="88"/>
-      <c r="J53" s="251">
+      <c r="J53" s="243">
         <v>0.65949000000000002</v>
       </c>
-      <c r="K53" s="251"/>
+      <c r="K53" s="243"/>
       <c r="L53" s="88"/>
       <c r="M53" s="88"/>
-      <c r="N53" s="240"/>
-      <c r="O53" s="241"/>
+      <c r="N53" s="244"/>
+      <c r="O53" s="245"/>
       <c r="P53" s="83"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
@@ -67574,8 +67295,8 @@
         <v>0.56411</v>
       </c>
       <c r="M54" s="88"/>
-      <c r="N54" s="240"/>
-      <c r="O54" s="241"/>
+      <c r="N54" s="244"/>
+      <c r="O54" s="245"/>
       <c r="P54" s="83"/>
     </row>
     <row r="55" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -67598,10 +67319,10 @@
         <v>0.14326</v>
       </c>
       <c r="M55" s="85"/>
-      <c r="N55" s="242">
+      <c r="N55" s="248">
         <v>0.17191999999999999</v>
       </c>
-      <c r="O55" s="243"/>
+      <c r="O55" s="249"/>
       <c r="P55" s="83"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
@@ -67624,8 +67345,8 @@
         <v>0.19162000000000001</v>
       </c>
       <c r="M56" s="81"/>
-      <c r="N56" s="238"/>
-      <c r="O56" s="239"/>
+      <c r="N56" s="246"/>
+      <c r="O56" s="247"/>
       <c r="P56" s="83">
         <f>L56+L57+L58+L59+N58+N59</f>
         <v>2.1837599999999999</v>
@@ -67648,8 +67369,8 @@
         <v>0.49523</v>
       </c>
       <c r="M57" s="88"/>
-      <c r="N57" s="240"/>
-      <c r="O57" s="241"/>
+      <c r="N57" s="244"/>
+      <c r="O57" s="245"/>
       <c r="P57" s="83"/>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
@@ -67669,10 +67390,10 @@
         <v>0.47439999999999999</v>
       </c>
       <c r="M58" s="88"/>
-      <c r="N58" s="240">
+      <c r="N58" s="244">
         <v>0.60697000000000001</v>
       </c>
-      <c r="O58" s="241"/>
+      <c r="O58" s="245"/>
       <c r="P58" s="83"/>
     </row>
     <row r="59" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -67692,10 +67413,10 @@
         <v>0.16774</v>
       </c>
       <c r="M59" s="85"/>
-      <c r="N59" s="242">
+      <c r="N59" s="248">
         <v>0.24779999999999999</v>
       </c>
-      <c r="O59" s="243"/>
+      <c r="O59" s="249"/>
       <c r="P59" s="83"/>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
@@ -67709,14 +67430,14 @@
       <c r="G60" s="81"/>
       <c r="H60" s="81"/>
       <c r="I60" s="81"/>
-      <c r="J60" s="238">
+      <c r="J60" s="246">
         <v>0.45617999999999997</v>
       </c>
-      <c r="K60" s="246"/>
+      <c r="K60" s="255"/>
       <c r="L60" s="81"/>
       <c r="M60" s="81"/>
-      <c r="N60" s="238"/>
-      <c r="O60" s="239"/>
+      <c r="N60" s="246"/>
+      <c r="O60" s="247"/>
       <c r="P60" s="83">
         <f>J60+L62+N62+L63+L64+N64</f>
         <v>2.0612399999999997</v>
@@ -67739,10 +67460,10 @@
         <v>0.28649999999999998</v>
       </c>
       <c r="M61" s="88"/>
-      <c r="N61" s="240">
+      <c r="N61" s="244">
         <v>0.80176999999999998</v>
       </c>
-      <c r="O61" s="241"/>
+      <c r="O61" s="245"/>
       <c r="P61" s="83">
         <f>J60+L61+N61+L63+L64+N64</f>
         <v>2.4324300000000001</v>
@@ -67768,10 +67489,10 @@
         <v>0.20932000000000001</v>
       </c>
       <c r="M62" s="88"/>
-      <c r="N62" s="240">
+      <c r="N62" s="244">
         <v>0.50775999999999999</v>
       </c>
-      <c r="O62" s="241"/>
+      <c r="O62" s="245"/>
       <c r="P62" s="83"/>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
@@ -67791,8 +67512,8 @@
         <v>0.14599000000000001</v>
       </c>
       <c r="M63" s="88"/>
-      <c r="N63" s="240"/>
-      <c r="O63" s="241"/>
+      <c r="N63" s="244"/>
+      <c r="O63" s="245"/>
       <c r="P63" s="83"/>
     </row>
     <row r="64" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -67812,10 +67533,10 @@
         <v>0.12414</v>
       </c>
       <c r="M64" s="85"/>
-      <c r="N64" s="242">
+      <c r="N64" s="248">
         <v>0.61785000000000001</v>
       </c>
-      <c r="O64" s="243"/>
+      <c r="O64" s="249"/>
       <c r="P64" s="83"/>
     </row>
     <row r="65" spans="3:17" x14ac:dyDescent="0.25">
@@ -67835,10 +67556,10 @@
         <v>0.23763000000000001</v>
       </c>
       <c r="M65" s="81"/>
-      <c r="N65" s="238">
+      <c r="N65" s="246">
         <v>1</v>
       </c>
-      <c r="O65" s="239"/>
+      <c r="O65" s="247"/>
       <c r="P65" s="83">
         <f>L65+N65+L66+L67+N67</f>
         <v>1.8703959999999999</v>
@@ -67862,8 +67583,8 @@
         <v>0.17316000000000001</v>
       </c>
       <c r="M66" s="88"/>
-      <c r="N66" s="240"/>
-      <c r="O66" s="241"/>
+      <c r="N66" s="244"/>
+      <c r="O66" s="245"/>
       <c r="P66" s="83"/>
       <c r="Q66" s="83"/>
     </row>
@@ -67884,10 +67605,10 @@
         <v>0.12317</v>
       </c>
       <c r="M67" s="85"/>
-      <c r="N67" s="242">
+      <c r="N67" s="248">
         <v>0.33643600000000001</v>
       </c>
-      <c r="O67" s="243"/>
+      <c r="O67" s="249"/>
       <c r="P67" s="83"/>
       <c r="Q67" s="83"/>
     </row>
@@ -67908,10 +67629,10 @@
         <v>0.20199</v>
       </c>
       <c r="M68" s="81"/>
-      <c r="N68" s="238">
+      <c r="N68" s="246">
         <v>0.85</v>
       </c>
-      <c r="O68" s="239"/>
+      <c r="O68" s="247"/>
       <c r="P68" s="83">
         <f>L68+N68+L69+L70+N70</f>
         <v>1.6197900000000001</v>
@@ -67934,8 +67655,8 @@
         <v>0.17718999999999999</v>
       </c>
       <c r="M69" s="88"/>
-      <c r="N69" s="240"/>
-      <c r="O69" s="241"/>
+      <c r="N69" s="244"/>
+      <c r="O69" s="245"/>
       <c r="P69" s="83"/>
     </row>
     <row r="70" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -67955,80 +67676,26 @@
         <v>0.1047</v>
       </c>
       <c r="M70" s="100"/>
-      <c r="N70" s="244">
+      <c r="N70" s="253">
         <v>0.28591</v>
       </c>
-      <c r="O70" s="245"/>
+      <c r="O70" s="254"/>
       <c r="P70" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="N69:O69"/>
     <mergeCell ref="H48:I48"/>
     <mergeCell ref="N48:O48"/>
     <mergeCell ref="N49:O49"/>
@@ -68044,18 +67711,72 @@
     <mergeCell ref="N56:O56"/>
     <mergeCell ref="N57:O57"/>
     <mergeCell ref="N58:O58"/>
-    <mergeCell ref="N70:O70"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="N60:O60"/>
-    <mergeCell ref="N61:O61"/>
-    <mergeCell ref="N62:O62"/>
-    <mergeCell ref="N63:O63"/>
-    <mergeCell ref="N64:O64"/>
-    <mergeCell ref="N65:O65"/>
-    <mergeCell ref="N66:O66"/>
-    <mergeCell ref="N67:O67"/>
-    <mergeCell ref="N68:O68"/>
-    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="J6:K6"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:O70">
     <cfRule type="cellIs" dxfId="25" priority="1" operator="between">

--- a/projects/current/hattrick/z_Biblioteca.xlsx
+++ b/projects/current/hattrick/z_Biblioteca.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22655A55-E54D-409E-9CB2-3BDD2DFF7040}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843D54F0-BFD5-433F-9ECD-DD28430B5879}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resistencia" sheetId="1" r:id="rId1"/>
@@ -26,9 +26,6 @@
     <sheet name="Confianza_Esperitu" sheetId="13" r:id="rId16"/>
     <sheet name="Sustituciones" sheetId="14" r:id="rId17"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId18"/>
-  </externalReferences>
   <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -12622,18 +12619,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>#REF!</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>#REF!</c:f>
@@ -12648,6 +12633,28 @@
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-72F8-47B0-AD9E-F98980047305}"/>
             </c:ext>
@@ -14403,39 +14410,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Hall_of_Fame"/>
-      <sheetName val="Plantilla"/>
-      <sheetName val="Juveniles"/>
-      <sheetName val="Planning"/>
-      <sheetName val="Economia"/>
-      <sheetName val="Capitán"/>
-      <sheetName val="CA_Calcutator"/>
-      <sheetName val="EstudioConversion"/>
-      <sheetName val="Entrenador"/>
-      <sheetName val="Evaluacion Jugadores"/>
-      <sheetName val="LAT"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -61056,7 +61030,7 @@
   </sheetPr>
   <dimension ref="A1:W38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
@@ -65750,8 +65724,8 @@
   </sheetPr>
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -65764,11 +65738,11 @@
         <v>208</v>
       </c>
       <c r="B1">
-        <v>0</v>
+        <v>3190</v>
       </c>
       <c r="C1">
         <f>B1</f>
-        <v>0</v>
+        <v>3190</v>
       </c>
       <c r="N1" s="70" t="s">
         <v>209</v>
@@ -65779,7 +65753,7 @@
         <v>210</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -65793,10 +65767,10 @@
         <v>212</v>
       </c>
       <c r="B3">
-        <v>22460</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>32580</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>32580</v>
@@ -65810,11 +65784,10 @@
         <v>214</v>
       </c>
       <c r="B4">
-        <v>2235</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <f>B4</f>
-        <v>2235</v>
+        <v>0</v>
       </c>
       <c r="N4" s="70" t="s">
         <v>215</v>
@@ -65825,10 +65798,10 @@
         <v>216</v>
       </c>
       <c r="B5">
-        <v>515</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>515</v>
+        <v>0</v>
       </c>
       <c r="N5" s="70" t="s">
         <v>217</v>
@@ -65839,10 +65812,10 @@
         <v>218</v>
       </c>
       <c r="B6">
-        <v>405</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>405</v>
+        <v>0</v>
       </c>
       <c r="N6" s="70" t="s">
         <v>219</v>
@@ -65853,11 +65826,10 @@
         <v>71</v>
       </c>
       <c r="B7" s="72">
-        <v>8.0000000000000002E-3</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="C7" s="73">
-        <f>B7</f>
-        <v>8.0000000000000002E-3</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="N7" s="70" t="s">
         <v>220</v>
@@ -65874,11 +65846,11 @@
       </c>
       <c r="B9" s="75">
         <f>SUM(B1:B6)*(1+B7)</f>
-        <v>25819.920000000002</v>
+        <v>3411.7299999999996</v>
       </c>
       <c r="C9" s="75">
         <f>SUM(C1:C6)*(1+C7)</f>
-        <v>36020.879999999997</v>
+        <v>3308.0299999999997</v>
       </c>
       <c r="N9" s="70" t="s">
         <v>222</v>
@@ -65890,11 +65862,11 @@
       </c>
       <c r="B10" s="75">
         <f>B9*1.2</f>
-        <v>30983.904000000002</v>
+        <v>4094.0759999999991</v>
       </c>
       <c r="C10" s="75">
         <f>C9*1.2</f>
-        <v>43225.055999999997</v>
+        <v>3969.6359999999995</v>
       </c>
       <c r="N10" s="70" t="s">
         <v>224</v>
@@ -65911,23 +65883,35 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <f>4550-3190</f>
+        <v>1360</v>
+      </c>
       <c r="N13" s="70" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <f>3670-3190</f>
+        <v>480</v>
+      </c>
       <c r="C14" s="76">
         <f>D3-B3</f>
-        <v>10120</v>
+        <v>32580</v>
       </c>
       <c r="N14" s="70" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <f>B14/B13</f>
+        <v>0.35294117647058826</v>
+      </c>
       <c r="C15">
         <f>(C3-B3)</f>
-        <v>10120</v>
+        <v>0</v>
       </c>
       <c r="N15" s="70" t="s">
         <v>229</v>
@@ -65936,7 +65920,7 @@
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C16" s="77">
         <f>C15/C14</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" s="70" t="s">
         <v>230</v>
@@ -67712,11 +67696,6 @@
     <mergeCell ref="N57:O57"/>
     <mergeCell ref="N58:O58"/>
     <mergeCell ref="N50:O50"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="N46:O46"/>
     <mergeCell ref="N47:O47"/>
     <mergeCell ref="H45:I45"/>
     <mergeCell ref="N45:O45"/>
@@ -67726,6 +67705,11 @@
     <mergeCell ref="N40:O40"/>
     <mergeCell ref="H41:I41"/>
     <mergeCell ref="N41:O41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="N46:O46"/>
     <mergeCell ref="J35:K35"/>
     <mergeCell ref="N35:O35"/>
     <mergeCell ref="N36:O36"/>

--- a/projects/current/hattrick/z_Biblioteca.xlsx
+++ b/projects/current/hattrick/z_Biblioteca.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843D54F0-BFD5-433F-9ECD-DD28430B5879}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95AFEE5A-ACC9-411D-8217-859518A47A5B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resistencia" sheetId="1" r:id="rId1"/>
@@ -12059,6 +12059,18 @@
     <xf numFmtId="0" fontId="14" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -12071,34 +12083,19 @@
     <xf numFmtId="0" fontId="4" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -12107,16 +12104,13 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -12128,22 +12122,28 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="26" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="26" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -22388,97 +22388,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="256">
+      <c r="A1" s="257">
         <v>0.34</v>
       </c>
-      <c r="B1" s="257"/>
-      <c r="C1" s="256">
+      <c r="B1" s="258"/>
+      <c r="C1" s="257">
         <v>0.245</v>
       </c>
-      <c r="D1" s="257"/>
-      <c r="E1" s="256">
+      <c r="D1" s="258"/>
+      <c r="E1" s="257">
         <v>0.125</v>
       </c>
-      <c r="F1" s="257"/>
-      <c r="G1" s="256">
+      <c r="F1" s="258"/>
+      <c r="G1" s="257">
         <v>0.29099999999999998</v>
       </c>
-      <c r="H1" s="257"/>
-      <c r="I1" s="256">
+      <c r="H1" s="258"/>
+      <c r="I1" s="257">
         <v>0.19</v>
       </c>
-      <c r="J1" s="257"/>
-      <c r="L1" s="256">
+      <c r="J1" s="258"/>
+      <c r="L1" s="257">
         <v>0.34</v>
       </c>
-      <c r="M1" s="257"/>
-      <c r="N1" s="256">
+      <c r="M1" s="258"/>
+      <c r="N1" s="257">
         <v>0.245</v>
       </c>
-      <c r="O1" s="257"/>
-      <c r="P1" s="256">
+      <c r="O1" s="258"/>
+      <c r="P1" s="257">
         <v>0.125</v>
       </c>
-      <c r="Q1" s="257"/>
-      <c r="R1" s="256">
+      <c r="Q1" s="258"/>
+      <c r="R1" s="257">
         <f>0.291*86/100</f>
         <v>0.25025999999999998</v>
       </c>
-      <c r="S1" s="257"/>
-      <c r="T1" s="256">
+      <c r="S1" s="258"/>
+      <c r="T1" s="257">
         <v>0.19</v>
       </c>
-      <c r="U1" s="257"/>
-      <c r="W1" s="258" t="s">
+      <c r="U1" s="258"/>
+      <c r="W1" s="256" t="s">
         <v>232</v>
       </c>
-      <c r="X1" s="258"/>
-      <c r="AC1" s="258" t="s">
+      <c r="X1" s="256"/>
+      <c r="AC1" s="256" t="s">
         <v>233</v>
       </c>
-      <c r="AD1" s="258"/>
+      <c r="AD1" s="256"/>
     </row>
     <row r="2" spans="1:44" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="238" t="s">
+      <c r="A2" s="253" t="s">
         <v>234</v>
       </c>
-      <c r="B2" s="238"/>
-      <c r="C2" s="238" t="s">
+      <c r="B2" s="253"/>
+      <c r="C2" s="253" t="s">
         <v>235</v>
       </c>
-      <c r="D2" s="238"/>
-      <c r="E2" s="238" t="s">
+      <c r="D2" s="253"/>
+      <c r="E2" s="253" t="s">
         <v>236</v>
       </c>
-      <c r="F2" s="238"/>
-      <c r="G2" s="238" t="s">
+      <c r="F2" s="253"/>
+      <c r="G2" s="253" t="s">
         <v>237</v>
       </c>
-      <c r="H2" s="238"/>
-      <c r="I2" s="238" t="s">
+      <c r="H2" s="253"/>
+      <c r="I2" s="253" t="s">
         <v>238</v>
       </c>
-      <c r="J2" s="238"/>
-      <c r="L2" s="238" t="s">
+      <c r="J2" s="253"/>
+      <c r="L2" s="253" t="s">
         <v>234</v>
       </c>
-      <c r="M2" s="238"/>
-      <c r="N2" s="238" t="s">
+      <c r="M2" s="253"/>
+      <c r="N2" s="253" t="s">
         <v>235</v>
       </c>
-      <c r="O2" s="238"/>
-      <c r="P2" s="238" t="s">
+      <c r="O2" s="253"/>
+      <c r="P2" s="253" t="s">
         <v>236</v>
       </c>
-      <c r="Q2" s="238"/>
-      <c r="R2" s="238" t="s">
+      <c r="Q2" s="253"/>
+      <c r="R2" s="253" t="s">
         <v>237</v>
       </c>
-      <c r="S2" s="238"/>
-      <c r="T2" s="238" t="s">
+      <c r="S2" s="253"/>
+      <c r="T2" s="253" t="s">
         <v>238</v>
       </c>
-      <c r="U2" s="238"/>
+      <c r="U2" s="253"/>
     </row>
     <row r="3" spans="1:44" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="79" t="s">
@@ -22487,36 +22487,36 @@
       <c r="B3" s="79" t="s">
         <v>240</v>
       </c>
-      <c r="C3" s="239"/>
-      <c r="D3" s="240"/>
-      <c r="E3" s="239"/>
-      <c r="F3" s="240"/>
+      <c r="C3" s="254"/>
+      <c r="D3" s="255"/>
+      <c r="E3" s="254"/>
+      <c r="F3" s="255"/>
       <c r="G3" s="79" t="s">
         <v>239</v>
       </c>
       <c r="H3" s="79" t="s">
         <v>240</v>
       </c>
-      <c r="I3" s="239"/>
-      <c r="J3" s="240"/>
+      <c r="I3" s="254"/>
+      <c r="J3" s="255"/>
       <c r="L3" s="79" t="s">
         <v>239</v>
       </c>
       <c r="M3" s="79" t="s">
         <v>240</v>
       </c>
-      <c r="N3" s="239"/>
-      <c r="O3" s="240"/>
-      <c r="P3" s="239"/>
-      <c r="Q3" s="240"/>
+      <c r="N3" s="254"/>
+      <c r="O3" s="255"/>
+      <c r="P3" s="254"/>
+      <c r="Q3" s="255"/>
       <c r="R3" s="79" t="s">
         <v>239</v>
       </c>
       <c r="S3" s="79" t="s">
         <v>240</v>
       </c>
-      <c r="T3" s="239"/>
-      <c r="U3" s="240"/>
+      <c r="T3" s="254"/>
+      <c r="U3" s="255"/>
       <c r="W3" t="s">
         <v>241</v>
       </c>
@@ -22525,14 +22525,14 @@
       </c>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A4" s="242">
+      <c r="A4" s="247">
         <v>0.64709000000000005</v>
       </c>
-      <c r="B4" s="242"/>
-      <c r="C4" s="242">
+      <c r="B4" s="247"/>
+      <c r="C4" s="247">
         <v>0.97192999999999996</v>
       </c>
-      <c r="D4" s="242"/>
+      <c r="D4" s="247"/>
       <c r="E4" s="81"/>
       <c r="F4" s="81"/>
       <c r="G4" s="81"/>
@@ -22542,14 +22542,14 @@
       <c r="K4" s="80" t="s">
         <v>243</v>
       </c>
-      <c r="L4" s="242">
+      <c r="L4" s="247">
         <v>0.64709000000000005</v>
       </c>
-      <c r="M4" s="242"/>
-      <c r="N4" s="242">
+      <c r="M4" s="247"/>
+      <c r="N4" s="247">
         <v>0.97192999999999996</v>
       </c>
-      <c r="O4" s="242"/>
+      <c r="O4" s="247"/>
       <c r="P4" s="81"/>
       <c r="Q4" s="81"/>
       <c r="R4" s="81"/>
@@ -22567,14 +22567,14 @@
       </c>
     </row>
     <row r="5" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="241">
+      <c r="A5" s="252">
         <v>0.26545000000000002</v>
       </c>
-      <c r="B5" s="241"/>
-      <c r="C5" s="241">
+      <c r="B5" s="252"/>
+      <c r="C5" s="252">
         <v>0.39895999999999998</v>
       </c>
-      <c r="D5" s="241"/>
+      <c r="D5" s="252"/>
       <c r="E5" s="85"/>
       <c r="F5" s="85"/>
       <c r="G5" s="85"/>
@@ -22584,14 +22584,14 @@
       <c r="K5" s="84" t="s">
         <v>246</v>
       </c>
-      <c r="L5" s="241">
+      <c r="L5" s="252">
         <v>0.26545000000000002</v>
       </c>
-      <c r="M5" s="241"/>
-      <c r="N5" s="241">
+      <c r="M5" s="252"/>
+      <c r="N5" s="252">
         <v>0.39895999999999998</v>
       </c>
-      <c r="O5" s="241"/>
+      <c r="O5" s="252"/>
       <c r="P5" s="85"/>
       <c r="Q5" s="85"/>
       <c r="R5" s="85"/>
@@ -22615,10 +22615,10 @@
       <c r="B6" s="81">
         <v>0.25008999999999998</v>
       </c>
-      <c r="C6" s="242">
+      <c r="C6" s="247">
         <v>1</v>
       </c>
-      <c r="D6" s="242"/>
+      <c r="D6" s="247"/>
       <c r="E6" s="81"/>
       <c r="F6" s="81"/>
       <c r="G6" s="81"/>
@@ -22634,10 +22634,10 @@
       <c r="M6" s="81">
         <v>0.25008999999999998</v>
       </c>
-      <c r="N6" s="242">
+      <c r="N6" s="247">
         <v>1</v>
       </c>
-      <c r="O6" s="242"/>
+      <c r="O6" s="247"/>
       <c r="P6" s="81"/>
       <c r="Q6" s="81"/>
       <c r="R6" s="81"/>
@@ -22650,10 +22650,10 @@
       <c r="B7" s="85"/>
       <c r="C7" s="85"/>
       <c r="D7" s="85"/>
-      <c r="E7" s="241">
+      <c r="E7" s="252">
         <v>0.27488000000000001</v>
       </c>
-      <c r="F7" s="241"/>
+      <c r="F7" s="252"/>
       <c r="G7" s="85"/>
       <c r="H7" s="85"/>
       <c r="I7" s="85"/>
@@ -22665,10 +22665,10 @@
       <c r="M7" s="85"/>
       <c r="N7" s="85"/>
       <c r="O7" s="85"/>
-      <c r="P7" s="241">
+      <c r="P7" s="252">
         <v>0.27488000000000001</v>
       </c>
-      <c r="Q7" s="241"/>
+      <c r="Q7" s="252"/>
       <c r="R7" s="85"/>
       <c r="S7" s="85"/>
       <c r="T7" s="85"/>
@@ -22687,10 +22687,10 @@
       <c r="B8" s="81">
         <v>0.17752000000000001</v>
       </c>
-      <c r="C8" s="242">
+      <c r="C8" s="247">
         <v>0.72296000000000005</v>
       </c>
-      <c r="D8" s="242"/>
+      <c r="D8" s="247"/>
       <c r="E8" s="81"/>
       <c r="F8" s="81"/>
       <c r="G8" s="81"/>
@@ -22706,10 +22706,10 @@
       <c r="M8" s="81">
         <v>0.17752000000000001</v>
       </c>
-      <c r="N8" s="242">
+      <c r="N8" s="247">
         <v>0.72296000000000005</v>
       </c>
-      <c r="O8" s="242"/>
+      <c r="O8" s="247"/>
       <c r="P8" s="81"/>
       <c r="Q8" s="81"/>
       <c r="R8" s="81"/>
@@ -22725,10 +22725,10 @@
       <c r="B9" s="85"/>
       <c r="C9" s="85"/>
       <c r="D9" s="85"/>
-      <c r="E9" s="241">
+      <c r="E9" s="252">
         <v>0.36337000000000003</v>
       </c>
-      <c r="F9" s="241"/>
+      <c r="F9" s="252"/>
       <c r="G9" s="85"/>
       <c r="H9" s="85"/>
       <c r="I9" s="85"/>
@@ -22740,11 +22740,11 @@
       <c r="M9" s="85"/>
       <c r="N9" s="85"/>
       <c r="O9" s="85"/>
-      <c r="P9" s="241">
+      <c r="P9" s="252">
         <f>36.337%*1.21</f>
         <v>0.4396777</v>
       </c>
-      <c r="Q9" s="241"/>
+      <c r="Q9" s="252"/>
       <c r="R9" s="85"/>
       <c r="S9" s="85"/>
       <c r="T9" s="85"/>
@@ -22758,10 +22758,10 @@
         <v>0.65615999999999997</v>
       </c>
       <c r="B10" s="81"/>
-      <c r="C10" s="242">
+      <c r="C10" s="247">
         <v>0.78437000000000001</v>
       </c>
-      <c r="D10" s="242"/>
+      <c r="D10" s="247"/>
       <c r="E10" s="81"/>
       <c r="F10" s="81"/>
       <c r="G10" s="81"/>
@@ -22776,11 +22776,11 @@
         <v>0.69552959999999997</v>
       </c>
       <c r="M10" s="81"/>
-      <c r="N10" s="242">
+      <c r="N10" s="247">
         <f>78.437%*(1-0.09)</f>
         <v>0.71377670000000004</v>
       </c>
-      <c r="O10" s="242"/>
+      <c r="O10" s="247"/>
       <c r="P10" s="81"/>
       <c r="Q10" s="81"/>
       <c r="R10" s="81"/>
@@ -22796,10 +22796,10 @@
       <c r="B11" s="88"/>
       <c r="C11" s="88"/>
       <c r="D11" s="88"/>
-      <c r="E11" s="243">
+      <c r="E11" s="251">
         <v>0.1464</v>
       </c>
-      <c r="F11" s="243"/>
+      <c r="F11" s="251"/>
       <c r="G11" s="88"/>
       <c r="H11" s="88"/>
       <c r="I11" s="88"/>
@@ -22811,10 +22811,10 @@
       <c r="M11" s="88"/>
       <c r="N11" s="88"/>
       <c r="O11" s="88"/>
-      <c r="P11" s="243">
+      <c r="P11" s="251">
         <v>0.1464</v>
       </c>
-      <c r="Q11" s="243"/>
+      <c r="Q11" s="251"/>
       <c r="R11" s="88"/>
       <c r="S11" s="88"/>
       <c r="T11" s="88"/>
@@ -22859,14 +22859,14 @@
       </c>
     </row>
     <row r="13" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A13" s="242">
+      <c r="A13" s="247">
         <v>0.42514999999999997</v>
       </c>
-      <c r="B13" s="242"/>
-      <c r="C13" s="242">
+      <c r="B13" s="247"/>
+      <c r="C13" s="247">
         <v>0.85</v>
       </c>
-      <c r="D13" s="242"/>
+      <c r="D13" s="247"/>
       <c r="E13" s="81"/>
       <c r="F13" s="81"/>
       <c r="G13" s="81"/>
@@ -22876,14 +22876,14 @@
       <c r="K13" s="80" t="s">
         <v>260</v>
       </c>
-      <c r="L13" s="242">
+      <c r="L13" s="247">
         <v>0.42514999999999997</v>
       </c>
-      <c r="M13" s="242"/>
-      <c r="N13" s="242">
+      <c r="M13" s="247"/>
+      <c r="N13" s="247">
         <v>0.85</v>
       </c>
-      <c r="O13" s="242"/>
+      <c r="O13" s="247"/>
       <c r="P13" s="81"/>
       <c r="Q13" s="81"/>
       <c r="R13" s="81"/>
@@ -22916,10 +22916,10 @@
       <c r="B14" s="85"/>
       <c r="C14" s="85"/>
       <c r="D14" s="85"/>
-      <c r="E14" s="241">
+      <c r="E14" s="252">
         <v>0.23365</v>
       </c>
-      <c r="F14" s="241"/>
+      <c r="F14" s="252"/>
       <c r="G14" s="85"/>
       <c r="H14" s="85"/>
       <c r="I14" s="85"/>
@@ -22931,10 +22931,10 @@
       <c r="M14" s="85"/>
       <c r="N14" s="85"/>
       <c r="O14" s="85"/>
-      <c r="P14" s="241">
+      <c r="P14" s="252">
         <v>0.23365</v>
       </c>
-      <c r="Q14" s="241"/>
+      <c r="Q14" s="252"/>
       <c r="R14" s="85"/>
       <c r="S14" s="85"/>
       <c r="T14" s="85"/>
@@ -22972,10 +22972,10 @@
         <v>1</v>
       </c>
       <c r="B15" s="92"/>
-      <c r="C15" s="242">
+      <c r="C15" s="247">
         <v>0.51382000000000005</v>
       </c>
-      <c r="D15" s="242"/>
+      <c r="D15" s="247"/>
       <c r="E15" s="81"/>
       <c r="F15" s="81"/>
       <c r="G15" s="81"/>
@@ -22989,10 +22989,10 @@
         <v>1</v>
       </c>
       <c r="M15" s="92"/>
-      <c r="N15" s="242">
+      <c r="N15" s="247">
         <v>0.51382000000000005</v>
       </c>
-      <c r="O15" s="242"/>
+      <c r="O15" s="247"/>
       <c r="P15" s="81"/>
       <c r="Q15" s="81"/>
       <c r="R15" s="81"/>
@@ -23040,10 +23040,10 @@
       <c r="B16" s="88"/>
       <c r="C16" s="88"/>
       <c r="D16" s="88"/>
-      <c r="E16" s="243">
+      <c r="E16" s="251">
         <v>4.3869999999999999E-2</v>
       </c>
-      <c r="F16" s="243"/>
+      <c r="F16" s="251"/>
       <c r="G16" s="88"/>
       <c r="H16" s="88"/>
       <c r="I16" s="88"/>
@@ -23055,10 +23055,10 @@
       <c r="M16" s="88"/>
       <c r="N16" s="88"/>
       <c r="O16" s="88"/>
-      <c r="P16" s="243">
+      <c r="P16" s="251">
         <v>4.3869999999999999E-2</v>
       </c>
-      <c r="Q16" s="243"/>
+      <c r="Q16" s="251"/>
       <c r="R16" s="88"/>
       <c r="S16" s="88"/>
       <c r="T16" s="88"/>
@@ -23139,10 +23139,10 @@
         <v>0.91232999999999997</v>
       </c>
       <c r="B18" s="92"/>
-      <c r="C18" s="242">
+      <c r="C18" s="247">
         <v>0.46146999999999999</v>
       </c>
-      <c r="D18" s="242"/>
+      <c r="D18" s="247"/>
       <c r="E18" s="81"/>
       <c r="F18" s="81"/>
       <c r="G18" s="81"/>
@@ -23156,11 +23156,11 @@
         <v>0.91232999999999997</v>
       </c>
       <c r="M18" s="92"/>
-      <c r="N18" s="242">
+      <c r="N18" s="247">
         <f>46.147%*(1-0.08)</f>
         <v>0.4245524</v>
       </c>
-      <c r="O18" s="242"/>
+      <c r="O18" s="247"/>
       <c r="P18" s="81"/>
       <c r="Q18" s="81"/>
       <c r="R18" s="81"/>
@@ -23179,10 +23179,10 @@
       <c r="B19" s="88"/>
       <c r="C19" s="88"/>
       <c r="D19" s="88"/>
-      <c r="E19" s="243">
+      <c r="E19" s="251">
         <v>0.15035999999999999</v>
       </c>
-      <c r="F19" s="243"/>
+      <c r="F19" s="251"/>
       <c r="G19" s="88"/>
       <c r="H19" s="88"/>
       <c r="I19" s="88"/>
@@ -23194,10 +23194,10 @@
       <c r="M19" s="88"/>
       <c r="N19" s="88"/>
       <c r="O19" s="88"/>
-      <c r="P19" s="243">
+      <c r="P19" s="251">
         <v>0.15035999999999999</v>
       </c>
-      <c r="Q19" s="243"/>
+      <c r="Q19" s="251"/>
       <c r="R19" s="88"/>
       <c r="S19" s="88"/>
       <c r="T19" s="88"/>
@@ -23267,10 +23267,10 @@
         <v>0.69059999999999999</v>
       </c>
       <c r="B21" s="92"/>
-      <c r="C21" s="242">
+      <c r="C21" s="247">
         <v>0.38878000000000001</v>
       </c>
-      <c r="D21" s="242"/>
+      <c r="D21" s="247"/>
       <c r="E21" s="81"/>
       <c r="F21" s="81"/>
       <c r="G21" s="81"/>
@@ -23284,10 +23284,10 @@
         <v>0.69059999999999999</v>
       </c>
       <c r="M21" s="92"/>
-      <c r="N21" s="242">
+      <c r="N21" s="247">
         <v>0.38878000000000001</v>
       </c>
-      <c r="O21" s="242"/>
+      <c r="O21" s="247"/>
       <c r="P21" s="81"/>
       <c r="Q21" s="81"/>
       <c r="R21" s="81"/>
@@ -23309,10 +23309,10 @@
       <c r="B22" s="88"/>
       <c r="C22" s="88"/>
       <c r="D22" s="88"/>
-      <c r="E22" s="243">
+      <c r="E22" s="251">
         <v>0.2099</v>
       </c>
-      <c r="F22" s="243"/>
+      <c r="F22" s="251"/>
       <c r="G22" s="88"/>
       <c r="H22" s="88"/>
       <c r="I22" s="88"/>
@@ -23324,10 +23324,10 @@
       <c r="M22" s="88"/>
       <c r="N22" s="88"/>
       <c r="O22" s="88"/>
-      <c r="P22" s="243">
+      <c r="P22" s="251">
         <v>0.2099</v>
       </c>
-      <c r="Q22" s="243"/>
+      <c r="Q22" s="251"/>
       <c r="R22" s="88"/>
       <c r="S22" s="88"/>
       <c r="T22" s="88"/>
@@ -23391,10 +23391,10 @@
         <v>0.68315000000000003</v>
       </c>
       <c r="B24" s="92"/>
-      <c r="C24" s="242">
+      <c r="C24" s="247">
         <v>0.70006000000000002</v>
       </c>
-      <c r="D24" s="242"/>
+      <c r="D24" s="247"/>
       <c r="E24" s="81"/>
       <c r="F24" s="81"/>
       <c r="G24" s="81"/>
@@ -23408,10 +23408,10 @@
         <v>0.68315000000000003</v>
       </c>
       <c r="M24" s="92"/>
-      <c r="N24" s="242">
+      <c r="N24" s="247">
         <v>0.70006000000000002</v>
       </c>
-      <c r="O24" s="242"/>
+      <c r="O24" s="247"/>
       <c r="P24" s="81"/>
       <c r="Q24" s="81"/>
       <c r="R24" s="81"/>
@@ -23436,10 +23436,10 @@
       <c r="B25" s="88"/>
       <c r="C25" s="88"/>
       <c r="D25" s="88"/>
-      <c r="E25" s="243">
+      <c r="E25" s="251">
         <v>0.152</v>
       </c>
-      <c r="F25" s="243"/>
+      <c r="F25" s="251"/>
       <c r="G25" s="88"/>
       <c r="H25" s="88"/>
       <c r="I25" s="88"/>
@@ -23451,10 +23451,10 @@
       <c r="M25" s="88"/>
       <c r="N25" s="88"/>
       <c r="O25" s="88"/>
-      <c r="P25" s="243">
+      <c r="P25" s="251">
         <v>0.152</v>
       </c>
-      <c r="Q25" s="243"/>
+      <c r="Q25" s="251"/>
       <c r="R25" s="88"/>
       <c r="S25" s="88"/>
       <c r="T25" s="88"/>
@@ -23517,16 +23517,16 @@
       <c r="B27" s="81">
         <v>9.2719999999999997E-2</v>
       </c>
-      <c r="C27" s="242">
+      <c r="C27" s="247">
         <v>0.42459999999999998</v>
       </c>
-      <c r="D27" s="242"/>
+      <c r="D27" s="247"/>
       <c r="E27" s="81"/>
       <c r="F27" s="81"/>
       <c r="G27" s="81"/>
       <c r="H27" s="81"/>
-      <c r="I27" s="246"/>
-      <c r="J27" s="247"/>
+      <c r="I27" s="240"/>
+      <c r="J27" s="242"/>
       <c r="K27" s="80" t="s">
         <v>292</v>
       </c>
@@ -23536,16 +23536,16 @@
       <c r="M27" s="81">
         <v>9.2719999999999997E-2</v>
       </c>
-      <c r="N27" s="242">
+      <c r="N27" s="247">
         <v>0.42459999999999998</v>
       </c>
-      <c r="O27" s="242"/>
+      <c r="O27" s="247"/>
       <c r="P27" s="81"/>
       <c r="Q27" s="81"/>
       <c r="R27" s="81"/>
       <c r="S27" s="81"/>
-      <c r="T27" s="246"/>
-      <c r="U27" s="247"/>
+      <c r="T27" s="240"/>
+      <c r="U27" s="242"/>
       <c r="W27" t="s">
         <v>415</v>
       </c>
@@ -23561,14 +23561,14 @@
       <c r="B28" s="88"/>
       <c r="C28" s="88"/>
       <c r="D28" s="88"/>
-      <c r="E28" s="243">
+      <c r="E28" s="251">
         <v>1</v>
       </c>
-      <c r="F28" s="243"/>
+      <c r="F28" s="251"/>
       <c r="G28" s="88"/>
       <c r="H28" s="88"/>
-      <c r="I28" s="244"/>
-      <c r="J28" s="245"/>
+      <c r="I28" s="243"/>
+      <c r="J28" s="244"/>
       <c r="K28" s="87" t="s">
         <v>295</v>
       </c>
@@ -23576,14 +23576,14 @@
       <c r="M28" s="88"/>
       <c r="N28" s="88"/>
       <c r="O28" s="88"/>
-      <c r="P28" s="243">
+      <c r="P28" s="251">
         <v>1</v>
       </c>
-      <c r="Q28" s="243"/>
+      <c r="Q28" s="251"/>
       <c r="R28" s="88"/>
       <c r="S28" s="88"/>
-      <c r="T28" s="244"/>
-      <c r="U28" s="245"/>
+      <c r="T28" s="243"/>
+      <c r="U28" s="244"/>
       <c r="W28" t="s">
         <v>418</v>
       </c>
@@ -23613,10 +23613,10 @@
       <c r="Q29" s="90"/>
       <c r="R29" s="85"/>
       <c r="S29" s="85"/>
-      <c r="T29" s="248">
+      <c r="T29" s="245">
         <v>0.21</v>
       </c>
-      <c r="U29" s="249"/>
+      <c r="U29" s="246"/>
       <c r="W29" t="s">
         <v>420</v>
       </c>
@@ -23637,10 +23637,10 @@
       <c r="H30" s="85">
         <v>0.1226</v>
       </c>
-      <c r="I30" s="248">
+      <c r="I30" s="245">
         <v>0.34044000000000002</v>
       </c>
-      <c r="J30" s="249"/>
+      <c r="J30" s="246"/>
       <c r="K30" s="84" t="s">
         <v>298</v>
       </c>
@@ -23656,11 +23656,11 @@
       <c r="S30" s="85">
         <v>0.14255813953488372</v>
       </c>
-      <c r="T30" s="248">
+      <c r="T30" s="245">
         <f>34.044%*1.05</f>
         <v>0.357462</v>
       </c>
-      <c r="U30" s="249"/>
+      <c r="U30" s="246"/>
       <c r="W30" t="s">
         <v>422</v>
       </c>
@@ -23681,16 +23681,16 @@
       <c r="B31" s="81">
         <v>0.13719000000000001</v>
       </c>
-      <c r="C31" s="242">
+      <c r="C31" s="247">
         <v>0.62792999999999999</v>
       </c>
-      <c r="D31" s="242"/>
+      <c r="D31" s="247"/>
       <c r="E31" s="81"/>
       <c r="F31" s="81"/>
       <c r="G31" s="81"/>
       <c r="H31" s="81"/>
-      <c r="I31" s="246"/>
-      <c r="J31" s="247"/>
+      <c r="I31" s="240"/>
+      <c r="J31" s="242"/>
       <c r="K31" s="80" t="s">
         <v>300</v>
       </c>
@@ -23700,16 +23700,16 @@
       <c r="M31" s="81">
         <v>0.13719000000000001</v>
       </c>
-      <c r="N31" s="242">
+      <c r="N31" s="247">
         <v>0.62792999999999999</v>
       </c>
-      <c r="O31" s="242"/>
+      <c r="O31" s="247"/>
       <c r="P31" s="81"/>
       <c r="Q31" s="81"/>
       <c r="R31" s="81"/>
       <c r="S31" s="81"/>
-      <c r="T31" s="246"/>
-      <c r="U31" s="247"/>
+      <c r="T31" s="240"/>
+      <c r="U31" s="242"/>
       <c r="W31" t="s">
         <v>426</v>
       </c>
@@ -23745,10 +23745,10 @@
       <c r="Q32" s="103"/>
       <c r="R32" s="103"/>
       <c r="S32" s="103"/>
-      <c r="T32" s="248">
+      <c r="T32" s="245">
         <v>0.12</v>
       </c>
-      <c r="U32" s="249"/>
+      <c r="U32" s="246"/>
       <c r="W32" t="s">
         <v>430</v>
       </c>
@@ -23775,10 +23775,10 @@
       <c r="H33" s="85">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="I33" s="248">
+      <c r="I33" s="245">
         <v>0.23748</v>
       </c>
-      <c r="J33" s="249"/>
+      <c r="J33" s="246"/>
       <c r="K33" s="84" t="s">
         <v>303</v>
       </c>
@@ -23794,11 +23794,11 @@
       <c r="S33" s="85">
         <v>6.8837209302325592E-2</v>
       </c>
-      <c r="T33" s="248">
+      <c r="T33" s="245">
         <f>23.748%*0.8</f>
         <v>0.18998400000000004</v>
       </c>
-      <c r="U33" s="249"/>
+      <c r="U33" s="246"/>
       <c r="W33" t="s">
         <v>434</v>
       </c>
@@ -23819,16 +23819,16 @@
       <c r="B34" s="81">
         <v>5.6059999999999999E-2</v>
       </c>
-      <c r="C34" s="242">
+      <c r="C34" s="247">
         <v>0.23462</v>
       </c>
-      <c r="D34" s="242"/>
+      <c r="D34" s="247"/>
       <c r="E34" s="81"/>
       <c r="F34" s="81"/>
       <c r="G34" s="81"/>
       <c r="H34" s="81"/>
-      <c r="I34" s="246"/>
-      <c r="J34" s="247"/>
+      <c r="I34" s="240"/>
+      <c r="J34" s="242"/>
       <c r="K34" s="80" t="s">
         <v>305</v>
       </c>
@@ -23840,17 +23840,17 @@
         <f>5.606%*0.75</f>
         <v>4.2044999999999999E-2</v>
       </c>
-      <c r="N34" s="242">
+      <c r="N34" s="247">
         <f>23.462%*0.75</f>
         <v>0.17596499999999998</v>
       </c>
-      <c r="O34" s="242"/>
+      <c r="O34" s="247"/>
       <c r="P34" s="81"/>
       <c r="Q34" s="81"/>
       <c r="R34" s="81"/>
       <c r="S34" s="81"/>
-      <c r="T34" s="246"/>
-      <c r="U34" s="247"/>
+      <c r="T34" s="240"/>
+      <c r="U34" s="242"/>
       <c r="W34" t="s">
         <v>438</v>
       </c>
@@ -23886,10 +23886,10 @@
       <c r="Q35" s="103"/>
       <c r="R35" s="103"/>
       <c r="S35" s="103"/>
-      <c r="T35" s="248">
+      <c r="T35" s="245">
         <v>0.31</v>
       </c>
-      <c r="U35" s="249"/>
+      <c r="U35" s="246"/>
       <c r="W35" t="s">
         <v>442</v>
       </c>
@@ -23910,10 +23910,10 @@
       <c r="H36" s="85">
         <v>0.11894</v>
       </c>
-      <c r="I36" s="248">
+      <c r="I36" s="245">
         <v>0.50244</v>
       </c>
-      <c r="J36" s="249"/>
+      <c r="J36" s="246"/>
       <c r="K36" s="84" t="s">
         <v>307</v>
       </c>
@@ -23929,11 +23929,11 @@
       <c r="S36" s="85">
         <v>0.13830232558139535</v>
       </c>
-      <c r="T36" s="248">
+      <c r="T36" s="245">
         <f>50.244%*1.05</f>
         <v>0.52756199999999998</v>
       </c>
-      <c r="U36" s="249"/>
+      <c r="U36" s="246"/>
       <c r="AC36" t="s">
         <v>444</v>
       </c>
@@ -23943,14 +23943,14 @@
       <c r="B37" s="94"/>
       <c r="C37" s="94"/>
       <c r="D37" s="94"/>
-      <c r="E37" s="250">
+      <c r="E37" s="248">
         <v>0.94696999999999998</v>
       </c>
-      <c r="F37" s="250"/>
+      <c r="F37" s="248"/>
       <c r="G37" s="94"/>
       <c r="H37" s="94"/>
-      <c r="I37" s="251"/>
-      <c r="J37" s="252"/>
+      <c r="I37" s="249"/>
+      <c r="J37" s="250"/>
       <c r="K37" s="93" t="s">
         <v>309</v>
       </c>
@@ -23958,54 +23958,54 @@
       <c r="M37" s="94"/>
       <c r="N37" s="94"/>
       <c r="O37" s="94"/>
-      <c r="P37" s="250">
+      <c r="P37" s="248">
         <v>0.94696999999999998</v>
       </c>
-      <c r="Q37" s="250"/>
+      <c r="Q37" s="248"/>
       <c r="R37" s="94"/>
       <c r="S37" s="94"/>
-      <c r="T37" s="251"/>
-      <c r="U37" s="252"/>
-      <c r="W37" s="258" t="s">
+      <c r="T37" s="249"/>
+      <c r="U37" s="250"/>
+      <c r="W37" s="256" t="s">
         <v>261</v>
       </c>
-      <c r="X37" s="258"/>
+      <c r="X37" s="256"/>
       <c r="AC37" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="38" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A38" s="242">
+      <c r="A38" s="247">
         <v>0.15762999999999999</v>
       </c>
-      <c r="B38" s="242"/>
-      <c r="C38" s="242">
+      <c r="B38" s="247"/>
+      <c r="C38" s="247">
         <v>0.36070000000000002</v>
       </c>
-      <c r="D38" s="242"/>
+      <c r="D38" s="247"/>
       <c r="E38" s="81"/>
       <c r="F38" s="81"/>
       <c r="G38" s="81"/>
       <c r="H38" s="81"/>
-      <c r="I38" s="246"/>
-      <c r="J38" s="247"/>
+      <c r="I38" s="240"/>
+      <c r="J38" s="242"/>
       <c r="K38" s="80" t="s">
         <v>310</v>
       </c>
-      <c r="L38" s="242">
+      <c r="L38" s="247">
         <v>0.15762999999999999</v>
       </c>
-      <c r="M38" s="242"/>
-      <c r="N38" s="242">
+      <c r="M38" s="247"/>
+      <c r="N38" s="247">
         <v>0.36070000000000002</v>
       </c>
-      <c r="O38" s="242"/>
+      <c r="O38" s="247"/>
       <c r="P38" s="81"/>
       <c r="Q38" s="81"/>
       <c r="R38" s="81"/>
       <c r="S38" s="81"/>
-      <c r="T38" s="246"/>
-      <c r="U38" s="247"/>
+      <c r="T38" s="240"/>
+      <c r="U38" s="242"/>
       <c r="AC38" t="s">
         <v>446</v>
       </c>
@@ -24015,14 +24015,14 @@
       <c r="B39" s="88"/>
       <c r="C39" s="88"/>
       <c r="D39" s="88"/>
-      <c r="E39" s="243">
+      <c r="E39" s="251">
         <v>0.85</v>
       </c>
-      <c r="F39" s="243"/>
+      <c r="F39" s="251"/>
       <c r="G39" s="88"/>
       <c r="H39" s="88"/>
-      <c r="I39" s="244"/>
-      <c r="J39" s="245"/>
+      <c r="I39" s="243"/>
+      <c r="J39" s="244"/>
       <c r="K39" s="87" t="s">
         <v>311</v>
       </c>
@@ -24030,14 +24030,14 @@
       <c r="M39" s="88"/>
       <c r="N39" s="88"/>
       <c r="O39" s="88"/>
-      <c r="P39" s="243">
+      <c r="P39" s="251">
         <v>0.85</v>
       </c>
-      <c r="Q39" s="243"/>
+      <c r="Q39" s="251"/>
       <c r="R39" s="88"/>
       <c r="S39" s="88"/>
-      <c r="T39" s="244"/>
-      <c r="U39" s="245"/>
+      <c r="T39" s="243"/>
+      <c r="U39" s="244"/>
       <c r="W39" t="s">
         <v>241</v>
       </c>
@@ -24056,10 +24056,10 @@
         <v>0.20784</v>
       </c>
       <c r="H40" s="85"/>
-      <c r="I40" s="248">
+      <c r="I40" s="245">
         <v>0.28937000000000002</v>
       </c>
-      <c r="J40" s="249"/>
+      <c r="J40" s="246"/>
       <c r="K40" s="84" t="s">
         <v>313</v>
       </c>
@@ -24073,10 +24073,10 @@
         <v>0.24167441860465114</v>
       </c>
       <c r="S40" s="85"/>
-      <c r="T40" s="248">
+      <c r="T40" s="245">
         <v>0.28937000000000002</v>
       </c>
-      <c r="U40" s="249"/>
+      <c r="U40" s="246"/>
       <c r="W40" t="s">
         <v>244</v>
       </c>
@@ -24085,37 +24085,37 @@
       </c>
     </row>
     <row r="41" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A41" s="242">
+      <c r="A41" s="247">
         <v>0.20368</v>
       </c>
-      <c r="B41" s="242"/>
-      <c r="C41" s="242">
+      <c r="B41" s="247"/>
+      <c r="C41" s="247">
         <v>0.33767000000000003</v>
       </c>
-      <c r="D41" s="242"/>
+      <c r="D41" s="247"/>
       <c r="E41" s="81"/>
       <c r="F41" s="81"/>
       <c r="G41" s="81"/>
       <c r="H41" s="81"/>
-      <c r="I41" s="246"/>
-      <c r="J41" s="247"/>
+      <c r="I41" s="240"/>
+      <c r="J41" s="242"/>
       <c r="K41" s="80" t="s">
         <v>315</v>
       </c>
-      <c r="L41" s="242">
+      <c r="L41" s="247">
         <v>0.20368</v>
       </c>
-      <c r="M41" s="242"/>
-      <c r="N41" s="242">
+      <c r="M41" s="247"/>
+      <c r="N41" s="247">
         <v>0.33767000000000003</v>
       </c>
-      <c r="O41" s="242"/>
+      <c r="O41" s="247"/>
       <c r="P41" s="81"/>
       <c r="Q41" s="81"/>
       <c r="R41" s="81"/>
       <c r="S41" s="81"/>
-      <c r="T41" s="246"/>
-      <c r="U41" s="247"/>
+      <c r="T41" s="240"/>
+      <c r="U41" s="242"/>
       <c r="W41" t="s">
         <v>247</v>
       </c>
@@ -24128,14 +24128,14 @@
       <c r="B42" s="88"/>
       <c r="C42" s="88"/>
       <c r="D42" s="88"/>
-      <c r="E42" s="243">
+      <c r="E42" s="251">
         <v>0.89815999999999996</v>
       </c>
-      <c r="F42" s="243"/>
+      <c r="F42" s="251"/>
       <c r="G42" s="88"/>
       <c r="H42" s="88"/>
-      <c r="I42" s="244"/>
-      <c r="J42" s="245"/>
+      <c r="I42" s="243"/>
+      <c r="J42" s="244"/>
       <c r="K42" s="87" t="s">
         <v>317</v>
       </c>
@@ -24143,14 +24143,14 @@
       <c r="M42" s="88"/>
       <c r="N42" s="88"/>
       <c r="O42" s="88"/>
-      <c r="P42" s="243">
+      <c r="P42" s="251">
         <v>0.89815999999999996</v>
       </c>
-      <c r="Q42" s="243"/>
+      <c r="Q42" s="251"/>
       <c r="R42" s="88"/>
       <c r="S42" s="88"/>
-      <c r="T42" s="244"/>
-      <c r="U42" s="245"/>
+      <c r="T42" s="243"/>
+      <c r="U42" s="244"/>
       <c r="AC42" t="s">
         <v>450</v>
       </c>
@@ -24166,8 +24166,8 @@
         <v>0.57364000000000004</v>
       </c>
       <c r="H43" s="88"/>
-      <c r="I43" s="244"/>
-      <c r="J43" s="245"/>
+      <c r="I43" s="243"/>
+      <c r="J43" s="244"/>
       <c r="K43" s="87" t="s">
         <v>319</v>
       </c>
@@ -24181,8 +24181,8 @@
         <v>0.6670232558139535</v>
       </c>
       <c r="S43" s="88"/>
-      <c r="T43" s="244"/>
-      <c r="U43" s="245"/>
+      <c r="T43" s="243"/>
+      <c r="U43" s="244"/>
       <c r="W43" t="s">
         <v>256</v>
       </c>
@@ -24201,10 +24201,10 @@
         <v>0.26422000000000001</v>
       </c>
       <c r="H44" s="85"/>
-      <c r="I44" s="248">
+      <c r="I44" s="245">
         <v>0.2399</v>
       </c>
-      <c r="J44" s="249"/>
+      <c r="J44" s="246"/>
       <c r="K44" s="84" t="s">
         <v>321</v>
       </c>
@@ -24218,11 +24218,11 @@
         <v>0.30723255813953487</v>
       </c>
       <c r="S44" s="85"/>
-      <c r="T44" s="248">
+      <c r="T44" s="245">
         <f>23.99%*1.06</f>
         <v>0.25429399999999996</v>
       </c>
-      <c r="U44" s="249"/>
+      <c r="U44" s="246"/>
       <c r="W44" t="s">
         <v>258</v>
       </c>
@@ -24235,16 +24235,16 @@
         <v>0.34708</v>
       </c>
       <c r="B45" s="92"/>
-      <c r="C45" s="242">
+      <c r="C45" s="247">
         <v>0.20830000000000001</v>
       </c>
-      <c r="D45" s="242"/>
+      <c r="D45" s="247"/>
       <c r="E45" s="81"/>
       <c r="F45" s="81"/>
       <c r="G45" s="81"/>
       <c r="H45" s="81"/>
-      <c r="I45" s="246"/>
-      <c r="J45" s="247"/>
+      <c r="I45" s="240"/>
+      <c r="J45" s="242"/>
       <c r="K45" s="80" t="s">
         <v>322</v>
       </c>
@@ -24252,16 +24252,16 @@
         <v>0.34708</v>
       </c>
       <c r="M45" s="92"/>
-      <c r="N45" s="242">
+      <c r="N45" s="247">
         <v>0.20830000000000001</v>
       </c>
-      <c r="O45" s="242"/>
+      <c r="O45" s="247"/>
       <c r="P45" s="81"/>
       <c r="Q45" s="81"/>
       <c r="R45" s="81"/>
       <c r="S45" s="81"/>
-      <c r="T45" s="246"/>
-      <c r="U45" s="247"/>
+      <c r="T45" s="240"/>
+      <c r="U45" s="242"/>
       <c r="AC45" t="s">
         <v>453</v>
       </c>
@@ -24271,14 +24271,14 @@
       <c r="B46" s="88"/>
       <c r="C46" s="88"/>
       <c r="D46" s="88"/>
-      <c r="E46" s="243">
+      <c r="E46" s="251">
         <v>0.52559999999999996</v>
       </c>
-      <c r="F46" s="243"/>
+      <c r="F46" s="251"/>
       <c r="G46" s="88"/>
       <c r="H46" s="88"/>
-      <c r="I46" s="244"/>
-      <c r="J46" s="245"/>
+      <c r="I46" s="243"/>
+      <c r="J46" s="244"/>
       <c r="K46" s="87" t="s">
         <v>323</v>
       </c>
@@ -24286,14 +24286,14 @@
       <c r="M46" s="88"/>
       <c r="N46" s="88"/>
       <c r="O46" s="88"/>
-      <c r="P46" s="243">
+      <c r="P46" s="251">
         <v>0.52559999999999996</v>
       </c>
-      <c r="Q46" s="243"/>
+      <c r="Q46" s="251"/>
       <c r="R46" s="88"/>
       <c r="S46" s="88"/>
-      <c r="T46" s="244"/>
-      <c r="U46" s="245"/>
+      <c r="T46" s="243"/>
+      <c r="U46" s="244"/>
       <c r="W46" t="s">
         <v>373</v>
       </c>
@@ -24312,8 +24312,8 @@
         <v>0.84328000000000003</v>
       </c>
       <c r="H47" s="88"/>
-      <c r="I47" s="244"/>
-      <c r="J47" s="245"/>
+      <c r="I47" s="243"/>
+      <c r="J47" s="244"/>
       <c r="K47" s="87" t="s">
         <v>324</v>
       </c>
@@ -24327,8 +24327,8 @@
         <v>0.85308558139534874</v>
       </c>
       <c r="S47" s="88"/>
-      <c r="T47" s="244"/>
-      <c r="U47" s="245"/>
+      <c r="T47" s="243"/>
+      <c r="U47" s="244"/>
     </row>
     <row r="48" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="85"/>
@@ -24341,10 +24341,10 @@
         <v>0.23543</v>
       </c>
       <c r="H48" s="85"/>
-      <c r="I48" s="248">
+      <c r="I48" s="245">
         <v>0.13220000000000001</v>
       </c>
-      <c r="J48" s="249"/>
+      <c r="J48" s="246"/>
       <c r="K48" s="84" t="s">
         <v>326</v>
       </c>
@@ -24358,11 +24358,11 @@
         <v>0.27375581395348836</v>
       </c>
       <c r="S48" s="85"/>
-      <c r="T48" s="248">
+      <c r="T48" s="245">
         <f>13.22%*1.16</f>
         <v>0.15335200000000002</v>
       </c>
-      <c r="U48" s="249"/>
+      <c r="U48" s="246"/>
       <c r="W48" t="s">
         <v>455</v>
       </c>
@@ -24375,14 +24375,14 @@
       <c r="B49" s="94"/>
       <c r="C49" s="94"/>
       <c r="D49" s="94"/>
-      <c r="E49" s="250">
+      <c r="E49" s="248">
         <v>0.43773000000000001</v>
       </c>
-      <c r="F49" s="250"/>
+      <c r="F49" s="248"/>
       <c r="G49" s="94"/>
       <c r="H49" s="94"/>
-      <c r="I49" s="251"/>
-      <c r="J49" s="252"/>
+      <c r="I49" s="249"/>
+      <c r="J49" s="250"/>
       <c r="K49" s="93" t="s">
         <v>367</v>
       </c>
@@ -24390,14 +24390,14 @@
       <c r="M49" s="94"/>
       <c r="N49" s="94"/>
       <c r="O49" s="94"/>
-      <c r="P49" s="250">
+      <c r="P49" s="248">
         <v>0.43773000000000001</v>
       </c>
-      <c r="Q49" s="250"/>
+      <c r="Q49" s="248"/>
       <c r="R49" s="94"/>
       <c r="S49" s="94"/>
-      <c r="T49" s="251"/>
-      <c r="U49" s="252"/>
+      <c r="T49" s="249"/>
+      <c r="U49" s="250"/>
       <c r="V49" s="40"/>
       <c r="W49" t="s">
         <v>457</v>
@@ -24408,16 +24408,16 @@
         <v>0.47361999999999999</v>
       </c>
       <c r="B50" s="92"/>
-      <c r="C50" s="242">
+      <c r="C50" s="247">
         <v>0.28101999999999999</v>
       </c>
-      <c r="D50" s="242"/>
+      <c r="D50" s="247"/>
       <c r="E50" s="81"/>
       <c r="F50" s="81"/>
       <c r="G50" s="81"/>
       <c r="H50" s="81"/>
-      <c r="I50" s="246"/>
-      <c r="J50" s="247"/>
+      <c r="I50" s="240"/>
+      <c r="J50" s="242"/>
       <c r="K50" s="80" t="s">
         <v>328</v>
       </c>
@@ -24425,23 +24425,23 @@
         <v>0.47361999999999999</v>
       </c>
       <c r="M50" s="92"/>
-      <c r="N50" s="242">
+      <c r="N50" s="247">
         <v>0.28101999999999999</v>
       </c>
-      <c r="O50" s="242"/>
+      <c r="O50" s="247"/>
       <c r="P50" s="81"/>
       <c r="Q50" s="81"/>
       <c r="R50" s="81"/>
       <c r="S50" s="81"/>
-      <c r="T50" s="246"/>
-      <c r="U50" s="247"/>
+      <c r="T50" s="240"/>
+      <c r="U50" s="242"/>
       <c r="W50" t="s">
         <v>458</v>
       </c>
-      <c r="AC50" s="258" t="s">
+      <c r="AC50" s="256" t="s">
         <v>251</v>
       </c>
-      <c r="AD50" s="258"/>
+      <c r="AD50" s="256"/>
     </row>
     <row r="51" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A51" s="88"/>
@@ -24454,8 +24454,8 @@
         <v>0.71950000000000003</v>
       </c>
       <c r="H51" s="88"/>
-      <c r="I51" s="244"/>
-      <c r="J51" s="245"/>
+      <c r="I51" s="243"/>
+      <c r="J51" s="244"/>
       <c r="K51" s="87" t="s">
         <v>329</v>
       </c>
@@ -24469,8 +24469,8 @@
         <v>0.66930232558139535</v>
       </c>
       <c r="S51" s="88"/>
-      <c r="T51" s="244"/>
-      <c r="U51" s="245"/>
+      <c r="T51" s="243"/>
+      <c r="U51" s="244"/>
       <c r="W51" t="s">
         <v>459</v>
       </c>
@@ -24486,10 +24486,10 @@
         <v>0.20451</v>
       </c>
       <c r="H52" s="85"/>
-      <c r="I52" s="248">
+      <c r="I52" s="245">
         <v>9.1600000000000001E-2</v>
       </c>
-      <c r="J52" s="249"/>
+      <c r="J52" s="246"/>
       <c r="K52" s="84" t="s">
         <v>331</v>
       </c>
@@ -24503,10 +24503,10 @@
         <v>0.23780232558139536</v>
       </c>
       <c r="S52" s="85"/>
-      <c r="T52" s="248">
+      <c r="T52" s="245">
         <v>9.1600000000000001E-2</v>
       </c>
-      <c r="U52" s="249"/>
+      <c r="U52" s="246"/>
       <c r="W52" t="s">
         <v>460</v>
       </c>
@@ -24519,16 +24519,16 @@
         <v>0.17321</v>
       </c>
       <c r="B53" s="92"/>
-      <c r="C53" s="242">
+      <c r="C53" s="247">
         <v>9.2929999999999999E-2</v>
       </c>
-      <c r="D53" s="242"/>
+      <c r="D53" s="247"/>
       <c r="E53" s="81"/>
       <c r="F53" s="81"/>
       <c r="G53" s="81"/>
       <c r="H53" s="81"/>
-      <c r="I53" s="246"/>
-      <c r="J53" s="247"/>
+      <c r="I53" s="240"/>
+      <c r="J53" s="242"/>
       <c r="K53" s="80" t="s">
         <v>333</v>
       </c>
@@ -24536,17 +24536,17 @@
         <v>0.17321</v>
       </c>
       <c r="M53" s="92"/>
-      <c r="N53" s="242">
+      <c r="N53" s="247">
         <f>9.293%*0.8</f>
         <v>7.4344000000000007E-2</v>
       </c>
-      <c r="O53" s="242"/>
+      <c r="O53" s="247"/>
       <c r="P53" s="81"/>
       <c r="Q53" s="81"/>
       <c r="R53" s="81"/>
       <c r="S53" s="81"/>
-      <c r="T53" s="246"/>
-      <c r="U53" s="247"/>
+      <c r="T53" s="240"/>
+      <c r="U53" s="242"/>
       <c r="W53" t="s">
         <v>461</v>
       </c>
@@ -24565,8 +24565,8 @@
         <v>1</v>
       </c>
       <c r="H54" s="88"/>
-      <c r="I54" s="244"/>
-      <c r="J54" s="245"/>
+      <c r="I54" s="243"/>
+      <c r="J54" s="244"/>
       <c r="K54" s="87" t="s">
         <v>335</v>
       </c>
@@ -24580,8 +24580,8 @@
         <v>1</v>
       </c>
       <c r="S54" s="88"/>
-      <c r="T54" s="244"/>
-      <c r="U54" s="245"/>
+      <c r="T54" s="243"/>
+      <c r="U54" s="244"/>
       <c r="W54" t="s">
         <v>462</v>
       </c>
@@ -24600,10 +24600,10 @@
         <v>0.26967000000000002</v>
       </c>
       <c r="H55" s="85"/>
-      <c r="I55" s="248">
+      <c r="I55" s="245">
         <v>0.1535</v>
       </c>
-      <c r="J55" s="249"/>
+      <c r="J55" s="246"/>
       <c r="K55" s="84" t="s">
         <v>337</v>
       </c>
@@ -24617,10 +24617,10 @@
         <v>0.31356976744186049</v>
       </c>
       <c r="S55" s="85"/>
-      <c r="T55" s="248">
+      <c r="T55" s="245">
         <v>0.1535</v>
       </c>
-      <c r="U55" s="249"/>
+      <c r="U55" s="246"/>
       <c r="V55" s="40"/>
       <c r="W55" t="s">
         <v>463</v>
@@ -24631,14 +24631,14 @@
       <c r="B56" s="94"/>
       <c r="C56" s="94"/>
       <c r="D56" s="94"/>
-      <c r="E56" s="250">
+      <c r="E56" s="248">
         <v>0.43773000000000001</v>
       </c>
-      <c r="F56" s="250"/>
+      <c r="F56" s="248"/>
       <c r="G56" s="94"/>
       <c r="H56" s="94"/>
-      <c r="I56" s="251"/>
-      <c r="J56" s="252"/>
+      <c r="I56" s="249"/>
+      <c r="J56" s="250"/>
       <c r="K56" s="93" t="s">
         <v>368</v>
       </c>
@@ -24646,15 +24646,15 @@
       <c r="M56" s="94"/>
       <c r="N56" s="94"/>
       <c r="O56" s="94"/>
-      <c r="P56" s="250">
+      <c r="P56" s="248">
         <f>43.773%*0.8</f>
         <v>0.35018400000000005</v>
       </c>
-      <c r="Q56" s="250"/>
+      <c r="Q56" s="248"/>
       <c r="R56" s="94"/>
       <c r="S56" s="94"/>
-      <c r="T56" s="251"/>
-      <c r="U56" s="252"/>
+      <c r="T56" s="249"/>
+      <c r="U56" s="250"/>
       <c r="V56" s="40"/>
       <c r="W56" t="s">
         <v>464</v>
@@ -24668,16 +24668,16 @@
         <v>0.28996</v>
       </c>
       <c r="B57" s="92"/>
-      <c r="C57" s="242">
+      <c r="C57" s="247">
         <v>0.25344</v>
       </c>
-      <c r="D57" s="242"/>
+      <c r="D57" s="247"/>
       <c r="E57" s="81"/>
       <c r="F57" s="81"/>
       <c r="G57" s="81"/>
       <c r="H57" s="81"/>
-      <c r="I57" s="246"/>
-      <c r="J57" s="247"/>
+      <c r="I57" s="240"/>
+      <c r="J57" s="242"/>
       <c r="K57" s="80" t="s">
         <v>340</v>
       </c>
@@ -24685,16 +24685,16 @@
         <v>0.28996</v>
       </c>
       <c r="M57" s="92"/>
-      <c r="N57" s="242">
+      <c r="N57" s="247">
         <v>0.25344</v>
       </c>
-      <c r="O57" s="242"/>
+      <c r="O57" s="247"/>
       <c r="P57" s="81"/>
       <c r="Q57" s="81"/>
       <c r="R57" s="81"/>
       <c r="S57" s="81"/>
-      <c r="T57" s="246"/>
-      <c r="U57" s="247"/>
+      <c r="T57" s="240"/>
+      <c r="U57" s="242"/>
       <c r="V57" s="40"/>
       <c r="W57" t="s">
         <v>466</v>
@@ -24705,14 +24705,14 @@
       <c r="B58" s="88"/>
       <c r="C58" s="88"/>
       <c r="D58" s="88"/>
-      <c r="E58" s="243">
+      <c r="E58" s="251">
         <v>0.65949000000000002</v>
       </c>
-      <c r="F58" s="243"/>
+      <c r="F58" s="251"/>
       <c r="G58" s="88"/>
       <c r="H58" s="88"/>
-      <c r="I58" s="244"/>
-      <c r="J58" s="245"/>
+      <c r="I58" s="243"/>
+      <c r="J58" s="244"/>
       <c r="K58" s="87" t="s">
         <v>342</v>
       </c>
@@ -24720,15 +24720,15 @@
       <c r="M58" s="88"/>
       <c r="N58" s="88"/>
       <c r="O58" s="88"/>
-      <c r="P58" s="243">
+      <c r="P58" s="251">
         <f>65.949%*1.1</f>
         <v>0.72543900000000006</v>
       </c>
-      <c r="Q58" s="243"/>
+      <c r="Q58" s="251"/>
       <c r="R58" s="88"/>
       <c r="S58" s="88"/>
-      <c r="T58" s="244"/>
-      <c r="U58" s="245"/>
+      <c r="T58" s="243"/>
+      <c r="U58" s="244"/>
       <c r="V58" s="40"/>
       <c r="W58" t="s">
         <v>467</v>
@@ -24748,8 +24748,8 @@
         <v>0.56411</v>
       </c>
       <c r="H59" s="88"/>
-      <c r="I59" s="244"/>
-      <c r="J59" s="245"/>
+      <c r="I59" s="243"/>
+      <c r="J59" s="244"/>
       <c r="K59" s="87" t="s">
         <v>344</v>
       </c>
@@ -24763,8 +24763,8 @@
         <v>0.70185779069767451</v>
       </c>
       <c r="S59" s="88"/>
-      <c r="T59" s="244"/>
-      <c r="U59" s="245"/>
+      <c r="T59" s="243"/>
+      <c r="U59" s="244"/>
       <c r="V59" s="40"/>
       <c r="W59" t="s">
         <v>468</v>
@@ -24781,10 +24781,10 @@
         <v>0.14326</v>
       </c>
       <c r="H60" s="85"/>
-      <c r="I60" s="248">
+      <c r="I60" s="245">
         <v>0.17191999999999999</v>
       </c>
-      <c r="J60" s="249"/>
+      <c r="J60" s="246"/>
       <c r="K60" s="84" t="s">
         <v>346</v>
       </c>
@@ -24798,11 +24798,11 @@
         <v>0.2082267441860465</v>
       </c>
       <c r="S60" s="85"/>
-      <c r="T60" s="248">
+      <c r="T60" s="245">
         <f>17.192%</f>
         <v>0.17191999999999999</v>
       </c>
-      <c r="U60" s="249"/>
+      <c r="U60" s="246"/>
       <c r="V60" s="40"/>
       <c r="W60" t="s">
         <v>469</v>
@@ -24822,8 +24822,8 @@
         <v>0.19162000000000001</v>
       </c>
       <c r="H61" s="81"/>
-      <c r="I61" s="246"/>
-      <c r="J61" s="247"/>
+      <c r="I61" s="240"/>
+      <c r="J61" s="242"/>
       <c r="K61" s="80" t="s">
         <v>348</v>
       </c>
@@ -24837,8 +24837,8 @@
         <v>0.22281395348837213</v>
       </c>
       <c r="S61" s="81"/>
-      <c r="T61" s="246"/>
-      <c r="U61" s="247"/>
+      <c r="T61" s="240"/>
+      <c r="U61" s="242"/>
       <c r="V61" s="40"/>
       <c r="W61" t="s">
         <v>471</v>
@@ -24858,8 +24858,8 @@
         <v>0.49523</v>
       </c>
       <c r="H62" s="88"/>
-      <c r="I62" s="244"/>
-      <c r="J62" s="245"/>
+      <c r="I62" s="243"/>
+      <c r="J62" s="244"/>
       <c r="K62" s="87" t="s">
         <v>349</v>
       </c>
@@ -24873,8 +24873,8 @@
         <v>0.57584883720930236</v>
       </c>
       <c r="S62" s="88"/>
-      <c r="T62" s="244"/>
-      <c r="U62" s="245"/>
+      <c r="T62" s="243"/>
+      <c r="U62" s="244"/>
       <c r="V62" s="40"/>
       <c r="W62" t="s">
         <v>473</v>
@@ -24901,10 +24901,10 @@
       <c r="M63" s="88"/>
       <c r="N63" s="88"/>
       <c r="O63" s="88"/>
-      <c r="P63" s="246">
+      <c r="P63" s="240">
         <v>0.15</v>
       </c>
-      <c r="Q63" s="255"/>
+      <c r="Q63" s="241"/>
       <c r="R63" s="88"/>
       <c r="S63" s="88"/>
       <c r="T63" s="108"/>
@@ -24928,10 +24928,10 @@
         <v>0.47439999999999999</v>
       </c>
       <c r="H64" s="88"/>
-      <c r="I64" s="244">
+      <c r="I64" s="243">
         <v>0.60697000000000001</v>
       </c>
-      <c r="J64" s="245"/>
+      <c r="J64" s="244"/>
       <c r="K64" s="87" t="s">
         <v>350</v>
       </c>
@@ -24945,10 +24945,10 @@
         <v>0.55162790697674413</v>
       </c>
       <c r="S64" s="88"/>
-      <c r="T64" s="244">
+      <c r="T64" s="243">
         <v>0.60697000000000001</v>
       </c>
-      <c r="U64" s="245"/>
+      <c r="U64" s="244"/>
       <c r="V64" s="40"/>
       <c r="W64" t="s">
         <v>477</v>
@@ -24968,10 +24968,10 @@
         <v>0.16774</v>
       </c>
       <c r="H65" s="85"/>
-      <c r="I65" s="248">
+      <c r="I65" s="245">
         <v>0.24779999999999999</v>
       </c>
-      <c r="J65" s="249"/>
+      <c r="J65" s="246"/>
       <c r="K65" s="84" t="s">
         <v>351</v>
       </c>
@@ -24985,10 +24985,10 @@
         <v>0.19504651162790698</v>
       </c>
       <c r="S65" s="85"/>
-      <c r="T65" s="248">
+      <c r="T65" s="245">
         <v>0.24779999999999999</v>
       </c>
-      <c r="U65" s="249"/>
+      <c r="U65" s="246"/>
       <c r="V65" s="40"/>
       <c r="W65" t="s">
         <v>479</v>
@@ -25002,14 +25002,14 @@
       <c r="B66" s="81"/>
       <c r="C66" s="81"/>
       <c r="D66" s="81"/>
-      <c r="E66" s="246">
+      <c r="E66" s="240">
         <v>0.45617999999999997</v>
       </c>
-      <c r="F66" s="255"/>
+      <c r="F66" s="241"/>
       <c r="G66" s="81"/>
       <c r="H66" s="81"/>
-      <c r="I66" s="246"/>
-      <c r="J66" s="247"/>
+      <c r="I66" s="240"/>
+      <c r="J66" s="242"/>
       <c r="K66" s="80" t="s">
         <v>352</v>
       </c>
@@ -25017,14 +25017,14 @@
       <c r="M66" s="81"/>
       <c r="N66" s="81"/>
       <c r="O66" s="81"/>
-      <c r="P66" s="246">
+      <c r="P66" s="240">
         <v>0.45617999999999997</v>
       </c>
-      <c r="Q66" s="255"/>
+      <c r="Q66" s="241"/>
       <c r="R66" s="81"/>
       <c r="S66" s="81"/>
-      <c r="T66" s="246"/>
-      <c r="U66" s="247"/>
+      <c r="T66" s="240"/>
+      <c r="U66" s="242"/>
       <c r="V66" s="40"/>
       <c r="W66" t="s">
         <v>481</v>
@@ -25044,10 +25044,10 @@
         <v>0.28649999999999998</v>
       </c>
       <c r="H67" s="88"/>
-      <c r="I67" s="244">
+      <c r="I67" s="243">
         <v>0.80176999999999998</v>
       </c>
-      <c r="J67" s="245"/>
+      <c r="J67" s="244"/>
       <c r="K67" s="87" t="s">
         <v>353</v>
       </c>
@@ -25061,10 +25061,10 @@
         <v>0.33313953488372089</v>
       </c>
       <c r="S67" s="88"/>
-      <c r="T67" s="244">
+      <c r="T67" s="243">
         <v>0.50800000000000001</v>
       </c>
-      <c r="U67" s="245"/>
+      <c r="U67" s="244"/>
       <c r="V67" s="40"/>
       <c r="AC67" t="s">
         <v>483</v>
@@ -25081,10 +25081,10 @@
         <v>0.20932000000000001</v>
       </c>
       <c r="H68" s="88"/>
-      <c r="I68" s="244">
+      <c r="I68" s="243">
         <v>0.50775999999999999</v>
       </c>
-      <c r="J68" s="245"/>
+      <c r="J68" s="244"/>
       <c r="K68" s="87" t="s">
         <v>355</v>
       </c>
@@ -25098,10 +25098,10 @@
         <v>0.24339534883720934</v>
       </c>
       <c r="S68" s="88"/>
-      <c r="T68" s="244">
+      <c r="T68" s="243">
         <v>0.50775999999999999</v>
       </c>
-      <c r="U68" s="245"/>
+      <c r="U68" s="244"/>
       <c r="V68" s="40"/>
       <c r="AC68" t="s">
         <v>484</v>
@@ -25118,8 +25118,8 @@
         <v>0.14599000000000001</v>
       </c>
       <c r="H69" s="88"/>
-      <c r="I69" s="244"/>
-      <c r="J69" s="245"/>
+      <c r="I69" s="243"/>
+      <c r="J69" s="244"/>
       <c r="K69" s="87" t="s">
         <v>356</v>
       </c>
@@ -25133,13 +25133,13 @@
         <v>0.16975581395348838</v>
       </c>
       <c r="S69" s="88"/>
-      <c r="T69" s="244"/>
-      <c r="U69" s="245"/>
+      <c r="T69" s="243"/>
+      <c r="U69" s="244"/>
       <c r="V69" s="40"/>
-      <c r="W69" s="258" t="s">
+      <c r="W69" s="256" t="s">
         <v>236</v>
       </c>
-      <c r="X69" s="258"/>
+      <c r="X69" s="256"/>
       <c r="AC69" t="s">
         <v>485</v>
       </c>
@@ -25155,10 +25155,10 @@
         <v>0.12414</v>
       </c>
       <c r="H70" s="85"/>
-      <c r="I70" s="248">
+      <c r="I70" s="245">
         <v>0.61785000000000001</v>
       </c>
-      <c r="J70" s="249"/>
+      <c r="J70" s="246"/>
       <c r="K70" s="84" t="s">
         <v>357</v>
       </c>
@@ -25172,10 +25172,10 @@
         <v>0.14434883720930233</v>
       </c>
       <c r="S70" s="85"/>
-      <c r="T70" s="248">
+      <c r="T70" s="245">
         <v>0.61785000000000001</v>
       </c>
-      <c r="U70" s="249"/>
+      <c r="U70" s="246"/>
       <c r="V70" s="40"/>
       <c r="AC70" t="s">
         <v>486</v>
@@ -25192,10 +25192,10 @@
         <v>0.23763000000000001</v>
       </c>
       <c r="H71" s="81"/>
-      <c r="I71" s="246">
+      <c r="I71" s="240">
         <v>1</v>
       </c>
-      <c r="J71" s="247"/>
+      <c r="J71" s="242"/>
       <c r="K71" s="80" t="s">
         <v>358</v>
       </c>
@@ -25209,10 +25209,10 @@
         <v>0.27631395348837212</v>
       </c>
       <c r="S71" s="81"/>
-      <c r="T71" s="246">
+      <c r="T71" s="240">
         <v>1</v>
       </c>
-      <c r="U71" s="247"/>
+      <c r="U71" s="242"/>
       <c r="V71" s="40"/>
       <c r="W71" t="s">
         <v>282</v>
@@ -25239,10 +25239,10 @@
       <c r="M72" s="110"/>
       <c r="N72" s="110"/>
       <c r="O72" s="110"/>
-      <c r="P72" s="246">
+      <c r="P72" s="240">
         <v>0.25</v>
       </c>
-      <c r="Q72" s="255"/>
+      <c r="Q72" s="241"/>
       <c r="R72" s="110"/>
       <c r="S72" s="110"/>
       <c r="T72" s="111"/>
@@ -25266,8 +25266,8 @@
         <v>0.17316000000000001</v>
       </c>
       <c r="H73" s="88"/>
-      <c r="I73" s="244"/>
-      <c r="J73" s="245"/>
+      <c r="I73" s="243"/>
+      <c r="J73" s="244"/>
       <c r="K73" s="87" t="s">
         <v>359</v>
       </c>
@@ -25281,8 +25281,8 @@
         <v>0.20134883720930236</v>
       </c>
       <c r="S73" s="88"/>
-      <c r="T73" s="244"/>
-      <c r="U73" s="245"/>
+      <c r="T73" s="243"/>
+      <c r="U73" s="244"/>
       <c r="V73" s="40"/>
       <c r="W73" t="s">
         <v>288</v>
@@ -25302,10 +25302,10 @@
         <v>0.12317</v>
       </c>
       <c r="H74" s="85"/>
-      <c r="I74" s="248">
+      <c r="I74" s="245">
         <v>0.33643600000000001</v>
       </c>
-      <c r="J74" s="249"/>
+      <c r="J74" s="246"/>
       <c r="K74" s="84" t="s">
         <v>360</v>
       </c>
@@ -25319,10 +25319,10 @@
         <v>0.14322093023255814</v>
       </c>
       <c r="S74" s="85"/>
-      <c r="T74" s="248">
+      <c r="T74" s="245">
         <v>0.33643600000000001</v>
       </c>
-      <c r="U74" s="249"/>
+      <c r="U74" s="246"/>
       <c r="V74" s="40"/>
       <c r="AC74" t="s">
         <v>490</v>
@@ -25339,10 +25339,10 @@
         <v>0.20199</v>
       </c>
       <c r="H75" s="81"/>
-      <c r="I75" s="246">
+      <c r="I75" s="240">
         <v>0.85</v>
       </c>
-      <c r="J75" s="247"/>
+      <c r="J75" s="242"/>
       <c r="K75" s="80" t="s">
         <v>361</v>
       </c>
@@ -25356,10 +25356,10 @@
         <v>0.23487209302325585</v>
       </c>
       <c r="S75" s="81"/>
-      <c r="T75" s="246">
+      <c r="T75" s="240">
         <v>0.85</v>
       </c>
-      <c r="U75" s="247"/>
+      <c r="U75" s="242"/>
       <c r="V75" s="40"/>
       <c r="W75" t="s">
         <v>293</v>
@@ -25379,8 +25379,8 @@
         <v>0.17718999999999999</v>
       </c>
       <c r="H76" s="88"/>
-      <c r="I76" s="244"/>
-      <c r="J76" s="245"/>
+      <c r="I76" s="243"/>
+      <c r="J76" s="244"/>
       <c r="K76" s="87" t="s">
         <v>362</v>
       </c>
@@ -25394,8 +25394,8 @@
         <v>0.20603488372093021</v>
       </c>
       <c r="S76" s="88"/>
-      <c r="T76" s="244"/>
-      <c r="U76" s="245"/>
+      <c r="T76" s="243"/>
+      <c r="U76" s="244"/>
       <c r="V76" s="40"/>
       <c r="W76" t="s">
         <v>296</v>
@@ -25415,10 +25415,10 @@
         <v>0.1047</v>
       </c>
       <c r="H77" s="100"/>
-      <c r="I77" s="253">
+      <c r="I77" s="238">
         <v>0.28591</v>
       </c>
-      <c r="J77" s="254"/>
+      <c r="J77" s="239"/>
       <c r="K77" s="99" t="s">
         <v>363</v>
       </c>
@@ -25432,10 +25432,10 @@
         <v>0.12174418604651163</v>
       </c>
       <c r="S77" s="100"/>
-      <c r="T77" s="253">
+      <c r="T77" s="238">
         <v>0.28591</v>
       </c>
-      <c r="U77" s="254"/>
+      <c r="U77" s="239"/>
       <c r="V77" s="40"/>
       <c r="AC77" t="s">
         <v>493</v>
@@ -25536,6 +25536,192 @@
     </row>
   </sheetData>
   <mergeCells count="210">
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="T45:U45"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="T48:U48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="T46:U46"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="T47:U47"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="T53:U53"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="T51:U51"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="T57:U57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="T58:U58"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="T54:U54"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="T55:U55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="T56:U56"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="T66:U66"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="T67:U67"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="T62:U62"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="T64:U64"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="T65:U65"/>
+    <mergeCell ref="I77:J77"/>
+    <mergeCell ref="T77:U77"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="T71:U71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="I73:J73"/>
+    <mergeCell ref="T73:U73"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="T74:U74"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="W37:X37"/>
@@ -25560,192 +25746,6 @@
     <mergeCell ref="I52:J52"/>
     <mergeCell ref="T52:U52"/>
     <mergeCell ref="I48:J48"/>
-    <mergeCell ref="I77:J77"/>
-    <mergeCell ref="T77:U77"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="T71:U71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="I73:J73"/>
-    <mergeCell ref="T73:U73"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="T74:U74"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="T66:U66"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="T67:U67"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="T62:U62"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="T64:U64"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="T65:U65"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="T57:U57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="T58:U58"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="T54:U54"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="T55:U55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="T56:U56"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="T53:U53"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="T50:U50"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="T51:U51"/>
-    <mergeCell ref="T48:U48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="T46:U46"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="T47:U47"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="T45:U45"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="T42:U42"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="T43:U43"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="T41:U41"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="T39:U39"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="T40:U40"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="T36:U36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:J48 A50:J77">
     <cfRule type="cellIs" dxfId="21" priority="13" operator="between">
@@ -61030,8 +61030,8 @@
   </sheetPr>
   <dimension ref="A1:W38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -63681,8 +63681,8 @@
   </sheetPr>
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -65130,460 +65130,460 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="230" t="s">
+      <c r="A4" s="234" t="s">
         <v>1130</v>
       </c>
-      <c r="B4" s="230" t="s">
+      <c r="B4" s="234" t="s">
         <v>1131</v>
       </c>
-      <c r="C4" s="230" t="s">
+      <c r="C4" s="234" t="s">
         <v>1132</v>
       </c>
-      <c r="D4" s="230" t="s">
+      <c r="D4" s="234" t="s">
         <v>1133</v>
       </c>
-      <c r="E4" s="232" t="s">
+      <c r="E4" s="236" t="s">
         <v>1134</v>
       </c>
-      <c r="F4" s="230" t="s">
+      <c r="F4" s="234" t="s">
         <v>1135</v>
       </c>
-      <c r="G4" s="230" t="s">
+      <c r="G4" s="234" t="s">
         <v>1136</v>
       </c>
-      <c r="H4" s="230" t="s">
+      <c r="H4" s="234" t="s">
         <v>1137</v>
       </c>
-      <c r="I4" s="230" t="s">
+      <c r="I4" s="234" t="s">
         <v>1138</v>
       </c>
-      <c r="J4" s="232" t="s">
+      <c r="J4" s="236" t="s">
         <v>1139</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="231"/>
-      <c r="B5" s="231"/>
-      <c r="C5" s="231"/>
-      <c r="D5" s="231"/>
-      <c r="E5" s="233"/>
-      <c r="F5" s="231"/>
-      <c r="G5" s="231"/>
-      <c r="H5" s="231"/>
-      <c r="I5" s="231"/>
-      <c r="J5" s="233"/>
+      <c r="A5" s="235"/>
+      <c r="B5" s="235"/>
+      <c r="C5" s="235"/>
+      <c r="D5" s="235"/>
+      <c r="E5" s="237"/>
+      <c r="F5" s="235"/>
+      <c r="G5" s="235"/>
+      <c r="H5" s="235"/>
+      <c r="I5" s="235"/>
+      <c r="J5" s="237"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="230" t="s">
+      <c r="A6" s="234" t="s">
         <v>1140</v>
       </c>
-      <c r="B6" s="234">
+      <c r="B6" s="232">
         <v>3563</v>
       </c>
-      <c r="C6" s="234">
+      <c r="C6" s="232">
         <v>3583</v>
       </c>
-      <c r="D6" s="234">
+      <c r="D6" s="232">
         <v>3689</v>
       </c>
-      <c r="E6" s="236">
+      <c r="E6" s="230">
         <v>3712</v>
       </c>
-      <c r="F6" s="234">
+      <c r="F6" s="232">
         <v>3656</v>
       </c>
-      <c r="G6" s="234">
+      <c r="G6" s="232">
         <v>3751</v>
       </c>
-      <c r="H6" s="234">
+      <c r="H6" s="232">
         <v>3693</v>
       </c>
-      <c r="I6" s="234">
+      <c r="I6" s="232">
         <v>3676</v>
       </c>
-      <c r="J6" s="236">
+      <c r="J6" s="230">
         <v>3638</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="231"/>
-      <c r="B7" s="235"/>
-      <c r="C7" s="235"/>
-      <c r="D7" s="235"/>
-      <c r="E7" s="237"/>
-      <c r="F7" s="235"/>
-      <c r="G7" s="235"/>
-      <c r="H7" s="235"/>
-      <c r="I7" s="235"/>
-      <c r="J7" s="237"/>
+      <c r="A7" s="235"/>
+      <c r="B7" s="233"/>
+      <c r="C7" s="233"/>
+      <c r="D7" s="233"/>
+      <c r="E7" s="231"/>
+      <c r="F7" s="233"/>
+      <c r="G7" s="233"/>
+      <c r="H7" s="233"/>
+      <c r="I7" s="233"/>
+      <c r="J7" s="231"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="230" t="s">
+      <c r="A8" s="234" t="s">
         <v>1141</v>
       </c>
-      <c r="B8" s="234">
+      <c r="B8" s="232">
         <v>2957</v>
       </c>
-      <c r="C8" s="234">
+      <c r="C8" s="232">
         <v>3253</v>
       </c>
-      <c r="D8" s="234">
+      <c r="D8" s="232">
         <v>3342</v>
       </c>
-      <c r="E8" s="236">
+      <c r="E8" s="230">
         <v>3325</v>
       </c>
-      <c r="F8" s="234">
+      <c r="F8" s="232">
         <v>3461</v>
       </c>
-      <c r="G8" s="234">
+      <c r="G8" s="232">
         <v>3392</v>
       </c>
-      <c r="H8" s="234">
+      <c r="H8" s="232">
         <v>3455</v>
       </c>
-      <c r="I8" s="234">
+      <c r="I8" s="232">
         <v>3369</v>
       </c>
-      <c r="J8" s="236">
+      <c r="J8" s="230">
         <v>3372</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="231"/>
-      <c r="B9" s="235"/>
-      <c r="C9" s="235"/>
-      <c r="D9" s="235"/>
-      <c r="E9" s="237"/>
-      <c r="F9" s="235"/>
-      <c r="G9" s="235"/>
-      <c r="H9" s="235"/>
-      <c r="I9" s="235"/>
-      <c r="J9" s="237"/>
+      <c r="A9" s="235"/>
+      <c r="B9" s="233"/>
+      <c r="C9" s="233"/>
+      <c r="D9" s="233"/>
+      <c r="E9" s="231"/>
+      <c r="F9" s="233"/>
+      <c r="G9" s="233"/>
+      <c r="H9" s="233"/>
+      <c r="I9" s="233"/>
+      <c r="J9" s="231"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="230" t="s">
+      <c r="A10" s="234" t="s">
         <v>1142</v>
       </c>
-      <c r="B10" s="234">
+      <c r="B10" s="232">
         <v>2354</v>
       </c>
-      <c r="C10" s="234">
+      <c r="C10" s="232">
         <v>2997</v>
       </c>
-      <c r="D10" s="234">
+      <c r="D10" s="232">
         <v>3041</v>
       </c>
-      <c r="E10" s="236">
+      <c r="E10" s="230">
         <v>3085</v>
       </c>
-      <c r="F10" s="234">
+      <c r="F10" s="232">
         <v>3118</v>
       </c>
-      <c r="G10" s="234">
+      <c r="G10" s="232">
         <v>3100</v>
       </c>
-      <c r="H10" s="234">
+      <c r="H10" s="232">
         <v>3130</v>
       </c>
-      <c r="I10" s="234">
+      <c r="I10" s="232">
         <v>3102</v>
       </c>
-      <c r="J10" s="236">
+      <c r="J10" s="230">
         <v>3098</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="231"/>
-      <c r="B11" s="235"/>
-      <c r="C11" s="235"/>
-      <c r="D11" s="235"/>
-      <c r="E11" s="237"/>
-      <c r="F11" s="235"/>
-      <c r="G11" s="235"/>
-      <c r="H11" s="235"/>
-      <c r="I11" s="235"/>
-      <c r="J11" s="237"/>
+      <c r="A11" s="235"/>
+      <c r="B11" s="233"/>
+      <c r="C11" s="233"/>
+      <c r="D11" s="233"/>
+      <c r="E11" s="231"/>
+      <c r="F11" s="233"/>
+      <c r="G11" s="233"/>
+      <c r="H11" s="233"/>
+      <c r="I11" s="233"/>
+      <c r="J11" s="231"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="230" t="s">
+      <c r="A12" s="234" t="s">
         <v>1143</v>
       </c>
-      <c r="B12" s="234"/>
-      <c r="C12" s="234">
+      <c r="B12" s="232"/>
+      <c r="C12" s="232">
         <v>2361</v>
       </c>
-      <c r="D12" s="234">
+      <c r="D12" s="232">
         <v>2778</v>
       </c>
-      <c r="E12" s="236">
+      <c r="E12" s="230">
         <v>2793</v>
       </c>
-      <c r="F12" s="234">
+      <c r="F12" s="232">
         <v>2808</v>
       </c>
-      <c r="G12" s="234">
+      <c r="G12" s="232">
         <v>2810</v>
       </c>
-      <c r="H12" s="234">
+      <c r="H12" s="232">
         <v>2814</v>
       </c>
-      <c r="I12" s="234">
+      <c r="I12" s="232">
         <v>2795</v>
       </c>
-      <c r="J12" s="236">
+      <c r="J12" s="230">
         <v>2793</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="231"/>
-      <c r="B13" s="235"/>
-      <c r="C13" s="235"/>
-      <c r="D13" s="235"/>
-      <c r="E13" s="237"/>
-      <c r="F13" s="235"/>
-      <c r="G13" s="235"/>
-      <c r="H13" s="235"/>
-      <c r="I13" s="235"/>
-      <c r="J13" s="237"/>
+      <c r="A13" s="235"/>
+      <c r="B13" s="233"/>
+      <c r="C13" s="233"/>
+      <c r="D13" s="233"/>
+      <c r="E13" s="231"/>
+      <c r="F13" s="233"/>
+      <c r="G13" s="233"/>
+      <c r="H13" s="233"/>
+      <c r="I13" s="233"/>
+      <c r="J13" s="231"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="230" t="s">
+      <c r="A14" s="234" t="s">
         <v>1144</v>
       </c>
-      <c r="B14" s="234"/>
-      <c r="C14" s="234"/>
-      <c r="D14" s="234">
+      <c r="B14" s="232"/>
+      <c r="C14" s="232"/>
+      <c r="D14" s="232">
         <v>2241</v>
       </c>
-      <c r="E14" s="236">
+      <c r="E14" s="230">
         <v>2467</v>
       </c>
-      <c r="F14" s="234">
+      <c r="F14" s="232">
         <v>2521</v>
       </c>
-      <c r="G14" s="234">
+      <c r="G14" s="232">
         <v>2507</v>
       </c>
-      <c r="H14" s="234">
+      <c r="H14" s="232">
         <v>2536</v>
       </c>
-      <c r="I14" s="234">
+      <c r="I14" s="232">
         <v>2517</v>
       </c>
-      <c r="J14" s="236">
+      <c r="J14" s="230">
         <v>2525</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="231"/>
-      <c r="B15" s="235"/>
-      <c r="C15" s="235"/>
-      <c r="D15" s="235"/>
-      <c r="E15" s="237"/>
-      <c r="F15" s="235"/>
-      <c r="G15" s="235"/>
-      <c r="H15" s="235"/>
-      <c r="I15" s="235"/>
-      <c r="J15" s="237"/>
+      <c r="A15" s="235"/>
+      <c r="B15" s="233"/>
+      <c r="C15" s="233"/>
+      <c r="D15" s="233"/>
+      <c r="E15" s="231"/>
+      <c r="F15" s="233"/>
+      <c r="G15" s="233"/>
+      <c r="H15" s="233"/>
+      <c r="I15" s="233"/>
+      <c r="J15" s="231"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="230" t="s">
+      <c r="A16" s="234" t="s">
         <v>1145</v>
       </c>
-      <c r="B16" s="234"/>
-      <c r="C16" s="234"/>
-      <c r="D16" s="234"/>
-      <c r="E16" s="236">
+      <c r="B16" s="232"/>
+      <c r="C16" s="232"/>
+      <c r="D16" s="232"/>
+      <c r="E16" s="230">
         <v>2113</v>
       </c>
-      <c r="F16" s="234">
+      <c r="F16" s="232">
         <v>2226</v>
       </c>
-      <c r="G16" s="234">
+      <c r="G16" s="232">
         <v>2202</v>
       </c>
-      <c r="H16" s="234">
+      <c r="H16" s="232">
         <v>2232</v>
       </c>
-      <c r="I16" s="234">
+      <c r="I16" s="232">
         <v>2235</v>
       </c>
-      <c r="J16" s="236">
+      <c r="J16" s="230">
         <v>2227</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="231"/>
-      <c r="B17" s="235"/>
-      <c r="C17" s="235"/>
-      <c r="D17" s="235"/>
-      <c r="E17" s="237"/>
-      <c r="F17" s="235"/>
-      <c r="G17" s="235"/>
-      <c r="H17" s="235"/>
-      <c r="I17" s="235"/>
-      <c r="J17" s="237"/>
+      <c r="A17" s="235"/>
+      <c r="B17" s="233"/>
+      <c r="C17" s="233"/>
+      <c r="D17" s="233"/>
+      <c r="E17" s="231"/>
+      <c r="F17" s="233"/>
+      <c r="G17" s="233"/>
+      <c r="H17" s="233"/>
+      <c r="I17" s="233"/>
+      <c r="J17" s="231"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="230" t="s">
+      <c r="A18" s="234" t="s">
         <v>1146</v>
       </c>
-      <c r="B18" s="234"/>
-      <c r="C18" s="234"/>
-      <c r="D18" s="234"/>
-      <c r="E18" s="236"/>
-      <c r="F18" s="234">
+      <c r="B18" s="232"/>
+      <c r="C18" s="232"/>
+      <c r="D18" s="232"/>
+      <c r="E18" s="230"/>
+      <c r="F18" s="232">
         <v>1537</v>
       </c>
-      <c r="G18" s="234">
+      <c r="G18" s="232">
         <v>1762</v>
       </c>
-      <c r="H18" s="234">
+      <c r="H18" s="232">
         <v>1905</v>
       </c>
-      <c r="I18" s="234">
+      <c r="I18" s="232">
         <v>1879</v>
       </c>
-      <c r="J18" s="236">
+      <c r="J18" s="230">
         <v>1893</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="231"/>
-      <c r="B19" s="235"/>
-      <c r="C19" s="235"/>
-      <c r="D19" s="235"/>
-      <c r="E19" s="237"/>
-      <c r="F19" s="235"/>
-      <c r="G19" s="235"/>
-      <c r="H19" s="235"/>
-      <c r="I19" s="235"/>
-      <c r="J19" s="237"/>
+      <c r="A19" s="235"/>
+      <c r="B19" s="233"/>
+      <c r="C19" s="233"/>
+      <c r="D19" s="233"/>
+      <c r="E19" s="231"/>
+      <c r="F19" s="233"/>
+      <c r="G19" s="233"/>
+      <c r="H19" s="233"/>
+      <c r="I19" s="233"/>
+      <c r="J19" s="231"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="230" t="s">
+      <c r="A20" s="234" t="s">
         <v>1147</v>
       </c>
-      <c r="B20" s="234"/>
-      <c r="C20" s="234"/>
-      <c r="D20" s="234"/>
-      <c r="E20" s="236"/>
-      <c r="F20" s="234"/>
-      <c r="G20" s="234">
+      <c r="B20" s="232"/>
+      <c r="C20" s="232"/>
+      <c r="D20" s="232"/>
+      <c r="E20" s="230"/>
+      <c r="F20" s="232"/>
+      <c r="G20" s="232">
         <v>1412</v>
       </c>
-      <c r="H20" s="234">
+      <c r="H20" s="232">
         <v>1689</v>
       </c>
-      <c r="I20" s="234">
+      <c r="I20" s="232">
         <v>1630</v>
       </c>
-      <c r="J20" s="236">
+      <c r="J20" s="230">
         <v>1640</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="231"/>
-      <c r="B21" s="235"/>
-      <c r="C21" s="235"/>
-      <c r="D21" s="235"/>
-      <c r="E21" s="237"/>
-      <c r="F21" s="235"/>
-      <c r="G21" s="235"/>
-      <c r="H21" s="235"/>
-      <c r="I21" s="235"/>
-      <c r="J21" s="237"/>
+      <c r="A21" s="235"/>
+      <c r="B21" s="233"/>
+      <c r="C21" s="233"/>
+      <c r="D21" s="233"/>
+      <c r="E21" s="231"/>
+      <c r="F21" s="233"/>
+      <c r="G21" s="233"/>
+      <c r="H21" s="233"/>
+      <c r="I21" s="233"/>
+      <c r="J21" s="231"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="230" t="s">
+      <c r="A22" s="234" t="s">
         <v>1148</v>
       </c>
-      <c r="B22" s="234"/>
-      <c r="C22" s="234"/>
-      <c r="D22" s="234"/>
-      <c r="E22" s="236"/>
-      <c r="F22" s="234"/>
-      <c r="G22" s="234"/>
-      <c r="H22" s="234">
+      <c r="B22" s="232"/>
+      <c r="C22" s="232"/>
+      <c r="D22" s="232"/>
+      <c r="E22" s="230"/>
+      <c r="F22" s="232"/>
+      <c r="G22" s="232"/>
+      <c r="H22" s="232">
         <v>1082</v>
       </c>
-      <c r="I22" s="234">
+      <c r="I22" s="232">
         <v>1341</v>
       </c>
-      <c r="J22" s="236">
+      <c r="J22" s="230">
         <v>1325</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="231"/>
-      <c r="B23" s="235"/>
-      <c r="C23" s="235"/>
-      <c r="D23" s="235"/>
-      <c r="E23" s="237"/>
-      <c r="F23" s="235"/>
-      <c r="G23" s="235"/>
-      <c r="H23" s="235"/>
-      <c r="I23" s="235"/>
-      <c r="J23" s="237"/>
+      <c r="A23" s="235"/>
+      <c r="B23" s="233"/>
+      <c r="C23" s="233"/>
+      <c r="D23" s="233"/>
+      <c r="E23" s="231"/>
+      <c r="F23" s="233"/>
+      <c r="G23" s="233"/>
+      <c r="H23" s="233"/>
+      <c r="I23" s="233"/>
+      <c r="J23" s="231"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="230" t="s">
+      <c r="A24" s="234" t="s">
         <v>1149</v>
       </c>
-      <c r="B24" s="234"/>
-      <c r="C24" s="234"/>
-      <c r="D24" s="234"/>
-      <c r="E24" s="236"/>
-      <c r="F24" s="234"/>
-      <c r="G24" s="234"/>
-      <c r="H24" s="234"/>
-      <c r="I24" s="234">
+      <c r="B24" s="232"/>
+      <c r="C24" s="232"/>
+      <c r="D24" s="232"/>
+      <c r="E24" s="230"/>
+      <c r="F24" s="232"/>
+      <c r="G24" s="232"/>
+      <c r="H24" s="232"/>
+      <c r="I24" s="232">
         <v>1003</v>
       </c>
-      <c r="J24" s="236">
+      <c r="J24" s="230">
         <v>1016</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="231"/>
-      <c r="B25" s="235"/>
-      <c r="C25" s="235"/>
-      <c r="D25" s="235"/>
-      <c r="E25" s="237"/>
-      <c r="F25" s="235"/>
-      <c r="G25" s="235"/>
-      <c r="H25" s="235"/>
-      <c r="I25" s="235"/>
-      <c r="J25" s="237"/>
+      <c r="A25" s="235"/>
+      <c r="B25" s="233"/>
+      <c r="C25" s="233"/>
+      <c r="D25" s="233"/>
+      <c r="E25" s="231"/>
+      <c r="F25" s="233"/>
+      <c r="G25" s="233"/>
+      <c r="H25" s="233"/>
+      <c r="I25" s="233"/>
+      <c r="J25" s="231"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="230" t="s">
+      <c r="A26" s="234" t="s">
         <v>1150</v>
       </c>
-      <c r="B26" s="234"/>
-      <c r="C26" s="234"/>
-      <c r="D26" s="234"/>
-      <c r="E26" s="236"/>
-      <c r="F26" s="234"/>
-      <c r="G26" s="234"/>
-      <c r="H26" s="234"/>
-      <c r="I26" s="234"/>
-      <c r="J26" s="236">
+      <c r="B26" s="232"/>
+      <c r="C26" s="232"/>
+      <c r="D26" s="232"/>
+      <c r="E26" s="230"/>
+      <c r="F26" s="232"/>
+      <c r="G26" s="232"/>
+      <c r="H26" s="232"/>
+      <c r="I26" s="232"/>
+      <c r="J26" s="230">
         <v>632</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="231"/>
-      <c r="B27" s="235"/>
-      <c r="C27" s="235"/>
-      <c r="D27" s="235"/>
-      <c r="E27" s="237"/>
-      <c r="F27" s="235"/>
-      <c r="G27" s="235"/>
-      <c r="H27" s="235"/>
-      <c r="I27" s="235"/>
-      <c r="J27" s="237"/>
+      <c r="A27" s="235"/>
+      <c r="B27" s="233"/>
+      <c r="C27" s="233"/>
+      <c r="D27" s="233"/>
+      <c r="E27" s="231"/>
+      <c r="F27" s="233"/>
+      <c r="G27" s="233"/>
+      <c r="H27" s="233"/>
+      <c r="I27" s="233"/>
+      <c r="J27" s="231"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -65592,6 +65592,106 @@
     </row>
   </sheetData>
   <mergeCells count="120">
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
     <mergeCell ref="J26:J27"/>
     <mergeCell ref="G24:G25"/>
     <mergeCell ref="H24:H25"/>
@@ -65612,106 +65712,6 @@
     <mergeCell ref="G26:G27"/>
     <mergeCell ref="H26:H27"/>
     <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -65724,7 +65724,7 @@
   </sheetPr>
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
@@ -65973,26 +65973,26 @@
       <c r="C1" s="78" t="s">
         <v>233</v>
       </c>
-      <c r="F1" s="238" t="s">
+      <c r="F1" s="253" t="s">
         <v>234</v>
       </c>
-      <c r="G1" s="238"/>
-      <c r="H1" s="238" t="s">
+      <c r="G1" s="253"/>
+      <c r="H1" s="253" t="s">
         <v>235</v>
       </c>
-      <c r="I1" s="238"/>
-      <c r="J1" s="238" t="s">
+      <c r="I1" s="253"/>
+      <c r="J1" s="253" t="s">
         <v>236</v>
       </c>
-      <c r="K1" s="238"/>
-      <c r="L1" s="238" t="s">
+      <c r="K1" s="253"/>
+      <c r="L1" s="253" t="s">
         <v>237</v>
       </c>
-      <c r="M1" s="238"/>
-      <c r="N1" s="238" t="s">
+      <c r="M1" s="253"/>
+      <c r="N1" s="253" t="s">
         <v>238</v>
       </c>
-      <c r="O1" s="238"/>
+      <c r="O1" s="253"/>
     </row>
     <row r="2" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F2" s="79" t="s">
@@ -66001,18 +66001,18 @@
       <c r="G2" s="79" t="s">
         <v>240</v>
       </c>
-      <c r="H2" s="239"/>
-      <c r="I2" s="240"/>
-      <c r="J2" s="239"/>
-      <c r="K2" s="240"/>
+      <c r="H2" s="254"/>
+      <c r="I2" s="255"/>
+      <c r="J2" s="254"/>
+      <c r="K2" s="255"/>
       <c r="L2" s="79" t="s">
         <v>239</v>
       </c>
       <c r="M2" s="79" t="s">
         <v>240</v>
       </c>
-      <c r="N2" s="239"/>
-      <c r="O2" s="240"/>
+      <c r="N2" s="254"/>
+      <c r="O2" s="255"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -66024,14 +66024,14 @@
       <c r="E3" s="80" t="s">
         <v>243</v>
       </c>
-      <c r="F3" s="242">
+      <c r="F3" s="247">
         <v>0.64709000000000005</v>
       </c>
-      <c r="G3" s="242"/>
-      <c r="H3" s="242">
+      <c r="G3" s="247"/>
+      <c r="H3" s="247">
         <v>0.97192999999999996</v>
       </c>
-      <c r="I3" s="242"/>
+      <c r="I3" s="247"/>
       <c r="J3" s="81"/>
       <c r="K3" s="81"/>
       <c r="L3" s="81"/>
@@ -66054,14 +66054,14 @@
       <c r="E4" s="84" t="s">
         <v>246</v>
       </c>
-      <c r="F4" s="241">
+      <c r="F4" s="252">
         <v>0.26545000000000002</v>
       </c>
-      <c r="G4" s="241"/>
-      <c r="H4" s="241">
+      <c r="G4" s="252"/>
+      <c r="H4" s="252">
         <v>0.39895999999999998</v>
       </c>
-      <c r="I4" s="241"/>
+      <c r="I4" s="252"/>
       <c r="J4" s="85"/>
       <c r="K4" s="85"/>
       <c r="L4" s="85"/>
@@ -66087,10 +66087,10 @@
       <c r="G5" s="81">
         <v>0.25008999999999998</v>
       </c>
-      <c r="H5" s="242">
+      <c r="H5" s="247">
         <v>1</v>
       </c>
-      <c r="I5" s="242"/>
+      <c r="I5" s="247"/>
       <c r="J5" s="81"/>
       <c r="K5" s="81"/>
       <c r="L5" s="81"/>
@@ -66111,10 +66111,10 @@
       <c r="G6" s="85"/>
       <c r="H6" s="85"/>
       <c r="I6" s="85"/>
-      <c r="J6" s="241">
+      <c r="J6" s="252">
         <v>0.27488000000000001</v>
       </c>
-      <c r="K6" s="241"/>
+      <c r="K6" s="252"/>
       <c r="L6" s="85"/>
       <c r="M6" s="85"/>
       <c r="N6" s="85"/>
@@ -66138,10 +66138,10 @@
       <c r="G7" s="81">
         <v>0.17752000000000001</v>
       </c>
-      <c r="H7" s="242">
+      <c r="H7" s="247">
         <v>0.72296000000000005</v>
       </c>
-      <c r="I7" s="242"/>
+      <c r="I7" s="247"/>
       <c r="J7" s="81"/>
       <c r="K7" s="81"/>
       <c r="L7" s="81"/>
@@ -66164,10 +66164,10 @@
       <c r="G8" s="85"/>
       <c r="H8" s="85"/>
       <c r="I8" s="85"/>
-      <c r="J8" s="241">
+      <c r="J8" s="252">
         <v>0.36337000000000003</v>
       </c>
-      <c r="K8" s="241"/>
+      <c r="K8" s="252"/>
       <c r="L8" s="85"/>
       <c r="M8" s="85"/>
       <c r="N8" s="85"/>
@@ -66185,10 +66185,10 @@
         <v>0.65615999999999997</v>
       </c>
       <c r="G9" s="81"/>
-      <c r="H9" s="242">
+      <c r="H9" s="247">
         <v>0.78437000000000001</v>
       </c>
-      <c r="I9" s="242"/>
+      <c r="I9" s="247"/>
       <c r="J9" s="81"/>
       <c r="K9" s="81"/>
       <c r="L9" s="81"/>
@@ -66214,10 +66214,10 @@
       <c r="G10" s="88"/>
       <c r="H10" s="88"/>
       <c r="I10" s="88"/>
-      <c r="J10" s="243">
+      <c r="J10" s="251">
         <v>0.1464</v>
       </c>
-      <c r="K10" s="243"/>
+      <c r="K10" s="251"/>
       <c r="L10" s="88"/>
       <c r="M10" s="88"/>
       <c r="N10" s="88"/>
@@ -66252,14 +66252,14 @@
       <c r="E12" s="80" t="s">
         <v>260</v>
       </c>
-      <c r="F12" s="242">
+      <c r="F12" s="247">
         <v>0.42514999999999997</v>
       </c>
-      <c r="G12" s="242"/>
-      <c r="H12" s="242">
+      <c r="G12" s="247"/>
+      <c r="H12" s="247">
         <v>0.85</v>
       </c>
-      <c r="I12" s="242"/>
+      <c r="I12" s="247"/>
       <c r="J12" s="81"/>
       <c r="K12" s="81"/>
       <c r="L12" s="81"/>
@@ -66285,10 +66285,10 @@
       <c r="G13" s="85"/>
       <c r="H13" s="85"/>
       <c r="I13" s="85"/>
-      <c r="J13" s="241">
+      <c r="J13" s="252">
         <v>0.23365</v>
       </c>
-      <c r="K13" s="241"/>
+      <c r="K13" s="252"/>
       <c r="L13" s="85"/>
       <c r="M13" s="85"/>
       <c r="N13" s="85"/>
@@ -66306,10 +66306,10 @@
         <v>1</v>
       </c>
       <c r="G14" s="92"/>
-      <c r="H14" s="242">
+      <c r="H14" s="247">
         <v>0.51382000000000005</v>
       </c>
-      <c r="I14" s="242"/>
+      <c r="I14" s="247"/>
       <c r="J14" s="81"/>
       <c r="K14" s="81"/>
       <c r="L14" s="81"/>
@@ -66336,10 +66336,10 @@
       <c r="G15" s="88"/>
       <c r="H15" s="88"/>
       <c r="I15" s="88"/>
-      <c r="J15" s="243">
+      <c r="J15" s="251">
         <v>4.3869999999999999E-2</v>
       </c>
-      <c r="K15" s="243"/>
+      <c r="K15" s="251"/>
       <c r="L15" s="88"/>
       <c r="M15" s="88"/>
       <c r="N15" s="88"/>
@@ -66386,10 +66386,10 @@
         <v>0.91232999999999997</v>
       </c>
       <c r="G17" s="92"/>
-      <c r="H17" s="242">
+      <c r="H17" s="247">
         <v>0.46146999999999999</v>
       </c>
-      <c r="I17" s="242"/>
+      <c r="I17" s="247"/>
       <c r="J17" s="81"/>
       <c r="K17" s="81"/>
       <c r="L17" s="81"/>
@@ -66415,10 +66415,10 @@
       <c r="G18" s="88"/>
       <c r="H18" s="88"/>
       <c r="I18" s="88"/>
-      <c r="J18" s="243">
+      <c r="J18" s="251">
         <v>0.15035999999999999</v>
       </c>
-      <c r="K18" s="243"/>
+      <c r="K18" s="251"/>
       <c r="L18" s="88"/>
       <c r="M18" s="88"/>
       <c r="N18" s="88"/>
@@ -66460,10 +66460,10 @@
         <v>0.69059999999999999</v>
       </c>
       <c r="G20" s="92"/>
-      <c r="H20" s="242">
+      <c r="H20" s="247">
         <v>0.38878000000000001</v>
       </c>
-      <c r="I20" s="242"/>
+      <c r="I20" s="247"/>
       <c r="J20" s="81"/>
       <c r="K20" s="81"/>
       <c r="L20" s="81"/>
@@ -66489,10 +66489,10 @@
       <c r="G21" s="88"/>
       <c r="H21" s="88"/>
       <c r="I21" s="88"/>
-      <c r="J21" s="243">
+      <c r="J21" s="251">
         <v>0.2099</v>
       </c>
-      <c r="K21" s="243"/>
+      <c r="K21" s="251"/>
       <c r="L21" s="88"/>
       <c r="M21" s="88"/>
       <c r="N21" s="88"/>
@@ -66534,10 +66534,10 @@
         <v>0.68315000000000003</v>
       </c>
       <c r="G23" s="92"/>
-      <c r="H23" s="242">
+      <c r="H23" s="247">
         <v>0.70006000000000002</v>
       </c>
-      <c r="I23" s="242"/>
+      <c r="I23" s="247"/>
       <c r="J23" s="81"/>
       <c r="K23" s="81"/>
       <c r="L23" s="81"/>
@@ -66563,10 +66563,10 @@
       <c r="G24" s="88"/>
       <c r="H24" s="88"/>
       <c r="I24" s="88"/>
-      <c r="J24" s="243">
+      <c r="J24" s="251">
         <v>0.152</v>
       </c>
-      <c r="K24" s="243"/>
+      <c r="K24" s="251"/>
       <c r="L24" s="88"/>
       <c r="M24" s="88"/>
       <c r="N24" s="88"/>
@@ -66610,16 +66610,16 @@
       <c r="G26" s="81">
         <v>9.2719999999999997E-2</v>
       </c>
-      <c r="H26" s="242">
+      <c r="H26" s="247">
         <v>0.42459999999999998</v>
       </c>
-      <c r="I26" s="242"/>
+      <c r="I26" s="247"/>
       <c r="J26" s="81"/>
       <c r="K26" s="81"/>
       <c r="L26" s="81"/>
       <c r="M26" s="81"/>
-      <c r="N26" s="246"/>
-      <c r="O26" s="247"/>
+      <c r="N26" s="240"/>
+      <c r="O26" s="242"/>
       <c r="P26" s="83">
         <f>F26+G26+H26+J27+L28+M28+N28</f>
         <v>2.4103300000000001</v>
@@ -66639,14 +66639,14 @@
       <c r="G27" s="88"/>
       <c r="H27" s="88"/>
       <c r="I27" s="88"/>
-      <c r="J27" s="243">
+      <c r="J27" s="251">
         <v>1</v>
       </c>
-      <c r="K27" s="243"/>
+      <c r="K27" s="251"/>
       <c r="L27" s="88"/>
       <c r="M27" s="88"/>
-      <c r="N27" s="244"/>
-      <c r="O27" s="245"/>
+      <c r="N27" s="243"/>
+      <c r="O27" s="244"/>
       <c r="P27" s="83"/>
     </row>
     <row r="28" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -66671,10 +66671,10 @@
       <c r="M28" s="85">
         <v>0.1226</v>
       </c>
-      <c r="N28" s="248">
+      <c r="N28" s="245">
         <v>0.34044000000000002</v>
       </c>
-      <c r="O28" s="249"/>
+      <c r="O28" s="246"/>
       <c r="P28" s="83"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
@@ -66690,16 +66690,16 @@
       <c r="G29" s="81">
         <v>0.13719000000000001</v>
       </c>
-      <c r="H29" s="242">
+      <c r="H29" s="247">
         <v>0.62792999999999999</v>
       </c>
-      <c r="I29" s="242"/>
+      <c r="I29" s="247"/>
       <c r="J29" s="81"/>
       <c r="K29" s="81"/>
       <c r="L29" s="81"/>
       <c r="M29" s="81"/>
-      <c r="N29" s="246"/>
-      <c r="O29" s="247"/>
+      <c r="N29" s="240"/>
+      <c r="O29" s="242"/>
       <c r="P29" s="83">
         <f>F29+G29+H29+L30+M30+N30+J33</f>
         <v>2.4474499999999999</v>
@@ -66727,10 +66727,10 @@
       <c r="M30" s="85">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="N30" s="248">
+      <c r="N30" s="245">
         <v>0.23748</v>
       </c>
-      <c r="O30" s="249"/>
+      <c r="O30" s="246"/>
       <c r="P30" s="83"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
@@ -66746,16 +66746,16 @@
       <c r="G31" s="81">
         <v>5.6059999999999999E-2</v>
       </c>
-      <c r="H31" s="242">
+      <c r="H31" s="247">
         <v>0.23462</v>
       </c>
-      <c r="I31" s="242"/>
+      <c r="I31" s="247"/>
       <c r="J31" s="81"/>
       <c r="K31" s="81"/>
       <c r="L31" s="81"/>
       <c r="M31" s="81"/>
-      <c r="N31" s="246"/>
-      <c r="O31" s="247"/>
+      <c r="N31" s="240"/>
+      <c r="O31" s="242"/>
       <c r="P31" s="83">
         <f>F31+G31+H31+L32+M32+N32+J33</f>
         <v>2.2090299999999998</v>
@@ -66780,10 +66780,10 @@
       <c r="M32" s="85">
         <v>0.11894</v>
       </c>
-      <c r="N32" s="248">
+      <c r="N32" s="245">
         <v>0.50244</v>
       </c>
-      <c r="O32" s="249"/>
+      <c r="O32" s="246"/>
       <c r="P32" s="83"/>
     </row>
     <row r="33" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -66797,34 +66797,34 @@
       <c r="G33" s="94"/>
       <c r="H33" s="94"/>
       <c r="I33" s="94"/>
-      <c r="J33" s="250">
+      <c r="J33" s="248">
         <v>0.94696999999999998</v>
       </c>
-      <c r="K33" s="250"/>
+      <c r="K33" s="248"/>
       <c r="L33" s="94"/>
       <c r="M33" s="94"/>
-      <c r="N33" s="251"/>
-      <c r="O33" s="252"/>
+      <c r="N33" s="249"/>
+      <c r="O33" s="250"/>
       <c r="P33" s="83"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E34" s="80" t="s">
         <v>310</v>
       </c>
-      <c r="F34" s="242">
+      <c r="F34" s="247">
         <v>0.15762999999999999</v>
       </c>
-      <c r="G34" s="242"/>
-      <c r="H34" s="242">
+      <c r="G34" s="247"/>
+      <c r="H34" s="247">
         <v>0.36070000000000002</v>
       </c>
-      <c r="I34" s="242"/>
+      <c r="I34" s="247"/>
       <c r="J34" s="81"/>
       <c r="K34" s="81"/>
       <c r="L34" s="81"/>
       <c r="M34" s="81"/>
-      <c r="N34" s="246"/>
-      <c r="O34" s="247"/>
+      <c r="N34" s="240"/>
+      <c r="O34" s="242"/>
       <c r="P34" s="83">
         <f>F34+H34+J35+L36+N36</f>
         <v>1.8655399999999998</v>
@@ -66838,14 +66838,14 @@
       <c r="G35" s="88"/>
       <c r="H35" s="88"/>
       <c r="I35" s="88"/>
-      <c r="J35" s="243">
+      <c r="J35" s="251">
         <v>0.85</v>
       </c>
-      <c r="K35" s="243"/>
+      <c r="K35" s="251"/>
       <c r="L35" s="88"/>
       <c r="M35" s="88"/>
-      <c r="N35" s="244"/>
-      <c r="O35" s="245"/>
+      <c r="N35" s="243"/>
+      <c r="O35" s="244"/>
       <c r="P35" s="83"/>
     </row>
     <row r="36" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -66865,10 +66865,10 @@
         <v>0.20784</v>
       </c>
       <c r="M36" s="85"/>
-      <c r="N36" s="248">
+      <c r="N36" s="245">
         <v>0.28937000000000002</v>
       </c>
-      <c r="O36" s="249"/>
+      <c r="O36" s="246"/>
       <c r="P36" s="83"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
@@ -66878,20 +66878,20 @@
       <c r="E37" s="80" t="s">
         <v>315</v>
       </c>
-      <c r="F37" s="242">
+      <c r="F37" s="247">
         <v>0.20368</v>
       </c>
-      <c r="G37" s="242"/>
-      <c r="H37" s="242">
+      <c r="G37" s="247"/>
+      <c r="H37" s="247">
         <v>0.33767000000000003</v>
       </c>
-      <c r="I37" s="242"/>
+      <c r="I37" s="247"/>
       <c r="J37" s="81"/>
       <c r="K37" s="81"/>
       <c r="L37" s="81"/>
       <c r="M37" s="81"/>
-      <c r="N37" s="246"/>
-      <c r="O37" s="247"/>
+      <c r="N37" s="240"/>
+      <c r="O37" s="242"/>
       <c r="P37" s="83">
         <f>F37+H37+J38+L39+L40+N40</f>
         <v>2.5172699999999999</v>
@@ -66908,14 +66908,14 @@
       <c r="G38" s="88"/>
       <c r="H38" s="88"/>
       <c r="I38" s="88"/>
-      <c r="J38" s="243">
+      <c r="J38" s="251">
         <v>0.89815999999999996</v>
       </c>
-      <c r="K38" s="243"/>
+      <c r="K38" s="251"/>
       <c r="L38" s="88"/>
       <c r="M38" s="88"/>
-      <c r="N38" s="244"/>
-      <c r="O38" s="245"/>
+      <c r="N38" s="243"/>
+      <c r="O38" s="244"/>
       <c r="P38" s="83"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
@@ -66935,8 +66935,8 @@
         <v>0.57364000000000004</v>
       </c>
       <c r="M39" s="88"/>
-      <c r="N39" s="244"/>
-      <c r="O39" s="245"/>
+      <c r="N39" s="243"/>
+      <c r="O39" s="244"/>
       <c r="P39" s="83"/>
     </row>
     <row r="40" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -66956,10 +66956,10 @@
         <v>0.26422000000000001</v>
       </c>
       <c r="M40" s="85"/>
-      <c r="N40" s="248">
+      <c r="N40" s="245">
         <v>0.2399</v>
       </c>
-      <c r="O40" s="249"/>
+      <c r="O40" s="246"/>
       <c r="P40" s="83"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
@@ -66970,16 +66970,16 @@
         <v>0.34708</v>
       </c>
       <c r="G41" s="92"/>
-      <c r="H41" s="242">
+      <c r="H41" s="247">
         <v>0.20830000000000001</v>
       </c>
-      <c r="I41" s="242"/>
+      <c r="I41" s="247"/>
       <c r="J41" s="81"/>
       <c r="K41" s="81"/>
       <c r="L41" s="81"/>
       <c r="M41" s="81"/>
-      <c r="N41" s="246"/>
-      <c r="O41" s="247"/>
+      <c r="N41" s="240"/>
+      <c r="O41" s="242"/>
       <c r="P41" s="83">
         <f>F41+H41+J42+L43+L44+N44</f>
         <v>2.29189</v>
@@ -66993,14 +66993,14 @@
       <c r="G42" s="88"/>
       <c r="H42" s="88"/>
       <c r="I42" s="88"/>
-      <c r="J42" s="243">
+      <c r="J42" s="251">
         <v>0.52559999999999996</v>
       </c>
-      <c r="K42" s="243"/>
+      <c r="K42" s="251"/>
       <c r="L42" s="88"/>
       <c r="M42" s="88"/>
-      <c r="N42" s="244"/>
-      <c r="O42" s="245"/>
+      <c r="N42" s="243"/>
+      <c r="O42" s="244"/>
       <c r="P42" s="83"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
@@ -67018,8 +67018,8 @@
         <v>0.84328000000000003</v>
       </c>
       <c r="M43" s="88"/>
-      <c r="N43" s="244"/>
-      <c r="O43" s="245"/>
+      <c r="N43" s="243"/>
+      <c r="O43" s="244"/>
       <c r="P43" s="83"/>
     </row>
     <row r="44" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -67039,10 +67039,10 @@
         <v>0.23543</v>
       </c>
       <c r="M44" s="85"/>
-      <c r="N44" s="248">
+      <c r="N44" s="245">
         <v>0.13220000000000001</v>
       </c>
-      <c r="O44" s="249"/>
+      <c r="O44" s="246"/>
       <c r="P44" s="83"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
@@ -67056,16 +67056,16 @@
         <v>0.47361999999999999</v>
       </c>
       <c r="G45" s="92"/>
-      <c r="H45" s="242">
+      <c r="H45" s="247">
         <v>0.28101999999999999</v>
       </c>
-      <c r="I45" s="242"/>
+      <c r="I45" s="247"/>
       <c r="J45" s="81"/>
       <c r="K45" s="81"/>
       <c r="L45" s="81"/>
       <c r="M45" s="81"/>
-      <c r="N45" s="246"/>
-      <c r="O45" s="247"/>
+      <c r="N45" s="240"/>
+      <c r="O45" s="242"/>
       <c r="P45" s="83">
         <f>F45+H45+L46+L47+N47+J51</f>
         <v>2.2079800000000001</v>
@@ -67085,8 +67085,8 @@
         <v>0.71950000000000003</v>
       </c>
       <c r="M46" s="88"/>
-      <c r="N46" s="244"/>
-      <c r="O46" s="245"/>
+      <c r="N46" s="243"/>
+      <c r="O46" s="244"/>
       <c r="P46" s="83"/>
     </row>
     <row r="47" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -67106,10 +67106,10 @@
         <v>0.20451</v>
       </c>
       <c r="M47" s="85"/>
-      <c r="N47" s="248">
+      <c r="N47" s="245">
         <v>9.1600000000000001E-2</v>
       </c>
-      <c r="O47" s="249"/>
+      <c r="O47" s="246"/>
       <c r="P47" s="83"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
@@ -67123,16 +67123,16 @@
         <v>0.17321</v>
       </c>
       <c r="G48" s="92"/>
-      <c r="H48" s="242">
+      <c r="H48" s="247">
         <v>9.2929999999999999E-2</v>
       </c>
-      <c r="I48" s="242"/>
+      <c r="I48" s="247"/>
       <c r="J48" s="81"/>
       <c r="K48" s="81"/>
       <c r="L48" s="81"/>
       <c r="M48" s="81"/>
-      <c r="N48" s="246"/>
-      <c r="O48" s="247"/>
+      <c r="N48" s="240"/>
+      <c r="O48" s="242"/>
       <c r="P48" s="83">
         <f>F48+H48+L49+L50+N50+J51</f>
         <v>2.12704</v>
@@ -67155,8 +67155,8 @@
         <v>1</v>
       </c>
       <c r="M49" s="88"/>
-      <c r="N49" s="244"/>
-      <c r="O49" s="245"/>
+      <c r="N49" s="243"/>
+      <c r="O49" s="244"/>
       <c r="P49" s="83"/>
     </row>
     <row r="50" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -67179,10 +67179,10 @@
         <v>0.26967000000000002</v>
       </c>
       <c r="M50" s="85"/>
-      <c r="N50" s="248">
+      <c r="N50" s="245">
         <v>0.1535</v>
       </c>
-      <c r="O50" s="249"/>
+      <c r="O50" s="246"/>
       <c r="P50" s="83"/>
     </row>
     <row r="51" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -67196,14 +67196,14 @@
       <c r="G51" s="94"/>
       <c r="H51" s="94"/>
       <c r="I51" s="94"/>
-      <c r="J51" s="250">
+      <c r="J51" s="248">
         <v>0.43773000000000001</v>
       </c>
-      <c r="K51" s="250"/>
+      <c r="K51" s="248"/>
       <c r="L51" s="94"/>
       <c r="M51" s="94"/>
-      <c r="N51" s="251"/>
-      <c r="O51" s="252"/>
+      <c r="N51" s="249"/>
+      <c r="O51" s="250"/>
       <c r="P51" s="83"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
@@ -67220,16 +67220,16 @@
         <v>0.28996</v>
       </c>
       <c r="G52" s="92"/>
-      <c r="H52" s="242">
+      <c r="H52" s="247">
         <v>0.25344</v>
       </c>
-      <c r="I52" s="242"/>
+      <c r="I52" s="247"/>
       <c r="J52" s="81"/>
       <c r="K52" s="81"/>
       <c r="L52" s="81"/>
       <c r="M52" s="81"/>
-      <c r="N52" s="246"/>
-      <c r="O52" s="247"/>
+      <c r="N52" s="240"/>
+      <c r="O52" s="242"/>
       <c r="P52" s="83">
         <f>F52+H52+J53+L54+L55+N55</f>
         <v>2.0821799999999997</v>
@@ -67249,14 +67249,14 @@
       <c r="G53" s="88"/>
       <c r="H53" s="88"/>
       <c r="I53" s="88"/>
-      <c r="J53" s="243">
+      <c r="J53" s="251">
         <v>0.65949000000000002</v>
       </c>
-      <c r="K53" s="243"/>
+      <c r="K53" s="251"/>
       <c r="L53" s="88"/>
       <c r="M53" s="88"/>
-      <c r="N53" s="244"/>
-      <c r="O53" s="245"/>
+      <c r="N53" s="243"/>
+      <c r="O53" s="244"/>
       <c r="P53" s="83"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
@@ -67279,8 +67279,8 @@
         <v>0.56411</v>
       </c>
       <c r="M54" s="88"/>
-      <c r="N54" s="244"/>
-      <c r="O54" s="245"/>
+      <c r="N54" s="243"/>
+      <c r="O54" s="244"/>
       <c r="P54" s="83"/>
     </row>
     <row r="55" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -67303,10 +67303,10 @@
         <v>0.14326</v>
       </c>
       <c r="M55" s="85"/>
-      <c r="N55" s="248">
+      <c r="N55" s="245">
         <v>0.17191999999999999</v>
       </c>
-      <c r="O55" s="249"/>
+      <c r="O55" s="246"/>
       <c r="P55" s="83"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
@@ -67329,8 +67329,8 @@
         <v>0.19162000000000001</v>
       </c>
       <c r="M56" s="81"/>
-      <c r="N56" s="246"/>
-      <c r="O56" s="247"/>
+      <c r="N56" s="240"/>
+      <c r="O56" s="242"/>
       <c r="P56" s="83">
         <f>L56+L57+L58+L59+N58+N59</f>
         <v>2.1837599999999999</v>
@@ -67353,8 +67353,8 @@
         <v>0.49523</v>
       </c>
       <c r="M57" s="88"/>
-      <c r="N57" s="244"/>
-      <c r="O57" s="245"/>
+      <c r="N57" s="243"/>
+      <c r="O57" s="244"/>
       <c r="P57" s="83"/>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
@@ -67374,10 +67374,10 @@
         <v>0.47439999999999999</v>
       </c>
       <c r="M58" s="88"/>
-      <c r="N58" s="244">
+      <c r="N58" s="243">
         <v>0.60697000000000001</v>
       </c>
-      <c r="O58" s="245"/>
+      <c r="O58" s="244"/>
       <c r="P58" s="83"/>
     </row>
     <row r="59" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -67397,10 +67397,10 @@
         <v>0.16774</v>
       </c>
       <c r="M59" s="85"/>
-      <c r="N59" s="248">
+      <c r="N59" s="245">
         <v>0.24779999999999999</v>
       </c>
-      <c r="O59" s="249"/>
+      <c r="O59" s="246"/>
       <c r="P59" s="83"/>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
@@ -67414,14 +67414,14 @@
       <c r="G60" s="81"/>
       <c r="H60" s="81"/>
       <c r="I60" s="81"/>
-      <c r="J60" s="246">
+      <c r="J60" s="240">
         <v>0.45617999999999997</v>
       </c>
-      <c r="K60" s="255"/>
+      <c r="K60" s="241"/>
       <c r="L60" s="81"/>
       <c r="M60" s="81"/>
-      <c r="N60" s="246"/>
-      <c r="O60" s="247"/>
+      <c r="N60" s="240"/>
+      <c r="O60" s="242"/>
       <c r="P60" s="83">
         <f>J60+L62+N62+L63+L64+N64</f>
         <v>2.0612399999999997</v>
@@ -67444,10 +67444,10 @@
         <v>0.28649999999999998</v>
       </c>
       <c r="M61" s="88"/>
-      <c r="N61" s="244">
+      <c r="N61" s="243">
         <v>0.80176999999999998</v>
       </c>
-      <c r="O61" s="245"/>
+      <c r="O61" s="244"/>
       <c r="P61" s="83">
         <f>J60+L61+N61+L63+L64+N64</f>
         <v>2.4324300000000001</v>
@@ -67473,10 +67473,10 @@
         <v>0.20932000000000001</v>
       </c>
       <c r="M62" s="88"/>
-      <c r="N62" s="244">
+      <c r="N62" s="243">
         <v>0.50775999999999999</v>
       </c>
-      <c r="O62" s="245"/>
+      <c r="O62" s="244"/>
       <c r="P62" s="83"/>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
@@ -67496,8 +67496,8 @@
         <v>0.14599000000000001</v>
       </c>
       <c r="M63" s="88"/>
-      <c r="N63" s="244"/>
-      <c r="O63" s="245"/>
+      <c r="N63" s="243"/>
+      <c r="O63" s="244"/>
       <c r="P63" s="83"/>
     </row>
     <row r="64" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -67517,10 +67517,10 @@
         <v>0.12414</v>
       </c>
       <c r="M64" s="85"/>
-      <c r="N64" s="248">
+      <c r="N64" s="245">
         <v>0.61785000000000001</v>
       </c>
-      <c r="O64" s="249"/>
+      <c r="O64" s="246"/>
       <c r="P64" s="83"/>
     </row>
     <row r="65" spans="3:17" x14ac:dyDescent="0.25">
@@ -67540,10 +67540,10 @@
         <v>0.23763000000000001</v>
       </c>
       <c r="M65" s="81"/>
-      <c r="N65" s="246">
+      <c r="N65" s="240">
         <v>1</v>
       </c>
-      <c r="O65" s="247"/>
+      <c r="O65" s="242"/>
       <c r="P65" s="83">
         <f>L65+N65+L66+L67+N67</f>
         <v>1.8703959999999999</v>
@@ -67567,8 +67567,8 @@
         <v>0.17316000000000001</v>
       </c>
       <c r="M66" s="88"/>
-      <c r="N66" s="244"/>
-      <c r="O66" s="245"/>
+      <c r="N66" s="243"/>
+      <c r="O66" s="244"/>
       <c r="P66" s="83"/>
       <c r="Q66" s="83"/>
     </row>
@@ -67589,10 +67589,10 @@
         <v>0.12317</v>
       </c>
       <c r="M67" s="85"/>
-      <c r="N67" s="248">
+      <c r="N67" s="245">
         <v>0.33643600000000001</v>
       </c>
-      <c r="O67" s="249"/>
+      <c r="O67" s="246"/>
       <c r="P67" s="83"/>
       <c r="Q67" s="83"/>
     </row>
@@ -67613,10 +67613,10 @@
         <v>0.20199</v>
       </c>
       <c r="M68" s="81"/>
-      <c r="N68" s="246">
+      <c r="N68" s="240">
         <v>0.85</v>
       </c>
-      <c r="O68" s="247"/>
+      <c r="O68" s="242"/>
       <c r="P68" s="83">
         <f>L68+N68+L69+L70+N70</f>
         <v>1.6197900000000001</v>
@@ -67639,8 +67639,8 @@
         <v>0.17718999999999999</v>
       </c>
       <c r="M69" s="88"/>
-      <c r="N69" s="244"/>
-      <c r="O69" s="245"/>
+      <c r="N69" s="243"/>
+      <c r="O69" s="244"/>
       <c r="P69" s="83"/>
     </row>
     <row r="70" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -67660,26 +67660,79 @@
         <v>0.1047</v>
       </c>
       <c r="M70" s="100"/>
-      <c r="N70" s="253">
+      <c r="N70" s="238">
         <v>0.28591</v>
       </c>
-      <c r="O70" s="254"/>
+      <c r="O70" s="239"/>
       <c r="P70" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="N70:O70"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="N60:O60"/>
-    <mergeCell ref="N61:O61"/>
-    <mergeCell ref="N62:O62"/>
-    <mergeCell ref="N63:O63"/>
-    <mergeCell ref="N64:O64"/>
-    <mergeCell ref="N65:O65"/>
-    <mergeCell ref="N66:O66"/>
-    <mergeCell ref="N67:O67"/>
-    <mergeCell ref="N68:O68"/>
-    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="N46:O46"/>
     <mergeCell ref="H48:I48"/>
     <mergeCell ref="N48:O48"/>
     <mergeCell ref="N49:O49"/>
@@ -67696,71 +67749,18 @@
     <mergeCell ref="N57:O57"/>
     <mergeCell ref="N58:O58"/>
     <mergeCell ref="N50:O50"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="N69:O69"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:O70">
     <cfRule type="cellIs" dxfId="25" priority="1" operator="between">

--- a/projects/current/hattrick/z_Biblioteca.xlsx
+++ b/projects/current/hattrick/z_Biblioteca.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95AFEE5A-ACC9-411D-8217-859518A47A5B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{439E6378-C850-4DDB-B8E3-5FC46E7A9F00}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resistencia" sheetId="1" r:id="rId1"/>
@@ -12059,18 +12059,6 @@
     <xf numFmtId="0" fontId="14" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -12083,19 +12071,34 @@
     <xf numFmtId="0" fontId="4" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -12104,13 +12107,16 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -12122,28 +12128,22 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="26" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="26" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -14678,8 +14678,8 @@
   </sheetPr>
   <dimension ref="A1:AS127"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -22388,97 +22388,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="257">
+      <c r="A1" s="256">
         <v>0.34</v>
       </c>
-      <c r="B1" s="258"/>
-      <c r="C1" s="257">
+      <c r="B1" s="257"/>
+      <c r="C1" s="256">
         <v>0.245</v>
       </c>
-      <c r="D1" s="258"/>
-      <c r="E1" s="257">
+      <c r="D1" s="257"/>
+      <c r="E1" s="256">
         <v>0.125</v>
       </c>
-      <c r="F1" s="258"/>
-      <c r="G1" s="257">
+      <c r="F1" s="257"/>
+      <c r="G1" s="256">
         <v>0.29099999999999998</v>
       </c>
-      <c r="H1" s="258"/>
-      <c r="I1" s="257">
+      <c r="H1" s="257"/>
+      <c r="I1" s="256">
         <v>0.19</v>
       </c>
-      <c r="J1" s="258"/>
-      <c r="L1" s="257">
+      <c r="J1" s="257"/>
+      <c r="L1" s="256">
         <v>0.34</v>
       </c>
-      <c r="M1" s="258"/>
-      <c r="N1" s="257">
+      <c r="M1" s="257"/>
+      <c r="N1" s="256">
         <v>0.245</v>
       </c>
-      <c r="O1" s="258"/>
-      <c r="P1" s="257">
+      <c r="O1" s="257"/>
+      <c r="P1" s="256">
         <v>0.125</v>
       </c>
-      <c r="Q1" s="258"/>
-      <c r="R1" s="257">
+      <c r="Q1" s="257"/>
+      <c r="R1" s="256">
         <f>0.291*86/100</f>
         <v>0.25025999999999998</v>
       </c>
-      <c r="S1" s="258"/>
-      <c r="T1" s="257">
+      <c r="S1" s="257"/>
+      <c r="T1" s="256">
         <v>0.19</v>
       </c>
-      <c r="U1" s="258"/>
-      <c r="W1" s="256" t="s">
+      <c r="U1" s="257"/>
+      <c r="W1" s="258" t="s">
         <v>232</v>
       </c>
-      <c r="X1" s="256"/>
-      <c r="AC1" s="256" t="s">
+      <c r="X1" s="258"/>
+      <c r="AC1" s="258" t="s">
         <v>233</v>
       </c>
-      <c r="AD1" s="256"/>
+      <c r="AD1" s="258"/>
     </row>
     <row r="2" spans="1:44" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="253" t="s">
+      <c r="A2" s="238" t="s">
         <v>234</v>
       </c>
-      <c r="B2" s="253"/>
-      <c r="C2" s="253" t="s">
+      <c r="B2" s="238"/>
+      <c r="C2" s="238" t="s">
         <v>235</v>
       </c>
-      <c r="D2" s="253"/>
-      <c r="E2" s="253" t="s">
+      <c r="D2" s="238"/>
+      <c r="E2" s="238" t="s">
         <v>236</v>
       </c>
-      <c r="F2" s="253"/>
-      <c r="G2" s="253" t="s">
+      <c r="F2" s="238"/>
+      <c r="G2" s="238" t="s">
         <v>237</v>
       </c>
-      <c r="H2" s="253"/>
-      <c r="I2" s="253" t="s">
+      <c r="H2" s="238"/>
+      <c r="I2" s="238" t="s">
         <v>238</v>
       </c>
-      <c r="J2" s="253"/>
-      <c r="L2" s="253" t="s">
+      <c r="J2" s="238"/>
+      <c r="L2" s="238" t="s">
         <v>234</v>
       </c>
-      <c r="M2" s="253"/>
-      <c r="N2" s="253" t="s">
+      <c r="M2" s="238"/>
+      <c r="N2" s="238" t="s">
         <v>235</v>
       </c>
-      <c r="O2" s="253"/>
-      <c r="P2" s="253" t="s">
+      <c r="O2" s="238"/>
+      <c r="P2" s="238" t="s">
         <v>236</v>
       </c>
-      <c r="Q2" s="253"/>
-      <c r="R2" s="253" t="s">
+      <c r="Q2" s="238"/>
+      <c r="R2" s="238" t="s">
         <v>237</v>
       </c>
-      <c r="S2" s="253"/>
-      <c r="T2" s="253" t="s">
+      <c r="S2" s="238"/>
+      <c r="T2" s="238" t="s">
         <v>238</v>
       </c>
-      <c r="U2" s="253"/>
+      <c r="U2" s="238"/>
     </row>
     <row r="3" spans="1:44" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="79" t="s">
@@ -22487,36 +22487,36 @@
       <c r="B3" s="79" t="s">
         <v>240</v>
       </c>
-      <c r="C3" s="254"/>
-      <c r="D3" s="255"/>
-      <c r="E3" s="254"/>
-      <c r="F3" s="255"/>
+      <c r="C3" s="239"/>
+      <c r="D3" s="240"/>
+      <c r="E3" s="239"/>
+      <c r="F3" s="240"/>
       <c r="G3" s="79" t="s">
         <v>239</v>
       </c>
       <c r="H3" s="79" t="s">
         <v>240</v>
       </c>
-      <c r="I3" s="254"/>
-      <c r="J3" s="255"/>
+      <c r="I3" s="239"/>
+      <c r="J3" s="240"/>
       <c r="L3" s="79" t="s">
         <v>239</v>
       </c>
       <c r="M3" s="79" t="s">
         <v>240</v>
       </c>
-      <c r="N3" s="254"/>
-      <c r="O3" s="255"/>
-      <c r="P3" s="254"/>
-      <c r="Q3" s="255"/>
+      <c r="N3" s="239"/>
+      <c r="O3" s="240"/>
+      <c r="P3" s="239"/>
+      <c r="Q3" s="240"/>
       <c r="R3" s="79" t="s">
         <v>239</v>
       </c>
       <c r="S3" s="79" t="s">
         <v>240</v>
       </c>
-      <c r="T3" s="254"/>
-      <c r="U3" s="255"/>
+      <c r="T3" s="239"/>
+      <c r="U3" s="240"/>
       <c r="W3" t="s">
         <v>241</v>
       </c>
@@ -22525,14 +22525,14 @@
       </c>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A4" s="247">
+      <c r="A4" s="242">
         <v>0.64709000000000005</v>
       </c>
-      <c r="B4" s="247"/>
-      <c r="C4" s="247">
+      <c r="B4" s="242"/>
+      <c r="C4" s="242">
         <v>0.97192999999999996</v>
       </c>
-      <c r="D4" s="247"/>
+      <c r="D4" s="242"/>
       <c r="E4" s="81"/>
       <c r="F4" s="81"/>
       <c r="G4" s="81"/>
@@ -22542,14 +22542,14 @@
       <c r="K4" s="80" t="s">
         <v>243</v>
       </c>
-      <c r="L4" s="247">
+      <c r="L4" s="242">
         <v>0.64709000000000005</v>
       </c>
-      <c r="M4" s="247"/>
-      <c r="N4" s="247">
+      <c r="M4" s="242"/>
+      <c r="N4" s="242">
         <v>0.97192999999999996</v>
       </c>
-      <c r="O4" s="247"/>
+      <c r="O4" s="242"/>
       <c r="P4" s="81"/>
       <c r="Q4" s="81"/>
       <c r="R4" s="81"/>
@@ -22567,14 +22567,14 @@
       </c>
     </row>
     <row r="5" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="252">
+      <c r="A5" s="241">
         <v>0.26545000000000002</v>
       </c>
-      <c r="B5" s="252"/>
-      <c r="C5" s="252">
+      <c r="B5" s="241"/>
+      <c r="C5" s="241">
         <v>0.39895999999999998</v>
       </c>
-      <c r="D5" s="252"/>
+      <c r="D5" s="241"/>
       <c r="E5" s="85"/>
       <c r="F5" s="85"/>
       <c r="G5" s="85"/>
@@ -22584,14 +22584,14 @@
       <c r="K5" s="84" t="s">
         <v>246</v>
       </c>
-      <c r="L5" s="252">
+      <c r="L5" s="241">
         <v>0.26545000000000002</v>
       </c>
-      <c r="M5" s="252"/>
-      <c r="N5" s="252">
+      <c r="M5" s="241"/>
+      <c r="N5" s="241">
         <v>0.39895999999999998</v>
       </c>
-      <c r="O5" s="252"/>
+      <c r="O5" s="241"/>
       <c r="P5" s="85"/>
       <c r="Q5" s="85"/>
       <c r="R5" s="85"/>
@@ -22615,10 +22615,10 @@
       <c r="B6" s="81">
         <v>0.25008999999999998</v>
       </c>
-      <c r="C6" s="247">
+      <c r="C6" s="242">
         <v>1</v>
       </c>
-      <c r="D6" s="247"/>
+      <c r="D6" s="242"/>
       <c r="E6" s="81"/>
       <c r="F6" s="81"/>
       <c r="G6" s="81"/>
@@ -22634,10 +22634,10 @@
       <c r="M6" s="81">
         <v>0.25008999999999998</v>
       </c>
-      <c r="N6" s="247">
+      <c r="N6" s="242">
         <v>1</v>
       </c>
-      <c r="O6" s="247"/>
+      <c r="O6" s="242"/>
       <c r="P6" s="81"/>
       <c r="Q6" s="81"/>
       <c r="R6" s="81"/>
@@ -22650,10 +22650,10 @@
       <c r="B7" s="85"/>
       <c r="C7" s="85"/>
       <c r="D7" s="85"/>
-      <c r="E7" s="252">
+      <c r="E7" s="241">
         <v>0.27488000000000001</v>
       </c>
-      <c r="F7" s="252"/>
+      <c r="F7" s="241"/>
       <c r="G7" s="85"/>
       <c r="H7" s="85"/>
       <c r="I7" s="85"/>
@@ -22665,10 +22665,10 @@
       <c r="M7" s="85"/>
       <c r="N7" s="85"/>
       <c r="O7" s="85"/>
-      <c r="P7" s="252">
+      <c r="P7" s="241">
         <v>0.27488000000000001</v>
       </c>
-      <c r="Q7" s="252"/>
+      <c r="Q7" s="241"/>
       <c r="R7" s="85"/>
       <c r="S7" s="85"/>
       <c r="T7" s="85"/>
@@ -22687,10 +22687,10 @@
       <c r="B8" s="81">
         <v>0.17752000000000001</v>
       </c>
-      <c r="C8" s="247">
+      <c r="C8" s="242">
         <v>0.72296000000000005</v>
       </c>
-      <c r="D8" s="247"/>
+      <c r="D8" s="242"/>
       <c r="E8" s="81"/>
       <c r="F8" s="81"/>
       <c r="G8" s="81"/>
@@ -22706,10 +22706,10 @@
       <c r="M8" s="81">
         <v>0.17752000000000001</v>
       </c>
-      <c r="N8" s="247">
+      <c r="N8" s="242">
         <v>0.72296000000000005</v>
       </c>
-      <c r="O8" s="247"/>
+      <c r="O8" s="242"/>
       <c r="P8" s="81"/>
       <c r="Q8" s="81"/>
       <c r="R8" s="81"/>
@@ -22725,10 +22725,10 @@
       <c r="B9" s="85"/>
       <c r="C9" s="85"/>
       <c r="D9" s="85"/>
-      <c r="E9" s="252">
+      <c r="E9" s="241">
         <v>0.36337000000000003</v>
       </c>
-      <c r="F9" s="252"/>
+      <c r="F9" s="241"/>
       <c r="G9" s="85"/>
       <c r="H9" s="85"/>
       <c r="I9" s="85"/>
@@ -22740,11 +22740,11 @@
       <c r="M9" s="85"/>
       <c r="N9" s="85"/>
       <c r="O9" s="85"/>
-      <c r="P9" s="252">
+      <c r="P9" s="241">
         <f>36.337%*1.21</f>
         <v>0.4396777</v>
       </c>
-      <c r="Q9" s="252"/>
+      <c r="Q9" s="241"/>
       <c r="R9" s="85"/>
       <c r="S9" s="85"/>
       <c r="T9" s="85"/>
@@ -22758,10 +22758,10 @@
         <v>0.65615999999999997</v>
       </c>
       <c r="B10" s="81"/>
-      <c r="C10" s="247">
+      <c r="C10" s="242">
         <v>0.78437000000000001</v>
       </c>
-      <c r="D10" s="247"/>
+      <c r="D10" s="242"/>
       <c r="E10" s="81"/>
       <c r="F10" s="81"/>
       <c r="G10" s="81"/>
@@ -22776,11 +22776,11 @@
         <v>0.69552959999999997</v>
       </c>
       <c r="M10" s="81"/>
-      <c r="N10" s="247">
+      <c r="N10" s="242">
         <f>78.437%*(1-0.09)</f>
         <v>0.71377670000000004</v>
       </c>
-      <c r="O10" s="247"/>
+      <c r="O10" s="242"/>
       <c r="P10" s="81"/>
       <c r="Q10" s="81"/>
       <c r="R10" s="81"/>
@@ -22796,10 +22796,10 @@
       <c r="B11" s="88"/>
       <c r="C11" s="88"/>
       <c r="D11" s="88"/>
-      <c r="E11" s="251">
+      <c r="E11" s="243">
         <v>0.1464</v>
       </c>
-      <c r="F11" s="251"/>
+      <c r="F11" s="243"/>
       <c r="G11" s="88"/>
       <c r="H11" s="88"/>
       <c r="I11" s="88"/>
@@ -22811,10 +22811,10 @@
       <c r="M11" s="88"/>
       <c r="N11" s="88"/>
       <c r="O11" s="88"/>
-      <c r="P11" s="251">
+      <c r="P11" s="243">
         <v>0.1464</v>
       </c>
-      <c r="Q11" s="251"/>
+      <c r="Q11" s="243"/>
       <c r="R11" s="88"/>
       <c r="S11" s="88"/>
       <c r="T11" s="88"/>
@@ -22859,14 +22859,14 @@
       </c>
     </row>
     <row r="13" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A13" s="247">
+      <c r="A13" s="242">
         <v>0.42514999999999997</v>
       </c>
-      <c r="B13" s="247"/>
-      <c r="C13" s="247">
+      <c r="B13" s="242"/>
+      <c r="C13" s="242">
         <v>0.85</v>
       </c>
-      <c r="D13" s="247"/>
+      <c r="D13" s="242"/>
       <c r="E13" s="81"/>
       <c r="F13" s="81"/>
       <c r="G13" s="81"/>
@@ -22876,14 +22876,14 @@
       <c r="K13" s="80" t="s">
         <v>260</v>
       </c>
-      <c r="L13" s="247">
+      <c r="L13" s="242">
         <v>0.42514999999999997</v>
       </c>
-      <c r="M13" s="247"/>
-      <c r="N13" s="247">
+      <c r="M13" s="242"/>
+      <c r="N13" s="242">
         <v>0.85</v>
       </c>
-      <c r="O13" s="247"/>
+      <c r="O13" s="242"/>
       <c r="P13" s="81"/>
       <c r="Q13" s="81"/>
       <c r="R13" s="81"/>
@@ -22916,10 +22916,10 @@
       <c r="B14" s="85"/>
       <c r="C14" s="85"/>
       <c r="D14" s="85"/>
-      <c r="E14" s="252">
+      <c r="E14" s="241">
         <v>0.23365</v>
       </c>
-      <c r="F14" s="252"/>
+      <c r="F14" s="241"/>
       <c r="G14" s="85"/>
       <c r="H14" s="85"/>
       <c r="I14" s="85"/>
@@ -22931,10 +22931,10 @@
       <c r="M14" s="85"/>
       <c r="N14" s="85"/>
       <c r="O14" s="85"/>
-      <c r="P14" s="252">
+      <c r="P14" s="241">
         <v>0.23365</v>
       </c>
-      <c r="Q14" s="252"/>
+      <c r="Q14" s="241"/>
       <c r="R14" s="85"/>
       <c r="S14" s="85"/>
       <c r="T14" s="85"/>
@@ -22972,10 +22972,10 @@
         <v>1</v>
       </c>
       <c r="B15" s="92"/>
-      <c r="C15" s="247">
+      <c r="C15" s="242">
         <v>0.51382000000000005</v>
       </c>
-      <c r="D15" s="247"/>
+      <c r="D15" s="242"/>
       <c r="E15" s="81"/>
       <c r="F15" s="81"/>
       <c r="G15" s="81"/>
@@ -22989,10 +22989,10 @@
         <v>1</v>
       </c>
       <c r="M15" s="92"/>
-      <c r="N15" s="247">
+      <c r="N15" s="242">
         <v>0.51382000000000005</v>
       </c>
-      <c r="O15" s="247"/>
+      <c r="O15" s="242"/>
       <c r="P15" s="81"/>
       <c r="Q15" s="81"/>
       <c r="R15" s="81"/>
@@ -23040,10 +23040,10 @@
       <c r="B16" s="88"/>
       <c r="C16" s="88"/>
       <c r="D16" s="88"/>
-      <c r="E16" s="251">
+      <c r="E16" s="243">
         <v>4.3869999999999999E-2</v>
       </c>
-      <c r="F16" s="251"/>
+      <c r="F16" s="243"/>
       <c r="G16" s="88"/>
       <c r="H16" s="88"/>
       <c r="I16" s="88"/>
@@ -23055,10 +23055,10 @@
       <c r="M16" s="88"/>
       <c r="N16" s="88"/>
       <c r="O16" s="88"/>
-      <c r="P16" s="251">
+      <c r="P16" s="243">
         <v>4.3869999999999999E-2</v>
       </c>
-      <c r="Q16" s="251"/>
+      <c r="Q16" s="243"/>
       <c r="R16" s="88"/>
       <c r="S16" s="88"/>
       <c r="T16" s="88"/>
@@ -23139,10 +23139,10 @@
         <v>0.91232999999999997</v>
       </c>
       <c r="B18" s="92"/>
-      <c r="C18" s="247">
+      <c r="C18" s="242">
         <v>0.46146999999999999</v>
       </c>
-      <c r="D18" s="247"/>
+      <c r="D18" s="242"/>
       <c r="E18" s="81"/>
       <c r="F18" s="81"/>
       <c r="G18" s="81"/>
@@ -23156,11 +23156,11 @@
         <v>0.91232999999999997</v>
       </c>
       <c r="M18" s="92"/>
-      <c r="N18" s="247">
+      <c r="N18" s="242">
         <f>46.147%*(1-0.08)</f>
         <v>0.4245524</v>
       </c>
-      <c r="O18" s="247"/>
+      <c r="O18" s="242"/>
       <c r="P18" s="81"/>
       <c r="Q18" s="81"/>
       <c r="R18" s="81"/>
@@ -23179,10 +23179,10 @@
       <c r="B19" s="88"/>
       <c r="C19" s="88"/>
       <c r="D19" s="88"/>
-      <c r="E19" s="251">
+      <c r="E19" s="243">
         <v>0.15035999999999999</v>
       </c>
-      <c r="F19" s="251"/>
+      <c r="F19" s="243"/>
       <c r="G19" s="88"/>
       <c r="H19" s="88"/>
       <c r="I19" s="88"/>
@@ -23194,10 +23194,10 @@
       <c r="M19" s="88"/>
       <c r="N19" s="88"/>
       <c r="O19" s="88"/>
-      <c r="P19" s="251">
+      <c r="P19" s="243">
         <v>0.15035999999999999</v>
       </c>
-      <c r="Q19" s="251"/>
+      <c r="Q19" s="243"/>
       <c r="R19" s="88"/>
       <c r="S19" s="88"/>
       <c r="T19" s="88"/>
@@ -23267,10 +23267,10 @@
         <v>0.69059999999999999</v>
       </c>
       <c r="B21" s="92"/>
-      <c r="C21" s="247">
+      <c r="C21" s="242">
         <v>0.38878000000000001</v>
       </c>
-      <c r="D21" s="247"/>
+      <c r="D21" s="242"/>
       <c r="E21" s="81"/>
       <c r="F21" s="81"/>
       <c r="G21" s="81"/>
@@ -23284,10 +23284,10 @@
         <v>0.69059999999999999</v>
       </c>
       <c r="M21" s="92"/>
-      <c r="N21" s="247">
+      <c r="N21" s="242">
         <v>0.38878000000000001</v>
       </c>
-      <c r="O21" s="247"/>
+      <c r="O21" s="242"/>
       <c r="P21" s="81"/>
       <c r="Q21" s="81"/>
       <c r="R21" s="81"/>
@@ -23309,10 +23309,10 @@
       <c r="B22" s="88"/>
       <c r="C22" s="88"/>
       <c r="D22" s="88"/>
-      <c r="E22" s="251">
+      <c r="E22" s="243">
         <v>0.2099</v>
       </c>
-      <c r="F22" s="251"/>
+      <c r="F22" s="243"/>
       <c r="G22" s="88"/>
       <c r="H22" s="88"/>
       <c r="I22" s="88"/>
@@ -23324,10 +23324,10 @@
       <c r="M22" s="88"/>
       <c r="N22" s="88"/>
       <c r="O22" s="88"/>
-      <c r="P22" s="251">
+      <c r="P22" s="243">
         <v>0.2099</v>
       </c>
-      <c r="Q22" s="251"/>
+      <c r="Q22" s="243"/>
       <c r="R22" s="88"/>
       <c r="S22" s="88"/>
       <c r="T22" s="88"/>
@@ -23391,10 +23391,10 @@
         <v>0.68315000000000003</v>
       </c>
       <c r="B24" s="92"/>
-      <c r="C24" s="247">
+      <c r="C24" s="242">
         <v>0.70006000000000002</v>
       </c>
-      <c r="D24" s="247"/>
+      <c r="D24" s="242"/>
       <c r="E24" s="81"/>
       <c r="F24" s="81"/>
       <c r="G24" s="81"/>
@@ -23408,10 +23408,10 @@
         <v>0.68315000000000003</v>
       </c>
       <c r="M24" s="92"/>
-      <c r="N24" s="247">
+      <c r="N24" s="242">
         <v>0.70006000000000002</v>
       </c>
-      <c r="O24" s="247"/>
+      <c r="O24" s="242"/>
       <c r="P24" s="81"/>
       <c r="Q24" s="81"/>
       <c r="R24" s="81"/>
@@ -23436,10 +23436,10 @@
       <c r="B25" s="88"/>
       <c r="C25" s="88"/>
       <c r="D25" s="88"/>
-      <c r="E25" s="251">
+      <c r="E25" s="243">
         <v>0.152</v>
       </c>
-      <c r="F25" s="251"/>
+      <c r="F25" s="243"/>
       <c r="G25" s="88"/>
       <c r="H25" s="88"/>
       <c r="I25" s="88"/>
@@ -23451,10 +23451,10 @@
       <c r="M25" s="88"/>
       <c r="N25" s="88"/>
       <c r="O25" s="88"/>
-      <c r="P25" s="251">
+      <c r="P25" s="243">
         <v>0.152</v>
       </c>
-      <c r="Q25" s="251"/>
+      <c r="Q25" s="243"/>
       <c r="R25" s="88"/>
       <c r="S25" s="88"/>
       <c r="T25" s="88"/>
@@ -23517,16 +23517,16 @@
       <c r="B27" s="81">
         <v>9.2719999999999997E-2</v>
       </c>
-      <c r="C27" s="247">
+      <c r="C27" s="242">
         <v>0.42459999999999998</v>
       </c>
-      <c r="D27" s="247"/>
+      <c r="D27" s="242"/>
       <c r="E27" s="81"/>
       <c r="F27" s="81"/>
       <c r="G27" s="81"/>
       <c r="H27" s="81"/>
-      <c r="I27" s="240"/>
-      <c r="J27" s="242"/>
+      <c r="I27" s="246"/>
+      <c r="J27" s="247"/>
       <c r="K27" s="80" t="s">
         <v>292</v>
       </c>
@@ -23536,16 +23536,16 @@
       <c r="M27" s="81">
         <v>9.2719999999999997E-2</v>
       </c>
-      <c r="N27" s="247">
+      <c r="N27" s="242">
         <v>0.42459999999999998</v>
       </c>
-      <c r="O27" s="247"/>
+      <c r="O27" s="242"/>
       <c r="P27" s="81"/>
       <c r="Q27" s="81"/>
       <c r="R27" s="81"/>
       <c r="S27" s="81"/>
-      <c r="T27" s="240"/>
-      <c r="U27" s="242"/>
+      <c r="T27" s="246"/>
+      <c r="U27" s="247"/>
       <c r="W27" t="s">
         <v>415</v>
       </c>
@@ -23561,14 +23561,14 @@
       <c r="B28" s="88"/>
       <c r="C28" s="88"/>
       <c r="D28" s="88"/>
-      <c r="E28" s="251">
+      <c r="E28" s="243">
         <v>1</v>
       </c>
-      <c r="F28" s="251"/>
+      <c r="F28" s="243"/>
       <c r="G28" s="88"/>
       <c r="H28" s="88"/>
-      <c r="I28" s="243"/>
-      <c r="J28" s="244"/>
+      <c r="I28" s="244"/>
+      <c r="J28" s="245"/>
       <c r="K28" s="87" t="s">
         <v>295</v>
       </c>
@@ -23576,14 +23576,14 @@
       <c r="M28" s="88"/>
       <c r="N28" s="88"/>
       <c r="O28" s="88"/>
-      <c r="P28" s="251">
+      <c r="P28" s="243">
         <v>1</v>
       </c>
-      <c r="Q28" s="251"/>
+      <c r="Q28" s="243"/>
       <c r="R28" s="88"/>
       <c r="S28" s="88"/>
-      <c r="T28" s="243"/>
-      <c r="U28" s="244"/>
+      <c r="T28" s="244"/>
+      <c r="U28" s="245"/>
       <c r="W28" t="s">
         <v>418</v>
       </c>
@@ -23613,10 +23613,10 @@
       <c r="Q29" s="90"/>
       <c r="R29" s="85"/>
       <c r="S29" s="85"/>
-      <c r="T29" s="245">
+      <c r="T29" s="248">
         <v>0.21</v>
       </c>
-      <c r="U29" s="246"/>
+      <c r="U29" s="249"/>
       <c r="W29" t="s">
         <v>420</v>
       </c>
@@ -23637,10 +23637,10 @@
       <c r="H30" s="85">
         <v>0.1226</v>
       </c>
-      <c r="I30" s="245">
+      <c r="I30" s="248">
         <v>0.34044000000000002</v>
       </c>
-      <c r="J30" s="246"/>
+      <c r="J30" s="249"/>
       <c r="K30" s="84" t="s">
         <v>298</v>
       </c>
@@ -23656,11 +23656,11 @@
       <c r="S30" s="85">
         <v>0.14255813953488372</v>
       </c>
-      <c r="T30" s="245">
+      <c r="T30" s="248">
         <f>34.044%*1.05</f>
         <v>0.357462</v>
       </c>
-      <c r="U30" s="246"/>
+      <c r="U30" s="249"/>
       <c r="W30" t="s">
         <v>422</v>
       </c>
@@ -23681,16 +23681,16 @@
       <c r="B31" s="81">
         <v>0.13719000000000001</v>
       </c>
-      <c r="C31" s="247">
+      <c r="C31" s="242">
         <v>0.62792999999999999</v>
       </c>
-      <c r="D31" s="247"/>
+      <c r="D31" s="242"/>
       <c r="E31" s="81"/>
       <c r="F31" s="81"/>
       <c r="G31" s="81"/>
       <c r="H31" s="81"/>
-      <c r="I31" s="240"/>
-      <c r="J31" s="242"/>
+      <c r="I31" s="246"/>
+      <c r="J31" s="247"/>
       <c r="K31" s="80" t="s">
         <v>300</v>
       </c>
@@ -23700,16 +23700,16 @@
       <c r="M31" s="81">
         <v>0.13719000000000001</v>
       </c>
-      <c r="N31" s="247">
+      <c r="N31" s="242">
         <v>0.62792999999999999</v>
       </c>
-      <c r="O31" s="247"/>
+      <c r="O31" s="242"/>
       <c r="P31" s="81"/>
       <c r="Q31" s="81"/>
       <c r="R31" s="81"/>
       <c r="S31" s="81"/>
-      <c r="T31" s="240"/>
-      <c r="U31" s="242"/>
+      <c r="T31" s="246"/>
+      <c r="U31" s="247"/>
       <c r="W31" t="s">
         <v>426</v>
       </c>
@@ -23745,10 +23745,10 @@
       <c r="Q32" s="103"/>
       <c r="R32" s="103"/>
       <c r="S32" s="103"/>
-      <c r="T32" s="245">
+      <c r="T32" s="248">
         <v>0.12</v>
       </c>
-      <c r="U32" s="246"/>
+      <c r="U32" s="249"/>
       <c r="W32" t="s">
         <v>430</v>
       </c>
@@ -23775,10 +23775,10 @@
       <c r="H33" s="85">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="I33" s="245">
+      <c r="I33" s="248">
         <v>0.23748</v>
       </c>
-      <c r="J33" s="246"/>
+      <c r="J33" s="249"/>
       <c r="K33" s="84" t="s">
         <v>303</v>
       </c>
@@ -23794,11 +23794,11 @@
       <c r="S33" s="85">
         <v>6.8837209302325592E-2</v>
       </c>
-      <c r="T33" s="245">
+      <c r="T33" s="248">
         <f>23.748%*0.8</f>
         <v>0.18998400000000004</v>
       </c>
-      <c r="U33" s="246"/>
+      <c r="U33" s="249"/>
       <c r="W33" t="s">
         <v>434</v>
       </c>
@@ -23819,16 +23819,16 @@
       <c r="B34" s="81">
         <v>5.6059999999999999E-2</v>
       </c>
-      <c r="C34" s="247">
+      <c r="C34" s="242">
         <v>0.23462</v>
       </c>
-      <c r="D34" s="247"/>
+      <c r="D34" s="242"/>
       <c r="E34" s="81"/>
       <c r="F34" s="81"/>
       <c r="G34" s="81"/>
       <c r="H34" s="81"/>
-      <c r="I34" s="240"/>
-      <c r="J34" s="242"/>
+      <c r="I34" s="246"/>
+      <c r="J34" s="247"/>
       <c r="K34" s="80" t="s">
         <v>305</v>
       </c>
@@ -23840,17 +23840,17 @@
         <f>5.606%*0.75</f>
         <v>4.2044999999999999E-2</v>
       </c>
-      <c r="N34" s="247">
+      <c r="N34" s="242">
         <f>23.462%*0.75</f>
         <v>0.17596499999999998</v>
       </c>
-      <c r="O34" s="247"/>
+      <c r="O34" s="242"/>
       <c r="P34" s="81"/>
       <c r="Q34" s="81"/>
       <c r="R34" s="81"/>
       <c r="S34" s="81"/>
-      <c r="T34" s="240"/>
-      <c r="U34" s="242"/>
+      <c r="T34" s="246"/>
+      <c r="U34" s="247"/>
       <c r="W34" t="s">
         <v>438</v>
       </c>
@@ -23886,10 +23886,10 @@
       <c r="Q35" s="103"/>
       <c r="R35" s="103"/>
       <c r="S35" s="103"/>
-      <c r="T35" s="245">
+      <c r="T35" s="248">
         <v>0.31</v>
       </c>
-      <c r="U35" s="246"/>
+      <c r="U35" s="249"/>
       <c r="W35" t="s">
         <v>442</v>
       </c>
@@ -23910,10 +23910,10 @@
       <c r="H36" s="85">
         <v>0.11894</v>
       </c>
-      <c r="I36" s="245">
+      <c r="I36" s="248">
         <v>0.50244</v>
       </c>
-      <c r="J36" s="246"/>
+      <c r="J36" s="249"/>
       <c r="K36" s="84" t="s">
         <v>307</v>
       </c>
@@ -23929,11 +23929,11 @@
       <c r="S36" s="85">
         <v>0.13830232558139535</v>
       </c>
-      <c r="T36" s="245">
+      <c r="T36" s="248">
         <f>50.244%*1.05</f>
         <v>0.52756199999999998</v>
       </c>
-      <c r="U36" s="246"/>
+      <c r="U36" s="249"/>
       <c r="AC36" t="s">
         <v>444</v>
       </c>
@@ -23943,14 +23943,14 @@
       <c r="B37" s="94"/>
       <c r="C37" s="94"/>
       <c r="D37" s="94"/>
-      <c r="E37" s="248">
+      <c r="E37" s="250">
         <v>0.94696999999999998</v>
       </c>
-      <c r="F37" s="248"/>
+      <c r="F37" s="250"/>
       <c r="G37" s="94"/>
       <c r="H37" s="94"/>
-      <c r="I37" s="249"/>
-      <c r="J37" s="250"/>
+      <c r="I37" s="251"/>
+      <c r="J37" s="252"/>
       <c r="K37" s="93" t="s">
         <v>309</v>
       </c>
@@ -23958,54 +23958,54 @@
       <c r="M37" s="94"/>
       <c r="N37" s="94"/>
       <c r="O37" s="94"/>
-      <c r="P37" s="248">
+      <c r="P37" s="250">
         <v>0.94696999999999998</v>
       </c>
-      <c r="Q37" s="248"/>
+      <c r="Q37" s="250"/>
       <c r="R37" s="94"/>
       <c r="S37" s="94"/>
-      <c r="T37" s="249"/>
-      <c r="U37" s="250"/>
-      <c r="W37" s="256" t="s">
+      <c r="T37" s="251"/>
+      <c r="U37" s="252"/>
+      <c r="W37" s="258" t="s">
         <v>261</v>
       </c>
-      <c r="X37" s="256"/>
+      <c r="X37" s="258"/>
       <c r="AC37" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="38" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A38" s="247">
+      <c r="A38" s="242">
         <v>0.15762999999999999</v>
       </c>
-      <c r="B38" s="247"/>
-      <c r="C38" s="247">
+      <c r="B38" s="242"/>
+      <c r="C38" s="242">
         <v>0.36070000000000002</v>
       </c>
-      <c r="D38" s="247"/>
+      <c r="D38" s="242"/>
       <c r="E38" s="81"/>
       <c r="F38" s="81"/>
       <c r="G38" s="81"/>
       <c r="H38" s="81"/>
-      <c r="I38" s="240"/>
-      <c r="J38" s="242"/>
+      <c r="I38" s="246"/>
+      <c r="J38" s="247"/>
       <c r="K38" s="80" t="s">
         <v>310</v>
       </c>
-      <c r="L38" s="247">
+      <c r="L38" s="242">
         <v>0.15762999999999999</v>
       </c>
-      <c r="M38" s="247"/>
-      <c r="N38" s="247">
+      <c r="M38" s="242"/>
+      <c r="N38" s="242">
         <v>0.36070000000000002</v>
       </c>
-      <c r="O38" s="247"/>
+      <c r="O38" s="242"/>
       <c r="P38" s="81"/>
       <c r="Q38" s="81"/>
       <c r="R38" s="81"/>
       <c r="S38" s="81"/>
-      <c r="T38" s="240"/>
-      <c r="U38" s="242"/>
+      <c r="T38" s="246"/>
+      <c r="U38" s="247"/>
       <c r="AC38" t="s">
         <v>446</v>
       </c>
@@ -24015,14 +24015,14 @@
       <c r="B39" s="88"/>
       <c r="C39" s="88"/>
       <c r="D39" s="88"/>
-      <c r="E39" s="251">
+      <c r="E39" s="243">
         <v>0.85</v>
       </c>
-      <c r="F39" s="251"/>
+      <c r="F39" s="243"/>
       <c r="G39" s="88"/>
       <c r="H39" s="88"/>
-      <c r="I39" s="243"/>
-      <c r="J39" s="244"/>
+      <c r="I39" s="244"/>
+      <c r="J39" s="245"/>
       <c r="K39" s="87" t="s">
         <v>311</v>
       </c>
@@ -24030,14 +24030,14 @@
       <c r="M39" s="88"/>
       <c r="N39" s="88"/>
       <c r="O39" s="88"/>
-      <c r="P39" s="251">
+      <c r="P39" s="243">
         <v>0.85</v>
       </c>
-      <c r="Q39" s="251"/>
+      <c r="Q39" s="243"/>
       <c r="R39" s="88"/>
       <c r="S39" s="88"/>
-      <c r="T39" s="243"/>
-      <c r="U39" s="244"/>
+      <c r="T39" s="244"/>
+      <c r="U39" s="245"/>
       <c r="W39" t="s">
         <v>241</v>
       </c>
@@ -24056,10 +24056,10 @@
         <v>0.20784</v>
       </c>
       <c r="H40" s="85"/>
-      <c r="I40" s="245">
+      <c r="I40" s="248">
         <v>0.28937000000000002</v>
       </c>
-      <c r="J40" s="246"/>
+      <c r="J40" s="249"/>
       <c r="K40" s="84" t="s">
         <v>313</v>
       </c>
@@ -24073,10 +24073,10 @@
         <v>0.24167441860465114</v>
       </c>
       <c r="S40" s="85"/>
-      <c r="T40" s="245">
+      <c r="T40" s="248">
         <v>0.28937000000000002</v>
       </c>
-      <c r="U40" s="246"/>
+      <c r="U40" s="249"/>
       <c r="W40" t="s">
         <v>244</v>
       </c>
@@ -24085,37 +24085,37 @@
       </c>
     </row>
     <row r="41" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A41" s="247">
+      <c r="A41" s="242">
         <v>0.20368</v>
       </c>
-      <c r="B41" s="247"/>
-      <c r="C41" s="247">
+      <c r="B41" s="242"/>
+      <c r="C41" s="242">
         <v>0.33767000000000003</v>
       </c>
-      <c r="D41" s="247"/>
+      <c r="D41" s="242"/>
       <c r="E41" s="81"/>
       <c r="F41" s="81"/>
       <c r="G41" s="81"/>
       <c r="H41" s="81"/>
-      <c r="I41" s="240"/>
-      <c r="J41" s="242"/>
+      <c r="I41" s="246"/>
+      <c r="J41" s="247"/>
       <c r="K41" s="80" t="s">
         <v>315</v>
       </c>
-      <c r="L41" s="247">
+      <c r="L41" s="242">
         <v>0.20368</v>
       </c>
-      <c r="M41" s="247"/>
-      <c r="N41" s="247">
+      <c r="M41" s="242"/>
+      <c r="N41" s="242">
         <v>0.33767000000000003</v>
       </c>
-      <c r="O41" s="247"/>
+      <c r="O41" s="242"/>
       <c r="P41" s="81"/>
       <c r="Q41" s="81"/>
       <c r="R41" s="81"/>
       <c r="S41" s="81"/>
-      <c r="T41" s="240"/>
-      <c r="U41" s="242"/>
+      <c r="T41" s="246"/>
+      <c r="U41" s="247"/>
       <c r="W41" t="s">
         <v>247</v>
       </c>
@@ -24128,14 +24128,14 @@
       <c r="B42" s="88"/>
       <c r="C42" s="88"/>
       <c r="D42" s="88"/>
-      <c r="E42" s="251">
+      <c r="E42" s="243">
         <v>0.89815999999999996</v>
       </c>
-      <c r="F42" s="251"/>
+      <c r="F42" s="243"/>
       <c r="G42" s="88"/>
       <c r="H42" s="88"/>
-      <c r="I42" s="243"/>
-      <c r="J42" s="244"/>
+      <c r="I42" s="244"/>
+      <c r="J42" s="245"/>
       <c r="K42" s="87" t="s">
         <v>317</v>
       </c>
@@ -24143,14 +24143,14 @@
       <c r="M42" s="88"/>
       <c r="N42" s="88"/>
       <c r="O42" s="88"/>
-      <c r="P42" s="251">
+      <c r="P42" s="243">
         <v>0.89815999999999996</v>
       </c>
-      <c r="Q42" s="251"/>
+      <c r="Q42" s="243"/>
       <c r="R42" s="88"/>
       <c r="S42" s="88"/>
-      <c r="T42" s="243"/>
-      <c r="U42" s="244"/>
+      <c r="T42" s="244"/>
+      <c r="U42" s="245"/>
       <c r="AC42" t="s">
         <v>450</v>
       </c>
@@ -24166,8 +24166,8 @@
         <v>0.57364000000000004</v>
       </c>
       <c r="H43" s="88"/>
-      <c r="I43" s="243"/>
-      <c r="J43" s="244"/>
+      <c r="I43" s="244"/>
+      <c r="J43" s="245"/>
       <c r="K43" s="87" t="s">
         <v>319</v>
       </c>
@@ -24181,8 +24181,8 @@
         <v>0.6670232558139535</v>
       </c>
       <c r="S43" s="88"/>
-      <c r="T43" s="243"/>
-      <c r="U43" s="244"/>
+      <c r="T43" s="244"/>
+      <c r="U43" s="245"/>
       <c r="W43" t="s">
         <v>256</v>
       </c>
@@ -24201,10 +24201,10 @@
         <v>0.26422000000000001</v>
       </c>
       <c r="H44" s="85"/>
-      <c r="I44" s="245">
+      <c r="I44" s="248">
         <v>0.2399</v>
       </c>
-      <c r="J44" s="246"/>
+      <c r="J44" s="249"/>
       <c r="K44" s="84" t="s">
         <v>321</v>
       </c>
@@ -24218,11 +24218,11 @@
         <v>0.30723255813953487</v>
       </c>
       <c r="S44" s="85"/>
-      <c r="T44" s="245">
+      <c r="T44" s="248">
         <f>23.99%*1.06</f>
         <v>0.25429399999999996</v>
       </c>
-      <c r="U44" s="246"/>
+      <c r="U44" s="249"/>
       <c r="W44" t="s">
         <v>258</v>
       </c>
@@ -24235,16 +24235,16 @@
         <v>0.34708</v>
       </c>
       <c r="B45" s="92"/>
-      <c r="C45" s="247">
+      <c r="C45" s="242">
         <v>0.20830000000000001</v>
       </c>
-      <c r="D45" s="247"/>
+      <c r="D45" s="242"/>
       <c r="E45" s="81"/>
       <c r="F45" s="81"/>
       <c r="G45" s="81"/>
       <c r="H45" s="81"/>
-      <c r="I45" s="240"/>
-      <c r="J45" s="242"/>
+      <c r="I45" s="246"/>
+      <c r="J45" s="247"/>
       <c r="K45" s="80" t="s">
         <v>322</v>
       </c>
@@ -24252,16 +24252,16 @@
         <v>0.34708</v>
       </c>
       <c r="M45" s="92"/>
-      <c r="N45" s="247">
+      <c r="N45" s="242">
         <v>0.20830000000000001</v>
       </c>
-      <c r="O45" s="247"/>
+      <c r="O45" s="242"/>
       <c r="P45" s="81"/>
       <c r="Q45" s="81"/>
       <c r="R45" s="81"/>
       <c r="S45" s="81"/>
-      <c r="T45" s="240"/>
-      <c r="U45" s="242"/>
+      <c r="T45" s="246"/>
+      <c r="U45" s="247"/>
       <c r="AC45" t="s">
         <v>453</v>
       </c>
@@ -24271,14 +24271,14 @@
       <c r="B46" s="88"/>
       <c r="C46" s="88"/>
       <c r="D46" s="88"/>
-      <c r="E46" s="251">
+      <c r="E46" s="243">
         <v>0.52559999999999996</v>
       </c>
-      <c r="F46" s="251"/>
+      <c r="F46" s="243"/>
       <c r="G46" s="88"/>
       <c r="H46" s="88"/>
-      <c r="I46" s="243"/>
-      <c r="J46" s="244"/>
+      <c r="I46" s="244"/>
+      <c r="J46" s="245"/>
       <c r="K46" s="87" t="s">
         <v>323</v>
       </c>
@@ -24286,14 +24286,14 @@
       <c r="M46" s="88"/>
       <c r="N46" s="88"/>
       <c r="O46" s="88"/>
-      <c r="P46" s="251">
+      <c r="P46" s="243">
         <v>0.52559999999999996</v>
       </c>
-      <c r="Q46" s="251"/>
+      <c r="Q46" s="243"/>
       <c r="R46" s="88"/>
       <c r="S46" s="88"/>
-      <c r="T46" s="243"/>
-      <c r="U46" s="244"/>
+      <c r="T46" s="244"/>
+      <c r="U46" s="245"/>
       <c r="W46" t="s">
         <v>373</v>
       </c>
@@ -24312,8 +24312,8 @@
         <v>0.84328000000000003</v>
       </c>
       <c r="H47" s="88"/>
-      <c r="I47" s="243"/>
-      <c r="J47" s="244"/>
+      <c r="I47" s="244"/>
+      <c r="J47" s="245"/>
       <c r="K47" s="87" t="s">
         <v>324</v>
       </c>
@@ -24327,8 +24327,8 @@
         <v>0.85308558139534874</v>
       </c>
       <c r="S47" s="88"/>
-      <c r="T47" s="243"/>
-      <c r="U47" s="244"/>
+      <c r="T47" s="244"/>
+      <c r="U47" s="245"/>
     </row>
     <row r="48" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="85"/>
@@ -24341,10 +24341,10 @@
         <v>0.23543</v>
       </c>
       <c r="H48" s="85"/>
-      <c r="I48" s="245">
+      <c r="I48" s="248">
         <v>0.13220000000000001</v>
       </c>
-      <c r="J48" s="246"/>
+      <c r="J48" s="249"/>
       <c r="K48" s="84" t="s">
         <v>326</v>
       </c>
@@ -24358,11 +24358,11 @@
         <v>0.27375581395348836</v>
       </c>
       <c r="S48" s="85"/>
-      <c r="T48" s="245">
+      <c r="T48" s="248">
         <f>13.22%*1.16</f>
         <v>0.15335200000000002</v>
       </c>
-      <c r="U48" s="246"/>
+      <c r="U48" s="249"/>
       <c r="W48" t="s">
         <v>455</v>
       </c>
@@ -24375,14 +24375,14 @@
       <c r="B49" s="94"/>
       <c r="C49" s="94"/>
       <c r="D49" s="94"/>
-      <c r="E49" s="248">
+      <c r="E49" s="250">
         <v>0.43773000000000001</v>
       </c>
-      <c r="F49" s="248"/>
+      <c r="F49" s="250"/>
       <c r="G49" s="94"/>
       <c r="H49" s="94"/>
-      <c r="I49" s="249"/>
-      <c r="J49" s="250"/>
+      <c r="I49" s="251"/>
+      <c r="J49" s="252"/>
       <c r="K49" s="93" t="s">
         <v>367</v>
       </c>
@@ -24390,14 +24390,14 @@
       <c r="M49" s="94"/>
       <c r="N49" s="94"/>
       <c r="O49" s="94"/>
-      <c r="P49" s="248">
+      <c r="P49" s="250">
         <v>0.43773000000000001</v>
       </c>
-      <c r="Q49" s="248"/>
+      <c r="Q49" s="250"/>
       <c r="R49" s="94"/>
       <c r="S49" s="94"/>
-      <c r="T49" s="249"/>
-      <c r="U49" s="250"/>
+      <c r="T49" s="251"/>
+      <c r="U49" s="252"/>
       <c r="V49" s="40"/>
       <c r="W49" t="s">
         <v>457</v>
@@ -24408,16 +24408,16 @@
         <v>0.47361999999999999</v>
       </c>
       <c r="B50" s="92"/>
-      <c r="C50" s="247">
+      <c r="C50" s="242">
         <v>0.28101999999999999</v>
       </c>
-      <c r="D50" s="247"/>
+      <c r="D50" s="242"/>
       <c r="E50" s="81"/>
       <c r="F50" s="81"/>
       <c r="G50" s="81"/>
       <c r="H50" s="81"/>
-      <c r="I50" s="240"/>
-      <c r="J50" s="242"/>
+      <c r="I50" s="246"/>
+      <c r="J50" s="247"/>
       <c r="K50" s="80" t="s">
         <v>328</v>
       </c>
@@ -24425,23 +24425,23 @@
         <v>0.47361999999999999</v>
       </c>
       <c r="M50" s="92"/>
-      <c r="N50" s="247">
+      <c r="N50" s="242">
         <v>0.28101999999999999</v>
       </c>
-      <c r="O50" s="247"/>
+      <c r="O50" s="242"/>
       <c r="P50" s="81"/>
       <c r="Q50" s="81"/>
       <c r="R50" s="81"/>
       <c r="S50" s="81"/>
-      <c r="T50" s="240"/>
-      <c r="U50" s="242"/>
+      <c r="T50" s="246"/>
+      <c r="U50" s="247"/>
       <c r="W50" t="s">
         <v>458</v>
       </c>
-      <c r="AC50" s="256" t="s">
+      <c r="AC50" s="258" t="s">
         <v>251</v>
       </c>
-      <c r="AD50" s="256"/>
+      <c r="AD50" s="258"/>
     </row>
     <row r="51" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A51" s="88"/>
@@ -24454,8 +24454,8 @@
         <v>0.71950000000000003</v>
       </c>
       <c r="H51" s="88"/>
-      <c r="I51" s="243"/>
-      <c r="J51" s="244"/>
+      <c r="I51" s="244"/>
+      <c r="J51" s="245"/>
       <c r="K51" s="87" t="s">
         <v>329</v>
       </c>
@@ -24469,8 +24469,8 @@
         <v>0.66930232558139535</v>
       </c>
       <c r="S51" s="88"/>
-      <c r="T51" s="243"/>
-      <c r="U51" s="244"/>
+      <c r="T51" s="244"/>
+      <c r="U51" s="245"/>
       <c r="W51" t="s">
         <v>459</v>
       </c>
@@ -24486,10 +24486,10 @@
         <v>0.20451</v>
       </c>
       <c r="H52" s="85"/>
-      <c r="I52" s="245">
+      <c r="I52" s="248">
         <v>9.1600000000000001E-2</v>
       </c>
-      <c r="J52" s="246"/>
+      <c r="J52" s="249"/>
       <c r="K52" s="84" t="s">
         <v>331</v>
       </c>
@@ -24503,10 +24503,10 @@
         <v>0.23780232558139536</v>
       </c>
       <c r="S52" s="85"/>
-      <c r="T52" s="245">
+      <c r="T52" s="248">
         <v>9.1600000000000001E-2</v>
       </c>
-      <c r="U52" s="246"/>
+      <c r="U52" s="249"/>
       <c r="W52" t="s">
         <v>460</v>
       </c>
@@ -24519,16 +24519,16 @@
         <v>0.17321</v>
       </c>
       <c r="B53" s="92"/>
-      <c r="C53" s="247">
+      <c r="C53" s="242">
         <v>9.2929999999999999E-2</v>
       </c>
-      <c r="D53" s="247"/>
+      <c r="D53" s="242"/>
       <c r="E53" s="81"/>
       <c r="F53" s="81"/>
       <c r="G53" s="81"/>
       <c r="H53" s="81"/>
-      <c r="I53" s="240"/>
-      <c r="J53" s="242"/>
+      <c r="I53" s="246"/>
+      <c r="J53" s="247"/>
       <c r="K53" s="80" t="s">
         <v>333</v>
       </c>
@@ -24536,17 +24536,17 @@
         <v>0.17321</v>
       </c>
       <c r="M53" s="92"/>
-      <c r="N53" s="247">
+      <c r="N53" s="242">
         <f>9.293%*0.8</f>
         <v>7.4344000000000007E-2</v>
       </c>
-      <c r="O53" s="247"/>
+      <c r="O53" s="242"/>
       <c r="P53" s="81"/>
       <c r="Q53" s="81"/>
       <c r="R53" s="81"/>
       <c r="S53" s="81"/>
-      <c r="T53" s="240"/>
-      <c r="U53" s="242"/>
+      <c r="T53" s="246"/>
+      <c r="U53" s="247"/>
       <c r="W53" t="s">
         <v>461</v>
       </c>
@@ -24565,8 +24565,8 @@
         <v>1</v>
       </c>
       <c r="H54" s="88"/>
-      <c r="I54" s="243"/>
-      <c r="J54" s="244"/>
+      <c r="I54" s="244"/>
+      <c r="J54" s="245"/>
       <c r="K54" s="87" t="s">
         <v>335</v>
       </c>
@@ -24580,8 +24580,8 @@
         <v>1</v>
       </c>
       <c r="S54" s="88"/>
-      <c r="T54" s="243"/>
-      <c r="U54" s="244"/>
+      <c r="T54" s="244"/>
+      <c r="U54" s="245"/>
       <c r="W54" t="s">
         <v>462</v>
       </c>
@@ -24600,10 +24600,10 @@
         <v>0.26967000000000002</v>
       </c>
       <c r="H55" s="85"/>
-      <c r="I55" s="245">
+      <c r="I55" s="248">
         <v>0.1535</v>
       </c>
-      <c r="J55" s="246"/>
+      <c r="J55" s="249"/>
       <c r="K55" s="84" t="s">
         <v>337</v>
       </c>
@@ -24617,10 +24617,10 @@
         <v>0.31356976744186049</v>
       </c>
       <c r="S55" s="85"/>
-      <c r="T55" s="245">
+      <c r="T55" s="248">
         <v>0.1535</v>
       </c>
-      <c r="U55" s="246"/>
+      <c r="U55" s="249"/>
       <c r="V55" s="40"/>
       <c r="W55" t="s">
         <v>463</v>
@@ -24631,14 +24631,14 @@
       <c r="B56" s="94"/>
       <c r="C56" s="94"/>
       <c r="D56" s="94"/>
-      <c r="E56" s="248">
+      <c r="E56" s="250">
         <v>0.43773000000000001</v>
       </c>
-      <c r="F56" s="248"/>
+      <c r="F56" s="250"/>
       <c r="G56" s="94"/>
       <c r="H56" s="94"/>
-      <c r="I56" s="249"/>
-      <c r="J56" s="250"/>
+      <c r="I56" s="251"/>
+      <c r="J56" s="252"/>
       <c r="K56" s="93" t="s">
         <v>368</v>
       </c>
@@ -24646,15 +24646,15 @@
       <c r="M56" s="94"/>
       <c r="N56" s="94"/>
       <c r="O56" s="94"/>
-      <c r="P56" s="248">
+      <c r="P56" s="250">
         <f>43.773%*0.8</f>
         <v>0.35018400000000005</v>
       </c>
-      <c r="Q56" s="248"/>
+      <c r="Q56" s="250"/>
       <c r="R56" s="94"/>
       <c r="S56" s="94"/>
-      <c r="T56" s="249"/>
-      <c r="U56" s="250"/>
+      <c r="T56" s="251"/>
+      <c r="U56" s="252"/>
       <c r="V56" s="40"/>
       <c r="W56" t="s">
         <v>464</v>
@@ -24668,16 +24668,16 @@
         <v>0.28996</v>
       </c>
       <c r="B57" s="92"/>
-      <c r="C57" s="247">
+      <c r="C57" s="242">
         <v>0.25344</v>
       </c>
-      <c r="D57" s="247"/>
+      <c r="D57" s="242"/>
       <c r="E57" s="81"/>
       <c r="F57" s="81"/>
       <c r="G57" s="81"/>
       <c r="H57" s="81"/>
-      <c r="I57" s="240"/>
-      <c r="J57" s="242"/>
+      <c r="I57" s="246"/>
+      <c r="J57" s="247"/>
       <c r="K57" s="80" t="s">
         <v>340</v>
       </c>
@@ -24685,16 +24685,16 @@
         <v>0.28996</v>
       </c>
       <c r="M57" s="92"/>
-      <c r="N57" s="247">
+      <c r="N57" s="242">
         <v>0.25344</v>
       </c>
-      <c r="O57" s="247"/>
+      <c r="O57" s="242"/>
       <c r="P57" s="81"/>
       <c r="Q57" s="81"/>
       <c r="R57" s="81"/>
       <c r="S57" s="81"/>
-      <c r="T57" s="240"/>
-      <c r="U57" s="242"/>
+      <c r="T57" s="246"/>
+      <c r="U57" s="247"/>
       <c r="V57" s="40"/>
       <c r="W57" t="s">
         <v>466</v>
@@ -24705,14 +24705,14 @@
       <c r="B58" s="88"/>
       <c r="C58" s="88"/>
       <c r="D58" s="88"/>
-      <c r="E58" s="251">
+      <c r="E58" s="243">
         <v>0.65949000000000002</v>
       </c>
-      <c r="F58" s="251"/>
+      <c r="F58" s="243"/>
       <c r="G58" s="88"/>
       <c r="H58" s="88"/>
-      <c r="I58" s="243"/>
-      <c r="J58" s="244"/>
+      <c r="I58" s="244"/>
+      <c r="J58" s="245"/>
       <c r="K58" s="87" t="s">
         <v>342</v>
       </c>
@@ -24720,15 +24720,15 @@
       <c r="M58" s="88"/>
       <c r="N58" s="88"/>
       <c r="O58" s="88"/>
-      <c r="P58" s="251">
+      <c r="P58" s="243">
         <f>65.949%*1.1</f>
         <v>0.72543900000000006</v>
       </c>
-      <c r="Q58" s="251"/>
+      <c r="Q58" s="243"/>
       <c r="R58" s="88"/>
       <c r="S58" s="88"/>
-      <c r="T58" s="243"/>
-      <c r="U58" s="244"/>
+      <c r="T58" s="244"/>
+      <c r="U58" s="245"/>
       <c r="V58" s="40"/>
       <c r="W58" t="s">
         <v>467</v>
@@ -24748,8 +24748,8 @@
         <v>0.56411</v>
       </c>
       <c r="H59" s="88"/>
-      <c r="I59" s="243"/>
-      <c r="J59" s="244"/>
+      <c r="I59" s="244"/>
+      <c r="J59" s="245"/>
       <c r="K59" s="87" t="s">
         <v>344</v>
       </c>
@@ -24763,8 +24763,8 @@
         <v>0.70185779069767451</v>
       </c>
       <c r="S59" s="88"/>
-      <c r="T59" s="243"/>
-      <c r="U59" s="244"/>
+      <c r="T59" s="244"/>
+      <c r="U59" s="245"/>
       <c r="V59" s="40"/>
       <c r="W59" t="s">
         <v>468</v>
@@ -24781,10 +24781,10 @@
         <v>0.14326</v>
       </c>
       <c r="H60" s="85"/>
-      <c r="I60" s="245">
+      <c r="I60" s="248">
         <v>0.17191999999999999</v>
       </c>
-      <c r="J60" s="246"/>
+      <c r="J60" s="249"/>
       <c r="K60" s="84" t="s">
         <v>346</v>
       </c>
@@ -24798,11 +24798,11 @@
         <v>0.2082267441860465</v>
       </c>
       <c r="S60" s="85"/>
-      <c r="T60" s="245">
+      <c r="T60" s="248">
         <f>17.192%</f>
         <v>0.17191999999999999</v>
       </c>
-      <c r="U60" s="246"/>
+      <c r="U60" s="249"/>
       <c r="V60" s="40"/>
       <c r="W60" t="s">
         <v>469</v>
@@ -24822,8 +24822,8 @@
         <v>0.19162000000000001</v>
       </c>
       <c r="H61" s="81"/>
-      <c r="I61" s="240"/>
-      <c r="J61" s="242"/>
+      <c r="I61" s="246"/>
+      <c r="J61" s="247"/>
       <c r="K61" s="80" t="s">
         <v>348</v>
       </c>
@@ -24837,8 +24837,8 @@
         <v>0.22281395348837213</v>
       </c>
       <c r="S61" s="81"/>
-      <c r="T61" s="240"/>
-      <c r="U61" s="242"/>
+      <c r="T61" s="246"/>
+      <c r="U61" s="247"/>
       <c r="V61" s="40"/>
       <c r="W61" t="s">
         <v>471</v>
@@ -24858,8 +24858,8 @@
         <v>0.49523</v>
       </c>
       <c r="H62" s="88"/>
-      <c r="I62" s="243"/>
-      <c r="J62" s="244"/>
+      <c r="I62" s="244"/>
+      <c r="J62" s="245"/>
       <c r="K62" s="87" t="s">
         <v>349</v>
       </c>
@@ -24873,8 +24873,8 @@
         <v>0.57584883720930236</v>
       </c>
       <c r="S62" s="88"/>
-      <c r="T62" s="243"/>
-      <c r="U62" s="244"/>
+      <c r="T62" s="244"/>
+      <c r="U62" s="245"/>
       <c r="V62" s="40"/>
       <c r="W62" t="s">
         <v>473</v>
@@ -24901,10 +24901,10 @@
       <c r="M63" s="88"/>
       <c r="N63" s="88"/>
       <c r="O63" s="88"/>
-      <c r="P63" s="240">
+      <c r="P63" s="246">
         <v>0.15</v>
       </c>
-      <c r="Q63" s="241"/>
+      <c r="Q63" s="255"/>
       <c r="R63" s="88"/>
       <c r="S63" s="88"/>
       <c r="T63" s="108"/>
@@ -24928,10 +24928,10 @@
         <v>0.47439999999999999</v>
       </c>
       <c r="H64" s="88"/>
-      <c r="I64" s="243">
+      <c r="I64" s="244">
         <v>0.60697000000000001</v>
       </c>
-      <c r="J64" s="244"/>
+      <c r="J64" s="245"/>
       <c r="K64" s="87" t="s">
         <v>350</v>
       </c>
@@ -24945,10 +24945,10 @@
         <v>0.55162790697674413</v>
       </c>
       <c r="S64" s="88"/>
-      <c r="T64" s="243">
+      <c r="T64" s="244">
         <v>0.60697000000000001</v>
       </c>
-      <c r="U64" s="244"/>
+      <c r="U64" s="245"/>
       <c r="V64" s="40"/>
       <c r="W64" t="s">
         <v>477</v>
@@ -24968,10 +24968,10 @@
         <v>0.16774</v>
       </c>
       <c r="H65" s="85"/>
-      <c r="I65" s="245">
+      <c r="I65" s="248">
         <v>0.24779999999999999</v>
       </c>
-      <c r="J65" s="246"/>
+      <c r="J65" s="249"/>
       <c r="K65" s="84" t="s">
         <v>351</v>
       </c>
@@ -24985,10 +24985,10 @@
         <v>0.19504651162790698</v>
       </c>
       <c r="S65" s="85"/>
-      <c r="T65" s="245">
+      <c r="T65" s="248">
         <v>0.24779999999999999</v>
       </c>
-      <c r="U65" s="246"/>
+      <c r="U65" s="249"/>
       <c r="V65" s="40"/>
       <c r="W65" t="s">
         <v>479</v>
@@ -25002,14 +25002,14 @@
       <c r="B66" s="81"/>
       <c r="C66" s="81"/>
       <c r="D66" s="81"/>
-      <c r="E66" s="240">
+      <c r="E66" s="246">
         <v>0.45617999999999997</v>
       </c>
-      <c r="F66" s="241"/>
+      <c r="F66" s="255"/>
       <c r="G66" s="81"/>
       <c r="H66" s="81"/>
-      <c r="I66" s="240"/>
-      <c r="J66" s="242"/>
+      <c r="I66" s="246"/>
+      <c r="J66" s="247"/>
       <c r="K66" s="80" t="s">
         <v>352</v>
       </c>
@@ -25017,14 +25017,14 @@
       <c r="M66" s="81"/>
       <c r="N66" s="81"/>
       <c r="O66" s="81"/>
-      <c r="P66" s="240">
+      <c r="P66" s="246">
         <v>0.45617999999999997</v>
       </c>
-      <c r="Q66" s="241"/>
+      <c r="Q66" s="255"/>
       <c r="R66" s="81"/>
       <c r="S66" s="81"/>
-      <c r="T66" s="240"/>
-      <c r="U66" s="242"/>
+      <c r="T66" s="246"/>
+      <c r="U66" s="247"/>
       <c r="V66" s="40"/>
       <c r="W66" t="s">
         <v>481</v>
@@ -25044,10 +25044,10 @@
         <v>0.28649999999999998</v>
       </c>
       <c r="H67" s="88"/>
-      <c r="I67" s="243">
+      <c r="I67" s="244">
         <v>0.80176999999999998</v>
       </c>
-      <c r="J67" s="244"/>
+      <c r="J67" s="245"/>
       <c r="K67" s="87" t="s">
         <v>353</v>
       </c>
@@ -25061,10 +25061,10 @@
         <v>0.33313953488372089</v>
       </c>
       <c r="S67" s="88"/>
-      <c r="T67" s="243">
+      <c r="T67" s="244">
         <v>0.50800000000000001</v>
       </c>
-      <c r="U67" s="244"/>
+      <c r="U67" s="245"/>
       <c r="V67" s="40"/>
       <c r="AC67" t="s">
         <v>483</v>
@@ -25081,10 +25081,10 @@
         <v>0.20932000000000001</v>
       </c>
       <c r="H68" s="88"/>
-      <c r="I68" s="243">
+      <c r="I68" s="244">
         <v>0.50775999999999999</v>
       </c>
-      <c r="J68" s="244"/>
+      <c r="J68" s="245"/>
       <c r="K68" s="87" t="s">
         <v>355</v>
       </c>
@@ -25098,10 +25098,10 @@
         <v>0.24339534883720934</v>
       </c>
       <c r="S68" s="88"/>
-      <c r="T68" s="243">
+      <c r="T68" s="244">
         <v>0.50775999999999999</v>
       </c>
-      <c r="U68" s="244"/>
+      <c r="U68" s="245"/>
       <c r="V68" s="40"/>
       <c r="AC68" t="s">
         <v>484</v>
@@ -25118,8 +25118,8 @@
         <v>0.14599000000000001</v>
       </c>
       <c r="H69" s="88"/>
-      <c r="I69" s="243"/>
-      <c r="J69" s="244"/>
+      <c r="I69" s="244"/>
+      <c r="J69" s="245"/>
       <c r="K69" s="87" t="s">
         <v>356</v>
       </c>
@@ -25133,13 +25133,13 @@
         <v>0.16975581395348838</v>
       </c>
       <c r="S69" s="88"/>
-      <c r="T69" s="243"/>
-      <c r="U69" s="244"/>
+      <c r="T69" s="244"/>
+      <c r="U69" s="245"/>
       <c r="V69" s="40"/>
-      <c r="W69" s="256" t="s">
+      <c r="W69" s="258" t="s">
         <v>236</v>
       </c>
-      <c r="X69" s="256"/>
+      <c r="X69" s="258"/>
       <c r="AC69" t="s">
         <v>485</v>
       </c>
@@ -25155,10 +25155,10 @@
         <v>0.12414</v>
       </c>
       <c r="H70" s="85"/>
-      <c r="I70" s="245">
+      <c r="I70" s="248">
         <v>0.61785000000000001</v>
       </c>
-      <c r="J70" s="246"/>
+      <c r="J70" s="249"/>
       <c r="K70" s="84" t="s">
         <v>357</v>
       </c>
@@ -25172,10 +25172,10 @@
         <v>0.14434883720930233</v>
       </c>
       <c r="S70" s="85"/>
-      <c r="T70" s="245">
+      <c r="T70" s="248">
         <v>0.61785000000000001</v>
       </c>
-      <c r="U70" s="246"/>
+      <c r="U70" s="249"/>
       <c r="V70" s="40"/>
       <c r="AC70" t="s">
         <v>486</v>
@@ -25192,10 +25192,10 @@
         <v>0.23763000000000001</v>
       </c>
       <c r="H71" s="81"/>
-      <c r="I71" s="240">
+      <c r="I71" s="246">
         <v>1</v>
       </c>
-      <c r="J71" s="242"/>
+      <c r="J71" s="247"/>
       <c r="K71" s="80" t="s">
         <v>358</v>
       </c>
@@ -25209,10 +25209,10 @@
         <v>0.27631395348837212</v>
       </c>
       <c r="S71" s="81"/>
-      <c r="T71" s="240">
+      <c r="T71" s="246">
         <v>1</v>
       </c>
-      <c r="U71" s="242"/>
+      <c r="U71" s="247"/>
       <c r="V71" s="40"/>
       <c r="W71" t="s">
         <v>282</v>
@@ -25239,10 +25239,10 @@
       <c r="M72" s="110"/>
       <c r="N72" s="110"/>
       <c r="O72" s="110"/>
-      <c r="P72" s="240">
+      <c r="P72" s="246">
         <v>0.25</v>
       </c>
-      <c r="Q72" s="241"/>
+      <c r="Q72" s="255"/>
       <c r="R72" s="110"/>
       <c r="S72" s="110"/>
       <c r="T72" s="111"/>
@@ -25266,8 +25266,8 @@
         <v>0.17316000000000001</v>
       </c>
       <c r="H73" s="88"/>
-      <c r="I73" s="243"/>
-      <c r="J73" s="244"/>
+      <c r="I73" s="244"/>
+      <c r="J73" s="245"/>
       <c r="K73" s="87" t="s">
         <v>359</v>
       </c>
@@ -25281,8 +25281,8 @@
         <v>0.20134883720930236</v>
       </c>
       <c r="S73" s="88"/>
-      <c r="T73" s="243"/>
-      <c r="U73" s="244"/>
+      <c r="T73" s="244"/>
+      <c r="U73" s="245"/>
       <c r="V73" s="40"/>
       <c r="W73" t="s">
         <v>288</v>
@@ -25302,10 +25302,10 @@
         <v>0.12317</v>
       </c>
       <c r="H74" s="85"/>
-      <c r="I74" s="245">
+      <c r="I74" s="248">
         <v>0.33643600000000001</v>
       </c>
-      <c r="J74" s="246"/>
+      <c r="J74" s="249"/>
       <c r="K74" s="84" t="s">
         <v>360</v>
       </c>
@@ -25319,10 +25319,10 @@
         <v>0.14322093023255814</v>
       </c>
       <c r="S74" s="85"/>
-      <c r="T74" s="245">
+      <c r="T74" s="248">
         <v>0.33643600000000001</v>
       </c>
-      <c r="U74" s="246"/>
+      <c r="U74" s="249"/>
       <c r="V74" s="40"/>
       <c r="AC74" t="s">
         <v>490</v>
@@ -25339,10 +25339,10 @@
         <v>0.20199</v>
       </c>
       <c r="H75" s="81"/>
-      <c r="I75" s="240">
+      <c r="I75" s="246">
         <v>0.85</v>
       </c>
-      <c r="J75" s="242"/>
+      <c r="J75" s="247"/>
       <c r="K75" s="80" t="s">
         <v>361</v>
       </c>
@@ -25356,10 +25356,10 @@
         <v>0.23487209302325585</v>
       </c>
       <c r="S75" s="81"/>
-      <c r="T75" s="240">
+      <c r="T75" s="246">
         <v>0.85</v>
       </c>
-      <c r="U75" s="242"/>
+      <c r="U75" s="247"/>
       <c r="V75" s="40"/>
       <c r="W75" t="s">
         <v>293</v>
@@ -25379,8 +25379,8 @@
         <v>0.17718999999999999</v>
       </c>
       <c r="H76" s="88"/>
-      <c r="I76" s="243"/>
-      <c r="J76" s="244"/>
+      <c r="I76" s="244"/>
+      <c r="J76" s="245"/>
       <c r="K76" s="87" t="s">
         <v>362</v>
       </c>
@@ -25394,8 +25394,8 @@
         <v>0.20603488372093021</v>
       </c>
       <c r="S76" s="88"/>
-      <c r="T76" s="243"/>
-      <c r="U76" s="244"/>
+      <c r="T76" s="244"/>
+      <c r="U76" s="245"/>
       <c r="V76" s="40"/>
       <c r="W76" t="s">
         <v>296</v>
@@ -25415,10 +25415,10 @@
         <v>0.1047</v>
       </c>
       <c r="H77" s="100"/>
-      <c r="I77" s="238">
+      <c r="I77" s="253">
         <v>0.28591</v>
       </c>
-      <c r="J77" s="239"/>
+      <c r="J77" s="254"/>
       <c r="K77" s="99" t="s">
         <v>363</v>
       </c>
@@ -25432,10 +25432,10 @@
         <v>0.12174418604651163</v>
       </c>
       <c r="S77" s="100"/>
-      <c r="T77" s="238">
+      <c r="T77" s="253">
         <v>0.28591</v>
       </c>
-      <c r="U77" s="239"/>
+      <c r="U77" s="254"/>
       <c r="V77" s="40"/>
       <c r="AC77" t="s">
         <v>493</v>
@@ -25536,192 +25536,6 @@
     </row>
   </sheetData>
   <mergeCells count="210">
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="T36:U36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="T41:U41"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="T39:U39"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="T40:U40"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="T45:U45"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="T42:U42"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="T43:U43"/>
-    <mergeCell ref="T48:U48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="T46:U46"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="T47:U47"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="T53:U53"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="T50:U50"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="T51:U51"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="T57:U57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="T58:U58"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="T54:U54"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="T55:U55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="T56:U56"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="T66:U66"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="T67:U67"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="T62:U62"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="T64:U64"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="T65:U65"/>
-    <mergeCell ref="I77:J77"/>
-    <mergeCell ref="T77:U77"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="T71:U71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="I73:J73"/>
-    <mergeCell ref="T73:U73"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="T74:U74"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="W37:X37"/>
@@ -25746,6 +25560,192 @@
     <mergeCell ref="I52:J52"/>
     <mergeCell ref="T52:U52"/>
     <mergeCell ref="I48:J48"/>
+    <mergeCell ref="I77:J77"/>
+    <mergeCell ref="T77:U77"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="T71:U71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="I73:J73"/>
+    <mergeCell ref="T73:U73"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="T74:U74"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="T66:U66"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="T67:U67"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="T62:U62"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="T64:U64"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="T65:U65"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="T57:U57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="T58:U58"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="T54:U54"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="T55:U55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="T56:U56"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="T53:U53"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="T51:U51"/>
+    <mergeCell ref="T48:U48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="T46:U46"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="T47:U47"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="T45:U45"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:J48 A50:J77">
     <cfRule type="cellIs" dxfId="21" priority="13" operator="between">
@@ -61030,8 +61030,8 @@
   </sheetPr>
   <dimension ref="A1:W38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -65130,460 +65130,460 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="234" t="s">
+      <c r="A4" s="230" t="s">
         <v>1130</v>
       </c>
-      <c r="B4" s="234" t="s">
+      <c r="B4" s="230" t="s">
         <v>1131</v>
       </c>
-      <c r="C4" s="234" t="s">
+      <c r="C4" s="230" t="s">
         <v>1132</v>
       </c>
-      <c r="D4" s="234" t="s">
+      <c r="D4" s="230" t="s">
         <v>1133</v>
       </c>
-      <c r="E4" s="236" t="s">
+      <c r="E4" s="232" t="s">
         <v>1134</v>
       </c>
-      <c r="F4" s="234" t="s">
+      <c r="F4" s="230" t="s">
         <v>1135</v>
       </c>
-      <c r="G4" s="234" t="s">
+      <c r="G4" s="230" t="s">
         <v>1136</v>
       </c>
-      <c r="H4" s="234" t="s">
+      <c r="H4" s="230" t="s">
         <v>1137</v>
       </c>
-      <c r="I4" s="234" t="s">
+      <c r="I4" s="230" t="s">
         <v>1138</v>
       </c>
-      <c r="J4" s="236" t="s">
+      <c r="J4" s="232" t="s">
         <v>1139</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="235"/>
-      <c r="B5" s="235"/>
-      <c r="C5" s="235"/>
-      <c r="D5" s="235"/>
-      <c r="E5" s="237"/>
-      <c r="F5" s="235"/>
-      <c r="G5" s="235"/>
-      <c r="H5" s="235"/>
-      <c r="I5" s="235"/>
-      <c r="J5" s="237"/>
+      <c r="A5" s="231"/>
+      <c r="B5" s="231"/>
+      <c r="C5" s="231"/>
+      <c r="D5" s="231"/>
+      <c r="E5" s="233"/>
+      <c r="F5" s="231"/>
+      <c r="G5" s="231"/>
+      <c r="H5" s="231"/>
+      <c r="I5" s="231"/>
+      <c r="J5" s="233"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="234" t="s">
+      <c r="A6" s="230" t="s">
         <v>1140</v>
       </c>
-      <c r="B6" s="232">
+      <c r="B6" s="234">
         <v>3563</v>
       </c>
-      <c r="C6" s="232">
+      <c r="C6" s="234">
         <v>3583</v>
       </c>
-      <c r="D6" s="232">
+      <c r="D6" s="234">
         <v>3689</v>
       </c>
-      <c r="E6" s="230">
+      <c r="E6" s="236">
         <v>3712</v>
       </c>
-      <c r="F6" s="232">
+      <c r="F6" s="234">
         <v>3656</v>
       </c>
-      <c r="G6" s="232">
+      <c r="G6" s="234">
         <v>3751</v>
       </c>
-      <c r="H6" s="232">
+      <c r="H6" s="234">
         <v>3693</v>
       </c>
-      <c r="I6" s="232">
+      <c r="I6" s="234">
         <v>3676</v>
       </c>
-      <c r="J6" s="230">
+      <c r="J6" s="236">
         <v>3638</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="235"/>
-      <c r="B7" s="233"/>
-      <c r="C7" s="233"/>
-      <c r="D7" s="233"/>
-      <c r="E7" s="231"/>
-      <c r="F7" s="233"/>
-      <c r="G7" s="233"/>
-      <c r="H7" s="233"/>
-      <c r="I7" s="233"/>
-      <c r="J7" s="231"/>
+      <c r="A7" s="231"/>
+      <c r="B7" s="235"/>
+      <c r="C7" s="235"/>
+      <c r="D7" s="235"/>
+      <c r="E7" s="237"/>
+      <c r="F7" s="235"/>
+      <c r="G7" s="235"/>
+      <c r="H7" s="235"/>
+      <c r="I7" s="235"/>
+      <c r="J7" s="237"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="234" t="s">
+      <c r="A8" s="230" t="s">
         <v>1141</v>
       </c>
-      <c r="B8" s="232">
+      <c r="B8" s="234">
         <v>2957</v>
       </c>
-      <c r="C8" s="232">
+      <c r="C8" s="234">
         <v>3253</v>
       </c>
-      <c r="D8" s="232">
+      <c r="D8" s="234">
         <v>3342</v>
       </c>
-      <c r="E8" s="230">
+      <c r="E8" s="236">
         <v>3325</v>
       </c>
-      <c r="F8" s="232">
+      <c r="F8" s="234">
         <v>3461</v>
       </c>
-      <c r="G8" s="232">
+      <c r="G8" s="234">
         <v>3392</v>
       </c>
-      <c r="H8" s="232">
+      <c r="H8" s="234">
         <v>3455</v>
       </c>
-      <c r="I8" s="232">
+      <c r="I8" s="234">
         <v>3369</v>
       </c>
-      <c r="J8" s="230">
+      <c r="J8" s="236">
         <v>3372</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="235"/>
-      <c r="B9" s="233"/>
-      <c r="C9" s="233"/>
-      <c r="D9" s="233"/>
-      <c r="E9" s="231"/>
-      <c r="F9" s="233"/>
-      <c r="G9" s="233"/>
-      <c r="H9" s="233"/>
-      <c r="I9" s="233"/>
-      <c r="J9" s="231"/>
+      <c r="A9" s="231"/>
+      <c r="B9" s="235"/>
+      <c r="C9" s="235"/>
+      <c r="D9" s="235"/>
+      <c r="E9" s="237"/>
+      <c r="F9" s="235"/>
+      <c r="G9" s="235"/>
+      <c r="H9" s="235"/>
+      <c r="I9" s="235"/>
+      <c r="J9" s="237"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="234" t="s">
+      <c r="A10" s="230" t="s">
         <v>1142</v>
       </c>
-      <c r="B10" s="232">
+      <c r="B10" s="234">
         <v>2354</v>
       </c>
-      <c r="C10" s="232">
+      <c r="C10" s="234">
         <v>2997</v>
       </c>
-      <c r="D10" s="232">
+      <c r="D10" s="234">
         <v>3041</v>
       </c>
-      <c r="E10" s="230">
+      <c r="E10" s="236">
         <v>3085</v>
       </c>
-      <c r="F10" s="232">
+      <c r="F10" s="234">
         <v>3118</v>
       </c>
-      <c r="G10" s="232">
+      <c r="G10" s="234">
         <v>3100</v>
       </c>
-      <c r="H10" s="232">
+      <c r="H10" s="234">
         <v>3130</v>
       </c>
-      <c r="I10" s="232">
+      <c r="I10" s="234">
         <v>3102</v>
       </c>
-      <c r="J10" s="230">
+      <c r="J10" s="236">
         <v>3098</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="235"/>
-      <c r="B11" s="233"/>
-      <c r="C11" s="233"/>
-      <c r="D11" s="233"/>
-      <c r="E11" s="231"/>
-      <c r="F11" s="233"/>
-      <c r="G11" s="233"/>
-      <c r="H11" s="233"/>
-      <c r="I11" s="233"/>
-      <c r="J11" s="231"/>
+      <c r="A11" s="231"/>
+      <c r="B11" s="235"/>
+      <c r="C11" s="235"/>
+      <c r="D11" s="235"/>
+      <c r="E11" s="237"/>
+      <c r="F11" s="235"/>
+      <c r="G11" s="235"/>
+      <c r="H11" s="235"/>
+      <c r="I11" s="235"/>
+      <c r="J11" s="237"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="234" t="s">
+      <c r="A12" s="230" t="s">
         <v>1143</v>
       </c>
-      <c r="B12" s="232"/>
-      <c r="C12" s="232">
+      <c r="B12" s="234"/>
+      <c r="C12" s="234">
         <v>2361</v>
       </c>
-      <c r="D12" s="232">
+      <c r="D12" s="234">
         <v>2778</v>
       </c>
-      <c r="E12" s="230">
+      <c r="E12" s="236">
         <v>2793</v>
       </c>
-      <c r="F12" s="232">
+      <c r="F12" s="234">
         <v>2808</v>
       </c>
-      <c r="G12" s="232">
+      <c r="G12" s="234">
         <v>2810</v>
       </c>
-      <c r="H12" s="232">
+      <c r="H12" s="234">
         <v>2814</v>
       </c>
-      <c r="I12" s="232">
+      <c r="I12" s="234">
         <v>2795</v>
       </c>
-      <c r="J12" s="230">
+      <c r="J12" s="236">
         <v>2793</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="235"/>
-      <c r="B13" s="233"/>
-      <c r="C13" s="233"/>
-      <c r="D13" s="233"/>
-      <c r="E13" s="231"/>
-      <c r="F13" s="233"/>
-      <c r="G13" s="233"/>
-      <c r="H13" s="233"/>
-      <c r="I13" s="233"/>
-      <c r="J13" s="231"/>
+      <c r="A13" s="231"/>
+      <c r="B13" s="235"/>
+      <c r="C13" s="235"/>
+      <c r="D13" s="235"/>
+      <c r="E13" s="237"/>
+      <c r="F13" s="235"/>
+      <c r="G13" s="235"/>
+      <c r="H13" s="235"/>
+      <c r="I13" s="235"/>
+      <c r="J13" s="237"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="234" t="s">
+      <c r="A14" s="230" t="s">
         <v>1144</v>
       </c>
-      <c r="B14" s="232"/>
-      <c r="C14" s="232"/>
-      <c r="D14" s="232">
+      <c r="B14" s="234"/>
+      <c r="C14" s="234"/>
+      <c r="D14" s="234">
         <v>2241</v>
       </c>
-      <c r="E14" s="230">
+      <c r="E14" s="236">
         <v>2467</v>
       </c>
-      <c r="F14" s="232">
+      <c r="F14" s="234">
         <v>2521</v>
       </c>
-      <c r="G14" s="232">
+      <c r="G14" s="234">
         <v>2507</v>
       </c>
-      <c r="H14" s="232">
+      <c r="H14" s="234">
         <v>2536</v>
       </c>
-      <c r="I14" s="232">
+      <c r="I14" s="234">
         <v>2517</v>
       </c>
-      <c r="J14" s="230">
+      <c r="J14" s="236">
         <v>2525</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="235"/>
-      <c r="B15" s="233"/>
-      <c r="C15" s="233"/>
-      <c r="D15" s="233"/>
-      <c r="E15" s="231"/>
-      <c r="F15" s="233"/>
-      <c r="G15" s="233"/>
-      <c r="H15" s="233"/>
-      <c r="I15" s="233"/>
-      <c r="J15" s="231"/>
+      <c r="A15" s="231"/>
+      <c r="B15" s="235"/>
+      <c r="C15" s="235"/>
+      <c r="D15" s="235"/>
+      <c r="E15" s="237"/>
+      <c r="F15" s="235"/>
+      <c r="G15" s="235"/>
+      <c r="H15" s="235"/>
+      <c r="I15" s="235"/>
+      <c r="J15" s="237"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="234" t="s">
+      <c r="A16" s="230" t="s">
         <v>1145</v>
       </c>
-      <c r="B16" s="232"/>
-      <c r="C16" s="232"/>
-      <c r="D16" s="232"/>
-      <c r="E16" s="230">
+      <c r="B16" s="234"/>
+      <c r="C16" s="234"/>
+      <c r="D16" s="234"/>
+      <c r="E16" s="236">
         <v>2113</v>
       </c>
-      <c r="F16" s="232">
+      <c r="F16" s="234">
         <v>2226</v>
       </c>
-      <c r="G16" s="232">
+      <c r="G16" s="234">
         <v>2202</v>
       </c>
-      <c r="H16" s="232">
+      <c r="H16" s="234">
         <v>2232</v>
       </c>
-      <c r="I16" s="232">
+      <c r="I16" s="234">
         <v>2235</v>
       </c>
-      <c r="J16" s="230">
+      <c r="J16" s="236">
         <v>2227</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="235"/>
-      <c r="B17" s="233"/>
-      <c r="C17" s="233"/>
-      <c r="D17" s="233"/>
-      <c r="E17" s="231"/>
-      <c r="F17" s="233"/>
-      <c r="G17" s="233"/>
-      <c r="H17" s="233"/>
-      <c r="I17" s="233"/>
-      <c r="J17" s="231"/>
+      <c r="A17" s="231"/>
+      <c r="B17" s="235"/>
+      <c r="C17" s="235"/>
+      <c r="D17" s="235"/>
+      <c r="E17" s="237"/>
+      <c r="F17" s="235"/>
+      <c r="G17" s="235"/>
+      <c r="H17" s="235"/>
+      <c r="I17" s="235"/>
+      <c r="J17" s="237"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="234" t="s">
+      <c r="A18" s="230" t="s">
         <v>1146</v>
       </c>
-      <c r="B18" s="232"/>
-      <c r="C18" s="232"/>
-      <c r="D18" s="232"/>
-      <c r="E18" s="230"/>
-      <c r="F18" s="232">
+      <c r="B18" s="234"/>
+      <c r="C18" s="234"/>
+      <c r="D18" s="234"/>
+      <c r="E18" s="236"/>
+      <c r="F18" s="234">
         <v>1537</v>
       </c>
-      <c r="G18" s="232">
+      <c r="G18" s="234">
         <v>1762</v>
       </c>
-      <c r="H18" s="232">
+      <c r="H18" s="234">
         <v>1905</v>
       </c>
-      <c r="I18" s="232">
+      <c r="I18" s="234">
         <v>1879</v>
       </c>
-      <c r="J18" s="230">
+      <c r="J18" s="236">
         <v>1893</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="235"/>
-      <c r="B19" s="233"/>
-      <c r="C19" s="233"/>
-      <c r="D19" s="233"/>
-      <c r="E19" s="231"/>
-      <c r="F19" s="233"/>
-      <c r="G19" s="233"/>
-      <c r="H19" s="233"/>
-      <c r="I19" s="233"/>
-      <c r="J19" s="231"/>
+      <c r="A19" s="231"/>
+      <c r="B19" s="235"/>
+      <c r="C19" s="235"/>
+      <c r="D19" s="235"/>
+      <c r="E19" s="237"/>
+      <c r="F19" s="235"/>
+      <c r="G19" s="235"/>
+      <c r="H19" s="235"/>
+      <c r="I19" s="235"/>
+      <c r="J19" s="237"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="234" t="s">
+      <c r="A20" s="230" t="s">
         <v>1147</v>
       </c>
-      <c r="B20" s="232"/>
-      <c r="C20" s="232"/>
-      <c r="D20" s="232"/>
-      <c r="E20" s="230"/>
-      <c r="F20" s="232"/>
-      <c r="G20" s="232">
+      <c r="B20" s="234"/>
+      <c r="C20" s="234"/>
+      <c r="D20" s="234"/>
+      <c r="E20" s="236"/>
+      <c r="F20" s="234"/>
+      <c r="G20" s="234">
         <v>1412</v>
       </c>
-      <c r="H20" s="232">
+      <c r="H20" s="234">
         <v>1689</v>
       </c>
-      <c r="I20" s="232">
+      <c r="I20" s="234">
         <v>1630</v>
       </c>
-      <c r="J20" s="230">
+      <c r="J20" s="236">
         <v>1640</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="235"/>
-      <c r="B21" s="233"/>
-      <c r="C21" s="233"/>
-      <c r="D21" s="233"/>
-      <c r="E21" s="231"/>
-      <c r="F21" s="233"/>
-      <c r="G21" s="233"/>
-      <c r="H21" s="233"/>
-      <c r="I21" s="233"/>
-      <c r="J21" s="231"/>
+      <c r="A21" s="231"/>
+      <c r="B21" s="235"/>
+      <c r="C21" s="235"/>
+      <c r="D21" s="235"/>
+      <c r="E21" s="237"/>
+      <c r="F21" s="235"/>
+      <c r="G21" s="235"/>
+      <c r="H21" s="235"/>
+      <c r="I21" s="235"/>
+      <c r="J21" s="237"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="234" t="s">
+      <c r="A22" s="230" t="s">
         <v>1148</v>
       </c>
-      <c r="B22" s="232"/>
-      <c r="C22" s="232"/>
-      <c r="D22" s="232"/>
-      <c r="E22" s="230"/>
-      <c r="F22" s="232"/>
-      <c r="G22" s="232"/>
-      <c r="H22" s="232">
+      <c r="B22" s="234"/>
+      <c r="C22" s="234"/>
+      <c r="D22" s="234"/>
+      <c r="E22" s="236"/>
+      <c r="F22" s="234"/>
+      <c r="G22" s="234"/>
+      <c r="H22" s="234">
         <v>1082</v>
       </c>
-      <c r="I22" s="232">
+      <c r="I22" s="234">
         <v>1341</v>
       </c>
-      <c r="J22" s="230">
+      <c r="J22" s="236">
         <v>1325</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="235"/>
-      <c r="B23" s="233"/>
-      <c r="C23" s="233"/>
-      <c r="D23" s="233"/>
-      <c r="E23" s="231"/>
-      <c r="F23" s="233"/>
-      <c r="G23" s="233"/>
-      <c r="H23" s="233"/>
-      <c r="I23" s="233"/>
-      <c r="J23" s="231"/>
+      <c r="A23" s="231"/>
+      <c r="B23" s="235"/>
+      <c r="C23" s="235"/>
+      <c r="D23" s="235"/>
+      <c r="E23" s="237"/>
+      <c r="F23" s="235"/>
+      <c r="G23" s="235"/>
+      <c r="H23" s="235"/>
+      <c r="I23" s="235"/>
+      <c r="J23" s="237"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="234" t="s">
+      <c r="A24" s="230" t="s">
         <v>1149</v>
       </c>
-      <c r="B24" s="232"/>
-      <c r="C24" s="232"/>
-      <c r="D24" s="232"/>
-      <c r="E24" s="230"/>
-      <c r="F24" s="232"/>
-      <c r="G24" s="232"/>
-      <c r="H24" s="232"/>
-      <c r="I24" s="232">
+      <c r="B24" s="234"/>
+      <c r="C24" s="234"/>
+      <c r="D24" s="234"/>
+      <c r="E24" s="236"/>
+      <c r="F24" s="234"/>
+      <c r="G24" s="234"/>
+      <c r="H24" s="234"/>
+      <c r="I24" s="234">
         <v>1003</v>
       </c>
-      <c r="J24" s="230">
+      <c r="J24" s="236">
         <v>1016</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="235"/>
-      <c r="B25" s="233"/>
-      <c r="C25" s="233"/>
-      <c r="D25" s="233"/>
-      <c r="E25" s="231"/>
-      <c r="F25" s="233"/>
-      <c r="G25" s="233"/>
-      <c r="H25" s="233"/>
-      <c r="I25" s="233"/>
-      <c r="J25" s="231"/>
+      <c r="A25" s="231"/>
+      <c r="B25" s="235"/>
+      <c r="C25" s="235"/>
+      <c r="D25" s="235"/>
+      <c r="E25" s="237"/>
+      <c r="F25" s="235"/>
+      <c r="G25" s="235"/>
+      <c r="H25" s="235"/>
+      <c r="I25" s="235"/>
+      <c r="J25" s="237"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="234" t="s">
+      <c r="A26" s="230" t="s">
         <v>1150</v>
       </c>
-      <c r="B26" s="232"/>
-      <c r="C26" s="232"/>
-      <c r="D26" s="232"/>
-      <c r="E26" s="230"/>
-      <c r="F26" s="232"/>
-      <c r="G26" s="232"/>
-      <c r="H26" s="232"/>
-      <c r="I26" s="232"/>
-      <c r="J26" s="230">
+      <c r="B26" s="234"/>
+      <c r="C26" s="234"/>
+      <c r="D26" s="234"/>
+      <c r="E26" s="236"/>
+      <c r="F26" s="234"/>
+      <c r="G26" s="234"/>
+      <c r="H26" s="234"/>
+      <c r="I26" s="234"/>
+      <c r="J26" s="236">
         <v>632</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="235"/>
-      <c r="B27" s="233"/>
-      <c r="C27" s="233"/>
-      <c r="D27" s="233"/>
-      <c r="E27" s="231"/>
-      <c r="F27" s="233"/>
-      <c r="G27" s="233"/>
-      <c r="H27" s="233"/>
-      <c r="I27" s="233"/>
-      <c r="J27" s="231"/>
+      <c r="A27" s="231"/>
+      <c r="B27" s="235"/>
+      <c r="C27" s="235"/>
+      <c r="D27" s="235"/>
+      <c r="E27" s="237"/>
+      <c r="F27" s="235"/>
+      <c r="G27" s="235"/>
+      <c r="H27" s="235"/>
+      <c r="I27" s="235"/>
+      <c r="J27" s="237"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -65592,6 +65592,106 @@
     </row>
   </sheetData>
   <mergeCells count="120">
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
@@ -65612,106 +65712,6 @@
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -65725,7 +65725,7 @@
   <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -65738,11 +65738,11 @@
         <v>208</v>
       </c>
       <c r="B1">
-        <v>3190</v>
+        <v>0</v>
       </c>
       <c r="C1">
         <f>B1</f>
-        <v>3190</v>
+        <v>0</v>
       </c>
       <c r="N1" s="70" t="s">
         <v>209</v>
@@ -65753,10 +65753,10 @@
         <v>210</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>11470</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>11470</v>
       </c>
       <c r="N2" s="70" t="s">
         <v>211</v>
@@ -65767,10 +65767,10 @@
         <v>212</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="D3">
         <v>32580</v>
@@ -65798,10 +65798,10 @@
         <v>216</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>305</v>
       </c>
       <c r="N5" s="70" t="s">
         <v>217</v>
@@ -65812,10 +65812,10 @@
         <v>218</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="N6" s="70" t="s">
         <v>219</v>
@@ -65826,10 +65826,10 @@
         <v>71</v>
       </c>
       <c r="B7" s="72">
-        <v>3.6999999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="C7" s="73">
-        <v>3.6999999999999998E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="N7" s="70" t="s">
         <v>220</v>
@@ -65846,11 +65846,11 @@
       </c>
       <c r="B9" s="75">
         <f>SUM(B1:B6)*(1+B7)</f>
-        <v>3411.7299999999996</v>
+        <v>11965</v>
       </c>
       <c r="C9" s="75">
         <f>SUM(C1:C6)*(1+C7)</f>
-        <v>3308.0299999999997</v>
+        <v>12233.74</v>
       </c>
       <c r="N9" s="70" t="s">
         <v>222</v>
@@ -65862,11 +65862,11 @@
       </c>
       <c r="B10" s="75">
         <f>B9*1.2</f>
-        <v>4094.0759999999991</v>
+        <v>14358</v>
       </c>
       <c r="C10" s="75">
         <f>C9*1.2</f>
-        <v>3969.6359999999995</v>
+        <v>14680.487999999999</v>
       </c>
       <c r="N10" s="70" t="s">
         <v>224</v>
@@ -65898,7 +65898,7 @@
       </c>
       <c r="C14" s="76">
         <f>D3-B3</f>
-        <v>32580</v>
+        <v>32445</v>
       </c>
       <c r="N14" s="70" t="s">
         <v>228</v>
@@ -65911,7 +65911,7 @@
       </c>
       <c r="C15">
         <f>(C3-B3)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="N15" s="70" t="s">
         <v>229</v>
@@ -65920,7 +65920,7 @@
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C16" s="77">
         <f>C15/C14</f>
-        <v>0</v>
+        <v>9.2464170134073042E-4</v>
       </c>
       <c r="N16" s="70" t="s">
         <v>230</v>
@@ -65973,26 +65973,26 @@
       <c r="C1" s="78" t="s">
         <v>233</v>
       </c>
-      <c r="F1" s="253" t="s">
+      <c r="F1" s="238" t="s">
         <v>234</v>
       </c>
-      <c r="G1" s="253"/>
-      <c r="H1" s="253" t="s">
+      <c r="G1" s="238"/>
+      <c r="H1" s="238" t="s">
         <v>235</v>
       </c>
-      <c r="I1" s="253"/>
-      <c r="J1" s="253" t="s">
+      <c r="I1" s="238"/>
+      <c r="J1" s="238" t="s">
         <v>236</v>
       </c>
-      <c r="K1" s="253"/>
-      <c r="L1" s="253" t="s">
+      <c r="K1" s="238"/>
+      <c r="L1" s="238" t="s">
         <v>237</v>
       </c>
-      <c r="M1" s="253"/>
-      <c r="N1" s="253" t="s">
+      <c r="M1" s="238"/>
+      <c r="N1" s="238" t="s">
         <v>238</v>
       </c>
-      <c r="O1" s="253"/>
+      <c r="O1" s="238"/>
     </row>
     <row r="2" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F2" s="79" t="s">
@@ -66001,18 +66001,18 @@
       <c r="G2" s="79" t="s">
         <v>240</v>
       </c>
-      <c r="H2" s="254"/>
-      <c r="I2" s="255"/>
-      <c r="J2" s="254"/>
-      <c r="K2" s="255"/>
+      <c r="H2" s="239"/>
+      <c r="I2" s="240"/>
+      <c r="J2" s="239"/>
+      <c r="K2" s="240"/>
       <c r="L2" s="79" t="s">
         <v>239</v>
       </c>
       <c r="M2" s="79" t="s">
         <v>240</v>
       </c>
-      <c r="N2" s="254"/>
-      <c r="O2" s="255"/>
+      <c r="N2" s="239"/>
+      <c r="O2" s="240"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -66024,14 +66024,14 @@
       <c r="E3" s="80" t="s">
         <v>243</v>
       </c>
-      <c r="F3" s="247">
+      <c r="F3" s="242">
         <v>0.64709000000000005</v>
       </c>
-      <c r="G3" s="247"/>
-      <c r="H3" s="247">
+      <c r="G3" s="242"/>
+      <c r="H3" s="242">
         <v>0.97192999999999996</v>
       </c>
-      <c r="I3" s="247"/>
+      <c r="I3" s="242"/>
       <c r="J3" s="81"/>
       <c r="K3" s="81"/>
       <c r="L3" s="81"/>
@@ -66054,14 +66054,14 @@
       <c r="E4" s="84" t="s">
         <v>246</v>
       </c>
-      <c r="F4" s="252">
+      <c r="F4" s="241">
         <v>0.26545000000000002</v>
       </c>
-      <c r="G4" s="252"/>
-      <c r="H4" s="252">
+      <c r="G4" s="241"/>
+      <c r="H4" s="241">
         <v>0.39895999999999998</v>
       </c>
-      <c r="I4" s="252"/>
+      <c r="I4" s="241"/>
       <c r="J4" s="85"/>
       <c r="K4" s="85"/>
       <c r="L4" s="85"/>
@@ -66087,10 +66087,10 @@
       <c r="G5" s="81">
         <v>0.25008999999999998</v>
       </c>
-      <c r="H5" s="247">
+      <c r="H5" s="242">
         <v>1</v>
       </c>
-      <c r="I5" s="247"/>
+      <c r="I5" s="242"/>
       <c r="J5" s="81"/>
       <c r="K5" s="81"/>
       <c r="L5" s="81"/>
@@ -66111,10 +66111,10 @@
       <c r="G6" s="85"/>
       <c r="H6" s="85"/>
       <c r="I6" s="85"/>
-      <c r="J6" s="252">
+      <c r="J6" s="241">
         <v>0.27488000000000001</v>
       </c>
-      <c r="K6" s="252"/>
+      <c r="K6" s="241"/>
       <c r="L6" s="85"/>
       <c r="M6" s="85"/>
       <c r="N6" s="85"/>
@@ -66138,10 +66138,10 @@
       <c r="G7" s="81">
         <v>0.17752000000000001</v>
       </c>
-      <c r="H7" s="247">
+      <c r="H7" s="242">
         <v>0.72296000000000005</v>
       </c>
-      <c r="I7" s="247"/>
+      <c r="I7" s="242"/>
       <c r="J7" s="81"/>
       <c r="K7" s="81"/>
       <c r="L7" s="81"/>
@@ -66164,10 +66164,10 @@
       <c r="G8" s="85"/>
       <c r="H8" s="85"/>
       <c r="I8" s="85"/>
-      <c r="J8" s="252">
+      <c r="J8" s="241">
         <v>0.36337000000000003</v>
       </c>
-      <c r="K8" s="252"/>
+      <c r="K8" s="241"/>
       <c r="L8" s="85"/>
       <c r="M8" s="85"/>
       <c r="N8" s="85"/>
@@ -66185,10 +66185,10 @@
         <v>0.65615999999999997</v>
       </c>
       <c r="G9" s="81"/>
-      <c r="H9" s="247">
+      <c r="H9" s="242">
         <v>0.78437000000000001</v>
       </c>
-      <c r="I9" s="247"/>
+      <c r="I9" s="242"/>
       <c r="J9" s="81"/>
       <c r="K9" s="81"/>
       <c r="L9" s="81"/>
@@ -66214,10 +66214,10 @@
       <c r="G10" s="88"/>
       <c r="H10" s="88"/>
       <c r="I10" s="88"/>
-      <c r="J10" s="251">
+      <c r="J10" s="243">
         <v>0.1464</v>
       </c>
-      <c r="K10" s="251"/>
+      <c r="K10" s="243"/>
       <c r="L10" s="88"/>
       <c r="M10" s="88"/>
       <c r="N10" s="88"/>
@@ -66252,14 +66252,14 @@
       <c r="E12" s="80" t="s">
         <v>260</v>
       </c>
-      <c r="F12" s="247">
+      <c r="F12" s="242">
         <v>0.42514999999999997</v>
       </c>
-      <c r="G12" s="247"/>
-      <c r="H12" s="247">
+      <c r="G12" s="242"/>
+      <c r="H12" s="242">
         <v>0.85</v>
       </c>
-      <c r="I12" s="247"/>
+      <c r="I12" s="242"/>
       <c r="J12" s="81"/>
       <c r="K12" s="81"/>
       <c r="L12" s="81"/>
@@ -66285,10 +66285,10 @@
       <c r="G13" s="85"/>
       <c r="H13" s="85"/>
       <c r="I13" s="85"/>
-      <c r="J13" s="252">
+      <c r="J13" s="241">
         <v>0.23365</v>
       </c>
-      <c r="K13" s="252"/>
+      <c r="K13" s="241"/>
       <c r="L13" s="85"/>
       <c r="M13" s="85"/>
       <c r="N13" s="85"/>
@@ -66306,10 +66306,10 @@
         <v>1</v>
       </c>
       <c r="G14" s="92"/>
-      <c r="H14" s="247">
+      <c r="H14" s="242">
         <v>0.51382000000000005</v>
       </c>
-      <c r="I14" s="247"/>
+      <c r="I14" s="242"/>
       <c r="J14" s="81"/>
       <c r="K14" s="81"/>
       <c r="L14" s="81"/>
@@ -66336,10 +66336,10 @@
       <c r="G15" s="88"/>
       <c r="H15" s="88"/>
       <c r="I15" s="88"/>
-      <c r="J15" s="251">
+      <c r="J15" s="243">
         <v>4.3869999999999999E-2</v>
       </c>
-      <c r="K15" s="251"/>
+      <c r="K15" s="243"/>
       <c r="L15" s="88"/>
       <c r="M15" s="88"/>
       <c r="N15" s="88"/>
@@ -66386,10 +66386,10 @@
         <v>0.91232999999999997</v>
       </c>
       <c r="G17" s="92"/>
-      <c r="H17" s="247">
+      <c r="H17" s="242">
         <v>0.46146999999999999</v>
       </c>
-      <c r="I17" s="247"/>
+      <c r="I17" s="242"/>
       <c r="J17" s="81"/>
       <c r="K17" s="81"/>
       <c r="L17" s="81"/>
@@ -66415,10 +66415,10 @@
       <c r="G18" s="88"/>
       <c r="H18" s="88"/>
       <c r="I18" s="88"/>
-      <c r="J18" s="251">
+      <c r="J18" s="243">
         <v>0.15035999999999999</v>
       </c>
-      <c r="K18" s="251"/>
+      <c r="K18" s="243"/>
       <c r="L18" s="88"/>
       <c r="M18" s="88"/>
       <c r="N18" s="88"/>
@@ -66460,10 +66460,10 @@
         <v>0.69059999999999999</v>
       </c>
       <c r="G20" s="92"/>
-      <c r="H20" s="247">
+      <c r="H20" s="242">
         <v>0.38878000000000001</v>
       </c>
-      <c r="I20" s="247"/>
+      <c r="I20" s="242"/>
       <c r="J20" s="81"/>
       <c r="K20" s="81"/>
       <c r="L20" s="81"/>
@@ -66489,10 +66489,10 @@
       <c r="G21" s="88"/>
       <c r="H21" s="88"/>
       <c r="I21" s="88"/>
-      <c r="J21" s="251">
+      <c r="J21" s="243">
         <v>0.2099</v>
       </c>
-      <c r="K21" s="251"/>
+      <c r="K21" s="243"/>
       <c r="L21" s="88"/>
       <c r="M21" s="88"/>
       <c r="N21" s="88"/>
@@ -66534,10 +66534,10 @@
         <v>0.68315000000000003</v>
       </c>
       <c r="G23" s="92"/>
-      <c r="H23" s="247">
+      <c r="H23" s="242">
         <v>0.70006000000000002</v>
       </c>
-      <c r="I23" s="247"/>
+      <c r="I23" s="242"/>
       <c r="J23" s="81"/>
       <c r="K23" s="81"/>
       <c r="L23" s="81"/>
@@ -66563,10 +66563,10 @@
       <c r="G24" s="88"/>
       <c r="H24" s="88"/>
       <c r="I24" s="88"/>
-      <c r="J24" s="251">
+      <c r="J24" s="243">
         <v>0.152</v>
       </c>
-      <c r="K24" s="251"/>
+      <c r="K24" s="243"/>
       <c r="L24" s="88"/>
       <c r="M24" s="88"/>
       <c r="N24" s="88"/>
@@ -66610,16 +66610,16 @@
       <c r="G26" s="81">
         <v>9.2719999999999997E-2</v>
       </c>
-      <c r="H26" s="247">
+      <c r="H26" s="242">
         <v>0.42459999999999998</v>
       </c>
-      <c r="I26" s="247"/>
+      <c r="I26" s="242"/>
       <c r="J26" s="81"/>
       <c r="K26" s="81"/>
       <c r="L26" s="81"/>
       <c r="M26" s="81"/>
-      <c r="N26" s="240"/>
-      <c r="O26" s="242"/>
+      <c r="N26" s="246"/>
+      <c r="O26" s="247"/>
       <c r="P26" s="83">
         <f>F26+G26+H26+J27+L28+M28+N28</f>
         <v>2.4103300000000001</v>
@@ -66639,14 +66639,14 @@
       <c r="G27" s="88"/>
       <c r="H27" s="88"/>
       <c r="I27" s="88"/>
-      <c r="J27" s="251">
+      <c r="J27" s="243">
         <v>1</v>
       </c>
-      <c r="K27" s="251"/>
+      <c r="K27" s="243"/>
       <c r="L27" s="88"/>
       <c r="M27" s="88"/>
-      <c r="N27" s="243"/>
-      <c r="O27" s="244"/>
+      <c r="N27" s="244"/>
+      <c r="O27" s="245"/>
       <c r="P27" s="83"/>
     </row>
     <row r="28" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -66671,10 +66671,10 @@
       <c r="M28" s="85">
         <v>0.1226</v>
       </c>
-      <c r="N28" s="245">
+      <c r="N28" s="248">
         <v>0.34044000000000002</v>
       </c>
-      <c r="O28" s="246"/>
+      <c r="O28" s="249"/>
       <c r="P28" s="83"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
@@ -66690,16 +66690,16 @@
       <c r="G29" s="81">
         <v>0.13719000000000001</v>
       </c>
-      <c r="H29" s="247">
+      <c r="H29" s="242">
         <v>0.62792999999999999</v>
       </c>
-      <c r="I29" s="247"/>
+      <c r="I29" s="242"/>
       <c r="J29" s="81"/>
       <c r="K29" s="81"/>
       <c r="L29" s="81"/>
       <c r="M29" s="81"/>
-      <c r="N29" s="240"/>
-      <c r="O29" s="242"/>
+      <c r="N29" s="246"/>
+      <c r="O29" s="247"/>
       <c r="P29" s="83">
         <f>F29+G29+H29+L30+M30+N30+J33</f>
         <v>2.4474499999999999</v>
@@ -66727,10 +66727,10 @@
       <c r="M30" s="85">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="N30" s="245">
+      <c r="N30" s="248">
         <v>0.23748</v>
       </c>
-      <c r="O30" s="246"/>
+      <c r="O30" s="249"/>
       <c r="P30" s="83"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
@@ -66746,16 +66746,16 @@
       <c r="G31" s="81">
         <v>5.6059999999999999E-2</v>
       </c>
-      <c r="H31" s="247">
+      <c r="H31" s="242">
         <v>0.23462</v>
       </c>
-      <c r="I31" s="247"/>
+      <c r="I31" s="242"/>
       <c r="J31" s="81"/>
       <c r="K31" s="81"/>
       <c r="L31" s="81"/>
       <c r="M31" s="81"/>
-      <c r="N31" s="240"/>
-      <c r="O31" s="242"/>
+      <c r="N31" s="246"/>
+      <c r="O31" s="247"/>
       <c r="P31" s="83">
         <f>F31+G31+H31+L32+M32+N32+J33</f>
         <v>2.2090299999999998</v>
@@ -66780,10 +66780,10 @@
       <c r="M32" s="85">
         <v>0.11894</v>
       </c>
-      <c r="N32" s="245">
+      <c r="N32" s="248">
         <v>0.50244</v>
       </c>
-      <c r="O32" s="246"/>
+      <c r="O32" s="249"/>
       <c r="P32" s="83"/>
     </row>
     <row r="33" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -66797,34 +66797,34 @@
       <c r="G33" s="94"/>
       <c r="H33" s="94"/>
       <c r="I33" s="94"/>
-      <c r="J33" s="248">
+      <c r="J33" s="250">
         <v>0.94696999999999998</v>
       </c>
-      <c r="K33" s="248"/>
+      <c r="K33" s="250"/>
       <c r="L33" s="94"/>
       <c r="M33" s="94"/>
-      <c r="N33" s="249"/>
-      <c r="O33" s="250"/>
+      <c r="N33" s="251"/>
+      <c r="O33" s="252"/>
       <c r="P33" s="83"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E34" s="80" t="s">
         <v>310</v>
       </c>
-      <c r="F34" s="247">
+      <c r="F34" s="242">
         <v>0.15762999999999999</v>
       </c>
-      <c r="G34" s="247"/>
-      <c r="H34" s="247">
+      <c r="G34" s="242"/>
+      <c r="H34" s="242">
         <v>0.36070000000000002</v>
       </c>
-      <c r="I34" s="247"/>
+      <c r="I34" s="242"/>
       <c r="J34" s="81"/>
       <c r="K34" s="81"/>
       <c r="L34" s="81"/>
       <c r="M34" s="81"/>
-      <c r="N34" s="240"/>
-      <c r="O34" s="242"/>
+      <c r="N34" s="246"/>
+      <c r="O34" s="247"/>
       <c r="P34" s="83">
         <f>F34+H34+J35+L36+N36</f>
         <v>1.8655399999999998</v>
@@ -66838,14 +66838,14 @@
       <c r="G35" s="88"/>
       <c r="H35" s="88"/>
       <c r="I35" s="88"/>
-      <c r="J35" s="251">
+      <c r="J35" s="243">
         <v>0.85</v>
       </c>
-      <c r="K35" s="251"/>
+      <c r="K35" s="243"/>
       <c r="L35" s="88"/>
       <c r="M35" s="88"/>
-      <c r="N35" s="243"/>
-      <c r="O35" s="244"/>
+      <c r="N35" s="244"/>
+      <c r="O35" s="245"/>
       <c r="P35" s="83"/>
     </row>
     <row r="36" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -66865,10 +66865,10 @@
         <v>0.20784</v>
       </c>
       <c r="M36" s="85"/>
-      <c r="N36" s="245">
+      <c r="N36" s="248">
         <v>0.28937000000000002</v>
       </c>
-      <c r="O36" s="246"/>
+      <c r="O36" s="249"/>
       <c r="P36" s="83"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
@@ -66878,20 +66878,20 @@
       <c r="E37" s="80" t="s">
         <v>315</v>
       </c>
-      <c r="F37" s="247">
+      <c r="F37" s="242">
         <v>0.20368</v>
       </c>
-      <c r="G37" s="247"/>
-      <c r="H37" s="247">
+      <c r="G37" s="242"/>
+      <c r="H37" s="242">
         <v>0.33767000000000003</v>
       </c>
-      <c r="I37" s="247"/>
+      <c r="I37" s="242"/>
       <c r="J37" s="81"/>
       <c r="K37" s="81"/>
       <c r="L37" s="81"/>
       <c r="M37" s="81"/>
-      <c r="N37" s="240"/>
-      <c r="O37" s="242"/>
+      <c r="N37" s="246"/>
+      <c r="O37" s="247"/>
       <c r="P37" s="83">
         <f>F37+H37+J38+L39+L40+N40</f>
         <v>2.5172699999999999</v>
@@ -66908,14 +66908,14 @@
       <c r="G38" s="88"/>
       <c r="H38" s="88"/>
       <c r="I38" s="88"/>
-      <c r="J38" s="251">
+      <c r="J38" s="243">
         <v>0.89815999999999996</v>
       </c>
-      <c r="K38" s="251"/>
+      <c r="K38" s="243"/>
       <c r="L38" s="88"/>
       <c r="M38" s="88"/>
-      <c r="N38" s="243"/>
-      <c r="O38" s="244"/>
+      <c r="N38" s="244"/>
+      <c r="O38" s="245"/>
       <c r="P38" s="83"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
@@ -66935,8 +66935,8 @@
         <v>0.57364000000000004</v>
       </c>
       <c r="M39" s="88"/>
-      <c r="N39" s="243"/>
-      <c r="O39" s="244"/>
+      <c r="N39" s="244"/>
+      <c r="O39" s="245"/>
       <c r="P39" s="83"/>
     </row>
     <row r="40" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -66956,10 +66956,10 @@
         <v>0.26422000000000001</v>
       </c>
       <c r="M40" s="85"/>
-      <c r="N40" s="245">
+      <c r="N40" s="248">
         <v>0.2399</v>
       </c>
-      <c r="O40" s="246"/>
+      <c r="O40" s="249"/>
       <c r="P40" s="83"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
@@ -66970,16 +66970,16 @@
         <v>0.34708</v>
       </c>
       <c r="G41" s="92"/>
-      <c r="H41" s="247">
+      <c r="H41" s="242">
         <v>0.20830000000000001</v>
       </c>
-      <c r="I41" s="247"/>
+      <c r="I41" s="242"/>
       <c r="J41" s="81"/>
       <c r="K41" s="81"/>
       <c r="L41" s="81"/>
       <c r="M41" s="81"/>
-      <c r="N41" s="240"/>
-      <c r="O41" s="242"/>
+      <c r="N41" s="246"/>
+      <c r="O41" s="247"/>
       <c r="P41" s="83">
         <f>F41+H41+J42+L43+L44+N44</f>
         <v>2.29189</v>
@@ -66993,14 +66993,14 @@
       <c r="G42" s="88"/>
       <c r="H42" s="88"/>
       <c r="I42" s="88"/>
-      <c r="J42" s="251">
+      <c r="J42" s="243">
         <v>0.52559999999999996</v>
       </c>
-      <c r="K42" s="251"/>
+      <c r="K42" s="243"/>
       <c r="L42" s="88"/>
       <c r="M42" s="88"/>
-      <c r="N42" s="243"/>
-      <c r="O42" s="244"/>
+      <c r="N42" s="244"/>
+      <c r="O42" s="245"/>
       <c r="P42" s="83"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
@@ -67018,8 +67018,8 @@
         <v>0.84328000000000003</v>
       </c>
       <c r="M43" s="88"/>
-      <c r="N43" s="243"/>
-      <c r="O43" s="244"/>
+      <c r="N43" s="244"/>
+      <c r="O43" s="245"/>
       <c r="P43" s="83"/>
     </row>
     <row r="44" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -67039,10 +67039,10 @@
         <v>0.23543</v>
       </c>
       <c r="M44" s="85"/>
-      <c r="N44" s="245">
+      <c r="N44" s="248">
         <v>0.13220000000000001</v>
       </c>
-      <c r="O44" s="246"/>
+      <c r="O44" s="249"/>
       <c r="P44" s="83"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
@@ -67056,16 +67056,16 @@
         <v>0.47361999999999999</v>
       </c>
       <c r="G45" s="92"/>
-      <c r="H45" s="247">
+      <c r="H45" s="242">
         <v>0.28101999999999999</v>
       </c>
-      <c r="I45" s="247"/>
+      <c r="I45" s="242"/>
       <c r="J45" s="81"/>
       <c r="K45" s="81"/>
       <c r="L45" s="81"/>
       <c r="M45" s="81"/>
-      <c r="N45" s="240"/>
-      <c r="O45" s="242"/>
+      <c r="N45" s="246"/>
+      <c r="O45" s="247"/>
       <c r="P45" s="83">
         <f>F45+H45+L46+L47+N47+J51</f>
         <v>2.2079800000000001</v>
@@ -67085,8 +67085,8 @@
         <v>0.71950000000000003</v>
       </c>
       <c r="M46" s="88"/>
-      <c r="N46" s="243"/>
-      <c r="O46" s="244"/>
+      <c r="N46" s="244"/>
+      <c r="O46" s="245"/>
       <c r="P46" s="83"/>
     </row>
     <row r="47" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -67106,10 +67106,10 @@
         <v>0.20451</v>
       </c>
       <c r="M47" s="85"/>
-      <c r="N47" s="245">
+      <c r="N47" s="248">
         <v>9.1600000000000001E-2</v>
       </c>
-      <c r="O47" s="246"/>
+      <c r="O47" s="249"/>
       <c r="P47" s="83"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
@@ -67123,16 +67123,16 @@
         <v>0.17321</v>
       </c>
       <c r="G48" s="92"/>
-      <c r="H48" s="247">
+      <c r="H48" s="242">
         <v>9.2929999999999999E-2</v>
       </c>
-      <c r="I48" s="247"/>
+      <c r="I48" s="242"/>
       <c r="J48" s="81"/>
       <c r="K48" s="81"/>
       <c r="L48" s="81"/>
       <c r="M48" s="81"/>
-      <c r="N48" s="240"/>
-      <c r="O48" s="242"/>
+      <c r="N48" s="246"/>
+      <c r="O48" s="247"/>
       <c r="P48" s="83">
         <f>F48+H48+L49+L50+N50+J51</f>
         <v>2.12704</v>
@@ -67155,8 +67155,8 @@
         <v>1</v>
       </c>
       <c r="M49" s="88"/>
-      <c r="N49" s="243"/>
-      <c r="O49" s="244"/>
+      <c r="N49" s="244"/>
+      <c r="O49" s="245"/>
       <c r="P49" s="83"/>
     </row>
     <row r="50" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -67179,10 +67179,10 @@
         <v>0.26967000000000002</v>
       </c>
       <c r="M50" s="85"/>
-      <c r="N50" s="245">
+      <c r="N50" s="248">
         <v>0.1535</v>
       </c>
-      <c r="O50" s="246"/>
+      <c r="O50" s="249"/>
       <c r="P50" s="83"/>
     </row>
     <row r="51" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -67196,14 +67196,14 @@
       <c r="G51" s="94"/>
       <c r="H51" s="94"/>
       <c r="I51" s="94"/>
-      <c r="J51" s="248">
+      <c r="J51" s="250">
         <v>0.43773000000000001</v>
       </c>
-      <c r="K51" s="248"/>
+      <c r="K51" s="250"/>
       <c r="L51" s="94"/>
       <c r="M51" s="94"/>
-      <c r="N51" s="249"/>
-      <c r="O51" s="250"/>
+      <c r="N51" s="251"/>
+      <c r="O51" s="252"/>
       <c r="P51" s="83"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
@@ -67220,16 +67220,16 @@
         <v>0.28996</v>
       </c>
       <c r="G52" s="92"/>
-      <c r="H52" s="247">
+      <c r="H52" s="242">
         <v>0.25344</v>
       </c>
-      <c r="I52" s="247"/>
+      <c r="I52" s="242"/>
       <c r="J52" s="81"/>
       <c r="K52" s="81"/>
       <c r="L52" s="81"/>
       <c r="M52" s="81"/>
-      <c r="N52" s="240"/>
-      <c r="O52" s="242"/>
+      <c r="N52" s="246"/>
+      <c r="O52" s="247"/>
       <c r="P52" s="83">
         <f>F52+H52+J53+L54+L55+N55</f>
         <v>2.0821799999999997</v>
@@ -67249,14 +67249,14 @@
       <c r="G53" s="88"/>
       <c r="H53" s="88"/>
       <c r="I53" s="88"/>
-      <c r="J53" s="251">
+      <c r="J53" s="243">
         <v>0.65949000000000002</v>
       </c>
-      <c r="K53" s="251"/>
+      <c r="K53" s="243"/>
       <c r="L53" s="88"/>
       <c r="M53" s="88"/>
-      <c r="N53" s="243"/>
-      <c r="O53" s="244"/>
+      <c r="N53" s="244"/>
+      <c r="O53" s="245"/>
       <c r="P53" s="83"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
@@ -67279,8 +67279,8 @@
         <v>0.56411</v>
       </c>
       <c r="M54" s="88"/>
-      <c r="N54" s="243"/>
-      <c r="O54" s="244"/>
+      <c r="N54" s="244"/>
+      <c r="O54" s="245"/>
       <c r="P54" s="83"/>
     </row>
     <row r="55" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -67303,10 +67303,10 @@
         <v>0.14326</v>
       </c>
       <c r="M55" s="85"/>
-      <c r="N55" s="245">
+      <c r="N55" s="248">
         <v>0.17191999999999999</v>
       </c>
-      <c r="O55" s="246"/>
+      <c r="O55" s="249"/>
       <c r="P55" s="83"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
@@ -67329,8 +67329,8 @@
         <v>0.19162000000000001</v>
       </c>
       <c r="M56" s="81"/>
-      <c r="N56" s="240"/>
-      <c r="O56" s="242"/>
+      <c r="N56" s="246"/>
+      <c r="O56" s="247"/>
       <c r="P56" s="83">
         <f>L56+L57+L58+L59+N58+N59</f>
         <v>2.1837599999999999</v>
@@ -67353,8 +67353,8 @@
         <v>0.49523</v>
       </c>
       <c r="M57" s="88"/>
-      <c r="N57" s="243"/>
-      <c r="O57" s="244"/>
+      <c r="N57" s="244"/>
+      <c r="O57" s="245"/>
       <c r="P57" s="83"/>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
@@ -67374,10 +67374,10 @@
         <v>0.47439999999999999</v>
       </c>
       <c r="M58" s="88"/>
-      <c r="N58" s="243">
+      <c r="N58" s="244">
         <v>0.60697000000000001</v>
       </c>
-      <c r="O58" s="244"/>
+      <c r="O58" s="245"/>
       <c r="P58" s="83"/>
     </row>
     <row r="59" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -67397,10 +67397,10 @@
         <v>0.16774</v>
       </c>
       <c r="M59" s="85"/>
-      <c r="N59" s="245">
+      <c r="N59" s="248">
         <v>0.24779999999999999</v>
       </c>
-      <c r="O59" s="246"/>
+      <c r="O59" s="249"/>
       <c r="P59" s="83"/>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
@@ -67414,14 +67414,14 @@
       <c r="G60" s="81"/>
       <c r="H60" s="81"/>
       <c r="I60" s="81"/>
-      <c r="J60" s="240">
+      <c r="J60" s="246">
         <v>0.45617999999999997</v>
       </c>
-      <c r="K60" s="241"/>
+      <c r="K60" s="255"/>
       <c r="L60" s="81"/>
       <c r="M60" s="81"/>
-      <c r="N60" s="240"/>
-      <c r="O60" s="242"/>
+      <c r="N60" s="246"/>
+      <c r="O60" s="247"/>
       <c r="P60" s="83">
         <f>J60+L62+N62+L63+L64+N64</f>
         <v>2.0612399999999997</v>
@@ -67444,10 +67444,10 @@
         <v>0.28649999999999998</v>
       </c>
       <c r="M61" s="88"/>
-      <c r="N61" s="243">
+      <c r="N61" s="244">
         <v>0.80176999999999998</v>
       </c>
-      <c r="O61" s="244"/>
+      <c r="O61" s="245"/>
       <c r="P61" s="83">
         <f>J60+L61+N61+L63+L64+N64</f>
         <v>2.4324300000000001</v>
@@ -67473,10 +67473,10 @@
         <v>0.20932000000000001</v>
       </c>
       <c r="M62" s="88"/>
-      <c r="N62" s="243">
+      <c r="N62" s="244">
         <v>0.50775999999999999</v>
       </c>
-      <c r="O62" s="244"/>
+      <c r="O62" s="245"/>
       <c r="P62" s="83"/>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
@@ -67496,8 +67496,8 @@
         <v>0.14599000000000001</v>
       </c>
       <c r="M63" s="88"/>
-      <c r="N63" s="243"/>
-      <c r="O63" s="244"/>
+      <c r="N63" s="244"/>
+      <c r="O63" s="245"/>
       <c r="P63" s="83"/>
     </row>
     <row r="64" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -67517,10 +67517,10 @@
         <v>0.12414</v>
       </c>
       <c r="M64" s="85"/>
-      <c r="N64" s="245">
+      <c r="N64" s="248">
         <v>0.61785000000000001</v>
       </c>
-      <c r="O64" s="246"/>
+      <c r="O64" s="249"/>
       <c r="P64" s="83"/>
     </row>
     <row r="65" spans="3:17" x14ac:dyDescent="0.25">
@@ -67540,10 +67540,10 @@
         <v>0.23763000000000001</v>
       </c>
       <c r="M65" s="81"/>
-      <c r="N65" s="240">
+      <c r="N65" s="246">
         <v>1</v>
       </c>
-      <c r="O65" s="242"/>
+      <c r="O65" s="247"/>
       <c r="P65" s="83">
         <f>L65+N65+L66+L67+N67</f>
         <v>1.8703959999999999</v>
@@ -67567,8 +67567,8 @@
         <v>0.17316000000000001</v>
       </c>
       <c r="M66" s="88"/>
-      <c r="N66" s="243"/>
-      <c r="O66" s="244"/>
+      <c r="N66" s="244"/>
+      <c r="O66" s="245"/>
       <c r="P66" s="83"/>
       <c r="Q66" s="83"/>
     </row>
@@ -67589,10 +67589,10 @@
         <v>0.12317</v>
       </c>
       <c r="M67" s="85"/>
-      <c r="N67" s="245">
+      <c r="N67" s="248">
         <v>0.33643600000000001</v>
       </c>
-      <c r="O67" s="246"/>
+      <c r="O67" s="249"/>
       <c r="P67" s="83"/>
       <c r="Q67" s="83"/>
     </row>
@@ -67613,10 +67613,10 @@
         <v>0.20199</v>
       </c>
       <c r="M68" s="81"/>
-      <c r="N68" s="240">
+      <c r="N68" s="246">
         <v>0.85</v>
       </c>
-      <c r="O68" s="242"/>
+      <c r="O68" s="247"/>
       <c r="P68" s="83">
         <f>L68+N68+L69+L70+N70</f>
         <v>1.6197900000000001</v>
@@ -67639,8 +67639,8 @@
         <v>0.17718999999999999</v>
       </c>
       <c r="M69" s="88"/>
-      <c r="N69" s="243"/>
-      <c r="O69" s="244"/>
+      <c r="N69" s="244"/>
+      <c r="O69" s="245"/>
       <c r="P69" s="83"/>
     </row>
     <row r="70" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -67660,79 +67660,26 @@
         <v>0.1047</v>
       </c>
       <c r="M70" s="100"/>
-      <c r="N70" s="238">
+      <c r="N70" s="253">
         <v>0.28591</v>
       </c>
-      <c r="O70" s="239"/>
+      <c r="O70" s="254"/>
       <c r="P70" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="N69:O69"/>
     <mergeCell ref="H48:I48"/>
     <mergeCell ref="N48:O48"/>
     <mergeCell ref="N49:O49"/>
@@ -67749,18 +67696,71 @@
     <mergeCell ref="N57:O57"/>
     <mergeCell ref="N58:O58"/>
     <mergeCell ref="N50:O50"/>
-    <mergeCell ref="N70:O70"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="N60:O60"/>
-    <mergeCell ref="N61:O61"/>
-    <mergeCell ref="N62:O62"/>
-    <mergeCell ref="N63:O63"/>
-    <mergeCell ref="N64:O64"/>
-    <mergeCell ref="N65:O65"/>
-    <mergeCell ref="N66:O66"/>
-    <mergeCell ref="N67:O67"/>
-    <mergeCell ref="N68:O68"/>
-    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="J6:K6"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:O70">
     <cfRule type="cellIs" dxfId="25" priority="1" operator="between">

--- a/projects/current/hattrick/z_Biblioteca.xlsx
+++ b/projects/current/hattrick/z_Biblioteca.xlsx
@@ -3,19 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{439E6378-C850-4DDB-B8E3-5FC46E7A9F00}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31E9C86-5DD4-4C55-B4DD-C8BCD07ADAE9}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resistencia" sheetId="1" r:id="rId1"/>
     <sheet name="TablasEntreno" sheetId="2" r:id="rId2"/>
-    <sheet name="EntrenamientoManual" sheetId="3" r:id="rId3"/>
-    <sheet name="Entrenador" sheetId="4" r:id="rId4"/>
-    <sheet name="Tarjetas" sheetId="15" r:id="rId5"/>
-    <sheet name="BajarEntrenamiento" sheetId="16" r:id="rId6"/>
-    <sheet name="Aficionados" sheetId="17" r:id="rId7"/>
-    <sheet name="Sueldos" sheetId="5" r:id="rId8"/>
+    <sheet name="Sueldos" sheetId="5" r:id="rId3"/>
+    <sheet name="EntrenamientoManual" sheetId="3" r:id="rId4"/>
+    <sheet name="Entrenador" sheetId="4" r:id="rId5"/>
+    <sheet name="Tarjetas" sheetId="15" r:id="rId6"/>
+    <sheet name="BajarEntrenamiento" sheetId="16" r:id="rId7"/>
+    <sheet name="Aficionados" sheetId="17" r:id="rId8"/>
     <sheet name="Calificaciones_POS&lt;T60" sheetId="6" r:id="rId9"/>
     <sheet name="Calificaciones_POS&gt;T60" sheetId="7" r:id="rId10"/>
     <sheet name="Posesion" sheetId="8" r:id="rId11"/>
@@ -12059,6 +12059,18 @@
     <xf numFmtId="0" fontId="14" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -12071,34 +12083,19 @@
     <xf numFmtId="0" fontId="4" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -12107,16 +12104,13 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -12128,22 +12122,28 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="26" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="26" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -12724,6 +12724,57 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>336476</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>143381</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="http://www.escuelaercantohattrick.com/images/stories/tablassalariales.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F07B0355-74E9-45E0-B261-93AE43CCECA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3181350" y="0"/>
+          <a:ext cx="5670476" cy="11192381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
@@ -12842,57 +12893,6 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>336476</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>143381</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="http://www.escuelaercantohattrick.com/images/stories/tablassalariales.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F07B0355-74E9-45E0-B261-93AE43CCECA3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3181350" y="0"/>
-          <a:ext cx="5670476" cy="11192381"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -14678,7 +14678,7 @@
   </sheetPr>
   <dimension ref="A1:AS127"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -22370,8 +22370,8 @@
   </sheetPr>
   <dimension ref="A1:AR95"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Y6" sqref="Y6"/>
+    <sheetView topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2:U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22388,97 +22388,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="256">
+      <c r="A1" s="257">
         <v>0.34</v>
       </c>
-      <c r="B1" s="257"/>
-      <c r="C1" s="256">
+      <c r="B1" s="258"/>
+      <c r="C1" s="257">
         <v>0.245</v>
       </c>
-      <c r="D1" s="257"/>
-      <c r="E1" s="256">
+      <c r="D1" s="258"/>
+      <c r="E1" s="257">
         <v>0.125</v>
       </c>
-      <c r="F1" s="257"/>
-      <c r="G1" s="256">
+      <c r="F1" s="258"/>
+      <c r="G1" s="257">
         <v>0.29099999999999998</v>
       </c>
-      <c r="H1" s="257"/>
-      <c r="I1" s="256">
+      <c r="H1" s="258"/>
+      <c r="I1" s="257">
         <v>0.19</v>
       </c>
-      <c r="J1" s="257"/>
-      <c r="L1" s="256">
+      <c r="J1" s="258"/>
+      <c r="L1" s="257">
         <v>0.34</v>
       </c>
-      <c r="M1" s="257"/>
-      <c r="N1" s="256">
+      <c r="M1" s="258"/>
+      <c r="N1" s="257">
         <v>0.245</v>
       </c>
-      <c r="O1" s="257"/>
-      <c r="P1" s="256">
+      <c r="O1" s="258"/>
+      <c r="P1" s="257">
         <v>0.125</v>
       </c>
-      <c r="Q1" s="257"/>
-      <c r="R1" s="256">
+      <c r="Q1" s="258"/>
+      <c r="R1" s="257">
         <f>0.291*86/100</f>
         <v>0.25025999999999998</v>
       </c>
-      <c r="S1" s="257"/>
-      <c r="T1" s="256">
+      <c r="S1" s="258"/>
+      <c r="T1" s="257">
         <v>0.19</v>
       </c>
-      <c r="U1" s="257"/>
-      <c r="W1" s="258" t="s">
+      <c r="U1" s="258"/>
+      <c r="W1" s="256" t="s">
         <v>232</v>
       </c>
-      <c r="X1" s="258"/>
-      <c r="AC1" s="258" t="s">
+      <c r="X1" s="256"/>
+      <c r="AC1" s="256" t="s">
         <v>233</v>
       </c>
-      <c r="AD1" s="258"/>
+      <c r="AD1" s="256"/>
     </row>
     <row r="2" spans="1:44" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="238" t="s">
+      <c r="A2" s="253" t="s">
         <v>234</v>
       </c>
-      <c r="B2" s="238"/>
-      <c r="C2" s="238" t="s">
+      <c r="B2" s="253"/>
+      <c r="C2" s="253" t="s">
         <v>235</v>
       </c>
-      <c r="D2" s="238"/>
-      <c r="E2" s="238" t="s">
+      <c r="D2" s="253"/>
+      <c r="E2" s="253" t="s">
         <v>236</v>
       </c>
-      <c r="F2" s="238"/>
-      <c r="G2" s="238" t="s">
+      <c r="F2" s="253"/>
+      <c r="G2" s="253" t="s">
         <v>237</v>
       </c>
-      <c r="H2" s="238"/>
-      <c r="I2" s="238" t="s">
+      <c r="H2" s="253"/>
+      <c r="I2" s="253" t="s">
         <v>238</v>
       </c>
-      <c r="J2" s="238"/>
-      <c r="L2" s="238" t="s">
+      <c r="J2" s="253"/>
+      <c r="L2" s="253" t="s">
         <v>234</v>
       </c>
-      <c r="M2" s="238"/>
-      <c r="N2" s="238" t="s">
+      <c r="M2" s="253"/>
+      <c r="N2" s="253" t="s">
         <v>235</v>
       </c>
-      <c r="O2" s="238"/>
-      <c r="P2" s="238" t="s">
+      <c r="O2" s="253"/>
+      <c r="P2" s="253" t="s">
         <v>236</v>
       </c>
-      <c r="Q2" s="238"/>
-      <c r="R2" s="238" t="s">
+      <c r="Q2" s="253"/>
+      <c r="R2" s="253" t="s">
         <v>237</v>
       </c>
-      <c r="S2" s="238"/>
-      <c r="T2" s="238" t="s">
+      <c r="S2" s="253"/>
+      <c r="T2" s="253" t="s">
         <v>238</v>
       </c>
-      <c r="U2" s="238"/>
+      <c r="U2" s="253"/>
     </row>
     <row r="3" spans="1:44" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="79" t="s">
@@ -22487,36 +22487,36 @@
       <c r="B3" s="79" t="s">
         <v>240</v>
       </c>
-      <c r="C3" s="239"/>
-      <c r="D3" s="240"/>
-      <c r="E3" s="239"/>
-      <c r="F3" s="240"/>
+      <c r="C3" s="254"/>
+      <c r="D3" s="255"/>
+      <c r="E3" s="254"/>
+      <c r="F3" s="255"/>
       <c r="G3" s="79" t="s">
         <v>239</v>
       </c>
       <c r="H3" s="79" t="s">
         <v>240</v>
       </c>
-      <c r="I3" s="239"/>
-      <c r="J3" s="240"/>
+      <c r="I3" s="254"/>
+      <c r="J3" s="255"/>
       <c r="L3" s="79" t="s">
         <v>239</v>
       </c>
       <c r="M3" s="79" t="s">
         <v>240</v>
       </c>
-      <c r="N3" s="239"/>
-      <c r="O3" s="240"/>
-      <c r="P3" s="239"/>
-      <c r="Q3" s="240"/>
+      <c r="N3" s="254"/>
+      <c r="O3" s="255"/>
+      <c r="P3" s="254"/>
+      <c r="Q3" s="255"/>
       <c r="R3" s="79" t="s">
         <v>239</v>
       </c>
       <c r="S3" s="79" t="s">
         <v>240</v>
       </c>
-      <c r="T3" s="239"/>
-      <c r="U3" s="240"/>
+      <c r="T3" s="254"/>
+      <c r="U3" s="255"/>
       <c r="W3" t="s">
         <v>241</v>
       </c>
@@ -22525,14 +22525,14 @@
       </c>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A4" s="242">
+      <c r="A4" s="247">
         <v>0.64709000000000005</v>
       </c>
-      <c r="B4" s="242"/>
-      <c r="C4" s="242">
+      <c r="B4" s="247"/>
+      <c r="C4" s="247">
         <v>0.97192999999999996</v>
       </c>
-      <c r="D4" s="242"/>
+      <c r="D4" s="247"/>
       <c r="E4" s="81"/>
       <c r="F4" s="81"/>
       <c r="G4" s="81"/>
@@ -22542,14 +22542,14 @@
       <c r="K4" s="80" t="s">
         <v>243</v>
       </c>
-      <c r="L4" s="242">
+      <c r="L4" s="247">
         <v>0.64709000000000005</v>
       </c>
-      <c r="M4" s="242"/>
-      <c r="N4" s="242">
+      <c r="M4" s="247"/>
+      <c r="N4" s="247">
         <v>0.97192999999999996</v>
       </c>
-      <c r="O4" s="242"/>
+      <c r="O4" s="247"/>
       <c r="P4" s="81"/>
       <c r="Q4" s="81"/>
       <c r="R4" s="81"/>
@@ -22567,14 +22567,14 @@
       </c>
     </row>
     <row r="5" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="241">
+      <c r="A5" s="252">
         <v>0.26545000000000002</v>
       </c>
-      <c r="B5" s="241"/>
-      <c r="C5" s="241">
+      <c r="B5" s="252"/>
+      <c r="C5" s="252">
         <v>0.39895999999999998</v>
       </c>
-      <c r="D5" s="241"/>
+      <c r="D5" s="252"/>
       <c r="E5" s="85"/>
       <c r="F5" s="85"/>
       <c r="G5" s="85"/>
@@ -22584,14 +22584,14 @@
       <c r="K5" s="84" t="s">
         <v>246</v>
       </c>
-      <c r="L5" s="241">
+      <c r="L5" s="252">
         <v>0.26545000000000002</v>
       </c>
-      <c r="M5" s="241"/>
-      <c r="N5" s="241">
+      <c r="M5" s="252"/>
+      <c r="N5" s="252">
         <v>0.39895999999999998</v>
       </c>
-      <c r="O5" s="241"/>
+      <c r="O5" s="252"/>
       <c r="P5" s="85"/>
       <c r="Q5" s="85"/>
       <c r="R5" s="85"/>
@@ -22615,10 +22615,10 @@
       <c r="B6" s="81">
         <v>0.25008999999999998</v>
       </c>
-      <c r="C6" s="242">
+      <c r="C6" s="247">
         <v>1</v>
       </c>
-      <c r="D6" s="242"/>
+      <c r="D6" s="247"/>
       <c r="E6" s="81"/>
       <c r="F6" s="81"/>
       <c r="G6" s="81"/>
@@ -22634,10 +22634,10 @@
       <c r="M6" s="81">
         <v>0.25008999999999998</v>
       </c>
-      <c r="N6" s="242">
+      <c r="N6" s="247">
         <v>1</v>
       </c>
-      <c r="O6" s="242"/>
+      <c r="O6" s="247"/>
       <c r="P6" s="81"/>
       <c r="Q6" s="81"/>
       <c r="R6" s="81"/>
@@ -22650,10 +22650,10 @@
       <c r="B7" s="85"/>
       <c r="C7" s="85"/>
       <c r="D7" s="85"/>
-      <c r="E7" s="241">
+      <c r="E7" s="252">
         <v>0.27488000000000001</v>
       </c>
-      <c r="F7" s="241"/>
+      <c r="F7" s="252"/>
       <c r="G7" s="85"/>
       <c r="H7" s="85"/>
       <c r="I7" s="85"/>
@@ -22665,10 +22665,10 @@
       <c r="M7" s="85"/>
       <c r="N7" s="85"/>
       <c r="O7" s="85"/>
-      <c r="P7" s="241">
+      <c r="P7" s="252">
         <v>0.27488000000000001</v>
       </c>
-      <c r="Q7" s="241"/>
+      <c r="Q7" s="252"/>
       <c r="R7" s="85"/>
       <c r="S7" s="85"/>
       <c r="T7" s="85"/>
@@ -22687,10 +22687,10 @@
       <c r="B8" s="81">
         <v>0.17752000000000001</v>
       </c>
-      <c r="C8" s="242">
+      <c r="C8" s="247">
         <v>0.72296000000000005</v>
       </c>
-      <c r="D8" s="242"/>
+      <c r="D8" s="247"/>
       <c r="E8" s="81"/>
       <c r="F8" s="81"/>
       <c r="G8" s="81"/>
@@ -22706,10 +22706,10 @@
       <c r="M8" s="81">
         <v>0.17752000000000001</v>
       </c>
-      <c r="N8" s="242">
+      <c r="N8" s="247">
         <v>0.72296000000000005</v>
       </c>
-      <c r="O8" s="242"/>
+      <c r="O8" s="247"/>
       <c r="P8" s="81"/>
       <c r="Q8" s="81"/>
       <c r="R8" s="81"/>
@@ -22725,10 +22725,10 @@
       <c r="B9" s="85"/>
       <c r="C9" s="85"/>
       <c r="D9" s="85"/>
-      <c r="E9" s="241">
+      <c r="E9" s="252">
         <v>0.36337000000000003</v>
       </c>
-      <c r="F9" s="241"/>
+      <c r="F9" s="252"/>
       <c r="G9" s="85"/>
       <c r="H9" s="85"/>
       <c r="I9" s="85"/>
@@ -22740,11 +22740,11 @@
       <c r="M9" s="85"/>
       <c r="N9" s="85"/>
       <c r="O9" s="85"/>
-      <c r="P9" s="241">
+      <c r="P9" s="252">
         <f>36.337%*1.21</f>
         <v>0.4396777</v>
       </c>
-      <c r="Q9" s="241"/>
+      <c r="Q9" s="252"/>
       <c r="R9" s="85"/>
       <c r="S9" s="85"/>
       <c r="T9" s="85"/>
@@ -22758,10 +22758,10 @@
         <v>0.65615999999999997</v>
       </c>
       <c r="B10" s="81"/>
-      <c r="C10" s="242">
+      <c r="C10" s="247">
         <v>0.78437000000000001</v>
       </c>
-      <c r="D10" s="242"/>
+      <c r="D10" s="247"/>
       <c r="E10" s="81"/>
       <c r="F10" s="81"/>
       <c r="G10" s="81"/>
@@ -22776,11 +22776,11 @@
         <v>0.69552959999999997</v>
       </c>
       <c r="M10" s="81"/>
-      <c r="N10" s="242">
+      <c r="N10" s="247">
         <f>78.437%*(1-0.09)</f>
         <v>0.71377670000000004</v>
       </c>
-      <c r="O10" s="242"/>
+      <c r="O10" s="247"/>
       <c r="P10" s="81"/>
       <c r="Q10" s="81"/>
       <c r="R10" s="81"/>
@@ -22796,10 +22796,10 @@
       <c r="B11" s="88"/>
       <c r="C11" s="88"/>
       <c r="D11" s="88"/>
-      <c r="E11" s="243">
+      <c r="E11" s="251">
         <v>0.1464</v>
       </c>
-      <c r="F11" s="243"/>
+      <c r="F11" s="251"/>
       <c r="G11" s="88"/>
       <c r="H11" s="88"/>
       <c r="I11" s="88"/>
@@ -22811,10 +22811,10 @@
       <c r="M11" s="88"/>
       <c r="N11" s="88"/>
       <c r="O11" s="88"/>
-      <c r="P11" s="243">
+      <c r="P11" s="251">
         <v>0.1464</v>
       </c>
-      <c r="Q11" s="243"/>
+      <c r="Q11" s="251"/>
       <c r="R11" s="88"/>
       <c r="S11" s="88"/>
       <c r="T11" s="88"/>
@@ -22859,14 +22859,14 @@
       </c>
     </row>
     <row r="13" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A13" s="242">
+      <c r="A13" s="247">
         <v>0.42514999999999997</v>
       </c>
-      <c r="B13" s="242"/>
-      <c r="C13" s="242">
+      <c r="B13" s="247"/>
+      <c r="C13" s="247">
         <v>0.85</v>
       </c>
-      <c r="D13" s="242"/>
+      <c r="D13" s="247"/>
       <c r="E13" s="81"/>
       <c r="F13" s="81"/>
       <c r="G13" s="81"/>
@@ -22876,14 +22876,14 @@
       <c r="K13" s="80" t="s">
         <v>260</v>
       </c>
-      <c r="L13" s="242">
+      <c r="L13" s="247">
         <v>0.42514999999999997</v>
       </c>
-      <c r="M13" s="242"/>
-      <c r="N13" s="242">
+      <c r="M13" s="247"/>
+      <c r="N13" s="247">
         <v>0.85</v>
       </c>
-      <c r="O13" s="242"/>
+      <c r="O13" s="247"/>
       <c r="P13" s="81"/>
       <c r="Q13" s="81"/>
       <c r="R13" s="81"/>
@@ -22916,10 +22916,10 @@
       <c r="B14" s="85"/>
       <c r="C14" s="85"/>
       <c r="D14" s="85"/>
-      <c r="E14" s="241">
+      <c r="E14" s="252">
         <v>0.23365</v>
       </c>
-      <c r="F14" s="241"/>
+      <c r="F14" s="252"/>
       <c r="G14" s="85"/>
       <c r="H14" s="85"/>
       <c r="I14" s="85"/>
@@ -22931,10 +22931,10 @@
       <c r="M14" s="85"/>
       <c r="N14" s="85"/>
       <c r="O14" s="85"/>
-      <c r="P14" s="241">
+      <c r="P14" s="252">
         <v>0.23365</v>
       </c>
-      <c r="Q14" s="241"/>
+      <c r="Q14" s="252"/>
       <c r="R14" s="85"/>
       <c r="S14" s="85"/>
       <c r="T14" s="85"/>
@@ -22972,10 +22972,10 @@
         <v>1</v>
       </c>
       <c r="B15" s="92"/>
-      <c r="C15" s="242">
+      <c r="C15" s="247">
         <v>0.51382000000000005</v>
       </c>
-      <c r="D15" s="242"/>
+      <c r="D15" s="247"/>
       <c r="E15" s="81"/>
       <c r="F15" s="81"/>
       <c r="G15" s="81"/>
@@ -22989,10 +22989,10 @@
         <v>1</v>
       </c>
       <c r="M15" s="92"/>
-      <c r="N15" s="242">
+      <c r="N15" s="247">
         <v>0.51382000000000005</v>
       </c>
-      <c r="O15" s="242"/>
+      <c r="O15" s="247"/>
       <c r="P15" s="81"/>
       <c r="Q15" s="81"/>
       <c r="R15" s="81"/>
@@ -23040,10 +23040,10 @@
       <c r="B16" s="88"/>
       <c r="C16" s="88"/>
       <c r="D16" s="88"/>
-      <c r="E16" s="243">
+      <c r="E16" s="251">
         <v>4.3869999999999999E-2</v>
       </c>
-      <c r="F16" s="243"/>
+      <c r="F16" s="251"/>
       <c r="G16" s="88"/>
       <c r="H16" s="88"/>
       <c r="I16" s="88"/>
@@ -23055,10 +23055,10 @@
       <c r="M16" s="88"/>
       <c r="N16" s="88"/>
       <c r="O16" s="88"/>
-      <c r="P16" s="243">
+      <c r="P16" s="251">
         <v>4.3869999999999999E-2</v>
       </c>
-      <c r="Q16" s="243"/>
+      <c r="Q16" s="251"/>
       <c r="R16" s="88"/>
       <c r="S16" s="88"/>
       <c r="T16" s="88"/>
@@ -23139,10 +23139,10 @@
         <v>0.91232999999999997</v>
       </c>
       <c r="B18" s="92"/>
-      <c r="C18" s="242">
+      <c r="C18" s="247">
         <v>0.46146999999999999</v>
       </c>
-      <c r="D18" s="242"/>
+      <c r="D18" s="247"/>
       <c r="E18" s="81"/>
       <c r="F18" s="81"/>
       <c r="G18" s="81"/>
@@ -23156,11 +23156,11 @@
         <v>0.91232999999999997</v>
       </c>
       <c r="M18" s="92"/>
-      <c r="N18" s="242">
+      <c r="N18" s="247">
         <f>46.147%*(1-0.08)</f>
         <v>0.4245524</v>
       </c>
-      <c r="O18" s="242"/>
+      <c r="O18" s="247"/>
       <c r="P18" s="81"/>
       <c r="Q18" s="81"/>
       <c r="R18" s="81"/>
@@ -23179,10 +23179,10 @@
       <c r="B19" s="88"/>
       <c r="C19" s="88"/>
       <c r="D19" s="88"/>
-      <c r="E19" s="243">
+      <c r="E19" s="251">
         <v>0.15035999999999999</v>
       </c>
-      <c r="F19" s="243"/>
+      <c r="F19" s="251"/>
       <c r="G19" s="88"/>
       <c r="H19" s="88"/>
       <c r="I19" s="88"/>
@@ -23194,10 +23194,10 @@
       <c r="M19" s="88"/>
       <c r="N19" s="88"/>
       <c r="O19" s="88"/>
-      <c r="P19" s="243">
+      <c r="P19" s="251">
         <v>0.15035999999999999</v>
       </c>
-      <c r="Q19" s="243"/>
+      <c r="Q19" s="251"/>
       <c r="R19" s="88"/>
       <c r="S19" s="88"/>
       <c r="T19" s="88"/>
@@ -23267,10 +23267,10 @@
         <v>0.69059999999999999</v>
       </c>
       <c r="B21" s="92"/>
-      <c r="C21" s="242">
+      <c r="C21" s="247">
         <v>0.38878000000000001</v>
       </c>
-      <c r="D21" s="242"/>
+      <c r="D21" s="247"/>
       <c r="E21" s="81"/>
       <c r="F21" s="81"/>
       <c r="G21" s="81"/>
@@ -23284,10 +23284,10 @@
         <v>0.69059999999999999</v>
       </c>
       <c r="M21" s="92"/>
-      <c r="N21" s="242">
+      <c r="N21" s="247">
         <v>0.38878000000000001</v>
       </c>
-      <c r="O21" s="242"/>
+      <c r="O21" s="247"/>
       <c r="P21" s="81"/>
       <c r="Q21" s="81"/>
       <c r="R21" s="81"/>
@@ -23309,10 +23309,10 @@
       <c r="B22" s="88"/>
       <c r="C22" s="88"/>
       <c r="D22" s="88"/>
-      <c r="E22" s="243">
+      <c r="E22" s="251">
         <v>0.2099</v>
       </c>
-      <c r="F22" s="243"/>
+      <c r="F22" s="251"/>
       <c r="G22" s="88"/>
       <c r="H22" s="88"/>
       <c r="I22" s="88"/>
@@ -23324,10 +23324,10 @@
       <c r="M22" s="88"/>
       <c r="N22" s="88"/>
       <c r="O22" s="88"/>
-      <c r="P22" s="243">
+      <c r="P22" s="251">
         <v>0.2099</v>
       </c>
-      <c r="Q22" s="243"/>
+      <c r="Q22" s="251"/>
       <c r="R22" s="88"/>
       <c r="S22" s="88"/>
       <c r="T22" s="88"/>
@@ -23391,10 +23391,10 @@
         <v>0.68315000000000003</v>
       </c>
       <c r="B24" s="92"/>
-      <c r="C24" s="242">
+      <c r="C24" s="247">
         <v>0.70006000000000002</v>
       </c>
-      <c r="D24" s="242"/>
+      <c r="D24" s="247"/>
       <c r="E24" s="81"/>
       <c r="F24" s="81"/>
       <c r="G24" s="81"/>
@@ -23408,10 +23408,10 @@
         <v>0.68315000000000003</v>
       </c>
       <c r="M24" s="92"/>
-      <c r="N24" s="242">
+      <c r="N24" s="247">
         <v>0.70006000000000002</v>
       </c>
-      <c r="O24" s="242"/>
+      <c r="O24" s="247"/>
       <c r="P24" s="81"/>
       <c r="Q24" s="81"/>
       <c r="R24" s="81"/>
@@ -23436,10 +23436,10 @@
       <c r="B25" s="88"/>
       <c r="C25" s="88"/>
       <c r="D25" s="88"/>
-      <c r="E25" s="243">
+      <c r="E25" s="251">
         <v>0.152</v>
       </c>
-      <c r="F25" s="243"/>
+      <c r="F25" s="251"/>
       <c r="G25" s="88"/>
       <c r="H25" s="88"/>
       <c r="I25" s="88"/>
@@ -23451,10 +23451,10 @@
       <c r="M25" s="88"/>
       <c r="N25" s="88"/>
       <c r="O25" s="88"/>
-      <c r="P25" s="243">
+      <c r="P25" s="251">
         <v>0.152</v>
       </c>
-      <c r="Q25" s="243"/>
+      <c r="Q25" s="251"/>
       <c r="R25" s="88"/>
       <c r="S25" s="88"/>
       <c r="T25" s="88"/>
@@ -23517,16 +23517,16 @@
       <c r="B27" s="81">
         <v>9.2719999999999997E-2</v>
       </c>
-      <c r="C27" s="242">
+      <c r="C27" s="247">
         <v>0.42459999999999998</v>
       </c>
-      <c r="D27" s="242"/>
+      <c r="D27" s="247"/>
       <c r="E27" s="81"/>
       <c r="F27" s="81"/>
       <c r="G27" s="81"/>
       <c r="H27" s="81"/>
-      <c r="I27" s="246"/>
-      <c r="J27" s="247"/>
+      <c r="I27" s="240"/>
+      <c r="J27" s="242"/>
       <c r="K27" s="80" t="s">
         <v>292</v>
       </c>
@@ -23536,16 +23536,16 @@
       <c r="M27" s="81">
         <v>9.2719999999999997E-2</v>
       </c>
-      <c r="N27" s="242">
+      <c r="N27" s="247">
         <v>0.42459999999999998</v>
       </c>
-      <c r="O27" s="242"/>
+      <c r="O27" s="247"/>
       <c r="P27" s="81"/>
       <c r="Q27" s="81"/>
       <c r="R27" s="81"/>
       <c r="S27" s="81"/>
-      <c r="T27" s="246"/>
-      <c r="U27" s="247"/>
+      <c r="T27" s="240"/>
+      <c r="U27" s="242"/>
       <c r="W27" t="s">
         <v>415</v>
       </c>
@@ -23561,14 +23561,14 @@
       <c r="B28" s="88"/>
       <c r="C28" s="88"/>
       <c r="D28" s="88"/>
-      <c r="E28" s="243">
+      <c r="E28" s="251">
         <v>1</v>
       </c>
-      <c r="F28" s="243"/>
+      <c r="F28" s="251"/>
       <c r="G28" s="88"/>
       <c r="H28" s="88"/>
-      <c r="I28" s="244"/>
-      <c r="J28" s="245"/>
+      <c r="I28" s="243"/>
+      <c r="J28" s="244"/>
       <c r="K28" s="87" t="s">
         <v>295</v>
       </c>
@@ -23576,14 +23576,14 @@
       <c r="M28" s="88"/>
       <c r="N28" s="88"/>
       <c r="O28" s="88"/>
-      <c r="P28" s="243">
+      <c r="P28" s="251">
         <v>1</v>
       </c>
-      <c r="Q28" s="243"/>
+      <c r="Q28" s="251"/>
       <c r="R28" s="88"/>
       <c r="S28" s="88"/>
-      <c r="T28" s="244"/>
-      <c r="U28" s="245"/>
+      <c r="T28" s="243"/>
+      <c r="U28" s="244"/>
       <c r="W28" t="s">
         <v>418</v>
       </c>
@@ -23613,10 +23613,10 @@
       <c r="Q29" s="90"/>
       <c r="R29" s="85"/>
       <c r="S29" s="85"/>
-      <c r="T29" s="248">
+      <c r="T29" s="245">
         <v>0.21</v>
       </c>
-      <c r="U29" s="249"/>
+      <c r="U29" s="246"/>
       <c r="W29" t="s">
         <v>420</v>
       </c>
@@ -23637,10 +23637,10 @@
       <c r="H30" s="85">
         <v>0.1226</v>
       </c>
-      <c r="I30" s="248">
+      <c r="I30" s="245">
         <v>0.34044000000000002</v>
       </c>
-      <c r="J30" s="249"/>
+      <c r="J30" s="246"/>
       <c r="K30" s="84" t="s">
         <v>298</v>
       </c>
@@ -23656,11 +23656,11 @@
       <c r="S30" s="85">
         <v>0.14255813953488372</v>
       </c>
-      <c r="T30" s="248">
+      <c r="T30" s="245">
         <f>34.044%*1.05</f>
         <v>0.357462</v>
       </c>
-      <c r="U30" s="249"/>
+      <c r="U30" s="246"/>
       <c r="W30" t="s">
         <v>422</v>
       </c>
@@ -23681,16 +23681,16 @@
       <c r="B31" s="81">
         <v>0.13719000000000001</v>
       </c>
-      <c r="C31" s="242">
+      <c r="C31" s="247">
         <v>0.62792999999999999</v>
       </c>
-      <c r="D31" s="242"/>
+      <c r="D31" s="247"/>
       <c r="E31" s="81"/>
       <c r="F31" s="81"/>
       <c r="G31" s="81"/>
       <c r="H31" s="81"/>
-      <c r="I31" s="246"/>
-      <c r="J31" s="247"/>
+      <c r="I31" s="240"/>
+      <c r="J31" s="242"/>
       <c r="K31" s="80" t="s">
         <v>300</v>
       </c>
@@ -23700,16 +23700,16 @@
       <c r="M31" s="81">
         <v>0.13719000000000001</v>
       </c>
-      <c r="N31" s="242">
+      <c r="N31" s="247">
         <v>0.62792999999999999</v>
       </c>
-      <c r="O31" s="242"/>
+      <c r="O31" s="247"/>
       <c r="P31" s="81"/>
       <c r="Q31" s="81"/>
       <c r="R31" s="81"/>
       <c r="S31" s="81"/>
-      <c r="T31" s="246"/>
-      <c r="U31" s="247"/>
+      <c r="T31" s="240"/>
+      <c r="U31" s="242"/>
       <c r="W31" t="s">
         <v>426</v>
       </c>
@@ -23745,10 +23745,10 @@
       <c r="Q32" s="103"/>
       <c r="R32" s="103"/>
       <c r="S32" s="103"/>
-      <c r="T32" s="248">
+      <c r="T32" s="245">
         <v>0.12</v>
       </c>
-      <c r="U32" s="249"/>
+      <c r="U32" s="246"/>
       <c r="W32" t="s">
         <v>430</v>
       </c>
@@ -23775,10 +23775,10 @@
       <c r="H33" s="85">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="I33" s="248">
+      <c r="I33" s="245">
         <v>0.23748</v>
       </c>
-      <c r="J33" s="249"/>
+      <c r="J33" s="246"/>
       <c r="K33" s="84" t="s">
         <v>303</v>
       </c>
@@ -23794,11 +23794,11 @@
       <c r="S33" s="85">
         <v>6.8837209302325592E-2</v>
       </c>
-      <c r="T33" s="248">
+      <c r="T33" s="245">
         <f>23.748%*0.8</f>
         <v>0.18998400000000004</v>
       </c>
-      <c r="U33" s="249"/>
+      <c r="U33" s="246"/>
       <c r="W33" t="s">
         <v>434</v>
       </c>
@@ -23819,16 +23819,16 @@
       <c r="B34" s="81">
         <v>5.6059999999999999E-2</v>
       </c>
-      <c r="C34" s="242">
+      <c r="C34" s="247">
         <v>0.23462</v>
       </c>
-      <c r="D34" s="242"/>
+      <c r="D34" s="247"/>
       <c r="E34" s="81"/>
       <c r="F34" s="81"/>
       <c r="G34" s="81"/>
       <c r="H34" s="81"/>
-      <c r="I34" s="246"/>
-      <c r="J34" s="247"/>
+      <c r="I34" s="240"/>
+      <c r="J34" s="242"/>
       <c r="K34" s="80" t="s">
         <v>305</v>
       </c>
@@ -23840,17 +23840,17 @@
         <f>5.606%*0.75</f>
         <v>4.2044999999999999E-2</v>
       </c>
-      <c r="N34" s="242">
+      <c r="N34" s="247">
         <f>23.462%*0.75</f>
         <v>0.17596499999999998</v>
       </c>
-      <c r="O34" s="242"/>
+      <c r="O34" s="247"/>
       <c r="P34" s="81"/>
       <c r="Q34" s="81"/>
       <c r="R34" s="81"/>
       <c r="S34" s="81"/>
-      <c r="T34" s="246"/>
-      <c r="U34" s="247"/>
+      <c r="T34" s="240"/>
+      <c r="U34" s="242"/>
       <c r="W34" t="s">
         <v>438</v>
       </c>
@@ -23886,10 +23886,10 @@
       <c r="Q35" s="103"/>
       <c r="R35" s="103"/>
       <c r="S35" s="103"/>
-      <c r="T35" s="248">
+      <c r="T35" s="245">
         <v>0.31</v>
       </c>
-      <c r="U35" s="249"/>
+      <c r="U35" s="246"/>
       <c r="W35" t="s">
         <v>442</v>
       </c>
@@ -23910,10 +23910,10 @@
       <c r="H36" s="85">
         <v>0.11894</v>
       </c>
-      <c r="I36" s="248">
+      <c r="I36" s="245">
         <v>0.50244</v>
       </c>
-      <c r="J36" s="249"/>
+      <c r="J36" s="246"/>
       <c r="K36" s="84" t="s">
         <v>307</v>
       </c>
@@ -23929,11 +23929,11 @@
       <c r="S36" s="85">
         <v>0.13830232558139535</v>
       </c>
-      <c r="T36" s="248">
+      <c r="T36" s="245">
         <f>50.244%*1.05</f>
         <v>0.52756199999999998</v>
       </c>
-      <c r="U36" s="249"/>
+      <c r="U36" s="246"/>
       <c r="AC36" t="s">
         <v>444</v>
       </c>
@@ -23943,14 +23943,14 @@
       <c r="B37" s="94"/>
       <c r="C37" s="94"/>
       <c r="D37" s="94"/>
-      <c r="E37" s="250">
+      <c r="E37" s="248">
         <v>0.94696999999999998</v>
       </c>
-      <c r="F37" s="250"/>
+      <c r="F37" s="248"/>
       <c r="G37" s="94"/>
       <c r="H37" s="94"/>
-      <c r="I37" s="251"/>
-      <c r="J37" s="252"/>
+      <c r="I37" s="249"/>
+      <c r="J37" s="250"/>
       <c r="K37" s="93" t="s">
         <v>309</v>
       </c>
@@ -23958,54 +23958,54 @@
       <c r="M37" s="94"/>
       <c r="N37" s="94"/>
       <c r="O37" s="94"/>
-      <c r="P37" s="250">
+      <c r="P37" s="248">
         <v>0.94696999999999998</v>
       </c>
-      <c r="Q37" s="250"/>
+      <c r="Q37" s="248"/>
       <c r="R37" s="94"/>
       <c r="S37" s="94"/>
-      <c r="T37" s="251"/>
-      <c r="U37" s="252"/>
-      <c r="W37" s="258" t="s">
+      <c r="T37" s="249"/>
+      <c r="U37" s="250"/>
+      <c r="W37" s="256" t="s">
         <v>261</v>
       </c>
-      <c r="X37" s="258"/>
+      <c r="X37" s="256"/>
       <c r="AC37" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="38" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A38" s="242">
+      <c r="A38" s="247">
         <v>0.15762999999999999</v>
       </c>
-      <c r="B38" s="242"/>
-      <c r="C38" s="242">
+      <c r="B38" s="247"/>
+      <c r="C38" s="247">
         <v>0.36070000000000002</v>
       </c>
-      <c r="D38" s="242"/>
+      <c r="D38" s="247"/>
       <c r="E38" s="81"/>
       <c r="F38" s="81"/>
       <c r="G38" s="81"/>
       <c r="H38" s="81"/>
-      <c r="I38" s="246"/>
-      <c r="J38" s="247"/>
+      <c r="I38" s="240"/>
+      <c r="J38" s="242"/>
       <c r="K38" s="80" t="s">
         <v>310</v>
       </c>
-      <c r="L38" s="242">
+      <c r="L38" s="247">
         <v>0.15762999999999999</v>
       </c>
-      <c r="M38" s="242"/>
-      <c r="N38" s="242">
+      <c r="M38" s="247"/>
+      <c r="N38" s="247">
         <v>0.36070000000000002</v>
       </c>
-      <c r="O38" s="242"/>
+      <c r="O38" s="247"/>
       <c r="P38" s="81"/>
       <c r="Q38" s="81"/>
       <c r="R38" s="81"/>
       <c r="S38" s="81"/>
-      <c r="T38" s="246"/>
-      <c r="U38" s="247"/>
+      <c r="T38" s="240"/>
+      <c r="U38" s="242"/>
       <c r="AC38" t="s">
         <v>446</v>
       </c>
@@ -24015,14 +24015,14 @@
       <c r="B39" s="88"/>
       <c r="C39" s="88"/>
       <c r="D39" s="88"/>
-      <c r="E39" s="243">
+      <c r="E39" s="251">
         <v>0.85</v>
       </c>
-      <c r="F39" s="243"/>
+      <c r="F39" s="251"/>
       <c r="G39" s="88"/>
       <c r="H39" s="88"/>
-      <c r="I39" s="244"/>
-      <c r="J39" s="245"/>
+      <c r="I39" s="243"/>
+      <c r="J39" s="244"/>
       <c r="K39" s="87" t="s">
         <v>311</v>
       </c>
@@ -24030,14 +24030,14 @@
       <c r="M39" s="88"/>
       <c r="N39" s="88"/>
       <c r="O39" s="88"/>
-      <c r="P39" s="243">
+      <c r="P39" s="251">
         <v>0.85</v>
       </c>
-      <c r="Q39" s="243"/>
+      <c r="Q39" s="251"/>
       <c r="R39" s="88"/>
       <c r="S39" s="88"/>
-      <c r="T39" s="244"/>
-      <c r="U39" s="245"/>
+      <c r="T39" s="243"/>
+      <c r="U39" s="244"/>
       <c r="W39" t="s">
         <v>241</v>
       </c>
@@ -24056,10 +24056,10 @@
         <v>0.20784</v>
       </c>
       <c r="H40" s="85"/>
-      <c r="I40" s="248">
+      <c r="I40" s="245">
         <v>0.28937000000000002</v>
       </c>
-      <c r="J40" s="249"/>
+      <c r="J40" s="246"/>
       <c r="K40" s="84" t="s">
         <v>313</v>
       </c>
@@ -24073,10 +24073,10 @@
         <v>0.24167441860465114</v>
       </c>
       <c r="S40" s="85"/>
-      <c r="T40" s="248">
+      <c r="T40" s="245">
         <v>0.28937000000000002</v>
       </c>
-      <c r="U40" s="249"/>
+      <c r="U40" s="246"/>
       <c r="W40" t="s">
         <v>244</v>
       </c>
@@ -24085,37 +24085,37 @@
       </c>
     </row>
     <row r="41" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A41" s="242">
+      <c r="A41" s="247">
         <v>0.20368</v>
       </c>
-      <c r="B41" s="242"/>
-      <c r="C41" s="242">
+      <c r="B41" s="247"/>
+      <c r="C41" s="247">
         <v>0.33767000000000003</v>
       </c>
-      <c r="D41" s="242"/>
+      <c r="D41" s="247"/>
       <c r="E41" s="81"/>
       <c r="F41" s="81"/>
       <c r="G41" s="81"/>
       <c r="H41" s="81"/>
-      <c r="I41" s="246"/>
-      <c r="J41" s="247"/>
+      <c r="I41" s="240"/>
+      <c r="J41" s="242"/>
       <c r="K41" s="80" t="s">
         <v>315</v>
       </c>
-      <c r="L41" s="242">
+      <c r="L41" s="247">
         <v>0.20368</v>
       </c>
-      <c r="M41" s="242"/>
-      <c r="N41" s="242">
+      <c r="M41" s="247"/>
+      <c r="N41" s="247">
         <v>0.33767000000000003</v>
       </c>
-      <c r="O41" s="242"/>
+      <c r="O41" s="247"/>
       <c r="P41" s="81"/>
       <c r="Q41" s="81"/>
       <c r="R41" s="81"/>
       <c r="S41" s="81"/>
-      <c r="T41" s="246"/>
-      <c r="U41" s="247"/>
+      <c r="T41" s="240"/>
+      <c r="U41" s="242"/>
       <c r="W41" t="s">
         <v>247</v>
       </c>
@@ -24128,14 +24128,14 @@
       <c r="B42" s="88"/>
       <c r="C42" s="88"/>
       <c r="D42" s="88"/>
-      <c r="E42" s="243">
+      <c r="E42" s="251">
         <v>0.89815999999999996</v>
       </c>
-      <c r="F42" s="243"/>
+      <c r="F42" s="251"/>
       <c r="G42" s="88"/>
       <c r="H42" s="88"/>
-      <c r="I42" s="244"/>
-      <c r="J42" s="245"/>
+      <c r="I42" s="243"/>
+      <c r="J42" s="244"/>
       <c r="K42" s="87" t="s">
         <v>317</v>
       </c>
@@ -24143,14 +24143,14 @@
       <c r="M42" s="88"/>
       <c r="N42" s="88"/>
       <c r="O42" s="88"/>
-      <c r="P42" s="243">
+      <c r="P42" s="251">
         <v>0.89815999999999996</v>
       </c>
-      <c r="Q42" s="243"/>
+      <c r="Q42" s="251"/>
       <c r="R42" s="88"/>
       <c r="S42" s="88"/>
-      <c r="T42" s="244"/>
-      <c r="U42" s="245"/>
+      <c r="T42" s="243"/>
+      <c r="U42" s="244"/>
       <c r="AC42" t="s">
         <v>450</v>
       </c>
@@ -24166,8 +24166,8 @@
         <v>0.57364000000000004</v>
       </c>
       <c r="H43" s="88"/>
-      <c r="I43" s="244"/>
-      <c r="J43" s="245"/>
+      <c r="I43" s="243"/>
+      <c r="J43" s="244"/>
       <c r="K43" s="87" t="s">
         <v>319</v>
       </c>
@@ -24181,8 +24181,8 @@
         <v>0.6670232558139535</v>
       </c>
       <c r="S43" s="88"/>
-      <c r="T43" s="244"/>
-      <c r="U43" s="245"/>
+      <c r="T43" s="243"/>
+      <c r="U43" s="244"/>
       <c r="W43" t="s">
         <v>256</v>
       </c>
@@ -24201,10 +24201,10 @@
         <v>0.26422000000000001</v>
       </c>
       <c r="H44" s="85"/>
-      <c r="I44" s="248">
+      <c r="I44" s="245">
         <v>0.2399</v>
       </c>
-      <c r="J44" s="249"/>
+      <c r="J44" s="246"/>
       <c r="K44" s="84" t="s">
         <v>321</v>
       </c>
@@ -24218,11 +24218,11 @@
         <v>0.30723255813953487</v>
       </c>
       <c r="S44" s="85"/>
-      <c r="T44" s="248">
+      <c r="T44" s="245">
         <f>23.99%*1.06</f>
         <v>0.25429399999999996</v>
       </c>
-      <c r="U44" s="249"/>
+      <c r="U44" s="246"/>
       <c r="W44" t="s">
         <v>258</v>
       </c>
@@ -24235,16 +24235,16 @@
         <v>0.34708</v>
       </c>
       <c r="B45" s="92"/>
-      <c r="C45" s="242">
+      <c r="C45" s="247">
         <v>0.20830000000000001</v>
       </c>
-      <c r="D45" s="242"/>
+      <c r="D45" s="247"/>
       <c r="E45" s="81"/>
       <c r="F45" s="81"/>
       <c r="G45" s="81"/>
       <c r="H45" s="81"/>
-      <c r="I45" s="246"/>
-      <c r="J45" s="247"/>
+      <c r="I45" s="240"/>
+      <c r="J45" s="242"/>
       <c r="K45" s="80" t="s">
         <v>322</v>
       </c>
@@ -24252,16 +24252,16 @@
         <v>0.34708</v>
       </c>
       <c r="M45" s="92"/>
-      <c r="N45" s="242">
+      <c r="N45" s="247">
         <v>0.20830000000000001</v>
       </c>
-      <c r="O45" s="242"/>
+      <c r="O45" s="247"/>
       <c r="P45" s="81"/>
       <c r="Q45" s="81"/>
       <c r="R45" s="81"/>
       <c r="S45" s="81"/>
-      <c r="T45" s="246"/>
-      <c r="U45" s="247"/>
+      <c r="T45" s="240"/>
+      <c r="U45" s="242"/>
       <c r="AC45" t="s">
         <v>453</v>
       </c>
@@ -24271,14 +24271,14 @@
       <c r="B46" s="88"/>
       <c r="C46" s="88"/>
       <c r="D46" s="88"/>
-      <c r="E46" s="243">
+      <c r="E46" s="251">
         <v>0.52559999999999996</v>
       </c>
-      <c r="F46" s="243"/>
+      <c r="F46" s="251"/>
       <c r="G46" s="88"/>
       <c r="H46" s="88"/>
-      <c r="I46" s="244"/>
-      <c r="J46" s="245"/>
+      <c r="I46" s="243"/>
+      <c r="J46" s="244"/>
       <c r="K46" s="87" t="s">
         <v>323</v>
       </c>
@@ -24286,14 +24286,14 @@
       <c r="M46" s="88"/>
       <c r="N46" s="88"/>
       <c r="O46" s="88"/>
-      <c r="P46" s="243">
+      <c r="P46" s="251">
         <v>0.52559999999999996</v>
       </c>
-      <c r="Q46" s="243"/>
+      <c r="Q46" s="251"/>
       <c r="R46" s="88"/>
       <c r="S46" s="88"/>
-      <c r="T46" s="244"/>
-      <c r="U46" s="245"/>
+      <c r="T46" s="243"/>
+      <c r="U46" s="244"/>
       <c r="W46" t="s">
         <v>373</v>
       </c>
@@ -24312,8 +24312,8 @@
         <v>0.84328000000000003</v>
       </c>
       <c r="H47" s="88"/>
-      <c r="I47" s="244"/>
-      <c r="J47" s="245"/>
+      <c r="I47" s="243"/>
+      <c r="J47" s="244"/>
       <c r="K47" s="87" t="s">
         <v>324</v>
       </c>
@@ -24327,8 +24327,8 @@
         <v>0.85308558139534874</v>
       </c>
       <c r="S47" s="88"/>
-      <c r="T47" s="244"/>
-      <c r="U47" s="245"/>
+      <c r="T47" s="243"/>
+      <c r="U47" s="244"/>
     </row>
     <row r="48" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="85"/>
@@ -24341,10 +24341,10 @@
         <v>0.23543</v>
       </c>
       <c r="H48" s="85"/>
-      <c r="I48" s="248">
+      <c r="I48" s="245">
         <v>0.13220000000000001</v>
       </c>
-      <c r="J48" s="249"/>
+      <c r="J48" s="246"/>
       <c r="K48" s="84" t="s">
         <v>326</v>
       </c>
@@ -24358,11 +24358,11 @@
         <v>0.27375581395348836</v>
       </c>
       <c r="S48" s="85"/>
-      <c r="T48" s="248">
+      <c r="T48" s="245">
         <f>13.22%*1.16</f>
         <v>0.15335200000000002</v>
       </c>
-      <c r="U48" s="249"/>
+      <c r="U48" s="246"/>
       <c r="W48" t="s">
         <v>455</v>
       </c>
@@ -24375,14 +24375,14 @@
       <c r="B49" s="94"/>
       <c r="C49" s="94"/>
       <c r="D49" s="94"/>
-      <c r="E49" s="250">
+      <c r="E49" s="248">
         <v>0.43773000000000001</v>
       </c>
-      <c r="F49" s="250"/>
+      <c r="F49" s="248"/>
       <c r="G49" s="94"/>
       <c r="H49" s="94"/>
-      <c r="I49" s="251"/>
-      <c r="J49" s="252"/>
+      <c r="I49" s="249"/>
+      <c r="J49" s="250"/>
       <c r="K49" s="93" t="s">
         <v>367</v>
       </c>
@@ -24390,14 +24390,14 @@
       <c r="M49" s="94"/>
       <c r="N49" s="94"/>
       <c r="O49" s="94"/>
-      <c r="P49" s="250">
+      <c r="P49" s="248">
         <v>0.43773000000000001</v>
       </c>
-      <c r="Q49" s="250"/>
+      <c r="Q49" s="248"/>
       <c r="R49" s="94"/>
       <c r="S49" s="94"/>
-      <c r="T49" s="251"/>
-      <c r="U49" s="252"/>
+      <c r="T49" s="249"/>
+      <c r="U49" s="250"/>
       <c r="V49" s="40"/>
       <c r="W49" t="s">
         <v>457</v>
@@ -24408,16 +24408,16 @@
         <v>0.47361999999999999</v>
       </c>
       <c r="B50" s="92"/>
-      <c r="C50" s="242">
+      <c r="C50" s="247">
         <v>0.28101999999999999</v>
       </c>
-      <c r="D50" s="242"/>
+      <c r="D50" s="247"/>
       <c r="E50" s="81"/>
       <c r="F50" s="81"/>
       <c r="G50" s="81"/>
       <c r="H50" s="81"/>
-      <c r="I50" s="246"/>
-      <c r="J50" s="247"/>
+      <c r="I50" s="240"/>
+      <c r="J50" s="242"/>
       <c r="K50" s="80" t="s">
         <v>328</v>
       </c>
@@ -24425,23 +24425,23 @@
         <v>0.47361999999999999</v>
       </c>
       <c r="M50" s="92"/>
-      <c r="N50" s="242">
+      <c r="N50" s="247">
         <v>0.28101999999999999</v>
       </c>
-      <c r="O50" s="242"/>
+      <c r="O50" s="247"/>
       <c r="P50" s="81"/>
       <c r="Q50" s="81"/>
       <c r="R50" s="81"/>
       <c r="S50" s="81"/>
-      <c r="T50" s="246"/>
-      <c r="U50" s="247"/>
+      <c r="T50" s="240"/>
+      <c r="U50" s="242"/>
       <c r="W50" t="s">
         <v>458</v>
       </c>
-      <c r="AC50" s="258" t="s">
+      <c r="AC50" s="256" t="s">
         <v>251</v>
       </c>
-      <c r="AD50" s="258"/>
+      <c r="AD50" s="256"/>
     </row>
     <row r="51" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A51" s="88"/>
@@ -24454,8 +24454,8 @@
         <v>0.71950000000000003</v>
       </c>
       <c r="H51" s="88"/>
-      <c r="I51" s="244"/>
-      <c r="J51" s="245"/>
+      <c r="I51" s="243"/>
+      <c r="J51" s="244"/>
       <c r="K51" s="87" t="s">
         <v>329</v>
       </c>
@@ -24469,8 +24469,8 @@
         <v>0.66930232558139535</v>
       </c>
       <c r="S51" s="88"/>
-      <c r="T51" s="244"/>
-      <c r="U51" s="245"/>
+      <c r="T51" s="243"/>
+      <c r="U51" s="244"/>
       <c r="W51" t="s">
         <v>459</v>
       </c>
@@ -24486,10 +24486,10 @@
         <v>0.20451</v>
       </c>
       <c r="H52" s="85"/>
-      <c r="I52" s="248">
+      <c r="I52" s="245">
         <v>9.1600000000000001E-2</v>
       </c>
-      <c r="J52" s="249"/>
+      <c r="J52" s="246"/>
       <c r="K52" s="84" t="s">
         <v>331</v>
       </c>
@@ -24503,10 +24503,10 @@
         <v>0.23780232558139536</v>
       </c>
       <c r="S52" s="85"/>
-      <c r="T52" s="248">
+      <c r="T52" s="245">
         <v>9.1600000000000001E-2</v>
       </c>
-      <c r="U52" s="249"/>
+      <c r="U52" s="246"/>
       <c r="W52" t="s">
         <v>460</v>
       </c>
@@ -24519,16 +24519,16 @@
         <v>0.17321</v>
       </c>
       <c r="B53" s="92"/>
-      <c r="C53" s="242">
+      <c r="C53" s="247">
         <v>9.2929999999999999E-2</v>
       </c>
-      <c r="D53" s="242"/>
+      <c r="D53" s="247"/>
       <c r="E53" s="81"/>
       <c r="F53" s="81"/>
       <c r="G53" s="81"/>
       <c r="H53" s="81"/>
-      <c r="I53" s="246"/>
-      <c r="J53" s="247"/>
+      <c r="I53" s="240"/>
+      <c r="J53" s="242"/>
       <c r="K53" s="80" t="s">
         <v>333</v>
       </c>
@@ -24536,17 +24536,17 @@
         <v>0.17321</v>
       </c>
       <c r="M53" s="92"/>
-      <c r="N53" s="242">
+      <c r="N53" s="247">
         <f>9.293%*0.8</f>
         <v>7.4344000000000007E-2</v>
       </c>
-      <c r="O53" s="242"/>
+      <c r="O53" s="247"/>
       <c r="P53" s="81"/>
       <c r="Q53" s="81"/>
       <c r="R53" s="81"/>
       <c r="S53" s="81"/>
-      <c r="T53" s="246"/>
-      <c r="U53" s="247"/>
+      <c r="T53" s="240"/>
+      <c r="U53" s="242"/>
       <c r="W53" t="s">
         <v>461</v>
       </c>
@@ -24565,8 +24565,8 @@
         <v>1</v>
       </c>
       <c r="H54" s="88"/>
-      <c r="I54" s="244"/>
-      <c r="J54" s="245"/>
+      <c r="I54" s="243"/>
+      <c r="J54" s="244"/>
       <c r="K54" s="87" t="s">
         <v>335</v>
       </c>
@@ -24580,8 +24580,8 @@
         <v>1</v>
       </c>
       <c r="S54" s="88"/>
-      <c r="T54" s="244"/>
-      <c r="U54" s="245"/>
+      <c r="T54" s="243"/>
+      <c r="U54" s="244"/>
       <c r="W54" t="s">
         <v>462</v>
       </c>
@@ -24600,10 +24600,10 @@
         <v>0.26967000000000002</v>
       </c>
       <c r="H55" s="85"/>
-      <c r="I55" s="248">
+      <c r="I55" s="245">
         <v>0.1535</v>
       </c>
-      <c r="J55" s="249"/>
+      <c r="J55" s="246"/>
       <c r="K55" s="84" t="s">
         <v>337</v>
       </c>
@@ -24617,10 +24617,10 @@
         <v>0.31356976744186049</v>
       </c>
       <c r="S55" s="85"/>
-      <c r="T55" s="248">
+      <c r="T55" s="245">
         <v>0.1535</v>
       </c>
-      <c r="U55" s="249"/>
+      <c r="U55" s="246"/>
       <c r="V55" s="40"/>
       <c r="W55" t="s">
         <v>463</v>
@@ -24631,14 +24631,14 @@
       <c r="B56" s="94"/>
       <c r="C56" s="94"/>
       <c r="D56" s="94"/>
-      <c r="E56" s="250">
+      <c r="E56" s="248">
         <v>0.43773000000000001</v>
       </c>
-      <c r="F56" s="250"/>
+      <c r="F56" s="248"/>
       <c r="G56" s="94"/>
       <c r="H56" s="94"/>
-      <c r="I56" s="251"/>
-      <c r="J56" s="252"/>
+      <c r="I56" s="249"/>
+      <c r="J56" s="250"/>
       <c r="K56" s="93" t="s">
         <v>368</v>
       </c>
@@ -24646,15 +24646,15 @@
       <c r="M56" s="94"/>
       <c r="N56" s="94"/>
       <c r="O56" s="94"/>
-      <c r="P56" s="250">
+      <c r="P56" s="248">
         <f>43.773%*0.8</f>
         <v>0.35018400000000005</v>
       </c>
-      <c r="Q56" s="250"/>
+      <c r="Q56" s="248"/>
       <c r="R56" s="94"/>
       <c r="S56" s="94"/>
-      <c r="T56" s="251"/>
-      <c r="U56" s="252"/>
+      <c r="T56" s="249"/>
+      <c r="U56" s="250"/>
       <c r="V56" s="40"/>
       <c r="W56" t="s">
         <v>464</v>
@@ -24668,16 +24668,16 @@
         <v>0.28996</v>
       </c>
       <c r="B57" s="92"/>
-      <c r="C57" s="242">
+      <c r="C57" s="247">
         <v>0.25344</v>
       </c>
-      <c r="D57" s="242"/>
+      <c r="D57" s="247"/>
       <c r="E57" s="81"/>
       <c r="F57" s="81"/>
       <c r="G57" s="81"/>
       <c r="H57" s="81"/>
-      <c r="I57" s="246"/>
-      <c r="J57" s="247"/>
+      <c r="I57" s="240"/>
+      <c r="J57" s="242"/>
       <c r="K57" s="80" t="s">
         <v>340</v>
       </c>
@@ -24685,16 +24685,16 @@
         <v>0.28996</v>
       </c>
       <c r="M57" s="92"/>
-      <c r="N57" s="242">
+      <c r="N57" s="247">
         <v>0.25344</v>
       </c>
-      <c r="O57" s="242"/>
+      <c r="O57" s="247"/>
       <c r="P57" s="81"/>
       <c r="Q57" s="81"/>
       <c r="R57" s="81"/>
       <c r="S57" s="81"/>
-      <c r="T57" s="246"/>
-      <c r="U57" s="247"/>
+      <c r="T57" s="240"/>
+      <c r="U57" s="242"/>
       <c r="V57" s="40"/>
       <c r="W57" t="s">
         <v>466</v>
@@ -24705,14 +24705,14 @@
       <c r="B58" s="88"/>
       <c r="C58" s="88"/>
       <c r="D58" s="88"/>
-      <c r="E58" s="243">
+      <c r="E58" s="251">
         <v>0.65949000000000002</v>
       </c>
-      <c r="F58" s="243"/>
+      <c r="F58" s="251"/>
       <c r="G58" s="88"/>
       <c r="H58" s="88"/>
-      <c r="I58" s="244"/>
-      <c r="J58" s="245"/>
+      <c r="I58" s="243"/>
+      <c r="J58" s="244"/>
       <c r="K58" s="87" t="s">
         <v>342</v>
       </c>
@@ -24720,15 +24720,15 @@
       <c r="M58" s="88"/>
       <c r="N58" s="88"/>
       <c r="O58" s="88"/>
-      <c r="P58" s="243">
+      <c r="P58" s="251">
         <f>65.949%*1.1</f>
         <v>0.72543900000000006</v>
       </c>
-      <c r="Q58" s="243"/>
+      <c r="Q58" s="251"/>
       <c r="R58" s="88"/>
       <c r="S58" s="88"/>
-      <c r="T58" s="244"/>
-      <c r="U58" s="245"/>
+      <c r="T58" s="243"/>
+      <c r="U58" s="244"/>
       <c r="V58" s="40"/>
       <c r="W58" t="s">
         <v>467</v>
@@ -24748,8 +24748,8 @@
         <v>0.56411</v>
       </c>
       <c r="H59" s="88"/>
-      <c r="I59" s="244"/>
-      <c r="J59" s="245"/>
+      <c r="I59" s="243"/>
+      <c r="J59" s="244"/>
       <c r="K59" s="87" t="s">
         <v>344</v>
       </c>
@@ -24763,8 +24763,8 @@
         <v>0.70185779069767451</v>
       </c>
       <c r="S59" s="88"/>
-      <c r="T59" s="244"/>
-      <c r="U59" s="245"/>
+      <c r="T59" s="243"/>
+      <c r="U59" s="244"/>
       <c r="V59" s="40"/>
       <c r="W59" t="s">
         <v>468</v>
@@ -24781,10 +24781,10 @@
         <v>0.14326</v>
       </c>
       <c r="H60" s="85"/>
-      <c r="I60" s="248">
+      <c r="I60" s="245">
         <v>0.17191999999999999</v>
       </c>
-      <c r="J60" s="249"/>
+      <c r="J60" s="246"/>
       <c r="K60" s="84" t="s">
         <v>346</v>
       </c>
@@ -24798,11 +24798,11 @@
         <v>0.2082267441860465</v>
       </c>
       <c r="S60" s="85"/>
-      <c r="T60" s="248">
+      <c r="T60" s="245">
         <f>17.192%</f>
         <v>0.17191999999999999</v>
       </c>
-      <c r="U60" s="249"/>
+      <c r="U60" s="246"/>
       <c r="V60" s="40"/>
       <c r="W60" t="s">
         <v>469</v>
@@ -24822,8 +24822,8 @@
         <v>0.19162000000000001</v>
       </c>
       <c r="H61" s="81"/>
-      <c r="I61" s="246"/>
-      <c r="J61" s="247"/>
+      <c r="I61" s="240"/>
+      <c r="J61" s="242"/>
       <c r="K61" s="80" t="s">
         <v>348</v>
       </c>
@@ -24837,8 +24837,8 @@
         <v>0.22281395348837213</v>
       </c>
       <c r="S61" s="81"/>
-      <c r="T61" s="246"/>
-      <c r="U61" s="247"/>
+      <c r="T61" s="240"/>
+      <c r="U61" s="242"/>
       <c r="V61" s="40"/>
       <c r="W61" t="s">
         <v>471</v>
@@ -24858,8 +24858,8 @@
         <v>0.49523</v>
       </c>
       <c r="H62" s="88"/>
-      <c r="I62" s="244"/>
-      <c r="J62" s="245"/>
+      <c r="I62" s="243"/>
+      <c r="J62" s="244"/>
       <c r="K62" s="87" t="s">
         <v>349</v>
       </c>
@@ -24873,8 +24873,8 @@
         <v>0.57584883720930236</v>
       </c>
       <c r="S62" s="88"/>
-      <c r="T62" s="244"/>
-      <c r="U62" s="245"/>
+      <c r="T62" s="243"/>
+      <c r="U62" s="244"/>
       <c r="V62" s="40"/>
       <c r="W62" t="s">
         <v>473</v>
@@ -24901,10 +24901,10 @@
       <c r="M63" s="88"/>
       <c r="N63" s="88"/>
       <c r="O63" s="88"/>
-      <c r="P63" s="246">
+      <c r="P63" s="240">
         <v>0.15</v>
       </c>
-      <c r="Q63" s="255"/>
+      <c r="Q63" s="241"/>
       <c r="R63" s="88"/>
       <c r="S63" s="88"/>
       <c r="T63" s="108"/>
@@ -24928,10 +24928,10 @@
         <v>0.47439999999999999</v>
       </c>
       <c r="H64" s="88"/>
-      <c r="I64" s="244">
+      <c r="I64" s="243">
         <v>0.60697000000000001</v>
       </c>
-      <c r="J64" s="245"/>
+      <c r="J64" s="244"/>
       <c r="K64" s="87" t="s">
         <v>350</v>
       </c>
@@ -24945,10 +24945,10 @@
         <v>0.55162790697674413</v>
       </c>
       <c r="S64" s="88"/>
-      <c r="T64" s="244">
+      <c r="T64" s="243">
         <v>0.60697000000000001</v>
       </c>
-      <c r="U64" s="245"/>
+      <c r="U64" s="244"/>
       <c r="V64" s="40"/>
       <c r="W64" t="s">
         <v>477</v>
@@ -24968,10 +24968,10 @@
         <v>0.16774</v>
       </c>
       <c r="H65" s="85"/>
-      <c r="I65" s="248">
+      <c r="I65" s="245">
         <v>0.24779999999999999</v>
       </c>
-      <c r="J65" s="249"/>
+      <c r="J65" s="246"/>
       <c r="K65" s="84" t="s">
         <v>351</v>
       </c>
@@ -24985,10 +24985,10 @@
         <v>0.19504651162790698</v>
       </c>
       <c r="S65" s="85"/>
-      <c r="T65" s="248">
+      <c r="T65" s="245">
         <v>0.24779999999999999</v>
       </c>
-      <c r="U65" s="249"/>
+      <c r="U65" s="246"/>
       <c r="V65" s="40"/>
       <c r="W65" t="s">
         <v>479</v>
@@ -25002,14 +25002,14 @@
       <c r="B66" s="81"/>
       <c r="C66" s="81"/>
       <c r="D66" s="81"/>
-      <c r="E66" s="246">
+      <c r="E66" s="240">
         <v>0.45617999999999997</v>
       </c>
-      <c r="F66" s="255"/>
+      <c r="F66" s="241"/>
       <c r="G66" s="81"/>
       <c r="H66" s="81"/>
-      <c r="I66" s="246"/>
-      <c r="J66" s="247"/>
+      <c r="I66" s="240"/>
+      <c r="J66" s="242"/>
       <c r="K66" s="80" t="s">
         <v>352</v>
       </c>
@@ -25017,14 +25017,14 @@
       <c r="M66" s="81"/>
       <c r="N66" s="81"/>
       <c r="O66" s="81"/>
-      <c r="P66" s="246">
+      <c r="P66" s="240">
         <v>0.45617999999999997</v>
       </c>
-      <c r="Q66" s="255"/>
+      <c r="Q66" s="241"/>
       <c r="R66" s="81"/>
       <c r="S66" s="81"/>
-      <c r="T66" s="246"/>
-      <c r="U66" s="247"/>
+      <c r="T66" s="240"/>
+      <c r="U66" s="242"/>
       <c r="V66" s="40"/>
       <c r="W66" t="s">
         <v>481</v>
@@ -25044,10 +25044,10 @@
         <v>0.28649999999999998</v>
       </c>
       <c r="H67" s="88"/>
-      <c r="I67" s="244">
+      <c r="I67" s="243">
         <v>0.80176999999999998</v>
       </c>
-      <c r="J67" s="245"/>
+      <c r="J67" s="244"/>
       <c r="K67" s="87" t="s">
         <v>353</v>
       </c>
@@ -25061,10 +25061,10 @@
         <v>0.33313953488372089</v>
       </c>
       <c r="S67" s="88"/>
-      <c r="T67" s="244">
+      <c r="T67" s="243">
         <v>0.50800000000000001</v>
       </c>
-      <c r="U67" s="245"/>
+      <c r="U67" s="244"/>
       <c r="V67" s="40"/>
       <c r="AC67" t="s">
         <v>483</v>
@@ -25081,10 +25081,10 @@
         <v>0.20932000000000001</v>
       </c>
       <c r="H68" s="88"/>
-      <c r="I68" s="244">
+      <c r="I68" s="243">
         <v>0.50775999999999999</v>
       </c>
-      <c r="J68" s="245"/>
+      <c r="J68" s="244"/>
       <c r="K68" s="87" t="s">
         <v>355</v>
       </c>
@@ -25098,10 +25098,10 @@
         <v>0.24339534883720934</v>
       </c>
       <c r="S68" s="88"/>
-      <c r="T68" s="244">
+      <c r="T68" s="243">
         <v>0.50775999999999999</v>
       </c>
-      <c r="U68" s="245"/>
+      <c r="U68" s="244"/>
       <c r="V68" s="40"/>
       <c r="AC68" t="s">
         <v>484</v>
@@ -25118,8 +25118,8 @@
         <v>0.14599000000000001</v>
       </c>
       <c r="H69" s="88"/>
-      <c r="I69" s="244"/>
-      <c r="J69" s="245"/>
+      <c r="I69" s="243"/>
+      <c r="J69" s="244"/>
       <c r="K69" s="87" t="s">
         <v>356</v>
       </c>
@@ -25133,13 +25133,13 @@
         <v>0.16975581395348838</v>
       </c>
       <c r="S69" s="88"/>
-      <c r="T69" s="244"/>
-      <c r="U69" s="245"/>
+      <c r="T69" s="243"/>
+      <c r="U69" s="244"/>
       <c r="V69" s="40"/>
-      <c r="W69" s="258" t="s">
+      <c r="W69" s="256" t="s">
         <v>236</v>
       </c>
-      <c r="X69" s="258"/>
+      <c r="X69" s="256"/>
       <c r="AC69" t="s">
         <v>485</v>
       </c>
@@ -25155,10 +25155,10 @@
         <v>0.12414</v>
       </c>
       <c r="H70" s="85"/>
-      <c r="I70" s="248">
+      <c r="I70" s="245">
         <v>0.61785000000000001</v>
       </c>
-      <c r="J70" s="249"/>
+      <c r="J70" s="246"/>
       <c r="K70" s="84" t="s">
         <v>357</v>
       </c>
@@ -25172,10 +25172,10 @@
         <v>0.14434883720930233</v>
       </c>
       <c r="S70" s="85"/>
-      <c r="T70" s="248">
+      <c r="T70" s="245">
         <v>0.61785000000000001</v>
       </c>
-      <c r="U70" s="249"/>
+      <c r="U70" s="246"/>
       <c r="V70" s="40"/>
       <c r="AC70" t="s">
         <v>486</v>
@@ -25192,10 +25192,10 @@
         <v>0.23763000000000001</v>
       </c>
       <c r="H71" s="81"/>
-      <c r="I71" s="246">
+      <c r="I71" s="240">
         <v>1</v>
       </c>
-      <c r="J71" s="247"/>
+      <c r="J71" s="242"/>
       <c r="K71" s="80" t="s">
         <v>358</v>
       </c>
@@ -25209,10 +25209,10 @@
         <v>0.27631395348837212</v>
       </c>
       <c r="S71" s="81"/>
-      <c r="T71" s="246">
+      <c r="T71" s="240">
         <v>1</v>
       </c>
-      <c r="U71" s="247"/>
+      <c r="U71" s="242"/>
       <c r="V71" s="40"/>
       <c r="W71" t="s">
         <v>282</v>
@@ -25239,10 +25239,10 @@
       <c r="M72" s="110"/>
       <c r="N72" s="110"/>
       <c r="O72" s="110"/>
-      <c r="P72" s="246">
+      <c r="P72" s="240">
         <v>0.25</v>
       </c>
-      <c r="Q72" s="255"/>
+      <c r="Q72" s="241"/>
       <c r="R72" s="110"/>
       <c r="S72" s="110"/>
       <c r="T72" s="111"/>
@@ -25266,8 +25266,8 @@
         <v>0.17316000000000001</v>
       </c>
       <c r="H73" s="88"/>
-      <c r="I73" s="244"/>
-      <c r="J73" s="245"/>
+      <c r="I73" s="243"/>
+      <c r="J73" s="244"/>
       <c r="K73" s="87" t="s">
         <v>359</v>
       </c>
@@ -25281,8 +25281,8 @@
         <v>0.20134883720930236</v>
       </c>
       <c r="S73" s="88"/>
-      <c r="T73" s="244"/>
-      <c r="U73" s="245"/>
+      <c r="T73" s="243"/>
+      <c r="U73" s="244"/>
       <c r="V73" s="40"/>
       <c r="W73" t="s">
         <v>288</v>
@@ -25302,10 +25302,10 @@
         <v>0.12317</v>
       </c>
       <c r="H74" s="85"/>
-      <c r="I74" s="248">
+      <c r="I74" s="245">
         <v>0.33643600000000001</v>
       </c>
-      <c r="J74" s="249"/>
+      <c r="J74" s="246"/>
       <c r="K74" s="84" t="s">
         <v>360</v>
       </c>
@@ -25319,10 +25319,10 @@
         <v>0.14322093023255814</v>
       </c>
       <c r="S74" s="85"/>
-      <c r="T74" s="248">
+      <c r="T74" s="245">
         <v>0.33643600000000001</v>
       </c>
-      <c r="U74" s="249"/>
+      <c r="U74" s="246"/>
       <c r="V74" s="40"/>
       <c r="AC74" t="s">
         <v>490</v>
@@ -25339,10 +25339,10 @@
         <v>0.20199</v>
       </c>
       <c r="H75" s="81"/>
-      <c r="I75" s="246">
+      <c r="I75" s="240">
         <v>0.85</v>
       </c>
-      <c r="J75" s="247"/>
+      <c r="J75" s="242"/>
       <c r="K75" s="80" t="s">
         <v>361</v>
       </c>
@@ -25356,10 +25356,10 @@
         <v>0.23487209302325585</v>
       </c>
       <c r="S75" s="81"/>
-      <c r="T75" s="246">
+      <c r="T75" s="240">
         <v>0.85</v>
       </c>
-      <c r="U75" s="247"/>
+      <c r="U75" s="242"/>
       <c r="V75" s="40"/>
       <c r="W75" t="s">
         <v>293</v>
@@ -25379,8 +25379,8 @@
         <v>0.17718999999999999</v>
       </c>
       <c r="H76" s="88"/>
-      <c r="I76" s="244"/>
-      <c r="J76" s="245"/>
+      <c r="I76" s="243"/>
+      <c r="J76" s="244"/>
       <c r="K76" s="87" t="s">
         <v>362</v>
       </c>
@@ -25394,8 +25394,8 @@
         <v>0.20603488372093021</v>
       </c>
       <c r="S76" s="88"/>
-      <c r="T76" s="244"/>
-      <c r="U76" s="245"/>
+      <c r="T76" s="243"/>
+      <c r="U76" s="244"/>
       <c r="V76" s="40"/>
       <c r="W76" t="s">
         <v>296</v>
@@ -25415,10 +25415,10 @@
         <v>0.1047</v>
       </c>
       <c r="H77" s="100"/>
-      <c r="I77" s="253">
+      <c r="I77" s="238">
         <v>0.28591</v>
       </c>
-      <c r="J77" s="254"/>
+      <c r="J77" s="239"/>
       <c r="K77" s="99" t="s">
         <v>363</v>
       </c>
@@ -25432,10 +25432,10 @@
         <v>0.12174418604651163</v>
       </c>
       <c r="S77" s="100"/>
-      <c r="T77" s="253">
+      <c r="T77" s="238">
         <v>0.28591</v>
       </c>
-      <c r="U77" s="254"/>
+      <c r="U77" s="239"/>
       <c r="V77" s="40"/>
       <c r="AC77" t="s">
         <v>493</v>
@@ -25536,6 +25536,192 @@
     </row>
   </sheetData>
   <mergeCells count="210">
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="T45:U45"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="T48:U48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="T46:U46"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="T47:U47"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="T53:U53"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="T51:U51"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="T57:U57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="T58:U58"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="T54:U54"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="T55:U55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="T56:U56"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="T66:U66"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="T67:U67"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="T62:U62"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="T64:U64"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="T65:U65"/>
+    <mergeCell ref="I77:J77"/>
+    <mergeCell ref="T77:U77"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="T71:U71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="I73:J73"/>
+    <mergeCell ref="T73:U73"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="T74:U74"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="W37:X37"/>
@@ -25560,192 +25746,6 @@
     <mergeCell ref="I52:J52"/>
     <mergeCell ref="T52:U52"/>
     <mergeCell ref="I48:J48"/>
-    <mergeCell ref="I77:J77"/>
-    <mergeCell ref="T77:U77"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="T71:U71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="I73:J73"/>
-    <mergeCell ref="T73:U73"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="T74:U74"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="T66:U66"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="T67:U67"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="T62:U62"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="T64:U64"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="T65:U65"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="T57:U57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="T58:U58"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="T54:U54"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="T55:U55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="T56:U56"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="T53:U53"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="T50:U50"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="T51:U51"/>
-    <mergeCell ref="T48:U48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="T46:U46"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="T47:U47"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="T45:U45"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="T42:U42"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="T43:U43"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="T41:U41"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="T39:U39"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="T40:U40"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="T36:U36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:J48 A50:J77">
     <cfRule type="cellIs" dxfId="21" priority="13" operator="between">
@@ -61030,8 +61030,8 @@
   </sheetPr>
   <dimension ref="A1:W38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -61285,7 +61285,7 @@
         <v>4</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K17" si="1">K3+J4</f>
+        <f>K3+J4</f>
         <v>10</v>
       </c>
       <c r="M4" t="s">
@@ -61301,7 +61301,7 @@
         <v>3</v>
       </c>
       <c r="Q4">
-        <f t="shared" ref="Q4:Q18" si="2">Q3+P4</f>
+        <f t="shared" ref="Q4:Q18" si="1">Q3+P4</f>
         <v>9</v>
       </c>
       <c r="S4" t="s">
@@ -61317,7 +61317,7 @@
         <v>2</v>
       </c>
       <c r="W4">
-        <f t="shared" ref="W4:W18" si="3">W3+V4</f>
+        <f t="shared" ref="W4:W18" si="2">W3+V4</f>
         <v>5.5</v>
       </c>
     </row>
@@ -61351,7 +61351,7 @@
         <v>4</v>
       </c>
       <c r="K5">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="K4:K17" si="3">K4+J5</f>
         <v>14</v>
       </c>
       <c r="M5" t="s">
@@ -61367,7 +61367,7 @@
         <v>3</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="S5" t="s">
@@ -61383,7 +61383,7 @@
         <v>3</v>
       </c>
       <c r="W5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>8.5</v>
       </c>
     </row>
@@ -61417,7 +61417,7 @@
         <v>4</v>
       </c>
       <c r="K6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="M6" t="s">
@@ -61433,7 +61433,7 @@
         <v>4</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="S6" t="s">
@@ -61449,7 +61449,7 @@
         <v>2</v>
       </c>
       <c r="W6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10.5</v>
       </c>
     </row>
@@ -61483,7 +61483,7 @@
         <v>6</v>
       </c>
       <c r="K7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="M7" t="s">
@@ -61499,7 +61499,7 @@
         <v>5</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="S7" t="s">
@@ -61515,7 +61515,7 @@
         <v>4</v>
       </c>
       <c r="W7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>14.5</v>
       </c>
     </row>
@@ -61549,7 +61549,7 @@
         <v>6</v>
       </c>
       <c r="K8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="M8" t="s">
@@ -61565,7 +61565,7 @@
         <v>5</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="S8" t="s">
@@ -61581,7 +61581,7 @@
         <v>3</v>
       </c>
       <c r="W8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>17.5</v>
       </c>
     </row>
@@ -61615,7 +61615,7 @@
         <v>7</v>
       </c>
       <c r="K9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="M9" t="s">
@@ -61631,7 +61631,7 @@
         <v>7</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="S9" t="s">
@@ -61647,7 +61647,7 @@
         <v>5</v>
       </c>
       <c r="W9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>22.5</v>
       </c>
     </row>
@@ -61681,7 +61681,7 @@
         <v>9</v>
       </c>
       <c r="K10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>46</v>
       </c>
       <c r="M10" t="s">
@@ -61697,7 +61697,7 @@
         <v>7</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="S10" t="s">
@@ -61713,7 +61713,7 @@
         <v>5</v>
       </c>
       <c r="W10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>27.5</v>
       </c>
     </row>
@@ -61747,7 +61747,7 @@
         <v>10</v>
       </c>
       <c r="K11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>56</v>
       </c>
       <c r="M11" t="s">
@@ -61763,7 +61763,7 @@
         <v>8</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="S11" t="s">
@@ -61779,7 +61779,7 @@
         <v>5</v>
       </c>
       <c r="W11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>32.5</v>
       </c>
     </row>
@@ -61813,7 +61813,7 @@
         <v>11</v>
       </c>
       <c r="K12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>67</v>
       </c>
       <c r="M12" t="s">
@@ -61829,7 +61829,7 @@
         <v>10</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="S12" t="s">
@@ -61845,7 +61845,7 @@
         <v>7</v>
       </c>
       <c r="W12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>39.5</v>
       </c>
     </row>
@@ -61879,7 +61879,7 @@
         <v>12</v>
       </c>
       <c r="K13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>79</v>
       </c>
       <c r="M13" t="s">
@@ -61895,7 +61895,7 @@
         <v>10</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>68</v>
       </c>
       <c r="S13" t="s">
@@ -61911,7 +61911,7 @@
         <v>7</v>
       </c>
       <c r="W13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>46.5</v>
       </c>
     </row>
@@ -61945,7 +61945,7 @@
         <v>16</v>
       </c>
       <c r="K14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>95</v>
       </c>
       <c r="M14" t="s">
@@ -61961,7 +61961,7 @@
         <v>13</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>81</v>
       </c>
       <c r="S14" t="s">
@@ -61977,7 +61977,7 @@
         <v>9</v>
       </c>
       <c r="W14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>55.5</v>
       </c>
     </row>
@@ -62011,7 +62011,7 @@
         <v>18</v>
       </c>
       <c r="K15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>113</v>
       </c>
       <c r="M15" t="s">
@@ -62027,7 +62027,7 @@
         <v>15</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>96</v>
       </c>
       <c r="S15" t="s">
@@ -62043,7 +62043,7 @@
         <v>10</v>
       </c>
       <c r="W15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>65.5</v>
       </c>
     </row>
@@ -62077,7 +62077,7 @@
         <v>23</v>
       </c>
       <c r="K16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>136</v>
       </c>
       <c r="M16" t="s">
@@ -62093,7 +62093,7 @@
         <v>19</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>115</v>
       </c>
       <c r="S16" t="s">
@@ -62109,7 +62109,7 @@
         <v>12</v>
       </c>
       <c r="W16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>77.5</v>
       </c>
     </row>
@@ -62143,7 +62143,7 @@
         <v>36</v>
       </c>
       <c r="K17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>172</v>
       </c>
       <c r="M17" t="s">
@@ -62159,7 +62159,7 @@
         <v>26</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>141</v>
       </c>
       <c r="S17" t="s">
@@ -62175,7 +62175,7 @@
         <v>15</v>
       </c>
       <c r="W17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>92.5</v>
       </c>
     </row>
@@ -62218,7 +62218,7 @@
         <v>58</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>199</v>
       </c>
       <c r="S18" t="s">
@@ -62234,7 +62234,7 @@
         <v>21</v>
       </c>
       <c r="W18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>113.5</v>
       </c>
     </row>
@@ -63158,6 +63158,232 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B8A9872-285B-44B5-B760-86054E2CE794}">
+  <sheetPr>
+    <tabColor theme="7" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:O23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="69" t="s">
+        <v>208</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <f>B1</f>
+        <v>0</v>
+      </c>
+      <c r="N1" s="70" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="69" t="s">
+        <v>210</v>
+      </c>
+      <c r="B2">
+        <v>11470</v>
+      </c>
+      <c r="C2">
+        <v>11470</v>
+      </c>
+      <c r="N2" s="70" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="69" t="s">
+        <v>212</v>
+      </c>
+      <c r="B3">
+        <v>135</v>
+      </c>
+      <c r="C3">
+        <v>165</v>
+      </c>
+      <c r="D3">
+        <v>32580</v>
+      </c>
+      <c r="N3" s="70" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="69" t="s">
+        <v>214</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="N4" s="70" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="B5">
+        <v>195</v>
+      </c>
+      <c r="C5">
+        <v>305</v>
+      </c>
+      <c r="N5" s="70" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="69" t="s">
+        <v>218</v>
+      </c>
+      <c r="B6">
+        <v>165</v>
+      </c>
+      <c r="C6">
+        <v>245</v>
+      </c>
+      <c r="N6" s="70" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="72">
+        <v>0</v>
+      </c>
+      <c r="C7" s="73">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="N7" s="70" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N8" s="70" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="74" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9" s="75">
+        <f>SUM(B1:B6)*(1+B7)</f>
+        <v>11965</v>
+      </c>
+      <c r="C9" s="75">
+        <f>SUM(C1:C6)*(1+C7)</f>
+        <v>12233.74</v>
+      </c>
+      <c r="N9" s="70" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="74" t="s">
+        <v>223</v>
+      </c>
+      <c r="B10" s="75">
+        <f>B9*1.2</f>
+        <v>14358</v>
+      </c>
+      <c r="C10" s="75">
+        <f>C9*1.2</f>
+        <v>14680.487999999999</v>
+      </c>
+      <c r="N10" s="70" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N11" s="70" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N12" s="70" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <f>4550-3190</f>
+        <v>1360</v>
+      </c>
+      <c r="N13" s="70" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <f>3670-3190</f>
+        <v>480</v>
+      </c>
+      <c r="C14" s="76">
+        <f>D3-B3</f>
+        <v>32445</v>
+      </c>
+      <c r="N14" s="70" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <f>B14/B13</f>
+        <v>0.35294117647058826</v>
+      </c>
+      <c r="C15">
+        <f>(C3-B3)</f>
+        <v>30</v>
+      </c>
+      <c r="N15" s="70" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C16" s="77">
+        <f>C15/C14</f>
+        <v>9.2464170134073042E-4</v>
+      </c>
+      <c r="N16" s="70" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="17" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N17" s="70" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="23" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="O23">
+        <f>18636/1.047</f>
+        <v>17799.426934097421</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42702488-9A23-4952-8D3F-5B7760F32032}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
@@ -63674,7 +63900,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B8CC896-CEFF-42DA-AD9C-EE3BB3129E18}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
@@ -64596,7 +64822,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EA6FAF9-E8CD-406B-8012-87809236FB29}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -64925,7 +65151,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333067A0-0BA2-478F-BBAB-B928C05A8F5B}">
   <sheetPr>
     <tabColor theme="1"/>
@@ -65103,7 +65329,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E71E42D-20B3-461E-A0AB-0A41212747EC}">
   <dimension ref="A1:J30"/>
   <sheetViews>
@@ -65130,460 +65356,460 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="230" t="s">
+      <c r="A4" s="234" t="s">
         <v>1130</v>
       </c>
-      <c r="B4" s="230" t="s">
+      <c r="B4" s="234" t="s">
         <v>1131</v>
       </c>
-      <c r="C4" s="230" t="s">
+      <c r="C4" s="234" t="s">
         <v>1132</v>
       </c>
-      <c r="D4" s="230" t="s">
+      <c r="D4" s="234" t="s">
         <v>1133</v>
       </c>
-      <c r="E4" s="232" t="s">
+      <c r="E4" s="236" t="s">
         <v>1134</v>
       </c>
-      <c r="F4" s="230" t="s">
+      <c r="F4" s="234" t="s">
         <v>1135</v>
       </c>
-      <c r="G4" s="230" t="s">
+      <c r="G4" s="234" t="s">
         <v>1136</v>
       </c>
-      <c r="H4" s="230" t="s">
+      <c r="H4" s="234" t="s">
         <v>1137</v>
       </c>
-      <c r="I4" s="230" t="s">
+      <c r="I4" s="234" t="s">
         <v>1138</v>
       </c>
-      <c r="J4" s="232" t="s">
+      <c r="J4" s="236" t="s">
         <v>1139</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="231"/>
-      <c r="B5" s="231"/>
-      <c r="C5" s="231"/>
-      <c r="D5" s="231"/>
-      <c r="E5" s="233"/>
-      <c r="F5" s="231"/>
-      <c r="G5" s="231"/>
-      <c r="H5" s="231"/>
-      <c r="I5" s="231"/>
-      <c r="J5" s="233"/>
+      <c r="A5" s="235"/>
+      <c r="B5" s="235"/>
+      <c r="C5" s="235"/>
+      <c r="D5" s="235"/>
+      <c r="E5" s="237"/>
+      <c r="F5" s="235"/>
+      <c r="G5" s="235"/>
+      <c r="H5" s="235"/>
+      <c r="I5" s="235"/>
+      <c r="J5" s="237"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="230" t="s">
+      <c r="A6" s="234" t="s">
         <v>1140</v>
       </c>
-      <c r="B6" s="234">
+      <c r="B6" s="232">
         <v>3563</v>
       </c>
-      <c r="C6" s="234">
+      <c r="C6" s="232">
         <v>3583</v>
       </c>
-      <c r="D6" s="234">
+      <c r="D6" s="232">
         <v>3689</v>
       </c>
-      <c r="E6" s="236">
+      <c r="E6" s="230">
         <v>3712</v>
       </c>
-      <c r="F6" s="234">
+      <c r="F6" s="232">
         <v>3656</v>
       </c>
-      <c r="G6" s="234">
+      <c r="G6" s="232">
         <v>3751</v>
       </c>
-      <c r="H6" s="234">
+      <c r="H6" s="232">
         <v>3693</v>
       </c>
-      <c r="I6" s="234">
+      <c r="I6" s="232">
         <v>3676</v>
       </c>
-      <c r="J6" s="236">
+      <c r="J6" s="230">
         <v>3638</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="231"/>
-      <c r="B7" s="235"/>
-      <c r="C7" s="235"/>
-      <c r="D7" s="235"/>
-      <c r="E7" s="237"/>
-      <c r="F7" s="235"/>
-      <c r="G7" s="235"/>
-      <c r="H7" s="235"/>
-      <c r="I7" s="235"/>
-      <c r="J7" s="237"/>
+      <c r="A7" s="235"/>
+      <c r="B7" s="233"/>
+      <c r="C7" s="233"/>
+      <c r="D7" s="233"/>
+      <c r="E7" s="231"/>
+      <c r="F7" s="233"/>
+      <c r="G7" s="233"/>
+      <c r="H7" s="233"/>
+      <c r="I7" s="233"/>
+      <c r="J7" s="231"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="230" t="s">
+      <c r="A8" s="234" t="s">
         <v>1141</v>
       </c>
-      <c r="B8" s="234">
+      <c r="B8" s="232">
         <v>2957</v>
       </c>
-      <c r="C8" s="234">
+      <c r="C8" s="232">
         <v>3253</v>
       </c>
-      <c r="D8" s="234">
+      <c r="D8" s="232">
         <v>3342</v>
       </c>
-      <c r="E8" s="236">
+      <c r="E8" s="230">
         <v>3325</v>
       </c>
-      <c r="F8" s="234">
+      <c r="F8" s="232">
         <v>3461</v>
       </c>
-      <c r="G8" s="234">
+      <c r="G8" s="232">
         <v>3392</v>
       </c>
-      <c r="H8" s="234">
+      <c r="H8" s="232">
         <v>3455</v>
       </c>
-      <c r="I8" s="234">
+      <c r="I8" s="232">
         <v>3369</v>
       </c>
-      <c r="J8" s="236">
+      <c r="J8" s="230">
         <v>3372</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="231"/>
-      <c r="B9" s="235"/>
-      <c r="C9" s="235"/>
-      <c r="D9" s="235"/>
-      <c r="E9" s="237"/>
-      <c r="F9" s="235"/>
-      <c r="G9" s="235"/>
-      <c r="H9" s="235"/>
-      <c r="I9" s="235"/>
-      <c r="J9" s="237"/>
+      <c r="A9" s="235"/>
+      <c r="B9" s="233"/>
+      <c r="C9" s="233"/>
+      <c r="D9" s="233"/>
+      <c r="E9" s="231"/>
+      <c r="F9" s="233"/>
+      <c r="G9" s="233"/>
+      <c r="H9" s="233"/>
+      <c r="I9" s="233"/>
+      <c r="J9" s="231"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="230" t="s">
+      <c r="A10" s="234" t="s">
         <v>1142</v>
       </c>
-      <c r="B10" s="234">
+      <c r="B10" s="232">
         <v>2354</v>
       </c>
-      <c r="C10" s="234">
+      <c r="C10" s="232">
         <v>2997</v>
       </c>
-      <c r="D10" s="234">
+      <c r="D10" s="232">
         <v>3041</v>
       </c>
-      <c r="E10" s="236">
+      <c r="E10" s="230">
         <v>3085</v>
       </c>
-      <c r="F10" s="234">
+      <c r="F10" s="232">
         <v>3118</v>
       </c>
-      <c r="G10" s="234">
+      <c r="G10" s="232">
         <v>3100</v>
       </c>
-      <c r="H10" s="234">
+      <c r="H10" s="232">
         <v>3130</v>
       </c>
-      <c r="I10" s="234">
+      <c r="I10" s="232">
         <v>3102</v>
       </c>
-      <c r="J10" s="236">
+      <c r="J10" s="230">
         <v>3098</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="231"/>
-      <c r="B11" s="235"/>
-      <c r="C11" s="235"/>
-      <c r="D11" s="235"/>
-      <c r="E11" s="237"/>
-      <c r="F11" s="235"/>
-      <c r="G11" s="235"/>
-      <c r="H11" s="235"/>
-      <c r="I11" s="235"/>
-      <c r="J11" s="237"/>
+      <c r="A11" s="235"/>
+      <c r="B11" s="233"/>
+      <c r="C11" s="233"/>
+      <c r="D11" s="233"/>
+      <c r="E11" s="231"/>
+      <c r="F11" s="233"/>
+      <c r="G11" s="233"/>
+      <c r="H11" s="233"/>
+      <c r="I11" s="233"/>
+      <c r="J11" s="231"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="230" t="s">
+      <c r="A12" s="234" t="s">
         <v>1143</v>
       </c>
-      <c r="B12" s="234"/>
-      <c r="C12" s="234">
+      <c r="B12" s="232"/>
+      <c r="C12" s="232">
         <v>2361</v>
       </c>
-      <c r="D12" s="234">
+      <c r="D12" s="232">
         <v>2778</v>
       </c>
-      <c r="E12" s="236">
+      <c r="E12" s="230">
         <v>2793</v>
       </c>
-      <c r="F12" s="234">
+      <c r="F12" s="232">
         <v>2808</v>
       </c>
-      <c r="G12" s="234">
+      <c r="G12" s="232">
         <v>2810</v>
       </c>
-      <c r="H12" s="234">
+      <c r="H12" s="232">
         <v>2814</v>
       </c>
-      <c r="I12" s="234">
+      <c r="I12" s="232">
         <v>2795</v>
       </c>
-      <c r="J12" s="236">
+      <c r="J12" s="230">
         <v>2793</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="231"/>
-      <c r="B13" s="235"/>
-      <c r="C13" s="235"/>
-      <c r="D13" s="235"/>
-      <c r="E13" s="237"/>
-      <c r="F13" s="235"/>
-      <c r="G13" s="235"/>
-      <c r="H13" s="235"/>
-      <c r="I13" s="235"/>
-      <c r="J13" s="237"/>
+      <c r="A13" s="235"/>
+      <c r="B13" s="233"/>
+      <c r="C13" s="233"/>
+      <c r="D13" s="233"/>
+      <c r="E13" s="231"/>
+      <c r="F13" s="233"/>
+      <c r="G13" s="233"/>
+      <c r="H13" s="233"/>
+      <c r="I13" s="233"/>
+      <c r="J13" s="231"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="230" t="s">
+      <c r="A14" s="234" t="s">
         <v>1144</v>
       </c>
-      <c r="B14" s="234"/>
-      <c r="C14" s="234"/>
-      <c r="D14" s="234">
+      <c r="B14" s="232"/>
+      <c r="C14" s="232"/>
+      <c r="D14" s="232">
         <v>2241</v>
       </c>
-      <c r="E14" s="236">
+      <c r="E14" s="230">
         <v>2467</v>
       </c>
-      <c r="F14" s="234">
+      <c r="F14" s="232">
         <v>2521</v>
       </c>
-      <c r="G14" s="234">
+      <c r="G14" s="232">
         <v>2507</v>
       </c>
-      <c r="H14" s="234">
+      <c r="H14" s="232">
         <v>2536</v>
       </c>
-      <c r="I14" s="234">
+      <c r="I14" s="232">
         <v>2517</v>
       </c>
-      <c r="J14" s="236">
+      <c r="J14" s="230">
         <v>2525</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="231"/>
-      <c r="B15" s="235"/>
-      <c r="C15" s="235"/>
-      <c r="D15" s="235"/>
-      <c r="E15" s="237"/>
-      <c r="F15" s="235"/>
-      <c r="G15" s="235"/>
-      <c r="H15" s="235"/>
-      <c r="I15" s="235"/>
-      <c r="J15" s="237"/>
+      <c r="A15" s="235"/>
+      <c r="B15" s="233"/>
+      <c r="C15" s="233"/>
+      <c r="D15" s="233"/>
+      <c r="E15" s="231"/>
+      <c r="F15" s="233"/>
+      <c r="G15" s="233"/>
+      <c r="H15" s="233"/>
+      <c r="I15" s="233"/>
+      <c r="J15" s="231"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="230" t="s">
+      <c r="A16" s="234" t="s">
         <v>1145</v>
       </c>
-      <c r="B16" s="234"/>
-      <c r="C16" s="234"/>
-      <c r="D16" s="234"/>
-      <c r="E16" s="236">
+      <c r="B16" s="232"/>
+      <c r="C16" s="232"/>
+      <c r="D16" s="232"/>
+      <c r="E16" s="230">
         <v>2113</v>
       </c>
-      <c r="F16" s="234">
+      <c r="F16" s="232">
         <v>2226</v>
       </c>
-      <c r="G16" s="234">
+      <c r="G16" s="232">
         <v>2202</v>
       </c>
-      <c r="H16" s="234">
+      <c r="H16" s="232">
         <v>2232</v>
       </c>
-      <c r="I16" s="234">
+      <c r="I16" s="232">
         <v>2235</v>
       </c>
-      <c r="J16" s="236">
+      <c r="J16" s="230">
         <v>2227</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="231"/>
-      <c r="B17" s="235"/>
-      <c r="C17" s="235"/>
-      <c r="D17" s="235"/>
-      <c r="E17" s="237"/>
-      <c r="F17" s="235"/>
-      <c r="G17" s="235"/>
-      <c r="H17" s="235"/>
-      <c r="I17" s="235"/>
-      <c r="J17" s="237"/>
+      <c r="A17" s="235"/>
+      <c r="B17" s="233"/>
+      <c r="C17" s="233"/>
+      <c r="D17" s="233"/>
+      <c r="E17" s="231"/>
+      <c r="F17" s="233"/>
+      <c r="G17" s="233"/>
+      <c r="H17" s="233"/>
+      <c r="I17" s="233"/>
+      <c r="J17" s="231"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="230" t="s">
+      <c r="A18" s="234" t="s">
         <v>1146</v>
       </c>
-      <c r="B18" s="234"/>
-      <c r="C18" s="234"/>
-      <c r="D18" s="234"/>
-      <c r="E18" s="236"/>
-      <c r="F18" s="234">
+      <c r="B18" s="232"/>
+      <c r="C18" s="232"/>
+      <c r="D18" s="232"/>
+      <c r="E18" s="230"/>
+      <c r="F18" s="232">
         <v>1537</v>
       </c>
-      <c r="G18" s="234">
+      <c r="G18" s="232">
         <v>1762</v>
       </c>
-      <c r="H18" s="234">
+      <c r="H18" s="232">
         <v>1905</v>
       </c>
-      <c r="I18" s="234">
+      <c r="I18" s="232">
         <v>1879</v>
       </c>
-      <c r="J18" s="236">
+      <c r="J18" s="230">
         <v>1893</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="231"/>
-      <c r="B19" s="235"/>
-      <c r="C19" s="235"/>
-      <c r="D19" s="235"/>
-      <c r="E19" s="237"/>
-      <c r="F19" s="235"/>
-      <c r="G19" s="235"/>
-      <c r="H19" s="235"/>
-      <c r="I19" s="235"/>
-      <c r="J19" s="237"/>
+      <c r="A19" s="235"/>
+      <c r="B19" s="233"/>
+      <c r="C19" s="233"/>
+      <c r="D19" s="233"/>
+      <c r="E19" s="231"/>
+      <c r="F19" s="233"/>
+      <c r="G19" s="233"/>
+      <c r="H19" s="233"/>
+      <c r="I19" s="233"/>
+      <c r="J19" s="231"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="230" t="s">
+      <c r="A20" s="234" t="s">
         <v>1147</v>
       </c>
-      <c r="B20" s="234"/>
-      <c r="C20" s="234"/>
-      <c r="D20" s="234"/>
-      <c r="E20" s="236"/>
-      <c r="F20" s="234"/>
-      <c r="G20" s="234">
+      <c r="B20" s="232"/>
+      <c r="C20" s="232"/>
+      <c r="D20" s="232"/>
+      <c r="E20" s="230"/>
+      <c r="F20" s="232"/>
+      <c r="G20" s="232">
         <v>1412</v>
       </c>
-      <c r="H20" s="234">
+      <c r="H20" s="232">
         <v>1689</v>
       </c>
-      <c r="I20" s="234">
+      <c r="I20" s="232">
         <v>1630</v>
       </c>
-      <c r="J20" s="236">
+      <c r="J20" s="230">
         <v>1640</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="231"/>
-      <c r="B21" s="235"/>
-      <c r="C21" s="235"/>
-      <c r="D21" s="235"/>
-      <c r="E21" s="237"/>
-      <c r="F21" s="235"/>
-      <c r="G21" s="235"/>
-      <c r="H21" s="235"/>
-      <c r="I21" s="235"/>
-      <c r="J21" s="237"/>
+      <c r="A21" s="235"/>
+      <c r="B21" s="233"/>
+      <c r="C21" s="233"/>
+      <c r="D21" s="233"/>
+      <c r="E21" s="231"/>
+      <c r="F21" s="233"/>
+      <c r="G21" s="233"/>
+      <c r="H21" s="233"/>
+      <c r="I21" s="233"/>
+      <c r="J21" s="231"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="230" t="s">
+      <c r="A22" s="234" t="s">
         <v>1148</v>
       </c>
-      <c r="B22" s="234"/>
-      <c r="C22" s="234"/>
-      <c r="D22" s="234"/>
-      <c r="E22" s="236"/>
-      <c r="F22" s="234"/>
-      <c r="G22" s="234"/>
-      <c r="H22" s="234">
+      <c r="B22" s="232"/>
+      <c r="C22" s="232"/>
+      <c r="D22" s="232"/>
+      <c r="E22" s="230"/>
+      <c r="F22" s="232"/>
+      <c r="G22" s="232"/>
+      <c r="H22" s="232">
         <v>1082</v>
       </c>
-      <c r="I22" s="234">
+      <c r="I22" s="232">
         <v>1341</v>
       </c>
-      <c r="J22" s="236">
+      <c r="J22" s="230">
         <v>1325</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="231"/>
-      <c r="B23" s="235"/>
-      <c r="C23" s="235"/>
-      <c r="D23" s="235"/>
-      <c r="E23" s="237"/>
-      <c r="F23" s="235"/>
-      <c r="G23" s="235"/>
-      <c r="H23" s="235"/>
-      <c r="I23" s="235"/>
-      <c r="J23" s="237"/>
+      <c r="A23" s="235"/>
+      <c r="B23" s="233"/>
+      <c r="C23" s="233"/>
+      <c r="D23" s="233"/>
+      <c r="E23" s="231"/>
+      <c r="F23" s="233"/>
+      <c r="G23" s="233"/>
+      <c r="H23" s="233"/>
+      <c r="I23" s="233"/>
+      <c r="J23" s="231"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="230" t="s">
+      <c r="A24" s="234" t="s">
         <v>1149</v>
       </c>
-      <c r="B24" s="234"/>
-      <c r="C24" s="234"/>
-      <c r="D24" s="234"/>
-      <c r="E24" s="236"/>
-      <c r="F24" s="234"/>
-      <c r="G24" s="234"/>
-      <c r="H24" s="234"/>
-      <c r="I24" s="234">
+      <c r="B24" s="232"/>
+      <c r="C24" s="232"/>
+      <c r="D24" s="232"/>
+      <c r="E24" s="230"/>
+      <c r="F24" s="232"/>
+      <c r="G24" s="232"/>
+      <c r="H24" s="232"/>
+      <c r="I24" s="232">
         <v>1003</v>
       </c>
-      <c r="J24" s="236">
+      <c r="J24" s="230">
         <v>1016</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="231"/>
-      <c r="B25" s="235"/>
-      <c r="C25" s="235"/>
-      <c r="D25" s="235"/>
-      <c r="E25" s="237"/>
-      <c r="F25" s="235"/>
-      <c r="G25" s="235"/>
-      <c r="H25" s="235"/>
-      <c r="I25" s="235"/>
-      <c r="J25" s="237"/>
+      <c r="A25" s="235"/>
+      <c r="B25" s="233"/>
+      <c r="C25" s="233"/>
+      <c r="D25" s="233"/>
+      <c r="E25" s="231"/>
+      <c r="F25" s="233"/>
+      <c r="G25" s="233"/>
+      <c r="H25" s="233"/>
+      <c r="I25" s="233"/>
+      <c r="J25" s="231"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="230" t="s">
+      <c r="A26" s="234" t="s">
         <v>1150</v>
       </c>
-      <c r="B26" s="234"/>
-      <c r="C26" s="234"/>
-      <c r="D26" s="234"/>
-      <c r="E26" s="236"/>
-      <c r="F26" s="234"/>
-      <c r="G26" s="234"/>
-      <c r="H26" s="234"/>
-      <c r="I26" s="234"/>
-      <c r="J26" s="236">
+      <c r="B26" s="232"/>
+      <c r="C26" s="232"/>
+      <c r="D26" s="232"/>
+      <c r="E26" s="230"/>
+      <c r="F26" s="232"/>
+      <c r="G26" s="232"/>
+      <c r="H26" s="232"/>
+      <c r="I26" s="232"/>
+      <c r="J26" s="230">
         <v>632</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="231"/>
-      <c r="B27" s="235"/>
-      <c r="C27" s="235"/>
-      <c r="D27" s="235"/>
-      <c r="E27" s="237"/>
-      <c r="F27" s="235"/>
-      <c r="G27" s="235"/>
-      <c r="H27" s="235"/>
-      <c r="I27" s="235"/>
-      <c r="J27" s="237"/>
+      <c r="A27" s="235"/>
+      <c r="B27" s="233"/>
+      <c r="C27" s="233"/>
+      <c r="D27" s="233"/>
+      <c r="E27" s="231"/>
+      <c r="F27" s="233"/>
+      <c r="G27" s="233"/>
+      <c r="H27" s="233"/>
+      <c r="I27" s="233"/>
+      <c r="J27" s="231"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -65592,6 +65818,106 @@
     </row>
   </sheetData>
   <mergeCells count="120">
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
     <mergeCell ref="J26:J27"/>
     <mergeCell ref="G24:G25"/>
     <mergeCell ref="H24:H25"/>
@@ -65612,334 +65938,8 @@
     <mergeCell ref="G26:G27"/>
     <mergeCell ref="H26:H27"/>
     <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B8A9872-285B-44B5-B760-86054E2CE794}">
-  <sheetPr>
-    <tabColor theme="7" tint="-0.249977111117893"/>
-  </sheetPr>
-  <dimension ref="A1:O23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
-        <v>208</v>
-      </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
-      <c r="C1">
-        <f>B1</f>
-        <v>0</v>
-      </c>
-      <c r="N1" s="70" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
-        <v>210</v>
-      </c>
-      <c r="B2">
-        <v>11470</v>
-      </c>
-      <c r="C2">
-        <v>11470</v>
-      </c>
-      <c r="N2" s="70" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="69" t="s">
-        <v>212</v>
-      </c>
-      <c r="B3">
-        <v>135</v>
-      </c>
-      <c r="C3">
-        <v>165</v>
-      </c>
-      <c r="D3">
-        <v>32580</v>
-      </c>
-      <c r="N3" s="70" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
-        <v>214</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="N4" s="70" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="69" t="s">
-        <v>216</v>
-      </c>
-      <c r="B5">
-        <v>195</v>
-      </c>
-      <c r="C5">
-        <v>305</v>
-      </c>
-      <c r="N5" s="70" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="69" t="s">
-        <v>218</v>
-      </c>
-      <c r="B6">
-        <v>165</v>
-      </c>
-      <c r="C6">
-        <v>245</v>
-      </c>
-      <c r="N6" s="70" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7" s="72">
-        <v>0</v>
-      </c>
-      <c r="C7" s="73">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="N7" s="70" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N8" s="70" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="74" t="s">
-        <v>120</v>
-      </c>
-      <c r="B9" s="75">
-        <f>SUM(B1:B6)*(1+B7)</f>
-        <v>11965</v>
-      </c>
-      <c r="C9" s="75">
-        <f>SUM(C1:C6)*(1+C7)</f>
-        <v>12233.74</v>
-      </c>
-      <c r="N9" s="70" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="74" t="s">
-        <v>223</v>
-      </c>
-      <c r="B10" s="75">
-        <f>B9*1.2</f>
-        <v>14358</v>
-      </c>
-      <c r="C10" s="75">
-        <f>C9*1.2</f>
-        <v>14680.487999999999</v>
-      </c>
-      <c r="N10" s="70" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N11" s="70" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N12" s="70" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <f>4550-3190</f>
-        <v>1360</v>
-      </c>
-      <c r="N13" s="70" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <f>3670-3190</f>
-        <v>480</v>
-      </c>
-      <c r="C14" s="76">
-        <f>D3-B3</f>
-        <v>32445</v>
-      </c>
-      <c r="N14" s="70" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <f>B14/B13</f>
-        <v>0.35294117647058826</v>
-      </c>
-      <c r="C15">
-        <f>(C3-B3)</f>
-        <v>30</v>
-      </c>
-      <c r="N15" s="70" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C16" s="77">
-        <f>C15/C14</f>
-        <v>9.2464170134073042E-4</v>
-      </c>
-      <c r="N16" s="70" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="17" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N17" s="70" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="23" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="O23">
-        <f>18636/1.047</f>
-        <v>17799.426934097421</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -65973,26 +65973,26 @@
       <c r="C1" s="78" t="s">
         <v>233</v>
       </c>
-      <c r="F1" s="238" t="s">
+      <c r="F1" s="253" t="s">
         <v>234</v>
       </c>
-      <c r="G1" s="238"/>
-      <c r="H1" s="238" t="s">
+      <c r="G1" s="253"/>
+      <c r="H1" s="253" t="s">
         <v>235</v>
       </c>
-      <c r="I1" s="238"/>
-      <c r="J1" s="238" t="s">
+      <c r="I1" s="253"/>
+      <c r="J1" s="253" t="s">
         <v>236</v>
       </c>
-      <c r="K1" s="238"/>
-      <c r="L1" s="238" t="s">
+      <c r="K1" s="253"/>
+      <c r="L1" s="253" t="s">
         <v>237</v>
       </c>
-      <c r="M1" s="238"/>
-      <c r="N1" s="238" t="s">
+      <c r="M1" s="253"/>
+      <c r="N1" s="253" t="s">
         <v>238</v>
       </c>
-      <c r="O1" s="238"/>
+      <c r="O1" s="253"/>
     </row>
     <row r="2" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F2" s="79" t="s">
@@ -66001,18 +66001,18 @@
       <c r="G2" s="79" t="s">
         <v>240</v>
       </c>
-      <c r="H2" s="239"/>
-      <c r="I2" s="240"/>
-      <c r="J2" s="239"/>
-      <c r="K2" s="240"/>
+      <c r="H2" s="254"/>
+      <c r="I2" s="255"/>
+      <c r="J2" s="254"/>
+      <c r="K2" s="255"/>
       <c r="L2" s="79" t="s">
         <v>239</v>
       </c>
       <c r="M2" s="79" t="s">
         <v>240</v>
       </c>
-      <c r="N2" s="239"/>
-      <c r="O2" s="240"/>
+      <c r="N2" s="254"/>
+      <c r="O2" s="255"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -66024,14 +66024,14 @@
       <c r="E3" s="80" t="s">
         <v>243</v>
       </c>
-      <c r="F3" s="242">
+      <c r="F3" s="247">
         <v>0.64709000000000005</v>
       </c>
-      <c r="G3" s="242"/>
-      <c r="H3" s="242">
+      <c r="G3" s="247"/>
+      <c r="H3" s="247">
         <v>0.97192999999999996</v>
       </c>
-      <c r="I3" s="242"/>
+      <c r="I3" s="247"/>
       <c r="J3" s="81"/>
       <c r="K3" s="81"/>
       <c r="L3" s="81"/>
@@ -66054,14 +66054,14 @@
       <c r="E4" s="84" t="s">
         <v>246</v>
       </c>
-      <c r="F4" s="241">
+      <c r="F4" s="252">
         <v>0.26545000000000002</v>
       </c>
-      <c r="G4" s="241"/>
-      <c r="H4" s="241">
+      <c r="G4" s="252"/>
+      <c r="H4" s="252">
         <v>0.39895999999999998</v>
       </c>
-      <c r="I4" s="241"/>
+      <c r="I4" s="252"/>
       <c r="J4" s="85"/>
       <c r="K4" s="85"/>
       <c r="L4" s="85"/>
@@ -66087,10 +66087,10 @@
       <c r="G5" s="81">
         <v>0.25008999999999998</v>
       </c>
-      <c r="H5" s="242">
+      <c r="H5" s="247">
         <v>1</v>
       </c>
-      <c r="I5" s="242"/>
+      <c r="I5" s="247"/>
       <c r="J5" s="81"/>
       <c r="K5" s="81"/>
       <c r="L5" s="81"/>
@@ -66111,10 +66111,10 @@
       <c r="G6" s="85"/>
       <c r="H6" s="85"/>
       <c r="I6" s="85"/>
-      <c r="J6" s="241">
+      <c r="J6" s="252">
         <v>0.27488000000000001</v>
       </c>
-      <c r="K6" s="241"/>
+      <c r="K6" s="252"/>
       <c r="L6" s="85"/>
       <c r="M6" s="85"/>
       <c r="N6" s="85"/>
@@ -66138,10 +66138,10 @@
       <c r="G7" s="81">
         <v>0.17752000000000001</v>
       </c>
-      <c r="H7" s="242">
+      <c r="H7" s="247">
         <v>0.72296000000000005</v>
       </c>
-      <c r="I7" s="242"/>
+      <c r="I7" s="247"/>
       <c r="J7" s="81"/>
       <c r="K7" s="81"/>
       <c r="L7" s="81"/>
@@ -66164,10 +66164,10 @@
       <c r="G8" s="85"/>
       <c r="H8" s="85"/>
       <c r="I8" s="85"/>
-      <c r="J8" s="241">
+      <c r="J8" s="252">
         <v>0.36337000000000003</v>
       </c>
-      <c r="K8" s="241"/>
+      <c r="K8" s="252"/>
       <c r="L8" s="85"/>
       <c r="M8" s="85"/>
       <c r="N8" s="85"/>
@@ -66185,10 +66185,10 @@
         <v>0.65615999999999997</v>
       </c>
       <c r="G9" s="81"/>
-      <c r="H9" s="242">
+      <c r="H9" s="247">
         <v>0.78437000000000001</v>
       </c>
-      <c r="I9" s="242"/>
+      <c r="I9" s="247"/>
       <c r="J9" s="81"/>
       <c r="K9" s="81"/>
       <c r="L9" s="81"/>
@@ -66214,10 +66214,10 @@
       <c r="G10" s="88"/>
       <c r="H10" s="88"/>
       <c r="I10" s="88"/>
-      <c r="J10" s="243">
+      <c r="J10" s="251">
         <v>0.1464</v>
       </c>
-      <c r="K10" s="243"/>
+      <c r="K10" s="251"/>
       <c r="L10" s="88"/>
       <c r="M10" s="88"/>
       <c r="N10" s="88"/>
@@ -66252,14 +66252,14 @@
       <c r="E12" s="80" t="s">
         <v>260</v>
       </c>
-      <c r="F12" s="242">
+      <c r="F12" s="247">
         <v>0.42514999999999997</v>
       </c>
-      <c r="G12" s="242"/>
-      <c r="H12" s="242">
+      <c r="G12" s="247"/>
+      <c r="H12" s="247">
         <v>0.85</v>
       </c>
-      <c r="I12" s="242"/>
+      <c r="I12" s="247"/>
       <c r="J12" s="81"/>
       <c r="K12" s="81"/>
       <c r="L12" s="81"/>
@@ -66285,10 +66285,10 @@
       <c r="G13" s="85"/>
       <c r="H13" s="85"/>
       <c r="I13" s="85"/>
-      <c r="J13" s="241">
+      <c r="J13" s="252">
         <v>0.23365</v>
       </c>
-      <c r="K13" s="241"/>
+      <c r="K13" s="252"/>
       <c r="L13" s="85"/>
       <c r="M13" s="85"/>
       <c r="N13" s="85"/>
@@ -66306,10 +66306,10 @@
         <v>1</v>
       </c>
       <c r="G14" s="92"/>
-      <c r="H14" s="242">
+      <c r="H14" s="247">
         <v>0.51382000000000005</v>
       </c>
-      <c r="I14" s="242"/>
+      <c r="I14" s="247"/>
       <c r="J14" s="81"/>
       <c r="K14" s="81"/>
       <c r="L14" s="81"/>
@@ -66336,10 +66336,10 @@
       <c r="G15" s="88"/>
       <c r="H15" s="88"/>
       <c r="I15" s="88"/>
-      <c r="J15" s="243">
+      <c r="J15" s="251">
         <v>4.3869999999999999E-2</v>
       </c>
-      <c r="K15" s="243"/>
+      <c r="K15" s="251"/>
       <c r="L15" s="88"/>
       <c r="M15" s="88"/>
       <c r="N15" s="88"/>
@@ -66386,10 +66386,10 @@
         <v>0.91232999999999997</v>
       </c>
       <c r="G17" s="92"/>
-      <c r="H17" s="242">
+      <c r="H17" s="247">
         <v>0.46146999999999999</v>
       </c>
-      <c r="I17" s="242"/>
+      <c r="I17" s="247"/>
       <c r="J17" s="81"/>
       <c r="K17" s="81"/>
       <c r="L17" s="81"/>
@@ -66415,10 +66415,10 @@
       <c r="G18" s="88"/>
       <c r="H18" s="88"/>
       <c r="I18" s="88"/>
-      <c r="J18" s="243">
+      <c r="J18" s="251">
         <v>0.15035999999999999</v>
       </c>
-      <c r="K18" s="243"/>
+      <c r="K18" s="251"/>
       <c r="L18" s="88"/>
       <c r="M18" s="88"/>
       <c r="N18" s="88"/>
@@ -66460,10 +66460,10 @@
         <v>0.69059999999999999</v>
       </c>
       <c r="G20" s="92"/>
-      <c r="H20" s="242">
+      <c r="H20" s="247">
         <v>0.38878000000000001</v>
       </c>
-      <c r="I20" s="242"/>
+      <c r="I20" s="247"/>
       <c r="J20" s="81"/>
       <c r="K20" s="81"/>
       <c r="L20" s="81"/>
@@ -66489,10 +66489,10 @@
       <c r="G21" s="88"/>
       <c r="H21" s="88"/>
       <c r="I21" s="88"/>
-      <c r="J21" s="243">
+      <c r="J21" s="251">
         <v>0.2099</v>
       </c>
-      <c r="K21" s="243"/>
+      <c r="K21" s="251"/>
       <c r="L21" s="88"/>
       <c r="M21" s="88"/>
       <c r="N21" s="88"/>
@@ -66534,10 +66534,10 @@
         <v>0.68315000000000003</v>
       </c>
       <c r="G23" s="92"/>
-      <c r="H23" s="242">
+      <c r="H23" s="247">
         <v>0.70006000000000002</v>
       </c>
-      <c r="I23" s="242"/>
+      <c r="I23" s="247"/>
       <c r="J23" s="81"/>
       <c r="K23" s="81"/>
       <c r="L23" s="81"/>
@@ -66563,10 +66563,10 @@
       <c r="G24" s="88"/>
       <c r="H24" s="88"/>
       <c r="I24" s="88"/>
-      <c r="J24" s="243">
+      <c r="J24" s="251">
         <v>0.152</v>
       </c>
-      <c r="K24" s="243"/>
+      <c r="K24" s="251"/>
       <c r="L24" s="88"/>
       <c r="M24" s="88"/>
       <c r="N24" s="88"/>
@@ -66610,16 +66610,16 @@
       <c r="G26" s="81">
         <v>9.2719999999999997E-2</v>
       </c>
-      <c r="H26" s="242">
+      <c r="H26" s="247">
         <v>0.42459999999999998</v>
       </c>
-      <c r="I26" s="242"/>
+      <c r="I26" s="247"/>
       <c r="J26" s="81"/>
       <c r="K26" s="81"/>
       <c r="L26" s="81"/>
       <c r="M26" s="81"/>
-      <c r="N26" s="246"/>
-      <c r="O26" s="247"/>
+      <c r="N26" s="240"/>
+      <c r="O26" s="242"/>
       <c r="P26" s="83">
         <f>F26+G26+H26+J27+L28+M28+N28</f>
         <v>2.4103300000000001</v>
@@ -66639,14 +66639,14 @@
       <c r="G27" s="88"/>
       <c r="H27" s="88"/>
       <c r="I27" s="88"/>
-      <c r="J27" s="243">
+      <c r="J27" s="251">
         <v>1</v>
       </c>
-      <c r="K27" s="243"/>
+      <c r="K27" s="251"/>
       <c r="L27" s="88"/>
       <c r="M27" s="88"/>
-      <c r="N27" s="244"/>
-      <c r="O27" s="245"/>
+      <c r="N27" s="243"/>
+      <c r="O27" s="244"/>
       <c r="P27" s="83"/>
     </row>
     <row r="28" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -66671,10 +66671,10 @@
       <c r="M28" s="85">
         <v>0.1226</v>
       </c>
-      <c r="N28" s="248">
+      <c r="N28" s="245">
         <v>0.34044000000000002</v>
       </c>
-      <c r="O28" s="249"/>
+      <c r="O28" s="246"/>
       <c r="P28" s="83"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
@@ -66690,16 +66690,16 @@
       <c r="G29" s="81">
         <v>0.13719000000000001</v>
       </c>
-      <c r="H29" s="242">
+      <c r="H29" s="247">
         <v>0.62792999999999999</v>
       </c>
-      <c r="I29" s="242"/>
+      <c r="I29" s="247"/>
       <c r="J29" s="81"/>
       <c r="K29" s="81"/>
       <c r="L29" s="81"/>
       <c r="M29" s="81"/>
-      <c r="N29" s="246"/>
-      <c r="O29" s="247"/>
+      <c r="N29" s="240"/>
+      <c r="O29" s="242"/>
       <c r="P29" s="83">
         <f>F29+G29+H29+L30+M30+N30+J33</f>
         <v>2.4474499999999999</v>
@@ -66727,10 +66727,10 @@
       <c r="M30" s="85">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="N30" s="248">
+      <c r="N30" s="245">
         <v>0.23748</v>
       </c>
-      <c r="O30" s="249"/>
+      <c r="O30" s="246"/>
       <c r="P30" s="83"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
@@ -66746,16 +66746,16 @@
       <c r="G31" s="81">
         <v>5.6059999999999999E-2</v>
       </c>
-      <c r="H31" s="242">
+      <c r="H31" s="247">
         <v>0.23462</v>
       </c>
-      <c r="I31" s="242"/>
+      <c r="I31" s="247"/>
       <c r="J31" s="81"/>
       <c r="K31" s="81"/>
       <c r="L31" s="81"/>
       <c r="M31" s="81"/>
-      <c r="N31" s="246"/>
-      <c r="O31" s="247"/>
+      <c r="N31" s="240"/>
+      <c r="O31" s="242"/>
       <c r="P31" s="83">
         <f>F31+G31+H31+L32+M32+N32+J33</f>
         <v>2.2090299999999998</v>
@@ -66780,10 +66780,10 @@
       <c r="M32" s="85">
         <v>0.11894</v>
       </c>
-      <c r="N32" s="248">
+      <c r="N32" s="245">
         <v>0.50244</v>
       </c>
-      <c r="O32" s="249"/>
+      <c r="O32" s="246"/>
       <c r="P32" s="83"/>
     </row>
     <row r="33" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -66797,34 +66797,34 @@
       <c r="G33" s="94"/>
       <c r="H33" s="94"/>
       <c r="I33" s="94"/>
-      <c r="J33" s="250">
+      <c r="J33" s="248">
         <v>0.94696999999999998</v>
       </c>
-      <c r="K33" s="250"/>
+      <c r="K33" s="248"/>
       <c r="L33" s="94"/>
       <c r="M33" s="94"/>
-      <c r="N33" s="251"/>
-      <c r="O33" s="252"/>
+      <c r="N33" s="249"/>
+      <c r="O33" s="250"/>
       <c r="P33" s="83"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E34" s="80" t="s">
         <v>310</v>
       </c>
-      <c r="F34" s="242">
+      <c r="F34" s="247">
         <v>0.15762999999999999</v>
       </c>
-      <c r="G34" s="242"/>
-      <c r="H34" s="242">
+      <c r="G34" s="247"/>
+      <c r="H34" s="247">
         <v>0.36070000000000002</v>
       </c>
-      <c r="I34" s="242"/>
+      <c r="I34" s="247"/>
       <c r="J34" s="81"/>
       <c r="K34" s="81"/>
       <c r="L34" s="81"/>
       <c r="M34" s="81"/>
-      <c r="N34" s="246"/>
-      <c r="O34" s="247"/>
+      <c r="N34" s="240"/>
+      <c r="O34" s="242"/>
       <c r="P34" s="83">
         <f>F34+H34+J35+L36+N36</f>
         <v>1.8655399999999998</v>
@@ -66838,14 +66838,14 @@
       <c r="G35" s="88"/>
       <c r="H35" s="88"/>
       <c r="I35" s="88"/>
-      <c r="J35" s="243">
+      <c r="J35" s="251">
         <v>0.85</v>
       </c>
-      <c r="K35" s="243"/>
+      <c r="K35" s="251"/>
       <c r="L35" s="88"/>
       <c r="M35" s="88"/>
-      <c r="N35" s="244"/>
-      <c r="O35" s="245"/>
+      <c r="N35" s="243"/>
+      <c r="O35" s="244"/>
       <c r="P35" s="83"/>
     </row>
     <row r="36" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -66865,10 +66865,10 @@
         <v>0.20784</v>
       </c>
       <c r="M36" s="85"/>
-      <c r="N36" s="248">
+      <c r="N36" s="245">
         <v>0.28937000000000002</v>
       </c>
-      <c r="O36" s="249"/>
+      <c r="O36" s="246"/>
       <c r="P36" s="83"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
@@ -66878,20 +66878,20 @@
       <c r="E37" s="80" t="s">
         <v>315</v>
       </c>
-      <c r="F37" s="242">
+      <c r="F37" s="247">
         <v>0.20368</v>
       </c>
-      <c r="G37" s="242"/>
-      <c r="H37" s="242">
+      <c r="G37" s="247"/>
+      <c r="H37" s="247">
         <v>0.33767000000000003</v>
       </c>
-      <c r="I37" s="242"/>
+      <c r="I37" s="247"/>
       <c r="J37" s="81"/>
       <c r="K37" s="81"/>
       <c r="L37" s="81"/>
       <c r="M37" s="81"/>
-      <c r="N37" s="246"/>
-      <c r="O37" s="247"/>
+      <c r="N37" s="240"/>
+      <c r="O37" s="242"/>
       <c r="P37" s="83">
         <f>F37+H37+J38+L39+L40+N40</f>
         <v>2.5172699999999999</v>
@@ -66908,14 +66908,14 @@
       <c r="G38" s="88"/>
       <c r="H38" s="88"/>
       <c r="I38" s="88"/>
-      <c r="J38" s="243">
+      <c r="J38" s="251">
         <v>0.89815999999999996</v>
       </c>
-      <c r="K38" s="243"/>
+      <c r="K38" s="251"/>
       <c r="L38" s="88"/>
       <c r="M38" s="88"/>
-      <c r="N38" s="244"/>
-      <c r="O38" s="245"/>
+      <c r="N38" s="243"/>
+      <c r="O38" s="244"/>
       <c r="P38" s="83"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
@@ -66935,8 +66935,8 @@
         <v>0.57364000000000004</v>
       </c>
       <c r="M39" s="88"/>
-      <c r="N39" s="244"/>
-      <c r="O39" s="245"/>
+      <c r="N39" s="243"/>
+      <c r="O39" s="244"/>
       <c r="P39" s="83"/>
     </row>
     <row r="40" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -66956,10 +66956,10 @@
         <v>0.26422000000000001</v>
       </c>
       <c r="M40" s="85"/>
-      <c r="N40" s="248">
+      <c r="N40" s="245">
         <v>0.2399</v>
       </c>
-      <c r="O40" s="249"/>
+      <c r="O40" s="246"/>
       <c r="P40" s="83"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
@@ -66970,16 +66970,16 @@
         <v>0.34708</v>
       </c>
       <c r="G41" s="92"/>
-      <c r="H41" s="242">
+      <c r="H41" s="247">
         <v>0.20830000000000001</v>
       </c>
-      <c r="I41" s="242"/>
+      <c r="I41" s="247"/>
       <c r="J41" s="81"/>
       <c r="K41" s="81"/>
       <c r="L41" s="81"/>
       <c r="M41" s="81"/>
-      <c r="N41" s="246"/>
-      <c r="O41" s="247"/>
+      <c r="N41" s="240"/>
+      <c r="O41" s="242"/>
       <c r="P41" s="83">
         <f>F41+H41+J42+L43+L44+N44</f>
         <v>2.29189</v>
@@ -66993,14 +66993,14 @@
       <c r="G42" s="88"/>
       <c r="H42" s="88"/>
       <c r="I42" s="88"/>
-      <c r="J42" s="243">
+      <c r="J42" s="251">
         <v>0.52559999999999996</v>
       </c>
-      <c r="K42" s="243"/>
+      <c r="K42" s="251"/>
       <c r="L42" s="88"/>
       <c r="M42" s="88"/>
-      <c r="N42" s="244"/>
-      <c r="O42" s="245"/>
+      <c r="N42" s="243"/>
+      <c r="O42" s="244"/>
       <c r="P42" s="83"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
@@ -67018,8 +67018,8 @@
         <v>0.84328000000000003</v>
       </c>
       <c r="M43" s="88"/>
-      <c r="N43" s="244"/>
-      <c r="O43" s="245"/>
+      <c r="N43" s="243"/>
+      <c r="O43" s="244"/>
       <c r="P43" s="83"/>
     </row>
     <row r="44" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -67039,10 +67039,10 @@
         <v>0.23543</v>
       </c>
       <c r="M44" s="85"/>
-      <c r="N44" s="248">
+      <c r="N44" s="245">
         <v>0.13220000000000001</v>
       </c>
-      <c r="O44" s="249"/>
+      <c r="O44" s="246"/>
       <c r="P44" s="83"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
@@ -67056,16 +67056,16 @@
         <v>0.47361999999999999</v>
       </c>
       <c r="G45" s="92"/>
-      <c r="H45" s="242">
+      <c r="H45" s="247">
         <v>0.28101999999999999</v>
       </c>
-      <c r="I45" s="242"/>
+      <c r="I45" s="247"/>
       <c r="J45" s="81"/>
       <c r="K45" s="81"/>
       <c r="L45" s="81"/>
       <c r="M45" s="81"/>
-      <c r="N45" s="246"/>
-      <c r="O45" s="247"/>
+      <c r="N45" s="240"/>
+      <c r="O45" s="242"/>
       <c r="P45" s="83">
         <f>F45+H45+L46+L47+N47+J51</f>
         <v>2.2079800000000001</v>
@@ -67085,8 +67085,8 @@
         <v>0.71950000000000003</v>
       </c>
       <c r="M46" s="88"/>
-      <c r="N46" s="244"/>
-      <c r="O46" s="245"/>
+      <c r="N46" s="243"/>
+      <c r="O46" s="244"/>
       <c r="P46" s="83"/>
     </row>
     <row r="47" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -67106,10 +67106,10 @@
         <v>0.20451</v>
       </c>
       <c r="M47" s="85"/>
-      <c r="N47" s="248">
+      <c r="N47" s="245">
         <v>9.1600000000000001E-2</v>
       </c>
-      <c r="O47" s="249"/>
+      <c r="O47" s="246"/>
       <c r="P47" s="83"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
@@ -67123,16 +67123,16 @@
         <v>0.17321</v>
       </c>
       <c r="G48" s="92"/>
-      <c r="H48" s="242">
+      <c r="H48" s="247">
         <v>9.2929999999999999E-2</v>
       </c>
-      <c r="I48" s="242"/>
+      <c r="I48" s="247"/>
       <c r="J48" s="81"/>
       <c r="K48" s="81"/>
       <c r="L48" s="81"/>
       <c r="M48" s="81"/>
-      <c r="N48" s="246"/>
-      <c r="O48" s="247"/>
+      <c r="N48" s="240"/>
+      <c r="O48" s="242"/>
       <c r="P48" s="83">
         <f>F48+H48+L49+L50+N50+J51</f>
         <v>2.12704</v>
@@ -67155,8 +67155,8 @@
         <v>1</v>
       </c>
       <c r="M49" s="88"/>
-      <c r="N49" s="244"/>
-      <c r="O49" s="245"/>
+      <c r="N49" s="243"/>
+      <c r="O49" s="244"/>
       <c r="P49" s="83"/>
     </row>
     <row r="50" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -67179,10 +67179,10 @@
         <v>0.26967000000000002</v>
       </c>
       <c r="M50" s="85"/>
-      <c r="N50" s="248">
+      <c r="N50" s="245">
         <v>0.1535</v>
       </c>
-      <c r="O50" s="249"/>
+      <c r="O50" s="246"/>
       <c r="P50" s="83"/>
     </row>
     <row r="51" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -67196,14 +67196,14 @@
       <c r="G51" s="94"/>
       <c r="H51" s="94"/>
       <c r="I51" s="94"/>
-      <c r="J51" s="250">
+      <c r="J51" s="248">
         <v>0.43773000000000001</v>
       </c>
-      <c r="K51" s="250"/>
+      <c r="K51" s="248"/>
       <c r="L51" s="94"/>
       <c r="M51" s="94"/>
-      <c r="N51" s="251"/>
-      <c r="O51" s="252"/>
+      <c r="N51" s="249"/>
+      <c r="O51" s="250"/>
       <c r="P51" s="83"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
@@ -67220,16 +67220,16 @@
         <v>0.28996</v>
       </c>
       <c r="G52" s="92"/>
-      <c r="H52" s="242">
+      <c r="H52" s="247">
         <v>0.25344</v>
       </c>
-      <c r="I52" s="242"/>
+      <c r="I52" s="247"/>
       <c r="J52" s="81"/>
       <c r="K52" s="81"/>
       <c r="L52" s="81"/>
       <c r="M52" s="81"/>
-      <c r="N52" s="246"/>
-      <c r="O52" s="247"/>
+      <c r="N52" s="240"/>
+      <c r="O52" s="242"/>
       <c r="P52" s="83">
         <f>F52+H52+J53+L54+L55+N55</f>
         <v>2.0821799999999997</v>
@@ -67249,14 +67249,14 @@
       <c r="G53" s="88"/>
       <c r="H53" s="88"/>
       <c r="I53" s="88"/>
-      <c r="J53" s="243">
+      <c r="J53" s="251">
         <v>0.65949000000000002</v>
       </c>
-      <c r="K53" s="243"/>
+      <c r="K53" s="251"/>
       <c r="L53" s="88"/>
       <c r="M53" s="88"/>
-      <c r="N53" s="244"/>
-      <c r="O53" s="245"/>
+      <c r="N53" s="243"/>
+      <c r="O53" s="244"/>
       <c r="P53" s="83"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
@@ -67279,8 +67279,8 @@
         <v>0.56411</v>
       </c>
       <c r="M54" s="88"/>
-      <c r="N54" s="244"/>
-      <c r="O54" s="245"/>
+      <c r="N54" s="243"/>
+      <c r="O54" s="244"/>
       <c r="P54" s="83"/>
     </row>
     <row r="55" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -67303,10 +67303,10 @@
         <v>0.14326</v>
       </c>
       <c r="M55" s="85"/>
-      <c r="N55" s="248">
+      <c r="N55" s="245">
         <v>0.17191999999999999</v>
       </c>
-      <c r="O55" s="249"/>
+      <c r="O55" s="246"/>
       <c r="P55" s="83"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
@@ -67329,8 +67329,8 @@
         <v>0.19162000000000001</v>
       </c>
       <c r="M56" s="81"/>
-      <c r="N56" s="246"/>
-      <c r="O56" s="247"/>
+      <c r="N56" s="240"/>
+      <c r="O56" s="242"/>
       <c r="P56" s="83">
         <f>L56+L57+L58+L59+N58+N59</f>
         <v>2.1837599999999999</v>
@@ -67353,8 +67353,8 @@
         <v>0.49523</v>
       </c>
       <c r="M57" s="88"/>
-      <c r="N57" s="244"/>
-      <c r="O57" s="245"/>
+      <c r="N57" s="243"/>
+      <c r="O57" s="244"/>
       <c r="P57" s="83"/>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
@@ -67374,10 +67374,10 @@
         <v>0.47439999999999999</v>
       </c>
       <c r="M58" s="88"/>
-      <c r="N58" s="244">
+      <c r="N58" s="243">
         <v>0.60697000000000001</v>
       </c>
-      <c r="O58" s="245"/>
+      <c r="O58" s="244"/>
       <c r="P58" s="83"/>
     </row>
     <row r="59" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -67397,10 +67397,10 @@
         <v>0.16774</v>
       </c>
       <c r="M59" s="85"/>
-      <c r="N59" s="248">
+      <c r="N59" s="245">
         <v>0.24779999999999999</v>
       </c>
-      <c r="O59" s="249"/>
+      <c r="O59" s="246"/>
       <c r="P59" s="83"/>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
@@ -67414,14 +67414,14 @@
       <c r="G60" s="81"/>
       <c r="H60" s="81"/>
       <c r="I60" s="81"/>
-      <c r="J60" s="246">
+      <c r="J60" s="240">
         <v>0.45617999999999997</v>
       </c>
-      <c r="K60" s="255"/>
+      <c r="K60" s="241"/>
       <c r="L60" s="81"/>
       <c r="M60" s="81"/>
-      <c r="N60" s="246"/>
-      <c r="O60" s="247"/>
+      <c r="N60" s="240"/>
+      <c r="O60" s="242"/>
       <c r="P60" s="83">
         <f>J60+L62+N62+L63+L64+N64</f>
         <v>2.0612399999999997</v>
@@ -67444,10 +67444,10 @@
         <v>0.28649999999999998</v>
       </c>
       <c r="M61" s="88"/>
-      <c r="N61" s="244">
+      <c r="N61" s="243">
         <v>0.80176999999999998</v>
       </c>
-      <c r="O61" s="245"/>
+      <c r="O61" s="244"/>
       <c r="P61" s="83">
         <f>J60+L61+N61+L63+L64+N64</f>
         <v>2.4324300000000001</v>
@@ -67473,10 +67473,10 @@
         <v>0.20932000000000001</v>
       </c>
       <c r="M62" s="88"/>
-      <c r="N62" s="244">
+      <c r="N62" s="243">
         <v>0.50775999999999999</v>
       </c>
-      <c r="O62" s="245"/>
+      <c r="O62" s="244"/>
       <c r="P62" s="83"/>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
@@ -67496,8 +67496,8 @@
         <v>0.14599000000000001</v>
       </c>
       <c r="M63" s="88"/>
-      <c r="N63" s="244"/>
-      <c r="O63" s="245"/>
+      <c r="N63" s="243"/>
+      <c r="O63" s="244"/>
       <c r="P63" s="83"/>
     </row>
     <row r="64" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -67517,10 +67517,10 @@
         <v>0.12414</v>
       </c>
       <c r="M64" s="85"/>
-      <c r="N64" s="248">
+      <c r="N64" s="245">
         <v>0.61785000000000001</v>
       </c>
-      <c r="O64" s="249"/>
+      <c r="O64" s="246"/>
       <c r="P64" s="83"/>
     </row>
     <row r="65" spans="3:17" x14ac:dyDescent="0.25">
@@ -67540,10 +67540,10 @@
         <v>0.23763000000000001</v>
       </c>
       <c r="M65" s="81"/>
-      <c r="N65" s="246">
+      <c r="N65" s="240">
         <v>1</v>
       </c>
-      <c r="O65" s="247"/>
+      <c r="O65" s="242"/>
       <c r="P65" s="83">
         <f>L65+N65+L66+L67+N67</f>
         <v>1.8703959999999999</v>
@@ -67567,8 +67567,8 @@
         <v>0.17316000000000001</v>
       </c>
       <c r="M66" s="88"/>
-      <c r="N66" s="244"/>
-      <c r="O66" s="245"/>
+      <c r="N66" s="243"/>
+      <c r="O66" s="244"/>
       <c r="P66" s="83"/>
       <c r="Q66" s="83"/>
     </row>
@@ -67589,10 +67589,10 @@
         <v>0.12317</v>
       </c>
       <c r="M67" s="85"/>
-      <c r="N67" s="248">
+      <c r="N67" s="245">
         <v>0.33643600000000001</v>
       </c>
-      <c r="O67" s="249"/>
+      <c r="O67" s="246"/>
       <c r="P67" s="83"/>
       <c r="Q67" s="83"/>
     </row>
@@ -67613,10 +67613,10 @@
         <v>0.20199</v>
       </c>
       <c r="M68" s="81"/>
-      <c r="N68" s="246">
+      <c r="N68" s="240">
         <v>0.85</v>
       </c>
-      <c r="O68" s="247"/>
+      <c r="O68" s="242"/>
       <c r="P68" s="83">
         <f>L68+N68+L69+L70+N70</f>
         <v>1.6197900000000001</v>
@@ -67639,8 +67639,8 @@
         <v>0.17718999999999999</v>
       </c>
       <c r="M69" s="88"/>
-      <c r="N69" s="244"/>
-      <c r="O69" s="245"/>
+      <c r="N69" s="243"/>
+      <c r="O69" s="244"/>
       <c r="P69" s="83"/>
     </row>
     <row r="70" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -67660,26 +67660,79 @@
         <v>0.1047</v>
       </c>
       <c r="M70" s="100"/>
-      <c r="N70" s="253">
+      <c r="N70" s="238">
         <v>0.28591</v>
       </c>
-      <c r="O70" s="254"/>
+      <c r="O70" s="239"/>
       <c r="P70" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="N70:O70"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="N60:O60"/>
-    <mergeCell ref="N61:O61"/>
-    <mergeCell ref="N62:O62"/>
-    <mergeCell ref="N63:O63"/>
-    <mergeCell ref="N64:O64"/>
-    <mergeCell ref="N65:O65"/>
-    <mergeCell ref="N66:O66"/>
-    <mergeCell ref="N67:O67"/>
-    <mergeCell ref="N68:O68"/>
-    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="N46:O46"/>
     <mergeCell ref="H48:I48"/>
     <mergeCell ref="N48:O48"/>
     <mergeCell ref="N49:O49"/>
@@ -67696,71 +67749,18 @@
     <mergeCell ref="N57:O57"/>
     <mergeCell ref="N58:O58"/>
     <mergeCell ref="N50:O50"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="N69:O69"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:O70">
     <cfRule type="cellIs" dxfId="25" priority="1" operator="between">

--- a/projects/current/hattrick/z_Biblioteca.xlsx
+++ b/projects/current/hattrick/z_Biblioteca.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31E9C86-5DD4-4C55-B4DD-C8BCD07ADAE9}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{871D5571-7C00-4328-8BA5-74995E609F3E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12059,18 +12059,6 @@
     <xf numFmtId="0" fontId="14" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -12083,19 +12071,34 @@
     <xf numFmtId="0" fontId="4" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -12104,13 +12107,16 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -12122,28 +12128,22 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="26" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="26" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -22370,8 +22370,8 @@
   </sheetPr>
   <dimension ref="A1:AR95"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2:U2"/>
+    <sheetView topLeftCell="H36" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16:Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22388,97 +22388,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="257">
+      <c r="A1" s="256">
         <v>0.34</v>
       </c>
-      <c r="B1" s="258"/>
-      <c r="C1" s="257">
+      <c r="B1" s="257"/>
+      <c r="C1" s="256">
         <v>0.245</v>
       </c>
-      <c r="D1" s="258"/>
-      <c r="E1" s="257">
+      <c r="D1" s="257"/>
+      <c r="E1" s="256">
         <v>0.125</v>
       </c>
-      <c r="F1" s="258"/>
-      <c r="G1" s="257">
+      <c r="F1" s="257"/>
+      <c r="G1" s="256">
         <v>0.29099999999999998</v>
       </c>
-      <c r="H1" s="258"/>
-      <c r="I1" s="257">
+      <c r="H1" s="257"/>
+      <c r="I1" s="256">
         <v>0.19</v>
       </c>
-      <c r="J1" s="258"/>
-      <c r="L1" s="257">
+      <c r="J1" s="257"/>
+      <c r="L1" s="256">
         <v>0.34</v>
       </c>
-      <c r="M1" s="258"/>
-      <c r="N1" s="257">
+      <c r="M1" s="257"/>
+      <c r="N1" s="256">
         <v>0.245</v>
       </c>
-      <c r="O1" s="258"/>
-      <c r="P1" s="257">
+      <c r="O1" s="257"/>
+      <c r="P1" s="256">
         <v>0.125</v>
       </c>
-      <c r="Q1" s="258"/>
-      <c r="R1" s="257">
+      <c r="Q1" s="257"/>
+      <c r="R1" s="256">
         <f>0.291*86/100</f>
         <v>0.25025999999999998</v>
       </c>
-      <c r="S1" s="258"/>
-      <c r="T1" s="257">
+      <c r="S1" s="257"/>
+      <c r="T1" s="256">
         <v>0.19</v>
       </c>
-      <c r="U1" s="258"/>
-      <c r="W1" s="256" t="s">
+      <c r="U1" s="257"/>
+      <c r="W1" s="258" t="s">
         <v>232</v>
       </c>
-      <c r="X1" s="256"/>
-      <c r="AC1" s="256" t="s">
+      <c r="X1" s="258"/>
+      <c r="AC1" s="258" t="s">
         <v>233</v>
       </c>
-      <c r="AD1" s="256"/>
+      <c r="AD1" s="258"/>
     </row>
     <row r="2" spans="1:44" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="253" t="s">
+      <c r="A2" s="238" t="s">
         <v>234</v>
       </c>
-      <c r="B2" s="253"/>
-      <c r="C2" s="253" t="s">
+      <c r="B2" s="238"/>
+      <c r="C2" s="238" t="s">
         <v>235</v>
       </c>
-      <c r="D2" s="253"/>
-      <c r="E2" s="253" t="s">
+      <c r="D2" s="238"/>
+      <c r="E2" s="238" t="s">
         <v>236</v>
       </c>
-      <c r="F2" s="253"/>
-      <c r="G2" s="253" t="s">
+      <c r="F2" s="238"/>
+      <c r="G2" s="238" t="s">
         <v>237</v>
       </c>
-      <c r="H2" s="253"/>
-      <c r="I2" s="253" t="s">
+      <c r="H2" s="238"/>
+      <c r="I2" s="238" t="s">
         <v>238</v>
       </c>
-      <c r="J2" s="253"/>
-      <c r="L2" s="253" t="s">
+      <c r="J2" s="238"/>
+      <c r="L2" s="238" t="s">
         <v>234</v>
       </c>
-      <c r="M2" s="253"/>
-      <c r="N2" s="253" t="s">
+      <c r="M2" s="238"/>
+      <c r="N2" s="238" t="s">
         <v>235</v>
       </c>
-      <c r="O2" s="253"/>
-      <c r="P2" s="253" t="s">
+      <c r="O2" s="238"/>
+      <c r="P2" s="238" t="s">
         <v>236</v>
       </c>
-      <c r="Q2" s="253"/>
-      <c r="R2" s="253" t="s">
+      <c r="Q2" s="238"/>
+      <c r="R2" s="238" t="s">
         <v>237</v>
       </c>
-      <c r="S2" s="253"/>
-      <c r="T2" s="253" t="s">
+      <c r="S2" s="238"/>
+      <c r="T2" s="238" t="s">
         <v>238</v>
       </c>
-      <c r="U2" s="253"/>
+      <c r="U2" s="238"/>
     </row>
     <row r="3" spans="1:44" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="79" t="s">
@@ -22487,36 +22487,36 @@
       <c r="B3" s="79" t="s">
         <v>240</v>
       </c>
-      <c r="C3" s="254"/>
-      <c r="D3" s="255"/>
-      <c r="E3" s="254"/>
-      <c r="F3" s="255"/>
+      <c r="C3" s="239"/>
+      <c r="D3" s="240"/>
+      <c r="E3" s="239"/>
+      <c r="F3" s="240"/>
       <c r="G3" s="79" t="s">
         <v>239</v>
       </c>
       <c r="H3" s="79" t="s">
         <v>240</v>
       </c>
-      <c r="I3" s="254"/>
-      <c r="J3" s="255"/>
+      <c r="I3" s="239"/>
+      <c r="J3" s="240"/>
       <c r="L3" s="79" t="s">
         <v>239</v>
       </c>
       <c r="M3" s="79" t="s">
         <v>240</v>
       </c>
-      <c r="N3" s="254"/>
-      <c r="O3" s="255"/>
-      <c r="P3" s="254"/>
-      <c r="Q3" s="255"/>
+      <c r="N3" s="239"/>
+      <c r="O3" s="240"/>
+      <c r="P3" s="239"/>
+      <c r="Q3" s="240"/>
       <c r="R3" s="79" t="s">
         <v>239</v>
       </c>
       <c r="S3" s="79" t="s">
         <v>240</v>
       </c>
-      <c r="T3" s="254"/>
-      <c r="U3" s="255"/>
+      <c r="T3" s="239"/>
+      <c r="U3" s="240"/>
       <c r="W3" t="s">
         <v>241</v>
       </c>
@@ -22525,14 +22525,14 @@
       </c>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A4" s="247">
+      <c r="A4" s="242">
         <v>0.64709000000000005</v>
       </c>
-      <c r="B4" s="247"/>
-      <c r="C4" s="247">
+      <c r="B4" s="242"/>
+      <c r="C4" s="242">
         <v>0.97192999999999996</v>
       </c>
-      <c r="D4" s="247"/>
+      <c r="D4" s="242"/>
       <c r="E4" s="81"/>
       <c r="F4" s="81"/>
       <c r="G4" s="81"/>
@@ -22542,14 +22542,14 @@
       <c r="K4" s="80" t="s">
         <v>243</v>
       </c>
-      <c r="L4" s="247">
+      <c r="L4" s="242">
         <v>0.64709000000000005</v>
       </c>
-      <c r="M4" s="247"/>
-      <c r="N4" s="247">
+      <c r="M4" s="242"/>
+      <c r="N4" s="242">
         <v>0.97192999999999996</v>
       </c>
-      <c r="O4" s="247"/>
+      <c r="O4" s="242"/>
       <c r="P4" s="81"/>
       <c r="Q4" s="81"/>
       <c r="R4" s="81"/>
@@ -22567,14 +22567,14 @@
       </c>
     </row>
     <row r="5" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="252">
+      <c r="A5" s="241">
         <v>0.26545000000000002</v>
       </c>
-      <c r="B5" s="252"/>
-      <c r="C5" s="252">
+      <c r="B5" s="241"/>
+      <c r="C5" s="241">
         <v>0.39895999999999998</v>
       </c>
-      <c r="D5" s="252"/>
+      <c r="D5" s="241"/>
       <c r="E5" s="85"/>
       <c r="F5" s="85"/>
       <c r="G5" s="85"/>
@@ -22584,14 +22584,14 @@
       <c r="K5" s="84" t="s">
         <v>246</v>
       </c>
-      <c r="L5" s="252">
+      <c r="L5" s="241">
         <v>0.26545000000000002</v>
       </c>
-      <c r="M5" s="252"/>
-      <c r="N5" s="252">
+      <c r="M5" s="241"/>
+      <c r="N5" s="241">
         <v>0.39895999999999998</v>
       </c>
-      <c r="O5" s="252"/>
+      <c r="O5" s="241"/>
       <c r="P5" s="85"/>
       <c r="Q5" s="85"/>
       <c r="R5" s="85"/>
@@ -22615,10 +22615,10 @@
       <c r="B6" s="81">
         <v>0.25008999999999998</v>
       </c>
-      <c r="C6" s="247">
+      <c r="C6" s="242">
         <v>1</v>
       </c>
-      <c r="D6" s="247"/>
+      <c r="D6" s="242"/>
       <c r="E6" s="81"/>
       <c r="F6" s="81"/>
       <c r="G6" s="81"/>
@@ -22634,10 +22634,10 @@
       <c r="M6" s="81">
         <v>0.25008999999999998</v>
       </c>
-      <c r="N6" s="247">
+      <c r="N6" s="242">
         <v>1</v>
       </c>
-      <c r="O6" s="247"/>
+      <c r="O6" s="242"/>
       <c r="P6" s="81"/>
       <c r="Q6" s="81"/>
       <c r="R6" s="81"/>
@@ -22650,10 +22650,10 @@
       <c r="B7" s="85"/>
       <c r="C7" s="85"/>
       <c r="D7" s="85"/>
-      <c r="E7" s="252">
+      <c r="E7" s="241">
         <v>0.27488000000000001</v>
       </c>
-      <c r="F7" s="252"/>
+      <c r="F7" s="241"/>
       <c r="G7" s="85"/>
       <c r="H7" s="85"/>
       <c r="I7" s="85"/>
@@ -22665,10 +22665,10 @@
       <c r="M7" s="85"/>
       <c r="N7" s="85"/>
       <c r="O7" s="85"/>
-      <c r="P7" s="252">
+      <c r="P7" s="241">
         <v>0.27488000000000001</v>
       </c>
-      <c r="Q7" s="252"/>
+      <c r="Q7" s="241"/>
       <c r="R7" s="85"/>
       <c r="S7" s="85"/>
       <c r="T7" s="85"/>
@@ -22687,10 +22687,10 @@
       <c r="B8" s="81">
         <v>0.17752000000000001</v>
       </c>
-      <c r="C8" s="247">
+      <c r="C8" s="242">
         <v>0.72296000000000005</v>
       </c>
-      <c r="D8" s="247"/>
+      <c r="D8" s="242"/>
       <c r="E8" s="81"/>
       <c r="F8" s="81"/>
       <c r="G8" s="81"/>
@@ -22706,10 +22706,10 @@
       <c r="M8" s="81">
         <v>0.17752000000000001</v>
       </c>
-      <c r="N8" s="247">
+      <c r="N8" s="242">
         <v>0.72296000000000005</v>
       </c>
-      <c r="O8" s="247"/>
+      <c r="O8" s="242"/>
       <c r="P8" s="81"/>
       <c r="Q8" s="81"/>
       <c r="R8" s="81"/>
@@ -22725,10 +22725,10 @@
       <c r="B9" s="85"/>
       <c r="C9" s="85"/>
       <c r="D9" s="85"/>
-      <c r="E9" s="252">
+      <c r="E9" s="241">
         <v>0.36337000000000003</v>
       </c>
-      <c r="F9" s="252"/>
+      <c r="F9" s="241"/>
       <c r="G9" s="85"/>
       <c r="H9" s="85"/>
       <c r="I9" s="85"/>
@@ -22740,11 +22740,11 @@
       <c r="M9" s="85"/>
       <c r="N9" s="85"/>
       <c r="O9" s="85"/>
-      <c r="P9" s="252">
+      <c r="P9" s="241">
         <f>36.337%*1.21</f>
         <v>0.4396777</v>
       </c>
-      <c r="Q9" s="252"/>
+      <c r="Q9" s="241"/>
       <c r="R9" s="85"/>
       <c r="S9" s="85"/>
       <c r="T9" s="85"/>
@@ -22758,10 +22758,10 @@
         <v>0.65615999999999997</v>
       </c>
       <c r="B10" s="81"/>
-      <c r="C10" s="247">
+      <c r="C10" s="242">
         <v>0.78437000000000001</v>
       </c>
-      <c r="D10" s="247"/>
+      <c r="D10" s="242"/>
       <c r="E10" s="81"/>
       <c r="F10" s="81"/>
       <c r="G10" s="81"/>
@@ -22776,11 +22776,11 @@
         <v>0.69552959999999997</v>
       </c>
       <c r="M10" s="81"/>
-      <c r="N10" s="247">
+      <c r="N10" s="242">
         <f>78.437%*(1-0.09)</f>
         <v>0.71377670000000004</v>
       </c>
-      <c r="O10" s="247"/>
+      <c r="O10" s="242"/>
       <c r="P10" s="81"/>
       <c r="Q10" s="81"/>
       <c r="R10" s="81"/>
@@ -22796,10 +22796,10 @@
       <c r="B11" s="88"/>
       <c r="C11" s="88"/>
       <c r="D11" s="88"/>
-      <c r="E11" s="251">
+      <c r="E11" s="243">
         <v>0.1464</v>
       </c>
-      <c r="F11" s="251"/>
+      <c r="F11" s="243"/>
       <c r="G11" s="88"/>
       <c r="H11" s="88"/>
       <c r="I11" s="88"/>
@@ -22811,10 +22811,10 @@
       <c r="M11" s="88"/>
       <c r="N11" s="88"/>
       <c r="O11" s="88"/>
-      <c r="P11" s="251">
+      <c r="P11" s="243">
         <v>0.1464</v>
       </c>
-      <c r="Q11" s="251"/>
+      <c r="Q11" s="243"/>
       <c r="R11" s="88"/>
       <c r="S11" s="88"/>
       <c r="T11" s="88"/>
@@ -22859,14 +22859,14 @@
       </c>
     </row>
     <row r="13" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A13" s="247">
+      <c r="A13" s="242">
         <v>0.42514999999999997</v>
       </c>
-      <c r="B13" s="247"/>
-      <c r="C13" s="247">
+      <c r="B13" s="242"/>
+      <c r="C13" s="242">
         <v>0.85</v>
       </c>
-      <c r="D13" s="247"/>
+      <c r="D13" s="242"/>
       <c r="E13" s="81"/>
       <c r="F13" s="81"/>
       <c r="G13" s="81"/>
@@ -22876,14 +22876,14 @@
       <c r="K13" s="80" t="s">
         <v>260</v>
       </c>
-      <c r="L13" s="247">
+      <c r="L13" s="242">
         <v>0.42514999999999997</v>
       </c>
-      <c r="M13" s="247"/>
-      <c r="N13" s="247">
+      <c r="M13" s="242"/>
+      <c r="N13" s="242">
         <v>0.85</v>
       </c>
-      <c r="O13" s="247"/>
+      <c r="O13" s="242"/>
       <c r="P13" s="81"/>
       <c r="Q13" s="81"/>
       <c r="R13" s="81"/>
@@ -22916,10 +22916,10 @@
       <c r="B14" s="85"/>
       <c r="C14" s="85"/>
       <c r="D14" s="85"/>
-      <c r="E14" s="252">
+      <c r="E14" s="241">
         <v>0.23365</v>
       </c>
-      <c r="F14" s="252"/>
+      <c r="F14" s="241"/>
       <c r="G14" s="85"/>
       <c r="H14" s="85"/>
       <c r="I14" s="85"/>
@@ -22931,10 +22931,10 @@
       <c r="M14" s="85"/>
       <c r="N14" s="85"/>
       <c r="O14" s="85"/>
-      <c r="P14" s="252">
+      <c r="P14" s="241">
         <v>0.23365</v>
       </c>
-      <c r="Q14" s="252"/>
+      <c r="Q14" s="241"/>
       <c r="R14" s="85"/>
       <c r="S14" s="85"/>
       <c r="T14" s="85"/>
@@ -22972,10 +22972,10 @@
         <v>1</v>
       </c>
       <c r="B15" s="92"/>
-      <c r="C15" s="247">
+      <c r="C15" s="242">
         <v>0.51382000000000005</v>
       </c>
-      <c r="D15" s="247"/>
+      <c r="D15" s="242"/>
       <c r="E15" s="81"/>
       <c r="F15" s="81"/>
       <c r="G15" s="81"/>
@@ -22989,10 +22989,10 @@
         <v>1</v>
       </c>
       <c r="M15" s="92"/>
-      <c r="N15" s="247">
+      <c r="N15" s="242">
         <v>0.51382000000000005</v>
       </c>
-      <c r="O15" s="247"/>
+      <c r="O15" s="242"/>
       <c r="P15" s="81"/>
       <c r="Q15" s="81"/>
       <c r="R15" s="81"/>
@@ -23040,10 +23040,10 @@
       <c r="B16" s="88"/>
       <c r="C16" s="88"/>
       <c r="D16" s="88"/>
-      <c r="E16" s="251">
+      <c r="E16" s="243">
         <v>4.3869999999999999E-2</v>
       </c>
-      <c r="F16" s="251"/>
+      <c r="F16" s="243"/>
       <c r="G16" s="88"/>
       <c r="H16" s="88"/>
       <c r="I16" s="88"/>
@@ -23055,10 +23055,10 @@
       <c r="M16" s="88"/>
       <c r="N16" s="88"/>
       <c r="O16" s="88"/>
-      <c r="P16" s="251">
+      <c r="P16" s="243">
         <v>4.3869999999999999E-2</v>
       </c>
-      <c r="Q16" s="251"/>
+      <c r="Q16" s="243"/>
       <c r="R16" s="88"/>
       <c r="S16" s="88"/>
       <c r="T16" s="88"/>
@@ -23139,10 +23139,10 @@
         <v>0.91232999999999997</v>
       </c>
       <c r="B18" s="92"/>
-      <c r="C18" s="247">
+      <c r="C18" s="242">
         <v>0.46146999999999999</v>
       </c>
-      <c r="D18" s="247"/>
+      <c r="D18" s="242"/>
       <c r="E18" s="81"/>
       <c r="F18" s="81"/>
       <c r="G18" s="81"/>
@@ -23156,11 +23156,11 @@
         <v>0.91232999999999997</v>
       </c>
       <c r="M18" s="92"/>
-      <c r="N18" s="247">
+      <c r="N18" s="242">
         <f>46.147%*(1-0.08)</f>
         <v>0.4245524</v>
       </c>
-      <c r="O18" s="247"/>
+      <c r="O18" s="242"/>
       <c r="P18" s="81"/>
       <c r="Q18" s="81"/>
       <c r="R18" s="81"/>
@@ -23179,10 +23179,10 @@
       <c r="B19" s="88"/>
       <c r="C19" s="88"/>
       <c r="D19" s="88"/>
-      <c r="E19" s="251">
+      <c r="E19" s="243">
         <v>0.15035999999999999</v>
       </c>
-      <c r="F19" s="251"/>
+      <c r="F19" s="243"/>
       <c r="G19" s="88"/>
       <c r="H19" s="88"/>
       <c r="I19" s="88"/>
@@ -23194,10 +23194,10 @@
       <c r="M19" s="88"/>
       <c r="N19" s="88"/>
       <c r="O19" s="88"/>
-      <c r="P19" s="251">
+      <c r="P19" s="243">
         <v>0.15035999999999999</v>
       </c>
-      <c r="Q19" s="251"/>
+      <c r="Q19" s="243"/>
       <c r="R19" s="88"/>
       <c r="S19" s="88"/>
       <c r="T19" s="88"/>
@@ -23267,10 +23267,10 @@
         <v>0.69059999999999999</v>
       </c>
       <c r="B21" s="92"/>
-      <c r="C21" s="247">
+      <c r="C21" s="242">
         <v>0.38878000000000001</v>
       </c>
-      <c r="D21" s="247"/>
+      <c r="D21" s="242"/>
       <c r="E21" s="81"/>
       <c r="F21" s="81"/>
       <c r="G21" s="81"/>
@@ -23284,10 +23284,10 @@
         <v>0.69059999999999999</v>
       </c>
       <c r="M21" s="92"/>
-      <c r="N21" s="247">
+      <c r="N21" s="242">
         <v>0.38878000000000001</v>
       </c>
-      <c r="O21" s="247"/>
+      <c r="O21" s="242"/>
       <c r="P21" s="81"/>
       <c r="Q21" s="81"/>
       <c r="R21" s="81"/>
@@ -23309,10 +23309,10 @@
       <c r="B22" s="88"/>
       <c r="C22" s="88"/>
       <c r="D22" s="88"/>
-      <c r="E22" s="251">
+      <c r="E22" s="243">
         <v>0.2099</v>
       </c>
-      <c r="F22" s="251"/>
+      <c r="F22" s="243"/>
       <c r="G22" s="88"/>
       <c r="H22" s="88"/>
       <c r="I22" s="88"/>
@@ -23324,10 +23324,10 @@
       <c r="M22" s="88"/>
       <c r="N22" s="88"/>
       <c r="O22" s="88"/>
-      <c r="P22" s="251">
+      <c r="P22" s="243">
         <v>0.2099</v>
       </c>
-      <c r="Q22" s="251"/>
+      <c r="Q22" s="243"/>
       <c r="R22" s="88"/>
       <c r="S22" s="88"/>
       <c r="T22" s="88"/>
@@ -23391,10 +23391,10 @@
         <v>0.68315000000000003</v>
       </c>
       <c r="B24" s="92"/>
-      <c r="C24" s="247">
+      <c r="C24" s="242">
         <v>0.70006000000000002</v>
       </c>
-      <c r="D24" s="247"/>
+      <c r="D24" s="242"/>
       <c r="E24" s="81"/>
       <c r="F24" s="81"/>
       <c r="G24" s="81"/>
@@ -23408,10 +23408,10 @@
         <v>0.68315000000000003</v>
       </c>
       <c r="M24" s="92"/>
-      <c r="N24" s="247">
+      <c r="N24" s="242">
         <v>0.70006000000000002</v>
       </c>
-      <c r="O24" s="247"/>
+      <c r="O24" s="242"/>
       <c r="P24" s="81"/>
       <c r="Q24" s="81"/>
       <c r="R24" s="81"/>
@@ -23436,10 +23436,10 @@
       <c r="B25" s="88"/>
       <c r="C25" s="88"/>
       <c r="D25" s="88"/>
-      <c r="E25" s="251">
+      <c r="E25" s="243">
         <v>0.152</v>
       </c>
-      <c r="F25" s="251"/>
+      <c r="F25" s="243"/>
       <c r="G25" s="88"/>
       <c r="H25" s="88"/>
       <c r="I25" s="88"/>
@@ -23451,10 +23451,10 @@
       <c r="M25" s="88"/>
       <c r="N25" s="88"/>
       <c r="O25" s="88"/>
-      <c r="P25" s="251">
+      <c r="P25" s="243">
         <v>0.152</v>
       </c>
-      <c r="Q25" s="251"/>
+      <c r="Q25" s="243"/>
       <c r="R25" s="88"/>
       <c r="S25" s="88"/>
       <c r="T25" s="88"/>
@@ -23517,16 +23517,16 @@
       <c r="B27" s="81">
         <v>9.2719999999999997E-2</v>
       </c>
-      <c r="C27" s="247">
+      <c r="C27" s="242">
         <v>0.42459999999999998</v>
       </c>
-      <c r="D27" s="247"/>
+      <c r="D27" s="242"/>
       <c r="E27" s="81"/>
       <c r="F27" s="81"/>
       <c r="G27" s="81"/>
       <c r="H27" s="81"/>
-      <c r="I27" s="240"/>
-      <c r="J27" s="242"/>
+      <c r="I27" s="246"/>
+      <c r="J27" s="247"/>
       <c r="K27" s="80" t="s">
         <v>292</v>
       </c>
@@ -23536,16 +23536,16 @@
       <c r="M27" s="81">
         <v>9.2719999999999997E-2</v>
       </c>
-      <c r="N27" s="247">
+      <c r="N27" s="242">
         <v>0.42459999999999998</v>
       </c>
-      <c r="O27" s="247"/>
+      <c r="O27" s="242"/>
       <c r="P27" s="81"/>
       <c r="Q27" s="81"/>
       <c r="R27" s="81"/>
       <c r="S27" s="81"/>
-      <c r="T27" s="240"/>
-      <c r="U27" s="242"/>
+      <c r="T27" s="246"/>
+      <c r="U27" s="247"/>
       <c r="W27" t="s">
         <v>415</v>
       </c>
@@ -23561,14 +23561,14 @@
       <c r="B28" s="88"/>
       <c r="C28" s="88"/>
       <c r="D28" s="88"/>
-      <c r="E28" s="251">
+      <c r="E28" s="243">
         <v>1</v>
       </c>
-      <c r="F28" s="251"/>
+      <c r="F28" s="243"/>
       <c r="G28" s="88"/>
       <c r="H28" s="88"/>
-      <c r="I28" s="243"/>
-      <c r="J28" s="244"/>
+      <c r="I28" s="244"/>
+      <c r="J28" s="245"/>
       <c r="K28" s="87" t="s">
         <v>295</v>
       </c>
@@ -23576,14 +23576,14 @@
       <c r="M28" s="88"/>
       <c r="N28" s="88"/>
       <c r="O28" s="88"/>
-      <c r="P28" s="251">
+      <c r="P28" s="243">
         <v>1</v>
       </c>
-      <c r="Q28" s="251"/>
+      <c r="Q28" s="243"/>
       <c r="R28" s="88"/>
       <c r="S28" s="88"/>
-      <c r="T28" s="243"/>
-      <c r="U28" s="244"/>
+      <c r="T28" s="244"/>
+      <c r="U28" s="245"/>
       <c r="W28" t="s">
         <v>418</v>
       </c>
@@ -23613,10 +23613,10 @@
       <c r="Q29" s="90"/>
       <c r="R29" s="85"/>
       <c r="S29" s="85"/>
-      <c r="T29" s="245">
+      <c r="T29" s="248">
         <v>0.21</v>
       </c>
-      <c r="U29" s="246"/>
+      <c r="U29" s="249"/>
       <c r="W29" t="s">
         <v>420</v>
       </c>
@@ -23637,10 +23637,10 @@
       <c r="H30" s="85">
         <v>0.1226</v>
       </c>
-      <c r="I30" s="245">
+      <c r="I30" s="248">
         <v>0.34044000000000002</v>
       </c>
-      <c r="J30" s="246"/>
+      <c r="J30" s="249"/>
       <c r="K30" s="84" t="s">
         <v>298</v>
       </c>
@@ -23656,11 +23656,11 @@
       <c r="S30" s="85">
         <v>0.14255813953488372</v>
       </c>
-      <c r="T30" s="245">
+      <c r="T30" s="248">
         <f>34.044%*1.05</f>
         <v>0.357462</v>
       </c>
-      <c r="U30" s="246"/>
+      <c r="U30" s="249"/>
       <c r="W30" t="s">
         <v>422</v>
       </c>
@@ -23681,16 +23681,16 @@
       <c r="B31" s="81">
         <v>0.13719000000000001</v>
       </c>
-      <c r="C31" s="247">
+      <c r="C31" s="242">
         <v>0.62792999999999999</v>
       </c>
-      <c r="D31" s="247"/>
+      <c r="D31" s="242"/>
       <c r="E31" s="81"/>
       <c r="F31" s="81"/>
       <c r="G31" s="81"/>
       <c r="H31" s="81"/>
-      <c r="I31" s="240"/>
-      <c r="J31" s="242"/>
+      <c r="I31" s="246"/>
+      <c r="J31" s="247"/>
       <c r="K31" s="80" t="s">
         <v>300</v>
       </c>
@@ -23700,16 +23700,16 @@
       <c r="M31" s="81">
         <v>0.13719000000000001</v>
       </c>
-      <c r="N31" s="247">
+      <c r="N31" s="242">
         <v>0.62792999999999999</v>
       </c>
-      <c r="O31" s="247"/>
+      <c r="O31" s="242"/>
       <c r="P31" s="81"/>
       <c r="Q31" s="81"/>
       <c r="R31" s="81"/>
       <c r="S31" s="81"/>
-      <c r="T31" s="240"/>
-      <c r="U31" s="242"/>
+      <c r="T31" s="246"/>
+      <c r="U31" s="247"/>
       <c r="W31" t="s">
         <v>426</v>
       </c>
@@ -23745,10 +23745,10 @@
       <c r="Q32" s="103"/>
       <c r="R32" s="103"/>
       <c r="S32" s="103"/>
-      <c r="T32" s="245">
+      <c r="T32" s="248">
         <v>0.12</v>
       </c>
-      <c r="U32" s="246"/>
+      <c r="U32" s="249"/>
       <c r="W32" t="s">
         <v>430</v>
       </c>
@@ -23775,10 +23775,10 @@
       <c r="H33" s="85">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="I33" s="245">
+      <c r="I33" s="248">
         <v>0.23748</v>
       </c>
-      <c r="J33" s="246"/>
+      <c r="J33" s="249"/>
       <c r="K33" s="84" t="s">
         <v>303</v>
       </c>
@@ -23794,11 +23794,11 @@
       <c r="S33" s="85">
         <v>6.8837209302325592E-2</v>
       </c>
-      <c r="T33" s="245">
+      <c r="T33" s="248">
         <f>23.748%*0.8</f>
         <v>0.18998400000000004</v>
       </c>
-      <c r="U33" s="246"/>
+      <c r="U33" s="249"/>
       <c r="W33" t="s">
         <v>434</v>
       </c>
@@ -23819,16 +23819,16 @@
       <c r="B34" s="81">
         <v>5.6059999999999999E-2</v>
       </c>
-      <c r="C34" s="247">
+      <c r="C34" s="242">
         <v>0.23462</v>
       </c>
-      <c r="D34" s="247"/>
+      <c r="D34" s="242"/>
       <c r="E34" s="81"/>
       <c r="F34" s="81"/>
       <c r="G34" s="81"/>
       <c r="H34" s="81"/>
-      <c r="I34" s="240"/>
-      <c r="J34" s="242"/>
+      <c r="I34" s="246"/>
+      <c r="J34" s="247"/>
       <c r="K34" s="80" t="s">
         <v>305</v>
       </c>
@@ -23840,17 +23840,17 @@
         <f>5.606%*0.75</f>
         <v>4.2044999999999999E-2</v>
       </c>
-      <c r="N34" s="247">
+      <c r="N34" s="242">
         <f>23.462%*0.75</f>
         <v>0.17596499999999998</v>
       </c>
-      <c r="O34" s="247"/>
+      <c r="O34" s="242"/>
       <c r="P34" s="81"/>
       <c r="Q34" s="81"/>
       <c r="R34" s="81"/>
       <c r="S34" s="81"/>
-      <c r="T34" s="240"/>
-      <c r="U34" s="242"/>
+      <c r="T34" s="246"/>
+      <c r="U34" s="247"/>
       <c r="W34" t="s">
         <v>438</v>
       </c>
@@ -23886,10 +23886,10 @@
       <c r="Q35" s="103"/>
       <c r="R35" s="103"/>
       <c r="S35" s="103"/>
-      <c r="T35" s="245">
+      <c r="T35" s="248">
         <v>0.31</v>
       </c>
-      <c r="U35" s="246"/>
+      <c r="U35" s="249"/>
       <c r="W35" t="s">
         <v>442</v>
       </c>
@@ -23910,10 +23910,10 @@
       <c r="H36" s="85">
         <v>0.11894</v>
       </c>
-      <c r="I36" s="245">
+      <c r="I36" s="248">
         <v>0.50244</v>
       </c>
-      <c r="J36" s="246"/>
+      <c r="J36" s="249"/>
       <c r="K36" s="84" t="s">
         <v>307</v>
       </c>
@@ -23929,11 +23929,11 @@
       <c r="S36" s="85">
         <v>0.13830232558139535</v>
       </c>
-      <c r="T36" s="245">
+      <c r="T36" s="248">
         <f>50.244%*1.05</f>
         <v>0.52756199999999998</v>
       </c>
-      <c r="U36" s="246"/>
+      <c r="U36" s="249"/>
       <c r="AC36" t="s">
         <v>444</v>
       </c>
@@ -23943,14 +23943,14 @@
       <c r="B37" s="94"/>
       <c r="C37" s="94"/>
       <c r="D37" s="94"/>
-      <c r="E37" s="248">
+      <c r="E37" s="250">
         <v>0.94696999999999998</v>
       </c>
-      <c r="F37" s="248"/>
+      <c r="F37" s="250"/>
       <c r="G37" s="94"/>
       <c r="H37" s="94"/>
-      <c r="I37" s="249"/>
-      <c r="J37" s="250"/>
+      <c r="I37" s="251"/>
+      <c r="J37" s="252"/>
       <c r="K37" s="93" t="s">
         <v>309</v>
       </c>
@@ -23958,54 +23958,54 @@
       <c r="M37" s="94"/>
       <c r="N37" s="94"/>
       <c r="O37" s="94"/>
-      <c r="P37" s="248">
+      <c r="P37" s="250">
         <v>0.94696999999999998</v>
       </c>
-      <c r="Q37" s="248"/>
+      <c r="Q37" s="250"/>
       <c r="R37" s="94"/>
       <c r="S37" s="94"/>
-      <c r="T37" s="249"/>
-      <c r="U37" s="250"/>
-      <c r="W37" s="256" t="s">
+      <c r="T37" s="251"/>
+      <c r="U37" s="252"/>
+      <c r="W37" s="258" t="s">
         <v>261</v>
       </c>
-      <c r="X37" s="256"/>
+      <c r="X37" s="258"/>
       <c r="AC37" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="38" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A38" s="247">
+      <c r="A38" s="242">
         <v>0.15762999999999999</v>
       </c>
-      <c r="B38" s="247"/>
-      <c r="C38" s="247">
+      <c r="B38" s="242"/>
+      <c r="C38" s="242">
         <v>0.36070000000000002</v>
       </c>
-      <c r="D38" s="247"/>
+      <c r="D38" s="242"/>
       <c r="E38" s="81"/>
       <c r="F38" s="81"/>
       <c r="G38" s="81"/>
       <c r="H38" s="81"/>
-      <c r="I38" s="240"/>
-      <c r="J38" s="242"/>
+      <c r="I38" s="246"/>
+      <c r="J38" s="247"/>
       <c r="K38" s="80" t="s">
         <v>310</v>
       </c>
-      <c r="L38" s="247">
+      <c r="L38" s="242">
         <v>0.15762999999999999</v>
       </c>
-      <c r="M38" s="247"/>
-      <c r="N38" s="247">
+      <c r="M38" s="242"/>
+      <c r="N38" s="242">
         <v>0.36070000000000002</v>
       </c>
-      <c r="O38" s="247"/>
+      <c r="O38" s="242"/>
       <c r="P38" s="81"/>
       <c r="Q38" s="81"/>
       <c r="R38" s="81"/>
       <c r="S38" s="81"/>
-      <c r="T38" s="240"/>
-      <c r="U38" s="242"/>
+      <c r="T38" s="246"/>
+      <c r="U38" s="247"/>
       <c r="AC38" t="s">
         <v>446</v>
       </c>
@@ -24015,14 +24015,14 @@
       <c r="B39" s="88"/>
       <c r="C39" s="88"/>
       <c r="D39" s="88"/>
-      <c r="E39" s="251">
+      <c r="E39" s="243">
         <v>0.85</v>
       </c>
-      <c r="F39" s="251"/>
+      <c r="F39" s="243"/>
       <c r="G39" s="88"/>
       <c r="H39" s="88"/>
-      <c r="I39" s="243"/>
-      <c r="J39" s="244"/>
+      <c r="I39" s="244"/>
+      <c r="J39" s="245"/>
       <c r="K39" s="87" t="s">
         <v>311</v>
       </c>
@@ -24030,14 +24030,14 @@
       <c r="M39" s="88"/>
       <c r="N39" s="88"/>
       <c r="O39" s="88"/>
-      <c r="P39" s="251">
+      <c r="P39" s="243">
         <v>0.85</v>
       </c>
-      <c r="Q39" s="251"/>
+      <c r="Q39" s="243"/>
       <c r="R39" s="88"/>
       <c r="S39" s="88"/>
-      <c r="T39" s="243"/>
-      <c r="U39" s="244"/>
+      <c r="T39" s="244"/>
+      <c r="U39" s="245"/>
       <c r="W39" t="s">
         <v>241</v>
       </c>
@@ -24056,10 +24056,10 @@
         <v>0.20784</v>
       </c>
       <c r="H40" s="85"/>
-      <c r="I40" s="245">
+      <c r="I40" s="248">
         <v>0.28937000000000002</v>
       </c>
-      <c r="J40" s="246"/>
+      <c r="J40" s="249"/>
       <c r="K40" s="84" t="s">
         <v>313</v>
       </c>
@@ -24073,10 +24073,10 @@
         <v>0.24167441860465114</v>
       </c>
       <c r="S40" s="85"/>
-      <c r="T40" s="245">
+      <c r="T40" s="248">
         <v>0.28937000000000002</v>
       </c>
-      <c r="U40" s="246"/>
+      <c r="U40" s="249"/>
       <c r="W40" t="s">
         <v>244</v>
       </c>
@@ -24085,37 +24085,37 @@
       </c>
     </row>
     <row r="41" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A41" s="247">
+      <c r="A41" s="242">
         <v>0.20368</v>
       </c>
-      <c r="B41" s="247"/>
-      <c r="C41" s="247">
+      <c r="B41" s="242"/>
+      <c r="C41" s="242">
         <v>0.33767000000000003</v>
       </c>
-      <c r="D41" s="247"/>
+      <c r="D41" s="242"/>
       <c r="E41" s="81"/>
       <c r="F41" s="81"/>
       <c r="G41" s="81"/>
       <c r="H41" s="81"/>
-      <c r="I41" s="240"/>
-      <c r="J41" s="242"/>
+      <c r="I41" s="246"/>
+      <c r="J41" s="247"/>
       <c r="K41" s="80" t="s">
         <v>315</v>
       </c>
-      <c r="L41" s="247">
+      <c r="L41" s="242">
         <v>0.20368</v>
       </c>
-      <c r="M41" s="247"/>
-      <c r="N41" s="247">
+      <c r="M41" s="242"/>
+      <c r="N41" s="242">
         <v>0.33767000000000003</v>
       </c>
-      <c r="O41" s="247"/>
+      <c r="O41" s="242"/>
       <c r="P41" s="81"/>
       <c r="Q41" s="81"/>
       <c r="R41" s="81"/>
       <c r="S41" s="81"/>
-      <c r="T41" s="240"/>
-      <c r="U41" s="242"/>
+      <c r="T41" s="246"/>
+      <c r="U41" s="247"/>
       <c r="W41" t="s">
         <v>247</v>
       </c>
@@ -24128,14 +24128,14 @@
       <c r="B42" s="88"/>
       <c r="C42" s="88"/>
       <c r="D42" s="88"/>
-      <c r="E42" s="251">
+      <c r="E42" s="243">
         <v>0.89815999999999996</v>
       </c>
-      <c r="F42" s="251"/>
+      <c r="F42" s="243"/>
       <c r="G42" s="88"/>
       <c r="H42" s="88"/>
-      <c r="I42" s="243"/>
-      <c r="J42" s="244"/>
+      <c r="I42" s="244"/>
+      <c r="J42" s="245"/>
       <c r="K42" s="87" t="s">
         <v>317</v>
       </c>
@@ -24143,14 +24143,14 @@
       <c r="M42" s="88"/>
       <c r="N42" s="88"/>
       <c r="O42" s="88"/>
-      <c r="P42" s="251">
+      <c r="P42" s="243">
         <v>0.89815999999999996</v>
       </c>
-      <c r="Q42" s="251"/>
+      <c r="Q42" s="243"/>
       <c r="R42" s="88"/>
       <c r="S42" s="88"/>
-      <c r="T42" s="243"/>
-      <c r="U42" s="244"/>
+      <c r="T42" s="244"/>
+      <c r="U42" s="245"/>
       <c r="AC42" t="s">
         <v>450</v>
       </c>
@@ -24166,8 +24166,8 @@
         <v>0.57364000000000004</v>
       </c>
       <c r="H43" s="88"/>
-      <c r="I43" s="243"/>
-      <c r="J43" s="244"/>
+      <c r="I43" s="244"/>
+      <c r="J43" s="245"/>
       <c r="K43" s="87" t="s">
         <v>319</v>
       </c>
@@ -24181,8 +24181,8 @@
         <v>0.6670232558139535</v>
       </c>
       <c r="S43" s="88"/>
-      <c r="T43" s="243"/>
-      <c r="U43" s="244"/>
+      <c r="T43" s="244"/>
+      <c r="U43" s="245"/>
       <c r="W43" t="s">
         <v>256</v>
       </c>
@@ -24201,10 +24201,10 @@
         <v>0.26422000000000001</v>
       </c>
       <c r="H44" s="85"/>
-      <c r="I44" s="245">
+      <c r="I44" s="248">
         <v>0.2399</v>
       </c>
-      <c r="J44" s="246"/>
+      <c r="J44" s="249"/>
       <c r="K44" s="84" t="s">
         <v>321</v>
       </c>
@@ -24218,11 +24218,11 @@
         <v>0.30723255813953487</v>
       </c>
       <c r="S44" s="85"/>
-      <c r="T44" s="245">
+      <c r="T44" s="248">
         <f>23.99%*1.06</f>
         <v>0.25429399999999996</v>
       </c>
-      <c r="U44" s="246"/>
+      <c r="U44" s="249"/>
       <c r="W44" t="s">
         <v>258</v>
       </c>
@@ -24235,16 +24235,16 @@
         <v>0.34708</v>
       </c>
       <c r="B45" s="92"/>
-      <c r="C45" s="247">
+      <c r="C45" s="242">
         <v>0.20830000000000001</v>
       </c>
-      <c r="D45" s="247"/>
+      <c r="D45" s="242"/>
       <c r="E45" s="81"/>
       <c r="F45" s="81"/>
       <c r="G45" s="81"/>
       <c r="H45" s="81"/>
-      <c r="I45" s="240"/>
-      <c r="J45" s="242"/>
+      <c r="I45" s="246"/>
+      <c r="J45" s="247"/>
       <c r="K45" s="80" t="s">
         <v>322</v>
       </c>
@@ -24252,16 +24252,16 @@
         <v>0.34708</v>
       </c>
       <c r="M45" s="92"/>
-      <c r="N45" s="247">
+      <c r="N45" s="242">
         <v>0.20830000000000001</v>
       </c>
-      <c r="O45" s="247"/>
+      <c r="O45" s="242"/>
       <c r="P45" s="81"/>
       <c r="Q45" s="81"/>
       <c r="R45" s="81"/>
       <c r="S45" s="81"/>
-      <c r="T45" s="240"/>
-      <c r="U45" s="242"/>
+      <c r="T45" s="246"/>
+      <c r="U45" s="247"/>
       <c r="AC45" t="s">
         <v>453</v>
       </c>
@@ -24271,14 +24271,14 @@
       <c r="B46" s="88"/>
       <c r="C46" s="88"/>
       <c r="D46" s="88"/>
-      <c r="E46" s="251">
+      <c r="E46" s="243">
         <v>0.52559999999999996</v>
       </c>
-      <c r="F46" s="251"/>
+      <c r="F46" s="243"/>
       <c r="G46" s="88"/>
       <c r="H46" s="88"/>
-      <c r="I46" s="243"/>
-      <c r="J46" s="244"/>
+      <c r="I46" s="244"/>
+      <c r="J46" s="245"/>
       <c r="K46" s="87" t="s">
         <v>323</v>
       </c>
@@ -24286,14 +24286,14 @@
       <c r="M46" s="88"/>
       <c r="N46" s="88"/>
       <c r="O46" s="88"/>
-      <c r="P46" s="251">
+      <c r="P46" s="243">
         <v>0.52559999999999996</v>
       </c>
-      <c r="Q46" s="251"/>
+      <c r="Q46" s="243"/>
       <c r="R46" s="88"/>
       <c r="S46" s="88"/>
-      <c r="T46" s="243"/>
-      <c r="U46" s="244"/>
+      <c r="T46" s="244"/>
+      <c r="U46" s="245"/>
       <c r="W46" t="s">
         <v>373</v>
       </c>
@@ -24312,8 +24312,8 @@
         <v>0.84328000000000003</v>
       </c>
       <c r="H47" s="88"/>
-      <c r="I47" s="243"/>
-      <c r="J47" s="244"/>
+      <c r="I47" s="244"/>
+      <c r="J47" s="245"/>
       <c r="K47" s="87" t="s">
         <v>324</v>
       </c>
@@ -24327,8 +24327,8 @@
         <v>0.85308558139534874</v>
       </c>
       <c r="S47" s="88"/>
-      <c r="T47" s="243"/>
-      <c r="U47" s="244"/>
+      <c r="T47" s="244"/>
+      <c r="U47" s="245"/>
     </row>
     <row r="48" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="85"/>
@@ -24341,10 +24341,10 @@
         <v>0.23543</v>
       </c>
       <c r="H48" s="85"/>
-      <c r="I48" s="245">
+      <c r="I48" s="248">
         <v>0.13220000000000001</v>
       </c>
-      <c r="J48" s="246"/>
+      <c r="J48" s="249"/>
       <c r="K48" s="84" t="s">
         <v>326</v>
       </c>
@@ -24358,11 +24358,11 @@
         <v>0.27375581395348836</v>
       </c>
       <c r="S48" s="85"/>
-      <c r="T48" s="245">
+      <c r="T48" s="248">
         <f>13.22%*1.16</f>
         <v>0.15335200000000002</v>
       </c>
-      <c r="U48" s="246"/>
+      <c r="U48" s="249"/>
       <c r="W48" t="s">
         <v>455</v>
       </c>
@@ -24375,14 +24375,14 @@
       <c r="B49" s="94"/>
       <c r="C49" s="94"/>
       <c r="D49" s="94"/>
-      <c r="E49" s="248">
+      <c r="E49" s="250">
         <v>0.43773000000000001</v>
       </c>
-      <c r="F49" s="248"/>
+      <c r="F49" s="250"/>
       <c r="G49" s="94"/>
       <c r="H49" s="94"/>
-      <c r="I49" s="249"/>
-      <c r="J49" s="250"/>
+      <c r="I49" s="251"/>
+      <c r="J49" s="252"/>
       <c r="K49" s="93" t="s">
         <v>367</v>
       </c>
@@ -24390,14 +24390,14 @@
       <c r="M49" s="94"/>
       <c r="N49" s="94"/>
       <c r="O49" s="94"/>
-      <c r="P49" s="248">
+      <c r="P49" s="250">
         <v>0.43773000000000001</v>
       </c>
-      <c r="Q49" s="248"/>
+      <c r="Q49" s="250"/>
       <c r="R49" s="94"/>
       <c r="S49" s="94"/>
-      <c r="T49" s="249"/>
-      <c r="U49" s="250"/>
+      <c r="T49" s="251"/>
+      <c r="U49" s="252"/>
       <c r="V49" s="40"/>
       <c r="W49" t="s">
         <v>457</v>
@@ -24408,16 +24408,16 @@
         <v>0.47361999999999999</v>
       </c>
       <c r="B50" s="92"/>
-      <c r="C50" s="247">
+      <c r="C50" s="242">
         <v>0.28101999999999999</v>
       </c>
-      <c r="D50" s="247"/>
+      <c r="D50" s="242"/>
       <c r="E50" s="81"/>
       <c r="F50" s="81"/>
       <c r="G50" s="81"/>
       <c r="H50" s="81"/>
-      <c r="I50" s="240"/>
-      <c r="J50" s="242"/>
+      <c r="I50" s="246"/>
+      <c r="J50" s="247"/>
       <c r="K50" s="80" t="s">
         <v>328</v>
       </c>
@@ -24425,23 +24425,23 @@
         <v>0.47361999999999999</v>
       </c>
       <c r="M50" s="92"/>
-      <c r="N50" s="247">
+      <c r="N50" s="242">
         <v>0.28101999999999999</v>
       </c>
-      <c r="O50" s="247"/>
+      <c r="O50" s="242"/>
       <c r="P50" s="81"/>
       <c r="Q50" s="81"/>
       <c r="R50" s="81"/>
       <c r="S50" s="81"/>
-      <c r="T50" s="240"/>
-      <c r="U50" s="242"/>
+      <c r="T50" s="246"/>
+      <c r="U50" s="247"/>
       <c r="W50" t="s">
         <v>458</v>
       </c>
-      <c r="AC50" s="256" t="s">
+      <c r="AC50" s="258" t="s">
         <v>251</v>
       </c>
-      <c r="AD50" s="256"/>
+      <c r="AD50" s="258"/>
     </row>
     <row r="51" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A51" s="88"/>
@@ -24454,8 +24454,8 @@
         <v>0.71950000000000003</v>
       </c>
       <c r="H51" s="88"/>
-      <c r="I51" s="243"/>
-      <c r="J51" s="244"/>
+      <c r="I51" s="244"/>
+      <c r="J51" s="245"/>
       <c r="K51" s="87" t="s">
         <v>329</v>
       </c>
@@ -24469,8 +24469,8 @@
         <v>0.66930232558139535</v>
       </c>
       <c r="S51" s="88"/>
-      <c r="T51" s="243"/>
-      <c r="U51" s="244"/>
+      <c r="T51" s="244"/>
+      <c r="U51" s="245"/>
       <c r="W51" t="s">
         <v>459</v>
       </c>
@@ -24486,10 +24486,10 @@
         <v>0.20451</v>
       </c>
       <c r="H52" s="85"/>
-      <c r="I52" s="245">
+      <c r="I52" s="248">
         <v>9.1600000000000001E-2</v>
       </c>
-      <c r="J52" s="246"/>
+      <c r="J52" s="249"/>
       <c r="K52" s="84" t="s">
         <v>331</v>
       </c>
@@ -24503,10 +24503,10 @@
         <v>0.23780232558139536</v>
       </c>
       <c r="S52" s="85"/>
-      <c r="T52" s="245">
+      <c r="T52" s="248">
         <v>9.1600000000000001E-2</v>
       </c>
-      <c r="U52" s="246"/>
+      <c r="U52" s="249"/>
       <c r="W52" t="s">
         <v>460</v>
       </c>
@@ -24519,16 +24519,16 @@
         <v>0.17321</v>
       </c>
       <c r="B53" s="92"/>
-      <c r="C53" s="247">
+      <c r="C53" s="242">
         <v>9.2929999999999999E-2</v>
       </c>
-      <c r="D53" s="247"/>
+      <c r="D53" s="242"/>
       <c r="E53" s="81"/>
       <c r="F53" s="81"/>
       <c r="G53" s="81"/>
       <c r="H53" s="81"/>
-      <c r="I53" s="240"/>
-      <c r="J53" s="242"/>
+      <c r="I53" s="246"/>
+      <c r="J53" s="247"/>
       <c r="K53" s="80" t="s">
         <v>333</v>
       </c>
@@ -24536,17 +24536,17 @@
         <v>0.17321</v>
       </c>
       <c r="M53" s="92"/>
-      <c r="N53" s="247">
+      <c r="N53" s="242">
         <f>9.293%*0.8</f>
         <v>7.4344000000000007E-2</v>
       </c>
-      <c r="O53" s="247"/>
+      <c r="O53" s="242"/>
       <c r="P53" s="81"/>
       <c r="Q53" s="81"/>
       <c r="R53" s="81"/>
       <c r="S53" s="81"/>
-      <c r="T53" s="240"/>
-      <c r="U53" s="242"/>
+      <c r="T53" s="246"/>
+      <c r="U53" s="247"/>
       <c r="W53" t="s">
         <v>461</v>
       </c>
@@ -24565,8 +24565,8 @@
         <v>1</v>
       </c>
       <c r="H54" s="88"/>
-      <c r="I54" s="243"/>
-      <c r="J54" s="244"/>
+      <c r="I54" s="244"/>
+      <c r="J54" s="245"/>
       <c r="K54" s="87" t="s">
         <v>335</v>
       </c>
@@ -24580,8 +24580,8 @@
         <v>1</v>
       </c>
       <c r="S54" s="88"/>
-      <c r="T54" s="243"/>
-      <c r="U54" s="244"/>
+      <c r="T54" s="244"/>
+      <c r="U54" s="245"/>
       <c r="W54" t="s">
         <v>462</v>
       </c>
@@ -24600,10 +24600,10 @@
         <v>0.26967000000000002</v>
       </c>
       <c r="H55" s="85"/>
-      <c r="I55" s="245">
+      <c r="I55" s="248">
         <v>0.1535</v>
       </c>
-      <c r="J55" s="246"/>
+      <c r="J55" s="249"/>
       <c r="K55" s="84" t="s">
         <v>337</v>
       </c>
@@ -24617,10 +24617,10 @@
         <v>0.31356976744186049</v>
       </c>
       <c r="S55" s="85"/>
-      <c r="T55" s="245">
+      <c r="T55" s="248">
         <v>0.1535</v>
       </c>
-      <c r="U55" s="246"/>
+      <c r="U55" s="249"/>
       <c r="V55" s="40"/>
       <c r="W55" t="s">
         <v>463</v>
@@ -24631,14 +24631,14 @@
       <c r="B56" s="94"/>
       <c r="C56" s="94"/>
       <c r="D56" s="94"/>
-      <c r="E56" s="248">
+      <c r="E56" s="250">
         <v>0.43773000000000001</v>
       </c>
-      <c r="F56" s="248"/>
+      <c r="F56" s="250"/>
       <c r="G56" s="94"/>
       <c r="H56" s="94"/>
-      <c r="I56" s="249"/>
-      <c r="J56" s="250"/>
+      <c r="I56" s="251"/>
+      <c r="J56" s="252"/>
       <c r="K56" s="93" t="s">
         <v>368</v>
       </c>
@@ -24646,15 +24646,15 @@
       <c r="M56" s="94"/>
       <c r="N56" s="94"/>
       <c r="O56" s="94"/>
-      <c r="P56" s="248">
+      <c r="P56" s="250">
         <f>43.773%*0.8</f>
         <v>0.35018400000000005</v>
       </c>
-      <c r="Q56" s="248"/>
+      <c r="Q56" s="250"/>
       <c r="R56" s="94"/>
       <c r="S56" s="94"/>
-      <c r="T56" s="249"/>
-      <c r="U56" s="250"/>
+      <c r="T56" s="251"/>
+      <c r="U56" s="252"/>
       <c r="V56" s="40"/>
       <c r="W56" t="s">
         <v>464</v>
@@ -24668,16 +24668,16 @@
         <v>0.28996</v>
       </c>
       <c r="B57" s="92"/>
-      <c r="C57" s="247">
+      <c r="C57" s="242">
         <v>0.25344</v>
       </c>
-      <c r="D57" s="247"/>
+      <c r="D57" s="242"/>
       <c r="E57" s="81"/>
       <c r="F57" s="81"/>
       <c r="G57" s="81"/>
       <c r="H57" s="81"/>
-      <c r="I57" s="240"/>
-      <c r="J57" s="242"/>
+      <c r="I57" s="246"/>
+      <c r="J57" s="247"/>
       <c r="K57" s="80" t="s">
         <v>340</v>
       </c>
@@ -24685,16 +24685,16 @@
         <v>0.28996</v>
       </c>
       <c r="M57" s="92"/>
-      <c r="N57" s="247">
+      <c r="N57" s="242">
         <v>0.25344</v>
       </c>
-      <c r="O57" s="247"/>
+      <c r="O57" s="242"/>
       <c r="P57" s="81"/>
       <c r="Q57" s="81"/>
       <c r="R57" s="81"/>
       <c r="S57" s="81"/>
-      <c r="T57" s="240"/>
-      <c r="U57" s="242"/>
+      <c r="T57" s="246"/>
+      <c r="U57" s="247"/>
       <c r="V57" s="40"/>
       <c r="W57" t="s">
         <v>466</v>
@@ -24705,14 +24705,14 @@
       <c r="B58" s="88"/>
       <c r="C58" s="88"/>
       <c r="D58" s="88"/>
-      <c r="E58" s="251">
+      <c r="E58" s="243">
         <v>0.65949000000000002</v>
       </c>
-      <c r="F58" s="251"/>
+      <c r="F58" s="243"/>
       <c r="G58" s="88"/>
       <c r="H58" s="88"/>
-      <c r="I58" s="243"/>
-      <c r="J58" s="244"/>
+      <c r="I58" s="244"/>
+      <c r="J58" s="245"/>
       <c r="K58" s="87" t="s">
         <v>342</v>
       </c>
@@ -24720,15 +24720,15 @@
       <c r="M58" s="88"/>
       <c r="N58" s="88"/>
       <c r="O58" s="88"/>
-      <c r="P58" s="251">
+      <c r="P58" s="243">
         <f>65.949%*1.1</f>
         <v>0.72543900000000006</v>
       </c>
-      <c r="Q58" s="251"/>
+      <c r="Q58" s="243"/>
       <c r="R58" s="88"/>
       <c r="S58" s="88"/>
-      <c r="T58" s="243"/>
-      <c r="U58" s="244"/>
+      <c r="T58" s="244"/>
+      <c r="U58" s="245"/>
       <c r="V58" s="40"/>
       <c r="W58" t="s">
         <v>467</v>
@@ -24748,8 +24748,8 @@
         <v>0.56411</v>
       </c>
       <c r="H59" s="88"/>
-      <c r="I59" s="243"/>
-      <c r="J59" s="244"/>
+      <c r="I59" s="244"/>
+      <c r="J59" s="245"/>
       <c r="K59" s="87" t="s">
         <v>344</v>
       </c>
@@ -24763,8 +24763,8 @@
         <v>0.70185779069767451</v>
       </c>
       <c r="S59" s="88"/>
-      <c r="T59" s="243"/>
-      <c r="U59" s="244"/>
+      <c r="T59" s="244"/>
+      <c r="U59" s="245"/>
       <c r="V59" s="40"/>
       <c r="W59" t="s">
         <v>468</v>
@@ -24781,10 +24781,10 @@
         <v>0.14326</v>
       </c>
       <c r="H60" s="85"/>
-      <c r="I60" s="245">
+      <c r="I60" s="248">
         <v>0.17191999999999999</v>
       </c>
-      <c r="J60" s="246"/>
+      <c r="J60" s="249"/>
       <c r="K60" s="84" t="s">
         <v>346</v>
       </c>
@@ -24798,11 +24798,11 @@
         <v>0.2082267441860465</v>
       </c>
       <c r="S60" s="85"/>
-      <c r="T60" s="245">
+      <c r="T60" s="248">
         <f>17.192%</f>
         <v>0.17191999999999999</v>
       </c>
-      <c r="U60" s="246"/>
+      <c r="U60" s="249"/>
       <c r="V60" s="40"/>
       <c r="W60" t="s">
         <v>469</v>
@@ -24822,8 +24822,8 @@
         <v>0.19162000000000001</v>
       </c>
       <c r="H61" s="81"/>
-      <c r="I61" s="240"/>
-      <c r="J61" s="242"/>
+      <c r="I61" s="246"/>
+      <c r="J61" s="247"/>
       <c r="K61" s="80" t="s">
         <v>348</v>
       </c>
@@ -24837,8 +24837,8 @@
         <v>0.22281395348837213</v>
       </c>
       <c r="S61" s="81"/>
-      <c r="T61" s="240"/>
-      <c r="U61" s="242"/>
+      <c r="T61" s="246"/>
+      <c r="U61" s="247"/>
       <c r="V61" s="40"/>
       <c r="W61" t="s">
         <v>471</v>
@@ -24858,8 +24858,8 @@
         <v>0.49523</v>
       </c>
       <c r="H62" s="88"/>
-      <c r="I62" s="243"/>
-      <c r="J62" s="244"/>
+      <c r="I62" s="244"/>
+      <c r="J62" s="245"/>
       <c r="K62" s="87" t="s">
         <v>349</v>
       </c>
@@ -24873,8 +24873,8 @@
         <v>0.57584883720930236</v>
       </c>
       <c r="S62" s="88"/>
-      <c r="T62" s="243"/>
-      <c r="U62" s="244"/>
+      <c r="T62" s="244"/>
+      <c r="U62" s="245"/>
       <c r="V62" s="40"/>
       <c r="W62" t="s">
         <v>473</v>
@@ -24901,10 +24901,10 @@
       <c r="M63" s="88"/>
       <c r="N63" s="88"/>
       <c r="O63" s="88"/>
-      <c r="P63" s="240">
+      <c r="P63" s="246">
         <v>0.15</v>
       </c>
-      <c r="Q63" s="241"/>
+      <c r="Q63" s="255"/>
       <c r="R63" s="88"/>
       <c r="S63" s="88"/>
       <c r="T63" s="108"/>
@@ -24928,10 +24928,10 @@
         <v>0.47439999999999999</v>
       </c>
       <c r="H64" s="88"/>
-      <c r="I64" s="243">
+      <c r="I64" s="244">
         <v>0.60697000000000001</v>
       </c>
-      <c r="J64" s="244"/>
+      <c r="J64" s="245"/>
       <c r="K64" s="87" t="s">
         <v>350</v>
       </c>
@@ -24945,10 +24945,10 @@
         <v>0.55162790697674413</v>
       </c>
       <c r="S64" s="88"/>
-      <c r="T64" s="243">
+      <c r="T64" s="244">
         <v>0.60697000000000001</v>
       </c>
-      <c r="U64" s="244"/>
+      <c r="U64" s="245"/>
       <c r="V64" s="40"/>
       <c r="W64" t="s">
         <v>477</v>
@@ -24968,10 +24968,10 @@
         <v>0.16774</v>
       </c>
       <c r="H65" s="85"/>
-      <c r="I65" s="245">
+      <c r="I65" s="248">
         <v>0.24779999999999999</v>
       </c>
-      <c r="J65" s="246"/>
+      <c r="J65" s="249"/>
       <c r="K65" s="84" t="s">
         <v>351</v>
       </c>
@@ -24985,10 +24985,10 @@
         <v>0.19504651162790698</v>
       </c>
       <c r="S65" s="85"/>
-      <c r="T65" s="245">
+      <c r="T65" s="248">
         <v>0.24779999999999999</v>
       </c>
-      <c r="U65" s="246"/>
+      <c r="U65" s="249"/>
       <c r="V65" s="40"/>
       <c r="W65" t="s">
         <v>479</v>
@@ -25002,14 +25002,14 @@
       <c r="B66" s="81"/>
       <c r="C66" s="81"/>
       <c r="D66" s="81"/>
-      <c r="E66" s="240">
+      <c r="E66" s="246">
         <v>0.45617999999999997</v>
       </c>
-      <c r="F66" s="241"/>
+      <c r="F66" s="255"/>
       <c r="G66" s="81"/>
       <c r="H66" s="81"/>
-      <c r="I66" s="240"/>
-      <c r="J66" s="242"/>
+      <c r="I66" s="246"/>
+      <c r="J66" s="247"/>
       <c r="K66" s="80" t="s">
         <v>352</v>
       </c>
@@ -25017,14 +25017,14 @@
       <c r="M66" s="81"/>
       <c r="N66" s="81"/>
       <c r="O66" s="81"/>
-      <c r="P66" s="240">
+      <c r="P66" s="246">
         <v>0.45617999999999997</v>
       </c>
-      <c r="Q66" s="241"/>
+      <c r="Q66" s="255"/>
       <c r="R66" s="81"/>
       <c r="S66" s="81"/>
-      <c r="T66" s="240"/>
-      <c r="U66" s="242"/>
+      <c r="T66" s="246"/>
+      <c r="U66" s="247"/>
       <c r="V66" s="40"/>
       <c r="W66" t="s">
         <v>481</v>
@@ -25044,10 +25044,10 @@
         <v>0.28649999999999998</v>
       </c>
       <c r="H67" s="88"/>
-      <c r="I67" s="243">
+      <c r="I67" s="244">
         <v>0.80176999999999998</v>
       </c>
-      <c r="J67" s="244"/>
+      <c r="J67" s="245"/>
       <c r="K67" s="87" t="s">
         <v>353</v>
       </c>
@@ -25061,10 +25061,10 @@
         <v>0.33313953488372089</v>
       </c>
       <c r="S67" s="88"/>
-      <c r="T67" s="243">
+      <c r="T67" s="244">
         <v>0.50800000000000001</v>
       </c>
-      <c r="U67" s="244"/>
+      <c r="U67" s="245"/>
       <c r="V67" s="40"/>
       <c r="AC67" t="s">
         <v>483</v>
@@ -25081,10 +25081,10 @@
         <v>0.20932000000000001</v>
       </c>
       <c r="H68" s="88"/>
-      <c r="I68" s="243">
+      <c r="I68" s="244">
         <v>0.50775999999999999</v>
       </c>
-      <c r="J68" s="244"/>
+      <c r="J68" s="245"/>
       <c r="K68" s="87" t="s">
         <v>355</v>
       </c>
@@ -25098,10 +25098,10 @@
         <v>0.24339534883720934</v>
       </c>
       <c r="S68" s="88"/>
-      <c r="T68" s="243">
+      <c r="T68" s="244">
         <v>0.50775999999999999</v>
       </c>
-      <c r="U68" s="244"/>
+      <c r="U68" s="245"/>
       <c r="V68" s="40"/>
       <c r="AC68" t="s">
         <v>484</v>
@@ -25118,8 +25118,8 @@
         <v>0.14599000000000001</v>
       </c>
       <c r="H69" s="88"/>
-      <c r="I69" s="243"/>
-      <c r="J69" s="244"/>
+      <c r="I69" s="244"/>
+      <c r="J69" s="245"/>
       <c r="K69" s="87" t="s">
         <v>356</v>
       </c>
@@ -25133,13 +25133,13 @@
         <v>0.16975581395348838</v>
       </c>
       <c r="S69" s="88"/>
-      <c r="T69" s="243"/>
-      <c r="U69" s="244"/>
+      <c r="T69" s="244"/>
+      <c r="U69" s="245"/>
       <c r="V69" s="40"/>
-      <c r="W69" s="256" t="s">
+      <c r="W69" s="258" t="s">
         <v>236</v>
       </c>
-      <c r="X69" s="256"/>
+      <c r="X69" s="258"/>
       <c r="AC69" t="s">
         <v>485</v>
       </c>
@@ -25155,10 +25155,10 @@
         <v>0.12414</v>
       </c>
       <c r="H70" s="85"/>
-      <c r="I70" s="245">
+      <c r="I70" s="248">
         <v>0.61785000000000001</v>
       </c>
-      <c r="J70" s="246"/>
+      <c r="J70" s="249"/>
       <c r="K70" s="84" t="s">
         <v>357</v>
       </c>
@@ -25172,10 +25172,10 @@
         <v>0.14434883720930233</v>
       </c>
       <c r="S70" s="85"/>
-      <c r="T70" s="245">
+      <c r="T70" s="248">
         <v>0.61785000000000001</v>
       </c>
-      <c r="U70" s="246"/>
+      <c r="U70" s="249"/>
       <c r="V70" s="40"/>
       <c r="AC70" t="s">
         <v>486</v>
@@ -25192,10 +25192,10 @@
         <v>0.23763000000000001</v>
       </c>
       <c r="H71" s="81"/>
-      <c r="I71" s="240">
+      <c r="I71" s="246">
         <v>1</v>
       </c>
-      <c r="J71" s="242"/>
+      <c r="J71" s="247"/>
       <c r="K71" s="80" t="s">
         <v>358</v>
       </c>
@@ -25209,10 +25209,10 @@
         <v>0.27631395348837212</v>
       </c>
       <c r="S71" s="81"/>
-      <c r="T71" s="240">
+      <c r="T71" s="246">
         <v>1</v>
       </c>
-      <c r="U71" s="242"/>
+      <c r="U71" s="247"/>
       <c r="V71" s="40"/>
       <c r="W71" t="s">
         <v>282</v>
@@ -25239,10 +25239,10 @@
       <c r="M72" s="110"/>
       <c r="N72" s="110"/>
       <c r="O72" s="110"/>
-      <c r="P72" s="240">
+      <c r="P72" s="246">
         <v>0.25</v>
       </c>
-      <c r="Q72" s="241"/>
+      <c r="Q72" s="255"/>
       <c r="R72" s="110"/>
       <c r="S72" s="110"/>
       <c r="T72" s="111"/>
@@ -25266,8 +25266,8 @@
         <v>0.17316000000000001</v>
       </c>
       <c r="H73" s="88"/>
-      <c r="I73" s="243"/>
-      <c r="J73" s="244"/>
+      <c r="I73" s="244"/>
+      <c r="J73" s="245"/>
       <c r="K73" s="87" t="s">
         <v>359</v>
       </c>
@@ -25281,8 +25281,8 @@
         <v>0.20134883720930236</v>
       </c>
       <c r="S73" s="88"/>
-      <c r="T73" s="243"/>
-      <c r="U73" s="244"/>
+      <c r="T73" s="244"/>
+      <c r="U73" s="245"/>
       <c r="V73" s="40"/>
       <c r="W73" t="s">
         <v>288</v>
@@ -25302,10 +25302,10 @@
         <v>0.12317</v>
       </c>
       <c r="H74" s="85"/>
-      <c r="I74" s="245">
+      <c r="I74" s="248">
         <v>0.33643600000000001</v>
       </c>
-      <c r="J74" s="246"/>
+      <c r="J74" s="249"/>
       <c r="K74" s="84" t="s">
         <v>360</v>
       </c>
@@ -25319,10 +25319,10 @@
         <v>0.14322093023255814</v>
       </c>
       <c r="S74" s="85"/>
-      <c r="T74" s="245">
+      <c r="T74" s="248">
         <v>0.33643600000000001</v>
       </c>
-      <c r="U74" s="246"/>
+      <c r="U74" s="249"/>
       <c r="V74" s="40"/>
       <c r="AC74" t="s">
         <v>490</v>
@@ -25339,10 +25339,10 @@
         <v>0.20199</v>
       </c>
       <c r="H75" s="81"/>
-      <c r="I75" s="240">
+      <c r="I75" s="246">
         <v>0.85</v>
       </c>
-      <c r="J75" s="242"/>
+      <c r="J75" s="247"/>
       <c r="K75" s="80" t="s">
         <v>361</v>
       </c>
@@ -25356,10 +25356,10 @@
         <v>0.23487209302325585</v>
       </c>
       <c r="S75" s="81"/>
-      <c r="T75" s="240">
+      <c r="T75" s="246">
         <v>0.85</v>
       </c>
-      <c r="U75" s="242"/>
+      <c r="U75" s="247"/>
       <c r="V75" s="40"/>
       <c r="W75" t="s">
         <v>293</v>
@@ -25379,8 +25379,8 @@
         <v>0.17718999999999999</v>
       </c>
       <c r="H76" s="88"/>
-      <c r="I76" s="243"/>
-      <c r="J76" s="244"/>
+      <c r="I76" s="244"/>
+      <c r="J76" s="245"/>
       <c r="K76" s="87" t="s">
         <v>362</v>
       </c>
@@ -25394,8 +25394,8 @@
         <v>0.20603488372093021</v>
       </c>
       <c r="S76" s="88"/>
-      <c r="T76" s="243"/>
-      <c r="U76" s="244"/>
+      <c r="T76" s="244"/>
+      <c r="U76" s="245"/>
       <c r="V76" s="40"/>
       <c r="W76" t="s">
         <v>296</v>
@@ -25415,10 +25415,10 @@
         <v>0.1047</v>
       </c>
       <c r="H77" s="100"/>
-      <c r="I77" s="238">
+      <c r="I77" s="253">
         <v>0.28591</v>
       </c>
-      <c r="J77" s="239"/>
+      <c r="J77" s="254"/>
       <c r="K77" s="99" t="s">
         <v>363</v>
       </c>
@@ -25432,10 +25432,10 @@
         <v>0.12174418604651163</v>
       </c>
       <c r="S77" s="100"/>
-      <c r="T77" s="238">
+      <c r="T77" s="253">
         <v>0.28591</v>
       </c>
-      <c r="U77" s="239"/>
+      <c r="U77" s="254"/>
       <c r="V77" s="40"/>
       <c r="AC77" t="s">
         <v>493</v>
@@ -25536,192 +25536,6 @@
     </row>
   </sheetData>
   <mergeCells count="210">
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="T36:U36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="T41:U41"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="T39:U39"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="T40:U40"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="T45:U45"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="T42:U42"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="T43:U43"/>
-    <mergeCell ref="T48:U48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="T46:U46"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="T47:U47"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="T53:U53"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="T50:U50"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="T51:U51"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="T57:U57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="T58:U58"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="T54:U54"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="T55:U55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="T56:U56"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="T66:U66"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="T67:U67"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="T62:U62"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="T64:U64"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="T65:U65"/>
-    <mergeCell ref="I77:J77"/>
-    <mergeCell ref="T77:U77"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="T71:U71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="I73:J73"/>
-    <mergeCell ref="T73:U73"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="T74:U74"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="W37:X37"/>
@@ -25746,6 +25560,192 @@
     <mergeCell ref="I52:J52"/>
     <mergeCell ref="T52:U52"/>
     <mergeCell ref="I48:J48"/>
+    <mergeCell ref="I77:J77"/>
+    <mergeCell ref="T77:U77"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="T71:U71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="I73:J73"/>
+    <mergeCell ref="T73:U73"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="T74:U74"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="T66:U66"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="T67:U67"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="T62:U62"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="T64:U64"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="T65:U65"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="T57:U57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="T58:U58"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="T54:U54"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="T55:U55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="T56:U56"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="T53:U53"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="T51:U51"/>
+    <mergeCell ref="T48:U48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="T46:U46"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="T47:U47"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="T45:U45"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:J48 A50:J77">
     <cfRule type="cellIs" dxfId="21" priority="13" operator="between">
@@ -61031,7 +61031,7 @@
   <dimension ref="A1:W38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -61351,7 +61351,7 @@
         <v>4</v>
       </c>
       <c r="K5">
-        <f t="shared" ref="K4:K17" si="3">K4+J5</f>
+        <f t="shared" ref="K5:K17" si="3">K4+J5</f>
         <v>14</v>
       </c>
       <c r="M5" t="s">
@@ -65356,460 +65356,460 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="234" t="s">
+      <c r="A4" s="230" t="s">
         <v>1130</v>
       </c>
-      <c r="B4" s="234" t="s">
+      <c r="B4" s="230" t="s">
         <v>1131</v>
       </c>
-      <c r="C4" s="234" t="s">
+      <c r="C4" s="230" t="s">
         <v>1132</v>
       </c>
-      <c r="D4" s="234" t="s">
+      <c r="D4" s="230" t="s">
         <v>1133</v>
       </c>
-      <c r="E4" s="236" t="s">
+      <c r="E4" s="232" t="s">
         <v>1134</v>
       </c>
-      <c r="F4" s="234" t="s">
+      <c r="F4" s="230" t="s">
         <v>1135</v>
       </c>
-      <c r="G4" s="234" t="s">
+      <c r="G4" s="230" t="s">
         <v>1136</v>
       </c>
-      <c r="H4" s="234" t="s">
+      <c r="H4" s="230" t="s">
         <v>1137</v>
       </c>
-      <c r="I4" s="234" t="s">
+      <c r="I4" s="230" t="s">
         <v>1138</v>
       </c>
-      <c r="J4" s="236" t="s">
+      <c r="J4" s="232" t="s">
         <v>1139</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="235"/>
-      <c r="B5" s="235"/>
-      <c r="C5" s="235"/>
-      <c r="D5" s="235"/>
-      <c r="E5" s="237"/>
-      <c r="F5" s="235"/>
-      <c r="G5" s="235"/>
-      <c r="H5" s="235"/>
-      <c r="I5" s="235"/>
-      <c r="J5" s="237"/>
+      <c r="A5" s="231"/>
+      <c r="B5" s="231"/>
+      <c r="C5" s="231"/>
+      <c r="D5" s="231"/>
+      <c r="E5" s="233"/>
+      <c r="F5" s="231"/>
+      <c r="G5" s="231"/>
+      <c r="H5" s="231"/>
+      <c r="I5" s="231"/>
+      <c r="J5" s="233"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="234" t="s">
+      <c r="A6" s="230" t="s">
         <v>1140</v>
       </c>
-      <c r="B6" s="232">
+      <c r="B6" s="234">
         <v>3563</v>
       </c>
-      <c r="C6" s="232">
+      <c r="C6" s="234">
         <v>3583</v>
       </c>
-      <c r="D6" s="232">
+      <c r="D6" s="234">
         <v>3689</v>
       </c>
-      <c r="E6" s="230">
+      <c r="E6" s="236">
         <v>3712</v>
       </c>
-      <c r="F6" s="232">
+      <c r="F6" s="234">
         <v>3656</v>
       </c>
-      <c r="G6" s="232">
+      <c r="G6" s="234">
         <v>3751</v>
       </c>
-      <c r="H6" s="232">
+      <c r="H6" s="234">
         <v>3693</v>
       </c>
-      <c r="I6" s="232">
+      <c r="I6" s="234">
         <v>3676</v>
       </c>
-      <c r="J6" s="230">
+      <c r="J6" s="236">
         <v>3638</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="235"/>
-      <c r="B7" s="233"/>
-      <c r="C7" s="233"/>
-      <c r="D7" s="233"/>
-      <c r="E7" s="231"/>
-      <c r="F7" s="233"/>
-      <c r="G7" s="233"/>
-      <c r="H7" s="233"/>
-      <c r="I7" s="233"/>
-      <c r="J7" s="231"/>
+      <c r="A7" s="231"/>
+      <c r="B7" s="235"/>
+      <c r="C7" s="235"/>
+      <c r="D7" s="235"/>
+      <c r="E7" s="237"/>
+      <c r="F7" s="235"/>
+      <c r="G7" s="235"/>
+      <c r="H7" s="235"/>
+      <c r="I7" s="235"/>
+      <c r="J7" s="237"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="234" t="s">
+      <c r="A8" s="230" t="s">
         <v>1141</v>
       </c>
-      <c r="B8" s="232">
+      <c r="B8" s="234">
         <v>2957</v>
       </c>
-      <c r="C8" s="232">
+      <c r="C8" s="234">
         <v>3253</v>
       </c>
-      <c r="D8" s="232">
+      <c r="D8" s="234">
         <v>3342</v>
       </c>
-      <c r="E8" s="230">
+      <c r="E8" s="236">
         <v>3325</v>
       </c>
-      <c r="F8" s="232">
+      <c r="F8" s="234">
         <v>3461</v>
       </c>
-      <c r="G8" s="232">
+      <c r="G8" s="234">
         <v>3392</v>
       </c>
-      <c r="H8" s="232">
+      <c r="H8" s="234">
         <v>3455</v>
       </c>
-      <c r="I8" s="232">
+      <c r="I8" s="234">
         <v>3369</v>
       </c>
-      <c r="J8" s="230">
+      <c r="J8" s="236">
         <v>3372</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="235"/>
-      <c r="B9" s="233"/>
-      <c r="C9" s="233"/>
-      <c r="D9" s="233"/>
-      <c r="E9" s="231"/>
-      <c r="F9" s="233"/>
-      <c r="G9" s="233"/>
-      <c r="H9" s="233"/>
-      <c r="I9" s="233"/>
-      <c r="J9" s="231"/>
+      <c r="A9" s="231"/>
+      <c r="B9" s="235"/>
+      <c r="C9" s="235"/>
+      <c r="D9" s="235"/>
+      <c r="E9" s="237"/>
+      <c r="F9" s="235"/>
+      <c r="G9" s="235"/>
+      <c r="H9" s="235"/>
+      <c r="I9" s="235"/>
+      <c r="J9" s="237"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="234" t="s">
+      <c r="A10" s="230" t="s">
         <v>1142</v>
       </c>
-      <c r="B10" s="232">
+      <c r="B10" s="234">
         <v>2354</v>
       </c>
-      <c r="C10" s="232">
+      <c r="C10" s="234">
         <v>2997</v>
       </c>
-      <c r="D10" s="232">
+      <c r="D10" s="234">
         <v>3041</v>
       </c>
-      <c r="E10" s="230">
+      <c r="E10" s="236">
         <v>3085</v>
       </c>
-      <c r="F10" s="232">
+      <c r="F10" s="234">
         <v>3118</v>
       </c>
-      <c r="G10" s="232">
+      <c r="G10" s="234">
         <v>3100</v>
       </c>
-      <c r="H10" s="232">
+      <c r="H10" s="234">
         <v>3130</v>
       </c>
-      <c r="I10" s="232">
+      <c r="I10" s="234">
         <v>3102</v>
       </c>
-      <c r="J10" s="230">
+      <c r="J10" s="236">
         <v>3098</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="235"/>
-      <c r="B11" s="233"/>
-      <c r="C11" s="233"/>
-      <c r="D11" s="233"/>
-      <c r="E11" s="231"/>
-      <c r="F11" s="233"/>
-      <c r="G11" s="233"/>
-      <c r="H11" s="233"/>
-      <c r="I11" s="233"/>
-      <c r="J11" s="231"/>
+      <c r="A11" s="231"/>
+      <c r="B11" s="235"/>
+      <c r="C11" s="235"/>
+      <c r="D11" s="235"/>
+      <c r="E11" s="237"/>
+      <c r="F11" s="235"/>
+      <c r="G11" s="235"/>
+      <c r="H11" s="235"/>
+      <c r="I11" s="235"/>
+      <c r="J11" s="237"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="234" t="s">
+      <c r="A12" s="230" t="s">
         <v>1143</v>
       </c>
-      <c r="B12" s="232"/>
-      <c r="C12" s="232">
+      <c r="B12" s="234"/>
+      <c r="C12" s="234">
         <v>2361</v>
       </c>
-      <c r="D12" s="232">
+      <c r="D12" s="234">
         <v>2778</v>
       </c>
-      <c r="E12" s="230">
+      <c r="E12" s="236">
         <v>2793</v>
       </c>
-      <c r="F12" s="232">
+      <c r="F12" s="234">
         <v>2808</v>
       </c>
-      <c r="G12" s="232">
+      <c r="G12" s="234">
         <v>2810</v>
       </c>
-      <c r="H12" s="232">
+      <c r="H12" s="234">
         <v>2814</v>
       </c>
-      <c r="I12" s="232">
+      <c r="I12" s="234">
         <v>2795</v>
       </c>
-      <c r="J12" s="230">
+      <c r="J12" s="236">
         <v>2793</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="235"/>
-      <c r="B13" s="233"/>
-      <c r="C13" s="233"/>
-      <c r="D13" s="233"/>
-      <c r="E13" s="231"/>
-      <c r="F13" s="233"/>
-      <c r="G13" s="233"/>
-      <c r="H13" s="233"/>
-      <c r="I13" s="233"/>
-      <c r="J13" s="231"/>
+      <c r="A13" s="231"/>
+      <c r="B13" s="235"/>
+      <c r="C13" s="235"/>
+      <c r="D13" s="235"/>
+      <c r="E13" s="237"/>
+      <c r="F13" s="235"/>
+      <c r="G13" s="235"/>
+      <c r="H13" s="235"/>
+      <c r="I13" s="235"/>
+      <c r="J13" s="237"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="234" t="s">
+      <c r="A14" s="230" t="s">
         <v>1144</v>
       </c>
-      <c r="B14" s="232"/>
-      <c r="C14" s="232"/>
-      <c r="D14" s="232">
+      <c r="B14" s="234"/>
+      <c r="C14" s="234"/>
+      <c r="D14" s="234">
         <v>2241</v>
       </c>
-      <c r="E14" s="230">
+      <c r="E14" s="236">
         <v>2467</v>
       </c>
-      <c r="F14" s="232">
+      <c r="F14" s="234">
         <v>2521</v>
       </c>
-      <c r="G14" s="232">
+      <c r="G14" s="234">
         <v>2507</v>
       </c>
-      <c r="H14" s="232">
+      <c r="H14" s="234">
         <v>2536</v>
       </c>
-      <c r="I14" s="232">
+      <c r="I14" s="234">
         <v>2517</v>
       </c>
-      <c r="J14" s="230">
+      <c r="J14" s="236">
         <v>2525</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="235"/>
-      <c r="B15" s="233"/>
-      <c r="C15" s="233"/>
-      <c r="D15" s="233"/>
-      <c r="E15" s="231"/>
-      <c r="F15" s="233"/>
-      <c r="G15" s="233"/>
-      <c r="H15" s="233"/>
-      <c r="I15" s="233"/>
-      <c r="J15" s="231"/>
+      <c r="A15" s="231"/>
+      <c r="B15" s="235"/>
+      <c r="C15" s="235"/>
+      <c r="D15" s="235"/>
+      <c r="E15" s="237"/>
+      <c r="F15" s="235"/>
+      <c r="G15" s="235"/>
+      <c r="H15" s="235"/>
+      <c r="I15" s="235"/>
+      <c r="J15" s="237"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="234" t="s">
+      <c r="A16" s="230" t="s">
         <v>1145</v>
       </c>
-      <c r="B16" s="232"/>
-      <c r="C16" s="232"/>
-      <c r="D16" s="232"/>
-      <c r="E16" s="230">
+      <c r="B16" s="234"/>
+      <c r="C16" s="234"/>
+      <c r="D16" s="234"/>
+      <c r="E16" s="236">
         <v>2113</v>
       </c>
-      <c r="F16" s="232">
+      <c r="F16" s="234">
         <v>2226</v>
       </c>
-      <c r="G16" s="232">
+      <c r="G16" s="234">
         <v>2202</v>
       </c>
-      <c r="H16" s="232">
+      <c r="H16" s="234">
         <v>2232</v>
       </c>
-      <c r="I16" s="232">
+      <c r="I16" s="234">
         <v>2235</v>
       </c>
-      <c r="J16" s="230">
+      <c r="J16" s="236">
         <v>2227</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="235"/>
-      <c r="B17" s="233"/>
-      <c r="C17" s="233"/>
-      <c r="D17" s="233"/>
-      <c r="E17" s="231"/>
-      <c r="F17" s="233"/>
-      <c r="G17" s="233"/>
-      <c r="H17" s="233"/>
-      <c r="I17" s="233"/>
-      <c r="J17" s="231"/>
+      <c r="A17" s="231"/>
+      <c r="B17" s="235"/>
+      <c r="C17" s="235"/>
+      <c r="D17" s="235"/>
+      <c r="E17" s="237"/>
+      <c r="F17" s="235"/>
+      <c r="G17" s="235"/>
+      <c r="H17" s="235"/>
+      <c r="I17" s="235"/>
+      <c r="J17" s="237"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="234" t="s">
+      <c r="A18" s="230" t="s">
         <v>1146</v>
       </c>
-      <c r="B18" s="232"/>
-      <c r="C18" s="232"/>
-      <c r="D18" s="232"/>
-      <c r="E18" s="230"/>
-      <c r="F18" s="232">
+      <c r="B18" s="234"/>
+      <c r="C18" s="234"/>
+      <c r="D18" s="234"/>
+      <c r="E18" s="236"/>
+      <c r="F18" s="234">
         <v>1537</v>
       </c>
-      <c r="G18" s="232">
+      <c r="G18" s="234">
         <v>1762</v>
       </c>
-      <c r="H18" s="232">
+      <c r="H18" s="234">
         <v>1905</v>
       </c>
-      <c r="I18" s="232">
+      <c r="I18" s="234">
         <v>1879</v>
       </c>
-      <c r="J18" s="230">
+      <c r="J18" s="236">
         <v>1893</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="235"/>
-      <c r="B19" s="233"/>
-      <c r="C19" s="233"/>
-      <c r="D19" s="233"/>
-      <c r="E19" s="231"/>
-      <c r="F19" s="233"/>
-      <c r="G19" s="233"/>
-      <c r="H19" s="233"/>
-      <c r="I19" s="233"/>
-      <c r="J19" s="231"/>
+      <c r="A19" s="231"/>
+      <c r="B19" s="235"/>
+      <c r="C19" s="235"/>
+      <c r="D19" s="235"/>
+      <c r="E19" s="237"/>
+      <c r="F19" s="235"/>
+      <c r="G19" s="235"/>
+      <c r="H19" s="235"/>
+      <c r="I19" s="235"/>
+      <c r="J19" s="237"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="234" t="s">
+      <c r="A20" s="230" t="s">
         <v>1147</v>
       </c>
-      <c r="B20" s="232"/>
-      <c r="C20" s="232"/>
-      <c r="D20" s="232"/>
-      <c r="E20" s="230"/>
-      <c r="F20" s="232"/>
-      <c r="G20" s="232">
+      <c r="B20" s="234"/>
+      <c r="C20" s="234"/>
+      <c r="D20" s="234"/>
+      <c r="E20" s="236"/>
+      <c r="F20" s="234"/>
+      <c r="G20" s="234">
         <v>1412</v>
       </c>
-      <c r="H20" s="232">
+      <c r="H20" s="234">
         <v>1689</v>
       </c>
-      <c r="I20" s="232">
+      <c r="I20" s="234">
         <v>1630</v>
       </c>
-      <c r="J20" s="230">
+      <c r="J20" s="236">
         <v>1640</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="235"/>
-      <c r="B21" s="233"/>
-      <c r="C21" s="233"/>
-      <c r="D21" s="233"/>
-      <c r="E21" s="231"/>
-      <c r="F21" s="233"/>
-      <c r="G21" s="233"/>
-      <c r="H21" s="233"/>
-      <c r="I21" s="233"/>
-      <c r="J21" s="231"/>
+      <c r="A21" s="231"/>
+      <c r="B21" s="235"/>
+      <c r="C21" s="235"/>
+      <c r="D21" s="235"/>
+      <c r="E21" s="237"/>
+      <c r="F21" s="235"/>
+      <c r="G21" s="235"/>
+      <c r="H21" s="235"/>
+      <c r="I21" s="235"/>
+      <c r="J21" s="237"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="234" t="s">
+      <c r="A22" s="230" t="s">
         <v>1148</v>
       </c>
-      <c r="B22" s="232"/>
-      <c r="C22" s="232"/>
-      <c r="D22" s="232"/>
-      <c r="E22" s="230"/>
-      <c r="F22" s="232"/>
-      <c r="G22" s="232"/>
-      <c r="H22" s="232">
+      <c r="B22" s="234"/>
+      <c r="C22" s="234"/>
+      <c r="D22" s="234"/>
+      <c r="E22" s="236"/>
+      <c r="F22" s="234"/>
+      <c r="G22" s="234"/>
+      <c r="H22" s="234">
         <v>1082</v>
       </c>
-      <c r="I22" s="232">
+      <c r="I22" s="234">
         <v>1341</v>
       </c>
-      <c r="J22" s="230">
+      <c r="J22" s="236">
         <v>1325</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="235"/>
-      <c r="B23" s="233"/>
-      <c r="C23" s="233"/>
-      <c r="D23" s="233"/>
-      <c r="E23" s="231"/>
-      <c r="F23" s="233"/>
-      <c r="G23" s="233"/>
-      <c r="H23" s="233"/>
-      <c r="I23" s="233"/>
-      <c r="J23" s="231"/>
+      <c r="A23" s="231"/>
+      <c r="B23" s="235"/>
+      <c r="C23" s="235"/>
+      <c r="D23" s="235"/>
+      <c r="E23" s="237"/>
+      <c r="F23" s="235"/>
+      <c r="G23" s="235"/>
+      <c r="H23" s="235"/>
+      <c r="I23" s="235"/>
+      <c r="J23" s="237"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="234" t="s">
+      <c r="A24" s="230" t="s">
         <v>1149</v>
       </c>
-      <c r="B24" s="232"/>
-      <c r="C24" s="232"/>
-      <c r="D24" s="232"/>
-      <c r="E24" s="230"/>
-      <c r="F24" s="232"/>
-      <c r="G24" s="232"/>
-      <c r="H24" s="232"/>
-      <c r="I24" s="232">
+      <c r="B24" s="234"/>
+      <c r="C24" s="234"/>
+      <c r="D24" s="234"/>
+      <c r="E24" s="236"/>
+      <c r="F24" s="234"/>
+      <c r="G24" s="234"/>
+      <c r="H24" s="234"/>
+      <c r="I24" s="234">
         <v>1003</v>
       </c>
-      <c r="J24" s="230">
+      <c r="J24" s="236">
         <v>1016</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="235"/>
-      <c r="B25" s="233"/>
-      <c r="C25" s="233"/>
-      <c r="D25" s="233"/>
-      <c r="E25" s="231"/>
-      <c r="F25" s="233"/>
-      <c r="G25" s="233"/>
-      <c r="H25" s="233"/>
-      <c r="I25" s="233"/>
-      <c r="J25" s="231"/>
+      <c r="A25" s="231"/>
+      <c r="B25" s="235"/>
+      <c r="C25" s="235"/>
+      <c r="D25" s="235"/>
+      <c r="E25" s="237"/>
+      <c r="F25" s="235"/>
+      <c r="G25" s="235"/>
+      <c r="H25" s="235"/>
+      <c r="I25" s="235"/>
+      <c r="J25" s="237"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="234" t="s">
+      <c r="A26" s="230" t="s">
         <v>1150</v>
       </c>
-      <c r="B26" s="232"/>
-      <c r="C26" s="232"/>
-      <c r="D26" s="232"/>
-      <c r="E26" s="230"/>
-      <c r="F26" s="232"/>
-      <c r="G26" s="232"/>
-      <c r="H26" s="232"/>
-      <c r="I26" s="232"/>
-      <c r="J26" s="230">
+      <c r="B26" s="234"/>
+      <c r="C26" s="234"/>
+      <c r="D26" s="234"/>
+      <c r="E26" s="236"/>
+      <c r="F26" s="234"/>
+      <c r="G26" s="234"/>
+      <c r="H26" s="234"/>
+      <c r="I26" s="234"/>
+      <c r="J26" s="236">
         <v>632</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="235"/>
-      <c r="B27" s="233"/>
-      <c r="C27" s="233"/>
-      <c r="D27" s="233"/>
-      <c r="E27" s="231"/>
-      <c r="F27" s="233"/>
-      <c r="G27" s="233"/>
-      <c r="H27" s="233"/>
-      <c r="I27" s="233"/>
-      <c r="J27" s="231"/>
+      <c r="A27" s="231"/>
+      <c r="B27" s="235"/>
+      <c r="C27" s="235"/>
+      <c r="D27" s="235"/>
+      <c r="E27" s="237"/>
+      <c r="F27" s="235"/>
+      <c r="G27" s="235"/>
+      <c r="H27" s="235"/>
+      <c r="I27" s="235"/>
+      <c r="J27" s="237"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -65818,6 +65818,106 @@
     </row>
   </sheetData>
   <mergeCells count="120">
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
@@ -65838,106 +65938,6 @@
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -65973,26 +65973,26 @@
       <c r="C1" s="78" t="s">
         <v>233</v>
       </c>
-      <c r="F1" s="253" t="s">
+      <c r="F1" s="238" t="s">
         <v>234</v>
       </c>
-      <c r="G1" s="253"/>
-      <c r="H1" s="253" t="s">
+      <c r="G1" s="238"/>
+      <c r="H1" s="238" t="s">
         <v>235</v>
       </c>
-      <c r="I1" s="253"/>
-      <c r="J1" s="253" t="s">
+      <c r="I1" s="238"/>
+      <c r="J1" s="238" t="s">
         <v>236</v>
       </c>
-      <c r="K1" s="253"/>
-      <c r="L1" s="253" t="s">
+      <c r="K1" s="238"/>
+      <c r="L1" s="238" t="s">
         <v>237</v>
       </c>
-      <c r="M1" s="253"/>
-      <c r="N1" s="253" t="s">
+      <c r="M1" s="238"/>
+      <c r="N1" s="238" t="s">
         <v>238</v>
       </c>
-      <c r="O1" s="253"/>
+      <c r="O1" s="238"/>
     </row>
     <row r="2" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F2" s="79" t="s">
@@ -66001,18 +66001,18 @@
       <c r="G2" s="79" t="s">
         <v>240</v>
       </c>
-      <c r="H2" s="254"/>
-      <c r="I2" s="255"/>
-      <c r="J2" s="254"/>
-      <c r="K2" s="255"/>
+      <c r="H2" s="239"/>
+      <c r="I2" s="240"/>
+      <c r="J2" s="239"/>
+      <c r="K2" s="240"/>
       <c r="L2" s="79" t="s">
         <v>239</v>
       </c>
       <c r="M2" s="79" t="s">
         <v>240</v>
       </c>
-      <c r="N2" s="254"/>
-      <c r="O2" s="255"/>
+      <c r="N2" s="239"/>
+      <c r="O2" s="240"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -66024,14 +66024,14 @@
       <c r="E3" s="80" t="s">
         <v>243</v>
       </c>
-      <c r="F3" s="247">
+      <c r="F3" s="242">
         <v>0.64709000000000005</v>
       </c>
-      <c r="G3" s="247"/>
-      <c r="H3" s="247">
+      <c r="G3" s="242"/>
+      <c r="H3" s="242">
         <v>0.97192999999999996</v>
       </c>
-      <c r="I3" s="247"/>
+      <c r="I3" s="242"/>
       <c r="J3" s="81"/>
       <c r="K3" s="81"/>
       <c r="L3" s="81"/>
@@ -66054,14 +66054,14 @@
       <c r="E4" s="84" t="s">
         <v>246</v>
       </c>
-      <c r="F4" s="252">
+      <c r="F4" s="241">
         <v>0.26545000000000002</v>
       </c>
-      <c r="G4" s="252"/>
-      <c r="H4" s="252">
+      <c r="G4" s="241"/>
+      <c r="H4" s="241">
         <v>0.39895999999999998</v>
       </c>
-      <c r="I4" s="252"/>
+      <c r="I4" s="241"/>
       <c r="J4" s="85"/>
       <c r="K4" s="85"/>
       <c r="L4" s="85"/>
@@ -66087,10 +66087,10 @@
       <c r="G5" s="81">
         <v>0.25008999999999998</v>
       </c>
-      <c r="H5" s="247">
+      <c r="H5" s="242">
         <v>1</v>
       </c>
-      <c r="I5" s="247"/>
+      <c r="I5" s="242"/>
       <c r="J5" s="81"/>
       <c r="K5" s="81"/>
       <c r="L5" s="81"/>
@@ -66111,10 +66111,10 @@
       <c r="G6" s="85"/>
       <c r="H6" s="85"/>
       <c r="I6" s="85"/>
-      <c r="J6" s="252">
+      <c r="J6" s="241">
         <v>0.27488000000000001</v>
       </c>
-      <c r="K6" s="252"/>
+      <c r="K6" s="241"/>
       <c r="L6" s="85"/>
       <c r="M6" s="85"/>
       <c r="N6" s="85"/>
@@ -66138,10 +66138,10 @@
       <c r="G7" s="81">
         <v>0.17752000000000001</v>
       </c>
-      <c r="H7" s="247">
+      <c r="H7" s="242">
         <v>0.72296000000000005</v>
       </c>
-      <c r="I7" s="247"/>
+      <c r="I7" s="242"/>
       <c r="J7" s="81"/>
       <c r="K7" s="81"/>
       <c r="L7" s="81"/>
@@ -66164,10 +66164,10 @@
       <c r="G8" s="85"/>
       <c r="H8" s="85"/>
       <c r="I8" s="85"/>
-      <c r="J8" s="252">
+      <c r="J8" s="241">
         <v>0.36337000000000003</v>
       </c>
-      <c r="K8" s="252"/>
+      <c r="K8" s="241"/>
       <c r="L8" s="85"/>
       <c r="M8" s="85"/>
       <c r="N8" s="85"/>
@@ -66185,10 +66185,10 @@
         <v>0.65615999999999997</v>
       </c>
       <c r="G9" s="81"/>
-      <c r="H9" s="247">
+      <c r="H9" s="242">
         <v>0.78437000000000001</v>
       </c>
-      <c r="I9" s="247"/>
+      <c r="I9" s="242"/>
       <c r="J9" s="81"/>
       <c r="K9" s="81"/>
       <c r="L9" s="81"/>
@@ -66214,10 +66214,10 @@
       <c r="G10" s="88"/>
       <c r="H10" s="88"/>
       <c r="I10" s="88"/>
-      <c r="J10" s="251">
+      <c r="J10" s="243">
         <v>0.1464</v>
       </c>
-      <c r="K10" s="251"/>
+      <c r="K10" s="243"/>
       <c r="L10" s="88"/>
       <c r="M10" s="88"/>
       <c r="N10" s="88"/>
@@ -66252,14 +66252,14 @@
       <c r="E12" s="80" t="s">
         <v>260</v>
       </c>
-      <c r="F12" s="247">
+      <c r="F12" s="242">
         <v>0.42514999999999997</v>
       </c>
-      <c r="G12" s="247"/>
-      <c r="H12" s="247">
+      <c r="G12" s="242"/>
+      <c r="H12" s="242">
         <v>0.85</v>
       </c>
-      <c r="I12" s="247"/>
+      <c r="I12" s="242"/>
       <c r="J12" s="81"/>
       <c r="K12" s="81"/>
       <c r="L12" s="81"/>
@@ -66285,10 +66285,10 @@
       <c r="G13" s="85"/>
       <c r="H13" s="85"/>
       <c r="I13" s="85"/>
-      <c r="J13" s="252">
+      <c r="J13" s="241">
         <v>0.23365</v>
       </c>
-      <c r="K13" s="252"/>
+      <c r="K13" s="241"/>
       <c r="L13" s="85"/>
       <c r="M13" s="85"/>
       <c r="N13" s="85"/>
@@ -66306,10 +66306,10 @@
         <v>1</v>
       </c>
       <c r="G14" s="92"/>
-      <c r="H14" s="247">
+      <c r="H14" s="242">
         <v>0.51382000000000005</v>
       </c>
-      <c r="I14" s="247"/>
+      <c r="I14" s="242"/>
       <c r="J14" s="81"/>
       <c r="K14" s="81"/>
       <c r="L14" s="81"/>
@@ -66336,10 +66336,10 @@
       <c r="G15" s="88"/>
       <c r="H15" s="88"/>
       <c r="I15" s="88"/>
-      <c r="J15" s="251">
+      <c r="J15" s="243">
         <v>4.3869999999999999E-2</v>
       </c>
-      <c r="K15" s="251"/>
+      <c r="K15" s="243"/>
       <c r="L15" s="88"/>
       <c r="M15" s="88"/>
       <c r="N15" s="88"/>
@@ -66386,10 +66386,10 @@
         <v>0.91232999999999997</v>
       </c>
       <c r="G17" s="92"/>
-      <c r="H17" s="247">
+      <c r="H17" s="242">
         <v>0.46146999999999999</v>
       </c>
-      <c r="I17" s="247"/>
+      <c r="I17" s="242"/>
       <c r="J17" s="81"/>
       <c r="K17" s="81"/>
       <c r="L17" s="81"/>
@@ -66415,10 +66415,10 @@
       <c r="G18" s="88"/>
       <c r="H18" s="88"/>
       <c r="I18" s="88"/>
-      <c r="J18" s="251">
+      <c r="J18" s="243">
         <v>0.15035999999999999</v>
       </c>
-      <c r="K18" s="251"/>
+      <c r="K18" s="243"/>
       <c r="L18" s="88"/>
       <c r="M18" s="88"/>
       <c r="N18" s="88"/>
@@ -66460,10 +66460,10 @@
         <v>0.69059999999999999</v>
       </c>
       <c r="G20" s="92"/>
-      <c r="H20" s="247">
+      <c r="H20" s="242">
         <v>0.38878000000000001</v>
       </c>
-      <c r="I20" s="247"/>
+      <c r="I20" s="242"/>
       <c r="J20" s="81"/>
       <c r="K20" s="81"/>
       <c r="L20" s="81"/>
@@ -66489,10 +66489,10 @@
       <c r="G21" s="88"/>
       <c r="H21" s="88"/>
       <c r="I21" s="88"/>
-      <c r="J21" s="251">
+      <c r="J21" s="243">
         <v>0.2099</v>
       </c>
-      <c r="K21" s="251"/>
+      <c r="K21" s="243"/>
       <c r="L21" s="88"/>
       <c r="M21" s="88"/>
       <c r="N21" s="88"/>
@@ -66534,10 +66534,10 @@
         <v>0.68315000000000003</v>
       </c>
       <c r="G23" s="92"/>
-      <c r="H23" s="247">
+      <c r="H23" s="242">
         <v>0.70006000000000002</v>
       </c>
-      <c r="I23" s="247"/>
+      <c r="I23" s="242"/>
       <c r="J23" s="81"/>
       <c r="K23" s="81"/>
       <c r="L23" s="81"/>
@@ -66563,10 +66563,10 @@
       <c r="G24" s="88"/>
       <c r="H24" s="88"/>
       <c r="I24" s="88"/>
-      <c r="J24" s="251">
+      <c r="J24" s="243">
         <v>0.152</v>
       </c>
-      <c r="K24" s="251"/>
+      <c r="K24" s="243"/>
       <c r="L24" s="88"/>
       <c r="M24" s="88"/>
       <c r="N24" s="88"/>
@@ -66610,16 +66610,16 @@
       <c r="G26" s="81">
         <v>9.2719999999999997E-2</v>
       </c>
-      <c r="H26" s="247">
+      <c r="H26" s="242">
         <v>0.42459999999999998</v>
       </c>
-      <c r="I26" s="247"/>
+      <c r="I26" s="242"/>
       <c r="J26" s="81"/>
       <c r="K26" s="81"/>
       <c r="L26" s="81"/>
       <c r="M26" s="81"/>
-      <c r="N26" s="240"/>
-      <c r="O26" s="242"/>
+      <c r="N26" s="246"/>
+      <c r="O26" s="247"/>
       <c r="P26" s="83">
         <f>F26+G26+H26+J27+L28+M28+N28</f>
         <v>2.4103300000000001</v>
@@ -66639,14 +66639,14 @@
       <c r="G27" s="88"/>
       <c r="H27" s="88"/>
       <c r="I27" s="88"/>
-      <c r="J27" s="251">
+      <c r="J27" s="243">
         <v>1</v>
       </c>
-      <c r="K27" s="251"/>
+      <c r="K27" s="243"/>
       <c r="L27" s="88"/>
       <c r="M27" s="88"/>
-      <c r="N27" s="243"/>
-      <c r="O27" s="244"/>
+      <c r="N27" s="244"/>
+      <c r="O27" s="245"/>
       <c r="P27" s="83"/>
     </row>
     <row r="28" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -66671,10 +66671,10 @@
       <c r="M28" s="85">
         <v>0.1226</v>
       </c>
-      <c r="N28" s="245">
+      <c r="N28" s="248">
         <v>0.34044000000000002</v>
       </c>
-      <c r="O28" s="246"/>
+      <c r="O28" s="249"/>
       <c r="P28" s="83"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
@@ -66690,16 +66690,16 @@
       <c r="G29" s="81">
         <v>0.13719000000000001</v>
       </c>
-      <c r="H29" s="247">
+      <c r="H29" s="242">
         <v>0.62792999999999999</v>
       </c>
-      <c r="I29" s="247"/>
+      <c r="I29" s="242"/>
       <c r="J29" s="81"/>
       <c r="K29" s="81"/>
       <c r="L29" s="81"/>
       <c r="M29" s="81"/>
-      <c r="N29" s="240"/>
-      <c r="O29" s="242"/>
+      <c r="N29" s="246"/>
+      <c r="O29" s="247"/>
       <c r="P29" s="83">
         <f>F29+G29+H29+L30+M30+N30+J33</f>
         <v>2.4474499999999999</v>
@@ -66727,10 +66727,10 @@
       <c r="M30" s="85">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="N30" s="245">
+      <c r="N30" s="248">
         <v>0.23748</v>
       </c>
-      <c r="O30" s="246"/>
+      <c r="O30" s="249"/>
       <c r="P30" s="83"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
@@ -66746,16 +66746,16 @@
       <c r="G31" s="81">
         <v>5.6059999999999999E-2</v>
       </c>
-      <c r="H31" s="247">
+      <c r="H31" s="242">
         <v>0.23462</v>
       </c>
-      <c r="I31" s="247"/>
+      <c r="I31" s="242"/>
       <c r="J31" s="81"/>
       <c r="K31" s="81"/>
       <c r="L31" s="81"/>
       <c r="M31" s="81"/>
-      <c r="N31" s="240"/>
-      <c r="O31" s="242"/>
+      <c r="N31" s="246"/>
+      <c r="O31" s="247"/>
       <c r="P31" s="83">
         <f>F31+G31+H31+L32+M32+N32+J33</f>
         <v>2.2090299999999998</v>
@@ -66780,10 +66780,10 @@
       <c r="M32" s="85">
         <v>0.11894</v>
       </c>
-      <c r="N32" s="245">
+      <c r="N32" s="248">
         <v>0.50244</v>
       </c>
-      <c r="O32" s="246"/>
+      <c r="O32" s="249"/>
       <c r="P32" s="83"/>
     </row>
     <row r="33" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -66797,34 +66797,34 @@
       <c r="G33" s="94"/>
       <c r="H33" s="94"/>
       <c r="I33" s="94"/>
-      <c r="J33" s="248">
+      <c r="J33" s="250">
         <v>0.94696999999999998</v>
       </c>
-      <c r="K33" s="248"/>
+      <c r="K33" s="250"/>
       <c r="L33" s="94"/>
       <c r="M33" s="94"/>
-      <c r="N33" s="249"/>
-      <c r="O33" s="250"/>
+      <c r="N33" s="251"/>
+      <c r="O33" s="252"/>
       <c r="P33" s="83"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E34" s="80" t="s">
         <v>310</v>
       </c>
-      <c r="F34" s="247">
+      <c r="F34" s="242">
         <v>0.15762999999999999</v>
       </c>
-      <c r="G34" s="247"/>
-      <c r="H34" s="247">
+      <c r="G34" s="242"/>
+      <c r="H34" s="242">
         <v>0.36070000000000002</v>
       </c>
-      <c r="I34" s="247"/>
+      <c r="I34" s="242"/>
       <c r="J34" s="81"/>
       <c r="K34" s="81"/>
       <c r="L34" s="81"/>
       <c r="M34" s="81"/>
-      <c r="N34" s="240"/>
-      <c r="O34" s="242"/>
+      <c r="N34" s="246"/>
+      <c r="O34" s="247"/>
       <c r="P34" s="83">
         <f>F34+H34+J35+L36+N36</f>
         <v>1.8655399999999998</v>
@@ -66838,14 +66838,14 @@
       <c r="G35" s="88"/>
       <c r="H35" s="88"/>
       <c r="I35" s="88"/>
-      <c r="J35" s="251">
+      <c r="J35" s="243">
         <v>0.85</v>
       </c>
-      <c r="K35" s="251"/>
+      <c r="K35" s="243"/>
       <c r="L35" s="88"/>
       <c r="M35" s="88"/>
-      <c r="N35" s="243"/>
-      <c r="O35" s="244"/>
+      <c r="N35" s="244"/>
+      <c r="O35" s="245"/>
       <c r="P35" s="83"/>
     </row>
     <row r="36" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -66865,10 +66865,10 @@
         <v>0.20784</v>
       </c>
       <c r="M36" s="85"/>
-      <c r="N36" s="245">
+      <c r="N36" s="248">
         <v>0.28937000000000002</v>
       </c>
-      <c r="O36" s="246"/>
+      <c r="O36" s="249"/>
       <c r="P36" s="83"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
@@ -66878,20 +66878,20 @@
       <c r="E37" s="80" t="s">
         <v>315</v>
       </c>
-      <c r="F37" s="247">
+      <c r="F37" s="242">
         <v>0.20368</v>
       </c>
-      <c r="G37" s="247"/>
-      <c r="H37" s="247">
+      <c r="G37" s="242"/>
+      <c r="H37" s="242">
         <v>0.33767000000000003</v>
       </c>
-      <c r="I37" s="247"/>
+      <c r="I37" s="242"/>
       <c r="J37" s="81"/>
       <c r="K37" s="81"/>
       <c r="L37" s="81"/>
       <c r="M37" s="81"/>
-      <c r="N37" s="240"/>
-      <c r="O37" s="242"/>
+      <c r="N37" s="246"/>
+      <c r="O37" s="247"/>
       <c r="P37" s="83">
         <f>F37+H37+J38+L39+L40+N40</f>
         <v>2.5172699999999999</v>
@@ -66908,14 +66908,14 @@
       <c r="G38" s="88"/>
       <c r="H38" s="88"/>
       <c r="I38" s="88"/>
-      <c r="J38" s="251">
+      <c r="J38" s="243">
         <v>0.89815999999999996</v>
       </c>
-      <c r="K38" s="251"/>
+      <c r="K38" s="243"/>
       <c r="L38" s="88"/>
       <c r="M38" s="88"/>
-      <c r="N38" s="243"/>
-      <c r="O38" s="244"/>
+      <c r="N38" s="244"/>
+      <c r="O38" s="245"/>
       <c r="P38" s="83"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
@@ -66935,8 +66935,8 @@
         <v>0.57364000000000004</v>
       </c>
       <c r="M39" s="88"/>
-      <c r="N39" s="243"/>
-      <c r="O39" s="244"/>
+      <c r="N39" s="244"/>
+      <c r="O39" s="245"/>
       <c r="P39" s="83"/>
     </row>
     <row r="40" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -66956,10 +66956,10 @@
         <v>0.26422000000000001</v>
       </c>
       <c r="M40" s="85"/>
-      <c r="N40" s="245">
+      <c r="N40" s="248">
         <v>0.2399</v>
       </c>
-      <c r="O40" s="246"/>
+      <c r="O40" s="249"/>
       <c r="P40" s="83"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
@@ -66970,16 +66970,16 @@
         <v>0.34708</v>
       </c>
       <c r="G41" s="92"/>
-      <c r="H41" s="247">
+      <c r="H41" s="242">
         <v>0.20830000000000001</v>
       </c>
-      <c r="I41" s="247"/>
+      <c r="I41" s="242"/>
       <c r="J41" s="81"/>
       <c r="K41" s="81"/>
       <c r="L41" s="81"/>
       <c r="M41" s="81"/>
-      <c r="N41" s="240"/>
-      <c r="O41" s="242"/>
+      <c r="N41" s="246"/>
+      <c r="O41" s="247"/>
       <c r="P41" s="83">
         <f>F41+H41+J42+L43+L44+N44</f>
         <v>2.29189</v>
@@ -66993,14 +66993,14 @@
       <c r="G42" s="88"/>
       <c r="H42" s="88"/>
       <c r="I42" s="88"/>
-      <c r="J42" s="251">
+      <c r="J42" s="243">
         <v>0.52559999999999996</v>
       </c>
-      <c r="K42" s="251"/>
+      <c r="K42" s="243"/>
       <c r="L42" s="88"/>
       <c r="M42" s="88"/>
-      <c r="N42" s="243"/>
-      <c r="O42" s="244"/>
+      <c r="N42" s="244"/>
+      <c r="O42" s="245"/>
       <c r="P42" s="83"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
@@ -67018,8 +67018,8 @@
         <v>0.84328000000000003</v>
       </c>
       <c r="M43" s="88"/>
-      <c r="N43" s="243"/>
-      <c r="O43" s="244"/>
+      <c r="N43" s="244"/>
+      <c r="O43" s="245"/>
       <c r="P43" s="83"/>
     </row>
     <row r="44" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -67039,10 +67039,10 @@
         <v>0.23543</v>
       </c>
       <c r="M44" s="85"/>
-      <c r="N44" s="245">
+      <c r="N44" s="248">
         <v>0.13220000000000001</v>
       </c>
-      <c r="O44" s="246"/>
+      <c r="O44" s="249"/>
       <c r="P44" s="83"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
@@ -67056,16 +67056,16 @@
         <v>0.47361999999999999</v>
       </c>
       <c r="G45" s="92"/>
-      <c r="H45" s="247">
+      <c r="H45" s="242">
         <v>0.28101999999999999</v>
       </c>
-      <c r="I45" s="247"/>
+      <c r="I45" s="242"/>
       <c r="J45" s="81"/>
       <c r="K45" s="81"/>
       <c r="L45" s="81"/>
       <c r="M45" s="81"/>
-      <c r="N45" s="240"/>
-      <c r="O45" s="242"/>
+      <c r="N45" s="246"/>
+      <c r="O45" s="247"/>
       <c r="P45" s="83">
         <f>F45+H45+L46+L47+N47+J51</f>
         <v>2.2079800000000001</v>
@@ -67085,8 +67085,8 @@
         <v>0.71950000000000003</v>
       </c>
       <c r="M46" s="88"/>
-      <c r="N46" s="243"/>
-      <c r="O46" s="244"/>
+      <c r="N46" s="244"/>
+      <c r="O46" s="245"/>
       <c r="P46" s="83"/>
     </row>
     <row r="47" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -67106,10 +67106,10 @@
         <v>0.20451</v>
       </c>
       <c r="M47" s="85"/>
-      <c r="N47" s="245">
+      <c r="N47" s="248">
         <v>9.1600000000000001E-2</v>
       </c>
-      <c r="O47" s="246"/>
+      <c r="O47" s="249"/>
       <c r="P47" s="83"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
@@ -67123,16 +67123,16 @@
         <v>0.17321</v>
       </c>
       <c r="G48" s="92"/>
-      <c r="H48" s="247">
+      <c r="H48" s="242">
         <v>9.2929999999999999E-2</v>
       </c>
-      <c r="I48" s="247"/>
+      <c r="I48" s="242"/>
       <c r="J48" s="81"/>
       <c r="K48" s="81"/>
       <c r="L48" s="81"/>
       <c r="M48" s="81"/>
-      <c r="N48" s="240"/>
-      <c r="O48" s="242"/>
+      <c r="N48" s="246"/>
+      <c r="O48" s="247"/>
       <c r="P48" s="83">
         <f>F48+H48+L49+L50+N50+J51</f>
         <v>2.12704</v>
@@ -67155,8 +67155,8 @@
         <v>1</v>
       </c>
       <c r="M49" s="88"/>
-      <c r="N49" s="243"/>
-      <c r="O49" s="244"/>
+      <c r="N49" s="244"/>
+      <c r="O49" s="245"/>
       <c r="P49" s="83"/>
     </row>
     <row r="50" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -67179,10 +67179,10 @@
         <v>0.26967000000000002</v>
       </c>
       <c r="M50" s="85"/>
-      <c r="N50" s="245">
+      <c r="N50" s="248">
         <v>0.1535</v>
       </c>
-      <c r="O50" s="246"/>
+      <c r="O50" s="249"/>
       <c r="P50" s="83"/>
     </row>
     <row r="51" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -67196,14 +67196,14 @@
       <c r="G51" s="94"/>
       <c r="H51" s="94"/>
       <c r="I51" s="94"/>
-      <c r="J51" s="248">
+      <c r="J51" s="250">
         <v>0.43773000000000001</v>
       </c>
-      <c r="K51" s="248"/>
+      <c r="K51" s="250"/>
       <c r="L51" s="94"/>
       <c r="M51" s="94"/>
-      <c r="N51" s="249"/>
-      <c r="O51" s="250"/>
+      <c r="N51" s="251"/>
+      <c r="O51" s="252"/>
       <c r="P51" s="83"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
@@ -67220,16 +67220,16 @@
         <v>0.28996</v>
       </c>
       <c r="G52" s="92"/>
-      <c r="H52" s="247">
+      <c r="H52" s="242">
         <v>0.25344</v>
       </c>
-      <c r="I52" s="247"/>
+      <c r="I52" s="242"/>
       <c r="J52" s="81"/>
       <c r="K52" s="81"/>
       <c r="L52" s="81"/>
       <c r="M52" s="81"/>
-      <c r="N52" s="240"/>
-      <c r="O52" s="242"/>
+      <c r="N52" s="246"/>
+      <c r="O52" s="247"/>
       <c r="P52" s="83">
         <f>F52+H52+J53+L54+L55+N55</f>
         <v>2.0821799999999997</v>
@@ -67249,14 +67249,14 @@
       <c r="G53" s="88"/>
       <c r="H53" s="88"/>
       <c r="I53" s="88"/>
-      <c r="J53" s="251">
+      <c r="J53" s="243">
         <v>0.65949000000000002</v>
       </c>
-      <c r="K53" s="251"/>
+      <c r="K53" s="243"/>
       <c r="L53" s="88"/>
       <c r="M53" s="88"/>
-      <c r="N53" s="243"/>
-      <c r="O53" s="244"/>
+      <c r="N53" s="244"/>
+      <c r="O53" s="245"/>
       <c r="P53" s="83"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
@@ -67279,8 +67279,8 @@
         <v>0.56411</v>
       </c>
       <c r="M54" s="88"/>
-      <c r="N54" s="243"/>
-      <c r="O54" s="244"/>
+      <c r="N54" s="244"/>
+      <c r="O54" s="245"/>
       <c r="P54" s="83"/>
     </row>
     <row r="55" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -67303,10 +67303,10 @@
         <v>0.14326</v>
       </c>
       <c r="M55" s="85"/>
-      <c r="N55" s="245">
+      <c r="N55" s="248">
         <v>0.17191999999999999</v>
       </c>
-      <c r="O55" s="246"/>
+      <c r="O55" s="249"/>
       <c r="P55" s="83"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
@@ -67329,8 +67329,8 @@
         <v>0.19162000000000001</v>
       </c>
       <c r="M56" s="81"/>
-      <c r="N56" s="240"/>
-      <c r="O56" s="242"/>
+      <c r="N56" s="246"/>
+      <c r="O56" s="247"/>
       <c r="P56" s="83">
         <f>L56+L57+L58+L59+N58+N59</f>
         <v>2.1837599999999999</v>
@@ -67353,8 +67353,8 @@
         <v>0.49523</v>
       </c>
       <c r="M57" s="88"/>
-      <c r="N57" s="243"/>
-      <c r="O57" s="244"/>
+      <c r="N57" s="244"/>
+      <c r="O57" s="245"/>
       <c r="P57" s="83"/>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
@@ -67374,10 +67374,10 @@
         <v>0.47439999999999999</v>
       </c>
       <c r="M58" s="88"/>
-      <c r="N58" s="243">
+      <c r="N58" s="244">
         <v>0.60697000000000001</v>
       </c>
-      <c r="O58" s="244"/>
+      <c r="O58" s="245"/>
       <c r="P58" s="83"/>
     </row>
     <row r="59" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -67397,10 +67397,10 @@
         <v>0.16774</v>
       </c>
       <c r="M59" s="85"/>
-      <c r="N59" s="245">
+      <c r="N59" s="248">
         <v>0.24779999999999999</v>
       </c>
-      <c r="O59" s="246"/>
+      <c r="O59" s="249"/>
       <c r="P59" s="83"/>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
@@ -67414,14 +67414,14 @@
       <c r="G60" s="81"/>
       <c r="H60" s="81"/>
       <c r="I60" s="81"/>
-      <c r="J60" s="240">
+      <c r="J60" s="246">
         <v>0.45617999999999997</v>
       </c>
-      <c r="K60" s="241"/>
+      <c r="K60" s="255"/>
       <c r="L60" s="81"/>
       <c r="M60" s="81"/>
-      <c r="N60" s="240"/>
-      <c r="O60" s="242"/>
+      <c r="N60" s="246"/>
+      <c r="O60" s="247"/>
       <c r="P60" s="83">
         <f>J60+L62+N62+L63+L64+N64</f>
         <v>2.0612399999999997</v>
@@ -67444,10 +67444,10 @@
         <v>0.28649999999999998</v>
       </c>
       <c r="M61" s="88"/>
-      <c r="N61" s="243">
+      <c r="N61" s="244">
         <v>0.80176999999999998</v>
       </c>
-      <c r="O61" s="244"/>
+      <c r="O61" s="245"/>
       <c r="P61" s="83">
         <f>J60+L61+N61+L63+L64+N64</f>
         <v>2.4324300000000001</v>
@@ -67473,10 +67473,10 @@
         <v>0.20932000000000001</v>
       </c>
       <c r="M62" s="88"/>
-      <c r="N62" s="243">
+      <c r="N62" s="244">
         <v>0.50775999999999999</v>
       </c>
-      <c r="O62" s="244"/>
+      <c r="O62" s="245"/>
       <c r="P62" s="83"/>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
@@ -67496,8 +67496,8 @@
         <v>0.14599000000000001</v>
       </c>
       <c r="M63" s="88"/>
-      <c r="N63" s="243"/>
-      <c r="O63" s="244"/>
+      <c r="N63" s="244"/>
+      <c r="O63" s="245"/>
       <c r="P63" s="83"/>
     </row>
     <row r="64" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -67517,10 +67517,10 @@
         <v>0.12414</v>
       </c>
       <c r="M64" s="85"/>
-      <c r="N64" s="245">
+      <c r="N64" s="248">
         <v>0.61785000000000001</v>
       </c>
-      <c r="O64" s="246"/>
+      <c r="O64" s="249"/>
       <c r="P64" s="83"/>
     </row>
     <row r="65" spans="3:17" x14ac:dyDescent="0.25">
@@ -67540,10 +67540,10 @@
         <v>0.23763000000000001</v>
       </c>
       <c r="M65" s="81"/>
-      <c r="N65" s="240">
+      <c r="N65" s="246">
         <v>1</v>
       </c>
-      <c r="O65" s="242"/>
+      <c r="O65" s="247"/>
       <c r="P65" s="83">
         <f>L65+N65+L66+L67+N67</f>
         <v>1.8703959999999999</v>
@@ -67567,8 +67567,8 @@
         <v>0.17316000000000001</v>
       </c>
       <c r="M66" s="88"/>
-      <c r="N66" s="243"/>
-      <c r="O66" s="244"/>
+      <c r="N66" s="244"/>
+      <c r="O66" s="245"/>
       <c r="P66" s="83"/>
       <c r="Q66" s="83"/>
     </row>
@@ -67589,10 +67589,10 @@
         <v>0.12317</v>
       </c>
       <c r="M67" s="85"/>
-      <c r="N67" s="245">
+      <c r="N67" s="248">
         <v>0.33643600000000001</v>
       </c>
-      <c r="O67" s="246"/>
+      <c r="O67" s="249"/>
       <c r="P67" s="83"/>
       <c r="Q67" s="83"/>
     </row>
@@ -67613,10 +67613,10 @@
         <v>0.20199</v>
       </c>
       <c r="M68" s="81"/>
-      <c r="N68" s="240">
+      <c r="N68" s="246">
         <v>0.85</v>
       </c>
-      <c r="O68" s="242"/>
+      <c r="O68" s="247"/>
       <c r="P68" s="83">
         <f>L68+N68+L69+L70+N70</f>
         <v>1.6197900000000001</v>
@@ -67639,8 +67639,8 @@
         <v>0.17718999999999999</v>
       </c>
       <c r="M69" s="88"/>
-      <c r="N69" s="243"/>
-      <c r="O69" s="244"/>
+      <c r="N69" s="244"/>
+      <c r="O69" s="245"/>
       <c r="P69" s="83"/>
     </row>
     <row r="70" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -67660,79 +67660,26 @@
         <v>0.1047</v>
       </c>
       <c r="M70" s="100"/>
-      <c r="N70" s="238">
+      <c r="N70" s="253">
         <v>0.28591</v>
       </c>
-      <c r="O70" s="239"/>
+      <c r="O70" s="254"/>
       <c r="P70" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="N69:O69"/>
     <mergeCell ref="H48:I48"/>
     <mergeCell ref="N48:O48"/>
     <mergeCell ref="N49:O49"/>
@@ -67749,18 +67696,71 @@
     <mergeCell ref="N57:O57"/>
     <mergeCell ref="N58:O58"/>
     <mergeCell ref="N50:O50"/>
-    <mergeCell ref="N70:O70"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="N60:O60"/>
-    <mergeCell ref="N61:O61"/>
-    <mergeCell ref="N62:O62"/>
-    <mergeCell ref="N63:O63"/>
-    <mergeCell ref="N64:O64"/>
-    <mergeCell ref="N65:O65"/>
-    <mergeCell ref="N66:O66"/>
-    <mergeCell ref="N67:O67"/>
-    <mergeCell ref="N68:O68"/>
-    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="J6:K6"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:O70">
     <cfRule type="cellIs" dxfId="25" priority="1" operator="between">

--- a/projects/current/hattrick/z_Biblioteca.xlsx
+++ b/projects/current/hattrick/z_Biblioteca.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{871D5571-7C00-4328-8BA5-74995E609F3E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CDDE40F-AFE9-4A16-8675-55BC59C3DED2}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resistencia" sheetId="1" r:id="rId1"/>
@@ -12059,6 +12059,18 @@
     <xf numFmtId="0" fontId="14" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -12071,34 +12083,19 @@
     <xf numFmtId="0" fontId="4" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -12107,16 +12104,13 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -12128,22 +12122,28 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="26" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="26" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -22388,97 +22388,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="256">
+      <c r="A1" s="257">
         <v>0.34</v>
       </c>
-      <c r="B1" s="257"/>
-      <c r="C1" s="256">
+      <c r="B1" s="258"/>
+      <c r="C1" s="257">
         <v>0.245</v>
       </c>
-      <c r="D1" s="257"/>
-      <c r="E1" s="256">
+      <c r="D1" s="258"/>
+      <c r="E1" s="257">
         <v>0.125</v>
       </c>
-      <c r="F1" s="257"/>
-      <c r="G1" s="256">
+      <c r="F1" s="258"/>
+      <c r="G1" s="257">
         <v>0.29099999999999998</v>
       </c>
-      <c r="H1" s="257"/>
-      <c r="I1" s="256">
+      <c r="H1" s="258"/>
+      <c r="I1" s="257">
         <v>0.19</v>
       </c>
-      <c r="J1" s="257"/>
-      <c r="L1" s="256">
+      <c r="J1" s="258"/>
+      <c r="L1" s="257">
         <v>0.34</v>
       </c>
-      <c r="M1" s="257"/>
-      <c r="N1" s="256">
+      <c r="M1" s="258"/>
+      <c r="N1" s="257">
         <v>0.245</v>
       </c>
-      <c r="O1" s="257"/>
-      <c r="P1" s="256">
+      <c r="O1" s="258"/>
+      <c r="P1" s="257">
         <v>0.125</v>
       </c>
-      <c r="Q1" s="257"/>
-      <c r="R1" s="256">
+      <c r="Q1" s="258"/>
+      <c r="R1" s="257">
         <f>0.291*86/100</f>
         <v>0.25025999999999998</v>
       </c>
-      <c r="S1" s="257"/>
-      <c r="T1" s="256">
+      <c r="S1" s="258"/>
+      <c r="T1" s="257">
         <v>0.19</v>
       </c>
-      <c r="U1" s="257"/>
-      <c r="W1" s="258" t="s">
+      <c r="U1" s="258"/>
+      <c r="W1" s="256" t="s">
         <v>232</v>
       </c>
-      <c r="X1" s="258"/>
-      <c r="AC1" s="258" t="s">
+      <c r="X1" s="256"/>
+      <c r="AC1" s="256" t="s">
         <v>233</v>
       </c>
-      <c r="AD1" s="258"/>
+      <c r="AD1" s="256"/>
     </row>
     <row r="2" spans="1:44" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="238" t="s">
+      <c r="A2" s="253" t="s">
         <v>234</v>
       </c>
-      <c r="B2" s="238"/>
-      <c r="C2" s="238" t="s">
+      <c r="B2" s="253"/>
+      <c r="C2" s="253" t="s">
         <v>235</v>
       </c>
-      <c r="D2" s="238"/>
-      <c r="E2" s="238" t="s">
+      <c r="D2" s="253"/>
+      <c r="E2" s="253" t="s">
         <v>236</v>
       </c>
-      <c r="F2" s="238"/>
-      <c r="G2" s="238" t="s">
+      <c r="F2" s="253"/>
+      <c r="G2" s="253" t="s">
         <v>237</v>
       </c>
-      <c r="H2" s="238"/>
-      <c r="I2" s="238" t="s">
+      <c r="H2" s="253"/>
+      <c r="I2" s="253" t="s">
         <v>238</v>
       </c>
-      <c r="J2" s="238"/>
-      <c r="L2" s="238" t="s">
+      <c r="J2" s="253"/>
+      <c r="L2" s="253" t="s">
         <v>234</v>
       </c>
-      <c r="M2" s="238"/>
-      <c r="N2" s="238" t="s">
+      <c r="M2" s="253"/>
+      <c r="N2" s="253" t="s">
         <v>235</v>
       </c>
-      <c r="O2" s="238"/>
-      <c r="P2" s="238" t="s">
+      <c r="O2" s="253"/>
+      <c r="P2" s="253" t="s">
         <v>236</v>
       </c>
-      <c r="Q2" s="238"/>
-      <c r="R2" s="238" t="s">
+      <c r="Q2" s="253"/>
+      <c r="R2" s="253" t="s">
         <v>237</v>
       </c>
-      <c r="S2" s="238"/>
-      <c r="T2" s="238" t="s">
+      <c r="S2" s="253"/>
+      <c r="T2" s="253" t="s">
         <v>238</v>
       </c>
-      <c r="U2" s="238"/>
+      <c r="U2" s="253"/>
     </row>
     <row r="3" spans="1:44" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="79" t="s">
@@ -22487,36 +22487,36 @@
       <c r="B3" s="79" t="s">
         <v>240</v>
       </c>
-      <c r="C3" s="239"/>
-      <c r="D3" s="240"/>
-      <c r="E3" s="239"/>
-      <c r="F3" s="240"/>
+      <c r="C3" s="254"/>
+      <c r="D3" s="255"/>
+      <c r="E3" s="254"/>
+      <c r="F3" s="255"/>
       <c r="G3" s="79" t="s">
         <v>239</v>
       </c>
       <c r="H3" s="79" t="s">
         <v>240</v>
       </c>
-      <c r="I3" s="239"/>
-      <c r="J3" s="240"/>
+      <c r="I3" s="254"/>
+      <c r="J3" s="255"/>
       <c r="L3" s="79" t="s">
         <v>239</v>
       </c>
       <c r="M3" s="79" t="s">
         <v>240</v>
       </c>
-      <c r="N3" s="239"/>
-      <c r="O3" s="240"/>
-      <c r="P3" s="239"/>
-      <c r="Q3" s="240"/>
+      <c r="N3" s="254"/>
+      <c r="O3" s="255"/>
+      <c r="P3" s="254"/>
+      <c r="Q3" s="255"/>
       <c r="R3" s="79" t="s">
         <v>239</v>
       </c>
       <c r="S3" s="79" t="s">
         <v>240</v>
       </c>
-      <c r="T3" s="239"/>
-      <c r="U3" s="240"/>
+      <c r="T3" s="254"/>
+      <c r="U3" s="255"/>
       <c r="W3" t="s">
         <v>241</v>
       </c>
@@ -22525,14 +22525,14 @@
       </c>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A4" s="242">
+      <c r="A4" s="247">
         <v>0.64709000000000005</v>
       </c>
-      <c r="B4" s="242"/>
-      <c r="C4" s="242">
+      <c r="B4" s="247"/>
+      <c r="C4" s="247">
         <v>0.97192999999999996</v>
       </c>
-      <c r="D4" s="242"/>
+      <c r="D4" s="247"/>
       <c r="E4" s="81"/>
       <c r="F4" s="81"/>
       <c r="G4" s="81"/>
@@ -22542,14 +22542,14 @@
       <c r="K4" s="80" t="s">
         <v>243</v>
       </c>
-      <c r="L4" s="242">
+      <c r="L4" s="247">
         <v>0.64709000000000005</v>
       </c>
-      <c r="M4" s="242"/>
-      <c r="N4" s="242">
+      <c r="M4" s="247"/>
+      <c r="N4" s="247">
         <v>0.97192999999999996</v>
       </c>
-      <c r="O4" s="242"/>
+      <c r="O4" s="247"/>
       <c r="P4" s="81"/>
       <c r="Q4" s="81"/>
       <c r="R4" s="81"/>
@@ -22567,14 +22567,14 @@
       </c>
     </row>
     <row r="5" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="241">
+      <c r="A5" s="252">
         <v>0.26545000000000002</v>
       </c>
-      <c r="B5" s="241"/>
-      <c r="C5" s="241">
+      <c r="B5" s="252"/>
+      <c r="C5" s="252">
         <v>0.39895999999999998</v>
       </c>
-      <c r="D5" s="241"/>
+      <c r="D5" s="252"/>
       <c r="E5" s="85"/>
       <c r="F5" s="85"/>
       <c r="G5" s="85"/>
@@ -22584,14 +22584,14 @@
       <c r="K5" s="84" t="s">
         <v>246</v>
       </c>
-      <c r="L5" s="241">
+      <c r="L5" s="252">
         <v>0.26545000000000002</v>
       </c>
-      <c r="M5" s="241"/>
-      <c r="N5" s="241">
+      <c r="M5" s="252"/>
+      <c r="N5" s="252">
         <v>0.39895999999999998</v>
       </c>
-      <c r="O5" s="241"/>
+      <c r="O5" s="252"/>
       <c r="P5" s="85"/>
       <c r="Q5" s="85"/>
       <c r="R5" s="85"/>
@@ -22615,10 +22615,10 @@
       <c r="B6" s="81">
         <v>0.25008999999999998</v>
       </c>
-      <c r="C6" s="242">
+      <c r="C6" s="247">
         <v>1</v>
       </c>
-      <c r="D6" s="242"/>
+      <c r="D6" s="247"/>
       <c r="E6" s="81"/>
       <c r="F6" s="81"/>
       <c r="G6" s="81"/>
@@ -22634,10 +22634,10 @@
       <c r="M6" s="81">
         <v>0.25008999999999998</v>
       </c>
-      <c r="N6" s="242">
+      <c r="N6" s="247">
         <v>1</v>
       </c>
-      <c r="O6" s="242"/>
+      <c r="O6" s="247"/>
       <c r="P6" s="81"/>
       <c r="Q6" s="81"/>
       <c r="R6" s="81"/>
@@ -22650,10 +22650,10 @@
       <c r="B7" s="85"/>
       <c r="C7" s="85"/>
       <c r="D7" s="85"/>
-      <c r="E7" s="241">
+      <c r="E7" s="252">
         <v>0.27488000000000001</v>
       </c>
-      <c r="F7" s="241"/>
+      <c r="F7" s="252"/>
       <c r="G7" s="85"/>
       <c r="H7" s="85"/>
       <c r="I7" s="85"/>
@@ -22665,10 +22665,10 @@
       <c r="M7" s="85"/>
       <c r="N7" s="85"/>
       <c r="O7" s="85"/>
-      <c r="P7" s="241">
+      <c r="P7" s="252">
         <v>0.27488000000000001</v>
       </c>
-      <c r="Q7" s="241"/>
+      <c r="Q7" s="252"/>
       <c r="R7" s="85"/>
       <c r="S7" s="85"/>
       <c r="T7" s="85"/>
@@ -22687,10 +22687,10 @@
       <c r="B8" s="81">
         <v>0.17752000000000001</v>
       </c>
-      <c r="C8" s="242">
+      <c r="C8" s="247">
         <v>0.72296000000000005</v>
       </c>
-      <c r="D8" s="242"/>
+      <c r="D8" s="247"/>
       <c r="E8" s="81"/>
       <c r="F8" s="81"/>
       <c r="G8" s="81"/>
@@ -22706,10 +22706,10 @@
       <c r="M8" s="81">
         <v>0.17752000000000001</v>
       </c>
-      <c r="N8" s="242">
+      <c r="N8" s="247">
         <v>0.72296000000000005</v>
       </c>
-      <c r="O8" s="242"/>
+      <c r="O8" s="247"/>
       <c r="P8" s="81"/>
       <c r="Q8" s="81"/>
       <c r="R8" s="81"/>
@@ -22725,10 +22725,10 @@
       <c r="B9" s="85"/>
       <c r="C9" s="85"/>
       <c r="D9" s="85"/>
-      <c r="E9" s="241">
+      <c r="E9" s="252">
         <v>0.36337000000000003</v>
       </c>
-      <c r="F9" s="241"/>
+      <c r="F9" s="252"/>
       <c r="G9" s="85"/>
       <c r="H9" s="85"/>
       <c r="I9" s="85"/>
@@ -22740,11 +22740,11 @@
       <c r="M9" s="85"/>
       <c r="N9" s="85"/>
       <c r="O9" s="85"/>
-      <c r="P9" s="241">
+      <c r="P9" s="252">
         <f>36.337%*1.21</f>
         <v>0.4396777</v>
       </c>
-      <c r="Q9" s="241"/>
+      <c r="Q9" s="252"/>
       <c r="R9" s="85"/>
       <c r="S9" s="85"/>
       <c r="T9" s="85"/>
@@ -22758,10 +22758,10 @@
         <v>0.65615999999999997</v>
       </c>
       <c r="B10" s="81"/>
-      <c r="C10" s="242">
+      <c r="C10" s="247">
         <v>0.78437000000000001</v>
       </c>
-      <c r="D10" s="242"/>
+      <c r="D10" s="247"/>
       <c r="E10" s="81"/>
       <c r="F10" s="81"/>
       <c r="G10" s="81"/>
@@ -22776,11 +22776,11 @@
         <v>0.69552959999999997</v>
       </c>
       <c r="M10" s="81"/>
-      <c r="N10" s="242">
+      <c r="N10" s="247">
         <f>78.437%*(1-0.09)</f>
         <v>0.71377670000000004</v>
       </c>
-      <c r="O10" s="242"/>
+      <c r="O10" s="247"/>
       <c r="P10" s="81"/>
       <c r="Q10" s="81"/>
       <c r="R10" s="81"/>
@@ -22796,10 +22796,10 @@
       <c r="B11" s="88"/>
       <c r="C11" s="88"/>
       <c r="D11" s="88"/>
-      <c r="E11" s="243">
+      <c r="E11" s="251">
         <v>0.1464</v>
       </c>
-      <c r="F11" s="243"/>
+      <c r="F11" s="251"/>
       <c r="G11" s="88"/>
       <c r="H11" s="88"/>
       <c r="I11" s="88"/>
@@ -22811,10 +22811,10 @@
       <c r="M11" s="88"/>
       <c r="N11" s="88"/>
       <c r="O11" s="88"/>
-      <c r="P11" s="243">
+      <c r="P11" s="251">
         <v>0.1464</v>
       </c>
-      <c r="Q11" s="243"/>
+      <c r="Q11" s="251"/>
       <c r="R11" s="88"/>
       <c r="S11" s="88"/>
       <c r="T11" s="88"/>
@@ -22859,14 +22859,14 @@
       </c>
     </row>
     <row r="13" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A13" s="242">
+      <c r="A13" s="247">
         <v>0.42514999999999997</v>
       </c>
-      <c r="B13" s="242"/>
-      <c r="C13" s="242">
+      <c r="B13" s="247"/>
+      <c r="C13" s="247">
         <v>0.85</v>
       </c>
-      <c r="D13" s="242"/>
+      <c r="D13" s="247"/>
       <c r="E13" s="81"/>
       <c r="F13" s="81"/>
       <c r="G13" s="81"/>
@@ -22876,14 +22876,14 @@
       <c r="K13" s="80" t="s">
         <v>260</v>
       </c>
-      <c r="L13" s="242">
+      <c r="L13" s="247">
         <v>0.42514999999999997</v>
       </c>
-      <c r="M13" s="242"/>
-      <c r="N13" s="242">
+      <c r="M13" s="247"/>
+      <c r="N13" s="247">
         <v>0.85</v>
       </c>
-      <c r="O13" s="242"/>
+      <c r="O13" s="247"/>
       <c r="P13" s="81"/>
       <c r="Q13" s="81"/>
       <c r="R13" s="81"/>
@@ -22916,10 +22916,10 @@
       <c r="B14" s="85"/>
       <c r="C14" s="85"/>
       <c r="D14" s="85"/>
-      <c r="E14" s="241">
+      <c r="E14" s="252">
         <v>0.23365</v>
       </c>
-      <c r="F14" s="241"/>
+      <c r="F14" s="252"/>
       <c r="G14" s="85"/>
       <c r="H14" s="85"/>
       <c r="I14" s="85"/>
@@ -22931,10 +22931,10 @@
       <c r="M14" s="85"/>
       <c r="N14" s="85"/>
       <c r="O14" s="85"/>
-      <c r="P14" s="241">
+      <c r="P14" s="252">
         <v>0.23365</v>
       </c>
-      <c r="Q14" s="241"/>
+      <c r="Q14" s="252"/>
       <c r="R14" s="85"/>
       <c r="S14" s="85"/>
       <c r="T14" s="85"/>
@@ -22972,10 +22972,10 @@
         <v>1</v>
       </c>
       <c r="B15" s="92"/>
-      <c r="C15" s="242">
+      <c r="C15" s="247">
         <v>0.51382000000000005</v>
       </c>
-      <c r="D15" s="242"/>
+      <c r="D15" s="247"/>
       <c r="E15" s="81"/>
       <c r="F15" s="81"/>
       <c r="G15" s="81"/>
@@ -22989,10 +22989,10 @@
         <v>1</v>
       </c>
       <c r="M15" s="92"/>
-      <c r="N15" s="242">
+      <c r="N15" s="247">
         <v>0.51382000000000005</v>
       </c>
-      <c r="O15" s="242"/>
+      <c r="O15" s="247"/>
       <c r="P15" s="81"/>
       <c r="Q15" s="81"/>
       <c r="R15" s="81"/>
@@ -23040,10 +23040,10 @@
       <c r="B16" s="88"/>
       <c r="C16" s="88"/>
       <c r="D16" s="88"/>
-      <c r="E16" s="243">
+      <c r="E16" s="251">
         <v>4.3869999999999999E-2</v>
       </c>
-      <c r="F16" s="243"/>
+      <c r="F16" s="251"/>
       <c r="G16" s="88"/>
       <c r="H16" s="88"/>
       <c r="I16" s="88"/>
@@ -23055,10 +23055,10 @@
       <c r="M16" s="88"/>
       <c r="N16" s="88"/>
       <c r="O16" s="88"/>
-      <c r="P16" s="243">
+      <c r="P16" s="251">
         <v>4.3869999999999999E-2</v>
       </c>
-      <c r="Q16" s="243"/>
+      <c r="Q16" s="251"/>
       <c r="R16" s="88"/>
       <c r="S16" s="88"/>
       <c r="T16" s="88"/>
@@ -23139,10 +23139,10 @@
         <v>0.91232999999999997</v>
       </c>
       <c r="B18" s="92"/>
-      <c r="C18" s="242">
+      <c r="C18" s="247">
         <v>0.46146999999999999</v>
       </c>
-      <c r="D18" s="242"/>
+      <c r="D18" s="247"/>
       <c r="E18" s="81"/>
       <c r="F18" s="81"/>
       <c r="G18" s="81"/>
@@ -23156,11 +23156,11 @@
         <v>0.91232999999999997</v>
       </c>
       <c r="M18" s="92"/>
-      <c r="N18" s="242">
+      <c r="N18" s="247">
         <f>46.147%*(1-0.08)</f>
         <v>0.4245524</v>
       </c>
-      <c r="O18" s="242"/>
+      <c r="O18" s="247"/>
       <c r="P18" s="81"/>
       <c r="Q18" s="81"/>
       <c r="R18" s="81"/>
@@ -23179,10 +23179,10 @@
       <c r="B19" s="88"/>
       <c r="C19" s="88"/>
       <c r="D19" s="88"/>
-      <c r="E19" s="243">
+      <c r="E19" s="251">
         <v>0.15035999999999999</v>
       </c>
-      <c r="F19" s="243"/>
+      <c r="F19" s="251"/>
       <c r="G19" s="88"/>
       <c r="H19" s="88"/>
       <c r="I19" s="88"/>
@@ -23194,10 +23194,10 @@
       <c r="M19" s="88"/>
       <c r="N19" s="88"/>
       <c r="O19" s="88"/>
-      <c r="P19" s="243">
+      <c r="P19" s="251">
         <v>0.15035999999999999</v>
       </c>
-      <c r="Q19" s="243"/>
+      <c r="Q19" s="251"/>
       <c r="R19" s="88"/>
       <c r="S19" s="88"/>
       <c r="T19" s="88"/>
@@ -23267,10 +23267,10 @@
         <v>0.69059999999999999</v>
       </c>
       <c r="B21" s="92"/>
-      <c r="C21" s="242">
+      <c r="C21" s="247">
         <v>0.38878000000000001</v>
       </c>
-      <c r="D21" s="242"/>
+      <c r="D21" s="247"/>
       <c r="E21" s="81"/>
       <c r="F21" s="81"/>
       <c r="G21" s="81"/>
@@ -23284,10 +23284,10 @@
         <v>0.69059999999999999</v>
       </c>
       <c r="M21" s="92"/>
-      <c r="N21" s="242">
+      <c r="N21" s="247">
         <v>0.38878000000000001</v>
       </c>
-      <c r="O21" s="242"/>
+      <c r="O21" s="247"/>
       <c r="P21" s="81"/>
       <c r="Q21" s="81"/>
       <c r="R21" s="81"/>
@@ -23309,10 +23309,10 @@
       <c r="B22" s="88"/>
       <c r="C22" s="88"/>
       <c r="D22" s="88"/>
-      <c r="E22" s="243">
+      <c r="E22" s="251">
         <v>0.2099</v>
       </c>
-      <c r="F22" s="243"/>
+      <c r="F22" s="251"/>
       <c r="G22" s="88"/>
       <c r="H22" s="88"/>
       <c r="I22" s="88"/>
@@ -23324,10 +23324,10 @@
       <c r="M22" s="88"/>
       <c r="N22" s="88"/>
       <c r="O22" s="88"/>
-      <c r="P22" s="243">
+      <c r="P22" s="251">
         <v>0.2099</v>
       </c>
-      <c r="Q22" s="243"/>
+      <c r="Q22" s="251"/>
       <c r="R22" s="88"/>
       <c r="S22" s="88"/>
       <c r="T22" s="88"/>
@@ -23391,10 +23391,10 @@
         <v>0.68315000000000003</v>
       </c>
       <c r="B24" s="92"/>
-      <c r="C24" s="242">
+      <c r="C24" s="247">
         <v>0.70006000000000002</v>
       </c>
-      <c r="D24" s="242"/>
+      <c r="D24" s="247"/>
       <c r="E24" s="81"/>
       <c r="F24" s="81"/>
       <c r="G24" s="81"/>
@@ -23408,10 +23408,10 @@
         <v>0.68315000000000003</v>
       </c>
       <c r="M24" s="92"/>
-      <c r="N24" s="242">
+      <c r="N24" s="247">
         <v>0.70006000000000002</v>
       </c>
-      <c r="O24" s="242"/>
+      <c r="O24" s="247"/>
       <c r="P24" s="81"/>
       <c r="Q24" s="81"/>
       <c r="R24" s="81"/>
@@ -23436,10 +23436,10 @@
       <c r="B25" s="88"/>
       <c r="C25" s="88"/>
       <c r="D25" s="88"/>
-      <c r="E25" s="243">
+      <c r="E25" s="251">
         <v>0.152</v>
       </c>
-      <c r="F25" s="243"/>
+      <c r="F25" s="251"/>
       <c r="G25" s="88"/>
       <c r="H25" s="88"/>
       <c r="I25" s="88"/>
@@ -23451,10 +23451,10 @@
       <c r="M25" s="88"/>
       <c r="N25" s="88"/>
       <c r="O25" s="88"/>
-      <c r="P25" s="243">
+      <c r="P25" s="251">
         <v>0.152</v>
       </c>
-      <c r="Q25" s="243"/>
+      <c r="Q25" s="251"/>
       <c r="R25" s="88"/>
       <c r="S25" s="88"/>
       <c r="T25" s="88"/>
@@ -23517,16 +23517,16 @@
       <c r="B27" s="81">
         <v>9.2719999999999997E-2</v>
       </c>
-      <c r="C27" s="242">
+      <c r="C27" s="247">
         <v>0.42459999999999998</v>
       </c>
-      <c r="D27" s="242"/>
+      <c r="D27" s="247"/>
       <c r="E27" s="81"/>
       <c r="F27" s="81"/>
       <c r="G27" s="81"/>
       <c r="H27" s="81"/>
-      <c r="I27" s="246"/>
-      <c r="J27" s="247"/>
+      <c r="I27" s="240"/>
+      <c r="J27" s="242"/>
       <c r="K27" s="80" t="s">
         <v>292</v>
       </c>
@@ -23536,16 +23536,16 @@
       <c r="M27" s="81">
         <v>9.2719999999999997E-2</v>
       </c>
-      <c r="N27" s="242">
+      <c r="N27" s="247">
         <v>0.42459999999999998</v>
       </c>
-      <c r="O27" s="242"/>
+      <c r="O27" s="247"/>
       <c r="P27" s="81"/>
       <c r="Q27" s="81"/>
       <c r="R27" s="81"/>
       <c r="S27" s="81"/>
-      <c r="T27" s="246"/>
-      <c r="U27" s="247"/>
+      <c r="T27" s="240"/>
+      <c r="U27" s="242"/>
       <c r="W27" t="s">
         <v>415</v>
       </c>
@@ -23561,14 +23561,14 @@
       <c r="B28" s="88"/>
       <c r="C28" s="88"/>
       <c r="D28" s="88"/>
-      <c r="E28" s="243">
+      <c r="E28" s="251">
         <v>1</v>
       </c>
-      <c r="F28" s="243"/>
+      <c r="F28" s="251"/>
       <c r="G28" s="88"/>
       <c r="H28" s="88"/>
-      <c r="I28" s="244"/>
-      <c r="J28" s="245"/>
+      <c r="I28" s="243"/>
+      <c r="J28" s="244"/>
       <c r="K28" s="87" t="s">
         <v>295</v>
       </c>
@@ -23576,14 +23576,14 @@
       <c r="M28" s="88"/>
       <c r="N28" s="88"/>
       <c r="O28" s="88"/>
-      <c r="P28" s="243">
+      <c r="P28" s="251">
         <v>1</v>
       </c>
-      <c r="Q28" s="243"/>
+      <c r="Q28" s="251"/>
       <c r="R28" s="88"/>
       <c r="S28" s="88"/>
-      <c r="T28" s="244"/>
-      <c r="U28" s="245"/>
+      <c r="T28" s="243"/>
+      <c r="U28" s="244"/>
       <c r="W28" t="s">
         <v>418</v>
       </c>
@@ -23613,10 +23613,10 @@
       <c r="Q29" s="90"/>
       <c r="R29" s="85"/>
       <c r="S29" s="85"/>
-      <c r="T29" s="248">
+      <c r="T29" s="245">
         <v>0.21</v>
       </c>
-      <c r="U29" s="249"/>
+      <c r="U29" s="246"/>
       <c r="W29" t="s">
         <v>420</v>
       </c>
@@ -23637,10 +23637,10 @@
       <c r="H30" s="85">
         <v>0.1226</v>
       </c>
-      <c r="I30" s="248">
+      <c r="I30" s="245">
         <v>0.34044000000000002</v>
       </c>
-      <c r="J30" s="249"/>
+      <c r="J30" s="246"/>
       <c r="K30" s="84" t="s">
         <v>298</v>
       </c>
@@ -23656,11 +23656,11 @@
       <c r="S30" s="85">
         <v>0.14255813953488372</v>
       </c>
-      <c r="T30" s="248">
+      <c r="T30" s="245">
         <f>34.044%*1.05</f>
         <v>0.357462</v>
       </c>
-      <c r="U30" s="249"/>
+      <c r="U30" s="246"/>
       <c r="W30" t="s">
         <v>422</v>
       </c>
@@ -23681,16 +23681,16 @@
       <c r="B31" s="81">
         <v>0.13719000000000001</v>
       </c>
-      <c r="C31" s="242">
+      <c r="C31" s="247">
         <v>0.62792999999999999</v>
       </c>
-      <c r="D31" s="242"/>
+      <c r="D31" s="247"/>
       <c r="E31" s="81"/>
       <c r="F31" s="81"/>
       <c r="G31" s="81"/>
       <c r="H31" s="81"/>
-      <c r="I31" s="246"/>
-      <c r="J31" s="247"/>
+      <c r="I31" s="240"/>
+      <c r="J31" s="242"/>
       <c r="K31" s="80" t="s">
         <v>300</v>
       </c>
@@ -23700,16 +23700,16 @@
       <c r="M31" s="81">
         <v>0.13719000000000001</v>
       </c>
-      <c r="N31" s="242">
+      <c r="N31" s="247">
         <v>0.62792999999999999</v>
       </c>
-      <c r="O31" s="242"/>
+      <c r="O31" s="247"/>
       <c r="P31" s="81"/>
       <c r="Q31" s="81"/>
       <c r="R31" s="81"/>
       <c r="S31" s="81"/>
-      <c r="T31" s="246"/>
-      <c r="U31" s="247"/>
+      <c r="T31" s="240"/>
+      <c r="U31" s="242"/>
       <c r="W31" t="s">
         <v>426</v>
       </c>
@@ -23745,10 +23745,10 @@
       <c r="Q32" s="103"/>
       <c r="R32" s="103"/>
       <c r="S32" s="103"/>
-      <c r="T32" s="248">
+      <c r="T32" s="245">
         <v>0.12</v>
       </c>
-      <c r="U32" s="249"/>
+      <c r="U32" s="246"/>
       <c r="W32" t="s">
         <v>430</v>
       </c>
@@ -23775,10 +23775,10 @@
       <c r="H33" s="85">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="I33" s="248">
+      <c r="I33" s="245">
         <v>0.23748</v>
       </c>
-      <c r="J33" s="249"/>
+      <c r="J33" s="246"/>
       <c r="K33" s="84" t="s">
         <v>303</v>
       </c>
@@ -23794,11 +23794,11 @@
       <c r="S33" s="85">
         <v>6.8837209302325592E-2</v>
       </c>
-      <c r="T33" s="248">
+      <c r="T33" s="245">
         <f>23.748%*0.8</f>
         <v>0.18998400000000004</v>
       </c>
-      <c r="U33" s="249"/>
+      <c r="U33" s="246"/>
       <c r="W33" t="s">
         <v>434</v>
       </c>
@@ -23819,16 +23819,16 @@
       <c r="B34" s="81">
         <v>5.6059999999999999E-2</v>
       </c>
-      <c r="C34" s="242">
+      <c r="C34" s="247">
         <v>0.23462</v>
       </c>
-      <c r="D34" s="242"/>
+      <c r="D34" s="247"/>
       <c r="E34" s="81"/>
       <c r="F34" s="81"/>
       <c r="G34" s="81"/>
       <c r="H34" s="81"/>
-      <c r="I34" s="246"/>
-      <c r="J34" s="247"/>
+      <c r="I34" s="240"/>
+      <c r="J34" s="242"/>
       <c r="K34" s="80" t="s">
         <v>305</v>
       </c>
@@ -23840,17 +23840,17 @@
         <f>5.606%*0.75</f>
         <v>4.2044999999999999E-2</v>
       </c>
-      <c r="N34" s="242">
+      <c r="N34" s="247">
         <f>23.462%*0.75</f>
         <v>0.17596499999999998</v>
       </c>
-      <c r="O34" s="242"/>
+      <c r="O34" s="247"/>
       <c r="P34" s="81"/>
       <c r="Q34" s="81"/>
       <c r="R34" s="81"/>
       <c r="S34" s="81"/>
-      <c r="T34" s="246"/>
-      <c r="U34" s="247"/>
+      <c r="T34" s="240"/>
+      <c r="U34" s="242"/>
       <c r="W34" t="s">
         <v>438</v>
       </c>
@@ -23886,10 +23886,10 @@
       <c r="Q35" s="103"/>
       <c r="R35" s="103"/>
       <c r="S35" s="103"/>
-      <c r="T35" s="248">
+      <c r="T35" s="245">
         <v>0.31</v>
       </c>
-      <c r="U35" s="249"/>
+      <c r="U35" s="246"/>
       <c r="W35" t="s">
         <v>442</v>
       </c>
@@ -23910,10 +23910,10 @@
       <c r="H36" s="85">
         <v>0.11894</v>
       </c>
-      <c r="I36" s="248">
+      <c r="I36" s="245">
         <v>0.50244</v>
       </c>
-      <c r="J36" s="249"/>
+      <c r="J36" s="246"/>
       <c r="K36" s="84" t="s">
         <v>307</v>
       </c>
@@ -23929,11 +23929,11 @@
       <c r="S36" s="85">
         <v>0.13830232558139535</v>
       </c>
-      <c r="T36" s="248">
+      <c r="T36" s="245">
         <f>50.244%*1.05</f>
         <v>0.52756199999999998</v>
       </c>
-      <c r="U36" s="249"/>
+      <c r="U36" s="246"/>
       <c r="AC36" t="s">
         <v>444</v>
       </c>
@@ -23943,14 +23943,14 @@
       <c r="B37" s="94"/>
       <c r="C37" s="94"/>
       <c r="D37" s="94"/>
-      <c r="E37" s="250">
+      <c r="E37" s="248">
         <v>0.94696999999999998</v>
       </c>
-      <c r="F37" s="250"/>
+      <c r="F37" s="248"/>
       <c r="G37" s="94"/>
       <c r="H37" s="94"/>
-      <c r="I37" s="251"/>
-      <c r="J37" s="252"/>
+      <c r="I37" s="249"/>
+      <c r="J37" s="250"/>
       <c r="K37" s="93" t="s">
         <v>309</v>
       </c>
@@ -23958,54 +23958,54 @@
       <c r="M37" s="94"/>
       <c r="N37" s="94"/>
       <c r="O37" s="94"/>
-      <c r="P37" s="250">
+      <c r="P37" s="248">
         <v>0.94696999999999998</v>
       </c>
-      <c r="Q37" s="250"/>
+      <c r="Q37" s="248"/>
       <c r="R37" s="94"/>
       <c r="S37" s="94"/>
-      <c r="T37" s="251"/>
-      <c r="U37" s="252"/>
-      <c r="W37" s="258" t="s">
+      <c r="T37" s="249"/>
+      <c r="U37" s="250"/>
+      <c r="W37" s="256" t="s">
         <v>261</v>
       </c>
-      <c r="X37" s="258"/>
+      <c r="X37" s="256"/>
       <c r="AC37" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="38" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A38" s="242">
+      <c r="A38" s="247">
         <v>0.15762999999999999</v>
       </c>
-      <c r="B38" s="242"/>
-      <c r="C38" s="242">
+      <c r="B38" s="247"/>
+      <c r="C38" s="247">
         <v>0.36070000000000002</v>
       </c>
-      <c r="D38" s="242"/>
+      <c r="D38" s="247"/>
       <c r="E38" s="81"/>
       <c r="F38" s="81"/>
       <c r="G38" s="81"/>
       <c r="H38" s="81"/>
-      <c r="I38" s="246"/>
-      <c r="J38" s="247"/>
+      <c r="I38" s="240"/>
+      <c r="J38" s="242"/>
       <c r="K38" s="80" t="s">
         <v>310</v>
       </c>
-      <c r="L38" s="242">
+      <c r="L38" s="247">
         <v>0.15762999999999999</v>
       </c>
-      <c r="M38" s="242"/>
-      <c r="N38" s="242">
+      <c r="M38" s="247"/>
+      <c r="N38" s="247">
         <v>0.36070000000000002</v>
       </c>
-      <c r="O38" s="242"/>
+      <c r="O38" s="247"/>
       <c r="P38" s="81"/>
       <c r="Q38" s="81"/>
       <c r="R38" s="81"/>
       <c r="S38" s="81"/>
-      <c r="T38" s="246"/>
-      <c r="U38" s="247"/>
+      <c r="T38" s="240"/>
+      <c r="U38" s="242"/>
       <c r="AC38" t="s">
         <v>446</v>
       </c>
@@ -24015,14 +24015,14 @@
       <c r="B39" s="88"/>
       <c r="C39" s="88"/>
       <c r="D39" s="88"/>
-      <c r="E39" s="243">
+      <c r="E39" s="251">
         <v>0.85</v>
       </c>
-      <c r="F39" s="243"/>
+      <c r="F39" s="251"/>
       <c r="G39" s="88"/>
       <c r="H39" s="88"/>
-      <c r="I39" s="244"/>
-      <c r="J39" s="245"/>
+      <c r="I39" s="243"/>
+      <c r="J39" s="244"/>
       <c r="K39" s="87" t="s">
         <v>311</v>
       </c>
@@ -24030,14 +24030,14 @@
       <c r="M39" s="88"/>
       <c r="N39" s="88"/>
       <c r="O39" s="88"/>
-      <c r="P39" s="243">
+      <c r="P39" s="251">
         <v>0.85</v>
       </c>
-      <c r="Q39" s="243"/>
+      <c r="Q39" s="251"/>
       <c r="R39" s="88"/>
       <c r="S39" s="88"/>
-      <c r="T39" s="244"/>
-      <c r="U39" s="245"/>
+      <c r="T39" s="243"/>
+      <c r="U39" s="244"/>
       <c r="W39" t="s">
         <v>241</v>
       </c>
@@ -24056,10 +24056,10 @@
         <v>0.20784</v>
       </c>
       <c r="H40" s="85"/>
-      <c r="I40" s="248">
+      <c r="I40" s="245">
         <v>0.28937000000000002</v>
       </c>
-      <c r="J40" s="249"/>
+      <c r="J40" s="246"/>
       <c r="K40" s="84" t="s">
         <v>313</v>
       </c>
@@ -24073,10 +24073,10 @@
         <v>0.24167441860465114</v>
       </c>
       <c r="S40" s="85"/>
-      <c r="T40" s="248">
+      <c r="T40" s="245">
         <v>0.28937000000000002</v>
       </c>
-      <c r="U40" s="249"/>
+      <c r="U40" s="246"/>
       <c r="W40" t="s">
         <v>244</v>
       </c>
@@ -24085,37 +24085,37 @@
       </c>
     </row>
     <row r="41" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A41" s="242">
+      <c r="A41" s="247">
         <v>0.20368</v>
       </c>
-      <c r="B41" s="242"/>
-      <c r="C41" s="242">
+      <c r="B41" s="247"/>
+      <c r="C41" s="247">
         <v>0.33767000000000003</v>
       </c>
-      <c r="D41" s="242"/>
+      <c r="D41" s="247"/>
       <c r="E41" s="81"/>
       <c r="F41" s="81"/>
       <c r="G41" s="81"/>
       <c r="H41" s="81"/>
-      <c r="I41" s="246"/>
-      <c r="J41" s="247"/>
+      <c r="I41" s="240"/>
+      <c r="J41" s="242"/>
       <c r="K41" s="80" t="s">
         <v>315</v>
       </c>
-      <c r="L41" s="242">
+      <c r="L41" s="247">
         <v>0.20368</v>
       </c>
-      <c r="M41" s="242"/>
-      <c r="N41" s="242">
+      <c r="M41" s="247"/>
+      <c r="N41" s="247">
         <v>0.33767000000000003</v>
       </c>
-      <c r="O41" s="242"/>
+      <c r="O41" s="247"/>
       <c r="P41" s="81"/>
       <c r="Q41" s="81"/>
       <c r="R41" s="81"/>
       <c r="S41" s="81"/>
-      <c r="T41" s="246"/>
-      <c r="U41" s="247"/>
+      <c r="T41" s="240"/>
+      <c r="U41" s="242"/>
       <c r="W41" t="s">
         <v>247</v>
       </c>
@@ -24128,14 +24128,14 @@
       <c r="B42" s="88"/>
       <c r="C42" s="88"/>
       <c r="D42" s="88"/>
-      <c r="E42" s="243">
+      <c r="E42" s="251">
         <v>0.89815999999999996</v>
       </c>
-      <c r="F42" s="243"/>
+      <c r="F42" s="251"/>
       <c r="G42" s="88"/>
       <c r="H42" s="88"/>
-      <c r="I42" s="244"/>
-      <c r="J42" s="245"/>
+      <c r="I42" s="243"/>
+      <c r="J42" s="244"/>
       <c r="K42" s="87" t="s">
         <v>317</v>
       </c>
@@ -24143,14 +24143,14 @@
       <c r="M42" s="88"/>
       <c r="N42" s="88"/>
       <c r="O42" s="88"/>
-      <c r="P42" s="243">
+      <c r="P42" s="251">
         <v>0.89815999999999996</v>
       </c>
-      <c r="Q42" s="243"/>
+      <c r="Q42" s="251"/>
       <c r="R42" s="88"/>
       <c r="S42" s="88"/>
-      <c r="T42" s="244"/>
-      <c r="U42" s="245"/>
+      <c r="T42" s="243"/>
+      <c r="U42" s="244"/>
       <c r="AC42" t="s">
         <v>450</v>
       </c>
@@ -24166,8 +24166,8 @@
         <v>0.57364000000000004</v>
       </c>
       <c r="H43" s="88"/>
-      <c r="I43" s="244"/>
-      <c r="J43" s="245"/>
+      <c r="I43" s="243"/>
+      <c r="J43" s="244"/>
       <c r="K43" s="87" t="s">
         <v>319</v>
       </c>
@@ -24181,8 +24181,8 @@
         <v>0.6670232558139535</v>
       </c>
       <c r="S43" s="88"/>
-      <c r="T43" s="244"/>
-      <c r="U43" s="245"/>
+      <c r="T43" s="243"/>
+      <c r="U43" s="244"/>
       <c r="W43" t="s">
         <v>256</v>
       </c>
@@ -24201,10 +24201,10 @@
         <v>0.26422000000000001</v>
       </c>
       <c r="H44" s="85"/>
-      <c r="I44" s="248">
+      <c r="I44" s="245">
         <v>0.2399</v>
       </c>
-      <c r="J44" s="249"/>
+      <c r="J44" s="246"/>
       <c r="K44" s="84" t="s">
         <v>321</v>
       </c>
@@ -24218,11 +24218,11 @@
         <v>0.30723255813953487</v>
       </c>
       <c r="S44" s="85"/>
-      <c r="T44" s="248">
+      <c r="T44" s="245">
         <f>23.99%*1.06</f>
         <v>0.25429399999999996</v>
       </c>
-      <c r="U44" s="249"/>
+      <c r="U44" s="246"/>
       <c r="W44" t="s">
         <v>258</v>
       </c>
@@ -24235,16 +24235,16 @@
         <v>0.34708</v>
       </c>
       <c r="B45" s="92"/>
-      <c r="C45" s="242">
+      <c r="C45" s="247">
         <v>0.20830000000000001</v>
       </c>
-      <c r="D45" s="242"/>
+      <c r="D45" s="247"/>
       <c r="E45" s="81"/>
       <c r="F45" s="81"/>
       <c r="G45" s="81"/>
       <c r="H45" s="81"/>
-      <c r="I45" s="246"/>
-      <c r="J45" s="247"/>
+      <c r="I45" s="240"/>
+      <c r="J45" s="242"/>
       <c r="K45" s="80" t="s">
         <v>322</v>
       </c>
@@ -24252,16 +24252,16 @@
         <v>0.34708</v>
       </c>
       <c r="M45" s="92"/>
-      <c r="N45" s="242">
+      <c r="N45" s="247">
         <v>0.20830000000000001</v>
       </c>
-      <c r="O45" s="242"/>
+      <c r="O45" s="247"/>
       <c r="P45" s="81"/>
       <c r="Q45" s="81"/>
       <c r="R45" s="81"/>
       <c r="S45" s="81"/>
-      <c r="T45" s="246"/>
-      <c r="U45" s="247"/>
+      <c r="T45" s="240"/>
+      <c r="U45" s="242"/>
       <c r="AC45" t="s">
         <v>453</v>
       </c>
@@ -24271,14 +24271,14 @@
       <c r="B46" s="88"/>
       <c r="C46" s="88"/>
       <c r="D46" s="88"/>
-      <c r="E46" s="243">
+      <c r="E46" s="251">
         <v>0.52559999999999996</v>
       </c>
-      <c r="F46" s="243"/>
+      <c r="F46" s="251"/>
       <c r="G46" s="88"/>
       <c r="H46" s="88"/>
-      <c r="I46" s="244"/>
-      <c r="J46" s="245"/>
+      <c r="I46" s="243"/>
+      <c r="J46" s="244"/>
       <c r="K46" s="87" t="s">
         <v>323</v>
       </c>
@@ -24286,14 +24286,14 @@
       <c r="M46" s="88"/>
       <c r="N46" s="88"/>
       <c r="O46" s="88"/>
-      <c r="P46" s="243">
+      <c r="P46" s="251">
         <v>0.52559999999999996</v>
       </c>
-      <c r="Q46" s="243"/>
+      <c r="Q46" s="251"/>
       <c r="R46" s="88"/>
       <c r="S46" s="88"/>
-      <c r="T46" s="244"/>
-      <c r="U46" s="245"/>
+      <c r="T46" s="243"/>
+      <c r="U46" s="244"/>
       <c r="W46" t="s">
         <v>373</v>
       </c>
@@ -24312,8 +24312,8 @@
         <v>0.84328000000000003</v>
       </c>
       <c r="H47" s="88"/>
-      <c r="I47" s="244"/>
-      <c r="J47" s="245"/>
+      <c r="I47" s="243"/>
+      <c r="J47" s="244"/>
       <c r="K47" s="87" t="s">
         <v>324</v>
       </c>
@@ -24327,8 +24327,8 @@
         <v>0.85308558139534874</v>
       </c>
       <c r="S47" s="88"/>
-      <c r="T47" s="244"/>
-      <c r="U47" s="245"/>
+      <c r="T47" s="243"/>
+      <c r="U47" s="244"/>
     </row>
     <row r="48" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="85"/>
@@ -24341,10 +24341,10 @@
         <v>0.23543</v>
       </c>
       <c r="H48" s="85"/>
-      <c r="I48" s="248">
+      <c r="I48" s="245">
         <v>0.13220000000000001</v>
       </c>
-      <c r="J48" s="249"/>
+      <c r="J48" s="246"/>
       <c r="K48" s="84" t="s">
         <v>326</v>
       </c>
@@ -24358,11 +24358,11 @@
         <v>0.27375581395348836</v>
       </c>
       <c r="S48" s="85"/>
-      <c r="T48" s="248">
+      <c r="T48" s="245">
         <f>13.22%*1.16</f>
         <v>0.15335200000000002</v>
       </c>
-      <c r="U48" s="249"/>
+      <c r="U48" s="246"/>
       <c r="W48" t="s">
         <v>455</v>
       </c>
@@ -24375,14 +24375,14 @@
       <c r="B49" s="94"/>
       <c r="C49" s="94"/>
       <c r="D49" s="94"/>
-      <c r="E49" s="250">
+      <c r="E49" s="248">
         <v>0.43773000000000001</v>
       </c>
-      <c r="F49" s="250"/>
+      <c r="F49" s="248"/>
       <c r="G49" s="94"/>
       <c r="H49" s="94"/>
-      <c r="I49" s="251"/>
-      <c r="J49" s="252"/>
+      <c r="I49" s="249"/>
+      <c r="J49" s="250"/>
       <c r="K49" s="93" t="s">
         <v>367</v>
       </c>
@@ -24390,14 +24390,14 @@
       <c r="M49" s="94"/>
       <c r="N49" s="94"/>
       <c r="O49" s="94"/>
-      <c r="P49" s="250">
+      <c r="P49" s="248">
         <v>0.43773000000000001</v>
       </c>
-      <c r="Q49" s="250"/>
+      <c r="Q49" s="248"/>
       <c r="R49" s="94"/>
       <c r="S49" s="94"/>
-      <c r="T49" s="251"/>
-      <c r="U49" s="252"/>
+      <c r="T49" s="249"/>
+      <c r="U49" s="250"/>
       <c r="V49" s="40"/>
       <c r="W49" t="s">
         <v>457</v>
@@ -24408,16 +24408,16 @@
         <v>0.47361999999999999</v>
       </c>
       <c r="B50" s="92"/>
-      <c r="C50" s="242">
+      <c r="C50" s="247">
         <v>0.28101999999999999</v>
       </c>
-      <c r="D50" s="242"/>
+      <c r="D50" s="247"/>
       <c r="E50" s="81"/>
       <c r="F50" s="81"/>
       <c r="G50" s="81"/>
       <c r="H50" s="81"/>
-      <c r="I50" s="246"/>
-      <c r="J50" s="247"/>
+      <c r="I50" s="240"/>
+      <c r="J50" s="242"/>
       <c r="K50" s="80" t="s">
         <v>328</v>
       </c>
@@ -24425,23 +24425,23 @@
         <v>0.47361999999999999</v>
       </c>
       <c r="M50" s="92"/>
-      <c r="N50" s="242">
+      <c r="N50" s="247">
         <v>0.28101999999999999</v>
       </c>
-      <c r="O50" s="242"/>
+      <c r="O50" s="247"/>
       <c r="P50" s="81"/>
       <c r="Q50" s="81"/>
       <c r="R50" s="81"/>
       <c r="S50" s="81"/>
-      <c r="T50" s="246"/>
-      <c r="U50" s="247"/>
+      <c r="T50" s="240"/>
+      <c r="U50" s="242"/>
       <c r="W50" t="s">
         <v>458</v>
       </c>
-      <c r="AC50" s="258" t="s">
+      <c r="AC50" s="256" t="s">
         <v>251</v>
       </c>
-      <c r="AD50" s="258"/>
+      <c r="AD50" s="256"/>
     </row>
     <row r="51" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A51" s="88"/>
@@ -24454,8 +24454,8 @@
         <v>0.71950000000000003</v>
       </c>
       <c r="H51" s="88"/>
-      <c r="I51" s="244"/>
-      <c r="J51" s="245"/>
+      <c r="I51" s="243"/>
+      <c r="J51" s="244"/>
       <c r="K51" s="87" t="s">
         <v>329</v>
       </c>
@@ -24469,8 +24469,8 @@
         <v>0.66930232558139535</v>
       </c>
       <c r="S51" s="88"/>
-      <c r="T51" s="244"/>
-      <c r="U51" s="245"/>
+      <c r="T51" s="243"/>
+      <c r="U51" s="244"/>
       <c r="W51" t="s">
         <v>459</v>
       </c>
@@ -24486,10 +24486,10 @@
         <v>0.20451</v>
       </c>
       <c r="H52" s="85"/>
-      <c r="I52" s="248">
+      <c r="I52" s="245">
         <v>9.1600000000000001E-2</v>
       </c>
-      <c r="J52" s="249"/>
+      <c r="J52" s="246"/>
       <c r="K52" s="84" t="s">
         <v>331</v>
       </c>
@@ -24503,10 +24503,10 @@
         <v>0.23780232558139536</v>
       </c>
       <c r="S52" s="85"/>
-      <c r="T52" s="248">
+      <c r="T52" s="245">
         <v>9.1600000000000001E-2</v>
       </c>
-      <c r="U52" s="249"/>
+      <c r="U52" s="246"/>
       <c r="W52" t="s">
         <v>460</v>
       </c>
@@ -24519,16 +24519,16 @@
         <v>0.17321</v>
       </c>
       <c r="B53" s="92"/>
-      <c r="C53" s="242">
+      <c r="C53" s="247">
         <v>9.2929999999999999E-2</v>
       </c>
-      <c r="D53" s="242"/>
+      <c r="D53" s="247"/>
       <c r="E53" s="81"/>
       <c r="F53" s="81"/>
       <c r="G53" s="81"/>
       <c r="H53" s="81"/>
-      <c r="I53" s="246"/>
-      <c r="J53" s="247"/>
+      <c r="I53" s="240"/>
+      <c r="J53" s="242"/>
       <c r="K53" s="80" t="s">
         <v>333</v>
       </c>
@@ -24536,17 +24536,17 @@
         <v>0.17321</v>
       </c>
       <c r="M53" s="92"/>
-      <c r="N53" s="242">
+      <c r="N53" s="247">
         <f>9.293%*0.8</f>
         <v>7.4344000000000007E-2</v>
       </c>
-      <c r="O53" s="242"/>
+      <c r="O53" s="247"/>
       <c r="P53" s="81"/>
       <c r="Q53" s="81"/>
       <c r="R53" s="81"/>
       <c r="S53" s="81"/>
-      <c r="T53" s="246"/>
-      <c r="U53" s="247"/>
+      <c r="T53" s="240"/>
+      <c r="U53" s="242"/>
       <c r="W53" t="s">
         <v>461</v>
       </c>
@@ -24565,8 +24565,8 @@
         <v>1</v>
       </c>
       <c r="H54" s="88"/>
-      <c r="I54" s="244"/>
-      <c r="J54" s="245"/>
+      <c r="I54" s="243"/>
+      <c r="J54" s="244"/>
       <c r="K54" s="87" t="s">
         <v>335</v>
       </c>
@@ -24580,8 +24580,8 @@
         <v>1</v>
       </c>
       <c r="S54" s="88"/>
-      <c r="T54" s="244"/>
-      <c r="U54" s="245"/>
+      <c r="T54" s="243"/>
+      <c r="U54" s="244"/>
       <c r="W54" t="s">
         <v>462</v>
       </c>
@@ -24600,10 +24600,10 @@
         <v>0.26967000000000002</v>
       </c>
       <c r="H55" s="85"/>
-      <c r="I55" s="248">
+      <c r="I55" s="245">
         <v>0.1535</v>
       </c>
-      <c r="J55" s="249"/>
+      <c r="J55" s="246"/>
       <c r="K55" s="84" t="s">
         <v>337</v>
       </c>
@@ -24617,10 +24617,10 @@
         <v>0.31356976744186049</v>
       </c>
       <c r="S55" s="85"/>
-      <c r="T55" s="248">
+      <c r="T55" s="245">
         <v>0.1535</v>
       </c>
-      <c r="U55" s="249"/>
+      <c r="U55" s="246"/>
       <c r="V55" s="40"/>
       <c r="W55" t="s">
         <v>463</v>
@@ -24631,14 +24631,14 @@
       <c r="B56" s="94"/>
       <c r="C56" s="94"/>
       <c r="D56" s="94"/>
-      <c r="E56" s="250">
+      <c r="E56" s="248">
         <v>0.43773000000000001</v>
       </c>
-      <c r="F56" s="250"/>
+      <c r="F56" s="248"/>
       <c r="G56" s="94"/>
       <c r="H56" s="94"/>
-      <c r="I56" s="251"/>
-      <c r="J56" s="252"/>
+      <c r="I56" s="249"/>
+      <c r="J56" s="250"/>
       <c r="K56" s="93" t="s">
         <v>368</v>
       </c>
@@ -24646,15 +24646,15 @@
       <c r="M56" s="94"/>
       <c r="N56" s="94"/>
       <c r="O56" s="94"/>
-      <c r="P56" s="250">
+      <c r="P56" s="248">
         <f>43.773%*0.8</f>
         <v>0.35018400000000005</v>
       </c>
-      <c r="Q56" s="250"/>
+      <c r="Q56" s="248"/>
       <c r="R56" s="94"/>
       <c r="S56" s="94"/>
-      <c r="T56" s="251"/>
-      <c r="U56" s="252"/>
+      <c r="T56" s="249"/>
+      <c r="U56" s="250"/>
       <c r="V56" s="40"/>
       <c r="W56" t="s">
         <v>464</v>
@@ -24668,16 +24668,16 @@
         <v>0.28996</v>
       </c>
       <c r="B57" s="92"/>
-      <c r="C57" s="242">
+      <c r="C57" s="247">
         <v>0.25344</v>
       </c>
-      <c r="D57" s="242"/>
+      <c r="D57" s="247"/>
       <c r="E57" s="81"/>
       <c r="F57" s="81"/>
       <c r="G57" s="81"/>
       <c r="H57" s="81"/>
-      <c r="I57" s="246"/>
-      <c r="J57" s="247"/>
+      <c r="I57" s="240"/>
+      <c r="J57" s="242"/>
       <c r="K57" s="80" t="s">
         <v>340</v>
       </c>
@@ -24685,16 +24685,16 @@
         <v>0.28996</v>
       </c>
       <c r="M57" s="92"/>
-      <c r="N57" s="242">
+      <c r="N57" s="247">
         <v>0.25344</v>
       </c>
-      <c r="O57" s="242"/>
+      <c r="O57" s="247"/>
       <c r="P57" s="81"/>
       <c r="Q57" s="81"/>
       <c r="R57" s="81"/>
       <c r="S57" s="81"/>
-      <c r="T57" s="246"/>
-      <c r="U57" s="247"/>
+      <c r="T57" s="240"/>
+      <c r="U57" s="242"/>
       <c r="V57" s="40"/>
       <c r="W57" t="s">
         <v>466</v>
@@ -24705,14 +24705,14 @@
       <c r="B58" s="88"/>
       <c r="C58" s="88"/>
       <c r="D58" s="88"/>
-      <c r="E58" s="243">
+      <c r="E58" s="251">
         <v>0.65949000000000002</v>
       </c>
-      <c r="F58" s="243"/>
+      <c r="F58" s="251"/>
       <c r="G58" s="88"/>
       <c r="H58" s="88"/>
-      <c r="I58" s="244"/>
-      <c r="J58" s="245"/>
+      <c r="I58" s="243"/>
+      <c r="J58" s="244"/>
       <c r="K58" s="87" t="s">
         <v>342</v>
       </c>
@@ -24720,15 +24720,15 @@
       <c r="M58" s="88"/>
       <c r="N58" s="88"/>
       <c r="O58" s="88"/>
-      <c r="P58" s="243">
+      <c r="P58" s="251">
         <f>65.949%*1.1</f>
         <v>0.72543900000000006</v>
       </c>
-      <c r="Q58" s="243"/>
+      <c r="Q58" s="251"/>
       <c r="R58" s="88"/>
       <c r="S58" s="88"/>
-      <c r="T58" s="244"/>
-      <c r="U58" s="245"/>
+      <c r="T58" s="243"/>
+      <c r="U58" s="244"/>
       <c r="V58" s="40"/>
       <c r="W58" t="s">
         <v>467</v>
@@ -24748,8 +24748,8 @@
         <v>0.56411</v>
       </c>
       <c r="H59" s="88"/>
-      <c r="I59" s="244"/>
-      <c r="J59" s="245"/>
+      <c r="I59" s="243"/>
+      <c r="J59" s="244"/>
       <c r="K59" s="87" t="s">
         <v>344</v>
       </c>
@@ -24763,8 +24763,8 @@
         <v>0.70185779069767451</v>
       </c>
       <c r="S59" s="88"/>
-      <c r="T59" s="244"/>
-      <c r="U59" s="245"/>
+      <c r="T59" s="243"/>
+      <c r="U59" s="244"/>
       <c r="V59" s="40"/>
       <c r="W59" t="s">
         <v>468</v>
@@ -24781,10 +24781,10 @@
         <v>0.14326</v>
       </c>
       <c r="H60" s="85"/>
-      <c r="I60" s="248">
+      <c r="I60" s="245">
         <v>0.17191999999999999</v>
       </c>
-      <c r="J60" s="249"/>
+      <c r="J60" s="246"/>
       <c r="K60" s="84" t="s">
         <v>346</v>
       </c>
@@ -24798,11 +24798,11 @@
         <v>0.2082267441860465</v>
       </c>
       <c r="S60" s="85"/>
-      <c r="T60" s="248">
+      <c r="T60" s="245">
         <f>17.192%</f>
         <v>0.17191999999999999</v>
       </c>
-      <c r="U60" s="249"/>
+      <c r="U60" s="246"/>
       <c r="V60" s="40"/>
       <c r="W60" t="s">
         <v>469</v>
@@ -24822,8 +24822,8 @@
         <v>0.19162000000000001</v>
       </c>
       <c r="H61" s="81"/>
-      <c r="I61" s="246"/>
-      <c r="J61" s="247"/>
+      <c r="I61" s="240"/>
+      <c r="J61" s="242"/>
       <c r="K61" s="80" t="s">
         <v>348</v>
       </c>
@@ -24837,8 +24837,8 @@
         <v>0.22281395348837213</v>
       </c>
       <c r="S61" s="81"/>
-      <c r="T61" s="246"/>
-      <c r="U61" s="247"/>
+      <c r="T61" s="240"/>
+      <c r="U61" s="242"/>
       <c r="V61" s="40"/>
       <c r="W61" t="s">
         <v>471</v>
@@ -24858,8 +24858,8 @@
         <v>0.49523</v>
       </c>
       <c r="H62" s="88"/>
-      <c r="I62" s="244"/>
-      <c r="J62" s="245"/>
+      <c r="I62" s="243"/>
+      <c r="J62" s="244"/>
       <c r="K62" s="87" t="s">
         <v>349</v>
       </c>
@@ -24873,8 +24873,8 @@
         <v>0.57584883720930236</v>
       </c>
       <c r="S62" s="88"/>
-      <c r="T62" s="244"/>
-      <c r="U62" s="245"/>
+      <c r="T62" s="243"/>
+      <c r="U62" s="244"/>
       <c r="V62" s="40"/>
       <c r="W62" t="s">
         <v>473</v>
@@ -24901,10 +24901,10 @@
       <c r="M63" s="88"/>
       <c r="N63" s="88"/>
       <c r="O63" s="88"/>
-      <c r="P63" s="246">
+      <c r="P63" s="240">
         <v>0.15</v>
       </c>
-      <c r="Q63" s="255"/>
+      <c r="Q63" s="241"/>
       <c r="R63" s="88"/>
       <c r="S63" s="88"/>
       <c r="T63" s="108"/>
@@ -24928,10 +24928,10 @@
         <v>0.47439999999999999</v>
       </c>
       <c r="H64" s="88"/>
-      <c r="I64" s="244">
+      <c r="I64" s="243">
         <v>0.60697000000000001</v>
       </c>
-      <c r="J64" s="245"/>
+      <c r="J64" s="244"/>
       <c r="K64" s="87" t="s">
         <v>350</v>
       </c>
@@ -24945,10 +24945,10 @@
         <v>0.55162790697674413</v>
       </c>
       <c r="S64" s="88"/>
-      <c r="T64" s="244">
+      <c r="T64" s="243">
         <v>0.60697000000000001</v>
       </c>
-      <c r="U64" s="245"/>
+      <c r="U64" s="244"/>
       <c r="V64" s="40"/>
       <c r="W64" t="s">
         <v>477</v>
@@ -24968,10 +24968,10 @@
         <v>0.16774</v>
       </c>
       <c r="H65" s="85"/>
-      <c r="I65" s="248">
+      <c r="I65" s="245">
         <v>0.24779999999999999</v>
       </c>
-      <c r="J65" s="249"/>
+      <c r="J65" s="246"/>
       <c r="K65" s="84" t="s">
         <v>351</v>
       </c>
@@ -24985,10 +24985,10 @@
         <v>0.19504651162790698</v>
       </c>
       <c r="S65" s="85"/>
-      <c r="T65" s="248">
+      <c r="T65" s="245">
         <v>0.24779999999999999</v>
       </c>
-      <c r="U65" s="249"/>
+      <c r="U65" s="246"/>
       <c r="V65" s="40"/>
       <c r="W65" t="s">
         <v>479</v>
@@ -25002,14 +25002,14 @@
       <c r="B66" s="81"/>
       <c r="C66" s="81"/>
       <c r="D66" s="81"/>
-      <c r="E66" s="246">
+      <c r="E66" s="240">
         <v>0.45617999999999997</v>
       </c>
-      <c r="F66" s="255"/>
+      <c r="F66" s="241"/>
       <c r="G66" s="81"/>
       <c r="H66" s="81"/>
-      <c r="I66" s="246"/>
-      <c r="J66" s="247"/>
+      <c r="I66" s="240"/>
+      <c r="J66" s="242"/>
       <c r="K66" s="80" t="s">
         <v>352</v>
       </c>
@@ -25017,14 +25017,14 @@
       <c r="M66" s="81"/>
       <c r="N66" s="81"/>
       <c r="O66" s="81"/>
-      <c r="P66" s="246">
+      <c r="P66" s="240">
         <v>0.45617999999999997</v>
       </c>
-      <c r="Q66" s="255"/>
+      <c r="Q66" s="241"/>
       <c r="R66" s="81"/>
       <c r="S66" s="81"/>
-      <c r="T66" s="246"/>
-      <c r="U66" s="247"/>
+      <c r="T66" s="240"/>
+      <c r="U66" s="242"/>
       <c r="V66" s="40"/>
       <c r="W66" t="s">
         <v>481</v>
@@ -25044,10 +25044,10 @@
         <v>0.28649999999999998</v>
       </c>
       <c r="H67" s="88"/>
-      <c r="I67" s="244">
+      <c r="I67" s="243">
         <v>0.80176999999999998</v>
       </c>
-      <c r="J67" s="245"/>
+      <c r="J67" s="244"/>
       <c r="K67" s="87" t="s">
         <v>353</v>
       </c>
@@ -25061,10 +25061,10 @@
         <v>0.33313953488372089</v>
       </c>
       <c r="S67" s="88"/>
-      <c r="T67" s="244">
+      <c r="T67" s="243">
         <v>0.50800000000000001</v>
       </c>
-      <c r="U67" s="245"/>
+      <c r="U67" s="244"/>
       <c r="V67" s="40"/>
       <c r="AC67" t="s">
         <v>483</v>
@@ -25081,10 +25081,10 @@
         <v>0.20932000000000001</v>
       </c>
       <c r="H68" s="88"/>
-      <c r="I68" s="244">
+      <c r="I68" s="243">
         <v>0.50775999999999999</v>
       </c>
-      <c r="J68" s="245"/>
+      <c r="J68" s="244"/>
       <c r="K68" s="87" t="s">
         <v>355</v>
       </c>
@@ -25098,10 +25098,10 @@
         <v>0.24339534883720934</v>
       </c>
       <c r="S68" s="88"/>
-      <c r="T68" s="244">
+      <c r="T68" s="243">
         <v>0.50775999999999999</v>
       </c>
-      <c r="U68" s="245"/>
+      <c r="U68" s="244"/>
       <c r="V68" s="40"/>
       <c r="AC68" t="s">
         <v>484</v>
@@ -25118,8 +25118,8 @@
         <v>0.14599000000000001</v>
       </c>
       <c r="H69" s="88"/>
-      <c r="I69" s="244"/>
-      <c r="J69" s="245"/>
+      <c r="I69" s="243"/>
+      <c r="J69" s="244"/>
       <c r="K69" s="87" t="s">
         <v>356</v>
       </c>
@@ -25133,13 +25133,13 @@
         <v>0.16975581395348838</v>
       </c>
       <c r="S69" s="88"/>
-      <c r="T69" s="244"/>
-      <c r="U69" s="245"/>
+      <c r="T69" s="243"/>
+      <c r="U69" s="244"/>
       <c r="V69" s="40"/>
-      <c r="W69" s="258" t="s">
+      <c r="W69" s="256" t="s">
         <v>236</v>
       </c>
-      <c r="X69" s="258"/>
+      <c r="X69" s="256"/>
       <c r="AC69" t="s">
         <v>485</v>
       </c>
@@ -25155,10 +25155,10 @@
         <v>0.12414</v>
       </c>
       <c r="H70" s="85"/>
-      <c r="I70" s="248">
+      <c r="I70" s="245">
         <v>0.61785000000000001</v>
       </c>
-      <c r="J70" s="249"/>
+      <c r="J70" s="246"/>
       <c r="K70" s="84" t="s">
         <v>357</v>
       </c>
@@ -25172,10 +25172,10 @@
         <v>0.14434883720930233</v>
       </c>
       <c r="S70" s="85"/>
-      <c r="T70" s="248">
+      <c r="T70" s="245">
         <v>0.61785000000000001</v>
       </c>
-      <c r="U70" s="249"/>
+      <c r="U70" s="246"/>
       <c r="V70" s="40"/>
       <c r="AC70" t="s">
         <v>486</v>
@@ -25192,10 +25192,10 @@
         <v>0.23763000000000001</v>
       </c>
       <c r="H71" s="81"/>
-      <c r="I71" s="246">
+      <c r="I71" s="240">
         <v>1</v>
       </c>
-      <c r="J71" s="247"/>
+      <c r="J71" s="242"/>
       <c r="K71" s="80" t="s">
         <v>358</v>
       </c>
@@ -25209,10 +25209,10 @@
         <v>0.27631395348837212</v>
       </c>
       <c r="S71" s="81"/>
-      <c r="T71" s="246">
+      <c r="T71" s="240">
         <v>1</v>
       </c>
-      <c r="U71" s="247"/>
+      <c r="U71" s="242"/>
       <c r="V71" s="40"/>
       <c r="W71" t="s">
         <v>282</v>
@@ -25239,10 +25239,10 @@
       <c r="M72" s="110"/>
       <c r="N72" s="110"/>
       <c r="O72" s="110"/>
-      <c r="P72" s="246">
+      <c r="P72" s="240">
         <v>0.25</v>
       </c>
-      <c r="Q72" s="255"/>
+      <c r="Q72" s="241"/>
       <c r="R72" s="110"/>
       <c r="S72" s="110"/>
       <c r="T72" s="111"/>
@@ -25266,8 +25266,8 @@
         <v>0.17316000000000001</v>
       </c>
       <c r="H73" s="88"/>
-      <c r="I73" s="244"/>
-      <c r="J73" s="245"/>
+      <c r="I73" s="243"/>
+      <c r="J73" s="244"/>
       <c r="K73" s="87" t="s">
         <v>359</v>
       </c>
@@ -25281,8 +25281,8 @@
         <v>0.20134883720930236</v>
       </c>
       <c r="S73" s="88"/>
-      <c r="T73" s="244"/>
-      <c r="U73" s="245"/>
+      <c r="T73" s="243"/>
+      <c r="U73" s="244"/>
       <c r="V73" s="40"/>
       <c r="W73" t="s">
         <v>288</v>
@@ -25302,10 +25302,10 @@
         <v>0.12317</v>
       </c>
       <c r="H74" s="85"/>
-      <c r="I74" s="248">
+      <c r="I74" s="245">
         <v>0.33643600000000001</v>
       </c>
-      <c r="J74" s="249"/>
+      <c r="J74" s="246"/>
       <c r="K74" s="84" t="s">
         <v>360</v>
       </c>
@@ -25319,10 +25319,10 @@
         <v>0.14322093023255814</v>
       </c>
       <c r="S74" s="85"/>
-      <c r="T74" s="248">
+      <c r="T74" s="245">
         <v>0.33643600000000001</v>
       </c>
-      <c r="U74" s="249"/>
+      <c r="U74" s="246"/>
       <c r="V74" s="40"/>
       <c r="AC74" t="s">
         <v>490</v>
@@ -25339,10 +25339,10 @@
         <v>0.20199</v>
       </c>
       <c r="H75" s="81"/>
-      <c r="I75" s="246">
+      <c r="I75" s="240">
         <v>0.85</v>
       </c>
-      <c r="J75" s="247"/>
+      <c r="J75" s="242"/>
       <c r="K75" s="80" t="s">
         <v>361</v>
       </c>
@@ -25356,10 +25356,10 @@
         <v>0.23487209302325585</v>
       </c>
       <c r="S75" s="81"/>
-      <c r="T75" s="246">
+      <c r="T75" s="240">
         <v>0.85</v>
       </c>
-      <c r="U75" s="247"/>
+      <c r="U75" s="242"/>
       <c r="V75" s="40"/>
       <c r="W75" t="s">
         <v>293</v>
@@ -25379,8 +25379,8 @@
         <v>0.17718999999999999</v>
       </c>
       <c r="H76" s="88"/>
-      <c r="I76" s="244"/>
-      <c r="J76" s="245"/>
+      <c r="I76" s="243"/>
+      <c r="J76" s="244"/>
       <c r="K76" s="87" t="s">
         <v>362</v>
       </c>
@@ -25394,8 +25394,8 @@
         <v>0.20603488372093021</v>
       </c>
       <c r="S76" s="88"/>
-      <c r="T76" s="244"/>
-      <c r="U76" s="245"/>
+      <c r="T76" s="243"/>
+      <c r="U76" s="244"/>
       <c r="V76" s="40"/>
       <c r="W76" t="s">
         <v>296</v>
@@ -25415,10 +25415,10 @@
         <v>0.1047</v>
       </c>
       <c r="H77" s="100"/>
-      <c r="I77" s="253">
+      <c r="I77" s="238">
         <v>0.28591</v>
       </c>
-      <c r="J77" s="254"/>
+      <c r="J77" s="239"/>
       <c r="K77" s="99" t="s">
         <v>363</v>
       </c>
@@ -25432,10 +25432,10 @@
         <v>0.12174418604651163</v>
       </c>
       <c r="S77" s="100"/>
-      <c r="T77" s="253">
+      <c r="T77" s="238">
         <v>0.28591</v>
       </c>
-      <c r="U77" s="254"/>
+      <c r="U77" s="239"/>
       <c r="V77" s="40"/>
       <c r="AC77" t="s">
         <v>493</v>
@@ -25536,6 +25536,192 @@
     </row>
   </sheetData>
   <mergeCells count="210">
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="T45:U45"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="T48:U48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="T46:U46"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="T47:U47"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="T53:U53"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="T51:U51"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="T57:U57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="T58:U58"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="T54:U54"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="T55:U55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="T56:U56"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="T66:U66"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="T67:U67"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="T62:U62"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="T64:U64"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="T65:U65"/>
+    <mergeCell ref="I77:J77"/>
+    <mergeCell ref="T77:U77"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="T71:U71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="I73:J73"/>
+    <mergeCell ref="T73:U73"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="T74:U74"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="W37:X37"/>
@@ -25560,192 +25746,6 @@
     <mergeCell ref="I52:J52"/>
     <mergeCell ref="T52:U52"/>
     <mergeCell ref="I48:J48"/>
-    <mergeCell ref="I77:J77"/>
-    <mergeCell ref="T77:U77"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="T71:U71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="I73:J73"/>
-    <mergeCell ref="T73:U73"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="T74:U74"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="T66:U66"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="T67:U67"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="T62:U62"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="T64:U64"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="T65:U65"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="T57:U57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="T58:U58"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="T54:U54"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="T55:U55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="T56:U56"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="T53:U53"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="T50:U50"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="T51:U51"/>
-    <mergeCell ref="T48:U48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="T46:U46"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="T47:U47"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="T45:U45"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="T42:U42"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="T43:U43"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="T41:U41"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="T39:U39"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="T40:U40"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="T36:U36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:J48 A50:J77">
     <cfRule type="cellIs" dxfId="21" priority="13" operator="between">
@@ -61030,8 +61030,8 @@
   </sheetPr>
   <dimension ref="A1:W38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y13" sqref="Y13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -63162,10 +63162,10 @@
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21:O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -63366,15 +63366,9 @@
         <v>230</v>
       </c>
     </row>
-    <row r="17" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N17" s="70" t="s">
         <v>231</v>
-      </c>
-    </row>
-    <row r="23" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="O23">
-        <f>18636/1.047</f>
-        <v>17799.426934097421</v>
       </c>
     </row>
   </sheetData>
@@ -65356,460 +65350,460 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="230" t="s">
+      <c r="A4" s="234" t="s">
         <v>1130</v>
       </c>
-      <c r="B4" s="230" t="s">
+      <c r="B4" s="234" t="s">
         <v>1131</v>
       </c>
-      <c r="C4" s="230" t="s">
+      <c r="C4" s="234" t="s">
         <v>1132</v>
       </c>
-      <c r="D4" s="230" t="s">
+      <c r="D4" s="234" t="s">
         <v>1133</v>
       </c>
-      <c r="E4" s="232" t="s">
+      <c r="E4" s="236" t="s">
         <v>1134</v>
       </c>
-      <c r="F4" s="230" t="s">
+      <c r="F4" s="234" t="s">
         <v>1135</v>
       </c>
-      <c r="G4" s="230" t="s">
+      <c r="G4" s="234" t="s">
         <v>1136</v>
       </c>
-      <c r="H4" s="230" t="s">
+      <c r="H4" s="234" t="s">
         <v>1137</v>
       </c>
-      <c r="I4" s="230" t="s">
+      <c r="I4" s="234" t="s">
         <v>1138</v>
       </c>
-      <c r="J4" s="232" t="s">
+      <c r="J4" s="236" t="s">
         <v>1139</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="231"/>
-      <c r="B5" s="231"/>
-      <c r="C5" s="231"/>
-      <c r="D5" s="231"/>
-      <c r="E5" s="233"/>
-      <c r="F5" s="231"/>
-      <c r="G5" s="231"/>
-      <c r="H5" s="231"/>
-      <c r="I5" s="231"/>
-      <c r="J5" s="233"/>
+      <c r="A5" s="235"/>
+      <c r="B5" s="235"/>
+      <c r="C5" s="235"/>
+      <c r="D5" s="235"/>
+      <c r="E5" s="237"/>
+      <c r="F5" s="235"/>
+      <c r="G5" s="235"/>
+      <c r="H5" s="235"/>
+      <c r="I5" s="235"/>
+      <c r="J5" s="237"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="230" t="s">
+      <c r="A6" s="234" t="s">
         <v>1140</v>
       </c>
-      <c r="B6" s="234">
+      <c r="B6" s="232">
         <v>3563</v>
       </c>
-      <c r="C6" s="234">
+      <c r="C6" s="232">
         <v>3583</v>
       </c>
-      <c r="D6" s="234">
+      <c r="D6" s="232">
         <v>3689</v>
       </c>
-      <c r="E6" s="236">
+      <c r="E6" s="230">
         <v>3712</v>
       </c>
-      <c r="F6" s="234">
+      <c r="F6" s="232">
         <v>3656</v>
       </c>
-      <c r="G6" s="234">
+      <c r="G6" s="232">
         <v>3751</v>
       </c>
-      <c r="H6" s="234">
+      <c r="H6" s="232">
         <v>3693</v>
       </c>
-      <c r="I6" s="234">
+      <c r="I6" s="232">
         <v>3676</v>
       </c>
-      <c r="J6" s="236">
+      <c r="J6" s="230">
         <v>3638</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="231"/>
-      <c r="B7" s="235"/>
-      <c r="C7" s="235"/>
-      <c r="D7" s="235"/>
-      <c r="E7" s="237"/>
-      <c r="F7" s="235"/>
-      <c r="G7" s="235"/>
-      <c r="H7" s="235"/>
-      <c r="I7" s="235"/>
-      <c r="J7" s="237"/>
+      <c r="A7" s="235"/>
+      <c r="B7" s="233"/>
+      <c r="C7" s="233"/>
+      <c r="D7" s="233"/>
+      <c r="E7" s="231"/>
+      <c r="F7" s="233"/>
+      <c r="G7" s="233"/>
+      <c r="H7" s="233"/>
+      <c r="I7" s="233"/>
+      <c r="J7" s="231"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="230" t="s">
+      <c r="A8" s="234" t="s">
         <v>1141</v>
       </c>
-      <c r="B8" s="234">
+      <c r="B8" s="232">
         <v>2957</v>
       </c>
-      <c r="C8" s="234">
+      <c r="C8" s="232">
         <v>3253</v>
       </c>
-      <c r="D8" s="234">
+      <c r="D8" s="232">
         <v>3342</v>
       </c>
-      <c r="E8" s="236">
+      <c r="E8" s="230">
         <v>3325</v>
       </c>
-      <c r="F8" s="234">
+      <c r="F8" s="232">
         <v>3461</v>
       </c>
-      <c r="G8" s="234">
+      <c r="G8" s="232">
         <v>3392</v>
       </c>
-      <c r="H8" s="234">
+      <c r="H8" s="232">
         <v>3455</v>
       </c>
-      <c r="I8" s="234">
+      <c r="I8" s="232">
         <v>3369</v>
       </c>
-      <c r="J8" s="236">
+      <c r="J8" s="230">
         <v>3372</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="231"/>
-      <c r="B9" s="235"/>
-      <c r="C9" s="235"/>
-      <c r="D9" s="235"/>
-      <c r="E9" s="237"/>
-      <c r="F9" s="235"/>
-      <c r="G9" s="235"/>
-      <c r="H9" s="235"/>
-      <c r="I9" s="235"/>
-      <c r="J9" s="237"/>
+      <c r="A9" s="235"/>
+      <c r="B9" s="233"/>
+      <c r="C9" s="233"/>
+      <c r="D9" s="233"/>
+      <c r="E9" s="231"/>
+      <c r="F9" s="233"/>
+      <c r="G9" s="233"/>
+      <c r="H9" s="233"/>
+      <c r="I9" s="233"/>
+      <c r="J9" s="231"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="230" t="s">
+      <c r="A10" s="234" t="s">
         <v>1142</v>
       </c>
-      <c r="B10" s="234">
+      <c r="B10" s="232">
         <v>2354</v>
       </c>
-      <c r="C10" s="234">
+      <c r="C10" s="232">
         <v>2997</v>
       </c>
-      <c r="D10" s="234">
+      <c r="D10" s="232">
         <v>3041</v>
       </c>
-      <c r="E10" s="236">
+      <c r="E10" s="230">
         <v>3085</v>
       </c>
-      <c r="F10" s="234">
+      <c r="F10" s="232">
         <v>3118</v>
       </c>
-      <c r="G10" s="234">
+      <c r="G10" s="232">
         <v>3100</v>
       </c>
-      <c r="H10" s="234">
+      <c r="H10" s="232">
         <v>3130</v>
       </c>
-      <c r="I10" s="234">
+      <c r="I10" s="232">
         <v>3102</v>
       </c>
-      <c r="J10" s="236">
+      <c r="J10" s="230">
         <v>3098</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="231"/>
-      <c r="B11" s="235"/>
-      <c r="C11" s="235"/>
-      <c r="D11" s="235"/>
-      <c r="E11" s="237"/>
-      <c r="F11" s="235"/>
-      <c r="G11" s="235"/>
-      <c r="H11" s="235"/>
-      <c r="I11" s="235"/>
-      <c r="J11" s="237"/>
+      <c r="A11" s="235"/>
+      <c r="B11" s="233"/>
+      <c r="C11" s="233"/>
+      <c r="D11" s="233"/>
+      <c r="E11" s="231"/>
+      <c r="F11" s="233"/>
+      <c r="G11" s="233"/>
+      <c r="H11" s="233"/>
+      <c r="I11" s="233"/>
+      <c r="J11" s="231"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="230" t="s">
+      <c r="A12" s="234" t="s">
         <v>1143</v>
       </c>
-      <c r="B12" s="234"/>
-      <c r="C12" s="234">
+      <c r="B12" s="232"/>
+      <c r="C12" s="232">
         <v>2361</v>
       </c>
-      <c r="D12" s="234">
+      <c r="D12" s="232">
         <v>2778</v>
       </c>
-      <c r="E12" s="236">
+      <c r="E12" s="230">
         <v>2793</v>
       </c>
-      <c r="F12" s="234">
+      <c r="F12" s="232">
         <v>2808</v>
       </c>
-      <c r="G12" s="234">
+      <c r="G12" s="232">
         <v>2810</v>
       </c>
-      <c r="H12" s="234">
+      <c r="H12" s="232">
         <v>2814</v>
       </c>
-      <c r="I12" s="234">
+      <c r="I12" s="232">
         <v>2795</v>
       </c>
-      <c r="J12" s="236">
+      <c r="J12" s="230">
         <v>2793</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="231"/>
-      <c r="B13" s="235"/>
-      <c r="C13" s="235"/>
-      <c r="D13" s="235"/>
-      <c r="E13" s="237"/>
-      <c r="F13" s="235"/>
-      <c r="G13" s="235"/>
-      <c r="H13" s="235"/>
-      <c r="I13" s="235"/>
-      <c r="J13" s="237"/>
+      <c r="A13" s="235"/>
+      <c r="B13" s="233"/>
+      <c r="C13" s="233"/>
+      <c r="D13" s="233"/>
+      <c r="E13" s="231"/>
+      <c r="F13" s="233"/>
+      <c r="G13" s="233"/>
+      <c r="H13" s="233"/>
+      <c r="I13" s="233"/>
+      <c r="J13" s="231"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="230" t="s">
+      <c r="A14" s="234" t="s">
         <v>1144</v>
       </c>
-      <c r="B14" s="234"/>
-      <c r="C14" s="234"/>
-      <c r="D14" s="234">
+      <c r="B14" s="232"/>
+      <c r="C14" s="232"/>
+      <c r="D14" s="232">
         <v>2241</v>
       </c>
-      <c r="E14" s="236">
+      <c r="E14" s="230">
         <v>2467</v>
       </c>
-      <c r="F14" s="234">
+      <c r="F14" s="232">
         <v>2521</v>
       </c>
-      <c r="G14" s="234">
+      <c r="G14" s="232">
         <v>2507</v>
       </c>
-      <c r="H14" s="234">
+      <c r="H14" s="232">
         <v>2536</v>
       </c>
-      <c r="I14" s="234">
+      <c r="I14" s="232">
         <v>2517</v>
       </c>
-      <c r="J14" s="236">
+      <c r="J14" s="230">
         <v>2525</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="231"/>
-      <c r="B15" s="235"/>
-      <c r="C15" s="235"/>
-      <c r="D15" s="235"/>
-      <c r="E15" s="237"/>
-      <c r="F15" s="235"/>
-      <c r="G15" s="235"/>
-      <c r="H15" s="235"/>
-      <c r="I15" s="235"/>
-      <c r="J15" s="237"/>
+      <c r="A15" s="235"/>
+      <c r="B15" s="233"/>
+      <c r="C15" s="233"/>
+      <c r="D15" s="233"/>
+      <c r="E15" s="231"/>
+      <c r="F15" s="233"/>
+      <c r="G15" s="233"/>
+      <c r="H15" s="233"/>
+      <c r="I15" s="233"/>
+      <c r="J15" s="231"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="230" t="s">
+      <c r="A16" s="234" t="s">
         <v>1145</v>
       </c>
-      <c r="B16" s="234"/>
-      <c r="C16" s="234"/>
-      <c r="D16" s="234"/>
-      <c r="E16" s="236">
+      <c r="B16" s="232"/>
+      <c r="C16" s="232"/>
+      <c r="D16" s="232"/>
+      <c r="E16" s="230">
         <v>2113</v>
       </c>
-      <c r="F16" s="234">
+      <c r="F16" s="232">
         <v>2226</v>
       </c>
-      <c r="G16" s="234">
+      <c r="G16" s="232">
         <v>2202</v>
       </c>
-      <c r="H16" s="234">
+      <c r="H16" s="232">
         <v>2232</v>
       </c>
-      <c r="I16" s="234">
+      <c r="I16" s="232">
         <v>2235</v>
       </c>
-      <c r="J16" s="236">
+      <c r="J16" s="230">
         <v>2227</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="231"/>
-      <c r="B17" s="235"/>
-      <c r="C17" s="235"/>
-      <c r="D17" s="235"/>
-      <c r="E17" s="237"/>
-      <c r="F17" s="235"/>
-      <c r="G17" s="235"/>
-      <c r="H17" s="235"/>
-      <c r="I17" s="235"/>
-      <c r="J17" s="237"/>
+      <c r="A17" s="235"/>
+      <c r="B17" s="233"/>
+      <c r="C17" s="233"/>
+      <c r="D17" s="233"/>
+      <c r="E17" s="231"/>
+      <c r="F17" s="233"/>
+      <c r="G17" s="233"/>
+      <c r="H17" s="233"/>
+      <c r="I17" s="233"/>
+      <c r="J17" s="231"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="230" t="s">
+      <c r="A18" s="234" t="s">
         <v>1146</v>
       </c>
-      <c r="B18" s="234"/>
-      <c r="C18" s="234"/>
-      <c r="D18" s="234"/>
-      <c r="E18" s="236"/>
-      <c r="F18" s="234">
+      <c r="B18" s="232"/>
+      <c r="C18" s="232"/>
+      <c r="D18" s="232"/>
+      <c r="E18" s="230"/>
+      <c r="F18" s="232">
         <v>1537</v>
       </c>
-      <c r="G18" s="234">
+      <c r="G18" s="232">
         <v>1762</v>
       </c>
-      <c r="H18" s="234">
+      <c r="H18" s="232">
         <v>1905</v>
       </c>
-      <c r="I18" s="234">
+      <c r="I18" s="232">
         <v>1879</v>
       </c>
-      <c r="J18" s="236">
+      <c r="J18" s="230">
         <v>1893</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="231"/>
-      <c r="B19" s="235"/>
-      <c r="C19" s="235"/>
-      <c r="D19" s="235"/>
-      <c r="E19" s="237"/>
-      <c r="F19" s="235"/>
-      <c r="G19" s="235"/>
-      <c r="H19" s="235"/>
-      <c r="I19" s="235"/>
-      <c r="J19" s="237"/>
+      <c r="A19" s="235"/>
+      <c r="B19" s="233"/>
+      <c r="C19" s="233"/>
+      <c r="D19" s="233"/>
+      <c r="E19" s="231"/>
+      <c r="F19" s="233"/>
+      <c r="G19" s="233"/>
+      <c r="H19" s="233"/>
+      <c r="I19" s="233"/>
+      <c r="J19" s="231"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="230" t="s">
+      <c r="A20" s="234" t="s">
         <v>1147</v>
       </c>
-      <c r="B20" s="234"/>
-      <c r="C20" s="234"/>
-      <c r="D20" s="234"/>
-      <c r="E20" s="236"/>
-      <c r="F20" s="234"/>
-      <c r="G20" s="234">
+      <c r="B20" s="232"/>
+      <c r="C20" s="232"/>
+      <c r="D20" s="232"/>
+      <c r="E20" s="230"/>
+      <c r="F20" s="232"/>
+      <c r="G20" s="232">
         <v>1412</v>
       </c>
-      <c r="H20" s="234">
+      <c r="H20" s="232">
         <v>1689</v>
       </c>
-      <c r="I20" s="234">
+      <c r="I20" s="232">
         <v>1630</v>
       </c>
-      <c r="J20" s="236">
+      <c r="J20" s="230">
         <v>1640</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="231"/>
-      <c r="B21" s="235"/>
-      <c r="C21" s="235"/>
-      <c r="D21" s="235"/>
-      <c r="E21" s="237"/>
-      <c r="F21" s="235"/>
-      <c r="G21" s="235"/>
-      <c r="H21" s="235"/>
-      <c r="I21" s="235"/>
-      <c r="J21" s="237"/>
+      <c r="A21" s="235"/>
+      <c r="B21" s="233"/>
+      <c r="C21" s="233"/>
+      <c r="D21" s="233"/>
+      <c r="E21" s="231"/>
+      <c r="F21" s="233"/>
+      <c r="G21" s="233"/>
+      <c r="H21" s="233"/>
+      <c r="I21" s="233"/>
+      <c r="J21" s="231"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="230" t="s">
+      <c r="A22" s="234" t="s">
         <v>1148</v>
       </c>
-      <c r="B22" s="234"/>
-      <c r="C22" s="234"/>
-      <c r="D22" s="234"/>
-      <c r="E22" s="236"/>
-      <c r="F22" s="234"/>
-      <c r="G22" s="234"/>
-      <c r="H22" s="234">
+      <c r="B22" s="232"/>
+      <c r="C22" s="232"/>
+      <c r="D22" s="232"/>
+      <c r="E22" s="230"/>
+      <c r="F22" s="232"/>
+      <c r="G22" s="232"/>
+      <c r="H22" s="232">
         <v>1082</v>
       </c>
-      <c r="I22" s="234">
+      <c r="I22" s="232">
         <v>1341</v>
       </c>
-      <c r="J22" s="236">
+      <c r="J22" s="230">
         <v>1325</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="231"/>
-      <c r="B23" s="235"/>
-      <c r="C23" s="235"/>
-      <c r="D23" s="235"/>
-      <c r="E23" s="237"/>
-      <c r="F23" s="235"/>
-      <c r="G23" s="235"/>
-      <c r="H23" s="235"/>
-      <c r="I23" s="235"/>
-      <c r="J23" s="237"/>
+      <c r="A23" s="235"/>
+      <c r="B23" s="233"/>
+      <c r="C23" s="233"/>
+      <c r="D23" s="233"/>
+      <c r="E23" s="231"/>
+      <c r="F23" s="233"/>
+      <c r="G23" s="233"/>
+      <c r="H23" s="233"/>
+      <c r="I23" s="233"/>
+      <c r="J23" s="231"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="230" t="s">
+      <c r="A24" s="234" t="s">
         <v>1149</v>
       </c>
-      <c r="B24" s="234"/>
-      <c r="C24" s="234"/>
-      <c r="D24" s="234"/>
-      <c r="E24" s="236"/>
-      <c r="F24" s="234"/>
-      <c r="G24" s="234"/>
-      <c r="H24" s="234"/>
-      <c r="I24" s="234">
+      <c r="B24" s="232"/>
+      <c r="C24" s="232"/>
+      <c r="D24" s="232"/>
+      <c r="E24" s="230"/>
+      <c r="F24" s="232"/>
+      <c r="G24" s="232"/>
+      <c r="H24" s="232"/>
+      <c r="I24" s="232">
         <v>1003</v>
       </c>
-      <c r="J24" s="236">
+      <c r="J24" s="230">
         <v>1016</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="231"/>
-      <c r="B25" s="235"/>
-      <c r="C25" s="235"/>
-      <c r="D25" s="235"/>
-      <c r="E25" s="237"/>
-      <c r="F25" s="235"/>
-      <c r="G25" s="235"/>
-      <c r="H25" s="235"/>
-      <c r="I25" s="235"/>
-      <c r="J25" s="237"/>
+      <c r="A25" s="235"/>
+      <c r="B25" s="233"/>
+      <c r="C25" s="233"/>
+      <c r="D25" s="233"/>
+      <c r="E25" s="231"/>
+      <c r="F25" s="233"/>
+      <c r="G25" s="233"/>
+      <c r="H25" s="233"/>
+      <c r="I25" s="233"/>
+      <c r="J25" s="231"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="230" t="s">
+      <c r="A26" s="234" t="s">
         <v>1150</v>
       </c>
-      <c r="B26" s="234"/>
-      <c r="C26" s="234"/>
-      <c r="D26" s="234"/>
-      <c r="E26" s="236"/>
-      <c r="F26" s="234"/>
-      <c r="G26" s="234"/>
-      <c r="H26" s="234"/>
-      <c r="I26" s="234"/>
-      <c r="J26" s="236">
+      <c r="B26" s="232"/>
+      <c r="C26" s="232"/>
+      <c r="D26" s="232"/>
+      <c r="E26" s="230"/>
+      <c r="F26" s="232"/>
+      <c r="G26" s="232"/>
+      <c r="H26" s="232"/>
+      <c r="I26" s="232"/>
+      <c r="J26" s="230">
         <v>632</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="231"/>
-      <c r="B27" s="235"/>
-      <c r="C27" s="235"/>
-      <c r="D27" s="235"/>
-      <c r="E27" s="237"/>
-      <c r="F27" s="235"/>
-      <c r="G27" s="235"/>
-      <c r="H27" s="235"/>
-      <c r="I27" s="235"/>
-      <c r="J27" s="237"/>
+      <c r="A27" s="235"/>
+      <c r="B27" s="233"/>
+      <c r="C27" s="233"/>
+      <c r="D27" s="233"/>
+      <c r="E27" s="231"/>
+      <c r="F27" s="233"/>
+      <c r="G27" s="233"/>
+      <c r="H27" s="233"/>
+      <c r="I27" s="233"/>
+      <c r="J27" s="231"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -65818,6 +65812,106 @@
     </row>
   </sheetData>
   <mergeCells count="120">
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
     <mergeCell ref="J26:J27"/>
     <mergeCell ref="G24:G25"/>
     <mergeCell ref="H24:H25"/>
@@ -65838,106 +65932,6 @@
     <mergeCell ref="G26:G27"/>
     <mergeCell ref="H26:H27"/>
     <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -65973,26 +65967,26 @@
       <c r="C1" s="78" t="s">
         <v>233</v>
       </c>
-      <c r="F1" s="238" t="s">
+      <c r="F1" s="253" t="s">
         <v>234</v>
       </c>
-      <c r="G1" s="238"/>
-      <c r="H1" s="238" t="s">
+      <c r="G1" s="253"/>
+      <c r="H1" s="253" t="s">
         <v>235</v>
       </c>
-      <c r="I1" s="238"/>
-      <c r="J1" s="238" t="s">
+      <c r="I1" s="253"/>
+      <c r="J1" s="253" t="s">
         <v>236</v>
       </c>
-      <c r="K1" s="238"/>
-      <c r="L1" s="238" t="s">
+      <c r="K1" s="253"/>
+      <c r="L1" s="253" t="s">
         <v>237</v>
       </c>
-      <c r="M1" s="238"/>
-      <c r="N1" s="238" t="s">
+      <c r="M1" s="253"/>
+      <c r="N1" s="253" t="s">
         <v>238</v>
       </c>
-      <c r="O1" s="238"/>
+      <c r="O1" s="253"/>
     </row>
     <row r="2" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F2" s="79" t="s">
@@ -66001,18 +65995,18 @@
       <c r="G2" s="79" t="s">
         <v>240</v>
       </c>
-      <c r="H2" s="239"/>
-      <c r="I2" s="240"/>
-      <c r="J2" s="239"/>
-      <c r="K2" s="240"/>
+      <c r="H2" s="254"/>
+      <c r="I2" s="255"/>
+      <c r="J2" s="254"/>
+      <c r="K2" s="255"/>
       <c r="L2" s="79" t="s">
         <v>239</v>
       </c>
       <c r="M2" s="79" t="s">
         <v>240</v>
       </c>
-      <c r="N2" s="239"/>
-      <c r="O2" s="240"/>
+      <c r="N2" s="254"/>
+      <c r="O2" s="255"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -66024,14 +66018,14 @@
       <c r="E3" s="80" t="s">
         <v>243</v>
       </c>
-      <c r="F3" s="242">
+      <c r="F3" s="247">
         <v>0.64709000000000005</v>
       </c>
-      <c r="G3" s="242"/>
-      <c r="H3" s="242">
+      <c r="G3" s="247"/>
+      <c r="H3" s="247">
         <v>0.97192999999999996</v>
       </c>
-      <c r="I3" s="242"/>
+      <c r="I3" s="247"/>
       <c r="J3" s="81"/>
       <c r="K3" s="81"/>
       <c r="L3" s="81"/>
@@ -66054,14 +66048,14 @@
       <c r="E4" s="84" t="s">
         <v>246</v>
       </c>
-      <c r="F4" s="241">
+      <c r="F4" s="252">
         <v>0.26545000000000002</v>
       </c>
-      <c r="G4" s="241"/>
-      <c r="H4" s="241">
+      <c r="G4" s="252"/>
+      <c r="H4" s="252">
         <v>0.39895999999999998</v>
       </c>
-      <c r="I4" s="241"/>
+      <c r="I4" s="252"/>
       <c r="J4" s="85"/>
       <c r="K4" s="85"/>
       <c r="L4" s="85"/>
@@ -66087,10 +66081,10 @@
       <c r="G5" s="81">
         <v>0.25008999999999998</v>
       </c>
-      <c r="H5" s="242">
+      <c r="H5" s="247">
         <v>1</v>
       </c>
-      <c r="I5" s="242"/>
+      <c r="I5" s="247"/>
       <c r="J5" s="81"/>
       <c r="K5" s="81"/>
       <c r="L5" s="81"/>
@@ -66111,10 +66105,10 @@
       <c r="G6" s="85"/>
       <c r="H6" s="85"/>
       <c r="I6" s="85"/>
-      <c r="J6" s="241">
+      <c r="J6" s="252">
         <v>0.27488000000000001</v>
       </c>
-      <c r="K6" s="241"/>
+      <c r="K6" s="252"/>
       <c r="L6" s="85"/>
       <c r="M6" s="85"/>
       <c r="N6" s="85"/>
@@ -66138,10 +66132,10 @@
       <c r="G7" s="81">
         <v>0.17752000000000001</v>
       </c>
-      <c r="H7" s="242">
+      <c r="H7" s="247">
         <v>0.72296000000000005</v>
       </c>
-      <c r="I7" s="242"/>
+      <c r="I7" s="247"/>
       <c r="J7" s="81"/>
       <c r="K7" s="81"/>
       <c r="L7" s="81"/>
@@ -66164,10 +66158,10 @@
       <c r="G8" s="85"/>
       <c r="H8" s="85"/>
       <c r="I8" s="85"/>
-      <c r="J8" s="241">
+      <c r="J8" s="252">
         <v>0.36337000000000003</v>
       </c>
-      <c r="K8" s="241"/>
+      <c r="K8" s="252"/>
       <c r="L8" s="85"/>
       <c r="M8" s="85"/>
       <c r="N8" s="85"/>
@@ -66185,10 +66179,10 @@
         <v>0.65615999999999997</v>
       </c>
       <c r="G9" s="81"/>
-      <c r="H9" s="242">
+      <c r="H9" s="247">
         <v>0.78437000000000001</v>
       </c>
-      <c r="I9" s="242"/>
+      <c r="I9" s="247"/>
       <c r="J9" s="81"/>
       <c r="K9" s="81"/>
       <c r="L9" s="81"/>
@@ -66214,10 +66208,10 @@
       <c r="G10" s="88"/>
       <c r="H10" s="88"/>
       <c r="I10" s="88"/>
-      <c r="J10" s="243">
+      <c r="J10" s="251">
         <v>0.1464</v>
       </c>
-      <c r="K10" s="243"/>
+      <c r="K10" s="251"/>
       <c r="L10" s="88"/>
       <c r="M10" s="88"/>
       <c r="N10" s="88"/>
@@ -66252,14 +66246,14 @@
       <c r="E12" s="80" t="s">
         <v>260</v>
       </c>
-      <c r="F12" s="242">
+      <c r="F12" s="247">
         <v>0.42514999999999997</v>
       </c>
-      <c r="G12" s="242"/>
-      <c r="H12" s="242">
+      <c r="G12" s="247"/>
+      <c r="H12" s="247">
         <v>0.85</v>
       </c>
-      <c r="I12" s="242"/>
+      <c r="I12" s="247"/>
       <c r="J12" s="81"/>
       <c r="K12" s="81"/>
       <c r="L12" s="81"/>
@@ -66285,10 +66279,10 @@
       <c r="G13" s="85"/>
       <c r="H13" s="85"/>
       <c r="I13" s="85"/>
-      <c r="J13" s="241">
+      <c r="J13" s="252">
         <v>0.23365</v>
       </c>
-      <c r="K13" s="241"/>
+      <c r="K13" s="252"/>
       <c r="L13" s="85"/>
       <c r="M13" s="85"/>
       <c r="N13" s="85"/>
@@ -66306,10 +66300,10 @@
         <v>1</v>
       </c>
       <c r="G14" s="92"/>
-      <c r="H14" s="242">
+      <c r="H14" s="247">
         <v>0.51382000000000005</v>
       </c>
-      <c r="I14" s="242"/>
+      <c r="I14" s="247"/>
       <c r="J14" s="81"/>
       <c r="K14" s="81"/>
       <c r="L14" s="81"/>
@@ -66336,10 +66330,10 @@
       <c r="G15" s="88"/>
       <c r="H15" s="88"/>
       <c r="I15" s="88"/>
-      <c r="J15" s="243">
+      <c r="J15" s="251">
         <v>4.3869999999999999E-2</v>
       </c>
-      <c r="K15" s="243"/>
+      <c r="K15" s="251"/>
       <c r="L15" s="88"/>
       <c r="M15" s="88"/>
       <c r="N15" s="88"/>
@@ -66386,10 +66380,10 @@
         <v>0.91232999999999997</v>
       </c>
       <c r="G17" s="92"/>
-      <c r="H17" s="242">
+      <c r="H17" s="247">
         <v>0.46146999999999999</v>
       </c>
-      <c r="I17" s="242"/>
+      <c r="I17" s="247"/>
       <c r="J17" s="81"/>
       <c r="K17" s="81"/>
       <c r="L17" s="81"/>
@@ -66415,10 +66409,10 @@
       <c r="G18" s="88"/>
       <c r="H18" s="88"/>
       <c r="I18" s="88"/>
-      <c r="J18" s="243">
+      <c r="J18" s="251">
         <v>0.15035999999999999</v>
       </c>
-      <c r="K18" s="243"/>
+      <c r="K18" s="251"/>
       <c r="L18" s="88"/>
       <c r="M18" s="88"/>
       <c r="N18" s="88"/>
@@ -66460,10 +66454,10 @@
         <v>0.69059999999999999</v>
       </c>
       <c r="G20" s="92"/>
-      <c r="H20" s="242">
+      <c r="H20" s="247">
         <v>0.38878000000000001</v>
       </c>
-      <c r="I20" s="242"/>
+      <c r="I20" s="247"/>
       <c r="J20" s="81"/>
       <c r="K20" s="81"/>
       <c r="L20" s="81"/>
@@ -66489,10 +66483,10 @@
       <c r="G21" s="88"/>
       <c r="H21" s="88"/>
       <c r="I21" s="88"/>
-      <c r="J21" s="243">
+      <c r="J21" s="251">
         <v>0.2099</v>
       </c>
-      <c r="K21" s="243"/>
+      <c r="K21" s="251"/>
       <c r="L21" s="88"/>
       <c r="M21" s="88"/>
       <c r="N21" s="88"/>
@@ -66534,10 +66528,10 @@
         <v>0.68315000000000003</v>
       </c>
       <c r="G23" s="92"/>
-      <c r="H23" s="242">
+      <c r="H23" s="247">
         <v>0.70006000000000002</v>
       </c>
-      <c r="I23" s="242"/>
+      <c r="I23" s="247"/>
       <c r="J23" s="81"/>
       <c r="K23" s="81"/>
       <c r="L23" s="81"/>
@@ -66563,10 +66557,10 @@
       <c r="G24" s="88"/>
       <c r="H24" s="88"/>
       <c r="I24" s="88"/>
-      <c r="J24" s="243">
+      <c r="J24" s="251">
         <v>0.152</v>
       </c>
-      <c r="K24" s="243"/>
+      <c r="K24" s="251"/>
       <c r="L24" s="88"/>
       <c r="M24" s="88"/>
       <c r="N24" s="88"/>
@@ -66610,16 +66604,16 @@
       <c r="G26" s="81">
         <v>9.2719999999999997E-2</v>
       </c>
-      <c r="H26" s="242">
+      <c r="H26" s="247">
         <v>0.42459999999999998</v>
       </c>
-      <c r="I26" s="242"/>
+      <c r="I26" s="247"/>
       <c r="J26" s="81"/>
       <c r="K26" s="81"/>
       <c r="L26" s="81"/>
       <c r="M26" s="81"/>
-      <c r="N26" s="246"/>
-      <c r="O26" s="247"/>
+      <c r="N26" s="240"/>
+      <c r="O26" s="242"/>
       <c r="P26" s="83">
         <f>F26+G26+H26+J27+L28+M28+N28</f>
         <v>2.4103300000000001</v>
@@ -66639,14 +66633,14 @@
       <c r="G27" s="88"/>
       <c r="H27" s="88"/>
       <c r="I27" s="88"/>
-      <c r="J27" s="243">
+      <c r="J27" s="251">
         <v>1</v>
       </c>
-      <c r="K27" s="243"/>
+      <c r="K27" s="251"/>
       <c r="L27" s="88"/>
       <c r="M27" s="88"/>
-      <c r="N27" s="244"/>
-      <c r="O27" s="245"/>
+      <c r="N27" s="243"/>
+      <c r="O27" s="244"/>
       <c r="P27" s="83"/>
     </row>
     <row r="28" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -66671,10 +66665,10 @@
       <c r="M28" s="85">
         <v>0.1226</v>
       </c>
-      <c r="N28" s="248">
+      <c r="N28" s="245">
         <v>0.34044000000000002</v>
       </c>
-      <c r="O28" s="249"/>
+      <c r="O28" s="246"/>
       <c r="P28" s="83"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
@@ -66690,16 +66684,16 @@
       <c r="G29" s="81">
         <v>0.13719000000000001</v>
       </c>
-      <c r="H29" s="242">
+      <c r="H29" s="247">
         <v>0.62792999999999999</v>
       </c>
-      <c r="I29" s="242"/>
+      <c r="I29" s="247"/>
       <c r="J29" s="81"/>
       <c r="K29" s="81"/>
       <c r="L29" s="81"/>
       <c r="M29" s="81"/>
-      <c r="N29" s="246"/>
-      <c r="O29" s="247"/>
+      <c r="N29" s="240"/>
+      <c r="O29" s="242"/>
       <c r="P29" s="83">
         <f>F29+G29+H29+L30+M30+N30+J33</f>
         <v>2.4474499999999999</v>
@@ -66727,10 +66721,10 @@
       <c r="M30" s="85">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="N30" s="248">
+      <c r="N30" s="245">
         <v>0.23748</v>
       </c>
-      <c r="O30" s="249"/>
+      <c r="O30" s="246"/>
       <c r="P30" s="83"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
@@ -66746,16 +66740,16 @@
       <c r="G31" s="81">
         <v>5.6059999999999999E-2</v>
       </c>
-      <c r="H31" s="242">
+      <c r="H31" s="247">
         <v>0.23462</v>
       </c>
-      <c r="I31" s="242"/>
+      <c r="I31" s="247"/>
       <c r="J31" s="81"/>
       <c r="K31" s="81"/>
       <c r="L31" s="81"/>
       <c r="M31" s="81"/>
-      <c r="N31" s="246"/>
-      <c r="O31" s="247"/>
+      <c r="N31" s="240"/>
+      <c r="O31" s="242"/>
       <c r="P31" s="83">
         <f>F31+G31+H31+L32+M32+N32+J33</f>
         <v>2.2090299999999998</v>
@@ -66780,10 +66774,10 @@
       <c r="M32" s="85">
         <v>0.11894</v>
       </c>
-      <c r="N32" s="248">
+      <c r="N32" s="245">
         <v>0.50244</v>
       </c>
-      <c r="O32" s="249"/>
+      <c r="O32" s="246"/>
       <c r="P32" s="83"/>
     </row>
     <row r="33" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -66797,34 +66791,34 @@
       <c r="G33" s="94"/>
       <c r="H33" s="94"/>
       <c r="I33" s="94"/>
-      <c r="J33" s="250">
+      <c r="J33" s="248">
         <v>0.94696999999999998</v>
       </c>
-      <c r="K33" s="250"/>
+      <c r="K33" s="248"/>
       <c r="L33" s="94"/>
       <c r="M33" s="94"/>
-      <c r="N33" s="251"/>
-      <c r="O33" s="252"/>
+      <c r="N33" s="249"/>
+      <c r="O33" s="250"/>
       <c r="P33" s="83"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E34" s="80" t="s">
         <v>310</v>
       </c>
-      <c r="F34" s="242">
+      <c r="F34" s="247">
         <v>0.15762999999999999</v>
       </c>
-      <c r="G34" s="242"/>
-      <c r="H34" s="242">
+      <c r="G34" s="247"/>
+      <c r="H34" s="247">
         <v>0.36070000000000002</v>
       </c>
-      <c r="I34" s="242"/>
+      <c r="I34" s="247"/>
       <c r="J34" s="81"/>
       <c r="K34" s="81"/>
       <c r="L34" s="81"/>
       <c r="M34" s="81"/>
-      <c r="N34" s="246"/>
-      <c r="O34" s="247"/>
+      <c r="N34" s="240"/>
+      <c r="O34" s="242"/>
       <c r="P34" s="83">
         <f>F34+H34+J35+L36+N36</f>
         <v>1.8655399999999998</v>
@@ -66838,14 +66832,14 @@
       <c r="G35" s="88"/>
       <c r="H35" s="88"/>
       <c r="I35" s="88"/>
-      <c r="J35" s="243">
+      <c r="J35" s="251">
         <v>0.85</v>
       </c>
-      <c r="K35" s="243"/>
+      <c r="K35" s="251"/>
       <c r="L35" s="88"/>
       <c r="M35" s="88"/>
-      <c r="N35" s="244"/>
-      <c r="O35" s="245"/>
+      <c r="N35" s="243"/>
+      <c r="O35" s="244"/>
       <c r="P35" s="83"/>
     </row>
     <row r="36" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -66865,10 +66859,10 @@
         <v>0.20784</v>
       </c>
       <c r="M36" s="85"/>
-      <c r="N36" s="248">
+      <c r="N36" s="245">
         <v>0.28937000000000002</v>
       </c>
-      <c r="O36" s="249"/>
+      <c r="O36" s="246"/>
       <c r="P36" s="83"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
@@ -66878,20 +66872,20 @@
       <c r="E37" s="80" t="s">
         <v>315</v>
       </c>
-      <c r="F37" s="242">
+      <c r="F37" s="247">
         <v>0.20368</v>
       </c>
-      <c r="G37" s="242"/>
-      <c r="H37" s="242">
+      <c r="G37" s="247"/>
+      <c r="H37" s="247">
         <v>0.33767000000000003</v>
       </c>
-      <c r="I37" s="242"/>
+      <c r="I37" s="247"/>
       <c r="J37" s="81"/>
       <c r="K37" s="81"/>
       <c r="L37" s="81"/>
       <c r="M37" s="81"/>
-      <c r="N37" s="246"/>
-      <c r="O37" s="247"/>
+      <c r="N37" s="240"/>
+      <c r="O37" s="242"/>
       <c r="P37" s="83">
         <f>F37+H37+J38+L39+L40+N40</f>
         <v>2.5172699999999999</v>
@@ -66908,14 +66902,14 @@
       <c r="G38" s="88"/>
       <c r="H38" s="88"/>
       <c r="I38" s="88"/>
-      <c r="J38" s="243">
+      <c r="J38" s="251">
         <v>0.89815999999999996</v>
       </c>
-      <c r="K38" s="243"/>
+      <c r="K38" s="251"/>
       <c r="L38" s="88"/>
       <c r="M38" s="88"/>
-      <c r="N38" s="244"/>
-      <c r="O38" s="245"/>
+      <c r="N38" s="243"/>
+      <c r="O38" s="244"/>
       <c r="P38" s="83"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
@@ -66935,8 +66929,8 @@
         <v>0.57364000000000004</v>
       </c>
       <c r="M39" s="88"/>
-      <c r="N39" s="244"/>
-      <c r="O39" s="245"/>
+      <c r="N39" s="243"/>
+      <c r="O39" s="244"/>
       <c r="P39" s="83"/>
     </row>
     <row r="40" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -66956,10 +66950,10 @@
         <v>0.26422000000000001</v>
       </c>
       <c r="M40" s="85"/>
-      <c r="N40" s="248">
+      <c r="N40" s="245">
         <v>0.2399</v>
       </c>
-      <c r="O40" s="249"/>
+      <c r="O40" s="246"/>
       <c r="P40" s="83"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
@@ -66970,16 +66964,16 @@
         <v>0.34708</v>
       </c>
       <c r="G41" s="92"/>
-      <c r="H41" s="242">
+      <c r="H41" s="247">
         <v>0.20830000000000001</v>
       </c>
-      <c r="I41" s="242"/>
+      <c r="I41" s="247"/>
       <c r="J41" s="81"/>
       <c r="K41" s="81"/>
       <c r="L41" s="81"/>
       <c r="M41" s="81"/>
-      <c r="N41" s="246"/>
-      <c r="O41" s="247"/>
+      <c r="N41" s="240"/>
+      <c r="O41" s="242"/>
       <c r="P41" s="83">
         <f>F41+H41+J42+L43+L44+N44</f>
         <v>2.29189</v>
@@ -66993,14 +66987,14 @@
       <c r="G42" s="88"/>
       <c r="H42" s="88"/>
       <c r="I42" s="88"/>
-      <c r="J42" s="243">
+      <c r="J42" s="251">
         <v>0.52559999999999996</v>
       </c>
-      <c r="K42" s="243"/>
+      <c r="K42" s="251"/>
       <c r="L42" s="88"/>
       <c r="M42" s="88"/>
-      <c r="N42" s="244"/>
-      <c r="O42" s="245"/>
+      <c r="N42" s="243"/>
+      <c r="O42" s="244"/>
       <c r="P42" s="83"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
@@ -67018,8 +67012,8 @@
         <v>0.84328000000000003</v>
       </c>
       <c r="M43" s="88"/>
-      <c r="N43" s="244"/>
-      <c r="O43" s="245"/>
+      <c r="N43" s="243"/>
+      <c r="O43" s="244"/>
       <c r="P43" s="83"/>
     </row>
     <row r="44" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -67039,10 +67033,10 @@
         <v>0.23543</v>
       </c>
       <c r="M44" s="85"/>
-      <c r="N44" s="248">
+      <c r="N44" s="245">
         <v>0.13220000000000001</v>
       </c>
-      <c r="O44" s="249"/>
+      <c r="O44" s="246"/>
       <c r="P44" s="83"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
@@ -67056,16 +67050,16 @@
         <v>0.47361999999999999</v>
       </c>
       <c r="G45" s="92"/>
-      <c r="H45" s="242">
+      <c r="H45" s="247">
         <v>0.28101999999999999</v>
       </c>
-      <c r="I45" s="242"/>
+      <c r="I45" s="247"/>
       <c r="J45" s="81"/>
       <c r="K45" s="81"/>
       <c r="L45" s="81"/>
       <c r="M45" s="81"/>
-      <c r="N45" s="246"/>
-      <c r="O45" s="247"/>
+      <c r="N45" s="240"/>
+      <c r="O45" s="242"/>
       <c r="P45" s="83">
         <f>F45+H45+L46+L47+N47+J51</f>
         <v>2.2079800000000001</v>
@@ -67085,8 +67079,8 @@
         <v>0.71950000000000003</v>
       </c>
       <c r="M46" s="88"/>
-      <c r="N46" s="244"/>
-      <c r="O46" s="245"/>
+      <c r="N46" s="243"/>
+      <c r="O46" s="244"/>
       <c r="P46" s="83"/>
     </row>
     <row r="47" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -67106,10 +67100,10 @@
         <v>0.20451</v>
       </c>
       <c r="M47" s="85"/>
-      <c r="N47" s="248">
+      <c r="N47" s="245">
         <v>9.1600000000000001E-2</v>
       </c>
-      <c r="O47" s="249"/>
+      <c r="O47" s="246"/>
       <c r="P47" s="83"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
@@ -67123,16 +67117,16 @@
         <v>0.17321</v>
       </c>
       <c r="G48" s="92"/>
-      <c r="H48" s="242">
+      <c r="H48" s="247">
         <v>9.2929999999999999E-2</v>
       </c>
-      <c r="I48" s="242"/>
+      <c r="I48" s="247"/>
       <c r="J48" s="81"/>
       <c r="K48" s="81"/>
       <c r="L48" s="81"/>
       <c r="M48" s="81"/>
-      <c r="N48" s="246"/>
-      <c r="O48" s="247"/>
+      <c r="N48" s="240"/>
+      <c r="O48" s="242"/>
       <c r="P48" s="83">
         <f>F48+H48+L49+L50+N50+J51</f>
         <v>2.12704</v>
@@ -67155,8 +67149,8 @@
         <v>1</v>
       </c>
       <c r="M49" s="88"/>
-      <c r="N49" s="244"/>
-      <c r="O49" s="245"/>
+      <c r="N49" s="243"/>
+      <c r="O49" s="244"/>
       <c r="P49" s="83"/>
     </row>
     <row r="50" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -67179,10 +67173,10 @@
         <v>0.26967000000000002</v>
       </c>
       <c r="M50" s="85"/>
-      <c r="N50" s="248">
+      <c r="N50" s="245">
         <v>0.1535</v>
       </c>
-      <c r="O50" s="249"/>
+      <c r="O50" s="246"/>
       <c r="P50" s="83"/>
     </row>
     <row r="51" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -67196,14 +67190,14 @@
       <c r="G51" s="94"/>
       <c r="H51" s="94"/>
       <c r="I51" s="94"/>
-      <c r="J51" s="250">
+      <c r="J51" s="248">
         <v>0.43773000000000001</v>
       </c>
-      <c r="K51" s="250"/>
+      <c r="K51" s="248"/>
       <c r="L51" s="94"/>
       <c r="M51" s="94"/>
-      <c r="N51" s="251"/>
-      <c r="O51" s="252"/>
+      <c r="N51" s="249"/>
+      <c r="O51" s="250"/>
       <c r="P51" s="83"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
@@ -67220,16 +67214,16 @@
         <v>0.28996</v>
       </c>
       <c r="G52" s="92"/>
-      <c r="H52" s="242">
+      <c r="H52" s="247">
         <v>0.25344</v>
       </c>
-      <c r="I52" s="242"/>
+      <c r="I52" s="247"/>
       <c r="J52" s="81"/>
       <c r="K52" s="81"/>
       <c r="L52" s="81"/>
       <c r="M52" s="81"/>
-      <c r="N52" s="246"/>
-      <c r="O52" s="247"/>
+      <c r="N52" s="240"/>
+      <c r="O52" s="242"/>
       <c r="P52" s="83">
         <f>F52+H52+J53+L54+L55+N55</f>
         <v>2.0821799999999997</v>
@@ -67249,14 +67243,14 @@
       <c r="G53" s="88"/>
       <c r="H53" s="88"/>
       <c r="I53" s="88"/>
-      <c r="J53" s="243">
+      <c r="J53" s="251">
         <v>0.65949000000000002</v>
       </c>
-      <c r="K53" s="243"/>
+      <c r="K53" s="251"/>
       <c r="L53" s="88"/>
       <c r="M53" s="88"/>
-      <c r="N53" s="244"/>
-      <c r="O53" s="245"/>
+      <c r="N53" s="243"/>
+      <c r="O53" s="244"/>
       <c r="P53" s="83"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
@@ -67279,8 +67273,8 @@
         <v>0.56411</v>
       </c>
       <c r="M54" s="88"/>
-      <c r="N54" s="244"/>
-      <c r="O54" s="245"/>
+      <c r="N54" s="243"/>
+      <c r="O54" s="244"/>
       <c r="P54" s="83"/>
     </row>
     <row r="55" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -67303,10 +67297,10 @@
         <v>0.14326</v>
       </c>
       <c r="M55" s="85"/>
-      <c r="N55" s="248">
+      <c r="N55" s="245">
         <v>0.17191999999999999</v>
       </c>
-      <c r="O55" s="249"/>
+      <c r="O55" s="246"/>
       <c r="P55" s="83"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
@@ -67329,8 +67323,8 @@
         <v>0.19162000000000001</v>
       </c>
       <c r="M56" s="81"/>
-      <c r="N56" s="246"/>
-      <c r="O56" s="247"/>
+      <c r="N56" s="240"/>
+      <c r="O56" s="242"/>
       <c r="P56" s="83">
         <f>L56+L57+L58+L59+N58+N59</f>
         <v>2.1837599999999999</v>
@@ -67353,8 +67347,8 @@
         <v>0.49523</v>
       </c>
       <c r="M57" s="88"/>
-      <c r="N57" s="244"/>
-      <c r="O57" s="245"/>
+      <c r="N57" s="243"/>
+      <c r="O57" s="244"/>
       <c r="P57" s="83"/>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
@@ -67374,10 +67368,10 @@
         <v>0.47439999999999999</v>
       </c>
       <c r="M58" s="88"/>
-      <c r="N58" s="244">
+      <c r="N58" s="243">
         <v>0.60697000000000001</v>
       </c>
-      <c r="O58" s="245"/>
+      <c r="O58" s="244"/>
       <c r="P58" s="83"/>
     </row>
     <row r="59" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -67397,10 +67391,10 @@
         <v>0.16774</v>
       </c>
       <c r="M59" s="85"/>
-      <c r="N59" s="248">
+      <c r="N59" s="245">
         <v>0.24779999999999999</v>
       </c>
-      <c r="O59" s="249"/>
+      <c r="O59" s="246"/>
       <c r="P59" s="83"/>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
@@ -67414,14 +67408,14 @@
       <c r="G60" s="81"/>
       <c r="H60" s="81"/>
       <c r="I60" s="81"/>
-      <c r="J60" s="246">
+      <c r="J60" s="240">
         <v>0.45617999999999997</v>
       </c>
-      <c r="K60" s="255"/>
+      <c r="K60" s="241"/>
       <c r="L60" s="81"/>
       <c r="M60" s="81"/>
-      <c r="N60" s="246"/>
-      <c r="O60" s="247"/>
+      <c r="N60" s="240"/>
+      <c r="O60" s="242"/>
       <c r="P60" s="83">
         <f>J60+L62+N62+L63+L64+N64</f>
         <v>2.0612399999999997</v>
@@ -67444,10 +67438,10 @@
         <v>0.28649999999999998</v>
       </c>
       <c r="M61" s="88"/>
-      <c r="N61" s="244">
+      <c r="N61" s="243">
         <v>0.80176999999999998</v>
       </c>
-      <c r="O61" s="245"/>
+      <c r="O61" s="244"/>
       <c r="P61" s="83">
         <f>J60+L61+N61+L63+L64+N64</f>
         <v>2.4324300000000001</v>
@@ -67473,10 +67467,10 @@
         <v>0.20932000000000001</v>
       </c>
       <c r="M62" s="88"/>
-      <c r="N62" s="244">
+      <c r="N62" s="243">
         <v>0.50775999999999999</v>
       </c>
-      <c r="O62" s="245"/>
+      <c r="O62" s="244"/>
       <c r="P62" s="83"/>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
@@ -67496,8 +67490,8 @@
         <v>0.14599000000000001</v>
       </c>
       <c r="M63" s="88"/>
-      <c r="N63" s="244"/>
-      <c r="O63" s="245"/>
+      <c r="N63" s="243"/>
+      <c r="O63" s="244"/>
       <c r="P63" s="83"/>
     </row>
     <row r="64" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -67517,10 +67511,10 @@
         <v>0.12414</v>
       </c>
       <c r="M64" s="85"/>
-      <c r="N64" s="248">
+      <c r="N64" s="245">
         <v>0.61785000000000001</v>
       </c>
-      <c r="O64" s="249"/>
+      <c r="O64" s="246"/>
       <c r="P64" s="83"/>
     </row>
     <row r="65" spans="3:17" x14ac:dyDescent="0.25">
@@ -67540,10 +67534,10 @@
         <v>0.23763000000000001</v>
       </c>
       <c r="M65" s="81"/>
-      <c r="N65" s="246">
+      <c r="N65" s="240">
         <v>1</v>
       </c>
-      <c r="O65" s="247"/>
+      <c r="O65" s="242"/>
       <c r="P65" s="83">
         <f>L65+N65+L66+L67+N67</f>
         <v>1.8703959999999999</v>
@@ -67567,8 +67561,8 @@
         <v>0.17316000000000001</v>
       </c>
       <c r="M66" s="88"/>
-      <c r="N66" s="244"/>
-      <c r="O66" s="245"/>
+      <c r="N66" s="243"/>
+      <c r="O66" s="244"/>
       <c r="P66" s="83"/>
       <c r="Q66" s="83"/>
     </row>
@@ -67589,10 +67583,10 @@
         <v>0.12317</v>
       </c>
       <c r="M67" s="85"/>
-      <c r="N67" s="248">
+      <c r="N67" s="245">
         <v>0.33643600000000001</v>
       </c>
-      <c r="O67" s="249"/>
+      <c r="O67" s="246"/>
       <c r="P67" s="83"/>
       <c r="Q67" s="83"/>
     </row>
@@ -67613,10 +67607,10 @@
         <v>0.20199</v>
       </c>
       <c r="M68" s="81"/>
-      <c r="N68" s="246">
+      <c r="N68" s="240">
         <v>0.85</v>
       </c>
-      <c r="O68" s="247"/>
+      <c r="O68" s="242"/>
       <c r="P68" s="83">
         <f>L68+N68+L69+L70+N70</f>
         <v>1.6197900000000001</v>
@@ -67639,8 +67633,8 @@
         <v>0.17718999999999999</v>
       </c>
       <c r="M69" s="88"/>
-      <c r="N69" s="244"/>
-      <c r="O69" s="245"/>
+      <c r="N69" s="243"/>
+      <c r="O69" s="244"/>
       <c r="P69" s="83"/>
     </row>
     <row r="70" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -67660,26 +67654,79 @@
         <v>0.1047</v>
       </c>
       <c r="M70" s="100"/>
-      <c r="N70" s="253">
+      <c r="N70" s="238">
         <v>0.28591</v>
       </c>
-      <c r="O70" s="254"/>
+      <c r="O70" s="239"/>
       <c r="P70" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="N70:O70"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="N60:O60"/>
-    <mergeCell ref="N61:O61"/>
-    <mergeCell ref="N62:O62"/>
-    <mergeCell ref="N63:O63"/>
-    <mergeCell ref="N64:O64"/>
-    <mergeCell ref="N65:O65"/>
-    <mergeCell ref="N66:O66"/>
-    <mergeCell ref="N67:O67"/>
-    <mergeCell ref="N68:O68"/>
-    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="N46:O46"/>
     <mergeCell ref="H48:I48"/>
     <mergeCell ref="N48:O48"/>
     <mergeCell ref="N49:O49"/>
@@ -67696,71 +67743,18 @@
     <mergeCell ref="N57:O57"/>
     <mergeCell ref="N58:O58"/>
     <mergeCell ref="N50:O50"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="N69:O69"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:O70">
     <cfRule type="cellIs" dxfId="25" priority="1" operator="between">

--- a/projects/current/hattrick/z_Biblioteca.xlsx
+++ b/projects/current/hattrick/z_Biblioteca.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CDDE40F-AFE9-4A16-8675-55BC59C3DED2}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C661D6-4B0B-48CB-8864-6645FDE2830B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resistencia" sheetId="1" r:id="rId1"/>
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1661" uniqueCount="1152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1665" uniqueCount="1152">
   <si>
     <t>El entrenamiento de condición esta basado por minutos (pero comienza con un 75% para los jugadores en el terreno de juego).</t>
   </si>
@@ -10520,7 +10520,7 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="45" x14ac:knownFonts="1">
+  <fonts count="46" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -10841,6 +10841,14 @@
       <color rgb="FF000000"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="30">
@@ -11520,7 +11528,7 @@
     <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="260">
+  <cellXfs count="269">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -12029,6 +12037,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -14678,8 +14713,8 @@
   </sheetPr>
   <dimension ref="A1:AS127"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -14808,70 +14843,70 @@
       <c r="A3" s="10">
         <v>0.05</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="220">
         <v>3.2</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="220">
         <v>3.7</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="220">
         <v>4.0999999999999996</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="220">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="220">
         <v>4.5999999999999996</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="221">
         <v>4.7</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="220">
         <v>4.55</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="220">
         <v>4.4000000000000004</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="220">
         <v>4.25</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="220">
         <v>4.0999999999999996</v>
       </c>
-      <c r="L3" s="11">
+      <c r="L3" s="220">
         <v>3.95</v>
       </c>
-      <c r="M3" s="13">
+      <c r="M3" s="222">
         <v>3.8</v>
       </c>
-      <c r="N3" s="13">
+      <c r="N3" s="222">
         <v>3.6500000000000004</v>
       </c>
-      <c r="O3" s="13">
+      <c r="O3" s="222">
         <v>3.5</v>
       </c>
-      <c r="P3" s="13">
+      <c r="P3" s="222">
         <v>3.3499999999999996</v>
       </c>
-      <c r="Q3" s="11">
+      <c r="Q3" s="220">
         <v>3.1500000000000004</v>
       </c>
-      <c r="R3" s="11">
+      <c r="R3" s="220">
         <v>2.95</v>
       </c>
-      <c r="S3" s="11">
+      <c r="S3" s="220">
         <v>2.65</v>
       </c>
-      <c r="T3" s="11">
+      <c r="T3" s="220">
         <v>2.2999999999999998</v>
       </c>
-      <c r="U3" s="11">
+      <c r="U3" s="220">
         <v>1.9</v>
       </c>
-      <c r="V3" s="11">
+      <c r="V3" s="220">
         <v>1.4500000000000002</v>
       </c>
-      <c r="W3" s="11">
+      <c r="W3" s="220">
         <v>0.95</v>
       </c>
       <c r="X3" s="14"/>
@@ -14881,70 +14916,70 @@
       <c r="A4" s="10">
         <v>0.06</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="220">
         <v>3.5700000000000003</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="220">
         <v>4.07</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="220">
         <v>4.47</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="220">
         <v>4.7699999999999996</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="220">
         <v>4.97</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="221">
         <v>5.07</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="220">
         <v>4.92</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="220">
         <v>4.7699999999999996</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="220">
         <v>4.62</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="220">
         <v>4.47</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4" s="220">
         <v>4.32</v>
       </c>
-      <c r="M4" s="13">
+      <c r="M4" s="222">
         <v>4.17</v>
       </c>
-      <c r="N4" s="13">
+      <c r="N4" s="222">
         <v>4.0199999999999996</v>
       </c>
-      <c r="O4" s="13">
+      <c r="O4" s="222">
         <v>3.87</v>
       </c>
-      <c r="P4" s="13">
+      <c r="P4" s="222">
         <v>3.7199999999999998</v>
       </c>
-      <c r="Q4" s="11">
+      <c r="Q4" s="220">
         <v>3.5199999999999996</v>
       </c>
-      <c r="R4" s="11">
+      <c r="R4" s="220">
         <v>3.3200000000000003</v>
       </c>
-      <c r="S4" s="11">
+      <c r="S4" s="220">
         <v>3.0199999999999996</v>
       </c>
-      <c r="T4" s="11">
+      <c r="T4" s="220">
         <v>2.67</v>
       </c>
-      <c r="U4" s="11">
+      <c r="U4" s="220">
         <v>2.27</v>
       </c>
-      <c r="V4" s="11">
+      <c r="V4" s="220">
         <v>1.8199999999999998</v>
       </c>
-      <c r="W4" s="11">
+      <c r="W4" s="220">
         <v>1.3199999999999998</v>
       </c>
       <c r="X4" s="14"/>
@@ -15016,70 +15051,70 @@
       <c r="A5" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="220">
         <v>3.92</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="220">
         <v>4.42</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="220">
         <v>4.82</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="220">
         <v>5.12</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="220">
         <v>5.32</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="223">
         <v>5.42</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="220">
         <v>5.27</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="220">
         <v>5.12</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="220">
         <v>4.97</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="220">
         <v>4.82</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5" s="220">
         <v>4.67</v>
       </c>
-      <c r="M5" s="13">
+      <c r="M5" s="222">
         <v>4.5199999999999996</v>
       </c>
-      <c r="N5" s="13">
+      <c r="N5" s="222">
         <v>4.37</v>
       </c>
-      <c r="O5" s="13">
+      <c r="O5" s="222">
         <v>4.22</v>
       </c>
-      <c r="P5" s="13">
+      <c r="P5" s="222">
         <v>4.07</v>
       </c>
-      <c r="Q5" s="11">
+      <c r="Q5" s="220">
         <v>3.87</v>
       </c>
-      <c r="R5" s="11">
+      <c r="R5" s="220">
         <v>3.67</v>
       </c>
-      <c r="S5" s="11">
+      <c r="S5" s="220">
         <v>3.37</v>
       </c>
-      <c r="T5" s="11">
+      <c r="T5" s="220">
         <v>3.0199999999999996</v>
       </c>
-      <c r="U5" s="11">
+      <c r="U5" s="220">
         <v>2.62</v>
       </c>
-      <c r="V5" s="11">
+      <c r="V5" s="220">
         <v>2.17</v>
       </c>
-      <c r="W5" s="11">
+      <c r="W5" s="220">
         <v>1.67</v>
       </c>
       <c r="X5" s="14"/>
@@ -15151,70 +15186,70 @@
       <c r="A6" s="10">
         <v>0.08</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="220">
         <v>4.24</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="220">
         <v>4.74</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="220">
         <v>5.14</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="220">
         <v>5.44</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="220">
         <v>5.64</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="221">
         <v>5.74</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="220">
         <v>5.59</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="220">
         <v>5.44</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="220">
         <v>5.29</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="220">
         <v>5.14</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6" s="220">
         <v>4.99</v>
       </c>
-      <c r="M6" s="13">
+      <c r="M6" s="222">
         <v>4.84</v>
       </c>
-      <c r="N6" s="13">
+      <c r="N6" s="222">
         <v>4.6900000000000004</v>
       </c>
-      <c r="O6" s="13">
+      <c r="O6" s="222">
         <v>4.54</v>
       </c>
-      <c r="P6" s="13">
+      <c r="P6" s="222">
         <v>4.3899999999999997</v>
       </c>
-      <c r="Q6" s="11">
+      <c r="Q6" s="220">
         <v>4.1900000000000004</v>
       </c>
-      <c r="R6" s="11">
+      <c r="R6" s="220">
         <v>3.99</v>
       </c>
-      <c r="S6" s="11">
+      <c r="S6" s="220">
         <v>3.6900000000000004</v>
       </c>
-      <c r="T6" s="11">
+      <c r="T6" s="220">
         <v>3.34</v>
       </c>
-      <c r="U6" s="11">
+      <c r="U6" s="220">
         <v>2.94</v>
       </c>
-      <c r="V6" s="11">
+      <c r="V6" s="220">
         <v>2.4900000000000002</v>
       </c>
-      <c r="W6" s="11">
+      <c r="W6" s="220">
         <v>1.9900000000000002</v>
       </c>
       <c r="X6" s="17"/>
@@ -15286,70 +15321,70 @@
       <c r="A7" s="10">
         <v>0.09</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="220">
         <v>4.53</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="220">
         <v>5.03</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="220">
         <v>5.43</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="220">
         <v>5.73</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="220">
         <v>5.93</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="224">
         <v>6.03</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="220">
         <v>5.88</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="220">
         <v>5.73</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="220">
         <v>5.58</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="220">
         <v>5.43</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7" s="220">
         <v>5.28</v>
       </c>
-      <c r="M7" s="13">
+      <c r="M7" s="222">
         <v>5.13</v>
       </c>
-      <c r="N7" s="13">
+      <c r="N7" s="222">
         <v>4.9800000000000004</v>
       </c>
-      <c r="O7" s="13">
+      <c r="O7" s="222">
         <v>4.83</v>
       </c>
-      <c r="P7" s="13">
+      <c r="P7" s="222">
         <v>4.68</v>
       </c>
-      <c r="Q7" s="11">
+      <c r="Q7" s="220">
         <v>4.4800000000000004</v>
       </c>
-      <c r="R7" s="11">
+      <c r="R7" s="220">
         <v>4.28</v>
       </c>
-      <c r="S7" s="11">
+      <c r="S7" s="220">
         <v>3.9800000000000004</v>
       </c>
-      <c r="T7" s="11">
+      <c r="T7" s="220">
         <v>3.63</v>
       </c>
-      <c r="U7" s="11">
+      <c r="U7" s="220">
         <v>3.2300000000000004</v>
       </c>
-      <c r="V7" s="11">
+      <c r="V7" s="220">
         <v>2.78</v>
       </c>
-      <c r="W7" s="11">
+      <c r="W7" s="220">
         <v>2.2799999999999998</v>
       </c>
       <c r="X7" s="14"/>
@@ -15442,7 +15477,7 @@
       <c r="H8" s="19">
         <v>6.16</v>
       </c>
-      <c r="I8" s="19">
+      <c r="I8" s="225">
         <v>6.01</v>
       </c>
       <c r="J8" s="19">
@@ -15583,7 +15618,7 @@
       <c r="J9" s="11">
         <v>6.11</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="226">
         <v>5.96</v>
       </c>
       <c r="L9" s="11">
@@ -15721,7 +15756,7 @@
       <c r="K10" s="19">
         <v>6.2</v>
       </c>
-      <c r="L10" s="19">
+      <c r="L10" s="225">
         <v>6.05</v>
       </c>
       <c r="M10" s="20">
@@ -15862,7 +15897,7 @@
       <c r="M11" s="13">
         <v>6.12</v>
       </c>
-      <c r="N11" s="13">
+      <c r="N11" s="227">
         <v>5.97</v>
       </c>
       <c r="O11" s="13">
@@ -16000,7 +16035,7 @@
       <c r="N12" s="13">
         <v>6.17</v>
       </c>
-      <c r="O12" s="13">
+      <c r="O12" s="227">
         <v>6.02</v>
       </c>
       <c r="P12" s="13">
@@ -16138,7 +16173,7 @@
       <c r="O13" s="13">
         <v>6.21</v>
       </c>
-      <c r="P13" s="13">
+      <c r="P13" s="227">
         <v>6.06</v>
       </c>
       <c r="Q13" s="11">
@@ -16276,7 +16311,7 @@
       <c r="P14" s="13">
         <v>6.24</v>
       </c>
-      <c r="Q14" s="11">
+      <c r="Q14" s="226">
         <v>6.04</v>
       </c>
       <c r="R14" s="11">
@@ -16414,7 +16449,7 @@
       <c r="Q15" s="19">
         <v>6.2</v>
       </c>
-      <c r="R15" s="19">
+      <c r="R15" s="225">
         <v>6</v>
       </c>
       <c r="S15" s="19">
@@ -16552,7 +16587,7 @@
       <c r="R16" s="11">
         <v>6.15</v>
       </c>
-      <c r="S16" s="11">
+      <c r="S16" s="226">
         <v>5.85</v>
       </c>
       <c r="T16" s="11">
@@ -16687,7 +16722,7 @@
       <c r="R17" s="11">
         <v>6.29</v>
       </c>
-      <c r="S17" s="11">
+      <c r="S17" s="226">
         <v>5.99</v>
       </c>
       <c r="T17" s="11">
@@ -16822,7 +16857,7 @@
       <c r="R18" s="22">
         <v>6.42</v>
       </c>
-      <c r="S18" s="22">
+      <c r="S18" s="228">
         <v>6.12</v>
       </c>
       <c r="T18" s="22">
@@ -16957,7 +16992,7 @@
       <c r="R19" s="11">
         <v>6.55</v>
       </c>
-      <c r="S19" s="11">
+      <c r="S19" s="226">
         <v>6.25</v>
       </c>
       <c r="T19" s="11">
@@ -17095,7 +17130,7 @@
       <c r="S20" s="11">
         <v>6.36</v>
       </c>
-      <c r="T20" s="11">
+      <c r="T20" s="226">
         <v>6.01</v>
       </c>
       <c r="U20" s="11">
@@ -17230,7 +17265,7 @@
       <c r="S21" s="11">
         <v>6.46</v>
       </c>
-      <c r="T21" s="11">
+      <c r="T21" s="226">
         <v>6.11</v>
       </c>
       <c r="U21" s="11">
@@ -17365,7 +17400,7 @@
       <c r="S22" s="11">
         <v>6.56</v>
       </c>
-      <c r="T22" s="11">
+      <c r="T22" s="226">
         <v>6.21</v>
       </c>
       <c r="U22" s="11">
@@ -17500,7 +17535,7 @@
       <c r="S23" s="11">
         <v>6.65</v>
       </c>
-      <c r="T23" s="11">
+      <c r="T23" s="226">
         <v>6.3</v>
       </c>
       <c r="U23" s="11">
@@ -17638,7 +17673,7 @@
       <c r="T24" s="11">
         <v>6.38</v>
       </c>
-      <c r="U24" s="11">
+      <c r="U24" s="226">
         <v>5.98</v>
       </c>
       <c r="V24" s="11">
@@ -17773,7 +17808,7 @@
       <c r="T25" s="11">
         <v>6.46</v>
       </c>
-      <c r="U25" s="11">
+      <c r="U25" s="226">
         <v>6.06</v>
       </c>
       <c r="V25" s="11">
@@ -17908,7 +17943,7 @@
       <c r="T26" s="11">
         <v>6.53</v>
       </c>
-      <c r="U26" s="11">
+      <c r="U26" s="226">
         <v>6.13</v>
       </c>
       <c r="V26" s="11">
@@ -18043,7 +18078,7 @@
       <c r="T27" s="11">
         <v>6.6</v>
       </c>
-      <c r="U27" s="11">
+      <c r="U27" s="226">
         <v>6.2</v>
       </c>
       <c r="V27" s="11">
@@ -18178,7 +18213,7 @@
       <c r="T28" s="11">
         <v>6.66</v>
       </c>
-      <c r="U28" s="11">
+      <c r="U28" s="226">
         <v>6.26</v>
       </c>
       <c r="V28" s="11">
@@ -18313,7 +18348,7 @@
       <c r="T29" s="11">
         <v>6.72</v>
       </c>
-      <c r="U29" s="11">
+      <c r="U29" s="226">
         <v>6.32</v>
       </c>
       <c r="V29" s="11">
@@ -18448,7 +18483,7 @@
       <c r="T30" s="11">
         <v>6.77</v>
       </c>
-      <c r="U30" s="11">
+      <c r="U30" s="226">
         <v>6.37</v>
       </c>
       <c r="V30" s="11">
@@ -18586,7 +18621,7 @@
       <c r="U31" s="11">
         <v>6.42</v>
       </c>
-      <c r="V31" s="11">
+      <c r="V31" s="226">
         <v>5.97</v>
       </c>
       <c r="W31" s="11">
@@ -18721,7 +18756,7 @@
       <c r="U32" s="11">
         <v>6.47</v>
       </c>
-      <c r="V32" s="11">
+      <c r="V32" s="226">
         <v>6.02</v>
       </c>
       <c r="W32" s="11">
@@ -18856,7 +18891,7 @@
       <c r="U33" s="11">
         <v>6.51</v>
       </c>
-      <c r="V33" s="11">
+      <c r="V33" s="226">
         <v>6.06</v>
       </c>
       <c r="W33" s="11">
@@ -18991,7 +19026,7 @@
       <c r="U34" s="11">
         <v>6.55</v>
       </c>
-      <c r="V34" s="11">
+      <c r="V34" s="226">
         <v>6.1</v>
       </c>
       <c r="W34" s="11">
@@ -19126,7 +19161,7 @@
       <c r="U35" s="11">
         <v>6.58</v>
       </c>
-      <c r="V35" s="11">
+      <c r="V35" s="226">
         <v>6.13</v>
       </c>
       <c r="W35" s="11">
@@ -19261,7 +19296,7 @@
       <c r="U36" s="11">
         <v>6.62</v>
       </c>
-      <c r="V36" s="11">
+      <c r="V36" s="226">
         <v>6.17</v>
       </c>
       <c r="W36" s="11">
@@ -19396,7 +19431,7 @@
       <c r="U37" s="11">
         <v>6.65</v>
       </c>
-      <c r="V37" s="11">
+      <c r="V37" s="226">
         <v>6.2</v>
       </c>
       <c r="W37" s="11">
@@ -19531,7 +19566,7 @@
       <c r="U38" s="11">
         <v>6.68</v>
       </c>
-      <c r="V38" s="11">
+      <c r="V38" s="226">
         <v>6.23</v>
       </c>
       <c r="W38" s="11">
@@ -20972,16 +21007,16 @@
       <c r="A59" s="30">
         <v>17</v>
       </c>
-      <c r="B59" s="221" t="s">
+      <c r="B59" s="230" t="s">
         <v>17</v>
       </c>
       <c r="C59" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D59" s="222" t="s">
+      <c r="D59" s="231" t="s">
         <v>19</v>
       </c>
-      <c r="E59" s="222" t="s">
+      <c r="E59" s="231" t="s">
         <v>19</v>
       </c>
       <c r="F59" s="32" t="s">
@@ -20995,12 +21030,12 @@
       <c r="A60" s="34">
         <v>18</v>
       </c>
-      <c r="B60" s="221"/>
+      <c r="B60" s="230"/>
       <c r="C60" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="D60" s="222"/>
-      <c r="E60" s="222"/>
+      <c r="D60" s="231"/>
+      <c r="E60" s="231"/>
       <c r="F60" s="32" t="s">
         <v>23</v>
       </c>
@@ -21012,10 +21047,10 @@
       <c r="A61" s="30">
         <v>19</v>
       </c>
-      <c r="B61" s="221"/>
+      <c r="B61" s="230"/>
       <c r="C61" s="35"/>
-      <c r="D61" s="222"/>
-      <c r="E61" s="222"/>
+      <c r="D61" s="231"/>
+      <c r="E61" s="231"/>
       <c r="F61" s="36"/>
       <c r="H61" s="25" t="s">
         <v>25</v>
@@ -21026,11 +21061,11 @@
       <c r="A62" s="34">
         <v>20</v>
       </c>
-      <c r="B62" s="221"/>
+      <c r="B62" s="230"/>
       <c r="C62" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D62" s="223" t="s">
+      <c r="D62" s="232" t="s">
         <v>20</v>
       </c>
       <c r="E62" s="32" t="s">
@@ -21045,13 +21080,13 @@
       <c r="A63" s="30">
         <v>21</v>
       </c>
-      <c r="B63" s="224" t="s">
+      <c r="B63" s="233" t="s">
         <v>18</v>
       </c>
       <c r="C63" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="D63" s="223"/>
+      <c r="D63" s="232"/>
       <c r="E63" s="32" t="s">
         <v>23</v>
       </c>
@@ -21064,9 +21099,9 @@
       <c r="A64" s="34">
         <v>22</v>
       </c>
-      <c r="B64" s="224"/>
+      <c r="B64" s="233"/>
       <c r="C64" s="36"/>
-      <c r="D64" s="223"/>
+      <c r="D64" s="232"/>
       <c r="E64" s="36"/>
       <c r="F64" s="36"/>
       <c r="H64" s="25" t="s">
@@ -21077,9 +21112,9 @@
       <c r="A65" s="30">
         <v>23</v>
       </c>
-      <c r="B65" s="224"/>
+      <c r="B65" s="233"/>
       <c r="C65" s="36"/>
-      <c r="D65" s="223"/>
+      <c r="D65" s="232"/>
       <c r="E65" s="36"/>
       <c r="F65" s="36"/>
     </row>
@@ -21087,9 +21122,9 @@
       <c r="A66" s="34">
         <v>24</v>
       </c>
-      <c r="B66" s="224"/>
+      <c r="B66" s="233"/>
       <c r="C66" s="36"/>
-      <c r="D66" s="223"/>
+      <c r="D66" s="232"/>
       <c r="E66" s="36"/>
       <c r="F66" s="36"/>
       <c r="H66" s="25" t="s">
@@ -21100,9 +21135,9 @@
       <c r="A67" s="30">
         <v>25</v>
       </c>
-      <c r="B67" s="224"/>
+      <c r="B67" s="233"/>
       <c r="C67" s="36"/>
-      <c r="D67" s="222" t="s">
+      <c r="D67" s="231" t="s">
         <v>19</v>
       </c>
       <c r="E67" s="36"/>
@@ -21115,11 +21150,11 @@
       <c r="A68" s="34">
         <v>26</v>
       </c>
-      <c r="B68" s="224"/>
-      <c r="C68" s="222" t="s">
+      <c r="B68" s="233"/>
+      <c r="C68" s="231" t="s">
         <v>19</v>
       </c>
-      <c r="D68" s="222"/>
+      <c r="D68" s="231"/>
       <c r="E68" s="36"/>
       <c r="F68" s="36"/>
     </row>
@@ -21127,11 +21162,11 @@
       <c r="A69" s="30">
         <v>27</v>
       </c>
-      <c r="B69" s="221" t="s">
+      <c r="B69" s="230" t="s">
         <v>17</v>
       </c>
-      <c r="C69" s="222"/>
-      <c r="D69" s="222"/>
+      <c r="C69" s="231"/>
+      <c r="D69" s="231"/>
       <c r="E69" s="36"/>
       <c r="F69" s="36"/>
     </row>
@@ -21139,11 +21174,11 @@
       <c r="A70" s="34">
         <v>28</v>
       </c>
-      <c r="B70" s="221"/>
-      <c r="C70" s="224" t="s">
+      <c r="B70" s="230"/>
+      <c r="C70" s="233" t="s">
         <v>18</v>
       </c>
-      <c r="D70" s="222"/>
+      <c r="D70" s="231"/>
       <c r="E70" s="36"/>
       <c r="F70" s="36"/>
       <c r="H70" s="25" t="s">
@@ -21154,9 +21189,9 @@
       <c r="A71" s="30">
         <v>29</v>
       </c>
-      <c r="B71" s="221"/>
-      <c r="C71" s="224"/>
-      <c r="D71" s="222"/>
+      <c r="B71" s="230"/>
+      <c r="C71" s="233"/>
+      <c r="D71" s="231"/>
       <c r="E71" s="36"/>
       <c r="F71" s="36"/>
     </row>
@@ -21164,9 +21199,9 @@
       <c r="A72" s="34">
         <v>30</v>
       </c>
-      <c r="B72" s="221"/>
-      <c r="C72" s="224"/>
-      <c r="D72" s="224" t="s">
+      <c r="B72" s="230"/>
+      <c r="C72" s="233"/>
+      <c r="D72" s="233" t="s">
         <v>18</v>
       </c>
       <c r="E72" s="36"/>
@@ -21179,9 +21214,9 @@
       <c r="A73" s="30">
         <v>31</v>
       </c>
-      <c r="B73" s="221"/>
-      <c r="C73" s="224"/>
-      <c r="D73" s="224"/>
+      <c r="B73" s="230"/>
+      <c r="C73" s="233"/>
+      <c r="D73" s="233"/>
       <c r="E73" s="32" t="s">
         <v>19</v>
       </c>
@@ -21191,9 +21226,9 @@
       <c r="A74" s="34">
         <v>32</v>
       </c>
-      <c r="B74" s="221"/>
-      <c r="C74" s="224"/>
-      <c r="D74" s="224"/>
+      <c r="B74" s="230"/>
+      <c r="C74" s="233"/>
+      <c r="D74" s="233"/>
       <c r="E74" s="32" t="s">
         <v>27</v>
       </c>
@@ -21206,11 +21241,11 @@
       <c r="A75" s="30">
         <v>33</v>
       </c>
-      <c r="B75" s="221"/>
-      <c r="C75" s="221" t="s">
+      <c r="B75" s="230"/>
+      <c r="C75" s="230" t="s">
         <v>17</v>
       </c>
-      <c r="D75" s="224"/>
+      <c r="D75" s="233"/>
       <c r="E75" s="31" t="s">
         <v>18</v>
       </c>
@@ -21222,11 +21257,11 @@
       <c r="A76" s="34">
         <v>34</v>
       </c>
-      <c r="B76" s="225" t="s">
+      <c r="B76" s="234" t="s">
         <v>35</v>
       </c>
-      <c r="C76" s="221"/>
-      <c r="D76" s="224"/>
+      <c r="C76" s="230"/>
+      <c r="D76" s="233"/>
       <c r="E76" s="31" t="s">
         <v>22</v>
       </c>
@@ -21241,14 +21276,14 @@
       <c r="A77" s="30">
         <v>35</v>
       </c>
-      <c r="B77" s="225"/>
-      <c r="C77" s="225" t="s">
+      <c r="B77" s="234"/>
+      <c r="C77" s="234" t="s">
         <v>35</v>
       </c>
-      <c r="D77" s="221" t="s">
+      <c r="D77" s="230" t="s">
         <v>17</v>
       </c>
-      <c r="E77" s="221" t="s">
+      <c r="E77" s="230" t="s">
         <v>17</v>
       </c>
       <c r="F77" s="35"/>
@@ -21257,10 +21292,10 @@
       <c r="A78" s="34">
         <v>36</v>
       </c>
-      <c r="B78" s="225"/>
-      <c r="C78" s="225"/>
-      <c r="D78" s="221"/>
-      <c r="E78" s="221"/>
+      <c r="B78" s="234"/>
+      <c r="C78" s="234"/>
+      <c r="D78" s="230"/>
+      <c r="E78" s="230"/>
       <c r="F78" s="37" t="s">
         <v>17</v>
       </c>
@@ -21269,14 +21304,14 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="220" t="s">
+      <c r="A79" s="229" t="s">
         <v>38</v>
       </c>
-      <c r="B79" s="220"/>
-      <c r="C79" s="220"/>
-      <c r="D79" s="220"/>
-      <c r="E79" s="220"/>
-      <c r="F79" s="220"/>
+      <c r="B79" s="229"/>
+      <c r="C79" s="229"/>
+      <c r="D79" s="229"/>
+      <c r="E79" s="229"/>
+      <c r="F79" s="229"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="24"/>
@@ -22360,6 +22395,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -22388,97 +22424,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="257">
+      <c r="A1" s="266">
         <v>0.34</v>
       </c>
-      <c r="B1" s="258"/>
-      <c r="C1" s="257">
+      <c r="B1" s="267"/>
+      <c r="C1" s="266">
         <v>0.245</v>
       </c>
-      <c r="D1" s="258"/>
-      <c r="E1" s="257">
+      <c r="D1" s="267"/>
+      <c r="E1" s="266">
         <v>0.125</v>
       </c>
-      <c r="F1" s="258"/>
-      <c r="G1" s="257">
+      <c r="F1" s="267"/>
+      <c r="G1" s="266">
         <v>0.29099999999999998</v>
       </c>
-      <c r="H1" s="258"/>
-      <c r="I1" s="257">
+      <c r="H1" s="267"/>
+      <c r="I1" s="266">
         <v>0.19</v>
       </c>
-      <c r="J1" s="258"/>
-      <c r="L1" s="257">
+      <c r="J1" s="267"/>
+      <c r="L1" s="266">
         <v>0.34</v>
       </c>
-      <c r="M1" s="258"/>
-      <c r="N1" s="257">
+      <c r="M1" s="267"/>
+      <c r="N1" s="266">
         <v>0.245</v>
       </c>
-      <c r="O1" s="258"/>
-      <c r="P1" s="257">
+      <c r="O1" s="267"/>
+      <c r="P1" s="266">
         <v>0.125</v>
       </c>
-      <c r="Q1" s="258"/>
-      <c r="R1" s="257">
+      <c r="Q1" s="267"/>
+      <c r="R1" s="266">
         <f>0.291*86/100</f>
         <v>0.25025999999999998</v>
       </c>
-      <c r="S1" s="258"/>
-      <c r="T1" s="257">
+      <c r="S1" s="267"/>
+      <c r="T1" s="266">
         <v>0.19</v>
       </c>
-      <c r="U1" s="258"/>
-      <c r="W1" s="256" t="s">
+      <c r="U1" s="267"/>
+      <c r="W1" s="265" t="s">
         <v>232</v>
       </c>
-      <c r="X1" s="256"/>
-      <c r="AC1" s="256" t="s">
+      <c r="X1" s="265"/>
+      <c r="AC1" s="265" t="s">
         <v>233</v>
       </c>
-      <c r="AD1" s="256"/>
+      <c r="AD1" s="265"/>
     </row>
     <row r="2" spans="1:44" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="253" t="s">
+      <c r="A2" s="262" t="s">
         <v>234</v>
       </c>
-      <c r="B2" s="253"/>
-      <c r="C2" s="253" t="s">
+      <c r="B2" s="262"/>
+      <c r="C2" s="262" t="s">
         <v>235</v>
       </c>
-      <c r="D2" s="253"/>
-      <c r="E2" s="253" t="s">
+      <c r="D2" s="262"/>
+      <c r="E2" s="262" t="s">
         <v>236</v>
       </c>
-      <c r="F2" s="253"/>
-      <c r="G2" s="253" t="s">
+      <c r="F2" s="262"/>
+      <c r="G2" s="262" t="s">
         <v>237</v>
       </c>
-      <c r="H2" s="253"/>
-      <c r="I2" s="253" t="s">
+      <c r="H2" s="262"/>
+      <c r="I2" s="262" t="s">
         <v>238</v>
       </c>
-      <c r="J2" s="253"/>
-      <c r="L2" s="253" t="s">
+      <c r="J2" s="262"/>
+      <c r="L2" s="262" t="s">
         <v>234</v>
       </c>
-      <c r="M2" s="253"/>
-      <c r="N2" s="253" t="s">
+      <c r="M2" s="262"/>
+      <c r="N2" s="262" t="s">
         <v>235</v>
       </c>
-      <c r="O2" s="253"/>
-      <c r="P2" s="253" t="s">
+      <c r="O2" s="262"/>
+      <c r="P2" s="262" t="s">
         <v>236</v>
       </c>
-      <c r="Q2" s="253"/>
-      <c r="R2" s="253" t="s">
+      <c r="Q2" s="262"/>
+      <c r="R2" s="262" t="s">
         <v>237</v>
       </c>
-      <c r="S2" s="253"/>
-      <c r="T2" s="253" t="s">
+      <c r="S2" s="262"/>
+      <c r="T2" s="262" t="s">
         <v>238</v>
       </c>
-      <c r="U2" s="253"/>
+      <c r="U2" s="262"/>
     </row>
     <row r="3" spans="1:44" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="79" t="s">
@@ -22487,36 +22523,36 @@
       <c r="B3" s="79" t="s">
         <v>240</v>
       </c>
-      <c r="C3" s="254"/>
-      <c r="D3" s="255"/>
-      <c r="E3" s="254"/>
-      <c r="F3" s="255"/>
+      <c r="C3" s="263"/>
+      <c r="D3" s="264"/>
+      <c r="E3" s="263"/>
+      <c r="F3" s="264"/>
       <c r="G3" s="79" t="s">
         <v>239</v>
       </c>
       <c r="H3" s="79" t="s">
         <v>240</v>
       </c>
-      <c r="I3" s="254"/>
-      <c r="J3" s="255"/>
+      <c r="I3" s="263"/>
+      <c r="J3" s="264"/>
       <c r="L3" s="79" t="s">
         <v>239</v>
       </c>
       <c r="M3" s="79" t="s">
         <v>240</v>
       </c>
-      <c r="N3" s="254"/>
-      <c r="O3" s="255"/>
-      <c r="P3" s="254"/>
-      <c r="Q3" s="255"/>
+      <c r="N3" s="263"/>
+      <c r="O3" s="264"/>
+      <c r="P3" s="263"/>
+      <c r="Q3" s="264"/>
       <c r="R3" s="79" t="s">
         <v>239</v>
       </c>
       <c r="S3" s="79" t="s">
         <v>240</v>
       </c>
-      <c r="T3" s="254"/>
-      <c r="U3" s="255"/>
+      <c r="T3" s="263"/>
+      <c r="U3" s="264"/>
       <c r="W3" t="s">
         <v>241</v>
       </c>
@@ -22525,14 +22561,14 @@
       </c>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A4" s="247">
+      <c r="A4" s="256">
         <v>0.64709000000000005</v>
       </c>
-      <c r="B4" s="247"/>
-      <c r="C4" s="247">
+      <c r="B4" s="256"/>
+      <c r="C4" s="256">
         <v>0.97192999999999996</v>
       </c>
-      <c r="D4" s="247"/>
+      <c r="D4" s="256"/>
       <c r="E4" s="81"/>
       <c r="F4" s="81"/>
       <c r="G4" s="81"/>
@@ -22542,14 +22578,14 @@
       <c r="K4" s="80" t="s">
         <v>243</v>
       </c>
-      <c r="L4" s="247">
+      <c r="L4" s="256">
         <v>0.64709000000000005</v>
       </c>
-      <c r="M4" s="247"/>
-      <c r="N4" s="247">
+      <c r="M4" s="256"/>
+      <c r="N4" s="256">
         <v>0.97192999999999996</v>
       </c>
-      <c r="O4" s="247"/>
+      <c r="O4" s="256"/>
       <c r="P4" s="81"/>
       <c r="Q4" s="81"/>
       <c r="R4" s="81"/>
@@ -22567,14 +22603,14 @@
       </c>
     </row>
     <row r="5" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="252">
+      <c r="A5" s="261">
         <v>0.26545000000000002</v>
       </c>
-      <c r="B5" s="252"/>
-      <c r="C5" s="252">
+      <c r="B5" s="261"/>
+      <c r="C5" s="261">
         <v>0.39895999999999998</v>
       </c>
-      <c r="D5" s="252"/>
+      <c r="D5" s="261"/>
       <c r="E5" s="85"/>
       <c r="F5" s="85"/>
       <c r="G5" s="85"/>
@@ -22584,14 +22620,14 @@
       <c r="K5" s="84" t="s">
         <v>246</v>
       </c>
-      <c r="L5" s="252">
+      <c r="L5" s="261">
         <v>0.26545000000000002</v>
       </c>
-      <c r="M5" s="252"/>
-      <c r="N5" s="252">
+      <c r="M5" s="261"/>
+      <c r="N5" s="261">
         <v>0.39895999999999998</v>
       </c>
-      <c r="O5" s="252"/>
+      <c r="O5" s="261"/>
       <c r="P5" s="85"/>
       <c r="Q5" s="85"/>
       <c r="R5" s="85"/>
@@ -22615,10 +22651,10 @@
       <c r="B6" s="81">
         <v>0.25008999999999998</v>
       </c>
-      <c r="C6" s="247">
+      <c r="C6" s="256">
         <v>1</v>
       </c>
-      <c r="D6" s="247"/>
+      <c r="D6" s="256"/>
       <c r="E6" s="81"/>
       <c r="F6" s="81"/>
       <c r="G6" s="81"/>
@@ -22634,10 +22670,10 @@
       <c r="M6" s="81">
         <v>0.25008999999999998</v>
       </c>
-      <c r="N6" s="247">
+      <c r="N6" s="256">
         <v>1</v>
       </c>
-      <c r="O6" s="247"/>
+      <c r="O6" s="256"/>
       <c r="P6" s="81"/>
       <c r="Q6" s="81"/>
       <c r="R6" s="81"/>
@@ -22650,10 +22686,10 @@
       <c r="B7" s="85"/>
       <c r="C7" s="85"/>
       <c r="D7" s="85"/>
-      <c r="E7" s="252">
+      <c r="E7" s="261">
         <v>0.27488000000000001</v>
       </c>
-      <c r="F7" s="252"/>
+      <c r="F7" s="261"/>
       <c r="G7" s="85"/>
       <c r="H7" s="85"/>
       <c r="I7" s="85"/>
@@ -22665,10 +22701,10 @@
       <c r="M7" s="85"/>
       <c r="N7" s="85"/>
       <c r="O7" s="85"/>
-      <c r="P7" s="252">
+      <c r="P7" s="261">
         <v>0.27488000000000001</v>
       </c>
-      <c r="Q7" s="252"/>
+      <c r="Q7" s="261"/>
       <c r="R7" s="85"/>
       <c r="S7" s="85"/>
       <c r="T7" s="85"/>
@@ -22687,10 +22723,10 @@
       <c r="B8" s="81">
         <v>0.17752000000000001</v>
       </c>
-      <c r="C8" s="247">
+      <c r="C8" s="256">
         <v>0.72296000000000005</v>
       </c>
-      <c r="D8" s="247"/>
+      <c r="D8" s="256"/>
       <c r="E8" s="81"/>
       <c r="F8" s="81"/>
       <c r="G8" s="81"/>
@@ -22706,10 +22742,10 @@
       <c r="M8" s="81">
         <v>0.17752000000000001</v>
       </c>
-      <c r="N8" s="247">
+      <c r="N8" s="256">
         <v>0.72296000000000005</v>
       </c>
-      <c r="O8" s="247"/>
+      <c r="O8" s="256"/>
       <c r="P8" s="81"/>
       <c r="Q8" s="81"/>
       <c r="R8" s="81"/>
@@ -22725,10 +22761,10 @@
       <c r="B9" s="85"/>
       <c r="C9" s="85"/>
       <c r="D9" s="85"/>
-      <c r="E9" s="252">
+      <c r="E9" s="261">
         <v>0.36337000000000003</v>
       </c>
-      <c r="F9" s="252"/>
+      <c r="F9" s="261"/>
       <c r="G9" s="85"/>
       <c r="H9" s="85"/>
       <c r="I9" s="85"/>
@@ -22740,11 +22776,11 @@
       <c r="M9" s="85"/>
       <c r="N9" s="85"/>
       <c r="O9" s="85"/>
-      <c r="P9" s="252">
+      <c r="P9" s="261">
         <f>36.337%*1.21</f>
         <v>0.4396777</v>
       </c>
-      <c r="Q9" s="252"/>
+      <c r="Q9" s="261"/>
       <c r="R9" s="85"/>
       <c r="S9" s="85"/>
       <c r="T9" s="85"/>
@@ -22758,10 +22794,10 @@
         <v>0.65615999999999997</v>
       </c>
       <c r="B10" s="81"/>
-      <c r="C10" s="247">
+      <c r="C10" s="256">
         <v>0.78437000000000001</v>
       </c>
-      <c r="D10" s="247"/>
+      <c r="D10" s="256"/>
       <c r="E10" s="81"/>
       <c r="F10" s="81"/>
       <c r="G10" s="81"/>
@@ -22776,11 +22812,11 @@
         <v>0.69552959999999997</v>
       </c>
       <c r="M10" s="81"/>
-      <c r="N10" s="247">
+      <c r="N10" s="256">
         <f>78.437%*(1-0.09)</f>
         <v>0.71377670000000004</v>
       </c>
-      <c r="O10" s="247"/>
+      <c r="O10" s="256"/>
       <c r="P10" s="81"/>
       <c r="Q10" s="81"/>
       <c r="R10" s="81"/>
@@ -22796,10 +22832,10 @@
       <c r="B11" s="88"/>
       <c r="C11" s="88"/>
       <c r="D11" s="88"/>
-      <c r="E11" s="251">
+      <c r="E11" s="260">
         <v>0.1464</v>
       </c>
-      <c r="F11" s="251"/>
+      <c r="F11" s="260"/>
       <c r="G11" s="88"/>
       <c r="H11" s="88"/>
       <c r="I11" s="88"/>
@@ -22811,10 +22847,10 @@
       <c r="M11" s="88"/>
       <c r="N11" s="88"/>
       <c r="O11" s="88"/>
-      <c r="P11" s="251">
+      <c r="P11" s="260">
         <v>0.1464</v>
       </c>
-      <c r="Q11" s="251"/>
+      <c r="Q11" s="260"/>
       <c r="R11" s="88"/>
       <c r="S11" s="88"/>
       <c r="T11" s="88"/>
@@ -22859,14 +22895,14 @@
       </c>
     </row>
     <row r="13" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A13" s="247">
+      <c r="A13" s="256">
         <v>0.42514999999999997</v>
       </c>
-      <c r="B13" s="247"/>
-      <c r="C13" s="247">
+      <c r="B13" s="256"/>
+      <c r="C13" s="256">
         <v>0.85</v>
       </c>
-      <c r="D13" s="247"/>
+      <c r="D13" s="256"/>
       <c r="E13" s="81"/>
       <c r="F13" s="81"/>
       <c r="G13" s="81"/>
@@ -22876,14 +22912,14 @@
       <c r="K13" s="80" t="s">
         <v>260</v>
       </c>
-      <c r="L13" s="247">
+      <c r="L13" s="256">
         <v>0.42514999999999997</v>
       </c>
-      <c r="M13" s="247"/>
-      <c r="N13" s="247">
+      <c r="M13" s="256"/>
+      <c r="N13" s="256">
         <v>0.85</v>
       </c>
-      <c r="O13" s="247"/>
+      <c r="O13" s="256"/>
       <c r="P13" s="81"/>
       <c r="Q13" s="81"/>
       <c r="R13" s="81"/>
@@ -22916,10 +22952,10 @@
       <c r="B14" s="85"/>
       <c r="C14" s="85"/>
       <c r="D14" s="85"/>
-      <c r="E14" s="252">
+      <c r="E14" s="261">
         <v>0.23365</v>
       </c>
-      <c r="F14" s="252"/>
+      <c r="F14" s="261"/>
       <c r="G14" s="85"/>
       <c r="H14" s="85"/>
       <c r="I14" s="85"/>
@@ -22931,10 +22967,10 @@
       <c r="M14" s="85"/>
       <c r="N14" s="85"/>
       <c r="O14" s="85"/>
-      <c r="P14" s="252">
+      <c r="P14" s="261">
         <v>0.23365</v>
       </c>
-      <c r="Q14" s="252"/>
+      <c r="Q14" s="261"/>
       <c r="R14" s="85"/>
       <c r="S14" s="85"/>
       <c r="T14" s="85"/>
@@ -22972,10 +23008,10 @@
         <v>1</v>
       </c>
       <c r="B15" s="92"/>
-      <c r="C15" s="247">
+      <c r="C15" s="256">
         <v>0.51382000000000005</v>
       </c>
-      <c r="D15" s="247"/>
+      <c r="D15" s="256"/>
       <c r="E15" s="81"/>
       <c r="F15" s="81"/>
       <c r="G15" s="81"/>
@@ -22989,10 +23025,10 @@
         <v>1</v>
       </c>
       <c r="M15" s="92"/>
-      <c r="N15" s="247">
+      <c r="N15" s="256">
         <v>0.51382000000000005</v>
       </c>
-      <c r="O15" s="247"/>
+      <c r="O15" s="256"/>
       <c r="P15" s="81"/>
       <c r="Q15" s="81"/>
       <c r="R15" s="81"/>
@@ -23040,10 +23076,10 @@
       <c r="B16" s="88"/>
       <c r="C16" s="88"/>
       <c r="D16" s="88"/>
-      <c r="E16" s="251">
+      <c r="E16" s="260">
         <v>4.3869999999999999E-2</v>
       </c>
-      <c r="F16" s="251"/>
+      <c r="F16" s="260"/>
       <c r="G16" s="88"/>
       <c r="H16" s="88"/>
       <c r="I16" s="88"/>
@@ -23055,10 +23091,10 @@
       <c r="M16" s="88"/>
       <c r="N16" s="88"/>
       <c r="O16" s="88"/>
-      <c r="P16" s="251">
+      <c r="P16" s="260">
         <v>4.3869999999999999E-2</v>
       </c>
-      <c r="Q16" s="251"/>
+      <c r="Q16" s="260"/>
       <c r="R16" s="88"/>
       <c r="S16" s="88"/>
       <c r="T16" s="88"/>
@@ -23139,10 +23175,10 @@
         <v>0.91232999999999997</v>
       </c>
       <c r="B18" s="92"/>
-      <c r="C18" s="247">
+      <c r="C18" s="256">
         <v>0.46146999999999999</v>
       </c>
-      <c r="D18" s="247"/>
+      <c r="D18" s="256"/>
       <c r="E18" s="81"/>
       <c r="F18" s="81"/>
       <c r="G18" s="81"/>
@@ -23156,11 +23192,11 @@
         <v>0.91232999999999997</v>
       </c>
       <c r="M18" s="92"/>
-      <c r="N18" s="247">
+      <c r="N18" s="256">
         <f>46.147%*(1-0.08)</f>
         <v>0.4245524</v>
       </c>
-      <c r="O18" s="247"/>
+      <c r="O18" s="256"/>
       <c r="P18" s="81"/>
       <c r="Q18" s="81"/>
       <c r="R18" s="81"/>
@@ -23179,10 +23215,10 @@
       <c r="B19" s="88"/>
       <c r="C19" s="88"/>
       <c r="D19" s="88"/>
-      <c r="E19" s="251">
+      <c r="E19" s="260">
         <v>0.15035999999999999</v>
       </c>
-      <c r="F19" s="251"/>
+      <c r="F19" s="260"/>
       <c r="G19" s="88"/>
       <c r="H19" s="88"/>
       <c r="I19" s="88"/>
@@ -23194,10 +23230,10 @@
       <c r="M19" s="88"/>
       <c r="N19" s="88"/>
       <c r="O19" s="88"/>
-      <c r="P19" s="251">
+      <c r="P19" s="260">
         <v>0.15035999999999999</v>
       </c>
-      <c r="Q19" s="251"/>
+      <c r="Q19" s="260"/>
       <c r="R19" s="88"/>
       <c r="S19" s="88"/>
       <c r="T19" s="88"/>
@@ -23267,10 +23303,10 @@
         <v>0.69059999999999999</v>
       </c>
       <c r="B21" s="92"/>
-      <c r="C21" s="247">
+      <c r="C21" s="256">
         <v>0.38878000000000001</v>
       </c>
-      <c r="D21" s="247"/>
+      <c r="D21" s="256"/>
       <c r="E21" s="81"/>
       <c r="F21" s="81"/>
       <c r="G21" s="81"/>
@@ -23284,10 +23320,10 @@
         <v>0.69059999999999999</v>
       </c>
       <c r="M21" s="92"/>
-      <c r="N21" s="247">
+      <c r="N21" s="256">
         <v>0.38878000000000001</v>
       </c>
-      <c r="O21" s="247"/>
+      <c r="O21" s="256"/>
       <c r="P21" s="81"/>
       <c r="Q21" s="81"/>
       <c r="R21" s="81"/>
@@ -23309,10 +23345,10 @@
       <c r="B22" s="88"/>
       <c r="C22" s="88"/>
       <c r="D22" s="88"/>
-      <c r="E22" s="251">
+      <c r="E22" s="260">
         <v>0.2099</v>
       </c>
-      <c r="F22" s="251"/>
+      <c r="F22" s="260"/>
       <c r="G22" s="88"/>
       <c r="H22" s="88"/>
       <c r="I22" s="88"/>
@@ -23324,10 +23360,10 @@
       <c r="M22" s="88"/>
       <c r="N22" s="88"/>
       <c r="O22" s="88"/>
-      <c r="P22" s="251">
+      <c r="P22" s="260">
         <v>0.2099</v>
       </c>
-      <c r="Q22" s="251"/>
+      <c r="Q22" s="260"/>
       <c r="R22" s="88"/>
       <c r="S22" s="88"/>
       <c r="T22" s="88"/>
@@ -23391,10 +23427,10 @@
         <v>0.68315000000000003</v>
       </c>
       <c r="B24" s="92"/>
-      <c r="C24" s="247">
+      <c r="C24" s="256">
         <v>0.70006000000000002</v>
       </c>
-      <c r="D24" s="247"/>
+      <c r="D24" s="256"/>
       <c r="E24" s="81"/>
       <c r="F24" s="81"/>
       <c r="G24" s="81"/>
@@ -23408,10 +23444,10 @@
         <v>0.68315000000000003</v>
       </c>
       <c r="M24" s="92"/>
-      <c r="N24" s="247">
+      <c r="N24" s="256">
         <v>0.70006000000000002</v>
       </c>
-      <c r="O24" s="247"/>
+      <c r="O24" s="256"/>
       <c r="P24" s="81"/>
       <c r="Q24" s="81"/>
       <c r="R24" s="81"/>
@@ -23436,10 +23472,10 @@
       <c r="B25" s="88"/>
       <c r="C25" s="88"/>
       <c r="D25" s="88"/>
-      <c r="E25" s="251">
+      <c r="E25" s="260">
         <v>0.152</v>
       </c>
-      <c r="F25" s="251"/>
+      <c r="F25" s="260"/>
       <c r="G25" s="88"/>
       <c r="H25" s="88"/>
       <c r="I25" s="88"/>
@@ -23451,10 +23487,10 @@
       <c r="M25" s="88"/>
       <c r="N25" s="88"/>
       <c r="O25" s="88"/>
-      <c r="P25" s="251">
+      <c r="P25" s="260">
         <v>0.152</v>
       </c>
-      <c r="Q25" s="251"/>
+      <c r="Q25" s="260"/>
       <c r="R25" s="88"/>
       <c r="S25" s="88"/>
       <c r="T25" s="88"/>
@@ -23517,16 +23553,16 @@
       <c r="B27" s="81">
         <v>9.2719999999999997E-2</v>
       </c>
-      <c r="C27" s="247">
+      <c r="C27" s="256">
         <v>0.42459999999999998</v>
       </c>
-      <c r="D27" s="247"/>
+      <c r="D27" s="256"/>
       <c r="E27" s="81"/>
       <c r="F27" s="81"/>
       <c r="G27" s="81"/>
       <c r="H27" s="81"/>
-      <c r="I27" s="240"/>
-      <c r="J27" s="242"/>
+      <c r="I27" s="249"/>
+      <c r="J27" s="251"/>
       <c r="K27" s="80" t="s">
         <v>292</v>
       </c>
@@ -23536,16 +23572,16 @@
       <c r="M27" s="81">
         <v>9.2719999999999997E-2</v>
       </c>
-      <c r="N27" s="247">
+      <c r="N27" s="256">
         <v>0.42459999999999998</v>
       </c>
-      <c r="O27" s="247"/>
+      <c r="O27" s="256"/>
       <c r="P27" s="81"/>
       <c r="Q27" s="81"/>
       <c r="R27" s="81"/>
       <c r="S27" s="81"/>
-      <c r="T27" s="240"/>
-      <c r="U27" s="242"/>
+      <c r="T27" s="249"/>
+      <c r="U27" s="251"/>
       <c r="W27" t="s">
         <v>415</v>
       </c>
@@ -23561,14 +23597,14 @@
       <c r="B28" s="88"/>
       <c r="C28" s="88"/>
       <c r="D28" s="88"/>
-      <c r="E28" s="251">
+      <c r="E28" s="260">
         <v>1</v>
       </c>
-      <c r="F28" s="251"/>
+      <c r="F28" s="260"/>
       <c r="G28" s="88"/>
       <c r="H28" s="88"/>
-      <c r="I28" s="243"/>
-      <c r="J28" s="244"/>
+      <c r="I28" s="252"/>
+      <c r="J28" s="253"/>
       <c r="K28" s="87" t="s">
         <v>295</v>
       </c>
@@ -23576,14 +23612,14 @@
       <c r="M28" s="88"/>
       <c r="N28" s="88"/>
       <c r="O28" s="88"/>
-      <c r="P28" s="251">
+      <c r="P28" s="260">
         <v>1</v>
       </c>
-      <c r="Q28" s="251"/>
+      <c r="Q28" s="260"/>
       <c r="R28" s="88"/>
       <c r="S28" s="88"/>
-      <c r="T28" s="243"/>
-      <c r="U28" s="244"/>
+      <c r="T28" s="252"/>
+      <c r="U28" s="253"/>
       <c r="W28" t="s">
         <v>418</v>
       </c>
@@ -23613,10 +23649,10 @@
       <c r="Q29" s="90"/>
       <c r="R29" s="85"/>
       <c r="S29" s="85"/>
-      <c r="T29" s="245">
+      <c r="T29" s="254">
         <v>0.21</v>
       </c>
-      <c r="U29" s="246"/>
+      <c r="U29" s="255"/>
       <c r="W29" t="s">
         <v>420</v>
       </c>
@@ -23637,10 +23673,10 @@
       <c r="H30" s="85">
         <v>0.1226</v>
       </c>
-      <c r="I30" s="245">
+      <c r="I30" s="254">
         <v>0.34044000000000002</v>
       </c>
-      <c r="J30" s="246"/>
+      <c r="J30" s="255"/>
       <c r="K30" s="84" t="s">
         <v>298</v>
       </c>
@@ -23656,11 +23692,11 @@
       <c r="S30" s="85">
         <v>0.14255813953488372</v>
       </c>
-      <c r="T30" s="245">
+      <c r="T30" s="254">
         <f>34.044%*1.05</f>
         <v>0.357462</v>
       </c>
-      <c r="U30" s="246"/>
+      <c r="U30" s="255"/>
       <c r="W30" t="s">
         <v>422</v>
       </c>
@@ -23681,16 +23717,16 @@
       <c r="B31" s="81">
         <v>0.13719000000000001</v>
       </c>
-      <c r="C31" s="247">
+      <c r="C31" s="256">
         <v>0.62792999999999999</v>
       </c>
-      <c r="D31" s="247"/>
+      <c r="D31" s="256"/>
       <c r="E31" s="81"/>
       <c r="F31" s="81"/>
       <c r="G31" s="81"/>
       <c r="H31" s="81"/>
-      <c r="I31" s="240"/>
-      <c r="J31" s="242"/>
+      <c r="I31" s="249"/>
+      <c r="J31" s="251"/>
       <c r="K31" s="80" t="s">
         <v>300</v>
       </c>
@@ -23700,16 +23736,16 @@
       <c r="M31" s="81">
         <v>0.13719000000000001</v>
       </c>
-      <c r="N31" s="247">
+      <c r="N31" s="256">
         <v>0.62792999999999999</v>
       </c>
-      <c r="O31" s="247"/>
+      <c r="O31" s="256"/>
       <c r="P31" s="81"/>
       <c r="Q31" s="81"/>
       <c r="R31" s="81"/>
       <c r="S31" s="81"/>
-      <c r="T31" s="240"/>
-      <c r="U31" s="242"/>
+      <c r="T31" s="249"/>
+      <c r="U31" s="251"/>
       <c r="W31" t="s">
         <v>426</v>
       </c>
@@ -23745,10 +23781,10 @@
       <c r="Q32" s="103"/>
       <c r="R32" s="103"/>
       <c r="S32" s="103"/>
-      <c r="T32" s="245">
+      <c r="T32" s="254">
         <v>0.12</v>
       </c>
-      <c r="U32" s="246"/>
+      <c r="U32" s="255"/>
       <c r="W32" t="s">
         <v>430</v>
       </c>
@@ -23775,10 +23811,10 @@
       <c r="H33" s="85">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="I33" s="245">
+      <c r="I33" s="254">
         <v>0.23748</v>
       </c>
-      <c r="J33" s="246"/>
+      <c r="J33" s="255"/>
       <c r="K33" s="84" t="s">
         <v>303</v>
       </c>
@@ -23794,11 +23830,11 @@
       <c r="S33" s="85">
         <v>6.8837209302325592E-2</v>
       </c>
-      <c r="T33" s="245">
+      <c r="T33" s="254">
         <f>23.748%*0.8</f>
         <v>0.18998400000000004</v>
       </c>
-      <c r="U33" s="246"/>
+      <c r="U33" s="255"/>
       <c r="W33" t="s">
         <v>434</v>
       </c>
@@ -23819,16 +23855,16 @@
       <c r="B34" s="81">
         <v>5.6059999999999999E-2</v>
       </c>
-      <c r="C34" s="247">
+      <c r="C34" s="256">
         <v>0.23462</v>
       </c>
-      <c r="D34" s="247"/>
+      <c r="D34" s="256"/>
       <c r="E34" s="81"/>
       <c r="F34" s="81"/>
       <c r="G34" s="81"/>
       <c r="H34" s="81"/>
-      <c r="I34" s="240"/>
-      <c r="J34" s="242"/>
+      <c r="I34" s="249"/>
+      <c r="J34" s="251"/>
       <c r="K34" s="80" t="s">
         <v>305</v>
       </c>
@@ -23840,17 +23876,17 @@
         <f>5.606%*0.75</f>
         <v>4.2044999999999999E-2</v>
       </c>
-      <c r="N34" s="247">
+      <c r="N34" s="256">
         <f>23.462%*0.75</f>
         <v>0.17596499999999998</v>
       </c>
-      <c r="O34" s="247"/>
+      <c r="O34" s="256"/>
       <c r="P34" s="81"/>
       <c r="Q34" s="81"/>
       <c r="R34" s="81"/>
       <c r="S34" s="81"/>
-      <c r="T34" s="240"/>
-      <c r="U34" s="242"/>
+      <c r="T34" s="249"/>
+      <c r="U34" s="251"/>
       <c r="W34" t="s">
         <v>438</v>
       </c>
@@ -23886,10 +23922,10 @@
       <c r="Q35" s="103"/>
       <c r="R35" s="103"/>
       <c r="S35" s="103"/>
-      <c r="T35" s="245">
+      <c r="T35" s="254">
         <v>0.31</v>
       </c>
-      <c r="U35" s="246"/>
+      <c r="U35" s="255"/>
       <c r="W35" t="s">
         <v>442</v>
       </c>
@@ -23910,10 +23946,10 @@
       <c r="H36" s="85">
         <v>0.11894</v>
       </c>
-      <c r="I36" s="245">
+      <c r="I36" s="254">
         <v>0.50244</v>
       </c>
-      <c r="J36" s="246"/>
+      <c r="J36" s="255"/>
       <c r="K36" s="84" t="s">
         <v>307</v>
       </c>
@@ -23929,11 +23965,11 @@
       <c r="S36" s="85">
         <v>0.13830232558139535</v>
       </c>
-      <c r="T36" s="245">
+      <c r="T36" s="254">
         <f>50.244%*1.05</f>
         <v>0.52756199999999998</v>
       </c>
-      <c r="U36" s="246"/>
+      <c r="U36" s="255"/>
       <c r="AC36" t="s">
         <v>444</v>
       </c>
@@ -23943,14 +23979,14 @@
       <c r="B37" s="94"/>
       <c r="C37" s="94"/>
       <c r="D37" s="94"/>
-      <c r="E37" s="248">
+      <c r="E37" s="257">
         <v>0.94696999999999998</v>
       </c>
-      <c r="F37" s="248"/>
+      <c r="F37" s="257"/>
       <c r="G37" s="94"/>
       <c r="H37" s="94"/>
-      <c r="I37" s="249"/>
-      <c r="J37" s="250"/>
+      <c r="I37" s="258"/>
+      <c r="J37" s="259"/>
       <c r="K37" s="93" t="s">
         <v>309</v>
       </c>
@@ -23958,54 +23994,54 @@
       <c r="M37" s="94"/>
       <c r="N37" s="94"/>
       <c r="O37" s="94"/>
-      <c r="P37" s="248">
+      <c r="P37" s="257">
         <v>0.94696999999999998</v>
       </c>
-      <c r="Q37" s="248"/>
+      <c r="Q37" s="257"/>
       <c r="R37" s="94"/>
       <c r="S37" s="94"/>
-      <c r="T37" s="249"/>
-      <c r="U37" s="250"/>
-      <c r="W37" s="256" t="s">
+      <c r="T37" s="258"/>
+      <c r="U37" s="259"/>
+      <c r="W37" s="265" t="s">
         <v>261</v>
       </c>
-      <c r="X37" s="256"/>
+      <c r="X37" s="265"/>
       <c r="AC37" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="38" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A38" s="247">
+      <c r="A38" s="256">
         <v>0.15762999999999999</v>
       </c>
-      <c r="B38" s="247"/>
-      <c r="C38" s="247">
+      <c r="B38" s="256"/>
+      <c r="C38" s="256">
         <v>0.36070000000000002</v>
       </c>
-      <c r="D38" s="247"/>
+      <c r="D38" s="256"/>
       <c r="E38" s="81"/>
       <c r="F38" s="81"/>
       <c r="G38" s="81"/>
       <c r="H38" s="81"/>
-      <c r="I38" s="240"/>
-      <c r="J38" s="242"/>
+      <c r="I38" s="249"/>
+      <c r="J38" s="251"/>
       <c r="K38" s="80" t="s">
         <v>310</v>
       </c>
-      <c r="L38" s="247">
+      <c r="L38" s="256">
         <v>0.15762999999999999</v>
       </c>
-      <c r="M38" s="247"/>
-      <c r="N38" s="247">
+      <c r="M38" s="256"/>
+      <c r="N38" s="256">
         <v>0.36070000000000002</v>
       </c>
-      <c r="O38" s="247"/>
+      <c r="O38" s="256"/>
       <c r="P38" s="81"/>
       <c r="Q38" s="81"/>
       <c r="R38" s="81"/>
       <c r="S38" s="81"/>
-      <c r="T38" s="240"/>
-      <c r="U38" s="242"/>
+      <c r="T38" s="249"/>
+      <c r="U38" s="251"/>
       <c r="AC38" t="s">
         <v>446</v>
       </c>
@@ -24015,14 +24051,14 @@
       <c r="B39" s="88"/>
       <c r="C39" s="88"/>
       <c r="D39" s="88"/>
-      <c r="E39" s="251">
+      <c r="E39" s="260">
         <v>0.85</v>
       </c>
-      <c r="F39" s="251"/>
+      <c r="F39" s="260"/>
       <c r="G39" s="88"/>
       <c r="H39" s="88"/>
-      <c r="I39" s="243"/>
-      <c r="J39" s="244"/>
+      <c r="I39" s="252"/>
+      <c r="J39" s="253"/>
       <c r="K39" s="87" t="s">
         <v>311</v>
       </c>
@@ -24030,14 +24066,14 @@
       <c r="M39" s="88"/>
       <c r="N39" s="88"/>
       <c r="O39" s="88"/>
-      <c r="P39" s="251">
+      <c r="P39" s="260">
         <v>0.85</v>
       </c>
-      <c r="Q39" s="251"/>
+      <c r="Q39" s="260"/>
       <c r="R39" s="88"/>
       <c r="S39" s="88"/>
-      <c r="T39" s="243"/>
-      <c r="U39" s="244"/>
+      <c r="T39" s="252"/>
+      <c r="U39" s="253"/>
       <c r="W39" t="s">
         <v>241</v>
       </c>
@@ -24056,10 +24092,10 @@
         <v>0.20784</v>
       </c>
       <c r="H40" s="85"/>
-      <c r="I40" s="245">
+      <c r="I40" s="254">
         <v>0.28937000000000002</v>
       </c>
-      <c r="J40" s="246"/>
+      <c r="J40" s="255"/>
       <c r="K40" s="84" t="s">
         <v>313</v>
       </c>
@@ -24073,10 +24109,10 @@
         <v>0.24167441860465114</v>
       </c>
       <c r="S40" s="85"/>
-      <c r="T40" s="245">
+      <c r="T40" s="254">
         <v>0.28937000000000002</v>
       </c>
-      <c r="U40" s="246"/>
+      <c r="U40" s="255"/>
       <c r="W40" t="s">
         <v>244</v>
       </c>
@@ -24085,37 +24121,37 @@
       </c>
     </row>
     <row r="41" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A41" s="247">
+      <c r="A41" s="256">
         <v>0.20368</v>
       </c>
-      <c r="B41" s="247"/>
-      <c r="C41" s="247">
+      <c r="B41" s="256"/>
+      <c r="C41" s="256">
         <v>0.33767000000000003</v>
       </c>
-      <c r="D41" s="247"/>
+      <c r="D41" s="256"/>
       <c r="E41" s="81"/>
       <c r="F41" s="81"/>
       <c r="G41" s="81"/>
       <c r="H41" s="81"/>
-      <c r="I41" s="240"/>
-      <c r="J41" s="242"/>
+      <c r="I41" s="249"/>
+      <c r="J41" s="251"/>
       <c r="K41" s="80" t="s">
         <v>315</v>
       </c>
-      <c r="L41" s="247">
+      <c r="L41" s="256">
         <v>0.20368</v>
       </c>
-      <c r="M41" s="247"/>
-      <c r="N41" s="247">
+      <c r="M41" s="256"/>
+      <c r="N41" s="256">
         <v>0.33767000000000003</v>
       </c>
-      <c r="O41" s="247"/>
+      <c r="O41" s="256"/>
       <c r="P41" s="81"/>
       <c r="Q41" s="81"/>
       <c r="R41" s="81"/>
       <c r="S41" s="81"/>
-      <c r="T41" s="240"/>
-      <c r="U41" s="242"/>
+      <c r="T41" s="249"/>
+      <c r="U41" s="251"/>
       <c r="W41" t="s">
         <v>247</v>
       </c>
@@ -24128,14 +24164,14 @@
       <c r="B42" s="88"/>
       <c r="C42" s="88"/>
       <c r="D42" s="88"/>
-      <c r="E42" s="251">
+      <c r="E42" s="260">
         <v>0.89815999999999996</v>
       </c>
-      <c r="F42" s="251"/>
+      <c r="F42" s="260"/>
       <c r="G42" s="88"/>
       <c r="H42" s="88"/>
-      <c r="I42" s="243"/>
-      <c r="J42" s="244"/>
+      <c r="I42" s="252"/>
+      <c r="J42" s="253"/>
       <c r="K42" s="87" t="s">
         <v>317</v>
       </c>
@@ -24143,14 +24179,14 @@
       <c r="M42" s="88"/>
       <c r="N42" s="88"/>
       <c r="O42" s="88"/>
-      <c r="P42" s="251">
+      <c r="P42" s="260">
         <v>0.89815999999999996</v>
       </c>
-      <c r="Q42" s="251"/>
+      <c r="Q42" s="260"/>
       <c r="R42" s="88"/>
       <c r="S42" s="88"/>
-      <c r="T42" s="243"/>
-      <c r="U42" s="244"/>
+      <c r="T42" s="252"/>
+      <c r="U42" s="253"/>
       <c r="AC42" t="s">
         <v>450</v>
       </c>
@@ -24166,8 +24202,8 @@
         <v>0.57364000000000004</v>
       </c>
       <c r="H43" s="88"/>
-      <c r="I43" s="243"/>
-      <c r="J43" s="244"/>
+      <c r="I43" s="252"/>
+      <c r="J43" s="253"/>
       <c r="K43" s="87" t="s">
         <v>319</v>
       </c>
@@ -24181,8 +24217,8 @@
         <v>0.6670232558139535</v>
       </c>
       <c r="S43" s="88"/>
-      <c r="T43" s="243"/>
-      <c r="U43" s="244"/>
+      <c r="T43" s="252"/>
+      <c r="U43" s="253"/>
       <c r="W43" t="s">
         <v>256</v>
       </c>
@@ -24201,10 +24237,10 @@
         <v>0.26422000000000001</v>
       </c>
       <c r="H44" s="85"/>
-      <c r="I44" s="245">
+      <c r="I44" s="254">
         <v>0.2399</v>
       </c>
-      <c r="J44" s="246"/>
+      <c r="J44" s="255"/>
       <c r="K44" s="84" t="s">
         <v>321</v>
       </c>
@@ -24218,11 +24254,11 @@
         <v>0.30723255813953487</v>
       </c>
       <c r="S44" s="85"/>
-      <c r="T44" s="245">
+      <c r="T44" s="254">
         <f>23.99%*1.06</f>
         <v>0.25429399999999996</v>
       </c>
-      <c r="U44" s="246"/>
+      <c r="U44" s="255"/>
       <c r="W44" t="s">
         <v>258</v>
       </c>
@@ -24235,16 +24271,16 @@
         <v>0.34708</v>
       </c>
       <c r="B45" s="92"/>
-      <c r="C45" s="247">
+      <c r="C45" s="256">
         <v>0.20830000000000001</v>
       </c>
-      <c r="D45" s="247"/>
+      <c r="D45" s="256"/>
       <c r="E45" s="81"/>
       <c r="F45" s="81"/>
       <c r="G45" s="81"/>
       <c r="H45" s="81"/>
-      <c r="I45" s="240"/>
-      <c r="J45" s="242"/>
+      <c r="I45" s="249"/>
+      <c r="J45" s="251"/>
       <c r="K45" s="80" t="s">
         <v>322</v>
       </c>
@@ -24252,16 +24288,16 @@
         <v>0.34708</v>
       </c>
       <c r="M45" s="92"/>
-      <c r="N45" s="247">
+      <c r="N45" s="256">
         <v>0.20830000000000001</v>
       </c>
-      <c r="O45" s="247"/>
+      <c r="O45" s="256"/>
       <c r="P45" s="81"/>
       <c r="Q45" s="81"/>
       <c r="R45" s="81"/>
       <c r="S45" s="81"/>
-      <c r="T45" s="240"/>
-      <c r="U45" s="242"/>
+      <c r="T45" s="249"/>
+      <c r="U45" s="251"/>
       <c r="AC45" t="s">
         <v>453</v>
       </c>
@@ -24271,14 +24307,14 @@
       <c r="B46" s="88"/>
       <c r="C46" s="88"/>
       <c r="D46" s="88"/>
-      <c r="E46" s="251">
+      <c r="E46" s="260">
         <v>0.52559999999999996</v>
       </c>
-      <c r="F46" s="251"/>
+      <c r="F46" s="260"/>
       <c r="G46" s="88"/>
       <c r="H46" s="88"/>
-      <c r="I46" s="243"/>
-      <c r="J46" s="244"/>
+      <c r="I46" s="252"/>
+      <c r="J46" s="253"/>
       <c r="K46" s="87" t="s">
         <v>323</v>
       </c>
@@ -24286,14 +24322,14 @@
       <c r="M46" s="88"/>
       <c r="N46" s="88"/>
       <c r="O46" s="88"/>
-      <c r="P46" s="251">
+      <c r="P46" s="260">
         <v>0.52559999999999996</v>
       </c>
-      <c r="Q46" s="251"/>
+      <c r="Q46" s="260"/>
       <c r="R46" s="88"/>
       <c r="S46" s="88"/>
-      <c r="T46" s="243"/>
-      <c r="U46" s="244"/>
+      <c r="T46" s="252"/>
+      <c r="U46" s="253"/>
       <c r="W46" t="s">
         <v>373</v>
       </c>
@@ -24312,8 +24348,8 @@
         <v>0.84328000000000003</v>
       </c>
       <c r="H47" s="88"/>
-      <c r="I47" s="243"/>
-      <c r="J47" s="244"/>
+      <c r="I47" s="252"/>
+      <c r="J47" s="253"/>
       <c r="K47" s="87" t="s">
         <v>324</v>
       </c>
@@ -24327,8 +24363,8 @@
         <v>0.85308558139534874</v>
       </c>
       <c r="S47" s="88"/>
-      <c r="T47" s="243"/>
-      <c r="U47" s="244"/>
+      <c r="T47" s="252"/>
+      <c r="U47" s="253"/>
     </row>
     <row r="48" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="85"/>
@@ -24341,10 +24377,10 @@
         <v>0.23543</v>
       </c>
       <c r="H48" s="85"/>
-      <c r="I48" s="245">
+      <c r="I48" s="254">
         <v>0.13220000000000001</v>
       </c>
-      <c r="J48" s="246"/>
+      <c r="J48" s="255"/>
       <c r="K48" s="84" t="s">
         <v>326</v>
       </c>
@@ -24358,11 +24394,11 @@
         <v>0.27375581395348836</v>
       </c>
       <c r="S48" s="85"/>
-      <c r="T48" s="245">
+      <c r="T48" s="254">
         <f>13.22%*1.16</f>
         <v>0.15335200000000002</v>
       </c>
-      <c r="U48" s="246"/>
+      <c r="U48" s="255"/>
       <c r="W48" t="s">
         <v>455</v>
       </c>
@@ -24375,14 +24411,14 @@
       <c r="B49" s="94"/>
       <c r="C49" s="94"/>
       <c r="D49" s="94"/>
-      <c r="E49" s="248">
+      <c r="E49" s="257">
         <v>0.43773000000000001</v>
       </c>
-      <c r="F49" s="248"/>
+      <c r="F49" s="257"/>
       <c r="G49" s="94"/>
       <c r="H49" s="94"/>
-      <c r="I49" s="249"/>
-      <c r="J49" s="250"/>
+      <c r="I49" s="258"/>
+      <c r="J49" s="259"/>
       <c r="K49" s="93" t="s">
         <v>367</v>
       </c>
@@ -24390,14 +24426,14 @@
       <c r="M49" s="94"/>
       <c r="N49" s="94"/>
       <c r="O49" s="94"/>
-      <c r="P49" s="248">
+      <c r="P49" s="257">
         <v>0.43773000000000001</v>
       </c>
-      <c r="Q49" s="248"/>
+      <c r="Q49" s="257"/>
       <c r="R49" s="94"/>
       <c r="S49" s="94"/>
-      <c r="T49" s="249"/>
-      <c r="U49" s="250"/>
+      <c r="T49" s="258"/>
+      <c r="U49" s="259"/>
       <c r="V49" s="40"/>
       <c r="W49" t="s">
         <v>457</v>
@@ -24408,16 +24444,16 @@
         <v>0.47361999999999999</v>
       </c>
       <c r="B50" s="92"/>
-      <c r="C50" s="247">
+      <c r="C50" s="256">
         <v>0.28101999999999999</v>
       </c>
-      <c r="D50" s="247"/>
+      <c r="D50" s="256"/>
       <c r="E50" s="81"/>
       <c r="F50" s="81"/>
       <c r="G50" s="81"/>
       <c r="H50" s="81"/>
-      <c r="I50" s="240"/>
-      <c r="J50" s="242"/>
+      <c r="I50" s="249"/>
+      <c r="J50" s="251"/>
       <c r="K50" s="80" t="s">
         <v>328</v>
       </c>
@@ -24425,23 +24461,23 @@
         <v>0.47361999999999999</v>
       </c>
       <c r="M50" s="92"/>
-      <c r="N50" s="247">
+      <c r="N50" s="256">
         <v>0.28101999999999999</v>
       </c>
-      <c r="O50" s="247"/>
+      <c r="O50" s="256"/>
       <c r="P50" s="81"/>
       <c r="Q50" s="81"/>
       <c r="R50" s="81"/>
       <c r="S50" s="81"/>
-      <c r="T50" s="240"/>
-      <c r="U50" s="242"/>
+      <c r="T50" s="249"/>
+      <c r="U50" s="251"/>
       <c r="W50" t="s">
         <v>458</v>
       </c>
-      <c r="AC50" s="256" t="s">
+      <c r="AC50" s="265" t="s">
         <v>251</v>
       </c>
-      <c r="AD50" s="256"/>
+      <c r="AD50" s="265"/>
     </row>
     <row r="51" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A51" s="88"/>
@@ -24454,8 +24490,8 @@
         <v>0.71950000000000003</v>
       </c>
       <c r="H51" s="88"/>
-      <c r="I51" s="243"/>
-      <c r="J51" s="244"/>
+      <c r="I51" s="252"/>
+      <c r="J51" s="253"/>
       <c r="K51" s="87" t="s">
         <v>329</v>
       </c>
@@ -24469,8 +24505,8 @@
         <v>0.66930232558139535</v>
       </c>
       <c r="S51" s="88"/>
-      <c r="T51" s="243"/>
-      <c r="U51" s="244"/>
+      <c r="T51" s="252"/>
+      <c r="U51" s="253"/>
       <c r="W51" t="s">
         <v>459</v>
       </c>
@@ -24486,10 +24522,10 @@
         <v>0.20451</v>
       </c>
       <c r="H52" s="85"/>
-      <c r="I52" s="245">
+      <c r="I52" s="254">
         <v>9.1600000000000001E-2</v>
       </c>
-      <c r="J52" s="246"/>
+      <c r="J52" s="255"/>
       <c r="K52" s="84" t="s">
         <v>331</v>
       </c>
@@ -24503,10 +24539,10 @@
         <v>0.23780232558139536</v>
       </c>
       <c r="S52" s="85"/>
-      <c r="T52" s="245">
+      <c r="T52" s="254">
         <v>9.1600000000000001E-2</v>
       </c>
-      <c r="U52" s="246"/>
+      <c r="U52" s="255"/>
       <c r="W52" t="s">
         <v>460</v>
       </c>
@@ -24519,16 +24555,16 @@
         <v>0.17321</v>
       </c>
       <c r="B53" s="92"/>
-      <c r="C53" s="247">
+      <c r="C53" s="256">
         <v>9.2929999999999999E-2</v>
       </c>
-      <c r="D53" s="247"/>
+      <c r="D53" s="256"/>
       <c r="E53" s="81"/>
       <c r="F53" s="81"/>
       <c r="G53" s="81"/>
       <c r="H53" s="81"/>
-      <c r="I53" s="240"/>
-      <c r="J53" s="242"/>
+      <c r="I53" s="249"/>
+      <c r="J53" s="251"/>
       <c r="K53" s="80" t="s">
         <v>333</v>
       </c>
@@ -24536,17 +24572,17 @@
         <v>0.17321</v>
       </c>
       <c r="M53" s="92"/>
-      <c r="N53" s="247">
+      <c r="N53" s="256">
         <f>9.293%*0.8</f>
         <v>7.4344000000000007E-2</v>
       </c>
-      <c r="O53" s="247"/>
+      <c r="O53" s="256"/>
       <c r="P53" s="81"/>
       <c r="Q53" s="81"/>
       <c r="R53" s="81"/>
       <c r="S53" s="81"/>
-      <c r="T53" s="240"/>
-      <c r="U53" s="242"/>
+      <c r="T53" s="249"/>
+      <c r="U53" s="251"/>
       <c r="W53" t="s">
         <v>461</v>
       </c>
@@ -24565,8 +24601,8 @@
         <v>1</v>
       </c>
       <c r="H54" s="88"/>
-      <c r="I54" s="243"/>
-      <c r="J54" s="244"/>
+      <c r="I54" s="252"/>
+      <c r="J54" s="253"/>
       <c r="K54" s="87" t="s">
         <v>335</v>
       </c>
@@ -24580,8 +24616,8 @@
         <v>1</v>
       </c>
       <c r="S54" s="88"/>
-      <c r="T54" s="243"/>
-      <c r="U54" s="244"/>
+      <c r="T54" s="252"/>
+      <c r="U54" s="253"/>
       <c r="W54" t="s">
         <v>462</v>
       </c>
@@ -24600,10 +24636,10 @@
         <v>0.26967000000000002</v>
       </c>
       <c r="H55" s="85"/>
-      <c r="I55" s="245">
+      <c r="I55" s="254">
         <v>0.1535</v>
       </c>
-      <c r="J55" s="246"/>
+      <c r="J55" s="255"/>
       <c r="K55" s="84" t="s">
         <v>337</v>
       </c>
@@ -24617,10 +24653,10 @@
         <v>0.31356976744186049</v>
       </c>
       <c r="S55" s="85"/>
-      <c r="T55" s="245">
+      <c r="T55" s="254">
         <v>0.1535</v>
       </c>
-      <c r="U55" s="246"/>
+      <c r="U55" s="255"/>
       <c r="V55" s="40"/>
       <c r="W55" t="s">
         <v>463</v>
@@ -24631,14 +24667,14 @@
       <c r="B56" s="94"/>
       <c r="C56" s="94"/>
       <c r="D56" s="94"/>
-      <c r="E56" s="248">
+      <c r="E56" s="257">
         <v>0.43773000000000001</v>
       </c>
-      <c r="F56" s="248"/>
+      <c r="F56" s="257"/>
       <c r="G56" s="94"/>
       <c r="H56" s="94"/>
-      <c r="I56" s="249"/>
-      <c r="J56" s="250"/>
+      <c r="I56" s="258"/>
+      <c r="J56" s="259"/>
       <c r="K56" s="93" t="s">
         <v>368</v>
       </c>
@@ -24646,15 +24682,15 @@
       <c r="M56" s="94"/>
       <c r="N56" s="94"/>
       <c r="O56" s="94"/>
-      <c r="P56" s="248">
+      <c r="P56" s="257">
         <f>43.773%*0.8</f>
         <v>0.35018400000000005</v>
       </c>
-      <c r="Q56" s="248"/>
+      <c r="Q56" s="257"/>
       <c r="R56" s="94"/>
       <c r="S56" s="94"/>
-      <c r="T56" s="249"/>
-      <c r="U56" s="250"/>
+      <c r="T56" s="258"/>
+      <c r="U56" s="259"/>
       <c r="V56" s="40"/>
       <c r="W56" t="s">
         <v>464</v>
@@ -24668,16 +24704,16 @@
         <v>0.28996</v>
       </c>
       <c r="B57" s="92"/>
-      <c r="C57" s="247">
+      <c r="C57" s="256">
         <v>0.25344</v>
       </c>
-      <c r="D57" s="247"/>
+      <c r="D57" s="256"/>
       <c r="E57" s="81"/>
       <c r="F57" s="81"/>
       <c r="G57" s="81"/>
       <c r="H57" s="81"/>
-      <c r="I57" s="240"/>
-      <c r="J57" s="242"/>
+      <c r="I57" s="249"/>
+      <c r="J57" s="251"/>
       <c r="K57" s="80" t="s">
         <v>340</v>
       </c>
@@ -24685,16 +24721,16 @@
         <v>0.28996</v>
       </c>
       <c r="M57" s="92"/>
-      <c r="N57" s="247">
+      <c r="N57" s="256">
         <v>0.25344</v>
       </c>
-      <c r="O57" s="247"/>
+      <c r="O57" s="256"/>
       <c r="P57" s="81"/>
       <c r="Q57" s="81"/>
       <c r="R57" s="81"/>
       <c r="S57" s="81"/>
-      <c r="T57" s="240"/>
-      <c r="U57" s="242"/>
+      <c r="T57" s="249"/>
+      <c r="U57" s="251"/>
       <c r="V57" s="40"/>
       <c r="W57" t="s">
         <v>466</v>
@@ -24705,14 +24741,14 @@
       <c r="B58" s="88"/>
       <c r="C58" s="88"/>
       <c r="D58" s="88"/>
-      <c r="E58" s="251">
+      <c r="E58" s="260">
         <v>0.65949000000000002</v>
       </c>
-      <c r="F58" s="251"/>
+      <c r="F58" s="260"/>
       <c r="G58" s="88"/>
       <c r="H58" s="88"/>
-      <c r="I58" s="243"/>
-      <c r="J58" s="244"/>
+      <c r="I58" s="252"/>
+      <c r="J58" s="253"/>
       <c r="K58" s="87" t="s">
         <v>342</v>
       </c>
@@ -24720,15 +24756,15 @@
       <c r="M58" s="88"/>
       <c r="N58" s="88"/>
       <c r="O58" s="88"/>
-      <c r="P58" s="251">
+      <c r="P58" s="260">
         <f>65.949%*1.1</f>
         <v>0.72543900000000006</v>
       </c>
-      <c r="Q58" s="251"/>
+      <c r="Q58" s="260"/>
       <c r="R58" s="88"/>
       <c r="S58" s="88"/>
-      <c r="T58" s="243"/>
-      <c r="U58" s="244"/>
+      <c r="T58" s="252"/>
+      <c r="U58" s="253"/>
       <c r="V58" s="40"/>
       <c r="W58" t="s">
         <v>467</v>
@@ -24748,8 +24784,8 @@
         <v>0.56411</v>
       </c>
       <c r="H59" s="88"/>
-      <c r="I59" s="243"/>
-      <c r="J59" s="244"/>
+      <c r="I59" s="252"/>
+      <c r="J59" s="253"/>
       <c r="K59" s="87" t="s">
         <v>344</v>
       </c>
@@ -24763,8 +24799,8 @@
         <v>0.70185779069767451</v>
       </c>
       <c r="S59" s="88"/>
-      <c r="T59" s="243"/>
-      <c r="U59" s="244"/>
+      <c r="T59" s="252"/>
+      <c r="U59" s="253"/>
       <c r="V59" s="40"/>
       <c r="W59" t="s">
         <v>468</v>
@@ -24781,10 +24817,10 @@
         <v>0.14326</v>
       </c>
       <c r="H60" s="85"/>
-      <c r="I60" s="245">
+      <c r="I60" s="254">
         <v>0.17191999999999999</v>
       </c>
-      <c r="J60" s="246"/>
+      <c r="J60" s="255"/>
       <c r="K60" s="84" t="s">
         <v>346</v>
       </c>
@@ -24798,11 +24834,11 @@
         <v>0.2082267441860465</v>
       </c>
       <c r="S60" s="85"/>
-      <c r="T60" s="245">
+      <c r="T60" s="254">
         <f>17.192%</f>
         <v>0.17191999999999999</v>
       </c>
-      <c r="U60" s="246"/>
+      <c r="U60" s="255"/>
       <c r="V60" s="40"/>
       <c r="W60" t="s">
         <v>469</v>
@@ -24822,8 +24858,8 @@
         <v>0.19162000000000001</v>
       </c>
       <c r="H61" s="81"/>
-      <c r="I61" s="240"/>
-      <c r="J61" s="242"/>
+      <c r="I61" s="249"/>
+      <c r="J61" s="251"/>
       <c r="K61" s="80" t="s">
         <v>348</v>
       </c>
@@ -24837,8 +24873,8 @@
         <v>0.22281395348837213</v>
       </c>
       <c r="S61" s="81"/>
-      <c r="T61" s="240"/>
-      <c r="U61" s="242"/>
+      <c r="T61" s="249"/>
+      <c r="U61" s="251"/>
       <c r="V61" s="40"/>
       <c r="W61" t="s">
         <v>471</v>
@@ -24858,8 +24894,8 @@
         <v>0.49523</v>
       </c>
       <c r="H62" s="88"/>
-      <c r="I62" s="243"/>
-      <c r="J62" s="244"/>
+      <c r="I62" s="252"/>
+      <c r="J62" s="253"/>
       <c r="K62" s="87" t="s">
         <v>349</v>
       </c>
@@ -24873,8 +24909,8 @@
         <v>0.57584883720930236</v>
       </c>
       <c r="S62" s="88"/>
-      <c r="T62" s="243"/>
-      <c r="U62" s="244"/>
+      <c r="T62" s="252"/>
+      <c r="U62" s="253"/>
       <c r="V62" s="40"/>
       <c r="W62" t="s">
         <v>473</v>
@@ -24901,10 +24937,10 @@
       <c r="M63" s="88"/>
       <c r="N63" s="88"/>
       <c r="O63" s="88"/>
-      <c r="P63" s="240">
+      <c r="P63" s="249">
         <v>0.15</v>
       </c>
-      <c r="Q63" s="241"/>
+      <c r="Q63" s="250"/>
       <c r="R63" s="88"/>
       <c r="S63" s="88"/>
       <c r="T63" s="108"/>
@@ -24928,10 +24964,10 @@
         <v>0.47439999999999999</v>
       </c>
       <c r="H64" s="88"/>
-      <c r="I64" s="243">
+      <c r="I64" s="252">
         <v>0.60697000000000001</v>
       </c>
-      <c r="J64" s="244"/>
+      <c r="J64" s="253"/>
       <c r="K64" s="87" t="s">
         <v>350</v>
       </c>
@@ -24945,10 +24981,10 @@
         <v>0.55162790697674413</v>
       </c>
       <c r="S64" s="88"/>
-      <c r="T64" s="243">
+      <c r="T64" s="252">
         <v>0.60697000000000001</v>
       </c>
-      <c r="U64" s="244"/>
+      <c r="U64" s="253"/>
       <c r="V64" s="40"/>
       <c r="W64" t="s">
         <v>477</v>
@@ -24968,10 +25004,10 @@
         <v>0.16774</v>
       </c>
       <c r="H65" s="85"/>
-      <c r="I65" s="245">
+      <c r="I65" s="254">
         <v>0.24779999999999999</v>
       </c>
-      <c r="J65" s="246"/>
+      <c r="J65" s="255"/>
       <c r="K65" s="84" t="s">
         <v>351</v>
       </c>
@@ -24985,10 +25021,10 @@
         <v>0.19504651162790698</v>
       </c>
       <c r="S65" s="85"/>
-      <c r="T65" s="245">
+      <c r="T65" s="254">
         <v>0.24779999999999999</v>
       </c>
-      <c r="U65" s="246"/>
+      <c r="U65" s="255"/>
       <c r="V65" s="40"/>
       <c r="W65" t="s">
         <v>479</v>
@@ -25002,14 +25038,14 @@
       <c r="B66" s="81"/>
       <c r="C66" s="81"/>
       <c r="D66" s="81"/>
-      <c r="E66" s="240">
+      <c r="E66" s="249">
         <v>0.45617999999999997</v>
       </c>
-      <c r="F66" s="241"/>
+      <c r="F66" s="250"/>
       <c r="G66" s="81"/>
       <c r="H66" s="81"/>
-      <c r="I66" s="240"/>
-      <c r="J66" s="242"/>
+      <c r="I66" s="249"/>
+      <c r="J66" s="251"/>
       <c r="K66" s="80" t="s">
         <v>352</v>
       </c>
@@ -25017,14 +25053,14 @@
       <c r="M66" s="81"/>
       <c r="N66" s="81"/>
       <c r="O66" s="81"/>
-      <c r="P66" s="240">
+      <c r="P66" s="249">
         <v>0.45617999999999997</v>
       </c>
-      <c r="Q66" s="241"/>
+      <c r="Q66" s="250"/>
       <c r="R66" s="81"/>
       <c r="S66" s="81"/>
-      <c r="T66" s="240"/>
-      <c r="U66" s="242"/>
+      <c r="T66" s="249"/>
+      <c r="U66" s="251"/>
       <c r="V66" s="40"/>
       <c r="W66" t="s">
         <v>481</v>
@@ -25044,10 +25080,10 @@
         <v>0.28649999999999998</v>
       </c>
       <c r="H67" s="88"/>
-      <c r="I67" s="243">
+      <c r="I67" s="252">
         <v>0.80176999999999998</v>
       </c>
-      <c r="J67" s="244"/>
+      <c r="J67" s="253"/>
       <c r="K67" s="87" t="s">
         <v>353</v>
       </c>
@@ -25061,10 +25097,10 @@
         <v>0.33313953488372089</v>
       </c>
       <c r="S67" s="88"/>
-      <c r="T67" s="243">
+      <c r="T67" s="252">
         <v>0.50800000000000001</v>
       </c>
-      <c r="U67" s="244"/>
+      <c r="U67" s="253"/>
       <c r="V67" s="40"/>
       <c r="AC67" t="s">
         <v>483</v>
@@ -25081,10 +25117,10 @@
         <v>0.20932000000000001</v>
       </c>
       <c r="H68" s="88"/>
-      <c r="I68" s="243">
+      <c r="I68" s="252">
         <v>0.50775999999999999</v>
       </c>
-      <c r="J68" s="244"/>
+      <c r="J68" s="253"/>
       <c r="K68" s="87" t="s">
         <v>355</v>
       </c>
@@ -25098,10 +25134,10 @@
         <v>0.24339534883720934</v>
       </c>
       <c r="S68" s="88"/>
-      <c r="T68" s="243">
+      <c r="T68" s="252">
         <v>0.50775999999999999</v>
       </c>
-      <c r="U68" s="244"/>
+      <c r="U68" s="253"/>
       <c r="V68" s="40"/>
       <c r="AC68" t="s">
         <v>484</v>
@@ -25118,8 +25154,8 @@
         <v>0.14599000000000001</v>
       </c>
       <c r="H69" s="88"/>
-      <c r="I69" s="243"/>
-      <c r="J69" s="244"/>
+      <c r="I69" s="252"/>
+      <c r="J69" s="253"/>
       <c r="K69" s="87" t="s">
         <v>356</v>
       </c>
@@ -25133,13 +25169,13 @@
         <v>0.16975581395348838</v>
       </c>
       <c r="S69" s="88"/>
-      <c r="T69" s="243"/>
-      <c r="U69" s="244"/>
+      <c r="T69" s="252"/>
+      <c r="U69" s="253"/>
       <c r="V69" s="40"/>
-      <c r="W69" s="256" t="s">
+      <c r="W69" s="265" t="s">
         <v>236</v>
       </c>
-      <c r="X69" s="256"/>
+      <c r="X69" s="265"/>
       <c r="AC69" t="s">
         <v>485</v>
       </c>
@@ -25155,10 +25191,10 @@
         <v>0.12414</v>
       </c>
       <c r="H70" s="85"/>
-      <c r="I70" s="245">
+      <c r="I70" s="254">
         <v>0.61785000000000001</v>
       </c>
-      <c r="J70" s="246"/>
+      <c r="J70" s="255"/>
       <c r="K70" s="84" t="s">
         <v>357</v>
       </c>
@@ -25172,10 +25208,10 @@
         <v>0.14434883720930233</v>
       </c>
       <c r="S70" s="85"/>
-      <c r="T70" s="245">
+      <c r="T70" s="254">
         <v>0.61785000000000001</v>
       </c>
-      <c r="U70" s="246"/>
+      <c r="U70" s="255"/>
       <c r="V70" s="40"/>
       <c r="AC70" t="s">
         <v>486</v>
@@ -25192,10 +25228,10 @@
         <v>0.23763000000000001</v>
       </c>
       <c r="H71" s="81"/>
-      <c r="I71" s="240">
+      <c r="I71" s="249">
         <v>1</v>
       </c>
-      <c r="J71" s="242"/>
+      <c r="J71" s="251"/>
       <c r="K71" s="80" t="s">
         <v>358</v>
       </c>
@@ -25209,10 +25245,10 @@
         <v>0.27631395348837212</v>
       </c>
       <c r="S71" s="81"/>
-      <c r="T71" s="240">
+      <c r="T71" s="249">
         <v>1</v>
       </c>
-      <c r="U71" s="242"/>
+      <c r="U71" s="251"/>
       <c r="V71" s="40"/>
       <c r="W71" t="s">
         <v>282</v>
@@ -25239,10 +25275,10 @@
       <c r="M72" s="110"/>
       <c r="N72" s="110"/>
       <c r="O72" s="110"/>
-      <c r="P72" s="240">
+      <c r="P72" s="249">
         <v>0.25</v>
       </c>
-      <c r="Q72" s="241"/>
+      <c r="Q72" s="250"/>
       <c r="R72" s="110"/>
       <c r="S72" s="110"/>
       <c r="T72" s="111"/>
@@ -25266,8 +25302,8 @@
         <v>0.17316000000000001</v>
       </c>
       <c r="H73" s="88"/>
-      <c r="I73" s="243"/>
-      <c r="J73" s="244"/>
+      <c r="I73" s="252"/>
+      <c r="J73" s="253"/>
       <c r="K73" s="87" t="s">
         <v>359</v>
       </c>
@@ -25281,8 +25317,8 @@
         <v>0.20134883720930236</v>
       </c>
       <c r="S73" s="88"/>
-      <c r="T73" s="243"/>
-      <c r="U73" s="244"/>
+      <c r="T73" s="252"/>
+      <c r="U73" s="253"/>
       <c r="V73" s="40"/>
       <c r="W73" t="s">
         <v>288</v>
@@ -25302,10 +25338,10 @@
         <v>0.12317</v>
       </c>
       <c r="H74" s="85"/>
-      <c r="I74" s="245">
+      <c r="I74" s="254">
         <v>0.33643600000000001</v>
       </c>
-      <c r="J74" s="246"/>
+      <c r="J74" s="255"/>
       <c r="K74" s="84" t="s">
         <v>360</v>
       </c>
@@ -25319,10 +25355,10 @@
         <v>0.14322093023255814</v>
       </c>
       <c r="S74" s="85"/>
-      <c r="T74" s="245">
+      <c r="T74" s="254">
         <v>0.33643600000000001</v>
       </c>
-      <c r="U74" s="246"/>
+      <c r="U74" s="255"/>
       <c r="V74" s="40"/>
       <c r="AC74" t="s">
         <v>490</v>
@@ -25339,10 +25375,10 @@
         <v>0.20199</v>
       </c>
       <c r="H75" s="81"/>
-      <c r="I75" s="240">
+      <c r="I75" s="249">
         <v>0.85</v>
       </c>
-      <c r="J75" s="242"/>
+      <c r="J75" s="251"/>
       <c r="K75" s="80" t="s">
         <v>361</v>
       </c>
@@ -25356,10 +25392,10 @@
         <v>0.23487209302325585</v>
       </c>
       <c r="S75" s="81"/>
-      <c r="T75" s="240">
+      <c r="T75" s="249">
         <v>0.85</v>
       </c>
-      <c r="U75" s="242"/>
+      <c r="U75" s="251"/>
       <c r="V75" s="40"/>
       <c r="W75" t="s">
         <v>293</v>
@@ -25379,8 +25415,8 @@
         <v>0.17718999999999999</v>
       </c>
       <c r="H76" s="88"/>
-      <c r="I76" s="243"/>
-      <c r="J76" s="244"/>
+      <c r="I76" s="252"/>
+      <c r="J76" s="253"/>
       <c r="K76" s="87" t="s">
         <v>362</v>
       </c>
@@ -25394,8 +25430,8 @@
         <v>0.20603488372093021</v>
       </c>
       <c r="S76" s="88"/>
-      <c r="T76" s="243"/>
-      <c r="U76" s="244"/>
+      <c r="T76" s="252"/>
+      <c r="U76" s="253"/>
       <c r="V76" s="40"/>
       <c r="W76" t="s">
         <v>296</v>
@@ -25415,10 +25451,10 @@
         <v>0.1047</v>
       </c>
       <c r="H77" s="100"/>
-      <c r="I77" s="238">
+      <c r="I77" s="247">
         <v>0.28591</v>
       </c>
-      <c r="J77" s="239"/>
+      <c r="J77" s="248"/>
       <c r="K77" s="99" t="s">
         <v>363</v>
       </c>
@@ -25432,10 +25468,10 @@
         <v>0.12174418604651163</v>
       </c>
       <c r="S77" s="100"/>
-      <c r="T77" s="238">
+      <c r="T77" s="247">
         <v>0.28591</v>
       </c>
-      <c r="U77" s="239"/>
+      <c r="U77" s="248"/>
       <c r="V77" s="40"/>
       <c r="AC77" t="s">
         <v>493</v>
@@ -25881,17 +25917,17 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="259" t="s">
+      <c r="B4" s="268" t="s">
         <v>515</v>
       </c>
-      <c r="C4" s="259"/>
+      <c r="C4" s="268"/>
       <c r="D4" s="130" t="s">
         <v>516</v>
       </c>
-      <c r="G4" s="259" t="s">
+      <c r="G4" s="268" t="s">
         <v>517</v>
       </c>
-      <c r="H4" s="259"/>
+      <c r="H4" s="268"/>
       <c r="I4" s="130" t="s">
         <v>516</v>
       </c>
@@ -61031,7 +61067,7 @@
   <dimension ref="A1:W38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -63164,8 +63200,8 @@
   </sheetPr>
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21:O29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -63193,10 +63229,10 @@
         <v>210</v>
       </c>
       <c r="B2">
-        <v>11470</v>
+        <v>7010</v>
       </c>
       <c r="C2">
-        <v>11470</v>
+        <v>7900</v>
       </c>
       <c r="N2" s="70" t="s">
         <v>211</v>
@@ -63207,10 +63243,10 @@
         <v>212</v>
       </c>
       <c r="B3">
-        <v>135</v>
+        <v>785</v>
       </c>
       <c r="C3">
-        <v>165</v>
+        <v>785</v>
       </c>
       <c r="D3">
         <v>32580</v>
@@ -63224,10 +63260,10 @@
         <v>214</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="N4" s="70" t="s">
         <v>215</v>
@@ -63238,10 +63274,10 @@
         <v>216</v>
       </c>
       <c r="B5">
-        <v>195</v>
+        <v>145</v>
       </c>
       <c r="C5">
-        <v>305</v>
+        <v>145</v>
       </c>
       <c r="N5" s="70" t="s">
         <v>217</v>
@@ -63252,10 +63288,10 @@
         <v>218</v>
       </c>
       <c r="B6">
-        <v>165</v>
+        <v>125</v>
       </c>
       <c r="C6">
-        <v>245</v>
+        <v>125</v>
       </c>
       <c r="N6" s="70" t="s">
         <v>219</v>
@@ -63266,10 +63302,10 @@
         <v>71</v>
       </c>
       <c r="B7" s="72">
-        <v>0</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="C7" s="73">
-        <v>4.0000000000000001E-3</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="N7" s="70" t="s">
         <v>220</v>
@@ -63286,11 +63322,11 @@
       </c>
       <c r="B9" s="75">
         <f>SUM(B1:B6)*(1+B7)</f>
-        <v>11965</v>
+        <v>8542.17</v>
       </c>
       <c r="C9" s="75">
         <f>SUM(C1:C6)*(1+C7)</f>
-        <v>12233.74</v>
+        <v>9470.4399999999987</v>
       </c>
       <c r="N9" s="70" t="s">
         <v>222</v>
@@ -63302,11 +63338,11 @@
       </c>
       <c r="B10" s="75">
         <f>B9*1.2</f>
-        <v>14358</v>
+        <v>10250.603999999999</v>
       </c>
       <c r="C10" s="75">
         <f>C9*1.2</f>
-        <v>14680.487999999999</v>
+        <v>11364.527999999998</v>
       </c>
       <c r="N10" s="70" t="s">
         <v>224</v>
@@ -63324,44 +63360,36 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13">
-        <f>4550-3190</f>
-        <v>1360</v>
+        <f>C2-B2</f>
+        <v>890</v>
+      </c>
+      <c r="C13">
+        <f>11470-7010</f>
+        <v>4460</v>
       </c>
       <c r="N13" s="70" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <f>3670-3190</f>
-        <v>480</v>
+      <c r="B14" s="76">
+        <f>B13*C14/C13</f>
+        <v>0.19955156950672645</v>
       </c>
       <c r="C14" s="76">
-        <f>D3-B3</f>
-        <v>32445</v>
+        <v>1</v>
       </c>
       <c r="N14" s="70" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <f>B14/B13</f>
-        <v>0.35294117647058826</v>
-      </c>
-      <c r="C15">
-        <f>(C3-B3)</f>
-        <v>30</v>
-      </c>
       <c r="N15" s="70" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C16" s="77">
-        <f>C15/C14</f>
-        <v>9.2464170134073042E-4</v>
-      </c>
+      <c r="C16" s="77"/>
       <c r="N16" s="70" t="s">
         <v>230</v>
       </c>
@@ -63551,7 +63579,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="226" t="s">
+      <c r="A6" s="235" t="s">
         <v>99</v>
       </c>
       <c r="B6" s="43" t="s">
@@ -63582,7 +63610,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A7" s="226"/>
+      <c r="A7" s="235"/>
       <c r="B7" s="43" t="s">
         <v>96</v>
       </c>
@@ -63899,10 +63927,10 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:N47"/>
+  <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -64070,7 +64098,7 @@
         <v>129</v>
       </c>
       <c r="C5" s="54">
-        <v>1100000</v>
+        <v>1689000</v>
       </c>
       <c r="D5" s="54">
         <v>3000000</v>
@@ -64086,15 +64114,15 @@
       </c>
       <c r="H5" s="54">
         <f t="shared" si="2"/>
-        <v>4103840</v>
+        <v>4692840</v>
       </c>
       <c r="I5" s="54">
         <f t="shared" si="0"/>
-        <v>455982.22222222225</v>
+        <v>521426.66666666669</v>
       </c>
       <c r="J5" s="55">
         <f t="shared" si="1"/>
-        <v>293131.42857142858</v>
+        <v>335202.85714285716</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -64170,8 +64198,15 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="40"/>
-      <c r="C8" s="54"/>
+      <c r="A8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="54">
+        <v>2406000</v>
+      </c>
       <c r="D8" s="54"/>
       <c r="E8" s="54"/>
       <c r="F8" s="40"/>
@@ -64181,76 +64216,68 @@
       <c r="J8" s="55"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" s="54">
+        <v>2505000</v>
+      </c>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
       <c r="F9" s="40"/>
-      <c r="G9" s="54"/>
+      <c r="G9" s="40"/>
       <c r="H9" s="54"/>
       <c r="I9" s="54"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="55"/>
+      <c r="J9" s="55"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="38" t="s">
-        <v>133</v>
-      </c>
+      <c r="B10" s="40"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
       <c r="F10" s="40"/>
-      <c r="G10" s="54"/>
+      <c r="G10" s="40"/>
       <c r="H10" s="54"/>
       <c r="I10" s="54"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="55"/>
+      <c r="J10" s="55"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>134</v>
-      </c>
+      <c r="B11" s="40"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
       <c r="F11" s="40"/>
-      <c r="G11" s="54"/>
+      <c r="G11" s="40"/>
       <c r="H11" s="54"/>
       <c r="I11" s="54"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="55"/>
+      <c r="J11" s="55"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>135</v>
-      </c>
+      <c r="B12" s="40"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
       <c r="F12" s="40"/>
-      <c r="G12" s="54"/>
+      <c r="G12" s="40"/>
       <c r="H12" s="54"/>
       <c r="I12" s="54"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="55"/>
+      <c r="J12" s="55"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>136</v>
-      </c>
+      <c r="B13" s="40"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
       <c r="F13" s="40"/>
-      <c r="G13" s="54"/>
+      <c r="G13" s="40"/>
       <c r="H13" s="54"/>
       <c r="I13" s="54"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="55"/>
+      <c r="J13" s="55"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>137</v>
-      </c>
       <c r="F14" s="40"/>
       <c r="G14" s="54"/>
       <c r="H14" s="54"/>
@@ -64262,6 +64289,9 @@
       <c r="N14" s="55"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="38" t="s">
+        <v>133</v>
+      </c>
       <c r="F15" s="40"/>
       <c r="G15" s="54"/>
       <c r="H15" s="54"/>
@@ -64274,7 +64304,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F16" s="40"/>
       <c r="G16" s="54"/>
@@ -64288,7 +64318,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F17" s="40"/>
       <c r="G17" s="54"/>
@@ -64302,7 +64332,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F18" s="40"/>
       <c r="G18" s="54"/>
@@ -64316,7 +64346,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F19" s="40"/>
       <c r="G19" s="54"/>
@@ -64329,7 +64359,6 @@
       <c r="N19" s="55"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
       <c r="F20" s="40"/>
       <c r="G20" s="54"/>
       <c r="H20" s="54"/>
@@ -64342,7 +64371,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F21" s="40"/>
       <c r="G21" s="54"/>
@@ -64356,7 +64385,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F22" s="40"/>
       <c r="G22" s="54"/>
@@ -64370,7 +64399,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F23" s="40"/>
       <c r="G23" s="54"/>
@@ -64383,6 +64412,9 @@
       <c r="N23" s="55"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="F24" s="40"/>
       <c r="G24" s="54"/>
       <c r="H24" s="54"/>
@@ -64394,9 +64426,7 @@
       <c r="N24" s="55"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>145</v>
-      </c>
+      <c r="A25" s="1"/>
       <c r="F25" s="40"/>
       <c r="G25" s="54"/>
       <c r="H25" s="54"/>
@@ -64409,7 +64439,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F26" s="40"/>
       <c r="G26" s="54"/>
@@ -64422,394 +64452,461 @@
       <c r="N26" s="55"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F27" s="38"/>
-      <c r="G27" t="s">
+      <c r="A27" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F27" s="40"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="55"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F28" s="40"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="54"/>
+      <c r="M28" s="54"/>
+      <c r="N28" s="55"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F29" s="40"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="55"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F30" s="40"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="54"/>
+      <c r="N30" s="55"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F31" s="40"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="54"/>
+      <c r="N31" s="55"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F32" s="38"/>
+      <c r="G32" t="s">
         <v>147</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H32" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F28" s="56" t="s">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F33" s="56" t="s">
         <v>149</v>
       </c>
-      <c r="G28" s="57"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="58">
+      <c r="G33" s="57"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="58">
         <v>400000</v>
       </c>
-      <c r="J28" s="55"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F29" s="59" t="s">
+      <c r="J33" s="55"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F34" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="G29" s="60"/>
-      <c r="H29" s="54">
+      <c r="G34" s="60"/>
+      <c r="H34" s="54">
         <v>4800000</v>
       </c>
-      <c r="I29" s="61"/>
-      <c r="J29" s="55"/>
-    </row>
-    <row r="30" spans="1:14" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="227" t="s">
+      <c r="I34" s="61"/>
+      <c r="J34" s="55"/>
+    </row>
+    <row r="35" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="236" t="s">
         <v>151</v>
       </c>
-      <c r="B30" s="227"/>
-      <c r="C30" s="227"/>
-      <c r="D30" s="227"/>
-      <c r="F30" s="56" t="s">
+      <c r="B35" s="236"/>
+      <c r="C35" s="236"/>
+      <c r="D35" s="236"/>
+      <c r="F35" s="56" t="s">
         <v>152</v>
       </c>
-      <c r="G30" s="57"/>
-      <c r="H30" s="54">
+      <c r="G35" s="57"/>
+      <c r="H35" s="54">
         <v>4210500</v>
       </c>
-      <c r="I30" s="61"/>
-      <c r="J30" s="55"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="228" t="s">
+      <c r="I35" s="61"/>
+      <c r="J35" s="55"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="237" t="s">
         <v>116</v>
       </c>
-      <c r="B31" s="229" t="s">
+      <c r="B36" s="238" t="s">
         <v>153</v>
       </c>
-      <c r="C31" s="229" t="s">
+      <c r="C36" s="238" t="s">
         <v>149</v>
       </c>
-      <c r="D31" s="229" t="s">
+      <c r="D36" s="238" t="s">
         <v>150</v>
       </c>
-      <c r="F31" s="59" t="s">
+      <c r="F36" s="59" t="s">
         <v>154</v>
       </c>
-      <c r="G31" s="60"/>
-      <c r="H31" s="54">
+      <c r="G36" s="60"/>
+      <c r="H36" s="54">
         <v>3750000</v>
       </c>
-      <c r="I31" s="61"/>
-      <c r="J31" s="55"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="228"/>
-      <c r="B32" s="229"/>
-      <c r="C32" s="229"/>
-      <c r="D32" s="229"/>
-      <c r="F32" s="56" t="s">
+      <c r="I36" s="61"/>
+      <c r="J36" s="55"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="237"/>
+      <c r="B37" s="238"/>
+      <c r="C37" s="238"/>
+      <c r="D37" s="238"/>
+      <c r="F37" s="56" t="s">
         <v>155</v>
       </c>
-      <c r="G32" s="57"/>
-      <c r="H32" s="54">
+      <c r="G37" s="57"/>
+      <c r="H37" s="54">
         <v>3356600</v>
       </c>
-      <c r="I32" s="61"/>
-      <c r="J32" s="55"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="62" t="s">
+      <c r="I37" s="61"/>
+      <c r="J37" s="55"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="B33" s="63" t="s">
+      <c r="B38" s="63" t="s">
         <v>156</v>
       </c>
-      <c r="C33" s="63" t="s">
+      <c r="C38" s="63" t="s">
         <v>157</v>
       </c>
-      <c r="D33" s="63" t="s">
+      <c r="D38" s="63" t="s">
         <v>157</v>
       </c>
-      <c r="F33" s="59" t="s">
+      <c r="F38" s="59" t="s">
         <v>158</v>
       </c>
-      <c r="G33" s="64">
-        <f>I35-H33</f>
+      <c r="G38" s="64">
+        <f>I40-H38</f>
         <v>-62800</v>
       </c>
-      <c r="H33" s="54">
+      <c r="H38" s="54">
         <v>3057300</v>
       </c>
-      <c r="I33" s="61">
-        <f>H33+G33</f>
+      <c r="I38" s="61">
+        <f>H38+G38</f>
         <v>2994500</v>
       </c>
-      <c r="J33" s="55"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="65" t="s">
+      <c r="J38" s="55"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="65" t="s">
         <v>149</v>
       </c>
-      <c r="B34" s="66" t="s">
+      <c r="B39" s="66" t="s">
         <v>159</v>
       </c>
-      <c r="C34" s="66" t="s">
+      <c r="C39" s="66" t="s">
         <v>160</v>
       </c>
-      <c r="D34" s="66" t="s">
+      <c r="D39" s="66" t="s">
         <v>157</v>
       </c>
-      <c r="F34" s="56" t="s">
+      <c r="F39" s="56" t="s">
         <v>161</v>
       </c>
-      <c r="G34" s="67">
-        <f>I35-H34</f>
+      <c r="G39" s="67">
+        <f>I40-H39</f>
         <v>187500</v>
       </c>
-      <c r="H34" s="54">
+      <c r="H39" s="54">
         <v>2807000</v>
       </c>
-      <c r="I34" s="61">
-        <f>H34+G34</f>
+      <c r="I39" s="61">
+        <f>H39+G39</f>
         <v>2994500</v>
       </c>
-      <c r="J34" s="55"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="62" t="s">
+      <c r="J39" s="55"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="B35" s="63" t="s">
+      <c r="B40" s="63" t="s">
         <v>162</v>
       </c>
-      <c r="C35" s="63" t="s">
+      <c r="C40" s="63" t="s">
         <v>163</v>
       </c>
-      <c r="D35" s="63" t="s">
+      <c r="D40" s="63" t="s">
         <v>164</v>
       </c>
-      <c r="F35" s="59" t="s">
+      <c r="F40" s="59" t="s">
         <v>165</v>
       </c>
-      <c r="G35" s="68">
+      <c r="G40" s="68">
         <v>400000</v>
       </c>
-      <c r="H35" s="54">
+      <c r="H40" s="54">
         <v>2594500</v>
       </c>
-      <c r="I35" s="61">
-        <f>H35+G35</f>
+      <c r="I40" s="61">
+        <f>H40+G40</f>
         <v>2994500</v>
       </c>
-      <c r="J35" s="55"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="65" t="s">
+      <c r="J40" s="55"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="65" t="s">
         <v>152</v>
       </c>
-      <c r="B36" s="66" t="s">
+      <c r="B41" s="66" t="s">
         <v>166</v>
       </c>
-      <c r="C36" s="66" t="s">
+      <c r="C41" s="66" t="s">
         <v>167</v>
       </c>
-      <c r="D36" s="66" t="s">
+      <c r="D41" s="66" t="s">
         <v>168</v>
       </c>
-      <c r="F36" s="56" t="s">
+      <c r="F41" s="56" t="s">
         <v>169</v>
       </c>
-      <c r="G36" s="68">
+      <c r="G41" s="68">
         <v>594500</v>
       </c>
-      <c r="H36" s="54">
+      <c r="H41" s="54">
         <v>2400000</v>
       </c>
-      <c r="I36" s="61">
-        <f t="shared" ref="I36:I38" si="3">H36+G36</f>
+      <c r="I41" s="61">
+        <f t="shared" ref="I41:I43" si="3">H41+G41</f>
         <v>2994500</v>
       </c>
-      <c r="J36" s="55"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="62" t="s">
+      <c r="J41" s="55"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="B37" s="63" t="s">
+      <c r="B42" s="63" t="s">
         <v>170</v>
       </c>
-      <c r="C37" s="63" t="s">
+      <c r="C42" s="63" t="s">
         <v>171</v>
       </c>
-      <c r="D37" s="63" t="s">
+      <c r="D42" s="63" t="s">
         <v>172</v>
       </c>
-      <c r="F37" s="59" t="s">
+      <c r="F42" s="59" t="s">
         <v>173</v>
       </c>
-      <c r="G37" s="68">
+      <c r="G42" s="68">
         <v>752210</v>
       </c>
-      <c r="H37" s="54">
+      <c r="H42" s="54">
         <v>2242290</v>
       </c>
-      <c r="I37" s="61">
+      <c r="I42" s="61">
         <f t="shared" si="3"/>
         <v>2994500</v>
       </c>
-      <c r="J37" s="55"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="65" t="s">
+      <c r="J42" s="55"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="65" t="s">
         <v>155</v>
       </c>
-      <c r="B38" s="66" t="s">
+      <c r="B43" s="66" t="s">
         <v>174</v>
       </c>
-      <c r="C38" s="66" t="s">
+      <c r="C43" s="66" t="s">
         <v>175</v>
       </c>
-      <c r="D38" s="66" t="s">
+      <c r="D43" s="66" t="s">
         <v>176</v>
       </c>
-      <c r="F38" s="56" t="s">
+      <c r="F43" s="56" t="s">
         <v>177</v>
       </c>
-      <c r="G38" s="68">
+      <c r="G43" s="68">
         <v>889300</v>
       </c>
-      <c r="H38" s="54">
+      <c r="H43" s="54">
         <v>2105200</v>
       </c>
-      <c r="I38" s="61">
+      <c r="I43" s="61">
         <f t="shared" si="3"/>
         <v>2994500</v>
       </c>
-      <c r="J38" s="55"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="62" t="s">
+      <c r="J43" s="55"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="62" t="s">
         <v>158</v>
       </c>
-      <c r="B39" s="63" t="s">
+      <c r="B44" s="63" t="s">
         <v>178</v>
       </c>
-      <c r="C39" s="63" t="s">
+      <c r="C44" s="63" t="s">
         <v>179</v>
       </c>
-      <c r="D39" s="63" t="s">
+      <c r="D44" s="63" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="65" t="s">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="65" t="s">
         <v>161</v>
       </c>
-      <c r="B40" s="66" t="s">
+      <c r="B45" s="66" t="s">
         <v>181</v>
       </c>
-      <c r="C40" s="66" t="s">
+      <c r="C45" s="66" t="s">
         <v>182</v>
       </c>
-      <c r="D40" s="66" t="s">
+      <c r="D45" s="66" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="62" t="s">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="B41" s="63" t="s">
+      <c r="B46" s="63" t="s">
         <v>184</v>
       </c>
-      <c r="C41" s="63" t="s">
+      <c r="C46" s="63" t="s">
         <v>185</v>
       </c>
-      <c r="D41" s="63" t="s">
+      <c r="D46" s="63" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="65" t="s">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="65" t="s">
         <v>169</v>
       </c>
-      <c r="B42" s="66" t="s">
+      <c r="B47" s="66" t="s">
         <v>187</v>
       </c>
-      <c r="C42" s="66" t="s">
+      <c r="C47" s="66" t="s">
         <v>188</v>
       </c>
-      <c r="D42" s="66" t="s">
+      <c r="D47" s="66" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="62" t="s">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="62" t="s">
         <v>173</v>
       </c>
-      <c r="B43" s="63" t="s">
+      <c r="B48" s="63" t="s">
         <v>190</v>
       </c>
-      <c r="C43" s="63" t="s">
+      <c r="C48" s="63" t="s">
         <v>191</v>
       </c>
-      <c r="D43" s="63" t="s">
+      <c r="D48" s="63" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="65" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="65" t="s">
         <v>177</v>
       </c>
-      <c r="B44" s="66" t="s">
+      <c r="B49" s="66" t="s">
         <v>193</v>
       </c>
-      <c r="C44" s="66" t="s">
+      <c r="C49" s="66" t="s">
         <v>194</v>
       </c>
-      <c r="D44" s="66" t="s">
+      <c r="D49" s="66" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="62" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="62" t="s">
         <v>196</v>
       </c>
-      <c r="B45" s="63" t="s">
+      <c r="B50" s="63" t="s">
         <v>197</v>
       </c>
-      <c r="C45" s="63" t="s">
+      <c r="C50" s="63" t="s">
         <v>198</v>
       </c>
-      <c r="D45" s="63" t="s">
+      <c r="D50" s="63" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="65" t="s">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="65" t="s">
         <v>200</v>
       </c>
-      <c r="B46" s="66" t="s">
+      <c r="B51" s="66" t="s">
         <v>201</v>
       </c>
-      <c r="C46" s="66" t="s">
+      <c r="C51" s="66" t="s">
         <v>202</v>
       </c>
-      <c r="D46" s="66" t="s">
+      <c r="D51" s="66" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="62" t="s">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="62" t="s">
         <v>204</v>
       </c>
-      <c r="B47" s="63" t="s">
+      <c r="B52" s="63" t="s">
         <v>205</v>
       </c>
-      <c r="C47" s="63" t="s">
+      <c r="C52" s="63" t="s">
         <v>206</v>
       </c>
-      <c r="D47" s="63" t="s">
+      <c r="D52" s="63" t="s">
         <v>207</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -64824,7 +64921,7 @@
   <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -65350,460 +65447,460 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="234" t="s">
+      <c r="A4" s="243" t="s">
         <v>1130</v>
       </c>
-      <c r="B4" s="234" t="s">
+      <c r="B4" s="243" t="s">
         <v>1131</v>
       </c>
-      <c r="C4" s="234" t="s">
+      <c r="C4" s="243" t="s">
         <v>1132</v>
       </c>
-      <c r="D4" s="234" t="s">
+      <c r="D4" s="243" t="s">
         <v>1133</v>
       </c>
-      <c r="E4" s="236" t="s">
+      <c r="E4" s="245" t="s">
         <v>1134</v>
       </c>
-      <c r="F4" s="234" t="s">
+      <c r="F4" s="243" t="s">
         <v>1135</v>
       </c>
-      <c r="G4" s="234" t="s">
+      <c r="G4" s="243" t="s">
         <v>1136</v>
       </c>
-      <c r="H4" s="234" t="s">
+      <c r="H4" s="243" t="s">
         <v>1137</v>
       </c>
-      <c r="I4" s="234" t="s">
+      <c r="I4" s="243" t="s">
         <v>1138</v>
       </c>
-      <c r="J4" s="236" t="s">
+      <c r="J4" s="245" t="s">
         <v>1139</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="235"/>
-      <c r="B5" s="235"/>
-      <c r="C5" s="235"/>
-      <c r="D5" s="235"/>
-      <c r="E5" s="237"/>
-      <c r="F5" s="235"/>
-      <c r="G5" s="235"/>
-      <c r="H5" s="235"/>
-      <c r="I5" s="235"/>
-      <c r="J5" s="237"/>
+      <c r="A5" s="244"/>
+      <c r="B5" s="244"/>
+      <c r="C5" s="244"/>
+      <c r="D5" s="244"/>
+      <c r="E5" s="246"/>
+      <c r="F5" s="244"/>
+      <c r="G5" s="244"/>
+      <c r="H5" s="244"/>
+      <c r="I5" s="244"/>
+      <c r="J5" s="246"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="234" t="s">
+      <c r="A6" s="243" t="s">
         <v>1140</v>
       </c>
-      <c r="B6" s="232">
+      <c r="B6" s="241">
         <v>3563</v>
       </c>
-      <c r="C6" s="232">
+      <c r="C6" s="241">
         <v>3583</v>
       </c>
-      <c r="D6" s="232">
+      <c r="D6" s="241">
         <v>3689</v>
       </c>
-      <c r="E6" s="230">
+      <c r="E6" s="239">
         <v>3712</v>
       </c>
-      <c r="F6" s="232">
+      <c r="F6" s="241">
         <v>3656</v>
       </c>
-      <c r="G6" s="232">
+      <c r="G6" s="241">
         <v>3751</v>
       </c>
-      <c r="H6" s="232">
+      <c r="H6" s="241">
         <v>3693</v>
       </c>
-      <c r="I6" s="232">
+      <c r="I6" s="241">
         <v>3676</v>
       </c>
-      <c r="J6" s="230">
+      <c r="J6" s="239">
         <v>3638</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="235"/>
-      <c r="B7" s="233"/>
-      <c r="C7" s="233"/>
-      <c r="D7" s="233"/>
-      <c r="E7" s="231"/>
-      <c r="F7" s="233"/>
-      <c r="G7" s="233"/>
-      <c r="H7" s="233"/>
-      <c r="I7" s="233"/>
-      <c r="J7" s="231"/>
+      <c r="A7" s="244"/>
+      <c r="B7" s="242"/>
+      <c r="C7" s="242"/>
+      <c r="D7" s="242"/>
+      <c r="E7" s="240"/>
+      <c r="F7" s="242"/>
+      <c r="G7" s="242"/>
+      <c r="H7" s="242"/>
+      <c r="I7" s="242"/>
+      <c r="J7" s="240"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="234" t="s">
+      <c r="A8" s="243" t="s">
         <v>1141</v>
       </c>
-      <c r="B8" s="232">
+      <c r="B8" s="241">
         <v>2957</v>
       </c>
-      <c r="C8" s="232">
+      <c r="C8" s="241">
         <v>3253</v>
       </c>
-      <c r="D8" s="232">
+      <c r="D8" s="241">
         <v>3342</v>
       </c>
-      <c r="E8" s="230">
+      <c r="E8" s="239">
         <v>3325</v>
       </c>
-      <c r="F8" s="232">
+      <c r="F8" s="241">
         <v>3461</v>
       </c>
-      <c r="G8" s="232">
+      <c r="G8" s="241">
         <v>3392</v>
       </c>
-      <c r="H8" s="232">
+      <c r="H8" s="241">
         <v>3455</v>
       </c>
-      <c r="I8" s="232">
+      <c r="I8" s="241">
         <v>3369</v>
       </c>
-      <c r="J8" s="230">
+      <c r="J8" s="239">
         <v>3372</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="235"/>
-      <c r="B9" s="233"/>
-      <c r="C9" s="233"/>
-      <c r="D9" s="233"/>
-      <c r="E9" s="231"/>
-      <c r="F9" s="233"/>
-      <c r="G9" s="233"/>
-      <c r="H9" s="233"/>
-      <c r="I9" s="233"/>
-      <c r="J9" s="231"/>
+      <c r="A9" s="244"/>
+      <c r="B9" s="242"/>
+      <c r="C9" s="242"/>
+      <c r="D9" s="242"/>
+      <c r="E9" s="240"/>
+      <c r="F9" s="242"/>
+      <c r="G9" s="242"/>
+      <c r="H9" s="242"/>
+      <c r="I9" s="242"/>
+      <c r="J9" s="240"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="234" t="s">
+      <c r="A10" s="243" t="s">
         <v>1142</v>
       </c>
-      <c r="B10" s="232">
+      <c r="B10" s="241">
         <v>2354</v>
       </c>
-      <c r="C10" s="232">
+      <c r="C10" s="241">
         <v>2997</v>
       </c>
-      <c r="D10" s="232">
+      <c r="D10" s="241">
         <v>3041</v>
       </c>
-      <c r="E10" s="230">
+      <c r="E10" s="239">
         <v>3085</v>
       </c>
-      <c r="F10" s="232">
+      <c r="F10" s="241">
         <v>3118</v>
       </c>
-      <c r="G10" s="232">
+      <c r="G10" s="241">
         <v>3100</v>
       </c>
-      <c r="H10" s="232">
+      <c r="H10" s="241">
         <v>3130</v>
       </c>
-      <c r="I10" s="232">
+      <c r="I10" s="241">
         <v>3102</v>
       </c>
-      <c r="J10" s="230">
+      <c r="J10" s="239">
         <v>3098</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="235"/>
-      <c r="B11" s="233"/>
-      <c r="C11" s="233"/>
-      <c r="D11" s="233"/>
-      <c r="E11" s="231"/>
-      <c r="F11" s="233"/>
-      <c r="G11" s="233"/>
-      <c r="H11" s="233"/>
-      <c r="I11" s="233"/>
-      <c r="J11" s="231"/>
+      <c r="A11" s="244"/>
+      <c r="B11" s="242"/>
+      <c r="C11" s="242"/>
+      <c r="D11" s="242"/>
+      <c r="E11" s="240"/>
+      <c r="F11" s="242"/>
+      <c r="G11" s="242"/>
+      <c r="H11" s="242"/>
+      <c r="I11" s="242"/>
+      <c r="J11" s="240"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="234" t="s">
+      <c r="A12" s="243" t="s">
         <v>1143</v>
       </c>
-      <c r="B12" s="232"/>
-      <c r="C12" s="232">
+      <c r="B12" s="241"/>
+      <c r="C12" s="241">
         <v>2361</v>
       </c>
-      <c r="D12" s="232">
+      <c r="D12" s="241">
         <v>2778</v>
       </c>
-      <c r="E12" s="230">
+      <c r="E12" s="239">
         <v>2793</v>
       </c>
-      <c r="F12" s="232">
+      <c r="F12" s="241">
         <v>2808</v>
       </c>
-      <c r="G12" s="232">
+      <c r="G12" s="241">
         <v>2810</v>
       </c>
-      <c r="H12" s="232">
+      <c r="H12" s="241">
         <v>2814</v>
       </c>
-      <c r="I12" s="232">
+      <c r="I12" s="241">
         <v>2795</v>
       </c>
-      <c r="J12" s="230">
+      <c r="J12" s="239">
         <v>2793</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="235"/>
-      <c r="B13" s="233"/>
-      <c r="C13" s="233"/>
-      <c r="D13" s="233"/>
-      <c r="E13" s="231"/>
-      <c r="F13" s="233"/>
-      <c r="G13" s="233"/>
-      <c r="H13" s="233"/>
-      <c r="I13" s="233"/>
-      <c r="J13" s="231"/>
+      <c r="A13" s="244"/>
+      <c r="B13" s="242"/>
+      <c r="C13" s="242"/>
+      <c r="D13" s="242"/>
+      <c r="E13" s="240"/>
+      <c r="F13" s="242"/>
+      <c r="G13" s="242"/>
+      <c r="H13" s="242"/>
+      <c r="I13" s="242"/>
+      <c r="J13" s="240"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="234" t="s">
+      <c r="A14" s="243" t="s">
         <v>1144</v>
       </c>
-      <c r="B14" s="232"/>
-      <c r="C14" s="232"/>
-      <c r="D14" s="232">
+      <c r="B14" s="241"/>
+      <c r="C14" s="241"/>
+      <c r="D14" s="241">
         <v>2241</v>
       </c>
-      <c r="E14" s="230">
+      <c r="E14" s="239">
         <v>2467</v>
       </c>
-      <c r="F14" s="232">
+      <c r="F14" s="241">
         <v>2521</v>
       </c>
-      <c r="G14" s="232">
+      <c r="G14" s="241">
         <v>2507</v>
       </c>
-      <c r="H14" s="232">
+      <c r="H14" s="241">
         <v>2536</v>
       </c>
-      <c r="I14" s="232">
+      <c r="I14" s="241">
         <v>2517</v>
       </c>
-      <c r="J14" s="230">
+      <c r="J14" s="239">
         <v>2525</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="235"/>
-      <c r="B15" s="233"/>
-      <c r="C15" s="233"/>
-      <c r="D15" s="233"/>
-      <c r="E15" s="231"/>
-      <c r="F15" s="233"/>
-      <c r="G15" s="233"/>
-      <c r="H15" s="233"/>
-      <c r="I15" s="233"/>
-      <c r="J15" s="231"/>
+      <c r="A15" s="244"/>
+      <c r="B15" s="242"/>
+      <c r="C15" s="242"/>
+      <c r="D15" s="242"/>
+      <c r="E15" s="240"/>
+      <c r="F15" s="242"/>
+      <c r="G15" s="242"/>
+      <c r="H15" s="242"/>
+      <c r="I15" s="242"/>
+      <c r="J15" s="240"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="234" t="s">
+      <c r="A16" s="243" t="s">
         <v>1145</v>
       </c>
-      <c r="B16" s="232"/>
-      <c r="C16" s="232"/>
-      <c r="D16" s="232"/>
-      <c r="E16" s="230">
+      <c r="B16" s="241"/>
+      <c r="C16" s="241"/>
+      <c r="D16" s="241"/>
+      <c r="E16" s="239">
         <v>2113</v>
       </c>
-      <c r="F16" s="232">
+      <c r="F16" s="241">
         <v>2226</v>
       </c>
-      <c r="G16" s="232">
+      <c r="G16" s="241">
         <v>2202</v>
       </c>
-      <c r="H16" s="232">
+      <c r="H16" s="241">
         <v>2232</v>
       </c>
-      <c r="I16" s="232">
+      <c r="I16" s="241">
         <v>2235</v>
       </c>
-      <c r="J16" s="230">
+      <c r="J16" s="239">
         <v>2227</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="235"/>
-      <c r="B17" s="233"/>
-      <c r="C17" s="233"/>
-      <c r="D17" s="233"/>
-      <c r="E17" s="231"/>
-      <c r="F17" s="233"/>
-      <c r="G17" s="233"/>
-      <c r="H17" s="233"/>
-      <c r="I17" s="233"/>
-      <c r="J17" s="231"/>
+      <c r="A17" s="244"/>
+      <c r="B17" s="242"/>
+      <c r="C17" s="242"/>
+      <c r="D17" s="242"/>
+      <c r="E17" s="240"/>
+      <c r="F17" s="242"/>
+      <c r="G17" s="242"/>
+      <c r="H17" s="242"/>
+      <c r="I17" s="242"/>
+      <c r="J17" s="240"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="234" t="s">
+      <c r="A18" s="243" t="s">
         <v>1146</v>
       </c>
-      <c r="B18" s="232"/>
-      <c r="C18" s="232"/>
-      <c r="D18" s="232"/>
-      <c r="E18" s="230"/>
-      <c r="F18" s="232">
+      <c r="B18" s="241"/>
+      <c r="C18" s="241"/>
+      <c r="D18" s="241"/>
+      <c r="E18" s="239"/>
+      <c r="F18" s="241">
         <v>1537</v>
       </c>
-      <c r="G18" s="232">
+      <c r="G18" s="241">
         <v>1762</v>
       </c>
-      <c r="H18" s="232">
+      <c r="H18" s="241">
         <v>1905</v>
       </c>
-      <c r="I18" s="232">
+      <c r="I18" s="241">
         <v>1879</v>
       </c>
-      <c r="J18" s="230">
+      <c r="J18" s="239">
         <v>1893</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="235"/>
-      <c r="B19" s="233"/>
-      <c r="C19" s="233"/>
-      <c r="D19" s="233"/>
-      <c r="E19" s="231"/>
-      <c r="F19" s="233"/>
-      <c r="G19" s="233"/>
-      <c r="H19" s="233"/>
-      <c r="I19" s="233"/>
-      <c r="J19" s="231"/>
+      <c r="A19" s="244"/>
+      <c r="B19" s="242"/>
+      <c r="C19" s="242"/>
+      <c r="D19" s="242"/>
+      <c r="E19" s="240"/>
+      <c r="F19" s="242"/>
+      <c r="G19" s="242"/>
+      <c r="H19" s="242"/>
+      <c r="I19" s="242"/>
+      <c r="J19" s="240"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="234" t="s">
+      <c r="A20" s="243" t="s">
         <v>1147</v>
       </c>
-      <c r="B20" s="232"/>
-      <c r="C20" s="232"/>
-      <c r="D20" s="232"/>
-      <c r="E20" s="230"/>
-      <c r="F20" s="232"/>
-      <c r="G20" s="232">
+      <c r="B20" s="241"/>
+      <c r="C20" s="241"/>
+      <c r="D20" s="241"/>
+      <c r="E20" s="239"/>
+      <c r="F20" s="241"/>
+      <c r="G20" s="241">
         <v>1412</v>
       </c>
-      <c r="H20" s="232">
+      <c r="H20" s="241">
         <v>1689</v>
       </c>
-      <c r="I20" s="232">
+      <c r="I20" s="241">
         <v>1630</v>
       </c>
-      <c r="J20" s="230">
+      <c r="J20" s="239">
         <v>1640</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="235"/>
-      <c r="B21" s="233"/>
-      <c r="C21" s="233"/>
-      <c r="D21" s="233"/>
-      <c r="E21" s="231"/>
-      <c r="F21" s="233"/>
-      <c r="G21" s="233"/>
-      <c r="H21" s="233"/>
-      <c r="I21" s="233"/>
-      <c r="J21" s="231"/>
+      <c r="A21" s="244"/>
+      <c r="B21" s="242"/>
+      <c r="C21" s="242"/>
+      <c r="D21" s="242"/>
+      <c r="E21" s="240"/>
+      <c r="F21" s="242"/>
+      <c r="G21" s="242"/>
+      <c r="H21" s="242"/>
+      <c r="I21" s="242"/>
+      <c r="J21" s="240"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="234" t="s">
+      <c r="A22" s="243" t="s">
         <v>1148</v>
       </c>
-      <c r="B22" s="232"/>
-      <c r="C22" s="232"/>
-      <c r="D22" s="232"/>
-      <c r="E22" s="230"/>
-      <c r="F22" s="232"/>
-      <c r="G22" s="232"/>
-      <c r="H22" s="232">
+      <c r="B22" s="241"/>
+      <c r="C22" s="241"/>
+      <c r="D22" s="241"/>
+      <c r="E22" s="239"/>
+      <c r="F22" s="241"/>
+      <c r="G22" s="241"/>
+      <c r="H22" s="241">
         <v>1082</v>
       </c>
-      <c r="I22" s="232">
+      <c r="I22" s="241">
         <v>1341</v>
       </c>
-      <c r="J22" s="230">
+      <c r="J22" s="239">
         <v>1325</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="235"/>
-      <c r="B23" s="233"/>
-      <c r="C23" s="233"/>
-      <c r="D23" s="233"/>
-      <c r="E23" s="231"/>
-      <c r="F23" s="233"/>
-      <c r="G23" s="233"/>
-      <c r="H23" s="233"/>
-      <c r="I23" s="233"/>
-      <c r="J23" s="231"/>
+      <c r="A23" s="244"/>
+      <c r="B23" s="242"/>
+      <c r="C23" s="242"/>
+      <c r="D23" s="242"/>
+      <c r="E23" s="240"/>
+      <c r="F23" s="242"/>
+      <c r="G23" s="242"/>
+      <c r="H23" s="242"/>
+      <c r="I23" s="242"/>
+      <c r="J23" s="240"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="234" t="s">
+      <c r="A24" s="243" t="s">
         <v>1149</v>
       </c>
-      <c r="B24" s="232"/>
-      <c r="C24" s="232"/>
-      <c r="D24" s="232"/>
-      <c r="E24" s="230"/>
-      <c r="F24" s="232"/>
-      <c r="G24" s="232"/>
-      <c r="H24" s="232"/>
-      <c r="I24" s="232">
+      <c r="B24" s="241"/>
+      <c r="C24" s="241"/>
+      <c r="D24" s="241"/>
+      <c r="E24" s="239"/>
+      <c r="F24" s="241"/>
+      <c r="G24" s="241"/>
+      <c r="H24" s="241"/>
+      <c r="I24" s="241">
         <v>1003</v>
       </c>
-      <c r="J24" s="230">
+      <c r="J24" s="239">
         <v>1016</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="235"/>
-      <c r="B25" s="233"/>
-      <c r="C25" s="233"/>
-      <c r="D25" s="233"/>
-      <c r="E25" s="231"/>
-      <c r="F25" s="233"/>
-      <c r="G25" s="233"/>
-      <c r="H25" s="233"/>
-      <c r="I25" s="233"/>
-      <c r="J25" s="231"/>
+      <c r="A25" s="244"/>
+      <c r="B25" s="242"/>
+      <c r="C25" s="242"/>
+      <c r="D25" s="242"/>
+      <c r="E25" s="240"/>
+      <c r="F25" s="242"/>
+      <c r="G25" s="242"/>
+      <c r="H25" s="242"/>
+      <c r="I25" s="242"/>
+      <c r="J25" s="240"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="234" t="s">
+      <c r="A26" s="243" t="s">
         <v>1150</v>
       </c>
-      <c r="B26" s="232"/>
-      <c r="C26" s="232"/>
-      <c r="D26" s="232"/>
-      <c r="E26" s="230"/>
-      <c r="F26" s="232"/>
-      <c r="G26" s="232"/>
-      <c r="H26" s="232"/>
-      <c r="I26" s="232"/>
-      <c r="J26" s="230">
+      <c r="B26" s="241"/>
+      <c r="C26" s="241"/>
+      <c r="D26" s="241"/>
+      <c r="E26" s="239"/>
+      <c r="F26" s="241"/>
+      <c r="G26" s="241"/>
+      <c r="H26" s="241"/>
+      <c r="I26" s="241"/>
+      <c r="J26" s="239">
         <v>632</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="235"/>
-      <c r="B27" s="233"/>
-      <c r="C27" s="233"/>
-      <c r="D27" s="233"/>
-      <c r="E27" s="231"/>
-      <c r="F27" s="233"/>
-      <c r="G27" s="233"/>
-      <c r="H27" s="233"/>
-      <c r="I27" s="233"/>
-      <c r="J27" s="231"/>
+      <c r="A27" s="244"/>
+      <c r="B27" s="242"/>
+      <c r="C27" s="242"/>
+      <c r="D27" s="242"/>
+      <c r="E27" s="240"/>
+      <c r="F27" s="242"/>
+      <c r="G27" s="242"/>
+      <c r="H27" s="242"/>
+      <c r="I27" s="242"/>
+      <c r="J27" s="240"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -65967,26 +66064,26 @@
       <c r="C1" s="78" t="s">
         <v>233</v>
       </c>
-      <c r="F1" s="253" t="s">
+      <c r="F1" s="262" t="s">
         <v>234</v>
       </c>
-      <c r="G1" s="253"/>
-      <c r="H1" s="253" t="s">
+      <c r="G1" s="262"/>
+      <c r="H1" s="262" t="s">
         <v>235</v>
       </c>
-      <c r="I1" s="253"/>
-      <c r="J1" s="253" t="s">
+      <c r="I1" s="262"/>
+      <c r="J1" s="262" t="s">
         <v>236</v>
       </c>
-      <c r="K1" s="253"/>
-      <c r="L1" s="253" t="s">
+      <c r="K1" s="262"/>
+      <c r="L1" s="262" t="s">
         <v>237</v>
       </c>
-      <c r="M1" s="253"/>
-      <c r="N1" s="253" t="s">
+      <c r="M1" s="262"/>
+      <c r="N1" s="262" t="s">
         <v>238</v>
       </c>
-      <c r="O1" s="253"/>
+      <c r="O1" s="262"/>
     </row>
     <row r="2" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F2" s="79" t="s">
@@ -65995,18 +66092,18 @@
       <c r="G2" s="79" t="s">
         <v>240</v>
       </c>
-      <c r="H2" s="254"/>
-      <c r="I2" s="255"/>
-      <c r="J2" s="254"/>
-      <c r="K2" s="255"/>
+      <c r="H2" s="263"/>
+      <c r="I2" s="264"/>
+      <c r="J2" s="263"/>
+      <c r="K2" s="264"/>
       <c r="L2" s="79" t="s">
         <v>239</v>
       </c>
       <c r="M2" s="79" t="s">
         <v>240</v>
       </c>
-      <c r="N2" s="254"/>
-      <c r="O2" s="255"/>
+      <c r="N2" s="263"/>
+      <c r="O2" s="264"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -66018,14 +66115,14 @@
       <c r="E3" s="80" t="s">
         <v>243</v>
       </c>
-      <c r="F3" s="247">
+      <c r="F3" s="256">
         <v>0.64709000000000005</v>
       </c>
-      <c r="G3" s="247"/>
-      <c r="H3" s="247">
+      <c r="G3" s="256"/>
+      <c r="H3" s="256">
         <v>0.97192999999999996</v>
       </c>
-      <c r="I3" s="247"/>
+      <c r="I3" s="256"/>
       <c r="J3" s="81"/>
       <c r="K3" s="81"/>
       <c r="L3" s="81"/>
@@ -66048,14 +66145,14 @@
       <c r="E4" s="84" t="s">
         <v>246</v>
       </c>
-      <c r="F4" s="252">
+      <c r="F4" s="261">
         <v>0.26545000000000002</v>
       </c>
-      <c r="G4" s="252"/>
-      <c r="H4" s="252">
+      <c r="G4" s="261"/>
+      <c r="H4" s="261">
         <v>0.39895999999999998</v>
       </c>
-      <c r="I4" s="252"/>
+      <c r="I4" s="261"/>
       <c r="J4" s="85"/>
       <c r="K4" s="85"/>
       <c r="L4" s="85"/>
@@ -66081,10 +66178,10 @@
       <c r="G5" s="81">
         <v>0.25008999999999998</v>
       </c>
-      <c r="H5" s="247">
+      <c r="H5" s="256">
         <v>1</v>
       </c>
-      <c r="I5" s="247"/>
+      <c r="I5" s="256"/>
       <c r="J5" s="81"/>
       <c r="K5" s="81"/>
       <c r="L5" s="81"/>
@@ -66105,10 +66202,10 @@
       <c r="G6" s="85"/>
       <c r="H6" s="85"/>
       <c r="I6" s="85"/>
-      <c r="J6" s="252">
+      <c r="J6" s="261">
         <v>0.27488000000000001</v>
       </c>
-      <c r="K6" s="252"/>
+      <c r="K6" s="261"/>
       <c r="L6" s="85"/>
       <c r="M6" s="85"/>
       <c r="N6" s="85"/>
@@ -66132,10 +66229,10 @@
       <c r="G7" s="81">
         <v>0.17752000000000001</v>
       </c>
-      <c r="H7" s="247">
+      <c r="H7" s="256">
         <v>0.72296000000000005</v>
       </c>
-      <c r="I7" s="247"/>
+      <c r="I7" s="256"/>
       <c r="J7" s="81"/>
       <c r="K7" s="81"/>
       <c r="L7" s="81"/>
@@ -66158,10 +66255,10 @@
       <c r="G8" s="85"/>
       <c r="H8" s="85"/>
       <c r="I8" s="85"/>
-      <c r="J8" s="252">
+      <c r="J8" s="261">
         <v>0.36337000000000003</v>
       </c>
-      <c r="K8" s="252"/>
+      <c r="K8" s="261"/>
       <c r="L8" s="85"/>
       <c r="M8" s="85"/>
       <c r="N8" s="85"/>
@@ -66179,10 +66276,10 @@
         <v>0.65615999999999997</v>
       </c>
       <c r="G9" s="81"/>
-      <c r="H9" s="247">
+      <c r="H9" s="256">
         <v>0.78437000000000001</v>
       </c>
-      <c r="I9" s="247"/>
+      <c r="I9" s="256"/>
       <c r="J9" s="81"/>
       <c r="K9" s="81"/>
       <c r="L9" s="81"/>
@@ -66208,10 +66305,10 @@
       <c r="G10" s="88"/>
       <c r="H10" s="88"/>
       <c r="I10" s="88"/>
-      <c r="J10" s="251">
+      <c r="J10" s="260">
         <v>0.1464</v>
       </c>
-      <c r="K10" s="251"/>
+      <c r="K10" s="260"/>
       <c r="L10" s="88"/>
       <c r="M10" s="88"/>
       <c r="N10" s="88"/>
@@ -66246,14 +66343,14 @@
       <c r="E12" s="80" t="s">
         <v>260</v>
       </c>
-      <c r="F12" s="247">
+      <c r="F12" s="256">
         <v>0.42514999999999997</v>
       </c>
-      <c r="G12" s="247"/>
-      <c r="H12" s="247">
+      <c r="G12" s="256"/>
+      <c r="H12" s="256">
         <v>0.85</v>
       </c>
-      <c r="I12" s="247"/>
+      <c r="I12" s="256"/>
       <c r="J12" s="81"/>
       <c r="K12" s="81"/>
       <c r="L12" s="81"/>
@@ -66279,10 +66376,10 @@
       <c r="G13" s="85"/>
       <c r="H13" s="85"/>
       <c r="I13" s="85"/>
-      <c r="J13" s="252">
+      <c r="J13" s="261">
         <v>0.23365</v>
       </c>
-      <c r="K13" s="252"/>
+      <c r="K13" s="261"/>
       <c r="L13" s="85"/>
       <c r="M13" s="85"/>
       <c r="N13" s="85"/>
@@ -66300,10 +66397,10 @@
         <v>1</v>
       </c>
       <c r="G14" s="92"/>
-      <c r="H14" s="247">
+      <c r="H14" s="256">
         <v>0.51382000000000005</v>
       </c>
-      <c r="I14" s="247"/>
+      <c r="I14" s="256"/>
       <c r="J14" s="81"/>
       <c r="K14" s="81"/>
       <c r="L14" s="81"/>
@@ -66330,10 +66427,10 @@
       <c r="G15" s="88"/>
       <c r="H15" s="88"/>
       <c r="I15" s="88"/>
-      <c r="J15" s="251">
+      <c r="J15" s="260">
         <v>4.3869999999999999E-2</v>
       </c>
-      <c r="K15" s="251"/>
+      <c r="K15" s="260"/>
       <c r="L15" s="88"/>
       <c r="M15" s="88"/>
       <c r="N15" s="88"/>
@@ -66380,10 +66477,10 @@
         <v>0.91232999999999997</v>
       </c>
       <c r="G17" s="92"/>
-      <c r="H17" s="247">
+      <c r="H17" s="256">
         <v>0.46146999999999999</v>
       </c>
-      <c r="I17" s="247"/>
+      <c r="I17" s="256"/>
       <c r="J17" s="81"/>
       <c r="K17" s="81"/>
       <c r="L17" s="81"/>
@@ -66409,10 +66506,10 @@
       <c r="G18" s="88"/>
       <c r="H18" s="88"/>
       <c r="I18" s="88"/>
-      <c r="J18" s="251">
+      <c r="J18" s="260">
         <v>0.15035999999999999</v>
       </c>
-      <c r="K18" s="251"/>
+      <c r="K18" s="260"/>
       <c r="L18" s="88"/>
       <c r="M18" s="88"/>
       <c r="N18" s="88"/>
@@ -66454,10 +66551,10 @@
         <v>0.69059999999999999</v>
       </c>
       <c r="G20" s="92"/>
-      <c r="H20" s="247">
+      <c r="H20" s="256">
         <v>0.38878000000000001</v>
       </c>
-      <c r="I20" s="247"/>
+      <c r="I20" s="256"/>
       <c r="J20" s="81"/>
       <c r="K20" s="81"/>
       <c r="L20" s="81"/>
@@ -66483,10 +66580,10 @@
       <c r="G21" s="88"/>
       <c r="H21" s="88"/>
       <c r="I21" s="88"/>
-      <c r="J21" s="251">
+      <c r="J21" s="260">
         <v>0.2099</v>
       </c>
-      <c r="K21" s="251"/>
+      <c r="K21" s="260"/>
       <c r="L21" s="88"/>
       <c r="M21" s="88"/>
       <c r="N21" s="88"/>
@@ -66528,10 +66625,10 @@
         <v>0.68315000000000003</v>
       </c>
       <c r="G23" s="92"/>
-      <c r="H23" s="247">
+      <c r="H23" s="256">
         <v>0.70006000000000002</v>
       </c>
-      <c r="I23" s="247"/>
+      <c r="I23" s="256"/>
       <c r="J23" s="81"/>
       <c r="K23" s="81"/>
       <c r="L23" s="81"/>
@@ -66557,10 +66654,10 @@
       <c r="G24" s="88"/>
       <c r="H24" s="88"/>
       <c r="I24" s="88"/>
-      <c r="J24" s="251">
+      <c r="J24" s="260">
         <v>0.152</v>
       </c>
-      <c r="K24" s="251"/>
+      <c r="K24" s="260"/>
       <c r="L24" s="88"/>
       <c r="M24" s="88"/>
       <c r="N24" s="88"/>
@@ -66604,16 +66701,16 @@
       <c r="G26" s="81">
         <v>9.2719999999999997E-2</v>
       </c>
-      <c r="H26" s="247">
+      <c r="H26" s="256">
         <v>0.42459999999999998</v>
       </c>
-      <c r="I26" s="247"/>
+      <c r="I26" s="256"/>
       <c r="J26" s="81"/>
       <c r="K26" s="81"/>
       <c r="L26" s="81"/>
       <c r="M26" s="81"/>
-      <c r="N26" s="240"/>
-      <c r="O26" s="242"/>
+      <c r="N26" s="249"/>
+      <c r="O26" s="251"/>
       <c r="P26" s="83">
         <f>F26+G26+H26+J27+L28+M28+N28</f>
         <v>2.4103300000000001</v>
@@ -66633,14 +66730,14 @@
       <c r="G27" s="88"/>
       <c r="H27" s="88"/>
       <c r="I27" s="88"/>
-      <c r="J27" s="251">
+      <c r="J27" s="260">
         <v>1</v>
       </c>
-      <c r="K27" s="251"/>
+      <c r="K27" s="260"/>
       <c r="L27" s="88"/>
       <c r="M27" s="88"/>
-      <c r="N27" s="243"/>
-      <c r="O27" s="244"/>
+      <c r="N27" s="252"/>
+      <c r="O27" s="253"/>
       <c r="P27" s="83"/>
     </row>
     <row r="28" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -66665,10 +66762,10 @@
       <c r="M28" s="85">
         <v>0.1226</v>
       </c>
-      <c r="N28" s="245">
+      <c r="N28" s="254">
         <v>0.34044000000000002</v>
       </c>
-      <c r="O28" s="246"/>
+      <c r="O28" s="255"/>
       <c r="P28" s="83"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
@@ -66684,16 +66781,16 @@
       <c r="G29" s="81">
         <v>0.13719000000000001</v>
       </c>
-      <c r="H29" s="247">
+      <c r="H29" s="256">
         <v>0.62792999999999999</v>
       </c>
-      <c r="I29" s="247"/>
+      <c r="I29" s="256"/>
       <c r="J29" s="81"/>
       <c r="K29" s="81"/>
       <c r="L29" s="81"/>
       <c r="M29" s="81"/>
-      <c r="N29" s="240"/>
-      <c r="O29" s="242"/>
+      <c r="N29" s="249"/>
+      <c r="O29" s="251"/>
       <c r="P29" s="83">
         <f>F29+G29+H29+L30+M30+N30+J33</f>
         <v>2.4474499999999999</v>
@@ -66721,10 +66818,10 @@
       <c r="M30" s="85">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="N30" s="245">
+      <c r="N30" s="254">
         <v>0.23748</v>
       </c>
-      <c r="O30" s="246"/>
+      <c r="O30" s="255"/>
       <c r="P30" s="83"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
@@ -66740,16 +66837,16 @@
       <c r="G31" s="81">
         <v>5.6059999999999999E-2</v>
       </c>
-      <c r="H31" s="247">
+      <c r="H31" s="256">
         <v>0.23462</v>
       </c>
-      <c r="I31" s="247"/>
+      <c r="I31" s="256"/>
       <c r="J31" s="81"/>
       <c r="K31" s="81"/>
       <c r="L31" s="81"/>
       <c r="M31" s="81"/>
-      <c r="N31" s="240"/>
-      <c r="O31" s="242"/>
+      <c r="N31" s="249"/>
+      <c r="O31" s="251"/>
       <c r="P31" s="83">
         <f>F31+G31+H31+L32+M32+N32+J33</f>
         <v>2.2090299999999998</v>
@@ -66774,10 +66871,10 @@
       <c r="M32" s="85">
         <v>0.11894</v>
       </c>
-      <c r="N32" s="245">
+      <c r="N32" s="254">
         <v>0.50244</v>
       </c>
-      <c r="O32" s="246"/>
+      <c r="O32" s="255"/>
       <c r="P32" s="83"/>
     </row>
     <row r="33" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -66791,34 +66888,34 @@
       <c r="G33" s="94"/>
       <c r="H33" s="94"/>
       <c r="I33" s="94"/>
-      <c r="J33" s="248">
+      <c r="J33" s="257">
         <v>0.94696999999999998</v>
       </c>
-      <c r="K33" s="248"/>
+      <c r="K33" s="257"/>
       <c r="L33" s="94"/>
       <c r="M33" s="94"/>
-      <c r="N33" s="249"/>
-      <c r="O33" s="250"/>
+      <c r="N33" s="258"/>
+      <c r="O33" s="259"/>
       <c r="P33" s="83"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E34" s="80" t="s">
         <v>310</v>
       </c>
-      <c r="F34" s="247">
+      <c r="F34" s="256">
         <v>0.15762999999999999</v>
       </c>
-      <c r="G34" s="247"/>
-      <c r="H34" s="247">
+      <c r="G34" s="256"/>
+      <c r="H34" s="256">
         <v>0.36070000000000002</v>
       </c>
-      <c r="I34" s="247"/>
+      <c r="I34" s="256"/>
       <c r="J34" s="81"/>
       <c r="K34" s="81"/>
       <c r="L34" s="81"/>
       <c r="M34" s="81"/>
-      <c r="N34" s="240"/>
-      <c r="O34" s="242"/>
+      <c r="N34" s="249"/>
+      <c r="O34" s="251"/>
       <c r="P34" s="83">
         <f>F34+H34+J35+L36+N36</f>
         <v>1.8655399999999998</v>
@@ -66832,14 +66929,14 @@
       <c r="G35" s="88"/>
       <c r="H35" s="88"/>
       <c r="I35" s="88"/>
-      <c r="J35" s="251">
+      <c r="J35" s="260">
         <v>0.85</v>
       </c>
-      <c r="K35" s="251"/>
+      <c r="K35" s="260"/>
       <c r="L35" s="88"/>
       <c r="M35" s="88"/>
-      <c r="N35" s="243"/>
-      <c r="O35" s="244"/>
+      <c r="N35" s="252"/>
+      <c r="O35" s="253"/>
       <c r="P35" s="83"/>
     </row>
     <row r="36" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -66859,10 +66956,10 @@
         <v>0.20784</v>
       </c>
       <c r="M36" s="85"/>
-      <c r="N36" s="245">
+      <c r="N36" s="254">
         <v>0.28937000000000002</v>
       </c>
-      <c r="O36" s="246"/>
+      <c r="O36" s="255"/>
       <c r="P36" s="83"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
@@ -66872,20 +66969,20 @@
       <c r="E37" s="80" t="s">
         <v>315</v>
       </c>
-      <c r="F37" s="247">
+      <c r="F37" s="256">
         <v>0.20368</v>
       </c>
-      <c r="G37" s="247"/>
-      <c r="H37" s="247">
+      <c r="G37" s="256"/>
+      <c r="H37" s="256">
         <v>0.33767000000000003</v>
       </c>
-      <c r="I37" s="247"/>
+      <c r="I37" s="256"/>
       <c r="J37" s="81"/>
       <c r="K37" s="81"/>
       <c r="L37" s="81"/>
       <c r="M37" s="81"/>
-      <c r="N37" s="240"/>
-      <c r="O37" s="242"/>
+      <c r="N37" s="249"/>
+      <c r="O37" s="251"/>
       <c r="P37" s="83">
         <f>F37+H37+J38+L39+L40+N40</f>
         <v>2.5172699999999999</v>
@@ -66902,14 +66999,14 @@
       <c r="G38" s="88"/>
       <c r="H38" s="88"/>
       <c r="I38" s="88"/>
-      <c r="J38" s="251">
+      <c r="J38" s="260">
         <v>0.89815999999999996</v>
       </c>
-      <c r="K38" s="251"/>
+      <c r="K38" s="260"/>
       <c r="L38" s="88"/>
       <c r="M38" s="88"/>
-      <c r="N38" s="243"/>
-      <c r="O38" s="244"/>
+      <c r="N38" s="252"/>
+      <c r="O38" s="253"/>
       <c r="P38" s="83"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
@@ -66929,8 +67026,8 @@
         <v>0.57364000000000004</v>
       </c>
       <c r="M39" s="88"/>
-      <c r="N39" s="243"/>
-      <c r="O39" s="244"/>
+      <c r="N39" s="252"/>
+      <c r="O39" s="253"/>
       <c r="P39" s="83"/>
     </row>
     <row r="40" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -66950,10 +67047,10 @@
         <v>0.26422000000000001</v>
       </c>
       <c r="M40" s="85"/>
-      <c r="N40" s="245">
+      <c r="N40" s="254">
         <v>0.2399</v>
       </c>
-      <c r="O40" s="246"/>
+      <c r="O40" s="255"/>
       <c r="P40" s="83"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
@@ -66964,16 +67061,16 @@
         <v>0.34708</v>
       </c>
       <c r="G41" s="92"/>
-      <c r="H41" s="247">
+      <c r="H41" s="256">
         <v>0.20830000000000001</v>
       </c>
-      <c r="I41" s="247"/>
+      <c r="I41" s="256"/>
       <c r="J41" s="81"/>
       <c r="K41" s="81"/>
       <c r="L41" s="81"/>
       <c r="M41" s="81"/>
-      <c r="N41" s="240"/>
-      <c r="O41" s="242"/>
+      <c r="N41" s="249"/>
+      <c r="O41" s="251"/>
       <c r="P41" s="83">
         <f>F41+H41+J42+L43+L44+N44</f>
         <v>2.29189</v>
@@ -66987,14 +67084,14 @@
       <c r="G42" s="88"/>
       <c r="H42" s="88"/>
       <c r="I42" s="88"/>
-      <c r="J42" s="251">
+      <c r="J42" s="260">
         <v>0.52559999999999996</v>
       </c>
-      <c r="K42" s="251"/>
+      <c r="K42" s="260"/>
       <c r="L42" s="88"/>
       <c r="M42" s="88"/>
-      <c r="N42" s="243"/>
-      <c r="O42" s="244"/>
+      <c r="N42" s="252"/>
+      <c r="O42" s="253"/>
       <c r="P42" s="83"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
@@ -67012,8 +67109,8 @@
         <v>0.84328000000000003</v>
       </c>
       <c r="M43" s="88"/>
-      <c r="N43" s="243"/>
-      <c r="O43" s="244"/>
+      <c r="N43" s="252"/>
+      <c r="O43" s="253"/>
       <c r="P43" s="83"/>
     </row>
     <row r="44" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -67033,10 +67130,10 @@
         <v>0.23543</v>
       </c>
       <c r="M44" s="85"/>
-      <c r="N44" s="245">
+      <c r="N44" s="254">
         <v>0.13220000000000001</v>
       </c>
-      <c r="O44" s="246"/>
+      <c r="O44" s="255"/>
       <c r="P44" s="83"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
@@ -67050,16 +67147,16 @@
         <v>0.47361999999999999</v>
       </c>
       <c r="G45" s="92"/>
-      <c r="H45" s="247">
+      <c r="H45" s="256">
         <v>0.28101999999999999</v>
       </c>
-      <c r="I45" s="247"/>
+      <c r="I45" s="256"/>
       <c r="J45" s="81"/>
       <c r="K45" s="81"/>
       <c r="L45" s="81"/>
       <c r="M45" s="81"/>
-      <c r="N45" s="240"/>
-      <c r="O45" s="242"/>
+      <c r="N45" s="249"/>
+      <c r="O45" s="251"/>
       <c r="P45" s="83">
         <f>F45+H45+L46+L47+N47+J51</f>
         <v>2.2079800000000001</v>
@@ -67079,8 +67176,8 @@
         <v>0.71950000000000003</v>
       </c>
       <c r="M46" s="88"/>
-      <c r="N46" s="243"/>
-      <c r="O46" s="244"/>
+      <c r="N46" s="252"/>
+      <c r="O46" s="253"/>
       <c r="P46" s="83"/>
     </row>
     <row r="47" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -67100,10 +67197,10 @@
         <v>0.20451</v>
       </c>
       <c r="M47" s="85"/>
-      <c r="N47" s="245">
+      <c r="N47" s="254">
         <v>9.1600000000000001E-2</v>
       </c>
-      <c r="O47" s="246"/>
+      <c r="O47" s="255"/>
       <c r="P47" s="83"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
@@ -67117,16 +67214,16 @@
         <v>0.17321</v>
       </c>
       <c r="G48" s="92"/>
-      <c r="H48" s="247">
+      <c r="H48" s="256">
         <v>9.2929999999999999E-2</v>
       </c>
-      <c r="I48" s="247"/>
+      <c r="I48" s="256"/>
       <c r="J48" s="81"/>
       <c r="K48" s="81"/>
       <c r="L48" s="81"/>
       <c r="M48" s="81"/>
-      <c r="N48" s="240"/>
-      <c r="O48" s="242"/>
+      <c r="N48" s="249"/>
+      <c r="O48" s="251"/>
       <c r="P48" s="83">
         <f>F48+H48+L49+L50+N50+J51</f>
         <v>2.12704</v>
@@ -67149,8 +67246,8 @@
         <v>1</v>
       </c>
       <c r="M49" s="88"/>
-      <c r="N49" s="243"/>
-      <c r="O49" s="244"/>
+      <c r="N49" s="252"/>
+      <c r="O49" s="253"/>
       <c r="P49" s="83"/>
     </row>
     <row r="50" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -67173,10 +67270,10 @@
         <v>0.26967000000000002</v>
       </c>
       <c r="M50" s="85"/>
-      <c r="N50" s="245">
+      <c r="N50" s="254">
         <v>0.1535</v>
       </c>
-      <c r="O50" s="246"/>
+      <c r="O50" s="255"/>
       <c r="P50" s="83"/>
     </row>
     <row r="51" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -67190,14 +67287,14 @@
       <c r="G51" s="94"/>
       <c r="H51" s="94"/>
       <c r="I51" s="94"/>
-      <c r="J51" s="248">
+      <c r="J51" s="257">
         <v>0.43773000000000001</v>
       </c>
-      <c r="K51" s="248"/>
+      <c r="K51" s="257"/>
       <c r="L51" s="94"/>
       <c r="M51" s="94"/>
-      <c r="N51" s="249"/>
-      <c r="O51" s="250"/>
+      <c r="N51" s="258"/>
+      <c r="O51" s="259"/>
       <c r="P51" s="83"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
@@ -67214,16 +67311,16 @@
         <v>0.28996</v>
       </c>
       <c r="G52" s="92"/>
-      <c r="H52" s="247">
+      <c r="H52" s="256">
         <v>0.25344</v>
       </c>
-      <c r="I52" s="247"/>
+      <c r="I52" s="256"/>
       <c r="J52" s="81"/>
       <c r="K52" s="81"/>
       <c r="L52" s="81"/>
       <c r="M52" s="81"/>
-      <c r="N52" s="240"/>
-      <c r="O52" s="242"/>
+      <c r="N52" s="249"/>
+      <c r="O52" s="251"/>
       <c r="P52" s="83">
         <f>F52+H52+J53+L54+L55+N55</f>
         <v>2.0821799999999997</v>
@@ -67243,14 +67340,14 @@
       <c r="G53" s="88"/>
       <c r="H53" s="88"/>
       <c r="I53" s="88"/>
-      <c r="J53" s="251">
+      <c r="J53" s="260">
         <v>0.65949000000000002</v>
       </c>
-      <c r="K53" s="251"/>
+      <c r="K53" s="260"/>
       <c r="L53" s="88"/>
       <c r="M53" s="88"/>
-      <c r="N53" s="243"/>
-      <c r="O53" s="244"/>
+      <c r="N53" s="252"/>
+      <c r="O53" s="253"/>
       <c r="P53" s="83"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
@@ -67273,8 +67370,8 @@
         <v>0.56411</v>
       </c>
       <c r="M54" s="88"/>
-      <c r="N54" s="243"/>
-      <c r="O54" s="244"/>
+      <c r="N54" s="252"/>
+      <c r="O54" s="253"/>
       <c r="P54" s="83"/>
     </row>
     <row r="55" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -67297,10 +67394,10 @@
         <v>0.14326</v>
       </c>
       <c r="M55" s="85"/>
-      <c r="N55" s="245">
+      <c r="N55" s="254">
         <v>0.17191999999999999</v>
       </c>
-      <c r="O55" s="246"/>
+      <c r="O55" s="255"/>
       <c r="P55" s="83"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
@@ -67323,8 +67420,8 @@
         <v>0.19162000000000001</v>
       </c>
       <c r="M56" s="81"/>
-      <c r="N56" s="240"/>
-      <c r="O56" s="242"/>
+      <c r="N56" s="249"/>
+      <c r="O56" s="251"/>
       <c r="P56" s="83">
         <f>L56+L57+L58+L59+N58+N59</f>
         <v>2.1837599999999999</v>
@@ -67347,8 +67444,8 @@
         <v>0.49523</v>
       </c>
       <c r="M57" s="88"/>
-      <c r="N57" s="243"/>
-      <c r="O57" s="244"/>
+      <c r="N57" s="252"/>
+      <c r="O57" s="253"/>
       <c r="P57" s="83"/>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
@@ -67368,10 +67465,10 @@
         <v>0.47439999999999999</v>
       </c>
       <c r="M58" s="88"/>
-      <c r="N58" s="243">
+      <c r="N58" s="252">
         <v>0.60697000000000001</v>
       </c>
-      <c r="O58" s="244"/>
+      <c r="O58" s="253"/>
       <c r="P58" s="83"/>
     </row>
     <row r="59" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -67391,10 +67488,10 @@
         <v>0.16774</v>
       </c>
       <c r="M59" s="85"/>
-      <c r="N59" s="245">
+      <c r="N59" s="254">
         <v>0.24779999999999999</v>
       </c>
-      <c r="O59" s="246"/>
+      <c r="O59" s="255"/>
       <c r="P59" s="83"/>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
@@ -67408,14 +67505,14 @@
       <c r="G60" s="81"/>
       <c r="H60" s="81"/>
       <c r="I60" s="81"/>
-      <c r="J60" s="240">
+      <c r="J60" s="249">
         <v>0.45617999999999997</v>
       </c>
-      <c r="K60" s="241"/>
+      <c r="K60" s="250"/>
       <c r="L60" s="81"/>
       <c r="M60" s="81"/>
-      <c r="N60" s="240"/>
-      <c r="O60" s="242"/>
+      <c r="N60" s="249"/>
+      <c r="O60" s="251"/>
       <c r="P60" s="83">
         <f>J60+L62+N62+L63+L64+N64</f>
         <v>2.0612399999999997</v>
@@ -67438,10 +67535,10 @@
         <v>0.28649999999999998</v>
       </c>
       <c r="M61" s="88"/>
-      <c r="N61" s="243">
+      <c r="N61" s="252">
         <v>0.80176999999999998</v>
       </c>
-      <c r="O61" s="244"/>
+      <c r="O61" s="253"/>
       <c r="P61" s="83">
         <f>J60+L61+N61+L63+L64+N64</f>
         <v>2.4324300000000001</v>
@@ -67467,10 +67564,10 @@
         <v>0.20932000000000001</v>
       </c>
       <c r="M62" s="88"/>
-      <c r="N62" s="243">
+      <c r="N62" s="252">
         <v>0.50775999999999999</v>
       </c>
-      <c r="O62" s="244"/>
+      <c r="O62" s="253"/>
       <c r="P62" s="83"/>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
@@ -67490,8 +67587,8 @@
         <v>0.14599000000000001</v>
       </c>
       <c r="M63" s="88"/>
-      <c r="N63" s="243"/>
-      <c r="O63" s="244"/>
+      <c r="N63" s="252"/>
+      <c r="O63" s="253"/>
       <c r="P63" s="83"/>
     </row>
     <row r="64" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -67511,10 +67608,10 @@
         <v>0.12414</v>
       </c>
       <c r="M64" s="85"/>
-      <c r="N64" s="245">
+      <c r="N64" s="254">
         <v>0.61785000000000001</v>
       </c>
-      <c r="O64" s="246"/>
+      <c r="O64" s="255"/>
       <c r="P64" s="83"/>
     </row>
     <row r="65" spans="3:17" x14ac:dyDescent="0.25">
@@ -67534,10 +67631,10 @@
         <v>0.23763000000000001</v>
       </c>
       <c r="M65" s="81"/>
-      <c r="N65" s="240">
+      <c r="N65" s="249">
         <v>1</v>
       </c>
-      <c r="O65" s="242"/>
+      <c r="O65" s="251"/>
       <c r="P65" s="83">
         <f>L65+N65+L66+L67+N67</f>
         <v>1.8703959999999999</v>
@@ -67561,8 +67658,8 @@
         <v>0.17316000000000001</v>
       </c>
       <c r="M66" s="88"/>
-      <c r="N66" s="243"/>
-      <c r="O66" s="244"/>
+      <c r="N66" s="252"/>
+      <c r="O66" s="253"/>
       <c r="P66" s="83"/>
       <c r="Q66" s="83"/>
     </row>
@@ -67583,10 +67680,10 @@
         <v>0.12317</v>
       </c>
       <c r="M67" s="85"/>
-      <c r="N67" s="245">
+      <c r="N67" s="254">
         <v>0.33643600000000001</v>
       </c>
-      <c r="O67" s="246"/>
+      <c r="O67" s="255"/>
       <c r="P67" s="83"/>
       <c r="Q67" s="83"/>
     </row>
@@ -67607,10 +67704,10 @@
         <v>0.20199</v>
       </c>
       <c r="M68" s="81"/>
-      <c r="N68" s="240">
+      <c r="N68" s="249">
         <v>0.85</v>
       </c>
-      <c r="O68" s="242"/>
+      <c r="O68" s="251"/>
       <c r="P68" s="83">
         <f>L68+N68+L69+L70+N70</f>
         <v>1.6197900000000001</v>
@@ -67633,8 +67730,8 @@
         <v>0.17718999999999999</v>
       </c>
       <c r="M69" s="88"/>
-      <c r="N69" s="243"/>
-      <c r="O69" s="244"/>
+      <c r="N69" s="252"/>
+      <c r="O69" s="253"/>
       <c r="P69" s="83"/>
     </row>
     <row r="70" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -67654,10 +67751,10 @@
         <v>0.1047</v>
       </c>
       <c r="M70" s="100"/>
-      <c r="N70" s="238">
+      <c r="N70" s="247">
         <v>0.28591</v>
       </c>
-      <c r="O70" s="239"/>
+      <c r="O70" s="248"/>
       <c r="P70" s="83"/>
     </row>
   </sheetData>

--- a/projects/current/hattrick/z_Biblioteca.xlsx
+++ b/projects/current/hattrick/z_Biblioteca.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C661D6-4B0B-48CB-8864-6645FDE2830B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C20B96-FA85-46B2-836C-8394C87E2082}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resistencia" sheetId="1" r:id="rId1"/>
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1665" uniqueCount="1152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1684" uniqueCount="1171">
   <si>
     <t>El entrenamiento de condición esta basado por minutos (pero comienza con un 75% para los jugadores en el terreno de juego).</t>
   </si>
@@ -10506,6 +10506,86 @@
   </si>
   <si>
     <t>1 a 11 se refiere a los paises con 11 divisiones.</t>
+  </si>
+  <si>
+    <t>Buenas,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Te copio/pego alguna tabla que tengo guardada con esta info. </t>
+  </si>
+  <si>
+    <t>Por un lado, para saber cuanto nivel de lider te va bien para ser competitivo, mira esta tabla.</t>
+  </si>
+  <si>
+    <t>______ _bueno/acept__insu__débil__pobre__horri__desast_</t>
+  </si>
+  <si>
+    <t>_10&amp;gt;9__1____________1___ _1_____1______1_____1______</t>
+  </si>
+  <si>
+    <t>_9&amp;gt;8___3____________2___ _1_____1______1_____1______</t>
+  </si>
+  <si>
+    <t>_8&amp;gt;7___5____________4___ _3_____2______1_____1______</t>
+  </si>
+  <si>
+    <t>_7&amp;gt;6___7____________6___ _5_____2______1_____1______</t>
+  </si>
+  <si>
+    <t>_6&amp;gt;5___13___________10___7_____5______2_____1______</t>
+  </si>
+  <si>
+    <t>_5&amp;gt;4___33___________26___20____13_____6_____2______</t>
+  </si>
+  <si>
+    <t>Es decir, con un entrenador aceptable lider, tu espiritu de equipo tarda unas 13 actualizaciones para bajar de 6 a 5.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Por otro lado, </t>
+  </si>
+  <si>
+    <t>Leadership</t>
+  </si>
+  <si>
+    <r>
+      <t>► A</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> coach with SOLID LEADERSHIP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> will drop his LS to Passable:</t>
+    </r>
+  </si>
+  <si>
+    <t>- in approximately 112-150 days if he's low Solid LS</t>
+  </si>
+  <si>
+    <t>- in approximately 150-224 days if he's medium Solid LS</t>
+  </si>
+  <si>
+    <t>- in approximately 224-400 days if he's high Solid LS</t>
+  </si>
+  <si>
+    <t>► It is accepted that every week after the first season the coach's leadership has 1/3 chance to drop by 1/8 level.</t>
+  </si>
+  <si>
+    <t>When the leadership drops to disastrous, only a few weeks later the coaching skill will drop with 1 level. So disastrous LS lasts less than the other levels and this is not a bug.</t>
   </si>
 </sst>
 </file>
@@ -14713,7 +14793,7 @@
   </sheetPr>
   <dimension ref="A1:AS127"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
@@ -22406,8 +22486,8 @@
   </sheetPr>
   <dimension ref="A1:AR95"/>
   <sheetViews>
-    <sheetView topLeftCell="H36" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16:Q16"/>
+    <sheetView topLeftCell="A42" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J83" sqref="J83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -60536,38 +60616,51 @@
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+      <selection activeCell="P32" sqref="P2:P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="212" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P2" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P4" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>986</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="91" t="s">
         <v>988</v>
       </c>
       <c r="H7" s="213" t="s">
         <v>989</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P7" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="91" t="s">
         <v>990</v>
       </c>
@@ -60575,7 +60668,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="91" t="s">
         <v>992</v>
       </c>
@@ -60585,8 +60678,11 @@
       <c r="H9" s="1" t="s">
         <v>994</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P9" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="91" t="s">
         <v>995</v>
       </c>
@@ -60596,8 +60692,11 @@
       <c r="H10" s="1" t="s">
         <v>997</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P10" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="91" t="s">
         <v>998</v>
       </c>
@@ -60607,8 +60706,11 @@
       <c r="H11" s="1" t="s">
         <v>1000</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P11" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="91" t="s">
         <v>1001</v>
       </c>
@@ -60618,8 +60720,11 @@
       <c r="H12" s="1" t="s">
         <v>1003</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P12" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="91" t="s">
         <v>1004</v>
       </c>
@@ -60629,8 +60734,11 @@
       <c r="H13" s="1" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P13" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="91" t="s">
         <v>1007</v>
       </c>
@@ -60640,70 +60748,107 @@
       <c r="H14" s="1" t="s">
         <v>1009</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P14" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H15" s="1" t="s">
         <v>1010</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P15" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1011</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P17" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1012</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1013</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1014</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1015</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P21" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>1017</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P23" s="38" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>1018</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P25" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>1019</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P26" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P27" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>1020</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P28" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>1021</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>1022</v>
+      </c>
+      <c r="P30" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P32" t="s">
+        <v>1170</v>
       </c>
     </row>
   </sheetData>
@@ -61066,8 +61211,8 @@
   </sheetPr>
   <dimension ref="A1:W38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W3" sqref="W3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -63930,7 +64075,7 @@
   <dimension ref="A1:N52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/projects/current/hattrick/z_Biblioteca.xlsx
+++ b/projects/current/hattrick/z_Biblioteca.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C20B96-FA85-46B2-836C-8394C87E2082}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7896066-B05D-4C19-9E10-3DDD7F756815}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resistencia" sheetId="1" r:id="rId1"/>
@@ -26,10 +26,16 @@
     <sheet name="Confianza_Esperitu" sheetId="13" r:id="rId16"/>
     <sheet name="Sustituciones" sheetId="14" r:id="rId17"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -61209,10 +61215,10 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:W38"/>
+  <dimension ref="A1:W37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -62419,916 +62425,916 @@
         <v>113.5</v>
       </c>
     </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="I20" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="J20" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="K20" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="M20" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="N20" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="O20" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="P20" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q20" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="S20" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="T20">
+        <v>19</v>
+      </c>
+    </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="B21" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="E21" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="G21" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="H21" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="I21" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="J21" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="K21" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="M21" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="N21" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="O21" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="P21" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q21" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="S21" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="T21">
-        <v>19</v>
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <f>D21</f>
+        <v>2</v>
+      </c>
+      <c r="G21" t="s">
+        <v>52</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <v>3</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+      <c r="K21">
+        <f>J21</f>
+        <v>2</v>
+      </c>
+      <c r="M21" t="s">
+        <v>52</v>
+      </c>
+      <c r="N21">
+        <v>2</v>
+      </c>
+      <c r="O21">
+        <v>3</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <f>P21</f>
+        <v>1</v>
+      </c>
+      <c r="S21" t="s">
+        <v>72</v>
+      </c>
+      <c r="T21" s="39">
+        <v>0.15</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22">
         <v>2</v>
       </c>
       <c r="E22">
-        <f>D22</f>
-        <v>2</v>
+        <f>E21+D22</f>
+        <v>4</v>
       </c>
       <c r="G22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I22">
+        <v>4</v>
+      </c>
+      <c r="J22">
         <v>3</v>
       </c>
-      <c r="J22">
-        <v>2</v>
-      </c>
       <c r="K22">
-        <f>J22</f>
-        <v>2</v>
+        <f>K21+J22</f>
+        <v>5</v>
       </c>
       <c r="M22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P22">
         <v>1</v>
       </c>
       <c r="Q22">
-        <f>P22</f>
-        <v>1</v>
+        <f>Q21+P22</f>
+        <v>2</v>
       </c>
       <c r="S22" t="s">
-        <v>72</v>
-      </c>
-      <c r="T22" s="39">
-        <v>0.15</v>
+        <v>73</v>
+      </c>
+      <c r="T22" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23">
         <v>3</v>
       </c>
-      <c r="C23">
+      <c r="E23">
+        <f t="shared" ref="E23:E37" si="4">E22+D23</f>
+        <v>7</v>
+      </c>
+      <c r="G23" t="s">
+        <v>54</v>
+      </c>
+      <c r="H23">
         <v>4</v>
       </c>
-      <c r="D23">
-        <v>2</v>
-      </c>
-      <c r="E23">
-        <f>E22+D23</f>
-        <v>4</v>
-      </c>
-      <c r="G23" t="s">
-        <v>53</v>
-      </c>
-      <c r="H23">
-        <v>3</v>
-      </c>
       <c r="I23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J23">
         <v>3</v>
       </c>
       <c r="K23">
-        <f>K22+J23</f>
+        <f t="shared" ref="K23:K36" si="5">K22+J23</f>
+        <v>8</v>
+      </c>
+      <c r="M23" t="s">
+        <v>54</v>
+      </c>
+      <c r="N23">
+        <v>4</v>
+      </c>
+      <c r="O23">
         <v>5</v>
-      </c>
-      <c r="M23" t="s">
-        <v>53</v>
-      </c>
-      <c r="N23">
-        <v>3</v>
-      </c>
-      <c r="O23">
-        <v>4</v>
       </c>
       <c r="P23">
         <v>1</v>
       </c>
       <c r="Q23">
-        <f>Q22+P23</f>
-        <v>2</v>
+        <f t="shared" ref="Q23:Q37" si="6">Q22+P23</f>
+        <v>3</v>
       </c>
       <c r="S23" t="s">
-        <v>73</v>
-      </c>
-      <c r="T23" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="T23" s="39">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D24">
         <v>3</v>
       </c>
       <c r="E24">
-        <f t="shared" ref="E24:E38" si="4">E23+D24</f>
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
       <c r="G24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H24">
+        <v>5</v>
+      </c>
+      <c r="I24">
+        <v>6</v>
+      </c>
+      <c r="J24">
         <v>4</v>
       </c>
-      <c r="I24">
+      <c r="K24">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="M24" t="s">
+        <v>55</v>
+      </c>
+      <c r="N24">
         <v>5</v>
       </c>
-      <c r="J24">
-        <v>3</v>
-      </c>
-      <c r="K24">
-        <f t="shared" ref="K24:K37" si="5">K23+J24</f>
-        <v>8</v>
-      </c>
-      <c r="M24" t="s">
-        <v>54</v>
-      </c>
-      <c r="N24">
-        <v>4</v>
-      </c>
       <c r="O24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P24">
         <v>1</v>
       </c>
       <c r="Q24">
-        <f t="shared" ref="Q24:Q38" si="6">Q23+P24</f>
-        <v>3</v>
-      </c>
-      <c r="S24" t="s">
-        <v>75</v>
-      </c>
-      <c r="T24" s="39">
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B25">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C25">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E25">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H25">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I25">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J25">
         <v>4</v>
       </c>
       <c r="K25">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="M25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N25">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O25">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P25">
         <v>1</v>
       </c>
       <c r="Q25">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B26">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C26">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D26">
         <v>4</v>
       </c>
       <c r="E26">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H26">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I26">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K26">
         <f t="shared" si="5"/>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N26">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O26">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P26">
         <v>1</v>
       </c>
       <c r="Q26">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B27">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E27">
         <f t="shared" si="4"/>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H27">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I27">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J27">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K27">
         <f t="shared" si="5"/>
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="M27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N27">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O27">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P27">
         <v>1</v>
       </c>
       <c r="Q27">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B28">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E28">
         <f t="shared" si="4"/>
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H28">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I28">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J28">
         <v>6</v>
       </c>
       <c r="K28">
         <f t="shared" si="5"/>
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="M28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N28">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O28">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P28">
         <v>1</v>
       </c>
       <c r="Q28">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B29">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C29">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D29">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E29">
         <f t="shared" si="4"/>
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H29">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I29">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J29">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K29">
         <f t="shared" si="5"/>
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="M29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N29">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O29">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q29">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B30">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C30">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D30">
         <v>7</v>
       </c>
       <c r="E30">
         <f t="shared" si="4"/>
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H30">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I30">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J30">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K30">
         <f t="shared" si="5"/>
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="M30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N30">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O30">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P30">
         <v>2</v>
       </c>
       <c r="Q30">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B31">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C31">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D31">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E31">
         <f t="shared" si="4"/>
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H31">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I31">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J31">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K31">
         <f t="shared" si="5"/>
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="M31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N31">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O31">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P31">
         <v>2</v>
       </c>
       <c r="Q31">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B32">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C32">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D32">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32">
         <f t="shared" si="4"/>
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="G32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H32">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I32">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J32">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K32">
         <f t="shared" si="5"/>
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="M32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N32">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O32">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P32">
         <v>2</v>
       </c>
       <c r="Q32">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B33">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C33">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D33">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E33">
         <f t="shared" si="4"/>
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="G33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H33">
+        <v>14</v>
+      </c>
+      <c r="I33">
+        <v>15</v>
+      </c>
+      <c r="J33">
         <v>13</v>
-      </c>
-      <c r="I33">
-        <v>14</v>
-      </c>
-      <c r="J33">
-        <v>11</v>
       </c>
       <c r="K33">
         <f t="shared" si="5"/>
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="M33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N33">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O33">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P33">
         <v>2</v>
       </c>
       <c r="Q33">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B34">
+        <v>15</v>
+      </c>
+      <c r="C34">
+        <v>16</v>
+      </c>
+      <c r="D34">
         <v>14</v>
-      </c>
-      <c r="C34">
-        <v>15</v>
-      </c>
-      <c r="D34">
-        <v>12</v>
       </c>
       <c r="E34">
         <f t="shared" si="4"/>
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="G34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H34">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I34">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J34">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K34">
         <f t="shared" si="5"/>
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="M34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N34">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O34">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q34">
         <f t="shared" si="6"/>
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B35">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C35">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D35">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E35">
         <f t="shared" si="4"/>
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="G35" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H35">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I35">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J35">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K35">
         <f t="shared" si="5"/>
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="M35" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N35">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O35">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q35">
         <f t="shared" si="6"/>
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B36">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C36">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D36">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E36">
         <f t="shared" si="4"/>
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="G36" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H36">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I36">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J36">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="K36">
         <f t="shared" si="5"/>
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="M36" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N36">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O36">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P36">
         <v>4</v>
       </c>
       <c r="Q36">
         <f t="shared" si="6"/>
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C37">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D37">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="E37">
         <f t="shared" si="4"/>
-        <v>128</v>
+        <v>169</v>
       </c>
       <c r="G37" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I37">
+        <v>19</v>
+      </c>
+      <c r="M37" t="s">
+        <v>68</v>
+      </c>
+      <c r="N37">
         <v>18</v>
       </c>
-      <c r="J37">
-        <v>29</v>
-      </c>
-      <c r="K37">
-        <f t="shared" si="5"/>
-        <v>148</v>
-      </c>
-      <c r="M37" t="s">
-        <v>67</v>
-      </c>
-      <c r="N37">
-        <v>17</v>
-      </c>
       <c r="O37">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P37">
         <v>4</v>
       </c>
       <c r="Q37">
-        <f t="shared" si="6"/>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>68</v>
-      </c>
-      <c r="B38">
-        <v>18</v>
-      </c>
-      <c r="C38">
-        <v>19</v>
-      </c>
-      <c r="D38">
-        <v>41</v>
-      </c>
-      <c r="E38">
-        <f t="shared" si="4"/>
-        <v>169</v>
-      </c>
-      <c r="G38" t="s">
-        <v>68</v>
-      </c>
-      <c r="H38">
-        <v>18</v>
-      </c>
-      <c r="I38">
-        <v>19</v>
-      </c>
-      <c r="M38" t="s">
-        <v>68</v>
-      </c>
-      <c r="N38">
-        <v>18</v>
-      </c>
-      <c r="O38">
-        <v>19</v>
-      </c>
-      <c r="P38">
-        <v>4</v>
-      </c>
-      <c r="Q38">
         <f t="shared" si="6"/>
         <v>33</v>
       </c>
@@ -63346,7 +63352,7 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -63362,7 +63368,6 @@
         <v>0</v>
       </c>
       <c r="C1">
-        <f>B1</f>
         <v>0</v>
       </c>
       <c r="N1" s="70" t="s">
@@ -63374,10 +63379,10 @@
         <v>210</v>
       </c>
       <c r="B2">
-        <v>7010</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>7900</v>
+        <v>0</v>
       </c>
       <c r="N2" s="70" t="s">
         <v>211</v>
@@ -63393,9 +63398,6 @@
       <c r="C3">
         <v>785</v>
       </c>
-      <c r="D3">
-        <v>32580</v>
-      </c>
       <c r="N3" s="70" t="s">
         <v>213</v>
       </c>
@@ -63405,10 +63407,14 @@
         <v>214</v>
       </c>
       <c r="B4">
-        <v>125</v>
+        <v>11610</v>
       </c>
       <c r="C4">
-        <v>125</v>
+        <f>B4+D4-15340</f>
+        <v>13600</v>
+      </c>
+      <c r="D4">
+        <v>17330</v>
       </c>
       <c r="N4" s="70" t="s">
         <v>215</v>
@@ -63419,10 +63425,10 @@
         <v>216</v>
       </c>
       <c r="B5">
-        <v>145</v>
+        <v>305</v>
       </c>
       <c r="C5">
-        <v>145</v>
+        <v>305</v>
       </c>
       <c r="N5" s="70" t="s">
         <v>217</v>
@@ -63433,10 +63439,10 @@
         <v>218</v>
       </c>
       <c r="B6">
-        <v>125</v>
+        <v>2295</v>
       </c>
       <c r="C6">
-        <v>125</v>
+        <v>2295</v>
       </c>
       <c r="N6" s="70" t="s">
         <v>219</v>
@@ -63447,10 +63453,10 @@
         <v>71</v>
       </c>
       <c r="B7" s="72">
-        <v>4.2999999999999997E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="C7" s="73">
-        <v>4.2999999999999997E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="N7" s="70" t="s">
         <v>220</v>
@@ -63467,11 +63473,11 @@
       </c>
       <c r="B9" s="75">
         <f>SUM(B1:B6)*(1+B7)</f>
-        <v>8542.17</v>
+        <v>15339.884999999998</v>
       </c>
       <c r="C9" s="75">
         <f>SUM(C1:C6)*(1+C7)</f>
-        <v>9470.4399999999987</v>
+        <v>17375.654999999999</v>
       </c>
       <c r="N9" s="70" t="s">
         <v>222</v>
@@ -63483,11 +63489,11 @@
       </c>
       <c r="B10" s="75">
         <f>B9*1.2</f>
-        <v>10250.603999999999</v>
+        <v>18407.861999999997</v>
       </c>
       <c r="C10" s="75">
         <f>C9*1.2</f>
-        <v>11364.527999999998</v>
+        <v>20850.785999999996</v>
       </c>
       <c r="N10" s="70" t="s">
         <v>224</v>
@@ -63505,12 +63511,10 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13">
-        <f>C2-B2</f>
-        <v>890</v>
+        <v>11610</v>
       </c>
       <c r="C13">
-        <f>11470-7010</f>
-        <v>4460</v>
+        <v>18090</v>
       </c>
       <c r="N13" s="70" t="s">
         <v>227</v>
@@ -63518,11 +63522,11 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" s="76">
-        <f>B13*C14/C13</f>
-        <v>0.19955156950672645</v>
+        <v>13600</v>
       </c>
       <c r="C14" s="76">
-        <v>1</v>
+        <f>(B14-B13)/(C13-B13)</f>
+        <v>0.30709876543209874</v>
       </c>
       <c r="N14" s="70" t="s">
         <v>228</v>

--- a/projects/current/hattrick/z_Biblioteca.xlsx
+++ b/projects/current/hattrick/z_Biblioteca.xlsx
@@ -3,28 +3,29 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7896066-B05D-4C19-9E10-3DDD7F756815}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2DCB2FB-7948-45BA-ABC6-C2C9AF9A9A56}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resistencia" sheetId="1" r:id="rId1"/>
     <sheet name="TablasEntreno" sheetId="2" r:id="rId2"/>
-    <sheet name="Sueldos" sheetId="5" r:id="rId3"/>
-    <sheet name="EntrenamientoManual" sheetId="3" r:id="rId4"/>
-    <sheet name="Entrenador" sheetId="4" r:id="rId5"/>
-    <sheet name="Tarjetas" sheetId="15" r:id="rId6"/>
-    <sheet name="BajarEntrenamiento" sheetId="16" r:id="rId7"/>
-    <sheet name="Aficionados" sheetId="17" r:id="rId8"/>
-    <sheet name="Calificaciones_POS&lt;T60" sheetId="6" r:id="rId9"/>
-    <sheet name="Calificaciones_POS&gt;T60" sheetId="7" r:id="rId10"/>
-    <sheet name="Posesion" sheetId="8" r:id="rId11"/>
-    <sheet name="Logros" sheetId="9" r:id="rId12"/>
-    <sheet name="Estadio_Destruccion" sheetId="10" r:id="rId13"/>
-    <sheet name="Bepero_penalty" sheetId="11" r:id="rId14"/>
-    <sheet name="Forma" sheetId="12" r:id="rId15"/>
-    <sheet name="Confianza_Esperitu" sheetId="13" r:id="rId16"/>
-    <sheet name="Sustituciones" sheetId="14" r:id="rId17"/>
+    <sheet name="EVENTOS_BigData" sheetId="18" r:id="rId3"/>
+    <sheet name="Sueldos" sheetId="5" r:id="rId4"/>
+    <sheet name="EntrenamientoManual" sheetId="3" r:id="rId5"/>
+    <sheet name="Entrenador" sheetId="4" r:id="rId6"/>
+    <sheet name="Tarjetas" sheetId="15" r:id="rId7"/>
+    <sheet name="BajarEntrenamiento" sheetId="16" r:id="rId8"/>
+    <sheet name="Aficionados" sheetId="17" r:id="rId9"/>
+    <sheet name="Calificaciones_POS&lt;T60" sheetId="6" r:id="rId10"/>
+    <sheet name="Calificaciones_POS&gt;T60" sheetId="7" r:id="rId11"/>
+    <sheet name="Posesion" sheetId="8" r:id="rId12"/>
+    <sheet name="Logros" sheetId="9" r:id="rId13"/>
+    <sheet name="Estadio_Destruccion" sheetId="10" r:id="rId14"/>
+    <sheet name="Bepero_penalty" sheetId="11" r:id="rId15"/>
+    <sheet name="Forma" sheetId="12" r:id="rId16"/>
+    <sheet name="Confianza_Esperitu" sheetId="13" r:id="rId17"/>
+    <sheet name="Sustituciones" sheetId="14" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -104,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1684" uniqueCount="1171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1797" uniqueCount="1232">
   <si>
     <t>El entrenamiento de condición esta basado por minutos (pero comienza con un 75% para los jugadores en el terreno de juego).</t>
   </si>
@@ -10592,6 +10593,189 @@
   </si>
   <si>
     <t>When the leadership drops to disastrous, only a few weeks later the coaching skill will drop with 1 level. So disastrous LS lasts less than the other levels and this is not a bug.</t>
+  </si>
+  <si>
+    <t>no creativos</t>
+  </si>
+  <si>
+    <t>Evento</t>
+  </si>
+  <si>
+    <t>Descripcion</t>
+  </si>
+  <si>
+    <t>pbase_Obs</t>
+  </si>
+  <si>
+    <t>p_slots</t>
+  </si>
+  <si>
+    <t>pbase_cal</t>
+  </si>
+  <si>
+    <t>IMP Pase Largo</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>IMP Anotacion</t>
+  </si>
+  <si>
+    <t>IMP</t>
+  </si>
+  <si>
+    <t>IMP Fallo</t>
+  </si>
+  <si>
+    <t>RAP Anotacion</t>
+  </si>
+  <si>
+    <t>RAP Pase</t>
+  </si>
+  <si>
+    <t>Defensa Cansado</t>
+  </si>
+  <si>
+    <t>si</t>
+  </si>
+  <si>
+    <t>Corner + Ano</t>
+  </si>
+  <si>
+    <t>pos</t>
+  </si>
+  <si>
+    <t>Corner + CAB</t>
+  </si>
+  <si>
+    <t>IMP Propia Puerta</t>
+  </si>
+  <si>
+    <t>Delantero XP</t>
+  </si>
+  <si>
+    <t>Defensa No-XP</t>
+  </si>
+  <si>
+    <t>Lateral+CAB</t>
+  </si>
+  <si>
+    <t>1/2 y 1/8</t>
+  </si>
+  <si>
+    <t>Lateral+ANO</t>
+  </si>
+  <si>
+    <t>TEC vs CAB</t>
+  </si>
+  <si>
+    <t>POT Delantero Normal</t>
+  </si>
+  <si>
+    <t>POT Corta</t>
+  </si>
+  <si>
+    <t>1/6</t>
+  </si>
+  <si>
+    <t>1/8</t>
+  </si>
+  <si>
+    <t>1/13</t>
+  </si>
+  <si>
+    <t>1/5</t>
+  </si>
+  <si>
+    <t>1/2</t>
+  </si>
+  <si>
+    <t>pbase</t>
+  </si>
+  <si>
+    <t>pbase_corregida</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>RAP</t>
+  </si>
+  <si>
+    <t>IMP+Pase</t>
+  </si>
+  <si>
+    <t>IMP+Ano</t>
+  </si>
+  <si>
+    <t>RAP+Ano</t>
+  </si>
+  <si>
+    <t>RAP+Pase</t>
+  </si>
+  <si>
+    <t>IMP Propia</t>
+  </si>
+  <si>
+    <t>Lat+CAB</t>
+  </si>
+  <si>
+    <t>Lat+ANO</t>
+  </si>
+  <si>
+    <t>pInd</t>
+  </si>
+  <si>
+    <t>Peq</t>
+  </si>
+  <si>
+    <t>CAB</t>
+  </si>
+  <si>
+    <t>Slots</t>
+  </si>
+  <si>
+    <t>Slots1</t>
+  </si>
+  <si>
+    <t>Slots2</t>
+  </si>
+  <si>
+    <t>Pos1</t>
+  </si>
+  <si>
+    <t>Pos2</t>
+  </si>
+  <si>
+    <t>pOK</t>
+  </si>
+  <si>
+    <t>a1</t>
+  </si>
+  <si>
+    <t>a2</t>
+  </si>
+  <si>
+    <t>pConv1</t>
+  </si>
+  <si>
+    <t>pConv2</t>
+  </si>
+  <si>
+    <t>g1</t>
+  </si>
+  <si>
+    <t>g2</t>
+  </si>
+  <si>
+    <t>Del</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>E+D</t>
   </si>
 </sst>
 </file>
@@ -11614,7 +11798,7 @@
     <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="269">
+  <cellXfs count="295">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -12150,6 +12334,46 @@
     <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -12269,6 +12493,34 @@
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -21093,16 +21345,16 @@
       <c r="A59" s="30">
         <v>17</v>
       </c>
-      <c r="B59" s="230" t="s">
+      <c r="B59" s="244" t="s">
         <v>17</v>
       </c>
       <c r="C59" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D59" s="231" t="s">
+      <c r="D59" s="245" t="s">
         <v>19</v>
       </c>
-      <c r="E59" s="231" t="s">
+      <c r="E59" s="245" t="s">
         <v>19</v>
       </c>
       <c r="F59" s="32" t="s">
@@ -21116,12 +21368,12 @@
       <c r="A60" s="34">
         <v>18</v>
       </c>
-      <c r="B60" s="230"/>
+      <c r="B60" s="244"/>
       <c r="C60" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="D60" s="231"/>
-      <c r="E60" s="231"/>
+      <c r="D60" s="245"/>
+      <c r="E60" s="245"/>
       <c r="F60" s="32" t="s">
         <v>23</v>
       </c>
@@ -21133,10 +21385,10 @@
       <c r="A61" s="30">
         <v>19</v>
       </c>
-      <c r="B61" s="230"/>
+      <c r="B61" s="244"/>
       <c r="C61" s="35"/>
-      <c r="D61" s="231"/>
-      <c r="E61" s="231"/>
+      <c r="D61" s="245"/>
+      <c r="E61" s="245"/>
       <c r="F61" s="36"/>
       <c r="H61" s="25" t="s">
         <v>25</v>
@@ -21147,11 +21399,11 @@
       <c r="A62" s="34">
         <v>20</v>
       </c>
-      <c r="B62" s="230"/>
+      <c r="B62" s="244"/>
       <c r="C62" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D62" s="232" t="s">
+      <c r="D62" s="246" t="s">
         <v>20</v>
       </c>
       <c r="E62" s="32" t="s">
@@ -21166,13 +21418,13 @@
       <c r="A63" s="30">
         <v>21</v>
       </c>
-      <c r="B63" s="233" t="s">
+      <c r="B63" s="247" t="s">
         <v>18</v>
       </c>
       <c r="C63" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="D63" s="232"/>
+      <c r="D63" s="246"/>
       <c r="E63" s="32" t="s">
         <v>23</v>
       </c>
@@ -21185,9 +21437,9 @@
       <c r="A64" s="34">
         <v>22</v>
       </c>
-      <c r="B64" s="233"/>
+      <c r="B64" s="247"/>
       <c r="C64" s="36"/>
-      <c r="D64" s="232"/>
+      <c r="D64" s="246"/>
       <c r="E64" s="36"/>
       <c r="F64" s="36"/>
       <c r="H64" s="25" t="s">
@@ -21198,9 +21450,9 @@
       <c r="A65" s="30">
         <v>23</v>
       </c>
-      <c r="B65" s="233"/>
+      <c r="B65" s="247"/>
       <c r="C65" s="36"/>
-      <c r="D65" s="232"/>
+      <c r="D65" s="246"/>
       <c r="E65" s="36"/>
       <c r="F65" s="36"/>
     </row>
@@ -21208,9 +21460,9 @@
       <c r="A66" s="34">
         <v>24</v>
       </c>
-      <c r="B66" s="233"/>
+      <c r="B66" s="247"/>
       <c r="C66" s="36"/>
-      <c r="D66" s="232"/>
+      <c r="D66" s="246"/>
       <c r="E66" s="36"/>
       <c r="F66" s="36"/>
       <c r="H66" s="25" t="s">
@@ -21221,9 +21473,9 @@
       <c r="A67" s="30">
         <v>25</v>
       </c>
-      <c r="B67" s="233"/>
+      <c r="B67" s="247"/>
       <c r="C67" s="36"/>
-      <c r="D67" s="231" t="s">
+      <c r="D67" s="245" t="s">
         <v>19</v>
       </c>
       <c r="E67" s="36"/>
@@ -21236,11 +21488,11 @@
       <c r="A68" s="34">
         <v>26</v>
       </c>
-      <c r="B68" s="233"/>
-      <c r="C68" s="231" t="s">
+      <c r="B68" s="247"/>
+      <c r="C68" s="245" t="s">
         <v>19</v>
       </c>
-      <c r="D68" s="231"/>
+      <c r="D68" s="245"/>
       <c r="E68" s="36"/>
       <c r="F68" s="36"/>
     </row>
@@ -21248,11 +21500,11 @@
       <c r="A69" s="30">
         <v>27</v>
       </c>
-      <c r="B69" s="230" t="s">
+      <c r="B69" s="244" t="s">
         <v>17</v>
       </c>
-      <c r="C69" s="231"/>
-      <c r="D69" s="231"/>
+      <c r="C69" s="245"/>
+      <c r="D69" s="245"/>
       <c r="E69" s="36"/>
       <c r="F69" s="36"/>
     </row>
@@ -21260,11 +21512,11 @@
       <c r="A70" s="34">
         <v>28</v>
       </c>
-      <c r="B70" s="230"/>
-      <c r="C70" s="233" t="s">
+      <c r="B70" s="244"/>
+      <c r="C70" s="247" t="s">
         <v>18</v>
       </c>
-      <c r="D70" s="231"/>
+      <c r="D70" s="245"/>
       <c r="E70" s="36"/>
       <c r="F70" s="36"/>
       <c r="H70" s="25" t="s">
@@ -21275,9 +21527,9 @@
       <c r="A71" s="30">
         <v>29</v>
       </c>
-      <c r="B71" s="230"/>
-      <c r="C71" s="233"/>
-      <c r="D71" s="231"/>
+      <c r="B71" s="244"/>
+      <c r="C71" s="247"/>
+      <c r="D71" s="245"/>
       <c r="E71" s="36"/>
       <c r="F71" s="36"/>
     </row>
@@ -21285,9 +21537,9 @@
       <c r="A72" s="34">
         <v>30</v>
       </c>
-      <c r="B72" s="230"/>
-      <c r="C72" s="233"/>
-      <c r="D72" s="233" t="s">
+      <c r="B72" s="244"/>
+      <c r="C72" s="247"/>
+      <c r="D72" s="247" t="s">
         <v>18</v>
       </c>
       <c r="E72" s="36"/>
@@ -21300,9 +21552,9 @@
       <c r="A73" s="30">
         <v>31</v>
       </c>
-      <c r="B73" s="230"/>
-      <c r="C73" s="233"/>
-      <c r="D73" s="233"/>
+      <c r="B73" s="244"/>
+      <c r="C73" s="247"/>
+      <c r="D73" s="247"/>
       <c r="E73" s="32" t="s">
         <v>19</v>
       </c>
@@ -21312,9 +21564,9 @@
       <c r="A74" s="34">
         <v>32</v>
       </c>
-      <c r="B74" s="230"/>
-      <c r="C74" s="233"/>
-      <c r="D74" s="233"/>
+      <c r="B74" s="244"/>
+      <c r="C74" s="247"/>
+      <c r="D74" s="247"/>
       <c r="E74" s="32" t="s">
         <v>27</v>
       </c>
@@ -21327,11 +21579,11 @@
       <c r="A75" s="30">
         <v>33</v>
       </c>
-      <c r="B75" s="230"/>
-      <c r="C75" s="230" t="s">
+      <c r="B75" s="244"/>
+      <c r="C75" s="244" t="s">
         <v>17</v>
       </c>
-      <c r="D75" s="233"/>
+      <c r="D75" s="247"/>
       <c r="E75" s="31" t="s">
         <v>18</v>
       </c>
@@ -21343,11 +21595,11 @@
       <c r="A76" s="34">
         <v>34</v>
       </c>
-      <c r="B76" s="234" t="s">
+      <c r="B76" s="248" t="s">
         <v>35</v>
       </c>
-      <c r="C76" s="230"/>
-      <c r="D76" s="233"/>
+      <c r="C76" s="244"/>
+      <c r="D76" s="247"/>
       <c r="E76" s="31" t="s">
         <v>22</v>
       </c>
@@ -21362,14 +21614,14 @@
       <c r="A77" s="30">
         <v>35</v>
       </c>
-      <c r="B77" s="234"/>
-      <c r="C77" s="234" t="s">
+      <c r="B77" s="248"/>
+      <c r="C77" s="248" t="s">
         <v>35</v>
       </c>
-      <c r="D77" s="230" t="s">
+      <c r="D77" s="244" t="s">
         <v>17</v>
       </c>
-      <c r="E77" s="230" t="s">
+      <c r="E77" s="244" t="s">
         <v>17</v>
       </c>
       <c r="F77" s="35"/>
@@ -21378,10 +21630,10 @@
       <c r="A78" s="34">
         <v>36</v>
       </c>
-      <c r="B78" s="234"/>
-      <c r="C78" s="234"/>
-      <c r="D78" s="230"/>
-      <c r="E78" s="230"/>
+      <c r="B78" s="248"/>
+      <c r="C78" s="248"/>
+      <c r="D78" s="244"/>
+      <c r="E78" s="244"/>
       <c r="F78" s="37" t="s">
         <v>17</v>
       </c>
@@ -21390,14 +21642,14 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="229" t="s">
+      <c r="A79" s="243" t="s">
         <v>38</v>
       </c>
-      <c r="B79" s="229"/>
-      <c r="C79" s="229"/>
-      <c r="D79" s="229"/>
-      <c r="E79" s="229"/>
-      <c r="F79" s="229"/>
+      <c r="B79" s="243"/>
+      <c r="C79" s="243"/>
+      <c r="D79" s="243"/>
+      <c r="E79" s="243"/>
+      <c r="F79" s="243"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="24"/>
@@ -22486,6 +22738,1845 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4495308E-7421-403A-BFE6-292551B102E4}">
+  <sheetPr>
+    <tabColor theme="2" tint="-9.9978637043366805E-2"/>
+  </sheetPr>
+  <dimension ref="A1:Q70"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="78" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1" s="78" t="s">
+        <v>233</v>
+      </c>
+      <c r="F1" s="276" t="s">
+        <v>234</v>
+      </c>
+      <c r="G1" s="276"/>
+      <c r="H1" s="276" t="s">
+        <v>235</v>
+      </c>
+      <c r="I1" s="276"/>
+      <c r="J1" s="276" t="s">
+        <v>236</v>
+      </c>
+      <c r="K1" s="276"/>
+      <c r="L1" s="276" t="s">
+        <v>237</v>
+      </c>
+      <c r="M1" s="276"/>
+      <c r="N1" s="276" t="s">
+        <v>238</v>
+      </c>
+      <c r="O1" s="276"/>
+    </row>
+    <row r="2" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F2" s="79" t="s">
+        <v>239</v>
+      </c>
+      <c r="G2" s="79" t="s">
+        <v>240</v>
+      </c>
+      <c r="H2" s="277"/>
+      <c r="I2" s="278"/>
+      <c r="J2" s="277"/>
+      <c r="K2" s="278"/>
+      <c r="L2" s="79" t="s">
+        <v>239</v>
+      </c>
+      <c r="M2" s="79" t="s">
+        <v>240</v>
+      </c>
+      <c r="N2" s="277"/>
+      <c r="O2" s="278"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E3" s="80" t="s">
+        <v>243</v>
+      </c>
+      <c r="F3" s="270">
+        <v>0.64709000000000005</v>
+      </c>
+      <c r="G3" s="270"/>
+      <c r="H3" s="270">
+        <v>0.97192999999999996</v>
+      </c>
+      <c r="I3" s="270"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="81"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="81"/>
+      <c r="O3" s="82"/>
+      <c r="P3" s="83">
+        <f>F3+H3+H4+F4</f>
+        <v>2.2834299999999996</v>
+      </c>
+      <c r="Q3" s="83"/>
+    </row>
+    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C4" t="s">
+        <v>245</v>
+      </c>
+      <c r="E4" s="84" t="s">
+        <v>246</v>
+      </c>
+      <c r="F4" s="275">
+        <v>0.26545000000000002</v>
+      </c>
+      <c r="G4" s="275"/>
+      <c r="H4" s="275">
+        <v>0.39895999999999998</v>
+      </c>
+      <c r="I4" s="275"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="86"/>
+      <c r="P4" s="83"/>
+      <c r="Q4" s="83"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E5" s="80" t="s">
+        <v>248</v>
+      </c>
+      <c r="F5" s="81">
+        <v>0.50017999999999996</v>
+      </c>
+      <c r="G5" s="81">
+        <v>0.25008999999999998</v>
+      </c>
+      <c r="H5" s="270">
+        <v>1</v>
+      </c>
+      <c r="I5" s="270"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="81"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="83">
+        <f>F5+G5+H5+J6</f>
+        <v>2.02515</v>
+      </c>
+      <c r="Q5" s="83"/>
+    </row>
+    <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E6" s="84" t="s">
+        <v>249</v>
+      </c>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="275">
+        <v>0.27488000000000001</v>
+      </c>
+      <c r="K6" s="275"/>
+      <c r="L6" s="85"/>
+      <c r="M6" s="85"/>
+      <c r="N6" s="85"/>
+      <c r="O6" s="86"/>
+      <c r="P6" s="83"/>
+      <c r="Q6" s="83"/>
+    </row>
+    <row r="7" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>250</v>
+      </c>
+      <c r="C7" s="78" t="s">
+        <v>251</v>
+      </c>
+      <c r="E7" s="80" t="s">
+        <v>252</v>
+      </c>
+      <c r="F7" s="81">
+        <v>0.35504999999999998</v>
+      </c>
+      <c r="G7" s="81">
+        <v>0.17752000000000001</v>
+      </c>
+      <c r="H7" s="270">
+        <v>0.72296000000000005</v>
+      </c>
+      <c r="I7" s="270"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="81"/>
+      <c r="M7" s="81"/>
+      <c r="N7" s="81"/>
+      <c r="O7" s="82"/>
+      <c r="P7" s="83">
+        <f>F7+G7+H7+J8</f>
+        <v>1.6189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>253</v>
+      </c>
+      <c r="E8" s="84" t="s">
+        <v>254</v>
+      </c>
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="275">
+        <v>0.36337000000000003</v>
+      </c>
+      <c r="K8" s="275"/>
+      <c r="L8" s="85"/>
+      <c r="M8" s="85"/>
+      <c r="N8" s="85"/>
+      <c r="O8" s="86"/>
+      <c r="P8" s="83"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E9" s="80" t="s">
+        <v>255</v>
+      </c>
+      <c r="F9" s="81">
+        <v>0.65615999999999997</v>
+      </c>
+      <c r="G9" s="81"/>
+      <c r="H9" s="270">
+        <v>0.78437000000000001</v>
+      </c>
+      <c r="I9" s="270"/>
+      <c r="J9" s="81"/>
+      <c r="K9" s="81"/>
+      <c r="L9" s="81"/>
+      <c r="M9" s="81"/>
+      <c r="N9" s="81"/>
+      <c r="O9" s="82"/>
+      <c r="P9" s="83">
+        <f>F9+H9+J10+L11</f>
+        <v>1.8734299999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>256</v>
+      </c>
+      <c r="C10" t="s">
+        <v>245</v>
+      </c>
+      <c r="E10" s="87" t="s">
+        <v>257</v>
+      </c>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="274">
+        <v>0.1464</v>
+      </c>
+      <c r="K10" s="274"/>
+      <c r="L10" s="88"/>
+      <c r="M10" s="88"/>
+      <c r="N10" s="88"/>
+      <c r="O10" s="89"/>
+      <c r="P10" s="83"/>
+    </row>
+    <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>258</v>
+      </c>
+      <c r="C11" t="s">
+        <v>247</v>
+      </c>
+      <c r="E11" s="84" t="s">
+        <v>259</v>
+      </c>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="90"/>
+      <c r="K11" s="90"/>
+      <c r="L11" s="85">
+        <v>0.28649999999999998</v>
+      </c>
+      <c r="M11" s="85"/>
+      <c r="N11" s="85"/>
+      <c r="O11" s="86"/>
+      <c r="P11" s="83"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E12" s="80" t="s">
+        <v>260</v>
+      </c>
+      <c r="F12" s="270">
+        <v>0.42514999999999997</v>
+      </c>
+      <c r="G12" s="270"/>
+      <c r="H12" s="270">
+        <v>0.85</v>
+      </c>
+      <c r="I12" s="270"/>
+      <c r="J12" s="81"/>
+      <c r="K12" s="81"/>
+      <c r="L12" s="81"/>
+      <c r="M12" s="81"/>
+      <c r="N12" s="81"/>
+      <c r="O12" s="82"/>
+      <c r="P12" s="83">
+        <f>F12+H12+J13</f>
+        <v>1.5087999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="78" t="s">
+        <v>261</v>
+      </c>
+      <c r="C13" s="91" t="s">
+        <v>262</v>
+      </c>
+      <c r="E13" s="84" t="s">
+        <v>263</v>
+      </c>
+      <c r="F13" s="85"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="85"/>
+      <c r="I13" s="85"/>
+      <c r="J13" s="275">
+        <v>0.23365</v>
+      </c>
+      <c r="K13" s="275"/>
+      <c r="L13" s="85"/>
+      <c r="M13" s="85"/>
+      <c r="N13" s="85"/>
+      <c r="O13" s="86"/>
+      <c r="P13" s="83"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C14" s="91" t="s">
+        <v>264</v>
+      </c>
+      <c r="E14" s="80" t="s">
+        <v>265</v>
+      </c>
+      <c r="F14" s="81">
+        <v>1</v>
+      </c>
+      <c r="G14" s="92"/>
+      <c r="H14" s="270">
+        <v>0.51382000000000005</v>
+      </c>
+      <c r="I14" s="270"/>
+      <c r="J14" s="81"/>
+      <c r="K14" s="81"/>
+      <c r="L14" s="81"/>
+      <c r="M14" s="81"/>
+      <c r="N14" s="81"/>
+      <c r="O14" s="82"/>
+      <c r="P14" s="83">
+        <f>F14+H14+J15+L16</f>
+        <v>1.88497</v>
+      </c>
+      <c r="Q14" s="83"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>241</v>
+      </c>
+      <c r="C15" s="91" t="s">
+        <v>266</v>
+      </c>
+      <c r="E15" s="87" t="s">
+        <v>267</v>
+      </c>
+      <c r="F15" s="88"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="88"/>
+      <c r="J15" s="274">
+        <v>4.3869999999999999E-2</v>
+      </c>
+      <c r="K15" s="274"/>
+      <c r="L15" s="88"/>
+      <c r="M15" s="88"/>
+      <c r="N15" s="88"/>
+      <c r="O15" s="89"/>
+      <c r="P15" s="83"/>
+      <c r="Q15" s="83"/>
+    </row>
+    <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>244</v>
+      </c>
+      <c r="C16" s="91" t="s">
+        <v>268</v>
+      </c>
+      <c r="E16" s="84" t="s">
+        <v>269</v>
+      </c>
+      <c r="F16" s="85"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="85"/>
+      <c r="I16" s="85"/>
+      <c r="J16" s="90"/>
+      <c r="K16" s="90"/>
+      <c r="L16" s="85">
+        <v>0.32728000000000002</v>
+      </c>
+      <c r="M16" s="85"/>
+      <c r="N16" s="85"/>
+      <c r="O16" s="86"/>
+      <c r="P16" s="83"/>
+      <c r="Q16" s="83"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>247</v>
+      </c>
+      <c r="C17" s="91" t="s">
+        <v>270</v>
+      </c>
+      <c r="E17" s="80" t="s">
+        <v>271</v>
+      </c>
+      <c r="F17" s="81">
+        <v>0.91232999999999997</v>
+      </c>
+      <c r="G17" s="92"/>
+      <c r="H17" s="270">
+        <v>0.46146999999999999</v>
+      </c>
+      <c r="I17" s="270"/>
+      <c r="J17" s="81"/>
+      <c r="K17" s="81"/>
+      <c r="L17" s="81"/>
+      <c r="M17" s="81"/>
+      <c r="N17" s="81"/>
+      <c r="O17" s="82"/>
+      <c r="P17" s="83">
+        <f>F17+H17+J18+L19</f>
+        <v>2.0396200000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>256</v>
+      </c>
+      <c r="C18" s="91" t="s">
+        <v>272</v>
+      </c>
+      <c r="E18" s="87" t="s">
+        <v>273</v>
+      </c>
+      <c r="F18" s="88"/>
+      <c r="G18" s="88"/>
+      <c r="H18" s="88"/>
+      <c r="I18" s="88"/>
+      <c r="J18" s="274">
+        <v>0.15035999999999999</v>
+      </c>
+      <c r="K18" s="274"/>
+      <c r="L18" s="88"/>
+      <c r="M18" s="88"/>
+      <c r="N18" s="88"/>
+      <c r="O18" s="89"/>
+      <c r="P18" s="83"/>
+    </row>
+    <row r="19" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>258</v>
+      </c>
+      <c r="C19" s="91" t="s">
+        <v>274</v>
+      </c>
+      <c r="E19" s="84" t="s">
+        <v>275</v>
+      </c>
+      <c r="F19" s="85"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="85"/>
+      <c r="I19" s="85"/>
+      <c r="J19" s="90"/>
+      <c r="K19" s="90"/>
+      <c r="L19" s="85">
+        <v>0.51546000000000003</v>
+      </c>
+      <c r="M19" s="85"/>
+      <c r="N19" s="85"/>
+      <c r="O19" s="86"/>
+      <c r="P19" s="83"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C20" s="91" t="s">
+        <v>276</v>
+      </c>
+      <c r="E20" s="80" t="s">
+        <v>277</v>
+      </c>
+      <c r="F20" s="81">
+        <v>0.69059999999999999</v>
+      </c>
+      <c r="G20" s="92"/>
+      <c r="H20" s="270">
+        <v>0.38878000000000001</v>
+      </c>
+      <c r="I20" s="270"/>
+      <c r="J20" s="81"/>
+      <c r="K20" s="81"/>
+      <c r="L20" s="81"/>
+      <c r="M20" s="81"/>
+      <c r="N20" s="81"/>
+      <c r="O20" s="82"/>
+      <c r="P20" s="83">
+        <f>F20+H20+J21+L22</f>
+        <v>1.9173399999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="78" t="s">
+        <v>236</v>
+      </c>
+      <c r="C21" s="91" t="s">
+        <v>278</v>
+      </c>
+      <c r="E21" s="87" t="s">
+        <v>279</v>
+      </c>
+      <c r="F21" s="88"/>
+      <c r="G21" s="88"/>
+      <c r="H21" s="88"/>
+      <c r="I21" s="88"/>
+      <c r="J21" s="274">
+        <v>0.2099</v>
+      </c>
+      <c r="K21" s="274"/>
+      <c r="L21" s="88"/>
+      <c r="M21" s="88"/>
+      <c r="N21" s="88"/>
+      <c r="O21" s="89"/>
+      <c r="P21" s="83"/>
+    </row>
+    <row r="22" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="91" t="s">
+        <v>280</v>
+      </c>
+      <c r="E22" s="84" t="s">
+        <v>281</v>
+      </c>
+      <c r="F22" s="85"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="85"/>
+      <c r="I22" s="85"/>
+      <c r="J22" s="90"/>
+      <c r="K22" s="90"/>
+      <c r="L22" s="85">
+        <v>0.62805999999999995</v>
+      </c>
+      <c r="M22" s="85"/>
+      <c r="N22" s="85"/>
+      <c r="O22" s="86"/>
+      <c r="P22" s="83"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>282</v>
+      </c>
+      <c r="C23" s="91" t="s">
+        <v>283</v>
+      </c>
+      <c r="E23" s="80" t="s">
+        <v>284</v>
+      </c>
+      <c r="F23" s="81">
+        <v>0.68315000000000003</v>
+      </c>
+      <c r="G23" s="92"/>
+      <c r="H23" s="270">
+        <v>0.70006000000000002</v>
+      </c>
+      <c r="I23" s="270"/>
+      <c r="J23" s="81"/>
+      <c r="K23" s="81"/>
+      <c r="L23" s="81"/>
+      <c r="M23" s="81"/>
+      <c r="N23" s="81"/>
+      <c r="O23" s="82"/>
+      <c r="P23" s="83">
+        <f>F23+H23+J24+L25</f>
+        <v>1.85917</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>285</v>
+      </c>
+      <c r="C24" s="91" t="s">
+        <v>286</v>
+      </c>
+      <c r="E24" s="87" t="s">
+        <v>287</v>
+      </c>
+      <c r="F24" s="88"/>
+      <c r="G24" s="88"/>
+      <c r="H24" s="88"/>
+      <c r="I24" s="88"/>
+      <c r="J24" s="274">
+        <v>0.152</v>
+      </c>
+      <c r="K24" s="274"/>
+      <c r="L24" s="88"/>
+      <c r="M24" s="88"/>
+      <c r="N24" s="88"/>
+      <c r="O24" s="89"/>
+      <c r="P24" s="83"/>
+    </row>
+    <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>288</v>
+      </c>
+      <c r="C25" s="91" t="s">
+        <v>289</v>
+      </c>
+      <c r="E25" s="84" t="s">
+        <v>290</v>
+      </c>
+      <c r="F25" s="85"/>
+      <c r="G25" s="85"/>
+      <c r="H25" s="85"/>
+      <c r="I25" s="85"/>
+      <c r="J25" s="90"/>
+      <c r="K25" s="90"/>
+      <c r="L25" s="85">
+        <v>0.32396000000000003</v>
+      </c>
+      <c r="M25" s="85"/>
+      <c r="N25" s="85"/>
+      <c r="O25" s="86"/>
+      <c r="P25" s="83"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C26" s="91" t="s">
+        <v>291</v>
+      </c>
+      <c r="E26" s="80" t="s">
+        <v>292</v>
+      </c>
+      <c r="F26" s="81">
+        <v>0.18545</v>
+      </c>
+      <c r="G26" s="81">
+        <v>9.2719999999999997E-2</v>
+      </c>
+      <c r="H26" s="270">
+        <v>0.42459999999999998</v>
+      </c>
+      <c r="I26" s="270"/>
+      <c r="J26" s="81"/>
+      <c r="K26" s="81"/>
+      <c r="L26" s="81"/>
+      <c r="M26" s="81"/>
+      <c r="N26" s="263"/>
+      <c r="O26" s="265"/>
+      <c r="P26" s="83">
+        <f>F26+G26+H26+J27+L28+M28+N28</f>
+        <v>2.4103300000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>293</v>
+      </c>
+      <c r="C27" s="91" t="s">
+        <v>294</v>
+      </c>
+      <c r="E27" s="87" t="s">
+        <v>295</v>
+      </c>
+      <c r="F27" s="88"/>
+      <c r="G27" s="88"/>
+      <c r="H27" s="88"/>
+      <c r="I27" s="88"/>
+      <c r="J27" s="274">
+        <v>1</v>
+      </c>
+      <c r="K27" s="274"/>
+      <c r="L27" s="88"/>
+      <c r="M27" s="88"/>
+      <c r="N27" s="266"/>
+      <c r="O27" s="267"/>
+      <c r="P27" s="83"/>
+    </row>
+    <row r="28" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>296</v>
+      </c>
+      <c r="C28" s="91" t="s">
+        <v>297</v>
+      </c>
+      <c r="E28" s="84" t="s">
+        <v>298</v>
+      </c>
+      <c r="F28" s="85"/>
+      <c r="G28" s="85"/>
+      <c r="H28" s="85"/>
+      <c r="I28" s="85"/>
+      <c r="J28" s="90"/>
+      <c r="K28" s="90"/>
+      <c r="L28" s="85">
+        <v>0.24451999999999999</v>
+      </c>
+      <c r="M28" s="85">
+        <v>0.1226</v>
+      </c>
+      <c r="N28" s="268">
+        <v>0.34044000000000002</v>
+      </c>
+      <c r="O28" s="269"/>
+      <c r="P28" s="83"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C29" s="91" t="s">
+        <v>299</v>
+      </c>
+      <c r="E29" s="80" t="s">
+        <v>300</v>
+      </c>
+      <c r="F29" s="81">
+        <v>0.27438000000000001</v>
+      </c>
+      <c r="G29" s="81">
+        <v>0.13719000000000001</v>
+      </c>
+      <c r="H29" s="270">
+        <v>0.62792999999999999</v>
+      </c>
+      <c r="I29" s="270"/>
+      <c r="J29" s="81"/>
+      <c r="K29" s="81"/>
+      <c r="L29" s="81"/>
+      <c r="M29" s="81"/>
+      <c r="N29" s="263"/>
+      <c r="O29" s="265"/>
+      <c r="P29" s="83">
+        <f>F29+G29+H29+L30+M30+N30+J33</f>
+        <v>2.4474499999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>301</v>
+      </c>
+      <c r="C30" s="91" t="s">
+        <v>302</v>
+      </c>
+      <c r="E30" s="84" t="s">
+        <v>303</v>
+      </c>
+      <c r="F30" s="85"/>
+      <c r="G30" s="85"/>
+      <c r="H30" s="90"/>
+      <c r="I30" s="90"/>
+      <c r="J30" s="85"/>
+      <c r="K30" s="85"/>
+      <c r="L30" s="85">
+        <v>0.14949999999999999</v>
+      </c>
+      <c r="M30" s="85">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="N30" s="268">
+        <v>0.23748</v>
+      </c>
+      <c r="O30" s="269"/>
+      <c r="P30" s="83"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C31" s="91" t="s">
+        <v>304</v>
+      </c>
+      <c r="E31" s="80" t="s">
+        <v>305</v>
+      </c>
+      <c r="F31" s="81">
+        <v>0.11212</v>
+      </c>
+      <c r="G31" s="81">
+        <v>5.6059999999999999E-2</v>
+      </c>
+      <c r="H31" s="270">
+        <v>0.23462</v>
+      </c>
+      <c r="I31" s="270"/>
+      <c r="J31" s="81"/>
+      <c r="K31" s="81"/>
+      <c r="L31" s="81"/>
+      <c r="M31" s="81"/>
+      <c r="N31" s="263"/>
+      <c r="O31" s="265"/>
+      <c r="P31" s="83">
+        <f>F31+G31+H31+L32+M32+N32+J33</f>
+        <v>2.2090299999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="91" t="s">
+        <v>306</v>
+      </c>
+      <c r="E32" s="84" t="s">
+        <v>307</v>
+      </c>
+      <c r="F32" s="85"/>
+      <c r="G32" s="85"/>
+      <c r="H32" s="90"/>
+      <c r="I32" s="90"/>
+      <c r="J32" s="85"/>
+      <c r="K32" s="85"/>
+      <c r="L32" s="85">
+        <v>0.23788000000000001</v>
+      </c>
+      <c r="M32" s="85">
+        <v>0.11894</v>
+      </c>
+      <c r="N32" s="268">
+        <v>0.50244</v>
+      </c>
+      <c r="O32" s="269"/>
+      <c r="P32" s="83"/>
+    </row>
+    <row r="33" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="91" t="s">
+        <v>308</v>
+      </c>
+      <c r="E33" s="93" t="s">
+        <v>309</v>
+      </c>
+      <c r="F33" s="94"/>
+      <c r="G33" s="94"/>
+      <c r="H33" s="94"/>
+      <c r="I33" s="94"/>
+      <c r="J33" s="271">
+        <v>0.94696999999999998</v>
+      </c>
+      <c r="K33" s="271"/>
+      <c r="L33" s="94"/>
+      <c r="M33" s="94"/>
+      <c r="N33" s="272"/>
+      <c r="O33" s="273"/>
+      <c r="P33" s="83"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E34" s="80" t="s">
+        <v>310</v>
+      </c>
+      <c r="F34" s="270">
+        <v>0.15762999999999999</v>
+      </c>
+      <c r="G34" s="270"/>
+      <c r="H34" s="270">
+        <v>0.36070000000000002</v>
+      </c>
+      <c r="I34" s="270"/>
+      <c r="J34" s="81"/>
+      <c r="K34" s="81"/>
+      <c r="L34" s="81"/>
+      <c r="M34" s="81"/>
+      <c r="N34" s="263"/>
+      <c r="O34" s="265"/>
+      <c r="P34" s="83">
+        <f>F34+H34+J35+L36+N36</f>
+        <v>1.8655399999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E35" s="87" t="s">
+        <v>311</v>
+      </c>
+      <c r="F35" s="88"/>
+      <c r="G35" s="88"/>
+      <c r="H35" s="88"/>
+      <c r="I35" s="88"/>
+      <c r="J35" s="274">
+        <v>0.85</v>
+      </c>
+      <c r="K35" s="274"/>
+      <c r="L35" s="88"/>
+      <c r="M35" s="88"/>
+      <c r="N35" s="266"/>
+      <c r="O35" s="267"/>
+      <c r="P35" s="83"/>
+    </row>
+    <row r="36" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="38" t="s">
+        <v>312</v>
+      </c>
+      <c r="E36" s="84" t="s">
+        <v>313</v>
+      </c>
+      <c r="F36" s="85"/>
+      <c r="G36" s="85"/>
+      <c r="H36" s="85"/>
+      <c r="I36" s="85"/>
+      <c r="J36" s="90"/>
+      <c r="K36" s="90"/>
+      <c r="L36" s="85">
+        <v>0.20784</v>
+      </c>
+      <c r="M36" s="85"/>
+      <c r="N36" s="268">
+        <v>0.28937000000000002</v>
+      </c>
+      <c r="O36" s="269"/>
+      <c r="P36" s="83"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>314</v>
+      </c>
+      <c r="E37" s="80" t="s">
+        <v>315</v>
+      </c>
+      <c r="F37" s="270">
+        <v>0.20368</v>
+      </c>
+      <c r="G37" s="270"/>
+      <c r="H37" s="270">
+        <v>0.33767000000000003</v>
+      </c>
+      <c r="I37" s="270"/>
+      <c r="J37" s="81"/>
+      <c r="K37" s="81"/>
+      <c r="L37" s="81"/>
+      <c r="M37" s="81"/>
+      <c r="N37" s="263"/>
+      <c r="O37" s="265"/>
+      <c r="P37" s="83">
+        <f>F37+H37+J38+L39+L40+N40</f>
+        <v>2.5172699999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>316</v>
+      </c>
+      <c r="E38" s="87" t="s">
+        <v>317</v>
+      </c>
+      <c r="F38" s="88"/>
+      <c r="G38" s="88"/>
+      <c r="H38" s="88"/>
+      <c r="I38" s="88"/>
+      <c r="J38" s="274">
+        <v>0.89815999999999996</v>
+      </c>
+      <c r="K38" s="274"/>
+      <c r="L38" s="88"/>
+      <c r="M38" s="88"/>
+      <c r="N38" s="266"/>
+      <c r="O38" s="267"/>
+      <c r="P38" s="83"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>318</v>
+      </c>
+      <c r="E39" s="87" t="s">
+        <v>319</v>
+      </c>
+      <c r="F39" s="88"/>
+      <c r="G39" s="88"/>
+      <c r="H39" s="88"/>
+      <c r="I39" s="88"/>
+      <c r="J39" s="95"/>
+      <c r="K39" s="95"/>
+      <c r="L39" s="88">
+        <v>0.57364000000000004</v>
+      </c>
+      <c r="M39" s="88"/>
+      <c r="N39" s="266"/>
+      <c r="O39" s="267"/>
+      <c r="P39" s="83"/>
+    </row>
+    <row r="40" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>320</v>
+      </c>
+      <c r="E40" s="84" t="s">
+        <v>321</v>
+      </c>
+      <c r="F40" s="85"/>
+      <c r="G40" s="85"/>
+      <c r="H40" s="85"/>
+      <c r="I40" s="85"/>
+      <c r="J40" s="90"/>
+      <c r="K40" s="90"/>
+      <c r="L40" s="85">
+        <v>0.26422000000000001</v>
+      </c>
+      <c r="M40" s="85"/>
+      <c r="N40" s="268">
+        <v>0.2399</v>
+      </c>
+      <c r="O40" s="269"/>
+      <c r="P40" s="83"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E41" s="80" t="s">
+        <v>322</v>
+      </c>
+      <c r="F41" s="81">
+        <v>0.34708</v>
+      </c>
+      <c r="G41" s="92"/>
+      <c r="H41" s="270">
+        <v>0.20830000000000001</v>
+      </c>
+      <c r="I41" s="270"/>
+      <c r="J41" s="81"/>
+      <c r="K41" s="81"/>
+      <c r="L41" s="81"/>
+      <c r="M41" s="81"/>
+      <c r="N41" s="263"/>
+      <c r="O41" s="265"/>
+      <c r="P41" s="83">
+        <f>F41+H41+J42+L43+L44+N44</f>
+        <v>2.29189</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E42" s="87" t="s">
+        <v>323</v>
+      </c>
+      <c r="F42" s="88"/>
+      <c r="G42" s="88"/>
+      <c r="H42" s="88"/>
+      <c r="I42" s="88"/>
+      <c r="J42" s="274">
+        <v>0.52559999999999996</v>
+      </c>
+      <c r="K42" s="274"/>
+      <c r="L42" s="88"/>
+      <c r="M42" s="88"/>
+      <c r="N42" s="266"/>
+      <c r="O42" s="267"/>
+      <c r="P42" s="83"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" s="38"/>
+      <c r="E43" s="87" t="s">
+        <v>324</v>
+      </c>
+      <c r="F43" s="88"/>
+      <c r="G43" s="88"/>
+      <c r="H43" s="88"/>
+      <c r="I43" s="88"/>
+      <c r="J43" s="95"/>
+      <c r="K43" s="95"/>
+      <c r="L43" s="88">
+        <v>0.84328000000000003</v>
+      </c>
+      <c r="M43" s="88"/>
+      <c r="N43" s="266"/>
+      <c r="O43" s="267"/>
+      <c r="P43" s="83"/>
+    </row>
+    <row r="44" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="38" t="s">
+        <v>325</v>
+      </c>
+      <c r="E44" s="84" t="s">
+        <v>326</v>
+      </c>
+      <c r="F44" s="85"/>
+      <c r="G44" s="85"/>
+      <c r="H44" s="85"/>
+      <c r="I44" s="85"/>
+      <c r="J44" s="90"/>
+      <c r="K44" s="90"/>
+      <c r="L44" s="85">
+        <v>0.23543</v>
+      </c>
+      <c r="M44" s="85"/>
+      <c r="N44" s="268">
+        <v>0.13220000000000001</v>
+      </c>
+      <c r="O44" s="269"/>
+      <c r="P44" s="83"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>327</v>
+      </c>
+      <c r="E45" s="80" t="s">
+        <v>328</v>
+      </c>
+      <c r="F45" s="81">
+        <v>0.47361999999999999</v>
+      </c>
+      <c r="G45" s="92"/>
+      <c r="H45" s="270">
+        <v>0.28101999999999999</v>
+      </c>
+      <c r="I45" s="270"/>
+      <c r="J45" s="81"/>
+      <c r="K45" s="81"/>
+      <c r="L45" s="81"/>
+      <c r="M45" s="81"/>
+      <c r="N45" s="263"/>
+      <c r="O45" s="265"/>
+      <c r="P45" s="83">
+        <f>F45+H45+L46+L47+N47+J51</f>
+        <v>2.2079800000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E46" s="87" t="s">
+        <v>329</v>
+      </c>
+      <c r="F46" s="88"/>
+      <c r="G46" s="96"/>
+      <c r="H46" s="95"/>
+      <c r="I46" s="95"/>
+      <c r="J46" s="88"/>
+      <c r="K46" s="88"/>
+      <c r="L46" s="88">
+        <v>0.71950000000000003</v>
+      </c>
+      <c r="M46" s="88"/>
+      <c r="N46" s="266"/>
+      <c r="O46" s="267"/>
+      <c r="P46" s="83"/>
+    </row>
+    <row r="47" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>330</v>
+      </c>
+      <c r="E47" s="84" t="s">
+        <v>331</v>
+      </c>
+      <c r="F47" s="85"/>
+      <c r="G47" s="97"/>
+      <c r="H47" s="90"/>
+      <c r="I47" s="90"/>
+      <c r="J47" s="85"/>
+      <c r="K47" s="85"/>
+      <c r="L47" s="85">
+        <v>0.20451</v>
+      </c>
+      <c r="M47" s="85"/>
+      <c r="N47" s="268">
+        <v>9.1600000000000001E-2</v>
+      </c>
+      <c r="O47" s="269"/>
+      <c r="P47" s="83"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>332</v>
+      </c>
+      <c r="E48" s="80" t="s">
+        <v>333</v>
+      </c>
+      <c r="F48" s="81">
+        <v>0.17321</v>
+      </c>
+      <c r="G48" s="92"/>
+      <c r="H48" s="270">
+        <v>9.2929999999999999E-2</v>
+      </c>
+      <c r="I48" s="270"/>
+      <c r="J48" s="81"/>
+      <c r="K48" s="81"/>
+      <c r="L48" s="81"/>
+      <c r="M48" s="81"/>
+      <c r="N48" s="263"/>
+      <c r="O48" s="265"/>
+      <c r="P48" s="83">
+        <f>F48+H48+L49+L50+N50+J51</f>
+        <v>2.12704</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>334</v>
+      </c>
+      <c r="E49" s="87" t="s">
+        <v>335</v>
+      </c>
+      <c r="F49" s="88"/>
+      <c r="G49" s="96"/>
+      <c r="H49" s="95"/>
+      <c r="I49" s="95"/>
+      <c r="J49" s="88"/>
+      <c r="K49" s="88"/>
+      <c r="L49" s="88">
+        <v>1</v>
+      </c>
+      <c r="M49" s="88"/>
+      <c r="N49" s="266"/>
+      <c r="O49" s="267"/>
+      <c r="P49" s="83"/>
+    </row>
+    <row r="50" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>336</v>
+      </c>
+      <c r="C50" s="91" t="s">
+        <v>262</v>
+      </c>
+      <c r="E50" s="84" t="s">
+        <v>337</v>
+      </c>
+      <c r="F50" s="85"/>
+      <c r="G50" s="97"/>
+      <c r="H50" s="90"/>
+      <c r="I50" s="90"/>
+      <c r="J50" s="85"/>
+      <c r="K50" s="85"/>
+      <c r="L50" s="85">
+        <v>0.26967000000000002</v>
+      </c>
+      <c r="M50" s="85"/>
+      <c r="N50" s="268">
+        <v>0.1535</v>
+      </c>
+      <c r="O50" s="269"/>
+      <c r="P50" s="83"/>
+    </row>
+    <row r="51" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C51" s="91" t="s">
+        <v>264</v>
+      </c>
+      <c r="E51" s="93" t="s">
+        <v>338</v>
+      </c>
+      <c r="F51" s="94"/>
+      <c r="G51" s="94"/>
+      <c r="H51" s="94"/>
+      <c r="I51" s="94"/>
+      <c r="J51" s="271">
+        <v>0.43773000000000001</v>
+      </c>
+      <c r="K51" s="271"/>
+      <c r="L51" s="94"/>
+      <c r="M51" s="94"/>
+      <c r="N51" s="272"/>
+      <c r="O51" s="273"/>
+      <c r="P51" s="83"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>339</v>
+      </c>
+      <c r="C52" s="91" t="s">
+        <v>266</v>
+      </c>
+      <c r="E52" s="80" t="s">
+        <v>340</v>
+      </c>
+      <c r="F52" s="81">
+        <v>0.28996</v>
+      </c>
+      <c r="G52" s="92"/>
+      <c r="H52" s="270">
+        <v>0.25344</v>
+      </c>
+      <c r="I52" s="270"/>
+      <c r="J52" s="81"/>
+      <c r="K52" s="81"/>
+      <c r="L52" s="81"/>
+      <c r="M52" s="81"/>
+      <c r="N52" s="263"/>
+      <c r="O52" s="265"/>
+      <c r="P52" s="83">
+        <f>F52+H52+J53+L54+L55+N55</f>
+        <v>2.0821799999999997</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>341</v>
+      </c>
+      <c r="C53" s="91" t="s">
+        <v>268</v>
+      </c>
+      <c r="E53" s="87" t="s">
+        <v>342</v>
+      </c>
+      <c r="F53" s="88"/>
+      <c r="G53" s="88"/>
+      <c r="H53" s="88"/>
+      <c r="I53" s="88"/>
+      <c r="J53" s="274">
+        <v>0.65949000000000002</v>
+      </c>
+      <c r="K53" s="274"/>
+      <c r="L53" s="88"/>
+      <c r="M53" s="88"/>
+      <c r="N53" s="266"/>
+      <c r="O53" s="267"/>
+      <c r="P53" s="83"/>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>343</v>
+      </c>
+      <c r="C54" s="91" t="s">
+        <v>270</v>
+      </c>
+      <c r="E54" s="87" t="s">
+        <v>344</v>
+      </c>
+      <c r="F54" s="88"/>
+      <c r="G54" s="88"/>
+      <c r="H54" s="88"/>
+      <c r="I54" s="88"/>
+      <c r="J54" s="95"/>
+      <c r="K54" s="95"/>
+      <c r="L54" s="88">
+        <v>0.56411</v>
+      </c>
+      <c r="M54" s="88"/>
+      <c r="N54" s="266"/>
+      <c r="O54" s="267"/>
+      <c r="P54" s="83"/>
+    </row>
+    <row r="55" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>345</v>
+      </c>
+      <c r="C55" s="91" t="s">
+        <v>272</v>
+      </c>
+      <c r="E55" s="84" t="s">
+        <v>346</v>
+      </c>
+      <c r="F55" s="85"/>
+      <c r="G55" s="85"/>
+      <c r="H55" s="85"/>
+      <c r="I55" s="85"/>
+      <c r="J55" s="90"/>
+      <c r="K55" s="90"/>
+      <c r="L55" s="85">
+        <v>0.14326</v>
+      </c>
+      <c r="M55" s="85"/>
+      <c r="N55" s="268">
+        <v>0.17191999999999999</v>
+      </c>
+      <c r="O55" s="269"/>
+      <c r="P55" s="83"/>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>347</v>
+      </c>
+      <c r="C56" s="91" t="s">
+        <v>274</v>
+      </c>
+      <c r="E56" s="80" t="s">
+        <v>348</v>
+      </c>
+      <c r="F56" s="81"/>
+      <c r="G56" s="81"/>
+      <c r="H56" s="81"/>
+      <c r="I56" s="81"/>
+      <c r="J56" s="98"/>
+      <c r="K56" s="98"/>
+      <c r="L56" s="81">
+        <v>0.19162000000000001</v>
+      </c>
+      <c r="M56" s="81"/>
+      <c r="N56" s="263"/>
+      <c r="O56" s="265"/>
+      <c r="P56" s="83">
+        <f>L56+L57+L58+L59+N58+N59</f>
+        <v>2.1837599999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C57" s="91" t="s">
+        <v>276</v>
+      </c>
+      <c r="E57" s="87" t="s">
+        <v>349</v>
+      </c>
+      <c r="F57" s="88"/>
+      <c r="G57" s="88"/>
+      <c r="H57" s="88"/>
+      <c r="I57" s="88"/>
+      <c r="J57" s="95"/>
+      <c r="K57" s="95"/>
+      <c r="L57" s="88">
+        <v>0.49523</v>
+      </c>
+      <c r="M57" s="88"/>
+      <c r="N57" s="266"/>
+      <c r="O57" s="267"/>
+      <c r="P57" s="83"/>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C58" s="91" t="s">
+        <v>278</v>
+      </c>
+      <c r="E58" s="87" t="s">
+        <v>350</v>
+      </c>
+      <c r="F58" s="88"/>
+      <c r="G58" s="88"/>
+      <c r="H58" s="88"/>
+      <c r="I58" s="88"/>
+      <c r="J58" s="95"/>
+      <c r="K58" s="95"/>
+      <c r="L58" s="88">
+        <v>0.47439999999999999</v>
+      </c>
+      <c r="M58" s="88"/>
+      <c r="N58" s="266">
+        <v>0.60697000000000001</v>
+      </c>
+      <c r="O58" s="267"/>
+      <c r="P58" s="83"/>
+    </row>
+    <row r="59" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C59" s="91" t="s">
+        <v>280</v>
+      </c>
+      <c r="E59" s="84" t="s">
+        <v>351</v>
+      </c>
+      <c r="F59" s="85"/>
+      <c r="G59" s="85"/>
+      <c r="H59" s="85"/>
+      <c r="I59" s="85"/>
+      <c r="J59" s="90"/>
+      <c r="K59" s="90"/>
+      <c r="L59" s="85">
+        <v>0.16774</v>
+      </c>
+      <c r="M59" s="85"/>
+      <c r="N59" s="268">
+        <v>0.24779999999999999</v>
+      </c>
+      <c r="O59" s="269"/>
+      <c r="P59" s="83"/>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C60" s="91" t="s">
+        <v>283</v>
+      </c>
+      <c r="E60" s="80" t="s">
+        <v>352</v>
+      </c>
+      <c r="F60" s="81"/>
+      <c r="G60" s="81"/>
+      <c r="H60" s="81"/>
+      <c r="I60" s="81"/>
+      <c r="J60" s="263">
+        <v>0.45617999999999997</v>
+      </c>
+      <c r="K60" s="264"/>
+      <c r="L60" s="81"/>
+      <c r="M60" s="81"/>
+      <c r="N60" s="263"/>
+      <c r="O60" s="265"/>
+      <c r="P60" s="83">
+        <f>J60+L62+N62+L63+L64+N64</f>
+        <v>2.0612399999999997</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C61" s="91" t="s">
+        <v>286</v>
+      </c>
+      <c r="E61" s="87" t="s">
+        <v>353</v>
+      </c>
+      <c r="F61" s="88"/>
+      <c r="G61" s="88"/>
+      <c r="H61" s="88"/>
+      <c r="I61" s="88"/>
+      <c r="J61" s="88"/>
+      <c r="K61" s="88"/>
+      <c r="L61" s="88">
+        <v>0.28649999999999998</v>
+      </c>
+      <c r="M61" s="88"/>
+      <c r="N61" s="266">
+        <v>0.80176999999999998</v>
+      </c>
+      <c r="O61" s="267"/>
+      <c r="P61" s="83">
+        <f>J60+L61+N61+L63+L64+N64</f>
+        <v>2.4324300000000001</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C62" s="91" t="s">
+        <v>289</v>
+      </c>
+      <c r="E62" s="87" t="s">
+        <v>355</v>
+      </c>
+      <c r="F62" s="88"/>
+      <c r="G62" s="88"/>
+      <c r="H62" s="88"/>
+      <c r="I62" s="88"/>
+      <c r="J62" s="88"/>
+      <c r="K62" s="88"/>
+      <c r="L62" s="88">
+        <v>0.20932000000000001</v>
+      </c>
+      <c r="M62" s="88"/>
+      <c r="N62" s="266">
+        <v>0.50775999999999999</v>
+      </c>
+      <c r="O62" s="267"/>
+      <c r="P62" s="83"/>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C63" s="91" t="s">
+        <v>291</v>
+      </c>
+      <c r="E63" s="87" t="s">
+        <v>356</v>
+      </c>
+      <c r="F63" s="88"/>
+      <c r="G63" s="88"/>
+      <c r="H63" s="88"/>
+      <c r="I63" s="88"/>
+      <c r="J63" s="88"/>
+      <c r="K63" s="88"/>
+      <c r="L63" s="88">
+        <v>0.14599000000000001</v>
+      </c>
+      <c r="M63" s="88"/>
+      <c r="N63" s="266"/>
+      <c r="O63" s="267"/>
+      <c r="P63" s="83"/>
+    </row>
+    <row r="64" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C64" s="91" t="s">
+        <v>294</v>
+      </c>
+      <c r="E64" s="84" t="s">
+        <v>357</v>
+      </c>
+      <c r="F64" s="85"/>
+      <c r="G64" s="85"/>
+      <c r="H64" s="85"/>
+      <c r="I64" s="85"/>
+      <c r="J64" s="85"/>
+      <c r="K64" s="85"/>
+      <c r="L64" s="85">
+        <v>0.12414</v>
+      </c>
+      <c r="M64" s="85"/>
+      <c r="N64" s="268">
+        <v>0.61785000000000001</v>
+      </c>
+      <c r="O64" s="269"/>
+      <c r="P64" s="83"/>
+    </row>
+    <row r="65" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C65" s="91" t="s">
+        <v>297</v>
+      </c>
+      <c r="E65" s="80" t="s">
+        <v>358</v>
+      </c>
+      <c r="F65" s="81"/>
+      <c r="G65" s="81"/>
+      <c r="H65" s="81"/>
+      <c r="I65" s="81"/>
+      <c r="J65" s="81"/>
+      <c r="K65" s="81"/>
+      <c r="L65" s="81">
+        <v>0.23763000000000001</v>
+      </c>
+      <c r="M65" s="81"/>
+      <c r="N65" s="263">
+        <v>1</v>
+      </c>
+      <c r="O65" s="265"/>
+      <c r="P65" s="83">
+        <f>L65+N65+L66+L67+N67</f>
+        <v>1.8703959999999999</v>
+      </c>
+      <c r="Q65" s="83"/>
+    </row>
+    <row r="66" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C66" s="91" t="s">
+        <v>299</v>
+      </c>
+      <c r="E66" s="87" t="s">
+        <v>359</v>
+      </c>
+      <c r="F66" s="88"/>
+      <c r="G66" s="88"/>
+      <c r="H66" s="88"/>
+      <c r="I66" s="88"/>
+      <c r="J66" s="88"/>
+      <c r="K66" s="88"/>
+      <c r="L66" s="88">
+        <v>0.17316000000000001</v>
+      </c>
+      <c r="M66" s="88"/>
+      <c r="N66" s="266"/>
+      <c r="O66" s="267"/>
+      <c r="P66" s="83"/>
+      <c r="Q66" s="83"/>
+    </row>
+    <row r="67" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C67" s="91" t="s">
+        <v>302</v>
+      </c>
+      <c r="E67" s="84" t="s">
+        <v>360</v>
+      </c>
+      <c r="F67" s="85"/>
+      <c r="G67" s="85"/>
+      <c r="H67" s="85"/>
+      <c r="I67" s="85"/>
+      <c r="J67" s="85"/>
+      <c r="K67" s="85"/>
+      <c r="L67" s="85">
+        <v>0.12317</v>
+      </c>
+      <c r="M67" s="85"/>
+      <c r="N67" s="268">
+        <v>0.33643600000000001</v>
+      </c>
+      <c r="O67" s="269"/>
+      <c r="P67" s="83"/>
+      <c r="Q67" s="83"/>
+    </row>
+    <row r="68" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C68" s="91" t="s">
+        <v>304</v>
+      </c>
+      <c r="E68" s="80" t="s">
+        <v>361</v>
+      </c>
+      <c r="F68" s="81"/>
+      <c r="G68" s="81"/>
+      <c r="H68" s="81"/>
+      <c r="I68" s="81"/>
+      <c r="J68" s="81"/>
+      <c r="K68" s="81"/>
+      <c r="L68" s="81">
+        <v>0.20199</v>
+      </c>
+      <c r="M68" s="81"/>
+      <c r="N68" s="263">
+        <v>0.85</v>
+      </c>
+      <c r="O68" s="265"/>
+      <c r="P68" s="83">
+        <f>L68+N68+L69+L70+N70</f>
+        <v>1.6197900000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C69" s="91" t="s">
+        <v>306</v>
+      </c>
+      <c r="E69" s="87" t="s">
+        <v>362</v>
+      </c>
+      <c r="F69" s="88"/>
+      <c r="G69" s="88"/>
+      <c r="H69" s="88"/>
+      <c r="I69" s="88"/>
+      <c r="J69" s="88"/>
+      <c r="K69" s="88"/>
+      <c r="L69" s="88">
+        <v>0.17718999999999999</v>
+      </c>
+      <c r="M69" s="88"/>
+      <c r="N69" s="266"/>
+      <c r="O69" s="267"/>
+      <c r="P69" s="83"/>
+    </row>
+    <row r="70" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C70" s="91" t="s">
+        <v>308</v>
+      </c>
+      <c r="E70" s="99" t="s">
+        <v>363</v>
+      </c>
+      <c r="F70" s="100"/>
+      <c r="G70" s="100"/>
+      <c r="H70" s="100"/>
+      <c r="I70" s="100"/>
+      <c r="J70" s="100"/>
+      <c r="K70" s="100"/>
+      <c r="L70" s="100">
+        <v>0.1047</v>
+      </c>
+      <c r="M70" s="100"/>
+      <c r="N70" s="261">
+        <v>0.28591</v>
+      </c>
+      <c r="O70" s="262"/>
+      <c r="P70" s="83"/>
+    </row>
+  </sheetData>
+  <mergeCells count="93">
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="N69:O69"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F3:O70">
+    <cfRule type="cellIs" dxfId="25" priority="1" operator="between">
+      <formula>0.15</formula>
+      <formula>0.3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="2" operator="between">
+      <formula>0.3</formula>
+      <formula>0.6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="3" operator="greaterThan">
+      <formula>0.6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="4" operator="lessThan">
+      <formula>0.15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8331369E-2A2C-4705-8A45-03D9B90BC96C}">
   <sheetPr>
     <tabColor theme="2" tint="-9.9978637043366805E-2"/>
@@ -22510,97 +24601,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="266">
+      <c r="A1" s="280">
         <v>0.34</v>
       </c>
-      <c r="B1" s="267"/>
-      <c r="C1" s="266">
+      <c r="B1" s="281"/>
+      <c r="C1" s="280">
         <v>0.245</v>
       </c>
-      <c r="D1" s="267"/>
-      <c r="E1" s="266">
+      <c r="D1" s="281"/>
+      <c r="E1" s="280">
         <v>0.125</v>
       </c>
-      <c r="F1" s="267"/>
-      <c r="G1" s="266">
+      <c r="F1" s="281"/>
+      <c r="G1" s="280">
         <v>0.29099999999999998</v>
       </c>
-      <c r="H1" s="267"/>
-      <c r="I1" s="266">
+      <c r="H1" s="281"/>
+      <c r="I1" s="280">
         <v>0.19</v>
       </c>
-      <c r="J1" s="267"/>
-      <c r="L1" s="266">
+      <c r="J1" s="281"/>
+      <c r="L1" s="280">
         <v>0.34</v>
       </c>
-      <c r="M1" s="267"/>
-      <c r="N1" s="266">
+      <c r="M1" s="281"/>
+      <c r="N1" s="280">
         <v>0.245</v>
       </c>
-      <c r="O1" s="267"/>
-      <c r="P1" s="266">
+      <c r="O1" s="281"/>
+      <c r="P1" s="280">
         <v>0.125</v>
       </c>
-      <c r="Q1" s="267"/>
-      <c r="R1" s="266">
+      <c r="Q1" s="281"/>
+      <c r="R1" s="280">
         <f>0.291*86/100</f>
         <v>0.25025999999999998</v>
       </c>
-      <c r="S1" s="267"/>
-      <c r="T1" s="266">
+      <c r="S1" s="281"/>
+      <c r="T1" s="280">
         <v>0.19</v>
       </c>
-      <c r="U1" s="267"/>
-      <c r="W1" s="265" t="s">
+      <c r="U1" s="281"/>
+      <c r="W1" s="279" t="s">
         <v>232</v>
       </c>
-      <c r="X1" s="265"/>
-      <c r="AC1" s="265" t="s">
+      <c r="X1" s="279"/>
+      <c r="AC1" s="279" t="s">
         <v>233</v>
       </c>
-      <c r="AD1" s="265"/>
+      <c r="AD1" s="279"/>
     </row>
     <row r="2" spans="1:44" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="262" t="s">
+      <c r="A2" s="276" t="s">
         <v>234</v>
       </c>
-      <c r="B2" s="262"/>
-      <c r="C2" s="262" t="s">
+      <c r="B2" s="276"/>
+      <c r="C2" s="276" t="s">
         <v>235</v>
       </c>
-      <c r="D2" s="262"/>
-      <c r="E2" s="262" t="s">
+      <c r="D2" s="276"/>
+      <c r="E2" s="276" t="s">
         <v>236</v>
       </c>
-      <c r="F2" s="262"/>
-      <c r="G2" s="262" t="s">
+      <c r="F2" s="276"/>
+      <c r="G2" s="276" t="s">
         <v>237</v>
       </c>
-      <c r="H2" s="262"/>
-      <c r="I2" s="262" t="s">
+      <c r="H2" s="276"/>
+      <c r="I2" s="276" t="s">
         <v>238</v>
       </c>
-      <c r="J2" s="262"/>
-      <c r="L2" s="262" t="s">
+      <c r="J2" s="276"/>
+      <c r="L2" s="276" t="s">
         <v>234</v>
       </c>
-      <c r="M2" s="262"/>
-      <c r="N2" s="262" t="s">
+      <c r="M2" s="276"/>
+      <c r="N2" s="276" t="s">
         <v>235</v>
       </c>
-      <c r="O2" s="262"/>
-      <c r="P2" s="262" t="s">
+      <c r="O2" s="276"/>
+      <c r="P2" s="276" t="s">
         <v>236</v>
       </c>
-      <c r="Q2" s="262"/>
-      <c r="R2" s="262" t="s">
+      <c r="Q2" s="276"/>
+      <c r="R2" s="276" t="s">
         <v>237</v>
       </c>
-      <c r="S2" s="262"/>
-      <c r="T2" s="262" t="s">
+      <c r="S2" s="276"/>
+      <c r="T2" s="276" t="s">
         <v>238</v>
       </c>
-      <c r="U2" s="262"/>
+      <c r="U2" s="276"/>
     </row>
     <row r="3" spans="1:44" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="79" t="s">
@@ -22609,36 +24700,36 @@
       <c r="B3" s="79" t="s">
         <v>240</v>
       </c>
-      <c r="C3" s="263"/>
-      <c r="D3" s="264"/>
-      <c r="E3" s="263"/>
-      <c r="F3" s="264"/>
+      <c r="C3" s="277"/>
+      <c r="D3" s="278"/>
+      <c r="E3" s="277"/>
+      <c r="F3" s="278"/>
       <c r="G3" s="79" t="s">
         <v>239</v>
       </c>
       <c r="H3" s="79" t="s">
         <v>240</v>
       </c>
-      <c r="I3" s="263"/>
-      <c r="J3" s="264"/>
+      <c r="I3" s="277"/>
+      <c r="J3" s="278"/>
       <c r="L3" s="79" t="s">
         <v>239</v>
       </c>
       <c r="M3" s="79" t="s">
         <v>240</v>
       </c>
-      <c r="N3" s="263"/>
-      <c r="O3" s="264"/>
-      <c r="P3" s="263"/>
-      <c r="Q3" s="264"/>
+      <c r="N3" s="277"/>
+      <c r="O3" s="278"/>
+      <c r="P3" s="277"/>
+      <c r="Q3" s="278"/>
       <c r="R3" s="79" t="s">
         <v>239</v>
       </c>
       <c r="S3" s="79" t="s">
         <v>240</v>
       </c>
-      <c r="T3" s="263"/>
-      <c r="U3" s="264"/>
+      <c r="T3" s="277"/>
+      <c r="U3" s="278"/>
       <c r="W3" t="s">
         <v>241</v>
       </c>
@@ -22647,14 +24738,14 @@
       </c>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A4" s="256">
+      <c r="A4" s="270">
         <v>0.64709000000000005</v>
       </c>
-      <c r="B4" s="256"/>
-      <c r="C4" s="256">
+      <c r="B4" s="270"/>
+      <c r="C4" s="270">
         <v>0.97192999999999996</v>
       </c>
-      <c r="D4" s="256"/>
+      <c r="D4" s="270"/>
       <c r="E4" s="81"/>
       <c r="F4" s="81"/>
       <c r="G4" s="81"/>
@@ -22664,14 +24755,14 @@
       <c r="K4" s="80" t="s">
         <v>243</v>
       </c>
-      <c r="L4" s="256">
+      <c r="L4" s="270">
         <v>0.64709000000000005</v>
       </c>
-      <c r="M4" s="256"/>
-      <c r="N4" s="256">
+      <c r="M4" s="270"/>
+      <c r="N4" s="270">
         <v>0.97192999999999996</v>
       </c>
-      <c r="O4" s="256"/>
+      <c r="O4" s="270"/>
       <c r="P4" s="81"/>
       <c r="Q4" s="81"/>
       <c r="R4" s="81"/>
@@ -22689,14 +24780,14 @@
       </c>
     </row>
     <row r="5" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="261">
+      <c r="A5" s="275">
         <v>0.26545000000000002</v>
       </c>
-      <c r="B5" s="261"/>
-      <c r="C5" s="261">
+      <c r="B5" s="275"/>
+      <c r="C5" s="275">
         <v>0.39895999999999998</v>
       </c>
-      <c r="D5" s="261"/>
+      <c r="D5" s="275"/>
       <c r="E5" s="85"/>
       <c r="F5" s="85"/>
       <c r="G5" s="85"/>
@@ -22706,14 +24797,14 @@
       <c r="K5" s="84" t="s">
         <v>246</v>
       </c>
-      <c r="L5" s="261">
+      <c r="L5" s="275">
         <v>0.26545000000000002</v>
       </c>
-      <c r="M5" s="261"/>
-      <c r="N5" s="261">
+      <c r="M5" s="275"/>
+      <c r="N5" s="275">
         <v>0.39895999999999998</v>
       </c>
-      <c r="O5" s="261"/>
+      <c r="O5" s="275"/>
       <c r="P5" s="85"/>
       <c r="Q5" s="85"/>
       <c r="R5" s="85"/>
@@ -22737,10 +24828,10 @@
       <c r="B6" s="81">
         <v>0.25008999999999998</v>
       </c>
-      <c r="C6" s="256">
+      <c r="C6" s="270">
         <v>1</v>
       </c>
-      <c r="D6" s="256"/>
+      <c r="D6" s="270"/>
       <c r="E6" s="81"/>
       <c r="F6" s="81"/>
       <c r="G6" s="81"/>
@@ -22756,10 +24847,10 @@
       <c r="M6" s="81">
         <v>0.25008999999999998</v>
       </c>
-      <c r="N6" s="256">
+      <c r="N6" s="270">
         <v>1</v>
       </c>
-      <c r="O6" s="256"/>
+      <c r="O6" s="270"/>
       <c r="P6" s="81"/>
       <c r="Q6" s="81"/>
       <c r="R6" s="81"/>
@@ -22772,10 +24863,10 @@
       <c r="B7" s="85"/>
       <c r="C7" s="85"/>
       <c r="D7" s="85"/>
-      <c r="E7" s="261">
+      <c r="E7" s="275">
         <v>0.27488000000000001</v>
       </c>
-      <c r="F7" s="261"/>
+      <c r="F7" s="275"/>
       <c r="G7" s="85"/>
       <c r="H7" s="85"/>
       <c r="I7" s="85"/>
@@ -22787,10 +24878,10 @@
       <c r="M7" s="85"/>
       <c r="N7" s="85"/>
       <c r="O7" s="85"/>
-      <c r="P7" s="261">
+      <c r="P7" s="275">
         <v>0.27488000000000001</v>
       </c>
-      <c r="Q7" s="261"/>
+      <c r="Q7" s="275"/>
       <c r="R7" s="85"/>
       <c r="S7" s="85"/>
       <c r="T7" s="85"/>
@@ -22809,10 +24900,10 @@
       <c r="B8" s="81">
         <v>0.17752000000000001</v>
       </c>
-      <c r="C8" s="256">
+      <c r="C8" s="270">
         <v>0.72296000000000005</v>
       </c>
-      <c r="D8" s="256"/>
+      <c r="D8" s="270"/>
       <c r="E8" s="81"/>
       <c r="F8" s="81"/>
       <c r="G8" s="81"/>
@@ -22828,10 +24919,10 @@
       <c r="M8" s="81">
         <v>0.17752000000000001</v>
       </c>
-      <c r="N8" s="256">
+      <c r="N8" s="270">
         <v>0.72296000000000005</v>
       </c>
-      <c r="O8" s="256"/>
+      <c r="O8" s="270"/>
       <c r="P8" s="81"/>
       <c r="Q8" s="81"/>
       <c r="R8" s="81"/>
@@ -22847,10 +24938,10 @@
       <c r="B9" s="85"/>
       <c r="C9" s="85"/>
       <c r="D9" s="85"/>
-      <c r="E9" s="261">
+      <c r="E9" s="275">
         <v>0.36337000000000003</v>
       </c>
-      <c r="F9" s="261"/>
+      <c r="F9" s="275"/>
       <c r="G9" s="85"/>
       <c r="H9" s="85"/>
       <c r="I9" s="85"/>
@@ -22862,11 +24953,11 @@
       <c r="M9" s="85"/>
       <c r="N9" s="85"/>
       <c r="O9" s="85"/>
-      <c r="P9" s="261">
+      <c r="P9" s="275">
         <f>36.337%*1.21</f>
         <v>0.4396777</v>
       </c>
-      <c r="Q9" s="261"/>
+      <c r="Q9" s="275"/>
       <c r="R9" s="85"/>
       <c r="S9" s="85"/>
       <c r="T9" s="85"/>
@@ -22880,10 +24971,10 @@
         <v>0.65615999999999997</v>
       </c>
       <c r="B10" s="81"/>
-      <c r="C10" s="256">
+      <c r="C10" s="270">
         <v>0.78437000000000001</v>
       </c>
-      <c r="D10" s="256"/>
+      <c r="D10" s="270"/>
       <c r="E10" s="81"/>
       <c r="F10" s="81"/>
       <c r="G10" s="81"/>
@@ -22898,11 +24989,11 @@
         <v>0.69552959999999997</v>
       </c>
       <c r="M10" s="81"/>
-      <c r="N10" s="256">
+      <c r="N10" s="270">
         <f>78.437%*(1-0.09)</f>
         <v>0.71377670000000004</v>
       </c>
-      <c r="O10" s="256"/>
+      <c r="O10" s="270"/>
       <c r="P10" s="81"/>
       <c r="Q10" s="81"/>
       <c r="R10" s="81"/>
@@ -22918,10 +25009,10 @@
       <c r="B11" s="88"/>
       <c r="C11" s="88"/>
       <c r="D11" s="88"/>
-      <c r="E11" s="260">
+      <c r="E11" s="274">
         <v>0.1464</v>
       </c>
-      <c r="F11" s="260"/>
+      <c r="F11" s="274"/>
       <c r="G11" s="88"/>
       <c r="H11" s="88"/>
       <c r="I11" s="88"/>
@@ -22933,10 +25024,10 @@
       <c r="M11" s="88"/>
       <c r="N11" s="88"/>
       <c r="O11" s="88"/>
-      <c r="P11" s="260">
+      <c r="P11" s="274">
         <v>0.1464</v>
       </c>
-      <c r="Q11" s="260"/>
+      <c r="Q11" s="274"/>
       <c r="R11" s="88"/>
       <c r="S11" s="88"/>
       <c r="T11" s="88"/>
@@ -22981,14 +25072,14 @@
       </c>
     </row>
     <row r="13" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A13" s="256">
+      <c r="A13" s="270">
         <v>0.42514999999999997</v>
       </c>
-      <c r="B13" s="256"/>
-      <c r="C13" s="256">
+      <c r="B13" s="270"/>
+      <c r="C13" s="270">
         <v>0.85</v>
       </c>
-      <c r="D13" s="256"/>
+      <c r="D13" s="270"/>
       <c r="E13" s="81"/>
       <c r="F13" s="81"/>
       <c r="G13" s="81"/>
@@ -22998,14 +25089,14 @@
       <c r="K13" s="80" t="s">
         <v>260</v>
       </c>
-      <c r="L13" s="256">
+      <c r="L13" s="270">
         <v>0.42514999999999997</v>
       </c>
-      <c r="M13" s="256"/>
-      <c r="N13" s="256">
+      <c r="M13" s="270"/>
+      <c r="N13" s="270">
         <v>0.85</v>
       </c>
-      <c r="O13" s="256"/>
+      <c r="O13" s="270"/>
       <c r="P13" s="81"/>
       <c r="Q13" s="81"/>
       <c r="R13" s="81"/>
@@ -23038,10 +25129,10 @@
       <c r="B14" s="85"/>
       <c r="C14" s="85"/>
       <c r="D14" s="85"/>
-      <c r="E14" s="261">
+      <c r="E14" s="275">
         <v>0.23365</v>
       </c>
-      <c r="F14" s="261"/>
+      <c r="F14" s="275"/>
       <c r="G14" s="85"/>
       <c r="H14" s="85"/>
       <c r="I14" s="85"/>
@@ -23053,10 +25144,10 @@
       <c r="M14" s="85"/>
       <c r="N14" s="85"/>
       <c r="O14" s="85"/>
-      <c r="P14" s="261">
+      <c r="P14" s="275">
         <v>0.23365</v>
       </c>
-      <c r="Q14" s="261"/>
+      <c r="Q14" s="275"/>
       <c r="R14" s="85"/>
       <c r="S14" s="85"/>
       <c r="T14" s="85"/>
@@ -23094,10 +25185,10 @@
         <v>1</v>
       </c>
       <c r="B15" s="92"/>
-      <c r="C15" s="256">
+      <c r="C15" s="270">
         <v>0.51382000000000005</v>
       </c>
-      <c r="D15" s="256"/>
+      <c r="D15" s="270"/>
       <c r="E15" s="81"/>
       <c r="F15" s="81"/>
       <c r="G15" s="81"/>
@@ -23111,10 +25202,10 @@
         <v>1</v>
       </c>
       <c r="M15" s="92"/>
-      <c r="N15" s="256">
+      <c r="N15" s="270">
         <v>0.51382000000000005</v>
       </c>
-      <c r="O15" s="256"/>
+      <c r="O15" s="270"/>
       <c r="P15" s="81"/>
       <c r="Q15" s="81"/>
       <c r="R15" s="81"/>
@@ -23162,10 +25253,10 @@
       <c r="B16" s="88"/>
       <c r="C16" s="88"/>
       <c r="D16" s="88"/>
-      <c r="E16" s="260">
+      <c r="E16" s="274">
         <v>4.3869999999999999E-2</v>
       </c>
-      <c r="F16" s="260"/>
+      <c r="F16" s="274"/>
       <c r="G16" s="88"/>
       <c r="H16" s="88"/>
       <c r="I16" s="88"/>
@@ -23177,10 +25268,10 @@
       <c r="M16" s="88"/>
       <c r="N16" s="88"/>
       <c r="O16" s="88"/>
-      <c r="P16" s="260">
+      <c r="P16" s="274">
         <v>4.3869999999999999E-2</v>
       </c>
-      <c r="Q16" s="260"/>
+      <c r="Q16" s="274"/>
       <c r="R16" s="88"/>
       <c r="S16" s="88"/>
       <c r="T16" s="88"/>
@@ -23261,10 +25352,10 @@
         <v>0.91232999999999997</v>
       </c>
       <c r="B18" s="92"/>
-      <c r="C18" s="256">
+      <c r="C18" s="270">
         <v>0.46146999999999999</v>
       </c>
-      <c r="D18" s="256"/>
+      <c r="D18" s="270"/>
       <c r="E18" s="81"/>
       <c r="F18" s="81"/>
       <c r="G18" s="81"/>
@@ -23278,11 +25369,11 @@
         <v>0.91232999999999997</v>
       </c>
       <c r="M18" s="92"/>
-      <c r="N18" s="256">
+      <c r="N18" s="270">
         <f>46.147%*(1-0.08)</f>
         <v>0.4245524</v>
       </c>
-      <c r="O18" s="256"/>
+      <c r="O18" s="270"/>
       <c r="P18" s="81"/>
       <c r="Q18" s="81"/>
       <c r="R18" s="81"/>
@@ -23301,10 +25392,10 @@
       <c r="B19" s="88"/>
       <c r="C19" s="88"/>
       <c r="D19" s="88"/>
-      <c r="E19" s="260">
+      <c r="E19" s="274">
         <v>0.15035999999999999</v>
       </c>
-      <c r="F19" s="260"/>
+      <c r="F19" s="274"/>
       <c r="G19" s="88"/>
       <c r="H19" s="88"/>
       <c r="I19" s="88"/>
@@ -23316,10 +25407,10 @@
       <c r="M19" s="88"/>
       <c r="N19" s="88"/>
       <c r="O19" s="88"/>
-      <c r="P19" s="260">
+      <c r="P19" s="274">
         <v>0.15035999999999999</v>
       </c>
-      <c r="Q19" s="260"/>
+      <c r="Q19" s="274"/>
       <c r="R19" s="88"/>
       <c r="S19" s="88"/>
       <c r="T19" s="88"/>
@@ -23389,10 +25480,10 @@
         <v>0.69059999999999999</v>
       </c>
       <c r="B21" s="92"/>
-      <c r="C21" s="256">
+      <c r="C21" s="270">
         <v>0.38878000000000001</v>
       </c>
-      <c r="D21" s="256"/>
+      <c r="D21" s="270"/>
       <c r="E21" s="81"/>
       <c r="F21" s="81"/>
       <c r="G21" s="81"/>
@@ -23406,10 +25497,10 @@
         <v>0.69059999999999999</v>
       </c>
       <c r="M21" s="92"/>
-      <c r="N21" s="256">
+      <c r="N21" s="270">
         <v>0.38878000000000001</v>
       </c>
-      <c r="O21" s="256"/>
+      <c r="O21" s="270"/>
       <c r="P21" s="81"/>
       <c r="Q21" s="81"/>
       <c r="R21" s="81"/>
@@ -23431,10 +25522,10 @@
       <c r="B22" s="88"/>
       <c r="C22" s="88"/>
       <c r="D22" s="88"/>
-      <c r="E22" s="260">
+      <c r="E22" s="274">
         <v>0.2099</v>
       </c>
-      <c r="F22" s="260"/>
+      <c r="F22" s="274"/>
       <c r="G22" s="88"/>
       <c r="H22" s="88"/>
       <c r="I22" s="88"/>
@@ -23446,10 +25537,10 @@
       <c r="M22" s="88"/>
       <c r="N22" s="88"/>
       <c r="O22" s="88"/>
-      <c r="P22" s="260">
+      <c r="P22" s="274">
         <v>0.2099</v>
       </c>
-      <c r="Q22" s="260"/>
+      <c r="Q22" s="274"/>
       <c r="R22" s="88"/>
       <c r="S22" s="88"/>
       <c r="T22" s="88"/>
@@ -23513,10 +25604,10 @@
         <v>0.68315000000000003</v>
       </c>
       <c r="B24" s="92"/>
-      <c r="C24" s="256">
+      <c r="C24" s="270">
         <v>0.70006000000000002</v>
       </c>
-      <c r="D24" s="256"/>
+      <c r="D24" s="270"/>
       <c r="E24" s="81"/>
       <c r="F24" s="81"/>
       <c r="G24" s="81"/>
@@ -23530,10 +25621,10 @@
         <v>0.68315000000000003</v>
       </c>
       <c r="M24" s="92"/>
-      <c r="N24" s="256">
+      <c r="N24" s="270">
         <v>0.70006000000000002</v>
       </c>
-      <c r="O24" s="256"/>
+      <c r="O24" s="270"/>
       <c r="P24" s="81"/>
       <c r="Q24" s="81"/>
       <c r="R24" s="81"/>
@@ -23558,10 +25649,10 @@
       <c r="B25" s="88"/>
       <c r="C25" s="88"/>
       <c r="D25" s="88"/>
-      <c r="E25" s="260">
+      <c r="E25" s="274">
         <v>0.152</v>
       </c>
-      <c r="F25" s="260"/>
+      <c r="F25" s="274"/>
       <c r="G25" s="88"/>
       <c r="H25" s="88"/>
       <c r="I25" s="88"/>
@@ -23573,10 +25664,10 @@
       <c r="M25" s="88"/>
       <c r="N25" s="88"/>
       <c r="O25" s="88"/>
-      <c r="P25" s="260">
+      <c r="P25" s="274">
         <v>0.152</v>
       </c>
-      <c r="Q25" s="260"/>
+      <c r="Q25" s="274"/>
       <c r="R25" s="88"/>
       <c r="S25" s="88"/>
       <c r="T25" s="88"/>
@@ -23639,16 +25730,16 @@
       <c r="B27" s="81">
         <v>9.2719999999999997E-2</v>
       </c>
-      <c r="C27" s="256">
+      <c r="C27" s="270">
         <v>0.42459999999999998</v>
       </c>
-      <c r="D27" s="256"/>
+      <c r="D27" s="270"/>
       <c r="E27" s="81"/>
       <c r="F27" s="81"/>
       <c r="G27" s="81"/>
       <c r="H27" s="81"/>
-      <c r="I27" s="249"/>
-      <c r="J27" s="251"/>
+      <c r="I27" s="263"/>
+      <c r="J27" s="265"/>
       <c r="K27" s="80" t="s">
         <v>292</v>
       </c>
@@ -23658,16 +25749,16 @@
       <c r="M27" s="81">
         <v>9.2719999999999997E-2</v>
       </c>
-      <c r="N27" s="256">
+      <c r="N27" s="270">
         <v>0.42459999999999998</v>
       </c>
-      <c r="O27" s="256"/>
+      <c r="O27" s="270"/>
       <c r="P27" s="81"/>
       <c r="Q27" s="81"/>
       <c r="R27" s="81"/>
       <c r="S27" s="81"/>
-      <c r="T27" s="249"/>
-      <c r="U27" s="251"/>
+      <c r="T27" s="263"/>
+      <c r="U27" s="265"/>
       <c r="W27" t="s">
         <v>415</v>
       </c>
@@ -23683,14 +25774,14 @@
       <c r="B28" s="88"/>
       <c r="C28" s="88"/>
       <c r="D28" s="88"/>
-      <c r="E28" s="260">
+      <c r="E28" s="274">
         <v>1</v>
       </c>
-      <c r="F28" s="260"/>
+      <c r="F28" s="274"/>
       <c r="G28" s="88"/>
       <c r="H28" s="88"/>
-      <c r="I28" s="252"/>
-      <c r="J28" s="253"/>
+      <c r="I28" s="266"/>
+      <c r="J28" s="267"/>
       <c r="K28" s="87" t="s">
         <v>295</v>
       </c>
@@ -23698,14 +25789,14 @@
       <c r="M28" s="88"/>
       <c r="N28" s="88"/>
       <c r="O28" s="88"/>
-      <c r="P28" s="260">
+      <c r="P28" s="274">
         <v>1</v>
       </c>
-      <c r="Q28" s="260"/>
+      <c r="Q28" s="274"/>
       <c r="R28" s="88"/>
       <c r="S28" s="88"/>
-      <c r="T28" s="252"/>
-      <c r="U28" s="253"/>
+      <c r="T28" s="266"/>
+      <c r="U28" s="267"/>
       <c r="W28" t="s">
         <v>418</v>
       </c>
@@ -23735,10 +25826,10 @@
       <c r="Q29" s="90"/>
       <c r="R29" s="85"/>
       <c r="S29" s="85"/>
-      <c r="T29" s="254">
+      <c r="T29" s="268">
         <v>0.21</v>
       </c>
-      <c r="U29" s="255"/>
+      <c r="U29" s="269"/>
       <c r="W29" t="s">
         <v>420</v>
       </c>
@@ -23759,10 +25850,10 @@
       <c r="H30" s="85">
         <v>0.1226</v>
       </c>
-      <c r="I30" s="254">
+      <c r="I30" s="268">
         <v>0.34044000000000002</v>
       </c>
-      <c r="J30" s="255"/>
+      <c r="J30" s="269"/>
       <c r="K30" s="84" t="s">
         <v>298</v>
       </c>
@@ -23778,11 +25869,11 @@
       <c r="S30" s="85">
         <v>0.14255813953488372</v>
       </c>
-      <c r="T30" s="254">
+      <c r="T30" s="268">
         <f>34.044%*1.05</f>
         <v>0.357462</v>
       </c>
-      <c r="U30" s="255"/>
+      <c r="U30" s="269"/>
       <c r="W30" t="s">
         <v>422</v>
       </c>
@@ -23803,16 +25894,16 @@
       <c r="B31" s="81">
         <v>0.13719000000000001</v>
       </c>
-      <c r="C31" s="256">
+      <c r="C31" s="270">
         <v>0.62792999999999999</v>
       </c>
-      <c r="D31" s="256"/>
+      <c r="D31" s="270"/>
       <c r="E31" s="81"/>
       <c r="F31" s="81"/>
       <c r="G31" s="81"/>
       <c r="H31" s="81"/>
-      <c r="I31" s="249"/>
-      <c r="J31" s="251"/>
+      <c r="I31" s="263"/>
+      <c r="J31" s="265"/>
       <c r="K31" s="80" t="s">
         <v>300</v>
       </c>
@@ -23822,16 +25913,16 @@
       <c r="M31" s="81">
         <v>0.13719000000000001</v>
       </c>
-      <c r="N31" s="256">
+      <c r="N31" s="270">
         <v>0.62792999999999999</v>
       </c>
-      <c r="O31" s="256"/>
+      <c r="O31" s="270"/>
       <c r="P31" s="81"/>
       <c r="Q31" s="81"/>
       <c r="R31" s="81"/>
       <c r="S31" s="81"/>
-      <c r="T31" s="249"/>
-      <c r="U31" s="251"/>
+      <c r="T31" s="263"/>
+      <c r="U31" s="265"/>
       <c r="W31" t="s">
         <v>426</v>
       </c>
@@ -23867,10 +25958,10 @@
       <c r="Q32" s="103"/>
       <c r="R32" s="103"/>
       <c r="S32" s="103"/>
-      <c r="T32" s="254">
+      <c r="T32" s="268">
         <v>0.12</v>
       </c>
-      <c r="U32" s="255"/>
+      <c r="U32" s="269"/>
       <c r="W32" t="s">
         <v>430</v>
       </c>
@@ -23897,10 +25988,10 @@
       <c r="H33" s="85">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="I33" s="254">
+      <c r="I33" s="268">
         <v>0.23748</v>
       </c>
-      <c r="J33" s="255"/>
+      <c r="J33" s="269"/>
       <c r="K33" s="84" t="s">
         <v>303</v>
       </c>
@@ -23916,11 +26007,11 @@
       <c r="S33" s="85">
         <v>6.8837209302325592E-2</v>
       </c>
-      <c r="T33" s="254">
+      <c r="T33" s="268">
         <f>23.748%*0.8</f>
         <v>0.18998400000000004</v>
       </c>
-      <c r="U33" s="255"/>
+      <c r="U33" s="269"/>
       <c r="W33" t="s">
         <v>434</v>
       </c>
@@ -23941,16 +26032,16 @@
       <c r="B34" s="81">
         <v>5.6059999999999999E-2</v>
       </c>
-      <c r="C34" s="256">
+      <c r="C34" s="270">
         <v>0.23462</v>
       </c>
-      <c r="D34" s="256"/>
+      <c r="D34" s="270"/>
       <c r="E34" s="81"/>
       <c r="F34" s="81"/>
       <c r="G34" s="81"/>
       <c r="H34" s="81"/>
-      <c r="I34" s="249"/>
-      <c r="J34" s="251"/>
+      <c r="I34" s="263"/>
+      <c r="J34" s="265"/>
       <c r="K34" s="80" t="s">
         <v>305</v>
       </c>
@@ -23962,17 +26053,17 @@
         <f>5.606%*0.75</f>
         <v>4.2044999999999999E-2</v>
       </c>
-      <c r="N34" s="256">
+      <c r="N34" s="270">
         <f>23.462%*0.75</f>
         <v>0.17596499999999998</v>
       </c>
-      <c r="O34" s="256"/>
+      <c r="O34" s="270"/>
       <c r="P34" s="81"/>
       <c r="Q34" s="81"/>
       <c r="R34" s="81"/>
       <c r="S34" s="81"/>
-      <c r="T34" s="249"/>
-      <c r="U34" s="251"/>
+      <c r="T34" s="263"/>
+      <c r="U34" s="265"/>
       <c r="W34" t="s">
         <v>438</v>
       </c>
@@ -24008,10 +26099,10 @@
       <c r="Q35" s="103"/>
       <c r="R35" s="103"/>
       <c r="S35" s="103"/>
-      <c r="T35" s="254">
+      <c r="T35" s="268">
         <v>0.31</v>
       </c>
-      <c r="U35" s="255"/>
+      <c r="U35" s="269"/>
       <c r="W35" t="s">
         <v>442</v>
       </c>
@@ -24032,10 +26123,10 @@
       <c r="H36" s="85">
         <v>0.11894</v>
       </c>
-      <c r="I36" s="254">
+      <c r="I36" s="268">
         <v>0.50244</v>
       </c>
-      <c r="J36" s="255"/>
+      <c r="J36" s="269"/>
       <c r="K36" s="84" t="s">
         <v>307</v>
       </c>
@@ -24051,11 +26142,11 @@
       <c r="S36" s="85">
         <v>0.13830232558139535</v>
       </c>
-      <c r="T36" s="254">
+      <c r="T36" s="268">
         <f>50.244%*1.05</f>
         <v>0.52756199999999998</v>
       </c>
-      <c r="U36" s="255"/>
+      <c r="U36" s="269"/>
       <c r="AC36" t="s">
         <v>444</v>
       </c>
@@ -24065,14 +26156,14 @@
       <c r="B37" s="94"/>
       <c r="C37" s="94"/>
       <c r="D37" s="94"/>
-      <c r="E37" s="257">
+      <c r="E37" s="271">
         <v>0.94696999999999998</v>
       </c>
-      <c r="F37" s="257"/>
+      <c r="F37" s="271"/>
       <c r="G37" s="94"/>
       <c r="H37" s="94"/>
-      <c r="I37" s="258"/>
-      <c r="J37" s="259"/>
+      <c r="I37" s="272"/>
+      <c r="J37" s="273"/>
       <c r="K37" s="93" t="s">
         <v>309</v>
       </c>
@@ -24080,54 +26171,54 @@
       <c r="M37" s="94"/>
       <c r="N37" s="94"/>
       <c r="O37" s="94"/>
-      <c r="P37" s="257">
+      <c r="P37" s="271">
         <v>0.94696999999999998</v>
       </c>
-      <c r="Q37" s="257"/>
+      <c r="Q37" s="271"/>
       <c r="R37" s="94"/>
       <c r="S37" s="94"/>
-      <c r="T37" s="258"/>
-      <c r="U37" s="259"/>
-      <c r="W37" s="265" t="s">
+      <c r="T37" s="272"/>
+      <c r="U37" s="273"/>
+      <c r="W37" s="279" t="s">
         <v>261</v>
       </c>
-      <c r="X37" s="265"/>
+      <c r="X37" s="279"/>
       <c r="AC37" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="38" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A38" s="256">
+      <c r="A38" s="270">
         <v>0.15762999999999999</v>
       </c>
-      <c r="B38" s="256"/>
-      <c r="C38" s="256">
+      <c r="B38" s="270"/>
+      <c r="C38" s="270">
         <v>0.36070000000000002</v>
       </c>
-      <c r="D38" s="256"/>
+      <c r="D38" s="270"/>
       <c r="E38" s="81"/>
       <c r="F38" s="81"/>
       <c r="G38" s="81"/>
       <c r="H38" s="81"/>
-      <c r="I38" s="249"/>
-      <c r="J38" s="251"/>
+      <c r="I38" s="263"/>
+      <c r="J38" s="265"/>
       <c r="K38" s="80" t="s">
         <v>310</v>
       </c>
-      <c r="L38" s="256">
+      <c r="L38" s="270">
         <v>0.15762999999999999</v>
       </c>
-      <c r="M38" s="256"/>
-      <c r="N38" s="256">
+      <c r="M38" s="270"/>
+      <c r="N38" s="270">
         <v>0.36070000000000002</v>
       </c>
-      <c r="O38" s="256"/>
+      <c r="O38" s="270"/>
       <c r="P38" s="81"/>
       <c r="Q38" s="81"/>
       <c r="R38" s="81"/>
       <c r="S38" s="81"/>
-      <c r="T38" s="249"/>
-      <c r="U38" s="251"/>
+      <c r="T38" s="263"/>
+      <c r="U38" s="265"/>
       <c r="AC38" t="s">
         <v>446</v>
       </c>
@@ -24137,14 +26228,14 @@
       <c r="B39" s="88"/>
       <c r="C39" s="88"/>
       <c r="D39" s="88"/>
-      <c r="E39" s="260">
+      <c r="E39" s="274">
         <v>0.85</v>
       </c>
-      <c r="F39" s="260"/>
+      <c r="F39" s="274"/>
       <c r="G39" s="88"/>
       <c r="H39" s="88"/>
-      <c r="I39" s="252"/>
-      <c r="J39" s="253"/>
+      <c r="I39" s="266"/>
+      <c r="J39" s="267"/>
       <c r="K39" s="87" t="s">
         <v>311</v>
       </c>
@@ -24152,14 +26243,14 @@
       <c r="M39" s="88"/>
       <c r="N39" s="88"/>
       <c r="O39" s="88"/>
-      <c r="P39" s="260">
+      <c r="P39" s="274">
         <v>0.85</v>
       </c>
-      <c r="Q39" s="260"/>
+      <c r="Q39" s="274"/>
       <c r="R39" s="88"/>
       <c r="S39" s="88"/>
-      <c r="T39" s="252"/>
-      <c r="U39" s="253"/>
+      <c r="T39" s="266"/>
+      <c r="U39" s="267"/>
       <c r="W39" t="s">
         <v>241</v>
       </c>
@@ -24178,10 +26269,10 @@
         <v>0.20784</v>
       </c>
       <c r="H40" s="85"/>
-      <c r="I40" s="254">
+      <c r="I40" s="268">
         <v>0.28937000000000002</v>
       </c>
-      <c r="J40" s="255"/>
+      <c r="J40" s="269"/>
       <c r="K40" s="84" t="s">
         <v>313</v>
       </c>
@@ -24195,10 +26286,10 @@
         <v>0.24167441860465114</v>
       </c>
       <c r="S40" s="85"/>
-      <c r="T40" s="254">
+      <c r="T40" s="268">
         <v>0.28937000000000002</v>
       </c>
-      <c r="U40" s="255"/>
+      <c r="U40" s="269"/>
       <c r="W40" t="s">
         <v>244</v>
       </c>
@@ -24207,37 +26298,37 @@
       </c>
     </row>
     <row r="41" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A41" s="256">
+      <c r="A41" s="270">
         <v>0.20368</v>
       </c>
-      <c r="B41" s="256"/>
-      <c r="C41" s="256">
+      <c r="B41" s="270"/>
+      <c r="C41" s="270">
         <v>0.33767000000000003</v>
       </c>
-      <c r="D41" s="256"/>
+      <c r="D41" s="270"/>
       <c r="E41" s="81"/>
       <c r="F41" s="81"/>
       <c r="G41" s="81"/>
       <c r="H41" s="81"/>
-      <c r="I41" s="249"/>
-      <c r="J41" s="251"/>
+      <c r="I41" s="263"/>
+      <c r="J41" s="265"/>
       <c r="K41" s="80" t="s">
         <v>315</v>
       </c>
-      <c r="L41" s="256">
+      <c r="L41" s="270">
         <v>0.20368</v>
       </c>
-      <c r="M41" s="256"/>
-      <c r="N41" s="256">
+      <c r="M41" s="270"/>
+      <c r="N41" s="270">
         <v>0.33767000000000003</v>
       </c>
-      <c r="O41" s="256"/>
+      <c r="O41" s="270"/>
       <c r="P41" s="81"/>
       <c r="Q41" s="81"/>
       <c r="R41" s="81"/>
       <c r="S41" s="81"/>
-      <c r="T41" s="249"/>
-      <c r="U41" s="251"/>
+      <c r="T41" s="263"/>
+      <c r="U41" s="265"/>
       <c r="W41" t="s">
         <v>247</v>
       </c>
@@ -24250,14 +26341,14 @@
       <c r="B42" s="88"/>
       <c r="C42" s="88"/>
       <c r="D42" s="88"/>
-      <c r="E42" s="260">
+      <c r="E42" s="274">
         <v>0.89815999999999996</v>
       </c>
-      <c r="F42" s="260"/>
+      <c r="F42" s="274"/>
       <c r="G42" s="88"/>
       <c r="H42" s="88"/>
-      <c r="I42" s="252"/>
-      <c r="J42" s="253"/>
+      <c r="I42" s="266"/>
+      <c r="J42" s="267"/>
       <c r="K42" s="87" t="s">
         <v>317</v>
       </c>
@@ -24265,14 +26356,14 @@
       <c r="M42" s="88"/>
       <c r="N42" s="88"/>
       <c r="O42" s="88"/>
-      <c r="P42" s="260">
+      <c r="P42" s="274">
         <v>0.89815999999999996</v>
       </c>
-      <c r="Q42" s="260"/>
+      <c r="Q42" s="274"/>
       <c r="R42" s="88"/>
       <c r="S42" s="88"/>
-      <c r="T42" s="252"/>
-      <c r="U42" s="253"/>
+      <c r="T42" s="266"/>
+      <c r="U42" s="267"/>
       <c r="AC42" t="s">
         <v>450</v>
       </c>
@@ -24288,8 +26379,8 @@
         <v>0.57364000000000004</v>
       </c>
       <c r="H43" s="88"/>
-      <c r="I43" s="252"/>
-      <c r="J43" s="253"/>
+      <c r="I43" s="266"/>
+      <c r="J43" s="267"/>
       <c r="K43" s="87" t="s">
         <v>319</v>
       </c>
@@ -24303,8 +26394,8 @@
         <v>0.6670232558139535</v>
       </c>
       <c r="S43" s="88"/>
-      <c r="T43" s="252"/>
-      <c r="U43" s="253"/>
+      <c r="T43" s="266"/>
+      <c r="U43" s="267"/>
       <c r="W43" t="s">
         <v>256</v>
       </c>
@@ -24323,10 +26414,10 @@
         <v>0.26422000000000001</v>
       </c>
       <c r="H44" s="85"/>
-      <c r="I44" s="254">
+      <c r="I44" s="268">
         <v>0.2399</v>
       </c>
-      <c r="J44" s="255"/>
+      <c r="J44" s="269"/>
       <c r="K44" s="84" t="s">
         <v>321</v>
       </c>
@@ -24340,11 +26431,11 @@
         <v>0.30723255813953487</v>
       </c>
       <c r="S44" s="85"/>
-      <c r="T44" s="254">
+      <c r="T44" s="268">
         <f>23.99%*1.06</f>
         <v>0.25429399999999996</v>
       </c>
-      <c r="U44" s="255"/>
+      <c r="U44" s="269"/>
       <c r="W44" t="s">
         <v>258</v>
       </c>
@@ -24357,16 +26448,16 @@
         <v>0.34708</v>
       </c>
       <c r="B45" s="92"/>
-      <c r="C45" s="256">
+      <c r="C45" s="270">
         <v>0.20830000000000001</v>
       </c>
-      <c r="D45" s="256"/>
+      <c r="D45" s="270"/>
       <c r="E45" s="81"/>
       <c r="F45" s="81"/>
       <c r="G45" s="81"/>
       <c r="H45" s="81"/>
-      <c r="I45" s="249"/>
-      <c r="J45" s="251"/>
+      <c r="I45" s="263"/>
+      <c r="J45" s="265"/>
       <c r="K45" s="80" t="s">
         <v>322</v>
       </c>
@@ -24374,16 +26465,16 @@
         <v>0.34708</v>
       </c>
       <c r="M45" s="92"/>
-      <c r="N45" s="256">
+      <c r="N45" s="270">
         <v>0.20830000000000001</v>
       </c>
-      <c r="O45" s="256"/>
+      <c r="O45" s="270"/>
       <c r="P45" s="81"/>
       <c r="Q45" s="81"/>
       <c r="R45" s="81"/>
       <c r="S45" s="81"/>
-      <c r="T45" s="249"/>
-      <c r="U45" s="251"/>
+      <c r="T45" s="263"/>
+      <c r="U45" s="265"/>
       <c r="AC45" t="s">
         <v>453</v>
       </c>
@@ -24393,14 +26484,14 @@
       <c r="B46" s="88"/>
       <c r="C46" s="88"/>
       <c r="D46" s="88"/>
-      <c r="E46" s="260">
+      <c r="E46" s="274">
         <v>0.52559999999999996</v>
       </c>
-      <c r="F46" s="260"/>
+      <c r="F46" s="274"/>
       <c r="G46" s="88"/>
       <c r="H46" s="88"/>
-      <c r="I46" s="252"/>
-      <c r="J46" s="253"/>
+      <c r="I46" s="266"/>
+      <c r="J46" s="267"/>
       <c r="K46" s="87" t="s">
         <v>323</v>
       </c>
@@ -24408,14 +26499,14 @@
       <c r="M46" s="88"/>
       <c r="N46" s="88"/>
       <c r="O46" s="88"/>
-      <c r="P46" s="260">
+      <c r="P46" s="274">
         <v>0.52559999999999996</v>
       </c>
-      <c r="Q46" s="260"/>
+      <c r="Q46" s="274"/>
       <c r="R46" s="88"/>
       <c r="S46" s="88"/>
-      <c r="T46" s="252"/>
-      <c r="U46" s="253"/>
+      <c r="T46" s="266"/>
+      <c r="U46" s="267"/>
       <c r="W46" t="s">
         <v>373</v>
       </c>
@@ -24434,8 +26525,8 @@
         <v>0.84328000000000003</v>
       </c>
       <c r="H47" s="88"/>
-      <c r="I47" s="252"/>
-      <c r="J47" s="253"/>
+      <c r="I47" s="266"/>
+      <c r="J47" s="267"/>
       <c r="K47" s="87" t="s">
         <v>324</v>
       </c>
@@ -24449,8 +26540,8 @@
         <v>0.85308558139534874</v>
       </c>
       <c r="S47" s="88"/>
-      <c r="T47" s="252"/>
-      <c r="U47" s="253"/>
+      <c r="T47" s="266"/>
+      <c r="U47" s="267"/>
     </row>
     <row r="48" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="85"/>
@@ -24463,10 +26554,10 @@
         <v>0.23543</v>
       </c>
       <c r="H48" s="85"/>
-      <c r="I48" s="254">
+      <c r="I48" s="268">
         <v>0.13220000000000001</v>
       </c>
-      <c r="J48" s="255"/>
+      <c r="J48" s="269"/>
       <c r="K48" s="84" t="s">
         <v>326</v>
       </c>
@@ -24480,11 +26571,11 @@
         <v>0.27375581395348836</v>
       </c>
       <c r="S48" s="85"/>
-      <c r="T48" s="254">
+      <c r="T48" s="268">
         <f>13.22%*1.16</f>
         <v>0.15335200000000002</v>
       </c>
-      <c r="U48" s="255"/>
+      <c r="U48" s="269"/>
       <c r="W48" t="s">
         <v>455</v>
       </c>
@@ -24497,14 +26588,14 @@
       <c r="B49" s="94"/>
       <c r="C49" s="94"/>
       <c r="D49" s="94"/>
-      <c r="E49" s="257">
+      <c r="E49" s="271">
         <v>0.43773000000000001</v>
       </c>
-      <c r="F49" s="257"/>
+      <c r="F49" s="271"/>
       <c r="G49" s="94"/>
       <c r="H49" s="94"/>
-      <c r="I49" s="258"/>
-      <c r="J49" s="259"/>
+      <c r="I49" s="272"/>
+      <c r="J49" s="273"/>
       <c r="K49" s="93" t="s">
         <v>367</v>
       </c>
@@ -24512,14 +26603,14 @@
       <c r="M49" s="94"/>
       <c r="N49" s="94"/>
       <c r="O49" s="94"/>
-      <c r="P49" s="257">
+      <c r="P49" s="271">
         <v>0.43773000000000001</v>
       </c>
-      <c r="Q49" s="257"/>
+      <c r="Q49" s="271"/>
       <c r="R49" s="94"/>
       <c r="S49" s="94"/>
-      <c r="T49" s="258"/>
-      <c r="U49" s="259"/>
+      <c r="T49" s="272"/>
+      <c r="U49" s="273"/>
       <c r="V49" s="40"/>
       <c r="W49" t="s">
         <v>457</v>
@@ -24530,16 +26621,16 @@
         <v>0.47361999999999999</v>
       </c>
       <c r="B50" s="92"/>
-      <c r="C50" s="256">
+      <c r="C50" s="270">
         <v>0.28101999999999999</v>
       </c>
-      <c r="D50" s="256"/>
+      <c r="D50" s="270"/>
       <c r="E50" s="81"/>
       <c r="F50" s="81"/>
       <c r="G50" s="81"/>
       <c r="H50" s="81"/>
-      <c r="I50" s="249"/>
-      <c r="J50" s="251"/>
+      <c r="I50" s="263"/>
+      <c r="J50" s="265"/>
       <c r="K50" s="80" t="s">
         <v>328</v>
       </c>
@@ -24547,23 +26638,23 @@
         <v>0.47361999999999999</v>
       </c>
       <c r="M50" s="92"/>
-      <c r="N50" s="256">
+      <c r="N50" s="270">
         <v>0.28101999999999999</v>
       </c>
-      <c r="O50" s="256"/>
+      <c r="O50" s="270"/>
       <c r="P50" s="81"/>
       <c r="Q50" s="81"/>
       <c r="R50" s="81"/>
       <c r="S50" s="81"/>
-      <c r="T50" s="249"/>
-      <c r="U50" s="251"/>
+      <c r="T50" s="263"/>
+      <c r="U50" s="265"/>
       <c r="W50" t="s">
         <v>458</v>
       </c>
-      <c r="AC50" s="265" t="s">
+      <c r="AC50" s="279" t="s">
         <v>251</v>
       </c>
-      <c r="AD50" s="265"/>
+      <c r="AD50" s="279"/>
     </row>
     <row r="51" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A51" s="88"/>
@@ -24576,8 +26667,8 @@
         <v>0.71950000000000003</v>
       </c>
       <c r="H51" s="88"/>
-      <c r="I51" s="252"/>
-      <c r="J51" s="253"/>
+      <c r="I51" s="266"/>
+      <c r="J51" s="267"/>
       <c r="K51" s="87" t="s">
         <v>329</v>
       </c>
@@ -24591,8 +26682,8 @@
         <v>0.66930232558139535</v>
       </c>
       <c r="S51" s="88"/>
-      <c r="T51" s="252"/>
-      <c r="U51" s="253"/>
+      <c r="T51" s="266"/>
+      <c r="U51" s="267"/>
       <c r="W51" t="s">
         <v>459</v>
       </c>
@@ -24608,10 +26699,10 @@
         <v>0.20451</v>
       </c>
       <c r="H52" s="85"/>
-      <c r="I52" s="254">
+      <c r="I52" s="268">
         <v>9.1600000000000001E-2</v>
       </c>
-      <c r="J52" s="255"/>
+      <c r="J52" s="269"/>
       <c r="K52" s="84" t="s">
         <v>331</v>
       </c>
@@ -24625,10 +26716,10 @@
         <v>0.23780232558139536</v>
       </c>
       <c r="S52" s="85"/>
-      <c r="T52" s="254">
+      <c r="T52" s="268">
         <v>9.1600000000000001E-2</v>
       </c>
-      <c r="U52" s="255"/>
+      <c r="U52" s="269"/>
       <c r="W52" t="s">
         <v>460</v>
       </c>
@@ -24641,16 +26732,16 @@
         <v>0.17321</v>
       </c>
       <c r="B53" s="92"/>
-      <c r="C53" s="256">
+      <c r="C53" s="270">
         <v>9.2929999999999999E-2</v>
       </c>
-      <c r="D53" s="256"/>
+      <c r="D53" s="270"/>
       <c r="E53" s="81"/>
       <c r="F53" s="81"/>
       <c r="G53" s="81"/>
       <c r="H53" s="81"/>
-      <c r="I53" s="249"/>
-      <c r="J53" s="251"/>
+      <c r="I53" s="263"/>
+      <c r="J53" s="265"/>
       <c r="K53" s="80" t="s">
         <v>333</v>
       </c>
@@ -24658,17 +26749,17 @@
         <v>0.17321</v>
       </c>
       <c r="M53" s="92"/>
-      <c r="N53" s="256">
+      <c r="N53" s="270">
         <f>9.293%*0.8</f>
         <v>7.4344000000000007E-2</v>
       </c>
-      <c r="O53" s="256"/>
+      <c r="O53" s="270"/>
       <c r="P53" s="81"/>
       <c r="Q53" s="81"/>
       <c r="R53" s="81"/>
       <c r="S53" s="81"/>
-      <c r="T53" s="249"/>
-      <c r="U53" s="251"/>
+      <c r="T53" s="263"/>
+      <c r="U53" s="265"/>
       <c r="W53" t="s">
         <v>461</v>
       </c>
@@ -24687,8 +26778,8 @@
         <v>1</v>
       </c>
       <c r="H54" s="88"/>
-      <c r="I54" s="252"/>
-      <c r="J54" s="253"/>
+      <c r="I54" s="266"/>
+      <c r="J54" s="267"/>
       <c r="K54" s="87" t="s">
         <v>335</v>
       </c>
@@ -24702,8 +26793,8 @@
         <v>1</v>
       </c>
       <c r="S54" s="88"/>
-      <c r="T54" s="252"/>
-      <c r="U54" s="253"/>
+      <c r="T54" s="266"/>
+      <c r="U54" s="267"/>
       <c r="W54" t="s">
         <v>462</v>
       </c>
@@ -24722,10 +26813,10 @@
         <v>0.26967000000000002</v>
       </c>
       <c r="H55" s="85"/>
-      <c r="I55" s="254">
+      <c r="I55" s="268">
         <v>0.1535</v>
       </c>
-      <c r="J55" s="255"/>
+      <c r="J55" s="269"/>
       <c r="K55" s="84" t="s">
         <v>337</v>
       </c>
@@ -24739,10 +26830,10 @@
         <v>0.31356976744186049</v>
       </c>
       <c r="S55" s="85"/>
-      <c r="T55" s="254">
+      <c r="T55" s="268">
         <v>0.1535</v>
       </c>
-      <c r="U55" s="255"/>
+      <c r="U55" s="269"/>
       <c r="V55" s="40"/>
       <c r="W55" t="s">
         <v>463</v>
@@ -24753,14 +26844,14 @@
       <c r="B56" s="94"/>
       <c r="C56" s="94"/>
       <c r="D56" s="94"/>
-      <c r="E56" s="257">
+      <c r="E56" s="271">
         <v>0.43773000000000001</v>
       </c>
-      <c r="F56" s="257"/>
+      <c r="F56" s="271"/>
       <c r="G56" s="94"/>
       <c r="H56" s="94"/>
-      <c r="I56" s="258"/>
-      <c r="J56" s="259"/>
+      <c r="I56" s="272"/>
+      <c r="J56" s="273"/>
       <c r="K56" s="93" t="s">
         <v>368</v>
       </c>
@@ -24768,15 +26859,15 @@
       <c r="M56" s="94"/>
       <c r="N56" s="94"/>
       <c r="O56" s="94"/>
-      <c r="P56" s="257">
+      <c r="P56" s="271">
         <f>43.773%*0.8</f>
         <v>0.35018400000000005</v>
       </c>
-      <c r="Q56" s="257"/>
+      <c r="Q56" s="271"/>
       <c r="R56" s="94"/>
       <c r="S56" s="94"/>
-      <c r="T56" s="258"/>
-      <c r="U56" s="259"/>
+      <c r="T56" s="272"/>
+      <c r="U56" s="273"/>
       <c r="V56" s="40"/>
       <c r="W56" t="s">
         <v>464</v>
@@ -24790,16 +26881,16 @@
         <v>0.28996</v>
       </c>
       <c r="B57" s="92"/>
-      <c r="C57" s="256">
+      <c r="C57" s="270">
         <v>0.25344</v>
       </c>
-      <c r="D57" s="256"/>
+      <c r="D57" s="270"/>
       <c r="E57" s="81"/>
       <c r="F57" s="81"/>
       <c r="G57" s="81"/>
       <c r="H57" s="81"/>
-      <c r="I57" s="249"/>
-      <c r="J57" s="251"/>
+      <c r="I57" s="263"/>
+      <c r="J57" s="265"/>
       <c r="K57" s="80" t="s">
         <v>340</v>
       </c>
@@ -24807,16 +26898,16 @@
         <v>0.28996</v>
       </c>
       <c r="M57" s="92"/>
-      <c r="N57" s="256">
+      <c r="N57" s="270">
         <v>0.25344</v>
       </c>
-      <c r="O57" s="256"/>
+      <c r="O57" s="270"/>
       <c r="P57" s="81"/>
       <c r="Q57" s="81"/>
       <c r="R57" s="81"/>
       <c r="S57" s="81"/>
-      <c r="T57" s="249"/>
-      <c r="U57" s="251"/>
+      <c r="T57" s="263"/>
+      <c r="U57" s="265"/>
       <c r="V57" s="40"/>
       <c r="W57" t="s">
         <v>466</v>
@@ -24827,14 +26918,14 @@
       <c r="B58" s="88"/>
       <c r="C58" s="88"/>
       <c r="D58" s="88"/>
-      <c r="E58" s="260">
+      <c r="E58" s="274">
         <v>0.65949000000000002</v>
       </c>
-      <c r="F58" s="260"/>
+      <c r="F58" s="274"/>
       <c r="G58" s="88"/>
       <c r="H58" s="88"/>
-      <c r="I58" s="252"/>
-      <c r="J58" s="253"/>
+      <c r="I58" s="266"/>
+      <c r="J58" s="267"/>
       <c r="K58" s="87" t="s">
         <v>342</v>
       </c>
@@ -24842,15 +26933,15 @@
       <c r="M58" s="88"/>
       <c r="N58" s="88"/>
       <c r="O58" s="88"/>
-      <c r="P58" s="260">
+      <c r="P58" s="274">
         <f>65.949%*1.1</f>
         <v>0.72543900000000006</v>
       </c>
-      <c r="Q58" s="260"/>
+      <c r="Q58" s="274"/>
       <c r="R58" s="88"/>
       <c r="S58" s="88"/>
-      <c r="T58" s="252"/>
-      <c r="U58" s="253"/>
+      <c r="T58" s="266"/>
+      <c r="U58" s="267"/>
       <c r="V58" s="40"/>
       <c r="W58" t="s">
         <v>467</v>
@@ -24870,8 +26961,8 @@
         <v>0.56411</v>
       </c>
       <c r="H59" s="88"/>
-      <c r="I59" s="252"/>
-      <c r="J59" s="253"/>
+      <c r="I59" s="266"/>
+      <c r="J59" s="267"/>
       <c r="K59" s="87" t="s">
         <v>344</v>
       </c>
@@ -24885,8 +26976,8 @@
         <v>0.70185779069767451</v>
       </c>
       <c r="S59" s="88"/>
-      <c r="T59" s="252"/>
-      <c r="U59" s="253"/>
+      <c r="T59" s="266"/>
+      <c r="U59" s="267"/>
       <c r="V59" s="40"/>
       <c r="W59" t="s">
         <v>468</v>
@@ -24903,10 +26994,10 @@
         <v>0.14326</v>
       </c>
       <c r="H60" s="85"/>
-      <c r="I60" s="254">
+      <c r="I60" s="268">
         <v>0.17191999999999999</v>
       </c>
-      <c r="J60" s="255"/>
+      <c r="J60" s="269"/>
       <c r="K60" s="84" t="s">
         <v>346</v>
       </c>
@@ -24920,11 +27011,11 @@
         <v>0.2082267441860465</v>
       </c>
       <c r="S60" s="85"/>
-      <c r="T60" s="254">
+      <c r="T60" s="268">
         <f>17.192%</f>
         <v>0.17191999999999999</v>
       </c>
-      <c r="U60" s="255"/>
+      <c r="U60" s="269"/>
       <c r="V60" s="40"/>
       <c r="W60" t="s">
         <v>469</v>
@@ -24944,8 +27035,8 @@
         <v>0.19162000000000001</v>
       </c>
       <c r="H61" s="81"/>
-      <c r="I61" s="249"/>
-      <c r="J61" s="251"/>
+      <c r="I61" s="263"/>
+      <c r="J61" s="265"/>
       <c r="K61" s="80" t="s">
         <v>348</v>
       </c>
@@ -24959,8 +27050,8 @@
         <v>0.22281395348837213</v>
       </c>
       <c r="S61" s="81"/>
-      <c r="T61" s="249"/>
-      <c r="U61" s="251"/>
+      <c r="T61" s="263"/>
+      <c r="U61" s="265"/>
       <c r="V61" s="40"/>
       <c r="W61" t="s">
         <v>471</v>
@@ -24980,8 +27071,8 @@
         <v>0.49523</v>
       </c>
       <c r="H62" s="88"/>
-      <c r="I62" s="252"/>
-      <c r="J62" s="253"/>
+      <c r="I62" s="266"/>
+      <c r="J62" s="267"/>
       <c r="K62" s="87" t="s">
         <v>349</v>
       </c>
@@ -24995,8 +27086,8 @@
         <v>0.57584883720930236</v>
       </c>
       <c r="S62" s="88"/>
-      <c r="T62" s="252"/>
-      <c r="U62" s="253"/>
+      <c r="T62" s="266"/>
+      <c r="U62" s="267"/>
       <c r="V62" s="40"/>
       <c r="W62" t="s">
         <v>473</v>
@@ -25023,10 +27114,10 @@
       <c r="M63" s="88"/>
       <c r="N63" s="88"/>
       <c r="O63" s="88"/>
-      <c r="P63" s="249">
+      <c r="P63" s="263">
         <v>0.15</v>
       </c>
-      <c r="Q63" s="250"/>
+      <c r="Q63" s="264"/>
       <c r="R63" s="88"/>
       <c r="S63" s="88"/>
       <c r="T63" s="108"/>
@@ -25050,10 +27141,10 @@
         <v>0.47439999999999999</v>
       </c>
       <c r="H64" s="88"/>
-      <c r="I64" s="252">
+      <c r="I64" s="266">
         <v>0.60697000000000001</v>
       </c>
-      <c r="J64" s="253"/>
+      <c r="J64" s="267"/>
       <c r="K64" s="87" t="s">
         <v>350</v>
       </c>
@@ -25067,10 +27158,10 @@
         <v>0.55162790697674413</v>
       </c>
       <c r="S64" s="88"/>
-      <c r="T64" s="252">
+      <c r="T64" s="266">
         <v>0.60697000000000001</v>
       </c>
-      <c r="U64" s="253"/>
+      <c r="U64" s="267"/>
       <c r="V64" s="40"/>
       <c r="W64" t="s">
         <v>477</v>
@@ -25090,10 +27181,10 @@
         <v>0.16774</v>
       </c>
       <c r="H65" s="85"/>
-      <c r="I65" s="254">
+      <c r="I65" s="268">
         <v>0.24779999999999999</v>
       </c>
-      <c r="J65" s="255"/>
+      <c r="J65" s="269"/>
       <c r="K65" s="84" t="s">
         <v>351</v>
       </c>
@@ -25107,10 +27198,10 @@
         <v>0.19504651162790698</v>
       </c>
       <c r="S65" s="85"/>
-      <c r="T65" s="254">
+      <c r="T65" s="268">
         <v>0.24779999999999999</v>
       </c>
-      <c r="U65" s="255"/>
+      <c r="U65" s="269"/>
       <c r="V65" s="40"/>
       <c r="W65" t="s">
         <v>479</v>
@@ -25124,14 +27215,14 @@
       <c r="B66" s="81"/>
       <c r="C66" s="81"/>
       <c r="D66" s="81"/>
-      <c r="E66" s="249">
+      <c r="E66" s="263">
         <v>0.45617999999999997</v>
       </c>
-      <c r="F66" s="250"/>
+      <c r="F66" s="264"/>
       <c r="G66" s="81"/>
       <c r="H66" s="81"/>
-      <c r="I66" s="249"/>
-      <c r="J66" s="251"/>
+      <c r="I66" s="263"/>
+      <c r="J66" s="265"/>
       <c r="K66" s="80" t="s">
         <v>352</v>
       </c>
@@ -25139,14 +27230,14 @@
       <c r="M66" s="81"/>
       <c r="N66" s="81"/>
       <c r="O66" s="81"/>
-      <c r="P66" s="249">
+      <c r="P66" s="263">
         <v>0.45617999999999997</v>
       </c>
-      <c r="Q66" s="250"/>
+      <c r="Q66" s="264"/>
       <c r="R66" s="81"/>
       <c r="S66" s="81"/>
-      <c r="T66" s="249"/>
-      <c r="U66" s="251"/>
+      <c r="T66" s="263"/>
+      <c r="U66" s="265"/>
       <c r="V66" s="40"/>
       <c r="W66" t="s">
         <v>481</v>
@@ -25166,10 +27257,10 @@
         <v>0.28649999999999998</v>
       </c>
       <c r="H67" s="88"/>
-      <c r="I67" s="252">
+      <c r="I67" s="266">
         <v>0.80176999999999998</v>
       </c>
-      <c r="J67" s="253"/>
+      <c r="J67" s="267"/>
       <c r="K67" s="87" t="s">
         <v>353</v>
       </c>
@@ -25183,10 +27274,10 @@
         <v>0.33313953488372089</v>
       </c>
       <c r="S67" s="88"/>
-      <c r="T67" s="252">
+      <c r="T67" s="266">
         <v>0.50800000000000001</v>
       </c>
-      <c r="U67" s="253"/>
+      <c r="U67" s="267"/>
       <c r="V67" s="40"/>
       <c r="AC67" t="s">
         <v>483</v>
@@ -25203,10 +27294,10 @@
         <v>0.20932000000000001</v>
       </c>
       <c r="H68" s="88"/>
-      <c r="I68" s="252">
+      <c r="I68" s="266">
         <v>0.50775999999999999</v>
       </c>
-      <c r="J68" s="253"/>
+      <c r="J68" s="267"/>
       <c r="K68" s="87" t="s">
         <v>355</v>
       </c>
@@ -25220,10 +27311,10 @@
         <v>0.24339534883720934</v>
       </c>
       <c r="S68" s="88"/>
-      <c r="T68" s="252">
+      <c r="T68" s="266">
         <v>0.50775999999999999</v>
       </c>
-      <c r="U68" s="253"/>
+      <c r="U68" s="267"/>
       <c r="V68" s="40"/>
       <c r="AC68" t="s">
         <v>484</v>
@@ -25240,8 +27331,8 @@
         <v>0.14599000000000001</v>
       </c>
       <c r="H69" s="88"/>
-      <c r="I69" s="252"/>
-      <c r="J69" s="253"/>
+      <c r="I69" s="266"/>
+      <c r="J69" s="267"/>
       <c r="K69" s="87" t="s">
         <v>356</v>
       </c>
@@ -25255,13 +27346,13 @@
         <v>0.16975581395348838</v>
       </c>
       <c r="S69" s="88"/>
-      <c r="T69" s="252"/>
-      <c r="U69" s="253"/>
+      <c r="T69" s="266"/>
+      <c r="U69" s="267"/>
       <c r="V69" s="40"/>
-      <c r="W69" s="265" t="s">
+      <c r="W69" s="279" t="s">
         <v>236</v>
       </c>
-      <c r="X69" s="265"/>
+      <c r="X69" s="279"/>
       <c r="AC69" t="s">
         <v>485</v>
       </c>
@@ -25277,10 +27368,10 @@
         <v>0.12414</v>
       </c>
       <c r="H70" s="85"/>
-      <c r="I70" s="254">
+      <c r="I70" s="268">
         <v>0.61785000000000001</v>
       </c>
-      <c r="J70" s="255"/>
+      <c r="J70" s="269"/>
       <c r="K70" s="84" t="s">
         <v>357</v>
       </c>
@@ -25294,10 +27385,10 @@
         <v>0.14434883720930233</v>
       </c>
       <c r="S70" s="85"/>
-      <c r="T70" s="254">
+      <c r="T70" s="268">
         <v>0.61785000000000001</v>
       </c>
-      <c r="U70" s="255"/>
+      <c r="U70" s="269"/>
       <c r="V70" s="40"/>
       <c r="AC70" t="s">
         <v>486</v>
@@ -25314,10 +27405,10 @@
         <v>0.23763000000000001</v>
       </c>
       <c r="H71" s="81"/>
-      <c r="I71" s="249">
+      <c r="I71" s="263">
         <v>1</v>
       </c>
-      <c r="J71" s="251"/>
+      <c r="J71" s="265"/>
       <c r="K71" s="80" t="s">
         <v>358</v>
       </c>
@@ -25331,10 +27422,10 @@
         <v>0.27631395348837212</v>
       </c>
       <c r="S71" s="81"/>
-      <c r="T71" s="249">
+      <c r="T71" s="263">
         <v>1</v>
       </c>
-      <c r="U71" s="251"/>
+      <c r="U71" s="265"/>
       <c r="V71" s="40"/>
       <c r="W71" t="s">
         <v>282</v>
@@ -25361,10 +27452,10 @@
       <c r="M72" s="110"/>
       <c r="N72" s="110"/>
       <c r="O72" s="110"/>
-      <c r="P72" s="249">
+      <c r="P72" s="263">
         <v>0.25</v>
       </c>
-      <c r="Q72" s="250"/>
+      <c r="Q72" s="264"/>
       <c r="R72" s="110"/>
       <c r="S72" s="110"/>
       <c r="T72" s="111"/>
@@ -25388,8 +27479,8 @@
         <v>0.17316000000000001</v>
       </c>
       <c r="H73" s="88"/>
-      <c r="I73" s="252"/>
-      <c r="J73" s="253"/>
+      <c r="I73" s="266"/>
+      <c r="J73" s="267"/>
       <c r="K73" s="87" t="s">
         <v>359</v>
       </c>
@@ -25403,8 +27494,8 @@
         <v>0.20134883720930236</v>
       </c>
       <c r="S73" s="88"/>
-      <c r="T73" s="252"/>
-      <c r="U73" s="253"/>
+      <c r="T73" s="266"/>
+      <c r="U73" s="267"/>
       <c r="V73" s="40"/>
       <c r="W73" t="s">
         <v>288</v>
@@ -25424,10 +27515,10 @@
         <v>0.12317</v>
       </c>
       <c r="H74" s="85"/>
-      <c r="I74" s="254">
+      <c r="I74" s="268">
         <v>0.33643600000000001</v>
       </c>
-      <c r="J74" s="255"/>
+      <c r="J74" s="269"/>
       <c r="K74" s="84" t="s">
         <v>360</v>
       </c>
@@ -25441,10 +27532,10 @@
         <v>0.14322093023255814</v>
       </c>
       <c r="S74" s="85"/>
-      <c r="T74" s="254">
+      <c r="T74" s="268">
         <v>0.33643600000000001</v>
       </c>
-      <c r="U74" s="255"/>
+      <c r="U74" s="269"/>
       <c r="V74" s="40"/>
       <c r="AC74" t="s">
         <v>490</v>
@@ -25461,10 +27552,10 @@
         <v>0.20199</v>
       </c>
       <c r="H75" s="81"/>
-      <c r="I75" s="249">
+      <c r="I75" s="263">
         <v>0.85</v>
       </c>
-      <c r="J75" s="251"/>
+      <c r="J75" s="265"/>
       <c r="K75" s="80" t="s">
         <v>361</v>
       </c>
@@ -25478,10 +27569,10 @@
         <v>0.23487209302325585</v>
       </c>
       <c r="S75" s="81"/>
-      <c r="T75" s="249">
+      <c r="T75" s="263">
         <v>0.85</v>
       </c>
-      <c r="U75" s="251"/>
+      <c r="U75" s="265"/>
       <c r="V75" s="40"/>
       <c r="W75" t="s">
         <v>293</v>
@@ -25501,8 +27592,8 @@
         <v>0.17718999999999999</v>
       </c>
       <c r="H76" s="88"/>
-      <c r="I76" s="252"/>
-      <c r="J76" s="253"/>
+      <c r="I76" s="266"/>
+      <c r="J76" s="267"/>
       <c r="K76" s="87" t="s">
         <v>362</v>
       </c>
@@ -25516,8 +27607,8 @@
         <v>0.20603488372093021</v>
       </c>
       <c r="S76" s="88"/>
-      <c r="T76" s="252"/>
-      <c r="U76" s="253"/>
+      <c r="T76" s="266"/>
+      <c r="U76" s="267"/>
       <c r="V76" s="40"/>
       <c r="W76" t="s">
         <v>296</v>
@@ -25537,10 +27628,10 @@
         <v>0.1047</v>
       </c>
       <c r="H77" s="100"/>
-      <c r="I77" s="247">
+      <c r="I77" s="261">
         <v>0.28591</v>
       </c>
-      <c r="J77" s="248"/>
+      <c r="J77" s="262"/>
       <c r="K77" s="99" t="s">
         <v>363</v>
       </c>
@@ -25554,10 +27645,10 @@
         <v>0.12174418604651163</v>
       </c>
       <c r="S77" s="100"/>
-      <c r="T77" s="247">
+      <c r="T77" s="261">
         <v>0.28591</v>
       </c>
-      <c r="U77" s="248"/>
+      <c r="U77" s="262"/>
       <c r="V77" s="40"/>
       <c r="AC77" t="s">
         <v>493</v>
@@ -25937,7 +28028,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A60EA9E8-356C-43F6-819C-A89E83AA286B}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -26003,17 +28094,17 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="268" t="s">
+      <c r="B4" s="282" t="s">
         <v>515</v>
       </c>
-      <c r="C4" s="268"/>
+      <c r="C4" s="282"/>
       <c r="D4" s="130" t="s">
         <v>516</v>
       </c>
-      <c r="G4" s="268" t="s">
+      <c r="G4" s="282" t="s">
         <v>517</v>
       </c>
-      <c r="H4" s="268"/>
+      <c r="H4" s="282"/>
       <c r="I4" s="130" t="s">
         <v>516</v>
       </c>
@@ -27149,7 +29240,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{668B0430-3463-4C73-885E-2BEF7EB4315A}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
@@ -27772,7 +29863,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7284118B-5B75-472D-96FC-400E821346D3}">
   <sheetPr>
     <tabColor theme="4" tint="0.79998168889431442"/>
@@ -59090,7 +61181,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24558503-6209-4639-84BC-F7E549E86B6A}">
   <sheetPr>
     <tabColor theme="3" tint="0.79998168889431442"/>
@@ -59265,7 +61356,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85B043EC-DDEC-48C2-9A00-F2EA53D16A84}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
@@ -60617,7 +62708,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED041D7-743E-4DE3-87DC-571D73BE5EE1}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -60865,7 +62956,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28410393-7FF4-43E7-AB58-5A53CE0FF4EE}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -61217,7 +63308,7 @@
   </sheetPr>
   <dimension ref="A1:W37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -63345,6 +65436,1610 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF2DEE30-8361-4B23-81A4-4BC27B8D56F0}">
+  <dimension ref="A1:AC30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T18" sqref="T18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="40"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.5703125" customWidth="1"/>
+    <col min="16" max="16" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="7.140625" customWidth="1"/>
+    <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="6.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="7.5703125" style="40" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="6.140625" style="40" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1" s="229"/>
+      <c r="B1" s="229" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C1" s="229">
+        <v>4.4543999999999997</v>
+      </c>
+      <c r="D1" s="229"/>
+      <c r="E1" s="229"/>
+      <c r="F1" s="229">
+        <v>3.7054999999999998</v>
+      </c>
+      <c r="G1" s="283">
+        <f>SUM(G3:G17)</f>
+        <v>3.7360000000000002</v>
+      </c>
+      <c r="H1" s="283">
+        <f>SUM(H3:H17)</f>
+        <v>3.57</v>
+      </c>
+      <c r="J1" s="237"/>
+      <c r="K1" s="237"/>
+      <c r="L1" s="237"/>
+      <c r="M1" s="237"/>
+      <c r="N1" s="237"/>
+      <c r="O1" s="237"/>
+      <c r="P1" s="237"/>
+      <c r="Q1" s="237"/>
+      <c r="R1" s="237"/>
+      <c r="S1" s="237"/>
+      <c r="T1" s="242"/>
+      <c r="U1" s="242"/>
+      <c r="V1" s="77">
+        <f>SUM(V3:V14)</f>
+        <v>1.6199999999999997</v>
+      </c>
+      <c r="W1" s="77">
+        <f>SUM(W3:W14)</f>
+        <v>3.5700000000000007</v>
+      </c>
+      <c r="X1" s="290">
+        <f t="shared" ref="X1:Y1" si="0">SUM(X3:X14)</f>
+        <v>1.6913425925925929</v>
+      </c>
+      <c r="Y1" s="290">
+        <f t="shared" si="0"/>
+        <v>1.0522685185185185</v>
+      </c>
+      <c r="AB1" s="288">
+        <f t="shared" ref="AB1:AC1" si="1">SUM(AB3:AB14)</f>
+        <v>0.94224861111111125</v>
+      </c>
+      <c r="AC1" s="288">
+        <f t="shared" si="1"/>
+        <v>0.72738750000000008</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A2" s="230" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B2" s="230" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C2" s="230" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D2" s="230" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E2" s="230" t="s">
+        <v>1217</v>
+      </c>
+      <c r="F2" s="230" t="s">
+        <v>1176</v>
+      </c>
+      <c r="G2" s="233" t="s">
+        <v>1203</v>
+      </c>
+      <c r="H2" s="233" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J2" s="237"/>
+      <c r="K2" s="235"/>
+      <c r="L2" s="237" t="s">
+        <v>1205</v>
+      </c>
+      <c r="M2" s="237"/>
+      <c r="N2" s="237"/>
+      <c r="O2" s="237"/>
+      <c r="P2" s="286" t="s">
+        <v>1172</v>
+      </c>
+      <c r="Q2" s="286" t="s">
+        <v>1217</v>
+      </c>
+      <c r="R2" s="286" t="s">
+        <v>1203</v>
+      </c>
+      <c r="S2" s="286" t="s">
+        <v>1173</v>
+      </c>
+      <c r="T2" s="286" t="s">
+        <v>1218</v>
+      </c>
+      <c r="U2" s="287" t="s">
+        <v>1219</v>
+      </c>
+      <c r="V2" s="287" t="s">
+        <v>1203</v>
+      </c>
+      <c r="W2" s="287" t="s">
+        <v>1222</v>
+      </c>
+      <c r="X2" s="287" t="s">
+        <v>1223</v>
+      </c>
+      <c r="Y2" s="287" t="s">
+        <v>1224</v>
+      </c>
+      <c r="Z2" s="287" t="s">
+        <v>1225</v>
+      </c>
+      <c r="AA2" s="287" t="s">
+        <v>1226</v>
+      </c>
+      <c r="AB2" s="287" t="s">
+        <v>1227</v>
+      </c>
+      <c r="AC2" s="287" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A3" s="230">
+        <v>5</v>
+      </c>
+      <c r="B3" s="230" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C3" s="230">
+        <v>0.55320000000000003</v>
+      </c>
+      <c r="D3" s="231" t="s">
+        <v>1198</v>
+      </c>
+      <c r="E3" s="230">
+        <v>6</v>
+      </c>
+      <c r="F3" s="230">
+        <v>0.48470000000000002</v>
+      </c>
+      <c r="G3" s="234">
+        <v>0.5</v>
+      </c>
+      <c r="H3" s="236">
+        <v>0.45</v>
+      </c>
+      <c r="J3" s="237" t="s">
+        <v>1205</v>
+      </c>
+      <c r="K3" s="237" t="s">
+        <v>1205</v>
+      </c>
+      <c r="L3" s="237" t="s">
+        <v>1205</v>
+      </c>
+      <c r="M3" s="237" t="s">
+        <v>1205</v>
+      </c>
+      <c r="N3" s="237" t="s">
+        <v>1205</v>
+      </c>
+      <c r="O3" s="237"/>
+      <c r="P3" s="238">
+        <v>5</v>
+      </c>
+      <c r="Q3" s="238">
+        <v>6</v>
+      </c>
+      <c r="R3" s="294">
+        <v>0.45</v>
+      </c>
+      <c r="S3" s="238" t="s">
+        <v>1207</v>
+      </c>
+      <c r="T3" s="238">
+        <f>COUNTIF(J2:N3,"IMP")</f>
+        <v>0</v>
+      </c>
+      <c r="U3" s="238">
+        <f>COUNTIF(J7:N8,"IMP")</f>
+        <v>0</v>
+      </c>
+      <c r="V3" s="291">
+        <f>IF(T3+U3=0,0,R3)</f>
+        <v>0</v>
+      </c>
+      <c r="W3" s="291">
+        <f>V3*$H$1/$V$1</f>
+        <v>0</v>
+      </c>
+      <c r="X3" s="292">
+        <f>IF(W3=0,0,IF(U3=0,W3*T3/Q3,W3*T3/(Q3*2)))</f>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="292">
+        <f>IF(W3=0,0,IF(T3=0,W3*U3/Q3,W3*U3/(Q3*2)))</f>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="293">
+        <f>$L$16</f>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AA3" s="293">
+        <f>$M$16</f>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AB3" s="292">
+        <f>Z3*X3</f>
+        <v>0</v>
+      </c>
+      <c r="AC3" s="292">
+        <f>AA3*Y3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A4" s="230">
+        <v>6</v>
+      </c>
+      <c r="B4" s="230" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C4" s="230">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="D4" s="231" t="s">
+        <v>1199</v>
+      </c>
+      <c r="E4" s="230">
+        <v>8</v>
+      </c>
+      <c r="F4" s="230">
+        <v>0.41070000000000001</v>
+      </c>
+      <c r="G4" s="234">
+        <v>0.4</v>
+      </c>
+      <c r="H4" s="236">
+        <v>0.35</v>
+      </c>
+      <c r="J4" s="237" t="s">
+        <v>1206</v>
+      </c>
+      <c r="K4" s="237" t="s">
+        <v>1205</v>
+      </c>
+      <c r="L4" s="237" t="s">
+        <v>1206</v>
+      </c>
+      <c r="M4" s="237" t="s">
+        <v>1205</v>
+      </c>
+      <c r="N4" s="237" t="s">
+        <v>1206</v>
+      </c>
+      <c r="O4" s="237"/>
+      <c r="P4" s="238">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="238">
+        <v>8</v>
+      </c>
+      <c r="R4" s="294">
+        <v>0.35</v>
+      </c>
+      <c r="S4" s="238" t="s">
+        <v>1208</v>
+      </c>
+      <c r="T4" s="238">
+        <f>COUNTIF(J4:N5,"IMP")</f>
+        <v>0</v>
+      </c>
+      <c r="U4" s="238">
+        <f>COUNTIF(J9:N10,"IMP")</f>
+        <v>0</v>
+      </c>
+      <c r="V4" s="291">
+        <f t="shared" ref="V4:V14" si="2">IF(T4+U4=0,0,R4)</f>
+        <v>0</v>
+      </c>
+      <c r="W4" s="291">
+        <f t="shared" ref="W4:W14" si="3">V4*$H$1/$V$1</f>
+        <v>0</v>
+      </c>
+      <c r="X4" s="292">
+        <f t="shared" ref="X4:X8" si="4">IF(W4=0,0,IF(U4=0,W4*T4/Q4,W4*T4/(Q4*2)))</f>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="292">
+        <f t="shared" ref="Y4:Y8" si="5">IF(W4=0,0,IF(T4=0,W4*U4/Q4,W4*U4/(Q4*2)))</f>
+        <v>0</v>
+      </c>
+      <c r="Z4" s="293">
+        <f>$L$16</f>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AA4" s="293">
+        <f>$M$16</f>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AB4" s="292">
+        <f t="shared" ref="AB4:AB14" si="6">Z4*X4</f>
+        <v>0</v>
+      </c>
+      <c r="AC4" s="292">
+        <f t="shared" ref="AC4:AC14" si="7">AA4*Y4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5" s="230">
+        <v>8</v>
+      </c>
+      <c r="B5" s="230" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C5" s="230">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="D5" s="231" t="s">
+        <v>1200</v>
+      </c>
+      <c r="E5" s="230">
+        <v>13</v>
+      </c>
+      <c r="F5" s="230">
+        <v>0.48930000000000001</v>
+      </c>
+      <c r="G5" s="234">
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="236">
+        <v>0.45</v>
+      </c>
+      <c r="J5" s="237"/>
+      <c r="K5" s="237" t="s">
+        <v>1206</v>
+      </c>
+      <c r="L5" s="237" t="s">
+        <v>1205</v>
+      </c>
+      <c r="M5" s="237" t="s">
+        <v>1206</v>
+      </c>
+      <c r="N5" s="237"/>
+      <c r="O5" s="237"/>
+      <c r="P5" s="238">
+        <v>8</v>
+      </c>
+      <c r="Q5" s="238">
+        <v>13</v>
+      </c>
+      <c r="R5" s="294">
+        <v>0.45</v>
+      </c>
+      <c r="S5" s="238" t="s">
+        <v>1180</v>
+      </c>
+      <c r="T5" s="238">
+        <f>COUNTIF(J3:N5,"IMP")</f>
+        <v>0</v>
+      </c>
+      <c r="U5" s="238">
+        <f>COUNTIF(J8:N10,"IMP")</f>
+        <v>0</v>
+      </c>
+      <c r="V5" s="291">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W5" s="291">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X5" s="292">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="292">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="293">
+        <f>$L$17</f>
+        <v>0.45</v>
+      </c>
+      <c r="AA5" s="293">
+        <f>$M$17</f>
+        <v>0.45</v>
+      </c>
+      <c r="AB5" s="292">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC5" s="292">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A6" s="230">
+        <v>9</v>
+      </c>
+      <c r="B6" s="230" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C6" s="230">
+        <v>2.3400000000000001E-2</v>
+      </c>
+      <c r="D6" s="231" t="s">
+        <v>1199</v>
+      </c>
+      <c r="E6" s="230">
+        <v>8</v>
+      </c>
+      <c r="F6" s="230">
+        <v>2.0199999999999999E-2</v>
+      </c>
+      <c r="G6" s="234">
+        <v>0.02</v>
+      </c>
+      <c r="H6" s="236">
+        <v>0.05</v>
+      </c>
+      <c r="J6" s="237"/>
+      <c r="K6" s="237"/>
+      <c r="L6" s="237"/>
+      <c r="M6" s="237"/>
+      <c r="N6" s="237"/>
+      <c r="O6" s="237"/>
+      <c r="P6" s="238">
+        <v>9</v>
+      </c>
+      <c r="Q6" s="238">
+        <v>8</v>
+      </c>
+      <c r="R6" s="294">
+        <v>0.05</v>
+      </c>
+      <c r="S6" s="238" t="s">
+        <v>1181</v>
+      </c>
+      <c r="T6" s="238">
+        <f>COUNTIF(J8:N8,"IMP")+COUNTIF(K9:M9,"IMP")</f>
+        <v>0</v>
+      </c>
+      <c r="U6" s="238">
+        <f>COUNTIF(J3:N3,"IMP")+COUNTIF(K4:M4,"IMP")</f>
+        <v>0</v>
+      </c>
+      <c r="V6" s="291">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W6" s="291">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X6" s="292">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="292">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="293">
+        <f>$L$17</f>
+        <v>0.45</v>
+      </c>
+      <c r="AA6" s="293">
+        <f>$M$17</f>
+        <v>0.45</v>
+      </c>
+      <c r="AB6" s="292">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC6" s="292">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A7" s="230">
+        <v>15</v>
+      </c>
+      <c r="B7" s="230" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C7" s="230">
+        <v>0.60670000000000002</v>
+      </c>
+      <c r="D7" s="231" t="s">
+        <v>1199</v>
+      </c>
+      <c r="E7" s="230">
+        <v>8</v>
+      </c>
+      <c r="F7" s="230">
+        <v>0.48680000000000001</v>
+      </c>
+      <c r="G7" s="234">
+        <v>0.5</v>
+      </c>
+      <c r="H7" s="236">
+        <v>0.5</v>
+      </c>
+      <c r="J7" s="237"/>
+      <c r="K7" s="235"/>
+      <c r="L7" s="237" t="s">
+        <v>1205</v>
+      </c>
+      <c r="M7" s="237"/>
+      <c r="N7" s="237"/>
+      <c r="O7" s="237"/>
+      <c r="P7" s="238">
+        <v>15</v>
+      </c>
+      <c r="Q7" s="238">
+        <v>8</v>
+      </c>
+      <c r="R7" s="294">
+        <v>0.5</v>
+      </c>
+      <c r="S7" s="238" t="s">
+        <v>1209</v>
+      </c>
+      <c r="T7" s="238">
+        <f>COUNTIF(J4:N5,"RAP")</f>
+        <v>5</v>
+      </c>
+      <c r="U7" s="238">
+        <f>COUNTIF(J9:N10,"RAP")</f>
+        <v>0</v>
+      </c>
+      <c r="V7" s="291">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="W7" s="291">
+        <f t="shared" si="3"/>
+        <v>1.1018518518518521</v>
+      </c>
+      <c r="X7" s="292">
+        <f t="shared" si="4"/>
+        <v>0.68865740740740755</v>
+      </c>
+      <c r="Y7" s="292">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Z7" s="293">
+        <f>$L$16</f>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AA7" s="293">
+        <f>$M$16</f>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AB7" s="292">
+        <f t="shared" si="6"/>
+        <v>0.39253472222222224</v>
+      </c>
+      <c r="AC7" s="292">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A8" s="230">
+        <v>16</v>
+      </c>
+      <c r="B8" s="230" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C8" s="230">
+        <v>0.62329999999999997</v>
+      </c>
+      <c r="D8" s="231" t="s">
+        <v>1199</v>
+      </c>
+      <c r="E8" s="230">
+        <v>8</v>
+      </c>
+      <c r="F8" s="230">
+        <v>0.50009999999999999</v>
+      </c>
+      <c r="G8" s="234">
+        <v>0.5</v>
+      </c>
+      <c r="H8" s="236">
+        <v>0.5</v>
+      </c>
+      <c r="J8" s="237" t="s">
+        <v>1205</v>
+      </c>
+      <c r="K8" s="237" t="s">
+        <v>1205</v>
+      </c>
+      <c r="L8" s="237" t="s">
+        <v>1205</v>
+      </c>
+      <c r="M8" s="237" t="s">
+        <v>1205</v>
+      </c>
+      <c r="N8" s="237" t="s">
+        <v>1205</v>
+      </c>
+      <c r="O8" s="237"/>
+      <c r="P8" s="238">
+        <v>16</v>
+      </c>
+      <c r="Q8" s="238">
+        <v>8</v>
+      </c>
+      <c r="R8" s="294">
+        <v>0.5</v>
+      </c>
+      <c r="S8" s="238" t="s">
+        <v>1210</v>
+      </c>
+      <c r="T8" s="238">
+        <f>COUNTIF(J4:N5,"RAP")</f>
+        <v>5</v>
+      </c>
+      <c r="U8" s="238">
+        <f>COUNTIF(J9:N10,"RAP")</f>
+        <v>0</v>
+      </c>
+      <c r="V8" s="291">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="W8" s="291">
+        <f t="shared" si="3"/>
+        <v>1.1018518518518521</v>
+      </c>
+      <c r="X8" s="292">
+        <f t="shared" si="4"/>
+        <v>0.68865740740740755</v>
+      </c>
+      <c r="Y8" s="292">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="293">
+        <f>$L$16</f>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AA8" s="293">
+        <f>$M$16</f>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AB8" s="292">
+        <f t="shared" si="6"/>
+        <v>0.39253472222222224</v>
+      </c>
+      <c r="AC8" s="292">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A9" s="230">
+        <v>17</v>
+      </c>
+      <c r="B9" s="230" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C9" s="230">
+        <v>1E-3</v>
+      </c>
+      <c r="D9" s="231" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E9" s="230" t="s">
+        <v>1185</v>
+      </c>
+      <c r="F9" s="230">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="G9" s="234">
+        <v>1E-3</v>
+      </c>
+      <c r="H9" s="236"/>
+      <c r="J9" s="237" t="s">
+        <v>1205</v>
+      </c>
+      <c r="K9" s="237" t="s">
+        <v>1216</v>
+      </c>
+      <c r="L9" s="237" t="s">
+        <v>1205</v>
+      </c>
+      <c r="M9" s="237" t="s">
+        <v>1216</v>
+      </c>
+      <c r="N9" s="237" t="s">
+        <v>1205</v>
+      </c>
+      <c r="O9" s="237"/>
+      <c r="P9" s="238">
+        <v>18</v>
+      </c>
+      <c r="Q9" s="238" t="s">
+        <v>1187</v>
+      </c>
+      <c r="R9" s="294">
+        <v>0.15</v>
+      </c>
+      <c r="S9" s="238" t="s">
+        <v>1186</v>
+      </c>
+      <c r="T9" s="238">
+        <v>1</v>
+      </c>
+      <c r="U9" s="238">
+        <v>1</v>
+      </c>
+      <c r="V9" s="291">
+        <f t="shared" si="2"/>
+        <v>0.15</v>
+      </c>
+      <c r="W9" s="291">
+        <f t="shared" si="3"/>
+        <v>0.3305555555555556</v>
+      </c>
+      <c r="X9" s="292">
+        <f>W9*L12</f>
+        <v>0.18180555555555561</v>
+      </c>
+      <c r="Y9" s="292">
+        <f>W9*L13</f>
+        <v>0.14874999999999999</v>
+      </c>
+      <c r="Z9" s="293">
+        <f>$L$17</f>
+        <v>0.45</v>
+      </c>
+      <c r="AA9" s="293">
+        <f>$M$17</f>
+        <v>0.45</v>
+      </c>
+      <c r="AB9" s="292">
+        <f t="shared" si="6"/>
+        <v>8.1812500000000024E-2</v>
+      </c>
+      <c r="AC9" s="292">
+        <f t="shared" si="7"/>
+        <v>6.6937499999999997E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A10" s="230">
+        <v>18</v>
+      </c>
+      <c r="B10" s="230" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C10" s="230">
+        <v>0.19170000000000001</v>
+      </c>
+      <c r="D10" s="231" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E10" s="230" t="s">
+        <v>1185</v>
+      </c>
+      <c r="F10" s="230">
+        <v>0.152</v>
+      </c>
+      <c r="G10" s="234">
+        <v>0.15</v>
+      </c>
+      <c r="H10" s="236">
+        <v>0.15</v>
+      </c>
+      <c r="J10" s="237"/>
+      <c r="K10" s="237" t="s">
+        <v>1216</v>
+      </c>
+      <c r="L10" s="237" t="s">
+        <v>1205</v>
+      </c>
+      <c r="M10" s="237" t="s">
+        <v>1205</v>
+      </c>
+      <c r="N10" s="237"/>
+      <c r="O10" s="237"/>
+      <c r="P10" s="238">
+        <v>19</v>
+      </c>
+      <c r="Q10" s="238" t="s">
+        <v>1187</v>
+      </c>
+      <c r="R10" s="294">
+        <v>0.2</v>
+      </c>
+      <c r="S10" s="238" t="s">
+        <v>1188</v>
+      </c>
+      <c r="T10" s="238">
+        <f>COUNTIF(J3:N5,"CAB")</f>
+        <v>0</v>
+      </c>
+      <c r="U10" s="238">
+        <f>COUNTIF(J8:N10,"CAB")</f>
+        <v>3</v>
+      </c>
+      <c r="V10" s="291">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="W10" s="291">
+        <f t="shared" si="3"/>
+        <v>0.44074074074074082</v>
+      </c>
+      <c r="X10" s="292">
+        <f>IF(T10&gt;0,IF(U10&gt;0,L12*W10,W10),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="292">
+        <f>IF(U10&gt;0,IF(T10&gt;0,L13*W10,W10),0)</f>
+        <v>0.44074074074074082</v>
+      </c>
+      <c r="Z10" s="293">
+        <f>IF(T10-U10&gt;2,0.9,IF(T10-U10&gt;1,0.75,IF(T10-U10=0,0.5,0.15)))</f>
+        <v>0.15</v>
+      </c>
+      <c r="AA10" s="293">
+        <f>IF(U10-T10&gt;2,0.9,IF(U10-T10&gt;1,0.75,IF(U10-T10=0,0.5,0.15)))</f>
+        <v>0.9</v>
+      </c>
+      <c r="AB10" s="292">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC10" s="292">
+        <f t="shared" si="7"/>
+        <v>0.39666666666666672</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A11" s="230">
+        <v>19</v>
+      </c>
+      <c r="B11" s="230" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C11" s="230">
+        <v>0.25190000000000001</v>
+      </c>
+      <c r="D11" s="231" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E11" s="230" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F11" s="230">
+        <v>0.2011</v>
+      </c>
+      <c r="G11" s="234">
+        <v>0.2</v>
+      </c>
+      <c r="H11" s="236">
+        <v>0.2</v>
+      </c>
+      <c r="J11" s="237"/>
+      <c r="K11" s="237"/>
+      <c r="L11" s="237"/>
+      <c r="M11" s="237"/>
+      <c r="N11" s="237"/>
+      <c r="O11" s="237"/>
+      <c r="P11" s="238">
+        <v>25</v>
+      </c>
+      <c r="Q11" s="238">
+        <v>5</v>
+      </c>
+      <c r="R11" s="294">
+        <v>0.05</v>
+      </c>
+      <c r="S11" s="238" t="s">
+        <v>1211</v>
+      </c>
+      <c r="T11" s="238">
+        <f>COUNTIF(K5:M5,"IMP")+COUNTIF(J4,"IMP")+COUNTIF(N4,"IMP")</f>
+        <v>0</v>
+      </c>
+      <c r="U11" s="238">
+        <f>COUNTIF(K10:M10,"IMP")+COUNTIF(J9,"IMP")+COUNTIF(N9,"IMP")</f>
+        <v>0</v>
+      </c>
+      <c r="V11" s="291">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W11" s="291">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X11" s="292">
+        <f>IF(W11=0,0,IF(U11=0,W11*T11/Q11,W11*T11/(Q11*2)))</f>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="292">
+        <f>IF(W11=0,0,IF(T11=0,W11*U11/Q11,W11*U11/(Q11*2)))</f>
+        <v>0</v>
+      </c>
+      <c r="Z11" s="293">
+        <f>$L$17</f>
+        <v>0.45</v>
+      </c>
+      <c r="AA11" s="293">
+        <f>$M$17</f>
+        <v>0.45</v>
+      </c>
+      <c r="AB11" s="292">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC11" s="292">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A12" s="230">
+        <v>25</v>
+      </c>
+      <c r="B12" s="230" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C12" s="230">
+        <v>2.64E-2</v>
+      </c>
+      <c r="D12" s="231" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E12" s="230">
+        <v>5</v>
+      </c>
+      <c r="F12" s="230">
+        <v>2.2700000000000001E-2</v>
+      </c>
+      <c r="G12" s="234">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H12" s="236">
+        <v>0.05</v>
+      </c>
+      <c r="J12" s="237"/>
+      <c r="K12" s="284" t="s">
+        <v>1220</v>
+      </c>
+      <c r="L12" s="285">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="M12" s="237"/>
+      <c r="N12" s="237"/>
+      <c r="O12" s="237"/>
+      <c r="P12" s="238">
+        <v>37</v>
+      </c>
+      <c r="Q12" s="238">
+        <v>2</v>
+      </c>
+      <c r="R12" s="294">
+        <v>0.15</v>
+      </c>
+      <c r="S12" s="238" t="s">
+        <v>1212</v>
+      </c>
+      <c r="T12" s="238">
+        <f>COUNTIF(J4:N5,"CAB")</f>
+        <v>0</v>
+      </c>
+      <c r="U12" s="238">
+        <f>COUNTIF(J9:N10,"CAB")</f>
+        <v>3</v>
+      </c>
+      <c r="V12" s="291">
+        <f t="shared" si="2"/>
+        <v>0.15</v>
+      </c>
+      <c r="W12" s="291">
+        <f t="shared" si="3"/>
+        <v>0.3305555555555556</v>
+      </c>
+      <c r="X12" s="292">
+        <f>W12*T12/(U12+T12)</f>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="292">
+        <f>W12*U12/(U12+T12)</f>
+        <v>0.3305555555555556</v>
+      </c>
+      <c r="Z12" s="293">
+        <f>$L$16</f>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AA12" s="293">
+        <f>$M$16</f>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AB12" s="292">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC12" s="292">
+        <f t="shared" si="7"/>
+        <v>0.18841666666666668</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A13" s="230">
+        <v>35</v>
+      </c>
+      <c r="B13" s="230" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C13" s="230">
+        <v>4.4699999999999997E-2</v>
+      </c>
+      <c r="D13" s="231" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E13" s="230" t="s">
+        <v>1185</v>
+      </c>
+      <c r="F13" s="230">
+        <v>3.5499999999999997E-2</v>
+      </c>
+      <c r="G13" s="234">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="H13" s="236"/>
+      <c r="J13" s="237"/>
+      <c r="K13" s="284" t="s">
+        <v>1221</v>
+      </c>
+      <c r="L13" s="285">
+        <f>1-L12</f>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="M13" s="237"/>
+      <c r="N13" s="237"/>
+      <c r="O13" s="237"/>
+      <c r="P13" s="238">
+        <v>38</v>
+      </c>
+      <c r="Q13" s="238">
+        <v>2</v>
+      </c>
+      <c r="R13" s="294">
+        <v>0.12</v>
+      </c>
+      <c r="S13" s="238" t="s">
+        <v>1213</v>
+      </c>
+      <c r="T13" s="238">
+        <f>COUNTA(J4,N4)</f>
+        <v>2</v>
+      </c>
+      <c r="U13" s="238">
+        <f>COUNTA(J9,N9)</f>
+        <v>2</v>
+      </c>
+      <c r="V13" s="291">
+        <f t="shared" si="2"/>
+        <v>0.12</v>
+      </c>
+      <c r="W13" s="291">
+        <f t="shared" si="3"/>
+        <v>0.26444444444444448</v>
+      </c>
+      <c r="X13" s="292">
+        <f>W13*T13/(U13+T13)</f>
+        <v>0.13222222222222224</v>
+      </c>
+      <c r="Y13" s="292">
+        <f>W13*U13/(U13+T13)</f>
+        <v>0.13222222222222224</v>
+      </c>
+      <c r="Z13" s="293">
+        <f>$L$16</f>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AA13" s="293">
+        <f>$M$16</f>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AB13" s="292">
+        <f t="shared" si="6"/>
+        <v>7.5366666666666665E-2</v>
+      </c>
+      <c r="AC13" s="292">
+        <f t="shared" si="7"/>
+        <v>7.5366666666666665E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A14" s="230">
+        <v>36</v>
+      </c>
+      <c r="B14" s="230" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C14" s="230">
+        <v>4.19E-2</v>
+      </c>
+      <c r="D14" s="231" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E14" s="230" t="s">
+        <v>1185</v>
+      </c>
+      <c r="F14" s="230">
+        <v>3.32E-2</v>
+      </c>
+      <c r="G14" s="234">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="H14" s="236"/>
+      <c r="J14" s="237"/>
+      <c r="K14" s="237"/>
+      <c r="L14" s="237"/>
+      <c r="M14" s="237"/>
+      <c r="N14" s="237"/>
+      <c r="O14" s="237"/>
+      <c r="P14" s="238">
+        <v>39</v>
+      </c>
+      <c r="Q14" s="238">
+        <v>8</v>
+      </c>
+      <c r="R14" s="294">
+        <v>0.6</v>
+      </c>
+      <c r="S14" s="238" t="s">
+        <v>1195</v>
+      </c>
+      <c r="T14" s="238">
+        <f>IF(COUNTIF(J8:N8,"CAB")+COUNTIF(K9:M9,"CAB") &gt; 0, COUNTIF(J4:N5,"TEC"),0)</f>
+        <v>0</v>
+      </c>
+      <c r="U14" s="238">
+        <f>IF(COUNTIF(J3:N3,"CAB")+COUNTIF(K4:M4,"CAB") &gt; 0, COUNTIF(J9:N10,"TEC"),0)</f>
+        <v>0</v>
+      </c>
+      <c r="V14" s="291">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W14" s="291">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X14" s="292">
+        <f>IF(W14=0,0,IF(U14=0,W14*T14/Q14,W14*T14/(Q14*2)))</f>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="292">
+        <f>IF(W14=0,0,IF(T14=0,W14*U14/Q14,W14*U14/(Q14*2)))</f>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="293">
+        <f>$L$16</f>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AA14" s="293">
+        <f>$M$16</f>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AB14" s="292">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC14" s="292">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A15" s="230">
+        <v>37</v>
+      </c>
+      <c r="B15" s="230" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C15" s="230">
+        <v>0.18110000000000001</v>
+      </c>
+      <c r="D15" s="231" t="s">
+        <v>1193</v>
+      </c>
+      <c r="E15" s="230">
+        <v>2</v>
+      </c>
+      <c r="F15" s="230">
+        <v>0.15179999999999999</v>
+      </c>
+      <c r="G15" s="234">
+        <v>0.15</v>
+      </c>
+      <c r="H15" s="236">
+        <v>0.15</v>
+      </c>
+      <c r="J15" s="237"/>
+      <c r="K15" s="284" t="s">
+        <v>1229</v>
+      </c>
+      <c r="L15" s="289">
+        <v>0.7</v>
+      </c>
+      <c r="M15" s="289">
+        <v>0.7</v>
+      </c>
+      <c r="N15" s="237"/>
+      <c r="O15" s="237"/>
+      <c r="P15" s="237"/>
+      <c r="Q15" s="237"/>
+      <c r="R15" s="237"/>
+      <c r="S15" s="237"/>
+      <c r="T15" s="242"/>
+      <c r="U15" s="242"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A16" s="230">
+        <v>38</v>
+      </c>
+      <c r="B16" s="230" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C16" s="230">
+        <v>0.1449</v>
+      </c>
+      <c r="D16" s="231" t="s">
+        <v>1202</v>
+      </c>
+      <c r="E16" s="230">
+        <v>2</v>
+      </c>
+      <c r="F16" s="230">
+        <v>0.1149</v>
+      </c>
+      <c r="G16" s="234">
+        <v>0.12</v>
+      </c>
+      <c r="H16" s="236">
+        <v>0.12</v>
+      </c>
+      <c r="J16" s="237"/>
+      <c r="K16" s="284" t="s">
+        <v>1231</v>
+      </c>
+      <c r="L16" s="289">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="M16" s="289">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="N16" s="237"/>
+      <c r="O16" s="237"/>
+      <c r="P16" s="238"/>
+      <c r="Q16" s="238"/>
+      <c r="R16" s="238"/>
+      <c r="S16" s="238"/>
+      <c r="T16" s="238"/>
+      <c r="U16" s="242"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" s="230">
+        <v>39</v>
+      </c>
+      <c r="B17" s="230" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C17" s="230">
+        <v>0.71009999999999995</v>
+      </c>
+      <c r="D17" s="231" t="s">
+        <v>1199</v>
+      </c>
+      <c r="E17" s="230">
+        <v>8</v>
+      </c>
+      <c r="F17" s="230">
+        <v>0.6018</v>
+      </c>
+      <c r="G17" s="234">
+        <v>0.6</v>
+      </c>
+      <c r="H17" s="236">
+        <v>0.6</v>
+      </c>
+      <c r="J17" s="237"/>
+      <c r="K17" s="235" t="s">
+        <v>1230</v>
+      </c>
+      <c r="L17" s="289">
+        <v>0.45</v>
+      </c>
+      <c r="M17" s="289">
+        <v>0.45</v>
+      </c>
+      <c r="N17" s="237"/>
+      <c r="O17" s="237"/>
+      <c r="P17" s="238"/>
+      <c r="Q17" s="238"/>
+      <c r="R17" s="238"/>
+      <c r="S17" s="238"/>
+      <c r="T17" s="239"/>
+      <c r="U17" s="242"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" s="230">
+        <v>90</v>
+      </c>
+      <c r="B18" s="230" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C18" s="230">
+        <v>0</v>
+      </c>
+      <c r="D18" s="231" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E18" s="230" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F18" s="230"/>
+      <c r="G18" s="234"/>
+      <c r="H18" s="236"/>
+      <c r="J18" s="237"/>
+      <c r="K18" s="237"/>
+      <c r="L18" s="237"/>
+      <c r="M18" s="237"/>
+      <c r="N18" s="237"/>
+      <c r="O18" s="237"/>
+      <c r="P18" s="238"/>
+      <c r="Q18" s="238"/>
+      <c r="R18" s="238"/>
+      <c r="S18" s="238"/>
+      <c r="T18" s="239"/>
+      <c r="U18" s="242"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" s="230">
+        <v>310</v>
+      </c>
+      <c r="B19" s="230" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C19" s="230">
+        <v>0</v>
+      </c>
+      <c r="D19" s="231" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E19" s="230" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F19" s="230"/>
+      <c r="G19" s="234"/>
+      <c r="H19" s="236"/>
+      <c r="J19" s="237"/>
+      <c r="K19" s="237"/>
+      <c r="L19" s="237"/>
+      <c r="M19" s="237"/>
+      <c r="N19" s="237"/>
+      <c r="O19" s="237"/>
+      <c r="P19" s="238"/>
+      <c r="Q19" s="238"/>
+      <c r="R19" s="238"/>
+      <c r="S19" s="238"/>
+      <c r="T19" s="238"/>
+      <c r="U19" s="242"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="J20" s="237"/>
+      <c r="K20" s="237"/>
+      <c r="L20" s="237"/>
+      <c r="M20" s="237"/>
+      <c r="N20" s="237"/>
+      <c r="O20" s="237"/>
+      <c r="P20" s="238"/>
+      <c r="Q20" s="238"/>
+      <c r="R20" s="238"/>
+      <c r="S20" s="238"/>
+      <c r="T20" s="238"/>
+      <c r="U20" s="242"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="G21" s="241" t="s">
+        <v>1214</v>
+      </c>
+      <c r="H21" s="232">
+        <f>H17+H16+H15+H12+H8+H7+H6+H5+H4+H3</f>
+        <v>3.22</v>
+      </c>
+      <c r="J21" s="237"/>
+      <c r="K21" s="237"/>
+      <c r="L21" s="237"/>
+      <c r="M21" s="237"/>
+      <c r="N21" s="237"/>
+      <c r="O21" s="237"/>
+      <c r="P21" s="238"/>
+      <c r="Q21" s="238"/>
+      <c r="R21" s="238"/>
+      <c r="S21" s="238"/>
+      <c r="T21" s="239"/>
+      <c r="U21" s="242"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="G22" s="241" t="s">
+        <v>1215</v>
+      </c>
+      <c r="H22" s="232">
+        <f>H14+H13+H11+H10</f>
+        <v>0.35</v>
+      </c>
+      <c r="J22" s="237"/>
+      <c r="K22" s="235"/>
+      <c r="L22" s="237"/>
+      <c r="M22" s="237"/>
+      <c r="N22" s="237"/>
+      <c r="O22" s="237"/>
+      <c r="P22" s="238"/>
+      <c r="Q22" s="238"/>
+      <c r="R22" s="238"/>
+      <c r="S22" s="238"/>
+      <c r="T22" s="239"/>
+      <c r="U22" s="242"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="J23" s="237"/>
+      <c r="K23" s="237"/>
+      <c r="L23" s="237"/>
+      <c r="M23" s="237"/>
+      <c r="N23" s="237"/>
+      <c r="O23" s="237"/>
+      <c r="P23" s="238"/>
+      <c r="Q23" s="238"/>
+      <c r="R23" s="238"/>
+      <c r="S23" s="238"/>
+      <c r="T23" s="238"/>
+      <c r="U23" s="242"/>
+      <c r="V23" s="77"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="J24" s="237"/>
+      <c r="K24" s="237"/>
+      <c r="L24" s="237"/>
+      <c r="M24" s="237"/>
+      <c r="N24" s="237"/>
+      <c r="O24" s="237"/>
+      <c r="P24" s="238"/>
+      <c r="Q24" s="238"/>
+      <c r="R24" s="238"/>
+      <c r="S24" s="238"/>
+      <c r="T24" s="240"/>
+      <c r="U24" s="242"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="J25" s="237"/>
+      <c r="K25" s="237"/>
+      <c r="L25" s="237"/>
+      <c r="M25" s="237"/>
+      <c r="N25" s="237"/>
+      <c r="O25" s="237"/>
+      <c r="P25" s="238"/>
+      <c r="Q25" s="238"/>
+      <c r="R25" s="238"/>
+      <c r="S25" s="238"/>
+      <c r="T25" s="240"/>
+      <c r="U25" s="242"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="J26" s="237"/>
+      <c r="K26" s="237"/>
+      <c r="L26" s="237"/>
+      <c r="M26" s="237"/>
+      <c r="N26" s="237"/>
+      <c r="O26" s="237"/>
+      <c r="P26" s="238"/>
+      <c r="Q26" s="238"/>
+      <c r="R26" s="238"/>
+      <c r="S26" s="238"/>
+      <c r="T26" s="238"/>
+      <c r="U26" s="242"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="J27" s="237"/>
+      <c r="K27" s="237"/>
+      <c r="L27" s="237"/>
+      <c r="M27" s="237"/>
+      <c r="N27" s="237"/>
+      <c r="O27" s="237"/>
+      <c r="P27" s="238"/>
+      <c r="Q27" s="238"/>
+      <c r="R27" s="238"/>
+      <c r="S27" s="238"/>
+      <c r="T27" s="239"/>
+      <c r="U27" s="242"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="J28" s="237"/>
+      <c r="K28" s="237"/>
+      <c r="L28" s="237"/>
+      <c r="M28" s="237"/>
+      <c r="N28" s="237"/>
+      <c r="O28" s="237"/>
+      <c r="P28" s="238"/>
+      <c r="Q28" s="238"/>
+      <c r="R28" s="238"/>
+      <c r="S28" s="238"/>
+      <c r="T28" s="239"/>
+      <c r="U28" s="242"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="J29" s="237"/>
+      <c r="K29" s="237"/>
+      <c r="L29" s="237"/>
+      <c r="M29" s="237"/>
+      <c r="N29" s="237"/>
+      <c r="O29" s="237"/>
+      <c r="P29" s="238"/>
+      <c r="Q29" s="238"/>
+      <c r="R29" s="238"/>
+      <c r="S29" s="238"/>
+      <c r="T29" s="238"/>
+      <c r="U29" s="242"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="J30" s="237"/>
+      <c r="K30" s="237"/>
+      <c r="L30" s="237"/>
+      <c r="M30" s="237"/>
+      <c r="N30" s="237"/>
+      <c r="O30" s="237"/>
+      <c r="P30" s="237"/>
+      <c r="Q30" s="237"/>
+      <c r="R30" s="237"/>
+      <c r="S30" s="237"/>
+      <c r="T30" s="242"/>
+      <c r="U30" s="242"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="T13:U13" formula="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B8A9872-285B-44B5-B760-86054E2CE794}">
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
@@ -63554,7 +67249,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42702488-9A23-4952-8D3F-5B7760F32032}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
@@ -63728,7 +67423,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="235" t="s">
+      <c r="A6" s="249" t="s">
         <v>99</v>
       </c>
       <c r="B6" s="43" t="s">
@@ -63759,7 +67454,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A7" s="235"/>
+      <c r="A7" s="249"/>
       <c r="B7" s="43" t="s">
         <v>96</v>
       </c>
@@ -64071,7 +67766,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B8CC896-CEFF-42DA-AD9C-EE3BB3129E18}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
@@ -64699,12 +68394,12 @@
       <c r="J34" s="55"/>
     </row>
     <row r="35" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="236" t="s">
+      <c r="A35" s="250" t="s">
         <v>151</v>
       </c>
-      <c r="B35" s="236"/>
-      <c r="C35" s="236"/>
-      <c r="D35" s="236"/>
+      <c r="B35" s="250"/>
+      <c r="C35" s="250"/>
+      <c r="D35" s="250"/>
       <c r="F35" s="56" t="s">
         <v>152</v>
       </c>
@@ -64716,16 +68411,16 @@
       <c r="J35" s="55"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="237" t="s">
+      <c r="A36" s="251" t="s">
         <v>116</v>
       </c>
-      <c r="B36" s="238" t="s">
+      <c r="B36" s="252" t="s">
         <v>153</v>
       </c>
-      <c r="C36" s="238" t="s">
+      <c r="C36" s="252" t="s">
         <v>149</v>
       </c>
-      <c r="D36" s="238" t="s">
+      <c r="D36" s="252" t="s">
         <v>150</v>
       </c>
       <c r="F36" s="59" t="s">
@@ -64739,10 +68434,10 @@
       <c r="J36" s="55"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="237"/>
-      <c r="B37" s="238"/>
-      <c r="C37" s="238"/>
-      <c r="D37" s="238"/>
+      <c r="A37" s="251"/>
+      <c r="B37" s="252"/>
+      <c r="C37" s="252"/>
+      <c r="D37" s="252"/>
       <c r="F37" s="56" t="s">
         <v>155</v>
       </c>
@@ -65062,7 +68757,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EA6FAF9-E8CD-406B-8012-87809236FB29}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -65391,7 +69086,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333067A0-0BA2-478F-BBAB-B928C05A8F5B}">
   <sheetPr>
     <tabColor theme="1"/>
@@ -65569,7 +69264,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E71E42D-20B3-461E-A0AB-0A41212747EC}">
   <dimension ref="A1:J30"/>
   <sheetViews>
@@ -65596,460 +69291,460 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="243" t="s">
+      <c r="A4" s="257" t="s">
         <v>1130</v>
       </c>
-      <c r="B4" s="243" t="s">
+      <c r="B4" s="257" t="s">
         <v>1131</v>
       </c>
-      <c r="C4" s="243" t="s">
+      <c r="C4" s="257" t="s">
         <v>1132</v>
       </c>
-      <c r="D4" s="243" t="s">
+      <c r="D4" s="257" t="s">
         <v>1133</v>
       </c>
-      <c r="E4" s="245" t="s">
+      <c r="E4" s="259" t="s">
         <v>1134</v>
       </c>
-      <c r="F4" s="243" t="s">
+      <c r="F4" s="257" t="s">
         <v>1135</v>
       </c>
-      <c r="G4" s="243" t="s">
+      <c r="G4" s="257" t="s">
         <v>1136</v>
       </c>
-      <c r="H4" s="243" t="s">
+      <c r="H4" s="257" t="s">
         <v>1137</v>
       </c>
-      <c r="I4" s="243" t="s">
+      <c r="I4" s="257" t="s">
         <v>1138</v>
       </c>
-      <c r="J4" s="245" t="s">
+      <c r="J4" s="259" t="s">
         <v>1139</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="244"/>
-      <c r="B5" s="244"/>
-      <c r="C5" s="244"/>
-      <c r="D5" s="244"/>
-      <c r="E5" s="246"/>
-      <c r="F5" s="244"/>
-      <c r="G5" s="244"/>
-      <c r="H5" s="244"/>
-      <c r="I5" s="244"/>
-      <c r="J5" s="246"/>
+      <c r="A5" s="258"/>
+      <c r="B5" s="258"/>
+      <c r="C5" s="258"/>
+      <c r="D5" s="258"/>
+      <c r="E5" s="260"/>
+      <c r="F5" s="258"/>
+      <c r="G5" s="258"/>
+      <c r="H5" s="258"/>
+      <c r="I5" s="258"/>
+      <c r="J5" s="260"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="243" t="s">
+      <c r="A6" s="257" t="s">
         <v>1140</v>
       </c>
-      <c r="B6" s="241">
+      <c r="B6" s="255">
         <v>3563</v>
       </c>
-      <c r="C6" s="241">
+      <c r="C6" s="255">
         <v>3583</v>
       </c>
-      <c r="D6" s="241">
+      <c r="D6" s="255">
         <v>3689</v>
       </c>
-      <c r="E6" s="239">
+      <c r="E6" s="253">
         <v>3712</v>
       </c>
-      <c r="F6" s="241">
+      <c r="F6" s="255">
         <v>3656</v>
       </c>
-      <c r="G6" s="241">
+      <c r="G6" s="255">
         <v>3751</v>
       </c>
-      <c r="H6" s="241">
+      <c r="H6" s="255">
         <v>3693</v>
       </c>
-      <c r="I6" s="241">
+      <c r="I6" s="255">
         <v>3676</v>
       </c>
-      <c r="J6" s="239">
+      <c r="J6" s="253">
         <v>3638</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="244"/>
-      <c r="B7" s="242"/>
-      <c r="C7" s="242"/>
-      <c r="D7" s="242"/>
-      <c r="E7" s="240"/>
-      <c r="F7" s="242"/>
-      <c r="G7" s="242"/>
-      <c r="H7" s="242"/>
-      <c r="I7" s="242"/>
-      <c r="J7" s="240"/>
+      <c r="A7" s="258"/>
+      <c r="B7" s="256"/>
+      <c r="C7" s="256"/>
+      <c r="D7" s="256"/>
+      <c r="E7" s="254"/>
+      <c r="F7" s="256"/>
+      <c r="G7" s="256"/>
+      <c r="H7" s="256"/>
+      <c r="I7" s="256"/>
+      <c r="J7" s="254"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="243" t="s">
+      <c r="A8" s="257" t="s">
         <v>1141</v>
       </c>
-      <c r="B8" s="241">
+      <c r="B8" s="255">
         <v>2957</v>
       </c>
-      <c r="C8" s="241">
+      <c r="C8" s="255">
         <v>3253</v>
       </c>
-      <c r="D8" s="241">
+      <c r="D8" s="255">
         <v>3342</v>
       </c>
-      <c r="E8" s="239">
+      <c r="E8" s="253">
         <v>3325</v>
       </c>
-      <c r="F8" s="241">
+      <c r="F8" s="255">
         <v>3461</v>
       </c>
-      <c r="G8" s="241">
+      <c r="G8" s="255">
         <v>3392</v>
       </c>
-      <c r="H8" s="241">
+      <c r="H8" s="255">
         <v>3455</v>
       </c>
-      <c r="I8" s="241">
+      <c r="I8" s="255">
         <v>3369</v>
       </c>
-      <c r="J8" s="239">
+      <c r="J8" s="253">
         <v>3372</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="244"/>
-      <c r="B9" s="242"/>
-      <c r="C9" s="242"/>
-      <c r="D9" s="242"/>
-      <c r="E9" s="240"/>
-      <c r="F9" s="242"/>
-      <c r="G9" s="242"/>
-      <c r="H9" s="242"/>
-      <c r="I9" s="242"/>
-      <c r="J9" s="240"/>
+      <c r="A9" s="258"/>
+      <c r="B9" s="256"/>
+      <c r="C9" s="256"/>
+      <c r="D9" s="256"/>
+      <c r="E9" s="254"/>
+      <c r="F9" s="256"/>
+      <c r="G9" s="256"/>
+      <c r="H9" s="256"/>
+      <c r="I9" s="256"/>
+      <c r="J9" s="254"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="243" t="s">
+      <c r="A10" s="257" t="s">
         <v>1142</v>
       </c>
-      <c r="B10" s="241">
+      <c r="B10" s="255">
         <v>2354</v>
       </c>
-      <c r="C10" s="241">
+      <c r="C10" s="255">
         <v>2997</v>
       </c>
-      <c r="D10" s="241">
+      <c r="D10" s="255">
         <v>3041</v>
       </c>
-      <c r="E10" s="239">
+      <c r="E10" s="253">
         <v>3085</v>
       </c>
-      <c r="F10" s="241">
+      <c r="F10" s="255">
         <v>3118</v>
       </c>
-      <c r="G10" s="241">
+      <c r="G10" s="255">
         <v>3100</v>
       </c>
-      <c r="H10" s="241">
+      <c r="H10" s="255">
         <v>3130</v>
       </c>
-      <c r="I10" s="241">
+      <c r="I10" s="255">
         <v>3102</v>
       </c>
-      <c r="J10" s="239">
+      <c r="J10" s="253">
         <v>3098</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="244"/>
-      <c r="B11" s="242"/>
-      <c r="C11" s="242"/>
-      <c r="D11" s="242"/>
-      <c r="E11" s="240"/>
-      <c r="F11" s="242"/>
-      <c r="G11" s="242"/>
-      <c r="H11" s="242"/>
-      <c r="I11" s="242"/>
-      <c r="J11" s="240"/>
+      <c r="A11" s="258"/>
+      <c r="B11" s="256"/>
+      <c r="C11" s="256"/>
+      <c r="D11" s="256"/>
+      <c r="E11" s="254"/>
+      <c r="F11" s="256"/>
+      <c r="G11" s="256"/>
+      <c r="H11" s="256"/>
+      <c r="I11" s="256"/>
+      <c r="J11" s="254"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="243" t="s">
+      <c r="A12" s="257" t="s">
         <v>1143</v>
       </c>
-      <c r="B12" s="241"/>
-      <c r="C12" s="241">
+      <c r="B12" s="255"/>
+      <c r="C12" s="255">
         <v>2361</v>
       </c>
-      <c r="D12" s="241">
+      <c r="D12" s="255">
         <v>2778</v>
       </c>
-      <c r="E12" s="239">
+      <c r="E12" s="253">
         <v>2793</v>
       </c>
-      <c r="F12" s="241">
+      <c r="F12" s="255">
         <v>2808</v>
       </c>
-      <c r="G12" s="241">
+      <c r="G12" s="255">
         <v>2810</v>
       </c>
-      <c r="H12" s="241">
+      <c r="H12" s="255">
         <v>2814</v>
       </c>
-      <c r="I12" s="241">
+      <c r="I12" s="255">
         <v>2795</v>
       </c>
-      <c r="J12" s="239">
+      <c r="J12" s="253">
         <v>2793</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="244"/>
-      <c r="B13" s="242"/>
-      <c r="C13" s="242"/>
-      <c r="D13" s="242"/>
-      <c r="E13" s="240"/>
-      <c r="F13" s="242"/>
-      <c r="G13" s="242"/>
-      <c r="H13" s="242"/>
-      <c r="I13" s="242"/>
-      <c r="J13" s="240"/>
+      <c r="A13" s="258"/>
+      <c r="B13" s="256"/>
+      <c r="C13" s="256"/>
+      <c r="D13" s="256"/>
+      <c r="E13" s="254"/>
+      <c r="F13" s="256"/>
+      <c r="G13" s="256"/>
+      <c r="H13" s="256"/>
+      <c r="I13" s="256"/>
+      <c r="J13" s="254"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="243" t="s">
+      <c r="A14" s="257" t="s">
         <v>1144</v>
       </c>
-      <c r="B14" s="241"/>
-      <c r="C14" s="241"/>
-      <c r="D14" s="241">
+      <c r="B14" s="255"/>
+      <c r="C14" s="255"/>
+      <c r="D14" s="255">
         <v>2241</v>
       </c>
-      <c r="E14" s="239">
+      <c r="E14" s="253">
         <v>2467</v>
       </c>
-      <c r="F14" s="241">
+      <c r="F14" s="255">
         <v>2521</v>
       </c>
-      <c r="G14" s="241">
+      <c r="G14" s="255">
         <v>2507</v>
       </c>
-      <c r="H14" s="241">
+      <c r="H14" s="255">
         <v>2536</v>
       </c>
-      <c r="I14" s="241">
+      <c r="I14" s="255">
         <v>2517</v>
       </c>
-      <c r="J14" s="239">
+      <c r="J14" s="253">
         <v>2525</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="244"/>
-      <c r="B15" s="242"/>
-      <c r="C15" s="242"/>
-      <c r="D15" s="242"/>
-      <c r="E15" s="240"/>
-      <c r="F15" s="242"/>
-      <c r="G15" s="242"/>
-      <c r="H15" s="242"/>
-      <c r="I15" s="242"/>
-      <c r="J15" s="240"/>
+      <c r="A15" s="258"/>
+      <c r="B15" s="256"/>
+      <c r="C15" s="256"/>
+      <c r="D15" s="256"/>
+      <c r="E15" s="254"/>
+      <c r="F15" s="256"/>
+      <c r="G15" s="256"/>
+      <c r="H15" s="256"/>
+      <c r="I15" s="256"/>
+      <c r="J15" s="254"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="243" t="s">
+      <c r="A16" s="257" t="s">
         <v>1145</v>
       </c>
-      <c r="B16" s="241"/>
-      <c r="C16" s="241"/>
-      <c r="D16" s="241"/>
-      <c r="E16" s="239">
+      <c r="B16" s="255"/>
+      <c r="C16" s="255"/>
+      <c r="D16" s="255"/>
+      <c r="E16" s="253">
         <v>2113</v>
       </c>
-      <c r="F16" s="241">
+      <c r="F16" s="255">
         <v>2226</v>
       </c>
-      <c r="G16" s="241">
+      <c r="G16" s="255">
         <v>2202</v>
       </c>
-      <c r="H16" s="241">
+      <c r="H16" s="255">
         <v>2232</v>
       </c>
-      <c r="I16" s="241">
+      <c r="I16" s="255">
         <v>2235</v>
       </c>
-      <c r="J16" s="239">
+      <c r="J16" s="253">
         <v>2227</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="244"/>
-      <c r="B17" s="242"/>
-      <c r="C17" s="242"/>
-      <c r="D17" s="242"/>
-      <c r="E17" s="240"/>
-      <c r="F17" s="242"/>
-      <c r="G17" s="242"/>
-      <c r="H17" s="242"/>
-      <c r="I17" s="242"/>
-      <c r="J17" s="240"/>
+      <c r="A17" s="258"/>
+      <c r="B17" s="256"/>
+      <c r="C17" s="256"/>
+      <c r="D17" s="256"/>
+      <c r="E17" s="254"/>
+      <c r="F17" s="256"/>
+      <c r="G17" s="256"/>
+      <c r="H17" s="256"/>
+      <c r="I17" s="256"/>
+      <c r="J17" s="254"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="243" t="s">
+      <c r="A18" s="257" t="s">
         <v>1146</v>
       </c>
-      <c r="B18" s="241"/>
-      <c r="C18" s="241"/>
-      <c r="D18" s="241"/>
-      <c r="E18" s="239"/>
-      <c r="F18" s="241">
+      <c r="B18" s="255"/>
+      <c r="C18" s="255"/>
+      <c r="D18" s="255"/>
+      <c r="E18" s="253"/>
+      <c r="F18" s="255">
         <v>1537</v>
       </c>
-      <c r="G18" s="241">
+      <c r="G18" s="255">
         <v>1762</v>
       </c>
-      <c r="H18" s="241">
+      <c r="H18" s="255">
         <v>1905</v>
       </c>
-      <c r="I18" s="241">
+      <c r="I18" s="255">
         <v>1879</v>
       </c>
-      <c r="J18" s="239">
+      <c r="J18" s="253">
         <v>1893</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="244"/>
-      <c r="B19" s="242"/>
-      <c r="C19" s="242"/>
-      <c r="D19" s="242"/>
-      <c r="E19" s="240"/>
-      <c r="F19" s="242"/>
-      <c r="G19" s="242"/>
-      <c r="H19" s="242"/>
-      <c r="I19" s="242"/>
-      <c r="J19" s="240"/>
+      <c r="A19" s="258"/>
+      <c r="B19" s="256"/>
+      <c r="C19" s="256"/>
+      <c r="D19" s="256"/>
+      <c r="E19" s="254"/>
+      <c r="F19" s="256"/>
+      <c r="G19" s="256"/>
+      <c r="H19" s="256"/>
+      <c r="I19" s="256"/>
+      <c r="J19" s="254"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="243" t="s">
+      <c r="A20" s="257" t="s">
         <v>1147</v>
       </c>
-      <c r="B20" s="241"/>
-      <c r="C20" s="241"/>
-      <c r="D20" s="241"/>
-      <c r="E20" s="239"/>
-      <c r="F20" s="241"/>
-      <c r="G20" s="241">
+      <c r="B20" s="255"/>
+      <c r="C20" s="255"/>
+      <c r="D20" s="255"/>
+      <c r="E20" s="253"/>
+      <c r="F20" s="255"/>
+      <c r="G20" s="255">
         <v>1412</v>
       </c>
-      <c r="H20" s="241">
+      <c r="H20" s="255">
         <v>1689</v>
       </c>
-      <c r="I20" s="241">
+      <c r="I20" s="255">
         <v>1630</v>
       </c>
-      <c r="J20" s="239">
+      <c r="J20" s="253">
         <v>1640</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="244"/>
-      <c r="B21" s="242"/>
-      <c r="C21" s="242"/>
-      <c r="D21" s="242"/>
-      <c r="E21" s="240"/>
-      <c r="F21" s="242"/>
-      <c r="G21" s="242"/>
-      <c r="H21" s="242"/>
-      <c r="I21" s="242"/>
-      <c r="J21" s="240"/>
+      <c r="A21" s="258"/>
+      <c r="B21" s="256"/>
+      <c r="C21" s="256"/>
+      <c r="D21" s="256"/>
+      <c r="E21" s="254"/>
+      <c r="F21" s="256"/>
+      <c r="G21" s="256"/>
+      <c r="H21" s="256"/>
+      <c r="I21" s="256"/>
+      <c r="J21" s="254"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="243" t="s">
+      <c r="A22" s="257" t="s">
         <v>1148</v>
       </c>
-      <c r="B22" s="241"/>
-      <c r="C22" s="241"/>
-      <c r="D22" s="241"/>
-      <c r="E22" s="239"/>
-      <c r="F22" s="241"/>
-      <c r="G22" s="241"/>
-      <c r="H22" s="241">
+      <c r="B22" s="255"/>
+      <c r="C22" s="255"/>
+      <c r="D22" s="255"/>
+      <c r="E22" s="253"/>
+      <c r="F22" s="255"/>
+      <c r="G22" s="255"/>
+      <c r="H22" s="255">
         <v>1082</v>
       </c>
-      <c r="I22" s="241">
+      <c r="I22" s="255">
         <v>1341</v>
       </c>
-      <c r="J22" s="239">
+      <c r="J22" s="253">
         <v>1325</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="244"/>
-      <c r="B23" s="242"/>
-      <c r="C23" s="242"/>
-      <c r="D23" s="242"/>
-      <c r="E23" s="240"/>
-      <c r="F23" s="242"/>
-      <c r="G23" s="242"/>
-      <c r="H23" s="242"/>
-      <c r="I23" s="242"/>
-      <c r="J23" s="240"/>
+      <c r="A23" s="258"/>
+      <c r="B23" s="256"/>
+      <c r="C23" s="256"/>
+      <c r="D23" s="256"/>
+      <c r="E23" s="254"/>
+      <c r="F23" s="256"/>
+      <c r="G23" s="256"/>
+      <c r="H23" s="256"/>
+      <c r="I23" s="256"/>
+      <c r="J23" s="254"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="243" t="s">
+      <c r="A24" s="257" t="s">
         <v>1149</v>
       </c>
-      <c r="B24" s="241"/>
-      <c r="C24" s="241"/>
-      <c r="D24" s="241"/>
-      <c r="E24" s="239"/>
-      <c r="F24" s="241"/>
-      <c r="G24" s="241"/>
-      <c r="H24" s="241"/>
-      <c r="I24" s="241">
+      <c r="B24" s="255"/>
+      <c r="C24" s="255"/>
+      <c r="D24" s="255"/>
+      <c r="E24" s="253"/>
+      <c r="F24" s="255"/>
+      <c r="G24" s="255"/>
+      <c r="H24" s="255"/>
+      <c r="I24" s="255">
         <v>1003</v>
       </c>
-      <c r="J24" s="239">
+      <c r="J24" s="253">
         <v>1016</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="244"/>
-      <c r="B25" s="242"/>
-      <c r="C25" s="242"/>
-      <c r="D25" s="242"/>
-      <c r="E25" s="240"/>
-      <c r="F25" s="242"/>
-      <c r="G25" s="242"/>
-      <c r="H25" s="242"/>
-      <c r="I25" s="242"/>
-      <c r="J25" s="240"/>
+      <c r="A25" s="258"/>
+      <c r="B25" s="256"/>
+      <c r="C25" s="256"/>
+      <c r="D25" s="256"/>
+      <c r="E25" s="254"/>
+      <c r="F25" s="256"/>
+      <c r="G25" s="256"/>
+      <c r="H25" s="256"/>
+      <c r="I25" s="256"/>
+      <c r="J25" s="254"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="243" t="s">
+      <c r="A26" s="257" t="s">
         <v>1150</v>
       </c>
-      <c r="B26" s="241"/>
-      <c r="C26" s="241"/>
-      <c r="D26" s="241"/>
-      <c r="E26" s="239"/>
-      <c r="F26" s="241"/>
-      <c r="G26" s="241"/>
-      <c r="H26" s="241"/>
-      <c r="I26" s="241"/>
-      <c r="J26" s="239">
+      <c r="B26" s="255"/>
+      <c r="C26" s="255"/>
+      <c r="D26" s="255"/>
+      <c r="E26" s="253"/>
+      <c r="F26" s="255"/>
+      <c r="G26" s="255"/>
+      <c r="H26" s="255"/>
+      <c r="I26" s="255"/>
+      <c r="J26" s="253">
         <v>632</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="244"/>
-      <c r="B27" s="242"/>
-      <c r="C27" s="242"/>
-      <c r="D27" s="242"/>
-      <c r="E27" s="240"/>
-      <c r="F27" s="242"/>
-      <c r="G27" s="242"/>
-      <c r="H27" s="242"/>
-      <c r="I27" s="242"/>
-      <c r="J27" s="240"/>
+      <c r="A27" s="258"/>
+      <c r="B27" s="256"/>
+      <c r="C27" s="256"/>
+      <c r="D27" s="256"/>
+      <c r="E27" s="254"/>
+      <c r="F27" s="256"/>
+      <c r="G27" s="256"/>
+      <c r="H27" s="256"/>
+      <c r="I27" s="256"/>
+      <c r="J27" s="254"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -66181,1843 +69876,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4495308E-7421-403A-BFE6-292551B102E4}">
-  <sheetPr>
-    <tabColor theme="2" tint="-9.9978637043366805E-2"/>
-  </sheetPr>
-  <dimension ref="A1:Q70"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
-        <v>232</v>
-      </c>
-      <c r="C1" s="78" t="s">
-        <v>233</v>
-      </c>
-      <c r="F1" s="262" t="s">
-        <v>234</v>
-      </c>
-      <c r="G1" s="262"/>
-      <c r="H1" s="262" t="s">
-        <v>235</v>
-      </c>
-      <c r="I1" s="262"/>
-      <c r="J1" s="262" t="s">
-        <v>236</v>
-      </c>
-      <c r="K1" s="262"/>
-      <c r="L1" s="262" t="s">
-        <v>237</v>
-      </c>
-      <c r="M1" s="262"/>
-      <c r="N1" s="262" t="s">
-        <v>238</v>
-      </c>
-      <c r="O1" s="262"/>
-    </row>
-    <row r="2" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F2" s="79" t="s">
-        <v>239</v>
-      </c>
-      <c r="G2" s="79" t="s">
-        <v>240</v>
-      </c>
-      <c r="H2" s="263"/>
-      <c r="I2" s="264"/>
-      <c r="J2" s="263"/>
-      <c r="K2" s="264"/>
-      <c r="L2" s="79" t="s">
-        <v>239</v>
-      </c>
-      <c r="M2" s="79" t="s">
-        <v>240</v>
-      </c>
-      <c r="N2" s="263"/>
-      <c r="O2" s="264"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>241</v>
-      </c>
-      <c r="C3" t="s">
-        <v>242</v>
-      </c>
-      <c r="E3" s="80" t="s">
-        <v>243</v>
-      </c>
-      <c r="F3" s="256">
-        <v>0.64709000000000005</v>
-      </c>
-      <c r="G3" s="256"/>
-      <c r="H3" s="256">
-        <v>0.97192999999999996</v>
-      </c>
-      <c r="I3" s="256"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
-      <c r="M3" s="81"/>
-      <c r="N3" s="81"/>
-      <c r="O3" s="82"/>
-      <c r="P3" s="83">
-        <f>F3+H3+H4+F4</f>
-        <v>2.2834299999999996</v>
-      </c>
-      <c r="Q3" s="83"/>
-    </row>
-    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C4" t="s">
-        <v>245</v>
-      </c>
-      <c r="E4" s="84" t="s">
-        <v>246</v>
-      </c>
-      <c r="F4" s="261">
-        <v>0.26545000000000002</v>
-      </c>
-      <c r="G4" s="261"/>
-      <c r="H4" s="261">
-        <v>0.39895999999999998</v>
-      </c>
-      <c r="I4" s="261"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
-      <c r="N4" s="85"/>
-      <c r="O4" s="86"/>
-      <c r="P4" s="83"/>
-      <c r="Q4" s="83"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>247</v>
-      </c>
-      <c r="C5" t="s">
-        <v>247</v>
-      </c>
-      <c r="E5" s="80" t="s">
-        <v>248</v>
-      </c>
-      <c r="F5" s="81">
-        <v>0.50017999999999996</v>
-      </c>
-      <c r="G5" s="81">
-        <v>0.25008999999999998</v>
-      </c>
-      <c r="H5" s="256">
-        <v>1</v>
-      </c>
-      <c r="I5" s="256"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="81"/>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="83">
-        <f>F5+G5+H5+J6</f>
-        <v>2.02515</v>
-      </c>
-      <c r="Q5" s="83"/>
-    </row>
-    <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E6" s="84" t="s">
-        <v>249</v>
-      </c>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85"/>
-      <c r="J6" s="261">
-        <v>0.27488000000000001</v>
-      </c>
-      <c r="K6" s="261"/>
-      <c r="L6" s="85"/>
-      <c r="M6" s="85"/>
-      <c r="N6" s="85"/>
-      <c r="O6" s="86"/>
-      <c r="P6" s="83"/>
-      <c r="Q6" s="83"/>
-    </row>
-    <row r="7" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>250</v>
-      </c>
-      <c r="C7" s="78" t="s">
-        <v>251</v>
-      </c>
-      <c r="E7" s="80" t="s">
-        <v>252</v>
-      </c>
-      <c r="F7" s="81">
-        <v>0.35504999999999998</v>
-      </c>
-      <c r="G7" s="81">
-        <v>0.17752000000000001</v>
-      </c>
-      <c r="H7" s="256">
-        <v>0.72296000000000005</v>
-      </c>
-      <c r="I7" s="256"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
-      <c r="L7" s="81"/>
-      <c r="M7" s="81"/>
-      <c r="N7" s="81"/>
-      <c r="O7" s="82"/>
-      <c r="P7" s="83">
-        <f>F7+G7+H7+J8</f>
-        <v>1.6189</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>253</v>
-      </c>
-      <c r="E8" s="84" t="s">
-        <v>254</v>
-      </c>
-      <c r="F8" s="85"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="85"/>
-      <c r="J8" s="261">
-        <v>0.36337000000000003</v>
-      </c>
-      <c r="K8" s="261"/>
-      <c r="L8" s="85"/>
-      <c r="M8" s="85"/>
-      <c r="N8" s="85"/>
-      <c r="O8" s="86"/>
-      <c r="P8" s="83"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>242</v>
-      </c>
-      <c r="E9" s="80" t="s">
-        <v>255</v>
-      </c>
-      <c r="F9" s="81">
-        <v>0.65615999999999997</v>
-      </c>
-      <c r="G9" s="81"/>
-      <c r="H9" s="256">
-        <v>0.78437000000000001</v>
-      </c>
-      <c r="I9" s="256"/>
-      <c r="J9" s="81"/>
-      <c r="K9" s="81"/>
-      <c r="L9" s="81"/>
-      <c r="M9" s="81"/>
-      <c r="N9" s="81"/>
-      <c r="O9" s="82"/>
-      <c r="P9" s="83">
-        <f>F9+H9+J10+L11</f>
-        <v>1.8734299999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>256</v>
-      </c>
-      <c r="C10" t="s">
-        <v>245</v>
-      </c>
-      <c r="E10" s="87" t="s">
-        <v>257</v>
-      </c>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="88"/>
-      <c r="J10" s="260">
-        <v>0.1464</v>
-      </c>
-      <c r="K10" s="260"/>
-      <c r="L10" s="88"/>
-      <c r="M10" s="88"/>
-      <c r="N10" s="88"/>
-      <c r="O10" s="89"/>
-      <c r="P10" s="83"/>
-    </row>
-    <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>258</v>
-      </c>
-      <c r="C11" t="s">
-        <v>247</v>
-      </c>
-      <c r="E11" s="84" t="s">
-        <v>259</v>
-      </c>
-      <c r="F11" s="85"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="85"/>
-      <c r="J11" s="90"/>
-      <c r="K11" s="90"/>
-      <c r="L11" s="85">
-        <v>0.28649999999999998</v>
-      </c>
-      <c r="M11" s="85"/>
-      <c r="N11" s="85"/>
-      <c r="O11" s="86"/>
-      <c r="P11" s="83"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E12" s="80" t="s">
-        <v>260</v>
-      </c>
-      <c r="F12" s="256">
-        <v>0.42514999999999997</v>
-      </c>
-      <c r="G12" s="256"/>
-      <c r="H12" s="256">
-        <v>0.85</v>
-      </c>
-      <c r="I12" s="256"/>
-      <c r="J12" s="81"/>
-      <c r="K12" s="81"/>
-      <c r="L12" s="81"/>
-      <c r="M12" s="81"/>
-      <c r="N12" s="81"/>
-      <c r="O12" s="82"/>
-      <c r="P12" s="83">
-        <f>F12+H12+J13</f>
-        <v>1.5087999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="78" t="s">
-        <v>261</v>
-      </c>
-      <c r="C13" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="E13" s="84" t="s">
-        <v>263</v>
-      </c>
-      <c r="F13" s="85"/>
-      <c r="G13" s="85"/>
-      <c r="H13" s="85"/>
-      <c r="I13" s="85"/>
-      <c r="J13" s="261">
-        <v>0.23365</v>
-      </c>
-      <c r="K13" s="261"/>
-      <c r="L13" s="85"/>
-      <c r="M13" s="85"/>
-      <c r="N13" s="85"/>
-      <c r="O13" s="86"/>
-      <c r="P13" s="83"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C14" s="91" t="s">
-        <v>264</v>
-      </c>
-      <c r="E14" s="80" t="s">
-        <v>265</v>
-      </c>
-      <c r="F14" s="81">
-        <v>1</v>
-      </c>
-      <c r="G14" s="92"/>
-      <c r="H14" s="256">
-        <v>0.51382000000000005</v>
-      </c>
-      <c r="I14" s="256"/>
-      <c r="J14" s="81"/>
-      <c r="K14" s="81"/>
-      <c r="L14" s="81"/>
-      <c r="M14" s="81"/>
-      <c r="N14" s="81"/>
-      <c r="O14" s="82"/>
-      <c r="P14" s="83">
-        <f>F14+H14+J15+L16</f>
-        <v>1.88497</v>
-      </c>
-      <c r="Q14" s="83"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>241</v>
-      </c>
-      <c r="C15" s="91" t="s">
-        <v>266</v>
-      </c>
-      <c r="E15" s="87" t="s">
-        <v>267</v>
-      </c>
-      <c r="F15" s="88"/>
-      <c r="G15" s="88"/>
-      <c r="H15" s="88"/>
-      <c r="I15" s="88"/>
-      <c r="J15" s="260">
-        <v>4.3869999999999999E-2</v>
-      </c>
-      <c r="K15" s="260"/>
-      <c r="L15" s="88"/>
-      <c r="M15" s="88"/>
-      <c r="N15" s="88"/>
-      <c r="O15" s="89"/>
-      <c r="P15" s="83"/>
-      <c r="Q15" s="83"/>
-    </row>
-    <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>244</v>
-      </c>
-      <c r="C16" s="91" t="s">
-        <v>268</v>
-      </c>
-      <c r="E16" s="84" t="s">
-        <v>269</v>
-      </c>
-      <c r="F16" s="85"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="85"/>
-      <c r="I16" s="85"/>
-      <c r="J16" s="90"/>
-      <c r="K16" s="90"/>
-      <c r="L16" s="85">
-        <v>0.32728000000000002</v>
-      </c>
-      <c r="M16" s="85"/>
-      <c r="N16" s="85"/>
-      <c r="O16" s="86"/>
-      <c r="P16" s="83"/>
-      <c r="Q16" s="83"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>247</v>
-      </c>
-      <c r="C17" s="91" t="s">
-        <v>270</v>
-      </c>
-      <c r="E17" s="80" t="s">
-        <v>271</v>
-      </c>
-      <c r="F17" s="81">
-        <v>0.91232999999999997</v>
-      </c>
-      <c r="G17" s="92"/>
-      <c r="H17" s="256">
-        <v>0.46146999999999999</v>
-      </c>
-      <c r="I17" s="256"/>
-      <c r="J17" s="81"/>
-      <c r="K17" s="81"/>
-      <c r="L17" s="81"/>
-      <c r="M17" s="81"/>
-      <c r="N17" s="81"/>
-      <c r="O17" s="82"/>
-      <c r="P17" s="83">
-        <f>F17+H17+J18+L19</f>
-        <v>2.0396200000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>256</v>
-      </c>
-      <c r="C18" s="91" t="s">
-        <v>272</v>
-      </c>
-      <c r="E18" s="87" t="s">
-        <v>273</v>
-      </c>
-      <c r="F18" s="88"/>
-      <c r="G18" s="88"/>
-      <c r="H18" s="88"/>
-      <c r="I18" s="88"/>
-      <c r="J18" s="260">
-        <v>0.15035999999999999</v>
-      </c>
-      <c r="K18" s="260"/>
-      <c r="L18" s="88"/>
-      <c r="M18" s="88"/>
-      <c r="N18" s="88"/>
-      <c r="O18" s="89"/>
-      <c r="P18" s="83"/>
-    </row>
-    <row r="19" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>258</v>
-      </c>
-      <c r="C19" s="91" t="s">
-        <v>274</v>
-      </c>
-      <c r="E19" s="84" t="s">
-        <v>275</v>
-      </c>
-      <c r="F19" s="85"/>
-      <c r="G19" s="85"/>
-      <c r="H19" s="85"/>
-      <c r="I19" s="85"/>
-      <c r="J19" s="90"/>
-      <c r="K19" s="90"/>
-      <c r="L19" s="85">
-        <v>0.51546000000000003</v>
-      </c>
-      <c r="M19" s="85"/>
-      <c r="N19" s="85"/>
-      <c r="O19" s="86"/>
-      <c r="P19" s="83"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C20" s="91" t="s">
-        <v>276</v>
-      </c>
-      <c r="E20" s="80" t="s">
-        <v>277</v>
-      </c>
-      <c r="F20" s="81">
-        <v>0.69059999999999999</v>
-      </c>
-      <c r="G20" s="92"/>
-      <c r="H20" s="256">
-        <v>0.38878000000000001</v>
-      </c>
-      <c r="I20" s="256"/>
-      <c r="J20" s="81"/>
-      <c r="K20" s="81"/>
-      <c r="L20" s="81"/>
-      <c r="M20" s="81"/>
-      <c r="N20" s="81"/>
-      <c r="O20" s="82"/>
-      <c r="P20" s="83">
-        <f>F20+H20+J21+L22</f>
-        <v>1.9173399999999998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="78" t="s">
-        <v>236</v>
-      </c>
-      <c r="C21" s="91" t="s">
-        <v>278</v>
-      </c>
-      <c r="E21" s="87" t="s">
-        <v>279</v>
-      </c>
-      <c r="F21" s="88"/>
-      <c r="G21" s="88"/>
-      <c r="H21" s="88"/>
-      <c r="I21" s="88"/>
-      <c r="J21" s="260">
-        <v>0.2099</v>
-      </c>
-      <c r="K21" s="260"/>
-      <c r="L21" s="88"/>
-      <c r="M21" s="88"/>
-      <c r="N21" s="88"/>
-      <c r="O21" s="89"/>
-      <c r="P21" s="83"/>
-    </row>
-    <row r="22" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="91" t="s">
-        <v>280</v>
-      </c>
-      <c r="E22" s="84" t="s">
-        <v>281</v>
-      </c>
-      <c r="F22" s="85"/>
-      <c r="G22" s="85"/>
-      <c r="H22" s="85"/>
-      <c r="I22" s="85"/>
-      <c r="J22" s="90"/>
-      <c r="K22" s="90"/>
-      <c r="L22" s="85">
-        <v>0.62805999999999995</v>
-      </c>
-      <c r="M22" s="85"/>
-      <c r="N22" s="85"/>
-      <c r="O22" s="86"/>
-      <c r="P22" s="83"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>282</v>
-      </c>
-      <c r="C23" s="91" t="s">
-        <v>283</v>
-      </c>
-      <c r="E23" s="80" t="s">
-        <v>284</v>
-      </c>
-      <c r="F23" s="81">
-        <v>0.68315000000000003</v>
-      </c>
-      <c r="G23" s="92"/>
-      <c r="H23" s="256">
-        <v>0.70006000000000002</v>
-      </c>
-      <c r="I23" s="256"/>
-      <c r="J23" s="81"/>
-      <c r="K23" s="81"/>
-      <c r="L23" s="81"/>
-      <c r="M23" s="81"/>
-      <c r="N23" s="81"/>
-      <c r="O23" s="82"/>
-      <c r="P23" s="83">
-        <f>F23+H23+J24+L25</f>
-        <v>1.85917</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>285</v>
-      </c>
-      <c r="C24" s="91" t="s">
-        <v>286</v>
-      </c>
-      <c r="E24" s="87" t="s">
-        <v>287</v>
-      </c>
-      <c r="F24" s="88"/>
-      <c r="G24" s="88"/>
-      <c r="H24" s="88"/>
-      <c r="I24" s="88"/>
-      <c r="J24" s="260">
-        <v>0.152</v>
-      </c>
-      <c r="K24" s="260"/>
-      <c r="L24" s="88"/>
-      <c r="M24" s="88"/>
-      <c r="N24" s="88"/>
-      <c r="O24" s="89"/>
-      <c r="P24" s="83"/>
-    </row>
-    <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>288</v>
-      </c>
-      <c r="C25" s="91" t="s">
-        <v>289</v>
-      </c>
-      <c r="E25" s="84" t="s">
-        <v>290</v>
-      </c>
-      <c r="F25" s="85"/>
-      <c r="G25" s="85"/>
-      <c r="H25" s="85"/>
-      <c r="I25" s="85"/>
-      <c r="J25" s="90"/>
-      <c r="K25" s="90"/>
-      <c r="L25" s="85">
-        <v>0.32396000000000003</v>
-      </c>
-      <c r="M25" s="85"/>
-      <c r="N25" s="85"/>
-      <c r="O25" s="86"/>
-      <c r="P25" s="83"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C26" s="91" t="s">
-        <v>291</v>
-      </c>
-      <c r="E26" s="80" t="s">
-        <v>292</v>
-      </c>
-      <c r="F26" s="81">
-        <v>0.18545</v>
-      </c>
-      <c r="G26" s="81">
-        <v>9.2719999999999997E-2</v>
-      </c>
-      <c r="H26" s="256">
-        <v>0.42459999999999998</v>
-      </c>
-      <c r="I26" s="256"/>
-      <c r="J26" s="81"/>
-      <c r="K26" s="81"/>
-      <c r="L26" s="81"/>
-      <c r="M26" s="81"/>
-      <c r="N26" s="249"/>
-      <c r="O26" s="251"/>
-      <c r="P26" s="83">
-        <f>F26+G26+H26+J27+L28+M28+N28</f>
-        <v>2.4103300000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>293</v>
-      </c>
-      <c r="C27" s="91" t="s">
-        <v>294</v>
-      </c>
-      <c r="E27" s="87" t="s">
-        <v>295</v>
-      </c>
-      <c r="F27" s="88"/>
-      <c r="G27" s="88"/>
-      <c r="H27" s="88"/>
-      <c r="I27" s="88"/>
-      <c r="J27" s="260">
-        <v>1</v>
-      </c>
-      <c r="K27" s="260"/>
-      <c r="L27" s="88"/>
-      <c r="M27" s="88"/>
-      <c r="N27" s="252"/>
-      <c r="O27" s="253"/>
-      <c r="P27" s="83"/>
-    </row>
-    <row r="28" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>296</v>
-      </c>
-      <c r="C28" s="91" t="s">
-        <v>297</v>
-      </c>
-      <c r="E28" s="84" t="s">
-        <v>298</v>
-      </c>
-      <c r="F28" s="85"/>
-      <c r="G28" s="85"/>
-      <c r="H28" s="85"/>
-      <c r="I28" s="85"/>
-      <c r="J28" s="90"/>
-      <c r="K28" s="90"/>
-      <c r="L28" s="85">
-        <v>0.24451999999999999</v>
-      </c>
-      <c r="M28" s="85">
-        <v>0.1226</v>
-      </c>
-      <c r="N28" s="254">
-        <v>0.34044000000000002</v>
-      </c>
-      <c r="O28" s="255"/>
-      <c r="P28" s="83"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C29" s="91" t="s">
-        <v>299</v>
-      </c>
-      <c r="E29" s="80" t="s">
-        <v>300</v>
-      </c>
-      <c r="F29" s="81">
-        <v>0.27438000000000001</v>
-      </c>
-      <c r="G29" s="81">
-        <v>0.13719000000000001</v>
-      </c>
-      <c r="H29" s="256">
-        <v>0.62792999999999999</v>
-      </c>
-      <c r="I29" s="256"/>
-      <c r="J29" s="81"/>
-      <c r="K29" s="81"/>
-      <c r="L29" s="81"/>
-      <c r="M29" s="81"/>
-      <c r="N29" s="249"/>
-      <c r="O29" s="251"/>
-      <c r="P29" s="83">
-        <f>F29+G29+H29+L30+M30+N30+J33</f>
-        <v>2.4474499999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>301</v>
-      </c>
-      <c r="C30" s="91" t="s">
-        <v>302</v>
-      </c>
-      <c r="E30" s="84" t="s">
-        <v>303</v>
-      </c>
-      <c r="F30" s="85"/>
-      <c r="G30" s="85"/>
-      <c r="H30" s="90"/>
-      <c r="I30" s="90"/>
-      <c r="J30" s="85"/>
-      <c r="K30" s="85"/>
-      <c r="L30" s="85">
-        <v>0.14949999999999999</v>
-      </c>
-      <c r="M30" s="85">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="N30" s="254">
-        <v>0.23748</v>
-      </c>
-      <c r="O30" s="255"/>
-      <c r="P30" s="83"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C31" s="91" t="s">
-        <v>304</v>
-      </c>
-      <c r="E31" s="80" t="s">
-        <v>305</v>
-      </c>
-      <c r="F31" s="81">
-        <v>0.11212</v>
-      </c>
-      <c r="G31" s="81">
-        <v>5.6059999999999999E-2</v>
-      </c>
-      <c r="H31" s="256">
-        <v>0.23462</v>
-      </c>
-      <c r="I31" s="256"/>
-      <c r="J31" s="81"/>
-      <c r="K31" s="81"/>
-      <c r="L31" s="81"/>
-      <c r="M31" s="81"/>
-      <c r="N31" s="249"/>
-      <c r="O31" s="251"/>
-      <c r="P31" s="83">
-        <f>F31+G31+H31+L32+M32+N32+J33</f>
-        <v>2.2090299999999998</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="91" t="s">
-        <v>306</v>
-      </c>
-      <c r="E32" s="84" t="s">
-        <v>307</v>
-      </c>
-      <c r="F32" s="85"/>
-      <c r="G32" s="85"/>
-      <c r="H32" s="90"/>
-      <c r="I32" s="90"/>
-      <c r="J32" s="85"/>
-      <c r="K32" s="85"/>
-      <c r="L32" s="85">
-        <v>0.23788000000000001</v>
-      </c>
-      <c r="M32" s="85">
-        <v>0.11894</v>
-      </c>
-      <c r="N32" s="254">
-        <v>0.50244</v>
-      </c>
-      <c r="O32" s="255"/>
-      <c r="P32" s="83"/>
-    </row>
-    <row r="33" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="91" t="s">
-        <v>308</v>
-      </c>
-      <c r="E33" s="93" t="s">
-        <v>309</v>
-      </c>
-      <c r="F33" s="94"/>
-      <c r="G33" s="94"/>
-      <c r="H33" s="94"/>
-      <c r="I33" s="94"/>
-      <c r="J33" s="257">
-        <v>0.94696999999999998</v>
-      </c>
-      <c r="K33" s="257"/>
-      <c r="L33" s="94"/>
-      <c r="M33" s="94"/>
-      <c r="N33" s="258"/>
-      <c r="O33" s="259"/>
-      <c r="P33" s="83"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E34" s="80" t="s">
-        <v>310</v>
-      </c>
-      <c r="F34" s="256">
-        <v>0.15762999999999999</v>
-      </c>
-      <c r="G34" s="256"/>
-      <c r="H34" s="256">
-        <v>0.36070000000000002</v>
-      </c>
-      <c r="I34" s="256"/>
-      <c r="J34" s="81"/>
-      <c r="K34" s="81"/>
-      <c r="L34" s="81"/>
-      <c r="M34" s="81"/>
-      <c r="N34" s="249"/>
-      <c r="O34" s="251"/>
-      <c r="P34" s="83">
-        <f>F34+H34+J35+L36+N36</f>
-        <v>1.8655399999999998</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E35" s="87" t="s">
-        <v>311</v>
-      </c>
-      <c r="F35" s="88"/>
-      <c r="G35" s="88"/>
-      <c r="H35" s="88"/>
-      <c r="I35" s="88"/>
-      <c r="J35" s="260">
-        <v>0.85</v>
-      </c>
-      <c r="K35" s="260"/>
-      <c r="L35" s="88"/>
-      <c r="M35" s="88"/>
-      <c r="N35" s="252"/>
-      <c r="O35" s="253"/>
-      <c r="P35" s="83"/>
-    </row>
-    <row r="36" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="38" t="s">
-        <v>312</v>
-      </c>
-      <c r="E36" s="84" t="s">
-        <v>313</v>
-      </c>
-      <c r="F36" s="85"/>
-      <c r="G36" s="85"/>
-      <c r="H36" s="85"/>
-      <c r="I36" s="85"/>
-      <c r="J36" s="90"/>
-      <c r="K36" s="90"/>
-      <c r="L36" s="85">
-        <v>0.20784</v>
-      </c>
-      <c r="M36" s="85"/>
-      <c r="N36" s="254">
-        <v>0.28937000000000002</v>
-      </c>
-      <c r="O36" s="255"/>
-      <c r="P36" s="83"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>314</v>
-      </c>
-      <c r="E37" s="80" t="s">
-        <v>315</v>
-      </c>
-      <c r="F37" s="256">
-        <v>0.20368</v>
-      </c>
-      <c r="G37" s="256"/>
-      <c r="H37" s="256">
-        <v>0.33767000000000003</v>
-      </c>
-      <c r="I37" s="256"/>
-      <c r="J37" s="81"/>
-      <c r="K37" s="81"/>
-      <c r="L37" s="81"/>
-      <c r="M37" s="81"/>
-      <c r="N37" s="249"/>
-      <c r="O37" s="251"/>
-      <c r="P37" s="83">
-        <f>F37+H37+J38+L39+L40+N40</f>
-        <v>2.5172699999999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>316</v>
-      </c>
-      <c r="E38" s="87" t="s">
-        <v>317</v>
-      </c>
-      <c r="F38" s="88"/>
-      <c r="G38" s="88"/>
-      <c r="H38" s="88"/>
-      <c r="I38" s="88"/>
-      <c r="J38" s="260">
-        <v>0.89815999999999996</v>
-      </c>
-      <c r="K38" s="260"/>
-      <c r="L38" s="88"/>
-      <c r="M38" s="88"/>
-      <c r="N38" s="252"/>
-      <c r="O38" s="253"/>
-      <c r="P38" s="83"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>318</v>
-      </c>
-      <c r="E39" s="87" t="s">
-        <v>319</v>
-      </c>
-      <c r="F39" s="88"/>
-      <c r="G39" s="88"/>
-      <c r="H39" s="88"/>
-      <c r="I39" s="88"/>
-      <c r="J39" s="95"/>
-      <c r="K39" s="95"/>
-      <c r="L39" s="88">
-        <v>0.57364000000000004</v>
-      </c>
-      <c r="M39" s="88"/>
-      <c r="N39" s="252"/>
-      <c r="O39" s="253"/>
-      <c r="P39" s="83"/>
-    </row>
-    <row r="40" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>320</v>
-      </c>
-      <c r="E40" s="84" t="s">
-        <v>321</v>
-      </c>
-      <c r="F40" s="85"/>
-      <c r="G40" s="85"/>
-      <c r="H40" s="85"/>
-      <c r="I40" s="85"/>
-      <c r="J40" s="90"/>
-      <c r="K40" s="90"/>
-      <c r="L40" s="85">
-        <v>0.26422000000000001</v>
-      </c>
-      <c r="M40" s="85"/>
-      <c r="N40" s="254">
-        <v>0.2399</v>
-      </c>
-      <c r="O40" s="255"/>
-      <c r="P40" s="83"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E41" s="80" t="s">
-        <v>322</v>
-      </c>
-      <c r="F41" s="81">
-        <v>0.34708</v>
-      </c>
-      <c r="G41" s="92"/>
-      <c r="H41" s="256">
-        <v>0.20830000000000001</v>
-      </c>
-      <c r="I41" s="256"/>
-      <c r="J41" s="81"/>
-      <c r="K41" s="81"/>
-      <c r="L41" s="81"/>
-      <c r="M41" s="81"/>
-      <c r="N41" s="249"/>
-      <c r="O41" s="251"/>
-      <c r="P41" s="83">
-        <f>F41+H41+J42+L43+L44+N44</f>
-        <v>2.29189</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E42" s="87" t="s">
-        <v>323</v>
-      </c>
-      <c r="F42" s="88"/>
-      <c r="G42" s="88"/>
-      <c r="H42" s="88"/>
-      <c r="I42" s="88"/>
-      <c r="J42" s="260">
-        <v>0.52559999999999996</v>
-      </c>
-      <c r="K42" s="260"/>
-      <c r="L42" s="88"/>
-      <c r="M42" s="88"/>
-      <c r="N42" s="252"/>
-      <c r="O42" s="253"/>
-      <c r="P42" s="83"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="38"/>
-      <c r="E43" s="87" t="s">
-        <v>324</v>
-      </c>
-      <c r="F43" s="88"/>
-      <c r="G43" s="88"/>
-      <c r="H43" s="88"/>
-      <c r="I43" s="88"/>
-      <c r="J43" s="95"/>
-      <c r="K43" s="95"/>
-      <c r="L43" s="88">
-        <v>0.84328000000000003</v>
-      </c>
-      <c r="M43" s="88"/>
-      <c r="N43" s="252"/>
-      <c r="O43" s="253"/>
-      <c r="P43" s="83"/>
-    </row>
-    <row r="44" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="38" t="s">
-        <v>325</v>
-      </c>
-      <c r="E44" s="84" t="s">
-        <v>326</v>
-      </c>
-      <c r="F44" s="85"/>
-      <c r="G44" s="85"/>
-      <c r="H44" s="85"/>
-      <c r="I44" s="85"/>
-      <c r="J44" s="90"/>
-      <c r="K44" s="90"/>
-      <c r="L44" s="85">
-        <v>0.23543</v>
-      </c>
-      <c r="M44" s="85"/>
-      <c r="N44" s="254">
-        <v>0.13220000000000001</v>
-      </c>
-      <c r="O44" s="255"/>
-      <c r="P44" s="83"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>327</v>
-      </c>
-      <c r="E45" s="80" t="s">
-        <v>328</v>
-      </c>
-      <c r="F45" s="81">
-        <v>0.47361999999999999</v>
-      </c>
-      <c r="G45" s="92"/>
-      <c r="H45" s="256">
-        <v>0.28101999999999999</v>
-      </c>
-      <c r="I45" s="256"/>
-      <c r="J45" s="81"/>
-      <c r="K45" s="81"/>
-      <c r="L45" s="81"/>
-      <c r="M45" s="81"/>
-      <c r="N45" s="249"/>
-      <c r="O45" s="251"/>
-      <c r="P45" s="83">
-        <f>F45+H45+L46+L47+N47+J51</f>
-        <v>2.2079800000000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E46" s="87" t="s">
-        <v>329</v>
-      </c>
-      <c r="F46" s="88"/>
-      <c r="G46" s="96"/>
-      <c r="H46" s="95"/>
-      <c r="I46" s="95"/>
-      <c r="J46" s="88"/>
-      <c r="K46" s="88"/>
-      <c r="L46" s="88">
-        <v>0.71950000000000003</v>
-      </c>
-      <c r="M46" s="88"/>
-      <c r="N46" s="252"/>
-      <c r="O46" s="253"/>
-      <c r="P46" s="83"/>
-    </row>
-    <row r="47" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>330</v>
-      </c>
-      <c r="E47" s="84" t="s">
-        <v>331</v>
-      </c>
-      <c r="F47" s="85"/>
-      <c r="G47" s="97"/>
-      <c r="H47" s="90"/>
-      <c r="I47" s="90"/>
-      <c r="J47" s="85"/>
-      <c r="K47" s="85"/>
-      <c r="L47" s="85">
-        <v>0.20451</v>
-      </c>
-      <c r="M47" s="85"/>
-      <c r="N47" s="254">
-        <v>9.1600000000000001E-2</v>
-      </c>
-      <c r="O47" s="255"/>
-      <c r="P47" s="83"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>332</v>
-      </c>
-      <c r="E48" s="80" t="s">
-        <v>333</v>
-      </c>
-      <c r="F48" s="81">
-        <v>0.17321</v>
-      </c>
-      <c r="G48" s="92"/>
-      <c r="H48" s="256">
-        <v>9.2929999999999999E-2</v>
-      </c>
-      <c r="I48" s="256"/>
-      <c r="J48" s="81"/>
-      <c r="K48" s="81"/>
-      <c r="L48" s="81"/>
-      <c r="M48" s="81"/>
-      <c r="N48" s="249"/>
-      <c r="O48" s="251"/>
-      <c r="P48" s="83">
-        <f>F48+H48+L49+L50+N50+J51</f>
-        <v>2.12704</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>334</v>
-      </c>
-      <c r="E49" s="87" t="s">
-        <v>335</v>
-      </c>
-      <c r="F49" s="88"/>
-      <c r="G49" s="96"/>
-      <c r="H49" s="95"/>
-      <c r="I49" s="95"/>
-      <c r="J49" s="88"/>
-      <c r="K49" s="88"/>
-      <c r="L49" s="88">
-        <v>1</v>
-      </c>
-      <c r="M49" s="88"/>
-      <c r="N49" s="252"/>
-      <c r="O49" s="253"/>
-      <c r="P49" s="83"/>
-    </row>
-    <row r="50" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>336</v>
-      </c>
-      <c r="C50" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="E50" s="84" t="s">
-        <v>337</v>
-      </c>
-      <c r="F50" s="85"/>
-      <c r="G50" s="97"/>
-      <c r="H50" s="90"/>
-      <c r="I50" s="90"/>
-      <c r="J50" s="85"/>
-      <c r="K50" s="85"/>
-      <c r="L50" s="85">
-        <v>0.26967000000000002</v>
-      </c>
-      <c r="M50" s="85"/>
-      <c r="N50" s="254">
-        <v>0.1535</v>
-      </c>
-      <c r="O50" s="255"/>
-      <c r="P50" s="83"/>
-    </row>
-    <row r="51" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C51" s="91" t="s">
-        <v>264</v>
-      </c>
-      <c r="E51" s="93" t="s">
-        <v>338</v>
-      </c>
-      <c r="F51" s="94"/>
-      <c r="G51" s="94"/>
-      <c r="H51" s="94"/>
-      <c r="I51" s="94"/>
-      <c r="J51" s="257">
-        <v>0.43773000000000001</v>
-      </c>
-      <c r="K51" s="257"/>
-      <c r="L51" s="94"/>
-      <c r="M51" s="94"/>
-      <c r="N51" s="258"/>
-      <c r="O51" s="259"/>
-      <c r="P51" s="83"/>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>339</v>
-      </c>
-      <c r="C52" s="91" t="s">
-        <v>266</v>
-      </c>
-      <c r="E52" s="80" t="s">
-        <v>340</v>
-      </c>
-      <c r="F52" s="81">
-        <v>0.28996</v>
-      </c>
-      <c r="G52" s="92"/>
-      <c r="H52" s="256">
-        <v>0.25344</v>
-      </c>
-      <c r="I52" s="256"/>
-      <c r="J52" s="81"/>
-      <c r="K52" s="81"/>
-      <c r="L52" s="81"/>
-      <c r="M52" s="81"/>
-      <c r="N52" s="249"/>
-      <c r="O52" s="251"/>
-      <c r="P52" s="83">
-        <f>F52+H52+J53+L54+L55+N55</f>
-        <v>2.0821799999999997</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>341</v>
-      </c>
-      <c r="C53" s="91" t="s">
-        <v>268</v>
-      </c>
-      <c r="E53" s="87" t="s">
-        <v>342</v>
-      </c>
-      <c r="F53" s="88"/>
-      <c r="G53" s="88"/>
-      <c r="H53" s="88"/>
-      <c r="I53" s="88"/>
-      <c r="J53" s="260">
-        <v>0.65949000000000002</v>
-      </c>
-      <c r="K53" s="260"/>
-      <c r="L53" s="88"/>
-      <c r="M53" s="88"/>
-      <c r="N53" s="252"/>
-      <c r="O53" s="253"/>
-      <c r="P53" s="83"/>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>343</v>
-      </c>
-      <c r="C54" s="91" t="s">
-        <v>270</v>
-      </c>
-      <c r="E54" s="87" t="s">
-        <v>344</v>
-      </c>
-      <c r="F54" s="88"/>
-      <c r="G54" s="88"/>
-      <c r="H54" s="88"/>
-      <c r="I54" s="88"/>
-      <c r="J54" s="95"/>
-      <c r="K54" s="95"/>
-      <c r="L54" s="88">
-        <v>0.56411</v>
-      </c>
-      <c r="M54" s="88"/>
-      <c r="N54" s="252"/>
-      <c r="O54" s="253"/>
-      <c r="P54" s="83"/>
-    </row>
-    <row r="55" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>345</v>
-      </c>
-      <c r="C55" s="91" t="s">
-        <v>272</v>
-      </c>
-      <c r="E55" s="84" t="s">
-        <v>346</v>
-      </c>
-      <c r="F55" s="85"/>
-      <c r="G55" s="85"/>
-      <c r="H55" s="85"/>
-      <c r="I55" s="85"/>
-      <c r="J55" s="90"/>
-      <c r="K55" s="90"/>
-      <c r="L55" s="85">
-        <v>0.14326</v>
-      </c>
-      <c r="M55" s="85"/>
-      <c r="N55" s="254">
-        <v>0.17191999999999999</v>
-      </c>
-      <c r="O55" s="255"/>
-      <c r="P55" s="83"/>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>347</v>
-      </c>
-      <c r="C56" s="91" t="s">
-        <v>274</v>
-      </c>
-      <c r="E56" s="80" t="s">
-        <v>348</v>
-      </c>
-      <c r="F56" s="81"/>
-      <c r="G56" s="81"/>
-      <c r="H56" s="81"/>
-      <c r="I56" s="81"/>
-      <c r="J56" s="98"/>
-      <c r="K56" s="98"/>
-      <c r="L56" s="81">
-        <v>0.19162000000000001</v>
-      </c>
-      <c r="M56" s="81"/>
-      <c r="N56" s="249"/>
-      <c r="O56" s="251"/>
-      <c r="P56" s="83">
-        <f>L56+L57+L58+L59+N58+N59</f>
-        <v>2.1837599999999999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C57" s="91" t="s">
-        <v>276</v>
-      </c>
-      <c r="E57" s="87" t="s">
-        <v>349</v>
-      </c>
-      <c r="F57" s="88"/>
-      <c r="G57" s="88"/>
-      <c r="H57" s="88"/>
-      <c r="I57" s="88"/>
-      <c r="J57" s="95"/>
-      <c r="K57" s="95"/>
-      <c r="L57" s="88">
-        <v>0.49523</v>
-      </c>
-      <c r="M57" s="88"/>
-      <c r="N57" s="252"/>
-      <c r="O57" s="253"/>
-      <c r="P57" s="83"/>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C58" s="91" t="s">
-        <v>278</v>
-      </c>
-      <c r="E58" s="87" t="s">
-        <v>350</v>
-      </c>
-      <c r="F58" s="88"/>
-      <c r="G58" s="88"/>
-      <c r="H58" s="88"/>
-      <c r="I58" s="88"/>
-      <c r="J58" s="95"/>
-      <c r="K58" s="95"/>
-      <c r="L58" s="88">
-        <v>0.47439999999999999</v>
-      </c>
-      <c r="M58" s="88"/>
-      <c r="N58" s="252">
-        <v>0.60697000000000001</v>
-      </c>
-      <c r="O58" s="253"/>
-      <c r="P58" s="83"/>
-    </row>
-    <row r="59" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C59" s="91" t="s">
-        <v>280</v>
-      </c>
-      <c r="E59" s="84" t="s">
-        <v>351</v>
-      </c>
-      <c r="F59" s="85"/>
-      <c r="G59" s="85"/>
-      <c r="H59" s="85"/>
-      <c r="I59" s="85"/>
-      <c r="J59" s="90"/>
-      <c r="K59" s="90"/>
-      <c r="L59" s="85">
-        <v>0.16774</v>
-      </c>
-      <c r="M59" s="85"/>
-      <c r="N59" s="254">
-        <v>0.24779999999999999</v>
-      </c>
-      <c r="O59" s="255"/>
-      <c r="P59" s="83"/>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C60" s="91" t="s">
-        <v>283</v>
-      </c>
-      <c r="E60" s="80" t="s">
-        <v>352</v>
-      </c>
-      <c r="F60" s="81"/>
-      <c r="G60" s="81"/>
-      <c r="H60" s="81"/>
-      <c r="I60" s="81"/>
-      <c r="J60" s="249">
-        <v>0.45617999999999997</v>
-      </c>
-      <c r="K60" s="250"/>
-      <c r="L60" s="81"/>
-      <c r="M60" s="81"/>
-      <c r="N60" s="249"/>
-      <c r="O60" s="251"/>
-      <c r="P60" s="83">
-        <f>J60+L62+N62+L63+L64+N64</f>
-        <v>2.0612399999999997</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C61" s="91" t="s">
-        <v>286</v>
-      </c>
-      <c r="E61" s="87" t="s">
-        <v>353</v>
-      </c>
-      <c r="F61" s="88"/>
-      <c r="G61" s="88"/>
-      <c r="H61" s="88"/>
-      <c r="I61" s="88"/>
-      <c r="J61" s="88"/>
-      <c r="K61" s="88"/>
-      <c r="L61" s="88">
-        <v>0.28649999999999998</v>
-      </c>
-      <c r="M61" s="88"/>
-      <c r="N61" s="252">
-        <v>0.80176999999999998</v>
-      </c>
-      <c r="O61" s="253"/>
-      <c r="P61" s="83">
-        <f>J60+L61+N61+L63+L64+N64</f>
-        <v>2.4324300000000001</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C62" s="91" t="s">
-        <v>289</v>
-      </c>
-      <c r="E62" s="87" t="s">
-        <v>355</v>
-      </c>
-      <c r="F62" s="88"/>
-      <c r="G62" s="88"/>
-      <c r="H62" s="88"/>
-      <c r="I62" s="88"/>
-      <c r="J62" s="88"/>
-      <c r="K62" s="88"/>
-      <c r="L62" s="88">
-        <v>0.20932000000000001</v>
-      </c>
-      <c r="M62" s="88"/>
-      <c r="N62" s="252">
-        <v>0.50775999999999999</v>
-      </c>
-      <c r="O62" s="253"/>
-      <c r="P62" s="83"/>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C63" s="91" t="s">
-        <v>291</v>
-      </c>
-      <c r="E63" s="87" t="s">
-        <v>356</v>
-      </c>
-      <c r="F63" s="88"/>
-      <c r="G63" s="88"/>
-      <c r="H63" s="88"/>
-      <c r="I63" s="88"/>
-      <c r="J63" s="88"/>
-      <c r="K63" s="88"/>
-      <c r="L63" s="88">
-        <v>0.14599000000000001</v>
-      </c>
-      <c r="M63" s="88"/>
-      <c r="N63" s="252"/>
-      <c r="O63" s="253"/>
-      <c r="P63" s="83"/>
-    </row>
-    <row r="64" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C64" s="91" t="s">
-        <v>294</v>
-      </c>
-      <c r="E64" s="84" t="s">
-        <v>357</v>
-      </c>
-      <c r="F64" s="85"/>
-      <c r="G64" s="85"/>
-      <c r="H64" s="85"/>
-      <c r="I64" s="85"/>
-      <c r="J64" s="85"/>
-      <c r="K64" s="85"/>
-      <c r="L64" s="85">
-        <v>0.12414</v>
-      </c>
-      <c r="M64" s="85"/>
-      <c r="N64" s="254">
-        <v>0.61785000000000001</v>
-      </c>
-      <c r="O64" s="255"/>
-      <c r="P64" s="83"/>
-    </row>
-    <row r="65" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C65" s="91" t="s">
-        <v>297</v>
-      </c>
-      <c r="E65" s="80" t="s">
-        <v>358</v>
-      </c>
-      <c r="F65" s="81"/>
-      <c r="G65" s="81"/>
-      <c r="H65" s="81"/>
-      <c r="I65" s="81"/>
-      <c r="J65" s="81"/>
-      <c r="K65" s="81"/>
-      <c r="L65" s="81">
-        <v>0.23763000000000001</v>
-      </c>
-      <c r="M65" s="81"/>
-      <c r="N65" s="249">
-        <v>1</v>
-      </c>
-      <c r="O65" s="251"/>
-      <c r="P65" s="83">
-        <f>L65+N65+L66+L67+N67</f>
-        <v>1.8703959999999999</v>
-      </c>
-      <c r="Q65" s="83"/>
-    </row>
-    <row r="66" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C66" s="91" t="s">
-        <v>299</v>
-      </c>
-      <c r="E66" s="87" t="s">
-        <v>359</v>
-      </c>
-      <c r="F66" s="88"/>
-      <c r="G66" s="88"/>
-      <c r="H66" s="88"/>
-      <c r="I66" s="88"/>
-      <c r="J66" s="88"/>
-      <c r="K66" s="88"/>
-      <c r="L66" s="88">
-        <v>0.17316000000000001</v>
-      </c>
-      <c r="M66" s="88"/>
-      <c r="N66" s="252"/>
-      <c r="O66" s="253"/>
-      <c r="P66" s="83"/>
-      <c r="Q66" s="83"/>
-    </row>
-    <row r="67" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C67" s="91" t="s">
-        <v>302</v>
-      </c>
-      <c r="E67" s="84" t="s">
-        <v>360</v>
-      </c>
-      <c r="F67" s="85"/>
-      <c r="G67" s="85"/>
-      <c r="H67" s="85"/>
-      <c r="I67" s="85"/>
-      <c r="J67" s="85"/>
-      <c r="K67" s="85"/>
-      <c r="L67" s="85">
-        <v>0.12317</v>
-      </c>
-      <c r="M67" s="85"/>
-      <c r="N67" s="254">
-        <v>0.33643600000000001</v>
-      </c>
-      <c r="O67" s="255"/>
-      <c r="P67" s="83"/>
-      <c r="Q67" s="83"/>
-    </row>
-    <row r="68" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C68" s="91" t="s">
-        <v>304</v>
-      </c>
-      <c r="E68" s="80" t="s">
-        <v>361</v>
-      </c>
-      <c r="F68" s="81"/>
-      <c r="G68" s="81"/>
-      <c r="H68" s="81"/>
-      <c r="I68" s="81"/>
-      <c r="J68" s="81"/>
-      <c r="K68" s="81"/>
-      <c r="L68" s="81">
-        <v>0.20199</v>
-      </c>
-      <c r="M68" s="81"/>
-      <c r="N68" s="249">
-        <v>0.85</v>
-      </c>
-      <c r="O68" s="251"/>
-      <c r="P68" s="83">
-        <f>L68+N68+L69+L70+N70</f>
-        <v>1.6197900000000001</v>
-      </c>
-    </row>
-    <row r="69" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C69" s="91" t="s">
-        <v>306</v>
-      </c>
-      <c r="E69" s="87" t="s">
-        <v>362</v>
-      </c>
-      <c r="F69" s="88"/>
-      <c r="G69" s="88"/>
-      <c r="H69" s="88"/>
-      <c r="I69" s="88"/>
-      <c r="J69" s="88"/>
-      <c r="K69" s="88"/>
-      <c r="L69" s="88">
-        <v>0.17718999999999999</v>
-      </c>
-      <c r="M69" s="88"/>
-      <c r="N69" s="252"/>
-      <c r="O69" s="253"/>
-      <c r="P69" s="83"/>
-    </row>
-    <row r="70" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C70" s="91" t="s">
-        <v>308</v>
-      </c>
-      <c r="E70" s="99" t="s">
-        <v>363</v>
-      </c>
-      <c r="F70" s="100"/>
-      <c r="G70" s="100"/>
-      <c r="H70" s="100"/>
-      <c r="I70" s="100"/>
-      <c r="J70" s="100"/>
-      <c r="K70" s="100"/>
-      <c r="L70" s="100">
-        <v>0.1047</v>
-      </c>
-      <c r="M70" s="100"/>
-      <c r="N70" s="247">
-        <v>0.28591</v>
-      </c>
-      <c r="O70" s="248"/>
-      <c r="P70" s="83"/>
-    </row>
-  </sheetData>
-  <mergeCells count="93">
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="N59:O59"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="N55:O55"/>
-    <mergeCell ref="N56:O56"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="N58:O58"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="N70:O70"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="N60:O60"/>
-    <mergeCell ref="N61:O61"/>
-    <mergeCell ref="N62:O62"/>
-    <mergeCell ref="N63:O63"/>
-    <mergeCell ref="N64:O64"/>
-    <mergeCell ref="N65:O65"/>
-    <mergeCell ref="N66:O66"/>
-    <mergeCell ref="N67:O67"/>
-    <mergeCell ref="N68:O68"/>
-    <mergeCell ref="N69:O69"/>
-  </mergeCells>
-  <conditionalFormatting sqref="F3:O70">
-    <cfRule type="cellIs" dxfId="25" priority="1" operator="between">
-      <formula>0.15</formula>
-      <formula>0.3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="2" operator="between">
-      <formula>0.3</formula>
-      <formula>0.6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="3" operator="greaterThan">
-      <formula>0.6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="4" operator="lessThan">
-      <formula>0.15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/projects/current/hattrick/z_Biblioteca.xlsx
+++ b/projects/current/hattrick/z_Biblioteca.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2DCB2FB-7948-45BA-ABC6-C2C9AF9A9A56}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0798DBE8-58DC-4C33-9EEC-E42DF4B3B5AF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10790,7 +10790,7 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="46" x14ac:knownFonts="1">
+  <fonts count="48" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -11116,6 +11116,21 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -11798,7 +11813,7 @@
     <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="295">
+  <cellXfs count="310">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -12374,6 +12389,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -12404,18 +12439,6 @@
     <xf numFmtId="0" fontId="14" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -12428,19 +12451,34 @@
     <xf numFmtId="0" fontId="4" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -12449,13 +12487,16 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -12467,22 +12508,13 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="26" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12491,36 +12523,52 @@
     <xf numFmtId="166" fontId="26" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="23" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="46" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -21345,16 +21393,16 @@
       <c r="A59" s="30">
         <v>17</v>
       </c>
-      <c r="B59" s="244" t="s">
+      <c r="B59" s="252" t="s">
         <v>17</v>
       </c>
       <c r="C59" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D59" s="245" t="s">
+      <c r="D59" s="253" t="s">
         <v>19</v>
       </c>
-      <c r="E59" s="245" t="s">
+      <c r="E59" s="253" t="s">
         <v>19</v>
       </c>
       <c r="F59" s="32" t="s">
@@ -21368,12 +21416,12 @@
       <c r="A60" s="34">
         <v>18</v>
       </c>
-      <c r="B60" s="244"/>
+      <c r="B60" s="252"/>
       <c r="C60" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="D60" s="245"/>
-      <c r="E60" s="245"/>
+      <c r="D60" s="253"/>
+      <c r="E60" s="253"/>
       <c r="F60" s="32" t="s">
         <v>23</v>
       </c>
@@ -21385,10 +21433,10 @@
       <c r="A61" s="30">
         <v>19</v>
       </c>
-      <c r="B61" s="244"/>
+      <c r="B61" s="252"/>
       <c r="C61" s="35"/>
-      <c r="D61" s="245"/>
-      <c r="E61" s="245"/>
+      <c r="D61" s="253"/>
+      <c r="E61" s="253"/>
       <c r="F61" s="36"/>
       <c r="H61" s="25" t="s">
         <v>25</v>
@@ -21399,11 +21447,11 @@
       <c r="A62" s="34">
         <v>20</v>
       </c>
-      <c r="B62" s="244"/>
+      <c r="B62" s="252"/>
       <c r="C62" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D62" s="246" t="s">
+      <c r="D62" s="254" t="s">
         <v>20</v>
       </c>
       <c r="E62" s="32" t="s">
@@ -21418,13 +21466,13 @@
       <c r="A63" s="30">
         <v>21</v>
       </c>
-      <c r="B63" s="247" t="s">
+      <c r="B63" s="255" t="s">
         <v>18</v>
       </c>
       <c r="C63" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="D63" s="246"/>
+      <c r="D63" s="254"/>
       <c r="E63" s="32" t="s">
         <v>23</v>
       </c>
@@ -21437,9 +21485,9 @@
       <c r="A64" s="34">
         <v>22</v>
       </c>
-      <c r="B64" s="247"/>
+      <c r="B64" s="255"/>
       <c r="C64" s="36"/>
-      <c r="D64" s="246"/>
+      <c r="D64" s="254"/>
       <c r="E64" s="36"/>
       <c r="F64" s="36"/>
       <c r="H64" s="25" t="s">
@@ -21450,9 +21498,9 @@
       <c r="A65" s="30">
         <v>23</v>
       </c>
-      <c r="B65" s="247"/>
+      <c r="B65" s="255"/>
       <c r="C65" s="36"/>
-      <c r="D65" s="246"/>
+      <c r="D65" s="254"/>
       <c r="E65" s="36"/>
       <c r="F65" s="36"/>
     </row>
@@ -21460,9 +21508,9 @@
       <c r="A66" s="34">
         <v>24</v>
       </c>
-      <c r="B66" s="247"/>
+      <c r="B66" s="255"/>
       <c r="C66" s="36"/>
-      <c r="D66" s="246"/>
+      <c r="D66" s="254"/>
       <c r="E66" s="36"/>
       <c r="F66" s="36"/>
       <c r="H66" s="25" t="s">
@@ -21473,9 +21521,9 @@
       <c r="A67" s="30">
         <v>25</v>
       </c>
-      <c r="B67" s="247"/>
+      <c r="B67" s="255"/>
       <c r="C67" s="36"/>
-      <c r="D67" s="245" t="s">
+      <c r="D67" s="253" t="s">
         <v>19</v>
       </c>
       <c r="E67" s="36"/>
@@ -21488,11 +21536,11 @@
       <c r="A68" s="34">
         <v>26</v>
       </c>
-      <c r="B68" s="247"/>
-      <c r="C68" s="245" t="s">
+      <c r="B68" s="255"/>
+      <c r="C68" s="253" t="s">
         <v>19</v>
       </c>
-      <c r="D68" s="245"/>
+      <c r="D68" s="253"/>
       <c r="E68" s="36"/>
       <c r="F68" s="36"/>
     </row>
@@ -21500,11 +21548,11 @@
       <c r="A69" s="30">
         <v>27</v>
       </c>
-      <c r="B69" s="244" t="s">
+      <c r="B69" s="252" t="s">
         <v>17</v>
       </c>
-      <c r="C69" s="245"/>
-      <c r="D69" s="245"/>
+      <c r="C69" s="253"/>
+      <c r="D69" s="253"/>
       <c r="E69" s="36"/>
       <c r="F69" s="36"/>
     </row>
@@ -21512,11 +21560,11 @@
       <c r="A70" s="34">
         <v>28</v>
       </c>
-      <c r="B70" s="244"/>
-      <c r="C70" s="247" t="s">
+      <c r="B70" s="252"/>
+      <c r="C70" s="255" t="s">
         <v>18</v>
       </c>
-      <c r="D70" s="245"/>
+      <c r="D70" s="253"/>
       <c r="E70" s="36"/>
       <c r="F70" s="36"/>
       <c r="H70" s="25" t="s">
@@ -21527,9 +21575,9 @@
       <c r="A71" s="30">
         <v>29</v>
       </c>
-      <c r="B71" s="244"/>
-      <c r="C71" s="247"/>
-      <c r="D71" s="245"/>
+      <c r="B71" s="252"/>
+      <c r="C71" s="255"/>
+      <c r="D71" s="253"/>
       <c r="E71" s="36"/>
       <c r="F71" s="36"/>
     </row>
@@ -21537,9 +21585,9 @@
       <c r="A72" s="34">
         <v>30</v>
       </c>
-      <c r="B72" s="244"/>
-      <c r="C72" s="247"/>
-      <c r="D72" s="247" t="s">
+      <c r="B72" s="252"/>
+      <c r="C72" s="255"/>
+      <c r="D72" s="255" t="s">
         <v>18</v>
       </c>
       <c r="E72" s="36"/>
@@ -21552,9 +21600,9 @@
       <c r="A73" s="30">
         <v>31</v>
       </c>
-      <c r="B73" s="244"/>
-      <c r="C73" s="247"/>
-      <c r="D73" s="247"/>
+      <c r="B73" s="252"/>
+      <c r="C73" s="255"/>
+      <c r="D73" s="255"/>
       <c r="E73" s="32" t="s">
         <v>19</v>
       </c>
@@ -21564,9 +21612,9 @@
       <c r="A74" s="34">
         <v>32</v>
       </c>
-      <c r="B74" s="244"/>
-      <c r="C74" s="247"/>
-      <c r="D74" s="247"/>
+      <c r="B74" s="252"/>
+      <c r="C74" s="255"/>
+      <c r="D74" s="255"/>
       <c r="E74" s="32" t="s">
         <v>27</v>
       </c>
@@ -21579,11 +21627,11 @@
       <c r="A75" s="30">
         <v>33</v>
       </c>
-      <c r="B75" s="244"/>
-      <c r="C75" s="244" t="s">
+      <c r="B75" s="252"/>
+      <c r="C75" s="252" t="s">
         <v>17</v>
       </c>
-      <c r="D75" s="247"/>
+      <c r="D75" s="255"/>
       <c r="E75" s="31" t="s">
         <v>18</v>
       </c>
@@ -21595,11 +21643,11 @@
       <c r="A76" s="34">
         <v>34</v>
       </c>
-      <c r="B76" s="248" t="s">
+      <c r="B76" s="256" t="s">
         <v>35</v>
       </c>
-      <c r="C76" s="244"/>
-      <c r="D76" s="247"/>
+      <c r="C76" s="252"/>
+      <c r="D76" s="255"/>
       <c r="E76" s="31" t="s">
         <v>22</v>
       </c>
@@ -21614,14 +21662,14 @@
       <c r="A77" s="30">
         <v>35</v>
       </c>
-      <c r="B77" s="248"/>
-      <c r="C77" s="248" t="s">
+      <c r="B77" s="256"/>
+      <c r="C77" s="256" t="s">
         <v>35</v>
       </c>
-      <c r="D77" s="244" t="s">
+      <c r="D77" s="252" t="s">
         <v>17</v>
       </c>
-      <c r="E77" s="244" t="s">
+      <c r="E77" s="252" t="s">
         <v>17</v>
       </c>
       <c r="F77" s="35"/>
@@ -21630,10 +21678,10 @@
       <c r="A78" s="34">
         <v>36</v>
       </c>
-      <c r="B78" s="248"/>
-      <c r="C78" s="248"/>
-      <c r="D78" s="244"/>
-      <c r="E78" s="244"/>
+      <c r="B78" s="256"/>
+      <c r="C78" s="256"/>
+      <c r="D78" s="252"/>
+      <c r="E78" s="252"/>
       <c r="F78" s="37" t="s">
         <v>17</v>
       </c>
@@ -21642,14 +21690,14 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="243" t="s">
+      <c r="A79" s="251" t="s">
         <v>38</v>
       </c>
-      <c r="B79" s="243"/>
-      <c r="C79" s="243"/>
-      <c r="D79" s="243"/>
-      <c r="E79" s="243"/>
-      <c r="F79" s="243"/>
+      <c r="B79" s="251"/>
+      <c r="C79" s="251"/>
+      <c r="D79" s="251"/>
+      <c r="E79" s="251"/>
+      <c r="F79" s="251"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="24"/>
@@ -22767,26 +22815,26 @@
       <c r="C1" s="78" t="s">
         <v>233</v>
       </c>
-      <c r="F1" s="276" t="s">
+      <c r="F1" s="269" t="s">
         <v>234</v>
       </c>
-      <c r="G1" s="276"/>
-      <c r="H1" s="276" t="s">
+      <c r="G1" s="269"/>
+      <c r="H1" s="269" t="s">
         <v>235</v>
       </c>
-      <c r="I1" s="276"/>
-      <c r="J1" s="276" t="s">
+      <c r="I1" s="269"/>
+      <c r="J1" s="269" t="s">
         <v>236</v>
       </c>
-      <c r="K1" s="276"/>
-      <c r="L1" s="276" t="s">
+      <c r="K1" s="269"/>
+      <c r="L1" s="269" t="s">
         <v>237</v>
       </c>
-      <c r="M1" s="276"/>
-      <c r="N1" s="276" t="s">
+      <c r="M1" s="269"/>
+      <c r="N1" s="269" t="s">
         <v>238</v>
       </c>
-      <c r="O1" s="276"/>
+      <c r="O1" s="269"/>
     </row>
     <row r="2" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F2" s="79" t="s">
@@ -22795,18 +22843,18 @@
       <c r="G2" s="79" t="s">
         <v>240</v>
       </c>
-      <c r="H2" s="277"/>
-      <c r="I2" s="278"/>
-      <c r="J2" s="277"/>
-      <c r="K2" s="278"/>
+      <c r="H2" s="270"/>
+      <c r="I2" s="271"/>
+      <c r="J2" s="270"/>
+      <c r="K2" s="271"/>
       <c r="L2" s="79" t="s">
         <v>239</v>
       </c>
       <c r="M2" s="79" t="s">
         <v>240</v>
       </c>
-      <c r="N2" s="277"/>
-      <c r="O2" s="278"/>
+      <c r="N2" s="270"/>
+      <c r="O2" s="271"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -22818,14 +22866,14 @@
       <c r="E3" s="80" t="s">
         <v>243</v>
       </c>
-      <c r="F3" s="270">
+      <c r="F3" s="273">
         <v>0.64709000000000005</v>
       </c>
-      <c r="G3" s="270"/>
-      <c r="H3" s="270">
+      <c r="G3" s="273"/>
+      <c r="H3" s="273">
         <v>0.97192999999999996</v>
       </c>
-      <c r="I3" s="270"/>
+      <c r="I3" s="273"/>
       <c r="J3" s="81"/>
       <c r="K3" s="81"/>
       <c r="L3" s="81"/>
@@ -22848,14 +22896,14 @@
       <c r="E4" s="84" t="s">
         <v>246</v>
       </c>
-      <c r="F4" s="275">
+      <c r="F4" s="272">
         <v>0.26545000000000002</v>
       </c>
-      <c r="G4" s="275"/>
-      <c r="H4" s="275">
+      <c r="G4" s="272"/>
+      <c r="H4" s="272">
         <v>0.39895999999999998</v>
       </c>
-      <c r="I4" s="275"/>
+      <c r="I4" s="272"/>
       <c r="J4" s="85"/>
       <c r="K4" s="85"/>
       <c r="L4" s="85"/>
@@ -22881,10 +22929,10 @@
       <c r="G5" s="81">
         <v>0.25008999999999998</v>
       </c>
-      <c r="H5" s="270">
+      <c r="H5" s="273">
         <v>1</v>
       </c>
-      <c r="I5" s="270"/>
+      <c r="I5" s="273"/>
       <c r="J5" s="81"/>
       <c r="K5" s="81"/>
       <c r="L5" s="81"/>
@@ -22905,10 +22953,10 @@
       <c r="G6" s="85"/>
       <c r="H6" s="85"/>
       <c r="I6" s="85"/>
-      <c r="J6" s="275">
+      <c r="J6" s="272">
         <v>0.27488000000000001</v>
       </c>
-      <c r="K6" s="275"/>
+      <c r="K6" s="272"/>
       <c r="L6" s="85"/>
       <c r="M6" s="85"/>
       <c r="N6" s="85"/>
@@ -22932,10 +22980,10 @@
       <c r="G7" s="81">
         <v>0.17752000000000001</v>
       </c>
-      <c r="H7" s="270">
+      <c r="H7" s="273">
         <v>0.72296000000000005</v>
       </c>
-      <c r="I7" s="270"/>
+      <c r="I7" s="273"/>
       <c r="J7" s="81"/>
       <c r="K7" s="81"/>
       <c r="L7" s="81"/>
@@ -22958,10 +23006,10 @@
       <c r="G8" s="85"/>
       <c r="H8" s="85"/>
       <c r="I8" s="85"/>
-      <c r="J8" s="275">
+      <c r="J8" s="272">
         <v>0.36337000000000003</v>
       </c>
-      <c r="K8" s="275"/>
+      <c r="K8" s="272"/>
       <c r="L8" s="85"/>
       <c r="M8" s="85"/>
       <c r="N8" s="85"/>
@@ -22979,10 +23027,10 @@
         <v>0.65615999999999997</v>
       </c>
       <c r="G9" s="81"/>
-      <c r="H9" s="270">
+      <c r="H9" s="273">
         <v>0.78437000000000001</v>
       </c>
-      <c r="I9" s="270"/>
+      <c r="I9" s="273"/>
       <c r="J9" s="81"/>
       <c r="K9" s="81"/>
       <c r="L9" s="81"/>
@@ -23046,14 +23094,14 @@
       <c r="E12" s="80" t="s">
         <v>260</v>
       </c>
-      <c r="F12" s="270">
+      <c r="F12" s="273">
         <v>0.42514999999999997</v>
       </c>
-      <c r="G12" s="270"/>
-      <c r="H12" s="270">
+      <c r="G12" s="273"/>
+      <c r="H12" s="273">
         <v>0.85</v>
       </c>
-      <c r="I12" s="270"/>
+      <c r="I12" s="273"/>
       <c r="J12" s="81"/>
       <c r="K12" s="81"/>
       <c r="L12" s="81"/>
@@ -23079,10 +23127,10 @@
       <c r="G13" s="85"/>
       <c r="H13" s="85"/>
       <c r="I13" s="85"/>
-      <c r="J13" s="275">
+      <c r="J13" s="272">
         <v>0.23365</v>
       </c>
-      <c r="K13" s="275"/>
+      <c r="K13" s="272"/>
       <c r="L13" s="85"/>
       <c r="M13" s="85"/>
       <c r="N13" s="85"/>
@@ -23100,10 +23148,10 @@
         <v>1</v>
       </c>
       <c r="G14" s="92"/>
-      <c r="H14" s="270">
+      <c r="H14" s="273">
         <v>0.51382000000000005</v>
       </c>
-      <c r="I14" s="270"/>
+      <c r="I14" s="273"/>
       <c r="J14" s="81"/>
       <c r="K14" s="81"/>
       <c r="L14" s="81"/>
@@ -23180,10 +23228,10 @@
         <v>0.91232999999999997</v>
       </c>
       <c r="G17" s="92"/>
-      <c r="H17" s="270">
+      <c r="H17" s="273">
         <v>0.46146999999999999</v>
       </c>
-      <c r="I17" s="270"/>
+      <c r="I17" s="273"/>
       <c r="J17" s="81"/>
       <c r="K17" s="81"/>
       <c r="L17" s="81"/>
@@ -23254,10 +23302,10 @@
         <v>0.69059999999999999</v>
       </c>
       <c r="G20" s="92"/>
-      <c r="H20" s="270">
+      <c r="H20" s="273">
         <v>0.38878000000000001</v>
       </c>
-      <c r="I20" s="270"/>
+      <c r="I20" s="273"/>
       <c r="J20" s="81"/>
       <c r="K20" s="81"/>
       <c r="L20" s="81"/>
@@ -23328,10 +23376,10 @@
         <v>0.68315000000000003</v>
       </c>
       <c r="G23" s="92"/>
-      <c r="H23" s="270">
+      <c r="H23" s="273">
         <v>0.70006000000000002</v>
       </c>
-      <c r="I23" s="270"/>
+      <c r="I23" s="273"/>
       <c r="J23" s="81"/>
       <c r="K23" s="81"/>
       <c r="L23" s="81"/>
@@ -23404,16 +23452,16 @@
       <c r="G26" s="81">
         <v>9.2719999999999997E-2</v>
       </c>
-      <c r="H26" s="270">
+      <c r="H26" s="273">
         <v>0.42459999999999998</v>
       </c>
-      <c r="I26" s="270"/>
+      <c r="I26" s="273"/>
       <c r="J26" s="81"/>
       <c r="K26" s="81"/>
       <c r="L26" s="81"/>
       <c r="M26" s="81"/>
-      <c r="N26" s="263"/>
-      <c r="O26" s="265"/>
+      <c r="N26" s="277"/>
+      <c r="O26" s="278"/>
       <c r="P26" s="83">
         <f>F26+G26+H26+J27+L28+M28+N28</f>
         <v>2.4103300000000001</v>
@@ -23439,8 +23487,8 @@
       <c r="K27" s="274"/>
       <c r="L27" s="88"/>
       <c r="M27" s="88"/>
-      <c r="N27" s="266"/>
-      <c r="O27" s="267"/>
+      <c r="N27" s="275"/>
+      <c r="O27" s="276"/>
       <c r="P27" s="83"/>
     </row>
     <row r="28" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23465,10 +23513,10 @@
       <c r="M28" s="85">
         <v>0.1226</v>
       </c>
-      <c r="N28" s="268">
+      <c r="N28" s="279">
         <v>0.34044000000000002</v>
       </c>
-      <c r="O28" s="269"/>
+      <c r="O28" s="280"/>
       <c r="P28" s="83"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
@@ -23484,16 +23532,16 @@
       <c r="G29" s="81">
         <v>0.13719000000000001</v>
       </c>
-      <c r="H29" s="270">
+      <c r="H29" s="273">
         <v>0.62792999999999999</v>
       </c>
-      <c r="I29" s="270"/>
+      <c r="I29" s="273"/>
       <c r="J29" s="81"/>
       <c r="K29" s="81"/>
       <c r="L29" s="81"/>
       <c r="M29" s="81"/>
-      <c r="N29" s="263"/>
-      <c r="O29" s="265"/>
+      <c r="N29" s="277"/>
+      <c r="O29" s="278"/>
       <c r="P29" s="83">
         <f>F29+G29+H29+L30+M30+N30+J33</f>
         <v>2.4474499999999999</v>
@@ -23521,10 +23569,10 @@
       <c r="M30" s="85">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="N30" s="268">
+      <c r="N30" s="279">
         <v>0.23748</v>
       </c>
-      <c r="O30" s="269"/>
+      <c r="O30" s="280"/>
       <c r="P30" s="83"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
@@ -23540,16 +23588,16 @@
       <c r="G31" s="81">
         <v>5.6059999999999999E-2</v>
       </c>
-      <c r="H31" s="270">
+      <c r="H31" s="273">
         <v>0.23462</v>
       </c>
-      <c r="I31" s="270"/>
+      <c r="I31" s="273"/>
       <c r="J31" s="81"/>
       <c r="K31" s="81"/>
       <c r="L31" s="81"/>
       <c r="M31" s="81"/>
-      <c r="N31" s="263"/>
-      <c r="O31" s="265"/>
+      <c r="N31" s="277"/>
+      <c r="O31" s="278"/>
       <c r="P31" s="83">
         <f>F31+G31+H31+L32+M32+N32+J33</f>
         <v>2.2090299999999998</v>
@@ -23574,10 +23622,10 @@
       <c r="M32" s="85">
         <v>0.11894</v>
       </c>
-      <c r="N32" s="268">
+      <c r="N32" s="279">
         <v>0.50244</v>
       </c>
-      <c r="O32" s="269"/>
+      <c r="O32" s="280"/>
       <c r="P32" s="83"/>
     </row>
     <row r="33" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23591,34 +23639,34 @@
       <c r="G33" s="94"/>
       <c r="H33" s="94"/>
       <c r="I33" s="94"/>
-      <c r="J33" s="271">
+      <c r="J33" s="281">
         <v>0.94696999999999998</v>
       </c>
-      <c r="K33" s="271"/>
+      <c r="K33" s="281"/>
       <c r="L33" s="94"/>
       <c r="M33" s="94"/>
-      <c r="N33" s="272"/>
-      <c r="O33" s="273"/>
+      <c r="N33" s="282"/>
+      <c r="O33" s="283"/>
       <c r="P33" s="83"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E34" s="80" t="s">
         <v>310</v>
       </c>
-      <c r="F34" s="270">
+      <c r="F34" s="273">
         <v>0.15762999999999999</v>
       </c>
-      <c r="G34" s="270"/>
-      <c r="H34" s="270">
+      <c r="G34" s="273"/>
+      <c r="H34" s="273">
         <v>0.36070000000000002</v>
       </c>
-      <c r="I34" s="270"/>
+      <c r="I34" s="273"/>
       <c r="J34" s="81"/>
       <c r="K34" s="81"/>
       <c r="L34" s="81"/>
       <c r="M34" s="81"/>
-      <c r="N34" s="263"/>
-      <c r="O34" s="265"/>
+      <c r="N34" s="277"/>
+      <c r="O34" s="278"/>
       <c r="P34" s="83">
         <f>F34+H34+J35+L36+N36</f>
         <v>1.8655399999999998</v>
@@ -23638,8 +23686,8 @@
       <c r="K35" s="274"/>
       <c r="L35" s="88"/>
       <c r="M35" s="88"/>
-      <c r="N35" s="266"/>
-      <c r="O35" s="267"/>
+      <c r="N35" s="275"/>
+      <c r="O35" s="276"/>
       <c r="P35" s="83"/>
     </row>
     <row r="36" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23659,10 +23707,10 @@
         <v>0.20784</v>
       </c>
       <c r="M36" s="85"/>
-      <c r="N36" s="268">
+      <c r="N36" s="279">
         <v>0.28937000000000002</v>
       </c>
-      <c r="O36" s="269"/>
+      <c r="O36" s="280"/>
       <c r="P36" s="83"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
@@ -23672,20 +23720,20 @@
       <c r="E37" s="80" t="s">
         <v>315</v>
       </c>
-      <c r="F37" s="270">
+      <c r="F37" s="273">
         <v>0.20368</v>
       </c>
-      <c r="G37" s="270"/>
-      <c r="H37" s="270">
+      <c r="G37" s="273"/>
+      <c r="H37" s="273">
         <v>0.33767000000000003</v>
       </c>
-      <c r="I37" s="270"/>
+      <c r="I37" s="273"/>
       <c r="J37" s="81"/>
       <c r="K37" s="81"/>
       <c r="L37" s="81"/>
       <c r="M37" s="81"/>
-      <c r="N37" s="263"/>
-      <c r="O37" s="265"/>
+      <c r="N37" s="277"/>
+      <c r="O37" s="278"/>
       <c r="P37" s="83">
         <f>F37+H37+J38+L39+L40+N40</f>
         <v>2.5172699999999999</v>
@@ -23708,8 +23756,8 @@
       <c r="K38" s="274"/>
       <c r="L38" s="88"/>
       <c r="M38" s="88"/>
-      <c r="N38" s="266"/>
-      <c r="O38" s="267"/>
+      <c r="N38" s="275"/>
+      <c r="O38" s="276"/>
       <c r="P38" s="83"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
@@ -23729,8 +23777,8 @@
         <v>0.57364000000000004</v>
       </c>
       <c r="M39" s="88"/>
-      <c r="N39" s="266"/>
-      <c r="O39" s="267"/>
+      <c r="N39" s="275"/>
+      <c r="O39" s="276"/>
       <c r="P39" s="83"/>
     </row>
     <row r="40" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23750,10 +23798,10 @@
         <v>0.26422000000000001</v>
       </c>
       <c r="M40" s="85"/>
-      <c r="N40" s="268">
+      <c r="N40" s="279">
         <v>0.2399</v>
       </c>
-      <c r="O40" s="269"/>
+      <c r="O40" s="280"/>
       <c r="P40" s="83"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
@@ -23764,16 +23812,16 @@
         <v>0.34708</v>
       </c>
       <c r="G41" s="92"/>
-      <c r="H41" s="270">
+      <c r="H41" s="273">
         <v>0.20830000000000001</v>
       </c>
-      <c r="I41" s="270"/>
+      <c r="I41" s="273"/>
       <c r="J41" s="81"/>
       <c r="K41" s="81"/>
       <c r="L41" s="81"/>
       <c r="M41" s="81"/>
-      <c r="N41" s="263"/>
-      <c r="O41" s="265"/>
+      <c r="N41" s="277"/>
+      <c r="O41" s="278"/>
       <c r="P41" s="83">
         <f>F41+H41+J42+L43+L44+N44</f>
         <v>2.29189</v>
@@ -23793,8 +23841,8 @@
       <c r="K42" s="274"/>
       <c r="L42" s="88"/>
       <c r="M42" s="88"/>
-      <c r="N42" s="266"/>
-      <c r="O42" s="267"/>
+      <c r="N42" s="275"/>
+      <c r="O42" s="276"/>
       <c r="P42" s="83"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
@@ -23812,8 +23860,8 @@
         <v>0.84328000000000003</v>
       </c>
       <c r="M43" s="88"/>
-      <c r="N43" s="266"/>
-      <c r="O43" s="267"/>
+      <c r="N43" s="275"/>
+      <c r="O43" s="276"/>
       <c r="P43" s="83"/>
     </row>
     <row r="44" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23833,10 +23881,10 @@
         <v>0.23543</v>
       </c>
       <c r="M44" s="85"/>
-      <c r="N44" s="268">
+      <c r="N44" s="279">
         <v>0.13220000000000001</v>
       </c>
-      <c r="O44" s="269"/>
+      <c r="O44" s="280"/>
       <c r="P44" s="83"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
@@ -23850,16 +23898,16 @@
         <v>0.47361999999999999</v>
       </c>
       <c r="G45" s="92"/>
-      <c r="H45" s="270">
+      <c r="H45" s="273">
         <v>0.28101999999999999</v>
       </c>
-      <c r="I45" s="270"/>
+      <c r="I45" s="273"/>
       <c r="J45" s="81"/>
       <c r="K45" s="81"/>
       <c r="L45" s="81"/>
       <c r="M45" s="81"/>
-      <c r="N45" s="263"/>
-      <c r="O45" s="265"/>
+      <c r="N45" s="277"/>
+      <c r="O45" s="278"/>
       <c r="P45" s="83">
         <f>F45+H45+L46+L47+N47+J51</f>
         <v>2.2079800000000001</v>
@@ -23879,8 +23927,8 @@
         <v>0.71950000000000003</v>
       </c>
       <c r="M46" s="88"/>
-      <c r="N46" s="266"/>
-      <c r="O46" s="267"/>
+      <c r="N46" s="275"/>
+      <c r="O46" s="276"/>
       <c r="P46" s="83"/>
     </row>
     <row r="47" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23900,10 +23948,10 @@
         <v>0.20451</v>
       </c>
       <c r="M47" s="85"/>
-      <c r="N47" s="268">
+      <c r="N47" s="279">
         <v>9.1600000000000001E-2</v>
       </c>
-      <c r="O47" s="269"/>
+      <c r="O47" s="280"/>
       <c r="P47" s="83"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
@@ -23917,16 +23965,16 @@
         <v>0.17321</v>
       </c>
       <c r="G48" s="92"/>
-      <c r="H48" s="270">
+      <c r="H48" s="273">
         <v>9.2929999999999999E-2</v>
       </c>
-      <c r="I48" s="270"/>
+      <c r="I48" s="273"/>
       <c r="J48" s="81"/>
       <c r="K48" s="81"/>
       <c r="L48" s="81"/>
       <c r="M48" s="81"/>
-      <c r="N48" s="263"/>
-      <c r="O48" s="265"/>
+      <c r="N48" s="277"/>
+      <c r="O48" s="278"/>
       <c r="P48" s="83">
         <f>F48+H48+L49+L50+N50+J51</f>
         <v>2.12704</v>
@@ -23949,8 +23997,8 @@
         <v>1</v>
       </c>
       <c r="M49" s="88"/>
-      <c r="N49" s="266"/>
-      <c r="O49" s="267"/>
+      <c r="N49" s="275"/>
+      <c r="O49" s="276"/>
       <c r="P49" s="83"/>
     </row>
     <row r="50" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23973,10 +24021,10 @@
         <v>0.26967000000000002</v>
       </c>
       <c r="M50" s="85"/>
-      <c r="N50" s="268">
+      <c r="N50" s="279">
         <v>0.1535</v>
       </c>
-      <c r="O50" s="269"/>
+      <c r="O50" s="280"/>
       <c r="P50" s="83"/>
     </row>
     <row r="51" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23990,14 +24038,14 @@
       <c r="G51" s="94"/>
       <c r="H51" s="94"/>
       <c r="I51" s="94"/>
-      <c r="J51" s="271">
+      <c r="J51" s="281">
         <v>0.43773000000000001</v>
       </c>
-      <c r="K51" s="271"/>
+      <c r="K51" s="281"/>
       <c r="L51" s="94"/>
       <c r="M51" s="94"/>
-      <c r="N51" s="272"/>
-      <c r="O51" s="273"/>
+      <c r="N51" s="282"/>
+      <c r="O51" s="283"/>
       <c r="P51" s="83"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
@@ -24014,16 +24062,16 @@
         <v>0.28996</v>
       </c>
       <c r="G52" s="92"/>
-      <c r="H52" s="270">
+      <c r="H52" s="273">
         <v>0.25344</v>
       </c>
-      <c r="I52" s="270"/>
+      <c r="I52" s="273"/>
       <c r="J52" s="81"/>
       <c r="K52" s="81"/>
       <c r="L52" s="81"/>
       <c r="M52" s="81"/>
-      <c r="N52" s="263"/>
-      <c r="O52" s="265"/>
+      <c r="N52" s="277"/>
+      <c r="O52" s="278"/>
       <c r="P52" s="83">
         <f>F52+H52+J53+L54+L55+N55</f>
         <v>2.0821799999999997</v>
@@ -24049,8 +24097,8 @@
       <c r="K53" s="274"/>
       <c r="L53" s="88"/>
       <c r="M53" s="88"/>
-      <c r="N53" s="266"/>
-      <c r="O53" s="267"/>
+      <c r="N53" s="275"/>
+      <c r="O53" s="276"/>
       <c r="P53" s="83"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
@@ -24073,8 +24121,8 @@
         <v>0.56411</v>
       </c>
       <c r="M54" s="88"/>
-      <c r="N54" s="266"/>
-      <c r="O54" s="267"/>
+      <c r="N54" s="275"/>
+      <c r="O54" s="276"/>
       <c r="P54" s="83"/>
     </row>
     <row r="55" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24097,10 +24145,10 @@
         <v>0.14326</v>
       </c>
       <c r="M55" s="85"/>
-      <c r="N55" s="268">
+      <c r="N55" s="279">
         <v>0.17191999999999999</v>
       </c>
-      <c r="O55" s="269"/>
+      <c r="O55" s="280"/>
       <c r="P55" s="83"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
@@ -24123,8 +24171,8 @@
         <v>0.19162000000000001</v>
       </c>
       <c r="M56" s="81"/>
-      <c r="N56" s="263"/>
-      <c r="O56" s="265"/>
+      <c r="N56" s="277"/>
+      <c r="O56" s="278"/>
       <c r="P56" s="83">
         <f>L56+L57+L58+L59+N58+N59</f>
         <v>2.1837599999999999</v>
@@ -24147,8 +24195,8 @@
         <v>0.49523</v>
       </c>
       <c r="M57" s="88"/>
-      <c r="N57" s="266"/>
-      <c r="O57" s="267"/>
+      <c r="N57" s="275"/>
+      <c r="O57" s="276"/>
       <c r="P57" s="83"/>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
@@ -24168,10 +24216,10 @@
         <v>0.47439999999999999</v>
       </c>
       <c r="M58" s="88"/>
-      <c r="N58" s="266">
+      <c r="N58" s="275">
         <v>0.60697000000000001</v>
       </c>
-      <c r="O58" s="267"/>
+      <c r="O58" s="276"/>
       <c r="P58" s="83"/>
     </row>
     <row r="59" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24191,10 +24239,10 @@
         <v>0.16774</v>
       </c>
       <c r="M59" s="85"/>
-      <c r="N59" s="268">
+      <c r="N59" s="279">
         <v>0.24779999999999999</v>
       </c>
-      <c r="O59" s="269"/>
+      <c r="O59" s="280"/>
       <c r="P59" s="83"/>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
@@ -24208,14 +24256,14 @@
       <c r="G60" s="81"/>
       <c r="H60" s="81"/>
       <c r="I60" s="81"/>
-      <c r="J60" s="263">
+      <c r="J60" s="277">
         <v>0.45617999999999997</v>
       </c>
-      <c r="K60" s="264"/>
+      <c r="K60" s="286"/>
       <c r="L60" s="81"/>
       <c r="M60" s="81"/>
-      <c r="N60" s="263"/>
-      <c r="O60" s="265"/>
+      <c r="N60" s="277"/>
+      <c r="O60" s="278"/>
       <c r="P60" s="83">
         <f>J60+L62+N62+L63+L64+N64</f>
         <v>2.0612399999999997</v>
@@ -24238,10 +24286,10 @@
         <v>0.28649999999999998</v>
       </c>
       <c r="M61" s="88"/>
-      <c r="N61" s="266">
+      <c r="N61" s="275">
         <v>0.80176999999999998</v>
       </c>
-      <c r="O61" s="267"/>
+      <c r="O61" s="276"/>
       <c r="P61" s="83">
         <f>J60+L61+N61+L63+L64+N64</f>
         <v>2.4324300000000001</v>
@@ -24267,10 +24315,10 @@
         <v>0.20932000000000001</v>
       </c>
       <c r="M62" s="88"/>
-      <c r="N62" s="266">
+      <c r="N62" s="275">
         <v>0.50775999999999999</v>
       </c>
-      <c r="O62" s="267"/>
+      <c r="O62" s="276"/>
       <c r="P62" s="83"/>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
@@ -24290,8 +24338,8 @@
         <v>0.14599000000000001</v>
       </c>
       <c r="M63" s="88"/>
-      <c r="N63" s="266"/>
-      <c r="O63" s="267"/>
+      <c r="N63" s="275"/>
+      <c r="O63" s="276"/>
       <c r="P63" s="83"/>
     </row>
     <row r="64" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24311,10 +24359,10 @@
         <v>0.12414</v>
       </c>
       <c r="M64" s="85"/>
-      <c r="N64" s="268">
+      <c r="N64" s="279">
         <v>0.61785000000000001</v>
       </c>
-      <c r="O64" s="269"/>
+      <c r="O64" s="280"/>
       <c r="P64" s="83"/>
     </row>
     <row r="65" spans="3:17" x14ac:dyDescent="0.25">
@@ -24334,10 +24382,10 @@
         <v>0.23763000000000001</v>
       </c>
       <c r="M65" s="81"/>
-      <c r="N65" s="263">
+      <c r="N65" s="277">
         <v>1</v>
       </c>
-      <c r="O65" s="265"/>
+      <c r="O65" s="278"/>
       <c r="P65" s="83">
         <f>L65+N65+L66+L67+N67</f>
         <v>1.8703959999999999</v>
@@ -24361,8 +24409,8 @@
         <v>0.17316000000000001</v>
       </c>
       <c r="M66" s="88"/>
-      <c r="N66" s="266"/>
-      <c r="O66" s="267"/>
+      <c r="N66" s="275"/>
+      <c r="O66" s="276"/>
       <c r="P66" s="83"/>
       <c r="Q66" s="83"/>
     </row>
@@ -24383,10 +24431,10 @@
         <v>0.12317</v>
       </c>
       <c r="M67" s="85"/>
-      <c r="N67" s="268">
+      <c r="N67" s="279">
         <v>0.33643600000000001</v>
       </c>
-      <c r="O67" s="269"/>
+      <c r="O67" s="280"/>
       <c r="P67" s="83"/>
       <c r="Q67" s="83"/>
     </row>
@@ -24407,10 +24455,10 @@
         <v>0.20199</v>
       </c>
       <c r="M68" s="81"/>
-      <c r="N68" s="263">
+      <c r="N68" s="277">
         <v>0.85</v>
       </c>
-      <c r="O68" s="265"/>
+      <c r="O68" s="278"/>
       <c r="P68" s="83">
         <f>L68+N68+L69+L70+N70</f>
         <v>1.6197900000000001</v>
@@ -24433,8 +24481,8 @@
         <v>0.17718999999999999</v>
       </c>
       <c r="M69" s="88"/>
-      <c r="N69" s="266"/>
-      <c r="O69" s="267"/>
+      <c r="N69" s="275"/>
+      <c r="O69" s="276"/>
       <c r="P69" s="83"/>
     </row>
     <row r="70" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24454,79 +24502,26 @@
         <v>0.1047</v>
       </c>
       <c r="M70" s="100"/>
-      <c r="N70" s="261">
+      <c r="N70" s="284">
         <v>0.28591</v>
       </c>
-      <c r="O70" s="262"/>
+      <c r="O70" s="285"/>
       <c r="P70" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="N69:O69"/>
     <mergeCell ref="H48:I48"/>
     <mergeCell ref="N48:O48"/>
     <mergeCell ref="N49:O49"/>
@@ -24543,18 +24538,71 @@
     <mergeCell ref="N57:O57"/>
     <mergeCell ref="N58:O58"/>
     <mergeCell ref="N50:O50"/>
-    <mergeCell ref="N70:O70"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="N60:O60"/>
-    <mergeCell ref="N61:O61"/>
-    <mergeCell ref="N62:O62"/>
-    <mergeCell ref="N63:O63"/>
-    <mergeCell ref="N64:O64"/>
-    <mergeCell ref="N65:O65"/>
-    <mergeCell ref="N66:O66"/>
-    <mergeCell ref="N67:O67"/>
-    <mergeCell ref="N68:O68"/>
-    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="J6:K6"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:O70">
     <cfRule type="cellIs" dxfId="25" priority="1" operator="between">
@@ -24601,97 +24649,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="280">
+      <c r="A1" s="287">
         <v>0.34</v>
       </c>
-      <c r="B1" s="281"/>
-      <c r="C1" s="280">
+      <c r="B1" s="288"/>
+      <c r="C1" s="287">
         <v>0.245</v>
       </c>
-      <c r="D1" s="281"/>
-      <c r="E1" s="280">
+      <c r="D1" s="288"/>
+      <c r="E1" s="287">
         <v>0.125</v>
       </c>
-      <c r="F1" s="281"/>
-      <c r="G1" s="280">
+      <c r="F1" s="288"/>
+      <c r="G1" s="287">
         <v>0.29099999999999998</v>
       </c>
-      <c r="H1" s="281"/>
-      <c r="I1" s="280">
+      <c r="H1" s="288"/>
+      <c r="I1" s="287">
         <v>0.19</v>
       </c>
-      <c r="J1" s="281"/>
-      <c r="L1" s="280">
+      <c r="J1" s="288"/>
+      <c r="L1" s="287">
         <v>0.34</v>
       </c>
-      <c r="M1" s="281"/>
-      <c r="N1" s="280">
+      <c r="M1" s="288"/>
+      <c r="N1" s="287">
         <v>0.245</v>
       </c>
-      <c r="O1" s="281"/>
-      <c r="P1" s="280">
+      <c r="O1" s="288"/>
+      <c r="P1" s="287">
         <v>0.125</v>
       </c>
-      <c r="Q1" s="281"/>
-      <c r="R1" s="280">
+      <c r="Q1" s="288"/>
+      <c r="R1" s="287">
         <f>0.291*86/100</f>
         <v>0.25025999999999998</v>
       </c>
-      <c r="S1" s="281"/>
-      <c r="T1" s="280">
+      <c r="S1" s="288"/>
+      <c r="T1" s="287">
         <v>0.19</v>
       </c>
-      <c r="U1" s="281"/>
-      <c r="W1" s="279" t="s">
+      <c r="U1" s="288"/>
+      <c r="W1" s="289" t="s">
         <v>232</v>
       </c>
-      <c r="X1" s="279"/>
-      <c r="AC1" s="279" t="s">
+      <c r="X1" s="289"/>
+      <c r="AC1" s="289" t="s">
         <v>233</v>
       </c>
-      <c r="AD1" s="279"/>
+      <c r="AD1" s="289"/>
     </row>
     <row r="2" spans="1:44" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="276" t="s">
+      <c r="A2" s="269" t="s">
         <v>234</v>
       </c>
-      <c r="B2" s="276"/>
-      <c r="C2" s="276" t="s">
+      <c r="B2" s="269"/>
+      <c r="C2" s="269" t="s">
         <v>235</v>
       </c>
-      <c r="D2" s="276"/>
-      <c r="E2" s="276" t="s">
+      <c r="D2" s="269"/>
+      <c r="E2" s="269" t="s">
         <v>236</v>
       </c>
-      <c r="F2" s="276"/>
-      <c r="G2" s="276" t="s">
+      <c r="F2" s="269"/>
+      <c r="G2" s="269" t="s">
         <v>237</v>
       </c>
-      <c r="H2" s="276"/>
-      <c r="I2" s="276" t="s">
+      <c r="H2" s="269"/>
+      <c r="I2" s="269" t="s">
         <v>238</v>
       </c>
-      <c r="J2" s="276"/>
-      <c r="L2" s="276" t="s">
+      <c r="J2" s="269"/>
+      <c r="L2" s="269" t="s">
         <v>234</v>
       </c>
-      <c r="M2" s="276"/>
-      <c r="N2" s="276" t="s">
+      <c r="M2" s="269"/>
+      <c r="N2" s="269" t="s">
         <v>235</v>
       </c>
-      <c r="O2" s="276"/>
-      <c r="P2" s="276" t="s">
+      <c r="O2" s="269"/>
+      <c r="P2" s="269" t="s">
         <v>236</v>
       </c>
-      <c r="Q2" s="276"/>
-      <c r="R2" s="276" t="s">
+      <c r="Q2" s="269"/>
+      <c r="R2" s="269" t="s">
         <v>237</v>
       </c>
-      <c r="S2" s="276"/>
-      <c r="T2" s="276" t="s">
+      <c r="S2" s="269"/>
+      <c r="T2" s="269" t="s">
         <v>238</v>
       </c>
-      <c r="U2" s="276"/>
+      <c r="U2" s="269"/>
     </row>
     <row r="3" spans="1:44" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="79" t="s">
@@ -24700,36 +24748,36 @@
       <c r="B3" s="79" t="s">
         <v>240</v>
       </c>
-      <c r="C3" s="277"/>
-      <c r="D3" s="278"/>
-      <c r="E3" s="277"/>
-      <c r="F3" s="278"/>
+      <c r="C3" s="270"/>
+      <c r="D3" s="271"/>
+      <c r="E3" s="270"/>
+      <c r="F3" s="271"/>
       <c r="G3" s="79" t="s">
         <v>239</v>
       </c>
       <c r="H3" s="79" t="s">
         <v>240</v>
       </c>
-      <c r="I3" s="277"/>
-      <c r="J3" s="278"/>
+      <c r="I3" s="270"/>
+      <c r="J3" s="271"/>
       <c r="L3" s="79" t="s">
         <v>239</v>
       </c>
       <c r="M3" s="79" t="s">
         <v>240</v>
       </c>
-      <c r="N3" s="277"/>
-      <c r="O3" s="278"/>
-      <c r="P3" s="277"/>
-      <c r="Q3" s="278"/>
+      <c r="N3" s="270"/>
+      <c r="O3" s="271"/>
+      <c r="P3" s="270"/>
+      <c r="Q3" s="271"/>
       <c r="R3" s="79" t="s">
         <v>239</v>
       </c>
       <c r="S3" s="79" t="s">
         <v>240</v>
       </c>
-      <c r="T3" s="277"/>
-      <c r="U3" s="278"/>
+      <c r="T3" s="270"/>
+      <c r="U3" s="271"/>
       <c r="W3" t="s">
         <v>241</v>
       </c>
@@ -24738,14 +24786,14 @@
       </c>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A4" s="270">
+      <c r="A4" s="273">
         <v>0.64709000000000005</v>
       </c>
-      <c r="B4" s="270"/>
-      <c r="C4" s="270">
+      <c r="B4" s="273"/>
+      <c r="C4" s="273">
         <v>0.97192999999999996</v>
       </c>
-      <c r="D4" s="270"/>
+      <c r="D4" s="273"/>
       <c r="E4" s="81"/>
       <c r="F4" s="81"/>
       <c r="G4" s="81"/>
@@ -24755,14 +24803,14 @@
       <c r="K4" s="80" t="s">
         <v>243</v>
       </c>
-      <c r="L4" s="270">
+      <c r="L4" s="273">
         <v>0.64709000000000005</v>
       </c>
-      <c r="M4" s="270"/>
-      <c r="N4" s="270">
+      <c r="M4" s="273"/>
+      <c r="N4" s="273">
         <v>0.97192999999999996</v>
       </c>
-      <c r="O4" s="270"/>
+      <c r="O4" s="273"/>
       <c r="P4" s="81"/>
       <c r="Q4" s="81"/>
       <c r="R4" s="81"/>
@@ -24780,14 +24828,14 @@
       </c>
     </row>
     <row r="5" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="275">
+      <c r="A5" s="272">
         <v>0.26545000000000002</v>
       </c>
-      <c r="B5" s="275"/>
-      <c r="C5" s="275">
+      <c r="B5" s="272"/>
+      <c r="C5" s="272">
         <v>0.39895999999999998</v>
       </c>
-      <c r="D5" s="275"/>
+      <c r="D5" s="272"/>
       <c r="E5" s="85"/>
       <c r="F5" s="85"/>
       <c r="G5" s="85"/>
@@ -24797,14 +24845,14 @@
       <c r="K5" s="84" t="s">
         <v>246</v>
       </c>
-      <c r="L5" s="275">
+      <c r="L5" s="272">
         <v>0.26545000000000002</v>
       </c>
-      <c r="M5" s="275"/>
-      <c r="N5" s="275">
+      <c r="M5" s="272"/>
+      <c r="N5" s="272">
         <v>0.39895999999999998</v>
       </c>
-      <c r="O5" s="275"/>
+      <c r="O5" s="272"/>
       <c r="P5" s="85"/>
       <c r="Q5" s="85"/>
       <c r="R5" s="85"/>
@@ -24828,10 +24876,10 @@
       <c r="B6" s="81">
         <v>0.25008999999999998</v>
       </c>
-      <c r="C6" s="270">
+      <c r="C6" s="273">
         <v>1</v>
       </c>
-      <c r="D6" s="270"/>
+      <c r="D6" s="273"/>
       <c r="E6" s="81"/>
       <c r="F6" s="81"/>
       <c r="G6" s="81"/>
@@ -24847,10 +24895,10 @@
       <c r="M6" s="81">
         <v>0.25008999999999998</v>
       </c>
-      <c r="N6" s="270">
+      <c r="N6" s="273">
         <v>1</v>
       </c>
-      <c r="O6" s="270"/>
+      <c r="O6" s="273"/>
       <c r="P6" s="81"/>
       <c r="Q6" s="81"/>
       <c r="R6" s="81"/>
@@ -24863,10 +24911,10 @@
       <c r="B7" s="85"/>
       <c r="C7" s="85"/>
       <c r="D7" s="85"/>
-      <c r="E7" s="275">
+      <c r="E7" s="272">
         <v>0.27488000000000001</v>
       </c>
-      <c r="F7" s="275"/>
+      <c r="F7" s="272"/>
       <c r="G7" s="85"/>
       <c r="H7" s="85"/>
       <c r="I7" s="85"/>
@@ -24878,10 +24926,10 @@
       <c r="M7" s="85"/>
       <c r="N7" s="85"/>
       <c r="O7" s="85"/>
-      <c r="P7" s="275">
+      <c r="P7" s="272">
         <v>0.27488000000000001</v>
       </c>
-      <c r="Q7" s="275"/>
+      <c r="Q7" s="272"/>
       <c r="R7" s="85"/>
       <c r="S7" s="85"/>
       <c r="T7" s="85"/>
@@ -24900,10 +24948,10 @@
       <c r="B8" s="81">
         <v>0.17752000000000001</v>
       </c>
-      <c r="C8" s="270">
+      <c r="C8" s="273">
         <v>0.72296000000000005</v>
       </c>
-      <c r="D8" s="270"/>
+      <c r="D8" s="273"/>
       <c r="E8" s="81"/>
       <c r="F8" s="81"/>
       <c r="G8" s="81"/>
@@ -24919,10 +24967,10 @@
       <c r="M8" s="81">
         <v>0.17752000000000001</v>
       </c>
-      <c r="N8" s="270">
+      <c r="N8" s="273">
         <v>0.72296000000000005</v>
       </c>
-      <c r="O8" s="270"/>
+      <c r="O8" s="273"/>
       <c r="P8" s="81"/>
       <c r="Q8" s="81"/>
       <c r="R8" s="81"/>
@@ -24938,10 +24986,10 @@
       <c r="B9" s="85"/>
       <c r="C9" s="85"/>
       <c r="D9" s="85"/>
-      <c r="E9" s="275">
+      <c r="E9" s="272">
         <v>0.36337000000000003</v>
       </c>
-      <c r="F9" s="275"/>
+      <c r="F9" s="272"/>
       <c r="G9" s="85"/>
       <c r="H9" s="85"/>
       <c r="I9" s="85"/>
@@ -24953,11 +25001,11 @@
       <c r="M9" s="85"/>
       <c r="N9" s="85"/>
       <c r="O9" s="85"/>
-      <c r="P9" s="275">
+      <c r="P9" s="272">
         <f>36.337%*1.21</f>
         <v>0.4396777</v>
       </c>
-      <c r="Q9" s="275"/>
+      <c r="Q9" s="272"/>
       <c r="R9" s="85"/>
       <c r="S9" s="85"/>
       <c r="T9" s="85"/>
@@ -24971,10 +25019,10 @@
         <v>0.65615999999999997</v>
       </c>
       <c r="B10" s="81"/>
-      <c r="C10" s="270">
+      <c r="C10" s="273">
         <v>0.78437000000000001</v>
       </c>
-      <c r="D10" s="270"/>
+      <c r="D10" s="273"/>
       <c r="E10" s="81"/>
       <c r="F10" s="81"/>
       <c r="G10" s="81"/>
@@ -24989,11 +25037,11 @@
         <v>0.69552959999999997</v>
       </c>
       <c r="M10" s="81"/>
-      <c r="N10" s="270">
+      <c r="N10" s="273">
         <f>78.437%*(1-0.09)</f>
         <v>0.71377670000000004</v>
       </c>
-      <c r="O10" s="270"/>
+      <c r="O10" s="273"/>
       <c r="P10" s="81"/>
       <c r="Q10" s="81"/>
       <c r="R10" s="81"/>
@@ -25072,14 +25120,14 @@
       </c>
     </row>
     <row r="13" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A13" s="270">
+      <c r="A13" s="273">
         <v>0.42514999999999997</v>
       </c>
-      <c r="B13" s="270"/>
-      <c r="C13" s="270">
+      <c r="B13" s="273"/>
+      <c r="C13" s="273">
         <v>0.85</v>
       </c>
-      <c r="D13" s="270"/>
+      <c r="D13" s="273"/>
       <c r="E13" s="81"/>
       <c r="F13" s="81"/>
       <c r="G13" s="81"/>
@@ -25089,14 +25137,14 @@
       <c r="K13" s="80" t="s">
         <v>260</v>
       </c>
-      <c r="L13" s="270">
+      <c r="L13" s="273">
         <v>0.42514999999999997</v>
       </c>
-      <c r="M13" s="270"/>
-      <c r="N13" s="270">
+      <c r="M13" s="273"/>
+      <c r="N13" s="273">
         <v>0.85</v>
       </c>
-      <c r="O13" s="270"/>
+      <c r="O13" s="273"/>
       <c r="P13" s="81"/>
       <c r="Q13" s="81"/>
       <c r="R13" s="81"/>
@@ -25129,10 +25177,10 @@
       <c r="B14" s="85"/>
       <c r="C14" s="85"/>
       <c r="D14" s="85"/>
-      <c r="E14" s="275">
+      <c r="E14" s="272">
         <v>0.23365</v>
       </c>
-      <c r="F14" s="275"/>
+      <c r="F14" s="272"/>
       <c r="G14" s="85"/>
       <c r="H14" s="85"/>
       <c r="I14" s="85"/>
@@ -25144,10 +25192,10 @@
       <c r="M14" s="85"/>
       <c r="N14" s="85"/>
       <c r="O14" s="85"/>
-      <c r="P14" s="275">
+      <c r="P14" s="272">
         <v>0.23365</v>
       </c>
-      <c r="Q14" s="275"/>
+      <c r="Q14" s="272"/>
       <c r="R14" s="85"/>
       <c r="S14" s="85"/>
       <c r="T14" s="85"/>
@@ -25185,10 +25233,10 @@
         <v>1</v>
       </c>
       <c r="B15" s="92"/>
-      <c r="C15" s="270">
+      <c r="C15" s="273">
         <v>0.51382000000000005</v>
       </c>
-      <c r="D15" s="270"/>
+      <c r="D15" s="273"/>
       <c r="E15" s="81"/>
       <c r="F15" s="81"/>
       <c r="G15" s="81"/>
@@ -25202,10 +25250,10 @@
         <v>1</v>
       </c>
       <c r="M15" s="92"/>
-      <c r="N15" s="270">
+      <c r="N15" s="273">
         <v>0.51382000000000005</v>
       </c>
-      <c r="O15" s="270"/>
+      <c r="O15" s="273"/>
       <c r="P15" s="81"/>
       <c r="Q15" s="81"/>
       <c r="R15" s="81"/>
@@ -25352,10 +25400,10 @@
         <v>0.91232999999999997</v>
       </c>
       <c r="B18" s="92"/>
-      <c r="C18" s="270">
+      <c r="C18" s="273">
         <v>0.46146999999999999</v>
       </c>
-      <c r="D18" s="270"/>
+      <c r="D18" s="273"/>
       <c r="E18" s="81"/>
       <c r="F18" s="81"/>
       <c r="G18" s="81"/>
@@ -25369,11 +25417,11 @@
         <v>0.91232999999999997</v>
       </c>
       <c r="M18" s="92"/>
-      <c r="N18" s="270">
+      <c r="N18" s="273">
         <f>46.147%*(1-0.08)</f>
         <v>0.4245524</v>
       </c>
-      <c r="O18" s="270"/>
+      <c r="O18" s="273"/>
       <c r="P18" s="81"/>
       <c r="Q18" s="81"/>
       <c r="R18" s="81"/>
@@ -25480,10 +25528,10 @@
         <v>0.69059999999999999</v>
       </c>
       <c r="B21" s="92"/>
-      <c r="C21" s="270">
+      <c r="C21" s="273">
         <v>0.38878000000000001</v>
       </c>
-      <c r="D21" s="270"/>
+      <c r="D21" s="273"/>
       <c r="E21" s="81"/>
       <c r="F21" s="81"/>
       <c r="G21" s="81"/>
@@ -25497,10 +25545,10 @@
         <v>0.69059999999999999</v>
       </c>
       <c r="M21" s="92"/>
-      <c r="N21" s="270">
+      <c r="N21" s="273">
         <v>0.38878000000000001</v>
       </c>
-      <c r="O21" s="270"/>
+      <c r="O21" s="273"/>
       <c r="P21" s="81"/>
       <c r="Q21" s="81"/>
       <c r="R21" s="81"/>
@@ -25604,10 +25652,10 @@
         <v>0.68315000000000003</v>
       </c>
       <c r="B24" s="92"/>
-      <c r="C24" s="270">
+      <c r="C24" s="273">
         <v>0.70006000000000002</v>
       </c>
-      <c r="D24" s="270"/>
+      <c r="D24" s="273"/>
       <c r="E24" s="81"/>
       <c r="F24" s="81"/>
       <c r="G24" s="81"/>
@@ -25621,10 +25669,10 @@
         <v>0.68315000000000003</v>
       </c>
       <c r="M24" s="92"/>
-      <c r="N24" s="270">
+      <c r="N24" s="273">
         <v>0.70006000000000002</v>
       </c>
-      <c r="O24" s="270"/>
+      <c r="O24" s="273"/>
       <c r="P24" s="81"/>
       <c r="Q24" s="81"/>
       <c r="R24" s="81"/>
@@ -25730,16 +25778,16 @@
       <c r="B27" s="81">
         <v>9.2719999999999997E-2</v>
       </c>
-      <c r="C27" s="270">
+      <c r="C27" s="273">
         <v>0.42459999999999998</v>
       </c>
-      <c r="D27" s="270"/>
+      <c r="D27" s="273"/>
       <c r="E27" s="81"/>
       <c r="F27" s="81"/>
       <c r="G27" s="81"/>
       <c r="H27" s="81"/>
-      <c r="I27" s="263"/>
-      <c r="J27" s="265"/>
+      <c r="I27" s="277"/>
+      <c r="J27" s="278"/>
       <c r="K27" s="80" t="s">
         <v>292</v>
       </c>
@@ -25749,16 +25797,16 @@
       <c r="M27" s="81">
         <v>9.2719999999999997E-2</v>
       </c>
-      <c r="N27" s="270">
+      <c r="N27" s="273">
         <v>0.42459999999999998</v>
       </c>
-      <c r="O27" s="270"/>
+      <c r="O27" s="273"/>
       <c r="P27" s="81"/>
       <c r="Q27" s="81"/>
       <c r="R27" s="81"/>
       <c r="S27" s="81"/>
-      <c r="T27" s="263"/>
-      <c r="U27" s="265"/>
+      <c r="T27" s="277"/>
+      <c r="U27" s="278"/>
       <c r="W27" t="s">
         <v>415</v>
       </c>
@@ -25780,8 +25828,8 @@
       <c r="F28" s="274"/>
       <c r="G28" s="88"/>
       <c r="H28" s="88"/>
-      <c r="I28" s="266"/>
-      <c r="J28" s="267"/>
+      <c r="I28" s="275"/>
+      <c r="J28" s="276"/>
       <c r="K28" s="87" t="s">
         <v>295</v>
       </c>
@@ -25795,8 +25843,8 @@
       <c r="Q28" s="274"/>
       <c r="R28" s="88"/>
       <c r="S28" s="88"/>
-      <c r="T28" s="266"/>
-      <c r="U28" s="267"/>
+      <c r="T28" s="275"/>
+      <c r="U28" s="276"/>
       <c r="W28" t="s">
         <v>418</v>
       </c>
@@ -25826,10 +25874,10 @@
       <c r="Q29" s="90"/>
       <c r="R29" s="85"/>
       <c r="S29" s="85"/>
-      <c r="T29" s="268">
+      <c r="T29" s="279">
         <v>0.21</v>
       </c>
-      <c r="U29" s="269"/>
+      <c r="U29" s="280"/>
       <c r="W29" t="s">
         <v>420</v>
       </c>
@@ -25850,10 +25898,10 @@
       <c r="H30" s="85">
         <v>0.1226</v>
       </c>
-      <c r="I30" s="268">
+      <c r="I30" s="279">
         <v>0.34044000000000002</v>
       </c>
-      <c r="J30" s="269"/>
+      <c r="J30" s="280"/>
       <c r="K30" s="84" t="s">
         <v>298</v>
       </c>
@@ -25869,11 +25917,11 @@
       <c r="S30" s="85">
         <v>0.14255813953488372</v>
       </c>
-      <c r="T30" s="268">
+      <c r="T30" s="279">
         <f>34.044%*1.05</f>
         <v>0.357462</v>
       </c>
-      <c r="U30" s="269"/>
+      <c r="U30" s="280"/>
       <c r="W30" t="s">
         <v>422</v>
       </c>
@@ -25894,16 +25942,16 @@
       <c r="B31" s="81">
         <v>0.13719000000000001</v>
       </c>
-      <c r="C31" s="270">
+      <c r="C31" s="273">
         <v>0.62792999999999999</v>
       </c>
-      <c r="D31" s="270"/>
+      <c r="D31" s="273"/>
       <c r="E31" s="81"/>
       <c r="F31" s="81"/>
       <c r="G31" s="81"/>
       <c r="H31" s="81"/>
-      <c r="I31" s="263"/>
-      <c r="J31" s="265"/>
+      <c r="I31" s="277"/>
+      <c r="J31" s="278"/>
       <c r="K31" s="80" t="s">
         <v>300</v>
       </c>
@@ -25913,16 +25961,16 @@
       <c r="M31" s="81">
         <v>0.13719000000000001</v>
       </c>
-      <c r="N31" s="270">
+      <c r="N31" s="273">
         <v>0.62792999999999999</v>
       </c>
-      <c r="O31" s="270"/>
+      <c r="O31" s="273"/>
       <c r="P31" s="81"/>
       <c r="Q31" s="81"/>
       <c r="R31" s="81"/>
       <c r="S31" s="81"/>
-      <c r="T31" s="263"/>
-      <c r="U31" s="265"/>
+      <c r="T31" s="277"/>
+      <c r="U31" s="278"/>
       <c r="W31" t="s">
         <v>426</v>
       </c>
@@ -25958,10 +26006,10 @@
       <c r="Q32" s="103"/>
       <c r="R32" s="103"/>
       <c r="S32" s="103"/>
-      <c r="T32" s="268">
+      <c r="T32" s="279">
         <v>0.12</v>
       </c>
-      <c r="U32" s="269"/>
+      <c r="U32" s="280"/>
       <c r="W32" t="s">
         <v>430</v>
       </c>
@@ -25988,10 +26036,10 @@
       <c r="H33" s="85">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="I33" s="268">
+      <c r="I33" s="279">
         <v>0.23748</v>
       </c>
-      <c r="J33" s="269"/>
+      <c r="J33" s="280"/>
       <c r="K33" s="84" t="s">
         <v>303</v>
       </c>
@@ -26007,11 +26055,11 @@
       <c r="S33" s="85">
         <v>6.8837209302325592E-2</v>
       </c>
-      <c r="T33" s="268">
+      <c r="T33" s="279">
         <f>23.748%*0.8</f>
         <v>0.18998400000000004</v>
       </c>
-      <c r="U33" s="269"/>
+      <c r="U33" s="280"/>
       <c r="W33" t="s">
         <v>434</v>
       </c>
@@ -26032,16 +26080,16 @@
       <c r="B34" s="81">
         <v>5.6059999999999999E-2</v>
       </c>
-      <c r="C34" s="270">
+      <c r="C34" s="273">
         <v>0.23462</v>
       </c>
-      <c r="D34" s="270"/>
+      <c r="D34" s="273"/>
       <c r="E34" s="81"/>
       <c r="F34" s="81"/>
       <c r="G34" s="81"/>
       <c r="H34" s="81"/>
-      <c r="I34" s="263"/>
-      <c r="J34" s="265"/>
+      <c r="I34" s="277"/>
+      <c r="J34" s="278"/>
       <c r="K34" s="80" t="s">
         <v>305</v>
       </c>
@@ -26053,17 +26101,17 @@
         <f>5.606%*0.75</f>
         <v>4.2044999999999999E-2</v>
       </c>
-      <c r="N34" s="270">
+      <c r="N34" s="273">
         <f>23.462%*0.75</f>
         <v>0.17596499999999998</v>
       </c>
-      <c r="O34" s="270"/>
+      <c r="O34" s="273"/>
       <c r="P34" s="81"/>
       <c r="Q34" s="81"/>
       <c r="R34" s="81"/>
       <c r="S34" s="81"/>
-      <c r="T34" s="263"/>
-      <c r="U34" s="265"/>
+      <c r="T34" s="277"/>
+      <c r="U34" s="278"/>
       <c r="W34" t="s">
         <v>438</v>
       </c>
@@ -26099,10 +26147,10 @@
       <c r="Q35" s="103"/>
       <c r="R35" s="103"/>
       <c r="S35" s="103"/>
-      <c r="T35" s="268">
+      <c r="T35" s="279">
         <v>0.31</v>
       </c>
-      <c r="U35" s="269"/>
+      <c r="U35" s="280"/>
       <c r="W35" t="s">
         <v>442</v>
       </c>
@@ -26123,10 +26171,10 @@
       <c r="H36" s="85">
         <v>0.11894</v>
       </c>
-      <c r="I36" s="268">
+      <c r="I36" s="279">
         <v>0.50244</v>
       </c>
-      <c r="J36" s="269"/>
+      <c r="J36" s="280"/>
       <c r="K36" s="84" t="s">
         <v>307</v>
       </c>
@@ -26142,11 +26190,11 @@
       <c r="S36" s="85">
         <v>0.13830232558139535</v>
       </c>
-      <c r="T36" s="268">
+      <c r="T36" s="279">
         <f>50.244%*1.05</f>
         <v>0.52756199999999998</v>
       </c>
-      <c r="U36" s="269"/>
+      <c r="U36" s="280"/>
       <c r="AC36" t="s">
         <v>444</v>
       </c>
@@ -26156,14 +26204,14 @@
       <c r="B37" s="94"/>
       <c r="C37" s="94"/>
       <c r="D37" s="94"/>
-      <c r="E37" s="271">
+      <c r="E37" s="281">
         <v>0.94696999999999998</v>
       </c>
-      <c r="F37" s="271"/>
+      <c r="F37" s="281"/>
       <c r="G37" s="94"/>
       <c r="H37" s="94"/>
-      <c r="I37" s="272"/>
-      <c r="J37" s="273"/>
+      <c r="I37" s="282"/>
+      <c r="J37" s="283"/>
       <c r="K37" s="93" t="s">
         <v>309</v>
       </c>
@@ -26171,54 +26219,54 @@
       <c r="M37" s="94"/>
       <c r="N37" s="94"/>
       <c r="O37" s="94"/>
-      <c r="P37" s="271">
+      <c r="P37" s="281">
         <v>0.94696999999999998</v>
       </c>
-      <c r="Q37" s="271"/>
+      <c r="Q37" s="281"/>
       <c r="R37" s="94"/>
       <c r="S37" s="94"/>
-      <c r="T37" s="272"/>
-      <c r="U37" s="273"/>
-      <c r="W37" s="279" t="s">
+      <c r="T37" s="282"/>
+      <c r="U37" s="283"/>
+      <c r="W37" s="289" t="s">
         <v>261</v>
       </c>
-      <c r="X37" s="279"/>
+      <c r="X37" s="289"/>
       <c r="AC37" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="38" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A38" s="270">
+      <c r="A38" s="273">
         <v>0.15762999999999999</v>
       </c>
-      <c r="B38" s="270"/>
-      <c r="C38" s="270">
+      <c r="B38" s="273"/>
+      <c r="C38" s="273">
         <v>0.36070000000000002</v>
       </c>
-      <c r="D38" s="270"/>
+      <c r="D38" s="273"/>
       <c r="E38" s="81"/>
       <c r="F38" s="81"/>
       <c r="G38" s="81"/>
       <c r="H38" s="81"/>
-      <c r="I38" s="263"/>
-      <c r="J38" s="265"/>
+      <c r="I38" s="277"/>
+      <c r="J38" s="278"/>
       <c r="K38" s="80" t="s">
         <v>310</v>
       </c>
-      <c r="L38" s="270">
+      <c r="L38" s="273">
         <v>0.15762999999999999</v>
       </c>
-      <c r="M38" s="270"/>
-      <c r="N38" s="270">
+      <c r="M38" s="273"/>
+      <c r="N38" s="273">
         <v>0.36070000000000002</v>
       </c>
-      <c r="O38" s="270"/>
+      <c r="O38" s="273"/>
       <c r="P38" s="81"/>
       <c r="Q38" s="81"/>
       <c r="R38" s="81"/>
       <c r="S38" s="81"/>
-      <c r="T38" s="263"/>
-      <c r="U38" s="265"/>
+      <c r="T38" s="277"/>
+      <c r="U38" s="278"/>
       <c r="AC38" t="s">
         <v>446</v>
       </c>
@@ -26234,8 +26282,8 @@
       <c r="F39" s="274"/>
       <c r="G39" s="88"/>
       <c r="H39" s="88"/>
-      <c r="I39" s="266"/>
-      <c r="J39" s="267"/>
+      <c r="I39" s="275"/>
+      <c r="J39" s="276"/>
       <c r="K39" s="87" t="s">
         <v>311</v>
       </c>
@@ -26249,8 +26297,8 @@
       <c r="Q39" s="274"/>
       <c r="R39" s="88"/>
       <c r="S39" s="88"/>
-      <c r="T39" s="266"/>
-      <c r="U39" s="267"/>
+      <c r="T39" s="275"/>
+      <c r="U39" s="276"/>
       <c r="W39" t="s">
         <v>241</v>
       </c>
@@ -26269,10 +26317,10 @@
         <v>0.20784</v>
       </c>
       <c r="H40" s="85"/>
-      <c r="I40" s="268">
+      <c r="I40" s="279">
         <v>0.28937000000000002</v>
       </c>
-      <c r="J40" s="269"/>
+      <c r="J40" s="280"/>
       <c r="K40" s="84" t="s">
         <v>313</v>
       </c>
@@ -26286,10 +26334,10 @@
         <v>0.24167441860465114</v>
       </c>
       <c r="S40" s="85"/>
-      <c r="T40" s="268">
+      <c r="T40" s="279">
         <v>0.28937000000000002</v>
       </c>
-      <c r="U40" s="269"/>
+      <c r="U40" s="280"/>
       <c r="W40" t="s">
         <v>244</v>
       </c>
@@ -26298,37 +26346,37 @@
       </c>
     </row>
     <row r="41" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A41" s="270">
+      <c r="A41" s="273">
         <v>0.20368</v>
       </c>
-      <c r="B41" s="270"/>
-      <c r="C41" s="270">
+      <c r="B41" s="273"/>
+      <c r="C41" s="273">
         <v>0.33767000000000003</v>
       </c>
-      <c r="D41" s="270"/>
+      <c r="D41" s="273"/>
       <c r="E41" s="81"/>
       <c r="F41" s="81"/>
       <c r="G41" s="81"/>
       <c r="H41" s="81"/>
-      <c r="I41" s="263"/>
-      <c r="J41" s="265"/>
+      <c r="I41" s="277"/>
+      <c r="J41" s="278"/>
       <c r="K41" s="80" t="s">
         <v>315</v>
       </c>
-      <c r="L41" s="270">
+      <c r="L41" s="273">
         <v>0.20368</v>
       </c>
-      <c r="M41" s="270"/>
-      <c r="N41" s="270">
+      <c r="M41" s="273"/>
+      <c r="N41" s="273">
         <v>0.33767000000000003</v>
       </c>
-      <c r="O41" s="270"/>
+      <c r="O41" s="273"/>
       <c r="P41" s="81"/>
       <c r="Q41" s="81"/>
       <c r="R41" s="81"/>
       <c r="S41" s="81"/>
-      <c r="T41" s="263"/>
-      <c r="U41" s="265"/>
+      <c r="T41" s="277"/>
+      <c r="U41" s="278"/>
       <c r="W41" t="s">
         <v>247</v>
       </c>
@@ -26347,8 +26395,8 @@
       <c r="F42" s="274"/>
       <c r="G42" s="88"/>
       <c r="H42" s="88"/>
-      <c r="I42" s="266"/>
-      <c r="J42" s="267"/>
+      <c r="I42" s="275"/>
+      <c r="J42" s="276"/>
       <c r="K42" s="87" t="s">
         <v>317</v>
       </c>
@@ -26362,8 +26410,8 @@
       <c r="Q42" s="274"/>
       <c r="R42" s="88"/>
       <c r="S42" s="88"/>
-      <c r="T42" s="266"/>
-      <c r="U42" s="267"/>
+      <c r="T42" s="275"/>
+      <c r="U42" s="276"/>
       <c r="AC42" t="s">
         <v>450</v>
       </c>
@@ -26379,8 +26427,8 @@
         <v>0.57364000000000004</v>
       </c>
       <c r="H43" s="88"/>
-      <c r="I43" s="266"/>
-      <c r="J43" s="267"/>
+      <c r="I43" s="275"/>
+      <c r="J43" s="276"/>
       <c r="K43" s="87" t="s">
         <v>319</v>
       </c>
@@ -26394,8 +26442,8 @@
         <v>0.6670232558139535</v>
       </c>
       <c r="S43" s="88"/>
-      <c r="T43" s="266"/>
-      <c r="U43" s="267"/>
+      <c r="T43" s="275"/>
+      <c r="U43" s="276"/>
       <c r="W43" t="s">
         <v>256</v>
       </c>
@@ -26414,10 +26462,10 @@
         <v>0.26422000000000001</v>
       </c>
       <c r="H44" s="85"/>
-      <c r="I44" s="268">
+      <c r="I44" s="279">
         <v>0.2399</v>
       </c>
-      <c r="J44" s="269"/>
+      <c r="J44" s="280"/>
       <c r="K44" s="84" t="s">
         <v>321</v>
       </c>
@@ -26431,11 +26479,11 @@
         <v>0.30723255813953487</v>
       </c>
       <c r="S44" s="85"/>
-      <c r="T44" s="268">
+      <c r="T44" s="279">
         <f>23.99%*1.06</f>
         <v>0.25429399999999996</v>
       </c>
-      <c r="U44" s="269"/>
+      <c r="U44" s="280"/>
       <c r="W44" t="s">
         <v>258</v>
       </c>
@@ -26448,16 +26496,16 @@
         <v>0.34708</v>
       </c>
       <c r="B45" s="92"/>
-      <c r="C45" s="270">
+      <c r="C45" s="273">
         <v>0.20830000000000001</v>
       </c>
-      <c r="D45" s="270"/>
+      <c r="D45" s="273"/>
       <c r="E45" s="81"/>
       <c r="F45" s="81"/>
       <c r="G45" s="81"/>
       <c r="H45" s="81"/>
-      <c r="I45" s="263"/>
-      <c r="J45" s="265"/>
+      <c r="I45" s="277"/>
+      <c r="J45" s="278"/>
       <c r="K45" s="80" t="s">
         <v>322</v>
       </c>
@@ -26465,16 +26513,16 @@
         <v>0.34708</v>
       </c>
       <c r="M45" s="92"/>
-      <c r="N45" s="270">
+      <c r="N45" s="273">
         <v>0.20830000000000001</v>
       </c>
-      <c r="O45" s="270"/>
+      <c r="O45" s="273"/>
       <c r="P45" s="81"/>
       <c r="Q45" s="81"/>
       <c r="R45" s="81"/>
       <c r="S45" s="81"/>
-      <c r="T45" s="263"/>
-      <c r="U45" s="265"/>
+      <c r="T45" s="277"/>
+      <c r="U45" s="278"/>
       <c r="AC45" t="s">
         <v>453</v>
       </c>
@@ -26490,8 +26538,8 @@
       <c r="F46" s="274"/>
       <c r="G46" s="88"/>
       <c r="H46" s="88"/>
-      <c r="I46" s="266"/>
-      <c r="J46" s="267"/>
+      <c r="I46" s="275"/>
+      <c r="J46" s="276"/>
       <c r="K46" s="87" t="s">
         <v>323</v>
       </c>
@@ -26505,8 +26553,8 @@
       <c r="Q46" s="274"/>
       <c r="R46" s="88"/>
       <c r="S46" s="88"/>
-      <c r="T46" s="266"/>
-      <c r="U46" s="267"/>
+      <c r="T46" s="275"/>
+      <c r="U46" s="276"/>
       <c r="W46" t="s">
         <v>373</v>
       </c>
@@ -26525,8 +26573,8 @@
         <v>0.84328000000000003</v>
       </c>
       <c r="H47" s="88"/>
-      <c r="I47" s="266"/>
-      <c r="J47" s="267"/>
+      <c r="I47" s="275"/>
+      <c r="J47" s="276"/>
       <c r="K47" s="87" t="s">
         <v>324</v>
       </c>
@@ -26540,8 +26588,8 @@
         <v>0.85308558139534874</v>
       </c>
       <c r="S47" s="88"/>
-      <c r="T47" s="266"/>
-      <c r="U47" s="267"/>
+      <c r="T47" s="275"/>
+      <c r="U47" s="276"/>
     </row>
     <row r="48" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="85"/>
@@ -26554,10 +26602,10 @@
         <v>0.23543</v>
       </c>
       <c r="H48" s="85"/>
-      <c r="I48" s="268">
+      <c r="I48" s="279">
         <v>0.13220000000000001</v>
       </c>
-      <c r="J48" s="269"/>
+      <c r="J48" s="280"/>
       <c r="K48" s="84" t="s">
         <v>326</v>
       </c>
@@ -26571,11 +26619,11 @@
         <v>0.27375581395348836</v>
       </c>
       <c r="S48" s="85"/>
-      <c r="T48" s="268">
+      <c r="T48" s="279">
         <f>13.22%*1.16</f>
         <v>0.15335200000000002</v>
       </c>
-      <c r="U48" s="269"/>
+      <c r="U48" s="280"/>
       <c r="W48" t="s">
         <v>455</v>
       </c>
@@ -26588,14 +26636,14 @@
       <c r="B49" s="94"/>
       <c r="C49" s="94"/>
       <c r="D49" s="94"/>
-      <c r="E49" s="271">
+      <c r="E49" s="281">
         <v>0.43773000000000001</v>
       </c>
-      <c r="F49" s="271"/>
+      <c r="F49" s="281"/>
       <c r="G49" s="94"/>
       <c r="H49" s="94"/>
-      <c r="I49" s="272"/>
-      <c r="J49" s="273"/>
+      <c r="I49" s="282"/>
+      <c r="J49" s="283"/>
       <c r="K49" s="93" t="s">
         <v>367</v>
       </c>
@@ -26603,14 +26651,14 @@
       <c r="M49" s="94"/>
       <c r="N49" s="94"/>
       <c r="O49" s="94"/>
-      <c r="P49" s="271">
+      <c r="P49" s="281">
         <v>0.43773000000000001</v>
       </c>
-      <c r="Q49" s="271"/>
+      <c r="Q49" s="281"/>
       <c r="R49" s="94"/>
       <c r="S49" s="94"/>
-      <c r="T49" s="272"/>
-      <c r="U49" s="273"/>
+      <c r="T49" s="282"/>
+      <c r="U49" s="283"/>
       <c r="V49" s="40"/>
       <c r="W49" t="s">
         <v>457</v>
@@ -26621,16 +26669,16 @@
         <v>0.47361999999999999</v>
       </c>
       <c r="B50" s="92"/>
-      <c r="C50" s="270">
+      <c r="C50" s="273">
         <v>0.28101999999999999</v>
       </c>
-      <c r="D50" s="270"/>
+      <c r="D50" s="273"/>
       <c r="E50" s="81"/>
       <c r="F50" s="81"/>
       <c r="G50" s="81"/>
       <c r="H50" s="81"/>
-      <c r="I50" s="263"/>
-      <c r="J50" s="265"/>
+      <c r="I50" s="277"/>
+      <c r="J50" s="278"/>
       <c r="K50" s="80" t="s">
         <v>328</v>
       </c>
@@ -26638,23 +26686,23 @@
         <v>0.47361999999999999</v>
       </c>
       <c r="M50" s="92"/>
-      <c r="N50" s="270">
+      <c r="N50" s="273">
         <v>0.28101999999999999</v>
       </c>
-      <c r="O50" s="270"/>
+      <c r="O50" s="273"/>
       <c r="P50" s="81"/>
       <c r="Q50" s="81"/>
       <c r="R50" s="81"/>
       <c r="S50" s="81"/>
-      <c r="T50" s="263"/>
-      <c r="U50" s="265"/>
+      <c r="T50" s="277"/>
+      <c r="U50" s="278"/>
       <c r="W50" t="s">
         <v>458</v>
       </c>
-      <c r="AC50" s="279" t="s">
+      <c r="AC50" s="289" t="s">
         <v>251</v>
       </c>
-      <c r="AD50" s="279"/>
+      <c r="AD50" s="289"/>
     </row>
     <row r="51" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A51" s="88"/>
@@ -26667,8 +26715,8 @@
         <v>0.71950000000000003</v>
       </c>
       <c r="H51" s="88"/>
-      <c r="I51" s="266"/>
-      <c r="J51" s="267"/>
+      <c r="I51" s="275"/>
+      <c r="J51" s="276"/>
       <c r="K51" s="87" t="s">
         <v>329</v>
       </c>
@@ -26682,8 +26730,8 @@
         <v>0.66930232558139535</v>
       </c>
       <c r="S51" s="88"/>
-      <c r="T51" s="266"/>
-      <c r="U51" s="267"/>
+      <c r="T51" s="275"/>
+      <c r="U51" s="276"/>
       <c r="W51" t="s">
         <v>459</v>
       </c>
@@ -26699,10 +26747,10 @@
         <v>0.20451</v>
       </c>
       <c r="H52" s="85"/>
-      <c r="I52" s="268">
+      <c r="I52" s="279">
         <v>9.1600000000000001E-2</v>
       </c>
-      <c r="J52" s="269"/>
+      <c r="J52" s="280"/>
       <c r="K52" s="84" t="s">
         <v>331</v>
       </c>
@@ -26716,10 +26764,10 @@
         <v>0.23780232558139536</v>
       </c>
       <c r="S52" s="85"/>
-      <c r="T52" s="268">
+      <c r="T52" s="279">
         <v>9.1600000000000001E-2</v>
       </c>
-      <c r="U52" s="269"/>
+      <c r="U52" s="280"/>
       <c r="W52" t="s">
         <v>460</v>
       </c>
@@ -26732,16 +26780,16 @@
         <v>0.17321</v>
       </c>
       <c r="B53" s="92"/>
-      <c r="C53" s="270">
+      <c r="C53" s="273">
         <v>9.2929999999999999E-2</v>
       </c>
-      <c r="D53" s="270"/>
+      <c r="D53" s="273"/>
       <c r="E53" s="81"/>
       <c r="F53" s="81"/>
       <c r="G53" s="81"/>
       <c r="H53" s="81"/>
-      <c r="I53" s="263"/>
-      <c r="J53" s="265"/>
+      <c r="I53" s="277"/>
+      <c r="J53" s="278"/>
       <c r="K53" s="80" t="s">
         <v>333</v>
       </c>
@@ -26749,17 +26797,17 @@
         <v>0.17321</v>
       </c>
       <c r="M53" s="92"/>
-      <c r="N53" s="270">
+      <c r="N53" s="273">
         <f>9.293%*0.8</f>
         <v>7.4344000000000007E-2</v>
       </c>
-      <c r="O53" s="270"/>
+      <c r="O53" s="273"/>
       <c r="P53" s="81"/>
       <c r="Q53" s="81"/>
       <c r="R53" s="81"/>
       <c r="S53" s="81"/>
-      <c r="T53" s="263"/>
-      <c r="U53" s="265"/>
+      <c r="T53" s="277"/>
+      <c r="U53" s="278"/>
       <c r="W53" t="s">
         <v>461</v>
       </c>
@@ -26778,8 +26826,8 @@
         <v>1</v>
       </c>
       <c r="H54" s="88"/>
-      <c r="I54" s="266"/>
-      <c r="J54" s="267"/>
+      <c r="I54" s="275"/>
+      <c r="J54" s="276"/>
       <c r="K54" s="87" t="s">
         <v>335</v>
       </c>
@@ -26793,8 +26841,8 @@
         <v>1</v>
       </c>
       <c r="S54" s="88"/>
-      <c r="T54" s="266"/>
-      <c r="U54" s="267"/>
+      <c r="T54" s="275"/>
+      <c r="U54" s="276"/>
       <c r="W54" t="s">
         <v>462</v>
       </c>
@@ -26813,10 +26861,10 @@
         <v>0.26967000000000002</v>
       </c>
       <c r="H55" s="85"/>
-      <c r="I55" s="268">
+      <c r="I55" s="279">
         <v>0.1535</v>
       </c>
-      <c r="J55" s="269"/>
+      <c r="J55" s="280"/>
       <c r="K55" s="84" t="s">
         <v>337</v>
       </c>
@@ -26830,10 +26878,10 @@
         <v>0.31356976744186049</v>
       </c>
       <c r="S55" s="85"/>
-      <c r="T55" s="268">
+      <c r="T55" s="279">
         <v>0.1535</v>
       </c>
-      <c r="U55" s="269"/>
+      <c r="U55" s="280"/>
       <c r="V55" s="40"/>
       <c r="W55" t="s">
         <v>463</v>
@@ -26844,14 +26892,14 @@
       <c r="B56" s="94"/>
       <c r="C56" s="94"/>
       <c r="D56" s="94"/>
-      <c r="E56" s="271">
+      <c r="E56" s="281">
         <v>0.43773000000000001</v>
       </c>
-      <c r="F56" s="271"/>
+      <c r="F56" s="281"/>
       <c r="G56" s="94"/>
       <c r="H56" s="94"/>
-      <c r="I56" s="272"/>
-      <c r="J56" s="273"/>
+      <c r="I56" s="282"/>
+      <c r="J56" s="283"/>
       <c r="K56" s="93" t="s">
         <v>368</v>
       </c>
@@ -26859,15 +26907,15 @@
       <c r="M56" s="94"/>
       <c r="N56" s="94"/>
       <c r="O56" s="94"/>
-      <c r="P56" s="271">
+      <c r="P56" s="281">
         <f>43.773%*0.8</f>
         <v>0.35018400000000005</v>
       </c>
-      <c r="Q56" s="271"/>
+      <c r="Q56" s="281"/>
       <c r="R56" s="94"/>
       <c r="S56" s="94"/>
-      <c r="T56" s="272"/>
-      <c r="U56" s="273"/>
+      <c r="T56" s="282"/>
+      <c r="U56" s="283"/>
       <c r="V56" s="40"/>
       <c r="W56" t="s">
         <v>464</v>
@@ -26881,16 +26929,16 @@
         <v>0.28996</v>
       </c>
       <c r="B57" s="92"/>
-      <c r="C57" s="270">
+      <c r="C57" s="273">
         <v>0.25344</v>
       </c>
-      <c r="D57" s="270"/>
+      <c r="D57" s="273"/>
       <c r="E57" s="81"/>
       <c r="F57" s="81"/>
       <c r="G57" s="81"/>
       <c r="H57" s="81"/>
-      <c r="I57" s="263"/>
-      <c r="J57" s="265"/>
+      <c r="I57" s="277"/>
+      <c r="J57" s="278"/>
       <c r="K57" s="80" t="s">
         <v>340</v>
       </c>
@@ -26898,16 +26946,16 @@
         <v>0.28996</v>
       </c>
       <c r="M57" s="92"/>
-      <c r="N57" s="270">
+      <c r="N57" s="273">
         <v>0.25344</v>
       </c>
-      <c r="O57" s="270"/>
+      <c r="O57" s="273"/>
       <c r="P57" s="81"/>
       <c r="Q57" s="81"/>
       <c r="R57" s="81"/>
       <c r="S57" s="81"/>
-      <c r="T57" s="263"/>
-      <c r="U57" s="265"/>
+      <c r="T57" s="277"/>
+      <c r="U57" s="278"/>
       <c r="V57" s="40"/>
       <c r="W57" t="s">
         <v>466</v>
@@ -26924,8 +26972,8 @@
       <c r="F58" s="274"/>
       <c r="G58" s="88"/>
       <c r="H58" s="88"/>
-      <c r="I58" s="266"/>
-      <c r="J58" s="267"/>
+      <c r="I58" s="275"/>
+      <c r="J58" s="276"/>
       <c r="K58" s="87" t="s">
         <v>342</v>
       </c>
@@ -26940,8 +26988,8 @@
       <c r="Q58" s="274"/>
       <c r="R58" s="88"/>
       <c r="S58" s="88"/>
-      <c r="T58" s="266"/>
-      <c r="U58" s="267"/>
+      <c r="T58" s="275"/>
+      <c r="U58" s="276"/>
       <c r="V58" s="40"/>
       <c r="W58" t="s">
         <v>467</v>
@@ -26961,8 +27009,8 @@
         <v>0.56411</v>
       </c>
       <c r="H59" s="88"/>
-      <c r="I59" s="266"/>
-      <c r="J59" s="267"/>
+      <c r="I59" s="275"/>
+      <c r="J59" s="276"/>
       <c r="K59" s="87" t="s">
         <v>344</v>
       </c>
@@ -26976,8 +27024,8 @@
         <v>0.70185779069767451</v>
       </c>
       <c r="S59" s="88"/>
-      <c r="T59" s="266"/>
-      <c r="U59" s="267"/>
+      <c r="T59" s="275"/>
+      <c r="U59" s="276"/>
       <c r="V59" s="40"/>
       <c r="W59" t="s">
         <v>468</v>
@@ -26994,10 +27042,10 @@
         <v>0.14326</v>
       </c>
       <c r="H60" s="85"/>
-      <c r="I60" s="268">
+      <c r="I60" s="279">
         <v>0.17191999999999999</v>
       </c>
-      <c r="J60" s="269"/>
+      <c r="J60" s="280"/>
       <c r="K60" s="84" t="s">
         <v>346</v>
       </c>
@@ -27011,11 +27059,11 @@
         <v>0.2082267441860465</v>
       </c>
       <c r="S60" s="85"/>
-      <c r="T60" s="268">
+      <c r="T60" s="279">
         <f>17.192%</f>
         <v>0.17191999999999999</v>
       </c>
-      <c r="U60" s="269"/>
+      <c r="U60" s="280"/>
       <c r="V60" s="40"/>
       <c r="W60" t="s">
         <v>469</v>
@@ -27035,8 +27083,8 @@
         <v>0.19162000000000001</v>
       </c>
       <c r="H61" s="81"/>
-      <c r="I61" s="263"/>
-      <c r="J61" s="265"/>
+      <c r="I61" s="277"/>
+      <c r="J61" s="278"/>
       <c r="K61" s="80" t="s">
         <v>348</v>
       </c>
@@ -27050,8 +27098,8 @@
         <v>0.22281395348837213</v>
       </c>
       <c r="S61" s="81"/>
-      <c r="T61" s="263"/>
-      <c r="U61" s="265"/>
+      <c r="T61" s="277"/>
+      <c r="U61" s="278"/>
       <c r="V61" s="40"/>
       <c r="W61" t="s">
         <v>471</v>
@@ -27071,8 +27119,8 @@
         <v>0.49523</v>
       </c>
       <c r="H62" s="88"/>
-      <c r="I62" s="266"/>
-      <c r="J62" s="267"/>
+      <c r="I62" s="275"/>
+      <c r="J62" s="276"/>
       <c r="K62" s="87" t="s">
         <v>349</v>
       </c>
@@ -27086,8 +27134,8 @@
         <v>0.57584883720930236</v>
       </c>
       <c r="S62" s="88"/>
-      <c r="T62" s="266"/>
-      <c r="U62" s="267"/>
+      <c r="T62" s="275"/>
+      <c r="U62" s="276"/>
       <c r="V62" s="40"/>
       <c r="W62" t="s">
         <v>473</v>
@@ -27114,10 +27162,10 @@
       <c r="M63" s="88"/>
       <c r="N63" s="88"/>
       <c r="O63" s="88"/>
-      <c r="P63" s="263">
+      <c r="P63" s="277">
         <v>0.15</v>
       </c>
-      <c r="Q63" s="264"/>
+      <c r="Q63" s="286"/>
       <c r="R63" s="88"/>
       <c r="S63" s="88"/>
       <c r="T63" s="108"/>
@@ -27141,10 +27189,10 @@
         <v>0.47439999999999999</v>
       </c>
       <c r="H64" s="88"/>
-      <c r="I64" s="266">
+      <c r="I64" s="275">
         <v>0.60697000000000001</v>
       </c>
-      <c r="J64" s="267"/>
+      <c r="J64" s="276"/>
       <c r="K64" s="87" t="s">
         <v>350</v>
       </c>
@@ -27158,10 +27206,10 @@
         <v>0.55162790697674413</v>
       </c>
       <c r="S64" s="88"/>
-      <c r="T64" s="266">
+      <c r="T64" s="275">
         <v>0.60697000000000001</v>
       </c>
-      <c r="U64" s="267"/>
+      <c r="U64" s="276"/>
       <c r="V64" s="40"/>
       <c r="W64" t="s">
         <v>477</v>
@@ -27181,10 +27229,10 @@
         <v>0.16774</v>
       </c>
       <c r="H65" s="85"/>
-      <c r="I65" s="268">
+      <c r="I65" s="279">
         <v>0.24779999999999999</v>
       </c>
-      <c r="J65" s="269"/>
+      <c r="J65" s="280"/>
       <c r="K65" s="84" t="s">
         <v>351</v>
       </c>
@@ -27198,10 +27246,10 @@
         <v>0.19504651162790698</v>
       </c>
       <c r="S65" s="85"/>
-      <c r="T65" s="268">
+      <c r="T65" s="279">
         <v>0.24779999999999999</v>
       </c>
-      <c r="U65" s="269"/>
+      <c r="U65" s="280"/>
       <c r="V65" s="40"/>
       <c r="W65" t="s">
         <v>479</v>
@@ -27215,14 +27263,14 @@
       <c r="B66" s="81"/>
       <c r="C66" s="81"/>
       <c r="D66" s="81"/>
-      <c r="E66" s="263">
+      <c r="E66" s="277">
         <v>0.45617999999999997</v>
       </c>
-      <c r="F66" s="264"/>
+      <c r="F66" s="286"/>
       <c r="G66" s="81"/>
       <c r="H66" s="81"/>
-      <c r="I66" s="263"/>
-      <c r="J66" s="265"/>
+      <c r="I66" s="277"/>
+      <c r="J66" s="278"/>
       <c r="K66" s="80" t="s">
         <v>352</v>
       </c>
@@ -27230,14 +27278,14 @@
       <c r="M66" s="81"/>
       <c r="N66" s="81"/>
       <c r="O66" s="81"/>
-      <c r="P66" s="263">
+      <c r="P66" s="277">
         <v>0.45617999999999997</v>
       </c>
-      <c r="Q66" s="264"/>
+      <c r="Q66" s="286"/>
       <c r="R66" s="81"/>
       <c r="S66" s="81"/>
-      <c r="T66" s="263"/>
-      <c r="U66" s="265"/>
+      <c r="T66" s="277"/>
+      <c r="U66" s="278"/>
       <c r="V66" s="40"/>
       <c r="W66" t="s">
         <v>481</v>
@@ -27257,10 +27305,10 @@
         <v>0.28649999999999998</v>
       </c>
       <c r="H67" s="88"/>
-      <c r="I67" s="266">
+      <c r="I67" s="275">
         <v>0.80176999999999998</v>
       </c>
-      <c r="J67" s="267"/>
+      <c r="J67" s="276"/>
       <c r="K67" s="87" t="s">
         <v>353</v>
       </c>
@@ -27274,10 +27322,10 @@
         <v>0.33313953488372089</v>
       </c>
       <c r="S67" s="88"/>
-      <c r="T67" s="266">
+      <c r="T67" s="275">
         <v>0.50800000000000001</v>
       </c>
-      <c r="U67" s="267"/>
+      <c r="U67" s="276"/>
       <c r="V67" s="40"/>
       <c r="AC67" t="s">
         <v>483</v>
@@ -27294,10 +27342,10 @@
         <v>0.20932000000000001</v>
       </c>
       <c r="H68" s="88"/>
-      <c r="I68" s="266">
+      <c r="I68" s="275">
         <v>0.50775999999999999</v>
       </c>
-      <c r="J68" s="267"/>
+      <c r="J68" s="276"/>
       <c r="K68" s="87" t="s">
         <v>355</v>
       </c>
@@ -27311,10 +27359,10 @@
         <v>0.24339534883720934</v>
       </c>
       <c r="S68" s="88"/>
-      <c r="T68" s="266">
+      <c r="T68" s="275">
         <v>0.50775999999999999</v>
       </c>
-      <c r="U68" s="267"/>
+      <c r="U68" s="276"/>
       <c r="V68" s="40"/>
       <c r="AC68" t="s">
         <v>484</v>
@@ -27331,8 +27379,8 @@
         <v>0.14599000000000001</v>
       </c>
       <c r="H69" s="88"/>
-      <c r="I69" s="266"/>
-      <c r="J69" s="267"/>
+      <c r="I69" s="275"/>
+      <c r="J69" s="276"/>
       <c r="K69" s="87" t="s">
         <v>356</v>
       </c>
@@ -27346,13 +27394,13 @@
         <v>0.16975581395348838</v>
       </c>
       <c r="S69" s="88"/>
-      <c r="T69" s="266"/>
-      <c r="U69" s="267"/>
+      <c r="T69" s="275"/>
+      <c r="U69" s="276"/>
       <c r="V69" s="40"/>
-      <c r="W69" s="279" t="s">
+      <c r="W69" s="289" t="s">
         <v>236</v>
       </c>
-      <c r="X69" s="279"/>
+      <c r="X69" s="289"/>
       <c r="AC69" t="s">
         <v>485</v>
       </c>
@@ -27368,10 +27416,10 @@
         <v>0.12414</v>
       </c>
       <c r="H70" s="85"/>
-      <c r="I70" s="268">
+      <c r="I70" s="279">
         <v>0.61785000000000001</v>
       </c>
-      <c r="J70" s="269"/>
+      <c r="J70" s="280"/>
       <c r="K70" s="84" t="s">
         <v>357</v>
       </c>
@@ -27385,10 +27433,10 @@
         <v>0.14434883720930233</v>
       </c>
       <c r="S70" s="85"/>
-      <c r="T70" s="268">
+      <c r="T70" s="279">
         <v>0.61785000000000001</v>
       </c>
-      <c r="U70" s="269"/>
+      <c r="U70" s="280"/>
       <c r="V70" s="40"/>
       <c r="AC70" t="s">
         <v>486</v>
@@ -27405,10 +27453,10 @@
         <v>0.23763000000000001</v>
       </c>
       <c r="H71" s="81"/>
-      <c r="I71" s="263">
+      <c r="I71" s="277">
         <v>1</v>
       </c>
-      <c r="J71" s="265"/>
+      <c r="J71" s="278"/>
       <c r="K71" s="80" t="s">
         <v>358</v>
       </c>
@@ -27422,10 +27470,10 @@
         <v>0.27631395348837212</v>
       </c>
       <c r="S71" s="81"/>
-      <c r="T71" s="263">
+      <c r="T71" s="277">
         <v>1</v>
       </c>
-      <c r="U71" s="265"/>
+      <c r="U71" s="278"/>
       <c r="V71" s="40"/>
       <c r="W71" t="s">
         <v>282</v>
@@ -27452,10 +27500,10 @@
       <c r="M72" s="110"/>
       <c r="N72" s="110"/>
       <c r="O72" s="110"/>
-      <c r="P72" s="263">
+      <c r="P72" s="277">
         <v>0.25</v>
       </c>
-      <c r="Q72" s="264"/>
+      <c r="Q72" s="286"/>
       <c r="R72" s="110"/>
       <c r="S72" s="110"/>
       <c r="T72" s="111"/>
@@ -27479,8 +27527,8 @@
         <v>0.17316000000000001</v>
       </c>
       <c r="H73" s="88"/>
-      <c r="I73" s="266"/>
-      <c r="J73" s="267"/>
+      <c r="I73" s="275"/>
+      <c r="J73" s="276"/>
       <c r="K73" s="87" t="s">
         <v>359</v>
       </c>
@@ -27494,8 +27542,8 @@
         <v>0.20134883720930236</v>
       </c>
       <c r="S73" s="88"/>
-      <c r="T73" s="266"/>
-      <c r="U73" s="267"/>
+      <c r="T73" s="275"/>
+      <c r="U73" s="276"/>
       <c r="V73" s="40"/>
       <c r="W73" t="s">
         <v>288</v>
@@ -27515,10 +27563,10 @@
         <v>0.12317</v>
       </c>
       <c r="H74" s="85"/>
-      <c r="I74" s="268">
+      <c r="I74" s="279">
         <v>0.33643600000000001</v>
       </c>
-      <c r="J74" s="269"/>
+      <c r="J74" s="280"/>
       <c r="K74" s="84" t="s">
         <v>360</v>
       </c>
@@ -27532,10 +27580,10 @@
         <v>0.14322093023255814</v>
       </c>
       <c r="S74" s="85"/>
-      <c r="T74" s="268">
+      <c r="T74" s="279">
         <v>0.33643600000000001</v>
       </c>
-      <c r="U74" s="269"/>
+      <c r="U74" s="280"/>
       <c r="V74" s="40"/>
       <c r="AC74" t="s">
         <v>490</v>
@@ -27552,10 +27600,10 @@
         <v>0.20199</v>
       </c>
       <c r="H75" s="81"/>
-      <c r="I75" s="263">
+      <c r="I75" s="277">
         <v>0.85</v>
       </c>
-      <c r="J75" s="265"/>
+      <c r="J75" s="278"/>
       <c r="K75" s="80" t="s">
         <v>361</v>
       </c>
@@ -27569,10 +27617,10 @@
         <v>0.23487209302325585</v>
       </c>
       <c r="S75" s="81"/>
-      <c r="T75" s="263">
+      <c r="T75" s="277">
         <v>0.85</v>
       </c>
-      <c r="U75" s="265"/>
+      <c r="U75" s="278"/>
       <c r="V75" s="40"/>
       <c r="W75" t="s">
         <v>293</v>
@@ -27592,8 +27640,8 @@
         <v>0.17718999999999999</v>
       </c>
       <c r="H76" s="88"/>
-      <c r="I76" s="266"/>
-      <c r="J76" s="267"/>
+      <c r="I76" s="275"/>
+      <c r="J76" s="276"/>
       <c r="K76" s="87" t="s">
         <v>362</v>
       </c>
@@ -27607,8 +27655,8 @@
         <v>0.20603488372093021</v>
       </c>
       <c r="S76" s="88"/>
-      <c r="T76" s="266"/>
-      <c r="U76" s="267"/>
+      <c r="T76" s="275"/>
+      <c r="U76" s="276"/>
       <c r="V76" s="40"/>
       <c r="W76" t="s">
         <v>296</v>
@@ -27628,10 +27676,10 @@
         <v>0.1047</v>
       </c>
       <c r="H77" s="100"/>
-      <c r="I77" s="261">
+      <c r="I77" s="284">
         <v>0.28591</v>
       </c>
-      <c r="J77" s="262"/>
+      <c r="J77" s="285"/>
       <c r="K77" s="99" t="s">
         <v>363</v>
       </c>
@@ -27645,10 +27693,10 @@
         <v>0.12174418604651163</v>
       </c>
       <c r="S77" s="100"/>
-      <c r="T77" s="261">
+      <c r="T77" s="284">
         <v>0.28591</v>
       </c>
-      <c r="U77" s="262"/>
+      <c r="U77" s="285"/>
       <c r="V77" s="40"/>
       <c r="AC77" t="s">
         <v>493</v>
@@ -27749,192 +27797,6 @@
     </row>
   </sheetData>
   <mergeCells count="210">
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="T36:U36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="T41:U41"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="T39:U39"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="T40:U40"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="T45:U45"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="T42:U42"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="T43:U43"/>
-    <mergeCell ref="T48:U48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="T46:U46"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="T47:U47"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="T53:U53"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="T50:U50"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="T51:U51"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="T57:U57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="T58:U58"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="T54:U54"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="T55:U55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="T56:U56"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="T66:U66"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="T67:U67"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="T62:U62"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="T64:U64"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="T65:U65"/>
-    <mergeCell ref="I77:J77"/>
-    <mergeCell ref="T77:U77"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="T71:U71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="I73:J73"/>
-    <mergeCell ref="T73:U73"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="T74:U74"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="W37:X37"/>
@@ -27959,6 +27821,192 @@
     <mergeCell ref="I52:J52"/>
     <mergeCell ref="T52:U52"/>
     <mergeCell ref="I48:J48"/>
+    <mergeCell ref="I77:J77"/>
+    <mergeCell ref="T77:U77"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="T71:U71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="I73:J73"/>
+    <mergeCell ref="T73:U73"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="T74:U74"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="T66:U66"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="T67:U67"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="T62:U62"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="T64:U64"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="T65:U65"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="T57:U57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="T58:U58"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="T54:U54"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="T55:U55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="T56:U56"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="T53:U53"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="T51:U51"/>
+    <mergeCell ref="T48:U48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="T46:U46"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="T47:U47"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="T45:U45"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:J48 A50:J77">
     <cfRule type="cellIs" dxfId="21" priority="13" operator="between">
@@ -28094,17 +28142,17 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="282" t="s">
+      <c r="B4" s="290" t="s">
         <v>515</v>
       </c>
-      <c r="C4" s="282"/>
+      <c r="C4" s="290"/>
       <c r="D4" s="130" t="s">
         <v>516</v>
       </c>
-      <c r="G4" s="282" t="s">
+      <c r="G4" s="290" t="s">
         <v>517</v>
       </c>
-      <c r="H4" s="282"/>
+      <c r="H4" s="290"/>
       <c r="I4" s="130" t="s">
         <v>516</v>
       </c>
@@ -65440,7 +65488,7 @@
   <dimension ref="A1:AC30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -65481,13 +65529,13 @@
       <c r="F1" s="229">
         <v>3.7054999999999998</v>
       </c>
-      <c r="G1" s="283">
+      <c r="G1" s="243">
         <f>SUM(G3:G17)</f>
         <v>3.7360000000000002</v>
       </c>
-      <c r="H1" s="283">
+      <c r="H1" s="243">
         <f>SUM(H3:H17)</f>
-        <v>3.57</v>
+        <v>3.5750000000000002</v>
       </c>
       <c r="J1" s="237"/>
       <c r="K1" s="237"/>
@@ -65503,27 +65551,27 @@
       <c r="U1" s="242"/>
       <c r="V1" s="77">
         <f>SUM(V3:V14)</f>
-        <v>1.6199999999999997</v>
+        <v>1.6799999999999997</v>
       </c>
       <c r="W1" s="77">
         <f>SUM(W3:W14)</f>
-        <v>3.5700000000000007</v>
-      </c>
-      <c r="X1" s="290">
+        <v>3.5750000000000006</v>
+      </c>
+      <c r="X1" s="248">
         <f t="shared" ref="X1:Y1" si="0">SUM(X3:X14)</f>
-        <v>1.6913425925925929</v>
-      </c>
-      <c r="Y1" s="290">
+        <v>1.6332217261904769</v>
+      </c>
+      <c r="Y1" s="248">
         <f t="shared" si="0"/>
-        <v>1.0522685185185185</v>
-      </c>
-      <c r="AB1" s="288">
+        <v>0.87459821428571438</v>
+      </c>
+      <c r="AB1" s="247">
         <f t="shared" ref="AB1:AC1" si="1">SUM(AB3:AB14)</f>
-        <v>0.94224861111111125</v>
-      </c>
-      <c r="AC1" s="288">
+        <v>0.90986941964285728</v>
+      </c>
+      <c r="AC1" s="247">
         <f t="shared" si="1"/>
-        <v>0.72738750000000008</v>
+        <v>0.5539654017857143</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
@@ -65551,54 +65599,54 @@
       <c r="H2" s="233" t="s">
         <v>1204</v>
       </c>
-      <c r="J2" s="237"/>
-      <c r="K2" s="235"/>
-      <c r="L2" s="237" t="s">
+      <c r="J2" s="291"/>
+      <c r="K2" s="292"/>
+      <c r="L2" s="291" t="s">
         <v>1205</v>
       </c>
-      <c r="M2" s="237"/>
-      <c r="N2" s="237"/>
+      <c r="M2" s="291"/>
+      <c r="N2" s="291"/>
       <c r="O2" s="237"/>
-      <c r="P2" s="286" t="s">
+      <c r="P2" s="245" t="s">
         <v>1172</v>
       </c>
-      <c r="Q2" s="286" t="s">
+      <c r="Q2" s="245" t="s">
         <v>1217</v>
       </c>
-      <c r="R2" s="286" t="s">
+      <c r="R2" s="245" t="s">
         <v>1203</v>
       </c>
-      <c r="S2" s="286" t="s">
+      <c r="S2" s="245" t="s">
         <v>1173</v>
       </c>
-      <c r="T2" s="286" t="s">
+      <c r="T2" s="296" t="s">
         <v>1218</v>
       </c>
-      <c r="U2" s="287" t="s">
+      <c r="U2" s="306" t="s">
         <v>1219</v>
       </c>
-      <c r="V2" s="287" t="s">
+      <c r="V2" s="246" t="s">
         <v>1203</v>
       </c>
-      <c r="W2" s="287" t="s">
+      <c r="W2" s="246" t="s">
         <v>1222</v>
       </c>
-      <c r="X2" s="287" t="s">
+      <c r="X2" s="298" t="s">
         <v>1223</v>
       </c>
-      <c r="Y2" s="287" t="s">
+      <c r="Y2" s="306" t="s">
         <v>1224</v>
       </c>
-      <c r="Z2" s="287" t="s">
+      <c r="Z2" s="298" t="s">
         <v>1225</v>
       </c>
-      <c r="AA2" s="287" t="s">
+      <c r="AA2" s="306" t="s">
         <v>1226</v>
       </c>
-      <c r="AB2" s="287" t="s">
+      <c r="AB2" s="298" t="s">
         <v>1227</v>
       </c>
-      <c r="AC2" s="287" t="s">
+      <c r="AC2" s="306" t="s">
         <v>1228</v>
       </c>
     </row>
@@ -65627,19 +65675,19 @@
       <c r="H3" s="236">
         <v>0.45</v>
       </c>
-      <c r="J3" s="237" t="s">
+      <c r="J3" s="291" t="s">
         <v>1205</v>
       </c>
-      <c r="K3" s="237" t="s">
+      <c r="K3" s="291" t="s">
         <v>1205</v>
       </c>
-      <c r="L3" s="237" t="s">
+      <c r="L3" s="291" t="s">
         <v>1205</v>
       </c>
-      <c r="M3" s="237" t="s">
+      <c r="M3" s="291" t="s">
         <v>1205</v>
       </c>
-      <c r="N3" s="237" t="s">
+      <c r="N3" s="291" t="s">
         <v>1205</v>
       </c>
       <c r="O3" s="237"/>
@@ -65649,49 +65697,49 @@
       <c r="Q3" s="238">
         <v>6</v>
       </c>
-      <c r="R3" s="294">
+      <c r="R3" s="250">
         <v>0.45</v>
       </c>
       <c r="S3" s="238" t="s">
         <v>1207</v>
       </c>
-      <c r="T3" s="238">
+      <c r="T3" s="297">
         <f>COUNTIF(J2:N3,"IMP")</f>
         <v>0</v>
       </c>
-      <c r="U3" s="238">
+      <c r="U3" s="307">
         <f>COUNTIF(J7:N8,"IMP")</f>
         <v>0</v>
       </c>
-      <c r="V3" s="291">
+      <c r="V3" s="249">
         <f>IF(T3+U3=0,0,R3)</f>
         <v>0</v>
       </c>
-      <c r="W3" s="291">
+      <c r="W3" s="249">
         <f>V3*$H$1/$V$1</f>
         <v>0</v>
       </c>
-      <c r="X3" s="292">
+      <c r="X3" s="299">
         <f>IF(W3=0,0,IF(U3=0,W3*T3/Q3,W3*T3/(Q3*2)))</f>
         <v>0</v>
       </c>
-      <c r="Y3" s="292">
+      <c r="Y3" s="308">
         <f>IF(W3=0,0,IF(T3=0,W3*U3/Q3,W3*U3/(Q3*2)))</f>
         <v>0</v>
       </c>
-      <c r="Z3" s="293">
+      <c r="Z3" s="300">
         <f>$L$16</f>
         <v>0.56999999999999995</v>
       </c>
-      <c r="AA3" s="293">
+      <c r="AA3" s="309">
         <f>$M$16</f>
         <v>0.56999999999999995</v>
       </c>
-      <c r="AB3" s="292">
+      <c r="AB3" s="299">
         <f>Z3*X3</f>
         <v>0</v>
       </c>
-      <c r="AC3" s="292">
+      <c r="AC3" s="308">
         <f>AA3*Y3</f>
         <v>0</v>
       </c>
@@ -65721,19 +65769,19 @@
       <c r="H4" s="236">
         <v>0.35</v>
       </c>
-      <c r="J4" s="237" t="s">
+      <c r="J4" s="291" t="s">
         <v>1206</v>
       </c>
-      <c r="K4" s="237" t="s">
+      <c r="K4" s="291" t="s">
         <v>1205</v>
       </c>
-      <c r="L4" s="237" t="s">
+      <c r="L4" s="291" t="s">
         <v>1206</v>
       </c>
-      <c r="M4" s="237" t="s">
+      <c r="M4" s="291" t="s">
         <v>1205</v>
       </c>
-      <c r="N4" s="237" t="s">
+      <c r="N4" s="291" t="s">
         <v>1206</v>
       </c>
       <c r="O4" s="237"/>
@@ -65743,49 +65791,49 @@
       <c r="Q4" s="238">
         <v>8</v>
       </c>
-      <c r="R4" s="294">
+      <c r="R4" s="250">
         <v>0.35</v>
       </c>
       <c r="S4" s="238" t="s">
         <v>1208</v>
       </c>
-      <c r="T4" s="238">
+      <c r="T4" s="297">
         <f>COUNTIF(J4:N5,"IMP")</f>
         <v>0</v>
       </c>
-      <c r="U4" s="238">
+      <c r="U4" s="307">
         <f>COUNTIF(J9:N10,"IMP")</f>
         <v>0</v>
       </c>
-      <c r="V4" s="291">
+      <c r="V4" s="249">
         <f t="shared" ref="V4:V14" si="2">IF(T4+U4=0,0,R4)</f>
         <v>0</v>
       </c>
-      <c r="W4" s="291">
+      <c r="W4" s="249">
         <f t="shared" ref="W4:W14" si="3">V4*$H$1/$V$1</f>
         <v>0</v>
       </c>
-      <c r="X4" s="292">
+      <c r="X4" s="299">
         <f t="shared" ref="X4:X8" si="4">IF(W4=0,0,IF(U4=0,W4*T4/Q4,W4*T4/(Q4*2)))</f>
         <v>0</v>
       </c>
-      <c r="Y4" s="292">
+      <c r="Y4" s="308">
         <f t="shared" ref="Y4:Y8" si="5">IF(W4=0,0,IF(T4=0,W4*U4/Q4,W4*U4/(Q4*2)))</f>
         <v>0</v>
       </c>
-      <c r="Z4" s="293">
+      <c r="Z4" s="300">
         <f>$L$16</f>
         <v>0.56999999999999995</v>
       </c>
-      <c r="AA4" s="293">
+      <c r="AA4" s="309">
         <f>$M$16</f>
         <v>0.56999999999999995</v>
       </c>
-      <c r="AB4" s="292">
+      <c r="AB4" s="299">
         <f t="shared" ref="AB4:AB14" si="6">Z4*X4</f>
         <v>0</v>
       </c>
-      <c r="AC4" s="292">
+      <c r="AC4" s="308">
         <f t="shared" ref="AC4:AC14" si="7">AA4*Y4</f>
         <v>0</v>
       </c>
@@ -65815,17 +65863,17 @@
       <c r="H5" s="236">
         <v>0.45</v>
       </c>
-      <c r="J5" s="237"/>
-      <c r="K5" s="237" t="s">
+      <c r="J5" s="291"/>
+      <c r="K5" s="291" t="s">
         <v>1206</v>
       </c>
-      <c r="L5" s="237" t="s">
+      <c r="L5" s="291" t="s">
         <v>1205</v>
       </c>
-      <c r="M5" s="237" t="s">
+      <c r="M5" s="291" t="s">
         <v>1206</v>
       </c>
-      <c r="N5" s="237"/>
+      <c r="N5" s="291"/>
       <c r="O5" s="237"/>
       <c r="P5" s="238">
         <v>8</v>
@@ -65833,49 +65881,49 @@
       <c r="Q5" s="238">
         <v>13</v>
       </c>
-      <c r="R5" s="294">
+      <c r="R5" s="250">
         <v>0.45</v>
       </c>
       <c r="S5" s="238" t="s">
         <v>1180</v>
       </c>
-      <c r="T5" s="238">
+      <c r="T5" s="297">
         <f>COUNTIF(J3:N5,"IMP")</f>
         <v>0</v>
       </c>
-      <c r="U5" s="238">
+      <c r="U5" s="307">
         <f>COUNTIF(J8:N10,"IMP")</f>
         <v>0</v>
       </c>
-      <c r="V5" s="291">
+      <c r="V5" s="249">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W5" s="291">
+      <c r="W5" s="249">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X5" s="292">
+      <c r="X5" s="299">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Y5" s="292">
+      <c r="Y5" s="308">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Z5" s="293">
+      <c r="Z5" s="300">
         <f>$L$17</f>
         <v>0.45</v>
       </c>
-      <c r="AA5" s="293">
+      <c r="AA5" s="309">
         <f>$M$17</f>
         <v>0.45</v>
       </c>
-      <c r="AB5" s="292">
+      <c r="AB5" s="299">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AC5" s="292">
+      <c r="AC5" s="308">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -65903,7 +65951,7 @@
         <v>0.02</v>
       </c>
       <c r="H6" s="236">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="J6" s="237"/>
       <c r="K6" s="237"/>
@@ -65917,49 +65965,49 @@
       <c r="Q6" s="238">
         <v>8</v>
       </c>
-      <c r="R6" s="294">
-        <v>0.05</v>
+      <c r="R6" s="250">
+        <v>0.02</v>
       </c>
       <c r="S6" s="238" t="s">
         <v>1181</v>
       </c>
-      <c r="T6" s="238">
+      <c r="T6" s="297">
         <f>COUNTIF(J8:N8,"IMP")+COUNTIF(K9:M9,"IMP")</f>
         <v>0</v>
       </c>
-      <c r="U6" s="238">
+      <c r="U6" s="307">
         <f>COUNTIF(J3:N3,"IMP")+COUNTIF(K4:M4,"IMP")</f>
         <v>0</v>
       </c>
-      <c r="V6" s="291">
+      <c r="V6" s="249">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W6" s="291">
+      <c r="W6" s="249">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X6" s="292">
+      <c r="X6" s="299">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Y6" s="292">
+      <c r="Y6" s="308">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Z6" s="293">
+      <c r="Z6" s="300">
         <f>$L$17</f>
         <v>0.45</v>
       </c>
-      <c r="AA6" s="293">
+      <c r="AA6" s="309">
         <f>$M$17</f>
         <v>0.45</v>
       </c>
-      <c r="AB6" s="292">
+      <c r="AB6" s="299">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AC6" s="292">
+      <c r="AC6" s="308">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -65989,13 +66037,13 @@
       <c r="H7" s="236">
         <v>0.5</v>
       </c>
-      <c r="J7" s="237"/>
-      <c r="K7" s="235"/>
-      <c r="L7" s="237" t="s">
+      <c r="J7" s="301"/>
+      <c r="K7" s="302"/>
+      <c r="L7" s="301" t="s">
         <v>1205</v>
       </c>
-      <c r="M7" s="237"/>
-      <c r="N7" s="237"/>
+      <c r="M7" s="301"/>
+      <c r="N7" s="301"/>
       <c r="O7" s="237"/>
       <c r="P7" s="238">
         <v>15</v>
@@ -66003,49 +66051,49 @@
       <c r="Q7" s="238">
         <v>8</v>
       </c>
-      <c r="R7" s="294">
+      <c r="R7" s="250">
         <v>0.5</v>
       </c>
       <c r="S7" s="238" t="s">
         <v>1209</v>
       </c>
-      <c r="T7" s="238">
+      <c r="T7" s="297">
         <f>COUNTIF(J4:N5,"RAP")</f>
         <v>5</v>
       </c>
-      <c r="U7" s="238">
+      <c r="U7" s="307">
         <f>COUNTIF(J9:N10,"RAP")</f>
         <v>0</v>
       </c>
-      <c r="V7" s="291">
+      <c r="V7" s="249">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="W7" s="291">
+      <c r="W7" s="249">
         <f t="shared" si="3"/>
-        <v>1.1018518518518521</v>
-      </c>
-      <c r="X7" s="292">
+        <v>1.0639880952380956</v>
+      </c>
+      <c r="X7" s="299">
         <f t="shared" si="4"/>
-        <v>0.68865740740740755</v>
-      </c>
-      <c r="Y7" s="292">
+        <v>0.66499255952380976</v>
+      </c>
+      <c r="Y7" s="308">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Z7" s="293">
+      <c r="Z7" s="300">
         <f>$L$16</f>
         <v>0.56999999999999995</v>
       </c>
-      <c r="AA7" s="293">
+      <c r="AA7" s="309">
         <f>$M$16</f>
         <v>0.56999999999999995</v>
       </c>
-      <c r="AB7" s="292">
+      <c r="AB7" s="299">
         <f t="shared" si="6"/>
-        <v>0.39253472222222224</v>
-      </c>
-      <c r="AC7" s="292">
+        <v>0.37904575892857151</v>
+      </c>
+      <c r="AC7" s="308">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -66075,19 +66123,19 @@
       <c r="H8" s="236">
         <v>0.5</v>
       </c>
-      <c r="J8" s="237" t="s">
+      <c r="J8" s="301" t="s">
         <v>1205</v>
       </c>
-      <c r="K8" s="237" t="s">
+      <c r="K8" s="301" t="s">
         <v>1205</v>
       </c>
-      <c r="L8" s="237" t="s">
+      <c r="L8" s="301" t="s">
         <v>1205</v>
       </c>
-      <c r="M8" s="237" t="s">
+      <c r="M8" s="301" t="s">
         <v>1205</v>
       </c>
-      <c r="N8" s="237" t="s">
+      <c r="N8" s="301" t="s">
         <v>1205</v>
       </c>
       <c r="O8" s="237"/>
@@ -66097,49 +66145,49 @@
       <c r="Q8" s="238">
         <v>8</v>
       </c>
-      <c r="R8" s="294">
+      <c r="R8" s="250">
         <v>0.5</v>
       </c>
       <c r="S8" s="238" t="s">
         <v>1210</v>
       </c>
-      <c r="T8" s="238">
+      <c r="T8" s="297">
         <f>COUNTIF(J4:N5,"RAP")</f>
         <v>5</v>
       </c>
-      <c r="U8" s="238">
+      <c r="U8" s="307">
         <f>COUNTIF(J9:N10,"RAP")</f>
         <v>0</v>
       </c>
-      <c r="V8" s="291">
+      <c r="V8" s="249">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="W8" s="291">
+      <c r="W8" s="249">
         <f t="shared" si="3"/>
-        <v>1.1018518518518521</v>
-      </c>
-      <c r="X8" s="292">
+        <v>1.0639880952380956</v>
+      </c>
+      <c r="X8" s="299">
         <f t="shared" si="4"/>
-        <v>0.68865740740740755</v>
-      </c>
-      <c r="Y8" s="292">
+        <v>0.66499255952380976</v>
+      </c>
+      <c r="Y8" s="308">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Z8" s="293">
+      <c r="Z8" s="300">
         <f>$L$16</f>
         <v>0.56999999999999995</v>
       </c>
-      <c r="AA8" s="293">
+      <c r="AA8" s="309">
         <f>$M$16</f>
         <v>0.56999999999999995</v>
       </c>
-      <c r="AB8" s="292">
+      <c r="AB8" s="299">
         <f t="shared" si="6"/>
-        <v>0.39253472222222224</v>
-      </c>
-      <c r="AC8" s="292">
+        <v>0.37904575892857151</v>
+      </c>
+      <c r="AC8" s="308">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -66167,19 +66215,19 @@
         <v>1E-3</v>
       </c>
       <c r="H9" s="236"/>
-      <c r="J9" s="237" t="s">
+      <c r="J9" s="301" t="s">
         <v>1205</v>
       </c>
-      <c r="K9" s="237" t="s">
+      <c r="K9" s="301" t="s">
         <v>1216</v>
       </c>
-      <c r="L9" s="237" t="s">
+      <c r="L9" s="301" t="s">
         <v>1205</v>
       </c>
-      <c r="M9" s="237" t="s">
+      <c r="M9" s="301" t="s">
         <v>1216</v>
       </c>
-      <c r="N9" s="237" t="s">
+      <c r="N9" s="301" t="s">
         <v>1205</v>
       </c>
       <c r="O9" s="237"/>
@@ -66189,49 +66237,49 @@
       <c r="Q9" s="238" t="s">
         <v>1187</v>
       </c>
-      <c r="R9" s="294">
+      <c r="R9" s="250">
         <v>0.15</v>
       </c>
       <c r="S9" s="238" t="s">
         <v>1186</v>
       </c>
-      <c r="T9" s="238">
+      <c r="T9" s="297">
         <v>1</v>
       </c>
-      <c r="U9" s="238">
+      <c r="U9" s="307">
         <v>1</v>
       </c>
-      <c r="V9" s="291">
+      <c r="V9" s="249">
         <f t="shared" si="2"/>
         <v>0.15</v>
       </c>
-      <c r="W9" s="291">
+      <c r="W9" s="249">
         <f t="shared" si="3"/>
-        <v>0.3305555555555556</v>
-      </c>
-      <c r="X9" s="292">
+        <v>0.3191964285714286</v>
+      </c>
+      <c r="X9" s="299">
         <f>W9*L12</f>
-        <v>0.18180555555555561</v>
-      </c>
-      <c r="Y9" s="292">
+        <v>0.17555803571428574</v>
+      </c>
+      <c r="Y9" s="308">
         <f>W9*L13</f>
-        <v>0.14874999999999999</v>
-      </c>
-      <c r="Z9" s="293">
+        <v>0.14363839285714286</v>
+      </c>
+      <c r="Z9" s="300">
         <f>$L$17</f>
         <v>0.45</v>
       </c>
-      <c r="AA9" s="293">
+      <c r="AA9" s="309">
         <f>$M$17</f>
         <v>0.45</v>
       </c>
-      <c r="AB9" s="292">
+      <c r="AB9" s="299">
         <f t="shared" si="6"/>
-        <v>8.1812500000000024E-2</v>
-      </c>
-      <c r="AC9" s="292">
+        <v>7.9001116071428581E-2</v>
+      </c>
+      <c r="AC9" s="308">
         <f t="shared" si="7"/>
-        <v>6.6937499999999997E-2</v>
+        <v>6.4637276785714293E-2</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
@@ -66259,17 +66307,17 @@
       <c r="H10" s="236">
         <v>0.15</v>
       </c>
-      <c r="J10" s="237"/>
-      <c r="K10" s="237" t="s">
+      <c r="J10" s="301"/>
+      <c r="K10" s="301" t="s">
         <v>1216</v>
       </c>
-      <c r="L10" s="237" t="s">
+      <c r="L10" s="301" t="s">
         <v>1205</v>
       </c>
-      <c r="M10" s="237" t="s">
+      <c r="M10" s="301" t="s">
         <v>1205</v>
       </c>
-      <c r="N10" s="237"/>
+      <c r="N10" s="301"/>
       <c r="O10" s="237"/>
       <c r="P10" s="238">
         <v>19</v>
@@ -66277,51 +66325,51 @@
       <c r="Q10" s="238" t="s">
         <v>1187</v>
       </c>
-      <c r="R10" s="294">
-        <v>0.2</v>
+      <c r="R10" s="250">
+        <v>0.23</v>
       </c>
       <c r="S10" s="238" t="s">
         <v>1188</v>
       </c>
-      <c r="T10" s="238">
+      <c r="T10" s="297">
         <f>COUNTIF(J3:N5,"CAB")</f>
         <v>0</v>
       </c>
-      <c r="U10" s="238">
+      <c r="U10" s="307">
         <f>COUNTIF(J8:N10,"CAB")</f>
         <v>3</v>
       </c>
-      <c r="V10" s="291">
+      <c r="V10" s="249">
         <f t="shared" si="2"/>
-        <v>0.2</v>
-      </c>
-      <c r="W10" s="291">
+        <v>0.23</v>
+      </c>
+      <c r="W10" s="249">
         <f t="shared" si="3"/>
-        <v>0.44074074074074082</v>
-      </c>
-      <c r="X10" s="292">
-        <f>IF(T10&gt;0,IF(U10&gt;0,L12*W10,W10),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y10" s="292">
-        <f>IF(U10&gt;0,IF(T10&gt;0,L13*W10,W10),0)</f>
-        <v>0.44074074074074082</v>
-      </c>
-      <c r="Z10" s="293">
+        <v>0.4894345238095239</v>
+      </c>
+      <c r="X10" s="299">
+        <f>IF(T10&gt;0,W10*L12,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="308">
+        <f>IF(U10&gt;0,W10*L13,0)</f>
+        <v>0.22024553571428573</v>
+      </c>
+      <c r="Z10" s="300">
         <f>IF(T10-U10&gt;2,0.9,IF(T10-U10&gt;1,0.75,IF(T10-U10=0,0.5,0.15)))</f>
         <v>0.15</v>
       </c>
-      <c r="AA10" s="293">
+      <c r="AA10" s="309">
         <f>IF(U10-T10&gt;2,0.9,IF(U10-T10&gt;1,0.75,IF(U10-T10=0,0.5,0.15)))</f>
         <v>0.9</v>
       </c>
-      <c r="AB10" s="292">
+      <c r="AB10" s="299">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AC10" s="292">
+      <c r="AC10" s="308">
         <f t="shared" si="7"/>
-        <v>0.39666666666666672</v>
+        <v>0.19822098214285716</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
@@ -66347,7 +66395,7 @@
         <v>0.2</v>
       </c>
       <c r="H11" s="236">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="J11" s="237"/>
       <c r="K11" s="237"/>
@@ -66361,49 +66409,49 @@
       <c r="Q11" s="238">
         <v>5</v>
       </c>
-      <c r="R11" s="294">
-        <v>0.05</v>
+      <c r="R11" s="250">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="S11" s="238" t="s">
         <v>1211</v>
       </c>
-      <c r="T11" s="238">
+      <c r="T11" s="297">
         <f>COUNTIF(K5:M5,"IMP")+COUNTIF(J4,"IMP")+COUNTIF(N4,"IMP")</f>
         <v>0</v>
       </c>
-      <c r="U11" s="238">
+      <c r="U11" s="307">
         <f>COUNTIF(K10:M10,"IMP")+COUNTIF(J9,"IMP")+COUNTIF(N9,"IMP")</f>
         <v>0</v>
       </c>
-      <c r="V11" s="291">
+      <c r="V11" s="249">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W11" s="291">
+      <c r="W11" s="249">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X11" s="292">
+      <c r="X11" s="299">
         <f>IF(W11=0,0,IF(U11=0,W11*T11/Q11,W11*T11/(Q11*2)))</f>
         <v>0</v>
       </c>
-      <c r="Y11" s="292">
+      <c r="Y11" s="308">
         <f>IF(W11=0,0,IF(T11=0,W11*U11/Q11,W11*U11/(Q11*2)))</f>
         <v>0</v>
       </c>
-      <c r="Z11" s="293">
+      <c r="Z11" s="300">
         <f>$L$17</f>
         <v>0.45</v>
       </c>
-      <c r="AA11" s="293">
+      <c r="AA11" s="309">
         <f>$M$17</f>
         <v>0.45</v>
       </c>
-      <c r="AB11" s="292">
+      <c r="AB11" s="299">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AC11" s="292">
+      <c r="AC11" s="308">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -66431,13 +66479,13 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="H12" s="236">
-        <v>0.05</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="J12" s="237"/>
-      <c r="K12" s="284" t="s">
+      <c r="K12" s="293" t="s">
         <v>1220</v>
       </c>
-      <c r="L12" s="285">
+      <c r="L12" s="294">
         <v>0.55000000000000004</v>
       </c>
       <c r="M12" s="237"/>
@@ -66449,51 +66497,51 @@
       <c r="Q12" s="238">
         <v>2</v>
       </c>
-      <c r="R12" s="294">
-        <v>0.15</v>
+      <c r="R12" s="250">
+        <v>0.18</v>
       </c>
       <c r="S12" s="238" t="s">
         <v>1212</v>
       </c>
-      <c r="T12" s="238">
+      <c r="T12" s="297">
         <f>COUNTIF(J4:N5,"CAB")</f>
         <v>0</v>
       </c>
-      <c r="U12" s="238">
+      <c r="U12" s="307">
         <f>COUNTIF(J9:N10,"CAB")</f>
         <v>3</v>
       </c>
-      <c r="V12" s="291">
+      <c r="V12" s="249">
         <f t="shared" si="2"/>
-        <v>0.15</v>
-      </c>
-      <c r="W12" s="291">
+        <v>0.18</v>
+      </c>
+      <c r="W12" s="249">
         <f t="shared" si="3"/>
-        <v>0.3305555555555556</v>
-      </c>
-      <c r="X12" s="292">
+        <v>0.38303571428571431</v>
+      </c>
+      <c r="X12" s="299">
         <f>W12*T12/(U12+T12)</f>
         <v>0</v>
       </c>
-      <c r="Y12" s="292">
+      <c r="Y12" s="308">
         <f>W12*U12/(U12+T12)</f>
-        <v>0.3305555555555556</v>
-      </c>
-      <c r="Z12" s="293">
+        <v>0.38303571428571431</v>
+      </c>
+      <c r="Z12" s="300">
         <f>$L$16</f>
         <v>0.56999999999999995</v>
       </c>
-      <c r="AA12" s="293">
+      <c r="AA12" s="309">
         <f>$M$16</f>
         <v>0.56999999999999995</v>
       </c>
-      <c r="AB12" s="292">
+      <c r="AB12" s="299">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AC12" s="292">
+      <c r="AC12" s="308">
         <f t="shared" si="7"/>
-        <v>0.18841666666666668</v>
+        <v>0.21833035714285715</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
@@ -66520,10 +66568,10 @@
       </c>
       <c r="H13" s="236"/>
       <c r="J13" s="237"/>
-      <c r="K13" s="284" t="s">
+      <c r="K13" s="303" t="s">
         <v>1221</v>
       </c>
-      <c r="L13" s="285">
+      <c r="L13" s="304">
         <f>1-L12</f>
         <v>0.44999999999999996</v>
       </c>
@@ -66536,51 +66584,51 @@
       <c r="Q13" s="238">
         <v>2</v>
       </c>
-      <c r="R13" s="294">
+      <c r="R13" s="250">
         <v>0.12</v>
       </c>
       <c r="S13" s="238" t="s">
         <v>1213</v>
       </c>
-      <c r="T13" s="238">
+      <c r="T13" s="297">
         <f>COUNTA(J4,N4)</f>
         <v>2</v>
       </c>
-      <c r="U13" s="238">
+      <c r="U13" s="307">
         <f>COUNTA(J9,N9)</f>
         <v>2</v>
       </c>
-      <c r="V13" s="291">
+      <c r="V13" s="249">
         <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
-      <c r="W13" s="291">
+      <c r="W13" s="249">
         <f t="shared" si="3"/>
-        <v>0.26444444444444448</v>
-      </c>
-      <c r="X13" s="292">
+        <v>0.25535714285714289</v>
+      </c>
+      <c r="X13" s="299">
         <f>W13*T13/(U13+T13)</f>
-        <v>0.13222222222222224</v>
-      </c>
-      <c r="Y13" s="292">
+        <v>0.12767857142857145</v>
+      </c>
+      <c r="Y13" s="308">
         <f>W13*U13/(U13+T13)</f>
-        <v>0.13222222222222224</v>
-      </c>
-      <c r="Z13" s="293">
+        <v>0.12767857142857145</v>
+      </c>
+      <c r="Z13" s="300">
         <f>$L$16</f>
         <v>0.56999999999999995</v>
       </c>
-      <c r="AA13" s="293">
+      <c r="AA13" s="309">
         <f>$M$16</f>
         <v>0.56999999999999995</v>
       </c>
-      <c r="AB13" s="292">
+      <c r="AB13" s="299">
         <f t="shared" si="6"/>
-        <v>7.5366666666666665E-2</v>
-      </c>
-      <c r="AC13" s="292">
+        <v>7.2776785714285724E-2</v>
+      </c>
+      <c r="AC13" s="308">
         <f t="shared" si="7"/>
-        <v>7.5366666666666665E-2</v>
+        <v>7.2776785714285724E-2</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
@@ -66618,49 +66666,49 @@
       <c r="Q14" s="238">
         <v>8</v>
       </c>
-      <c r="R14" s="294">
+      <c r="R14" s="250">
         <v>0.6</v>
       </c>
       <c r="S14" s="238" t="s">
         <v>1195</v>
       </c>
-      <c r="T14" s="238">
+      <c r="T14" s="297">
         <f>IF(COUNTIF(J8:N8,"CAB")+COUNTIF(K9:M9,"CAB") &gt; 0, COUNTIF(J4:N5,"TEC"),0)</f>
         <v>0</v>
       </c>
-      <c r="U14" s="238">
+      <c r="U14" s="307">
         <f>IF(COUNTIF(J3:N3,"CAB")+COUNTIF(K4:M4,"CAB") &gt; 0, COUNTIF(J9:N10,"TEC"),0)</f>
         <v>0</v>
       </c>
-      <c r="V14" s="291">
+      <c r="V14" s="249">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W14" s="291">
+      <c r="W14" s="249">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X14" s="292">
+      <c r="X14" s="299">
         <f>IF(W14=0,0,IF(U14=0,W14*T14/Q14,W14*T14/(Q14*2)))</f>
         <v>0</v>
       </c>
-      <c r="Y14" s="292">
+      <c r="Y14" s="308">
         <f>IF(W14=0,0,IF(T14=0,W14*U14/Q14,W14*U14/(Q14*2)))</f>
         <v>0</v>
       </c>
-      <c r="Z14" s="293">
+      <c r="Z14" s="300">
         <f>$L$16</f>
         <v>0.56999999999999995</v>
       </c>
-      <c r="AA14" s="293">
+      <c r="AA14" s="309">
         <f>$M$16</f>
         <v>0.56999999999999995</v>
       </c>
-      <c r="AB14" s="292">
+      <c r="AB14" s="299">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AC14" s="292">
+      <c r="AC14" s="308">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -66688,16 +66736,16 @@
         <v>0.15</v>
       </c>
       <c r="H15" s="236">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="J15" s="237"/>
-      <c r="K15" s="284" t="s">
+      <c r="K15" s="244" t="s">
         <v>1229</v>
       </c>
-      <c r="L15" s="289">
+      <c r="L15" s="295">
         <v>0.7</v>
       </c>
-      <c r="M15" s="289">
+      <c r="M15" s="305">
         <v>0.7</v>
       </c>
       <c r="N15" s="237"/>
@@ -66735,13 +66783,13 @@
         <v>0.12</v>
       </c>
       <c r="J16" s="237"/>
-      <c r="K16" s="284" t="s">
+      <c r="K16" s="244" t="s">
         <v>1231</v>
       </c>
-      <c r="L16" s="289">
+      <c r="L16" s="295">
         <v>0.56999999999999995</v>
       </c>
-      <c r="M16" s="289">
+      <c r="M16" s="305">
         <v>0.56999999999999995</v>
       </c>
       <c r="N16" s="237"/>
@@ -66782,10 +66830,10 @@
       <c r="K17" s="235" t="s">
         <v>1230</v>
       </c>
-      <c r="L17" s="289">
+      <c r="L17" s="295">
         <v>0.45</v>
       </c>
-      <c r="M17" s="289">
+      <c r="M17" s="305">
         <v>0.45</v>
       </c>
       <c r="N17" s="237"/>
@@ -66881,7 +66929,7 @@
       </c>
       <c r="H21" s="232">
         <f>H17+H16+H15+H12+H8+H7+H6+H5+H4+H3</f>
-        <v>3.22</v>
+        <v>3.1950000000000003</v>
       </c>
       <c r="J21" s="237"/>
       <c r="K21" s="237"/>
@@ -66902,7 +66950,7 @@
       </c>
       <c r="H22" s="232">
         <f>H14+H13+H11+H10</f>
-        <v>0.35</v>
+        <v>0.38</v>
       </c>
       <c r="J22" s="237"/>
       <c r="K22" s="235"/>
@@ -67423,7 +67471,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="249" t="s">
+      <c r="A6" s="257" t="s">
         <v>99</v>
       </c>
       <c r="B6" s="43" t="s">
@@ -67454,7 +67502,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A7" s="249"/>
+      <c r="A7" s="257"/>
       <c r="B7" s="43" t="s">
         <v>96</v>
       </c>
@@ -68394,12 +68442,12 @@
       <c r="J34" s="55"/>
     </row>
     <row r="35" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="250" t="s">
+      <c r="A35" s="258" t="s">
         <v>151</v>
       </c>
-      <c r="B35" s="250"/>
-      <c r="C35" s="250"/>
-      <c r="D35" s="250"/>
+      <c r="B35" s="258"/>
+      <c r="C35" s="258"/>
+      <c r="D35" s="258"/>
       <c r="F35" s="56" t="s">
         <v>152</v>
       </c>
@@ -68411,16 +68459,16 @@
       <c r="J35" s="55"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="251" t="s">
+      <c r="A36" s="259" t="s">
         <v>116</v>
       </c>
-      <c r="B36" s="252" t="s">
+      <c r="B36" s="260" t="s">
         <v>153</v>
       </c>
-      <c r="C36" s="252" t="s">
+      <c r="C36" s="260" t="s">
         <v>149</v>
       </c>
-      <c r="D36" s="252" t="s">
+      <c r="D36" s="260" t="s">
         <v>150</v>
       </c>
       <c r="F36" s="59" t="s">
@@ -68434,10 +68482,10 @@
       <c r="J36" s="55"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="251"/>
-      <c r="B37" s="252"/>
-      <c r="C37" s="252"/>
-      <c r="D37" s="252"/>
+      <c r="A37" s="259"/>
+      <c r="B37" s="260"/>
+      <c r="C37" s="260"/>
+      <c r="D37" s="260"/>
       <c r="F37" s="56" t="s">
         <v>155</v>
       </c>
@@ -69291,460 +69339,460 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="257" t="s">
+      <c r="A4" s="261" t="s">
         <v>1130</v>
       </c>
-      <c r="B4" s="257" t="s">
+      <c r="B4" s="261" t="s">
         <v>1131</v>
       </c>
-      <c r="C4" s="257" t="s">
+      <c r="C4" s="261" t="s">
         <v>1132</v>
       </c>
-      <c r="D4" s="257" t="s">
+      <c r="D4" s="261" t="s">
         <v>1133</v>
       </c>
-      <c r="E4" s="259" t="s">
+      <c r="E4" s="263" t="s">
         <v>1134</v>
       </c>
-      <c r="F4" s="257" t="s">
+      <c r="F4" s="261" t="s">
         <v>1135</v>
       </c>
-      <c r="G4" s="257" t="s">
+      <c r="G4" s="261" t="s">
         <v>1136</v>
       </c>
-      <c r="H4" s="257" t="s">
+      <c r="H4" s="261" t="s">
         <v>1137</v>
       </c>
-      <c r="I4" s="257" t="s">
+      <c r="I4" s="261" t="s">
         <v>1138</v>
       </c>
-      <c r="J4" s="259" t="s">
+      <c r="J4" s="263" t="s">
         <v>1139</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="258"/>
-      <c r="B5" s="258"/>
-      <c r="C5" s="258"/>
-      <c r="D5" s="258"/>
-      <c r="E5" s="260"/>
-      <c r="F5" s="258"/>
-      <c r="G5" s="258"/>
-      <c r="H5" s="258"/>
-      <c r="I5" s="258"/>
-      <c r="J5" s="260"/>
+      <c r="A5" s="262"/>
+      <c r="B5" s="262"/>
+      <c r="C5" s="262"/>
+      <c r="D5" s="262"/>
+      <c r="E5" s="264"/>
+      <c r="F5" s="262"/>
+      <c r="G5" s="262"/>
+      <c r="H5" s="262"/>
+      <c r="I5" s="262"/>
+      <c r="J5" s="264"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="257" t="s">
+      <c r="A6" s="261" t="s">
         <v>1140</v>
       </c>
-      <c r="B6" s="255">
+      <c r="B6" s="265">
         <v>3563</v>
       </c>
-      <c r="C6" s="255">
+      <c r="C6" s="265">
         <v>3583</v>
       </c>
-      <c r="D6" s="255">
+      <c r="D6" s="265">
         <v>3689</v>
       </c>
-      <c r="E6" s="253">
+      <c r="E6" s="267">
         <v>3712</v>
       </c>
-      <c r="F6" s="255">
+      <c r="F6" s="265">
         <v>3656</v>
       </c>
-      <c r="G6" s="255">
+      <c r="G6" s="265">
         <v>3751</v>
       </c>
-      <c r="H6" s="255">
+      <c r="H6" s="265">
         <v>3693</v>
       </c>
-      <c r="I6" s="255">
+      <c r="I6" s="265">
         <v>3676</v>
       </c>
-      <c r="J6" s="253">
+      <c r="J6" s="267">
         <v>3638</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="258"/>
-      <c r="B7" s="256"/>
-      <c r="C7" s="256"/>
-      <c r="D7" s="256"/>
-      <c r="E7" s="254"/>
-      <c r="F7" s="256"/>
-      <c r="G7" s="256"/>
-      <c r="H7" s="256"/>
-      <c r="I7" s="256"/>
-      <c r="J7" s="254"/>
+      <c r="A7" s="262"/>
+      <c r="B7" s="266"/>
+      <c r="C7" s="266"/>
+      <c r="D7" s="266"/>
+      <c r="E7" s="268"/>
+      <c r="F7" s="266"/>
+      <c r="G7" s="266"/>
+      <c r="H7" s="266"/>
+      <c r="I7" s="266"/>
+      <c r="J7" s="268"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="257" t="s">
+      <c r="A8" s="261" t="s">
         <v>1141</v>
       </c>
-      <c r="B8" s="255">
+      <c r="B8" s="265">
         <v>2957</v>
       </c>
-      <c r="C8" s="255">
+      <c r="C8" s="265">
         <v>3253</v>
       </c>
-      <c r="D8" s="255">
+      <c r="D8" s="265">
         <v>3342</v>
       </c>
-      <c r="E8" s="253">
+      <c r="E8" s="267">
         <v>3325</v>
       </c>
-      <c r="F8" s="255">
+      <c r="F8" s="265">
         <v>3461</v>
       </c>
-      <c r="G8" s="255">
+      <c r="G8" s="265">
         <v>3392</v>
       </c>
-      <c r="H8" s="255">
+      <c r="H8" s="265">
         <v>3455</v>
       </c>
-      <c r="I8" s="255">
+      <c r="I8" s="265">
         <v>3369</v>
       </c>
-      <c r="J8" s="253">
+      <c r="J8" s="267">
         <v>3372</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="258"/>
-      <c r="B9" s="256"/>
-      <c r="C9" s="256"/>
-      <c r="D9" s="256"/>
-      <c r="E9" s="254"/>
-      <c r="F9" s="256"/>
-      <c r="G9" s="256"/>
-      <c r="H9" s="256"/>
-      <c r="I9" s="256"/>
-      <c r="J9" s="254"/>
+      <c r="A9" s="262"/>
+      <c r="B9" s="266"/>
+      <c r="C9" s="266"/>
+      <c r="D9" s="266"/>
+      <c r="E9" s="268"/>
+      <c r="F9" s="266"/>
+      <c r="G9" s="266"/>
+      <c r="H9" s="266"/>
+      <c r="I9" s="266"/>
+      <c r="J9" s="268"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="257" t="s">
+      <c r="A10" s="261" t="s">
         <v>1142</v>
       </c>
-      <c r="B10" s="255">
+      <c r="B10" s="265">
         <v>2354</v>
       </c>
-      <c r="C10" s="255">
+      <c r="C10" s="265">
         <v>2997</v>
       </c>
-      <c r="D10" s="255">
+      <c r="D10" s="265">
         <v>3041</v>
       </c>
-      <c r="E10" s="253">
+      <c r="E10" s="267">
         <v>3085</v>
       </c>
-      <c r="F10" s="255">
+      <c r="F10" s="265">
         <v>3118</v>
       </c>
-      <c r="G10" s="255">
+      <c r="G10" s="265">
         <v>3100</v>
       </c>
-      <c r="H10" s="255">
+      <c r="H10" s="265">
         <v>3130</v>
       </c>
-      <c r="I10" s="255">
+      <c r="I10" s="265">
         <v>3102</v>
       </c>
-      <c r="J10" s="253">
+      <c r="J10" s="267">
         <v>3098</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="258"/>
-      <c r="B11" s="256"/>
-      <c r="C11" s="256"/>
-      <c r="D11" s="256"/>
-      <c r="E11" s="254"/>
-      <c r="F11" s="256"/>
-      <c r="G11" s="256"/>
-      <c r="H11" s="256"/>
-      <c r="I11" s="256"/>
-      <c r="J11" s="254"/>
+      <c r="A11" s="262"/>
+      <c r="B11" s="266"/>
+      <c r="C11" s="266"/>
+      <c r="D11" s="266"/>
+      <c r="E11" s="268"/>
+      <c r="F11" s="266"/>
+      <c r="G11" s="266"/>
+      <c r="H11" s="266"/>
+      <c r="I11" s="266"/>
+      <c r="J11" s="268"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="257" t="s">
+      <c r="A12" s="261" t="s">
         <v>1143</v>
       </c>
-      <c r="B12" s="255"/>
-      <c r="C12" s="255">
+      <c r="B12" s="265"/>
+      <c r="C12" s="265">
         <v>2361</v>
       </c>
-      <c r="D12" s="255">
+      <c r="D12" s="265">
         <v>2778</v>
       </c>
-      <c r="E12" s="253">
+      <c r="E12" s="267">
         <v>2793</v>
       </c>
-      <c r="F12" s="255">
+      <c r="F12" s="265">
         <v>2808</v>
       </c>
-      <c r="G12" s="255">
+      <c r="G12" s="265">
         <v>2810</v>
       </c>
-      <c r="H12" s="255">
+      <c r="H12" s="265">
         <v>2814</v>
       </c>
-      <c r="I12" s="255">
+      <c r="I12" s="265">
         <v>2795</v>
       </c>
-      <c r="J12" s="253">
+      <c r="J12" s="267">
         <v>2793</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="258"/>
-      <c r="B13" s="256"/>
-      <c r="C13" s="256"/>
-      <c r="D13" s="256"/>
-      <c r="E13" s="254"/>
-      <c r="F13" s="256"/>
-      <c r="G13" s="256"/>
-      <c r="H13" s="256"/>
-      <c r="I13" s="256"/>
-      <c r="J13" s="254"/>
+      <c r="A13" s="262"/>
+      <c r="B13" s="266"/>
+      <c r="C13" s="266"/>
+      <c r="D13" s="266"/>
+      <c r="E13" s="268"/>
+      <c r="F13" s="266"/>
+      <c r="G13" s="266"/>
+      <c r="H13" s="266"/>
+      <c r="I13" s="266"/>
+      <c r="J13" s="268"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="257" t="s">
+      <c r="A14" s="261" t="s">
         <v>1144</v>
       </c>
-      <c r="B14" s="255"/>
-      <c r="C14" s="255"/>
-      <c r="D14" s="255">
+      <c r="B14" s="265"/>
+      <c r="C14" s="265"/>
+      <c r="D14" s="265">
         <v>2241</v>
       </c>
-      <c r="E14" s="253">
+      <c r="E14" s="267">
         <v>2467</v>
       </c>
-      <c r="F14" s="255">
+      <c r="F14" s="265">
         <v>2521</v>
       </c>
-      <c r="G14" s="255">
+      <c r="G14" s="265">
         <v>2507</v>
       </c>
-      <c r="H14" s="255">
+      <c r="H14" s="265">
         <v>2536</v>
       </c>
-      <c r="I14" s="255">
+      <c r="I14" s="265">
         <v>2517</v>
       </c>
-      <c r="J14" s="253">
+      <c r="J14" s="267">
         <v>2525</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="258"/>
-      <c r="B15" s="256"/>
-      <c r="C15" s="256"/>
-      <c r="D15" s="256"/>
-      <c r="E15" s="254"/>
-      <c r="F15" s="256"/>
-      <c r="G15" s="256"/>
-      <c r="H15" s="256"/>
-      <c r="I15" s="256"/>
-      <c r="J15" s="254"/>
+      <c r="A15" s="262"/>
+      <c r="B15" s="266"/>
+      <c r="C15" s="266"/>
+      <c r="D15" s="266"/>
+      <c r="E15" s="268"/>
+      <c r="F15" s="266"/>
+      <c r="G15" s="266"/>
+      <c r="H15" s="266"/>
+      <c r="I15" s="266"/>
+      <c r="J15" s="268"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="257" t="s">
+      <c r="A16" s="261" t="s">
         <v>1145</v>
       </c>
-      <c r="B16" s="255"/>
-      <c r="C16" s="255"/>
-      <c r="D16" s="255"/>
-      <c r="E16" s="253">
+      <c r="B16" s="265"/>
+      <c r="C16" s="265"/>
+      <c r="D16" s="265"/>
+      <c r="E16" s="267">
         <v>2113</v>
       </c>
-      <c r="F16" s="255">
+      <c r="F16" s="265">
         <v>2226</v>
       </c>
-      <c r="G16" s="255">
+      <c r="G16" s="265">
         <v>2202</v>
       </c>
-      <c r="H16" s="255">
+      <c r="H16" s="265">
         <v>2232</v>
       </c>
-      <c r="I16" s="255">
+      <c r="I16" s="265">
         <v>2235</v>
       </c>
-      <c r="J16" s="253">
+      <c r="J16" s="267">
         <v>2227</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="258"/>
-      <c r="B17" s="256"/>
-      <c r="C17" s="256"/>
-      <c r="D17" s="256"/>
-      <c r="E17" s="254"/>
-      <c r="F17" s="256"/>
-      <c r="G17" s="256"/>
-      <c r="H17" s="256"/>
-      <c r="I17" s="256"/>
-      <c r="J17" s="254"/>
+      <c r="A17" s="262"/>
+      <c r="B17" s="266"/>
+      <c r="C17" s="266"/>
+      <c r="D17" s="266"/>
+      <c r="E17" s="268"/>
+      <c r="F17" s="266"/>
+      <c r="G17" s="266"/>
+      <c r="H17" s="266"/>
+      <c r="I17" s="266"/>
+      <c r="J17" s="268"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="257" t="s">
+      <c r="A18" s="261" t="s">
         <v>1146</v>
       </c>
-      <c r="B18" s="255"/>
-      <c r="C18" s="255"/>
-      <c r="D18" s="255"/>
-      <c r="E18" s="253"/>
-      <c r="F18" s="255">
+      <c r="B18" s="265"/>
+      <c r="C18" s="265"/>
+      <c r="D18" s="265"/>
+      <c r="E18" s="267"/>
+      <c r="F18" s="265">
         <v>1537</v>
       </c>
-      <c r="G18" s="255">
+      <c r="G18" s="265">
         <v>1762</v>
       </c>
-      <c r="H18" s="255">
+      <c r="H18" s="265">
         <v>1905</v>
       </c>
-      <c r="I18" s="255">
+      <c r="I18" s="265">
         <v>1879</v>
       </c>
-      <c r="J18" s="253">
+      <c r="J18" s="267">
         <v>1893</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="258"/>
-      <c r="B19" s="256"/>
-      <c r="C19" s="256"/>
-      <c r="D19" s="256"/>
-      <c r="E19" s="254"/>
-      <c r="F19" s="256"/>
-      <c r="G19" s="256"/>
-      <c r="H19" s="256"/>
-      <c r="I19" s="256"/>
-      <c r="J19" s="254"/>
+      <c r="A19" s="262"/>
+      <c r="B19" s="266"/>
+      <c r="C19" s="266"/>
+      <c r="D19" s="266"/>
+      <c r="E19" s="268"/>
+      <c r="F19" s="266"/>
+      <c r="G19" s="266"/>
+      <c r="H19" s="266"/>
+      <c r="I19" s="266"/>
+      <c r="J19" s="268"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="257" t="s">
+      <c r="A20" s="261" t="s">
         <v>1147</v>
       </c>
-      <c r="B20" s="255"/>
-      <c r="C20" s="255"/>
-      <c r="D20" s="255"/>
-      <c r="E20" s="253"/>
-      <c r="F20" s="255"/>
-      <c r="G20" s="255">
+      <c r="B20" s="265"/>
+      <c r="C20" s="265"/>
+      <c r="D20" s="265"/>
+      <c r="E20" s="267"/>
+      <c r="F20" s="265"/>
+      <c r="G20" s="265">
         <v>1412</v>
       </c>
-      <c r="H20" s="255">
+      <c r="H20" s="265">
         <v>1689</v>
       </c>
-      <c r="I20" s="255">
+      <c r="I20" s="265">
         <v>1630</v>
       </c>
-      <c r="J20" s="253">
+      <c r="J20" s="267">
         <v>1640</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="258"/>
-      <c r="B21" s="256"/>
-      <c r="C21" s="256"/>
-      <c r="D21" s="256"/>
-      <c r="E21" s="254"/>
-      <c r="F21" s="256"/>
-      <c r="G21" s="256"/>
-      <c r="H21" s="256"/>
-      <c r="I21" s="256"/>
-      <c r="J21" s="254"/>
+      <c r="A21" s="262"/>
+      <c r="B21" s="266"/>
+      <c r="C21" s="266"/>
+      <c r="D21" s="266"/>
+      <c r="E21" s="268"/>
+      <c r="F21" s="266"/>
+      <c r="G21" s="266"/>
+      <c r="H21" s="266"/>
+      <c r="I21" s="266"/>
+      <c r="J21" s="268"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="257" t="s">
+      <c r="A22" s="261" t="s">
         <v>1148</v>
       </c>
-      <c r="B22" s="255"/>
-      <c r="C22" s="255"/>
-      <c r="D22" s="255"/>
-      <c r="E22" s="253"/>
-      <c r="F22" s="255"/>
-      <c r="G22" s="255"/>
-      <c r="H22" s="255">
+      <c r="B22" s="265"/>
+      <c r="C22" s="265"/>
+      <c r="D22" s="265"/>
+      <c r="E22" s="267"/>
+      <c r="F22" s="265"/>
+      <c r="G22" s="265"/>
+      <c r="H22" s="265">
         <v>1082</v>
       </c>
-      <c r="I22" s="255">
+      <c r="I22" s="265">
         <v>1341</v>
       </c>
-      <c r="J22" s="253">
+      <c r="J22" s="267">
         <v>1325</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="258"/>
-      <c r="B23" s="256"/>
-      <c r="C23" s="256"/>
-      <c r="D23" s="256"/>
-      <c r="E23" s="254"/>
-      <c r="F23" s="256"/>
-      <c r="G23" s="256"/>
-      <c r="H23" s="256"/>
-      <c r="I23" s="256"/>
-      <c r="J23" s="254"/>
+      <c r="A23" s="262"/>
+      <c r="B23" s="266"/>
+      <c r="C23" s="266"/>
+      <c r="D23" s="266"/>
+      <c r="E23" s="268"/>
+      <c r="F23" s="266"/>
+      <c r="G23" s="266"/>
+      <c r="H23" s="266"/>
+      <c r="I23" s="266"/>
+      <c r="J23" s="268"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="257" t="s">
+      <c r="A24" s="261" t="s">
         <v>1149</v>
       </c>
-      <c r="B24" s="255"/>
-      <c r="C24" s="255"/>
-      <c r="D24" s="255"/>
-      <c r="E24" s="253"/>
-      <c r="F24" s="255"/>
-      <c r="G24" s="255"/>
-      <c r="H24" s="255"/>
-      <c r="I24" s="255">
+      <c r="B24" s="265"/>
+      <c r="C24" s="265"/>
+      <c r="D24" s="265"/>
+      <c r="E24" s="267"/>
+      <c r="F24" s="265"/>
+      <c r="G24" s="265"/>
+      <c r="H24" s="265"/>
+      <c r="I24" s="265">
         <v>1003</v>
       </c>
-      <c r="J24" s="253">
+      <c r="J24" s="267">
         <v>1016</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="258"/>
-      <c r="B25" s="256"/>
-      <c r="C25" s="256"/>
-      <c r="D25" s="256"/>
-      <c r="E25" s="254"/>
-      <c r="F25" s="256"/>
-      <c r="G25" s="256"/>
-      <c r="H25" s="256"/>
-      <c r="I25" s="256"/>
-      <c r="J25" s="254"/>
+      <c r="A25" s="262"/>
+      <c r="B25" s="266"/>
+      <c r="C25" s="266"/>
+      <c r="D25" s="266"/>
+      <c r="E25" s="268"/>
+      <c r="F25" s="266"/>
+      <c r="G25" s="266"/>
+      <c r="H25" s="266"/>
+      <c r="I25" s="266"/>
+      <c r="J25" s="268"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="257" t="s">
+      <c r="A26" s="261" t="s">
         <v>1150</v>
       </c>
-      <c r="B26" s="255"/>
-      <c r="C26" s="255"/>
-      <c r="D26" s="255"/>
-      <c r="E26" s="253"/>
-      <c r="F26" s="255"/>
-      <c r="G26" s="255"/>
-      <c r="H26" s="255"/>
-      <c r="I26" s="255"/>
-      <c r="J26" s="253">
+      <c r="B26" s="265"/>
+      <c r="C26" s="265"/>
+      <c r="D26" s="265"/>
+      <c r="E26" s="267"/>
+      <c r="F26" s="265"/>
+      <c r="G26" s="265"/>
+      <c r="H26" s="265"/>
+      <c r="I26" s="265"/>
+      <c r="J26" s="267">
         <v>632</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="258"/>
-      <c r="B27" s="256"/>
-      <c r="C27" s="256"/>
-      <c r="D27" s="256"/>
-      <c r="E27" s="254"/>
-      <c r="F27" s="256"/>
-      <c r="G27" s="256"/>
-      <c r="H27" s="256"/>
-      <c r="I27" s="256"/>
-      <c r="J27" s="254"/>
+      <c r="A27" s="262"/>
+      <c r="B27" s="266"/>
+      <c r="C27" s="266"/>
+      <c r="D27" s="266"/>
+      <c r="E27" s="268"/>
+      <c r="F27" s="266"/>
+      <c r="G27" s="266"/>
+      <c r="H27" s="266"/>
+      <c r="I27" s="266"/>
+      <c r="J27" s="268"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -69753,6 +69801,106 @@
     </row>
   </sheetData>
   <mergeCells count="120">
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
@@ -69773,106 +69921,6 @@
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/projects/current/hattrick/z_Biblioteca.xlsx
+++ b/projects/current/hattrick/z_Biblioteca.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0798DBE8-58DC-4C33-9EEC-E42DF4B3B5AF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28DA6A1B-D14D-4DF9-876C-5B3D280F64FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resistencia" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -12409,126 +12411,6 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -12568,6 +12450,126 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -21393,16 +21395,16 @@
       <c r="A59" s="30">
         <v>17</v>
       </c>
-      <c r="B59" s="252" t="s">
+      <c r="B59" s="271" t="s">
         <v>17</v>
       </c>
       <c r="C59" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D59" s="253" t="s">
+      <c r="D59" s="272" t="s">
         <v>19</v>
       </c>
-      <c r="E59" s="253" t="s">
+      <c r="E59" s="272" t="s">
         <v>19</v>
       </c>
       <c r="F59" s="32" t="s">
@@ -21416,12 +21418,12 @@
       <c r="A60" s="34">
         <v>18</v>
       </c>
-      <c r="B60" s="252"/>
+      <c r="B60" s="271"/>
       <c r="C60" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="D60" s="253"/>
-      <c r="E60" s="253"/>
+      <c r="D60" s="272"/>
+      <c r="E60" s="272"/>
       <c r="F60" s="32" t="s">
         <v>23</v>
       </c>
@@ -21433,10 +21435,10 @@
       <c r="A61" s="30">
         <v>19</v>
       </c>
-      <c r="B61" s="252"/>
+      <c r="B61" s="271"/>
       <c r="C61" s="35"/>
-      <c r="D61" s="253"/>
-      <c r="E61" s="253"/>
+      <c r="D61" s="272"/>
+      <c r="E61" s="272"/>
       <c r="F61" s="36"/>
       <c r="H61" s="25" t="s">
         <v>25</v>
@@ -21447,11 +21449,11 @@
       <c r="A62" s="34">
         <v>20</v>
       </c>
-      <c r="B62" s="252"/>
+      <c r="B62" s="271"/>
       <c r="C62" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D62" s="254" t="s">
+      <c r="D62" s="273" t="s">
         <v>20</v>
       </c>
       <c r="E62" s="32" t="s">
@@ -21466,13 +21468,13 @@
       <c r="A63" s="30">
         <v>21</v>
       </c>
-      <c r="B63" s="255" t="s">
+      <c r="B63" s="274" t="s">
         <v>18</v>
       </c>
       <c r="C63" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="D63" s="254"/>
+      <c r="D63" s="273"/>
       <c r="E63" s="32" t="s">
         <v>23</v>
       </c>
@@ -21485,9 +21487,9 @@
       <c r="A64" s="34">
         <v>22</v>
       </c>
-      <c r="B64" s="255"/>
+      <c r="B64" s="274"/>
       <c r="C64" s="36"/>
-      <c r="D64" s="254"/>
+      <c r="D64" s="273"/>
       <c r="E64" s="36"/>
       <c r="F64" s="36"/>
       <c r="H64" s="25" t="s">
@@ -21498,9 +21500,9 @@
       <c r="A65" s="30">
         <v>23</v>
       </c>
-      <c r="B65" s="255"/>
+      <c r="B65" s="274"/>
       <c r="C65" s="36"/>
-      <c r="D65" s="254"/>
+      <c r="D65" s="273"/>
       <c r="E65" s="36"/>
       <c r="F65" s="36"/>
     </row>
@@ -21508,9 +21510,9 @@
       <c r="A66" s="34">
         <v>24</v>
       </c>
-      <c r="B66" s="255"/>
+      <c r="B66" s="274"/>
       <c r="C66" s="36"/>
-      <c r="D66" s="254"/>
+      <c r="D66" s="273"/>
       <c r="E66" s="36"/>
       <c r="F66" s="36"/>
       <c r="H66" s="25" t="s">
@@ -21521,9 +21523,9 @@
       <c r="A67" s="30">
         <v>25</v>
       </c>
-      <c r="B67" s="255"/>
+      <c r="B67" s="274"/>
       <c r="C67" s="36"/>
-      <c r="D67" s="253" t="s">
+      <c r="D67" s="272" t="s">
         <v>19</v>
       </c>
       <c r="E67" s="36"/>
@@ -21536,11 +21538,11 @@
       <c r="A68" s="34">
         <v>26</v>
       </c>
-      <c r="B68" s="255"/>
-      <c r="C68" s="253" t="s">
+      <c r="B68" s="274"/>
+      <c r="C68" s="272" t="s">
         <v>19</v>
       </c>
-      <c r="D68" s="253"/>
+      <c r="D68" s="272"/>
       <c r="E68" s="36"/>
       <c r="F68" s="36"/>
     </row>
@@ -21548,11 +21550,11 @@
       <c r="A69" s="30">
         <v>27</v>
       </c>
-      <c r="B69" s="252" t="s">
+      <c r="B69" s="271" t="s">
         <v>17</v>
       </c>
-      <c r="C69" s="253"/>
-      <c r="D69" s="253"/>
+      <c r="C69" s="272"/>
+      <c r="D69" s="272"/>
       <c r="E69" s="36"/>
       <c r="F69" s="36"/>
     </row>
@@ -21560,11 +21562,11 @@
       <c r="A70" s="34">
         <v>28</v>
       </c>
-      <c r="B70" s="252"/>
-      <c r="C70" s="255" t="s">
+      <c r="B70" s="271"/>
+      <c r="C70" s="274" t="s">
         <v>18</v>
       </c>
-      <c r="D70" s="253"/>
+      <c r="D70" s="272"/>
       <c r="E70" s="36"/>
       <c r="F70" s="36"/>
       <c r="H70" s="25" t="s">
@@ -21575,9 +21577,9 @@
       <c r="A71" s="30">
         <v>29</v>
       </c>
-      <c r="B71" s="252"/>
-      <c r="C71" s="255"/>
-      <c r="D71" s="253"/>
+      <c r="B71" s="271"/>
+      <c r="C71" s="274"/>
+      <c r="D71" s="272"/>
       <c r="E71" s="36"/>
       <c r="F71" s="36"/>
     </row>
@@ -21585,9 +21587,9 @@
       <c r="A72" s="34">
         <v>30</v>
       </c>
-      <c r="B72" s="252"/>
-      <c r="C72" s="255"/>
-      <c r="D72" s="255" t="s">
+      <c r="B72" s="271"/>
+      <c r="C72" s="274"/>
+      <c r="D72" s="274" t="s">
         <v>18</v>
       </c>
       <c r="E72" s="36"/>
@@ -21600,9 +21602,9 @@
       <c r="A73" s="30">
         <v>31</v>
       </c>
-      <c r="B73" s="252"/>
-      <c r="C73" s="255"/>
-      <c r="D73" s="255"/>
+      <c r="B73" s="271"/>
+      <c r="C73" s="274"/>
+      <c r="D73" s="274"/>
       <c r="E73" s="32" t="s">
         <v>19</v>
       </c>
@@ -21612,9 +21614,9 @@
       <c r="A74" s="34">
         <v>32</v>
       </c>
-      <c r="B74" s="252"/>
-      <c r="C74" s="255"/>
-      <c r="D74" s="255"/>
+      <c r="B74" s="271"/>
+      <c r="C74" s="274"/>
+      <c r="D74" s="274"/>
       <c r="E74" s="32" t="s">
         <v>27</v>
       </c>
@@ -21627,11 +21629,11 @@
       <c r="A75" s="30">
         <v>33</v>
       </c>
-      <c r="B75" s="252"/>
-      <c r="C75" s="252" t="s">
+      <c r="B75" s="271"/>
+      <c r="C75" s="271" t="s">
         <v>17</v>
       </c>
-      <c r="D75" s="255"/>
+      <c r="D75" s="274"/>
       <c r="E75" s="31" t="s">
         <v>18</v>
       </c>
@@ -21643,11 +21645,11 @@
       <c r="A76" s="34">
         <v>34</v>
       </c>
-      <c r="B76" s="256" t="s">
+      <c r="B76" s="275" t="s">
         <v>35</v>
       </c>
-      <c r="C76" s="252"/>
-      <c r="D76" s="255"/>
+      <c r="C76" s="271"/>
+      <c r="D76" s="274"/>
       <c r="E76" s="31" t="s">
         <v>22</v>
       </c>
@@ -21662,14 +21664,14 @@
       <c r="A77" s="30">
         <v>35</v>
       </c>
-      <c r="B77" s="256"/>
-      <c r="C77" s="256" t="s">
+      <c r="B77" s="275"/>
+      <c r="C77" s="275" t="s">
         <v>35</v>
       </c>
-      <c r="D77" s="252" t="s">
+      <c r="D77" s="271" t="s">
         <v>17</v>
       </c>
-      <c r="E77" s="252" t="s">
+      <c r="E77" s="271" t="s">
         <v>17</v>
       </c>
       <c r="F77" s="35"/>
@@ -21678,10 +21680,10 @@
       <c r="A78" s="34">
         <v>36</v>
       </c>
-      <c r="B78" s="256"/>
-      <c r="C78" s="256"/>
-      <c r="D78" s="252"/>
-      <c r="E78" s="252"/>
+      <c r="B78" s="275"/>
+      <c r="C78" s="275"/>
+      <c r="D78" s="271"/>
+      <c r="E78" s="271"/>
       <c r="F78" s="37" t="s">
         <v>17</v>
       </c>
@@ -21690,14 +21692,14 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="251" t="s">
+      <c r="A79" s="270" t="s">
         <v>38</v>
       </c>
-      <c r="B79" s="251"/>
-      <c r="C79" s="251"/>
-      <c r="D79" s="251"/>
-      <c r="E79" s="251"/>
-      <c r="F79" s="251"/>
+      <c r="B79" s="270"/>
+      <c r="C79" s="270"/>
+      <c r="D79" s="270"/>
+      <c r="E79" s="270"/>
+      <c r="F79" s="270"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="24"/>
@@ -22815,26 +22817,26 @@
       <c r="C1" s="78" t="s">
         <v>233</v>
       </c>
-      <c r="F1" s="269" t="s">
+      <c r="F1" s="303" t="s">
         <v>234</v>
       </c>
-      <c r="G1" s="269"/>
-      <c r="H1" s="269" t="s">
+      <c r="G1" s="303"/>
+      <c r="H1" s="303" t="s">
         <v>235</v>
       </c>
-      <c r="I1" s="269"/>
-      <c r="J1" s="269" t="s">
+      <c r="I1" s="303"/>
+      <c r="J1" s="303" t="s">
         <v>236</v>
       </c>
-      <c r="K1" s="269"/>
-      <c r="L1" s="269" t="s">
+      <c r="K1" s="303"/>
+      <c r="L1" s="303" t="s">
         <v>237</v>
       </c>
-      <c r="M1" s="269"/>
-      <c r="N1" s="269" t="s">
+      <c r="M1" s="303"/>
+      <c r="N1" s="303" t="s">
         <v>238</v>
       </c>
-      <c r="O1" s="269"/>
+      <c r="O1" s="303"/>
     </row>
     <row r="2" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F2" s="79" t="s">
@@ -22843,18 +22845,18 @@
       <c r="G2" s="79" t="s">
         <v>240</v>
       </c>
-      <c r="H2" s="270"/>
-      <c r="I2" s="271"/>
-      <c r="J2" s="270"/>
-      <c r="K2" s="271"/>
+      <c r="H2" s="304"/>
+      <c r="I2" s="305"/>
+      <c r="J2" s="304"/>
+      <c r="K2" s="305"/>
       <c r="L2" s="79" t="s">
         <v>239</v>
       </c>
       <c r="M2" s="79" t="s">
         <v>240</v>
       </c>
-      <c r="N2" s="270"/>
-      <c r="O2" s="271"/>
+      <c r="N2" s="304"/>
+      <c r="O2" s="305"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -22866,14 +22868,14 @@
       <c r="E3" s="80" t="s">
         <v>243</v>
       </c>
-      <c r="F3" s="273">
+      <c r="F3" s="297">
         <v>0.64709000000000005</v>
       </c>
-      <c r="G3" s="273"/>
-      <c r="H3" s="273">
+      <c r="G3" s="297"/>
+      <c r="H3" s="297">
         <v>0.97192999999999996</v>
       </c>
-      <c r="I3" s="273"/>
+      <c r="I3" s="297"/>
       <c r="J3" s="81"/>
       <c r="K3" s="81"/>
       <c r="L3" s="81"/>
@@ -22896,14 +22898,14 @@
       <c r="E4" s="84" t="s">
         <v>246</v>
       </c>
-      <c r="F4" s="272">
+      <c r="F4" s="302">
         <v>0.26545000000000002</v>
       </c>
-      <c r="G4" s="272"/>
-      <c r="H4" s="272">
+      <c r="G4" s="302"/>
+      <c r="H4" s="302">
         <v>0.39895999999999998</v>
       </c>
-      <c r="I4" s="272"/>
+      <c r="I4" s="302"/>
       <c r="J4" s="85"/>
       <c r="K4" s="85"/>
       <c r="L4" s="85"/>
@@ -22929,10 +22931,10 @@
       <c r="G5" s="81">
         <v>0.25008999999999998</v>
       </c>
-      <c r="H5" s="273">
+      <c r="H5" s="297">
         <v>1</v>
       </c>
-      <c r="I5" s="273"/>
+      <c r="I5" s="297"/>
       <c r="J5" s="81"/>
       <c r="K5" s="81"/>
       <c r="L5" s="81"/>
@@ -22953,10 +22955,10 @@
       <c r="G6" s="85"/>
       <c r="H6" s="85"/>
       <c r="I6" s="85"/>
-      <c r="J6" s="272">
+      <c r="J6" s="302">
         <v>0.27488000000000001</v>
       </c>
-      <c r="K6" s="272"/>
+      <c r="K6" s="302"/>
       <c r="L6" s="85"/>
       <c r="M6" s="85"/>
       <c r="N6" s="85"/>
@@ -22980,10 +22982,10 @@
       <c r="G7" s="81">
         <v>0.17752000000000001</v>
       </c>
-      <c r="H7" s="273">
+      <c r="H7" s="297">
         <v>0.72296000000000005</v>
       </c>
-      <c r="I7" s="273"/>
+      <c r="I7" s="297"/>
       <c r="J7" s="81"/>
       <c r="K7" s="81"/>
       <c r="L7" s="81"/>
@@ -23006,10 +23008,10 @@
       <c r="G8" s="85"/>
       <c r="H8" s="85"/>
       <c r="I8" s="85"/>
-      <c r="J8" s="272">
+      <c r="J8" s="302">
         <v>0.36337000000000003</v>
       </c>
-      <c r="K8" s="272"/>
+      <c r="K8" s="302"/>
       <c r="L8" s="85"/>
       <c r="M8" s="85"/>
       <c r="N8" s="85"/>
@@ -23027,10 +23029,10 @@
         <v>0.65615999999999997</v>
       </c>
       <c r="G9" s="81"/>
-      <c r="H9" s="273">
+      <c r="H9" s="297">
         <v>0.78437000000000001</v>
       </c>
-      <c r="I9" s="273"/>
+      <c r="I9" s="297"/>
       <c r="J9" s="81"/>
       <c r="K9" s="81"/>
       <c r="L9" s="81"/>
@@ -23056,10 +23058,10 @@
       <c r="G10" s="88"/>
       <c r="H10" s="88"/>
       <c r="I10" s="88"/>
-      <c r="J10" s="274">
+      <c r="J10" s="301">
         <v>0.1464</v>
       </c>
-      <c r="K10" s="274"/>
+      <c r="K10" s="301"/>
       <c r="L10" s="88"/>
       <c r="M10" s="88"/>
       <c r="N10" s="88"/>
@@ -23094,14 +23096,14 @@
       <c r="E12" s="80" t="s">
         <v>260</v>
       </c>
-      <c r="F12" s="273">
+      <c r="F12" s="297">
         <v>0.42514999999999997</v>
       </c>
-      <c r="G12" s="273"/>
-      <c r="H12" s="273">
+      <c r="G12" s="297"/>
+      <c r="H12" s="297">
         <v>0.85</v>
       </c>
-      <c r="I12" s="273"/>
+      <c r="I12" s="297"/>
       <c r="J12" s="81"/>
       <c r="K12" s="81"/>
       <c r="L12" s="81"/>
@@ -23127,10 +23129,10 @@
       <c r="G13" s="85"/>
       <c r="H13" s="85"/>
       <c r="I13" s="85"/>
-      <c r="J13" s="272">
+      <c r="J13" s="302">
         <v>0.23365</v>
       </c>
-      <c r="K13" s="272"/>
+      <c r="K13" s="302"/>
       <c r="L13" s="85"/>
       <c r="M13" s="85"/>
       <c r="N13" s="85"/>
@@ -23148,10 +23150,10 @@
         <v>1</v>
       </c>
       <c r="G14" s="92"/>
-      <c r="H14" s="273">
+      <c r="H14" s="297">
         <v>0.51382000000000005</v>
       </c>
-      <c r="I14" s="273"/>
+      <c r="I14" s="297"/>
       <c r="J14" s="81"/>
       <c r="K14" s="81"/>
       <c r="L14" s="81"/>
@@ -23178,10 +23180,10 @@
       <c r="G15" s="88"/>
       <c r="H15" s="88"/>
       <c r="I15" s="88"/>
-      <c r="J15" s="274">
+      <c r="J15" s="301">
         <v>4.3869999999999999E-2</v>
       </c>
-      <c r="K15" s="274"/>
+      <c r="K15" s="301"/>
       <c r="L15" s="88"/>
       <c r="M15" s="88"/>
       <c r="N15" s="88"/>
@@ -23228,10 +23230,10 @@
         <v>0.91232999999999997</v>
       </c>
       <c r="G17" s="92"/>
-      <c r="H17" s="273">
+      <c r="H17" s="297">
         <v>0.46146999999999999</v>
       </c>
-      <c r="I17" s="273"/>
+      <c r="I17" s="297"/>
       <c r="J17" s="81"/>
       <c r="K17" s="81"/>
       <c r="L17" s="81"/>
@@ -23257,10 +23259,10 @@
       <c r="G18" s="88"/>
       <c r="H18" s="88"/>
       <c r="I18" s="88"/>
-      <c r="J18" s="274">
+      <c r="J18" s="301">
         <v>0.15035999999999999</v>
       </c>
-      <c r="K18" s="274"/>
+      <c r="K18" s="301"/>
       <c r="L18" s="88"/>
       <c r="M18" s="88"/>
       <c r="N18" s="88"/>
@@ -23302,10 +23304,10 @@
         <v>0.69059999999999999</v>
       </c>
       <c r="G20" s="92"/>
-      <c r="H20" s="273">
+      <c r="H20" s="297">
         <v>0.38878000000000001</v>
       </c>
-      <c r="I20" s="273"/>
+      <c r="I20" s="297"/>
       <c r="J20" s="81"/>
       <c r="K20" s="81"/>
       <c r="L20" s="81"/>
@@ -23331,10 +23333,10 @@
       <c r="G21" s="88"/>
       <c r="H21" s="88"/>
       <c r="I21" s="88"/>
-      <c r="J21" s="274">
+      <c r="J21" s="301">
         <v>0.2099</v>
       </c>
-      <c r="K21" s="274"/>
+      <c r="K21" s="301"/>
       <c r="L21" s="88"/>
       <c r="M21" s="88"/>
       <c r="N21" s="88"/>
@@ -23376,10 +23378,10 @@
         <v>0.68315000000000003</v>
       </c>
       <c r="G23" s="92"/>
-      <c r="H23" s="273">
+      <c r="H23" s="297">
         <v>0.70006000000000002</v>
       </c>
-      <c r="I23" s="273"/>
+      <c r="I23" s="297"/>
       <c r="J23" s="81"/>
       <c r="K23" s="81"/>
       <c r="L23" s="81"/>
@@ -23405,10 +23407,10 @@
       <c r="G24" s="88"/>
       <c r="H24" s="88"/>
       <c r="I24" s="88"/>
-      <c r="J24" s="274">
+      <c r="J24" s="301">
         <v>0.152</v>
       </c>
-      <c r="K24" s="274"/>
+      <c r="K24" s="301"/>
       <c r="L24" s="88"/>
       <c r="M24" s="88"/>
       <c r="N24" s="88"/>
@@ -23452,16 +23454,16 @@
       <c r="G26" s="81">
         <v>9.2719999999999997E-2</v>
       </c>
-      <c r="H26" s="273">
+      <c r="H26" s="297">
         <v>0.42459999999999998</v>
       </c>
-      <c r="I26" s="273"/>
+      <c r="I26" s="297"/>
       <c r="J26" s="81"/>
       <c r="K26" s="81"/>
       <c r="L26" s="81"/>
       <c r="M26" s="81"/>
-      <c r="N26" s="277"/>
-      <c r="O26" s="278"/>
+      <c r="N26" s="290"/>
+      <c r="O26" s="292"/>
       <c r="P26" s="83">
         <f>F26+G26+H26+J27+L28+M28+N28</f>
         <v>2.4103300000000001</v>
@@ -23481,14 +23483,14 @@
       <c r="G27" s="88"/>
       <c r="H27" s="88"/>
       <c r="I27" s="88"/>
-      <c r="J27" s="274">
+      <c r="J27" s="301">
         <v>1</v>
       </c>
-      <c r="K27" s="274"/>
+      <c r="K27" s="301"/>
       <c r="L27" s="88"/>
       <c r="M27" s="88"/>
-      <c r="N27" s="275"/>
-      <c r="O27" s="276"/>
+      <c r="N27" s="293"/>
+      <c r="O27" s="294"/>
       <c r="P27" s="83"/>
     </row>
     <row r="28" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23513,10 +23515,10 @@
       <c r="M28" s="85">
         <v>0.1226</v>
       </c>
-      <c r="N28" s="279">
+      <c r="N28" s="295">
         <v>0.34044000000000002</v>
       </c>
-      <c r="O28" s="280"/>
+      <c r="O28" s="296"/>
       <c r="P28" s="83"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
@@ -23532,16 +23534,16 @@
       <c r="G29" s="81">
         <v>0.13719000000000001</v>
       </c>
-      <c r="H29" s="273">
+      <c r="H29" s="297">
         <v>0.62792999999999999</v>
       </c>
-      <c r="I29" s="273"/>
+      <c r="I29" s="297"/>
       <c r="J29" s="81"/>
       <c r="K29" s="81"/>
       <c r="L29" s="81"/>
       <c r="M29" s="81"/>
-      <c r="N29" s="277"/>
-      <c r="O29" s="278"/>
+      <c r="N29" s="290"/>
+      <c r="O29" s="292"/>
       <c r="P29" s="83">
         <f>F29+G29+H29+L30+M30+N30+J33</f>
         <v>2.4474499999999999</v>
@@ -23569,10 +23571,10 @@
       <c r="M30" s="85">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="N30" s="279">
+      <c r="N30" s="295">
         <v>0.23748</v>
       </c>
-      <c r="O30" s="280"/>
+      <c r="O30" s="296"/>
       <c r="P30" s="83"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
@@ -23588,16 +23590,16 @@
       <c r="G31" s="81">
         <v>5.6059999999999999E-2</v>
       </c>
-      <c r="H31" s="273">
+      <c r="H31" s="297">
         <v>0.23462</v>
       </c>
-      <c r="I31" s="273"/>
+      <c r="I31" s="297"/>
       <c r="J31" s="81"/>
       <c r="K31" s="81"/>
       <c r="L31" s="81"/>
       <c r="M31" s="81"/>
-      <c r="N31" s="277"/>
-      <c r="O31" s="278"/>
+      <c r="N31" s="290"/>
+      <c r="O31" s="292"/>
       <c r="P31" s="83">
         <f>F31+G31+H31+L32+M32+N32+J33</f>
         <v>2.2090299999999998</v>
@@ -23622,10 +23624,10 @@
       <c r="M32" s="85">
         <v>0.11894</v>
       </c>
-      <c r="N32" s="279">
+      <c r="N32" s="295">
         <v>0.50244</v>
       </c>
-      <c r="O32" s="280"/>
+      <c r="O32" s="296"/>
       <c r="P32" s="83"/>
     </row>
     <row r="33" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23639,34 +23641,34 @@
       <c r="G33" s="94"/>
       <c r="H33" s="94"/>
       <c r="I33" s="94"/>
-      <c r="J33" s="281">
+      <c r="J33" s="298">
         <v>0.94696999999999998</v>
       </c>
-      <c r="K33" s="281"/>
+      <c r="K33" s="298"/>
       <c r="L33" s="94"/>
       <c r="M33" s="94"/>
-      <c r="N33" s="282"/>
-      <c r="O33" s="283"/>
+      <c r="N33" s="299"/>
+      <c r="O33" s="300"/>
       <c r="P33" s="83"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E34" s="80" t="s">
         <v>310</v>
       </c>
-      <c r="F34" s="273">
+      <c r="F34" s="297">
         <v>0.15762999999999999</v>
       </c>
-      <c r="G34" s="273"/>
-      <c r="H34" s="273">
+      <c r="G34" s="297"/>
+      <c r="H34" s="297">
         <v>0.36070000000000002</v>
       </c>
-      <c r="I34" s="273"/>
+      <c r="I34" s="297"/>
       <c r="J34" s="81"/>
       <c r="K34" s="81"/>
       <c r="L34" s="81"/>
       <c r="M34" s="81"/>
-      <c r="N34" s="277"/>
-      <c r="O34" s="278"/>
+      <c r="N34" s="290"/>
+      <c r="O34" s="292"/>
       <c r="P34" s="83">
         <f>F34+H34+J35+L36+N36</f>
         <v>1.8655399999999998</v>
@@ -23680,14 +23682,14 @@
       <c r="G35" s="88"/>
       <c r="H35" s="88"/>
       <c r="I35" s="88"/>
-      <c r="J35" s="274">
+      <c r="J35" s="301">
         <v>0.85</v>
       </c>
-      <c r="K35" s="274"/>
+      <c r="K35" s="301"/>
       <c r="L35" s="88"/>
       <c r="M35" s="88"/>
-      <c r="N35" s="275"/>
-      <c r="O35" s="276"/>
+      <c r="N35" s="293"/>
+      <c r="O35" s="294"/>
       <c r="P35" s="83"/>
     </row>
     <row r="36" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23707,10 +23709,10 @@
         <v>0.20784</v>
       </c>
       <c r="M36" s="85"/>
-      <c r="N36" s="279">
+      <c r="N36" s="295">
         <v>0.28937000000000002</v>
       </c>
-      <c r="O36" s="280"/>
+      <c r="O36" s="296"/>
       <c r="P36" s="83"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
@@ -23720,20 +23722,20 @@
       <c r="E37" s="80" t="s">
         <v>315</v>
       </c>
-      <c r="F37" s="273">
+      <c r="F37" s="297">
         <v>0.20368</v>
       </c>
-      <c r="G37" s="273"/>
-      <c r="H37" s="273">
+      <c r="G37" s="297"/>
+      <c r="H37" s="297">
         <v>0.33767000000000003</v>
       </c>
-      <c r="I37" s="273"/>
+      <c r="I37" s="297"/>
       <c r="J37" s="81"/>
       <c r="K37" s="81"/>
       <c r="L37" s="81"/>
       <c r="M37" s="81"/>
-      <c r="N37" s="277"/>
-      <c r="O37" s="278"/>
+      <c r="N37" s="290"/>
+      <c r="O37" s="292"/>
       <c r="P37" s="83">
         <f>F37+H37+J38+L39+L40+N40</f>
         <v>2.5172699999999999</v>
@@ -23750,14 +23752,14 @@
       <c r="G38" s="88"/>
       <c r="H38" s="88"/>
       <c r="I38" s="88"/>
-      <c r="J38" s="274">
+      <c r="J38" s="301">
         <v>0.89815999999999996</v>
       </c>
-      <c r="K38" s="274"/>
+      <c r="K38" s="301"/>
       <c r="L38" s="88"/>
       <c r="M38" s="88"/>
-      <c r="N38" s="275"/>
-      <c r="O38" s="276"/>
+      <c r="N38" s="293"/>
+      <c r="O38" s="294"/>
       <c r="P38" s="83"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
@@ -23777,8 +23779,8 @@
         <v>0.57364000000000004</v>
       </c>
       <c r="M39" s="88"/>
-      <c r="N39" s="275"/>
-      <c r="O39" s="276"/>
+      <c r="N39" s="293"/>
+      <c r="O39" s="294"/>
       <c r="P39" s="83"/>
     </row>
     <row r="40" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23798,10 +23800,10 @@
         <v>0.26422000000000001</v>
       </c>
       <c r="M40" s="85"/>
-      <c r="N40" s="279">
+      <c r="N40" s="295">
         <v>0.2399</v>
       </c>
-      <c r="O40" s="280"/>
+      <c r="O40" s="296"/>
       <c r="P40" s="83"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
@@ -23812,16 +23814,16 @@
         <v>0.34708</v>
       </c>
       <c r="G41" s="92"/>
-      <c r="H41" s="273">
+      <c r="H41" s="297">
         <v>0.20830000000000001</v>
       </c>
-      <c r="I41" s="273"/>
+      <c r="I41" s="297"/>
       <c r="J41" s="81"/>
       <c r="K41" s="81"/>
       <c r="L41" s="81"/>
       <c r="M41" s="81"/>
-      <c r="N41" s="277"/>
-      <c r="O41" s="278"/>
+      <c r="N41" s="290"/>
+      <c r="O41" s="292"/>
       <c r="P41" s="83">
         <f>F41+H41+J42+L43+L44+N44</f>
         <v>2.29189</v>
@@ -23835,14 +23837,14 @@
       <c r="G42" s="88"/>
       <c r="H42" s="88"/>
       <c r="I42" s="88"/>
-      <c r="J42" s="274">
+      <c r="J42" s="301">
         <v>0.52559999999999996</v>
       </c>
-      <c r="K42" s="274"/>
+      <c r="K42" s="301"/>
       <c r="L42" s="88"/>
       <c r="M42" s="88"/>
-      <c r="N42" s="275"/>
-      <c r="O42" s="276"/>
+      <c r="N42" s="293"/>
+      <c r="O42" s="294"/>
       <c r="P42" s="83"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
@@ -23860,8 +23862,8 @@
         <v>0.84328000000000003</v>
       </c>
       <c r="M43" s="88"/>
-      <c r="N43" s="275"/>
-      <c r="O43" s="276"/>
+      <c r="N43" s="293"/>
+      <c r="O43" s="294"/>
       <c r="P43" s="83"/>
     </row>
     <row r="44" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23881,10 +23883,10 @@
         <v>0.23543</v>
       </c>
       <c r="M44" s="85"/>
-      <c r="N44" s="279">
+      <c r="N44" s="295">
         <v>0.13220000000000001</v>
       </c>
-      <c r="O44" s="280"/>
+      <c r="O44" s="296"/>
       <c r="P44" s="83"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
@@ -23898,16 +23900,16 @@
         <v>0.47361999999999999</v>
       </c>
       <c r="G45" s="92"/>
-      <c r="H45" s="273">
+      <c r="H45" s="297">
         <v>0.28101999999999999</v>
       </c>
-      <c r="I45" s="273"/>
+      <c r="I45" s="297"/>
       <c r="J45" s="81"/>
       <c r="K45" s="81"/>
       <c r="L45" s="81"/>
       <c r="M45" s="81"/>
-      <c r="N45" s="277"/>
-      <c r="O45" s="278"/>
+      <c r="N45" s="290"/>
+      <c r="O45" s="292"/>
       <c r="P45" s="83">
         <f>F45+H45+L46+L47+N47+J51</f>
         <v>2.2079800000000001</v>
@@ -23927,8 +23929,8 @@
         <v>0.71950000000000003</v>
       </c>
       <c r="M46" s="88"/>
-      <c r="N46" s="275"/>
-      <c r="O46" s="276"/>
+      <c r="N46" s="293"/>
+      <c r="O46" s="294"/>
       <c r="P46" s="83"/>
     </row>
     <row r="47" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23948,10 +23950,10 @@
         <v>0.20451</v>
       </c>
       <c r="M47" s="85"/>
-      <c r="N47" s="279">
+      <c r="N47" s="295">
         <v>9.1600000000000001E-2</v>
       </c>
-      <c r="O47" s="280"/>
+      <c r="O47" s="296"/>
       <c r="P47" s="83"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
@@ -23965,16 +23967,16 @@
         <v>0.17321</v>
       </c>
       <c r="G48" s="92"/>
-      <c r="H48" s="273">
+      <c r="H48" s="297">
         <v>9.2929999999999999E-2</v>
       </c>
-      <c r="I48" s="273"/>
+      <c r="I48" s="297"/>
       <c r="J48" s="81"/>
       <c r="K48" s="81"/>
       <c r="L48" s="81"/>
       <c r="M48" s="81"/>
-      <c r="N48" s="277"/>
-      <c r="O48" s="278"/>
+      <c r="N48" s="290"/>
+      <c r="O48" s="292"/>
       <c r="P48" s="83">
         <f>F48+H48+L49+L50+N50+J51</f>
         <v>2.12704</v>
@@ -23997,8 +23999,8 @@
         <v>1</v>
       </c>
       <c r="M49" s="88"/>
-      <c r="N49" s="275"/>
-      <c r="O49" s="276"/>
+      <c r="N49" s="293"/>
+      <c r="O49" s="294"/>
       <c r="P49" s="83"/>
     </row>
     <row r="50" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24021,10 +24023,10 @@
         <v>0.26967000000000002</v>
       </c>
       <c r="M50" s="85"/>
-      <c r="N50" s="279">
+      <c r="N50" s="295">
         <v>0.1535</v>
       </c>
-      <c r="O50" s="280"/>
+      <c r="O50" s="296"/>
       <c r="P50" s="83"/>
     </row>
     <row r="51" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24038,14 +24040,14 @@
       <c r="G51" s="94"/>
       <c r="H51" s="94"/>
       <c r="I51" s="94"/>
-      <c r="J51" s="281">
+      <c r="J51" s="298">
         <v>0.43773000000000001</v>
       </c>
-      <c r="K51" s="281"/>
+      <c r="K51" s="298"/>
       <c r="L51" s="94"/>
       <c r="M51" s="94"/>
-      <c r="N51" s="282"/>
-      <c r="O51" s="283"/>
+      <c r="N51" s="299"/>
+      <c r="O51" s="300"/>
       <c r="P51" s="83"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
@@ -24062,16 +24064,16 @@
         <v>0.28996</v>
       </c>
       <c r="G52" s="92"/>
-      <c r="H52" s="273">
+      <c r="H52" s="297">
         <v>0.25344</v>
       </c>
-      <c r="I52" s="273"/>
+      <c r="I52" s="297"/>
       <c r="J52" s="81"/>
       <c r="K52" s="81"/>
       <c r="L52" s="81"/>
       <c r="M52" s="81"/>
-      <c r="N52" s="277"/>
-      <c r="O52" s="278"/>
+      <c r="N52" s="290"/>
+      <c r="O52" s="292"/>
       <c r="P52" s="83">
         <f>F52+H52+J53+L54+L55+N55</f>
         <v>2.0821799999999997</v>
@@ -24091,14 +24093,14 @@
       <c r="G53" s="88"/>
       <c r="H53" s="88"/>
       <c r="I53" s="88"/>
-      <c r="J53" s="274">
+      <c r="J53" s="301">
         <v>0.65949000000000002</v>
       </c>
-      <c r="K53" s="274"/>
+      <c r="K53" s="301"/>
       <c r="L53" s="88"/>
       <c r="M53" s="88"/>
-      <c r="N53" s="275"/>
-      <c r="O53" s="276"/>
+      <c r="N53" s="293"/>
+      <c r="O53" s="294"/>
       <c r="P53" s="83"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
@@ -24121,8 +24123,8 @@
         <v>0.56411</v>
       </c>
       <c r="M54" s="88"/>
-      <c r="N54" s="275"/>
-      <c r="O54" s="276"/>
+      <c r="N54" s="293"/>
+      <c r="O54" s="294"/>
       <c r="P54" s="83"/>
     </row>
     <row r="55" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24145,10 +24147,10 @@
         <v>0.14326</v>
       </c>
       <c r="M55" s="85"/>
-      <c r="N55" s="279">
+      <c r="N55" s="295">
         <v>0.17191999999999999</v>
       </c>
-      <c r="O55" s="280"/>
+      <c r="O55" s="296"/>
       <c r="P55" s="83"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
@@ -24171,8 +24173,8 @@
         <v>0.19162000000000001</v>
       </c>
       <c r="M56" s="81"/>
-      <c r="N56" s="277"/>
-      <c r="O56" s="278"/>
+      <c r="N56" s="290"/>
+      <c r="O56" s="292"/>
       <c r="P56" s="83">
         <f>L56+L57+L58+L59+N58+N59</f>
         <v>2.1837599999999999</v>
@@ -24195,8 +24197,8 @@
         <v>0.49523</v>
       </c>
       <c r="M57" s="88"/>
-      <c r="N57" s="275"/>
-      <c r="O57" s="276"/>
+      <c r="N57" s="293"/>
+      <c r="O57" s="294"/>
       <c r="P57" s="83"/>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
@@ -24216,10 +24218,10 @@
         <v>0.47439999999999999</v>
       </c>
       <c r="M58" s="88"/>
-      <c r="N58" s="275">
+      <c r="N58" s="293">
         <v>0.60697000000000001</v>
       </c>
-      <c r="O58" s="276"/>
+      <c r="O58" s="294"/>
       <c r="P58" s="83"/>
     </row>
     <row r="59" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24239,10 +24241,10 @@
         <v>0.16774</v>
       </c>
       <c r="M59" s="85"/>
-      <c r="N59" s="279">
+      <c r="N59" s="295">
         <v>0.24779999999999999</v>
       </c>
-      <c r="O59" s="280"/>
+      <c r="O59" s="296"/>
       <c r="P59" s="83"/>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
@@ -24256,14 +24258,14 @@
       <c r="G60" s="81"/>
       <c r="H60" s="81"/>
       <c r="I60" s="81"/>
-      <c r="J60" s="277">
+      <c r="J60" s="290">
         <v>0.45617999999999997</v>
       </c>
-      <c r="K60" s="286"/>
+      <c r="K60" s="291"/>
       <c r="L60" s="81"/>
       <c r="M60" s="81"/>
-      <c r="N60" s="277"/>
-      <c r="O60" s="278"/>
+      <c r="N60" s="290"/>
+      <c r="O60" s="292"/>
       <c r="P60" s="83">
         <f>J60+L62+N62+L63+L64+N64</f>
         <v>2.0612399999999997</v>
@@ -24286,10 +24288,10 @@
         <v>0.28649999999999998</v>
       </c>
       <c r="M61" s="88"/>
-      <c r="N61" s="275">
+      <c r="N61" s="293">
         <v>0.80176999999999998</v>
       </c>
-      <c r="O61" s="276"/>
+      <c r="O61" s="294"/>
       <c r="P61" s="83">
         <f>J60+L61+N61+L63+L64+N64</f>
         <v>2.4324300000000001</v>
@@ -24315,10 +24317,10 @@
         <v>0.20932000000000001</v>
       </c>
       <c r="M62" s="88"/>
-      <c r="N62" s="275">
+      <c r="N62" s="293">
         <v>0.50775999999999999</v>
       </c>
-      <c r="O62" s="276"/>
+      <c r="O62" s="294"/>
       <c r="P62" s="83"/>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
@@ -24338,8 +24340,8 @@
         <v>0.14599000000000001</v>
       </c>
       <c r="M63" s="88"/>
-      <c r="N63" s="275"/>
-      <c r="O63" s="276"/>
+      <c r="N63" s="293"/>
+      <c r="O63" s="294"/>
       <c r="P63" s="83"/>
     </row>
     <row r="64" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24359,10 +24361,10 @@
         <v>0.12414</v>
       </c>
       <c r="M64" s="85"/>
-      <c r="N64" s="279">
+      <c r="N64" s="295">
         <v>0.61785000000000001</v>
       </c>
-      <c r="O64" s="280"/>
+      <c r="O64" s="296"/>
       <c r="P64" s="83"/>
     </row>
     <row r="65" spans="3:17" x14ac:dyDescent="0.25">
@@ -24382,10 +24384,10 @@
         <v>0.23763000000000001</v>
       </c>
       <c r="M65" s="81"/>
-      <c r="N65" s="277">
+      <c r="N65" s="290">
         <v>1</v>
       </c>
-      <c r="O65" s="278"/>
+      <c r="O65" s="292"/>
       <c r="P65" s="83">
         <f>L65+N65+L66+L67+N67</f>
         <v>1.8703959999999999</v>
@@ -24409,8 +24411,8 @@
         <v>0.17316000000000001</v>
       </c>
       <c r="M66" s="88"/>
-      <c r="N66" s="275"/>
-      <c r="O66" s="276"/>
+      <c r="N66" s="293"/>
+      <c r="O66" s="294"/>
       <c r="P66" s="83"/>
       <c r="Q66" s="83"/>
     </row>
@@ -24431,10 +24433,10 @@
         <v>0.12317</v>
       </c>
       <c r="M67" s="85"/>
-      <c r="N67" s="279">
+      <c r="N67" s="295">
         <v>0.33643600000000001</v>
       </c>
-      <c r="O67" s="280"/>
+      <c r="O67" s="296"/>
       <c r="P67" s="83"/>
       <c r="Q67" s="83"/>
     </row>
@@ -24455,10 +24457,10 @@
         <v>0.20199</v>
       </c>
       <c r="M68" s="81"/>
-      <c r="N68" s="277">
+      <c r="N68" s="290">
         <v>0.85</v>
       </c>
-      <c r="O68" s="278"/>
+      <c r="O68" s="292"/>
       <c r="P68" s="83">
         <f>L68+N68+L69+L70+N70</f>
         <v>1.6197900000000001</v>
@@ -24481,8 +24483,8 @@
         <v>0.17718999999999999</v>
       </c>
       <c r="M69" s="88"/>
-      <c r="N69" s="275"/>
-      <c r="O69" s="276"/>
+      <c r="N69" s="293"/>
+      <c r="O69" s="294"/>
       <c r="P69" s="83"/>
     </row>
     <row r="70" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24502,26 +24504,79 @@
         <v>0.1047</v>
       </c>
       <c r="M70" s="100"/>
-      <c r="N70" s="284">
+      <c r="N70" s="288">
         <v>0.28591</v>
       </c>
-      <c r="O70" s="285"/>
+      <c r="O70" s="289"/>
       <c r="P70" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="N70:O70"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="N60:O60"/>
-    <mergeCell ref="N61:O61"/>
-    <mergeCell ref="N62:O62"/>
-    <mergeCell ref="N63:O63"/>
-    <mergeCell ref="N64:O64"/>
-    <mergeCell ref="N65:O65"/>
-    <mergeCell ref="N66:O66"/>
-    <mergeCell ref="N67:O67"/>
-    <mergeCell ref="N68:O68"/>
-    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="N46:O46"/>
     <mergeCell ref="H48:I48"/>
     <mergeCell ref="N48:O48"/>
     <mergeCell ref="N49:O49"/>
@@ -24538,71 +24593,18 @@
     <mergeCell ref="N57:O57"/>
     <mergeCell ref="N58:O58"/>
     <mergeCell ref="N50:O50"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="N69:O69"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:O70">
     <cfRule type="cellIs" dxfId="25" priority="1" operator="between">
@@ -24649,97 +24651,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="287">
+      <c r="A1" s="307">
         <v>0.34</v>
       </c>
-      <c r="B1" s="288"/>
-      <c r="C1" s="287">
+      <c r="B1" s="308"/>
+      <c r="C1" s="307">
         <v>0.245</v>
       </c>
-      <c r="D1" s="288"/>
-      <c r="E1" s="287">
+      <c r="D1" s="308"/>
+      <c r="E1" s="307">
         <v>0.125</v>
       </c>
-      <c r="F1" s="288"/>
-      <c r="G1" s="287">
+      <c r="F1" s="308"/>
+      <c r="G1" s="307">
         <v>0.29099999999999998</v>
       </c>
-      <c r="H1" s="288"/>
-      <c r="I1" s="287">
+      <c r="H1" s="308"/>
+      <c r="I1" s="307">
         <v>0.19</v>
       </c>
-      <c r="J1" s="288"/>
-      <c r="L1" s="287">
+      <c r="J1" s="308"/>
+      <c r="L1" s="307">
         <v>0.34</v>
       </c>
-      <c r="M1" s="288"/>
-      <c r="N1" s="287">
+      <c r="M1" s="308"/>
+      <c r="N1" s="307">
         <v>0.245</v>
       </c>
-      <c r="O1" s="288"/>
-      <c r="P1" s="287">
+      <c r="O1" s="308"/>
+      <c r="P1" s="307">
         <v>0.125</v>
       </c>
-      <c r="Q1" s="288"/>
-      <c r="R1" s="287">
+      <c r="Q1" s="308"/>
+      <c r="R1" s="307">
         <f>0.291*86/100</f>
         <v>0.25025999999999998</v>
       </c>
-      <c r="S1" s="288"/>
-      <c r="T1" s="287">
+      <c r="S1" s="308"/>
+      <c r="T1" s="307">
         <v>0.19</v>
       </c>
-      <c r="U1" s="288"/>
-      <c r="W1" s="289" t="s">
+      <c r="U1" s="308"/>
+      <c r="W1" s="306" t="s">
         <v>232</v>
       </c>
-      <c r="X1" s="289"/>
-      <c r="AC1" s="289" t="s">
+      <c r="X1" s="306"/>
+      <c r="AC1" s="306" t="s">
         <v>233</v>
       </c>
-      <c r="AD1" s="289"/>
+      <c r="AD1" s="306"/>
     </row>
     <row r="2" spans="1:44" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="269" t="s">
+      <c r="A2" s="303" t="s">
         <v>234</v>
       </c>
-      <c r="B2" s="269"/>
-      <c r="C2" s="269" t="s">
+      <c r="B2" s="303"/>
+      <c r="C2" s="303" t="s">
         <v>235</v>
       </c>
-      <c r="D2" s="269"/>
-      <c r="E2" s="269" t="s">
+      <c r="D2" s="303"/>
+      <c r="E2" s="303" t="s">
         <v>236</v>
       </c>
-      <c r="F2" s="269"/>
-      <c r="G2" s="269" t="s">
+      <c r="F2" s="303"/>
+      <c r="G2" s="303" t="s">
         <v>237</v>
       </c>
-      <c r="H2" s="269"/>
-      <c r="I2" s="269" t="s">
+      <c r="H2" s="303"/>
+      <c r="I2" s="303" t="s">
         <v>238</v>
       </c>
-      <c r="J2" s="269"/>
-      <c r="L2" s="269" t="s">
+      <c r="J2" s="303"/>
+      <c r="L2" s="303" t="s">
         <v>234</v>
       </c>
-      <c r="M2" s="269"/>
-      <c r="N2" s="269" t="s">
+      <c r="M2" s="303"/>
+      <c r="N2" s="303" t="s">
         <v>235</v>
       </c>
-      <c r="O2" s="269"/>
-      <c r="P2" s="269" t="s">
+      <c r="O2" s="303"/>
+      <c r="P2" s="303" t="s">
         <v>236</v>
       </c>
-      <c r="Q2" s="269"/>
-      <c r="R2" s="269" t="s">
+      <c r="Q2" s="303"/>
+      <c r="R2" s="303" t="s">
         <v>237</v>
       </c>
-      <c r="S2" s="269"/>
-      <c r="T2" s="269" t="s">
+      <c r="S2" s="303"/>
+      <c r="T2" s="303" t="s">
         <v>238</v>
       </c>
-      <c r="U2" s="269"/>
+      <c r="U2" s="303"/>
     </row>
     <row r="3" spans="1:44" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="79" t="s">
@@ -24748,36 +24750,36 @@
       <c r="B3" s="79" t="s">
         <v>240</v>
       </c>
-      <c r="C3" s="270"/>
-      <c r="D3" s="271"/>
-      <c r="E3" s="270"/>
-      <c r="F3" s="271"/>
+      <c r="C3" s="304"/>
+      <c r="D3" s="305"/>
+      <c r="E3" s="304"/>
+      <c r="F3" s="305"/>
       <c r="G3" s="79" t="s">
         <v>239</v>
       </c>
       <c r="H3" s="79" t="s">
         <v>240</v>
       </c>
-      <c r="I3" s="270"/>
-      <c r="J3" s="271"/>
+      <c r="I3" s="304"/>
+      <c r="J3" s="305"/>
       <c r="L3" s="79" t="s">
         <v>239</v>
       </c>
       <c r="M3" s="79" t="s">
         <v>240</v>
       </c>
-      <c r="N3" s="270"/>
-      <c r="O3" s="271"/>
-      <c r="P3" s="270"/>
-      <c r="Q3" s="271"/>
+      <c r="N3" s="304"/>
+      <c r="O3" s="305"/>
+      <c r="P3" s="304"/>
+      <c r="Q3" s="305"/>
       <c r="R3" s="79" t="s">
         <v>239</v>
       </c>
       <c r="S3" s="79" t="s">
         <v>240</v>
       </c>
-      <c r="T3" s="270"/>
-      <c r="U3" s="271"/>
+      <c r="T3" s="304"/>
+      <c r="U3" s="305"/>
       <c r="W3" t="s">
         <v>241</v>
       </c>
@@ -24786,14 +24788,14 @@
       </c>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A4" s="273">
+      <c r="A4" s="297">
         <v>0.64709000000000005</v>
       </c>
-      <c r="B4" s="273"/>
-      <c r="C4" s="273">
+      <c r="B4" s="297"/>
+      <c r="C4" s="297">
         <v>0.97192999999999996</v>
       </c>
-      <c r="D4" s="273"/>
+      <c r="D4" s="297"/>
       <c r="E4" s="81"/>
       <c r="F4" s="81"/>
       <c r="G4" s="81"/>
@@ -24803,14 +24805,14 @@
       <c r="K4" s="80" t="s">
         <v>243</v>
       </c>
-      <c r="L4" s="273">
+      <c r="L4" s="297">
         <v>0.64709000000000005</v>
       </c>
-      <c r="M4" s="273"/>
-      <c r="N4" s="273">
+      <c r="M4" s="297"/>
+      <c r="N4" s="297">
         <v>0.97192999999999996</v>
       </c>
-      <c r="O4" s="273"/>
+      <c r="O4" s="297"/>
       <c r="P4" s="81"/>
       <c r="Q4" s="81"/>
       <c r="R4" s="81"/>
@@ -24828,14 +24830,14 @@
       </c>
     </row>
     <row r="5" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="272">
+      <c r="A5" s="302">
         <v>0.26545000000000002</v>
       </c>
-      <c r="B5" s="272"/>
-      <c r="C5" s="272">
+      <c r="B5" s="302"/>
+      <c r="C5" s="302">
         <v>0.39895999999999998</v>
       </c>
-      <c r="D5" s="272"/>
+      <c r="D5" s="302"/>
       <c r="E5" s="85"/>
       <c r="F5" s="85"/>
       <c r="G5" s="85"/>
@@ -24845,14 +24847,14 @@
       <c r="K5" s="84" t="s">
         <v>246</v>
       </c>
-      <c r="L5" s="272">
+      <c r="L5" s="302">
         <v>0.26545000000000002</v>
       </c>
-      <c r="M5" s="272"/>
-      <c r="N5" s="272">
+      <c r="M5" s="302"/>
+      <c r="N5" s="302">
         <v>0.39895999999999998</v>
       </c>
-      <c r="O5" s="272"/>
+      <c r="O5" s="302"/>
       <c r="P5" s="85"/>
       <c r="Q5" s="85"/>
       <c r="R5" s="85"/>
@@ -24876,10 +24878,10 @@
       <c r="B6" s="81">
         <v>0.25008999999999998</v>
       </c>
-      <c r="C6" s="273">
+      <c r="C6" s="297">
         <v>1</v>
       </c>
-      <c r="D6" s="273"/>
+      <c r="D6" s="297"/>
       <c r="E6" s="81"/>
       <c r="F6" s="81"/>
       <c r="G6" s="81"/>
@@ -24895,10 +24897,10 @@
       <c r="M6" s="81">
         <v>0.25008999999999998</v>
       </c>
-      <c r="N6" s="273">
+      <c r="N6" s="297">
         <v>1</v>
       </c>
-      <c r="O6" s="273"/>
+      <c r="O6" s="297"/>
       <c r="P6" s="81"/>
       <c r="Q6" s="81"/>
       <c r="R6" s="81"/>
@@ -24911,10 +24913,10 @@
       <c r="B7" s="85"/>
       <c r="C7" s="85"/>
       <c r="D7" s="85"/>
-      <c r="E7" s="272">
+      <c r="E7" s="302">
         <v>0.27488000000000001</v>
       </c>
-      <c r="F7" s="272"/>
+      <c r="F7" s="302"/>
       <c r="G7" s="85"/>
       <c r="H7" s="85"/>
       <c r="I7" s="85"/>
@@ -24926,10 +24928,10 @@
       <c r="M7" s="85"/>
       <c r="N7" s="85"/>
       <c r="O7" s="85"/>
-      <c r="P7" s="272">
+      <c r="P7" s="302">
         <v>0.27488000000000001</v>
       </c>
-      <c r="Q7" s="272"/>
+      <c r="Q7" s="302"/>
       <c r="R7" s="85"/>
       <c r="S7" s="85"/>
       <c r="T7" s="85"/>
@@ -24948,10 +24950,10 @@
       <c r="B8" s="81">
         <v>0.17752000000000001</v>
       </c>
-      <c r="C8" s="273">
+      <c r="C8" s="297">
         <v>0.72296000000000005</v>
       </c>
-      <c r="D8" s="273"/>
+      <c r="D8" s="297"/>
       <c r="E8" s="81"/>
       <c r="F8" s="81"/>
       <c r="G8" s="81"/>
@@ -24967,10 +24969,10 @@
       <c r="M8" s="81">
         <v>0.17752000000000001</v>
       </c>
-      <c r="N8" s="273">
+      <c r="N8" s="297">
         <v>0.72296000000000005</v>
       </c>
-      <c r="O8" s="273"/>
+      <c r="O8" s="297"/>
       <c r="P8" s="81"/>
       <c r="Q8" s="81"/>
       <c r="R8" s="81"/>
@@ -24986,10 +24988,10 @@
       <c r="B9" s="85"/>
       <c r="C9" s="85"/>
       <c r="D9" s="85"/>
-      <c r="E9" s="272">
+      <c r="E9" s="302">
         <v>0.36337000000000003</v>
       </c>
-      <c r="F9" s="272"/>
+      <c r="F9" s="302"/>
       <c r="G9" s="85"/>
       <c r="H9" s="85"/>
       <c r="I9" s="85"/>
@@ -25001,11 +25003,11 @@
       <c r="M9" s="85"/>
       <c r="N9" s="85"/>
       <c r="O9" s="85"/>
-      <c r="P9" s="272">
+      <c r="P9" s="302">
         <f>36.337%*1.21</f>
         <v>0.4396777</v>
       </c>
-      <c r="Q9" s="272"/>
+      <c r="Q9" s="302"/>
       <c r="R9" s="85"/>
       <c r="S9" s="85"/>
       <c r="T9" s="85"/>
@@ -25019,10 +25021,10 @@
         <v>0.65615999999999997</v>
       </c>
       <c r="B10" s="81"/>
-      <c r="C10" s="273">
+      <c r="C10" s="297">
         <v>0.78437000000000001</v>
       </c>
-      <c r="D10" s="273"/>
+      <c r="D10" s="297"/>
       <c r="E10" s="81"/>
       <c r="F10" s="81"/>
       <c r="G10" s="81"/>
@@ -25037,11 +25039,11 @@
         <v>0.69552959999999997</v>
       </c>
       <c r="M10" s="81"/>
-      <c r="N10" s="273">
+      <c r="N10" s="297">
         <f>78.437%*(1-0.09)</f>
         <v>0.71377670000000004</v>
       </c>
-      <c r="O10" s="273"/>
+      <c r="O10" s="297"/>
       <c r="P10" s="81"/>
       <c r="Q10" s="81"/>
       <c r="R10" s="81"/>
@@ -25057,10 +25059,10 @@
       <c r="B11" s="88"/>
       <c r="C11" s="88"/>
       <c r="D11" s="88"/>
-      <c r="E11" s="274">
+      <c r="E11" s="301">
         <v>0.1464</v>
       </c>
-      <c r="F11" s="274"/>
+      <c r="F11" s="301"/>
       <c r="G11" s="88"/>
       <c r="H11" s="88"/>
       <c r="I11" s="88"/>
@@ -25072,10 +25074,10 @@
       <c r="M11" s="88"/>
       <c r="N11" s="88"/>
       <c r="O11" s="88"/>
-      <c r="P11" s="274">
+      <c r="P11" s="301">
         <v>0.1464</v>
       </c>
-      <c r="Q11" s="274"/>
+      <c r="Q11" s="301"/>
       <c r="R11" s="88"/>
       <c r="S11" s="88"/>
       <c r="T11" s="88"/>
@@ -25120,14 +25122,14 @@
       </c>
     </row>
     <row r="13" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A13" s="273">
+      <c r="A13" s="297">
         <v>0.42514999999999997</v>
       </c>
-      <c r="B13" s="273"/>
-      <c r="C13" s="273">
+      <c r="B13" s="297"/>
+      <c r="C13" s="297">
         <v>0.85</v>
       </c>
-      <c r="D13" s="273"/>
+      <c r="D13" s="297"/>
       <c r="E13" s="81"/>
       <c r="F13" s="81"/>
       <c r="G13" s="81"/>
@@ -25137,14 +25139,14 @@
       <c r="K13" s="80" t="s">
         <v>260</v>
       </c>
-      <c r="L13" s="273">
+      <c r="L13" s="297">
         <v>0.42514999999999997</v>
       </c>
-      <c r="M13" s="273"/>
-      <c r="N13" s="273">
+      <c r="M13" s="297"/>
+      <c r="N13" s="297">
         <v>0.85</v>
       </c>
-      <c r="O13" s="273"/>
+      <c r="O13" s="297"/>
       <c r="P13" s="81"/>
       <c r="Q13" s="81"/>
       <c r="R13" s="81"/>
@@ -25177,10 +25179,10 @@
       <c r="B14" s="85"/>
       <c r="C14" s="85"/>
       <c r="D14" s="85"/>
-      <c r="E14" s="272">
+      <c r="E14" s="302">
         <v>0.23365</v>
       </c>
-      <c r="F14" s="272"/>
+      <c r="F14" s="302"/>
       <c r="G14" s="85"/>
       <c r="H14" s="85"/>
       <c r="I14" s="85"/>
@@ -25192,10 +25194,10 @@
       <c r="M14" s="85"/>
       <c r="N14" s="85"/>
       <c r="O14" s="85"/>
-      <c r="P14" s="272">
+      <c r="P14" s="302">
         <v>0.23365</v>
       </c>
-      <c r="Q14" s="272"/>
+      <c r="Q14" s="302"/>
       <c r="R14" s="85"/>
       <c r="S14" s="85"/>
       <c r="T14" s="85"/>
@@ -25233,10 +25235,10 @@
         <v>1</v>
       </c>
       <c r="B15" s="92"/>
-      <c r="C15" s="273">
+      <c r="C15" s="297">
         <v>0.51382000000000005</v>
       </c>
-      <c r="D15" s="273"/>
+      <c r="D15" s="297"/>
       <c r="E15" s="81"/>
       <c r="F15" s="81"/>
       <c r="G15" s="81"/>
@@ -25250,10 +25252,10 @@
         <v>1</v>
       </c>
       <c r="M15" s="92"/>
-      <c r="N15" s="273">
+      <c r="N15" s="297">
         <v>0.51382000000000005</v>
       </c>
-      <c r="O15" s="273"/>
+      <c r="O15" s="297"/>
       <c r="P15" s="81"/>
       <c r="Q15" s="81"/>
       <c r="R15" s="81"/>
@@ -25301,10 +25303,10 @@
       <c r="B16" s="88"/>
       <c r="C16" s="88"/>
       <c r="D16" s="88"/>
-      <c r="E16" s="274">
+      <c r="E16" s="301">
         <v>4.3869999999999999E-2</v>
       </c>
-      <c r="F16" s="274"/>
+      <c r="F16" s="301"/>
       <c r="G16" s="88"/>
       <c r="H16" s="88"/>
       <c r="I16" s="88"/>
@@ -25316,10 +25318,10 @@
       <c r="M16" s="88"/>
       <c r="N16" s="88"/>
       <c r="O16" s="88"/>
-      <c r="P16" s="274">
+      <c r="P16" s="301">
         <v>4.3869999999999999E-2</v>
       </c>
-      <c r="Q16" s="274"/>
+      <c r="Q16" s="301"/>
       <c r="R16" s="88"/>
       <c r="S16" s="88"/>
       <c r="T16" s="88"/>
@@ -25400,10 +25402,10 @@
         <v>0.91232999999999997</v>
       </c>
       <c r="B18" s="92"/>
-      <c r="C18" s="273">
+      <c r="C18" s="297">
         <v>0.46146999999999999</v>
       </c>
-      <c r="D18" s="273"/>
+      <c r="D18" s="297"/>
       <c r="E18" s="81"/>
       <c r="F18" s="81"/>
       <c r="G18" s="81"/>
@@ -25417,11 +25419,11 @@
         <v>0.91232999999999997</v>
       </c>
       <c r="M18" s="92"/>
-      <c r="N18" s="273">
+      <c r="N18" s="297">
         <f>46.147%*(1-0.08)</f>
         <v>0.4245524</v>
       </c>
-      <c r="O18" s="273"/>
+      <c r="O18" s="297"/>
       <c r="P18" s="81"/>
       <c r="Q18" s="81"/>
       <c r="R18" s="81"/>
@@ -25440,10 +25442,10 @@
       <c r="B19" s="88"/>
       <c r="C19" s="88"/>
       <c r="D19" s="88"/>
-      <c r="E19" s="274">
+      <c r="E19" s="301">
         <v>0.15035999999999999</v>
       </c>
-      <c r="F19" s="274"/>
+      <c r="F19" s="301"/>
       <c r="G19" s="88"/>
       <c r="H19" s="88"/>
       <c r="I19" s="88"/>
@@ -25455,10 +25457,10 @@
       <c r="M19" s="88"/>
       <c r="N19" s="88"/>
       <c r="O19" s="88"/>
-      <c r="P19" s="274">
+      <c r="P19" s="301">
         <v>0.15035999999999999</v>
       </c>
-      <c r="Q19" s="274"/>
+      <c r="Q19" s="301"/>
       <c r="R19" s="88"/>
       <c r="S19" s="88"/>
       <c r="T19" s="88"/>
@@ -25528,10 +25530,10 @@
         <v>0.69059999999999999</v>
       </c>
       <c r="B21" s="92"/>
-      <c r="C21" s="273">
+      <c r="C21" s="297">
         <v>0.38878000000000001</v>
       </c>
-      <c r="D21" s="273"/>
+      <c r="D21" s="297"/>
       <c r="E21" s="81"/>
       <c r="F21" s="81"/>
       <c r="G21" s="81"/>
@@ -25545,10 +25547,10 @@
         <v>0.69059999999999999</v>
       </c>
       <c r="M21" s="92"/>
-      <c r="N21" s="273">
+      <c r="N21" s="297">
         <v>0.38878000000000001</v>
       </c>
-      <c r="O21" s="273"/>
+      <c r="O21" s="297"/>
       <c r="P21" s="81"/>
       <c r="Q21" s="81"/>
       <c r="R21" s="81"/>
@@ -25570,10 +25572,10 @@
       <c r="B22" s="88"/>
       <c r="C22" s="88"/>
       <c r="D22" s="88"/>
-      <c r="E22" s="274">
+      <c r="E22" s="301">
         <v>0.2099</v>
       </c>
-      <c r="F22" s="274"/>
+      <c r="F22" s="301"/>
       <c r="G22" s="88"/>
       <c r="H22" s="88"/>
       <c r="I22" s="88"/>
@@ -25585,10 +25587,10 @@
       <c r="M22" s="88"/>
       <c r="N22" s="88"/>
       <c r="O22" s="88"/>
-      <c r="P22" s="274">
+      <c r="P22" s="301">
         <v>0.2099</v>
       </c>
-      <c r="Q22" s="274"/>
+      <c r="Q22" s="301"/>
       <c r="R22" s="88"/>
       <c r="S22" s="88"/>
       <c r="T22" s="88"/>
@@ -25652,10 +25654,10 @@
         <v>0.68315000000000003</v>
       </c>
       <c r="B24" s="92"/>
-      <c r="C24" s="273">
+      <c r="C24" s="297">
         <v>0.70006000000000002</v>
       </c>
-      <c r="D24" s="273"/>
+      <c r="D24" s="297"/>
       <c r="E24" s="81"/>
       <c r="F24" s="81"/>
       <c r="G24" s="81"/>
@@ -25669,10 +25671,10 @@
         <v>0.68315000000000003</v>
       </c>
       <c r="M24" s="92"/>
-      <c r="N24" s="273">
+      <c r="N24" s="297">
         <v>0.70006000000000002</v>
       </c>
-      <c r="O24" s="273"/>
+      <c r="O24" s="297"/>
       <c r="P24" s="81"/>
       <c r="Q24" s="81"/>
       <c r="R24" s="81"/>
@@ -25697,10 +25699,10 @@
       <c r="B25" s="88"/>
       <c r="C25" s="88"/>
       <c r="D25" s="88"/>
-      <c r="E25" s="274">
+      <c r="E25" s="301">
         <v>0.152</v>
       </c>
-      <c r="F25" s="274"/>
+      <c r="F25" s="301"/>
       <c r="G25" s="88"/>
       <c r="H25" s="88"/>
       <c r="I25" s="88"/>
@@ -25712,10 +25714,10 @@
       <c r="M25" s="88"/>
       <c r="N25" s="88"/>
       <c r="O25" s="88"/>
-      <c r="P25" s="274">
+      <c r="P25" s="301">
         <v>0.152</v>
       </c>
-      <c r="Q25" s="274"/>
+      <c r="Q25" s="301"/>
       <c r="R25" s="88"/>
       <c r="S25" s="88"/>
       <c r="T25" s="88"/>
@@ -25778,16 +25780,16 @@
       <c r="B27" s="81">
         <v>9.2719999999999997E-2</v>
       </c>
-      <c r="C27" s="273">
+      <c r="C27" s="297">
         <v>0.42459999999999998</v>
       </c>
-      <c r="D27" s="273"/>
+      <c r="D27" s="297"/>
       <c r="E27" s="81"/>
       <c r="F27" s="81"/>
       <c r="G27" s="81"/>
       <c r="H27" s="81"/>
-      <c r="I27" s="277"/>
-      <c r="J27" s="278"/>
+      <c r="I27" s="290"/>
+      <c r="J27" s="292"/>
       <c r="K27" s="80" t="s">
         <v>292</v>
       </c>
@@ -25797,16 +25799,16 @@
       <c r="M27" s="81">
         <v>9.2719999999999997E-2</v>
       </c>
-      <c r="N27" s="273">
+      <c r="N27" s="297">
         <v>0.42459999999999998</v>
       </c>
-      <c r="O27" s="273"/>
+      <c r="O27" s="297"/>
       <c r="P27" s="81"/>
       <c r="Q27" s="81"/>
       <c r="R27" s="81"/>
       <c r="S27" s="81"/>
-      <c r="T27" s="277"/>
-      <c r="U27" s="278"/>
+      <c r="T27" s="290"/>
+      <c r="U27" s="292"/>
       <c r="W27" t="s">
         <v>415</v>
       </c>
@@ -25822,14 +25824,14 @@
       <c r="B28" s="88"/>
       <c r="C28" s="88"/>
       <c r="D28" s="88"/>
-      <c r="E28" s="274">
+      <c r="E28" s="301">
         <v>1</v>
       </c>
-      <c r="F28" s="274"/>
+      <c r="F28" s="301"/>
       <c r="G28" s="88"/>
       <c r="H28" s="88"/>
-      <c r="I28" s="275"/>
-      <c r="J28" s="276"/>
+      <c r="I28" s="293"/>
+      <c r="J28" s="294"/>
       <c r="K28" s="87" t="s">
         <v>295</v>
       </c>
@@ -25837,14 +25839,14 @@
       <c r="M28" s="88"/>
       <c r="N28" s="88"/>
       <c r="O28" s="88"/>
-      <c r="P28" s="274">
+      <c r="P28" s="301">
         <v>1</v>
       </c>
-      <c r="Q28" s="274"/>
+      <c r="Q28" s="301"/>
       <c r="R28" s="88"/>
       <c r="S28" s="88"/>
-      <c r="T28" s="275"/>
-      <c r="U28" s="276"/>
+      <c r="T28" s="293"/>
+      <c r="U28" s="294"/>
       <c r="W28" t="s">
         <v>418</v>
       </c>
@@ -25874,10 +25876,10 @@
       <c r="Q29" s="90"/>
       <c r="R29" s="85"/>
       <c r="S29" s="85"/>
-      <c r="T29" s="279">
+      <c r="T29" s="295">
         <v>0.21</v>
       </c>
-      <c r="U29" s="280"/>
+      <c r="U29" s="296"/>
       <c r="W29" t="s">
         <v>420</v>
       </c>
@@ -25898,10 +25900,10 @@
       <c r="H30" s="85">
         <v>0.1226</v>
       </c>
-      <c r="I30" s="279">
+      <c r="I30" s="295">
         <v>0.34044000000000002</v>
       </c>
-      <c r="J30" s="280"/>
+      <c r="J30" s="296"/>
       <c r="K30" s="84" t="s">
         <v>298</v>
       </c>
@@ -25917,11 +25919,11 @@
       <c r="S30" s="85">
         <v>0.14255813953488372</v>
       </c>
-      <c r="T30" s="279">
+      <c r="T30" s="295">
         <f>34.044%*1.05</f>
         <v>0.357462</v>
       </c>
-      <c r="U30" s="280"/>
+      <c r="U30" s="296"/>
       <c r="W30" t="s">
         <v>422</v>
       </c>
@@ -25942,16 +25944,16 @@
       <c r="B31" s="81">
         <v>0.13719000000000001</v>
       </c>
-      <c r="C31" s="273">
+      <c r="C31" s="297">
         <v>0.62792999999999999</v>
       </c>
-      <c r="D31" s="273"/>
+      <c r="D31" s="297"/>
       <c r="E31" s="81"/>
       <c r="F31" s="81"/>
       <c r="G31" s="81"/>
       <c r="H31" s="81"/>
-      <c r="I31" s="277"/>
-      <c r="J31" s="278"/>
+      <c r="I31" s="290"/>
+      <c r="J31" s="292"/>
       <c r="K31" s="80" t="s">
         <v>300</v>
       </c>
@@ -25961,16 +25963,16 @@
       <c r="M31" s="81">
         <v>0.13719000000000001</v>
       </c>
-      <c r="N31" s="273">
+      <c r="N31" s="297">
         <v>0.62792999999999999</v>
       </c>
-      <c r="O31" s="273"/>
+      <c r="O31" s="297"/>
       <c r="P31" s="81"/>
       <c r="Q31" s="81"/>
       <c r="R31" s="81"/>
       <c r="S31" s="81"/>
-      <c r="T31" s="277"/>
-      <c r="U31" s="278"/>
+      <c r="T31" s="290"/>
+      <c r="U31" s="292"/>
       <c r="W31" t="s">
         <v>426</v>
       </c>
@@ -26006,10 +26008,10 @@
       <c r="Q32" s="103"/>
       <c r="R32" s="103"/>
       <c r="S32" s="103"/>
-      <c r="T32" s="279">
+      <c r="T32" s="295">
         <v>0.12</v>
       </c>
-      <c r="U32" s="280"/>
+      <c r="U32" s="296"/>
       <c r="W32" t="s">
         <v>430</v>
       </c>
@@ -26036,10 +26038,10 @@
       <c r="H33" s="85">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="I33" s="279">
+      <c r="I33" s="295">
         <v>0.23748</v>
       </c>
-      <c r="J33" s="280"/>
+      <c r="J33" s="296"/>
       <c r="K33" s="84" t="s">
         <v>303</v>
       </c>
@@ -26055,11 +26057,11 @@
       <c r="S33" s="85">
         <v>6.8837209302325592E-2</v>
       </c>
-      <c r="T33" s="279">
+      <c r="T33" s="295">
         <f>23.748%*0.8</f>
         <v>0.18998400000000004</v>
       </c>
-      <c r="U33" s="280"/>
+      <c r="U33" s="296"/>
       <c r="W33" t="s">
         <v>434</v>
       </c>
@@ -26080,16 +26082,16 @@
       <c r="B34" s="81">
         <v>5.6059999999999999E-2</v>
       </c>
-      <c r="C34" s="273">
+      <c r="C34" s="297">
         <v>0.23462</v>
       </c>
-      <c r="D34" s="273"/>
+      <c r="D34" s="297"/>
       <c r="E34" s="81"/>
       <c r="F34" s="81"/>
       <c r="G34" s="81"/>
       <c r="H34" s="81"/>
-      <c r="I34" s="277"/>
-      <c r="J34" s="278"/>
+      <c r="I34" s="290"/>
+      <c r="J34" s="292"/>
       <c r="K34" s="80" t="s">
         <v>305</v>
       </c>
@@ -26101,17 +26103,17 @@
         <f>5.606%*0.75</f>
         <v>4.2044999999999999E-2</v>
       </c>
-      <c r="N34" s="273">
+      <c r="N34" s="297">
         <f>23.462%*0.75</f>
         <v>0.17596499999999998</v>
       </c>
-      <c r="O34" s="273"/>
+      <c r="O34" s="297"/>
       <c r="P34" s="81"/>
       <c r="Q34" s="81"/>
       <c r="R34" s="81"/>
       <c r="S34" s="81"/>
-      <c r="T34" s="277"/>
-      <c r="U34" s="278"/>
+      <c r="T34" s="290"/>
+      <c r="U34" s="292"/>
       <c r="W34" t="s">
         <v>438</v>
       </c>
@@ -26147,10 +26149,10 @@
       <c r="Q35" s="103"/>
       <c r="R35" s="103"/>
       <c r="S35" s="103"/>
-      <c r="T35" s="279">
+      <c r="T35" s="295">
         <v>0.31</v>
       </c>
-      <c r="U35" s="280"/>
+      <c r="U35" s="296"/>
       <c r="W35" t="s">
         <v>442</v>
       </c>
@@ -26171,10 +26173,10 @@
       <c r="H36" s="85">
         <v>0.11894</v>
       </c>
-      <c r="I36" s="279">
+      <c r="I36" s="295">
         <v>0.50244</v>
       </c>
-      <c r="J36" s="280"/>
+      <c r="J36" s="296"/>
       <c r="K36" s="84" t="s">
         <v>307</v>
       </c>
@@ -26190,11 +26192,11 @@
       <c r="S36" s="85">
         <v>0.13830232558139535</v>
       </c>
-      <c r="T36" s="279">
+      <c r="T36" s="295">
         <f>50.244%*1.05</f>
         <v>0.52756199999999998</v>
       </c>
-      <c r="U36" s="280"/>
+      <c r="U36" s="296"/>
       <c r="AC36" t="s">
         <v>444</v>
       </c>
@@ -26204,14 +26206,14 @@
       <c r="B37" s="94"/>
       <c r="C37" s="94"/>
       <c r="D37" s="94"/>
-      <c r="E37" s="281">
+      <c r="E37" s="298">
         <v>0.94696999999999998</v>
       </c>
-      <c r="F37" s="281"/>
+      <c r="F37" s="298"/>
       <c r="G37" s="94"/>
       <c r="H37" s="94"/>
-      <c r="I37" s="282"/>
-      <c r="J37" s="283"/>
+      <c r="I37" s="299"/>
+      <c r="J37" s="300"/>
       <c r="K37" s="93" t="s">
         <v>309</v>
       </c>
@@ -26219,54 +26221,54 @@
       <c r="M37" s="94"/>
       <c r="N37" s="94"/>
       <c r="O37" s="94"/>
-      <c r="P37" s="281">
+      <c r="P37" s="298">
         <v>0.94696999999999998</v>
       </c>
-      <c r="Q37" s="281"/>
+      <c r="Q37" s="298"/>
       <c r="R37" s="94"/>
       <c r="S37" s="94"/>
-      <c r="T37" s="282"/>
-      <c r="U37" s="283"/>
-      <c r="W37" s="289" t="s">
+      <c r="T37" s="299"/>
+      <c r="U37" s="300"/>
+      <c r="W37" s="306" t="s">
         <v>261</v>
       </c>
-      <c r="X37" s="289"/>
+      <c r="X37" s="306"/>
       <c r="AC37" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="38" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A38" s="273">
+      <c r="A38" s="297">
         <v>0.15762999999999999</v>
       </c>
-      <c r="B38" s="273"/>
-      <c r="C38" s="273">
+      <c r="B38" s="297"/>
+      <c r="C38" s="297">
         <v>0.36070000000000002</v>
       </c>
-      <c r="D38" s="273"/>
+      <c r="D38" s="297"/>
       <c r="E38" s="81"/>
       <c r="F38" s="81"/>
       <c r="G38" s="81"/>
       <c r="H38" s="81"/>
-      <c r="I38" s="277"/>
-      <c r="J38" s="278"/>
+      <c r="I38" s="290"/>
+      <c r="J38" s="292"/>
       <c r="K38" s="80" t="s">
         <v>310</v>
       </c>
-      <c r="L38" s="273">
+      <c r="L38" s="297">
         <v>0.15762999999999999</v>
       </c>
-      <c r="M38" s="273"/>
-      <c r="N38" s="273">
+      <c r="M38" s="297"/>
+      <c r="N38" s="297">
         <v>0.36070000000000002</v>
       </c>
-      <c r="O38" s="273"/>
+      <c r="O38" s="297"/>
       <c r="P38" s="81"/>
       <c r="Q38" s="81"/>
       <c r="R38" s="81"/>
       <c r="S38" s="81"/>
-      <c r="T38" s="277"/>
-      <c r="U38" s="278"/>
+      <c r="T38" s="290"/>
+      <c r="U38" s="292"/>
       <c r="AC38" t="s">
         <v>446</v>
       </c>
@@ -26276,14 +26278,14 @@
       <c r="B39" s="88"/>
       <c r="C39" s="88"/>
       <c r="D39" s="88"/>
-      <c r="E39" s="274">
+      <c r="E39" s="301">
         <v>0.85</v>
       </c>
-      <c r="F39" s="274"/>
+      <c r="F39" s="301"/>
       <c r="G39" s="88"/>
       <c r="H39" s="88"/>
-      <c r="I39" s="275"/>
-      <c r="J39" s="276"/>
+      <c r="I39" s="293"/>
+      <c r="J39" s="294"/>
       <c r="K39" s="87" t="s">
         <v>311</v>
       </c>
@@ -26291,14 +26293,14 @@
       <c r="M39" s="88"/>
       <c r="N39" s="88"/>
       <c r="O39" s="88"/>
-      <c r="P39" s="274">
+      <c r="P39" s="301">
         <v>0.85</v>
       </c>
-      <c r="Q39" s="274"/>
+      <c r="Q39" s="301"/>
       <c r="R39" s="88"/>
       <c r="S39" s="88"/>
-      <c r="T39" s="275"/>
-      <c r="U39" s="276"/>
+      <c r="T39" s="293"/>
+      <c r="U39" s="294"/>
       <c r="W39" t="s">
         <v>241</v>
       </c>
@@ -26317,10 +26319,10 @@
         <v>0.20784</v>
       </c>
       <c r="H40" s="85"/>
-      <c r="I40" s="279">
+      <c r="I40" s="295">
         <v>0.28937000000000002</v>
       </c>
-      <c r="J40" s="280"/>
+      <c r="J40" s="296"/>
       <c r="K40" s="84" t="s">
         <v>313</v>
       </c>
@@ -26334,10 +26336,10 @@
         <v>0.24167441860465114</v>
       </c>
       <c r="S40" s="85"/>
-      <c r="T40" s="279">
+      <c r="T40" s="295">
         <v>0.28937000000000002</v>
       </c>
-      <c r="U40" s="280"/>
+      <c r="U40" s="296"/>
       <c r="W40" t="s">
         <v>244</v>
       </c>
@@ -26346,37 +26348,37 @@
       </c>
     </row>
     <row r="41" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A41" s="273">
+      <c r="A41" s="297">
         <v>0.20368</v>
       </c>
-      <c r="B41" s="273"/>
-      <c r="C41" s="273">
+      <c r="B41" s="297"/>
+      <c r="C41" s="297">
         <v>0.33767000000000003</v>
       </c>
-      <c r="D41" s="273"/>
+      <c r="D41" s="297"/>
       <c r="E41" s="81"/>
       <c r="F41" s="81"/>
       <c r="G41" s="81"/>
       <c r="H41" s="81"/>
-      <c r="I41" s="277"/>
-      <c r="J41" s="278"/>
+      <c r="I41" s="290"/>
+      <c r="J41" s="292"/>
       <c r="K41" s="80" t="s">
         <v>315</v>
       </c>
-      <c r="L41" s="273">
+      <c r="L41" s="297">
         <v>0.20368</v>
       </c>
-      <c r="M41" s="273"/>
-      <c r="N41" s="273">
+      <c r="M41" s="297"/>
+      <c r="N41" s="297">
         <v>0.33767000000000003</v>
       </c>
-      <c r="O41" s="273"/>
+      <c r="O41" s="297"/>
       <c r="P41" s="81"/>
       <c r="Q41" s="81"/>
       <c r="R41" s="81"/>
       <c r="S41" s="81"/>
-      <c r="T41" s="277"/>
-      <c r="U41" s="278"/>
+      <c r="T41" s="290"/>
+      <c r="U41" s="292"/>
       <c r="W41" t="s">
         <v>247</v>
       </c>
@@ -26389,14 +26391,14 @@
       <c r="B42" s="88"/>
       <c r="C42" s="88"/>
       <c r="D42" s="88"/>
-      <c r="E42" s="274">
+      <c r="E42" s="301">
         <v>0.89815999999999996</v>
       </c>
-      <c r="F42" s="274"/>
+      <c r="F42" s="301"/>
       <c r="G42" s="88"/>
       <c r="H42" s="88"/>
-      <c r="I42" s="275"/>
-      <c r="J42" s="276"/>
+      <c r="I42" s="293"/>
+      <c r="J42" s="294"/>
       <c r="K42" s="87" t="s">
         <v>317</v>
       </c>
@@ -26404,14 +26406,14 @@
       <c r="M42" s="88"/>
       <c r="N42" s="88"/>
       <c r="O42" s="88"/>
-      <c r="P42" s="274">
+      <c r="P42" s="301">
         <v>0.89815999999999996</v>
       </c>
-      <c r="Q42" s="274"/>
+      <c r="Q42" s="301"/>
       <c r="R42" s="88"/>
       <c r="S42" s="88"/>
-      <c r="T42" s="275"/>
-      <c r="U42" s="276"/>
+      <c r="T42" s="293"/>
+      <c r="U42" s="294"/>
       <c r="AC42" t="s">
         <v>450</v>
       </c>
@@ -26427,8 +26429,8 @@
         <v>0.57364000000000004</v>
       </c>
       <c r="H43" s="88"/>
-      <c r="I43" s="275"/>
-      <c r="J43" s="276"/>
+      <c r="I43" s="293"/>
+      <c r="J43" s="294"/>
       <c r="K43" s="87" t="s">
         <v>319</v>
       </c>
@@ -26442,8 +26444,8 @@
         <v>0.6670232558139535</v>
       </c>
       <c r="S43" s="88"/>
-      <c r="T43" s="275"/>
-      <c r="U43" s="276"/>
+      <c r="T43" s="293"/>
+      <c r="U43" s="294"/>
       <c r="W43" t="s">
         <v>256</v>
       </c>
@@ -26462,10 +26464,10 @@
         <v>0.26422000000000001</v>
       </c>
       <c r="H44" s="85"/>
-      <c r="I44" s="279">
+      <c r="I44" s="295">
         <v>0.2399</v>
       </c>
-      <c r="J44" s="280"/>
+      <c r="J44" s="296"/>
       <c r="K44" s="84" t="s">
         <v>321</v>
       </c>
@@ -26479,11 +26481,11 @@
         <v>0.30723255813953487</v>
       </c>
       <c r="S44" s="85"/>
-      <c r="T44" s="279">
+      <c r="T44" s="295">
         <f>23.99%*1.06</f>
         <v>0.25429399999999996</v>
       </c>
-      <c r="U44" s="280"/>
+      <c r="U44" s="296"/>
       <c r="W44" t="s">
         <v>258</v>
       </c>
@@ -26496,16 +26498,16 @@
         <v>0.34708</v>
       </c>
       <c r="B45" s="92"/>
-      <c r="C45" s="273">
+      <c r="C45" s="297">
         <v>0.20830000000000001</v>
       </c>
-      <c r="D45" s="273"/>
+      <c r="D45" s="297"/>
       <c r="E45" s="81"/>
       <c r="F45" s="81"/>
       <c r="G45" s="81"/>
       <c r="H45" s="81"/>
-      <c r="I45" s="277"/>
-      <c r="J45" s="278"/>
+      <c r="I45" s="290"/>
+      <c r="J45" s="292"/>
       <c r="K45" s="80" t="s">
         <v>322</v>
       </c>
@@ -26513,16 +26515,16 @@
         <v>0.34708</v>
       </c>
       <c r="M45" s="92"/>
-      <c r="N45" s="273">
+      <c r="N45" s="297">
         <v>0.20830000000000001</v>
       </c>
-      <c r="O45" s="273"/>
+      <c r="O45" s="297"/>
       <c r="P45" s="81"/>
       <c r="Q45" s="81"/>
       <c r="R45" s="81"/>
       <c r="S45" s="81"/>
-      <c r="T45" s="277"/>
-      <c r="U45" s="278"/>
+      <c r="T45" s="290"/>
+      <c r="U45" s="292"/>
       <c r="AC45" t="s">
         <v>453</v>
       </c>
@@ -26532,14 +26534,14 @@
       <c r="B46" s="88"/>
       <c r="C46" s="88"/>
       <c r="D46" s="88"/>
-      <c r="E46" s="274">
+      <c r="E46" s="301">
         <v>0.52559999999999996</v>
       </c>
-      <c r="F46" s="274"/>
+      <c r="F46" s="301"/>
       <c r="G46" s="88"/>
       <c r="H46" s="88"/>
-      <c r="I46" s="275"/>
-      <c r="J46" s="276"/>
+      <c r="I46" s="293"/>
+      <c r="J46" s="294"/>
       <c r="K46" s="87" t="s">
         <v>323</v>
       </c>
@@ -26547,14 +26549,14 @@
       <c r="M46" s="88"/>
       <c r="N46" s="88"/>
       <c r="O46" s="88"/>
-      <c r="P46" s="274">
+      <c r="P46" s="301">
         <v>0.52559999999999996</v>
       </c>
-      <c r="Q46" s="274"/>
+      <c r="Q46" s="301"/>
       <c r="R46" s="88"/>
       <c r="S46" s="88"/>
-      <c r="T46" s="275"/>
-      <c r="U46" s="276"/>
+      <c r="T46" s="293"/>
+      <c r="U46" s="294"/>
       <c r="W46" t="s">
         <v>373</v>
       </c>
@@ -26573,8 +26575,8 @@
         <v>0.84328000000000003</v>
       </c>
       <c r="H47" s="88"/>
-      <c r="I47" s="275"/>
-      <c r="J47" s="276"/>
+      <c r="I47" s="293"/>
+      <c r="J47" s="294"/>
       <c r="K47" s="87" t="s">
         <v>324</v>
       </c>
@@ -26588,8 +26590,8 @@
         <v>0.85308558139534874</v>
       </c>
       <c r="S47" s="88"/>
-      <c r="T47" s="275"/>
-      <c r="U47" s="276"/>
+      <c r="T47" s="293"/>
+      <c r="U47" s="294"/>
     </row>
     <row r="48" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="85"/>
@@ -26602,10 +26604,10 @@
         <v>0.23543</v>
       </c>
       <c r="H48" s="85"/>
-      <c r="I48" s="279">
+      <c r="I48" s="295">
         <v>0.13220000000000001</v>
       </c>
-      <c r="J48" s="280"/>
+      <c r="J48" s="296"/>
       <c r="K48" s="84" t="s">
         <v>326</v>
       </c>
@@ -26619,11 +26621,11 @@
         <v>0.27375581395348836</v>
       </c>
       <c r="S48" s="85"/>
-      <c r="T48" s="279">
+      <c r="T48" s="295">
         <f>13.22%*1.16</f>
         <v>0.15335200000000002</v>
       </c>
-      <c r="U48" s="280"/>
+      <c r="U48" s="296"/>
       <c r="W48" t="s">
         <v>455</v>
       </c>
@@ -26636,14 +26638,14 @@
       <c r="B49" s="94"/>
       <c r="C49" s="94"/>
       <c r="D49" s="94"/>
-      <c r="E49" s="281">
+      <c r="E49" s="298">
         <v>0.43773000000000001</v>
       </c>
-      <c r="F49" s="281"/>
+      <c r="F49" s="298"/>
       <c r="G49" s="94"/>
       <c r="H49" s="94"/>
-      <c r="I49" s="282"/>
-      <c r="J49" s="283"/>
+      <c r="I49" s="299"/>
+      <c r="J49" s="300"/>
       <c r="K49" s="93" t="s">
         <v>367</v>
       </c>
@@ -26651,14 +26653,14 @@
       <c r="M49" s="94"/>
       <c r="N49" s="94"/>
       <c r="O49" s="94"/>
-      <c r="P49" s="281">
+      <c r="P49" s="298">
         <v>0.43773000000000001</v>
       </c>
-      <c r="Q49" s="281"/>
+      <c r="Q49" s="298"/>
       <c r="R49" s="94"/>
       <c r="S49" s="94"/>
-      <c r="T49" s="282"/>
-      <c r="U49" s="283"/>
+      <c r="T49" s="299"/>
+      <c r="U49" s="300"/>
       <c r="V49" s="40"/>
       <c r="W49" t="s">
         <v>457</v>
@@ -26669,16 +26671,16 @@
         <v>0.47361999999999999</v>
       </c>
       <c r="B50" s="92"/>
-      <c r="C50" s="273">
+      <c r="C50" s="297">
         <v>0.28101999999999999</v>
       </c>
-      <c r="D50" s="273"/>
+      <c r="D50" s="297"/>
       <c r="E50" s="81"/>
       <c r="F50" s="81"/>
       <c r="G50" s="81"/>
       <c r="H50" s="81"/>
-      <c r="I50" s="277"/>
-      <c r="J50" s="278"/>
+      <c r="I50" s="290"/>
+      <c r="J50" s="292"/>
       <c r="K50" s="80" t="s">
         <v>328</v>
       </c>
@@ -26686,23 +26688,23 @@
         <v>0.47361999999999999</v>
       </c>
       <c r="M50" s="92"/>
-      <c r="N50" s="273">
+      <c r="N50" s="297">
         <v>0.28101999999999999</v>
       </c>
-      <c r="O50" s="273"/>
+      <c r="O50" s="297"/>
       <c r="P50" s="81"/>
       <c r="Q50" s="81"/>
       <c r="R50" s="81"/>
       <c r="S50" s="81"/>
-      <c r="T50" s="277"/>
-      <c r="U50" s="278"/>
+      <c r="T50" s="290"/>
+      <c r="U50" s="292"/>
       <c r="W50" t="s">
         <v>458</v>
       </c>
-      <c r="AC50" s="289" t="s">
+      <c r="AC50" s="306" t="s">
         <v>251</v>
       </c>
-      <c r="AD50" s="289"/>
+      <c r="AD50" s="306"/>
     </row>
     <row r="51" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A51" s="88"/>
@@ -26715,8 +26717,8 @@
         <v>0.71950000000000003</v>
       </c>
       <c r="H51" s="88"/>
-      <c r="I51" s="275"/>
-      <c r="J51" s="276"/>
+      <c r="I51" s="293"/>
+      <c r="J51" s="294"/>
       <c r="K51" s="87" t="s">
         <v>329</v>
       </c>
@@ -26730,8 +26732,8 @@
         <v>0.66930232558139535</v>
       </c>
       <c r="S51" s="88"/>
-      <c r="T51" s="275"/>
-      <c r="U51" s="276"/>
+      <c r="T51" s="293"/>
+      <c r="U51" s="294"/>
       <c r="W51" t="s">
         <v>459</v>
       </c>
@@ -26747,10 +26749,10 @@
         <v>0.20451</v>
       </c>
       <c r="H52" s="85"/>
-      <c r="I52" s="279">
+      <c r="I52" s="295">
         <v>9.1600000000000001E-2</v>
       </c>
-      <c r="J52" s="280"/>
+      <c r="J52" s="296"/>
       <c r="K52" s="84" t="s">
         <v>331</v>
       </c>
@@ -26764,10 +26766,10 @@
         <v>0.23780232558139536</v>
       </c>
       <c r="S52" s="85"/>
-      <c r="T52" s="279">
+      <c r="T52" s="295">
         <v>9.1600000000000001E-2</v>
       </c>
-      <c r="U52" s="280"/>
+      <c r="U52" s="296"/>
       <c r="W52" t="s">
         <v>460</v>
       </c>
@@ -26780,16 +26782,16 @@
         <v>0.17321</v>
       </c>
       <c r="B53" s="92"/>
-      <c r="C53" s="273">
+      <c r="C53" s="297">
         <v>9.2929999999999999E-2</v>
       </c>
-      <c r="D53" s="273"/>
+      <c r="D53" s="297"/>
       <c r="E53" s="81"/>
       <c r="F53" s="81"/>
       <c r="G53" s="81"/>
       <c r="H53" s="81"/>
-      <c r="I53" s="277"/>
-      <c r="J53" s="278"/>
+      <c r="I53" s="290"/>
+      <c r="J53" s="292"/>
       <c r="K53" s="80" t="s">
         <v>333</v>
       </c>
@@ -26797,17 +26799,17 @@
         <v>0.17321</v>
       </c>
       <c r="M53" s="92"/>
-      <c r="N53" s="273">
+      <c r="N53" s="297">
         <f>9.293%*0.8</f>
         <v>7.4344000000000007E-2</v>
       </c>
-      <c r="O53" s="273"/>
+      <c r="O53" s="297"/>
       <c r="P53" s="81"/>
       <c r="Q53" s="81"/>
       <c r="R53" s="81"/>
       <c r="S53" s="81"/>
-      <c r="T53" s="277"/>
-      <c r="U53" s="278"/>
+      <c r="T53" s="290"/>
+      <c r="U53" s="292"/>
       <c r="W53" t="s">
         <v>461</v>
       </c>
@@ -26826,8 +26828,8 @@
         <v>1</v>
       </c>
       <c r="H54" s="88"/>
-      <c r="I54" s="275"/>
-      <c r="J54" s="276"/>
+      <c r="I54" s="293"/>
+      <c r="J54" s="294"/>
       <c r="K54" s="87" t="s">
         <v>335</v>
       </c>
@@ -26841,8 +26843,8 @@
         <v>1</v>
       </c>
       <c r="S54" s="88"/>
-      <c r="T54" s="275"/>
-      <c r="U54" s="276"/>
+      <c r="T54" s="293"/>
+      <c r="U54" s="294"/>
       <c r="W54" t="s">
         <v>462</v>
       </c>
@@ -26861,10 +26863,10 @@
         <v>0.26967000000000002</v>
       </c>
       <c r="H55" s="85"/>
-      <c r="I55" s="279">
+      <c r="I55" s="295">
         <v>0.1535</v>
       </c>
-      <c r="J55" s="280"/>
+      <c r="J55" s="296"/>
       <c r="K55" s="84" t="s">
         <v>337</v>
       </c>
@@ -26878,10 +26880,10 @@
         <v>0.31356976744186049</v>
       </c>
       <c r="S55" s="85"/>
-      <c r="T55" s="279">
+      <c r="T55" s="295">
         <v>0.1535</v>
       </c>
-      <c r="U55" s="280"/>
+      <c r="U55" s="296"/>
       <c r="V55" s="40"/>
       <c r="W55" t="s">
         <v>463</v>
@@ -26892,14 +26894,14 @@
       <c r="B56" s="94"/>
       <c r="C56" s="94"/>
       <c r="D56" s="94"/>
-      <c r="E56" s="281">
+      <c r="E56" s="298">
         <v>0.43773000000000001</v>
       </c>
-      <c r="F56" s="281"/>
+      <c r="F56" s="298"/>
       <c r="G56" s="94"/>
       <c r="H56" s="94"/>
-      <c r="I56" s="282"/>
-      <c r="J56" s="283"/>
+      <c r="I56" s="299"/>
+      <c r="J56" s="300"/>
       <c r="K56" s="93" t="s">
         <v>368</v>
       </c>
@@ -26907,15 +26909,15 @@
       <c r="M56" s="94"/>
       <c r="N56" s="94"/>
       <c r="O56" s="94"/>
-      <c r="P56" s="281">
+      <c r="P56" s="298">
         <f>43.773%*0.8</f>
         <v>0.35018400000000005</v>
       </c>
-      <c r="Q56" s="281"/>
+      <c r="Q56" s="298"/>
       <c r="R56" s="94"/>
       <c r="S56" s="94"/>
-      <c r="T56" s="282"/>
-      <c r="U56" s="283"/>
+      <c r="T56" s="299"/>
+      <c r="U56" s="300"/>
       <c r="V56" s="40"/>
       <c r="W56" t="s">
         <v>464</v>
@@ -26929,16 +26931,16 @@
         <v>0.28996</v>
       </c>
       <c r="B57" s="92"/>
-      <c r="C57" s="273">
+      <c r="C57" s="297">
         <v>0.25344</v>
       </c>
-      <c r="D57" s="273"/>
+      <c r="D57" s="297"/>
       <c r="E57" s="81"/>
       <c r="F57" s="81"/>
       <c r="G57" s="81"/>
       <c r="H57" s="81"/>
-      <c r="I57" s="277"/>
-      <c r="J57" s="278"/>
+      <c r="I57" s="290"/>
+      <c r="J57" s="292"/>
       <c r="K57" s="80" t="s">
         <v>340</v>
       </c>
@@ -26946,16 +26948,16 @@
         <v>0.28996</v>
       </c>
       <c r="M57" s="92"/>
-      <c r="N57" s="273">
+      <c r="N57" s="297">
         <v>0.25344</v>
       </c>
-      <c r="O57" s="273"/>
+      <c r="O57" s="297"/>
       <c r="P57" s="81"/>
       <c r="Q57" s="81"/>
       <c r="R57" s="81"/>
       <c r="S57" s="81"/>
-      <c r="T57" s="277"/>
-      <c r="U57" s="278"/>
+      <c r="T57" s="290"/>
+      <c r="U57" s="292"/>
       <c r="V57" s="40"/>
       <c r="W57" t="s">
         <v>466</v>
@@ -26966,14 +26968,14 @@
       <c r="B58" s="88"/>
       <c r="C58" s="88"/>
       <c r="D58" s="88"/>
-      <c r="E58" s="274">
+      <c r="E58" s="301">
         <v>0.65949000000000002</v>
       </c>
-      <c r="F58" s="274"/>
+      <c r="F58" s="301"/>
       <c r="G58" s="88"/>
       <c r="H58" s="88"/>
-      <c r="I58" s="275"/>
-      <c r="J58" s="276"/>
+      <c r="I58" s="293"/>
+      <c r="J58" s="294"/>
       <c r="K58" s="87" t="s">
         <v>342</v>
       </c>
@@ -26981,15 +26983,15 @@
       <c r="M58" s="88"/>
       <c r="N58" s="88"/>
       <c r="O58" s="88"/>
-      <c r="P58" s="274">
+      <c r="P58" s="301">
         <f>65.949%*1.1</f>
         <v>0.72543900000000006</v>
       </c>
-      <c r="Q58" s="274"/>
+      <c r="Q58" s="301"/>
       <c r="R58" s="88"/>
       <c r="S58" s="88"/>
-      <c r="T58" s="275"/>
-      <c r="U58" s="276"/>
+      <c r="T58" s="293"/>
+      <c r="U58" s="294"/>
       <c r="V58" s="40"/>
       <c r="W58" t="s">
         <v>467</v>
@@ -27009,8 +27011,8 @@
         <v>0.56411</v>
       </c>
       <c r="H59" s="88"/>
-      <c r="I59" s="275"/>
-      <c r="J59" s="276"/>
+      <c r="I59" s="293"/>
+      <c r="J59" s="294"/>
       <c r="K59" s="87" t="s">
         <v>344</v>
       </c>
@@ -27024,8 +27026,8 @@
         <v>0.70185779069767451</v>
       </c>
       <c r="S59" s="88"/>
-      <c r="T59" s="275"/>
-      <c r="U59" s="276"/>
+      <c r="T59" s="293"/>
+      <c r="U59" s="294"/>
       <c r="V59" s="40"/>
       <c r="W59" t="s">
         <v>468</v>
@@ -27042,10 +27044,10 @@
         <v>0.14326</v>
       </c>
       <c r="H60" s="85"/>
-      <c r="I60" s="279">
+      <c r="I60" s="295">
         <v>0.17191999999999999</v>
       </c>
-      <c r="J60" s="280"/>
+      <c r="J60" s="296"/>
       <c r="K60" s="84" t="s">
         <v>346</v>
       </c>
@@ -27059,11 +27061,11 @@
         <v>0.2082267441860465</v>
       </c>
       <c r="S60" s="85"/>
-      <c r="T60" s="279">
+      <c r="T60" s="295">
         <f>17.192%</f>
         <v>0.17191999999999999</v>
       </c>
-      <c r="U60" s="280"/>
+      <c r="U60" s="296"/>
       <c r="V60" s="40"/>
       <c r="W60" t="s">
         <v>469</v>
@@ -27083,8 +27085,8 @@
         <v>0.19162000000000001</v>
       </c>
       <c r="H61" s="81"/>
-      <c r="I61" s="277"/>
-      <c r="J61" s="278"/>
+      <c r="I61" s="290"/>
+      <c r="J61" s="292"/>
       <c r="K61" s="80" t="s">
         <v>348</v>
       </c>
@@ -27098,8 +27100,8 @@
         <v>0.22281395348837213</v>
       </c>
       <c r="S61" s="81"/>
-      <c r="T61" s="277"/>
-      <c r="U61" s="278"/>
+      <c r="T61" s="290"/>
+      <c r="U61" s="292"/>
       <c r="V61" s="40"/>
       <c r="W61" t="s">
         <v>471</v>
@@ -27119,8 +27121,8 @@
         <v>0.49523</v>
       </c>
       <c r="H62" s="88"/>
-      <c r="I62" s="275"/>
-      <c r="J62" s="276"/>
+      <c r="I62" s="293"/>
+      <c r="J62" s="294"/>
       <c r="K62" s="87" t="s">
         <v>349</v>
       </c>
@@ -27134,8 +27136,8 @@
         <v>0.57584883720930236</v>
       </c>
       <c r="S62" s="88"/>
-      <c r="T62" s="275"/>
-      <c r="U62" s="276"/>
+      <c r="T62" s="293"/>
+      <c r="U62" s="294"/>
       <c r="V62" s="40"/>
       <c r="W62" t="s">
         <v>473</v>
@@ -27162,10 +27164,10 @@
       <c r="M63" s="88"/>
       <c r="N63" s="88"/>
       <c r="O63" s="88"/>
-      <c r="P63" s="277">
+      <c r="P63" s="290">
         <v>0.15</v>
       </c>
-      <c r="Q63" s="286"/>
+      <c r="Q63" s="291"/>
       <c r="R63" s="88"/>
       <c r="S63" s="88"/>
       <c r="T63" s="108"/>
@@ -27189,10 +27191,10 @@
         <v>0.47439999999999999</v>
       </c>
       <c r="H64" s="88"/>
-      <c r="I64" s="275">
+      <c r="I64" s="293">
         <v>0.60697000000000001</v>
       </c>
-      <c r="J64" s="276"/>
+      <c r="J64" s="294"/>
       <c r="K64" s="87" t="s">
         <v>350</v>
       </c>
@@ -27206,10 +27208,10 @@
         <v>0.55162790697674413</v>
       </c>
       <c r="S64" s="88"/>
-      <c r="T64" s="275">
+      <c r="T64" s="293">
         <v>0.60697000000000001</v>
       </c>
-      <c r="U64" s="276"/>
+      <c r="U64" s="294"/>
       <c r="V64" s="40"/>
       <c r="W64" t="s">
         <v>477</v>
@@ -27229,10 +27231,10 @@
         <v>0.16774</v>
       </c>
       <c r="H65" s="85"/>
-      <c r="I65" s="279">
+      <c r="I65" s="295">
         <v>0.24779999999999999</v>
       </c>
-      <c r="J65" s="280"/>
+      <c r="J65" s="296"/>
       <c r="K65" s="84" t="s">
         <v>351</v>
       </c>
@@ -27246,10 +27248,10 @@
         <v>0.19504651162790698</v>
       </c>
       <c r="S65" s="85"/>
-      <c r="T65" s="279">
+      <c r="T65" s="295">
         <v>0.24779999999999999</v>
       </c>
-      <c r="U65" s="280"/>
+      <c r="U65" s="296"/>
       <c r="V65" s="40"/>
       <c r="W65" t="s">
         <v>479</v>
@@ -27263,14 +27265,14 @@
       <c r="B66" s="81"/>
       <c r="C66" s="81"/>
       <c r="D66" s="81"/>
-      <c r="E66" s="277">
+      <c r="E66" s="290">
         <v>0.45617999999999997</v>
       </c>
-      <c r="F66" s="286"/>
+      <c r="F66" s="291"/>
       <c r="G66" s="81"/>
       <c r="H66" s="81"/>
-      <c r="I66" s="277"/>
-      <c r="J66" s="278"/>
+      <c r="I66" s="290"/>
+      <c r="J66" s="292"/>
       <c r="K66" s="80" t="s">
         <v>352</v>
       </c>
@@ -27278,14 +27280,14 @@
       <c r="M66" s="81"/>
       <c r="N66" s="81"/>
       <c r="O66" s="81"/>
-      <c r="P66" s="277">
+      <c r="P66" s="290">
         <v>0.45617999999999997</v>
       </c>
-      <c r="Q66" s="286"/>
+      <c r="Q66" s="291"/>
       <c r="R66" s="81"/>
       <c r="S66" s="81"/>
-      <c r="T66" s="277"/>
-      <c r="U66" s="278"/>
+      <c r="T66" s="290"/>
+      <c r="U66" s="292"/>
       <c r="V66" s="40"/>
       <c r="W66" t="s">
         <v>481</v>
@@ -27305,10 +27307,10 @@
         <v>0.28649999999999998</v>
       </c>
       <c r="H67" s="88"/>
-      <c r="I67" s="275">
+      <c r="I67" s="293">
         <v>0.80176999999999998</v>
       </c>
-      <c r="J67" s="276"/>
+      <c r="J67" s="294"/>
       <c r="K67" s="87" t="s">
         <v>353</v>
       </c>
@@ -27322,10 +27324,10 @@
         <v>0.33313953488372089</v>
       </c>
       <c r="S67" s="88"/>
-      <c r="T67" s="275">
+      <c r="T67" s="293">
         <v>0.50800000000000001</v>
       </c>
-      <c r="U67" s="276"/>
+      <c r="U67" s="294"/>
       <c r="V67" s="40"/>
       <c r="AC67" t="s">
         <v>483</v>
@@ -27342,10 +27344,10 @@
         <v>0.20932000000000001</v>
       </c>
       <c r="H68" s="88"/>
-      <c r="I68" s="275">
+      <c r="I68" s="293">
         <v>0.50775999999999999</v>
       </c>
-      <c r="J68" s="276"/>
+      <c r="J68" s="294"/>
       <c r="K68" s="87" t="s">
         <v>355</v>
       </c>
@@ -27359,10 +27361,10 @@
         <v>0.24339534883720934</v>
       </c>
       <c r="S68" s="88"/>
-      <c r="T68" s="275">
+      <c r="T68" s="293">
         <v>0.50775999999999999</v>
       </c>
-      <c r="U68" s="276"/>
+      <c r="U68" s="294"/>
       <c r="V68" s="40"/>
       <c r="AC68" t="s">
         <v>484</v>
@@ -27379,8 +27381,8 @@
         <v>0.14599000000000001</v>
       </c>
       <c r="H69" s="88"/>
-      <c r="I69" s="275"/>
-      <c r="J69" s="276"/>
+      <c r="I69" s="293"/>
+      <c r="J69" s="294"/>
       <c r="K69" s="87" t="s">
         <v>356</v>
       </c>
@@ -27394,13 +27396,13 @@
         <v>0.16975581395348838</v>
       </c>
       <c r="S69" s="88"/>
-      <c r="T69" s="275"/>
-      <c r="U69" s="276"/>
+      <c r="T69" s="293"/>
+      <c r="U69" s="294"/>
       <c r="V69" s="40"/>
-      <c r="W69" s="289" t="s">
+      <c r="W69" s="306" t="s">
         <v>236</v>
       </c>
-      <c r="X69" s="289"/>
+      <c r="X69" s="306"/>
       <c r="AC69" t="s">
         <v>485</v>
       </c>
@@ -27416,10 +27418,10 @@
         <v>0.12414</v>
       </c>
       <c r="H70" s="85"/>
-      <c r="I70" s="279">
+      <c r="I70" s="295">
         <v>0.61785000000000001</v>
       </c>
-      <c r="J70" s="280"/>
+      <c r="J70" s="296"/>
       <c r="K70" s="84" t="s">
         <v>357</v>
       </c>
@@ -27433,10 +27435,10 @@
         <v>0.14434883720930233</v>
       </c>
       <c r="S70" s="85"/>
-      <c r="T70" s="279">
+      <c r="T70" s="295">
         <v>0.61785000000000001</v>
       </c>
-      <c r="U70" s="280"/>
+      <c r="U70" s="296"/>
       <c r="V70" s="40"/>
       <c r="AC70" t="s">
         <v>486</v>
@@ -27453,10 +27455,10 @@
         <v>0.23763000000000001</v>
       </c>
       <c r="H71" s="81"/>
-      <c r="I71" s="277">
+      <c r="I71" s="290">
         <v>1</v>
       </c>
-      <c r="J71" s="278"/>
+      <c r="J71" s="292"/>
       <c r="K71" s="80" t="s">
         <v>358</v>
       </c>
@@ -27470,10 +27472,10 @@
         <v>0.27631395348837212</v>
       </c>
       <c r="S71" s="81"/>
-      <c r="T71" s="277">
+      <c r="T71" s="290">
         <v>1</v>
       </c>
-      <c r="U71" s="278"/>
+      <c r="U71" s="292"/>
       <c r="V71" s="40"/>
       <c r="W71" t="s">
         <v>282</v>
@@ -27500,10 +27502,10 @@
       <c r="M72" s="110"/>
       <c r="N72" s="110"/>
       <c r="O72" s="110"/>
-      <c r="P72" s="277">
+      <c r="P72" s="290">
         <v>0.25</v>
       </c>
-      <c r="Q72" s="286"/>
+      <c r="Q72" s="291"/>
       <c r="R72" s="110"/>
       <c r="S72" s="110"/>
       <c r="T72" s="111"/>
@@ -27527,8 +27529,8 @@
         <v>0.17316000000000001</v>
       </c>
       <c r="H73" s="88"/>
-      <c r="I73" s="275"/>
-      <c r="J73" s="276"/>
+      <c r="I73" s="293"/>
+      <c r="J73" s="294"/>
       <c r="K73" s="87" t="s">
         <v>359</v>
       </c>
@@ -27542,8 +27544,8 @@
         <v>0.20134883720930236</v>
       </c>
       <c r="S73" s="88"/>
-      <c r="T73" s="275"/>
-      <c r="U73" s="276"/>
+      <c r="T73" s="293"/>
+      <c r="U73" s="294"/>
       <c r="V73" s="40"/>
       <c r="W73" t="s">
         <v>288</v>
@@ -27563,10 +27565,10 @@
         <v>0.12317</v>
       </c>
       <c r="H74" s="85"/>
-      <c r="I74" s="279">
+      <c r="I74" s="295">
         <v>0.33643600000000001</v>
       </c>
-      <c r="J74" s="280"/>
+      <c r="J74" s="296"/>
       <c r="K74" s="84" t="s">
         <v>360</v>
       </c>
@@ -27580,10 +27582,10 @@
         <v>0.14322093023255814</v>
       </c>
       <c r="S74" s="85"/>
-      <c r="T74" s="279">
+      <c r="T74" s="295">
         <v>0.33643600000000001</v>
       </c>
-      <c r="U74" s="280"/>
+      <c r="U74" s="296"/>
       <c r="V74" s="40"/>
       <c r="AC74" t="s">
         <v>490</v>
@@ -27600,10 +27602,10 @@
         <v>0.20199</v>
       </c>
       <c r="H75" s="81"/>
-      <c r="I75" s="277">
+      <c r="I75" s="290">
         <v>0.85</v>
       </c>
-      <c r="J75" s="278"/>
+      <c r="J75" s="292"/>
       <c r="K75" s="80" t="s">
         <v>361</v>
       </c>
@@ -27617,10 +27619,10 @@
         <v>0.23487209302325585</v>
       </c>
       <c r="S75" s="81"/>
-      <c r="T75" s="277">
+      <c r="T75" s="290">
         <v>0.85</v>
       </c>
-      <c r="U75" s="278"/>
+      <c r="U75" s="292"/>
       <c r="V75" s="40"/>
       <c r="W75" t="s">
         <v>293</v>
@@ -27640,8 +27642,8 @@
         <v>0.17718999999999999</v>
       </c>
       <c r="H76" s="88"/>
-      <c r="I76" s="275"/>
-      <c r="J76" s="276"/>
+      <c r="I76" s="293"/>
+      <c r="J76" s="294"/>
       <c r="K76" s="87" t="s">
         <v>362</v>
       </c>
@@ -27655,8 +27657,8 @@
         <v>0.20603488372093021</v>
       </c>
       <c r="S76" s="88"/>
-      <c r="T76" s="275"/>
-      <c r="U76" s="276"/>
+      <c r="T76" s="293"/>
+      <c r="U76" s="294"/>
       <c r="V76" s="40"/>
       <c r="W76" t="s">
         <v>296</v>
@@ -27676,10 +27678,10 @@
         <v>0.1047</v>
       </c>
       <c r="H77" s="100"/>
-      <c r="I77" s="284">
+      <c r="I77" s="288">
         <v>0.28591</v>
       </c>
-      <c r="J77" s="285"/>
+      <c r="J77" s="289"/>
       <c r="K77" s="99" t="s">
         <v>363</v>
       </c>
@@ -27693,10 +27695,10 @@
         <v>0.12174418604651163</v>
       </c>
       <c r="S77" s="100"/>
-      <c r="T77" s="284">
+      <c r="T77" s="288">
         <v>0.28591</v>
       </c>
-      <c r="U77" s="285"/>
+      <c r="U77" s="289"/>
       <c r="V77" s="40"/>
       <c r="AC77" t="s">
         <v>493</v>
@@ -27797,6 +27799,192 @@
     </row>
   </sheetData>
   <mergeCells count="210">
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="T45:U45"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="T48:U48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="T46:U46"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="T47:U47"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="T53:U53"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="T51:U51"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="T57:U57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="T58:U58"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="T54:U54"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="T55:U55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="T56:U56"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="T66:U66"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="T67:U67"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="T62:U62"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="T64:U64"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="T65:U65"/>
+    <mergeCell ref="I77:J77"/>
+    <mergeCell ref="T77:U77"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="T71:U71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="I73:J73"/>
+    <mergeCell ref="T73:U73"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="T74:U74"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="W37:X37"/>
@@ -27821,192 +28009,6 @@
     <mergeCell ref="I52:J52"/>
     <mergeCell ref="T52:U52"/>
     <mergeCell ref="I48:J48"/>
-    <mergeCell ref="I77:J77"/>
-    <mergeCell ref="T77:U77"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="T71:U71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="I73:J73"/>
-    <mergeCell ref="T73:U73"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="T74:U74"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="T66:U66"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="T67:U67"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="T62:U62"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="T64:U64"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="T65:U65"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="T57:U57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="T58:U58"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="T54:U54"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="T55:U55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="T56:U56"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="T53:U53"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="T50:U50"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="T51:U51"/>
-    <mergeCell ref="T48:U48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="T46:U46"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="T47:U47"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="T45:U45"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="T42:U42"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="T43:U43"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="T41:U41"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="T39:U39"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="T40:U40"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="T36:U36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:J48 A50:J77">
     <cfRule type="cellIs" dxfId="21" priority="13" operator="between">
@@ -28142,17 +28144,17 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="290" t="s">
+      <c r="B4" s="309" t="s">
         <v>515</v>
       </c>
-      <c r="C4" s="290"/>
+      <c r="C4" s="309"/>
       <c r="D4" s="130" t="s">
         <v>516</v>
       </c>
-      <c r="G4" s="290" t="s">
+      <c r="G4" s="309" t="s">
         <v>517</v>
       </c>
-      <c r="H4" s="290"/>
+      <c r="H4" s="309"/>
       <c r="I4" s="130" t="s">
         <v>516</v>
       </c>
@@ -65487,7 +65489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF2DEE30-8361-4B23-81A4-4BC27B8D56F0}">
   <dimension ref="A1:AC30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
@@ -65599,13 +65601,13 @@
       <c r="H2" s="233" t="s">
         <v>1204</v>
       </c>
-      <c r="J2" s="291"/>
-      <c r="K2" s="292"/>
-      <c r="L2" s="291" t="s">
+      <c r="J2" s="251"/>
+      <c r="K2" s="252"/>
+      <c r="L2" s="251" t="s">
         <v>1205</v>
       </c>
-      <c r="M2" s="291"/>
-      <c r="N2" s="291"/>
+      <c r="M2" s="251"/>
+      <c r="N2" s="251"/>
       <c r="O2" s="237"/>
       <c r="P2" s="245" t="s">
         <v>1172</v>
@@ -65619,10 +65621,10 @@
       <c r="S2" s="245" t="s">
         <v>1173</v>
       </c>
-      <c r="T2" s="296" t="s">
+      <c r="T2" s="256" t="s">
         <v>1218</v>
       </c>
-      <c r="U2" s="306" t="s">
+      <c r="U2" s="266" t="s">
         <v>1219</v>
       </c>
       <c r="V2" s="246" t="s">
@@ -65631,22 +65633,22 @@
       <c r="W2" s="246" t="s">
         <v>1222</v>
       </c>
-      <c r="X2" s="298" t="s">
+      <c r="X2" s="258" t="s">
         <v>1223</v>
       </c>
-      <c r="Y2" s="306" t="s">
+      <c r="Y2" s="266" t="s">
         <v>1224</v>
       </c>
-      <c r="Z2" s="298" t="s">
+      <c r="Z2" s="258" t="s">
         <v>1225</v>
       </c>
-      <c r="AA2" s="306" t="s">
+      <c r="AA2" s="266" t="s">
         <v>1226</v>
       </c>
-      <c r="AB2" s="298" t="s">
+      <c r="AB2" s="258" t="s">
         <v>1227</v>
       </c>
-      <c r="AC2" s="306" t="s">
+      <c r="AC2" s="266" t="s">
         <v>1228</v>
       </c>
     </row>
@@ -65675,19 +65677,19 @@
       <c r="H3" s="236">
         <v>0.45</v>
       </c>
-      <c r="J3" s="291" t="s">
+      <c r="J3" s="251" t="s">
         <v>1205</v>
       </c>
-      <c r="K3" s="291" t="s">
+      <c r="K3" s="251" t="s">
         <v>1205</v>
       </c>
-      <c r="L3" s="291" t="s">
+      <c r="L3" s="251" t="s">
         <v>1205</v>
       </c>
-      <c r="M3" s="291" t="s">
+      <c r="M3" s="251" t="s">
         <v>1205</v>
       </c>
-      <c r="N3" s="291" t="s">
+      <c r="N3" s="251" t="s">
         <v>1205</v>
       </c>
       <c r="O3" s="237"/>
@@ -65703,11 +65705,11 @@
       <c r="S3" s="238" t="s">
         <v>1207</v>
       </c>
-      <c r="T3" s="297">
+      <c r="T3" s="257">
         <f>COUNTIF(J2:N3,"IMP")</f>
         <v>0</v>
       </c>
-      <c r="U3" s="307">
+      <c r="U3" s="267">
         <f>COUNTIF(J7:N8,"IMP")</f>
         <v>0</v>
       </c>
@@ -65719,27 +65721,27 @@
         <f>V3*$H$1/$V$1</f>
         <v>0</v>
       </c>
-      <c r="X3" s="299">
+      <c r="X3" s="259">
         <f>IF(W3=0,0,IF(U3=0,W3*T3/Q3,W3*T3/(Q3*2)))</f>
         <v>0</v>
       </c>
-      <c r="Y3" s="308">
+      <c r="Y3" s="268">
         <f>IF(W3=0,0,IF(T3=0,W3*U3/Q3,W3*U3/(Q3*2)))</f>
         <v>0</v>
       </c>
-      <c r="Z3" s="300">
+      <c r="Z3" s="260">
         <f>$L$16</f>
         <v>0.56999999999999995</v>
       </c>
-      <c r="AA3" s="309">
+      <c r="AA3" s="269">
         <f>$M$16</f>
         <v>0.56999999999999995</v>
       </c>
-      <c r="AB3" s="299">
+      <c r="AB3" s="259">
         <f>Z3*X3</f>
         <v>0</v>
       </c>
-      <c r="AC3" s="308">
+      <c r="AC3" s="268">
         <f>AA3*Y3</f>
         <v>0</v>
       </c>
@@ -65769,19 +65771,19 @@
       <c r="H4" s="236">
         <v>0.35</v>
       </c>
-      <c r="J4" s="291" t="s">
+      <c r="J4" s="251" t="s">
         <v>1206</v>
       </c>
-      <c r="K4" s="291" t="s">
+      <c r="K4" s="251" t="s">
         <v>1205</v>
       </c>
-      <c r="L4" s="291" t="s">
+      <c r="L4" s="251" t="s">
         <v>1206</v>
       </c>
-      <c r="M4" s="291" t="s">
+      <c r="M4" s="251" t="s">
         <v>1205</v>
       </c>
-      <c r="N4" s="291" t="s">
+      <c r="N4" s="251" t="s">
         <v>1206</v>
       </c>
       <c r="O4" s="237"/>
@@ -65797,11 +65799,11 @@
       <c r="S4" s="238" t="s">
         <v>1208</v>
       </c>
-      <c r="T4" s="297">
+      <c r="T4" s="257">
         <f>COUNTIF(J4:N5,"IMP")</f>
         <v>0</v>
       </c>
-      <c r="U4" s="307">
+      <c r="U4" s="267">
         <f>COUNTIF(J9:N10,"IMP")</f>
         <v>0</v>
       </c>
@@ -65813,27 +65815,27 @@
         <f t="shared" ref="W4:W14" si="3">V4*$H$1/$V$1</f>
         <v>0</v>
       </c>
-      <c r="X4" s="299">
+      <c r="X4" s="259">
         <f t="shared" ref="X4:X8" si="4">IF(W4=0,0,IF(U4=0,W4*T4/Q4,W4*T4/(Q4*2)))</f>
         <v>0</v>
       </c>
-      <c r="Y4" s="308">
+      <c r="Y4" s="268">
         <f t="shared" ref="Y4:Y8" si="5">IF(W4=0,0,IF(T4=0,W4*U4/Q4,W4*U4/(Q4*2)))</f>
         <v>0</v>
       </c>
-      <c r="Z4" s="300">
+      <c r="Z4" s="260">
         <f>$L$16</f>
         <v>0.56999999999999995</v>
       </c>
-      <c r="AA4" s="309">
+      <c r="AA4" s="269">
         <f>$M$16</f>
         <v>0.56999999999999995</v>
       </c>
-      <c r="AB4" s="299">
+      <c r="AB4" s="259">
         <f t="shared" ref="AB4:AB14" si="6">Z4*X4</f>
         <v>0</v>
       </c>
-      <c r="AC4" s="308">
+      <c r="AC4" s="268">
         <f t="shared" ref="AC4:AC14" si="7">AA4*Y4</f>
         <v>0</v>
       </c>
@@ -65863,17 +65865,17 @@
       <c r="H5" s="236">
         <v>0.45</v>
       </c>
-      <c r="J5" s="291"/>
-      <c r="K5" s="291" t="s">
+      <c r="J5" s="251"/>
+      <c r="K5" s="251" t="s">
         <v>1206</v>
       </c>
-      <c r="L5" s="291" t="s">
+      <c r="L5" s="251" t="s">
         <v>1205</v>
       </c>
-      <c r="M5" s="291" t="s">
+      <c r="M5" s="251" t="s">
         <v>1206</v>
       </c>
-      <c r="N5" s="291"/>
+      <c r="N5" s="251"/>
       <c r="O5" s="237"/>
       <c r="P5" s="238">
         <v>8</v>
@@ -65887,11 +65889,11 @@
       <c r="S5" s="238" t="s">
         <v>1180</v>
       </c>
-      <c r="T5" s="297">
+      <c r="T5" s="257">
         <f>COUNTIF(J3:N5,"IMP")</f>
         <v>0</v>
       </c>
-      <c r="U5" s="307">
+      <c r="U5" s="267">
         <f>COUNTIF(J8:N10,"IMP")</f>
         <v>0</v>
       </c>
@@ -65903,27 +65905,27 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X5" s="299">
+      <c r="X5" s="259">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Y5" s="308">
+      <c r="Y5" s="268">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Z5" s="300">
+      <c r="Z5" s="260">
         <f>$L$17</f>
         <v>0.45</v>
       </c>
-      <c r="AA5" s="309">
+      <c r="AA5" s="269">
         <f>$M$17</f>
         <v>0.45</v>
       </c>
-      <c r="AB5" s="299">
+      <c r="AB5" s="259">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AC5" s="308">
+      <c r="AC5" s="268">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -65971,11 +65973,11 @@
       <c r="S6" s="238" t="s">
         <v>1181</v>
       </c>
-      <c r="T6" s="297">
+      <c r="T6" s="257">
         <f>COUNTIF(J8:N8,"IMP")+COUNTIF(K9:M9,"IMP")</f>
         <v>0</v>
       </c>
-      <c r="U6" s="307">
+      <c r="U6" s="267">
         <f>COUNTIF(J3:N3,"IMP")+COUNTIF(K4:M4,"IMP")</f>
         <v>0</v>
       </c>
@@ -65987,27 +65989,27 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X6" s="299">
+      <c r="X6" s="259">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Y6" s="308">
+      <c r="Y6" s="268">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Z6" s="300">
+      <c r="Z6" s="260">
         <f>$L$17</f>
         <v>0.45</v>
       </c>
-      <c r="AA6" s="309">
+      <c r="AA6" s="269">
         <f>$M$17</f>
         <v>0.45</v>
       </c>
-      <c r="AB6" s="299">
+      <c r="AB6" s="259">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AC6" s="308">
+      <c r="AC6" s="268">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -66037,13 +66039,13 @@
       <c r="H7" s="236">
         <v>0.5</v>
       </c>
-      <c r="J7" s="301"/>
-      <c r="K7" s="302"/>
-      <c r="L7" s="301" t="s">
+      <c r="J7" s="261"/>
+      <c r="K7" s="262"/>
+      <c r="L7" s="261" t="s">
         <v>1205</v>
       </c>
-      <c r="M7" s="301"/>
-      <c r="N7" s="301"/>
+      <c r="M7" s="261"/>
+      <c r="N7" s="261"/>
       <c r="O7" s="237"/>
       <c r="P7" s="238">
         <v>15</v>
@@ -66057,11 +66059,11 @@
       <c r="S7" s="238" t="s">
         <v>1209</v>
       </c>
-      <c r="T7" s="297">
+      <c r="T7" s="257">
         <f>COUNTIF(J4:N5,"RAP")</f>
         <v>5</v>
       </c>
-      <c r="U7" s="307">
+      <c r="U7" s="267">
         <f>COUNTIF(J9:N10,"RAP")</f>
         <v>0</v>
       </c>
@@ -66073,27 +66075,27 @@
         <f t="shared" si="3"/>
         <v>1.0639880952380956</v>
       </c>
-      <c r="X7" s="299">
+      <c r="X7" s="259">
         <f t="shared" si="4"/>
         <v>0.66499255952380976</v>
       </c>
-      <c r="Y7" s="308">
+      <c r="Y7" s="268">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Z7" s="300">
+      <c r="Z7" s="260">
         <f>$L$16</f>
         <v>0.56999999999999995</v>
       </c>
-      <c r="AA7" s="309">
+      <c r="AA7" s="269">
         <f>$M$16</f>
         <v>0.56999999999999995</v>
       </c>
-      <c r="AB7" s="299">
+      <c r="AB7" s="259">
         <f t="shared" si="6"/>
         <v>0.37904575892857151</v>
       </c>
-      <c r="AC7" s="308">
+      <c r="AC7" s="268">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -66123,19 +66125,19 @@
       <c r="H8" s="236">
         <v>0.5</v>
       </c>
-      <c r="J8" s="301" t="s">
+      <c r="J8" s="261" t="s">
         <v>1205</v>
       </c>
-      <c r="K8" s="301" t="s">
+      <c r="K8" s="261" t="s">
         <v>1205</v>
       </c>
-      <c r="L8" s="301" t="s">
+      <c r="L8" s="261" t="s">
         <v>1205</v>
       </c>
-      <c r="M8" s="301" t="s">
+      <c r="M8" s="261" t="s">
         <v>1205</v>
       </c>
-      <c r="N8" s="301" t="s">
+      <c r="N8" s="261" t="s">
         <v>1205</v>
       </c>
       <c r="O8" s="237"/>
@@ -66151,11 +66153,11 @@
       <c r="S8" s="238" t="s">
         <v>1210</v>
       </c>
-      <c r="T8" s="297">
+      <c r="T8" s="257">
         <f>COUNTIF(J4:N5,"RAP")</f>
         <v>5</v>
       </c>
-      <c r="U8" s="307">
+      <c r="U8" s="267">
         <f>COUNTIF(J9:N10,"RAP")</f>
         <v>0</v>
       </c>
@@ -66167,27 +66169,27 @@
         <f t="shared" si="3"/>
         <v>1.0639880952380956</v>
       </c>
-      <c r="X8" s="299">
+      <c r="X8" s="259">
         <f t="shared" si="4"/>
         <v>0.66499255952380976</v>
       </c>
-      <c r="Y8" s="308">
+      <c r="Y8" s="268">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Z8" s="300">
+      <c r="Z8" s="260">
         <f>$L$16</f>
         <v>0.56999999999999995</v>
       </c>
-      <c r="AA8" s="309">
+      <c r="AA8" s="269">
         <f>$M$16</f>
         <v>0.56999999999999995</v>
       </c>
-      <c r="AB8" s="299">
+      <c r="AB8" s="259">
         <f t="shared" si="6"/>
         <v>0.37904575892857151</v>
       </c>
-      <c r="AC8" s="308">
+      <c r="AC8" s="268">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -66215,19 +66217,19 @@
         <v>1E-3</v>
       </c>
       <c r="H9" s="236"/>
-      <c r="J9" s="301" t="s">
+      <c r="J9" s="261" t="s">
         <v>1205</v>
       </c>
-      <c r="K9" s="301" t="s">
+      <c r="K9" s="261" t="s">
         <v>1216</v>
       </c>
-      <c r="L9" s="301" t="s">
+      <c r="L9" s="261" t="s">
         <v>1205</v>
       </c>
-      <c r="M9" s="301" t="s">
+      <c r="M9" s="261" t="s">
         <v>1216</v>
       </c>
-      <c r="N9" s="301" t="s">
+      <c r="N9" s="261" t="s">
         <v>1205</v>
       </c>
       <c r="O9" s="237"/>
@@ -66243,10 +66245,10 @@
       <c r="S9" s="238" t="s">
         <v>1186</v>
       </c>
-      <c r="T9" s="297">
+      <c r="T9" s="257">
         <v>1</v>
       </c>
-      <c r="U9" s="307">
+      <c r="U9" s="267">
         <v>1</v>
       </c>
       <c r="V9" s="249">
@@ -66257,27 +66259,27 @@
         <f t="shared" si="3"/>
         <v>0.3191964285714286</v>
       </c>
-      <c r="X9" s="299">
+      <c r="X9" s="259">
         <f>W9*L12</f>
         <v>0.17555803571428574</v>
       </c>
-      <c r="Y9" s="308">
+      <c r="Y9" s="268">
         <f>W9*L13</f>
         <v>0.14363839285714286</v>
       </c>
-      <c r="Z9" s="300">
+      <c r="Z9" s="260">
         <f>$L$17</f>
         <v>0.45</v>
       </c>
-      <c r="AA9" s="309">
+      <c r="AA9" s="269">
         <f>$M$17</f>
         <v>0.45</v>
       </c>
-      <c r="AB9" s="299">
+      <c r="AB9" s="259">
         <f t="shared" si="6"/>
         <v>7.9001116071428581E-2</v>
       </c>
-      <c r="AC9" s="308">
+      <c r="AC9" s="268">
         <f t="shared" si="7"/>
         <v>6.4637276785714293E-2</v>
       </c>
@@ -66307,17 +66309,17 @@
       <c r="H10" s="236">
         <v>0.15</v>
       </c>
-      <c r="J10" s="301"/>
-      <c r="K10" s="301" t="s">
+      <c r="J10" s="261"/>
+      <c r="K10" s="261" t="s">
         <v>1216</v>
       </c>
-      <c r="L10" s="301" t="s">
+      <c r="L10" s="261" t="s">
         <v>1205</v>
       </c>
-      <c r="M10" s="301" t="s">
+      <c r="M10" s="261" t="s">
         <v>1205</v>
       </c>
-      <c r="N10" s="301"/>
+      <c r="N10" s="261"/>
       <c r="O10" s="237"/>
       <c r="P10" s="238">
         <v>19</v>
@@ -66331,11 +66333,11 @@
       <c r="S10" s="238" t="s">
         <v>1188</v>
       </c>
-      <c r="T10" s="297">
+      <c r="T10" s="257">
         <f>COUNTIF(J3:N5,"CAB")</f>
         <v>0</v>
       </c>
-      <c r="U10" s="307">
+      <c r="U10" s="267">
         <f>COUNTIF(J8:N10,"CAB")</f>
         <v>3</v>
       </c>
@@ -66347,27 +66349,27 @@
         <f t="shared" si="3"/>
         <v>0.4894345238095239</v>
       </c>
-      <c r="X10" s="299">
+      <c r="X10" s="259">
         <f>IF(T10&gt;0,W10*L12,0)</f>
         <v>0</v>
       </c>
-      <c r="Y10" s="308">
+      <c r="Y10" s="268">
         <f>IF(U10&gt;0,W10*L13,0)</f>
         <v>0.22024553571428573</v>
       </c>
-      <c r="Z10" s="300">
+      <c r="Z10" s="260">
         <f>IF(T10-U10&gt;2,0.9,IF(T10-U10&gt;1,0.75,IF(T10-U10=0,0.5,0.15)))</f>
         <v>0.15</v>
       </c>
-      <c r="AA10" s="309">
+      <c r="AA10" s="269">
         <f>IF(U10-T10&gt;2,0.9,IF(U10-T10&gt;1,0.75,IF(U10-T10=0,0.5,0.15)))</f>
         <v>0.9</v>
       </c>
-      <c r="AB10" s="299">
+      <c r="AB10" s="259">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AC10" s="308">
+      <c r="AC10" s="268">
         <f t="shared" si="7"/>
         <v>0.19822098214285716</v>
       </c>
@@ -66415,11 +66417,11 @@
       <c r="S11" s="238" t="s">
         <v>1211</v>
       </c>
-      <c r="T11" s="297">
+      <c r="T11" s="257">
         <f>COUNTIF(K5:M5,"IMP")+COUNTIF(J4,"IMP")+COUNTIF(N4,"IMP")</f>
         <v>0</v>
       </c>
-      <c r="U11" s="307">
+      <c r="U11" s="267">
         <f>COUNTIF(K10:M10,"IMP")+COUNTIF(J9,"IMP")+COUNTIF(N9,"IMP")</f>
         <v>0</v>
       </c>
@@ -66431,27 +66433,27 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X11" s="299">
+      <c r="X11" s="259">
         <f>IF(W11=0,0,IF(U11=0,W11*T11/Q11,W11*T11/(Q11*2)))</f>
         <v>0</v>
       </c>
-      <c r="Y11" s="308">
+      <c r="Y11" s="268">
         <f>IF(W11=0,0,IF(T11=0,W11*U11/Q11,W11*U11/(Q11*2)))</f>
         <v>0</v>
       </c>
-      <c r="Z11" s="300">
+      <c r="Z11" s="260">
         <f>$L$17</f>
         <v>0.45</v>
       </c>
-      <c r="AA11" s="309">
+      <c r="AA11" s="269">
         <f>$M$17</f>
         <v>0.45</v>
       </c>
-      <c r="AB11" s="299">
+      <c r="AB11" s="259">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AC11" s="308">
+      <c r="AC11" s="268">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -66482,10 +66484,10 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="J12" s="237"/>
-      <c r="K12" s="293" t="s">
+      <c r="K12" s="253" t="s">
         <v>1220</v>
       </c>
-      <c r="L12" s="294">
+      <c r="L12" s="254">
         <v>0.55000000000000004</v>
       </c>
       <c r="M12" s="237"/>
@@ -66503,11 +66505,11 @@
       <c r="S12" s="238" t="s">
         <v>1212</v>
       </c>
-      <c r="T12" s="297">
+      <c r="T12" s="257">
         <f>COUNTIF(J4:N5,"CAB")</f>
         <v>0</v>
       </c>
-      <c r="U12" s="307">
+      <c r="U12" s="267">
         <f>COUNTIF(J9:N10,"CAB")</f>
         <v>3</v>
       </c>
@@ -66519,27 +66521,27 @@
         <f t="shared" si="3"/>
         <v>0.38303571428571431</v>
       </c>
-      <c r="X12" s="299">
+      <c r="X12" s="259">
         <f>W12*T12/(U12+T12)</f>
         <v>0</v>
       </c>
-      <c r="Y12" s="308">
+      <c r="Y12" s="268">
         <f>W12*U12/(U12+T12)</f>
         <v>0.38303571428571431</v>
       </c>
-      <c r="Z12" s="300">
+      <c r="Z12" s="260">
         <f>$L$16</f>
         <v>0.56999999999999995</v>
       </c>
-      <c r="AA12" s="309">
+      <c r="AA12" s="269">
         <f>$M$16</f>
         <v>0.56999999999999995</v>
       </c>
-      <c r="AB12" s="299">
+      <c r="AB12" s="259">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AC12" s="308">
+      <c r="AC12" s="268">
         <f t="shared" si="7"/>
         <v>0.21833035714285715</v>
       </c>
@@ -66568,10 +66570,10 @@
       </c>
       <c r="H13" s="236"/>
       <c r="J13" s="237"/>
-      <c r="K13" s="303" t="s">
+      <c r="K13" s="263" t="s">
         <v>1221</v>
       </c>
-      <c r="L13" s="304">
+      <c r="L13" s="264">
         <f>1-L12</f>
         <v>0.44999999999999996</v>
       </c>
@@ -66590,11 +66592,11 @@
       <c r="S13" s="238" t="s">
         <v>1213</v>
       </c>
-      <c r="T13" s="297">
+      <c r="T13" s="257">
         <f>COUNTA(J4,N4)</f>
         <v>2</v>
       </c>
-      <c r="U13" s="307">
+      <c r="U13" s="267">
         <f>COUNTA(J9,N9)</f>
         <v>2</v>
       </c>
@@ -66606,27 +66608,27 @@
         <f t="shared" si="3"/>
         <v>0.25535714285714289</v>
       </c>
-      <c r="X13" s="299">
+      <c r="X13" s="259">
         <f>W13*T13/(U13+T13)</f>
         <v>0.12767857142857145</v>
       </c>
-      <c r="Y13" s="308">
+      <c r="Y13" s="268">
         <f>W13*U13/(U13+T13)</f>
         <v>0.12767857142857145</v>
       </c>
-      <c r="Z13" s="300">
+      <c r="Z13" s="260">
         <f>$L$16</f>
         <v>0.56999999999999995</v>
       </c>
-      <c r="AA13" s="309">
+      <c r="AA13" s="269">
         <f>$M$16</f>
         <v>0.56999999999999995</v>
       </c>
-      <c r="AB13" s="299">
+      <c r="AB13" s="259">
         <f t="shared" si="6"/>
         <v>7.2776785714285724E-2</v>
       </c>
-      <c r="AC13" s="308">
+      <c r="AC13" s="268">
         <f t="shared" si="7"/>
         <v>7.2776785714285724E-2</v>
       </c>
@@ -66672,11 +66674,11 @@
       <c r="S14" s="238" t="s">
         <v>1195</v>
       </c>
-      <c r="T14" s="297">
+      <c r="T14" s="257">
         <f>IF(COUNTIF(J8:N8,"CAB")+COUNTIF(K9:M9,"CAB") &gt; 0, COUNTIF(J4:N5,"TEC"),0)</f>
         <v>0</v>
       </c>
-      <c r="U14" s="307">
+      <c r="U14" s="267">
         <f>IF(COUNTIF(J3:N3,"CAB")+COUNTIF(K4:M4,"CAB") &gt; 0, COUNTIF(J9:N10,"TEC"),0)</f>
         <v>0</v>
       </c>
@@ -66688,27 +66690,27 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X14" s="299">
+      <c r="X14" s="259">
         <f>IF(W14=0,0,IF(U14=0,W14*T14/Q14,W14*T14/(Q14*2)))</f>
         <v>0</v>
       </c>
-      <c r="Y14" s="308">
+      <c r="Y14" s="268">
         <f>IF(W14=0,0,IF(T14=0,W14*U14/Q14,W14*U14/(Q14*2)))</f>
         <v>0</v>
       </c>
-      <c r="Z14" s="300">
+      <c r="Z14" s="260">
         <f>$L$16</f>
         <v>0.56999999999999995</v>
       </c>
-      <c r="AA14" s="309">
+      <c r="AA14" s="269">
         <f>$M$16</f>
         <v>0.56999999999999995</v>
       </c>
-      <c r="AB14" s="299">
+      <c r="AB14" s="259">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AC14" s="308">
+      <c r="AC14" s="268">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -66742,10 +66744,10 @@
       <c r="K15" s="244" t="s">
         <v>1229</v>
       </c>
-      <c r="L15" s="295">
+      <c r="L15" s="255">
         <v>0.7</v>
       </c>
-      <c r="M15" s="305">
+      <c r="M15" s="265">
         <v>0.7</v>
       </c>
       <c r="N15" s="237"/>
@@ -66786,10 +66788,10 @@
       <c r="K16" s="244" t="s">
         <v>1231</v>
       </c>
-      <c r="L16" s="295">
+      <c r="L16" s="255">
         <v>0.56999999999999995</v>
       </c>
-      <c r="M16" s="305">
+      <c r="M16" s="265">
         <v>0.56999999999999995</v>
       </c>
       <c r="N16" s="237"/>
@@ -66830,10 +66832,10 @@
       <c r="K17" s="235" t="s">
         <v>1230</v>
       </c>
-      <c r="L17" s="295">
+      <c r="L17" s="255">
         <v>0.45</v>
       </c>
-      <c r="M17" s="305">
+      <c r="M17" s="265">
         <v>0.45</v>
       </c>
       <c r="N17" s="237"/>
@@ -67094,7 +67096,7 @@
   </sheetPr>
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -67471,7 +67473,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="257" t="s">
+      <c r="A6" s="276" t="s">
         <v>99</v>
       </c>
       <c r="B6" s="43" t="s">
@@ -67502,7 +67504,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A7" s="257"/>
+      <c r="A7" s="276"/>
       <c r="B7" s="43" t="s">
         <v>96</v>
       </c>
@@ -67827,7 +67829,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
     <col min="2" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
@@ -68442,12 +68444,12 @@
       <c r="J34" s="55"/>
     </row>
     <row r="35" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="258" t="s">
+      <c r="A35" s="277" t="s">
         <v>151</v>
       </c>
-      <c r="B35" s="258"/>
-      <c r="C35" s="258"/>
-      <c r="D35" s="258"/>
+      <c r="B35" s="277"/>
+      <c r="C35" s="277"/>
+      <c r="D35" s="277"/>
       <c r="F35" s="56" t="s">
         <v>152</v>
       </c>
@@ -68459,16 +68461,16 @@
       <c r="J35" s="55"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="259" t="s">
+      <c r="A36" s="278" t="s">
         <v>116</v>
       </c>
-      <c r="B36" s="260" t="s">
+      <c r="B36" s="279" t="s">
         <v>153</v>
       </c>
-      <c r="C36" s="260" t="s">
+      <c r="C36" s="279" t="s">
         <v>149</v>
       </c>
-      <c r="D36" s="260" t="s">
+      <c r="D36" s="279" t="s">
         <v>150</v>
       </c>
       <c r="F36" s="59" t="s">
@@ -68482,10 +68484,10 @@
       <c r="J36" s="55"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="259"/>
-      <c r="B37" s="260"/>
-      <c r="C37" s="260"/>
-      <c r="D37" s="260"/>
+      <c r="A37" s="278"/>
+      <c r="B37" s="279"/>
+      <c r="C37" s="279"/>
+      <c r="D37" s="279"/>
       <c r="F37" s="56" t="s">
         <v>155</v>
       </c>
@@ -69339,460 +69341,460 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="261" t="s">
+      <c r="A4" s="284" t="s">
         <v>1130</v>
       </c>
-      <c r="B4" s="261" t="s">
+      <c r="B4" s="284" t="s">
         <v>1131</v>
       </c>
-      <c r="C4" s="261" t="s">
+      <c r="C4" s="284" t="s">
         <v>1132</v>
       </c>
-      <c r="D4" s="261" t="s">
+      <c r="D4" s="284" t="s">
         <v>1133</v>
       </c>
-      <c r="E4" s="263" t="s">
+      <c r="E4" s="286" t="s">
         <v>1134</v>
       </c>
-      <c r="F4" s="261" t="s">
+      <c r="F4" s="284" t="s">
         <v>1135</v>
       </c>
-      <c r="G4" s="261" t="s">
+      <c r="G4" s="284" t="s">
         <v>1136</v>
       </c>
-      <c r="H4" s="261" t="s">
+      <c r="H4" s="284" t="s">
         <v>1137</v>
       </c>
-      <c r="I4" s="261" t="s">
+      <c r="I4" s="284" t="s">
         <v>1138</v>
       </c>
-      <c r="J4" s="263" t="s">
+      <c r="J4" s="286" t="s">
         <v>1139</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="262"/>
-      <c r="B5" s="262"/>
-      <c r="C5" s="262"/>
-      <c r="D5" s="262"/>
-      <c r="E5" s="264"/>
-      <c r="F5" s="262"/>
-      <c r="G5" s="262"/>
-      <c r="H5" s="262"/>
-      <c r="I5" s="262"/>
-      <c r="J5" s="264"/>
+      <c r="A5" s="285"/>
+      <c r="B5" s="285"/>
+      <c r="C5" s="285"/>
+      <c r="D5" s="285"/>
+      <c r="E5" s="287"/>
+      <c r="F5" s="285"/>
+      <c r="G5" s="285"/>
+      <c r="H5" s="285"/>
+      <c r="I5" s="285"/>
+      <c r="J5" s="287"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="261" t="s">
+      <c r="A6" s="284" t="s">
         <v>1140</v>
       </c>
-      <c r="B6" s="265">
+      <c r="B6" s="282">
         <v>3563</v>
       </c>
-      <c r="C6" s="265">
+      <c r="C6" s="282">
         <v>3583</v>
       </c>
-      <c r="D6" s="265">
+      <c r="D6" s="282">
         <v>3689</v>
       </c>
-      <c r="E6" s="267">
+      <c r="E6" s="280">
         <v>3712</v>
       </c>
-      <c r="F6" s="265">
+      <c r="F6" s="282">
         <v>3656</v>
       </c>
-      <c r="G6" s="265">
+      <c r="G6" s="282">
         <v>3751</v>
       </c>
-      <c r="H6" s="265">
+      <c r="H6" s="282">
         <v>3693</v>
       </c>
-      <c r="I6" s="265">
+      <c r="I6" s="282">
         <v>3676</v>
       </c>
-      <c r="J6" s="267">
+      <c r="J6" s="280">
         <v>3638</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="262"/>
-      <c r="B7" s="266"/>
-      <c r="C7" s="266"/>
-      <c r="D7" s="266"/>
-      <c r="E7" s="268"/>
-      <c r="F7" s="266"/>
-      <c r="G7" s="266"/>
-      <c r="H7" s="266"/>
-      <c r="I7" s="266"/>
-      <c r="J7" s="268"/>
+      <c r="A7" s="285"/>
+      <c r="B7" s="283"/>
+      <c r="C7" s="283"/>
+      <c r="D7" s="283"/>
+      <c r="E7" s="281"/>
+      <c r="F7" s="283"/>
+      <c r="G7" s="283"/>
+      <c r="H7" s="283"/>
+      <c r="I7" s="283"/>
+      <c r="J7" s="281"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="261" t="s">
+      <c r="A8" s="284" t="s">
         <v>1141</v>
       </c>
-      <c r="B8" s="265">
+      <c r="B8" s="282">
         <v>2957</v>
       </c>
-      <c r="C8" s="265">
+      <c r="C8" s="282">
         <v>3253</v>
       </c>
-      <c r="D8" s="265">
+      <c r="D8" s="282">
         <v>3342</v>
       </c>
-      <c r="E8" s="267">
+      <c r="E8" s="280">
         <v>3325</v>
       </c>
-      <c r="F8" s="265">
+      <c r="F8" s="282">
         <v>3461</v>
       </c>
-      <c r="G8" s="265">
+      <c r="G8" s="282">
         <v>3392</v>
       </c>
-      <c r="H8" s="265">
+      <c r="H8" s="282">
         <v>3455</v>
       </c>
-      <c r="I8" s="265">
+      <c r="I8" s="282">
         <v>3369</v>
       </c>
-      <c r="J8" s="267">
+      <c r="J8" s="280">
         <v>3372</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="262"/>
-      <c r="B9" s="266"/>
-      <c r="C9" s="266"/>
-      <c r="D9" s="266"/>
-      <c r="E9" s="268"/>
-      <c r="F9" s="266"/>
-      <c r="G9" s="266"/>
-      <c r="H9" s="266"/>
-      <c r="I9" s="266"/>
-      <c r="J9" s="268"/>
+      <c r="A9" s="285"/>
+      <c r="B9" s="283"/>
+      <c r="C9" s="283"/>
+      <c r="D9" s="283"/>
+      <c r="E9" s="281"/>
+      <c r="F9" s="283"/>
+      <c r="G9" s="283"/>
+      <c r="H9" s="283"/>
+      <c r="I9" s="283"/>
+      <c r="J9" s="281"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="261" t="s">
+      <c r="A10" s="284" t="s">
         <v>1142</v>
       </c>
-      <c r="B10" s="265">
+      <c r="B10" s="282">
         <v>2354</v>
       </c>
-      <c r="C10" s="265">
+      <c r="C10" s="282">
         <v>2997</v>
       </c>
-      <c r="D10" s="265">
+      <c r="D10" s="282">
         <v>3041</v>
       </c>
-      <c r="E10" s="267">
+      <c r="E10" s="280">
         <v>3085</v>
       </c>
-      <c r="F10" s="265">
+      <c r="F10" s="282">
         <v>3118</v>
       </c>
-      <c r="G10" s="265">
+      <c r="G10" s="282">
         <v>3100</v>
       </c>
-      <c r="H10" s="265">
+      <c r="H10" s="282">
         <v>3130</v>
       </c>
-      <c r="I10" s="265">
+      <c r="I10" s="282">
         <v>3102</v>
       </c>
-      <c r="J10" s="267">
+      <c r="J10" s="280">
         <v>3098</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="262"/>
-      <c r="B11" s="266"/>
-      <c r="C11" s="266"/>
-      <c r="D11" s="266"/>
-      <c r="E11" s="268"/>
-      <c r="F11" s="266"/>
-      <c r="G11" s="266"/>
-      <c r="H11" s="266"/>
-      <c r="I11" s="266"/>
-      <c r="J11" s="268"/>
+      <c r="A11" s="285"/>
+      <c r="B11" s="283"/>
+      <c r="C11" s="283"/>
+      <c r="D11" s="283"/>
+      <c r="E11" s="281"/>
+      <c r="F11" s="283"/>
+      <c r="G11" s="283"/>
+      <c r="H11" s="283"/>
+      <c r="I11" s="283"/>
+      <c r="J11" s="281"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="261" t="s">
+      <c r="A12" s="284" t="s">
         <v>1143</v>
       </c>
-      <c r="B12" s="265"/>
-      <c r="C12" s="265">
+      <c r="B12" s="282"/>
+      <c r="C12" s="282">
         <v>2361</v>
       </c>
-      <c r="D12" s="265">
+      <c r="D12" s="282">
         <v>2778</v>
       </c>
-      <c r="E12" s="267">
+      <c r="E12" s="280">
         <v>2793</v>
       </c>
-      <c r="F12" s="265">
+      <c r="F12" s="282">
         <v>2808</v>
       </c>
-      <c r="G12" s="265">
+      <c r="G12" s="282">
         <v>2810</v>
       </c>
-      <c r="H12" s="265">
+      <c r="H12" s="282">
         <v>2814</v>
       </c>
-      <c r="I12" s="265">
+      <c r="I12" s="282">
         <v>2795</v>
       </c>
-      <c r="J12" s="267">
+      <c r="J12" s="280">
         <v>2793</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="262"/>
-      <c r="B13" s="266"/>
-      <c r="C13" s="266"/>
-      <c r="D13" s="266"/>
-      <c r="E13" s="268"/>
-      <c r="F13" s="266"/>
-      <c r="G13" s="266"/>
-      <c r="H13" s="266"/>
-      <c r="I13" s="266"/>
-      <c r="J13" s="268"/>
+      <c r="A13" s="285"/>
+      <c r="B13" s="283"/>
+      <c r="C13" s="283"/>
+      <c r="D13" s="283"/>
+      <c r="E13" s="281"/>
+      <c r="F13" s="283"/>
+      <c r="G13" s="283"/>
+      <c r="H13" s="283"/>
+      <c r="I13" s="283"/>
+      <c r="J13" s="281"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="261" t="s">
+      <c r="A14" s="284" t="s">
         <v>1144</v>
       </c>
-      <c r="B14" s="265"/>
-      <c r="C14" s="265"/>
-      <c r="D14" s="265">
+      <c r="B14" s="282"/>
+      <c r="C14" s="282"/>
+      <c r="D14" s="282">
         <v>2241</v>
       </c>
-      <c r="E14" s="267">
+      <c r="E14" s="280">
         <v>2467</v>
       </c>
-      <c r="F14" s="265">
+      <c r="F14" s="282">
         <v>2521</v>
       </c>
-      <c r="G14" s="265">
+      <c r="G14" s="282">
         <v>2507</v>
       </c>
-      <c r="H14" s="265">
+      <c r="H14" s="282">
         <v>2536</v>
       </c>
-      <c r="I14" s="265">
+      <c r="I14" s="282">
         <v>2517</v>
       </c>
-      <c r="J14" s="267">
+      <c r="J14" s="280">
         <v>2525</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="262"/>
-      <c r="B15" s="266"/>
-      <c r="C15" s="266"/>
-      <c r="D15" s="266"/>
-      <c r="E15" s="268"/>
-      <c r="F15" s="266"/>
-      <c r="G15" s="266"/>
-      <c r="H15" s="266"/>
-      <c r="I15" s="266"/>
-      <c r="J15" s="268"/>
+      <c r="A15" s="285"/>
+      <c r="B15" s="283"/>
+      <c r="C15" s="283"/>
+      <c r="D15" s="283"/>
+      <c r="E15" s="281"/>
+      <c r="F15" s="283"/>
+      <c r="G15" s="283"/>
+      <c r="H15" s="283"/>
+      <c r="I15" s="283"/>
+      <c r="J15" s="281"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="261" t="s">
+      <c r="A16" s="284" t="s">
         <v>1145</v>
       </c>
-      <c r="B16" s="265"/>
-      <c r="C16" s="265"/>
-      <c r="D16" s="265"/>
-      <c r="E16" s="267">
+      <c r="B16" s="282"/>
+      <c r="C16" s="282"/>
+      <c r="D16" s="282"/>
+      <c r="E16" s="280">
         <v>2113</v>
       </c>
-      <c r="F16" s="265">
+      <c r="F16" s="282">
         <v>2226</v>
       </c>
-      <c r="G16" s="265">
+      <c r="G16" s="282">
         <v>2202</v>
       </c>
-      <c r="H16" s="265">
+      <c r="H16" s="282">
         <v>2232</v>
       </c>
-      <c r="I16" s="265">
+      <c r="I16" s="282">
         <v>2235</v>
       </c>
-      <c r="J16" s="267">
+      <c r="J16" s="280">
         <v>2227</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="262"/>
-      <c r="B17" s="266"/>
-      <c r="C17" s="266"/>
-      <c r="D17" s="266"/>
-      <c r="E17" s="268"/>
-      <c r="F17" s="266"/>
-      <c r="G17" s="266"/>
-      <c r="H17" s="266"/>
-      <c r="I17" s="266"/>
-      <c r="J17" s="268"/>
+      <c r="A17" s="285"/>
+      <c r="B17" s="283"/>
+      <c r="C17" s="283"/>
+      <c r="D17" s="283"/>
+      <c r="E17" s="281"/>
+      <c r="F17" s="283"/>
+      <c r="G17" s="283"/>
+      <c r="H17" s="283"/>
+      <c r="I17" s="283"/>
+      <c r="J17" s="281"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="261" t="s">
+      <c r="A18" s="284" t="s">
         <v>1146</v>
       </c>
-      <c r="B18" s="265"/>
-      <c r="C18" s="265"/>
-      <c r="D18" s="265"/>
-      <c r="E18" s="267"/>
-      <c r="F18" s="265">
+      <c r="B18" s="282"/>
+      <c r="C18" s="282"/>
+      <c r="D18" s="282"/>
+      <c r="E18" s="280"/>
+      <c r="F18" s="282">
         <v>1537</v>
       </c>
-      <c r="G18" s="265">
+      <c r="G18" s="282">
         <v>1762</v>
       </c>
-      <c r="H18" s="265">
+      <c r="H18" s="282">
         <v>1905</v>
       </c>
-      <c r="I18" s="265">
+      <c r="I18" s="282">
         <v>1879</v>
       </c>
-      <c r="J18" s="267">
+      <c r="J18" s="280">
         <v>1893</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="262"/>
-      <c r="B19" s="266"/>
-      <c r="C19" s="266"/>
-      <c r="D19" s="266"/>
-      <c r="E19" s="268"/>
-      <c r="F19" s="266"/>
-      <c r="G19" s="266"/>
-      <c r="H19" s="266"/>
-      <c r="I19" s="266"/>
-      <c r="J19" s="268"/>
+      <c r="A19" s="285"/>
+      <c r="B19" s="283"/>
+      <c r="C19" s="283"/>
+      <c r="D19" s="283"/>
+      <c r="E19" s="281"/>
+      <c r="F19" s="283"/>
+      <c r="G19" s="283"/>
+      <c r="H19" s="283"/>
+      <c r="I19" s="283"/>
+      <c r="J19" s="281"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="261" t="s">
+      <c r="A20" s="284" t="s">
         <v>1147</v>
       </c>
-      <c r="B20" s="265"/>
-      <c r="C20" s="265"/>
-      <c r="D20" s="265"/>
-      <c r="E20" s="267"/>
-      <c r="F20" s="265"/>
-      <c r="G20" s="265">
+      <c r="B20" s="282"/>
+      <c r="C20" s="282"/>
+      <c r="D20" s="282"/>
+      <c r="E20" s="280"/>
+      <c r="F20" s="282"/>
+      <c r="G20" s="282">
         <v>1412</v>
       </c>
-      <c r="H20" s="265">
+      <c r="H20" s="282">
         <v>1689</v>
       </c>
-      <c r="I20" s="265">
+      <c r="I20" s="282">
         <v>1630</v>
       </c>
-      <c r="J20" s="267">
+      <c r="J20" s="280">
         <v>1640</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="262"/>
-      <c r="B21" s="266"/>
-      <c r="C21" s="266"/>
-      <c r="D21" s="266"/>
-      <c r="E21" s="268"/>
-      <c r="F21" s="266"/>
-      <c r="G21" s="266"/>
-      <c r="H21" s="266"/>
-      <c r="I21" s="266"/>
-      <c r="J21" s="268"/>
+      <c r="A21" s="285"/>
+      <c r="B21" s="283"/>
+      <c r="C21" s="283"/>
+      <c r="D21" s="283"/>
+      <c r="E21" s="281"/>
+      <c r="F21" s="283"/>
+      <c r="G21" s="283"/>
+      <c r="H21" s="283"/>
+      <c r="I21" s="283"/>
+      <c r="J21" s="281"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="261" t="s">
+      <c r="A22" s="284" t="s">
         <v>1148</v>
       </c>
-      <c r="B22" s="265"/>
-      <c r="C22" s="265"/>
-      <c r="D22" s="265"/>
-      <c r="E22" s="267"/>
-      <c r="F22" s="265"/>
-      <c r="G22" s="265"/>
-      <c r="H22" s="265">
+      <c r="B22" s="282"/>
+      <c r="C22" s="282"/>
+      <c r="D22" s="282"/>
+      <c r="E22" s="280"/>
+      <c r="F22" s="282"/>
+      <c r="G22" s="282"/>
+      <c r="H22" s="282">
         <v>1082</v>
       </c>
-      <c r="I22" s="265">
+      <c r="I22" s="282">
         <v>1341</v>
       </c>
-      <c r="J22" s="267">
+      <c r="J22" s="280">
         <v>1325</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="262"/>
-      <c r="B23" s="266"/>
-      <c r="C23" s="266"/>
-      <c r="D23" s="266"/>
-      <c r="E23" s="268"/>
-      <c r="F23" s="266"/>
-      <c r="G23" s="266"/>
-      <c r="H23" s="266"/>
-      <c r="I23" s="266"/>
-      <c r="J23" s="268"/>
+      <c r="A23" s="285"/>
+      <c r="B23" s="283"/>
+      <c r="C23" s="283"/>
+      <c r="D23" s="283"/>
+      <c r="E23" s="281"/>
+      <c r="F23" s="283"/>
+      <c r="G23" s="283"/>
+      <c r="H23" s="283"/>
+      <c r="I23" s="283"/>
+      <c r="J23" s="281"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="261" t="s">
+      <c r="A24" s="284" t="s">
         <v>1149</v>
       </c>
-      <c r="B24" s="265"/>
-      <c r="C24" s="265"/>
-      <c r="D24" s="265"/>
-      <c r="E24" s="267"/>
-      <c r="F24" s="265"/>
-      <c r="G24" s="265"/>
-      <c r="H24" s="265"/>
-      <c r="I24" s="265">
+      <c r="B24" s="282"/>
+      <c r="C24" s="282"/>
+      <c r="D24" s="282"/>
+      <c r="E24" s="280"/>
+      <c r="F24" s="282"/>
+      <c r="G24" s="282"/>
+      <c r="H24" s="282"/>
+      <c r="I24" s="282">
         <v>1003</v>
       </c>
-      <c r="J24" s="267">
+      <c r="J24" s="280">
         <v>1016</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="262"/>
-      <c r="B25" s="266"/>
-      <c r="C25" s="266"/>
-      <c r="D25" s="266"/>
-      <c r="E25" s="268"/>
-      <c r="F25" s="266"/>
-      <c r="G25" s="266"/>
-      <c r="H25" s="266"/>
-      <c r="I25" s="266"/>
-      <c r="J25" s="268"/>
+      <c r="A25" s="285"/>
+      <c r="B25" s="283"/>
+      <c r="C25" s="283"/>
+      <c r="D25" s="283"/>
+      <c r="E25" s="281"/>
+      <c r="F25" s="283"/>
+      <c r="G25" s="283"/>
+      <c r="H25" s="283"/>
+      <c r="I25" s="283"/>
+      <c r="J25" s="281"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="261" t="s">
+      <c r="A26" s="284" t="s">
         <v>1150</v>
       </c>
-      <c r="B26" s="265"/>
-      <c r="C26" s="265"/>
-      <c r="D26" s="265"/>
-      <c r="E26" s="267"/>
-      <c r="F26" s="265"/>
-      <c r="G26" s="265"/>
-      <c r="H26" s="265"/>
-      <c r="I26" s="265"/>
-      <c r="J26" s="267">
+      <c r="B26" s="282"/>
+      <c r="C26" s="282"/>
+      <c r="D26" s="282"/>
+      <c r="E26" s="280"/>
+      <c r="F26" s="282"/>
+      <c r="G26" s="282"/>
+      <c r="H26" s="282"/>
+      <c r="I26" s="282"/>
+      <c r="J26" s="280">
         <v>632</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="262"/>
-      <c r="B27" s="266"/>
-      <c r="C27" s="266"/>
-      <c r="D27" s="266"/>
-      <c r="E27" s="268"/>
-      <c r="F27" s="266"/>
-      <c r="G27" s="266"/>
-      <c r="H27" s="266"/>
-      <c r="I27" s="266"/>
-      <c r="J27" s="268"/>
+      <c r="A27" s="285"/>
+      <c r="B27" s="283"/>
+      <c r="C27" s="283"/>
+      <c r="D27" s="283"/>
+      <c r="E27" s="281"/>
+      <c r="F27" s="283"/>
+      <c r="G27" s="283"/>
+      <c r="H27" s="283"/>
+      <c r="I27" s="283"/>
+      <c r="J27" s="281"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -69801,6 +69803,106 @@
     </row>
   </sheetData>
   <mergeCells count="120">
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
     <mergeCell ref="J26:J27"/>
     <mergeCell ref="G24:G25"/>
     <mergeCell ref="H24:H25"/>
@@ -69821,106 +69923,6 @@
     <mergeCell ref="G26:G27"/>
     <mergeCell ref="H26:H27"/>
     <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/projects/current/hattrick/z_Biblioteca.xlsx
+++ b/projects/current/hattrick/z_Biblioteca.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9520B8A3-6D29-471D-A7CF-F597F8B19D56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E053D2-ADA9-421E-8568-FAC7074C0E43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="9" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1305" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resistencia" sheetId="1" r:id="rId1"/>
@@ -12883,6 +12883,54 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>381635</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>635</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC659E68-F3C7-43CE-8326-E122D1E80614}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13849350" y="0"/>
+          <a:ext cx="5715635" cy="5525135"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -61212,7 +61260,7 @@
   <dimension ref="A1:W37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -63343,10 +63391,10 @@
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -63354,7 +63402,7 @@
     <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="69" t="s">
         <v>208</v>
       </c>
@@ -63362,41 +63410,34 @@
         <v>0</v>
       </c>
       <c r="C1">
-        <v>0</v>
-      </c>
-      <c r="N1" s="70" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+        <f>B1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="69" t="s">
         <v>210</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>26960</v>
       </c>
       <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="N2" s="70" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <v>32710</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="69" t="s">
         <v>212</v>
       </c>
       <c r="B3">
-        <v>22460</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>785</v>
-      </c>
-      <c r="N3" s="70" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" ref="C3:C7" si="0">B3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="69" t="s">
         <v>214</v>
       </c>
@@ -63404,141 +63445,212 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <f>B4+D4-15340</f>
-        <v>1990</v>
-      </c>
-      <c r="D4">
-        <v>17330</v>
-      </c>
-      <c r="N4" s="70" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="69" t="s">
         <v>216</v>
       </c>
       <c r="B5">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>305</v>
-      </c>
-      <c r="N5" s="70" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="69" t="s">
         <v>218</v>
       </c>
       <c r="B6">
-        <v>245</v>
+        <v>725</v>
       </c>
       <c r="C6">
-        <v>2295</v>
-      </c>
-      <c r="N6" s="70" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>725</v>
+      </c>
+      <c r="D6">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="71" t="s">
         <v>71</v>
       </c>
       <c r="B7" s="72">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="C7" s="73">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="N7" s="70" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N8" s="70" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+        <v>4.7E-2</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="74" t="s">
         <v>120</v>
       </c>
       <c r="B9" s="75">
         <f>SUM(B1:B6)*(1+B7)</f>
-        <v>22941.4</v>
+        <v>28986.195</v>
       </c>
       <c r="C9" s="75">
         <f>SUM(C1:C6)*(1+C7)</f>
-        <v>5418</v>
-      </c>
-      <c r="N9" s="70" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <v>35006.445</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="74" t="s">
         <v>223</v>
       </c>
       <c r="B10" s="75">
         <f>B9*1.2</f>
-        <v>27529.68</v>
+        <v>34783.434000000001</v>
       </c>
       <c r="C10" s="75">
         <f>C9*1.2</f>
-        <v>6501.5999999999995</v>
-      </c>
-      <c r="N10" s="70" t="s">
+        <v>42007.733999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="69">
+        <v>29</v>
+      </c>
+      <c r="B12" s="75">
+        <f>B9*0.9</f>
+        <v>26087.575499999999</v>
+      </c>
+      <c r="C12" s="75">
+        <f>C9*0.9</f>
+        <v>31505.800500000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="69">
+        <v>30</v>
+      </c>
+      <c r="B13" s="75">
+        <f>B12*0.9</f>
+        <v>23478.817950000001</v>
+      </c>
+      <c r="C13" s="75">
+        <f>C12*0.9</f>
+        <v>28355.220450000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="69">
+        <v>31</v>
+      </c>
+      <c r="B14" s="75">
+        <f t="shared" ref="B14:C15" si="1">B13*0.9</f>
+        <v>21130.936154999999</v>
+      </c>
+      <c r="C14" s="75">
+        <f t="shared" si="1"/>
+        <v>25519.698405000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="69">
+        <v>32</v>
+      </c>
+      <c r="B15" s="75">
+        <f t="shared" si="1"/>
+        <v>19017.842539500001</v>
+      </c>
+      <c r="C15" s="75">
+        <f t="shared" si="1"/>
+        <v>22967.728564500005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="77"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="70" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="70" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="70" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="70" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="70" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="70" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="70" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="70" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="70" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="70" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N11" s="70" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="70" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N12" s="70" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="70" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <v>11610</v>
-      </c>
-      <c r="C13">
-        <v>18090</v>
-      </c>
-      <c r="N13" s="70" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="70" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="76">
-        <v>13600</v>
-      </c>
-      <c r="C14" s="76">
-        <f>(B14-B13)/(C13-B13)</f>
-        <v>0.30709876543209874</v>
-      </c>
-      <c r="N14" s="70" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="70" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N15" s="70" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="70" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C16" s="77"/>
-      <c r="N16" s="70" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="70" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="17" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N17" s="70" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="70" t="s">
         <v>231</v>
       </c>
     </row>
@@ -64072,7 +64184,7 @@
   </sheetPr>
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
@@ -65065,7 +65177,7 @@
   <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -65393,7 +65505,7 @@
   </sheetPr>
   <dimension ref="A1:A33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
@@ -66185,7 +66297,7 @@
   </sheetPr>
   <dimension ref="A1:Q70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>

--- a/projects/current/hattrick/z_Biblioteca.xlsx
+++ b/projects/current/hattrick/z_Biblioteca.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E053D2-ADA9-421E-8568-FAC7074C0E43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2CB19E-C94F-4F2D-AC68-8D4CBE6A6566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1305" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resistencia" sheetId="1" r:id="rId1"/>
@@ -61256,11 +61256,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1CD666A-CC85-487E-B640-64B24C5D3E6B}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:W37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -63383,6 +63384,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="62" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -63390,11 +63392,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B8A9872-285B-44B5-B760-86054E2CE794}">
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -63419,7 +63422,7 @@
         <v>210</v>
       </c>
       <c r="B2">
-        <v>26960</v>
+        <v>225</v>
       </c>
       <c r="C2">
         <v>32710</v>
@@ -63430,11 +63433,11 @@
         <v>212</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C7" si="0">B3</f>
-        <v>0</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -63442,11 +63445,11 @@
         <v>214</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>11610</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11610</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -63454,11 +63457,11 @@
         <v>216</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -63466,11 +63469,11 @@
         <v>218</v>
       </c>
       <c r="B6">
-        <v>725</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>725</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>14.5</v>
@@ -63481,11 +63484,11 @@
         <v>71</v>
       </c>
       <c r="B7" s="72">
-        <v>4.7E-2</v>
+        <v>0.06</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>4.7E-2</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -63494,11 +63497,11 @@
       </c>
       <c r="B9" s="75">
         <f>SUM(B1:B6)*(1+B7)</f>
-        <v>28986.195</v>
+        <v>12958.5</v>
       </c>
       <c r="C9" s="75">
         <f>SUM(C1:C6)*(1+C7)</f>
-        <v>35006.445</v>
+        <v>47392.600000000006</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -63507,11 +63510,11 @@
       </c>
       <c r="B10" s="75">
         <f>B9*1.2</f>
-        <v>34783.434000000001</v>
+        <v>15550.199999999999</v>
       </c>
       <c r="C10" s="75">
         <f>C9*1.2</f>
-        <v>42007.733999999997</v>
+        <v>56871.12</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -63520,11 +63523,11 @@
       </c>
       <c r="B12" s="75">
         <f>B9*0.9</f>
-        <v>26087.575499999999</v>
+        <v>11662.65</v>
       </c>
       <c r="C12" s="75">
         <f>C9*0.9</f>
-        <v>31505.800500000001</v>
+        <v>42653.340000000004</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -63533,11 +63536,11 @@
       </c>
       <c r="B13" s="75">
         <f>B12*0.9</f>
-        <v>23478.817950000001</v>
+        <v>10496.385</v>
       </c>
       <c r="C13" s="75">
         <f>C12*0.9</f>
-        <v>28355.220450000001</v>
+        <v>38388.006000000001</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -63546,11 +63549,11 @@
       </c>
       <c r="B14" s="75">
         <f t="shared" ref="B14:C15" si="1">B13*0.9</f>
-        <v>21130.936154999999</v>
+        <v>9446.7465000000011</v>
       </c>
       <c r="C14" s="75">
         <f t="shared" si="1"/>
-        <v>25519.698405000003</v>
+        <v>34549.205399999999</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -63559,11 +63562,11 @@
       </c>
       <c r="B15" s="75">
         <f t="shared" si="1"/>
-        <v>19017.842539500001</v>
+        <v>8502.0718500000021</v>
       </c>
       <c r="C15" s="75">
         <f t="shared" si="1"/>
-        <v>22967.728564500005</v>
+        <v>31094.28486</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -63656,7 +63659,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="56" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -66297,7 +66301,7 @@
   </sheetPr>
   <dimension ref="A1:Q70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>

--- a/projects/current/hattrick/z_Biblioteca.xlsx
+++ b/projects/current/hattrick/z_Biblioteca.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2CB19E-C94F-4F2D-AC68-8D4CBE6A6566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0FBC4D4-B881-49DC-BABE-E85C3D86B45C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resistencia" sheetId="1" r:id="rId1"/>
@@ -10934,7 +10934,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="30">
+  <fills count="31">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11106,6 +11106,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11611,7 +11617,7 @@
     <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="268">
+  <cellXfs count="269">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -12264,6 +12270,7 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8"/>
@@ -61260,8 +61267,8 @@
   </sheetPr>
   <dimension ref="A1:W37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -61289,67 +61296,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="268" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="268" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="268" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="268" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="268" t="s">
         <v>48</v>
       </c>
       <c r="F1" s="38"/>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="268" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="268" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="268" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="38" t="s">
+      <c r="J1" s="268" t="s">
         <v>47</v>
       </c>
-      <c r="K1" s="38" t="s">
+      <c r="K1" s="268" t="s">
         <v>48</v>
       </c>
       <c r="L1" s="38"/>
-      <c r="M1" s="38" t="s">
+      <c r="M1" s="268" t="s">
         <v>50</v>
       </c>
-      <c r="N1" s="38" t="s">
+      <c r="N1" s="268" t="s">
         <v>45</v>
       </c>
-      <c r="O1" s="38" t="s">
+      <c r="O1" s="268" t="s">
         <v>46</v>
       </c>
-      <c r="P1" s="38" t="s">
+      <c r="P1" s="268" t="s">
         <v>47</v>
       </c>
-      <c r="Q1" s="38" t="s">
+      <c r="Q1" s="268" t="s">
         <v>48</v>
       </c>
       <c r="R1" s="38"/>
-      <c r="S1" s="38" t="s">
+      <c r="S1" s="268" t="s">
         <v>51</v>
       </c>
-      <c r="T1" s="38" t="s">
+      <c r="T1" s="268" t="s">
         <v>45</v>
       </c>
-      <c r="U1" s="38" t="s">
+      <c r="U1" s="268" t="s">
         <v>46</v>
       </c>
-      <c r="V1" s="38" t="s">
+      <c r="V1" s="268" t="s">
         <v>47</v>
       </c>
-      <c r="W1" s="38" t="s">
+      <c r="W1" s="268" t="s">
         <v>48</v>
       </c>
     </row>
@@ -62469,52 +62476,52 @@
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="268" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="268" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="38" t="s">
+      <c r="C20" s="268" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="38" t="s">
+      <c r="D20" s="268" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="38" t="s">
+      <c r="E20" s="268" t="s">
         <v>48</v>
       </c>
-      <c r="G20" s="38" t="s">
+      <c r="G20" s="268" t="s">
         <v>70</v>
       </c>
-      <c r="H20" s="38" t="s">
+      <c r="H20" s="268" t="s">
         <v>45</v>
       </c>
-      <c r="I20" s="38" t="s">
+      <c r="I20" s="268" t="s">
         <v>46</v>
       </c>
-      <c r="J20" s="38" t="s">
+      <c r="J20" s="268" t="s">
         <v>47</v>
       </c>
-      <c r="K20" s="38" t="s">
+      <c r="K20" s="268" t="s">
         <v>48</v>
       </c>
-      <c r="M20" s="38" t="s">
+      <c r="M20" s="268" t="s">
         <v>71</v>
       </c>
-      <c r="N20" s="38" t="s">
+      <c r="N20" s="268" t="s">
         <v>45</v>
       </c>
-      <c r="O20" s="38" t="s">
+      <c r="O20" s="268" t="s">
         <v>46</v>
       </c>
-      <c r="P20" s="38" t="s">
+      <c r="P20" s="268" t="s">
         <v>47</v>
       </c>
-      <c r="Q20" s="38" t="s">
+      <c r="Q20" s="268" t="s">
         <v>48</v>
       </c>
-      <c r="S20" s="38" t="s">
+      <c r="S20" s="268" t="s">
         <v>10</v>
       </c>
       <c r="T20">
@@ -63396,8 +63403,8 @@
   </sheetPr>
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -63422,10 +63429,11 @@
         <v>210</v>
       </c>
       <c r="B2">
-        <v>225</v>
+        <v>5735</v>
       </c>
       <c r="C2">
-        <v>32710</v>
+        <f t="shared" ref="C2:C6" si="0">B2</f>
+        <v>5735</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -63433,11 +63441,11 @@
         <v>212</v>
       </c>
       <c r="B3">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C7" si="0">B3</f>
-        <v>255</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -63445,11 +63453,10 @@
         <v>214</v>
       </c>
       <c r="B4">
-        <v>11610</v>
+        <v>18090</v>
       </c>
       <c r="C4">
-        <f t="shared" si="0"/>
-        <v>11610</v>
+        <v>22065</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -63457,11 +63464,11 @@
         <v>216</v>
       </c>
       <c r="B5">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -63484,11 +63491,10 @@
         <v>71</v>
       </c>
       <c r="B7" s="72">
-        <v>0.06</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="0"/>
-        <v>0.06</v>
+        <v>5.5E-2</v>
+      </c>
+      <c r="C7" s="72">
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -63497,11 +63503,11 @@
       </c>
       <c r="B9" s="75">
         <f>SUM(B1:B6)*(1+B7)</f>
-        <v>12958.5</v>
+        <v>25135.375</v>
       </c>
       <c r="C9" s="75">
         <f>SUM(C1:C6)*(1+C7)</f>
-        <v>47392.600000000006</v>
+        <v>29440.199999999997</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -63510,11 +63516,11 @@
       </c>
       <c r="B10" s="75">
         <f>B9*1.2</f>
-        <v>15550.199999999999</v>
+        <v>30162.449999999997</v>
       </c>
       <c r="C10" s="75">
         <f>C9*1.2</f>
-        <v>56871.12</v>
+        <v>35328.239999999998</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -63523,11 +63529,11 @@
       </c>
       <c r="B12" s="75">
         <f>B9*0.9</f>
-        <v>11662.65</v>
+        <v>22621.837500000001</v>
       </c>
       <c r="C12" s="75">
         <f>C9*0.9</f>
-        <v>42653.340000000004</v>
+        <v>26496.179999999997</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -63536,11 +63542,11 @@
       </c>
       <c r="B13" s="75">
         <f>B12*0.9</f>
-        <v>10496.385</v>
+        <v>20359.653750000001</v>
       </c>
       <c r="C13" s="75">
         <f>C12*0.9</f>
-        <v>38388.006000000001</v>
+        <v>23846.561999999998</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -63549,11 +63555,11 @@
       </c>
       <c r="B14" s="75">
         <f t="shared" ref="B14:C15" si="1">B13*0.9</f>
-        <v>9446.7465000000011</v>
+        <v>18323.688375000002</v>
       </c>
       <c r="C14" s="75">
         <f t="shared" si="1"/>
-        <v>34549.205399999999</v>
+        <v>21461.9058</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -63562,11 +63568,11 @@
       </c>
       <c r="B15" s="75">
         <f t="shared" si="1"/>
-        <v>8502.0718500000021</v>
+        <v>16491.319537500003</v>
       </c>
       <c r="C15" s="75">
         <f t="shared" si="1"/>
-        <v>31094.28486</v>
+        <v>19315.715220000002</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">

--- a/projects/current/hattrick/z_Biblioteca.xlsx
+++ b/projects/current/hattrick/z_Biblioteca.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20379"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0FBC4D4-B881-49DC-BABE-E85C3D86B45C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BAD581B-53BE-4E30-86DC-A0FA60C04247}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resistencia" sheetId="1" r:id="rId1"/>
@@ -12153,6 +12153,7 @@
     <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -12180,6 +12181,18 @@
     <xf numFmtId="0" fontId="14" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -12192,34 +12205,19 @@
     <xf numFmtId="0" fontId="4" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -12228,16 +12226,13 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -12249,13 +12244,22 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="25" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12264,13 +12268,9 @@
     <xf numFmtId="166" fontId="25" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8"/>
@@ -14848,7 +14848,7 @@
   </sheetPr>
   <dimension ref="A1:AS127"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
@@ -21142,16 +21142,16 @@
       <c r="A59" s="30">
         <v>17</v>
       </c>
-      <c r="B59" s="230" t="s">
+      <c r="B59" s="231" t="s">
         <v>17</v>
       </c>
       <c r="C59" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D59" s="231" t="s">
+      <c r="D59" s="232" t="s">
         <v>19</v>
       </c>
-      <c r="E59" s="231" t="s">
+      <c r="E59" s="232" t="s">
         <v>19</v>
       </c>
       <c r="F59" s="32" t="s">
@@ -21165,12 +21165,12 @@
       <c r="A60" s="34">
         <v>18</v>
       </c>
-      <c r="B60" s="230"/>
+      <c r="B60" s="231"/>
       <c r="C60" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="D60" s="231"/>
-      <c r="E60" s="231"/>
+      <c r="D60" s="232"/>
+      <c r="E60" s="232"/>
       <c r="F60" s="32" t="s">
         <v>23</v>
       </c>
@@ -21182,10 +21182,10 @@
       <c r="A61" s="30">
         <v>19</v>
       </c>
-      <c r="B61" s="230"/>
+      <c r="B61" s="231"/>
       <c r="C61" s="35"/>
-      <c r="D61" s="231"/>
-      <c r="E61" s="231"/>
+      <c r="D61" s="232"/>
+      <c r="E61" s="232"/>
       <c r="F61" s="36"/>
       <c r="H61" s="25" t="s">
         <v>25</v>
@@ -21196,11 +21196,11 @@
       <c r="A62" s="34">
         <v>20</v>
       </c>
-      <c r="B62" s="230"/>
+      <c r="B62" s="231"/>
       <c r="C62" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D62" s="232" t="s">
+      <c r="D62" s="233" t="s">
         <v>20</v>
       </c>
       <c r="E62" s="32" t="s">
@@ -21215,13 +21215,13 @@
       <c r="A63" s="30">
         <v>21</v>
       </c>
-      <c r="B63" s="233" t="s">
+      <c r="B63" s="234" t="s">
         <v>18</v>
       </c>
       <c r="C63" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="D63" s="232"/>
+      <c r="D63" s="233"/>
       <c r="E63" s="32" t="s">
         <v>23</v>
       </c>
@@ -21234,9 +21234,9 @@
       <c r="A64" s="34">
         <v>22</v>
       </c>
-      <c r="B64" s="233"/>
+      <c r="B64" s="234"/>
       <c r="C64" s="36"/>
-      <c r="D64" s="232"/>
+      <c r="D64" s="233"/>
       <c r="E64" s="36"/>
       <c r="F64" s="36"/>
       <c r="H64" s="25" t="s">
@@ -21247,9 +21247,9 @@
       <c r="A65" s="30">
         <v>23</v>
       </c>
-      <c r="B65" s="233"/>
+      <c r="B65" s="234"/>
       <c r="C65" s="36"/>
-      <c r="D65" s="232"/>
+      <c r="D65" s="233"/>
       <c r="E65" s="36"/>
       <c r="F65" s="36"/>
     </row>
@@ -21257,9 +21257,9 @@
       <c r="A66" s="34">
         <v>24</v>
       </c>
-      <c r="B66" s="233"/>
+      <c r="B66" s="234"/>
       <c r="C66" s="36"/>
-      <c r="D66" s="232"/>
+      <c r="D66" s="233"/>
       <c r="E66" s="36"/>
       <c r="F66" s="36"/>
       <c r="H66" s="25" t="s">
@@ -21270,9 +21270,9 @@
       <c r="A67" s="30">
         <v>25</v>
       </c>
-      <c r="B67" s="233"/>
+      <c r="B67" s="234"/>
       <c r="C67" s="36"/>
-      <c r="D67" s="231" t="s">
+      <c r="D67" s="232" t="s">
         <v>19</v>
       </c>
       <c r="E67" s="36"/>
@@ -21285,11 +21285,11 @@
       <c r="A68" s="34">
         <v>26</v>
       </c>
-      <c r="B68" s="233"/>
-      <c r="C68" s="231" t="s">
+      <c r="B68" s="234"/>
+      <c r="C68" s="232" t="s">
         <v>19</v>
       </c>
-      <c r="D68" s="231"/>
+      <c r="D68" s="232"/>
       <c r="E68" s="36"/>
       <c r="F68" s="36"/>
     </row>
@@ -21297,11 +21297,11 @@
       <c r="A69" s="30">
         <v>27</v>
       </c>
-      <c r="B69" s="230" t="s">
+      <c r="B69" s="231" t="s">
         <v>17</v>
       </c>
-      <c r="C69" s="231"/>
-      <c r="D69" s="231"/>
+      <c r="C69" s="232"/>
+      <c r="D69" s="232"/>
       <c r="E69" s="36"/>
       <c r="F69" s="36"/>
     </row>
@@ -21309,11 +21309,11 @@
       <c r="A70" s="34">
         <v>28</v>
       </c>
-      <c r="B70" s="230"/>
-      <c r="C70" s="233" t="s">
+      <c r="B70" s="231"/>
+      <c r="C70" s="234" t="s">
         <v>18</v>
       </c>
-      <c r="D70" s="231"/>
+      <c r="D70" s="232"/>
       <c r="E70" s="36"/>
       <c r="F70" s="36"/>
       <c r="H70" s="25" t="s">
@@ -21324,9 +21324,9 @@
       <c r="A71" s="30">
         <v>29</v>
       </c>
-      <c r="B71" s="230"/>
-      <c r="C71" s="233"/>
-      <c r="D71" s="231"/>
+      <c r="B71" s="231"/>
+      <c r="C71" s="234"/>
+      <c r="D71" s="232"/>
       <c r="E71" s="36"/>
       <c r="F71" s="36"/>
     </row>
@@ -21334,9 +21334,9 @@
       <c r="A72" s="34">
         <v>30</v>
       </c>
-      <c r="B72" s="230"/>
-      <c r="C72" s="233"/>
-      <c r="D72" s="233" t="s">
+      <c r="B72" s="231"/>
+      <c r="C72" s="234"/>
+      <c r="D72" s="234" t="s">
         <v>18</v>
       </c>
       <c r="E72" s="36"/>
@@ -21349,9 +21349,9 @@
       <c r="A73" s="30">
         <v>31</v>
       </c>
-      <c r="B73" s="230"/>
-      <c r="C73" s="233"/>
-      <c r="D73" s="233"/>
+      <c r="B73" s="231"/>
+      <c r="C73" s="234"/>
+      <c r="D73" s="234"/>
       <c r="E73" s="32" t="s">
         <v>19</v>
       </c>
@@ -21361,9 +21361,9 @@
       <c r="A74" s="34">
         <v>32</v>
       </c>
-      <c r="B74" s="230"/>
-      <c r="C74" s="233"/>
-      <c r="D74" s="233"/>
+      <c r="B74" s="231"/>
+      <c r="C74" s="234"/>
+      <c r="D74" s="234"/>
       <c r="E74" s="32" t="s">
         <v>27</v>
       </c>
@@ -21376,11 +21376,11 @@
       <c r="A75" s="30">
         <v>33</v>
       </c>
-      <c r="B75" s="230"/>
-      <c r="C75" s="230" t="s">
+      <c r="B75" s="231"/>
+      <c r="C75" s="231" t="s">
         <v>17</v>
       </c>
-      <c r="D75" s="233"/>
+      <c r="D75" s="234"/>
       <c r="E75" s="31" t="s">
         <v>18</v>
       </c>
@@ -21392,11 +21392,11 @@
       <c r="A76" s="34">
         <v>34</v>
       </c>
-      <c r="B76" s="234" t="s">
+      <c r="B76" s="235" t="s">
         <v>35</v>
       </c>
-      <c r="C76" s="230"/>
-      <c r="D76" s="233"/>
+      <c r="C76" s="231"/>
+      <c r="D76" s="234"/>
       <c r="E76" s="31" t="s">
         <v>22</v>
       </c>
@@ -21411,14 +21411,14 @@
       <c r="A77" s="30">
         <v>35</v>
       </c>
-      <c r="B77" s="234"/>
-      <c r="C77" s="234" t="s">
+      <c r="B77" s="235"/>
+      <c r="C77" s="235" t="s">
         <v>35</v>
       </c>
-      <c r="D77" s="230" t="s">
+      <c r="D77" s="231" t="s">
         <v>17</v>
       </c>
-      <c r="E77" s="230" t="s">
+      <c r="E77" s="231" t="s">
         <v>17</v>
       </c>
       <c r="F77" s="35"/>
@@ -21427,10 +21427,10 @@
       <c r="A78" s="34">
         <v>36</v>
       </c>
-      <c r="B78" s="234"/>
-      <c r="C78" s="234"/>
-      <c r="D78" s="230"/>
-      <c r="E78" s="230"/>
+      <c r="B78" s="235"/>
+      <c r="C78" s="235"/>
+      <c r="D78" s="231"/>
+      <c r="E78" s="231"/>
       <c r="F78" s="37" t="s">
         <v>17</v>
       </c>
@@ -21439,14 +21439,14 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="229" t="s">
+      <c r="A79" s="230" t="s">
         <v>38</v>
       </c>
-      <c r="B79" s="229"/>
-      <c r="C79" s="229"/>
-      <c r="D79" s="229"/>
-      <c r="E79" s="229"/>
-      <c r="F79" s="229"/>
+      <c r="B79" s="230"/>
+      <c r="C79" s="230"/>
+      <c r="D79" s="230"/>
+      <c r="E79" s="230"/>
+      <c r="F79" s="230"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="24"/>
@@ -22559,97 +22559,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="264">
+      <c r="A1" s="266">
         <v>0.34</v>
       </c>
-      <c r="B1" s="265"/>
-      <c r="C1" s="264">
+      <c r="B1" s="267"/>
+      <c r="C1" s="266">
         <v>0.245</v>
       </c>
-      <c r="D1" s="265"/>
-      <c r="E1" s="264">
+      <c r="D1" s="267"/>
+      <c r="E1" s="266">
         <v>0.125</v>
       </c>
-      <c r="F1" s="265"/>
-      <c r="G1" s="264">
+      <c r="F1" s="267"/>
+      <c r="G1" s="266">
         <v>0.29099999999999998</v>
       </c>
-      <c r="H1" s="265"/>
-      <c r="I1" s="264">
+      <c r="H1" s="267"/>
+      <c r="I1" s="266">
         <v>0.19</v>
       </c>
-      <c r="J1" s="265"/>
-      <c r="L1" s="264">
+      <c r="J1" s="267"/>
+      <c r="L1" s="266">
         <v>0.34</v>
       </c>
-      <c r="M1" s="265"/>
-      <c r="N1" s="264">
+      <c r="M1" s="267"/>
+      <c r="N1" s="266">
         <v>0.245</v>
       </c>
-      <c r="O1" s="265"/>
-      <c r="P1" s="264">
+      <c r="O1" s="267"/>
+      <c r="P1" s="266">
         <v>0.125</v>
       </c>
-      <c r="Q1" s="265"/>
-      <c r="R1" s="264">
+      <c r="Q1" s="267"/>
+      <c r="R1" s="266">
         <f>0.291*86/100</f>
         <v>0.25025999999999998</v>
       </c>
-      <c r="S1" s="265"/>
-      <c r="T1" s="264">
+      <c r="S1" s="267"/>
+      <c r="T1" s="266">
         <v>0.19</v>
       </c>
-      <c r="U1" s="265"/>
-      <c r="W1" s="266" t="s">
+      <c r="U1" s="267"/>
+      <c r="W1" s="265" t="s">
         <v>232</v>
       </c>
-      <c r="X1" s="266"/>
-      <c r="AC1" s="266" t="s">
+      <c r="X1" s="265"/>
+      <c r="AC1" s="265" t="s">
         <v>233</v>
       </c>
-      <c r="AD1" s="266"/>
+      <c r="AD1" s="265"/>
     </row>
     <row r="2" spans="1:44" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="246" t="s">
+      <c r="A2" s="262" t="s">
         <v>234</v>
       </c>
-      <c r="B2" s="246"/>
-      <c r="C2" s="246" t="s">
+      <c r="B2" s="262"/>
+      <c r="C2" s="262" t="s">
         <v>235</v>
       </c>
-      <c r="D2" s="246"/>
-      <c r="E2" s="246" t="s">
+      <c r="D2" s="262"/>
+      <c r="E2" s="262" t="s">
         <v>236</v>
       </c>
-      <c r="F2" s="246"/>
-      <c r="G2" s="246" t="s">
+      <c r="F2" s="262"/>
+      <c r="G2" s="262" t="s">
         <v>237</v>
       </c>
-      <c r="H2" s="246"/>
-      <c r="I2" s="246" t="s">
+      <c r="H2" s="262"/>
+      <c r="I2" s="262" t="s">
         <v>238</v>
       </c>
-      <c r="J2" s="246"/>
-      <c r="L2" s="246" t="s">
+      <c r="J2" s="262"/>
+      <c r="L2" s="262" t="s">
         <v>234</v>
       </c>
-      <c r="M2" s="246"/>
-      <c r="N2" s="246" t="s">
+      <c r="M2" s="262"/>
+      <c r="N2" s="262" t="s">
         <v>235</v>
       </c>
-      <c r="O2" s="246"/>
-      <c r="P2" s="246" t="s">
+      <c r="O2" s="262"/>
+      <c r="P2" s="262" t="s">
         <v>236</v>
       </c>
-      <c r="Q2" s="246"/>
-      <c r="R2" s="246" t="s">
+      <c r="Q2" s="262"/>
+      <c r="R2" s="262" t="s">
         <v>237</v>
       </c>
-      <c r="S2" s="246"/>
-      <c r="T2" s="246" t="s">
+      <c r="S2" s="262"/>
+      <c r="T2" s="262" t="s">
         <v>238</v>
       </c>
-      <c r="U2" s="246"/>
+      <c r="U2" s="262"/>
     </row>
     <row r="3" spans="1:44" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="79" t="s">
@@ -22658,36 +22658,36 @@
       <c r="B3" s="79" t="s">
         <v>240</v>
       </c>
-      <c r="C3" s="247"/>
-      <c r="D3" s="248"/>
-      <c r="E3" s="247"/>
-      <c r="F3" s="248"/>
+      <c r="C3" s="263"/>
+      <c r="D3" s="264"/>
+      <c r="E3" s="263"/>
+      <c r="F3" s="264"/>
       <c r="G3" s="79" t="s">
         <v>239</v>
       </c>
       <c r="H3" s="79" t="s">
         <v>240</v>
       </c>
-      <c r="I3" s="247"/>
-      <c r="J3" s="248"/>
+      <c r="I3" s="263"/>
+      <c r="J3" s="264"/>
       <c r="L3" s="79" t="s">
         <v>239</v>
       </c>
       <c r="M3" s="79" t="s">
         <v>240</v>
       </c>
-      <c r="N3" s="247"/>
-      <c r="O3" s="248"/>
-      <c r="P3" s="247"/>
-      <c r="Q3" s="248"/>
+      <c r="N3" s="263"/>
+      <c r="O3" s="264"/>
+      <c r="P3" s="263"/>
+      <c r="Q3" s="264"/>
       <c r="R3" s="79" t="s">
         <v>239</v>
       </c>
       <c r="S3" s="79" t="s">
         <v>240</v>
       </c>
-      <c r="T3" s="247"/>
-      <c r="U3" s="248"/>
+      <c r="T3" s="263"/>
+      <c r="U3" s="264"/>
       <c r="W3" t="s">
         <v>241</v>
       </c>
@@ -22696,14 +22696,14 @@
       </c>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A4" s="250">
+      <c r="A4" s="256">
         <v>0.64709000000000005</v>
       </c>
-      <c r="B4" s="250"/>
-      <c r="C4" s="250">
+      <c r="B4" s="256"/>
+      <c r="C4" s="256">
         <v>0.97192999999999996</v>
       </c>
-      <c r="D4" s="250"/>
+      <c r="D4" s="256"/>
       <c r="E4" s="81"/>
       <c r="F4" s="81"/>
       <c r="G4" s="81"/>
@@ -22713,14 +22713,14 @@
       <c r="K4" s="80" t="s">
         <v>243</v>
       </c>
-      <c r="L4" s="250">
+      <c r="L4" s="256">
         <v>0.64709000000000005</v>
       </c>
-      <c r="M4" s="250"/>
-      <c r="N4" s="250">
+      <c r="M4" s="256"/>
+      <c r="N4" s="256">
         <v>0.97192999999999996</v>
       </c>
-      <c r="O4" s="250"/>
+      <c r="O4" s="256"/>
       <c r="P4" s="81"/>
       <c r="Q4" s="81"/>
       <c r="R4" s="81"/>
@@ -22738,14 +22738,14 @@
       </c>
     </row>
     <row r="5" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="249">
+      <c r="A5" s="261">
         <v>0.26545000000000002</v>
       </c>
-      <c r="B5" s="249"/>
-      <c r="C5" s="249">
+      <c r="B5" s="261"/>
+      <c r="C5" s="261">
         <v>0.39895999999999998</v>
       </c>
-      <c r="D5" s="249"/>
+      <c r="D5" s="261"/>
       <c r="E5" s="85"/>
       <c r="F5" s="85"/>
       <c r="G5" s="85"/>
@@ -22755,14 +22755,14 @@
       <c r="K5" s="84" t="s">
         <v>246</v>
       </c>
-      <c r="L5" s="249">
+      <c r="L5" s="261">
         <v>0.26545000000000002</v>
       </c>
-      <c r="M5" s="249"/>
-      <c r="N5" s="249">
+      <c r="M5" s="261"/>
+      <c r="N5" s="261">
         <v>0.39895999999999998</v>
       </c>
-      <c r="O5" s="249"/>
+      <c r="O5" s="261"/>
       <c r="P5" s="85"/>
       <c r="Q5" s="85"/>
       <c r="R5" s="85"/>
@@ -22786,10 +22786,10 @@
       <c r="B6" s="81">
         <v>0.25008999999999998</v>
       </c>
-      <c r="C6" s="250">
+      <c r="C6" s="256">
         <v>1</v>
       </c>
-      <c r="D6" s="250"/>
+      <c r="D6" s="256"/>
       <c r="E6" s="81"/>
       <c r="F6" s="81"/>
       <c r="G6" s="81"/>
@@ -22805,10 +22805,10 @@
       <c r="M6" s="81">
         <v>0.25008999999999998</v>
       </c>
-      <c r="N6" s="250">
+      <c r="N6" s="256">
         <v>1</v>
       </c>
-      <c r="O6" s="250"/>
+      <c r="O6" s="256"/>
       <c r="P6" s="81"/>
       <c r="Q6" s="81"/>
       <c r="R6" s="81"/>
@@ -22821,10 +22821,10 @@
       <c r="B7" s="85"/>
       <c r="C7" s="85"/>
       <c r="D7" s="85"/>
-      <c r="E7" s="249">
+      <c r="E7" s="261">
         <v>0.27488000000000001</v>
       </c>
-      <c r="F7" s="249"/>
+      <c r="F7" s="261"/>
       <c r="G7" s="85"/>
       <c r="H7" s="85"/>
       <c r="I7" s="85"/>
@@ -22836,10 +22836,10 @@
       <c r="M7" s="85"/>
       <c r="N7" s="85"/>
       <c r="O7" s="85"/>
-      <c r="P7" s="249">
+      <c r="P7" s="261">
         <v>0.27488000000000001</v>
       </c>
-      <c r="Q7" s="249"/>
+      <c r="Q7" s="261"/>
       <c r="R7" s="85"/>
       <c r="S7" s="85"/>
       <c r="T7" s="85"/>
@@ -22858,10 +22858,10 @@
       <c r="B8" s="81">
         <v>0.17752000000000001</v>
       </c>
-      <c r="C8" s="250">
+      <c r="C8" s="256">
         <v>0.72296000000000005</v>
       </c>
-      <c r="D8" s="250"/>
+      <c r="D8" s="256"/>
       <c r="E8" s="81"/>
       <c r="F8" s="81"/>
       <c r="G8" s="81"/>
@@ -22877,10 +22877,10 @@
       <c r="M8" s="81">
         <v>0.17752000000000001</v>
       </c>
-      <c r="N8" s="250">
+      <c r="N8" s="256">
         <v>0.72296000000000005</v>
       </c>
-      <c r="O8" s="250"/>
+      <c r="O8" s="256"/>
       <c r="P8" s="81"/>
       <c r="Q8" s="81"/>
       <c r="R8" s="81"/>
@@ -22896,10 +22896,10 @@
       <c r="B9" s="85"/>
       <c r="C9" s="85"/>
       <c r="D9" s="85"/>
-      <c r="E9" s="249">
+      <c r="E9" s="261">
         <v>0.36337000000000003</v>
       </c>
-      <c r="F9" s="249"/>
+      <c r="F9" s="261"/>
       <c r="G9" s="85"/>
       <c r="H9" s="85"/>
       <c r="I9" s="85"/>
@@ -22911,11 +22911,11 @@
       <c r="M9" s="85"/>
       <c r="N9" s="85"/>
       <c r="O9" s="85"/>
-      <c r="P9" s="249">
+      <c r="P9" s="261">
         <f>36.337%*1.21</f>
         <v>0.4396777</v>
       </c>
-      <c r="Q9" s="249"/>
+      <c r="Q9" s="261"/>
       <c r="R9" s="85"/>
       <c r="S9" s="85"/>
       <c r="T9" s="85"/>
@@ -22929,10 +22929,10 @@
         <v>0.65615999999999997</v>
       </c>
       <c r="B10" s="81"/>
-      <c r="C10" s="250">
+      <c r="C10" s="256">
         <v>0.78437000000000001</v>
       </c>
-      <c r="D10" s="250"/>
+      <c r="D10" s="256"/>
       <c r="E10" s="81"/>
       <c r="F10" s="81"/>
       <c r="G10" s="81"/>
@@ -22947,11 +22947,11 @@
         <v>0.69552959999999997</v>
       </c>
       <c r="M10" s="81"/>
-      <c r="N10" s="250">
+      <c r="N10" s="256">
         <f>78.437%*(1-0.09)</f>
         <v>0.71377670000000004</v>
       </c>
-      <c r="O10" s="250"/>
+      <c r="O10" s="256"/>
       <c r="P10" s="81"/>
       <c r="Q10" s="81"/>
       <c r="R10" s="81"/>
@@ -22967,10 +22967,10 @@
       <c r="B11" s="88"/>
       <c r="C11" s="88"/>
       <c r="D11" s="88"/>
-      <c r="E11" s="251">
+      <c r="E11" s="260">
         <v>0.1464</v>
       </c>
-      <c r="F11" s="251"/>
+      <c r="F11" s="260"/>
       <c r="G11" s="88"/>
       <c r="H11" s="88"/>
       <c r="I11" s="88"/>
@@ -22982,10 +22982,10 @@
       <c r="M11" s="88"/>
       <c r="N11" s="88"/>
       <c r="O11" s="88"/>
-      <c r="P11" s="251">
+      <c r="P11" s="260">
         <v>0.1464</v>
       </c>
-      <c r="Q11" s="251"/>
+      <c r="Q11" s="260"/>
       <c r="R11" s="88"/>
       <c r="S11" s="88"/>
       <c r="T11" s="88"/>
@@ -23030,14 +23030,14 @@
       </c>
     </row>
     <row r="13" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A13" s="250">
+      <c r="A13" s="256">
         <v>0.42514999999999997</v>
       </c>
-      <c r="B13" s="250"/>
-      <c r="C13" s="250">
+      <c r="B13" s="256"/>
+      <c r="C13" s="256">
         <v>0.85</v>
       </c>
-      <c r="D13" s="250"/>
+      <c r="D13" s="256"/>
       <c r="E13" s="81"/>
       <c r="F13" s="81"/>
       <c r="G13" s="81"/>
@@ -23047,14 +23047,14 @@
       <c r="K13" s="80" t="s">
         <v>260</v>
       </c>
-      <c r="L13" s="250">
+      <c r="L13" s="256">
         <v>0.42514999999999997</v>
       </c>
-      <c r="M13" s="250"/>
-      <c r="N13" s="250">
+      <c r="M13" s="256"/>
+      <c r="N13" s="256">
         <v>0.85</v>
       </c>
-      <c r="O13" s="250"/>
+      <c r="O13" s="256"/>
       <c r="P13" s="81"/>
       <c r="Q13" s="81"/>
       <c r="R13" s="81"/>
@@ -23087,10 +23087,10 @@
       <c r="B14" s="85"/>
       <c r="C14" s="85"/>
       <c r="D14" s="85"/>
-      <c r="E14" s="249">
+      <c r="E14" s="261">
         <v>0.23365</v>
       </c>
-      <c r="F14" s="249"/>
+      <c r="F14" s="261"/>
       <c r="G14" s="85"/>
       <c r="H14" s="85"/>
       <c r="I14" s="85"/>
@@ -23102,10 +23102,10 @@
       <c r="M14" s="85"/>
       <c r="N14" s="85"/>
       <c r="O14" s="85"/>
-      <c r="P14" s="249">
+      <c r="P14" s="261">
         <v>0.23365</v>
       </c>
-      <c r="Q14" s="249"/>
+      <c r="Q14" s="261"/>
       <c r="R14" s="85"/>
       <c r="S14" s="85"/>
       <c r="T14" s="85"/>
@@ -23143,10 +23143,10 @@
         <v>1</v>
       </c>
       <c r="B15" s="92"/>
-      <c r="C15" s="250">
+      <c r="C15" s="256">
         <v>0.51382000000000005</v>
       </c>
-      <c r="D15" s="250"/>
+      <c r="D15" s="256"/>
       <c r="E15" s="81"/>
       <c r="F15" s="81"/>
       <c r="G15" s="81"/>
@@ -23160,10 +23160,10 @@
         <v>1</v>
       </c>
       <c r="M15" s="92"/>
-      <c r="N15" s="250">
+      <c r="N15" s="256">
         <v>0.51382000000000005</v>
       </c>
-      <c r="O15" s="250"/>
+      <c r="O15" s="256"/>
       <c r="P15" s="81"/>
       <c r="Q15" s="81"/>
       <c r="R15" s="81"/>
@@ -23211,10 +23211,10 @@
       <c r="B16" s="88"/>
       <c r="C16" s="88"/>
       <c r="D16" s="88"/>
-      <c r="E16" s="251">
+      <c r="E16" s="260">
         <v>4.3869999999999999E-2</v>
       </c>
-      <c r="F16" s="251"/>
+      <c r="F16" s="260"/>
       <c r="G16" s="88"/>
       <c r="H16" s="88"/>
       <c r="I16" s="88"/>
@@ -23226,10 +23226,10 @@
       <c r="M16" s="88"/>
       <c r="N16" s="88"/>
       <c r="O16" s="88"/>
-      <c r="P16" s="251">
+      <c r="P16" s="260">
         <v>4.3869999999999999E-2</v>
       </c>
-      <c r="Q16" s="251"/>
+      <c r="Q16" s="260"/>
       <c r="R16" s="88"/>
       <c r="S16" s="88"/>
       <c r="T16" s="88"/>
@@ -23310,10 +23310,10 @@
         <v>0.91232999999999997</v>
       </c>
       <c r="B18" s="92"/>
-      <c r="C18" s="250">
+      <c r="C18" s="256">
         <v>0.46146999999999999</v>
       </c>
-      <c r="D18" s="250"/>
+      <c r="D18" s="256"/>
       <c r="E18" s="81"/>
       <c r="F18" s="81"/>
       <c r="G18" s="81"/>
@@ -23327,11 +23327,11 @@
         <v>0.91232999999999997</v>
       </c>
       <c r="M18" s="92"/>
-      <c r="N18" s="250">
+      <c r="N18" s="256">
         <f>46.147%*(1-0.08)</f>
         <v>0.4245524</v>
       </c>
-      <c r="O18" s="250"/>
+      <c r="O18" s="256"/>
       <c r="P18" s="81"/>
       <c r="Q18" s="81"/>
       <c r="R18" s="81"/>
@@ -23350,10 +23350,10 @@
       <c r="B19" s="88"/>
       <c r="C19" s="88"/>
       <c r="D19" s="88"/>
-      <c r="E19" s="251">
+      <c r="E19" s="260">
         <v>0.15035999999999999</v>
       </c>
-      <c r="F19" s="251"/>
+      <c r="F19" s="260"/>
       <c r="G19" s="88"/>
       <c r="H19" s="88"/>
       <c r="I19" s="88"/>
@@ -23365,10 +23365,10 @@
       <c r="M19" s="88"/>
       <c r="N19" s="88"/>
       <c r="O19" s="88"/>
-      <c r="P19" s="251">
+      <c r="P19" s="260">
         <v>0.15035999999999999</v>
       </c>
-      <c r="Q19" s="251"/>
+      <c r="Q19" s="260"/>
       <c r="R19" s="88"/>
       <c r="S19" s="88"/>
       <c r="T19" s="88"/>
@@ -23438,10 +23438,10 @@
         <v>0.69059999999999999</v>
       </c>
       <c r="B21" s="92"/>
-      <c r="C21" s="250">
+      <c r="C21" s="256">
         <v>0.38878000000000001</v>
       </c>
-      <c r="D21" s="250"/>
+      <c r="D21" s="256"/>
       <c r="E21" s="81"/>
       <c r="F21" s="81"/>
       <c r="G21" s="81"/>
@@ -23455,10 +23455,10 @@
         <v>0.69059999999999999</v>
       </c>
       <c r="M21" s="92"/>
-      <c r="N21" s="250">
+      <c r="N21" s="256">
         <v>0.38878000000000001</v>
       </c>
-      <c r="O21" s="250"/>
+      <c r="O21" s="256"/>
       <c r="P21" s="81"/>
       <c r="Q21" s="81"/>
       <c r="R21" s="81"/>
@@ -23480,10 +23480,10 @@
       <c r="B22" s="88"/>
       <c r="C22" s="88"/>
       <c r="D22" s="88"/>
-      <c r="E22" s="251">
+      <c r="E22" s="260">
         <v>0.2099</v>
       </c>
-      <c r="F22" s="251"/>
+      <c r="F22" s="260"/>
       <c r="G22" s="88"/>
       <c r="H22" s="88"/>
       <c r="I22" s="88"/>
@@ -23495,10 +23495,10 @@
       <c r="M22" s="88"/>
       <c r="N22" s="88"/>
       <c r="O22" s="88"/>
-      <c r="P22" s="251">
+      <c r="P22" s="260">
         <v>0.2099</v>
       </c>
-      <c r="Q22" s="251"/>
+      <c r="Q22" s="260"/>
       <c r="R22" s="88"/>
       <c r="S22" s="88"/>
       <c r="T22" s="88"/>
@@ -23562,10 +23562,10 @@
         <v>0.68315000000000003</v>
       </c>
       <c r="B24" s="92"/>
-      <c r="C24" s="250">
+      <c r="C24" s="256">
         <v>0.70006000000000002</v>
       </c>
-      <c r="D24" s="250"/>
+      <c r="D24" s="256"/>
       <c r="E24" s="81"/>
       <c r="F24" s="81"/>
       <c r="G24" s="81"/>
@@ -23579,10 +23579,10 @@
         <v>0.68315000000000003</v>
       </c>
       <c r="M24" s="92"/>
-      <c r="N24" s="250">
+      <c r="N24" s="256">
         <v>0.70006000000000002</v>
       </c>
-      <c r="O24" s="250"/>
+      <c r="O24" s="256"/>
       <c r="P24" s="81"/>
       <c r="Q24" s="81"/>
       <c r="R24" s="81"/>
@@ -23607,10 +23607,10 @@
       <c r="B25" s="88"/>
       <c r="C25" s="88"/>
       <c r="D25" s="88"/>
-      <c r="E25" s="251">
+      <c r="E25" s="260">
         <v>0.152</v>
       </c>
-      <c r="F25" s="251"/>
+      <c r="F25" s="260"/>
       <c r="G25" s="88"/>
       <c r="H25" s="88"/>
       <c r="I25" s="88"/>
@@ -23622,10 +23622,10 @@
       <c r="M25" s="88"/>
       <c r="N25" s="88"/>
       <c r="O25" s="88"/>
-      <c r="P25" s="251">
+      <c r="P25" s="260">
         <v>0.152</v>
       </c>
-      <c r="Q25" s="251"/>
+      <c r="Q25" s="260"/>
       <c r="R25" s="88"/>
       <c r="S25" s="88"/>
       <c r="T25" s="88"/>
@@ -23688,16 +23688,16 @@
       <c r="B27" s="81">
         <v>9.2719999999999997E-2</v>
       </c>
-      <c r="C27" s="250">
+      <c r="C27" s="256">
         <v>0.42459999999999998</v>
       </c>
-      <c r="D27" s="250"/>
+      <c r="D27" s="256"/>
       <c r="E27" s="81"/>
       <c r="F27" s="81"/>
       <c r="G27" s="81"/>
       <c r="H27" s="81"/>
-      <c r="I27" s="254"/>
-      <c r="J27" s="255"/>
+      <c r="I27" s="249"/>
+      <c r="J27" s="251"/>
       <c r="K27" s="80" t="s">
         <v>292</v>
       </c>
@@ -23707,16 +23707,16 @@
       <c r="M27" s="81">
         <v>9.2719999999999997E-2</v>
       </c>
-      <c r="N27" s="250">
+      <c r="N27" s="256">
         <v>0.42459999999999998</v>
       </c>
-      <c r="O27" s="250"/>
+      <c r="O27" s="256"/>
       <c r="P27" s="81"/>
       <c r="Q27" s="81"/>
       <c r="R27" s="81"/>
       <c r="S27" s="81"/>
-      <c r="T27" s="254"/>
-      <c r="U27" s="255"/>
+      <c r="T27" s="249"/>
+      <c r="U27" s="251"/>
       <c r="W27" t="s">
         <v>415</v>
       </c>
@@ -23732,10 +23732,10 @@
       <c r="B28" s="88"/>
       <c r="C28" s="88"/>
       <c r="D28" s="88"/>
-      <c r="E28" s="251">
+      <c r="E28" s="260">
         <v>1</v>
       </c>
-      <c r="F28" s="251"/>
+      <c r="F28" s="260"/>
       <c r="G28" s="88"/>
       <c r="H28" s="88"/>
       <c r="I28" s="252"/>
@@ -23747,10 +23747,10 @@
       <c r="M28" s="88"/>
       <c r="N28" s="88"/>
       <c r="O28" s="88"/>
-      <c r="P28" s="251">
+      <c r="P28" s="260">
         <v>1</v>
       </c>
-      <c r="Q28" s="251"/>
+      <c r="Q28" s="260"/>
       <c r="R28" s="88"/>
       <c r="S28" s="88"/>
       <c r="T28" s="252"/>
@@ -23784,10 +23784,10 @@
       <c r="Q29" s="90"/>
       <c r="R29" s="85"/>
       <c r="S29" s="85"/>
-      <c r="T29" s="256">
+      <c r="T29" s="254">
         <v>0.21</v>
       </c>
-      <c r="U29" s="257"/>
+      <c r="U29" s="255"/>
       <c r="W29" t="s">
         <v>420</v>
       </c>
@@ -23808,10 +23808,10 @@
       <c r="H30" s="85">
         <v>0.1226</v>
       </c>
-      <c r="I30" s="256">
+      <c r="I30" s="254">
         <v>0.34044000000000002</v>
       </c>
-      <c r="J30" s="257"/>
+      <c r="J30" s="255"/>
       <c r="K30" s="84" t="s">
         <v>298</v>
       </c>
@@ -23827,11 +23827,11 @@
       <c r="S30" s="85">
         <v>0.14255813953488372</v>
       </c>
-      <c r="T30" s="256">
+      <c r="T30" s="254">
         <f>34.044%*1.05</f>
         <v>0.357462</v>
       </c>
-      <c r="U30" s="257"/>
+      <c r="U30" s="255"/>
       <c r="W30" t="s">
         <v>422</v>
       </c>
@@ -23852,16 +23852,16 @@
       <c r="B31" s="81">
         <v>0.13719000000000001</v>
       </c>
-      <c r="C31" s="250">
+      <c r="C31" s="256">
         <v>0.62792999999999999</v>
       </c>
-      <c r="D31" s="250"/>
+      <c r="D31" s="256"/>
       <c r="E31" s="81"/>
       <c r="F31" s="81"/>
       <c r="G31" s="81"/>
       <c r="H31" s="81"/>
-      <c r="I31" s="254"/>
-      <c r="J31" s="255"/>
+      <c r="I31" s="249"/>
+      <c r="J31" s="251"/>
       <c r="K31" s="80" t="s">
         <v>300</v>
       </c>
@@ -23871,16 +23871,16 @@
       <c r="M31" s="81">
         <v>0.13719000000000001</v>
       </c>
-      <c r="N31" s="250">
+      <c r="N31" s="256">
         <v>0.62792999999999999</v>
       </c>
-      <c r="O31" s="250"/>
+      <c r="O31" s="256"/>
       <c r="P31" s="81"/>
       <c r="Q31" s="81"/>
       <c r="R31" s="81"/>
       <c r="S31" s="81"/>
-      <c r="T31" s="254"/>
-      <c r="U31" s="255"/>
+      <c r="T31" s="249"/>
+      <c r="U31" s="251"/>
       <c r="W31" t="s">
         <v>426</v>
       </c>
@@ -23916,10 +23916,10 @@
       <c r="Q32" s="103"/>
       <c r="R32" s="103"/>
       <c r="S32" s="103"/>
-      <c r="T32" s="256">
+      <c r="T32" s="254">
         <v>0.12</v>
       </c>
-      <c r="U32" s="257"/>
+      <c r="U32" s="255"/>
       <c r="W32" t="s">
         <v>430</v>
       </c>
@@ -23946,10 +23946,10 @@
       <c r="H33" s="85">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="I33" s="256">
+      <c r="I33" s="254">
         <v>0.23748</v>
       </c>
-      <c r="J33" s="257"/>
+      <c r="J33" s="255"/>
       <c r="K33" s="84" t="s">
         <v>303</v>
       </c>
@@ -23965,11 +23965,11 @@
       <c r="S33" s="85">
         <v>6.8837209302325592E-2</v>
       </c>
-      <c r="T33" s="256">
+      <c r="T33" s="254">
         <f>23.748%*0.8</f>
         <v>0.18998400000000004</v>
       </c>
-      <c r="U33" s="257"/>
+      <c r="U33" s="255"/>
       <c r="W33" t="s">
         <v>434</v>
       </c>
@@ -23990,16 +23990,16 @@
       <c r="B34" s="81">
         <v>5.6059999999999999E-2</v>
       </c>
-      <c r="C34" s="250">
+      <c r="C34" s="256">
         <v>0.23462</v>
       </c>
-      <c r="D34" s="250"/>
+      <c r="D34" s="256"/>
       <c r="E34" s="81"/>
       <c r="F34" s="81"/>
       <c r="G34" s="81"/>
       <c r="H34" s="81"/>
-      <c r="I34" s="254"/>
-      <c r="J34" s="255"/>
+      <c r="I34" s="249"/>
+      <c r="J34" s="251"/>
       <c r="K34" s="80" t="s">
         <v>305</v>
       </c>
@@ -24011,17 +24011,17 @@
         <f>5.606%*0.75</f>
         <v>4.2044999999999999E-2</v>
       </c>
-      <c r="N34" s="250">
+      <c r="N34" s="256">
         <f>23.462%*0.75</f>
         <v>0.17596499999999998</v>
       </c>
-      <c r="O34" s="250"/>
+      <c r="O34" s="256"/>
       <c r="P34" s="81"/>
       <c r="Q34" s="81"/>
       <c r="R34" s="81"/>
       <c r="S34" s="81"/>
-      <c r="T34" s="254"/>
-      <c r="U34" s="255"/>
+      <c r="T34" s="249"/>
+      <c r="U34" s="251"/>
       <c r="W34" t="s">
         <v>438</v>
       </c>
@@ -24057,10 +24057,10 @@
       <c r="Q35" s="103"/>
       <c r="R35" s="103"/>
       <c r="S35" s="103"/>
-      <c r="T35" s="256">
+      <c r="T35" s="254">
         <v>0.31</v>
       </c>
-      <c r="U35" s="257"/>
+      <c r="U35" s="255"/>
       <c r="W35" t="s">
         <v>442</v>
       </c>
@@ -24081,10 +24081,10 @@
       <c r="H36" s="85">
         <v>0.11894</v>
       </c>
-      <c r="I36" s="256">
+      <c r="I36" s="254">
         <v>0.50244</v>
       </c>
-      <c r="J36" s="257"/>
+      <c r="J36" s="255"/>
       <c r="K36" s="84" t="s">
         <v>307</v>
       </c>
@@ -24100,11 +24100,11 @@
       <c r="S36" s="85">
         <v>0.13830232558139535</v>
       </c>
-      <c r="T36" s="256">
+      <c r="T36" s="254">
         <f>50.244%*1.05</f>
         <v>0.52756199999999998</v>
       </c>
-      <c r="U36" s="257"/>
+      <c r="U36" s="255"/>
       <c r="AC36" t="s">
         <v>444</v>
       </c>
@@ -24114,14 +24114,14 @@
       <c r="B37" s="94"/>
       <c r="C37" s="94"/>
       <c r="D37" s="94"/>
-      <c r="E37" s="258">
+      <c r="E37" s="257">
         <v>0.94696999999999998</v>
       </c>
-      <c r="F37" s="258"/>
+      <c r="F37" s="257"/>
       <c r="G37" s="94"/>
       <c r="H37" s="94"/>
-      <c r="I37" s="259"/>
-      <c r="J37" s="260"/>
+      <c r="I37" s="258"/>
+      <c r="J37" s="259"/>
       <c r="K37" s="93" t="s">
         <v>309</v>
       </c>
@@ -24129,54 +24129,54 @@
       <c r="M37" s="94"/>
       <c r="N37" s="94"/>
       <c r="O37" s="94"/>
-      <c r="P37" s="258">
+      <c r="P37" s="257">
         <v>0.94696999999999998</v>
       </c>
-      <c r="Q37" s="258"/>
+      <c r="Q37" s="257"/>
       <c r="R37" s="94"/>
       <c r="S37" s="94"/>
-      <c r="T37" s="259"/>
-      <c r="U37" s="260"/>
-      <c r="W37" s="266" t="s">
+      <c r="T37" s="258"/>
+      <c r="U37" s="259"/>
+      <c r="W37" s="265" t="s">
         <v>261</v>
       </c>
-      <c r="X37" s="266"/>
+      <c r="X37" s="265"/>
       <c r="AC37" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="38" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A38" s="250">
+      <c r="A38" s="256">
         <v>0.15762999999999999</v>
       </c>
-      <c r="B38" s="250"/>
-      <c r="C38" s="250">
+      <c r="B38" s="256"/>
+      <c r="C38" s="256">
         <v>0.36070000000000002</v>
       </c>
-      <c r="D38" s="250"/>
+      <c r="D38" s="256"/>
       <c r="E38" s="81"/>
       <c r="F38" s="81"/>
       <c r="G38" s="81"/>
       <c r="H38" s="81"/>
-      <c r="I38" s="254"/>
-      <c r="J38" s="255"/>
+      <c r="I38" s="249"/>
+      <c r="J38" s="251"/>
       <c r="K38" s="80" t="s">
         <v>310</v>
       </c>
-      <c r="L38" s="250">
+      <c r="L38" s="256">
         <v>0.15762999999999999</v>
       </c>
-      <c r="M38" s="250"/>
-      <c r="N38" s="250">
+      <c r="M38" s="256"/>
+      <c r="N38" s="256">
         <v>0.36070000000000002</v>
       </c>
-      <c r="O38" s="250"/>
+      <c r="O38" s="256"/>
       <c r="P38" s="81"/>
       <c r="Q38" s="81"/>
       <c r="R38" s="81"/>
       <c r="S38" s="81"/>
-      <c r="T38" s="254"/>
-      <c r="U38" s="255"/>
+      <c r="T38" s="249"/>
+      <c r="U38" s="251"/>
       <c r="AC38" t="s">
         <v>446</v>
       </c>
@@ -24186,10 +24186,10 @@
       <c r="B39" s="88"/>
       <c r="C39" s="88"/>
       <c r="D39" s="88"/>
-      <c r="E39" s="251">
+      <c r="E39" s="260">
         <v>0.85</v>
       </c>
-      <c r="F39" s="251"/>
+      <c r="F39" s="260"/>
       <c r="G39" s="88"/>
       <c r="H39" s="88"/>
       <c r="I39" s="252"/>
@@ -24201,10 +24201,10 @@
       <c r="M39" s="88"/>
       <c r="N39" s="88"/>
       <c r="O39" s="88"/>
-      <c r="P39" s="251">
+      <c r="P39" s="260">
         <v>0.85</v>
       </c>
-      <c r="Q39" s="251"/>
+      <c r="Q39" s="260"/>
       <c r="R39" s="88"/>
       <c r="S39" s="88"/>
       <c r="T39" s="252"/>
@@ -24227,10 +24227,10 @@
         <v>0.20784</v>
       </c>
       <c r="H40" s="85"/>
-      <c r="I40" s="256">
+      <c r="I40" s="254">
         <v>0.28937000000000002</v>
       </c>
-      <c r="J40" s="257"/>
+      <c r="J40" s="255"/>
       <c r="K40" s="84" t="s">
         <v>313</v>
       </c>
@@ -24244,10 +24244,10 @@
         <v>0.24167441860465114</v>
       </c>
       <c r="S40" s="85"/>
-      <c r="T40" s="256">
+      <c r="T40" s="254">
         <v>0.28937000000000002</v>
       </c>
-      <c r="U40" s="257"/>
+      <c r="U40" s="255"/>
       <c r="W40" t="s">
         <v>244</v>
       </c>
@@ -24256,37 +24256,37 @@
       </c>
     </row>
     <row r="41" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A41" s="250">
+      <c r="A41" s="256">
         <v>0.20368</v>
       </c>
-      <c r="B41" s="250"/>
-      <c r="C41" s="250">
+      <c r="B41" s="256"/>
+      <c r="C41" s="256">
         <v>0.33767000000000003</v>
       </c>
-      <c r="D41" s="250"/>
+      <c r="D41" s="256"/>
       <c r="E41" s="81"/>
       <c r="F41" s="81"/>
       <c r="G41" s="81"/>
       <c r="H41" s="81"/>
-      <c r="I41" s="254"/>
-      <c r="J41" s="255"/>
+      <c r="I41" s="249"/>
+      <c r="J41" s="251"/>
       <c r="K41" s="80" t="s">
         <v>315</v>
       </c>
-      <c r="L41" s="250">
+      <c r="L41" s="256">
         <v>0.20368</v>
       </c>
-      <c r="M41" s="250"/>
-      <c r="N41" s="250">
+      <c r="M41" s="256"/>
+      <c r="N41" s="256">
         <v>0.33767000000000003</v>
       </c>
-      <c r="O41" s="250"/>
+      <c r="O41" s="256"/>
       <c r="P41" s="81"/>
       <c r="Q41" s="81"/>
       <c r="R41" s="81"/>
       <c r="S41" s="81"/>
-      <c r="T41" s="254"/>
-      <c r="U41" s="255"/>
+      <c r="T41" s="249"/>
+      <c r="U41" s="251"/>
       <c r="W41" t="s">
         <v>247</v>
       </c>
@@ -24299,10 +24299,10 @@
       <c r="B42" s="88"/>
       <c r="C42" s="88"/>
       <c r="D42" s="88"/>
-      <c r="E42" s="251">
+      <c r="E42" s="260">
         <v>0.89815999999999996</v>
       </c>
-      <c r="F42" s="251"/>
+      <c r="F42" s="260"/>
       <c r="G42" s="88"/>
       <c r="H42" s="88"/>
       <c r="I42" s="252"/>
@@ -24314,10 +24314,10 @@
       <c r="M42" s="88"/>
       <c r="N42" s="88"/>
       <c r="O42" s="88"/>
-      <c r="P42" s="251">
+      <c r="P42" s="260">
         <v>0.89815999999999996</v>
       </c>
-      <c r="Q42" s="251"/>
+      <c r="Q42" s="260"/>
       <c r="R42" s="88"/>
       <c r="S42" s="88"/>
       <c r="T42" s="252"/>
@@ -24372,10 +24372,10 @@
         <v>0.26422000000000001</v>
       </c>
       <c r="H44" s="85"/>
-      <c r="I44" s="256">
+      <c r="I44" s="254">
         <v>0.2399</v>
       </c>
-      <c r="J44" s="257"/>
+      <c r="J44" s="255"/>
       <c r="K44" s="84" t="s">
         <v>321</v>
       </c>
@@ -24389,11 +24389,11 @@
         <v>0.30723255813953487</v>
       </c>
       <c r="S44" s="85"/>
-      <c r="T44" s="256">
+      <c r="T44" s="254">
         <f>23.99%*1.06</f>
         <v>0.25429399999999996</v>
       </c>
-      <c r="U44" s="257"/>
+      <c r="U44" s="255"/>
       <c r="W44" t="s">
         <v>258</v>
       </c>
@@ -24406,16 +24406,16 @@
         <v>0.34708</v>
       </c>
       <c r="B45" s="92"/>
-      <c r="C45" s="250">
+      <c r="C45" s="256">
         <v>0.20830000000000001</v>
       </c>
-      <c r="D45" s="250"/>
+      <c r="D45" s="256"/>
       <c r="E45" s="81"/>
       <c r="F45" s="81"/>
       <c r="G45" s="81"/>
       <c r="H45" s="81"/>
-      <c r="I45" s="254"/>
-      <c r="J45" s="255"/>
+      <c r="I45" s="249"/>
+      <c r="J45" s="251"/>
       <c r="K45" s="80" t="s">
         <v>322</v>
       </c>
@@ -24423,16 +24423,16 @@
         <v>0.34708</v>
       </c>
       <c r="M45" s="92"/>
-      <c r="N45" s="250">
+      <c r="N45" s="256">
         <v>0.20830000000000001</v>
       </c>
-      <c r="O45" s="250"/>
+      <c r="O45" s="256"/>
       <c r="P45" s="81"/>
       <c r="Q45" s="81"/>
       <c r="R45" s="81"/>
       <c r="S45" s="81"/>
-      <c r="T45" s="254"/>
-      <c r="U45" s="255"/>
+      <c r="T45" s="249"/>
+      <c r="U45" s="251"/>
       <c r="AC45" t="s">
         <v>453</v>
       </c>
@@ -24442,10 +24442,10 @@
       <c r="B46" s="88"/>
       <c r="C46" s="88"/>
       <c r="D46" s="88"/>
-      <c r="E46" s="251">
+      <c r="E46" s="260">
         <v>0.52559999999999996</v>
       </c>
-      <c r="F46" s="251"/>
+      <c r="F46" s="260"/>
       <c r="G46" s="88"/>
       <c r="H46" s="88"/>
       <c r="I46" s="252"/>
@@ -24457,10 +24457,10 @@
       <c r="M46" s="88"/>
       <c r="N46" s="88"/>
       <c r="O46" s="88"/>
-      <c r="P46" s="251">
+      <c r="P46" s="260">
         <v>0.52559999999999996</v>
       </c>
-      <c r="Q46" s="251"/>
+      <c r="Q46" s="260"/>
       <c r="R46" s="88"/>
       <c r="S46" s="88"/>
       <c r="T46" s="252"/>
@@ -24512,10 +24512,10 @@
         <v>0.23543</v>
       </c>
       <c r="H48" s="85"/>
-      <c r="I48" s="256">
+      <c r="I48" s="254">
         <v>0.13220000000000001</v>
       </c>
-      <c r="J48" s="257"/>
+      <c r="J48" s="255"/>
       <c r="K48" s="84" t="s">
         <v>326</v>
       </c>
@@ -24529,11 +24529,11 @@
         <v>0.27375581395348836</v>
       </c>
       <c r="S48" s="85"/>
-      <c r="T48" s="256">
+      <c r="T48" s="254">
         <f>13.22%*1.16</f>
         <v>0.15335200000000002</v>
       </c>
-      <c r="U48" s="257"/>
+      <c r="U48" s="255"/>
       <c r="W48" t="s">
         <v>455</v>
       </c>
@@ -24546,14 +24546,14 @@
       <c r="B49" s="94"/>
       <c r="C49" s="94"/>
       <c r="D49" s="94"/>
-      <c r="E49" s="258">
+      <c r="E49" s="257">
         <v>0.43773000000000001</v>
       </c>
-      <c r="F49" s="258"/>
+      <c r="F49" s="257"/>
       <c r="G49" s="94"/>
       <c r="H49" s="94"/>
-      <c r="I49" s="259"/>
-      <c r="J49" s="260"/>
+      <c r="I49" s="258"/>
+      <c r="J49" s="259"/>
       <c r="K49" s="93" t="s">
         <v>367</v>
       </c>
@@ -24561,14 +24561,14 @@
       <c r="M49" s="94"/>
       <c r="N49" s="94"/>
       <c r="O49" s="94"/>
-      <c r="P49" s="258">
+      <c r="P49" s="257">
         <v>0.43773000000000001</v>
       </c>
-      <c r="Q49" s="258"/>
+      <c r="Q49" s="257"/>
       <c r="R49" s="94"/>
       <c r="S49" s="94"/>
-      <c r="T49" s="259"/>
-      <c r="U49" s="260"/>
+      <c r="T49" s="258"/>
+      <c r="U49" s="259"/>
       <c r="V49" s="40"/>
       <c r="W49" t="s">
         <v>457</v>
@@ -24579,16 +24579,16 @@
         <v>0.47361999999999999</v>
       </c>
       <c r="B50" s="92"/>
-      <c r="C50" s="250">
+      <c r="C50" s="256">
         <v>0.28101999999999999</v>
       </c>
-      <c r="D50" s="250"/>
+      <c r="D50" s="256"/>
       <c r="E50" s="81"/>
       <c r="F50" s="81"/>
       <c r="G50" s="81"/>
       <c r="H50" s="81"/>
-      <c r="I50" s="254"/>
-      <c r="J50" s="255"/>
+      <c r="I50" s="249"/>
+      <c r="J50" s="251"/>
       <c r="K50" s="80" t="s">
         <v>328</v>
       </c>
@@ -24596,23 +24596,23 @@
         <v>0.47361999999999999</v>
       </c>
       <c r="M50" s="92"/>
-      <c r="N50" s="250">
+      <c r="N50" s="256">
         <v>0.28101999999999999</v>
       </c>
-      <c r="O50" s="250"/>
+      <c r="O50" s="256"/>
       <c r="P50" s="81"/>
       <c r="Q50" s="81"/>
       <c r="R50" s="81"/>
       <c r="S50" s="81"/>
-      <c r="T50" s="254"/>
-      <c r="U50" s="255"/>
+      <c r="T50" s="249"/>
+      <c r="U50" s="251"/>
       <c r="W50" t="s">
         <v>458</v>
       </c>
-      <c r="AC50" s="266" t="s">
+      <c r="AC50" s="265" t="s">
         <v>251</v>
       </c>
-      <c r="AD50" s="266"/>
+      <c r="AD50" s="265"/>
     </row>
     <row r="51" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A51" s="88"/>
@@ -24657,10 +24657,10 @@
         <v>0.20451</v>
       </c>
       <c r="H52" s="85"/>
-      <c r="I52" s="256">
+      <c r="I52" s="254">
         <v>9.1600000000000001E-2</v>
       </c>
-      <c r="J52" s="257"/>
+      <c r="J52" s="255"/>
       <c r="K52" s="84" t="s">
         <v>331</v>
       </c>
@@ -24674,10 +24674,10 @@
         <v>0.23780232558139536</v>
       </c>
       <c r="S52" s="85"/>
-      <c r="T52" s="256">
+      <c r="T52" s="254">
         <v>9.1600000000000001E-2</v>
       </c>
-      <c r="U52" s="257"/>
+      <c r="U52" s="255"/>
       <c r="W52" t="s">
         <v>460</v>
       </c>
@@ -24690,16 +24690,16 @@
         <v>0.17321</v>
       </c>
       <c r="B53" s="92"/>
-      <c r="C53" s="250">
+      <c r="C53" s="256">
         <v>9.2929999999999999E-2</v>
       </c>
-      <c r="D53" s="250"/>
+      <c r="D53" s="256"/>
       <c r="E53" s="81"/>
       <c r="F53" s="81"/>
       <c r="G53" s="81"/>
       <c r="H53" s="81"/>
-      <c r="I53" s="254"/>
-      <c r="J53" s="255"/>
+      <c r="I53" s="249"/>
+      <c r="J53" s="251"/>
       <c r="K53" s="80" t="s">
         <v>333</v>
       </c>
@@ -24707,17 +24707,17 @@
         <v>0.17321</v>
       </c>
       <c r="M53" s="92"/>
-      <c r="N53" s="250">
+      <c r="N53" s="256">
         <f>9.293%*0.8</f>
         <v>7.4344000000000007E-2</v>
       </c>
-      <c r="O53" s="250"/>
+      <c r="O53" s="256"/>
       <c r="P53" s="81"/>
       <c r="Q53" s="81"/>
       <c r="R53" s="81"/>
       <c r="S53" s="81"/>
-      <c r="T53" s="254"/>
-      <c r="U53" s="255"/>
+      <c r="T53" s="249"/>
+      <c r="U53" s="251"/>
       <c r="W53" t="s">
         <v>461</v>
       </c>
@@ -24771,10 +24771,10 @@
         <v>0.26967000000000002</v>
       </c>
       <c r="H55" s="85"/>
-      <c r="I55" s="256">
+      <c r="I55" s="254">
         <v>0.1535</v>
       </c>
-      <c r="J55" s="257"/>
+      <c r="J55" s="255"/>
       <c r="K55" s="84" t="s">
         <v>337</v>
       </c>
@@ -24788,10 +24788,10 @@
         <v>0.31356976744186049</v>
       </c>
       <c r="S55" s="85"/>
-      <c r="T55" s="256">
+      <c r="T55" s="254">
         <v>0.1535</v>
       </c>
-      <c r="U55" s="257"/>
+      <c r="U55" s="255"/>
       <c r="V55" s="40"/>
       <c r="W55" t="s">
         <v>463</v>
@@ -24802,14 +24802,14 @@
       <c r="B56" s="94"/>
       <c r="C56" s="94"/>
       <c r="D56" s="94"/>
-      <c r="E56" s="258">
+      <c r="E56" s="257">
         <v>0.43773000000000001</v>
       </c>
-      <c r="F56" s="258"/>
+      <c r="F56" s="257"/>
       <c r="G56" s="94"/>
       <c r="H56" s="94"/>
-      <c r="I56" s="259"/>
-      <c r="J56" s="260"/>
+      <c r="I56" s="258"/>
+      <c r="J56" s="259"/>
       <c r="K56" s="93" t="s">
         <v>368</v>
       </c>
@@ -24817,15 +24817,15 @@
       <c r="M56" s="94"/>
       <c r="N56" s="94"/>
       <c r="O56" s="94"/>
-      <c r="P56" s="258">
+      <c r="P56" s="257">
         <f>43.773%*0.8</f>
         <v>0.35018400000000005</v>
       </c>
-      <c r="Q56" s="258"/>
+      <c r="Q56" s="257"/>
       <c r="R56" s="94"/>
       <c r="S56" s="94"/>
-      <c r="T56" s="259"/>
-      <c r="U56" s="260"/>
+      <c r="T56" s="258"/>
+      <c r="U56" s="259"/>
       <c r="V56" s="40"/>
       <c r="W56" t="s">
         <v>464</v>
@@ -24839,16 +24839,16 @@
         <v>0.28996</v>
       </c>
       <c r="B57" s="92"/>
-      <c r="C57" s="250">
+      <c r="C57" s="256">
         <v>0.25344</v>
       </c>
-      <c r="D57" s="250"/>
+      <c r="D57" s="256"/>
       <c r="E57" s="81"/>
       <c r="F57" s="81"/>
       <c r="G57" s="81"/>
       <c r="H57" s="81"/>
-      <c r="I57" s="254"/>
-      <c r="J57" s="255"/>
+      <c r="I57" s="249"/>
+      <c r="J57" s="251"/>
       <c r="K57" s="80" t="s">
         <v>340</v>
       </c>
@@ -24856,16 +24856,16 @@
         <v>0.28996</v>
       </c>
       <c r="M57" s="92"/>
-      <c r="N57" s="250">
+      <c r="N57" s="256">
         <v>0.25344</v>
       </c>
-      <c r="O57" s="250"/>
+      <c r="O57" s="256"/>
       <c r="P57" s="81"/>
       <c r="Q57" s="81"/>
       <c r="R57" s="81"/>
       <c r="S57" s="81"/>
-      <c r="T57" s="254"/>
-      <c r="U57" s="255"/>
+      <c r="T57" s="249"/>
+      <c r="U57" s="251"/>
       <c r="V57" s="40"/>
       <c r="W57" t="s">
         <v>466</v>
@@ -24876,10 +24876,10 @@
       <c r="B58" s="88"/>
       <c r="C58" s="88"/>
       <c r="D58" s="88"/>
-      <c r="E58" s="251">
+      <c r="E58" s="260">
         <v>0.65949000000000002</v>
       </c>
-      <c r="F58" s="251"/>
+      <c r="F58" s="260"/>
       <c r="G58" s="88"/>
       <c r="H58" s="88"/>
       <c r="I58" s="252"/>
@@ -24891,11 +24891,11 @@
       <c r="M58" s="88"/>
       <c r="N58" s="88"/>
       <c r="O58" s="88"/>
-      <c r="P58" s="251">
+      <c r="P58" s="260">
         <f>65.949%*1.1</f>
         <v>0.72543900000000006</v>
       </c>
-      <c r="Q58" s="251"/>
+      <c r="Q58" s="260"/>
       <c r="R58" s="88"/>
       <c r="S58" s="88"/>
       <c r="T58" s="252"/>
@@ -24952,10 +24952,10 @@
         <v>0.14326</v>
       </c>
       <c r="H60" s="85"/>
-      <c r="I60" s="256">
+      <c r="I60" s="254">
         <v>0.17191999999999999</v>
       </c>
-      <c r="J60" s="257"/>
+      <c r="J60" s="255"/>
       <c r="K60" s="84" t="s">
         <v>346</v>
       </c>
@@ -24969,11 +24969,11 @@
         <v>0.2082267441860465</v>
       </c>
       <c r="S60" s="85"/>
-      <c r="T60" s="256">
+      <c r="T60" s="254">
         <f>17.192%</f>
         <v>0.17191999999999999</v>
       </c>
-      <c r="U60" s="257"/>
+      <c r="U60" s="255"/>
       <c r="V60" s="40"/>
       <c r="W60" t="s">
         <v>469</v>
@@ -24993,8 +24993,8 @@
         <v>0.19162000000000001</v>
       </c>
       <c r="H61" s="81"/>
-      <c r="I61" s="254"/>
-      <c r="J61" s="255"/>
+      <c r="I61" s="249"/>
+      <c r="J61" s="251"/>
       <c r="K61" s="80" t="s">
         <v>348</v>
       </c>
@@ -25008,8 +25008,8 @@
         <v>0.22281395348837213</v>
       </c>
       <c r="S61" s="81"/>
-      <c r="T61" s="254"/>
-      <c r="U61" s="255"/>
+      <c r="T61" s="249"/>
+      <c r="U61" s="251"/>
       <c r="V61" s="40"/>
       <c r="W61" t="s">
         <v>471</v>
@@ -25072,10 +25072,10 @@
       <c r="M63" s="88"/>
       <c r="N63" s="88"/>
       <c r="O63" s="88"/>
-      <c r="P63" s="254">
+      <c r="P63" s="249">
         <v>0.15</v>
       </c>
-      <c r="Q63" s="263"/>
+      <c r="Q63" s="250"/>
       <c r="R63" s="88"/>
       <c r="S63" s="88"/>
       <c r="T63" s="108"/>
@@ -25139,10 +25139,10 @@
         <v>0.16774</v>
       </c>
       <c r="H65" s="85"/>
-      <c r="I65" s="256">
+      <c r="I65" s="254">
         <v>0.24779999999999999</v>
       </c>
-      <c r="J65" s="257"/>
+      <c r="J65" s="255"/>
       <c r="K65" s="84" t="s">
         <v>351</v>
       </c>
@@ -25156,10 +25156,10 @@
         <v>0.19504651162790698</v>
       </c>
       <c r="S65" s="85"/>
-      <c r="T65" s="256">
+      <c r="T65" s="254">
         <v>0.24779999999999999</v>
       </c>
-      <c r="U65" s="257"/>
+      <c r="U65" s="255"/>
       <c r="V65" s="40"/>
       <c r="W65" t="s">
         <v>479</v>
@@ -25173,14 +25173,14 @@
       <c r="B66" s="81"/>
       <c r="C66" s="81"/>
       <c r="D66" s="81"/>
-      <c r="E66" s="254">
+      <c r="E66" s="249">
         <v>0.45617999999999997</v>
       </c>
-      <c r="F66" s="263"/>
+      <c r="F66" s="250"/>
       <c r="G66" s="81"/>
       <c r="H66" s="81"/>
-      <c r="I66" s="254"/>
-      <c r="J66" s="255"/>
+      <c r="I66" s="249"/>
+      <c r="J66" s="251"/>
       <c r="K66" s="80" t="s">
         <v>352</v>
       </c>
@@ -25188,14 +25188,14 @@
       <c r="M66" s="81"/>
       <c r="N66" s="81"/>
       <c r="O66" s="81"/>
-      <c r="P66" s="254">
+      <c r="P66" s="249">
         <v>0.45617999999999997</v>
       </c>
-      <c r="Q66" s="263"/>
+      <c r="Q66" s="250"/>
       <c r="R66" s="81"/>
       <c r="S66" s="81"/>
-      <c r="T66" s="254"/>
-      <c r="U66" s="255"/>
+      <c r="T66" s="249"/>
+      <c r="U66" s="251"/>
       <c r="V66" s="40"/>
       <c r="W66" t="s">
         <v>481</v>
@@ -25307,10 +25307,10 @@
       <c r="T69" s="252"/>
       <c r="U69" s="253"/>
       <c r="V69" s="40"/>
-      <c r="W69" s="266" t="s">
+      <c r="W69" s="265" t="s">
         <v>236</v>
       </c>
-      <c r="X69" s="266"/>
+      <c r="X69" s="265"/>
       <c r="AC69" t="s">
         <v>485</v>
       </c>
@@ -25326,10 +25326,10 @@
         <v>0.12414</v>
       </c>
       <c r="H70" s="85"/>
-      <c r="I70" s="256">
+      <c r="I70" s="254">
         <v>0.61785000000000001</v>
       </c>
-      <c r="J70" s="257"/>
+      <c r="J70" s="255"/>
       <c r="K70" s="84" t="s">
         <v>357</v>
       </c>
@@ -25343,10 +25343,10 @@
         <v>0.14434883720930233</v>
       </c>
       <c r="S70" s="85"/>
-      <c r="T70" s="256">
+      <c r="T70" s="254">
         <v>0.61785000000000001</v>
       </c>
-      <c r="U70" s="257"/>
+      <c r="U70" s="255"/>
       <c r="V70" s="40"/>
       <c r="AC70" t="s">
         <v>486</v>
@@ -25363,10 +25363,10 @@
         <v>0.23763000000000001</v>
       </c>
       <c r="H71" s="81"/>
-      <c r="I71" s="254">
+      <c r="I71" s="249">
         <v>1</v>
       </c>
-      <c r="J71" s="255"/>
+      <c r="J71" s="251"/>
       <c r="K71" s="80" t="s">
         <v>358</v>
       </c>
@@ -25380,10 +25380,10 @@
         <v>0.27631395348837212</v>
       </c>
       <c r="S71" s="81"/>
-      <c r="T71" s="254">
+      <c r="T71" s="249">
         <v>1</v>
       </c>
-      <c r="U71" s="255"/>
+      <c r="U71" s="251"/>
       <c r="V71" s="40"/>
       <c r="W71" t="s">
         <v>282</v>
@@ -25410,10 +25410,10 @@
       <c r="M72" s="110"/>
       <c r="N72" s="110"/>
       <c r="O72" s="110"/>
-      <c r="P72" s="254">
+      <c r="P72" s="249">
         <v>0.25</v>
       </c>
-      <c r="Q72" s="263"/>
+      <c r="Q72" s="250"/>
       <c r="R72" s="110"/>
       <c r="S72" s="110"/>
       <c r="T72" s="111"/>
@@ -25473,10 +25473,10 @@
         <v>0.12317</v>
       </c>
       <c r="H74" s="85"/>
-      <c r="I74" s="256">
+      <c r="I74" s="254">
         <v>0.33643600000000001</v>
       </c>
-      <c r="J74" s="257"/>
+      <c r="J74" s="255"/>
       <c r="K74" s="84" t="s">
         <v>360</v>
       </c>
@@ -25490,10 +25490,10 @@
         <v>0.14322093023255814</v>
       </c>
       <c r="S74" s="85"/>
-      <c r="T74" s="256">
+      <c r="T74" s="254">
         <v>0.33643600000000001</v>
       </c>
-      <c r="U74" s="257"/>
+      <c r="U74" s="255"/>
       <c r="V74" s="40"/>
       <c r="AC74" t="s">
         <v>490</v>
@@ -25510,10 +25510,10 @@
         <v>0.20199</v>
       </c>
       <c r="H75" s="81"/>
-      <c r="I75" s="254">
+      <c r="I75" s="249">
         <v>0.85</v>
       </c>
-      <c r="J75" s="255"/>
+      <c r="J75" s="251"/>
       <c r="K75" s="80" t="s">
         <v>361</v>
       </c>
@@ -25527,10 +25527,10 @@
         <v>0.23487209302325585</v>
       </c>
       <c r="S75" s="81"/>
-      <c r="T75" s="254">
+      <c r="T75" s="249">
         <v>0.85</v>
       </c>
-      <c r="U75" s="255"/>
+      <c r="U75" s="251"/>
       <c r="V75" s="40"/>
       <c r="W75" t="s">
         <v>293</v>
@@ -25586,10 +25586,10 @@
         <v>0.1047</v>
       </c>
       <c r="H77" s="100"/>
-      <c r="I77" s="261">
+      <c r="I77" s="247">
         <v>0.28591</v>
       </c>
-      <c r="J77" s="262"/>
+      <c r="J77" s="248"/>
       <c r="K77" s="99" t="s">
         <v>363</v>
       </c>
@@ -25603,10 +25603,10 @@
         <v>0.12174418604651163</v>
       </c>
       <c r="S77" s="100"/>
-      <c r="T77" s="261">
+      <c r="T77" s="247">
         <v>0.28591</v>
       </c>
-      <c r="U77" s="262"/>
+      <c r="U77" s="248"/>
       <c r="V77" s="40"/>
       <c r="AC77" t="s">
         <v>493</v>
@@ -25707,6 +25707,192 @@
     </row>
   </sheetData>
   <mergeCells count="210">
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="T45:U45"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="T48:U48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="T46:U46"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="T47:U47"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="T53:U53"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="T51:U51"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="T57:U57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="T58:U58"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="T54:U54"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="T55:U55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="T56:U56"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="T66:U66"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="T67:U67"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="T62:U62"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="T64:U64"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="T65:U65"/>
+    <mergeCell ref="I77:J77"/>
+    <mergeCell ref="T77:U77"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="T71:U71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="I73:J73"/>
+    <mergeCell ref="T73:U73"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="T74:U74"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="W37:X37"/>
@@ -25731,192 +25917,6 @@
     <mergeCell ref="I52:J52"/>
     <mergeCell ref="T52:U52"/>
     <mergeCell ref="I48:J48"/>
-    <mergeCell ref="I77:J77"/>
-    <mergeCell ref="T77:U77"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="T71:U71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="I73:J73"/>
-    <mergeCell ref="T73:U73"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="T74:U74"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="T66:U66"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="T67:U67"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="T62:U62"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="T64:U64"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="T65:U65"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="T57:U57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="T58:U58"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="T54:U54"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="T55:U55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="T56:U56"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="T53:U53"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="T50:U50"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="T51:U51"/>
-    <mergeCell ref="T48:U48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="T46:U46"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="T47:U47"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="T45:U45"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="T42:U42"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="T43:U43"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="T41:U41"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="T39:U39"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="T40:U40"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="T36:U36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:J48 A50:J77">
     <cfRule type="cellIs" dxfId="21" priority="13" operator="between">
@@ -26052,17 +26052,17 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="267" t="s">
+      <c r="B4" s="268" t="s">
         <v>515</v>
       </c>
-      <c r="C4" s="267"/>
+      <c r="C4" s="268"/>
       <c r="D4" s="130" t="s">
         <v>516</v>
       </c>
-      <c r="G4" s="267" t="s">
+      <c r="G4" s="268" t="s">
         <v>517</v>
       </c>
-      <c r="H4" s="267"/>
+      <c r="H4" s="268"/>
       <c r="I4" s="130" t="s">
         <v>516</v>
       </c>
@@ -61267,7 +61267,7 @@
   </sheetPr>
   <dimension ref="A1:W37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -61296,67 +61296,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="268" t="s">
+      <c r="A1" s="229" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="268" t="s">
+      <c r="B1" s="229" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="268" t="s">
+      <c r="C1" s="229" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="268" t="s">
+      <c r="D1" s="229" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="268" t="s">
+      <c r="E1" s="229" t="s">
         <v>48</v>
       </c>
       <c r="F1" s="38"/>
-      <c r="G1" s="268" t="s">
+      <c r="G1" s="229" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="268" t="s">
+      <c r="H1" s="229" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="268" t="s">
+      <c r="I1" s="229" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="268" t="s">
+      <c r="J1" s="229" t="s">
         <v>47</v>
       </c>
-      <c r="K1" s="268" t="s">
+      <c r="K1" s="229" t="s">
         <v>48</v>
       </c>
       <c r="L1" s="38"/>
-      <c r="M1" s="268" t="s">
+      <c r="M1" s="229" t="s">
         <v>50</v>
       </c>
-      <c r="N1" s="268" t="s">
+      <c r="N1" s="229" t="s">
         <v>45</v>
       </c>
-      <c r="O1" s="268" t="s">
+      <c r="O1" s="229" t="s">
         <v>46</v>
       </c>
-      <c r="P1" s="268" t="s">
+      <c r="P1" s="229" t="s">
         <v>47</v>
       </c>
-      <c r="Q1" s="268" t="s">
+      <c r="Q1" s="229" t="s">
         <v>48</v>
       </c>
       <c r="R1" s="38"/>
-      <c r="S1" s="268" t="s">
+      <c r="S1" s="229" t="s">
         <v>51</v>
       </c>
-      <c r="T1" s="268" t="s">
+      <c r="T1" s="229" t="s">
         <v>45</v>
       </c>
-      <c r="U1" s="268" t="s">
+      <c r="U1" s="229" t="s">
         <v>46</v>
       </c>
-      <c r="V1" s="268" t="s">
+      <c r="V1" s="229" t="s">
         <v>47</v>
       </c>
-      <c r="W1" s="268" t="s">
+      <c r="W1" s="229" t="s">
         <v>48</v>
       </c>
     </row>
@@ -62476,52 +62476,52 @@
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="268" t="s">
+      <c r="A20" s="229" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="268" t="s">
+      <c r="B20" s="229" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="268" t="s">
+      <c r="C20" s="229" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="268" t="s">
+      <c r="D20" s="229" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="268" t="s">
+      <c r="E20" s="229" t="s">
         <v>48</v>
       </c>
-      <c r="G20" s="268" t="s">
+      <c r="G20" s="229" t="s">
         <v>70</v>
       </c>
-      <c r="H20" s="268" t="s">
+      <c r="H20" s="229" t="s">
         <v>45</v>
       </c>
-      <c r="I20" s="268" t="s">
+      <c r="I20" s="229" t="s">
         <v>46</v>
       </c>
-      <c r="J20" s="268" t="s">
+      <c r="J20" s="229" t="s">
         <v>47</v>
       </c>
-      <c r="K20" s="268" t="s">
+      <c r="K20" s="229" t="s">
         <v>48</v>
       </c>
-      <c r="M20" s="268" t="s">
+      <c r="M20" s="229" t="s">
         <v>71</v>
       </c>
-      <c r="N20" s="268" t="s">
+      <c r="N20" s="229" t="s">
         <v>45</v>
       </c>
-      <c r="O20" s="268" t="s">
+      <c r="O20" s="229" t="s">
         <v>46</v>
       </c>
-      <c r="P20" s="268" t="s">
+      <c r="P20" s="229" t="s">
         <v>47</v>
       </c>
-      <c r="Q20" s="268" t="s">
+      <c r="Q20" s="229" t="s">
         <v>48</v>
       </c>
-      <c r="S20" s="268" t="s">
+      <c r="S20" s="229" t="s">
         <v>10</v>
       </c>
       <c r="T20">
@@ -63398,7 +63398,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B8A9872-285B-44B5-B760-86054E2CE794}">
   <sheetPr>
-    <tabColor theme="7" tint="-0.249977111117893"/>
+    <tabColor theme="7" tint="0.79998168889431442"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D34"/>
@@ -63844,7 +63844,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="235" t="s">
+      <c r="A6" s="236" t="s">
         <v>99</v>
       </c>
       <c r="B6" s="43" t="s">
@@ -63875,7 +63875,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A7" s="235"/>
+      <c r="A7" s="236"/>
       <c r="B7" s="43" t="s">
         <v>96</v>
       </c>
@@ -64815,12 +64815,12 @@
       <c r="J34" s="55"/>
     </row>
     <row r="35" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="236" t="s">
+      <c r="A35" s="237" t="s">
         <v>151</v>
       </c>
-      <c r="B35" s="236"/>
-      <c r="C35" s="236"/>
-      <c r="D35" s="236"/>
+      <c r="B35" s="237"/>
+      <c r="C35" s="237"/>
+      <c r="D35" s="237"/>
       <c r="F35" s="56" t="s">
         <v>152</v>
       </c>
@@ -64832,16 +64832,16 @@
       <c r="J35" s="55"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="237" t="s">
+      <c r="A36" s="238" t="s">
         <v>116</v>
       </c>
-      <c r="B36" s="237" t="s">
+      <c r="B36" s="238" t="s">
         <v>153</v>
       </c>
-      <c r="C36" s="237" t="s">
+      <c r="C36" s="238" t="s">
         <v>149</v>
       </c>
-      <c r="D36" s="237" t="s">
+      <c r="D36" s="238" t="s">
         <v>150</v>
       </c>
       <c r="F36" s="59" t="s">
@@ -64855,10 +64855,10 @@
       <c r="J36" s="55"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="237"/>
-      <c r="B37" s="237"/>
-      <c r="C37" s="237"/>
-      <c r="D37" s="237"/>
+      <c r="A37" s="238"/>
+      <c r="B37" s="238"/>
+      <c r="C37" s="238"/>
+      <c r="D37" s="238"/>
       <c r="F37" s="56" t="s">
         <v>155</v>
       </c>
@@ -65713,460 +65713,460 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="238" t="s">
+      <c r="A4" s="243" t="s">
         <v>1130</v>
       </c>
-      <c r="B4" s="238" t="s">
+      <c r="B4" s="243" t="s">
         <v>1131</v>
       </c>
-      <c r="C4" s="238" t="s">
+      <c r="C4" s="243" t="s">
         <v>1132</v>
       </c>
-      <c r="D4" s="238" t="s">
+      <c r="D4" s="243" t="s">
         <v>1133</v>
       </c>
-      <c r="E4" s="240" t="s">
+      <c r="E4" s="245" t="s">
         <v>1134</v>
       </c>
-      <c r="F4" s="238" t="s">
+      <c r="F4" s="243" t="s">
         <v>1135</v>
       </c>
-      <c r="G4" s="238" t="s">
+      <c r="G4" s="243" t="s">
         <v>1136</v>
       </c>
-      <c r="H4" s="238" t="s">
+      <c r="H4" s="243" t="s">
         <v>1137</v>
       </c>
-      <c r="I4" s="238" t="s">
+      <c r="I4" s="243" t="s">
         <v>1138</v>
       </c>
-      <c r="J4" s="240" t="s">
+      <c r="J4" s="245" t="s">
         <v>1139</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="239"/>
-      <c r="B5" s="239"/>
-      <c r="C5" s="239"/>
-      <c r="D5" s="239"/>
-      <c r="E5" s="241"/>
-      <c r="F5" s="239"/>
-      <c r="G5" s="239"/>
-      <c r="H5" s="239"/>
-      <c r="I5" s="239"/>
-      <c r="J5" s="241"/>
+      <c r="A5" s="244"/>
+      <c r="B5" s="244"/>
+      <c r="C5" s="244"/>
+      <c r="D5" s="244"/>
+      <c r="E5" s="246"/>
+      <c r="F5" s="244"/>
+      <c r="G5" s="244"/>
+      <c r="H5" s="244"/>
+      <c r="I5" s="244"/>
+      <c r="J5" s="246"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="238" t="s">
+      <c r="A6" s="243" t="s">
         <v>1140</v>
       </c>
-      <c r="B6" s="242">
+      <c r="B6" s="241">
         <v>3563</v>
       </c>
-      <c r="C6" s="242">
+      <c r="C6" s="241">
         <v>3583</v>
       </c>
-      <c r="D6" s="242">
+      <c r="D6" s="241">
         <v>3689</v>
       </c>
-      <c r="E6" s="244">
+      <c r="E6" s="239">
         <v>3712</v>
       </c>
-      <c r="F6" s="242">
+      <c r="F6" s="241">
         <v>3656</v>
       </c>
-      <c r="G6" s="242">
+      <c r="G6" s="241">
         <v>3751</v>
       </c>
-      <c r="H6" s="242">
+      <c r="H6" s="241">
         <v>3693</v>
       </c>
-      <c r="I6" s="242">
+      <c r="I6" s="241">
         <v>3676</v>
       </c>
-      <c r="J6" s="244">
+      <c r="J6" s="239">
         <v>3638</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="239"/>
-      <c r="B7" s="243"/>
-      <c r="C7" s="243"/>
-      <c r="D7" s="243"/>
-      <c r="E7" s="245"/>
-      <c r="F7" s="243"/>
-      <c r="G7" s="243"/>
-      <c r="H7" s="243"/>
-      <c r="I7" s="243"/>
-      <c r="J7" s="245"/>
+      <c r="A7" s="244"/>
+      <c r="B7" s="242"/>
+      <c r="C7" s="242"/>
+      <c r="D7" s="242"/>
+      <c r="E7" s="240"/>
+      <c r="F7" s="242"/>
+      <c r="G7" s="242"/>
+      <c r="H7" s="242"/>
+      <c r="I7" s="242"/>
+      <c r="J7" s="240"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="238" t="s">
+      <c r="A8" s="243" t="s">
         <v>1141</v>
       </c>
-      <c r="B8" s="242">
+      <c r="B8" s="241">
         <v>2957</v>
       </c>
-      <c r="C8" s="242">
+      <c r="C8" s="241">
         <v>3253</v>
       </c>
-      <c r="D8" s="242">
+      <c r="D8" s="241">
         <v>3342</v>
       </c>
-      <c r="E8" s="244">
+      <c r="E8" s="239">
         <v>3325</v>
       </c>
-      <c r="F8" s="242">
+      <c r="F8" s="241">
         <v>3461</v>
       </c>
-      <c r="G8" s="242">
+      <c r="G8" s="241">
         <v>3392</v>
       </c>
-      <c r="H8" s="242">
+      <c r="H8" s="241">
         <v>3455</v>
       </c>
-      <c r="I8" s="242">
+      <c r="I8" s="241">
         <v>3369</v>
       </c>
-      <c r="J8" s="244">
+      <c r="J8" s="239">
         <v>3372</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="239"/>
-      <c r="B9" s="243"/>
-      <c r="C9" s="243"/>
-      <c r="D9" s="243"/>
-      <c r="E9" s="245"/>
-      <c r="F9" s="243"/>
-      <c r="G9" s="243"/>
-      <c r="H9" s="243"/>
-      <c r="I9" s="243"/>
-      <c r="J9" s="245"/>
+      <c r="A9" s="244"/>
+      <c r="B9" s="242"/>
+      <c r="C9" s="242"/>
+      <c r="D9" s="242"/>
+      <c r="E9" s="240"/>
+      <c r="F9" s="242"/>
+      <c r="G9" s="242"/>
+      <c r="H9" s="242"/>
+      <c r="I9" s="242"/>
+      <c r="J9" s="240"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="238" t="s">
+      <c r="A10" s="243" t="s">
         <v>1142</v>
       </c>
-      <c r="B10" s="242">
+      <c r="B10" s="241">
         <v>2354</v>
       </c>
-      <c r="C10" s="242">
+      <c r="C10" s="241">
         <v>2997</v>
       </c>
-      <c r="D10" s="242">
+      <c r="D10" s="241">
         <v>3041</v>
       </c>
-      <c r="E10" s="244">
+      <c r="E10" s="239">
         <v>3085</v>
       </c>
-      <c r="F10" s="242">
+      <c r="F10" s="241">
         <v>3118</v>
       </c>
-      <c r="G10" s="242">
+      <c r="G10" s="241">
         <v>3100</v>
       </c>
-      <c r="H10" s="242">
+      <c r="H10" s="241">
         <v>3130</v>
       </c>
-      <c r="I10" s="242">
+      <c r="I10" s="241">
         <v>3102</v>
       </c>
-      <c r="J10" s="244">
+      <c r="J10" s="239">
         <v>3098</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="239"/>
-      <c r="B11" s="243"/>
-      <c r="C11" s="243"/>
-      <c r="D11" s="243"/>
-      <c r="E11" s="245"/>
-      <c r="F11" s="243"/>
-      <c r="G11" s="243"/>
-      <c r="H11" s="243"/>
-      <c r="I11" s="243"/>
-      <c r="J11" s="245"/>
+      <c r="A11" s="244"/>
+      <c r="B11" s="242"/>
+      <c r="C11" s="242"/>
+      <c r="D11" s="242"/>
+      <c r="E11" s="240"/>
+      <c r="F11" s="242"/>
+      <c r="G11" s="242"/>
+      <c r="H11" s="242"/>
+      <c r="I11" s="242"/>
+      <c r="J11" s="240"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="238" t="s">
+      <c r="A12" s="243" t="s">
         <v>1143</v>
       </c>
-      <c r="B12" s="242"/>
-      <c r="C12" s="242">
+      <c r="B12" s="241"/>
+      <c r="C12" s="241">
         <v>2361</v>
       </c>
-      <c r="D12" s="242">
+      <c r="D12" s="241">
         <v>2778</v>
       </c>
-      <c r="E12" s="244">
+      <c r="E12" s="239">
         <v>2793</v>
       </c>
-      <c r="F12" s="242">
+      <c r="F12" s="241">
         <v>2808</v>
       </c>
-      <c r="G12" s="242">
+      <c r="G12" s="241">
         <v>2810</v>
       </c>
-      <c r="H12" s="242">
+      <c r="H12" s="241">
         <v>2814</v>
       </c>
-      <c r="I12" s="242">
+      <c r="I12" s="241">
         <v>2795</v>
       </c>
-      <c r="J12" s="244">
+      <c r="J12" s="239">
         <v>2793</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="239"/>
-      <c r="B13" s="243"/>
-      <c r="C13" s="243"/>
-      <c r="D13" s="243"/>
-      <c r="E13" s="245"/>
-      <c r="F13" s="243"/>
-      <c r="G13" s="243"/>
-      <c r="H13" s="243"/>
-      <c r="I13" s="243"/>
-      <c r="J13" s="245"/>
+      <c r="A13" s="244"/>
+      <c r="B13" s="242"/>
+      <c r="C13" s="242"/>
+      <c r="D13" s="242"/>
+      <c r="E13" s="240"/>
+      <c r="F13" s="242"/>
+      <c r="G13" s="242"/>
+      <c r="H13" s="242"/>
+      <c r="I13" s="242"/>
+      <c r="J13" s="240"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="238" t="s">
+      <c r="A14" s="243" t="s">
         <v>1144</v>
       </c>
-      <c r="B14" s="242"/>
-      <c r="C14" s="242"/>
-      <c r="D14" s="242">
+      <c r="B14" s="241"/>
+      <c r="C14" s="241"/>
+      <c r="D14" s="241">
         <v>2241</v>
       </c>
-      <c r="E14" s="244">
+      <c r="E14" s="239">
         <v>2467</v>
       </c>
-      <c r="F14" s="242">
+      <c r="F14" s="241">
         <v>2521</v>
       </c>
-      <c r="G14" s="242">
+      <c r="G14" s="241">
         <v>2507</v>
       </c>
-      <c r="H14" s="242">
+      <c r="H14" s="241">
         <v>2536</v>
       </c>
-      <c r="I14" s="242">
+      <c r="I14" s="241">
         <v>2517</v>
       </c>
-      <c r="J14" s="244">
+      <c r="J14" s="239">
         <v>2525</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="239"/>
-      <c r="B15" s="243"/>
-      <c r="C15" s="243"/>
-      <c r="D15" s="243"/>
-      <c r="E15" s="245"/>
-      <c r="F15" s="243"/>
-      <c r="G15" s="243"/>
-      <c r="H15" s="243"/>
-      <c r="I15" s="243"/>
-      <c r="J15" s="245"/>
+      <c r="A15" s="244"/>
+      <c r="B15" s="242"/>
+      <c r="C15" s="242"/>
+      <c r="D15" s="242"/>
+      <c r="E15" s="240"/>
+      <c r="F15" s="242"/>
+      <c r="G15" s="242"/>
+      <c r="H15" s="242"/>
+      <c r="I15" s="242"/>
+      <c r="J15" s="240"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="238" t="s">
+      <c r="A16" s="243" t="s">
         <v>1145</v>
       </c>
-      <c r="B16" s="242"/>
-      <c r="C16" s="242"/>
-      <c r="D16" s="242"/>
-      <c r="E16" s="244">
+      <c r="B16" s="241"/>
+      <c r="C16" s="241"/>
+      <c r="D16" s="241"/>
+      <c r="E16" s="239">
         <v>2113</v>
       </c>
-      <c r="F16" s="242">
+      <c r="F16" s="241">
         <v>2226</v>
       </c>
-      <c r="G16" s="242">
+      <c r="G16" s="241">
         <v>2202</v>
       </c>
-      <c r="H16" s="242">
+      <c r="H16" s="241">
         <v>2232</v>
       </c>
-      <c r="I16" s="242">
+      <c r="I16" s="241">
         <v>2235</v>
       </c>
-      <c r="J16" s="244">
+      <c r="J16" s="239">
         <v>2227</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="239"/>
-      <c r="B17" s="243"/>
-      <c r="C17" s="243"/>
-      <c r="D17" s="243"/>
-      <c r="E17" s="245"/>
-      <c r="F17" s="243"/>
-      <c r="G17" s="243"/>
-      <c r="H17" s="243"/>
-      <c r="I17" s="243"/>
-      <c r="J17" s="245"/>
+      <c r="A17" s="244"/>
+      <c r="B17" s="242"/>
+      <c r="C17" s="242"/>
+      <c r="D17" s="242"/>
+      <c r="E17" s="240"/>
+      <c r="F17" s="242"/>
+      <c r="G17" s="242"/>
+      <c r="H17" s="242"/>
+      <c r="I17" s="242"/>
+      <c r="J17" s="240"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="238" t="s">
+      <c r="A18" s="243" t="s">
         <v>1146</v>
       </c>
-      <c r="B18" s="242"/>
-      <c r="C18" s="242"/>
-      <c r="D18" s="242"/>
-      <c r="E18" s="244"/>
-      <c r="F18" s="242">
+      <c r="B18" s="241"/>
+      <c r="C18" s="241"/>
+      <c r="D18" s="241"/>
+      <c r="E18" s="239"/>
+      <c r="F18" s="241">
         <v>1537</v>
       </c>
-      <c r="G18" s="242">
+      <c r="G18" s="241">
         <v>1762</v>
       </c>
-      <c r="H18" s="242">
+      <c r="H18" s="241">
         <v>1905</v>
       </c>
-      <c r="I18" s="242">
+      <c r="I18" s="241">
         <v>1879</v>
       </c>
-      <c r="J18" s="244">
+      <c r="J18" s="239">
         <v>1893</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="239"/>
-      <c r="B19" s="243"/>
-      <c r="C19" s="243"/>
-      <c r="D19" s="243"/>
-      <c r="E19" s="245"/>
-      <c r="F19" s="243"/>
-      <c r="G19" s="243"/>
-      <c r="H19" s="243"/>
-      <c r="I19" s="243"/>
-      <c r="J19" s="245"/>
+      <c r="A19" s="244"/>
+      <c r="B19" s="242"/>
+      <c r="C19" s="242"/>
+      <c r="D19" s="242"/>
+      <c r="E19" s="240"/>
+      <c r="F19" s="242"/>
+      <c r="G19" s="242"/>
+      <c r="H19" s="242"/>
+      <c r="I19" s="242"/>
+      <c r="J19" s="240"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="238" t="s">
+      <c r="A20" s="243" t="s">
         <v>1147</v>
       </c>
-      <c r="B20" s="242"/>
-      <c r="C20" s="242"/>
-      <c r="D20" s="242"/>
-      <c r="E20" s="244"/>
-      <c r="F20" s="242"/>
-      <c r="G20" s="242">
+      <c r="B20" s="241"/>
+      <c r="C20" s="241"/>
+      <c r="D20" s="241"/>
+      <c r="E20" s="239"/>
+      <c r="F20" s="241"/>
+      <c r="G20" s="241">
         <v>1412</v>
       </c>
-      <c r="H20" s="242">
+      <c r="H20" s="241">
         <v>1689</v>
       </c>
-      <c r="I20" s="242">
+      <c r="I20" s="241">
         <v>1630</v>
       </c>
-      <c r="J20" s="244">
+      <c r="J20" s="239">
         <v>1640</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="239"/>
-      <c r="B21" s="243"/>
-      <c r="C21" s="243"/>
-      <c r="D21" s="243"/>
-      <c r="E21" s="245"/>
-      <c r="F21" s="243"/>
-      <c r="G21" s="243"/>
-      <c r="H21" s="243"/>
-      <c r="I21" s="243"/>
-      <c r="J21" s="245"/>
+      <c r="A21" s="244"/>
+      <c r="B21" s="242"/>
+      <c r="C21" s="242"/>
+      <c r="D21" s="242"/>
+      <c r="E21" s="240"/>
+      <c r="F21" s="242"/>
+      <c r="G21" s="242"/>
+      <c r="H21" s="242"/>
+      <c r="I21" s="242"/>
+      <c r="J21" s="240"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="238" t="s">
+      <c r="A22" s="243" t="s">
         <v>1148</v>
       </c>
-      <c r="B22" s="242"/>
-      <c r="C22" s="242"/>
-      <c r="D22" s="242"/>
-      <c r="E22" s="244"/>
-      <c r="F22" s="242"/>
-      <c r="G22" s="242"/>
-      <c r="H22" s="242">
+      <c r="B22" s="241"/>
+      <c r="C22" s="241"/>
+      <c r="D22" s="241"/>
+      <c r="E22" s="239"/>
+      <c r="F22" s="241"/>
+      <c r="G22" s="241"/>
+      <c r="H22" s="241">
         <v>1082</v>
       </c>
-      <c r="I22" s="242">
+      <c r="I22" s="241">
         <v>1341</v>
       </c>
-      <c r="J22" s="244">
+      <c r="J22" s="239">
         <v>1325</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="239"/>
-      <c r="B23" s="243"/>
-      <c r="C23" s="243"/>
-      <c r="D23" s="243"/>
-      <c r="E23" s="245"/>
-      <c r="F23" s="243"/>
-      <c r="G23" s="243"/>
-      <c r="H23" s="243"/>
-      <c r="I23" s="243"/>
-      <c r="J23" s="245"/>
+      <c r="A23" s="244"/>
+      <c r="B23" s="242"/>
+      <c r="C23" s="242"/>
+      <c r="D23" s="242"/>
+      <c r="E23" s="240"/>
+      <c r="F23" s="242"/>
+      <c r="G23" s="242"/>
+      <c r="H23" s="242"/>
+      <c r="I23" s="242"/>
+      <c r="J23" s="240"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="238" t="s">
+      <c r="A24" s="243" t="s">
         <v>1149</v>
       </c>
-      <c r="B24" s="242"/>
-      <c r="C24" s="242"/>
-      <c r="D24" s="242"/>
-      <c r="E24" s="244"/>
-      <c r="F24" s="242"/>
-      <c r="G24" s="242"/>
-      <c r="H24" s="242"/>
-      <c r="I24" s="242">
+      <c r="B24" s="241"/>
+      <c r="C24" s="241"/>
+      <c r="D24" s="241"/>
+      <c r="E24" s="239"/>
+      <c r="F24" s="241"/>
+      <c r="G24" s="241"/>
+      <c r="H24" s="241"/>
+      <c r="I24" s="241">
         <v>1003</v>
       </c>
-      <c r="J24" s="244">
+      <c r="J24" s="239">
         <v>1016</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="239"/>
-      <c r="B25" s="243"/>
-      <c r="C25" s="243"/>
-      <c r="D25" s="243"/>
-      <c r="E25" s="245"/>
-      <c r="F25" s="243"/>
-      <c r="G25" s="243"/>
-      <c r="H25" s="243"/>
-      <c r="I25" s="243"/>
-      <c r="J25" s="245"/>
+      <c r="A25" s="244"/>
+      <c r="B25" s="242"/>
+      <c r="C25" s="242"/>
+      <c r="D25" s="242"/>
+      <c r="E25" s="240"/>
+      <c r="F25" s="242"/>
+      <c r="G25" s="242"/>
+      <c r="H25" s="242"/>
+      <c r="I25" s="242"/>
+      <c r="J25" s="240"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="238" t="s">
+      <c r="A26" s="243" t="s">
         <v>1150</v>
       </c>
-      <c r="B26" s="242"/>
-      <c r="C26" s="242"/>
-      <c r="D26" s="242"/>
-      <c r="E26" s="244"/>
-      <c r="F26" s="242"/>
-      <c r="G26" s="242"/>
-      <c r="H26" s="242"/>
-      <c r="I26" s="242"/>
-      <c r="J26" s="244">
+      <c r="B26" s="241"/>
+      <c r="C26" s="241"/>
+      <c r="D26" s="241"/>
+      <c r="E26" s="239"/>
+      <c r="F26" s="241"/>
+      <c r="G26" s="241"/>
+      <c r="H26" s="241"/>
+      <c r="I26" s="241"/>
+      <c r="J26" s="239">
         <v>632</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="239"/>
-      <c r="B27" s="243"/>
-      <c r="C27" s="243"/>
-      <c r="D27" s="243"/>
-      <c r="E27" s="245"/>
-      <c r="F27" s="243"/>
-      <c r="G27" s="243"/>
-      <c r="H27" s="243"/>
-      <c r="I27" s="243"/>
-      <c r="J27" s="245"/>
+      <c r="A27" s="244"/>
+      <c r="B27" s="242"/>
+      <c r="C27" s="242"/>
+      <c r="D27" s="242"/>
+      <c r="E27" s="240"/>
+      <c r="F27" s="242"/>
+      <c r="G27" s="242"/>
+      <c r="H27" s="242"/>
+      <c r="I27" s="242"/>
+      <c r="J27" s="240"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -66175,6 +66175,106 @@
     </row>
   </sheetData>
   <mergeCells count="120">
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
     <mergeCell ref="J26:J27"/>
     <mergeCell ref="G24:G25"/>
     <mergeCell ref="H24:H25"/>
@@ -66195,106 +66295,6 @@
     <mergeCell ref="G26:G27"/>
     <mergeCell ref="H26:H27"/>
     <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -66330,26 +66330,26 @@
       <c r="C1" s="78" t="s">
         <v>233</v>
       </c>
-      <c r="F1" s="246" t="s">
+      <c r="F1" s="262" t="s">
         <v>234</v>
       </c>
-      <c r="G1" s="246"/>
-      <c r="H1" s="246" t="s">
+      <c r="G1" s="262"/>
+      <c r="H1" s="262" t="s">
         <v>235</v>
       </c>
-      <c r="I1" s="246"/>
-      <c r="J1" s="246" t="s">
+      <c r="I1" s="262"/>
+      <c r="J1" s="262" t="s">
         <v>236</v>
       </c>
-      <c r="K1" s="246"/>
-      <c r="L1" s="246" t="s">
+      <c r="K1" s="262"/>
+      <c r="L1" s="262" t="s">
         <v>237</v>
       </c>
-      <c r="M1" s="246"/>
-      <c r="N1" s="246" t="s">
+      <c r="M1" s="262"/>
+      <c r="N1" s="262" t="s">
         <v>238</v>
       </c>
-      <c r="O1" s="246"/>
+      <c r="O1" s="262"/>
     </row>
     <row r="2" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F2" s="79" t="s">
@@ -66358,18 +66358,18 @@
       <c r="G2" s="79" t="s">
         <v>240</v>
       </c>
-      <c r="H2" s="247"/>
-      <c r="I2" s="248"/>
-      <c r="J2" s="247"/>
-      <c r="K2" s="248"/>
+      <c r="H2" s="263"/>
+      <c r="I2" s="264"/>
+      <c r="J2" s="263"/>
+      <c r="K2" s="264"/>
       <c r="L2" s="79" t="s">
         <v>239</v>
       </c>
       <c r="M2" s="79" t="s">
         <v>240</v>
       </c>
-      <c r="N2" s="247"/>
-      <c r="O2" s="248"/>
+      <c r="N2" s="263"/>
+      <c r="O2" s="264"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -66381,14 +66381,14 @@
       <c r="E3" s="80" t="s">
         <v>243</v>
       </c>
-      <c r="F3" s="250">
+      <c r="F3" s="256">
         <v>0.64709000000000005</v>
       </c>
-      <c r="G3" s="250"/>
-      <c r="H3" s="250">
+      <c r="G3" s="256"/>
+      <c r="H3" s="256">
         <v>0.97192999999999996</v>
       </c>
-      <c r="I3" s="250"/>
+      <c r="I3" s="256"/>
       <c r="J3" s="81"/>
       <c r="K3" s="81"/>
       <c r="L3" s="81"/>
@@ -66411,14 +66411,14 @@
       <c r="E4" s="84" t="s">
         <v>246</v>
       </c>
-      <c r="F4" s="249">
+      <c r="F4" s="261">
         <v>0.26545000000000002</v>
       </c>
-      <c r="G4" s="249"/>
-      <c r="H4" s="249">
+      <c r="G4" s="261"/>
+      <c r="H4" s="261">
         <v>0.39895999999999998</v>
       </c>
-      <c r="I4" s="249"/>
+      <c r="I4" s="261"/>
       <c r="J4" s="85"/>
       <c r="K4" s="85"/>
       <c r="L4" s="85"/>
@@ -66444,10 +66444,10 @@
       <c r="G5" s="81">
         <v>0.25008999999999998</v>
       </c>
-      <c r="H5" s="250">
+      <c r="H5" s="256">
         <v>1</v>
       </c>
-      <c r="I5" s="250"/>
+      <c r="I5" s="256"/>
       <c r="J5" s="81"/>
       <c r="K5" s="81"/>
       <c r="L5" s="81"/>
@@ -66468,10 +66468,10 @@
       <c r="G6" s="85"/>
       <c r="H6" s="85"/>
       <c r="I6" s="85"/>
-      <c r="J6" s="249">
+      <c r="J6" s="261">
         <v>0.27488000000000001</v>
       </c>
-      <c r="K6" s="249"/>
+      <c r="K6" s="261"/>
       <c r="L6" s="85"/>
       <c r="M6" s="85"/>
       <c r="N6" s="85"/>
@@ -66495,10 +66495,10 @@
       <c r="G7" s="81">
         <v>0.17752000000000001</v>
       </c>
-      <c r="H7" s="250">
+      <c r="H7" s="256">
         <v>0.72296000000000005</v>
       </c>
-      <c r="I7" s="250"/>
+      <c r="I7" s="256"/>
       <c r="J7" s="81"/>
       <c r="K7" s="81"/>
       <c r="L7" s="81"/>
@@ -66521,10 +66521,10 @@
       <c r="G8" s="85"/>
       <c r="H8" s="85"/>
       <c r="I8" s="85"/>
-      <c r="J8" s="249">
+      <c r="J8" s="261">
         <v>0.36337000000000003</v>
       </c>
-      <c r="K8" s="249"/>
+      <c r="K8" s="261"/>
       <c r="L8" s="85"/>
       <c r="M8" s="85"/>
       <c r="N8" s="85"/>
@@ -66542,10 +66542,10 @@
         <v>0.65615999999999997</v>
       </c>
       <c r="G9" s="81"/>
-      <c r="H9" s="250">
+      <c r="H9" s="256">
         <v>0.78437000000000001</v>
       </c>
-      <c r="I9" s="250"/>
+      <c r="I9" s="256"/>
       <c r="J9" s="81"/>
       <c r="K9" s="81"/>
       <c r="L9" s="81"/>
@@ -66571,10 +66571,10 @@
       <c r="G10" s="88"/>
       <c r="H10" s="88"/>
       <c r="I10" s="88"/>
-      <c r="J10" s="251">
+      <c r="J10" s="260">
         <v>0.1464</v>
       </c>
-      <c r="K10" s="251"/>
+      <c r="K10" s="260"/>
       <c r="L10" s="88"/>
       <c r="M10" s="88"/>
       <c r="N10" s="88"/>
@@ -66609,14 +66609,14 @@
       <c r="E12" s="80" t="s">
         <v>260</v>
       </c>
-      <c r="F12" s="250">
+      <c r="F12" s="256">
         <v>0.42514999999999997</v>
       </c>
-      <c r="G12" s="250"/>
-      <c r="H12" s="250">
+      <c r="G12" s="256"/>
+      <c r="H12" s="256">
         <v>0.85</v>
       </c>
-      <c r="I12" s="250"/>
+      <c r="I12" s="256"/>
       <c r="J12" s="81"/>
       <c r="K12" s="81"/>
       <c r="L12" s="81"/>
@@ -66642,10 +66642,10 @@
       <c r="G13" s="85"/>
       <c r="H13" s="85"/>
       <c r="I13" s="85"/>
-      <c r="J13" s="249">
+      <c r="J13" s="261">
         <v>0.23365</v>
       </c>
-      <c r="K13" s="249"/>
+      <c r="K13" s="261"/>
       <c r="L13" s="85"/>
       <c r="M13" s="85"/>
       <c r="N13" s="85"/>
@@ -66663,10 +66663,10 @@
         <v>1</v>
       </c>
       <c r="G14" s="92"/>
-      <c r="H14" s="250">
+      <c r="H14" s="256">
         <v>0.51382000000000005</v>
       </c>
-      <c r="I14" s="250"/>
+      <c r="I14" s="256"/>
       <c r="J14" s="81"/>
       <c r="K14" s="81"/>
       <c r="L14" s="81"/>
@@ -66693,10 +66693,10 @@
       <c r="G15" s="88"/>
       <c r="H15" s="88"/>
       <c r="I15" s="88"/>
-      <c r="J15" s="251">
+      <c r="J15" s="260">
         <v>4.3869999999999999E-2</v>
       </c>
-      <c r="K15" s="251"/>
+      <c r="K15" s="260"/>
       <c r="L15" s="88"/>
       <c r="M15" s="88"/>
       <c r="N15" s="88"/>
@@ -66743,10 +66743,10 @@
         <v>0.91232999999999997</v>
       </c>
       <c r="G17" s="92"/>
-      <c r="H17" s="250">
+      <c r="H17" s="256">
         <v>0.46146999999999999</v>
       </c>
-      <c r="I17" s="250"/>
+      <c r="I17" s="256"/>
       <c r="J17" s="81"/>
       <c r="K17" s="81"/>
       <c r="L17" s="81"/>
@@ -66772,10 +66772,10 @@
       <c r="G18" s="88"/>
       <c r="H18" s="88"/>
       <c r="I18" s="88"/>
-      <c r="J18" s="251">
+      <c r="J18" s="260">
         <v>0.15035999999999999</v>
       </c>
-      <c r="K18" s="251"/>
+      <c r="K18" s="260"/>
       <c r="L18" s="88"/>
       <c r="M18" s="88"/>
       <c r="N18" s="88"/>
@@ -66817,10 +66817,10 @@
         <v>0.69059999999999999</v>
       </c>
       <c r="G20" s="92"/>
-      <c r="H20" s="250">
+      <c r="H20" s="256">
         <v>0.38878000000000001</v>
       </c>
-      <c r="I20" s="250"/>
+      <c r="I20" s="256"/>
       <c r="J20" s="81"/>
       <c r="K20" s="81"/>
       <c r="L20" s="81"/>
@@ -66846,10 +66846,10 @@
       <c r="G21" s="88"/>
       <c r="H21" s="88"/>
       <c r="I21" s="88"/>
-      <c r="J21" s="251">
+      <c r="J21" s="260">
         <v>0.2099</v>
       </c>
-      <c r="K21" s="251"/>
+      <c r="K21" s="260"/>
       <c r="L21" s="88"/>
       <c r="M21" s="88"/>
       <c r="N21" s="88"/>
@@ -66891,10 +66891,10 @@
         <v>0.68315000000000003</v>
       </c>
       <c r="G23" s="92"/>
-      <c r="H23" s="250">
+      <c r="H23" s="256">
         <v>0.70006000000000002</v>
       </c>
-      <c r="I23" s="250"/>
+      <c r="I23" s="256"/>
       <c r="J23" s="81"/>
       <c r="K23" s="81"/>
       <c r="L23" s="81"/>
@@ -66920,10 +66920,10 @@
       <c r="G24" s="88"/>
       <c r="H24" s="88"/>
       <c r="I24" s="88"/>
-      <c r="J24" s="251">
+      <c r="J24" s="260">
         <v>0.152</v>
       </c>
-      <c r="K24" s="251"/>
+      <c r="K24" s="260"/>
       <c r="L24" s="88"/>
       <c r="M24" s="88"/>
       <c r="N24" s="88"/>
@@ -66967,16 +66967,16 @@
       <c r="G26" s="81">
         <v>9.2719999999999997E-2</v>
       </c>
-      <c r="H26" s="250">
+      <c r="H26" s="256">
         <v>0.42459999999999998</v>
       </c>
-      <c r="I26" s="250"/>
+      <c r="I26" s="256"/>
       <c r="J26" s="81"/>
       <c r="K26" s="81"/>
       <c r="L26" s="81"/>
       <c r="M26" s="81"/>
-      <c r="N26" s="254"/>
-      <c r="O26" s="255"/>
+      <c r="N26" s="249"/>
+      <c r="O26" s="251"/>
       <c r="P26" s="83">
         <f>F26+G26+H26+J27+L28+M28+N28</f>
         <v>2.4103300000000001</v>
@@ -66996,10 +66996,10 @@
       <c r="G27" s="88"/>
       <c r="H27" s="88"/>
       <c r="I27" s="88"/>
-      <c r="J27" s="251">
+      <c r="J27" s="260">
         <v>1</v>
       </c>
-      <c r="K27" s="251"/>
+      <c r="K27" s="260"/>
       <c r="L27" s="88"/>
       <c r="M27" s="88"/>
       <c r="N27" s="252"/>
@@ -67028,10 +67028,10 @@
       <c r="M28" s="85">
         <v>0.1226</v>
       </c>
-      <c r="N28" s="256">
+      <c r="N28" s="254">
         <v>0.34044000000000002</v>
       </c>
-      <c r="O28" s="257"/>
+      <c r="O28" s="255"/>
       <c r="P28" s="83"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
@@ -67047,16 +67047,16 @@
       <c r="G29" s="81">
         <v>0.13719000000000001</v>
       </c>
-      <c r="H29" s="250">
+      <c r="H29" s="256">
         <v>0.62792999999999999</v>
       </c>
-      <c r="I29" s="250"/>
+      <c r="I29" s="256"/>
       <c r="J29" s="81"/>
       <c r="K29" s="81"/>
       <c r="L29" s="81"/>
       <c r="M29" s="81"/>
-      <c r="N29" s="254"/>
-      <c r="O29" s="255"/>
+      <c r="N29" s="249"/>
+      <c r="O29" s="251"/>
       <c r="P29" s="83">
         <f>F29+G29+H29+L30+M30+N30+J33</f>
         <v>2.4474499999999999</v>
@@ -67084,10 +67084,10 @@
       <c r="M30" s="85">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="N30" s="256">
+      <c r="N30" s="254">
         <v>0.23748</v>
       </c>
-      <c r="O30" s="257"/>
+      <c r="O30" s="255"/>
       <c r="P30" s="83"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
@@ -67103,16 +67103,16 @@
       <c r="G31" s="81">
         <v>5.6059999999999999E-2</v>
       </c>
-      <c r="H31" s="250">
+      <c r="H31" s="256">
         <v>0.23462</v>
       </c>
-      <c r="I31" s="250"/>
+      <c r="I31" s="256"/>
       <c r="J31" s="81"/>
       <c r="K31" s="81"/>
       <c r="L31" s="81"/>
       <c r="M31" s="81"/>
-      <c r="N31" s="254"/>
-      <c r="O31" s="255"/>
+      <c r="N31" s="249"/>
+      <c r="O31" s="251"/>
       <c r="P31" s="83">
         <f>F31+G31+H31+L32+M32+N32+J33</f>
         <v>2.2090299999999998</v>
@@ -67137,10 +67137,10 @@
       <c r="M32" s="85">
         <v>0.11894</v>
       </c>
-      <c r="N32" s="256">
+      <c r="N32" s="254">
         <v>0.50244</v>
       </c>
-      <c r="O32" s="257"/>
+      <c r="O32" s="255"/>
       <c r="P32" s="83"/>
     </row>
     <row r="33" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -67154,34 +67154,34 @@
       <c r="G33" s="94"/>
       <c r="H33" s="94"/>
       <c r="I33" s="94"/>
-      <c r="J33" s="258">
+      <c r="J33" s="257">
         <v>0.94696999999999998</v>
       </c>
-      <c r="K33" s="258"/>
+      <c r="K33" s="257"/>
       <c r="L33" s="94"/>
       <c r="M33" s="94"/>
-      <c r="N33" s="259"/>
-      <c r="O33" s="260"/>
+      <c r="N33" s="258"/>
+      <c r="O33" s="259"/>
       <c r="P33" s="83"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E34" s="80" t="s">
         <v>310</v>
       </c>
-      <c r="F34" s="250">
+      <c r="F34" s="256">
         <v>0.15762999999999999</v>
       </c>
-      <c r="G34" s="250"/>
-      <c r="H34" s="250">
+      <c r="G34" s="256"/>
+      <c r="H34" s="256">
         <v>0.36070000000000002</v>
       </c>
-      <c r="I34" s="250"/>
+      <c r="I34" s="256"/>
       <c r="J34" s="81"/>
       <c r="K34" s="81"/>
       <c r="L34" s="81"/>
       <c r="M34" s="81"/>
-      <c r="N34" s="254"/>
-      <c r="O34" s="255"/>
+      <c r="N34" s="249"/>
+      <c r="O34" s="251"/>
       <c r="P34" s="83">
         <f>F34+H34+J35+L36+N36</f>
         <v>1.8655399999999998</v>
@@ -67195,10 +67195,10 @@
       <c r="G35" s="88"/>
       <c r="H35" s="88"/>
       <c r="I35" s="88"/>
-      <c r="J35" s="251">
+      <c r="J35" s="260">
         <v>0.85</v>
       </c>
-      <c r="K35" s="251"/>
+      <c r="K35" s="260"/>
       <c r="L35" s="88"/>
       <c r="M35" s="88"/>
       <c r="N35" s="252"/>
@@ -67222,10 +67222,10 @@
         <v>0.20784</v>
       </c>
       <c r="M36" s="85"/>
-      <c r="N36" s="256">
+      <c r="N36" s="254">
         <v>0.28937000000000002</v>
       </c>
-      <c r="O36" s="257"/>
+      <c r="O36" s="255"/>
       <c r="P36" s="83"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
@@ -67235,20 +67235,20 @@
       <c r="E37" s="80" t="s">
         <v>315</v>
       </c>
-      <c r="F37" s="250">
+      <c r="F37" s="256">
         <v>0.20368</v>
       </c>
-      <c r="G37" s="250"/>
-      <c r="H37" s="250">
+      <c r="G37" s="256"/>
+      <c r="H37" s="256">
         <v>0.33767000000000003</v>
       </c>
-      <c r="I37" s="250"/>
+      <c r="I37" s="256"/>
       <c r="J37" s="81"/>
       <c r="K37" s="81"/>
       <c r="L37" s="81"/>
       <c r="M37" s="81"/>
-      <c r="N37" s="254"/>
-      <c r="O37" s="255"/>
+      <c r="N37" s="249"/>
+      <c r="O37" s="251"/>
       <c r="P37" s="83">
         <f>F37+H37+J38+L39+L40+N40</f>
         <v>2.5172699999999999</v>
@@ -67265,10 +67265,10 @@
       <c r="G38" s="88"/>
       <c r="H38" s="88"/>
       <c r="I38" s="88"/>
-      <c r="J38" s="251">
+      <c r="J38" s="260">
         <v>0.89815999999999996</v>
       </c>
-      <c r="K38" s="251"/>
+      <c r="K38" s="260"/>
       <c r="L38" s="88"/>
       <c r="M38" s="88"/>
       <c r="N38" s="252"/>
@@ -67313,10 +67313,10 @@
         <v>0.26422000000000001</v>
       </c>
       <c r="M40" s="85"/>
-      <c r="N40" s="256">
+      <c r="N40" s="254">
         <v>0.2399</v>
       </c>
-      <c r="O40" s="257"/>
+      <c r="O40" s="255"/>
       <c r="P40" s="83"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
@@ -67327,16 +67327,16 @@
         <v>0.34708</v>
       </c>
       <c r="G41" s="92"/>
-      <c r="H41" s="250">
+      <c r="H41" s="256">
         <v>0.20830000000000001</v>
       </c>
-      <c r="I41" s="250"/>
+      <c r="I41" s="256"/>
       <c r="J41" s="81"/>
       <c r="K41" s="81"/>
       <c r="L41" s="81"/>
       <c r="M41" s="81"/>
-      <c r="N41" s="254"/>
-      <c r="O41" s="255"/>
+      <c r="N41" s="249"/>
+      <c r="O41" s="251"/>
       <c r="P41" s="83">
         <f>F41+H41+J42+L43+L44+N44</f>
         <v>2.29189</v>
@@ -67350,10 +67350,10 @@
       <c r="G42" s="88"/>
       <c r="H42" s="88"/>
       <c r="I42" s="88"/>
-      <c r="J42" s="251">
+      <c r="J42" s="260">
         <v>0.52559999999999996</v>
       </c>
-      <c r="K42" s="251"/>
+      <c r="K42" s="260"/>
       <c r="L42" s="88"/>
       <c r="M42" s="88"/>
       <c r="N42" s="252"/>
@@ -67396,10 +67396,10 @@
         <v>0.23543</v>
       </c>
       <c r="M44" s="85"/>
-      <c r="N44" s="256">
+      <c r="N44" s="254">
         <v>0.13220000000000001</v>
       </c>
-      <c r="O44" s="257"/>
+      <c r="O44" s="255"/>
       <c r="P44" s="83"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
@@ -67413,16 +67413,16 @@
         <v>0.47361999999999999</v>
       </c>
       <c r="G45" s="92"/>
-      <c r="H45" s="250">
+      <c r="H45" s="256">
         <v>0.28101999999999999</v>
       </c>
-      <c r="I45" s="250"/>
+      <c r="I45" s="256"/>
       <c r="J45" s="81"/>
       <c r="K45" s="81"/>
       <c r="L45" s="81"/>
       <c r="M45" s="81"/>
-      <c r="N45" s="254"/>
-      <c r="O45" s="255"/>
+      <c r="N45" s="249"/>
+      <c r="O45" s="251"/>
       <c r="P45" s="83">
         <f>F45+H45+L46+L47+N47+J51</f>
         <v>2.2079800000000001</v>
@@ -67463,10 +67463,10 @@
         <v>0.20451</v>
       </c>
       <c r="M47" s="85"/>
-      <c r="N47" s="256">
+      <c r="N47" s="254">
         <v>9.1600000000000001E-2</v>
       </c>
-      <c r="O47" s="257"/>
+      <c r="O47" s="255"/>
       <c r="P47" s="83"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
@@ -67480,16 +67480,16 @@
         <v>0.17321</v>
       </c>
       <c r="G48" s="92"/>
-      <c r="H48" s="250">
+      <c r="H48" s="256">
         <v>9.2929999999999999E-2</v>
       </c>
-      <c r="I48" s="250"/>
+      <c r="I48" s="256"/>
       <c r="J48" s="81"/>
       <c r="K48" s="81"/>
       <c r="L48" s="81"/>
       <c r="M48" s="81"/>
-      <c r="N48" s="254"/>
-      <c r="O48" s="255"/>
+      <c r="N48" s="249"/>
+      <c r="O48" s="251"/>
       <c r="P48" s="83">
         <f>F48+H48+L49+L50+N50+J51</f>
         <v>2.12704</v>
@@ -67536,10 +67536,10 @@
         <v>0.26967000000000002</v>
       </c>
       <c r="M50" s="85"/>
-      <c r="N50" s="256">
+      <c r="N50" s="254">
         <v>0.1535</v>
       </c>
-      <c r="O50" s="257"/>
+      <c r="O50" s="255"/>
       <c r="P50" s="83"/>
     </row>
     <row r="51" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -67553,14 +67553,14 @@
       <c r="G51" s="94"/>
       <c r="H51" s="94"/>
       <c r="I51" s="94"/>
-      <c r="J51" s="258">
+      <c r="J51" s="257">
         <v>0.43773000000000001</v>
       </c>
-      <c r="K51" s="258"/>
+      <c r="K51" s="257"/>
       <c r="L51" s="94"/>
       <c r="M51" s="94"/>
-      <c r="N51" s="259"/>
-      <c r="O51" s="260"/>
+      <c r="N51" s="258"/>
+      <c r="O51" s="259"/>
       <c r="P51" s="83"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
@@ -67577,16 +67577,16 @@
         <v>0.28996</v>
       </c>
       <c r="G52" s="92"/>
-      <c r="H52" s="250">
+      <c r="H52" s="256">
         <v>0.25344</v>
       </c>
-      <c r="I52" s="250"/>
+      <c r="I52" s="256"/>
       <c r="J52" s="81"/>
       <c r="K52" s="81"/>
       <c r="L52" s="81"/>
       <c r="M52" s="81"/>
-      <c r="N52" s="254"/>
-      <c r="O52" s="255"/>
+      <c r="N52" s="249"/>
+      <c r="O52" s="251"/>
       <c r="P52" s="83">
         <f>F52+H52+J53+L54+L55+N55</f>
         <v>2.0821799999999997</v>
@@ -67606,10 +67606,10 @@
       <c r="G53" s="88"/>
       <c r="H53" s="88"/>
       <c r="I53" s="88"/>
-      <c r="J53" s="251">
+      <c r="J53" s="260">
         <v>0.65949000000000002</v>
       </c>
-      <c r="K53" s="251"/>
+      <c r="K53" s="260"/>
       <c r="L53" s="88"/>
       <c r="M53" s="88"/>
       <c r="N53" s="252"/>
@@ -67660,10 +67660,10 @@
         <v>0.14326</v>
       </c>
       <c r="M55" s="85"/>
-      <c r="N55" s="256">
+      <c r="N55" s="254">
         <v>0.17191999999999999</v>
       </c>
-      <c r="O55" s="257"/>
+      <c r="O55" s="255"/>
       <c r="P55" s="83"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
@@ -67686,8 +67686,8 @@
         <v>0.19162000000000001</v>
       </c>
       <c r="M56" s="81"/>
-      <c r="N56" s="254"/>
-      <c r="O56" s="255"/>
+      <c r="N56" s="249"/>
+      <c r="O56" s="251"/>
       <c r="P56" s="83">
         <f>L56+L57+L58+L59+N58+N59</f>
         <v>2.1837599999999999</v>
@@ -67754,10 +67754,10 @@
         <v>0.16774</v>
       </c>
       <c r="M59" s="85"/>
-      <c r="N59" s="256">
+      <c r="N59" s="254">
         <v>0.24779999999999999</v>
       </c>
-      <c r="O59" s="257"/>
+      <c r="O59" s="255"/>
       <c r="P59" s="83"/>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
@@ -67771,14 +67771,14 @@
       <c r="G60" s="81"/>
       <c r="H60" s="81"/>
       <c r="I60" s="81"/>
-      <c r="J60" s="254">
+      <c r="J60" s="249">
         <v>0.45617999999999997</v>
       </c>
-      <c r="K60" s="263"/>
+      <c r="K60" s="250"/>
       <c r="L60" s="81"/>
       <c r="M60" s="81"/>
-      <c r="N60" s="254"/>
-      <c r="O60" s="255"/>
+      <c r="N60" s="249"/>
+      <c r="O60" s="251"/>
       <c r="P60" s="83">
         <f>J60+L62+N62+L63+L64+N64</f>
         <v>2.0612399999999997</v>
@@ -67874,10 +67874,10 @@
         <v>0.12414</v>
       </c>
       <c r="M64" s="85"/>
-      <c r="N64" s="256">
+      <c r="N64" s="254">
         <v>0.61785000000000001</v>
       </c>
-      <c r="O64" s="257"/>
+      <c r="O64" s="255"/>
       <c r="P64" s="83"/>
     </row>
     <row r="65" spans="3:17" x14ac:dyDescent="0.25">
@@ -67897,10 +67897,10 @@
         <v>0.23763000000000001</v>
       </c>
       <c r="M65" s="81"/>
-      <c r="N65" s="254">
+      <c r="N65" s="249">
         <v>1</v>
       </c>
-      <c r="O65" s="255"/>
+      <c r="O65" s="251"/>
       <c r="P65" s="83">
         <f>L65+N65+L66+L67+N67</f>
         <v>1.8703959999999999</v>
@@ -67946,10 +67946,10 @@
         <v>0.12317</v>
       </c>
       <c r="M67" s="85"/>
-      <c r="N67" s="256">
+      <c r="N67" s="254">
         <v>0.33643600000000001</v>
       </c>
-      <c r="O67" s="257"/>
+      <c r="O67" s="255"/>
       <c r="P67" s="83"/>
       <c r="Q67" s="83"/>
     </row>
@@ -67970,10 +67970,10 @@
         <v>0.20199</v>
       </c>
       <c r="M68" s="81"/>
-      <c r="N68" s="254">
+      <c r="N68" s="249">
         <v>0.85</v>
       </c>
-      <c r="O68" s="255"/>
+      <c r="O68" s="251"/>
       <c r="P68" s="83">
         <f>L68+N68+L69+L70+N70</f>
         <v>1.6197900000000001</v>
@@ -68017,26 +68017,79 @@
         <v>0.1047</v>
       </c>
       <c r="M70" s="100"/>
-      <c r="N70" s="261">
+      <c r="N70" s="247">
         <v>0.28591</v>
       </c>
-      <c r="O70" s="262"/>
+      <c r="O70" s="248"/>
       <c r="P70" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="N70:O70"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="N60:O60"/>
-    <mergeCell ref="N61:O61"/>
-    <mergeCell ref="N62:O62"/>
-    <mergeCell ref="N63:O63"/>
-    <mergeCell ref="N64:O64"/>
-    <mergeCell ref="N65:O65"/>
-    <mergeCell ref="N66:O66"/>
-    <mergeCell ref="N67:O67"/>
-    <mergeCell ref="N68:O68"/>
-    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="N46:O46"/>
     <mergeCell ref="H48:I48"/>
     <mergeCell ref="N48:O48"/>
     <mergeCell ref="N49:O49"/>
@@ -68053,71 +68106,18 @@
     <mergeCell ref="N57:O57"/>
     <mergeCell ref="N58:O58"/>
     <mergeCell ref="N50:O50"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="N69:O69"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:O70">
     <cfRule type="cellIs" dxfId="25" priority="1" operator="between">

--- a/projects/current/hattrick/z_Biblioteca.xlsx
+++ b/projects/current/hattrick/z_Biblioteca.xlsx
@@ -3,29 +3,30 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94188B37-7211-42A4-A89E-595BE3AF6A39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A860BBF-B940-4361-911E-9962E849C9E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14505" yWindow="0" windowWidth="14610" windowHeight="17385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resistencia" sheetId="1" r:id="rId1"/>
     <sheet name="Tabla_HTMS" sheetId="18" r:id="rId2"/>
     <sheet name="TablasEntreno" sheetId="2" r:id="rId3"/>
     <sheet name="Sueldos" sheetId="5" r:id="rId4"/>
-    <sheet name="EntrenamientoManual" sheetId="3" r:id="rId5"/>
-    <sheet name="Entrenador" sheetId="4" r:id="rId6"/>
-    <sheet name="Tarjetas" sheetId="15" r:id="rId7"/>
-    <sheet name="BajarEntrenamiento" sheetId="16" r:id="rId8"/>
-    <sheet name="Aficionados" sheetId="17" r:id="rId9"/>
-    <sheet name="Calificaciones_POS&lt;T60" sheetId="6" r:id="rId10"/>
-    <sheet name="Calificaciones_POS&gt;T60" sheetId="7" r:id="rId11"/>
-    <sheet name="Posesion" sheetId="8" r:id="rId12"/>
-    <sheet name="Logros" sheetId="9" r:id="rId13"/>
-    <sheet name="Estadio_Destruccion" sheetId="10" r:id="rId14"/>
-    <sheet name="Bepero_penalty" sheetId="11" r:id="rId15"/>
-    <sheet name="Forma" sheetId="12" r:id="rId16"/>
-    <sheet name="Confianza_Esperitu" sheetId="13" r:id="rId17"/>
-    <sheet name="Sustituciones" sheetId="14" r:id="rId18"/>
+    <sheet name="BajadasHab" sheetId="19" r:id="rId5"/>
+    <sheet name="EntrenamientoManual" sheetId="3" r:id="rId6"/>
+    <sheet name="Entrenador" sheetId="4" r:id="rId7"/>
+    <sheet name="Tarjetas" sheetId="15" r:id="rId8"/>
+    <sheet name="BajarEntrenamiento" sheetId="16" r:id="rId9"/>
+    <sheet name="Aficionados" sheetId="17" r:id="rId10"/>
+    <sheet name="Calificaciones_POS&lt;T60" sheetId="6" r:id="rId11"/>
+    <sheet name="Calificaciones_POS&gt;T60" sheetId="7" r:id="rId12"/>
+    <sheet name="Posesion" sheetId="8" r:id="rId13"/>
+    <sheet name="Logros" sheetId="9" r:id="rId14"/>
+    <sheet name="Estadio_Destruccion" sheetId="10" r:id="rId15"/>
+    <sheet name="Bepero_penalty" sheetId="11" r:id="rId16"/>
+    <sheet name="Forma" sheetId="12" r:id="rId17"/>
+    <sheet name="Confianza_Esperitu" sheetId="13" r:id="rId18"/>
+    <sheet name="Sustituciones" sheetId="14" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -107,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1728" uniqueCount="1176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1729" uniqueCount="1177">
   <si>
     <t>El entrenamiento de condición esta basado por minutos (pero comienza con un 75% para los jugadores en el terreno de juego).</t>
   </si>
@@ -10610,6 +10611,9 @@
   </si>
   <si>
     <t>SENIOR</t>
+  </si>
+  <si>
+    <t>A la semana</t>
   </si>
 </sst>
 </file>
@@ -12140,6 +12144,9 @@
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
@@ -12148,18 +12155,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -12173,19 +12168,34 @@
     <xf numFmtId="0" fontId="4" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -12194,13 +12204,16 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -12212,22 +12225,13 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="25" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12236,10 +12240,10 @@
     <xf numFmtId="166" fontId="25" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -12791,6 +12795,61 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>505847</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>57982</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0EFACA5-6CD2-7D77-CA3E-A45D4A07A6C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="381000"/>
+          <a:ext cx="7325747" cy="5963482"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -12915,7 +12974,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -12958,7 +13017,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -22380,6 +22439,620 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E71E42D-20B3-461E-A0AB-0A41212747EC}">
+  <dimension ref="A1:J30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V8" sqref="V8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="52.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="6.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="218" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B4" s="218" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C4" s="218" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D4" s="218" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E4" s="220" t="s">
+        <v>1134</v>
+      </c>
+      <c r="F4" s="218" t="s">
+        <v>1135</v>
+      </c>
+      <c r="G4" s="218" t="s">
+        <v>1136</v>
+      </c>
+      <c r="H4" s="218" t="s">
+        <v>1137</v>
+      </c>
+      <c r="I4" s="218" t="s">
+        <v>1138</v>
+      </c>
+      <c r="J4" s="220" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="219"/>
+      <c r="B5" s="219"/>
+      <c r="C5" s="219"/>
+      <c r="D5" s="219"/>
+      <c r="E5" s="221"/>
+      <c r="F5" s="219"/>
+      <c r="G5" s="219"/>
+      <c r="H5" s="219"/>
+      <c r="I5" s="219"/>
+      <c r="J5" s="221"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="218" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B6" s="222">
+        <v>3563</v>
+      </c>
+      <c r="C6" s="222">
+        <v>3583</v>
+      </c>
+      <c r="D6" s="222">
+        <v>3689</v>
+      </c>
+      <c r="E6" s="224">
+        <v>3712</v>
+      </c>
+      <c r="F6" s="222">
+        <v>3656</v>
+      </c>
+      <c r="G6" s="222">
+        <v>3751</v>
+      </c>
+      <c r="H6" s="222">
+        <v>3693</v>
+      </c>
+      <c r="I6" s="222">
+        <v>3676</v>
+      </c>
+      <c r="J6" s="224">
+        <v>3638</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="219"/>
+      <c r="B7" s="223"/>
+      <c r="C7" s="223"/>
+      <c r="D7" s="223"/>
+      <c r="E7" s="225"/>
+      <c r="F7" s="223"/>
+      <c r="G7" s="223"/>
+      <c r="H7" s="223"/>
+      <c r="I7" s="223"/>
+      <c r="J7" s="225"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="218" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B8" s="222">
+        <v>2957</v>
+      </c>
+      <c r="C8" s="222">
+        <v>3253</v>
+      </c>
+      <c r="D8" s="222">
+        <v>3342</v>
+      </c>
+      <c r="E8" s="224">
+        <v>3325</v>
+      </c>
+      <c r="F8" s="222">
+        <v>3461</v>
+      </c>
+      <c r="G8" s="222">
+        <v>3392</v>
+      </c>
+      <c r="H8" s="222">
+        <v>3455</v>
+      </c>
+      <c r="I8" s="222">
+        <v>3369</v>
+      </c>
+      <c r="J8" s="224">
+        <v>3372</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="219"/>
+      <c r="B9" s="223"/>
+      <c r="C9" s="223"/>
+      <c r="D9" s="223"/>
+      <c r="E9" s="225"/>
+      <c r="F9" s="223"/>
+      <c r="G9" s="223"/>
+      <c r="H9" s="223"/>
+      <c r="I9" s="223"/>
+      <c r="J9" s="225"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="218" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B10" s="222">
+        <v>2354</v>
+      </c>
+      <c r="C10" s="222">
+        <v>2997</v>
+      </c>
+      <c r="D10" s="222">
+        <v>3041</v>
+      </c>
+      <c r="E10" s="224">
+        <v>3085</v>
+      </c>
+      <c r="F10" s="222">
+        <v>3118</v>
+      </c>
+      <c r="G10" s="222">
+        <v>3100</v>
+      </c>
+      <c r="H10" s="222">
+        <v>3130</v>
+      </c>
+      <c r="I10" s="222">
+        <v>3102</v>
+      </c>
+      <c r="J10" s="224">
+        <v>3098</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="219"/>
+      <c r="B11" s="223"/>
+      <c r="C11" s="223"/>
+      <c r="D11" s="223"/>
+      <c r="E11" s="225"/>
+      <c r="F11" s="223"/>
+      <c r="G11" s="223"/>
+      <c r="H11" s="223"/>
+      <c r="I11" s="223"/>
+      <c r="J11" s="225"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="218" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B12" s="222"/>
+      <c r="C12" s="222">
+        <v>2361</v>
+      </c>
+      <c r="D12" s="222">
+        <v>2778</v>
+      </c>
+      <c r="E12" s="224">
+        <v>2793</v>
+      </c>
+      <c r="F12" s="222">
+        <v>2808</v>
+      </c>
+      <c r="G12" s="222">
+        <v>2810</v>
+      </c>
+      <c r="H12" s="222">
+        <v>2814</v>
+      </c>
+      <c r="I12" s="222">
+        <v>2795</v>
+      </c>
+      <c r="J12" s="224">
+        <v>2793</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="219"/>
+      <c r="B13" s="223"/>
+      <c r="C13" s="223"/>
+      <c r="D13" s="223"/>
+      <c r="E13" s="225"/>
+      <c r="F13" s="223"/>
+      <c r="G13" s="223"/>
+      <c r="H13" s="223"/>
+      <c r="I13" s="223"/>
+      <c r="J13" s="225"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="218" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B14" s="222"/>
+      <c r="C14" s="222"/>
+      <c r="D14" s="222">
+        <v>2241</v>
+      </c>
+      <c r="E14" s="224">
+        <v>2467</v>
+      </c>
+      <c r="F14" s="222">
+        <v>2521</v>
+      </c>
+      <c r="G14" s="222">
+        <v>2507</v>
+      </c>
+      <c r="H14" s="222">
+        <v>2536</v>
+      </c>
+      <c r="I14" s="222">
+        <v>2517</v>
+      </c>
+      <c r="J14" s="224">
+        <v>2525</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="219"/>
+      <c r="B15" s="223"/>
+      <c r="C15" s="223"/>
+      <c r="D15" s="223"/>
+      <c r="E15" s="225"/>
+      <c r="F15" s="223"/>
+      <c r="G15" s="223"/>
+      <c r="H15" s="223"/>
+      <c r="I15" s="223"/>
+      <c r="J15" s="225"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="218" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B16" s="222"/>
+      <c r="C16" s="222"/>
+      <c r="D16" s="222"/>
+      <c r="E16" s="224">
+        <v>2113</v>
+      </c>
+      <c r="F16" s="222">
+        <v>2226</v>
+      </c>
+      <c r="G16" s="222">
+        <v>2202</v>
+      </c>
+      <c r="H16" s="222">
+        <v>2232</v>
+      </c>
+      <c r="I16" s="222">
+        <v>2235</v>
+      </c>
+      <c r="J16" s="224">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="219"/>
+      <c r="B17" s="223"/>
+      <c r="C17" s="223"/>
+      <c r="D17" s="223"/>
+      <c r="E17" s="225"/>
+      <c r="F17" s="223"/>
+      <c r="G17" s="223"/>
+      <c r="H17" s="223"/>
+      <c r="I17" s="223"/>
+      <c r="J17" s="225"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="218" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B18" s="222"/>
+      <c r="C18" s="222"/>
+      <c r="D18" s="222"/>
+      <c r="E18" s="224"/>
+      <c r="F18" s="222">
+        <v>1537</v>
+      </c>
+      <c r="G18" s="222">
+        <v>1762</v>
+      </c>
+      <c r="H18" s="222">
+        <v>1905</v>
+      </c>
+      <c r="I18" s="222">
+        <v>1879</v>
+      </c>
+      <c r="J18" s="224">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="219"/>
+      <c r="B19" s="223"/>
+      <c r="C19" s="223"/>
+      <c r="D19" s="223"/>
+      <c r="E19" s="225"/>
+      <c r="F19" s="223"/>
+      <c r="G19" s="223"/>
+      <c r="H19" s="223"/>
+      <c r="I19" s="223"/>
+      <c r="J19" s="225"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="218" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B20" s="222"/>
+      <c r="C20" s="222"/>
+      <c r="D20" s="222"/>
+      <c r="E20" s="224"/>
+      <c r="F20" s="222"/>
+      <c r="G20" s="222">
+        <v>1412</v>
+      </c>
+      <c r="H20" s="222">
+        <v>1689</v>
+      </c>
+      <c r="I20" s="222">
+        <v>1630</v>
+      </c>
+      <c r="J20" s="224">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="219"/>
+      <c r="B21" s="223"/>
+      <c r="C21" s="223"/>
+      <c r="D21" s="223"/>
+      <c r="E21" s="225"/>
+      <c r="F21" s="223"/>
+      <c r="G21" s="223"/>
+      <c r="H21" s="223"/>
+      <c r="I21" s="223"/>
+      <c r="J21" s="225"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="218" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B22" s="222"/>
+      <c r="C22" s="222"/>
+      <c r="D22" s="222"/>
+      <c r="E22" s="224"/>
+      <c r="F22" s="222"/>
+      <c r="G22" s="222"/>
+      <c r="H22" s="222">
+        <v>1082</v>
+      </c>
+      <c r="I22" s="222">
+        <v>1341</v>
+      </c>
+      <c r="J22" s="224">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="219"/>
+      <c r="B23" s="223"/>
+      <c r="C23" s="223"/>
+      <c r="D23" s="223"/>
+      <c r="E23" s="225"/>
+      <c r="F23" s="223"/>
+      <c r="G23" s="223"/>
+      <c r="H23" s="223"/>
+      <c r="I23" s="223"/>
+      <c r="J23" s="225"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="218" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B24" s="222"/>
+      <c r="C24" s="222"/>
+      <c r="D24" s="222"/>
+      <c r="E24" s="224"/>
+      <c r="F24" s="222"/>
+      <c r="G24" s="222"/>
+      <c r="H24" s="222"/>
+      <c r="I24" s="222">
+        <v>1003</v>
+      </c>
+      <c r="J24" s="224">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="219"/>
+      <c r="B25" s="223"/>
+      <c r="C25" s="223"/>
+      <c r="D25" s="223"/>
+      <c r="E25" s="225"/>
+      <c r="F25" s="223"/>
+      <c r="G25" s="223"/>
+      <c r="H25" s="223"/>
+      <c r="I25" s="223"/>
+      <c r="J25" s="225"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="218" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B26" s="222"/>
+      <c r="C26" s="222"/>
+      <c r="D26" s="222"/>
+      <c r="E26" s="224"/>
+      <c r="F26" s="222"/>
+      <c r="G26" s="222"/>
+      <c r="H26" s="222"/>
+      <c r="I26" s="222"/>
+      <c r="J26" s="224">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="219"/>
+      <c r="B27" s="223"/>
+      <c r="C27" s="223"/>
+      <c r="D27" s="223"/>
+      <c r="E27" s="225"/>
+      <c r="F27" s="223"/>
+      <c r="G27" s="223"/>
+      <c r="H27" s="223"/>
+      <c r="I27" s="223"/>
+      <c r="J27" s="225"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="120">
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4495308E-7421-403A-BFE6-292551B102E4}">
   <sheetPr>
     <tabColor theme="2" tint="-9.9978637043366805E-2"/>
@@ -22409,26 +23082,26 @@
       <c r="C1" s="71" t="s">
         <v>233</v>
       </c>
-      <c r="F1" s="240" t="s">
+      <c r="F1" s="226" t="s">
         <v>234</v>
       </c>
-      <c r="G1" s="240"/>
-      <c r="H1" s="240" t="s">
+      <c r="G1" s="226"/>
+      <c r="H1" s="226" t="s">
         <v>235</v>
       </c>
-      <c r="I1" s="240"/>
-      <c r="J1" s="240" t="s">
+      <c r="I1" s="226"/>
+      <c r="J1" s="226" t="s">
         <v>236</v>
       </c>
-      <c r="K1" s="240"/>
-      <c r="L1" s="240" t="s">
+      <c r="K1" s="226"/>
+      <c r="L1" s="226" t="s">
         <v>237</v>
       </c>
-      <c r="M1" s="240"/>
-      <c r="N1" s="240" t="s">
+      <c r="M1" s="226"/>
+      <c r="N1" s="226" t="s">
         <v>238</v>
       </c>
-      <c r="O1" s="240"/>
+      <c r="O1" s="226"/>
     </row>
     <row r="2" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F2" s="72" t="s">
@@ -22437,18 +23110,18 @@
       <c r="G2" s="72" t="s">
         <v>240</v>
       </c>
-      <c r="H2" s="241"/>
-      <c r="I2" s="242"/>
-      <c r="J2" s="241"/>
-      <c r="K2" s="242"/>
+      <c r="H2" s="227"/>
+      <c r="I2" s="228"/>
+      <c r="J2" s="227"/>
+      <c r="K2" s="228"/>
       <c r="L2" s="72" t="s">
         <v>239</v>
       </c>
       <c r="M2" s="72" t="s">
         <v>240</v>
       </c>
-      <c r="N2" s="241"/>
-      <c r="O2" s="242"/>
+      <c r="N2" s="227"/>
+      <c r="O2" s="228"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -22460,14 +23133,14 @@
       <c r="E3" s="73" t="s">
         <v>243</v>
       </c>
-      <c r="F3" s="234">
+      <c r="F3" s="230">
         <v>0.64709000000000005</v>
       </c>
-      <c r="G3" s="234"/>
-      <c r="H3" s="234">
+      <c r="G3" s="230"/>
+      <c r="H3" s="230">
         <v>0.97192999999999996</v>
       </c>
-      <c r="I3" s="234"/>
+      <c r="I3" s="230"/>
       <c r="J3" s="74"/>
       <c r="K3" s="74"/>
       <c r="L3" s="74"/>
@@ -22490,14 +23163,14 @@
       <c r="E4" s="77" t="s">
         <v>246</v>
       </c>
-      <c r="F4" s="239">
+      <c r="F4" s="229">
         <v>0.26545000000000002</v>
       </c>
-      <c r="G4" s="239"/>
-      <c r="H4" s="239">
+      <c r="G4" s="229"/>
+      <c r="H4" s="229">
         <v>0.39895999999999998</v>
       </c>
-      <c r="I4" s="239"/>
+      <c r="I4" s="229"/>
       <c r="J4" s="78"/>
       <c r="K4" s="78"/>
       <c r="L4" s="78"/>
@@ -22523,10 +23196,10 @@
       <c r="G5" s="74">
         <v>0.25008999999999998</v>
       </c>
-      <c r="H5" s="234">
+      <c r="H5" s="230">
         <v>1</v>
       </c>
-      <c r="I5" s="234"/>
+      <c r="I5" s="230"/>
       <c r="J5" s="74"/>
       <c r="K5" s="74"/>
       <c r="L5" s="74"/>
@@ -22547,10 +23220,10 @@
       <c r="G6" s="78"/>
       <c r="H6" s="78"/>
       <c r="I6" s="78"/>
-      <c r="J6" s="239">
+      <c r="J6" s="229">
         <v>0.27488000000000001</v>
       </c>
-      <c r="K6" s="239"/>
+      <c r="K6" s="229"/>
       <c r="L6" s="78"/>
       <c r="M6" s="78"/>
       <c r="N6" s="78"/>
@@ -22574,10 +23247,10 @@
       <c r="G7" s="74">
         <v>0.17752000000000001</v>
       </c>
-      <c r="H7" s="234">
+      <c r="H7" s="230">
         <v>0.72296000000000005</v>
       </c>
-      <c r="I7" s="234"/>
+      <c r="I7" s="230"/>
       <c r="J7" s="74"/>
       <c r="K7" s="74"/>
       <c r="L7" s="74"/>
@@ -22600,10 +23273,10 @@
       <c r="G8" s="78"/>
       <c r="H8" s="78"/>
       <c r="I8" s="78"/>
-      <c r="J8" s="239">
+      <c r="J8" s="229">
         <v>0.36337000000000003</v>
       </c>
-      <c r="K8" s="239"/>
+      <c r="K8" s="229"/>
       <c r="L8" s="78"/>
       <c r="M8" s="78"/>
       <c r="N8" s="78"/>
@@ -22621,10 +23294,10 @@
         <v>0.65615999999999997</v>
       </c>
       <c r="G9" s="74"/>
-      <c r="H9" s="234">
+      <c r="H9" s="230">
         <v>0.78437000000000001</v>
       </c>
-      <c r="I9" s="234"/>
+      <c r="I9" s="230"/>
       <c r="J9" s="74"/>
       <c r="K9" s="74"/>
       <c r="L9" s="74"/>
@@ -22650,10 +23323,10 @@
       <c r="G10" s="81"/>
       <c r="H10" s="81"/>
       <c r="I10" s="81"/>
-      <c r="J10" s="238">
+      <c r="J10" s="231">
         <v>0.1464</v>
       </c>
-      <c r="K10" s="238"/>
+      <c r="K10" s="231"/>
       <c r="L10" s="81"/>
       <c r="M10" s="81"/>
       <c r="N10" s="81"/>
@@ -22688,14 +23361,14 @@
       <c r="E12" s="73" t="s">
         <v>260</v>
       </c>
-      <c r="F12" s="234">
+      <c r="F12" s="230">
         <v>0.42514999999999997</v>
       </c>
-      <c r="G12" s="234"/>
-      <c r="H12" s="234">
+      <c r="G12" s="230"/>
+      <c r="H12" s="230">
         <v>0.85</v>
       </c>
-      <c r="I12" s="234"/>
+      <c r="I12" s="230"/>
       <c r="J12" s="74"/>
       <c r="K12" s="74"/>
       <c r="L12" s="74"/>
@@ -22721,10 +23394,10 @@
       <c r="G13" s="78"/>
       <c r="H13" s="78"/>
       <c r="I13" s="78"/>
-      <c r="J13" s="239">
+      <c r="J13" s="229">
         <v>0.23365</v>
       </c>
-      <c r="K13" s="239"/>
+      <c r="K13" s="229"/>
       <c r="L13" s="78"/>
       <c r="M13" s="78"/>
       <c r="N13" s="78"/>
@@ -22742,10 +23415,10 @@
         <v>1</v>
       </c>
       <c r="G14" s="74"/>
-      <c r="H14" s="234">
+      <c r="H14" s="230">
         <v>0.51382000000000005</v>
       </c>
-      <c r="I14" s="234"/>
+      <c r="I14" s="230"/>
       <c r="J14" s="74"/>
       <c r="K14" s="74"/>
       <c r="L14" s="74"/>
@@ -22772,10 +23445,10 @@
       <c r="G15" s="81"/>
       <c r="H15" s="81"/>
       <c r="I15" s="81"/>
-      <c r="J15" s="238">
+      <c r="J15" s="231">
         <v>4.3869999999999999E-2</v>
       </c>
-      <c r="K15" s="238"/>
+      <c r="K15" s="231"/>
       <c r="L15" s="81"/>
       <c r="M15" s="81"/>
       <c r="N15" s="81"/>
@@ -22822,10 +23495,10 @@
         <v>0.91232999999999997</v>
       </c>
       <c r="G17" s="74"/>
-      <c r="H17" s="234">
+      <c r="H17" s="230">
         <v>0.46146999999999999</v>
       </c>
-      <c r="I17" s="234"/>
+      <c r="I17" s="230"/>
       <c r="J17" s="74"/>
       <c r="K17" s="74"/>
       <c r="L17" s="74"/>
@@ -22851,10 +23524,10 @@
       <c r="G18" s="81"/>
       <c r="H18" s="81"/>
       <c r="I18" s="81"/>
-      <c r="J18" s="238">
+      <c r="J18" s="231">
         <v>0.15035999999999999</v>
       </c>
-      <c r="K18" s="238"/>
+      <c r="K18" s="231"/>
       <c r="L18" s="81"/>
       <c r="M18" s="81"/>
       <c r="N18" s="81"/>
@@ -22896,10 +23569,10 @@
         <v>0.69059999999999999</v>
       </c>
       <c r="G20" s="74"/>
-      <c r="H20" s="234">
+      <c r="H20" s="230">
         <v>0.38878000000000001</v>
       </c>
-      <c r="I20" s="234"/>
+      <c r="I20" s="230"/>
       <c r="J20" s="74"/>
       <c r="K20" s="74"/>
       <c r="L20" s="74"/>
@@ -22925,10 +23598,10 @@
       <c r="G21" s="81"/>
       <c r="H21" s="81"/>
       <c r="I21" s="81"/>
-      <c r="J21" s="238">
+      <c r="J21" s="231">
         <v>0.2099</v>
       </c>
-      <c r="K21" s="238"/>
+      <c r="K21" s="231"/>
       <c r="L21" s="81"/>
       <c r="M21" s="81"/>
       <c r="N21" s="81"/>
@@ -22970,10 +23643,10 @@
         <v>0.68315000000000003</v>
       </c>
       <c r="G23" s="74"/>
-      <c r="H23" s="234">
+      <c r="H23" s="230">
         <v>0.70006000000000002</v>
       </c>
-      <c r="I23" s="234"/>
+      <c r="I23" s="230"/>
       <c r="J23" s="74"/>
       <c r="K23" s="74"/>
       <c r="L23" s="74"/>
@@ -22999,10 +23672,10 @@
       <c r="G24" s="81"/>
       <c r="H24" s="81"/>
       <c r="I24" s="81"/>
-      <c r="J24" s="238">
+      <c r="J24" s="231">
         <v>0.152</v>
       </c>
-      <c r="K24" s="238"/>
+      <c r="K24" s="231"/>
       <c r="L24" s="81"/>
       <c r="M24" s="81"/>
       <c r="N24" s="81"/>
@@ -23046,16 +23719,16 @@
       <c r="G26" s="74">
         <v>9.2719999999999997E-2</v>
       </c>
-      <c r="H26" s="234">
+      <c r="H26" s="230">
         <v>0.42459999999999998</v>
       </c>
-      <c r="I26" s="234"/>
+      <c r="I26" s="230"/>
       <c r="J26" s="74"/>
       <c r="K26" s="74"/>
       <c r="L26" s="74"/>
       <c r="M26" s="74"/>
-      <c r="N26" s="227"/>
-      <c r="O26" s="229"/>
+      <c r="N26" s="234"/>
+      <c r="O26" s="235"/>
       <c r="P26" s="76">
         <f>F26+G26+H26+J27+L28+M28+N28</f>
         <v>2.4103300000000001</v>
@@ -23075,14 +23748,14 @@
       <c r="G27" s="81"/>
       <c r="H27" s="81"/>
       <c r="I27" s="81"/>
-      <c r="J27" s="238">
+      <c r="J27" s="231">
         <v>1</v>
       </c>
-      <c r="K27" s="238"/>
+      <c r="K27" s="231"/>
       <c r="L27" s="81"/>
       <c r="M27" s="81"/>
-      <c r="N27" s="230"/>
-      <c r="O27" s="231"/>
+      <c r="N27" s="232"/>
+      <c r="O27" s="233"/>
       <c r="P27" s="76"/>
     </row>
     <row r="28" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23107,10 +23780,10 @@
       <c r="M28" s="78">
         <v>0.1226</v>
       </c>
-      <c r="N28" s="232">
+      <c r="N28" s="236">
         <v>0.34044000000000002</v>
       </c>
-      <c r="O28" s="233"/>
+      <c r="O28" s="237"/>
       <c r="P28" s="76"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
@@ -23126,16 +23799,16 @@
       <c r="G29" s="74">
         <v>0.13719000000000001</v>
       </c>
-      <c r="H29" s="234">
+      <c r="H29" s="230">
         <v>0.62792999999999999</v>
       </c>
-      <c r="I29" s="234"/>
+      <c r="I29" s="230"/>
       <c r="J29" s="74"/>
       <c r="K29" s="74"/>
       <c r="L29" s="74"/>
       <c r="M29" s="74"/>
-      <c r="N29" s="227"/>
-      <c r="O29" s="229"/>
+      <c r="N29" s="234"/>
+      <c r="O29" s="235"/>
       <c r="P29" s="76">
         <f>F29+G29+H29+L30+M30+N30+J33</f>
         <v>2.4474499999999999</v>
@@ -23163,10 +23836,10 @@
       <c r="M30" s="78">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="N30" s="232">
+      <c r="N30" s="236">
         <v>0.23748</v>
       </c>
-      <c r="O30" s="233"/>
+      <c r="O30" s="237"/>
       <c r="P30" s="76"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
@@ -23182,16 +23855,16 @@
       <c r="G31" s="74">
         <v>5.6059999999999999E-2</v>
       </c>
-      <c r="H31" s="234">
+      <c r="H31" s="230">
         <v>0.23462</v>
       </c>
-      <c r="I31" s="234"/>
+      <c r="I31" s="230"/>
       <c r="J31" s="74"/>
       <c r="K31" s="74"/>
       <c r="L31" s="74"/>
       <c r="M31" s="74"/>
-      <c r="N31" s="227"/>
-      <c r="O31" s="229"/>
+      <c r="N31" s="234"/>
+      <c r="O31" s="235"/>
       <c r="P31" s="76">
         <f>F31+G31+H31+L32+M32+N32+J33</f>
         <v>2.2090299999999998</v>
@@ -23216,10 +23889,10 @@
       <c r="M32" s="78">
         <v>0.11894</v>
       </c>
-      <c r="N32" s="232">
+      <c r="N32" s="236">
         <v>0.50244</v>
       </c>
-      <c r="O32" s="233"/>
+      <c r="O32" s="237"/>
       <c r="P32" s="76"/>
     </row>
     <row r="33" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23233,34 +23906,34 @@
       <c r="G33" s="86"/>
       <c r="H33" s="86"/>
       <c r="I33" s="86"/>
-      <c r="J33" s="235">
+      <c r="J33" s="238">
         <v>0.94696999999999998</v>
       </c>
-      <c r="K33" s="235"/>
+      <c r="K33" s="238"/>
       <c r="L33" s="86"/>
       <c r="M33" s="86"/>
-      <c r="N33" s="236"/>
-      <c r="O33" s="237"/>
+      <c r="N33" s="239"/>
+      <c r="O33" s="240"/>
       <c r="P33" s="76"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E34" s="73" t="s">
         <v>310</v>
       </c>
-      <c r="F34" s="234">
+      <c r="F34" s="230">
         <v>0.15762999999999999</v>
       </c>
-      <c r="G34" s="234"/>
-      <c r="H34" s="234">
+      <c r="G34" s="230"/>
+      <c r="H34" s="230">
         <v>0.36070000000000002</v>
       </c>
-      <c r="I34" s="234"/>
+      <c r="I34" s="230"/>
       <c r="J34" s="74"/>
       <c r="K34" s="74"/>
       <c r="L34" s="74"/>
       <c r="M34" s="74"/>
-      <c r="N34" s="227"/>
-      <c r="O34" s="229"/>
+      <c r="N34" s="234"/>
+      <c r="O34" s="235"/>
       <c r="P34" s="76">
         <f>F34+H34+J35+L36+N36</f>
         <v>1.8655399999999998</v>
@@ -23274,14 +23947,14 @@
       <c r="G35" s="81"/>
       <c r="H35" s="81"/>
       <c r="I35" s="81"/>
-      <c r="J35" s="238">
+      <c r="J35" s="231">
         <v>0.85</v>
       </c>
-      <c r="K35" s="238"/>
+      <c r="K35" s="231"/>
       <c r="L35" s="81"/>
       <c r="M35" s="81"/>
-      <c r="N35" s="230"/>
-      <c r="O35" s="231"/>
+      <c r="N35" s="232"/>
+      <c r="O35" s="233"/>
       <c r="P35" s="76"/>
     </row>
     <row r="36" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23301,10 +23974,10 @@
         <v>0.20784</v>
       </c>
       <c r="M36" s="78"/>
-      <c r="N36" s="232">
+      <c r="N36" s="236">
         <v>0.28937000000000002</v>
       </c>
-      <c r="O36" s="233"/>
+      <c r="O36" s="237"/>
       <c r="P36" s="76"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
@@ -23314,20 +23987,20 @@
       <c r="E37" s="73" t="s">
         <v>315</v>
       </c>
-      <c r="F37" s="234">
+      <c r="F37" s="230">
         <v>0.20368</v>
       </c>
-      <c r="G37" s="234"/>
-      <c r="H37" s="234">
+      <c r="G37" s="230"/>
+      <c r="H37" s="230">
         <v>0.33767000000000003</v>
       </c>
-      <c r="I37" s="234"/>
+      <c r="I37" s="230"/>
       <c r="J37" s="74"/>
       <c r="K37" s="74"/>
       <c r="L37" s="74"/>
       <c r="M37" s="74"/>
-      <c r="N37" s="227"/>
-      <c r="O37" s="229"/>
+      <c r="N37" s="234"/>
+      <c r="O37" s="235"/>
       <c r="P37" s="76">
         <f>F37+H37+J38+L39+L40+N40</f>
         <v>2.5172699999999999</v>
@@ -23344,14 +24017,14 @@
       <c r="G38" s="81"/>
       <c r="H38" s="81"/>
       <c r="I38" s="81"/>
-      <c r="J38" s="238">
+      <c r="J38" s="231">
         <v>0.89815999999999996</v>
       </c>
-      <c r="K38" s="238"/>
+      <c r="K38" s="231"/>
       <c r="L38" s="81"/>
       <c r="M38" s="81"/>
-      <c r="N38" s="230"/>
-      <c r="O38" s="231"/>
+      <c r="N38" s="232"/>
+      <c r="O38" s="233"/>
       <c r="P38" s="76"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
@@ -23371,8 +24044,8 @@
         <v>0.57364000000000004</v>
       </c>
       <c r="M39" s="81"/>
-      <c r="N39" s="230"/>
-      <c r="O39" s="231"/>
+      <c r="N39" s="232"/>
+      <c r="O39" s="233"/>
       <c r="P39" s="76"/>
     </row>
     <row r="40" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23392,10 +24065,10 @@
         <v>0.26422000000000001</v>
       </c>
       <c r="M40" s="78"/>
-      <c r="N40" s="232">
+      <c r="N40" s="236">
         <v>0.2399</v>
       </c>
-      <c r="O40" s="233"/>
+      <c r="O40" s="237"/>
       <c r="P40" s="76"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
@@ -23406,16 +24079,16 @@
         <v>0.34708</v>
       </c>
       <c r="G41" s="74"/>
-      <c r="H41" s="234">
+      <c r="H41" s="230">
         <v>0.20830000000000001</v>
       </c>
-      <c r="I41" s="234"/>
+      <c r="I41" s="230"/>
       <c r="J41" s="74"/>
       <c r="K41" s="74"/>
       <c r="L41" s="74"/>
       <c r="M41" s="74"/>
-      <c r="N41" s="227"/>
-      <c r="O41" s="229"/>
+      <c r="N41" s="234"/>
+      <c r="O41" s="235"/>
       <c r="P41" s="76">
         <f>F41+H41+J42+L43+L44+N44</f>
         <v>2.29189</v>
@@ -23429,14 +24102,14 @@
       <c r="G42" s="81"/>
       <c r="H42" s="81"/>
       <c r="I42" s="81"/>
-      <c r="J42" s="238">
+      <c r="J42" s="231">
         <v>0.52559999999999996</v>
       </c>
-      <c r="K42" s="238"/>
+      <c r="K42" s="231"/>
       <c r="L42" s="81"/>
       <c r="M42" s="81"/>
-      <c r="N42" s="230"/>
-      <c r="O42" s="231"/>
+      <c r="N42" s="232"/>
+      <c r="O42" s="233"/>
       <c r="P42" s="76"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
@@ -23454,8 +24127,8 @@
         <v>0.84328000000000003</v>
       </c>
       <c r="M43" s="81"/>
-      <c r="N43" s="230"/>
-      <c r="O43" s="231"/>
+      <c r="N43" s="232"/>
+      <c r="O43" s="233"/>
       <c r="P43" s="76"/>
     </row>
     <row r="44" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23475,10 +24148,10 @@
         <v>0.23543</v>
       </c>
       <c r="M44" s="78"/>
-      <c r="N44" s="232">
+      <c r="N44" s="236">
         <v>0.13220000000000001</v>
       </c>
-      <c r="O44" s="233"/>
+      <c r="O44" s="237"/>
       <c r="P44" s="76"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
@@ -23492,16 +24165,16 @@
         <v>0.47361999999999999</v>
       </c>
       <c r="G45" s="74"/>
-      <c r="H45" s="234">
+      <c r="H45" s="230">
         <v>0.28101999999999999</v>
       </c>
-      <c r="I45" s="234"/>
+      <c r="I45" s="230"/>
       <c r="J45" s="74"/>
       <c r="K45" s="74"/>
       <c r="L45" s="74"/>
       <c r="M45" s="74"/>
-      <c r="N45" s="227"/>
-      <c r="O45" s="229"/>
+      <c r="N45" s="234"/>
+      <c r="O45" s="235"/>
       <c r="P45" s="76">
         <f>F45+H45+L46+L47+N47+J51</f>
         <v>2.2079800000000001</v>
@@ -23521,8 +24194,8 @@
         <v>0.71950000000000003</v>
       </c>
       <c r="M46" s="81"/>
-      <c r="N46" s="230"/>
-      <c r="O46" s="231"/>
+      <c r="N46" s="232"/>
+      <c r="O46" s="233"/>
       <c r="P46" s="76"/>
     </row>
     <row r="47" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23542,10 +24215,10 @@
         <v>0.20451</v>
       </c>
       <c r="M47" s="78"/>
-      <c r="N47" s="232">
+      <c r="N47" s="236">
         <v>9.1600000000000001E-2</v>
       </c>
-      <c r="O47" s="233"/>
+      <c r="O47" s="237"/>
       <c r="P47" s="76"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
@@ -23559,16 +24232,16 @@
         <v>0.17321</v>
       </c>
       <c r="G48" s="74"/>
-      <c r="H48" s="234">
+      <c r="H48" s="230">
         <v>9.2929999999999999E-2</v>
       </c>
-      <c r="I48" s="234"/>
+      <c r="I48" s="230"/>
       <c r="J48" s="74"/>
       <c r="K48" s="74"/>
       <c r="L48" s="74"/>
       <c r="M48" s="74"/>
-      <c r="N48" s="227"/>
-      <c r="O48" s="229"/>
+      <c r="N48" s="234"/>
+      <c r="O48" s="235"/>
       <c r="P48" s="76">
         <f>F48+H48+L49+L50+N50+J51</f>
         <v>2.12704</v>
@@ -23591,8 +24264,8 @@
         <v>1</v>
       </c>
       <c r="M49" s="81"/>
-      <c r="N49" s="230"/>
-      <c r="O49" s="231"/>
+      <c r="N49" s="232"/>
+      <c r="O49" s="233"/>
       <c r="P49" s="76"/>
     </row>
     <row r="50" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23615,10 +24288,10 @@
         <v>0.26967000000000002</v>
       </c>
       <c r="M50" s="78"/>
-      <c r="N50" s="232">
+      <c r="N50" s="236">
         <v>0.1535</v>
       </c>
-      <c r="O50" s="233"/>
+      <c r="O50" s="237"/>
       <c r="P50" s="76"/>
     </row>
     <row r="51" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23632,14 +24305,14 @@
       <c r="G51" s="86"/>
       <c r="H51" s="86"/>
       <c r="I51" s="86"/>
-      <c r="J51" s="235">
+      <c r="J51" s="238">
         <v>0.43773000000000001</v>
       </c>
-      <c r="K51" s="235"/>
+      <c r="K51" s="238"/>
       <c r="L51" s="86"/>
       <c r="M51" s="86"/>
-      <c r="N51" s="236"/>
-      <c r="O51" s="237"/>
+      <c r="N51" s="239"/>
+      <c r="O51" s="240"/>
       <c r="P51" s="76"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
@@ -23656,16 +24329,16 @@
         <v>0.28996</v>
       </c>
       <c r="G52" s="74"/>
-      <c r="H52" s="234">
+      <c r="H52" s="230">
         <v>0.25344</v>
       </c>
-      <c r="I52" s="234"/>
+      <c r="I52" s="230"/>
       <c r="J52" s="74"/>
       <c r="K52" s="74"/>
       <c r="L52" s="74"/>
       <c r="M52" s="74"/>
-      <c r="N52" s="227"/>
-      <c r="O52" s="229"/>
+      <c r="N52" s="234"/>
+      <c r="O52" s="235"/>
       <c r="P52" s="76">
         <f>F52+H52+J53+L54+L55+N55</f>
         <v>2.0821799999999997</v>
@@ -23685,14 +24358,14 @@
       <c r="G53" s="81"/>
       <c r="H53" s="81"/>
       <c r="I53" s="81"/>
-      <c r="J53" s="238">
+      <c r="J53" s="231">
         <v>0.65949000000000002</v>
       </c>
-      <c r="K53" s="238"/>
+      <c r="K53" s="231"/>
       <c r="L53" s="81"/>
       <c r="M53" s="81"/>
-      <c r="N53" s="230"/>
-      <c r="O53" s="231"/>
+      <c r="N53" s="232"/>
+      <c r="O53" s="233"/>
       <c r="P53" s="76"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
@@ -23715,8 +24388,8 @@
         <v>0.56411</v>
       </c>
       <c r="M54" s="81"/>
-      <c r="N54" s="230"/>
-      <c r="O54" s="231"/>
+      <c r="N54" s="232"/>
+      <c r="O54" s="233"/>
       <c r="P54" s="76"/>
     </row>
     <row r="55" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23739,10 +24412,10 @@
         <v>0.14326</v>
       </c>
       <c r="M55" s="78"/>
-      <c r="N55" s="232">
+      <c r="N55" s="236">
         <v>0.17191999999999999</v>
       </c>
-      <c r="O55" s="233"/>
+      <c r="O55" s="237"/>
       <c r="P55" s="76"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
@@ -23765,8 +24438,8 @@
         <v>0.19162000000000001</v>
       </c>
       <c r="M56" s="74"/>
-      <c r="N56" s="227"/>
-      <c r="O56" s="229"/>
+      <c r="N56" s="234"/>
+      <c r="O56" s="235"/>
       <c r="P56" s="76">
         <f>L56+L57+L58+L59+N58+N59</f>
         <v>2.1837599999999999</v>
@@ -23789,8 +24462,8 @@
         <v>0.49523</v>
       </c>
       <c r="M57" s="81"/>
-      <c r="N57" s="230"/>
-      <c r="O57" s="231"/>
+      <c r="N57" s="232"/>
+      <c r="O57" s="233"/>
       <c r="P57" s="76"/>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
@@ -23810,10 +24483,10 @@
         <v>0.47439999999999999</v>
       </c>
       <c r="M58" s="81"/>
-      <c r="N58" s="230">
+      <c r="N58" s="232">
         <v>0.60697000000000001</v>
       </c>
-      <c r="O58" s="231"/>
+      <c r="O58" s="233"/>
       <c r="P58" s="76"/>
     </row>
     <row r="59" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23833,10 +24506,10 @@
         <v>0.16774</v>
       </c>
       <c r="M59" s="78"/>
-      <c r="N59" s="232">
+      <c r="N59" s="236">
         <v>0.24779999999999999</v>
       </c>
-      <c r="O59" s="233"/>
+      <c r="O59" s="237"/>
       <c r="P59" s="76"/>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
@@ -23850,14 +24523,14 @@
       <c r="G60" s="74"/>
       <c r="H60" s="74"/>
       <c r="I60" s="74"/>
-      <c r="J60" s="227">
+      <c r="J60" s="234">
         <v>0.45617999999999997</v>
       </c>
-      <c r="K60" s="228"/>
+      <c r="K60" s="243"/>
       <c r="L60" s="74"/>
       <c r="M60" s="74"/>
-      <c r="N60" s="227"/>
-      <c r="O60" s="229"/>
+      <c r="N60" s="234"/>
+      <c r="O60" s="235"/>
       <c r="P60" s="76">
         <f>J60+L62+N62+L63+L64+N64</f>
         <v>2.0612399999999997</v>
@@ -23880,10 +24553,10 @@
         <v>0.28649999999999998</v>
       </c>
       <c r="M61" s="81"/>
-      <c r="N61" s="230">
+      <c r="N61" s="232">
         <v>0.80176999999999998</v>
       </c>
-      <c r="O61" s="231"/>
+      <c r="O61" s="233"/>
       <c r="P61" s="76">
         <f>J60+L61+N61+L63+L64+N64</f>
         <v>2.4324300000000001</v>
@@ -23909,10 +24582,10 @@
         <v>0.20932000000000001</v>
       </c>
       <c r="M62" s="81"/>
-      <c r="N62" s="230">
+      <c r="N62" s="232">
         <v>0.50775999999999999</v>
       </c>
-      <c r="O62" s="231"/>
+      <c r="O62" s="233"/>
       <c r="P62" s="76"/>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
@@ -23932,8 +24605,8 @@
         <v>0.14599000000000001</v>
       </c>
       <c r="M63" s="81"/>
-      <c r="N63" s="230"/>
-      <c r="O63" s="231"/>
+      <c r="N63" s="232"/>
+      <c r="O63" s="233"/>
       <c r="P63" s="76"/>
     </row>
     <row r="64" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23953,10 +24626,10 @@
         <v>0.12414</v>
       </c>
       <c r="M64" s="78"/>
-      <c r="N64" s="232">
+      <c r="N64" s="236">
         <v>0.61785000000000001</v>
       </c>
-      <c r="O64" s="233"/>
+      <c r="O64" s="237"/>
       <c r="P64" s="76"/>
     </row>
     <row r="65" spans="3:17" x14ac:dyDescent="0.25">
@@ -23976,10 +24649,10 @@
         <v>0.23763000000000001</v>
       </c>
       <c r="M65" s="74"/>
-      <c r="N65" s="227">
+      <c r="N65" s="234">
         <v>1</v>
       </c>
-      <c r="O65" s="229"/>
+      <c r="O65" s="235"/>
       <c r="P65" s="76">
         <f>L65+N65+L66+L67+N67</f>
         <v>1.8703959999999999</v>
@@ -24003,8 +24676,8 @@
         <v>0.17316000000000001</v>
       </c>
       <c r="M66" s="81"/>
-      <c r="N66" s="230"/>
-      <c r="O66" s="231"/>
+      <c r="N66" s="232"/>
+      <c r="O66" s="233"/>
       <c r="P66" s="76"/>
       <c r="Q66" s="76"/>
     </row>
@@ -24025,10 +24698,10 @@
         <v>0.12317</v>
       </c>
       <c r="M67" s="78"/>
-      <c r="N67" s="232">
+      <c r="N67" s="236">
         <v>0.33643600000000001</v>
       </c>
-      <c r="O67" s="233"/>
+      <c r="O67" s="237"/>
       <c r="P67" s="76"/>
       <c r="Q67" s="76"/>
     </row>
@@ -24049,10 +24722,10 @@
         <v>0.20199</v>
       </c>
       <c r="M68" s="74"/>
-      <c r="N68" s="227">
+      <c r="N68" s="234">
         <v>0.85</v>
       </c>
-      <c r="O68" s="229"/>
+      <c r="O68" s="235"/>
       <c r="P68" s="76">
         <f>L68+N68+L69+L70+N70</f>
         <v>1.6197900000000001</v>
@@ -24075,8 +24748,8 @@
         <v>0.17718999999999999</v>
       </c>
       <c r="M69" s="81"/>
-      <c r="N69" s="230"/>
-      <c r="O69" s="231"/>
+      <c r="N69" s="232"/>
+      <c r="O69" s="233"/>
       <c r="P69" s="76"/>
     </row>
     <row r="70" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24096,79 +24769,26 @@
         <v>0.1047</v>
       </c>
       <c r="M70" s="90"/>
-      <c r="N70" s="225">
+      <c r="N70" s="241">
         <v>0.28591</v>
       </c>
-      <c r="O70" s="226"/>
+      <c r="O70" s="242"/>
       <c r="P70" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="N69:O69"/>
     <mergeCell ref="H48:I48"/>
     <mergeCell ref="N48:O48"/>
     <mergeCell ref="N49:O49"/>
@@ -24185,18 +24805,71 @@
     <mergeCell ref="N57:O57"/>
     <mergeCell ref="N58:O58"/>
     <mergeCell ref="N50:O50"/>
-    <mergeCell ref="N70:O70"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="N60:O60"/>
-    <mergeCell ref="N61:O61"/>
-    <mergeCell ref="N62:O62"/>
-    <mergeCell ref="N63:O63"/>
-    <mergeCell ref="N64:O64"/>
-    <mergeCell ref="N65:O65"/>
-    <mergeCell ref="N66:O66"/>
-    <mergeCell ref="N67:O67"/>
-    <mergeCell ref="N68:O68"/>
-    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="J6:K6"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:O70">
     <cfRule type="cellIs" dxfId="13" priority="1" operator="between">
@@ -24218,7 +24891,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8331369E-2A2C-4705-8A45-03D9B90BC96C}">
   <sheetPr>
     <tabColor theme="2" tint="-9.9978637043366805E-2"/>
@@ -24284,56 +24957,56 @@
         <v>0.19</v>
       </c>
       <c r="U1" s="245"/>
-      <c r="W1" s="243" t="s">
+      <c r="W1" s="246" t="s">
         <v>232</v>
       </c>
-      <c r="X1" s="243"/>
-      <c r="AC1" s="243" t="s">
+      <c r="X1" s="246"/>
+      <c r="AC1" s="246" t="s">
         <v>233</v>
       </c>
-      <c r="AD1" s="243"/>
+      <c r="AD1" s="246"/>
     </row>
     <row r="2" spans="1:44" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="240" t="s">
+      <c r="A2" s="226" t="s">
         <v>234</v>
       </c>
-      <c r="B2" s="240"/>
-      <c r="C2" s="240" t="s">
+      <c r="B2" s="226"/>
+      <c r="C2" s="226" t="s">
         <v>235</v>
       </c>
-      <c r="D2" s="240"/>
-      <c r="E2" s="240" t="s">
+      <c r="D2" s="226"/>
+      <c r="E2" s="226" t="s">
         <v>236</v>
       </c>
-      <c r="F2" s="240"/>
-      <c r="G2" s="240" t="s">
+      <c r="F2" s="226"/>
+      <c r="G2" s="226" t="s">
         <v>237</v>
       </c>
-      <c r="H2" s="240"/>
-      <c r="I2" s="240" t="s">
+      <c r="H2" s="226"/>
+      <c r="I2" s="226" t="s">
         <v>238</v>
       </c>
-      <c r="J2" s="240"/>
-      <c r="L2" s="240" t="s">
+      <c r="J2" s="226"/>
+      <c r="L2" s="226" t="s">
         <v>234</v>
       </c>
-      <c r="M2" s="240"/>
-      <c r="N2" s="240" t="s">
+      <c r="M2" s="226"/>
+      <c r="N2" s="226" t="s">
         <v>235</v>
       </c>
-      <c r="O2" s="240"/>
-      <c r="P2" s="240" t="s">
+      <c r="O2" s="226"/>
+      <c r="P2" s="226" t="s">
         <v>236</v>
       </c>
-      <c r="Q2" s="240"/>
-      <c r="R2" s="240" t="s">
+      <c r="Q2" s="226"/>
+      <c r="R2" s="226" t="s">
         <v>237</v>
       </c>
-      <c r="S2" s="240"/>
-      <c r="T2" s="240" t="s">
+      <c r="S2" s="226"/>
+      <c r="T2" s="226" t="s">
         <v>238</v>
       </c>
-      <c r="U2" s="240"/>
+      <c r="U2" s="226"/>
     </row>
     <row r="3" spans="1:44" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="72" t="s">
@@ -24342,36 +25015,36 @@
       <c r="B3" s="72" t="s">
         <v>240</v>
       </c>
-      <c r="C3" s="241"/>
-      <c r="D3" s="242"/>
-      <c r="E3" s="241"/>
-      <c r="F3" s="242"/>
+      <c r="C3" s="227"/>
+      <c r="D3" s="228"/>
+      <c r="E3" s="227"/>
+      <c r="F3" s="228"/>
       <c r="G3" s="72" t="s">
         <v>239</v>
       </c>
       <c r="H3" s="72" t="s">
         <v>240</v>
       </c>
-      <c r="I3" s="241"/>
-      <c r="J3" s="242"/>
+      <c r="I3" s="227"/>
+      <c r="J3" s="228"/>
       <c r="L3" s="72" t="s">
         <v>239</v>
       </c>
       <c r="M3" s="72" t="s">
         <v>240</v>
       </c>
-      <c r="N3" s="241"/>
-      <c r="O3" s="242"/>
-      <c r="P3" s="241"/>
-      <c r="Q3" s="242"/>
+      <c r="N3" s="227"/>
+      <c r="O3" s="228"/>
+      <c r="P3" s="227"/>
+      <c r="Q3" s="228"/>
       <c r="R3" s="72" t="s">
         <v>239</v>
       </c>
       <c r="S3" s="72" t="s">
         <v>240</v>
       </c>
-      <c r="T3" s="241"/>
-      <c r="U3" s="242"/>
+      <c r="T3" s="227"/>
+      <c r="U3" s="228"/>
       <c r="W3" t="s">
         <v>241</v>
       </c>
@@ -24380,14 +25053,14 @@
       </c>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A4" s="234">
+      <c r="A4" s="230">
         <v>0.64709000000000005</v>
       </c>
-      <c r="B4" s="234"/>
-      <c r="C4" s="234">
+      <c r="B4" s="230"/>
+      <c r="C4" s="230">
         <v>0.97192999999999996</v>
       </c>
-      <c r="D4" s="234"/>
+      <c r="D4" s="230"/>
       <c r="E4" s="74"/>
       <c r="F4" s="74"/>
       <c r="G4" s="74"/>
@@ -24397,14 +25070,14 @@
       <c r="K4" s="73" t="s">
         <v>243</v>
       </c>
-      <c r="L4" s="234">
+      <c r="L4" s="230">
         <v>0.64709000000000005</v>
       </c>
-      <c r="M4" s="234"/>
-      <c r="N4" s="234">
+      <c r="M4" s="230"/>
+      <c r="N4" s="230">
         <v>0.97192999999999996</v>
       </c>
-      <c r="O4" s="234"/>
+      <c r="O4" s="230"/>
       <c r="P4" s="74"/>
       <c r="Q4" s="74"/>
       <c r="R4" s="74"/>
@@ -24422,14 +25095,14 @@
       </c>
     </row>
     <row r="5" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="239">
+      <c r="A5" s="229">
         <v>0.26545000000000002</v>
       </c>
-      <c r="B5" s="239"/>
-      <c r="C5" s="239">
+      <c r="B5" s="229"/>
+      <c r="C5" s="229">
         <v>0.39895999999999998</v>
       </c>
-      <c r="D5" s="239"/>
+      <c r="D5" s="229"/>
       <c r="E5" s="78"/>
       <c r="F5" s="78"/>
       <c r="G5" s="78"/>
@@ -24439,14 +25112,14 @@
       <c r="K5" s="77" t="s">
         <v>246</v>
       </c>
-      <c r="L5" s="239">
+      <c r="L5" s="229">
         <v>0.26545000000000002</v>
       </c>
-      <c r="M5" s="239"/>
-      <c r="N5" s="239">
+      <c r="M5" s="229"/>
+      <c r="N5" s="229">
         <v>0.39895999999999998</v>
       </c>
-      <c r="O5" s="239"/>
+      <c r="O5" s="229"/>
       <c r="P5" s="78"/>
       <c r="Q5" s="78"/>
       <c r="R5" s="78"/>
@@ -24470,10 +25143,10 @@
       <c r="B6" s="74">
         <v>0.25008999999999998</v>
       </c>
-      <c r="C6" s="234">
+      <c r="C6" s="230">
         <v>1</v>
       </c>
-      <c r="D6" s="234"/>
+      <c r="D6" s="230"/>
       <c r="E6" s="74"/>
       <c r="F6" s="74"/>
       <c r="G6" s="74"/>
@@ -24489,10 +25162,10 @@
       <c r="M6" s="74">
         <v>0.25008999999999998</v>
       </c>
-      <c r="N6" s="234">
+      <c r="N6" s="230">
         <v>1</v>
       </c>
-      <c r="O6" s="234"/>
+      <c r="O6" s="230"/>
       <c r="P6" s="74"/>
       <c r="Q6" s="74"/>
       <c r="R6" s="74"/>
@@ -24505,10 +25178,10 @@
       <c r="B7" s="78"/>
       <c r="C7" s="78"/>
       <c r="D7" s="78"/>
-      <c r="E7" s="239">
+      <c r="E7" s="229">
         <v>0.27488000000000001</v>
       </c>
-      <c r="F7" s="239"/>
+      <c r="F7" s="229"/>
       <c r="G7" s="78"/>
       <c r="H7" s="78"/>
       <c r="I7" s="78"/>
@@ -24520,10 +25193,10 @@
       <c r="M7" s="78"/>
       <c r="N7" s="78"/>
       <c r="O7" s="78"/>
-      <c r="P7" s="239">
+      <c r="P7" s="229">
         <v>0.27488000000000001</v>
       </c>
-      <c r="Q7" s="239"/>
+      <c r="Q7" s="229"/>
       <c r="R7" s="78"/>
       <c r="S7" s="78"/>
       <c r="T7" s="78"/>
@@ -24542,10 +25215,10 @@
       <c r="B8" s="74">
         <v>0.17752000000000001</v>
       </c>
-      <c r="C8" s="234">
+      <c r="C8" s="230">
         <v>0.72296000000000005</v>
       </c>
-      <c r="D8" s="234"/>
+      <c r="D8" s="230"/>
       <c r="E8" s="74"/>
       <c r="F8" s="74"/>
       <c r="G8" s="74"/>
@@ -24561,10 +25234,10 @@
       <c r="M8" s="74">
         <v>0.17752000000000001</v>
       </c>
-      <c r="N8" s="234">
+      <c r="N8" s="230">
         <v>0.72296000000000005</v>
       </c>
-      <c r="O8" s="234"/>
+      <c r="O8" s="230"/>
       <c r="P8" s="74"/>
       <c r="Q8" s="74"/>
       <c r="R8" s="74"/>
@@ -24580,10 +25253,10 @@
       <c r="B9" s="78"/>
       <c r="C9" s="78"/>
       <c r="D9" s="78"/>
-      <c r="E9" s="239">
+      <c r="E9" s="229">
         <v>0.36337000000000003</v>
       </c>
-      <c r="F9" s="239"/>
+      <c r="F9" s="229"/>
       <c r="G9" s="78"/>
       <c r="H9" s="78"/>
       <c r="I9" s="78"/>
@@ -24595,11 +25268,11 @@
       <c r="M9" s="78"/>
       <c r="N9" s="78"/>
       <c r="O9" s="78"/>
-      <c r="P9" s="239">
+      <c r="P9" s="229">
         <f>36.337%*1.21</f>
         <v>0.4396777</v>
       </c>
-      <c r="Q9" s="239"/>
+      <c r="Q9" s="229"/>
       <c r="R9" s="78"/>
       <c r="S9" s="78"/>
       <c r="T9" s="78"/>
@@ -24613,10 +25286,10 @@
         <v>0.65615999999999997</v>
       </c>
       <c r="B10" s="74"/>
-      <c r="C10" s="234">
+      <c r="C10" s="230">
         <v>0.78437000000000001</v>
       </c>
-      <c r="D10" s="234"/>
+      <c r="D10" s="230"/>
       <c r="E10" s="74"/>
       <c r="F10" s="74"/>
       <c r="G10" s="74"/>
@@ -24631,11 +25304,11 @@
         <v>0.69552959999999997</v>
       </c>
       <c r="M10" s="74"/>
-      <c r="N10" s="234">
+      <c r="N10" s="230">
         <f>78.437%*(1-0.09)</f>
         <v>0.71377670000000004</v>
       </c>
-      <c r="O10" s="234"/>
+      <c r="O10" s="230"/>
       <c r="P10" s="74"/>
       <c r="Q10" s="74"/>
       <c r="R10" s="74"/>
@@ -24651,10 +25324,10 @@
       <c r="B11" s="81"/>
       <c r="C11" s="81"/>
       <c r="D11" s="81"/>
-      <c r="E11" s="238">
+      <c r="E11" s="231">
         <v>0.1464</v>
       </c>
-      <c r="F11" s="238"/>
+      <c r="F11" s="231"/>
       <c r="G11" s="81"/>
       <c r="H11" s="81"/>
       <c r="I11" s="81"/>
@@ -24666,10 +25339,10 @@
       <c r="M11" s="81"/>
       <c r="N11" s="81"/>
       <c r="O11" s="81"/>
-      <c r="P11" s="238">
+      <c r="P11" s="231">
         <v>0.1464</v>
       </c>
-      <c r="Q11" s="238"/>
+      <c r="Q11" s="231"/>
       <c r="R11" s="81"/>
       <c r="S11" s="81"/>
       <c r="T11" s="81"/>
@@ -24714,14 +25387,14 @@
       </c>
     </row>
     <row r="13" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A13" s="234">
+      <c r="A13" s="230">
         <v>0.42514999999999997</v>
       </c>
-      <c r="B13" s="234"/>
-      <c r="C13" s="234">
+      <c r="B13" s="230"/>
+      <c r="C13" s="230">
         <v>0.85</v>
       </c>
-      <c r="D13" s="234"/>
+      <c r="D13" s="230"/>
       <c r="E13" s="74"/>
       <c r="F13" s="74"/>
       <c r="G13" s="74"/>
@@ -24731,14 +25404,14 @@
       <c r="K13" s="73" t="s">
         <v>260</v>
       </c>
-      <c r="L13" s="234">
+      <c r="L13" s="230">
         <v>0.42514999999999997</v>
       </c>
-      <c r="M13" s="234"/>
-      <c r="N13" s="234">
+      <c r="M13" s="230"/>
+      <c r="N13" s="230">
         <v>0.85</v>
       </c>
-      <c r="O13" s="234"/>
+      <c r="O13" s="230"/>
       <c r="P13" s="74"/>
       <c r="Q13" s="74"/>
       <c r="R13" s="74"/>
@@ -24771,10 +25444,10 @@
       <c r="B14" s="78"/>
       <c r="C14" s="78"/>
       <c r="D14" s="78"/>
-      <c r="E14" s="239">
+      <c r="E14" s="229">
         <v>0.23365</v>
       </c>
-      <c r="F14" s="239"/>
+      <c r="F14" s="229"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
       <c r="I14" s="78"/>
@@ -24786,10 +25459,10 @@
       <c r="M14" s="78"/>
       <c r="N14" s="78"/>
       <c r="O14" s="78"/>
-      <c r="P14" s="239">
+      <c r="P14" s="229">
         <v>0.23365</v>
       </c>
-      <c r="Q14" s="239"/>
+      <c r="Q14" s="229"/>
       <c r="R14" s="78"/>
       <c r="S14" s="78"/>
       <c r="T14" s="78"/>
@@ -24827,10 +25500,10 @@
         <v>1</v>
       </c>
       <c r="B15" s="74"/>
-      <c r="C15" s="234">
+      <c r="C15" s="230">
         <v>0.51382000000000005</v>
       </c>
-      <c r="D15" s="234"/>
+      <c r="D15" s="230"/>
       <c r="E15" s="74"/>
       <c r="F15" s="74"/>
       <c r="G15" s="74"/>
@@ -24844,10 +25517,10 @@
         <v>1</v>
       </c>
       <c r="M15" s="74"/>
-      <c r="N15" s="234">
+      <c r="N15" s="230">
         <v>0.51382000000000005</v>
       </c>
-      <c r="O15" s="234"/>
+      <c r="O15" s="230"/>
       <c r="P15" s="74"/>
       <c r="Q15" s="74"/>
       <c r="R15" s="74"/>
@@ -24895,10 +25568,10 @@
       <c r="B16" s="81"/>
       <c r="C16" s="81"/>
       <c r="D16" s="81"/>
-      <c r="E16" s="238">
+      <c r="E16" s="231">
         <v>4.3869999999999999E-2</v>
       </c>
-      <c r="F16" s="238"/>
+      <c r="F16" s="231"/>
       <c r="G16" s="81"/>
       <c r="H16" s="81"/>
       <c r="I16" s="81"/>
@@ -24910,10 +25583,10 @@
       <c r="M16" s="81"/>
       <c r="N16" s="81"/>
       <c r="O16" s="81"/>
-      <c r="P16" s="238">
+      <c r="P16" s="231">
         <v>4.3869999999999999E-2</v>
       </c>
-      <c r="Q16" s="238"/>
+      <c r="Q16" s="231"/>
       <c r="R16" s="81"/>
       <c r="S16" s="81"/>
       <c r="T16" s="81"/>
@@ -24994,10 +25667,10 @@
         <v>0.91232999999999997</v>
       </c>
       <c r="B18" s="74"/>
-      <c r="C18" s="234">
+      <c r="C18" s="230">
         <v>0.46146999999999999</v>
       </c>
-      <c r="D18" s="234"/>
+      <c r="D18" s="230"/>
       <c r="E18" s="74"/>
       <c r="F18" s="74"/>
       <c r="G18" s="74"/>
@@ -25011,11 +25684,11 @@
         <v>0.91232999999999997</v>
       </c>
       <c r="M18" s="74"/>
-      <c r="N18" s="234">
+      <c r="N18" s="230">
         <f>46.147%*(1-0.08)</f>
         <v>0.4245524</v>
       </c>
-      <c r="O18" s="234"/>
+      <c r="O18" s="230"/>
       <c r="P18" s="74"/>
       <c r="Q18" s="74"/>
       <c r="R18" s="74"/>
@@ -25034,10 +25707,10 @@
       <c r="B19" s="81"/>
       <c r="C19" s="81"/>
       <c r="D19" s="81"/>
-      <c r="E19" s="238">
+      <c r="E19" s="231">
         <v>0.15035999999999999</v>
       </c>
-      <c r="F19" s="238"/>
+      <c r="F19" s="231"/>
       <c r="G19" s="81"/>
       <c r="H19" s="81"/>
       <c r="I19" s="81"/>
@@ -25049,10 +25722,10 @@
       <c r="M19" s="81"/>
       <c r="N19" s="81"/>
       <c r="O19" s="81"/>
-      <c r="P19" s="238">
+      <c r="P19" s="231">
         <v>0.15035999999999999</v>
       </c>
-      <c r="Q19" s="238"/>
+      <c r="Q19" s="231"/>
       <c r="R19" s="81"/>
       <c r="S19" s="81"/>
       <c r="T19" s="81"/>
@@ -25122,10 +25795,10 @@
         <v>0.69059999999999999</v>
       </c>
       <c r="B21" s="74"/>
-      <c r="C21" s="234">
+      <c r="C21" s="230">
         <v>0.38878000000000001</v>
       </c>
-      <c r="D21" s="234"/>
+      <c r="D21" s="230"/>
       <c r="E21" s="74"/>
       <c r="F21" s="74"/>
       <c r="G21" s="74"/>
@@ -25139,10 +25812,10 @@
         <v>0.69059999999999999</v>
       </c>
       <c r="M21" s="74"/>
-      <c r="N21" s="234">
+      <c r="N21" s="230">
         <v>0.38878000000000001</v>
       </c>
-      <c r="O21" s="234"/>
+      <c r="O21" s="230"/>
       <c r="P21" s="74"/>
       <c r="Q21" s="74"/>
       <c r="R21" s="74"/>
@@ -25164,10 +25837,10 @@
       <c r="B22" s="81"/>
       <c r="C22" s="81"/>
       <c r="D22" s="81"/>
-      <c r="E22" s="238">
+      <c r="E22" s="231">
         <v>0.2099</v>
       </c>
-      <c r="F22" s="238"/>
+      <c r="F22" s="231"/>
       <c r="G22" s="81"/>
       <c r="H22" s="81"/>
       <c r="I22" s="81"/>
@@ -25179,10 +25852,10 @@
       <c r="M22" s="81"/>
       <c r="N22" s="81"/>
       <c r="O22" s="81"/>
-      <c r="P22" s="238">
+      <c r="P22" s="231">
         <v>0.2099</v>
       </c>
-      <c r="Q22" s="238"/>
+      <c r="Q22" s="231"/>
       <c r="R22" s="81"/>
       <c r="S22" s="81"/>
       <c r="T22" s="81"/>
@@ -25246,10 +25919,10 @@
         <v>0.68315000000000003</v>
       </c>
       <c r="B24" s="74"/>
-      <c r="C24" s="234">
+      <c r="C24" s="230">
         <v>0.70006000000000002</v>
       </c>
-      <c r="D24" s="234"/>
+      <c r="D24" s="230"/>
       <c r="E24" s="74"/>
       <c r="F24" s="74"/>
       <c r="G24" s="74"/>
@@ -25263,10 +25936,10 @@
         <v>0.68315000000000003</v>
       </c>
       <c r="M24" s="74"/>
-      <c r="N24" s="234">
+      <c r="N24" s="230">
         <v>0.70006000000000002</v>
       </c>
-      <c r="O24" s="234"/>
+      <c r="O24" s="230"/>
       <c r="P24" s="74"/>
       <c r="Q24" s="74"/>
       <c r="R24" s="74"/>
@@ -25291,10 +25964,10 @@
       <c r="B25" s="81"/>
       <c r="C25" s="81"/>
       <c r="D25" s="81"/>
-      <c r="E25" s="238">
+      <c r="E25" s="231">
         <v>0.152</v>
       </c>
-      <c r="F25" s="238"/>
+      <c r="F25" s="231"/>
       <c r="G25" s="81"/>
       <c r="H25" s="81"/>
       <c r="I25" s="81"/>
@@ -25306,10 +25979,10 @@
       <c r="M25" s="81"/>
       <c r="N25" s="81"/>
       <c r="O25" s="81"/>
-      <c r="P25" s="238">
+      <c r="P25" s="231">
         <v>0.152</v>
       </c>
-      <c r="Q25" s="238"/>
+      <c r="Q25" s="231"/>
       <c r="R25" s="81"/>
       <c r="S25" s="81"/>
       <c r="T25" s="81"/>
@@ -25372,16 +26045,16 @@
       <c r="B27" s="74">
         <v>9.2719999999999997E-2</v>
       </c>
-      <c r="C27" s="234">
+      <c r="C27" s="230">
         <v>0.42459999999999998</v>
       </c>
-      <c r="D27" s="234"/>
+      <c r="D27" s="230"/>
       <c r="E27" s="74"/>
       <c r="F27" s="74"/>
       <c r="G27" s="74"/>
       <c r="H27" s="74"/>
-      <c r="I27" s="227"/>
-      <c r="J27" s="229"/>
+      <c r="I27" s="234"/>
+      <c r="J27" s="235"/>
       <c r="K27" s="73" t="s">
         <v>292</v>
       </c>
@@ -25391,16 +26064,16 @@
       <c r="M27" s="74">
         <v>9.2719999999999997E-2</v>
       </c>
-      <c r="N27" s="234">
+      <c r="N27" s="230">
         <v>0.42459999999999998</v>
       </c>
-      <c r="O27" s="234"/>
+      <c r="O27" s="230"/>
       <c r="P27" s="74"/>
       <c r="Q27" s="74"/>
       <c r="R27" s="74"/>
       <c r="S27" s="74"/>
-      <c r="T27" s="227"/>
-      <c r="U27" s="229"/>
+      <c r="T27" s="234"/>
+      <c r="U27" s="235"/>
       <c r="W27" t="s">
         <v>415</v>
       </c>
@@ -25416,14 +26089,14 @@
       <c r="B28" s="81"/>
       <c r="C28" s="81"/>
       <c r="D28" s="81"/>
-      <c r="E28" s="238">
+      <c r="E28" s="231">
         <v>1</v>
       </c>
-      <c r="F28" s="238"/>
+      <c r="F28" s="231"/>
       <c r="G28" s="81"/>
       <c r="H28" s="81"/>
-      <c r="I28" s="230"/>
-      <c r="J28" s="231"/>
+      <c r="I28" s="232"/>
+      <c r="J28" s="233"/>
       <c r="K28" s="80" t="s">
         <v>295</v>
       </c>
@@ -25431,14 +26104,14 @@
       <c r="M28" s="81"/>
       <c r="N28" s="81"/>
       <c r="O28" s="81"/>
-      <c r="P28" s="238">
+      <c r="P28" s="231">
         <v>1</v>
       </c>
-      <c r="Q28" s="238"/>
+      <c r="Q28" s="231"/>
       <c r="R28" s="81"/>
       <c r="S28" s="81"/>
-      <c r="T28" s="230"/>
-      <c r="U28" s="231"/>
+      <c r="T28" s="232"/>
+      <c r="U28" s="233"/>
       <c r="W28" t="s">
         <v>418</v>
       </c>
@@ -25468,10 +26141,10 @@
       <c r="Q29" s="83"/>
       <c r="R29" s="78"/>
       <c r="S29" s="78"/>
-      <c r="T29" s="232">
+      <c r="T29" s="236">
         <v>0.21</v>
       </c>
-      <c r="U29" s="233"/>
+      <c r="U29" s="237"/>
       <c r="W29" t="s">
         <v>420</v>
       </c>
@@ -25492,10 +26165,10 @@
       <c r="H30" s="78">
         <v>0.1226</v>
       </c>
-      <c r="I30" s="232">
+      <c r="I30" s="236">
         <v>0.34044000000000002</v>
       </c>
-      <c r="J30" s="233"/>
+      <c r="J30" s="237"/>
       <c r="K30" s="77" t="s">
         <v>298</v>
       </c>
@@ -25511,11 +26184,11 @@
       <c r="S30" s="78">
         <v>0.14255813953488372</v>
       </c>
-      <c r="T30" s="232">
+      <c r="T30" s="236">
         <f>34.044%*1.05</f>
         <v>0.357462</v>
       </c>
-      <c r="U30" s="233"/>
+      <c r="U30" s="237"/>
       <c r="W30" t="s">
         <v>422</v>
       </c>
@@ -25536,16 +26209,16 @@
       <c r="B31" s="74">
         <v>0.13719000000000001</v>
       </c>
-      <c r="C31" s="234">
+      <c r="C31" s="230">
         <v>0.62792999999999999</v>
       </c>
-      <c r="D31" s="234"/>
+      <c r="D31" s="230"/>
       <c r="E31" s="74"/>
       <c r="F31" s="74"/>
       <c r="G31" s="74"/>
       <c r="H31" s="74"/>
-      <c r="I31" s="227"/>
-      <c r="J31" s="229"/>
+      <c r="I31" s="234"/>
+      <c r="J31" s="235"/>
       <c r="K31" s="73" t="s">
         <v>300</v>
       </c>
@@ -25555,16 +26228,16 @@
       <c r="M31" s="74">
         <v>0.13719000000000001</v>
       </c>
-      <c r="N31" s="234">
+      <c r="N31" s="230">
         <v>0.62792999999999999</v>
       </c>
-      <c r="O31" s="234"/>
+      <c r="O31" s="230"/>
       <c r="P31" s="74"/>
       <c r="Q31" s="74"/>
       <c r="R31" s="74"/>
       <c r="S31" s="74"/>
-      <c r="T31" s="227"/>
-      <c r="U31" s="229"/>
+      <c r="T31" s="234"/>
+      <c r="U31" s="235"/>
       <c r="W31" t="s">
         <v>426</v>
       </c>
@@ -25600,10 +26273,10 @@
       <c r="Q32" s="93"/>
       <c r="R32" s="93"/>
       <c r="S32" s="93"/>
-      <c r="T32" s="232">
+      <c r="T32" s="236">
         <v>0.12</v>
       </c>
-      <c r="U32" s="233"/>
+      <c r="U32" s="237"/>
       <c r="W32" t="s">
         <v>430</v>
       </c>
@@ -25630,10 +26303,10 @@
       <c r="H33" s="78">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="I33" s="232">
+      <c r="I33" s="236">
         <v>0.23748</v>
       </c>
-      <c r="J33" s="233"/>
+      <c r="J33" s="237"/>
       <c r="K33" s="77" t="s">
         <v>303</v>
       </c>
@@ -25649,11 +26322,11 @@
       <c r="S33" s="78">
         <v>6.8837209302325592E-2</v>
       </c>
-      <c r="T33" s="232">
+      <c r="T33" s="236">
         <f>23.748%*0.8</f>
         <v>0.18998400000000004</v>
       </c>
-      <c r="U33" s="233"/>
+      <c r="U33" s="237"/>
       <c r="W33" t="s">
         <v>434</v>
       </c>
@@ -25674,16 +26347,16 @@
       <c r="B34" s="74">
         <v>5.6059999999999999E-2</v>
       </c>
-      <c r="C34" s="234">
+      <c r="C34" s="230">
         <v>0.23462</v>
       </c>
-      <c r="D34" s="234"/>
+      <c r="D34" s="230"/>
       <c r="E34" s="74"/>
       <c r="F34" s="74"/>
       <c r="G34" s="74"/>
       <c r="H34" s="74"/>
-      <c r="I34" s="227"/>
-      <c r="J34" s="229"/>
+      <c r="I34" s="234"/>
+      <c r="J34" s="235"/>
       <c r="K34" s="73" t="s">
         <v>305</v>
       </c>
@@ -25695,17 +26368,17 @@
         <f>5.606%*0.75</f>
         <v>4.2044999999999999E-2</v>
       </c>
-      <c r="N34" s="234">
+      <c r="N34" s="230">
         <f>23.462%*0.75</f>
         <v>0.17596499999999998</v>
       </c>
-      <c r="O34" s="234"/>
+      <c r="O34" s="230"/>
       <c r="P34" s="74"/>
       <c r="Q34" s="74"/>
       <c r="R34" s="74"/>
       <c r="S34" s="74"/>
-      <c r="T34" s="227"/>
-      <c r="U34" s="229"/>
+      <c r="T34" s="234"/>
+      <c r="U34" s="235"/>
       <c r="W34" t="s">
         <v>438</v>
       </c>
@@ -25741,10 +26414,10 @@
       <c r="Q35" s="93"/>
       <c r="R35" s="93"/>
       <c r="S35" s="93"/>
-      <c r="T35" s="232">
+      <c r="T35" s="236">
         <v>0.31</v>
       </c>
-      <c r="U35" s="233"/>
+      <c r="U35" s="237"/>
       <c r="W35" t="s">
         <v>442</v>
       </c>
@@ -25765,10 +26438,10 @@
       <c r="H36" s="78">
         <v>0.11894</v>
       </c>
-      <c r="I36" s="232">
+      <c r="I36" s="236">
         <v>0.50244</v>
       </c>
-      <c r="J36" s="233"/>
+      <c r="J36" s="237"/>
       <c r="K36" s="77" t="s">
         <v>307</v>
       </c>
@@ -25784,11 +26457,11 @@
       <c r="S36" s="78">
         <v>0.13830232558139535</v>
       </c>
-      <c r="T36" s="232">
+      <c r="T36" s="236">
         <f>50.244%*1.05</f>
         <v>0.52756199999999998</v>
       </c>
-      <c r="U36" s="233"/>
+      <c r="U36" s="237"/>
       <c r="AC36" t="s">
         <v>444</v>
       </c>
@@ -25798,14 +26471,14 @@
       <c r="B37" s="86"/>
       <c r="C37" s="86"/>
       <c r="D37" s="86"/>
-      <c r="E37" s="235">
+      <c r="E37" s="238">
         <v>0.94696999999999998</v>
       </c>
-      <c r="F37" s="235"/>
+      <c r="F37" s="238"/>
       <c r="G37" s="86"/>
       <c r="H37" s="86"/>
-      <c r="I37" s="236"/>
-      <c r="J37" s="237"/>
+      <c r="I37" s="239"/>
+      <c r="J37" s="240"/>
       <c r="K37" s="85" t="s">
         <v>309</v>
       </c>
@@ -25813,54 +26486,54 @@
       <c r="M37" s="86"/>
       <c r="N37" s="86"/>
       <c r="O37" s="86"/>
-      <c r="P37" s="235">
+      <c r="P37" s="238">
         <v>0.94696999999999998</v>
       </c>
-      <c r="Q37" s="235"/>
+      <c r="Q37" s="238"/>
       <c r="R37" s="86"/>
       <c r="S37" s="86"/>
-      <c r="T37" s="236"/>
-      <c r="U37" s="237"/>
-      <c r="W37" s="243" t="s">
+      <c r="T37" s="239"/>
+      <c r="U37" s="240"/>
+      <c r="W37" s="246" t="s">
         <v>261</v>
       </c>
-      <c r="X37" s="243"/>
+      <c r="X37" s="246"/>
       <c r="AC37" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="38" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A38" s="234">
+      <c r="A38" s="230">
         <v>0.15762999999999999</v>
       </c>
-      <c r="B38" s="234"/>
-      <c r="C38" s="234">
+      <c r="B38" s="230"/>
+      <c r="C38" s="230">
         <v>0.36070000000000002</v>
       </c>
-      <c r="D38" s="234"/>
+      <c r="D38" s="230"/>
       <c r="E38" s="74"/>
       <c r="F38" s="74"/>
       <c r="G38" s="74"/>
       <c r="H38" s="74"/>
-      <c r="I38" s="227"/>
-      <c r="J38" s="229"/>
+      <c r="I38" s="234"/>
+      <c r="J38" s="235"/>
       <c r="K38" s="73" t="s">
         <v>310</v>
       </c>
-      <c r="L38" s="234">
+      <c r="L38" s="230">
         <v>0.15762999999999999</v>
       </c>
-      <c r="M38" s="234"/>
-      <c r="N38" s="234">
+      <c r="M38" s="230"/>
+      <c r="N38" s="230">
         <v>0.36070000000000002</v>
       </c>
-      <c r="O38" s="234"/>
+      <c r="O38" s="230"/>
       <c r="P38" s="74"/>
       <c r="Q38" s="74"/>
       <c r="R38" s="74"/>
       <c r="S38" s="74"/>
-      <c r="T38" s="227"/>
-      <c r="U38" s="229"/>
+      <c r="T38" s="234"/>
+      <c r="U38" s="235"/>
       <c r="AC38" t="s">
         <v>446</v>
       </c>
@@ -25870,14 +26543,14 @@
       <c r="B39" s="81"/>
       <c r="C39" s="81"/>
       <c r="D39" s="81"/>
-      <c r="E39" s="238">
+      <c r="E39" s="231">
         <v>0.85</v>
       </c>
-      <c r="F39" s="238"/>
+      <c r="F39" s="231"/>
       <c r="G39" s="81"/>
       <c r="H39" s="81"/>
-      <c r="I39" s="230"/>
-      <c r="J39" s="231"/>
+      <c r="I39" s="232"/>
+      <c r="J39" s="233"/>
       <c r="K39" s="80" t="s">
         <v>311</v>
       </c>
@@ -25885,14 +26558,14 @@
       <c r="M39" s="81"/>
       <c r="N39" s="81"/>
       <c r="O39" s="81"/>
-      <c r="P39" s="238">
+      <c r="P39" s="231">
         <v>0.85</v>
       </c>
-      <c r="Q39" s="238"/>
+      <c r="Q39" s="231"/>
       <c r="R39" s="81"/>
       <c r="S39" s="81"/>
-      <c r="T39" s="230"/>
-      <c r="U39" s="231"/>
+      <c r="T39" s="232"/>
+      <c r="U39" s="233"/>
       <c r="W39" t="s">
         <v>241</v>
       </c>
@@ -25911,10 +26584,10 @@
         <v>0.20784</v>
       </c>
       <c r="H40" s="78"/>
-      <c r="I40" s="232">
+      <c r="I40" s="236">
         <v>0.28937000000000002</v>
       </c>
-      <c r="J40" s="233"/>
+      <c r="J40" s="237"/>
       <c r="K40" s="77" t="s">
         <v>313</v>
       </c>
@@ -25928,10 +26601,10 @@
         <v>0.24167441860465114</v>
       </c>
       <c r="S40" s="78"/>
-      <c r="T40" s="232">
+      <c r="T40" s="236">
         <v>0.28937000000000002</v>
       </c>
-      <c r="U40" s="233"/>
+      <c r="U40" s="237"/>
       <c r="W40" t="s">
         <v>244</v>
       </c>
@@ -25940,37 +26613,37 @@
       </c>
     </row>
     <row r="41" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A41" s="234">
+      <c r="A41" s="230">
         <v>0.20368</v>
       </c>
-      <c r="B41" s="234"/>
-      <c r="C41" s="234">
+      <c r="B41" s="230"/>
+      <c r="C41" s="230">
         <v>0.33767000000000003</v>
       </c>
-      <c r="D41" s="234"/>
+      <c r="D41" s="230"/>
       <c r="E41" s="74"/>
       <c r="F41" s="74"/>
       <c r="G41" s="74"/>
       <c r="H41" s="74"/>
-      <c r="I41" s="227"/>
-      <c r="J41" s="229"/>
+      <c r="I41" s="234"/>
+      <c r="J41" s="235"/>
       <c r="K41" s="73" t="s">
         <v>315</v>
       </c>
-      <c r="L41" s="234">
+      <c r="L41" s="230">
         <v>0.20368</v>
       </c>
-      <c r="M41" s="234"/>
-      <c r="N41" s="234">
+      <c r="M41" s="230"/>
+      <c r="N41" s="230">
         <v>0.33767000000000003</v>
       </c>
-      <c r="O41" s="234"/>
+      <c r="O41" s="230"/>
       <c r="P41" s="74"/>
       <c r="Q41" s="74"/>
       <c r="R41" s="74"/>
       <c r="S41" s="74"/>
-      <c r="T41" s="227"/>
-      <c r="U41" s="229"/>
+      <c r="T41" s="234"/>
+      <c r="U41" s="235"/>
       <c r="W41" t="s">
         <v>247</v>
       </c>
@@ -25983,14 +26656,14 @@
       <c r="B42" s="81"/>
       <c r="C42" s="81"/>
       <c r="D42" s="81"/>
-      <c r="E42" s="238">
+      <c r="E42" s="231">
         <v>0.89815999999999996</v>
       </c>
-      <c r="F42" s="238"/>
+      <c r="F42" s="231"/>
       <c r="G42" s="81"/>
       <c r="H42" s="81"/>
-      <c r="I42" s="230"/>
-      <c r="J42" s="231"/>
+      <c r="I42" s="232"/>
+      <c r="J42" s="233"/>
       <c r="K42" s="80" t="s">
         <v>317</v>
       </c>
@@ -25998,14 +26671,14 @@
       <c r="M42" s="81"/>
       <c r="N42" s="81"/>
       <c r="O42" s="81"/>
-      <c r="P42" s="238">
+      <c r="P42" s="231">
         <v>0.89815999999999996</v>
       </c>
-      <c r="Q42" s="238"/>
+      <c r="Q42" s="231"/>
       <c r="R42" s="81"/>
       <c r="S42" s="81"/>
-      <c r="T42" s="230"/>
-      <c r="U42" s="231"/>
+      <c r="T42" s="232"/>
+      <c r="U42" s="233"/>
       <c r="AC42" t="s">
         <v>450</v>
       </c>
@@ -26021,8 +26694,8 @@
         <v>0.57364000000000004</v>
       </c>
       <c r="H43" s="81"/>
-      <c r="I43" s="230"/>
-      <c r="J43" s="231"/>
+      <c r="I43" s="232"/>
+      <c r="J43" s="233"/>
       <c r="K43" s="80" t="s">
         <v>319</v>
       </c>
@@ -26036,8 +26709,8 @@
         <v>0.6670232558139535</v>
       </c>
       <c r="S43" s="81"/>
-      <c r="T43" s="230"/>
-      <c r="U43" s="231"/>
+      <c r="T43" s="232"/>
+      <c r="U43" s="233"/>
       <c r="W43" t="s">
         <v>256</v>
       </c>
@@ -26056,10 +26729,10 @@
         <v>0.26422000000000001</v>
       </c>
       <c r="H44" s="78"/>
-      <c r="I44" s="232">
+      <c r="I44" s="236">
         <v>0.2399</v>
       </c>
-      <c r="J44" s="233"/>
+      <c r="J44" s="237"/>
       <c r="K44" s="77" t="s">
         <v>321</v>
       </c>
@@ -26073,11 +26746,11 @@
         <v>0.30723255813953487</v>
       </c>
       <c r="S44" s="78"/>
-      <c r="T44" s="232">
+      <c r="T44" s="236">
         <f>23.99%*1.06</f>
         <v>0.25429399999999996</v>
       </c>
-      <c r="U44" s="233"/>
+      <c r="U44" s="237"/>
       <c r="W44" t="s">
         <v>258</v>
       </c>
@@ -26090,16 +26763,16 @@
         <v>0.34708</v>
       </c>
       <c r="B45" s="74"/>
-      <c r="C45" s="234">
+      <c r="C45" s="230">
         <v>0.20830000000000001</v>
       </c>
-      <c r="D45" s="234"/>
+      <c r="D45" s="230"/>
       <c r="E45" s="74"/>
       <c r="F45" s="74"/>
       <c r="G45" s="74"/>
       <c r="H45" s="74"/>
-      <c r="I45" s="227"/>
-      <c r="J45" s="229"/>
+      <c r="I45" s="234"/>
+      <c r="J45" s="235"/>
       <c r="K45" s="73" t="s">
         <v>322</v>
       </c>
@@ -26107,16 +26780,16 @@
         <v>0.34708</v>
       </c>
       <c r="M45" s="74"/>
-      <c r="N45" s="234">
+      <c r="N45" s="230">
         <v>0.20830000000000001</v>
       </c>
-      <c r="O45" s="234"/>
+      <c r="O45" s="230"/>
       <c r="P45" s="74"/>
       <c r="Q45" s="74"/>
       <c r="R45" s="74"/>
       <c r="S45" s="74"/>
-      <c r="T45" s="227"/>
-      <c r="U45" s="229"/>
+      <c r="T45" s="234"/>
+      <c r="U45" s="235"/>
       <c r="AC45" t="s">
         <v>453</v>
       </c>
@@ -26126,14 +26799,14 @@
       <c r="B46" s="81"/>
       <c r="C46" s="81"/>
       <c r="D46" s="81"/>
-      <c r="E46" s="238">
+      <c r="E46" s="231">
         <v>0.52559999999999996</v>
       </c>
-      <c r="F46" s="238"/>
+      <c r="F46" s="231"/>
       <c r="G46" s="81"/>
       <c r="H46" s="81"/>
-      <c r="I46" s="230"/>
-      <c r="J46" s="231"/>
+      <c r="I46" s="232"/>
+      <c r="J46" s="233"/>
       <c r="K46" s="80" t="s">
         <v>323</v>
       </c>
@@ -26141,14 +26814,14 @@
       <c r="M46" s="81"/>
       <c r="N46" s="81"/>
       <c r="O46" s="81"/>
-      <c r="P46" s="238">
+      <c r="P46" s="231">
         <v>0.52559999999999996</v>
       </c>
-      <c r="Q46" s="238"/>
+      <c r="Q46" s="231"/>
       <c r="R46" s="81"/>
       <c r="S46" s="81"/>
-      <c r="T46" s="230"/>
-      <c r="U46" s="231"/>
+      <c r="T46" s="232"/>
+      <c r="U46" s="233"/>
       <c r="W46" t="s">
         <v>373</v>
       </c>
@@ -26167,8 +26840,8 @@
         <v>0.84328000000000003</v>
       </c>
       <c r="H47" s="81"/>
-      <c r="I47" s="230"/>
-      <c r="J47" s="231"/>
+      <c r="I47" s="232"/>
+      <c r="J47" s="233"/>
       <c r="K47" s="80" t="s">
         <v>324</v>
       </c>
@@ -26182,8 +26855,8 @@
         <v>0.85308558139534874</v>
       </c>
       <c r="S47" s="81"/>
-      <c r="T47" s="230"/>
-      <c r="U47" s="231"/>
+      <c r="T47" s="232"/>
+      <c r="U47" s="233"/>
     </row>
     <row r="48" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="78"/>
@@ -26196,10 +26869,10 @@
         <v>0.23543</v>
       </c>
       <c r="H48" s="78"/>
-      <c r="I48" s="232">
+      <c r="I48" s="236">
         <v>0.13220000000000001</v>
       </c>
-      <c r="J48" s="233"/>
+      <c r="J48" s="237"/>
       <c r="K48" s="77" t="s">
         <v>326</v>
       </c>
@@ -26213,11 +26886,11 @@
         <v>0.27375581395348836</v>
       </c>
       <c r="S48" s="78"/>
-      <c r="T48" s="232">
+      <c r="T48" s="236">
         <f>13.22%*1.16</f>
         <v>0.15335200000000002</v>
       </c>
-      <c r="U48" s="233"/>
+      <c r="U48" s="237"/>
       <c r="W48" t="s">
         <v>455</v>
       </c>
@@ -26230,14 +26903,14 @@
       <c r="B49" s="86"/>
       <c r="C49" s="86"/>
       <c r="D49" s="86"/>
-      <c r="E49" s="235">
+      <c r="E49" s="238">
         <v>0.43773000000000001</v>
       </c>
-      <c r="F49" s="235"/>
+      <c r="F49" s="238"/>
       <c r="G49" s="86"/>
       <c r="H49" s="86"/>
-      <c r="I49" s="236"/>
-      <c r="J49" s="237"/>
+      <c r="I49" s="239"/>
+      <c r="J49" s="240"/>
       <c r="K49" s="85" t="s">
         <v>367</v>
       </c>
@@ -26245,14 +26918,14 @@
       <c r="M49" s="86"/>
       <c r="N49" s="86"/>
       <c r="O49" s="86"/>
-      <c r="P49" s="235">
+      <c r="P49" s="238">
         <v>0.43773000000000001</v>
       </c>
-      <c r="Q49" s="235"/>
+      <c r="Q49" s="238"/>
       <c r="R49" s="86"/>
       <c r="S49" s="86"/>
-      <c r="T49" s="236"/>
-      <c r="U49" s="237"/>
+      <c r="T49" s="239"/>
+      <c r="U49" s="240"/>
       <c r="V49" s="35"/>
       <c r="W49" t="s">
         <v>457</v>
@@ -26263,16 +26936,16 @@
         <v>0.47361999999999999</v>
       </c>
       <c r="B50" s="74"/>
-      <c r="C50" s="234">
+      <c r="C50" s="230">
         <v>0.28101999999999999</v>
       </c>
-      <c r="D50" s="234"/>
+      <c r="D50" s="230"/>
       <c r="E50" s="74"/>
       <c r="F50" s="74"/>
       <c r="G50" s="74"/>
       <c r="H50" s="74"/>
-      <c r="I50" s="227"/>
-      <c r="J50" s="229"/>
+      <c r="I50" s="234"/>
+      <c r="J50" s="235"/>
       <c r="K50" s="73" t="s">
         <v>328</v>
       </c>
@@ -26280,23 +26953,23 @@
         <v>0.47361999999999999</v>
       </c>
       <c r="M50" s="74"/>
-      <c r="N50" s="234">
+      <c r="N50" s="230">
         <v>0.28101999999999999</v>
       </c>
-      <c r="O50" s="234"/>
+      <c r="O50" s="230"/>
       <c r="P50" s="74"/>
       <c r="Q50" s="74"/>
       <c r="R50" s="74"/>
       <c r="S50" s="74"/>
-      <c r="T50" s="227"/>
-      <c r="U50" s="229"/>
+      <c r="T50" s="234"/>
+      <c r="U50" s="235"/>
       <c r="W50" t="s">
         <v>458</v>
       </c>
-      <c r="AC50" s="243" t="s">
+      <c r="AC50" s="246" t="s">
         <v>251</v>
       </c>
-      <c r="AD50" s="243"/>
+      <c r="AD50" s="246"/>
     </row>
     <row r="51" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A51" s="81"/>
@@ -26309,8 +26982,8 @@
         <v>0.71950000000000003</v>
       </c>
       <c r="H51" s="81"/>
-      <c r="I51" s="230"/>
-      <c r="J51" s="231"/>
+      <c r="I51" s="232"/>
+      <c r="J51" s="233"/>
       <c r="K51" s="80" t="s">
         <v>329</v>
       </c>
@@ -26324,8 +26997,8 @@
         <v>0.66930232558139535</v>
       </c>
       <c r="S51" s="81"/>
-      <c r="T51" s="230"/>
-      <c r="U51" s="231"/>
+      <c r="T51" s="232"/>
+      <c r="U51" s="233"/>
       <c r="W51" t="s">
         <v>459</v>
       </c>
@@ -26341,10 +27014,10 @@
         <v>0.20451</v>
       </c>
       <c r="H52" s="78"/>
-      <c r="I52" s="232">
+      <c r="I52" s="236">
         <v>9.1600000000000001E-2</v>
       </c>
-      <c r="J52" s="233"/>
+      <c r="J52" s="237"/>
       <c r="K52" s="77" t="s">
         <v>331</v>
       </c>
@@ -26358,10 +27031,10 @@
         <v>0.23780232558139536</v>
       </c>
       <c r="S52" s="78"/>
-      <c r="T52" s="232">
+      <c r="T52" s="236">
         <v>9.1600000000000001E-2</v>
       </c>
-      <c r="U52" s="233"/>
+      <c r="U52" s="237"/>
       <c r="W52" t="s">
         <v>460</v>
       </c>
@@ -26374,16 +27047,16 @@
         <v>0.17321</v>
       </c>
       <c r="B53" s="74"/>
-      <c r="C53" s="234">
+      <c r="C53" s="230">
         <v>9.2929999999999999E-2</v>
       </c>
-      <c r="D53" s="234"/>
+      <c r="D53" s="230"/>
       <c r="E53" s="74"/>
       <c r="F53" s="74"/>
       <c r="G53" s="74"/>
       <c r="H53" s="74"/>
-      <c r="I53" s="227"/>
-      <c r="J53" s="229"/>
+      <c r="I53" s="234"/>
+      <c r="J53" s="235"/>
       <c r="K53" s="73" t="s">
         <v>333</v>
       </c>
@@ -26391,17 +27064,17 @@
         <v>0.17321</v>
       </c>
       <c r="M53" s="74"/>
-      <c r="N53" s="234">
+      <c r="N53" s="230">
         <f>9.293%*0.8</f>
         <v>7.4344000000000007E-2</v>
       </c>
-      <c r="O53" s="234"/>
+      <c r="O53" s="230"/>
       <c r="P53" s="74"/>
       <c r="Q53" s="74"/>
       <c r="R53" s="74"/>
       <c r="S53" s="74"/>
-      <c r="T53" s="227"/>
-      <c r="U53" s="229"/>
+      <c r="T53" s="234"/>
+      <c r="U53" s="235"/>
       <c r="W53" t="s">
         <v>461</v>
       </c>
@@ -26420,8 +27093,8 @@
         <v>1</v>
       </c>
       <c r="H54" s="81"/>
-      <c r="I54" s="230"/>
-      <c r="J54" s="231"/>
+      <c r="I54" s="232"/>
+      <c r="J54" s="233"/>
       <c r="K54" s="80" t="s">
         <v>335</v>
       </c>
@@ -26435,8 +27108,8 @@
         <v>1</v>
       </c>
       <c r="S54" s="81"/>
-      <c r="T54" s="230"/>
-      <c r="U54" s="231"/>
+      <c r="T54" s="232"/>
+      <c r="U54" s="233"/>
       <c r="W54" t="s">
         <v>462</v>
       </c>
@@ -26455,10 +27128,10 @@
         <v>0.26967000000000002</v>
       </c>
       <c r="H55" s="78"/>
-      <c r="I55" s="232">
+      <c r="I55" s="236">
         <v>0.1535</v>
       </c>
-      <c r="J55" s="233"/>
+      <c r="J55" s="237"/>
       <c r="K55" s="77" t="s">
         <v>337</v>
       </c>
@@ -26472,10 +27145,10 @@
         <v>0.31356976744186049</v>
       </c>
       <c r="S55" s="78"/>
-      <c r="T55" s="232">
+      <c r="T55" s="236">
         <v>0.1535</v>
       </c>
-      <c r="U55" s="233"/>
+      <c r="U55" s="237"/>
       <c r="V55" s="35"/>
       <c r="W55" t="s">
         <v>463</v>
@@ -26486,14 +27159,14 @@
       <c r="B56" s="86"/>
       <c r="C56" s="86"/>
       <c r="D56" s="86"/>
-      <c r="E56" s="235">
+      <c r="E56" s="238">
         <v>0.43773000000000001</v>
       </c>
-      <c r="F56" s="235"/>
+      <c r="F56" s="238"/>
       <c r="G56" s="86"/>
       <c r="H56" s="86"/>
-      <c r="I56" s="236"/>
-      <c r="J56" s="237"/>
+      <c r="I56" s="239"/>
+      <c r="J56" s="240"/>
       <c r="K56" s="85" t="s">
         <v>368</v>
       </c>
@@ -26501,15 +27174,15 @@
       <c r="M56" s="86"/>
       <c r="N56" s="86"/>
       <c r="O56" s="86"/>
-      <c r="P56" s="235">
+      <c r="P56" s="238">
         <f>43.773%*0.8</f>
         <v>0.35018400000000005</v>
       </c>
-      <c r="Q56" s="235"/>
+      <c r="Q56" s="238"/>
       <c r="R56" s="86"/>
       <c r="S56" s="86"/>
-      <c r="T56" s="236"/>
-      <c r="U56" s="237"/>
+      <c r="T56" s="239"/>
+      <c r="U56" s="240"/>
       <c r="V56" s="35"/>
       <c r="W56" t="s">
         <v>464</v>
@@ -26523,16 +27196,16 @@
         <v>0.28996</v>
       </c>
       <c r="B57" s="74"/>
-      <c r="C57" s="234">
+      <c r="C57" s="230">
         <v>0.25344</v>
       </c>
-      <c r="D57" s="234"/>
+      <c r="D57" s="230"/>
       <c r="E57" s="74"/>
       <c r="F57" s="74"/>
       <c r="G57" s="74"/>
       <c r="H57" s="74"/>
-      <c r="I57" s="227"/>
-      <c r="J57" s="229"/>
+      <c r="I57" s="234"/>
+      <c r="J57" s="235"/>
       <c r="K57" s="73" t="s">
         <v>340</v>
       </c>
@@ -26540,16 +27213,16 @@
         <v>0.28996</v>
       </c>
       <c r="M57" s="74"/>
-      <c r="N57" s="234">
+      <c r="N57" s="230">
         <v>0.25344</v>
       </c>
-      <c r="O57" s="234"/>
+      <c r="O57" s="230"/>
       <c r="P57" s="74"/>
       <c r="Q57" s="74"/>
       <c r="R57" s="74"/>
       <c r="S57" s="74"/>
-      <c r="T57" s="227"/>
-      <c r="U57" s="229"/>
+      <c r="T57" s="234"/>
+      <c r="U57" s="235"/>
       <c r="V57" s="35"/>
       <c r="W57" t="s">
         <v>466</v>
@@ -26560,14 +27233,14 @@
       <c r="B58" s="81"/>
       <c r="C58" s="81"/>
       <c r="D58" s="81"/>
-      <c r="E58" s="238">
+      <c r="E58" s="231">
         <v>0.65949000000000002</v>
       </c>
-      <c r="F58" s="238"/>
+      <c r="F58" s="231"/>
       <c r="G58" s="81"/>
       <c r="H58" s="81"/>
-      <c r="I58" s="230"/>
-      <c r="J58" s="231"/>
+      <c r="I58" s="232"/>
+      <c r="J58" s="233"/>
       <c r="K58" s="80" t="s">
         <v>342</v>
       </c>
@@ -26575,15 +27248,15 @@
       <c r="M58" s="81"/>
       <c r="N58" s="81"/>
       <c r="O58" s="81"/>
-      <c r="P58" s="238">
+      <c r="P58" s="231">
         <f>65.949%*1.1</f>
         <v>0.72543900000000006</v>
       </c>
-      <c r="Q58" s="238"/>
+      <c r="Q58" s="231"/>
       <c r="R58" s="81"/>
       <c r="S58" s="81"/>
-      <c r="T58" s="230"/>
-      <c r="U58" s="231"/>
+      <c r="T58" s="232"/>
+      <c r="U58" s="233"/>
       <c r="V58" s="35"/>
       <c r="W58" t="s">
         <v>467</v>
@@ -26603,8 +27276,8 @@
         <v>0.56411</v>
       </c>
       <c r="H59" s="81"/>
-      <c r="I59" s="230"/>
-      <c r="J59" s="231"/>
+      <c r="I59" s="232"/>
+      <c r="J59" s="233"/>
       <c r="K59" s="80" t="s">
         <v>344</v>
       </c>
@@ -26618,8 +27291,8 @@
         <v>0.70185779069767451</v>
       </c>
       <c r="S59" s="81"/>
-      <c r="T59" s="230"/>
-      <c r="U59" s="231"/>
+      <c r="T59" s="232"/>
+      <c r="U59" s="233"/>
       <c r="V59" s="35"/>
       <c r="W59" t="s">
         <v>468</v>
@@ -26636,10 +27309,10 @@
         <v>0.14326</v>
       </c>
       <c r="H60" s="78"/>
-      <c r="I60" s="232">
+      <c r="I60" s="236">
         <v>0.17191999999999999</v>
       </c>
-      <c r="J60" s="233"/>
+      <c r="J60" s="237"/>
       <c r="K60" s="77" t="s">
         <v>346</v>
       </c>
@@ -26653,11 +27326,11 @@
         <v>0.2082267441860465</v>
       </c>
       <c r="S60" s="78"/>
-      <c r="T60" s="232">
+      <c r="T60" s="236">
         <f>17.192%</f>
         <v>0.17191999999999999</v>
       </c>
-      <c r="U60" s="233"/>
+      <c r="U60" s="237"/>
       <c r="V60" s="35"/>
       <c r="W60" t="s">
         <v>469</v>
@@ -26677,8 +27350,8 @@
         <v>0.19162000000000001</v>
       </c>
       <c r="H61" s="74"/>
-      <c r="I61" s="227"/>
-      <c r="J61" s="229"/>
+      <c r="I61" s="234"/>
+      <c r="J61" s="235"/>
       <c r="K61" s="73" t="s">
         <v>348</v>
       </c>
@@ -26692,8 +27365,8 @@
         <v>0.22281395348837213</v>
       </c>
       <c r="S61" s="74"/>
-      <c r="T61" s="227"/>
-      <c r="U61" s="229"/>
+      <c r="T61" s="234"/>
+      <c r="U61" s="235"/>
       <c r="V61" s="35"/>
       <c r="W61" t="s">
         <v>471</v>
@@ -26713,8 +27386,8 @@
         <v>0.49523</v>
       </c>
       <c r="H62" s="81"/>
-      <c r="I62" s="230"/>
-      <c r="J62" s="231"/>
+      <c r="I62" s="232"/>
+      <c r="J62" s="233"/>
       <c r="K62" s="80" t="s">
         <v>349</v>
       </c>
@@ -26728,8 +27401,8 @@
         <v>0.57584883720930236</v>
       </c>
       <c r="S62" s="81"/>
-      <c r="T62" s="230"/>
-      <c r="U62" s="231"/>
+      <c r="T62" s="232"/>
+      <c r="U62" s="233"/>
       <c r="V62" s="35"/>
       <c r="W62" t="s">
         <v>473</v>
@@ -26756,10 +27429,10 @@
       <c r="M63" s="81"/>
       <c r="N63" s="81"/>
       <c r="O63" s="81"/>
-      <c r="P63" s="227">
+      <c r="P63" s="234">
         <v>0.15</v>
       </c>
-      <c r="Q63" s="228"/>
+      <c r="Q63" s="243"/>
       <c r="R63" s="81"/>
       <c r="S63" s="81"/>
       <c r="T63" s="98"/>
@@ -26783,10 +27456,10 @@
         <v>0.47439999999999999</v>
       </c>
       <c r="H64" s="81"/>
-      <c r="I64" s="230">
+      <c r="I64" s="232">
         <v>0.60697000000000001</v>
       </c>
-      <c r="J64" s="231"/>
+      <c r="J64" s="233"/>
       <c r="K64" s="80" t="s">
         <v>350</v>
       </c>
@@ -26800,10 +27473,10 @@
         <v>0.55162790697674413</v>
       </c>
       <c r="S64" s="81"/>
-      <c r="T64" s="230">
+      <c r="T64" s="232">
         <v>0.60697000000000001</v>
       </c>
-      <c r="U64" s="231"/>
+      <c r="U64" s="233"/>
       <c r="V64" s="35"/>
       <c r="W64" t="s">
         <v>477</v>
@@ -26823,10 +27496,10 @@
         <v>0.16774</v>
       </c>
       <c r="H65" s="78"/>
-      <c r="I65" s="232">
+      <c r="I65" s="236">
         <v>0.24779999999999999</v>
       </c>
-      <c r="J65" s="233"/>
+      <c r="J65" s="237"/>
       <c r="K65" s="77" t="s">
         <v>351</v>
       </c>
@@ -26840,10 +27513,10 @@
         <v>0.19504651162790698</v>
       </c>
       <c r="S65" s="78"/>
-      <c r="T65" s="232">
+      <c r="T65" s="236">
         <v>0.24779999999999999</v>
       </c>
-      <c r="U65" s="233"/>
+      <c r="U65" s="237"/>
       <c r="V65" s="35"/>
       <c r="W65" t="s">
         <v>479</v>
@@ -26857,14 +27530,14 @@
       <c r="B66" s="74"/>
       <c r="C66" s="74"/>
       <c r="D66" s="74"/>
-      <c r="E66" s="227">
+      <c r="E66" s="234">
         <v>0.45617999999999997</v>
       </c>
-      <c r="F66" s="228"/>
+      <c r="F66" s="243"/>
       <c r="G66" s="74"/>
       <c r="H66" s="74"/>
-      <c r="I66" s="227"/>
-      <c r="J66" s="229"/>
+      <c r="I66" s="234"/>
+      <c r="J66" s="235"/>
       <c r="K66" s="73" t="s">
         <v>352</v>
       </c>
@@ -26872,14 +27545,14 @@
       <c r="M66" s="74"/>
       <c r="N66" s="74"/>
       <c r="O66" s="74"/>
-      <c r="P66" s="227">
+      <c r="P66" s="234">
         <v>0.45617999999999997</v>
       </c>
-      <c r="Q66" s="228"/>
+      <c r="Q66" s="243"/>
       <c r="R66" s="74"/>
       <c r="S66" s="74"/>
-      <c r="T66" s="227"/>
-      <c r="U66" s="229"/>
+      <c r="T66" s="234"/>
+      <c r="U66" s="235"/>
       <c r="V66" s="35"/>
       <c r="W66" t="s">
         <v>481</v>
@@ -26899,10 +27572,10 @@
         <v>0.28649999999999998</v>
       </c>
       <c r="H67" s="81"/>
-      <c r="I67" s="230">
+      <c r="I67" s="232">
         <v>0.80176999999999998</v>
       </c>
-      <c r="J67" s="231"/>
+      <c r="J67" s="233"/>
       <c r="K67" s="80" t="s">
         <v>353</v>
       </c>
@@ -26916,10 +27589,10 @@
         <v>0.33313953488372089</v>
       </c>
       <c r="S67" s="81"/>
-      <c r="T67" s="230">
+      <c r="T67" s="232">
         <v>0.50800000000000001</v>
       </c>
-      <c r="U67" s="231"/>
+      <c r="U67" s="233"/>
       <c r="V67" s="35"/>
       <c r="AC67" t="s">
         <v>483</v>
@@ -26936,10 +27609,10 @@
         <v>0.20932000000000001</v>
       </c>
       <c r="H68" s="81"/>
-      <c r="I68" s="230">
+      <c r="I68" s="232">
         <v>0.50775999999999999</v>
       </c>
-      <c r="J68" s="231"/>
+      <c r="J68" s="233"/>
       <c r="K68" s="80" t="s">
         <v>355</v>
       </c>
@@ -26953,10 +27626,10 @@
         <v>0.24339534883720934</v>
       </c>
       <c r="S68" s="81"/>
-      <c r="T68" s="230">
+      <c r="T68" s="232">
         <v>0.50775999999999999</v>
       </c>
-      <c r="U68" s="231"/>
+      <c r="U68" s="233"/>
       <c r="V68" s="35"/>
       <c r="AC68" t="s">
         <v>484</v>
@@ -26973,8 +27646,8 @@
         <v>0.14599000000000001</v>
       </c>
       <c r="H69" s="81"/>
-      <c r="I69" s="230"/>
-      <c r="J69" s="231"/>
+      <c r="I69" s="232"/>
+      <c r="J69" s="233"/>
       <c r="K69" s="80" t="s">
         <v>356</v>
       </c>
@@ -26988,13 +27661,13 @@
         <v>0.16975581395348838</v>
       </c>
       <c r="S69" s="81"/>
-      <c r="T69" s="230"/>
-      <c r="U69" s="231"/>
+      <c r="T69" s="232"/>
+      <c r="U69" s="233"/>
       <c r="V69" s="35"/>
-      <c r="W69" s="243" t="s">
+      <c r="W69" s="246" t="s">
         <v>236</v>
       </c>
-      <c r="X69" s="243"/>
+      <c r="X69" s="246"/>
       <c r="AC69" t="s">
         <v>485</v>
       </c>
@@ -27010,10 +27683,10 @@
         <v>0.12414</v>
       </c>
       <c r="H70" s="78"/>
-      <c r="I70" s="232">
+      <c r="I70" s="236">
         <v>0.61785000000000001</v>
       </c>
-      <c r="J70" s="233"/>
+      <c r="J70" s="237"/>
       <c r="K70" s="77" t="s">
         <v>357</v>
       </c>
@@ -27027,10 +27700,10 @@
         <v>0.14434883720930233</v>
       </c>
       <c r="S70" s="78"/>
-      <c r="T70" s="232">
+      <c r="T70" s="236">
         <v>0.61785000000000001</v>
       </c>
-      <c r="U70" s="233"/>
+      <c r="U70" s="237"/>
       <c r="V70" s="35"/>
       <c r="AC70" t="s">
         <v>486</v>
@@ -27047,10 +27720,10 @@
         <v>0.23763000000000001</v>
       </c>
       <c r="H71" s="74"/>
-      <c r="I71" s="227">
+      <c r="I71" s="234">
         <v>1</v>
       </c>
-      <c r="J71" s="229"/>
+      <c r="J71" s="235"/>
       <c r="K71" s="73" t="s">
         <v>358</v>
       </c>
@@ -27064,10 +27737,10 @@
         <v>0.27631395348837212</v>
       </c>
       <c r="S71" s="74"/>
-      <c r="T71" s="227">
+      <c r="T71" s="234">
         <v>1</v>
       </c>
-      <c r="U71" s="229"/>
+      <c r="U71" s="235"/>
       <c r="V71" s="35"/>
       <c r="W71" t="s">
         <v>282</v>
@@ -27094,10 +27767,10 @@
       <c r="M72" s="100"/>
       <c r="N72" s="100"/>
       <c r="O72" s="100"/>
-      <c r="P72" s="227">
+      <c r="P72" s="234">
         <v>0.25</v>
       </c>
-      <c r="Q72" s="228"/>
+      <c r="Q72" s="243"/>
       <c r="R72" s="100"/>
       <c r="S72" s="100"/>
       <c r="T72" s="101"/>
@@ -27121,8 +27794,8 @@
         <v>0.17316000000000001</v>
       </c>
       <c r="H73" s="81"/>
-      <c r="I73" s="230"/>
-      <c r="J73" s="231"/>
+      <c r="I73" s="232"/>
+      <c r="J73" s="233"/>
       <c r="K73" s="80" t="s">
         <v>359</v>
       </c>
@@ -27136,8 +27809,8 @@
         <v>0.20134883720930236</v>
       </c>
       <c r="S73" s="81"/>
-      <c r="T73" s="230"/>
-      <c r="U73" s="231"/>
+      <c r="T73" s="232"/>
+      <c r="U73" s="233"/>
       <c r="V73" s="35"/>
       <c r="W73" t="s">
         <v>288</v>
@@ -27157,10 +27830,10 @@
         <v>0.12317</v>
       </c>
       <c r="H74" s="78"/>
-      <c r="I74" s="232">
+      <c r="I74" s="236">
         <v>0.33643600000000001</v>
       </c>
-      <c r="J74" s="233"/>
+      <c r="J74" s="237"/>
       <c r="K74" s="77" t="s">
         <v>360</v>
       </c>
@@ -27174,10 +27847,10 @@
         <v>0.14322093023255814</v>
       </c>
       <c r="S74" s="78"/>
-      <c r="T74" s="232">
+      <c r="T74" s="236">
         <v>0.33643600000000001</v>
       </c>
-      <c r="U74" s="233"/>
+      <c r="U74" s="237"/>
       <c r="V74" s="35"/>
       <c r="AC74" t="s">
         <v>490</v>
@@ -27194,10 +27867,10 @@
         <v>0.20199</v>
       </c>
       <c r="H75" s="74"/>
-      <c r="I75" s="227">
+      <c r="I75" s="234">
         <v>0.85</v>
       </c>
-      <c r="J75" s="229"/>
+      <c r="J75" s="235"/>
       <c r="K75" s="73" t="s">
         <v>361</v>
       </c>
@@ -27211,10 +27884,10 @@
         <v>0.23487209302325585</v>
       </c>
       <c r="S75" s="74"/>
-      <c r="T75" s="227">
+      <c r="T75" s="234">
         <v>0.85</v>
       </c>
-      <c r="U75" s="229"/>
+      <c r="U75" s="235"/>
       <c r="V75" s="35"/>
       <c r="W75" t="s">
         <v>293</v>
@@ -27234,8 +27907,8 @@
         <v>0.17718999999999999</v>
       </c>
       <c r="H76" s="81"/>
-      <c r="I76" s="230"/>
-      <c r="J76" s="231"/>
+      <c r="I76" s="232"/>
+      <c r="J76" s="233"/>
       <c r="K76" s="80" t="s">
         <v>362</v>
       </c>
@@ -27249,8 +27922,8 @@
         <v>0.20603488372093021</v>
       </c>
       <c r="S76" s="81"/>
-      <c r="T76" s="230"/>
-      <c r="U76" s="231"/>
+      <c r="T76" s="232"/>
+      <c r="U76" s="233"/>
       <c r="V76" s="35"/>
       <c r="W76" t="s">
         <v>296</v>
@@ -27270,10 +27943,10 @@
         <v>0.1047</v>
       </c>
       <c r="H77" s="90"/>
-      <c r="I77" s="225">
+      <c r="I77" s="241">
         <v>0.28591</v>
       </c>
-      <c r="J77" s="226"/>
+      <c r="J77" s="242"/>
       <c r="K77" s="89" t="s">
         <v>363</v>
       </c>
@@ -27287,10 +27960,10 @@
         <v>0.12174418604651163</v>
       </c>
       <c r="S77" s="90"/>
-      <c r="T77" s="225">
+      <c r="T77" s="241">
         <v>0.28591</v>
       </c>
-      <c r="U77" s="226"/>
+      <c r="U77" s="242"/>
       <c r="V77" s="35"/>
       <c r="AC77" t="s">
         <v>493</v>
@@ -27391,192 +28064,6 @@
     </row>
   </sheetData>
   <mergeCells count="210">
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="T36:U36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="T41:U41"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="T39:U39"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="T40:U40"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="T45:U45"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="T42:U42"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="T43:U43"/>
-    <mergeCell ref="T48:U48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="T46:U46"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="T47:U47"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="T53:U53"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="T50:U50"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="T51:U51"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="T57:U57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="T58:U58"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="T54:U54"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="T55:U55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="T56:U56"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="T66:U66"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="T67:U67"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="T62:U62"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="T64:U64"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="T65:U65"/>
-    <mergeCell ref="I77:J77"/>
-    <mergeCell ref="T77:U77"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="T71:U71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="I73:J73"/>
-    <mergeCell ref="T73:U73"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="T74:U74"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="W37:X37"/>
@@ -27601,6 +28088,192 @@
     <mergeCell ref="I52:J52"/>
     <mergeCell ref="T52:U52"/>
     <mergeCell ref="I48:J48"/>
+    <mergeCell ref="I77:J77"/>
+    <mergeCell ref="T77:U77"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="T71:U71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="I73:J73"/>
+    <mergeCell ref="T73:U73"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="T74:U74"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="T66:U66"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="T67:U67"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="T62:U62"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="T64:U64"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="T65:U65"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="T57:U57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="T58:U58"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="T54:U54"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="T55:U55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="T56:U56"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="T53:U53"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="T51:U51"/>
+    <mergeCell ref="T48:U48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="T46:U46"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="T47:U47"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="T45:U45"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:J77">
     <cfRule type="cellIs" dxfId="9" priority="5" operator="between">
@@ -27638,7 +28311,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A60EA9E8-356C-43F6-819C-A89E83AA286B}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -27704,17 +28377,17 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="246" t="s">
+      <c r="B4" s="247" t="s">
         <v>515</v>
       </c>
-      <c r="C4" s="246"/>
+      <c r="C4" s="247"/>
       <c r="D4" s="120" t="s">
         <v>516</v>
       </c>
-      <c r="G4" s="246" t="s">
+      <c r="G4" s="247" t="s">
         <v>517</v>
       </c>
-      <c r="H4" s="246"/>
+      <c r="H4" s="247"/>
       <c r="I4" s="120" t="s">
         <v>516</v>
       </c>
@@ -28850,7 +29523,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{668B0430-3463-4C73-885E-2BEF7EB4315A}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
@@ -29473,7 +30146,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7284118B-5B75-472D-96FC-400E821346D3}">
   <sheetPr>
     <tabColor theme="4" tint="0.79998168889431442"/>
@@ -44188,7 +44861,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24558503-6209-4639-84BC-F7E549E86B6A}">
   <sheetPr>
     <tabColor theme="3" tint="0.79998168889431442"/>
@@ -44363,7 +45036,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85B043EC-DDEC-48C2-9A00-F2EA53D16A84}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
@@ -45715,7 +46388,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED041D7-743E-4DE3-87DC-571D73BE5EE1}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -45963,7 +46636,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28410393-7FF4-43E7-AB58-5A53CE0FF4EE}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -46312,7 +46985,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0915B25-A896-409E-9A19-56F664E3DA32}">
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
@@ -46323,10 +46996,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="247" t="s">
+      <c r="A1" s="214" t="s">
         <v>1174</v>
       </c>
-      <c r="B1" s="247"/>
+      <c r="B1" s="214"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
@@ -46796,10 +47469,10 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="247" t="s">
+      <c r="A14" s="214" t="s">
         <v>1175</v>
       </c>
-      <c r="B14" s="247"/>
+      <c r="B14" s="214"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="35" t="s">
@@ -47820,7 +48493,7 @@
   </sheetPr>
   <dimension ref="A1:W37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -50224,6 +50897,27 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22137066-A458-44B9-9381-4127DE3F0FDF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="118" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42702488-9A23-4952-8D3F-5B7760F32032}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
@@ -50397,7 +51091,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="214" t="s">
+      <c r="A6" s="215" t="s">
         <v>99</v>
       </c>
       <c r="B6" s="38" t="s">
@@ -50428,7 +51122,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A7" s="214"/>
+      <c r="A7" s="215"/>
       <c r="B7" s="38" t="s">
         <v>96</v>
       </c>
@@ -50740,7 +51434,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B8CC896-CEFF-42DA-AD9C-EE3BB3129E18}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
@@ -51368,12 +52062,12 @@
       <c r="J34" s="49"/>
     </row>
     <row r="35" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="215" t="s">
+      <c r="A35" s="216" t="s">
         <v>151</v>
       </c>
-      <c r="B35" s="215"/>
-      <c r="C35" s="215"/>
-      <c r="D35" s="215"/>
+      <c r="B35" s="216"/>
+      <c r="C35" s="216"/>
+      <c r="D35" s="216"/>
       <c r="F35" s="50" t="s">
         <v>152</v>
       </c>
@@ -51385,16 +52079,16 @@
       <c r="J35" s="49"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="216" t="s">
+      <c r="A36" s="217" t="s">
         <v>116</v>
       </c>
-      <c r="B36" s="216" t="s">
+      <c r="B36" s="217" t="s">
         <v>153</v>
       </c>
-      <c r="C36" s="216" t="s">
+      <c r="C36" s="217" t="s">
         <v>149</v>
       </c>
-      <c r="D36" s="216" t="s">
+      <c r="D36" s="217" t="s">
         <v>150</v>
       </c>
       <c r="F36" s="53" t="s">
@@ -51408,10 +52102,10 @@
       <c r="J36" s="49"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="216"/>
-      <c r="B37" s="216"/>
-      <c r="C37" s="216"/>
-      <c r="D37" s="216"/>
+      <c r="A37" s="217"/>
+      <c r="B37" s="217"/>
+      <c r="C37" s="217"/>
+      <c r="D37" s="217"/>
       <c r="F37" s="50" t="s">
         <v>155</v>
       </c>
@@ -51732,7 +52426,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EA6FAF9-E8CD-406B-8012-87809236FB29}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -52061,7 +52755,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333067A0-0BA2-478F-BBAB-B928C05A8F5B}">
   <sheetPr>
     <tabColor theme="1"/>
@@ -52237,618 +52931,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E71E42D-20B3-461E-A0AB-0A41212747EC}">
-  <dimension ref="A1:J30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V8" sqref="V8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="52.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="6.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="221" t="s">
-        <v>1130</v>
-      </c>
-      <c r="B4" s="221" t="s">
-        <v>1131</v>
-      </c>
-      <c r="C4" s="221" t="s">
-        <v>1132</v>
-      </c>
-      <c r="D4" s="221" t="s">
-        <v>1133</v>
-      </c>
-      <c r="E4" s="223" t="s">
-        <v>1134</v>
-      </c>
-      <c r="F4" s="221" t="s">
-        <v>1135</v>
-      </c>
-      <c r="G4" s="221" t="s">
-        <v>1136</v>
-      </c>
-      <c r="H4" s="221" t="s">
-        <v>1137</v>
-      </c>
-      <c r="I4" s="221" t="s">
-        <v>1138</v>
-      </c>
-      <c r="J4" s="223" t="s">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="222"/>
-      <c r="B5" s="222"/>
-      <c r="C5" s="222"/>
-      <c r="D5" s="222"/>
-      <c r="E5" s="224"/>
-      <c r="F5" s="222"/>
-      <c r="G5" s="222"/>
-      <c r="H5" s="222"/>
-      <c r="I5" s="222"/>
-      <c r="J5" s="224"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="221" t="s">
-        <v>1140</v>
-      </c>
-      <c r="B6" s="219">
-        <v>3563</v>
-      </c>
-      <c r="C6" s="219">
-        <v>3583</v>
-      </c>
-      <c r="D6" s="219">
-        <v>3689</v>
-      </c>
-      <c r="E6" s="217">
-        <v>3712</v>
-      </c>
-      <c r="F6" s="219">
-        <v>3656</v>
-      </c>
-      <c r="G6" s="219">
-        <v>3751</v>
-      </c>
-      <c r="H6" s="219">
-        <v>3693</v>
-      </c>
-      <c r="I6" s="219">
-        <v>3676</v>
-      </c>
-      <c r="J6" s="217">
-        <v>3638</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="222"/>
-      <c r="B7" s="220"/>
-      <c r="C7" s="220"/>
-      <c r="D7" s="220"/>
-      <c r="E7" s="218"/>
-      <c r="F7" s="220"/>
-      <c r="G7" s="220"/>
-      <c r="H7" s="220"/>
-      <c r="I7" s="220"/>
-      <c r="J7" s="218"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="221" t="s">
-        <v>1141</v>
-      </c>
-      <c r="B8" s="219">
-        <v>2957</v>
-      </c>
-      <c r="C8" s="219">
-        <v>3253</v>
-      </c>
-      <c r="D8" s="219">
-        <v>3342</v>
-      </c>
-      <c r="E8" s="217">
-        <v>3325</v>
-      </c>
-      <c r="F8" s="219">
-        <v>3461</v>
-      </c>
-      <c r="G8" s="219">
-        <v>3392</v>
-      </c>
-      <c r="H8" s="219">
-        <v>3455</v>
-      </c>
-      <c r="I8" s="219">
-        <v>3369</v>
-      </c>
-      <c r="J8" s="217">
-        <v>3372</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="222"/>
-      <c r="B9" s="220"/>
-      <c r="C9" s="220"/>
-      <c r="D9" s="220"/>
-      <c r="E9" s="218"/>
-      <c r="F9" s="220"/>
-      <c r="G9" s="220"/>
-      <c r="H9" s="220"/>
-      <c r="I9" s="220"/>
-      <c r="J9" s="218"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="221" t="s">
-        <v>1142</v>
-      </c>
-      <c r="B10" s="219">
-        <v>2354</v>
-      </c>
-      <c r="C10" s="219">
-        <v>2997</v>
-      </c>
-      <c r="D10" s="219">
-        <v>3041</v>
-      </c>
-      <c r="E10" s="217">
-        <v>3085</v>
-      </c>
-      <c r="F10" s="219">
-        <v>3118</v>
-      </c>
-      <c r="G10" s="219">
-        <v>3100</